--- a/packages/storybook/stories/data/normal.xlsx
+++ b/packages/storybook/stories/data/normal.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="77">
   <si>
     <t>id</t>
   </si>
@@ -69,6 +69,9 @@
     <t>i65WKlGyMtBRKlSyqlZSKU4tAdF5ibmpSlZKzpklmQrOGanJ2Zl56Uo6SiWVBWBhD1dnb08/d6BIcn5OfhFQSDkpzcTY0Bgokleam5QKEgKyyzKLM5NygFpKikpTdZSK8ktLQAaB5bJTKyGM4vyiEv+iFJAeXcPa2lodsIsMTU3NLUzMLExMTQ3Noa5DUglzqgFQQywA</t>
   </si>
   <si>
+    <t>a372cda0d53a2f9b0f4c46d0cd3136748</t>
+  </si>
+  <si>
     <t>Citi Checking</t>
   </si>
   <si>
@@ -99,6 +102,9 @@
     <t>2345</t>
   </si>
   <si>
+    <t>a30cdcfe7d083e8e4470e63f61c782928</t>
+  </si>
+  <si>
     <t>TY7BCoJAEIZfJaaOG6S5ruwttEOnQLpFh9Q1lnS31jEQ2XdvtIJOM/P988N3HgFBbhg8QY6w6hRO01xbBRJSjXqROlVpBAY4PGaY77PDKd3lGbHSNtYRXNai3IaCiOnbQk0o5hGdL93poqEeul4xcLZHbW4UU3ZXw2fprMOjq6baOvDes1kq4FwkUZxEnAfiK/j3+bMNqXB5Aw==</t>
   </si>
   <si>
@@ -156,16 +162,13 @@
     <t>password</t>
   </si>
   <si>
-    <t>width</t>
-  </si>
-  <si>
-    <t>height</t>
-  </si>
-  <si>
-    <t>uri</t>
-  </si>
-  <si>
-    <t>favicon</t>
+    <t>favicon.width</t>
+  </si>
+  <si>
+    <t>favicon.height</t>
+  </si>
+  <si>
+    <t>favicon.uri</t>
   </si>
   <si>
     <t>RVTLkqM4EPyVCWJvdDRgHsa9J17GmJfBBgw7e8Agg9ogDAIDnuh/XzzTEatLZZayqg4q5T+/iJ74oN+Ilvj4RfyFQf+KKK0B8UEosIeXFN2IN2IElyVR9v39g6LGcXzPvu/es6amFkGa5x3AeBHxNP0jev9hpznEDfqJlBJmadG8/TCsHwItCMxPFBylpQQ1PXgVLPCaPmDWoNfsEeZ9SXywqzeiBLAo+z946OAizdM+/YB1WgDqjoq/LykGAvcGQ9n1R9rUi0ZajnMMSi0oFqS8qFQoUrwE+QlQR7+yFV1pXuhzUnaW7Qhn/gQl7gyiVWiGXWX4QTW1xoXrqvZBbzdzNdSGD/jiTq9LrwGG6czC2TYO8XgLW2r05VGaZZWOPPEmyd5oyVUYAvuCcsvO61tQB7HLPnUd94HYxpF90WyYLkG3YYjIO7OyYUbrBzRKocdrnnS8cb3LsqwsXvWJK61dJFYUjm8Tdh7qsPMyuDPL2ZAscJvANs78OGXr9hzSiKmxYFRyyNtc4qOEQV4hh27FnUghizP5pTPZ9GFNbmqeqsh3OKZslOnT7cgYM52rWmzeig+NbzqX98+8wK3KitoGV2rUQ+8Mbk/gxEClHTP2KuN6sYLDomFlIBQt6YaohNOhUoHT5AF9tdf+KpknVkWqwc1M1WlxPt80P4lcRfWXPjBMgicOk9DbWhVPUvzn0CGgFfs1bIpCglZx1nexKQ7xSh/S8VMu9COyajm1xr3UguduIzpuxpz3tVfLBy3dPfkhiEIQPIq2hQrcK6aY5BEcFSt68LrYS1EWB0VvHLW0NU8FLNp+yuhJk8NTIdSbg7B+YF5dg1FtpDY8Rsbo7BLkREcp2tl000/VFFt3EG247VQi9yCRPMzMcT5ECoPKT5r/DGpZ5DDfkmdbVDa3zdYLA1mVh8wYuWoqScmYQXunzWGbJPHciO04gyE7Z0zbzuhgCuYqskdHaefpM249HJOGhaWJU0nMlKYsnbbhdj96hufrewEIg32YVWcmWWYX2kam5udox9WYMvWdMtgOZxmF0RjHojRNxVAWboFwYgvch1G0CQuevKfA1iPcx9SV3ZBox3IkN+Tr4//7sGLXT7IuN7i3GF6cMrSHkX7ragc+10ihzUdXG2uXb+fIFl0J5/F8j+d9Eow4XhmJtrzdn32/rPar07RJnPOEy+j3r9Sq7el2HLxaUYivN6JBFUSL6fTdABY/gPny21cMzSzm0HTFQoyj8sLX6duH8LcRNSmG+D27dgD89qIrvFMFQGDJUveuySn61eb9Vbi4CAbdt7kt7J5iPDbdaxTx9fX1738=</t>
@@ -189,6 +192,9 @@
   </si>
   <si>
     <t>https://www.oasis.cfree.com/fip/genesis/prod/02101.ofx</t>
+  </si>
+  <si>
+    <t>data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAACAAAAAgCAYAAABzenr0AAACl0lEQVR4AcXBMWscRxiA4XeW2VKVrlIRUlxqIb4rlqv0F9ylumIRe5gp07hQoeIKNy6XMIPYwkVq/wRBwAyBD0WQ8kABQwLBlVVeMbndLMdmkUmUYO3zGGstU8qYWMbEMiaWMbGMiVn+p12Mic0GPnwAVQ5EQASk4tO333B8fGx4hLHW8l/sYkxsNvDuHQciHKhyIALekxeFYcRYa3mqXV0n1ms6IlBV5M4ZRnZ1nQgBVOl4T+6cYcBYa3mK3avLxOaKTlWRN41hoCxjOr+Ys1rODL3dq8vE5orO5RX5642hl/FUf/wGVQXekzeNYeD0NKYQlIfbLUP5643Be6gq+OVnhixPlDeNodU0fM7R2Zyx3DnDI4y1lrEYdykERZWOCDRNYeiVZUzsVZVQFLl5+/5jurneEgJ7ioggAiLgXGHYK8uY2GuawjBgGSnLmBaLwJAqezH98NOc1XJmQmBPEaHz5uUWVeUvgqqiCiJCK8ZdWiwCLWv5G8tAWcYUgtISEaqKTgigqtxc0xEBVTg6m9P67vs5D7ewDoAqVSWIwNHZnNWSAWHM0otxlxYLpeW94FxhnOPA+5icKwyPWC1nhj05jUmB84s5q+XM8C9k9FQVUBDBucIw4lxh+AIyeqp0KuFZZYyo8qwyeucXc1qqynPK6K2WMwNCqyxjYqQsY+ILsAx4D+s1hKBATFVFJwQIQRGJ6e6uMPyDNy+31HVMIcDdXWH4ms/KGHCuMN4LIgIoISghKKCICN4LLeVx3gstVWW9Vg5+paeMGWstY/f39+nH34+4ud7SOr+Ys1rODL237z+mh9stL158xcnJiWGkrmNiz7nC0KvrmI7O5qyWM8OAsdYypYyJZUwsY2IZE8uYWMbEMib2J2Tx9ZNXxshWAAAAAElFTkSuQmCC</t>
   </si>
   <si>
     <t>jVjXzqzYlX4V69fc0WNyOqO5oAqKUOQM47kg51BksPrdh/90225rZMklUez4sfJae//PX7+Wrx/QL1+frx9//fqPOVu+333UZV8/vp5lNGdfv3ztWXz39n3/c/I98udk6O7RKE2nbJ7vmUfUN3/S+uxPehtd0V96a62W7E+iDP8nROHIX/pnWSVRMfxyD/2JgAgS+kvvWMwN0Q9L9g1wN/Noq5Kh//76XqVL+fUDxpFfvsqsKsrl9846VffiNFqiH1UXFRk49sV/xTdFBPZL5T40c4fefDEw90+1nJJzirslff89gycjfr/9QU6R7wW8b748wbRjJIRS5HWGxuMR8nQVWg8p9l596Ept4Jl4krSt/r0BKUf3VUIeBytap26xhZe/rcex2Gd++7E7mAmPMkCWNn0+qtBLx7iGKpJcQbF6jCELVe7lqgoH7wbiDpFTEknn2lmDOwE6TsHVNmJNASJ7YFpfLgkPtynPFRkPz3GvENm9/6ZpCzqH+O7HngsFFlWJQkHca/aUn2mxeTUxIrXiq1Sd54ON0bvNOqtywrXCcofIBohcc5BqB4hi7YVSM4dSUfv3o1bQobIDrNbDqZ5MIT5/f2qs0AWpCevRMrng7/QkndnpljSkgrlrFbWlaIrKfXLJHX2GJ3VodoPLF3PKl3jK/r2/gq/Mw6HAL5Z7f/0HXC701Trp2puHdourxxnyARF40pb6Bi1W4j9kcPNpOxAtdiWUCgwhn/SanH/XRR0j0Jbxr12+uFV50kv8Uz7lEvP4pfUq5HTuP9F8Y66/y3QNEHqR0bJMntQh18yWwLf+eWe791wx6p4B4lqhF9S3LrHYO9bkGr91/2/S8hsdCQerWkOf0bdtdK/Z5Ok69eA27k3JvPX7zZ/cmbetDLtaF7tic6jKMuitJ0S79aexDKZAAfYtW4VtLoVTOdP6KZ9vuRD/Gm/kDMd8qhyHKNeDVaHgUBwHNuzX3VafhuM+NcfBjUaE1eofeJaHXyn/umXj/gGv/We8+t/D0xr1DL0XdNukEyP0fOvhbz5nRDx9j6tDjDKFASuI+CzVwFPHm48tQYrxN1v5m/zM9rYVJPRMPunoRRR+06vWtWuCmmXcqa3l3Hbz7UNPfIw8g1BYB/u2f/UydvUSv2V7KHaxa6yCqzUHG436UNibB5up/oF32wXqLuFts3/Aa37DC/4FnsprbINrNoN/y9nknEq+btqf9E+bNnn3ClBpTARzjBHs9vV9+/YjrZU4s/657o++/z3/x5jSxt03HWKlX+Q1kMd8Rx2ZblrOcE0MWc80c03bPSaGROeNP82SCx+vgWMYI44Hj98EPl01ONXTtWA/gcp/VvVZXZNBI2MUOuhM6BkCBbvDTb63xFFfO/2qCQkA2fXyUYnmtX/EwnH4RyEy3PNp4gh5+IJuQykTPGWqlakN0sCG13CZoHySILcMzCqSm6ud9R+7ZooPkWmMp/jgmKZiTEZimJ8vseCMZ8CKWFZdELvofr4IrpeBnRMFCkEwo6yvTxhEA9EcYvzFgY8oXm83TWErnVaiiowAJ+BNGCaZR2tMptO9duyKNxw7qiW3cldgRP3s5PxWbnx1E0VlFzQH/PjtGE+mUgzbYg79WlQE1KkjOXEaCPbPFgdrnIdKXlQufMHGFnnCAg++dULuthdWUzl40tP9xT0eVu7qIavT+11BkLyyrKfCHHJF5iBngyiXw6+Rx1+SIEJHuk3VOuLzPuKJbVSHpXJqAlWf1G06Rtz3UfcVNM2pl6JU7Inj50LAxB2s3vVJnB6HZgiyVEuOvJ+7XOVolK0TPaYBKVuiLiL4icUtfuu7I4LGNNHa5RaXyitEEWw5bchPP/PvBysNt3YW1CLJ7iNXsSYqmnEG8qWJNADJVe+hWQVn0ySuSwwc6fwhjo2EHugyVCve8ky/dUvsfKSJjENsmkvCAIFnMUzR+0LFc3cWtH9LiQs+ZGqKFGyBLjtX+6o+ozlnho/85qfbWS1IOyI3SZrY1zIgfa44m4WhOFXy+61arnqU6dzEdBimmOei6PaG3NSI7BGrKMjT1fe7mD/kJtEImTytNhvsrNtg1YSQ48zx12J2Szdn+JxamRXMNd1okguMJDRlfmvH6CrL76uGT+QDTrJAT/jq6k1difgmFrKLThYIx0DsaGh2c6i6qk4SA55FmPq27PU98oKZlPHQgatF0x6Q+q87/9mIB7RasOZ9rYlY3fEM/BC7ZRaUYoEl1EnJSrfC9+t2D4gG39CDi0vBexxcOaVoN2nvD0Y4S9yx1hPz+gvesezhX/5h9p1+bCiSXx15ffpsskjqWuVQfFMe5QjjSB65D5iNcakKxM5Bm6Tq4OfqSofYJUfYp/nI4RUk0dLTSJo/cRaUlFUm9KJ+Rqe804vhg7EgSU1EJRBC0UnggtiqHa8hTc6isjt/KnfwA/ZT/bEqMWwX+LR18F69UTvk6MtVcQ85DT5movvpdJ6eFwUuzOKvNVdjnLAV+myxlT3suUjEsQH7ExNzei9wtzss4sR0rQNViSCH6YFVAH4nYYLYvDqrsDv+vtI7Up2bT6HxNe6QN7YNYwgRCNpSQNB5fp3AoPjvTPh4z9dGg0vvgcC+oBEzn4VQURouyU+rwaAJ/awHNJyYKZDUZr16G0K20glOQeGJQXtt+gPwHyRB9RNSry0guuxRmg8SpJLo7dtud1Wy82EjXNJZ666r9NaojKrKmdymTSTmqTsrnU36JGezU3oqIJMpbKOYXwc8hca5tBcXmipiWfkPZFSEKhj+RSzeS6LC0qKSEKIp0Em9xHXND3HxhJWtKtdKsp4jtf5WpZS4DNJbDXyz+WtWZeYV7UxFyRzutulByc9q3hYGw2wg091+s59VG2tDsc/PIVO0Vx4v/iMGAsfraA01J7Va85FAAbHyXS3uXCAK+bvCb9yumimNCmvARlsXB9StXwBQ7mB+e1Op6Ut5O/jxe13jrERtuYjJs33bDOJ8Pk4KhxHUfVYzhy/74Vc8oEyrOLE5FB72h/hggWAGlXLoVI0Q2XvzoMJAeGA+oX2MKP9YKF9ujpm3yGn6lAj+GhNuwAejP4sltGcF15IrA5ckxoGOAMzBPTawCBzHuGN90Jqum8NofFBExRDYlFACmUYuJNSsxSuvfnBIN9V9GOkl1zmFh9roefOWPUMsV0y0PvLABekwocLaSX4a5Fn/2aSQM7FOkAE04bZrgCR65CQRlvkYcR5Ah7PYqyrujFlKZFrLiVcRAEo/khyCyWF+0EmX7bTPySaOlchDfPZ3YfDUWrN9bwcEbEfLVfWFKKmp5wnoYhZr4ffhxFLF3ogswTYK5u95U+KY/58370nOelrM43vSYiSu4IqnyfycNBix4RrmZ8rtGOtxn4i4gvk5+Rvg/g65mXwJq1CJrrPU7n7CnFV0Q5HCT0kRNnI3SiIfKudU3dvD927I5Qo+4Bwth4J5m6q6byPFvCVbRBBh0z+rPSgP52yS+i2q0qrDMW/UgmHlZNiJXLbHL1mkYYwmBGdXKNQGkerz0ahPeJcKvq/ITW8l0eutmkec6KumqC9Tn0Fldea9Mc+IconIuwurKx23AaqBPhYeW+kz3r6rrnbE3TXASJOKTZwDDIcPqcEmehwbTKY4DzpqLukaJLjsH+gTMm0lxZ9bvl1Tu2fWLeMosB0H4vX76GaGm5a9RuPgrcDVWTclNM3u3/tWTWG6+FKNfNjYKsfJGiuGtxDXJD7pq9hrVJFslcnDAJRt9xnmmfXmoraVz7QPGUBOK0SagQ7EIWeaP/mLVKkQvetCgu4F7+jEGWoCMLWiV7Q2+tE6d2zrTHUmpy1Qe4ShMs3YjxVC7PVDczAt9BbVmRaawVkUVq4Fqj6E8HlvimQ1QbmNhI2Jo/ngeTDVMqAvzYozvRhPMS8SQi+VwmiuzjDVXNqpN9+tPp73aazXahycmDCtl6EI0kVPCP3ElUgFaprTdVi8j9xgPzpIrjKECvhHUWNhySXrml8HcYJXMMeX2imRmVhCJgDmSN787iKc7Uk5BHob+KxDUgOqrKygLeIBGxXTndpmPFZ4c1D6fIZ6urR98yiXGe4huxqT9pxTypgcRrm2EtxkC5XN0MHexiMbA4+8UyaScVs839WXxJVwFbzjYc/BVlijRkdN/bngidGealkI+JzNddY/je1jM++HtEysK8t6e8bKlqBDfkjr+jh5cXN6vq9Z4tAco0E/ltyMcgc60wBKp19vPQO0FJv6AQGotW2zSMWyH1yi3OSdWZ915ygwl6EWoIMmpKFcrwskaTPZF6BBcKEegg7dPkZUZG/euKQjn35Jb5WRoW9rPoBAUSs0nen94IKwQvojL4HZ2lHU3UvA8kNcmFv6LtQ2+4VdGi76lqOxWTabAfJWWDpp60e7tadWk7lbdMnDxFxN4g9AxhuXWLlNC2oKVlwZDjz8E4y1ZQ9+oDgqY3SPTRanfOFY9kVJ2MzN18tcS3RKVtdcx6WlSrpBYUybAvfIuW2zmrKnRFxqj8hzKqM1yAR/dxF6Ld5ApgkaNDrZUqHHz64Ykj23Wk9jNF5PJKfljUvyYD1LQXLhPScB77Yzuj+qGWtPu34HAG0psWDCkdPnLIdzjNBqESbLA6j3l+/BjWRVlKST6EpXJA4/ljHxw+qoobKuemPIOmM1aP71PPPxFb6b0EVibMmec0MiRgf2h/CZWTHt05yglXMnrfWuVN2TXDRihJxbdSEWgAL3ioPekTvLEol228nbl/WGPFVW0lRgDgoTkeJvv+tMtsJCLW26CsA0tM6J0WByso2XMKWY0geo6QyugBY08NaZh0r7Q7WLmnzbBqRTjUy37IqFeu90R5bx/Paps1XCpSoV9MfDX8ZUTPFhV/y6KeesAW3CJNT8wg4YrhwsMwX9EntgNOc+ot6uPJ7A4XaQw8953Y+XE++2etEH2H1mwpxyaPOjlalgCwxpniXhcOnn8w2HT/stKcjsOtY5dcfUJmhFp927qVrQJzvR+wRnyGGf8+FUbLLfX3035qehELshPVA2lN31dkgEU54c6yySrIe2hqZsG6r1cjLb1AFi4XIUC4uiiPd6YxTVuAwFueMbuX0qExxdQ3md1fpKluPmV6Am44IGmYPzvJSVj6SRqm6bYYcudgHavVR4n9B6Y2ZAeSjvfCYofg+DLkG2mVnVqpLhx7NVH+t7nDp3lwIARWQsW1GcYRzLqAjogxHp0MmR6JkeidMedoFPoZiL7FsMfLUvgxw/gzSjR9GyRn6hDrc2GdKCnGRF4JbGxsUzWf0+l6W9J86WrDyEbXuX1RO9AsSxHA9IRJcwhRdM4/ya+3WMNEaJ1k0Ft4BZxtkz4TxgYax/lad/y//0ywZEimEiIaNcFdj3Evp59Wg5rma+8Wcgiv/99esvX0PfVn329WOZ1uyXr7xKv358wRBFU1/33FR839rC3838uJvlsozzDxC8e/90xbvO2fT7XfDdG6N53ofpG+nr119//d//Aw==</t>
@@ -215,9 +221,15 @@
     <t>https://ofx.chase.com</t>
   </si>
   <si>
+    <t>data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAJgAAACYCAIAAACXoLd2AAAAGXRFWHRTb2Z0d2FyZQBBZG9iZSBJbWFnZVJlYWR5ccllPAAAA2hpVFh0WE1MOmNvbS5hZG9iZS54bXAAAAAAADw/eHBhY2tldCBiZWdpbj0i77u/IiBpZD0iVzVNME1wQ2VoaUh6cmVTek5UY3prYzlkIj8+IDx4OnhtcG1ldGEgeG1sbnM6eD0iYWRvYmU6bnM6bWV0YS8iIHg6eG1wdGs9IkFkb2JlIFhNUCBDb3JlIDUuMy1jMDExIDY2LjE0NTY2MSwgMjAxMi8wMi8wNi0xNDo1NjoyNyAgICAgICAgIj4gPHJkZjpSREYgeG1sbnM6cmRmPSJodHRwOi8vd3d3LnczLm9yZy8xOTk5LzAyLzIyLXJkZi1zeW50YXgtbnMjIj4gPHJkZjpEZXNjcmlwdGlvbiByZGY6YWJvdXQ9IiIgeG1sbnM6eG1wTU09Imh0dHA6Ly9ucy5hZG9iZS5jb20veGFwLzEuMC9tbS8iIHhtbG5zOnN0UmVmPSJodHRwOi8vbnMuYWRvYmUuY29tL3hhcC8xLjAvc1R5cGUvUmVzb3VyY2VSZWYjIiB4bWxuczp4bXA9Imh0dHA6Ly9ucy5hZG9iZS5jb20veGFwLzEuMC8iIHhtcE1NOk9yaWdpbmFsRG9jdW1lbnRJRD0ieG1wLmRpZDowNjgwMTE3NDA3MjA2ODExODA4M0Y4OTk5MDkzMENERSIgeG1wTU06RG9jdW1lbnRJRD0ieG1wLmRpZDpEQURCNEE2MzBDN0YxMUU1QTFDN0NCQUVCOUU5QkI1NiIgeG1wTU06SW5zdGFuY2VJRD0ieG1wLmlpZDpEQURCNEE2MjBDN0YxMUU1QTFDN0NCQUVCOUU5QkI1NiIgeG1wOkNyZWF0b3JUb29sPSJBZG9iZSBQaG90b3Nob3AgQ1M2IChNYWNpbnRvc2gpIj4gPHhtcE1NOkRlcml2ZWRGcm9tIHN0UmVmOmluc3RhbmNlSUQ9InhtcC5paWQ6MDU4MDExNzQwNzIwNjgxMTgwODM5NjE1QkNBMDYxMTAiIHN0UmVmOmRvY3VtZW50SUQ9InhtcC5kaWQ6MDY4MDExNzQwNzIwNjgxMTgwODNGODk5OTA5MzBDREUiLz4gPC9yZGY6RGVzY3JpcHRpb24+IDwvcmRmOlJERj4gPC94OnhtcG1ldGE+IDw/eHBhY2tldCBlbmQ9InIiPz7zo7xsAAAL9klEQVR42uydeVRTVxrA73svGyRhEZBFoEAAQbboWGvHGduO1dPdugDqYNGquNCizrQ92paZU3s6Pe20YwUErXWtbanjUnuOHc+0TjtqN6kFwqIgUUGBgIAECCR527xXHPT0dAYCL8lL8v0O/kGO5L68X767ve/ei7EsiwDXBwORIBIAkQCIBEAkiARAJAAiARAJIgEQCYDI4eiz0DtPXftHVWe/mUaYM66ApLPuC1/3YIRob5FE/Babu8xLd1Sdru6iaQY561vHorLG3j4L9dwjUTiGQUTajJViVu+p3XeyEXlLkXNvIIMwHOU/qXlpbrRMgovtRonugi60mNp7rEO//nCl5/j5G0hGIMz5t4pl2C1HG/KP6LmvF4j8f/y9rG3jwbouEzn0SmPnwM22fiSSCMAxLi7f/ET/3Ef1FpG5FJHI0xdvriup5swp5cTQixSNENc0iqdVkmAIwwpPXM3df8FMMiDy55yt6168vbKjy6yWE3e22titf2KCwLif3aeur9pdY7LSIPI25y4bl5boWm6YkRR3jVEtV8fi2MHTLdk7qnsGKBDJo7vet3S77mqLibOIMOQyYLzOI9+0LinW3ei1errIutb+xdsq6xv70B3toiu5lGAnvmtbUqJr7bZ4rsh6Q/+CgoraKz3IywUt3nKJcV/BL8raM4t0zTfNnijyasfAoqLKGr3RhS0OxaVcckbXOe+dCu5DeZZIriLKKNSVNxhdskb9ZZd4WV33vK0VdQaTp4i80WPNKKgsq7vJ927cCSleoTemv1NR02xyf5FtRmtmse5sdSeSYsj9kOJV+p70reXlTb3uLLKzj1y2q/rLH9r5uVPkjiI5vIgLV3rS/1b+bUO3e4rsNVNP76o5ea4NKSTuKpGHRchbom/uS99W+dXFLncT2W+lOYufnjOI4jmGA1BImtsHMgt1J3Ud7iPSZKFX7609/K0BEbhHWBxEhrd3mrOKq46UtbmDSC4Wnz1w4eBXzXxRnmPxv32fzm7zqnerS78zuLZIK8W8UHpp7xfX+RkQzNM0DsYlcdNoXfNu9Z4zLa4qkqLZzYcatn92dfC5D/JMuL6PgjCayLw9tQX/bHJJka8c0289cYV/4uOxFodcygiTmXrhw/q/nrjqSiIZlt1yTP/a8cv8w0UPtziEBLdYqRcPXdryyWWaYV1D5FufNb56TM9yl4uDxTsgcIpk/ny4If9wg5VmxS6y4POm/NJ67orB4i+5xLj66vWjei40SUFdCizyvX83bzpw0WplkAQHa//TJY69ffzy+oMXKeHqWCFv9/tnW/+wt3aAsygHi8O5JLCSk40r3qux0oy4RH78vSFnT02vhUYyHMG6oOFvPB+XB768nr2jul+IVDxhRB7/8caKXTVmziLUqDa5JPDSMy1PlQiQiifAfT9R2bG8RGcykdC7sRmMn8Y7crZlabGuo5d0pshTtV0ri6tuGq0Qi6NHQXz6tWFJ8ZhS8cZ098/UdWcVVRq6zG6SeuNElJLPf2jPKNJd6zQ7WuQ5vTGzsNLAFawAi8LE5Vldx8LCisvtA44T+ePVnvTCilbOogwsCoeMOFfbtXBb+YUWm9O3RrNiufp63+IiXVObmV+aZGcomkVmis8O8Zj+T3lV5+Nvnt+/Lm1GvK8dRXJfloXbKuubeh3TLgb7ylKTA2UqqUd1Za0mquRf1zTBXiG+MruIrDf0ZxTq6q4YHRYiMxP8j26eKvW0gQ2G+sy0wpa8Xxt8XLkxsGS7rrqh25FpcEo5oQnygtZTsM5Ocze/tcb5+m6+RoVxv/gYUUQajJYlRVVf13bx86iA64rc8H7daV0HjDSGMFnoU7VdPX12nJVUyHBNkPfkKLWQIhu4ISqLoEYdor3HumJXdYfenqvJZER4mHL+3cEvzo0J9pEJI1LGb2UB+m5D4FigWtbhJ7djLcWi6+39Bcf017osB9cmew9XELR54h2BICnBDRCOlRlKvx0+vxlEijz2MdRPfc/V4SDS5WHRSNInQaSHTQgAIBIAkQCIBJEAiARAJAAiARAJIgEQCYBIAESCSABEAiASAJEgEgCRAIgEQCQAIkEkACIBEAmASBAJgEgARAIgEkQCIBJwKZEs7FHuHiIVUtjVwy1ESgmogd1CJMHv7wQh6foiUyNViEBwmofLi1x1f3hogAKRNNwvp8AKJTI22HvPquToMBUykcjKINJuP1bGQjHQSf7ZmIEewbFLI91496HUwM83T/2iqqO8qZei7XXMLknScaFKNRxbcPuOMNFRPs/MuUswkRya8V6aWREUzdpvo0j+nbHBvhXAWwwNVOxbmzo12kdIkbf+AE5odQDcPbbQAeMUB9akzJzoJ1hnB3C0RTMd5CvfvzrlweSAkQaYTUU0GPpbjRZvOeFpQxGSYVPDVd6OOTnKwvirZdtXJj2qDbShprSpiAGS2VR6qdFgwj3MJTNAfZY/LTVCZfeSKEallLydnZA+Ldi2Js+m/50UrsqfF7N8Z3VzY69nHWxmIs0kY/dSaFaukPxlUfzymRNs7rvYNn2A8eOQwxu02Tuq9E19HnS8mRS3e1eaZiVS/NX02GfnRI7ir0fT2ZkR53foWW18lA/XJsMUrFAWMRz703zN849Eje4NRtlrnRKlPpyXNjnOj5/rAZdjtogYdtPc6Py5MaN+j9EPP1IiVB/npU2fNA6N+Xxgj4ZhEcuufzx6y/zYsbzNmMaRcSHeH+Rp750UwI1ewchoYPlYXDU78o3MuDHOtIx1QiAmyOvQBu1vU39yCZPdtlnkBhts1n0Tipclysd8QrUAMzvh/vLS3LRZU4KQBepYW7DSC2eEvbsiSSJEh1iYKbowf/lHuakP3RPCt5cQlyNhgH5sesjenCQvqTAKBJtrDVLLPlybMvc3ofxJuuByGIvUnGnjD6xOUQk3qSLkpLm/Uro/JyXjvnA+l8DdXY6+NjTTD2iDDq5J8VcKeSquwE8/fL0l+9YkZ90fPjg2cleLXH0oHV0n00xPTxp3IDclyEcm7CXh9viQe3KSsx+YMNi3ds9wxEYZi2nxfh+sSw33Vwh+SXZ5Hsl9W3evTF4zO5IXSUODeesRY2KMD9cljBlvlyOj7fVgmcBR4VOJGx+L5kV6uEvOYj81MVL1YW5qYpjSToXYMUNAQmBvLIrftEDDF8J4sEszFRuh3rcuVRuptl8h9k314OrYVxfEvvSkhn8I5JlxaWUiQlQ7c5Kma3ztWo7dc3YkP7l8ZWGsVIZ7nEuSCQpQFC2f9LvEcfYuyhHJV1wf7+W5Ma9nxis4lyTjKY+9SMbHR1aUnfDE5EAHlOa4LLo/PnzXW1kJSi8JP73u9i751BtpcXZixj0hjinQoemQuQ9GFCyfpFZKkZV2b4teCsk72Qm/nxHqsDIdndf69Myw7SuTfNVy7tO6p0U+9YZ4Y/HEFbYnULmSSI6lvw7dnZPk7yNDJON+sYgR2Jb02GfmRDi4ZOdkmi+4O3jf6pQAf7lbtZd8AhX+8ryYzY9HO/4zOW3JwBNTgj7KTQ0P8kL9lDu4ZPnUmxeeGGvqjeuJ5JidHPBBXtpdId5owMXjkhsek/T6R6Nfz4x11iU4eRHPzIn+pRsna8KVLpy+xVm0UGsfjnpzUbwTNz9x/mqs6Rrf0vXauAi1S/Z9GD71ZtnsyK1ZCTKJM2sVUSyrmxrlc3i9dmKkil/X7mIWqYyZE4qyBUiDcweRHKkRqk82Tk7W/LQMwVWw0I/dG7pjeaJSBOuZRLTQNSFUeTRP+6tEf34ZgggbwjvAMNQzQM2YNn7vqiR/pVQMFyiuFctxId5H8rQz0oLE1ffhLMqJO7NPTRZm3tTg/TnJgWqZSK4RY8W3GUqr0bKooPJ0TReSiuN7ZqWTNX4nn58ywV8++MIASTMMUopphagY9xAI9ZUf2aCdxcUlxTg5rZIfIDKIYXNnhYf5yYde9pISSpGt8xVjRA7S0Ucu21l94ptWRDP22tdnWIsSLMBHvvKhiC3zY2USUW+cIV6RHF195GufXjb2kQh3jki1l+RhbeCcEW+tASIBEAmASBAJgEgARAIgEkQCIBIAkQCI9FT+I8AAaHe8VN+wwh0AAAAASUVORK5CYII=</t>
+  </si>
+  <si>
     <t>group</t>
   </si>
   <si>
+    <t>favicon</t>
+  </si>
+  <si>
     <t>amount</t>
   </si>
   <si>
@@ -249,12 +261,6 @@
   </si>
   <si>
     <t>balance</t>
-  </si>
-  <si>
-    <t>a74780f9d696f3646f3177b83093c0667</t>
-  </si>
-  <si>
-    <t>a13cb3bf09d932e0b00d4eedee1b22e85</t>
   </si>
 </sst>
 </file>
@@ -634,16 +640,12 @@
   <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D4"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="4" max="4" width="33.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -681,7 +683,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -692,142 +694,142 @@
         <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>73</v>
+        <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I2" t="b">
         <v>1</v>
       </c>
       <c r="J2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>73</v>
+        <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I3" t="b">
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>74</v>
+        <v>25</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>73</v>
+        <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I4" t="b">
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L4">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I5" t="b">
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L5">
         <v>-1</v>
@@ -836,25 +838,22 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:L1 A5:L5 B4:C4 A2:C3 E2:L3 E4:L4" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:L3 A5:L5 B4:C4 E4:L4" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q3"/>
+  <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="33.75" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -868,131 +867,146 @@
         <v>4</v>
       </c>
       <c r="E1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="M1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="N1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="O1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="P1" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>73</v>
+        <v>14</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H2" t="b">
         <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M2" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="N2">
+        <v>32</v>
+      </c>
+      <c r="O2">
+        <v>32</v>
+      </c>
+      <c r="P2" t="s">
+        <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H3" t="b">
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M3" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="N3">
+        <v>152</v>
+      </c>
+      <c r="O3">
+        <v>152</v>
+      </c>
+      <c r="P3" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:Q1 A3:Q3 B2:Q2" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:P3" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -1003,9 +1017,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1019,31 +1033,31 @@
         <v>4</v>
       </c>
       <c r="E1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G1" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="H1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="J1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="K1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="L1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="M1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1060,9 +1074,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1093,9 +1107,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1109,7 +1123,7 @@
         <v>4</v>
       </c>
       <c r="E1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -1126,14 +1140,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>10</v>
       </c>
       <c r="B1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -1150,9 +1164,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1163,16 +1177,16 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="F1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="G1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="H1" t="s">
         <v>6</v>
@@ -1181,13 +1195,13 @@
         <v>4</v>
       </c>
       <c r="J1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="K1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="L1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/packages/storybook/stories/data/normal.xlsx
+++ b/packages/storybook/stories/data/normal.xlsx
@@ -381,7 +381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -421,6 +421,9 @@
         <v>key</v>
       </c>
       <c r="L1" t="str">
+        <v>icon</v>
+      </c>
+      <c r="M1" t="str">
         <v>sortOrder</v>
       </c>
     </row>
@@ -458,7 +461,10 @@
       <c r="K2" t="str">
         <v/>
       </c>
-      <c r="L2">
+      <c r="L2" t="str">
+        <v/>
+      </c>
+      <c r="M2">
         <v>0</v>
       </c>
     </row>
@@ -496,7 +502,10 @@
       <c r="K3" t="str">
         <v/>
       </c>
-      <c r="L3">
+      <c r="L3" t="str">
+        <v/>
+      </c>
+      <c r="M3">
         <v>1</v>
       </c>
     </row>
@@ -534,7 +543,10 @@
       <c r="K4" t="str">
         <v/>
       </c>
-      <c r="L4">
+      <c r="L4" t="str">
+        <v/>
+      </c>
+      <c r="M4">
         <v>2</v>
       </c>
     </row>
@@ -546,7 +558,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="str">
-        <v>i65WKlGyMtBRKlSyqlZSKU4tAdF5ibmpSlZKzhmJxakKzkWpKZklSjpKJZUFYNEgVxfPEGfHIBegWHJ+Tn4RUFA5zTzZ2MgcKJJXmpuUChIyt7A0NTIGipRlFmcm5QC1lhSVpuooFeWXlmTmpQNVAOWyUyshjOL8ohL/ohSQTl3D2traWAA=</v>
+        <v>jJtXj8Nalp3/inHHb2yDOfXADyTFnMQc/MQo5pwH/d+Ht2e6YRsD2PVQYh1S0uE5e6/1LaH0v/7tj+2Pv0J/+WP+46//9sd/X4vtz8ch6Ys//voHVyVr8d+4pcjr7Y+//LHd099Hbf4juxxjf96xbOzG5R38l5LMUIR8R4a9T4s/h0iKxhH0HTnqtU6796nbshd/+WMZ960efu8V77m2uP/jYB2XzVzyP5/5P+C//e1vf/n7xGAcp0gUIQgUg/H/nOR/TO4fk/0jWfPyj7/9cyb/HP+XosQSFPvz1H9M/J9nOInnVNkQ/zz1j9n+8+Sfg3U2Dv/bUJ5syV/rPvkV4DT8/vWs8636nyjyr1VR/6rtz6P0XScC+0vts6Z9Qqr4G5n3x3C8ivd+7xH355/Mj2Oi94F9imGB3gNBbjve8m2MSVG2DB6vsgeGKsAHlMhsS6Giu6dxDLTlDj6/kPV1XoDks7X57WnA3omfzB6UbuH1EIylPpSyNJvUWh74WB+yL3ViedZBPbb5UY6kcvB1WXZF+DHyui/r1IS3kTniEw/63Yc6BCUZJ3iRKF2cG7JrNQbu2AmKNUceak3bHSnWHnmaL0Ye9aXAM3+Nq2tfgdww4aty8yd32eerMfetOUsyS7vVVMx203d2AR/xCuDoo0Vi4p6aXlOt4T+++fFkM9ZCDUWJZvb6hOltyGrLzactc+aEUE+VnjwIZM6IyjGHgKtdcJuWBvw6EUjquVitfD7EUJ3wlEvAl1iaMPFbIsH/mI/l+7lyawd/C3xvtHVOA8s8mLKqQMBdNs/zSNdTgewQrY4ckmRSaSXaPpY5UaN+rV6bbx5tfVVmXXTNlPYjWRK3tSv3BBr3eVRcEUCPAB2bysbj2xJneSLnSC6zzdmVdpRt1rV5HzyI1/eqGO5gbfihN/Hk5JeZiJNsDba77xQPKgFoStuu7x/5N1tjS3Af8bwoWZVVMRC+LqJ/0+ITrBpkVcu+T4VoPpl1IJAfhWvyAMW5QoZnGM8jxOr3a/G1L31RIe50fPdXo1k9fQ3zHbbgUb0g4mc3Dxq7WtyE9qE3YeYEC8Em0a73zwKgDfr9fnmU4ohtQg8LEwh1HuMOZuxDQH2jz7vJF+9fioItnS1gadPOqsRUswXQ0LbXrcdYauOj4+qlntWaM+840BAj4pkpXu6KNtQ5cN+MX6yB/0jkLDpOHH8Wp1OZYt5GPhVYNIRM/gOeKjN/p6fSW7LZxUt5eOMpqtmO+37ZDy4STHl4xgd2+e53ulvjuQG5FyAumTz/c7FCl2prBLJ752W7uPNtxehwuY+mXjos5ifWl/nOyxR+TIRHcd0fRvq+poK0hDtJkTCzwT/xpHVmZuqw7mSJpDrML2MTonWV6TjlTJw/P7pUuCVVlFjsFI08KQeWFAgyGox6LtsnCl49IJVm+UoLc4vKU95wr1Nv0e+a0udc4tfEO7Bd6tx8OFP9tRzZz8HOkSuTigAXTDP9N/Lg12Uc9HJENS6iMxxglDr4Idwk1YMVz1EcleJSvIqHRplIkx1qB6H8vf5F8+88awNEs1QGQkOf4JqbUIw8cw57uxh9W8frC5+fuFKOF/1dv3x3o0N+Ygfe7qfLQYQWRMSpG1NYgQdIOEprD2N0KWLo1u9HIrXug4DPAhmTpfaYXAtQ6QzmwnNj9s3z+Zjmm7Vswk2ehdjmW7Hx1wnWvfDTr9YdCiwOGZJjpIKU0EckmzjYDNL87bZnY8WXUoAHBDiWjk+yMnkpLadRPMZN3w627OlSSqJTEYI4EBRpc9l3f+bQ+XQh/a34QxrmfCgA8DQDy5s08RXvsymC/Kudsz05cW7l7Cp7kzP1c9oET3lp15b5Jb73fkPLnjGok6E/F8TmX6rkZlEQengu5iAbuXvR4vQjundxXfSZCwovxXTSLXu6NYJnClFEmNJaxOihLun8Iek1j2EUW7wgQkZ1WWzRsfRZVHeabuNl83MH990R+q57iYUblps6Z7eFmQ12w0q+dikmqgD5CdGkuR5B1NXwvo/4HH+iRg5fXbIx2/rh7ZZ/y9D/+mI8cu98hhl0NMfFA0Z850sKTN/SQ0c2AhrefH333rkSKknCH7+C7LZlZz6Jm9gayoOpcA920jkSIxxTsnrtYL9BGduaUF1jujX7ZrDFFRbbKVTyc0cWnPhJyPmitdvms1AsZb8qlrY45Cd/dz6+E9zW2a2e4/74v72dhBCEov5rb/8/AOS/8vgMwzCc/v/1bBiC/mHaBPz/NG0Ae38pA8fIfzq46E648aeJvzfzd9MezJtOcnZHfK+g5wt+hn5IyapBL9ITO1azWvkjtNHNNz85ahjROu1oqiwrbzVVGWKOrdRhFlyqAhyphZa64sfZun2zc3asXmXzd/P6Uv3clmflQEh4RT5FWG18NM0PFKAB6NnzlS7VBkXEI6NwAEW/QJKSZVqWE0KW36OgAOCm6eVBVjoveiJ11fAe57Ee1bF3stpiWoW/NHnF7lu+NLFttesp0HjNyQaNEJwqSlDEtXtgLdnh7fcWuB/bM+OrUWzw6uPY9mpDTSCs2N7K1kzL8HF4z+zkC4HO/FRLdayZqQ1e9EOxmMFaYGXuZATmMCqZE0hRwUffuvtIiMbQ6NjAr9WTCZmaEndFXn9xgq+HJrO6n2J2wt++7duCL5SBm1Em+X2Gb9Sb49fbbO38eLVXjFotLgBweXttyrzyvgnvrJUw7pX2IIwazXK+IjAHWTg8pAGmpfGh6EZMwIePY35qDewyTH07JvqMnUtb4cWt19ERkQ6zZj8/fCLVGm9iHjmI/8z1ZF7fOK7B2DOktZe7NSQLv2dP3pbrSOCxfgbTbW1hzDcAxmRWFLCjBS9F7NOZqFo2auwKMc8R+ToXl3QvIZcqMZhApOZsPPfE1PoTp1+SbT+fiZc0oxZcEjUv7uWk9Bmffd2p6t0lzmq1xjuZdzsfumwlPkopf/hAPezdSEuvdAl9zvnY2JXHqv0XUwC9Y7dYYH1on2MEng5To3EzMef6EzZVJTVw3zf0HOJonzxt18emCJT5PKuSyP+5RQqj6twEbJNmE0zNQPzpkw0t5deBzVkMZLQOZ52axt4NLydEePe3WwO2nloGW4ncpwE/T+zBLhatv3VAQlq2KfODgUI6UH9zb7/Pi22RMOekltmL57SDWKdwnDh2nz4JzX/vb6x+1iVSloj0kNbXCUS31T4R4+Dn/ZqJ9pFhDKcPYxmW7O5R1gze+lGkyY9/0zlcUf9s+vRoIzN1ntOXKtplZfLRf/XsDaWSvTWljgWlYOrYhXOAkTmF5YGzQP20E1VoF5ub6NAPS0FG3F5G77DSP9l+DTZddf2tqGGVqb5yvF2/seK49tUCneONqMrbc93DK8oUma8t+wFS0iDI7TI+zVEM9c+9EQAfXwRDYBIllx3AeZ6GwGPqMp0qNTSXdn36suSWcrH+4DqvSReVwX1yFgNdGCrbOm0feNrwi0nr2bULo2hQCcHj89Kti2J60JBSjYSqPXvTpx3XBR581LsOgerXY6D8GbGIacuAevUl05lbZjJVlpznyWU8Jbgh5hLlzue+j2IUoLO130RvebtO9m15l8zc/YV1F8N3MQ5NhvHNHy+dRPXmmZ8nRtNRRIb5fR+CWgrPrL3vZyudHMP7ZziTUZTPt66tHXZ99AdlmaXNXx8nQNWLmAATzU+mqVCykrOfkau+bXsIVNS1l3O584e7snhWxyi4Y2NldfZE3ZyFfKvcz+XcMmAipfqwexHy5b5T96zoJzbFei6C7rgPt7mwjxRvgAoI/3sT97lLN5iKtn4pCXKzUwIc2idNkvpQo5T1UAB+wiH38SLh5jzR9k0TJNdrz3nxQutNd/ABS4zhr76jzPNXNej5RSk6F0M5bx1udjrGj71kp14wNU/zaLIit0UU4wQrqOI1SBwPRKjpsc9kyw2gBrHUo6k4aZM6Wu0bcOJATsVsYuCC7z5qSE2cZ0RGvcXm8upHh+9iE5p8wLQB8qXHbhX05PmppF14go8rMtqzHhxM5JaAK/8up2m0greFwJZi0JMb/qvyUQanrnEQPpUfcuNKXQZ3/OG7rdoBCKszzId3hI+kCBAevebAP3IqPzuc71Hp/9hshn/ukhyP69Wpsh7hiZ+ehtNRcvy22BMiUZ0b4C3yEJc7fieaPIQh6xZ8vw3bRa1YHgqnvNQ272Fo1ckcAbx+8e92EuNe1UvtrCoj4Q7/dE50jqINc9N9+1pgplpT+Xjif+DwV9WXzEHGRkGQ6PHpeIVF7ATyYi1ivop938PXTAFpNqomHtmZZ6uTyukBC5B5bgZOq01bjUueO8nPh30xkjbyyelYyurrSrU/nJ2OBGST9rOJj16Ghbml6JHCJPjMNH67Xn73Mjwlz5N9p3PHQN5atCgKYBt/54xYVctcVE//wF1TeXj/LABGA2cJfsXheGNYDa337GC6Fbe6dSuOpbQ6zOH6/RaqMUYF591quLdQvfCyalUgbEcFbdsbcy+9x6m3em21X0kI4WCkQ3Hzt+nfVAJJxz6fw4LnCtr/xjCK21FrVxsd9xOfXeGEyXGiF/jHGoSiIoR5f5+amP0UJjTZiwN6cm088GjptqMdCFFBcOvTQRRKmTMMMAFiolo7Sxh63SBJVrCJIwz5/maqOKlJXnCzoKMsdtMCoy4d54Hc9GqLeuVTtjjT0UV3lIF+/jGu6hbCDrWmGV/XOfVTjuMcpz3ZYMCWW3Sj+QY23f92FMpQC/02cBI8/f55G/CDg57n8o/+AFSvC4zD1/Oi1GXhK4FY51M87e1Ntg11tD4z77AgRV7ScHGQNNb6W3XSNqvug5smQD8ZhxjF2yExlvsuDj6Qrd9TVP3kuY7GjYJzoGeoT3V1jl/JjzKhVVCbafJawd6w4qIe9fJtM+0B1mVTtlBTKJV0URBSt8uzbT1+CDJJMKZORnVPV9UXf2D4tcudyLvOIeS5Ymzbvq5LiA3P9j5+tijJyQVlHdV4eG9eFcvLXIVJB1zP8S5Y+Y3XekpjTF9K5Pt4Y5U/x2o2sfZtDJYyPoneEYVUOUup/wBEYx168m1QMEa/3qXcZE7tZxr4STwMuxLgd+LnlAThLXaTRDCW1AwdgWf5wsq++NrmPrXTaSd2ePN5E1GVGetaeoDVB4sl/56pPjfWxfOj1xAKrQNU/7ySz3yDiHq82SPQmXjEUEo5+QyIyNQPOFlpXo1phLTvzuUwYU4mLuW3iU0XXZ9IEe9RJBgj8oGwpclrHQWgg5xfUJiSRZY9Vp9/LMs5ttZT5lpLX5vk42vct9W6nfzTBF6s5Qd4ZI+9u5hTqTj5/ZzgsONGdO629KX1bqQWAj3K3chhDAy55JOLVrBpBpnh2I7h9SYuxr17cV0LQOEm1Kvq7gNdOQDAegkWEAgw78xEq+6t5Wujsalbk81MRjAxDja6TfIJRY0K66VkiG19q98i28J2xXMZo5QhhxIZ4+V8mMkqzqSjmh3jRu8nt+oZV3b+6edGOG4ShotJZ+Y0ATRcFCDPD1PICwXNNFDTakeO7D5OEtrcKlUEf7yuIN3aspcgMJ2pGUhKXDZv9vAxgXQeQFZRmgjh6/N462kY3SSVQVFnKzvHt58vHDkgPb4OXfJJxNu48C05t40au0ijxZ8j91qHhA4bGqFc4/yodraSUzYk19dikSfi76OLuyajygsjxHAMzhRsXshl/doxLg01L30r3HJJxfxiUWM/NrB8AZUvc74II7YkxPXf3cKDWcH51vteeOWE80/Ds5/KqKFbwnPitPSl26zLRkSSUsuqLuMx5UJErQfgJyFcvppv5cla8W+psN14EULkQ/w8+6OemXgWqn3sLaIYqas+2/OHQj1BV7e9sjsCGndHyWAtK3tCV+Odxrvj9KOvLhC7uu5vWQmOEAqL5indqzLxnyq2flou7vlWgz1pndvwjhpxvvWyiqqzZRpRFVdKewxYxwd1fdbxVr0ZOCY6a9av45tBPBuMJWoctMFqVgL7UcMne3ODPjWa96FmH5mL1e1PoU4/PqAmN6iIL0zf4FXsre3fqb+mzVruCrIvwbwFG/IZIEc699zU6jJiQ62PUNFwPftWohNg7vXEP5Zts1KJXYu+pEOPZfNis1OXlkjlkWp+GArz8YydcpAL6Awldg2HxP2XeJMfelJLzNsi4y2cXD0/FJBXel24UIALAzwhZyD5N9FJ6c5XksEt0U+SwGJ++VD3uKRD8vh5OleWHc7HoVy7SN5gf63Z28an9+56SVB2K8SbzmggX6YfBR6Se0ZNbLx8rI91UGo/sFuVxqXI9xJBZ8MvGPr4UE+Be8tKtnuqnR0x4AsKpwSCH0UyNMmOBVdiKVDiFzTjh7xuh6bw5WXRHnS/c/LcAkNJ3I2Y/P5mby/q8jfKt4vv5k/urVxszW4miHPpG8/5LBQtY3kd7Mjsa33SuCvE8fy7DIMO/zoqnKV1cpQ6m+b1W1EQu3iFN8McC26rQrkEk6yuBmszQcfmptbUYCK7cdRqZNoAXrrPj1uOu9D1RIimzPdxvgp8aHklOQ17XMWIQb/JYCHKYAoiU5lK7+mXarnqH42ZluiRYacfWyibpCbcgG9MNADMyi/8oClrpNKGYA7Bc9Ux1lslm6bI0Qps4q/YXUa8jnykFfl64OFxd9Ic5qf145XS9iJ1PNl5oPM3xZGf3Qd4+W6mUsdtMk2DmUCUuVEvwOdw/uCpvNzmhiuvK6I8L+0EdwLVURydRBjCIYuvnaztUDv0edvnNw32WVUgu5VK5WxOXoUjvNwnqkj44YZMW5W+ezqjn8O9giMqVvjtTdj+8Ves9rCZLGr0vZN4H9fPYehU3UU/2HuJ6XlqWOsu77P5wLBV+ZGSu9cCEVhzk378zuUYXyqIamIIYVuvf2rrNmWgN9teIOLR14BCtaaMvFlXyQesRr5H5ot7adXySDLoGkWM6Th4uCpXkTybb0156z6ak6BgnC2qbmf5lCBKatlqnElXJI5Ju2wJ8NNXTbf9a/Z1WxDsFFcZQqAuGm+wrTQbIawKXnrq+WeysTf/HIjasCVfT0jA7SJT9jd+8s5ul9ibOdPKueSBpJREZEQSuHkzKiQ0+cYg6/1ULB5WqzmP0ArQPE6y7cYI7To/W5Ow9Zn8cHcKYLersfByPOXOcGLLCnqVskVU3/hw75QGIXsw9+wIu7gneKyQmq4DPzUFS61Eg39+3hPIVc+fagC2QsFOlzHWjaKmHxZdP9Mq/FZWL794mpXFROyLmVo/IIqxo9M9n0pTNSUdtJHRwY0IkN4akF4iyhiqS9rBb5w1atZ8ZV8HmpNiORzo2Zqxjz+5CSumjxF2Z6GQxQFmB/mAZK+gJFjfAKgZxSGdhBTig3GQF6jzgFvnl57o1+UqN0oHSnqv27wCR9CMhnWe6h1/cA/NmiBV/CsAbCPRBjRIbmuu3YxB7I3rm0XnrHlGQ7SoLZrwBtTnWbrpb21OJc3fEWcnZ5lHcWH3UqMSLCEvkEdKDmM2TvQZYy96b1nmmDzjOhyMq1Un6mGttlBEVYGKXMi9LqJ1w9/sykBBIrWVxx713CCW+JxH+xFT5FEASVpRXtwWx+fm7xXF4TElOeoGXYmJGkj6pVgg+1YB8D2K5iaC4rWH+EoKKZsQbE7UCpjncjwRkx5zF5uERrmOlPY6R4lgjw67yAhEyi0oZJJ7qIMW7+Z2NAUqAA/BFqCvbT8RETVOuOTg8XaBrLe+8y82jzhM/b2meXvWxPgOFwMjy/jS0uH5LL7WTMh3hfx4erurpRcymdAe3Izn24naaODbTEJYeQ5bp9oNgkANTREI7Fa5jfuo4V5D5Oh7lIuObdFLmoZaNd0SLI6NyoNcRjVV177ENG1a9QaChdSeuwim/JPJo3/LKnhX34ZlzLLbNHx7pR8si4D5fUHg9A4SxhBoIxxiPoRvDycYzHBZlbhPW4QCWuZlEnLS4OQ3zAKvDnbzrCQOnkzl+P1sBLmlAZRsx5QAxIhLhRD252R6mBivzTC7Sku/neIBAO4fBeAj0UV9lULCKDR6TcJS95+FKGItKQZjGHkbk6/pYaDcf8tvqx2gIQ3gwR3DsKufqZjEGMVfIZpmnWzH23w8gm9j84pqc71l+oukU8wqd7WH7Bcrn53UZqRHAvT0+2QZxd+mIUu4KNw3QtY0Uqb+ksjgJyAe4mWw/RW8VrBXGL0cRVAlqXTy0rZTeG+m18cqYks2v1c2kRMsS0sQcQsTZy99yi/hsdjNc/gtsuK5tjcUOZYG417PpwjJdEDY3m+q/Qxg4x6Rl5skX9D1vbeatw3uAi123DCSFnv15Sngbo8hJKYYEYPkiYLGnZ22tgahFE9OjzP3w7YkazdBvugzRzOCFktyYN+u8JfWiLVhyisuoyckKAARHvTsSU8v9R5rTBE8xDv4RzJLg8siHjqFi2j3e4kNLrbxLCzuDasOtYBL0ooAzGrvLdu2Wcvvw1TvCtaHOyNi0OlKAqG2qh19T6fo8kvL7yxK4gj208NB2M6MxlPMM6jsX1nL3NmgJPvn3oMzX1FiDKcg7yAsq894PJvtS+d2OQm35sfASu0+fnZzfxocb2PD2vuj5Z1C1mkGSerMcqPVhGqV8/N7GsRd9fey1brnOoMqteCs4ZhCbFK52q1dsaaKQgheJdVj0A3fGW3hclNzSPbO2VamdqxEJNurk67MgYofzJITSANV0W8wicbftBF63tfUjpoY0RDWfRhA/EqRz5Gj9hIEiK7InHVtnyyzVV+xvVG3taYDCmzDR+AxUBok7S8IZgIGSDpK0rlx6FUuQ3rJMxJn1B53OzUX2jemMrtu8AUWb7s6WvsrAgJtvK1fBPFw5cUvY9+Jw+LyVuyZqh1OzDbrf0I5PtJkpoMyNt3UmAlm/voaQ9ZS/3Pmdt7mXBZUbA7pSPgln3c5NDeL1f1VUrCuPLd9qAmGzemwpeGTbv5xT8BGkhxmcczl7Goyd80r18HL3rCqOR/+5wx31JZ3NOFQt/f5/BM+SYvPJDV3Vg7D6wl/Ny2dgLoulrmZvgCFNjWco+BFSkNQFhCmMY+BFMIb+Mb12cDCpeXiBb0LpIBA2O1VT3MQZgxkI7VEvweX0qLLRJmscX35u+iPOVIOEJY0cwww8vRxs1f5ykmfauP2jKcTMLAkPTwY/cJPiFqGYm6leM/xMneEewuz1KIplEpV4547sSk9etmI1MAnop56H0D2i06Lkgz0ooSAQPXfvD7tO2RHSoDwuXxzTo3hCvB9StprFTXL9g++5/TqJ7b+ge3K9A8MwMCBaOvugWIOdJ47rxvjNnopA1x4hm52JqxkAGuV4XEsM/NMxfdkzAap0Np8hyrVMBRSz7/MT0dn6tBMb/B/jh4oPR+0GYSeSAGSQA3TGDgeR6F/4SnranZ9oxakCPQdyQbnqy34w6SFyjAfzL7lWZZ7H+JNVgwYepBqZvfKt4J7mZhcu3JrLVXOfqU+bbRsZ5WUH4tLcyNuGd8PyLgwFDa9oc3nZFQQjLF/5tGXIUJQWfTpVWljEnC2/dXW/FbpC8OKgktTgkUuvtApac9buD9iRPOifPJpI+qRXwANyNWTHtCa2KdnqI5OHVHrxabnCq/8wWFGYccsO01dUJMOZ+TXNVVZV3YHR2ZXsOTJPcqpBViuSaeokgLNeVFTkvFUhe/Y8tbtsKxo7kk1QE2JH/bSGAREvDe9wwRqd8OvLMAhualpVCvhjbSAMTGygvc+qD6tnKni2XQntDGGPw6jRc8qnc+oUG9fckms2wSlZhqRCiZjJ0j33UgVOu1JU1obWCIB+OMSDwgMBPW2Rt/8ymLrD4nIssZkIuv19KQ9tzQG+miu9AQ7HUQNY4POFG92KeGmv7X4i28wFzpWUfILrzNqSOhgnL4OSTrswAn7IWUfU8F9pAXJivPTg3TOSuS6VV0eVPQoElfKicTvMkoW+kFrLhPzhnTLUrA64rEiwAxXIvi0TVcuALSa6Uh+XRdRVUE0PZq9jC1f6U0r0q8b0RFfXA+rtdCYeZQqUUAbhkfDETBIuu+OuZ2c43ObDRT0ZHgdn9BLT2ADlceElqAU0nI3hE3iyK73+S1qez+iETkystpckAWx2kJPOMfUUDZHxm5HQg2+oLvB94yR/pNWqbO7vAv6v6YmtKjd0iGiiJVwF+GukLhGUv9j9J4zGkPCw5on5W/LwJY6M2pqi19KMS9EzEG8CF+WbRx9yPGg7qH5klA4AYaZ7sFvJyVI+xEhqliMRb31zfKEgdw06ZZ8NwX5W59X5hFg+nGwupi+yLrc4H2TnBzioUJBqQNUV2EZmd4kC8KFdG8uQY91U9wappp8oO5DFoChXfAqEDnf0CWclh09YmV5fXg4iBsiyPL7CwGFQZPfQNnmG+NqJd2QoJ/DASNRNfIeFQjqheyYLanuF2vzO7PnvQTKtQxHysASxJunRUleLl4zhyuewd5ctDMbbgJgQk18b1eb3KOhoo67hHiZq05SwuyD5iIzNnTWMxjGuZ8hpNLSWJZbPRpx2FH1trK2Cc3GDfLvQ723YcUhMjGu58sEH5T11THYgoKgk938eWOC5jjnaXDokt1go4QEvyoEt3OdTmtN+txc1RociOh86vPRxKRm/z7dOeEymI7YYKfDZw47UCEapaFDjdpUxemzjnaTOvW+kU63+YG+/P74QNx6xxH8IsBP7cCQLUYxu0HNjXRHD42GH5newkBfazXWNEXGRI8QS1JDFxl3zIiQHS5E8xeWPcPXWVdoDPlCtoakoUMqgbgvLxwNvx+2SUX0u+I9E2FQhhBaNqs6Bf6uw/o0uGd60GMw39QBfS4FiIynTj9+825d/XyoHvMvbHoJZp20ad0HGNadG/HZCT6/H1PlgkycWAPXl8+QMs7WztAPfP5mQxgQt2OveiRnplicZVJpe1/aKG1MLxcLzCFQvDEvTHRxYIxGxbV7kPALOyLxNYgC+WEcsogEhvjNmxj0lcLl/LxJA50P09iPNDKn70w++6xAoNieF0GzVC6FM3iIc2MsEHQdaj9EKGkfv6NShjGAL0xyayevL7IUQp++kmHf/BagiP33XNpGv3EBzTaWXO+OuFNLxwVFpBdK3ZClNLuVQRYBX0YN+d545gc4ilINjnY0mg4dRC5w7sgQQNB59msYow3uoSNnI1dQjrTc+8vPJ8rmAv4oa2N4+XvLQzMrzHsn3s/ogLzUdKCcnLSnG+IFshS7Q0pBPZ+jvaiuzNjqnD0hysSNh+fEDklq+vXZP4HSviiomrEqPA0JomYBAEeSRr+420szsyYvzEg7w9bE+D5aX4IEHD7x9wvCtzE+I3CItJLGiBXLLCvwiC3HfsWxq6UEa7Ou97wec9vCnuBXl2ukOTpDvuWK7k5ShKagWtaFrDUizVi/eJ0/mIgLfDDRq7MEwhaQ9n7Jywcafc+PjkuQIFT5YpNtA4m92ulZsvyM+UyRrE6PeFthDostk0d+JLvkV22C8F5TXRTl76t2w/JWikztMV4grmZ8qao0YWdmp+yCeqTehnpd+wi2LRcdaME6xQhF3gQ+Lho8AgQb3OhHOhG/L/FSS35klbq0T6ZkVpB14R+45S4RHvxgBG1gCKB0HFko+jChaZNlUI/S+tVlrERn9FZp4+LolgRIiTDRTE5KKZIhUt+GXor6bYeePGQDnCRgFSfoaVjTtYa+SuwFxfb8sDyWUrWFHxFZtlShXJWGneF50Y0GrIkLAAZVxHLLlcGxBh/09RzbQQrddxzOaMR5hhDfYT1Od8epCGfSpcvErumMtUR+HWAkZyIsmmsricU1LWADsm5DH1mGNfWDXNwQnHyafzZf28WPDP46aGCZD8+sGRbJczJHcaLxN5YJSLVJzFqYAP6zAOCmRm32aq6al178lvq4GurXI7t900hAHXSuIJfw9sRlUNBdSZo2vwGMZq6e0QuwHN4gDSzHV0CkQYqgoujG3288TaeIFpMGO2xAjXKjHNPRdcHvCRnnfyC0Yr1956hwlm5t0jIrfPg1ib39zSOLE9MgAitr9NOHqerqTUHvs+GyQ5uy8mVL4UcNJhUwlHsZpp73uBmbXfBTCtmxdD14eBO/bMHiJ3WklqPg9kVZD/dKfS7E395Lbi0Ofe96wDAy3ZYHtmkgcHFfAF9d4A9fSYX7xOZygp+wDeqDglTQMIlFQWXb83nM+CCyZaTCDYkfJRbTB30OiujYEB63lrS30VmP2P/d/YSrbfHGCD0/5wnLrtcmYJpkHcBqOFALauxXfpvMS+F06jYyigenVR4MpwaoytNDRvL18WWtRB9oj0msk12yRKqhVRs5CY9zE04JHgBIjJaQkAECbMFkH8Q1jqOE3vY6y9MKpi3H92uOGZj3tYslRhutGwwxCdxBo9kNiy+uXeoL6H6xiyK28TpR59l7tBX0mxOftEajmkWuZ0Gf+hLjlbUYaA5WpDopinzjJujAJA6oUCsZjdwlqnxINAWGPN6IAermnXNTP9bBdx+LMRDHH5Jaw50q3zoVJzPBy1uOXsnkbIuNuJueAShM63eui5dwS8DCa7/qZrEj39rH66YL0WFOXQ1f6JUDQtIVb967RTCY+VzvuzUW4MKqeG/jhRkEmsQjx9jewXuHqM5h6wmRFnuHvEaei82X24XR3CpUy+hXFdCmG3AAOw1P3EIKkRhyCCWDJ0CPstjPx9b+Ij+Z+xTt2mScABbIZlJGFbjLl+TFfugb2rjzqnkOdKfevYRY1piHB8Aw1KeN5RL//h9EaoeUD7yWJZ6JxDFfad+X22JCMTRT4FZVl0CDQPjReK0QCTScviqsQ89dP3krUk8GI4AfpvaawaYhWe9STdlDB5c402Bb7/RShpgJ7AM2wNu5PMRdVpvzAGACLwXFldRQIEu0zO2psaiQFQW7WEUlTsjnMiCF0JwcbOFdDMbMgOMYoDzRT1uuiDtlWz7fgcR3VIYDkr/CGV0lrYDeeC1vS39NiunyEHXtjkR2W+uaT6ei3rOtuAKfTc/t3Q4FBf9di16iNTITEs+20vjdfbpnXS14224DVpHJNPAKhArdt0lY8s5HFetaRzuHfQrmUSm/q+VQI5WE1IAPzqxE++WTTIMG5qHhHDDKFv0+5R8xJGPkeHuStClkFLPb/qSKIMvV/Tkle+3GcirFYpSHoXdOCvnKIOZRALAptEjBYt2PTB33Ox6pD+wrAUrd1sbN6KUYlLi0J7G7XFHvoGebQQuayjQJspZ4B7ZubNKdN3zj1c8kP0RFLZ9iXJ7jM8ddIX4+pcDVGeibvFnEX5C2ruzvX0JxPJv1ZVOzAJN5vOGilKMGlu0GkOM5QvEqLmH4qZxaeANGYwUPjrOaAw4Ei4Nf5C241WogWEKH+ikTRKQaF2aQNaG/jyJ4HO7M5LNGqPy7Saj4Rmhgf1sHBWR/iLmFahJGztUokU7IQcuaca0+iuLx4rT+LCVgyKQXIIOnsrJ0/TAAmLaHFnue7tZi26glKVY/DbQ7wsHS8LuQ8haOkBDIZnRkRVz8OHTJdXgB/XrCvxyC/rBl3ZoL7aWPtqefT4aqtDh0tJq6ondkDy6xqOcpxi7FdMR0h3KL1kIa3HT1YxBjjLTjysUotI0DgA7gM773PCF0O07zYmjgLAOgVntLJ9jc3hl/PhdHWMoME9Ne5aCSfwKCMNdymfczLUYqPZC+RHlqQTNyTPrUwSb49C+NnrSsyqpZfyme8uaqT0UIwDVY9If1qwqAtHXOA8/i0vmvbRsGnRL6ko/hFHsOPwLJrmLta8hvOMfhqeTHeuRn8APwn8Lwjxc7dn4HM8dVg6sCPpnWnQpJpFGKyb+cQHvH8BkBTN5GGaO0sBaelcdXrMYoXvTpBLGgfYI9Zh2JL+X1NYfTPNebftcpRzjeoMhr0Q8yNG/B8z9W68iWI68+BtSIyTry7DSh7hLXNVaJbmjucPwoPB9+J7RzP1DxwBW36gZcMUGYucp8k5ti2uFt+o+YDQpW8dtn5QhDi52cR9JnYI6BlnziOlqatXEBTS2qx9YVun9FjCRnyLvWvWQrnwwzlEuVN95XM8d+BK4gVlYRlWmsYSDAp4JOvh42Nq9QF3ROqMwR2MFEfsOXCtFgdNhEscexAiCA/Wm2yh5UH2eED1XHDq2eU2igX/Ju1p7sqpqIc5Lc2u4baomerhkVmgVPXmxXH8ugKaurpvhxvcWMNg1yiYiPnvjhc1qAMrxKBipG4YqNhA8YdJioHKCMscVOnVa0wxsZ1G7SI5nWaORRsu3iA8CbdjrUVBTn5vwe1OlQUnD+oRVsLuIRzGp907DbpYl4PUOHxgQPT1S28FcTPoRilqBlDV3MGLYDQEjNRItCbHWEBkC8tWBoxOvo3eRwQSRXK8LCIipXTELySQJqGD0KPk5cN0151anzYxQ61Fje1Ss/uTWcKFWwbW3sF20N3YjmulYhUdadsgBI4PdLZLvvxGYrio+bRpGsG8ZW/d5aQBDzQ3lcUzy8yz+iHOmdHDMNj63VxvdZX5v6fCsW00TjabfZFICHAVKjqlQwf8NTx8JGAGO/KE21D8tOWTy6eiq79sHsr75ZyXCKS0pOXwFikeFt20jKTLyXEuhyepPGl0QBcfNyOudD9z1932zXbXfqaUIQBQmoi482oCbfV7DgNfR5MykZfob014QudDw3hH2qanugc7MispTcIIAL8nFFRedrgPdwgju3lvXG1xjoFP/ek6PwY/ymYbmXa/E8+x8i/siBiK935wbHYayfO7UKFGkTpDNtRFlNL0FMQ0Qx9IuHygikzoU/nUJKfaubuqeLjgYZS/OfazpU/JovCFgqn+flNQojQShKLbFHgGs6oAhS5Z7p3lfua4fvhYh9C5W3lVlSCTErlNuVa742xA8rCYgxFxopHsD3KU73jCWI+Cafk6sjZvpeQor6ZMyWsIFkdCGUX/pSKErqsLhBpk7JKVogRPJcluiSDkPu7UZKOcWHcuEzo451QERDSlUVJPAnjoYoe1U8WqX+44+78tPtyqIqgBOzEF53HAzSnH2zLSXfAsrR1EUFCo70IAEQBlS6twC+WViMD9GvauZ5cRyfPzc97c7VvJwayN+d8MhGTETtpD6/uuxdhVw50Lk0l6aA5MJw7cctSBFy/rINqSoiAsl9YiBbE6fWJZQiSXqHoDSzK5M40iTpmlIJhztHUlzJ2wCXweMKAOxDHbnk+gs+mTQJ5SjuWPn09fDb/+4l/nzF/ZE+HCM0FV1U3mwVYLh8ASrzXhzCghQVCCviZB0Wamfzx4G72D6p51/XeZZkn6+kbRunt3fAWPEjMoXaEfG3YqiAs93AECRJ8MIPAb7aUeUats8zOAu/G4wKD317rLLcGPX767Q3bsEwdjzh7cBUzTWi0MxAsD9vlrG9wGM/TJad0e3xUncmKR4k90y4Mn3/4qk/RKYzWshCkPN9nzSVGHj1BWn5TWYIm0NdMFRqdLR2E0OTgk1gKejsM+EcmXRxVrkrfANSsNFtCkNiS310UfGE8zsfCdofAVNgL71MCYXnD3nMAf9SYYjwwg3STpltDWj7mDdOYI9ZOwXYGfFxup61fz3z44UfUyu+suREdKn5RB24tyNsEHxRIxpvWfT2NDjfZSjl5Fgt5KtbVlFEE6TgBLiqOxjdWhhyOYSDeda4noS2HdMLrpKtT9sk/9AsrUb2vYYx/Nnq5/4AM/wDlpvzJtzcilRpsszmZUGck4bpr7Ai1wNcy2jeJDgOBD/gzo5YJmIOb9RgPRqF+tn0zYJZjvjbpD1M0qYGgWGC2tdIiLdo8qIXpeM+zH5FbofGjsDJiqgbXs1yJjkbhPMB4mkezS9sQ1CYV8vmw7xcfPLd26EEe+1QJ6DGLyxsswNn+82E+VXwjYqXI6iVuTifdFeoD/h5hdpCMmAO4N5akYL7ocL2jQG/Jm9t9YLeL0Zfgv/8glwa7EWFSkJiPEiwXDuO52lhekkN3A2RFXSbnEeGr2WuSlkLdZrYo1VoUWdeDrFDVn68UsCxt8PRiUV4PMvXUNd2LelpKGgWjD7M7rnzDPSfFBKxtQPT7L1zYEFTk/bJYpAOf6W+tki4yAcudJ9jVIfA4zzzczF/l7lamLlw9zweRC8+Se12mk+gucg1dzd9p92YwPmX+inBgxzh3iqhBwYUUBfRpmxjhZjNEVGbMZLKm3qDB4tHFOE+9vkQs9HsX8wi9ZWCrtIMDgKAcAB2KPpqTKC8v9+SMDdwDCnJ8kaxxsdx8TvvI1hq5KvhdJWG+lMs1v+FWFTNzoxbgMaE8LyqgU9TjVi2xc0O2rryooifgTQa8M8m1H2DHNBboF6yA9R0faYJd/NbFgzIbKtQSEmiaj5+BwZtFUrtfPFdIItOVtciMUL8XbtKGW6KB7GaUTfPq6lt1pPfZdcBN9JQSimeIDxGnas/0folS8P8lhn/sqvrKkKlj4jtR15wq+GWPyYsG2mQ4UtG77Y6b1syZbBgnBHBuouSqY1ld/uq82KMBQu2RF311ftcCQnXo+kTBhCqoY/CjV2IM6W3J7MZG53PiJkf15F+nx+3Or5Ze7XiDqC8LqV7ypxRoESNpFIaVxtzZiMfWZzHBZmoZpz6y2GKUK61R+ldsNJ0uH76U2ZsIAo/Z/rurQ51b12MO0XeZBAmad6SXE6yykLoIXIkh7qSC8huwwVQlL6Udm5abH3sxaXB0Byqw/Z2l+0dbkBk6EWEPEYtGbiReZR+j4GswdBN05z+GEdZAdKBcEi3DKT3e44v7sI4DYYfFCEBItdxESBV5LDua0sBBNZy7DflKssqCIImzO18UXYcflZ8MgldV2VrLlhLJK15aF/F8XiILoWFOvoledC6yR9BGuglSfw7kTyLFBAzZBTLX0vI1Lcg18j86Hyq9UmqG0YYngLAHIyGTDv3ixI+Qc3eEWLqrKXk4OMktPzM3T1GP7afg9qRdKHmBwFpPYQlZoeAh9AKpH3SqIjDHqlU4AsCBNgD0guobwV9ieqHfRYTNUb3szeoJxuooqVtrwARgb+CZI/o0ZZCqiV7MnFNMNfzPEI9hdWTW5sR1qhwKN11pyrb+e4WGivBV+aiZ53UnyWH6+FxVkAuN/N2e4iyp8XIPzeMcia5E3A/xjx4yGhFqKO87pE+qh5LZMkg/NgPn+5l8Z0aWz5Vdsi+hBDlaZXq/p2n89iNldmi8AMxoMkwJOfY5Bk0Oef09D8+V7qyZNmSsYpdtddaH11dbWYrirh+g5cxZbm3Z/l+RyLflps+cT99XWTAzw4qD0bTA08RALE0J5vfNR31wWSFod1WrWghVrsseY+RRZoWJ47/0AFtgZiSwMBpmkNBmepAxfiJew3tCEwnc5pWZ+QWLigCtcEUOkUrrX5i+fAPJU8VPQm3z4+z8cPXW63Xo7N14vInWQoMduPKvY3Xw/FiUpAVeqZDsK5+39cA7DIKMVp9NP3pkHE9n5oAhxoaUhYCKnxzhnKAi0LNFApuMI0MDpml2nFj4jKy7zFjj5isK8ldGQ/oSYDNg4r6bcKRsbtoMVxdWLsiZ0dGPvUZHlyFuRnqSLLAue/XGs9xtKFaKX8Xzdsr+iaChQ8Oj4ceymtJ6hiKAe9btyAXE0YHPzGsZg9i3nlzQP2a8xTKiVVC8e706/+ZQGS5+Vybauo8uPwIEbGOr2+ZW/SFBII8X06qDoBc0tzb9jevaEc+i4ysZMog1uI3dudCOrHXrhRQmOAXrd2heaZpa4IGPCOLoSbmo34vlp2CH1n/5ur7CbnAv1R4UpOtzI+iialzzWG+RWcPIrUCD0Aj/dohPIxdkFJgBSkY1pvhm5Qv1sE8RYbkpl0SEu1XKBn8dRT7KKU3zD2BsIxxyMAmFiw4kknD7Ue6uP0zQAK60Y4lGkZ959EpFOxdZyCUxFcS/TJrLMp7OHNNwxAQDuVwuVDvYyDFhgwhsAYYzns23kupwVLrmZkYs5z9hbWL9kHFEFO6ISxhNZIqMTrAObqKAmom+DtGxZ47wMCPwh2G1+vC7mih/MCGL742RwkF8DSg/Xk8F8MS0lEA/cJ+u0MNsX2392wgV5u4NDIZsgmMwOL16DHuH5cmKspXvoksd0og/xDodwkVVjW/LwlQmcZs9WWXkVe3X8GOxC88yFS4mB+T64OIcvbid6VvZJXHSIi8uRM9GLHTg+MjiYXadb2voLbpWlWH3rfwJvZct9nn8ReJAAN1fCfzssMnm/cZHR5vkzfdnXpkRrVSeXLiMYHJ8Bfk7wezra8/Caij4WNKoX5urN5zHU8iHKD5y46xfaiWAbtJhFDLxZC0+RVjWdqX4DJ1D0ld2p8N1BR0Yoo1GTxhsBU/k/2yoaPxaFj7L5RFkHEfVsfyDb6L9WYpNAo9cSfQAJwSwKe4HitRHZb/krr2zmi9X0a6tKXyM/A7T/TvWTgq48G5yyt6yVxpvy4Ly9759WFtwdNlFD6oaXr++iRR1cMvMuyF6juw9KehECnZg4P6En641tQxXeMsOS5H9lhe0YAJds+zNBOWREGM/agK4lDPXIwUNIKg4bqw4e6YPvCl7MkF9Q7MBhMcKc7dlJ00xM7UvX/yD22e8QdhaJHcxVBwBjSqv8lWZs0fuqyR3ajEg5wjN44OGseFCcOTW79tcnuKyEbW9BzPdTA8zIhKkaPBcazZf4zZaI0VLEoLTd75LZSBJk70/IAgwhfAQZKgSfVAGXx1kx9qNDtLmXB/8yewa+JjgdZFP3vP+N2svVOTVxBAfHPtpb3oxduY4xnVjcXE03ZLxxjzSWH7y37l26g/nSjPA5mzskMN3C586sv8btD90siBNh+v/KdFJMrYDTK0fEvUS7xWRvHeP3dL5eDr+KnYEGBZ3F7s20GR40OGiwHp73gTknRH+KIslQ85wkhx8OIkNlwNsnDQadsJ4ARM36t4IRn1WVie2HIR+mpg8ILPOgdYr4yEi2bsaGLPWyjPp7cvE/tmuVLR2Kc4CuPjWqCbGw+qWHT7uwOZEIf4/pmB5sw1rDuNXBq5SWYucpjZAFIDOiDE3FB6F7kXa/CVW2LlTa91kmpFBrJzPqQFIWmqQhFYEV+6xYgwsFPV+dKqn0z5Adl5myavGc/7nDCuwPGDa8joGNxnN9gUsvSBvK2JCxREXmvKCoI4ZEduR+goCmTGkReB4YXaBiyhEltv16Bg2nO1KndM+6lLSl7e4RYW7L5DaJEHPnMVBMYcPIzvNVDSvHVQKk5YexbqJHUH9YIFVxEuNhz46Z/ucbQ0dhZYD4LrD1jTQgPfUIEjjvR8HkTKIXijrN9DYcD4DYZdsMrNPAFViBEAHjCAICZHApMJ5mptmnOdsBHLyYezmFpRfpiqSHKVFH4RDMNHIV+y9szNfmbIHWT3APZDAetLclZXB59EIWLbbApgvkHLAGuHZ++vmeCiKMInpQ15BEPdgm16WoBZ6oNcXeOoJNV4RW3Ad11fI0+nE1aDY8teRkrkIvOhi+JSzB74/rQij177n9R5tRdVCvEVdH9s7RlaAXKeF5GuImEZ7UU8OdNI1vVjdlenhg6aoRY4hwhIjcObBsmBJhtLghrqHsQEpdOTsZoybzE4DfGRyWhb7/lif2l+c1r9GGIOIe8+e/IvCcF685jd+q0ZVnTiI0fRPX2Q1be6OkG+g+WUfuD5diczqxV/HL40od0FMsFZjB5KqAL5C0JS++njFpW0D/Qh0+TIjyV7deHZKQLG10LcOUvkRZZG2L2jaU/8qlill7TpkZ+vWXL7c2YO4g0jk4skEWzEHLyC8/n9ex4oo2fuqpBvs2BcmebSZf5zK/WwnAoMRSQ8HBlabOErKO8yJeikyI5ULeampG9v9Ng95vmu14Col6tbQrGQ4W814MpA9Gq8vyCSAI+cjKBjMkBKM8HNDV/dpvzGhU6pGmmWj9+Er57CttDyZ1GF8/udtP7N61BfIyAAGCeMMA9IiQQwlGTRnAnEdwRfrkjRsPP33i6Ryg8C33FtCgcDthhkS/nffKE/aWCJHTFKCl42sKas64xzEF8JaCMIognBvacICKrzsxfNcedC8WTnnq34E8MNUmlLn3VZmeZpY3xJ6cwpkhJ1OmDBhjvkd4FeZ9SdYgD2mqSmoSL58ze4crepTGCIDhyVee8hjZBPf+tnKvCiG7J8ziXwZ85pTsrfBVzmYg+oCjaSF1MzP0NKG+A0CTJ+lEw4sxUQwIK5q6Nt7Ux2Dpqr03vlR7b1K+ldLRQRxbw60MxvLLFjhj/ZsekDCySWHADgDUA5xHpkehy8aZbboP3K4ioyulhbu9FgPMuzJSf3Gg/ztvSlSfN4EfCVwR7JQRLYfhtkXYUEDisSblJL9qb8wz0dSLxoNV/WgyCoDZMdboVPQ6XwmDg50mvV2tVGC/FLCaESW7gCRqRN0IfCA36sEIRxCkThZkUUlDTGb59Lo8igqI7xpfLwDe/YiLL0cd3Ytg3fTFwrrJ5rskBUYL01CKq/yEivrlFCcAx/JYQnNiL537PykkbzkD/fHIgPC6kGOspAZxUOCedntIz5QSskUzp2ZWcA9L6g5Vz8Zo1K1jHZqPglhPyeqIGhUsFv6rZefGBUNAPrKZRKDvg4XKEnHrKaKZCEQOCP8JnwVHqDKEb0lKLXPhmmpmG6LC/fd4bADkrL6riqH/Xe1+dqnPiD22634sTeDKLjtY/XCXB3s0AZBFHmV0g6Nq0SMtTfYn+ulLhf6nJgpp1tLrjV7cUtotuoTz+UsrAZsVWYOncRCfA48S+hZhIDAFLqC0AeChv3pjSOhIpVbCrXmcti2lO6XubKEIEQjoLKUauwjtBaeiH8ydFXZrzm9gVHO6nSe71eaT3Z1H5BBMkd611YhIvrWUsnC4JQXbimgM8YnVV+2sjNsZA20Oi2WmbVKjeCHmkHQtCcAvmk6U5PEJDy9NuhnX3QAF9yW5lWmHq2vd6zrWauwruQ06eeRswYszCAIzcPUpyrpunlA9+Voaw4gDBureOMc+jVmwE/aAKwJihLIMO2hJWd6ZaUQbTDW4MLB+nuv8pMIlc9YGkJkd7REHTT4pqjtq5aNNYPwQ3I/HlHkBcfhiQ6AsDlsvONmBiAWEcOU0w6rJvGuJqt74ET1MUzGjc4nBOjsfuRjMDXGu6j44ZBnFHa72+jukGAzPMC3cNUog4goUC4mSWG36NgrEqvxGrZ9tYyTNxJf53804r8rmdkFMDGPWF0JHsMT7fczztJWkscp7nQV9mQ5gD9DHz7B0QohmprK6sLyUGtbYhdr1gv1eOGtYJI1hPqdIOxNq695iJ0CgJRD6BebqbAB6PApMyRi2q+msFjjd7ePwQm33jSr3/bv1w1LlW69H8fq2BYToj7mW+9WXetavp2ABb+QL1adcfrfEJ3gmXE5E+x/ajy3zNuYJe/AHyToDZhjbUdHdFa5c0AM6gURTKk3N1R1CY2jW/ceRClcnMD89wu+sXbtu5GPx4bNMRXJf4XTqe/54g1LAgY5ArKj2epOVZD/5r1J0ZYo/w4W1RWoz0VkWIpO7mTU+DjrHGUhxhvXmhk1pNtk9ZR3HDUN5ivtKlRIJi9hkoeZVEUtRuCt6sBH4D8TrrTAUCBX84hIQs1OPCizENwVVhwfYrT6tz5/ORIEDjPWz3718DDAO7xKGcxA5JHA4I0Bd5YBXPKGUV02dV2LX8vR+oZyuRRuD4t51+EzoBatDX7U7d8XMbi+GLXwu2fCARjLxyeD3qaSDiVm8/5Mig+5xzxdETz7vozUsTYTkOqlBvcyuRAwmNWMp1yKYR7Iov9SanN7XyGi4bOwgDG7PDfu6X6A6v6BfieZC6lGAXBZl0y2IYHLWya+UNNiy6N/v2jXOWH1Sk8ayko80Sl5mU9/kLlC4kGvCU3891ANF11JRxcJRDYtDsvY7EusiAI5HATCQTN7DmNU/1yqoCyDmImEgn2+udTroA5RVsR7YI31rNuiidh8OqUENoVE3cHC479eC+KlkVX5431PUAGck9UPDGQUgjqsh6IzAPqQsHFyF0bNYdbGWueyANnCXg9NKVA4Ju5o1XlcsU+uHy+nRe+9MZH99abC38EcL+IniDghfwAvUPK9SrR03oa82Zez7SjyA2jz43RitfqiopLuSpCCh/kycOLGquBKIhg7VDesbxr0dJgVOIQgL+p3VWHbgtF9fKZAqWsaVZVPe3Z0vznSCiFi5yPYqbWF/hvZ+YPVg6knd11qJ1lYhmqazccIjhjLfQMPXX3bp2aFJpbkxyVyDhisDk7l4ZlQf7AHb41566qeDx/0RuppTlWOJ07gV0DiwIkplQCb9EgSFXXMwkictir9QbLNu5jKHo1GeOaNTEcD2nNakHsLXUskRAhzW8g9C0g+rAC77PjbPORrTLCNAl3UKdo87PTBaSwyQqPAx6KHQ+5FallLnxUnR9tJ3Gu+aqbuPXoUvHIXTLIjdlJt17mmDFAcUpJNbpcshIt07EsrwkDFC3o8qXYjS/DHwa9FW9kKOx9lexI6O3MgUB3EPzlr3a6ylM7483Yaer93Kv2Hfb+Ctp3dqZarOhaziqc9BCGNWhhLIWO3+AU7Qb2lQHw03ML9KfMcvlRK+Tno2HlMvmwRsPRxLSR4NtRDJXXmBm5fMEJEYoemY/PsUvEksSJqxMrM5VfgWUcJhYpjid4uFQCBWp+5SXs+0ZQ1Zz7GC6wwBSDGuRzAXwLPm69UNce3zTqfwo0l8VCTOaUBlih+hM2N1zYafB2WG86ZRPgVR8rm3noY2bcNO1aqkp6bP+VAtBlOPJctmix3/AI7VtOhNiS4Vcl2LvOsw2Z+3UatN0/oCnfEVE446AUZYo8crAFNlowuKgIQ35KkclLW110tdd4FZDdNnyn7zqv1bdcnJ4qYvrbRVBccopTPhas39OE5mPywbbzFd3cA1Jf9DjdbmS68eLwrhjBH3YvLs1GePoscW1gI9HvDC+mTc3nzuKo1e7VSMAJDMJZ/gPX4wDzLKUmtRpfb0ggZeIVOqqYKXZbXgmsDYpbfVEQRWzZz2dofvHJCnWs8It+JmoqspVc+xEWr6YCHpPUDB61gkCggz/FGlrgFZ8I3HT2U2tMH8+V+A21z9iljza5z6cMRn2k2q+kDnPOXTgV6Ei7D5pBPk6DEKVGEEcaACSzXab+riYna3NfCER9ZXRH/ZacGE1r6STNYNMjI3QXVhm68zTbAwLVz9Q98u1WrhhE510SGq3at3oJt8eV8rtyfvPqygs+nFCRlcpvrVUiVZ/N9MQJGHT/428Afcy8BVOW8c0DELv+CL0T0NguArjHLZPV1zeqM7fQ954uCs3WR3W8KK+4U3W7MPgRc7+mju2vTFoYJcZrO5pEAZrEARgQzcKOQuv0XHWOw9s7A3whBY9NB2fCquYGAlv2bybSDPdzaaWkQRIGAVwEqbAAkQWxiqBdYG9usHcu0P21bf/XC9AXBfLuTcYwbBURq2PreJMXObQX/GlcN9N6JAPAbSEWOEUIBACJVYTRRxDVaHwzEOs5TjElecWyTrwIfSNfMs3JXnw5z2VisKPaXz5u+lNglWJfGwlCo+hxVc4y/f3nrCWB2kwvO9r+Qhb6MS6CXumrCxIfeVI4Mb9o+Pttc+4AoJm4cDtTFLszVRqFEeozv40E7XgN7p0KW9TjILKG3J3o8bFrTSBjltt4W63K80zZS25CliPdBELa3R/8OdP9RDI+VX2OgsGcGs7vYvrWfcBgelVsd2CFkuP47zRKLo5zXxyDBlAFIHFK5nN9edH+in65TtBna6z0QDqSwAvgvCjAmyQjdl261BgdAzx4qSdv0hpuW8p+JC8NkEHpnkm9fY6lsjLJiU1e2s+jvdwrFAgNUCmQMChUbbfj6RMXC++SPCvtw6hJEIroK8cb6U5gygWfQwV875Ck+NukPxtbCigwordVfuujRGJfo4ARurFcgD8GKTYzTfE8/gSnIz6+Nt6xZd/n5MKvTRgJx7cM7fDH19DVryH6b0Bm8dDgTNWY+/IMXmHKivG2obm6Y8QoDGYky68uYVH7jni9WZijF5hhtN3zzUl5wDwuvynBMUz19xxaFEaDBvHXNKtUHOeW4+0XTXy/bnrsjmM0YJbaEw+FJABuQ9B3Sq+h0ZhJWdqH3+KmeecMtkJi70CSlw7wF9tM8iyZgJpTwdRC6AXvtaGWWfF6bLXLPkhIy98QFdm3qrouo3RC4zoJ6OOLPdfLsDwIUhb4cKD7SZo4f7/z9MehvfZbTjuRXXnwlfw7NQGIwd6KI9bPlgKrs5cGynbvg/ruhzSl5yZ/v5CE7zvkbsgoHjsjHsRKgJSUbFw2b1NBj+nXnL+VHXQK3bVKeFO92KL9CljON0ga2uMYV4kAomz+zmKVaUZxeMFz8BJLb0X/tkb3MC0IwnsRCnQ9MLUqeHftq3dpRYfINWGEhzjH7fW3q7Z2i+Erb6B6/cyTzX9FdltRzIo+zCr/Oso+4HhN+37LMNLv4gU0OQmKNwU1CPdRP+ZuFcV2P+CVs1uyBXIdaOTs5ANyMYeWIuJpAnEQnlv5q4oQ+zaSJhoVtmwYYeBZIoJZz4niAroyWcITY/FvNdhK/cZX0VNpJK41pGEph1g7jMdhmAQvyXw1ab3bIW3AGOO0K0yfsdLdDzbiohuejzTuLrRTuOlZpa30x0ezgmvogp1xKbBw7HS6SCeJblpPmzpwfYAWF/xSaiX9ewzDqXAh1ddcanMUJOqqqytWDxSEkXG940pqgYBsgPgv/eB0AitOm8pWALa90shxFlU/Xq2ZEiDOT9Ou3i0FpDVR1vTjLszSRSCSRB0EU+k1RRAwPBDkQPAuQK6hkBYJVmnuJpcQ5p+ToEiptXxfdhJMFTCHR0hbizee/p1bi/wx/JCecsSKhfIVRd0p5XpKta6l5fUc56gMvuTvbN7oxA+3zOit07dJjHU2QFeNycULwL6oa3bRhfeWwJq9Ue3Np0bMW4d3YbLL8W1MngF+gsITNF/yzndwA01RYJTzv8rQfdc0/ERpyHU/UNCe1IRBF5BtrFfckLFSM8rBXHic8yrTRQ5msTc9X6sp6ZeEZVrNWQrXJNjuk3u4OQIu1QOeVTnsqfgpLL9ZCfoyxDSO2PanP+mFfhdjlsu/M3rD8myn3POPkG6vOqex8y6ZCoTr64XbpWKgFcz8A9hfvkJ2EMjO4nju4sFV5msndBhc0G9QwK8n/hqR0okHPTTk6VI3kwoAoQiiNCTuRY6VMIXObuzfxXtCNAH06kSlGI3jfVqk4VRm0QOWBqBbBpLgz5y2nmOQTXLI4slz7LkZrvjbOQpkdVbLSZEXCXb6hjX5/DexbaHmJ1DZp9Uv3YkwuC/OfOE9hkcSwwa+iUlLp9lYv8+uSdSvHPowfWwB5xQ0urFNMp0CM7CWnFQDTbk2l+4YTgJP6zlm/lOI3iX2ZpAQhd1idzQbGjRamp8POm+/57l/L+TcM+LH32yh38mWe841LkVji1K8nJ67nFKwF9/AO5cM7XI8/5nL4eE/tUTLiyUGMlsjU+BSutgIiwxhCgxPQapBvcJCwx98aYIYffjuI0u5WAmQoMGFfEkSoKuzW9je0RkJT3Q14z3TSXHERnd8pVpfqRQXhzZ8apiRme93tdeJC/zHRcnhZV8QI22AkmJuIsMbkGQKidvdqNavtz8fd5V8qEVM3GN5+fTnnoVlIUoCxrUzuXU9vwBAMWxC1Qvl08JmPV1PXdmtasmRqtDmVo1xk4z1AhiTtz0tksVAEjPxTTkJV1ONKLE+InX6RXdVH6fuhI1gwOTv/BwSHwyyuBrHAYF3wnFOpDHQCMMU8PtmiPrmtGWWvXz/HU7Bk2fjsvXdAShGgVj2A6hDsECy1yiU8nOmEf7OCk3zYtKxbjFJcm9UdwLkIdRURVYd9fTzBP2YCfW5IMbPUMgA5bt4/TeYxEAA0s+FbkX+pQMcx1VHCpm+RFsRK1d/5G2VKuXKvOEeFRPTTC9Zhl1X6OvbdLZNYgoYiOIk0o2nNBaNqChcXwwgl/h0T3xLCP3mlwPPW/q1f8vTfCpDCUthDuR5YvZ6RirqJ//K+B7noCmBXLtYroCqE72udLBBGW/MXn2x6uGKxjtbh3bbWJtm/xYJ2UghZxToS6dHtftOfQyj1LIjh4WMe1hxoYVY4L5ISJnA2kaQptPqzG09AqvH8/mJK4+LHaX7ZOcnLMt5HudN8/BNXQFPrWWbku218mEFAylmj7yntmv3Dui6bL9Vw5+nSKM1E+QlUxAUgSBIhIIZ0L3N+2oCdGGFqyWBJPbJ9mbIDeOyWLjS3Ceb1L5iNwnI6RQt/qodupwa/yadiJj5qFHKw3pqU0NAGQBBn8Ju5jKya7Q6TpEqkW9bjnV5oAi2Pgxq97FvPYXPi0MYEMQXCUS6BnlIlm6NDCvS1XFT5fbcyAR5wdakgeZZuea9rAlhRlJya0iyO/kypGdl2I4KuMcV1ToOH3n5GTtFwbPkp5lLHXrV3xSSbihqEp/o895s8FBPXoQqeUVb56yPauNCdBVz0bUvprtyQUjPjmzYw6FoYMnRyaq0Xmqwv4dHjQEQAmpadZiIu/e3CTCYIynH+rubpAY5eXVV4TuQgqd8wZ7iIREwszSeuO1QMVr/dhMvgTj5Wv5ILnGEsWWTx4CYCm+2trw1lDK4lcd4gSYpjFQjV83la5McsniXz8Wos33MA2H96hz17bO7AZwLAaXBsvk7Jn+fi1GACYqeJw8a/BGVwhsZjBDUrg0hKaowSyyEKsr9rBbWj/Sn1R47FMjHkvhx1tR5EZl4dD1zNsKVlw+YTVaJybyMw4yV9JftEyEMeYDUmwew5OMeJbIixvC2+t+W0Pb0TqduRls3aLVk+/0Zy2+j1nYpvkTn8iJ7q0uVkOuziaTQ6jJN2TpwGz8LyzMn+Rn8zclZvA9mrtFlYbx5MjRa0jJB8gb6eMBGdOrH3bcHHZpioFBFbT8YGBpvFlA+eXjwLnqKCAgZKUr1r/wFVz1pjrxEUtnVSimtRFqWulfzuCeqwlWgGogjAzi0LLj11AfHGZmCsbXQ1rEgOmyVacW0xs41idnLpeeUDl30neaKNCbSXzd9sw6F4g2IbwQxPF+zZdqWZ9qY9pW7/8r89KNB1EWIWSKA86Wm70vqKVv6nfhgQHkeYpwy9uHVvycKDohLq2BOf35oEQ3oQgDUZn6KTt8Au1ALTQArJX9GuNFNpoNKz9aknxGFHfr4HCf7nn3cV0n9zwfyv7hx8koizocdfYSPf+2X+HdCCVwAzFrkpv6GeJbZ0Ze7N5PO+VJR8e9nu/VeWYJwZkea98d5umSG1vlT+pjyaphKLEDhy9ew7p/FhbfjVdcBXLw2amRt+f31n4gi8UdHFGgDwSsDDWfKWhxaPnBjz3GZa+XCKRddfXF9dGuW7JVjAo8MRLkN5qFLWxY+Z/Fg5cyvxDe16vOB4DueN12NIUq5RcYWiHgv963SBX5D2jJwHCw0ynLQrnP7aCZ76ZKkTy5qiWp9LX4sa3H8BB+gRbFGansC3KUwF2tZSnlXLoXVZu+eflMR7QilTlKPDJDUYGmJfql0ugLRYEC2EYpAXgndZfpfY+wz2DMaGtpQZ51nnkKdHq+UBi2539/2ibodWwuYs4PseiOMwtvozs7g4E9i6gsADdqQBrlxYcc6D2z1NCjX/ux9e+Cg3uesRPLU7pmcV38Rlqf5BrVY7KyGKkxpBkwLGPw28IDfJAO7D2blIsKHR+cNrKS8oo3U1tD6kNVtoXM2gwVHooVcgl+XAPTRvTEMwNX6e68MduZgXGXkptWQ5d0MGrLlXGusUsrvbJ+MWHehMIRB6E2Yh9mvHLeKWPYQX9KUl5PzGbwBWGc1hesjt80JE9xZ3NZesIfeeL3AHIiHBUgNXO9pnB/kgxMD8e5lBqsdwglxirCaVVtGPzel5u0Ij51Mw0cnzslKb51dXauvnXVyPnUZM18j0RfyfJcTUXlv7NxzsN0uTN/avIFJAFy1jMHNTCS3z3eaC1pKXmXx2suLqQKxq298rnFbcFp0G0AaH7kBQWdN6LzRRiV4Bd1V2hotVI5OH6ABgoQuOYX0DFR/J2XVXutZT4eD4X97q0zO/HGOAQpzVzyjH4fYs9GWZyurL41VsvPqXXzDTV6lcZpLyEcGqU14OJ45ZV1ldAJuO40YXh3RY+Zs1hmC3UWR9UiD3w9JQQTqVqIAYc4CSwgmSvgCMNTW4/FtQpGPvxU9tjZ9TvYv623CqdkAOkIC+GTcJLfR7NLSLDNXJ7xU186Z+BAKQXlrc1PE8WTqAntXkwoI/kkBR+qqj/d43BJ7Oc38aLuN7pvOCLQCx/adugI8CnDy8bpq63G2QGl2LmI2vtCOOccQfjQAkg0AWnxcV5hKX+vAuxU16mi8+gwuGBcA4YCU+Ahn6uwSCV+LqPBROfbvn5zeyFe06pX2++UUu/ECKng5CAkWuzbJ6BzeAQNnnB016BXTY0U74SHzOG78Ejh1ih4qjBiqIxdpPzKcx8jvXr4gdyxNBgJXvMAXOTocA35hIkd9oLbR6+d4DR3pQfXkCDbqDGEQCIgbBHEyCO2KX8OKw0bL+ZDlRcZdSsYq6YITrMIiBnDkpJ7MpBr+3hHkqZymJ23tWN7YG/X6ZkbyEnj28Bf+fuYEu+lel3Q0tLIDxAoh+5KosZAw97IjEFxCqlpo/+YHLLXBiAl7b9up6mr6Cx+kQbZJ2D0ayCBlWAnum+z+PnsA1PM8xrX9Bo8YZmypDY6FCW5nuIFKO+mcijHrAAj1QKjcDSYmTNhCOrgThyZkVBYynav4zebkQ7MbEeYOOc6E9XdSVZp6q8PHIiOy5bPmaY/MqQ37HvZ0XsV/xx2FHeKbPMkM4T7uPAbtdRdgqNSEJDCmDQOCKAuA5gDgQscRiQODNn3cM/zfBzywBi3L4vrTUPQ63gVAt/FVANTYfsPmLtIhbL+/KH4M1S8+3Yx94w/lwJIvEFOcO4IryAKo+RI5sRv59pIqz8Zo2tDYc53fVa7ULSlbvwQT9cBzJuJEjyAfnPqm+2ZoQsSVL5PMpTKvlq9J4a6TagbxuUSjoMCJseQfi97Om5J9SZ1E9QickPCD3Ytvpc6tkbdqHwFhKkYBS4GOdNNMX+t8OeD0b5wgZBVnZWV/RbAauwOWxuWZ1oecLE8dVm4aYAm9gwugQOQp8lgvyS/goxaDznrppwacSb8L1hMaI/G/vH30IXVGf4+V4Pg8ONIp59cSSjn3jCR1GeGnCToJV6z7aW+/p6yrx/sI/1nW2Z1b8M1G62EYb/CxzY63RvP9KxgqxoGFolMdHl+SWygu/+t+6/g4uG/wSZUGvIUUQY4XX9CO/tgXrss3HLQ17b3XEehMewb3KPzqeuE6Y4MTSRuRffWhKUjuIUjWxVCtiTSbEEcsIBS2Nr/p03ttxTq1Ws8sE5KNC0kS4DGCQPeuJ2gzLb3Gn/H9szqxx+qsfKtt20we7BPxJ9cl5gRkVd2WTOTO03rw59CSD4kpvvgL72L6jJTgT+nQJ0o7yq0M23Iv+Rx8HDmQnWvEPuozGRU+o100Z017m6Tqbz7Ks8O5/sAcLJo35nED5AEJWTQMsq5R6glR5bUUTIolsKOAd2N6WoFB0I357gOoMj8c+SLDVDnzJwGWVxplz6TIM54J+V1cka0+i7dHI5ID4N4NRM+O0LE69m18W07l2fR8PQ0rzdWQrENW7OSW+W9A87y31rLDfOWO0fzr/kpIZexkot428hJHkR8pn391AvAJCa/SQqPbF49+nTgsxORiXV6SqQLrTHKlaYxVe4iS78B61tiJfflIKZmO+uNHTqxnVqCg+iZVFJk/pfb3YoabPxfmi/slMeb36/XkuEDSlPh4NRY8poLsiG2GgjJtclKgnKYwAeJSQcLhj7rdnCYSCDVjRGzPXpaZUdMXVdSVL7HA4zM9id6BiTV1ayOVOEgaWm4y4y3PAq+yUe/wTBVMDqETTlk39QVCjm9Pr6JxJ0nod8/pI89+kqCWaNgl79/ll4BVUzSzcvrE07xcK73ZEbrsLnnfcnrB4VTWIwi4CR/z2VXzt42tpKwqBxL5jeXwe1915tIxTbnrOU1qa8mL3YMECZBf/w3Bn+Abs4rY/QSW33oXOkeRJTdyqypj21HmALmqedkfhqwK+PGM0+t05W8oq0jajaHpsswzSTcsfggYkVtgDIDGeZ/E3BwM8rROhgyI9krdWE+K7ylsIlA0vTgRK0tMz/tlyswcDKAwkiQUlbpSghy/bdmIuH+Qx/zlMIW4lmvC1svm0pKHCyEx4mPDIn3LrqfIJWu3iuKrUzbf+kbhHVo92PjiPHkg+gYs9/SdK41bCqtTArdonPVriE9RX1wPks/eMdCt2tlqQgsIPUuxfwGOSPg42I3BMMtPWjINz1Z2vudMy2EgfrZG9YNJwvtQU6BsSOUp2FRvIGxWnzyXdrLPmHukqL6lAETQFdoslAJDJTPLPsaj+jCgkofACCCKHhaQdcytPnyGdtBnjQF3Wah29gmwwMXNFf0McurX5rEki9D26HbUXZPHp75gxrzkrr2Nz0BvnoeGVyTubQl1iP/R2HoyrPPZYy1eyoqPvvrHlUPPDxaWK/WUqdv8bxsFFF4KLS+oDD/1NExKQs9Vckmx45WjMdL3y4+18KmoIOUm4CMihk/0lJPKMMgD31p+EVRxBNthNP7mfdHtRQdRLx8AzObKMmPtcTt0WFqc90SqsCDG9wKNm93U1aE/jdiF4+iGcrAJLc+NlW9TCGU5LW76vWJ4ShGoptV0IJa5nXwqc21OZH+5zk/qwtAMfaX52wqrv12/c82ZB0PY6iKpl72S2f6Wb5eUHjRmN9SeghvjfZ2JzPcs8svOpvKJknk+iqlwCjj1d1/yfa7NVkmIYvY+Y+VKO7Q4smLa3giHFioxV9wQDEmPutn8rvHoN1ABMp7KLtpiMMaRkrPR0e/B+3uAHMdTn/MbV6qXIT3JdtWuZL536b2GFHEgCXwpLYHIfcs4cej6H23a8VjebDMN7YRByQX5kep9khHYn+N16ORESQqB0X6Bmt8Z5SV/xtAPUbeLGalNBmK6db2qiV2BpNCZjNxUr3zwG+gKmlm7ZaaeTmga1cwggDVtGKfH5xPFU5Aqk+oqNU6uVLsaw8/FVePic3JK04t1A6AWn/nVJr2QQovhKW3zMYOAbqiACSBlk+cOcNgpQQev1kWOIGguJlvpxwj8xO0IiNtO0vo1wDqUghC0z0eEIjrZNBPHHYzDFyLywMYrBW+TczG8OX3cSF+Xw4/eJxp3yy+8g/X1FxTRt/2FxEtUv67slmyIjzZbuswNQQ9WsX4qTkKKZQtJglPzPvGUQb/5h29TEGquY5V4YPqSPS7y/ar3ATS34K+hwQxtNWEIdvFnIwo9bzecxwVIHKpmB3adQUKCg1/tF3Lf/5QmqxO8vqUfL1B1Fzra12cn8vaXc7dD3Pi2A6uQcuWXFghGejwC+QZgt9WjdADHtf9++AE6hITQ8Dfxak8Cqj1LZFharQS6g/WW+7q7LgD0w8fOylmnLwamg7KsoiCqK12to7zRJ2/GKGCSuIqY4yRNZtyc5qHEMxvOVe6CQzw1P2Xf+9/jjuzy72QwdVVgGsfSfeb6Oh2GLhAXY0v6x8J8MxHXLzz/VJA/eYpmaV5HRimYkDkiN+TYVf9r23PEVqEfV3afXriCEh6P8ISIux6oHFbRCO/t8lxXhqzXY84wihnN23CTF2HnXM0H+nppwGLxvFyTYzwBzwsFZlQ8trl+9cZoQ4jVYDBvxAxZO/yEnH1Oe7xfQIvPZKN/X60Gym2FwElsS+hF/rMcqh8dEDigDwqELjYYWgaU6GPcIZZ+cXeVitBP6LzFk4PZqA7jcmiR/zsPUyv5jeH48kP/RFrPzQ8WvK3qUg0/tZ412ELtLDMhbV6ynCaWNJGAnZzMOmXJt2ioSVM9b6SZCTZj00rHFMLwPFNOETwJghCzlsh3zOFLWuOPjyND8MB6PbTCxYsJl27QCDUYhvoPBU1Z/tKrrQe3d383z+Y41eXn0RD5TeTnjS5YhEKugMXzeiq6N7EnxR2AXpvxTXoQ2tT+dvAJ9jk/RIsorHMRIEX75QVcFLmSDshSwiCSiQ1Fthxt52PUGPlrriS21nRJW3rpan9HtlwTH/IBML5RGqAmydce5E4EHPTUk/YqFSy3xx58R2gh18FX/RI/YMeU9IwCOpaVDorsQmSwtu7hCHDj6pzydm8NUT7FpxjvyzUCBYTen5FFdaQHBwmcu+4yBLTSuydX2czdnMfSxALJFpRuliilddfCeCqTf9SAhr51INB8hFv8FmlZyVEHDnzrQ34j4GnrRB5KzZEEe+dD/tpByd5U2c2ZAmR0mA3o+l7uYfprAfOr5hJmmZ8m9rAX8r9T301+aACLSs0j/VzzhA/7AouSss+kqjc2NjzZpOwked9uslELBkStYbFLmhv29ZqiJ5o8x3ESvp91+1fgL+sxDM7IYeKaDw2jIiIWbxKxzWPf+zsVEb+uakaMdHP4BHGWPYXbGrxi4BJUc4fyK0POgD5A4P+dbPZ2kymK8YSyHUx7iIkOD3THFudfJylRWYxuuYVVxO/Yj4A31o0MD+gLzIwKaFj3ikT0oLE+IU9SmL4Ofj0K+OSTW0CYHFDC88F5dSA9nwK0nBLzySkOA2ktj6f4+G8nQavap1A1Z6tNgsW8k7atgUDds3y63s7Lb6Qo+3CO4PmR7Cd5yVIjxWDRAwTvHwx4ZD/ILG6GX5X5+2C8uMLHk394J4UL1St6MtSmzvJM2XlI133eKAp1wGYZd7gSmlD34AW+Py/RIUOP4bfgnTBH1HU+0D94WXuGcoVCLHqHZBqbIKj2rGSBCdRfc71ngG/t5mJmJo90WKoYb/e/AkOznPFIEK+YskLEfnvreOFAXPB7EpBMLvS0aabXRc/2OC/UAZx401IXeRpU2cNSsDqnqx+DLX2/zXqx+oAibfcodEAXvddW4whyzwjf4pwY76Q5C/YmWEgw0AFRhD2FiM1hlj1fs/i5ICc8+RpeviNJRQBdalDtkXJDn+NweRovY5GW5UqslGREbYB02BUX6Y8egveFAA8yFQnRR4dPqVXVaPHdRqHbU4raUuvn4agPhm/8lhjq820epl3ohPlUR3/MzXa1PcY0MTiFmz9fCi7YMzCvRGIEObKbnHZsCk9/rjGgFbwsm1pdkQhBv8xFjDByIDLgvIiKJWNXY7b6laZlPo9HvXDSOFjush7f8sHdQ1dWhRgnRLWl07Ofcgd5bE5uyjzw3OXwHJf24PXN4Jaia742wX7cHPwCcfcpmrFUjeM25/bbY0YQD0J+65mjx7s1c/tXt5V5unMIUbgdijFq8bdhK57Qel6NWoppEFTpgp6idQygb4SjcEmjsMY3n6XlruOEpc7AKOqS1G1hDFr2s5hPE/+yCyP0k+I0j5nss3INQAX+ThDkwXlgUAIYxC5NPibYrvqjCW6VJPkwfJ/Wc8N4ggn8uRAZ/2mh9UoYaEGqZs1HAIbAGwxfLhSWzbsiCICHife9GXh9RK+atCCluzMb0P2tnw4k15FWqE8lv5F9ia8/YkiFn6o4w5yrWlNcsjAM/sfxQwVPx1koG1731GX/aSNmxSAwRpTAztLQnM7l8Sb5vYFKjUbSdYzCv6gBH9Tn82hG8cEfXxWMz/iS6C/dkmbykrM4Atc6Zyg0xnEvq7rholxiO2uKd2keZY81jVSK/22nNRirraqxMT+b/TEiaK97vkRtWut0guZSX+B89yeR4oPFWuJp6O68nFMp0MZFRBaD+xpxj+GyujZydmoEuxKYkFgaEAUF0V5KW1/6+DrYPS0LcqwbMLRA4thjK7ibaZ8E0E+TXnPpeGdMlKGMkoYzVNpV0Wv9tGNcMhrpGLiu32hScEuXO99zdbv2p6cQ/oXvuUt7EBKlDcnyvqkSX8hnS6o7JHE/kcM4zo8FV39/I65r5FnvDOZRDUcYP/CE+EcfU+55BFtnrgSicusO/kwXE3/gQ5ZqWDuOdaJrs9KD07JU+1viqNjwD/AG/Sj+VnMhg6U3wns0lUW6vban6mIKeh/B0SgZE67lW3gFvYwyTvpgQMtlrvvfwhzGVM0og1PFVk42T2fwGho772vAavh60dwIZCi74reKteK36hCbMbNswszZ9d18IiwNgei9CNIAtdATh+wr16UOUDFniFNG1/iZ6lQ2f1/A5cUseusvbioT1TA9Blfge0kCE49HIn1GrWfuGK883ngf9rweH0XRaabexQTF0g1vJc9sOr818gOYBr6GDNZ5U2gp0exKnBUC/6XXt9tfPZMVF1PGUvFmK1Ik8IliKtLmLeAQqecjvC/VqogCk7uVZkflwz7R6+fT3NkY13EJPws3FnIRM7NNctlwMVgyHy1LE6h6FPEDRJiD5p0uMM0CdHU4ZW5zQWsk/UfReSs2CENR9IMYaKaNdDC9l41eTe9fHzJmiAOS3n3nxEJYdb/xka2vojSv1DXBKSLFYVGUaGqC5gHr+GHgFwgqxHYDKWrmMxmveCLaaQkhkbnY3Lbi6LGS02G8ohEXXrYgWVCR6EcUiakkfrMrxijiX8yeBAHuDJJaHO33B+U73A+wpONI9qmjJAtOByLAepjLh3jbLzK+3Xn4BBmRFqinEG0LLqDVK2/zHuX4oWSE8GsbslXSO0SgZ1hfI3jN9NcpB/XtmEtXeM3C06wOiz7ANlNLn8TzDEWfEc4U/JgZjfDGpo9D9x0QyRn9CYgixUwxXTGC4Y3eGLYE/wUkRHdaKyiofvDDz8Eq9FWiSF/v58FAR3xWFV1oXzDhW5RYO3JV7wsxBrEc4fGsT8plK1mm3owVk+k3ro/crN3X29yZY1f9mqJP1CVSE2BLoZ/fVLTpmmk71b4n3+37vhIDubiJsm2/BGNrBJUHgLxMDCsvysAA4/AVwHm+YkbTNL8+ktF3IVDVGy+LG9HNt9WyGrL7PxanCWUkrYrCBhFxXv0s7Szbon/C9XW41kEpJ6w/+ESJI/mY55mrt3YQ2AydzpcPadhZ9b03WJSNSZMjiwFoatJw0sCig8DPlQjayqIYzWVOEFV2E12sGJerxzRaEllbw3qioNa9MCZg8oVELesU8RdKnQiXO/8r0MKlVGctWBE/tt7BW27ladoockZv7WL19aPbaer6K6tabs2FUeP8KNNjb9XYUu6nZU3NB9Wv33QWqnPy3YrRP9vzvSqyBia4ospy3oV9D/mrqeoLNAzi1Oz5vdeEVU6HxaofBjFY8gvkF/KU8+Gz5s4+SxPXcEndT7VffHutZx65BvGdCZdj59F9seJEhm85KHv+Ial5igJ22En8QfDgTYsiXT6Xaic7dpUvvy/O3VIbHu/DhQF+fF8ds0yrcmCM4LvR9FnMUUlyJY6/Lu3BT+FxEU2/NsL3vOXbcXcjtM7DJgqeMXy+ln27OjOKldI5pxW9S8nPvGdUlZ8uOa7yukDJ9/NHdRL/TXGO1ei60tamB9W0pCHyw4nH0mke1KIUVzs0V8v+7VdsvfvCCqd5Cs2Si7vIFgq0JNEFLdqOoXg4pSm7y2z8qzEPrq0X9sOm2pSIvsas85jcIau4m2yytjezc3AEQ7FWLJISHPgsCgcgi6rFHAswd6BFPiC2LHKkUaE20P87jgHg/8D6POOgaXpDsN61wbJXhw7a6Pv5SJCY5e8osbTCnzGzvyznum04aMDt0pVwghqN1B64Mq5ouaZpeJ/kC1FkGmD9mkJIxWftwmnSU/Urwv+IJQp++AU93cSXM5P5n5ZDpukDYduXCdc4aypOFCo2gh19hzcD9gh6DazZN9Ski0yB8Rcm5AuK+gWmRp/Md4QJVO4w4RCTIjk88ZYsscwc0fU5KMM/8Ld8UzoeEG/5BgpdYHfa3T7T2/M+sPcYqti0b5tHpPUijssn2rkvj3nJR6KTcrP0e9piE7Z/DkdOWkDrEV+RAl1r8knqn0cjtKuue6/he30wx/vuBIabLU3ekAxfLG13bMGTRI3+cSYneh822L7hz67a5PuGw/MZ/t+Lo6zCtm2Lfs1fEh9Q24GMAEfEuMCRAoRW/Y5WiZu5XBSmtaTns3dUmNiolWJv5UBgGSsOkkVD+JuzIlfQTXRqNMwxVtPyGMZaQEyY6AYuBhHodDawaI/ksBtyY7Y928zXHiqvXdNo31v3KBnujL2C5AuHXCraCO/n7I6zwsD26s1WhM0ioZdWGoSPjBu6xEknQr6xfJ85Hm9Gw+qUywyCRzqWY76/VuHYpMZkrhv0SCnz9nNH9Jon7SgdncdCCl0L/uN/y/QJn7EG0pOuF2z1H1hsIAbvRD6TcfsJhiQW0H4fETMc/g/Kh88E7znZzG/oIHIAjPU0/0R6WVgizTN6trvjr34e9IQU3kUdIw/H5HMsFZHny5IHD534EW8F7Mrbwk+t0slbDGMxGrjFAajqVlMVKBwqMJXayd+tEjlDKQwOBnhRYMbwa0uQZMJhaMk7+/I29kBufkVoq5+opAvvRYuA81bT2+/d7nbV69n7szP6wRBvnTLy7TWtuP4pzGP+nxkL218QmMs8GYcS3ut1TUOz2IqhxOLr7XqBCz4I+VYWWPEaZ2vuLa10d+FakKnt4pGZ1BHDy52JqJlMS678SjErvjWPuuhi7q5PqhQkoe/xRlL2SRE2kZFvX1zcRIEeolkE0TBuTmZ1eQcpSvGrF9b8ePCvdFbQui1nyZDPmeToZosF27dlCH09m381UQBmq/N53UNdRW42vdADwFZ0GTc8T/eOGOl7bBGiTRC38bEu/gNrCcHfn464ri+SExNsO7024lk93/ekcd+5K9ut7eHmyyrXWuvd0tLZF5QtIgOre4OlPLv0hjHs1iJb10qoLVtdeJWOWzPkD2F4WyJJM84gR6FvN39HUilICUTzz6awoXva/jfTvyM00GYMABPSHL9pRD4Uc0fJyyOHdEzylQjTwbFWqReBsIw4x9tV2ZRm6Xkrl4RuKZxGgn2fSj2RvkJgQQvykcgLd0TH7TAkFRLZwo6iUbuo1Nu0NoQRRWajL/5Ixg/E5EWFcO37jXXxy25LmcL3JzdMSYAET7CyqvoIGZS3vOchFNcltsBrZZ9tYsX3qm86309f1xkXTv1C5DiVosIVBULNJ62ROwoAAb91mQHYIODBnS78s3Ec6Noloh6SnA2Cl7HiIds1sq/D5scg9M73a2bHQUc23eyvASwh1GFHp1vJESamdZmeXBvjA05ezEUL3jNpThNr6PYnGKEEtVNF+D1Va1o7z7YFdDRl6h1G4FhwDyKpLZ3x4nBHKA/gfC5D6kMMr6xrANZPalTXHv9p7KUixehTSt4gWPLD+vJOL+mpXPzg4AwJuof27RxmE4B96MwovfZrhxui2FD1+83LHV30hTi95f5szHzyllXpfs6Nnz2KpAN85BEiSSAJJGkgGjwwv9BMsMXTwvibaexLAQqOU0UTsJB9KruiZh4cYDovE9oCeYKhtxR1h4XjbP24TUe+qb8V3ZvU79KZKMWr5azIR7PBgEedxNrljQCsO68JxwBlTkN0ePrXNfKCYy9J9mTrqq/nM3FPW8U0JcFvg5g+GImVAkehxHRmujS8g2MDWboT5xd5PuplcmfEAbf6dd6MGt1KY1UCL7ZOmDMUdTc/DV8KBoD7m4QB8kMlt01dI5J+LviCUP7a0uC4LXURpBl0nf/OfFoQPmZ97v0oKQH24esmsv1A0uI46nWsmNEqKovl1UWwkqUmwjKH2JCEfJIkvzlYAGDItdBbSVkYDOYC5niBJf6+AIhqBfI2F3W1pRuAm0kYlv8nk1IPlkn9jSYtM7ny/xPw8tf4kTDDkFuyDMOpDGDLVhfwwVCjBPfJ5Ssrg/d8ecqkCqE6cK45HujSGiAIgz9vj0GQb/nB79F67SkqB2n4UsvPI+Tv73k6Gw17/Py8yGP3Evaq7yNTweAJ6MFIFGOz8zz2Wj6V6RJ7Vq2skBT13MsIlS74n/ld9cgm1Djaf/3uopHAnKXvMSglwVBikg6owyLjo7AUsJ+MXAvSrIWTCYl4JAnBNuXs7ac5hkaCb0M9oH/AWRUUNIJPSj3S86Cr4Ic8MGIsZmKaKDpWU4htg5rmQWuhS+l9msGg0yhz8ndIUhQ1USkaE5y26MuB0GPex3V/bfNRXjUt+Pg3vmZt6qUJDNi0DKluxxTw+Q5iNO/HUXqrHitPYh6R9na/HAg3lTjwc4HUHsbf+3wJtaIryn5zhxEM4Wh8FCX+/58plaJ1b920GixtDCn7Q/eAs+tTg0fiCLBPCB/Eu8zflYOqLpznBZWolA5TwMr0zvrhI5HmIpLDXjv81LVhDKDBt/YDokB57CV4TxwFolMccP0FHrkouXviUxeE52LTOMWk9lee1srBk/+7UCl12QqpAx74PG6gfFswoa8w8QtdCiGccFk2BMw1WChgDMUQ+Nv6+1bRtaHT9xTXNJucH/jFDSeJVQut3TGfg3B3QQDSyr0oOZs5sbeZYLAyXtJnHChOIEMaSjIvEOGqVaCe5lW7BD18nQvMI4j66wNttMjcjJPRAeo+/Nxbu5XIwo4wxGuM9aUr/VPFn1xUC0uITeNDZKoKCw/SR8UBAJuJHmUJHuNTp8GGhqshPUcRwDBFekur5uBtVHHk8sF3pp8fO30NTmHsE8pKwxwEG/tADlbMmoeTmNSHcxgyxJG8zZl3RHKIis+X75piSULkPH4gem7BW4vTlqKPf9dXopXzAEqKysVeJzEsw8n8khTLTxwSrD1g+Bik8jiC8P9kF9DZC2NQb/cBITIDMxBq52KQMrw75tuOPAVBu6AeQ6+zeO1qtTk84Nx/qYw4jkEmLf4zaqT4wr/8RQSUV9n6uQqDto6jER40DOBKKwhlsRf3XZ75eyfoIenlyo00yJ+IqFUZR4sL28SpmFDXG8C2jcNvx31DdfNBkFRBfPj/okXK7DpCBSwvQ/6t6hMK3a1hNugA120hjqkZ1yMUfp9MKiKaEypaik6mk2U606y6ksVCFwBCn0A4O/bdmExzSMESHcqSBLL/ZuxHpCyOsoJa/RdK++Ja4paxgfAeAwoM4H0C/WOlWo9aMkaK+ynOH9ZRNR/HgedGqOizFEyTg97o84uGo/mKlnznInspg24qGWlbLL1qH0G0TST9Sc11MJElgsv4XeIQaBc/YK/F97ZDnN/AcQZn4uuCEuyDx+AdE77dHar9SFSMni/WNXRsIyf3k9GrdKNbW2/zB1hLacCiRCQla+9RQXtp6Pt+7/D/Z5RPHwJsN+AQwU9ctBXcak+y9u7E6i6Mwk0u3KVIrsSGGBz9xED+Mb0kJx7ikRIA/FDesSOScdapDN3XZP9+CTzLn7Ags0DERHZfvV4s5SWqbRbrPq+wGtJU9vr8gXWpNSniWQbPfrVPpulcDARhpBmtYfiPfJgyIoGr6R6eUDp0Py1BA1IAcpRAnsO3wze6tJ21drMX97Puuubc6gtqUWmCA1GC6kB64xPP0D8o6QBDAdQDYEQ6+yXnl0O1u+JaD1kyMllmRrCpuFL8zJ/lc5RcbCQ/uHnIUyGuexLF8M3aSDgDhvp/55xKUSgA7W+Y7TlBDFC1+ip1+ipjiv/vjcY0fPgcdDjb9h0h8ivT/ngWgOEjOEWeJ/eZz8IAAYIwqaopyonP3zKFb/zzMTjcohNKr/KUA+i2MYczz0Jx97444c8tVh45onYiEDmqT6DNry9L4PsNQ/VzCzeLsDSUQcYGB6DfYYyerMvbZ7QtO7H2JT/89s0cM8u7LlEupABlR8GjAm0Ax0DCLEF/WhxEWZzj0eiKEdXfC2XWJTOS+R2cJlKm6F0Uv6SJKHBz2N7nCB3GkE9aZmSphCFREKNf/750XEAF0rVBksUP9AuTQeD4+VmqGU6OgJmrJS8lDsNH4yjyTlfBAz1ARKqhT5aUUxOVpcNYMAHZsnO++UTwyazes7kDlVFxC4CzJBhsANxio/qcj3M6jCTyCowGH7TvN6F4YEtC6v1yPOBwnIsAb2QnwIlaj1lO5R2r5M5SmYr9epybLViIotu6KSeN5fgURFbuns2V+Y+hM1GxDrv+UDhgNgeYp4eJLuudOJgBeN1EVTaNEEu3NkrF2Q37zs0OvBwTyxEf0RnTMG6iktUaQR9CLEeRsrw39BkTaa1f7cZ5nJWlti0pgWL3uAcR1JOjS5RCHhGiVB2NNchsamvdTXvM6xl6mlnwj39G9aeBwPpG5UaZoA+Wy1CGD5zovK7DEIno6rGf5hc9DD/vAapE21LSbJoR3hy1a3osokzLaOvH0AmdH9vydr2XDCIRPQY8wbaL+lIAhiKUKQIwtSe/Y0p+pRix86HfzNET6diD7SLDedahrXS1VJmQhMCsggxx6RdbclcRvQtUjG/dx+bVD6GiDbvn/QR22+5fD7cbP8vA8oyLTfYSTmm/q1FmR1FcZYI6tx21ye80H3pFUxQ8iUtsTRtnZ/ZyvvfGH+F+p4Vdqgvp4ngYn2vGTVGiPfHN9apncb26bTEer/t4ngcWok/S4451y/iXZUvr1nUh/szdSVvJOronS/Kx8snsl6de/EATwirBF60pmr9rgHNoEYoqYVzW/21psM1cX7/h+H76VSRzj7aVwN7BCcAYfFJLP5iCsrTPzncdME0CTzPGNkn8bto1Rkz5szFaVbSPS8suGO77QTjsDUW3tCXabYnoSOt5rQEg2FzwKOTc0fIlCNLoMoijugPpLZAEsRU5YArCdWXsocLym7UK8woSYLkfnDtXfvzWZfuJAQrcB4RMDPTSR+lRxkr734jM8p212DAwTjGyLM967iAYgoSfx/n1JLo4M8EZW2ejfBChvOTFQrjq4nebrQ/uDE9PkEOxXggMn/wwPJD3txcAQImHo0gQRWYI/pDL2TYaS8149ci2Eus4d5OIJxrrLmJeBOsQDzVZjuDvEubS9zOU300teqXyUzIE1nNqABx572j7LBuMHXMLXzmJm9zxS8UQD24qPyCTo+iz6RRMviFPHAsINARAmY8Z/LxUEjxVi67a/TY8fE/vVQ9SlZ05h5uefcn7tVho0qV2+NnbNATLJCUI6srWL1bRDF1lcyRLWNBcAm8famZcN88XtMYMdtzRrCHrFlnK4QOCovoGfw0SOvE8H9zQZsItALKAvjTtc6dlbdVV0T57u1FkDe4uHMRwyA8AblQ7npHdikPDvkgRLlRczvAE4Z90Xl4ufyVn2/fSy3PqhhQoXrskiTiIx2BufUGQ0TpVhE9eoJxwTJtbXz6hZxByT0Z+IlM3YdnWToQHcZQHG4IT+GYr2IaUGoTvoOJ4zsgkJ84tR7Zd3UPyPu0ie2UBg0Z1cCn4GUyG8oVdmdwz1YQ96DgJob0e4upSYIXDAiSpVy02PddhOKovkf9VRVI1PJDcdHcy1snyDS/oNBsExeSXhmOslIWcE2eYd7sRIHC91yPByAkAKoBvhjqGhxqmOYlSWzF7XDcVkaQlfX+f73j0Vh1xjN/XsM0HCtjRdqFnm4Ex0KreBFg962GD0Xa8RCRBnLOJkvP7UQiDoVNDfrQijgPyRSMDIEy3gVYE5fP0lVPC5XxXaxGgYJdiwnUqRNfh0sN8oCNE/+66PXH2NOnaAWOJt4H6Mn1/KF4KnU3EqxnnbdvGqGm6BAk09/8zSbNVBSPLP2TysSA9lfYbQgmjqfioJwdGwjYB/TCS5ECKSGZ0+J3wUXP9VFfb+Wy1roGBrlptXeGlVmt7W31Jb8lnNjBQEqQfdfExhdmWI8yipB/MbnxDGlJcSFfdu+ja0NlR4FMJhaeE0qYUI2tzc4FHDgtD2PI2J0dteziQnRIJHsU0nTbtTQfCbCXQZuzUB2zMveZKy19O+2p4H+OHleXI70sARRdwarc1rAKWdhT/hyRtyPu8ycPhz6vYYPmKDtrFfXftSaPcOrDA0FJjaHOqhUoWtrUpTXhSswUCYsu0l1Zh6BdILo4BgQ+dSRUkZrAh3eNwkM0UJkQ7SbS0liPLWny7/ugKUpDFt4jTKAGz4kBHN0/2hY4yS4/DfJse4lc06wKJh1vPXe1hpaohdMfe19rKlvUvoir6k36V5YNWddaFZYhVhm1lRY73N5qCQlmaObGgvS0x5k/8ipVd1ap14+nnrQa8C33O6mNLsyqB9QQ+MiJ2LCNZ5MjPk+clBcEw+EQg+KifVen2uLHfT4tzGAASsrPhYl2vhEvr3anlbE324AJH8PM64J28ii+c1jYnTBW15Bf7OpXmh9bobcrbAhVVOEE15Tr+7vM8283P7xBEZuRNbknXgqKQ1w94CWxHAVUMpqdj5w5VLL7em5xm1yKWQH7wq1MeXIqk66QkPBXCA1TE/GWONi73LYOsMfs6lA+7RrZDGN3NMIIeDXl2nKXtwIFqSnxEFxdBgeqOhfloHAESDEqQ4WVOnJ9nyaC8t1A9dJbQLa/UIR8NBSkPxIDcFxEANOT5wEVPN0KfOkWtEvr5hfOAFk1ZkPGSvssCLUGjEI/IeouIPjVl4aei7Jv88/9ekm6EmMqdZZ7tPHxQabGvRNVcGxG4FbEDoaIFSTMgFbzaQfIqytS4ClacHjC9QapcW4epR6g4MmpaUgybKkXQDYyn6e5u5IujzWy1RAI8OBOpBKoHqfsigcKQ9m8jpPgNIfSs90y/ItqKdb6PtYos6gJOnavVt1y7xVL7o8By5jYYg0kRfM2eY6dyMt+PRMMB/JZsJZfpaAVfEGvo63tnR0fT2s9bhCRaRj448C9dLVzFFGEHZaZ0AqFPERjwe5Ob1coS5HjoNWkqujt9QHXDAdN+MLb193DWGwiY8iAlWbRkfKUguNIq8wtTyPIBexN/itfEbZsmi+6dftV6R2dXsuInzjNQSMNFOnSa+TrDfYCsjONFqfJUBfvA2qLbUjPwpdzqC1zb+u8RYL7/9h5mI5/ND946SF/TfXPLnxeJC3bCq3s6SD8nFAgdufxsfLajJDZ85wd76fJA0LJITgUHP+5rZtrSBHLz5SQNTu/bK5XB6YHl86VDGNCn2leYmBM8+f80bo//AH50X8vyLr0BrG7DkLgZzko+NDFbGFafAtEEOcKg9qQBbjmLhtNvRV286PMWBxJlDgK4gpEKfJTaSqBoTc10w6BM2LHIup7hccHNwlTiWEwNvbMCRZWmr3Io6G9HrGD7AcM/ZrP0pRwip17YI1iI6Qc+FHVR+/6qBmpVDs3kLV0o5MwrlFJ27Sf6wLXecdM6DyNf//6X28mxryZHpbuK4nHoHLljIAiV4IWCREL6HwJJEVQ0rPur9N48NABjXRKS9cyPtsKleDZpOJwcjkKREn3hJkgXAKlnylaP/kJu+ysDmrLlmVR8S2ukTLAZZdSYib+YdQIc1o+mcOpTqGepROA95/hUBfDRSw6hHoKcExYbJP174JZWUWqj3pdnIbc6jmSlKe5aDMSGa74OUBpISRAqUfezk7FeIef2LdZuXBnRltIPH5EY+bX1JRGpY2S5otUtjA5xsyhyDm6SNl8Kw7/u05c3JyEKizolAPsqc+jGgR/thj0LHT0ClC6YjquEyFZFdZ96A47+qt9e/qpte4tjKHdJAtfgHYfPCoQWeMU/15VDeWVF2uYb/2eIi6Q9nOhV9OpnDr/qYsPB3PVtHAXeao4GM6CTM71Ci7LMt/b6AOAqEdK2PXjqT/4e9OIACV/v169elVB7HB7NAyvs5ZynENO091g0f5lmz77zsjaeXha7Xb40aobDcBEjJwz+fGh29+3F66fKDK0/yqcv4sfXPnwARXWBe8mpnchHiGTjGLrHLk2QUkDwJ+ioLbfWNPLLsM25QxR2cKn8q5y9/FZR1C/5t7XvyW57K6EoQ+kF+6hX+zpKcss5EP1JhBVUt/yg6/5rXwzc9sfzDpNkvtuWBt4yDc+9YLuNq8Y9f4hQ36XMdNBfua8jaT3HddmioC8OCEq3hwOFk0XTRhRAZyDnOj05OJ3Er/j2yBrxppQBVUod55YEKmevRODizyA8+BAvxn3gUs1fXQwbbomSb2Qx6LdXnzh5Iocv53fJE/jdC2GszjWM9xPPK02QlLClu7/dQPFBxtRefqf1M8oXymiMeGmqH0qED66+YFdKZqo4oOvZKHiQBdJtP8KchRhTCXgnMpRG1uFWQaHbJKjaV4SHgM5ZWbxHyGQTZa7pWGGP0ZYTszTS4toVJYPxLL1DxvupZWZsOsHbcRCImhpT/AsAlyPoKjVrJXC6r+cUINb6KIoO1FAxeyVgB8S3rKYy028s6q9d/bwu/HYwZAkZ++a54+5WRwVW65RzVjAd0kcqmwzocw8oEaI5eNVTyYxZP9L9z9Boy2OqExllRiEickk/xahVdlf/HpT+KeIq0XXM9BkgLfQFJ4SX6lfEDO+0HSVgg8AN7sZif9AsRTqlLthmSjvq5Fz0e9qeCXqrk5n655Xb4iipDjkAFUNRffR+3FWGALAu7IOhRja/XDVqH0AIK63iPhzjMhHLO6HfjFTsyC2dCr5cOyFa5ohf/z+DSa6liapv+waye7UUKGhAAfnWI6Bobfj8uPiQOe9CqXjKWxskhreNnlSoGz+WWfTtG1XRYwnLL6irn8sinCVUjB9roaB7ehAXqn9/uSeJ4FjVDR9yUQZ09xSFN9YX1bdQKJoGb/anCEWTtqwVnh/D3BWoMGpyDQO7LmOGVkz5+VkJ4EovjEEHtJjg+piv/ZvzSX+/ohCsK5t1XJ194lqf747twLOPtgdQH02pJVnBJPSp6UuJKpKmlcmNvskENCPSsu0AHvaGEvB7a8cXo/DaeIWb5enYfyfy+j90Kj9CUHRef4h5Em9BgYg0pFo12Y/GLMTvxATxJgeSYTCjEb6pLmhFz0Myf9hv76sOjMAJjtueSVRY+K5ptUaMTBhJQmtm2Qb31EPe/Z5Ii0dnuFUTImc1hYGvr58K2slHcxVRhYcaZxR8YDWXIXHj7ZzC7m/KoRzl3JjOmZNxGBx2ny1A1wyFdpW3NWWJG6kPAW74g0Pg+N7/xz2eELuYj2BeZFE4+fhDwQZLogzfeuP2nHqP+mbaDBqC9e6yqUfQGxuXiBgILqJgu6iZgS5ZoK2RHXY07Cb05VTSRXrqCV6URd5q0bRMcQSjiTiI6a/vxPe0jKJIeODGfahSWk2lZWqP5StDUMTtK9x0ZazwlROO5CN37aeB5rRIbjDBqMiDs319YnqXHsFYHy3cRkR9rV3TUQyrsp6DoqSCrJkoOCotc6CU/eq1Ex6Gk4HdasWyUpa+l32SnWH0af8LmbVmWbQn+0JNvj/70ZFrYzNz/3u4ZUNl+raJ6+p7sTTTaV4Dr8bDmYoEjmhDGo9+V6/4py86EVlRwTB8QRqvVJJUm5diSuw9kTyf/YDDkQh00BWYgNu2ALfe5xjdXlhTiQ767cBeIiP2exUtJpxuOhbPEOghCJAZKIMS8WO6M/l2oW0APwI/obf8R44gBgqrtCAyE6e4Cj5IwZJltBNm+DfraB4NsdIRXy1gKrXTaDobLnjLf7LYppbKGf+7rmVFkJmqYsT+Sl+k+/jZnsMOmFPpQVLcA1K+QHzukTCcilZb+lskBXfnqlgn4QaDxIN9KRC5fgBF5SPGWD+Neb2uri6c7kDt7mKvmrgHZoSJ7zeXCbnfJPIxlcFevLkn3USuWFcjq8X0i05cJ5gCE5ofpARrYigpTKRQ+Di+xOjvnccLScWLbKr6sxji3EsQtqr/+m34/8cEdt1AYt16OL6/IeleT5Uspk+qcHx10fWaOoh59Yzc7Ablk81NZBT7mc97A2s6SGLpCzfTsGtZOeh625JFYhmAa3NZ9mTrEJyrWYorhftWem6FIFh+JHJPGwg4lmkJRoGfiSN3soZSC+T/K0Lg/7Hfp3grkiIdJTkVbogwoOWDxMvDmaqzOMOWr1EQLLQb3weFfurVyZvgvrpUvlx0qvDQBgtjW7FUWngUs3TUBgyt8l8D6URthEaEK8zoI7+tS+JSkLjsc3ppcNbdBVQ3r/oO3RQE/mg8xrYXW3fztMLYFMyjwU0JVZKMfqJGAgKiEJQ88VaSvtLIMmH1z3mOpVbY2ZgFnNqv+TDIbGI1nuHup0zD8ldxvpvcROqNT57miTlJPUdxjk9UPf8HKOX1DEsf6CvksyKkQTcrcpNsIqTMthgaeoKTmxDAGm+NPG0jsjaLXHNHzZUiZtucN898Z/XkCjIwdELOo20w/19mniSPrSF2IMYLv/CAD51vP4342iVsIQA/EHZIJTKvU3B8PYLbtt1V8fuppLzpW9XDTgwBuBiFg4WM0FeHgFyfsvOKVkCICZBr9atPY7ejtzbnuVYGv9NUPI33rXwj/KGqm/Z9d0mtOSCf81P5Q1ukcTfhxbFQx5TzZzu4iuh7+K2dxjk4oKJmDhat6m3AWFw7deBKn0MobQwin3gy2Knfr9l/5aobsSJKV5pmadrxbMZngKJuI1Jk/t8YIvC5MfxiaiIjJ9dibg2KPg6AbKkDxF/EHq4Zr59Uy/H80l7zlFDcbsqwn7Iiw41sTjcDwO98LdOVBRJek5Dlf4wejchJgG4jb1uLCtsrQqpx7hkHW3J30mnXRPb3F4cqS7uOtoQDItVGq8DnHitn047MekJfQpCYr+zyc2h2Jzpva84qr1jVLgpNCYsoWrSpDfoD9YsUUxSk8LPMH36O/w/0DUSeH12/BM3XZd/uDYJvzShvE2OaPNxiVYO0V6inpoArpxpa2GPMSDAwTyUOVIHBTfhOhHzWrYiZS330CYSGYIuBVJOXWSEyaEPHVoyIoV0lMKLgB5cur6TH86qnTOcb08UPWfJzRWqU7gnayVV9JAb67ZrpdQRqe6FIW8zO0jXPyWquytQ7k+iAojih+uNH9OpTi8UHYiRpHpJOss2SiIgqBYCyIMECOfY2CULVzJTqnLo7+5wY5nFyhX15ZYt/ULaIPh5/2TLTnZ+9FfxhMUuzfJizoR9C/Sn945zMlIwUnSiy91uTT/AhNuUlZUe1wsI7loIFM5uB++0426yfQT8oQSQsd9b5OreoGUrFM7HJb/X50d+18KHmNSxHTO/oWDzsuc03D6Y4WAFN74Hwj0NvK7DYDBXxT2ABOfGbmYqPJ1QLcocJAjqJHDROvqU400ohmNQYT/JjmocbfSAS5DLd5pnZjxvtCrJ3FI55y4lnvSjsoeBAHRlb5DlNuobxkGuZ1/uXW7t12T/W5JEHjLTTaf1vc2PsD7Jr8enMNY9VH6f65GYu7XmmndSbClgnz7WAz479+CM6F1zuTqZhICL+wVcxq3V92fJdFy3sNDRk+r6Q9/4lROXqhsmjSgZDImnqo9mYNCS3TyWVjvMVLW8sxa6rY4sbNL6O+pwXCwb3V01kfq0mVw1Hj7HAqWQqDyK57gGKmJjn2XR3S9OpBFTwmoLIwC/MTB1Ru750EZVgch/agCpDIeoxeSGLrtzYN3++3QKNIPvoSbPzYpm4AsMrhP0+W/yEn60AOBmQWVKWfRvitnUBO5W7DOpjisOKnd4PgQV/g/Su8AnjhjtH6jKyndQysNhZXlTBezhFf0J34piWzvs6XFCHOrhMuHX/60Tx2GI8ldwHCweGqGqbRqnyltQvaHf8yD8J41X+D80Q4Bm3zRGXq3GC24oKrogwPKfITAeZImZZGie7X+GI9ys5s83KqlrjbCOflkdXimaov3UUNV1mbVCXIp7tnEaZrfk+K6l9adE9fwPr0U7ulob8DKcXz+oMXWgPjkFfZPtAykvUobRMk77DO9lVk0mEon7HlTKNe/za1BVxW9awfJ9IaaSqZrLfd8vDBDSwZAaly30gC0bWeP5MCfds49v7XBAUQDDNQ6Irm4hePJV3Othr8ITMtx/rwqJoG3mK0jYPRxeHcONpQAjVyrkXClWI1BZmE67vzhm5Wnf/veQXCN5uRjLE0daewYHfb/7x9mMv5FeTUFZp/NXxA32UVFNjMyC1wr1HQdzGiYwnc9qHoHcAi0LncsfiEC/Qf7IQyKy2Bpc64giJk0U5jwM0JIL6tPY1hwTVA9BAtEe+hKxj6nI2G5XsMewl7eO6hOJ3pdMQ3HQJJFYwOChUtQJaqscmi0f9G7nQrp789c6v/volTW52y/JLt+tNtj/i/wmBb4fZEgWj6Hx6Gr5fHZ1MI84fTPAHwRRJ6uLxuOGwvQGbKjpOxEkaogvVQGZowXU4rjS2ZlHkAIFjwe4vWWhFtCWZn3jdZZ7UBFH+hMjMsBdNJawAm7UuELZ0Kweaeib0MJ1ZAvEhRWpB4/+PhL+/X0dnuiDbY+bwgTO42Hyi0w+TVB0JZKbCjHd5AJnCuQ8K+1/Vs8N7gf0pCfp5ZgAKAy74ccA1X7dT7sC8sJnzI/Kpb3xU/kXjLBOkjaw0iWvhUxRDjbVE2ou6rr0DijgUrgdwRi3h5LyCxtRyvG6G7QO/gm86fPmTgkOStNhkhhIkvvWFYWejrQgdFRsMo5iz70fp0my7Sh7pHentZt8mdTjrw/s/N09VzKZBu0M6sAEa2hgQokWrotjL8uGuDwU7/bzZxmIjAECsHhqm6WEgOOnRYVDvLqWrq9ezHM8ulkqpX63ldKg9+j6cawdxlfLEZ1INknR1lOGB8gURaUQmJ8SrS9tnDhKS9hNOImIGqd7FF/wC9tgvSc01SQtN8R4kKUVwGhvoDyJUUfFXnJAGLliobg+3eyR+IIISGx8gN3yU5yG8TPhGbibf8OFdxrWbBxVpQnOhzeVUWbQ58ePSrWDKdaV6hXw2ddjqA+68Gczl5MJC5SZ40jcG+M0Qz+gx5rm9VdL9JOaFDiAJ4ZfiSatNi8lS8hsiyn4u4uM9UahNVLofpmjY3pfXRDES4p/CwEffdReZESefJINefTrSd23uBaBvJza3ZKa3ir9IBI0gf1exDLBwFRLbnPpugsFA3Nubw7sysSx9748VZ7A/110boii3BAFI7dDlhnLG/71AMUEUgkFO7FqxsTwqvmdV/E9Nfwa1kLo1vd2WCqELIZzortDLyqDQCsujLPdF4hqc9SCOFg4aWOlzGhta644JV29UznT4c/aieRDtQH6zogCVur6owgy72831uqZuhoVf+DCmFD1qHSa8CEzvc2RZqN5pJg4Oj8WYhbckShApHExWAJx3kMtffEvZkU7ejgvv4zeFWhd9Xhp7HucG5B9JP891laHQYUgZwjPL6R/6QDx5zG13SFuT67LwuY81A7IVGI7hGSFVKNAz+H9ajB0FBIWVpaTWcQnRI+XcAsUml+04xYrukFZ4wTusmkG+VZLpHhNKhH0fi92d/pvM59L4fHUT6p6sO1yC8/9IKSx57zTt0eJlFRyrzwHryXwlJUdyIjA5MnL4zPf/9oYPb5Y7bl/UphhRGdhHP+9XGhkyBuIg9DLKz2cIEETD7DiS+qv/+LEB1aifbUecAF3z6ndWk/phopjkihIAVDsf8h0FiKJo8jSAStTXIyzPEZU6gIdAF86qoAviDyr63fcxNRZr03C4VY2jvlWXR6qpEjMK5mkJDhUPlYcZnmTKQj8q8eAYwgtT7I0l/w179eslcLFqlOgxFGyuck9yS4PDicH4XCabTAeMhZNxVNKrcjTeSfDVZ/mcGQnC05SGOwh7HmVNtDDNYvf2AQAjr4j9DCoiIFWXuVve4srYg+G8Ra8bp4ArLEQwS2ualxN07qJpgs4EgtFAfKglAxBGqK0gpfVrABe2DMs8Nz2wOHb02hSweL0O/7Jbg1hzt6y2XaIadkbAUpMseoBXDYILA2K/wzq+9CN9s1doeI6AfLCk8CgD94NAdoLY2inba9tx6NAi3W79ur2vx15GbVXMe3Yj4tSP/iyUFJjDk/Uv/1CU+Yt/6AQpeCnBq1j7MVAyJVYCY60b+hlWb9jNT/pCwdDsTbcPX86XgrVEF5HKlXDoirGb+J+z87/P+V6ZMimMhQ55huaxhqj9O4rJlEh1H1nJ5G0uyh8khQe57mOUYFesoGH0Mhyxm9X0uGUkknV+AUdbdSj3TbBDO7zijjo/LxgqOJEYvx++/V6kj/pK6i1iNvKNacma/LByuO1FshDWLqG4Cko2Q0PsPYNmVp6N2Ob+dnobcm/Fvx4tWw7g4AAErPBvRd8uS+3p78MH9+kiBMv2/Fy9xvR1E4GXEzl5y6ZQcRyBMDy5Ek/VjJa/yiXPqU/0A4ayq2mPVc5coLWfzYskvBOBOEPV1kLfe6mjF15P0aw6Nh7sGxPuWbZLIIVMyRv0tJqofsfjBHVKoxxdFNx3HybhGFZ5jt5pU6mqKbVAnEYURE/aYrhvjpA+Hz4rwJ0ZjoPFLLIgBGUeFwc+rZ7gDYgEEoxcj6N6a4XFCgL8dBSIEpWHcNFmTI8GotcNDCPt90tlW3QQEl9q0QvTT5sPUqlSw3b6O3l+MaHlmjzgZ1kKAEuT5XfSITEq/WR9xy+bWFVvkZ5Sw4LieRzjgOBYvgwCuMOD+7sn1nd+/3/lRIi7W8yWpRfUM0ooSqIL+HlBBMCqAsDBVFX7ZrQdO+FCakJxNApimlOjNVUf6gTJzpV6+6e/y3e88SBqfvZ/XugUda4vhFbSY6gKQ7MmY0GzQmfwZNLTR4WrVhJSkBweEPIxkGzpYzEDovecr43GC+3FaJyrxnosLah9yAzcKBAscwA0d4DElL7gQb2RxgJaK0ODKKvfcyYVavsVSzGg3z6if0FwFjjyJZKdMhYmEb7QNRKOmYXg7qMSctY0Z6sWaRZe0EDMV3G3RB3ZUYmkdmeW54ap3w4C7jrsZDDTWIrkz7AaFVftKXLGEzegljRDR4OFILKF4IBJ1/XZCGpCMLQ41sB3pw9+R7Jlz8IesbC0Mvgn0YB9dysAFqG2lXsZplKudtwLLNHnk79qzca0zNEK9BJ8LfKjp8q3ok7BRTuw8vZdHoOt0hA+4FWCJEAWxvZb3hAYf5lIi0fApsHn06nXiF0geDdGaIJs//rqj2n6SmA+ijpAoSvSjTz7tdnustwbbpCcrAkWC0gBXE0VRo4gVB5JyB4frG7vBRpe256WOGCAAJBTRVZwlRpnWxR+MTlQ/t/01f3ibfn+0Ip0tCEUOV8eCc5abrKTaBP7fK64mRRwPFNAe4BUpo6ysfrIL32ciRcyaz4vd7nTLx6ixZdAqlV0EkjXIm21F76TKxz1YOr5pQLQcjbuElvfDEWRstcpCKseD1R/7ltZAXipActFIbI8xgPa7OaqCNis17tsasLRQbQgshYxinswDbDjgqI1sK0rDRtNWDAf/bJGJQn3XaWwkUYkwpwV413YbYAwd3FDlojanSmElmqqxxqrkyaA+6/Nvr1+t05osKuMhRghjtscL/tyRX8f4UeMRDb1lBGsxidut4xfnpPh65l54kiRz5nWPBdarD20P1yXAt1hdWNm8X4Yfz6IRyuSvc7+jdUdeeL88xaskOQNZ0zs8i3FN+dg5I5Emf5yAkiCxQ/K06IP0SoFqAf8/QziweCkdVrZ4S2+Ziv6BbQsjvQaPzXUTdphg7/4Fho/GJXMXInRMHn2yYC6HhWJGy/ukBkDg10jeGtoKa14Xg5uupOdk//NoVMp0wvKK4oWXfpsPwJ82vIowELHnPn7DazWjEq/AHOKgp9nKN7aRZ6aAoE0fTnPx/vjsJBm66f4CxJTtG2wOKNqvK4JltxWCP4Em3sNMqJpw5QNmr6MlX0uUPKL/+dNCWPqKKziTY8g3jWuh/ugWSFEdnwyxaZlnVJlWo7zbWB67z00SQuBkKQK0ob7w/1xdB4LqgJREP0gFiQBWZJzzuzIknP8+se85TiK2H1v1SnEbl10Z2AVXRQhtOV2ZrDkbkCPex1Pd2HGcczEjiKH5gs7PX/920fvCIlvbYFZqZnmcRz3b5YIQW84RGr4N6YIvtW7uhD3frt6jaJh4ES+LdUTBAqMESHP8ZFR/lo3pEqvaSC51hfvHMuNDuJBocwDQV0vgcwzbeqE1gGz7Wjgv7xf24FaIRnJx0uaF8K0NbHRt61KorqzDg0RG2F4YyjxARYSvFFPt7TxpmZ2pRw5ijfl48ukC8vBxznYEryBcjdAi3EzeMkgLdXLuOgVWXD631xPdkCHKlcuIEaABKKv4Hc/VOr5do6s6XwkRJZyz3xv5eqbEj3QDVJhB5SulewfPwXJJzvARFBAEGkI8qcizAzNFeuZ/Xfu2TiW2kvfgldfkYtfikGEwRsEpeYAjxXZKajvOHz8wIicRJ7tewhC6MtQBtjloiSZhwKsqfTnu5Yg+FbG0R6gBYmXZrrpYsWMI6rr8IFrxiCQDoAh66zLg51i8J06AuqXIq6SsEOjxUGBHgQwFPhOH054RzuIsUmnDh8HXXuqW8rPomenJC1DNZpsLpSEhJelx/HpAvQm9JtqbLLHM/869Be+hX3AhlInSOKBzdf3Z7QEAeUAU6jE0UV7tAeum9sIvL5qNu/qdWeI6Wt8YGvRdjcA1iFbZlVrM9/D0ves2hwkuCyIuuZooozuGeENK3v2arfPfWlPUUh/oLcvueMDCOhDiqK3rWPFLlAV2j6mv0tkZgdzLPdYBb1xSrvDlDg6MS95Xb9XOM9xkGZPfrOuBajDhPWvjA5BLAG/SL9k4zTkCV7NWRCWKvABIKNDxlw1w0xDOjIi2AfDMAU5+vyrTKBlNQn15lDLZ6fvB0mQmUxl1bNi/BOGZzgPd1ZpIRG5MvoTlsPTCPQGrZvbS+no2V+XglZ6lB1EQw6Pou3hRc4ScFX9+03Yh7IiViy344O40gKaLVqGkSUnXMiaeC301Tj2eOSWTc3dgrkYUGjon6Qm5I3gVMguNSyNXUaw5pCjinse8QcXwzCEP7T8jHePshpHkbbOawkmRvg1zOLnZdquERWTS5lpOw4fmq5D4m8ZehPmlkh2QPmqRBUfSTyGQxYZWI8SxNxJK3udvixB5DO3ipE5nQaaLBnTmfmlJYqmk4sS9c7wko8MZthwgOp2nV8wP2rP5trswgT92zwHWe6zgvQ3dAxODkTHbjIRj6wuPqX87GtgthkdCNZ/9+G4Yw5umzzJ3Fr4fHspngS9IOJWHmd/PrP7XU8SxERqwGAknH3m0CB6dfNJC5C+wCCCw4JJhzahRfIlD+AN+EgdK3aNaXkeYJKoAue61Zw5R0vDxWQPA6r2l4Dt9vaE6C4KdhclNATR5GUfQnwcdqDqTRcDnyYrZpF+GUZbxs10QNL5ABG+WsIapCIDpCHv6Ts7qo85QCvRm/5Kh353xdu1X+CjkEdsiPeNASCsoyDw4ui1sClLW7Sb+h9LnzUz1fQIwf820fj8qKm+LXDlGvCDgoSHcQyt6DUvDUOjcXp1lHzEsqevORuY7gPxjOsB4qn4wM50iF+7gGMzFe52kDMr4fzb8P0YnYE9tb/FktpRTyp5mH9JUBSHC9VCTJEdgwE8XbhmJYq7Fgjs1XpljIELAn/6+jB19lgSdOunwcUwnfyCJ1gWGloPXBiHWLfZw/DKvIP0qGb5UiBq2X1yyUPbKDGQGwg8dKHCvdygd6i+VJE4W/+Lopg8yG3bupEyJnjfUJfAavJD6MwkXejqXqw47SWe2RbmS5YVWMq3wSovkCveu2nAP6lRjOU7cxZsdPM8uQK7o6JeYKrT1hwBSTYX9tWm3rR7HUBoC0oACEH8eS60dTBDjf09nYmcSKDIrzkxrwgmiNUV8bY4pZWKZg4Pf9On9/tbPAGWpMhVPjPfYC5IfgUS1XQwKktRNgVw64HPvnzBAxnMFeHNGGVdFglGqyg5oNkfTX677g2OEfcOLX9Tx1dBCeIHjOdv9N1vkrUodj7b0TivoAwjOvo7CPeBL24AGg8tR8AlU+xSxPLDpQkXnmKgUMjdr7zWGNQ7v9HRAMMjHcevhnmevDw+Jrp9CV88lkonf9UzNGS+mq0bfvPm/GrXE8+l8EQt2aPxY6Y94qZSgUohlw/AEa5xkr1RbvZLOEB4fwsFHRp1ZaEgFgbig8W/T4g5USDUNTUJgGDHGfe7ubdOI6hDXekzqhTrKw7gbT1jHZ7novgoSoCh1NEvLsQhm3Etwi0EdE8Hbt7ALPMdh1Q3kD3PiiHn2bF8rXeEf7BRIul3aaTtdGWzTKmXKhPjDgGlaRKapefmnTASp/Qz6RFPtIMarAFfEIKv/egXo3Yam4ZlS6mUArAh4nuUu3nEU+lldZInoA36i+xRJ+J9Em5oP9CzwWq5l6Edzzq4uRCs245C9PuwkDUYneESpBVxa+PHkQy6AHUGTX3ZcFoJ7T5jU8+mWQJI0aDE/HxeZUmyYN7Sva7Pi/P5MhGWcKht+ZL66/A4CI5v2E/A1CA6HC8fzQQfbMAgQajPxLuUNMILQ60fjW7qQDLGqa6a1xOUEPwGogtH/bCR5RUhMPfdpOlLB79scxqulcO2z9vm8L8F8jHdN8V5RQFoCcoehMQm5CSvMG0kTPSrQC+ifvO6spqvmZjShK0ykfwmLl/E0uxy54dykK4TPT3sY9Th3o83cWFjtVyVzv1AUwWB4bvapPEKqv0Q+auLM2+EMkw9Nl7TzSMV507kE/Qph3k3YtTw+508THXku+CJ0hye8ehCuJpA3TtgoSeLZV8Ki9fdwQs1m5qNxtkZl72wWcFrLGk+fjV1e8kVz0hHdSSZvaAIAiC4C0lPoxwSGAhbF9IqYvbMaH/XoYz9IBREbPxkSKV1vsfOuhMMBBg3JVCo79EwrrMDaly1JoLpaqW3RkjiAnAcxPkRHNVsD6LgJhdHpzMQJDV0O8XLT3ablSa6n30hUNZC8kVWVDiTZOQvwZtoWSyBAZg8A6OOsRDFgqsaPVLx650/Z5PGB1ypsbYmnV+uFwg/71P9PaCOAuIax/Nmgd+HHpmiLzLHi6YQSo/1WDknj71MqPRsokpCD/DwNcy16EQzpcKoNMUep0uvosN4ZCCA5ME6KUrUECkUDtr1JQG4J7h0XRAoJ08Hsc//wmtCfNdDjwc8zm9UqecCvzrHTMp5KW8qLyhfsbeyDtEH4s7cJFMz5//WWM/4dSSPRe+LdIbWxftsru161a5XEvbR85U0jqNQmaXkT/8NaVQjxsz+w0xR/dScs5H7lU2Y+4RzBxmXWzr3CyoBMKvgm+uEfZmaBnASeILAOBy6rgjb1NkjEASytjdDYhE0rOjhHLcCEzhLxj4+6nIBb2pBga6OlqTNI/8eoRkfZ+pjLYFoowhyz/lmoANlQYXws6yOD+X2rO3pczXUdInC+j6QiijnipxRYVjHGU1/vp2SOGslFJL+gnblG+M+jaYtrLjtJ4tmOL/QVKRECEQMjkOrgtnuA6/VxsWfm3snmYmopS7fdoKWn88LsjIrd42oI+jDALoUmtu6Rp18Xf2IiQV7c4oNg2AIWLrAc0tx4oBamo95/OQl3e7qrZVKf5l0dhUwm0X4jMmP98qFhS1AZov+/haYJAqSOxO/OTchggDvj9Ar+xyiwpeSed8rPr+STfefJ3KNLEgYGY2IXn/5CvLS49jTm452XpY85qpqr5aqrzVwEx2fP2uS67AcIuEgppc5Nono136AMedeuHo8oagODz1D7rWV4zqqanc5eMoYXR+6hm9FAp+ALHZn26iJo4WFR+FMzUKJDrSOZQLpeJmDV0FwBE1lm8zv6KS4nglIT7xw5DI3ZVSvv/u3ej70/YO5mABWipfJv50LqSZ9fXS8JqJvI6n6+2H+sudTKVTwh7/5tejyAWyJgASAD6S6HsVn9inyLe275/uqSsYbWfPL3S/L4MTS+ZN6gJe3YxTS24/yZUfaaAlJ30CMGh2cxmdgOy87HMvs/aJGbvOWZt6nVYsvfKUlT16MX16xbGz5XmtlQKYW6hDymysqOqRyHG7vwdoxDWTvai+LrdI4V3fzZoUCL8zw72faIhe6r97M9LkFpyR7sF8q1oLdzi/q1QZKm02dVKX/s6wLNyr7cn1Osja2ttr7s4EwyzoubnuDfF4gsWPHVa1q6SqXzw9xiLPAAhLMAyAK9ObpzBDlK+g4z/dhqK7kGsSiHGK3V8fK0ETb0ALyRiiJ/xf1ptj9oKdhwbJr/CTqos6KvsvXKtXu12dFaU5E+mCnUnY/bxLahmfn8y9j++NPHxtnYh9/8LtxcfDyy/PtDUgsgS4mKxm8nSA39+Mrm/Isa3e+xaStfOm2eImL5vFWsttcDSeiG1uZFAc7tVlQAZ+q3i/GcrRYiuyFXQh6ovGlmnGu75/XNrMoMAFNRr9hpJKDKsHiZ4JNf7uESYBGpu+5M93+hVEJ/+RyNtcTM/EzZs2zT115sQkvNk4jVLl6b1ERkGITdBcCkj5oMOZOp5Yeh5Wm3otC8BOopshFUfsSX7NIb3YhBv6VfuJludjlKyQtvXdg5/5B6Zgcrp0lgfokAeNJopd7jCUmPvxp+8gqaL3nLBDeiF9ng1PGSYXtSVA9NZ+OulPz1JHVBkuESMBzFV6iMCuAW9Ev8pSf0DSRdAvlys9dWVkBCK3tqh4B71qmXS/BkqCzRB3rarWTne7ELVrxQcBzVsgaMuy+LeI+fsQMAcs1NBV0oOoX+CJKXiXV4vFjxsFT62mmQhrelKey6Ms0fJ6iviDBzu1P5kOcacoMtUwDz+CWwkql8xKheXs0xiupVWqTsyaFt3hnBZdEF6+fUT9wYZqeF40S3prpGYaXO/wiqwiyD+IH7WdRHrZVLvgMj4ejHzCaIZrGcvhr9dcqtKpQYdOzG8AufXPyDSI65vKthb2at8gN5eqr7bssdmEWceVDTD6TR4YKHpZ5piOQlVzJLKk6Ip4KQ1MppM5itwv919tBcuJeewQWwh+flSMkjblVxk8HRj7Zdv1Z8NrcZzKlQToA298aVOSwu9zfvQ4idzXq0iqkbEe2wbgEXhAZmQeSrqE72WtjrFw47aBIdkKGqPhpYcXn4H9+QXiYjFL4/t9ql3j9igZl/fiJYvzCz30PNnUyDg0CNb77ar5VPJEEQuJd0vMWd179TxKoNyFn1cpi1ACYztY817Uuq+Bdv5mYlkN1SB63HVm0oH5Rwr/9fNp7wixgeqkbgQu0mYgfTQ13NHQnBhc60hlbgOCl4cQTvwAvbrklERBV4t625nKSHFEZosr8kSIGvo0ydFAgeFzmg9scEgWygOLgynBNZ8krQ3/8ICodmfFop860W24RzbGp1WkhihoYcv7+kDgesQMVfCGz15woDDeOUFSsWca3B2LCmJCIewz4fL2tPu1kzlSu6+st5EktgEcv1mj7kW6xA5kSPFzVxWG/iTv+gweUR9/ih2a8kzrz+VBhWpVGzA9iZfVjZ6SVt7U1ha9kYZ0PqopfEfuYOIkWqKYwcdwdctbk6DYgyIuHCzPawjmrYdaLqANTNIYOUGvb1Qh+T/ubE834bOla18w6TjrEpVnxGt+J1HVtpHlPfooltKvpIxsIBMO9usJ1NdESkxDI94CXGeXdh4OBD4ZtpghvJlZLrh1QtbbaFtlRP4MxFYwOg3XxARTDEcTl+NrKsdXGm1pkUeokQ/knpIXYTrnePb/NT0KL+lvlX7Y53jMt1fwh3gVOyfeSCO8JlrLbCTMPzkO/webGEQqHiKZIxQDOjq1cAXCQtQmczqr2y84IvJRVX5ubHI+ADM+mBkXud2S9bF2ivNeCKkUZS0GPXuv2YTdGijcWeO1LW7bSeAYnMyIMs0ymVCjXcD+avtqYfbZNg986wWbX/sCPVVBtIcLRgg6RInx8tookP64bswfC5yTLrUntA+9o0aIdgOFjilvWWLH8TxWZn983Lzu+Ix9oqjTgd1UhLO36NkaAggin0AI9tUVZuoBo2GZrOLXpeC2H031+p19lpq0w1eqo/ls+qL7ceNBOKNrAsZ9nsJAw/FdfT9aDL5ItIoRnf2xgdlYNAisJkN/et7ZjM4XP50bGnDGZeVKD+A2UjfpLdGdsx3pTofiNGth+IKeRSy1ZTz5aa7vvcxvzkNNDEE+5A2BOe1rzghS7zfv20ID7q1tlRQj3oxSsytjVXFm8tz07niTd4iDRTxkp6/y1Qe3x9pqmSDlZkJpMVEIGAElWcEhA3+QM6T56GQqOPhHNAaebXzDxXY7SVEzjjll4jBLlvOnZ0i2EPduAeRsiq1kHwePEbqtm0fDPGrNYl2w+lJpO8YESxH3nNNZ/dMOrBQnglxdWzS29qhmH0qitEplQAKNuD4lcBGRCpgVonQCiRBhtbXN5XMsLhqqESn3HsspxP/YOXRijGm08DI+j88otAHZPH/gkDHuGkXDDszT5zi2phWhlk98HhdJ1VFTNFihaSAWKcq5135wtZA78c5MkWfSNjULfGxZWn57v5kdLpcBAWz8OvtiffE0cgYYNwnfoNdriE4z4VZbN/5LAWJEWUagDQXo7IlIQOcc18AiLYrhKDyhqoSX5V0tKU9Poeefrm7sj1gXF3Tl3dx5yQcr3riVUHJ2HJiWIeRzXQ+Mfj4XuuKdOlYG6zoGAJP/ukPla+Vg+7kYiXePGmipYbdR5Nh1VpC/7PuM4Nf4iGomkdv/ipUWsWLN45QGbbqomBr806KfwhqGBFAhxe2g4qGExTQLzDKxCgGR++x0otj5GuhrJWHPB2R7pMxJFBrIuhT3X5KyNNVCPk7lb4+hOzm93iEY05CI61NcDlLGRxuEeRkDf5WsYLoxWJvB3QHRYrAe6sFgZ5WMHbP28+e3PNxplOMTip3Plh35OTS2bpN5XDsetIZ/3CW85Sjp+VudfrRixqSEYNkv21tsbb+IGA0pj9UvJKpntGN22Tit1qXOs5jRzWGH29MM4z6mjSz8Ko+rX+NHVJ9XS26xNpdxz5RVFUKL/cZSoJYPbkqt4COqWEFIezj8SsTBOfZ9zl0ijQ//aWr3t4ummfd8naw64zEdQ4xN75UeFZY7xVrH9CV8QHY6zz/Q+bsnDE5msieghGEhaS/tF6GOWrxwWOoLgs75kjaPhQ6SVmP0ibOeAKRuTs36LCdYmYzzNEnRV9rrS5lei+T07u8HHL8x7CroGcj4p6N0uE0QYbhoc++5STQBG2BUGI3MuQqM+MzXaNGhOp5WVoGmaYJELBfodwhuY3V6fzd/XUxxd/WCECjrOsCgTE9HIRX6uAt/yDck1Jc4/m+fhaETawXoOxrenomUm0BjJkSVBVnctkNR/4z35hsWK71eMidcWtj+TNoBOBpCbcO9/eyBqsID56HFLLbuSBhDqkEC0z3pzysZ7eLarqhsfXqdIaaCZwnUlrzel/Pdz2Mn0bNKHbKVjvw8wPzcClxi4xbwq6QduuaDkb9O0kgA4EG8G8F7jRbczPIbccVKgwU1bTPJM5vx4ctIFNR8IkMcpxgx5vmdHVXQlPKWvi21Tc+bnJIFysrzmw3gRYO4uDpHp5QFsMFywOl1pysvYHXRoSLsQqOtOfCsFMzp+P98VDRfxiGVjjrpvbMqMy9rCeu/frTwjC64UNU+aWa6VxUrOHimESnxDWZ7FAkMNKgUopMfvwbnq58d0L6CASFQDyR8+KPTlIHVjceXk1TI78aqUfNISxDmg2/3fFd2U1/q/YAFmhKAxYXIGf8cxsMwD2vGooHCxUU8KZWzo2vJl7nkLtY5nzgSfm4jyUCxjU8v8Nao5X70lKrBamqsrj5W7OZbLI1gepD7gJ151mctj0HQLTtwpFzWJjbif7uc6w2ErWpGFC+a80lu3BTyVqaH+rVPXy8ihfu/kmEmfbDzbwwdiiXsn9L5k2yLXQm8H7mr70dLW4ksh+lJ5cXsfpU/30BFh3bO1F4lfBu7igAfUVRzQpfmFW6Gd4HDKqWuYicSgnP72mwg4gjGKcdFop1k14UiXqP2mhEah1pHXpJ80U4p1F/ysg4haMVa6sEjzu4mN8uNNEnAhQ2Uh0HnhegcNluWwnn3Slpa77Qj1yIXah+O387TiLEAw5bBhqi6tvK/wTkRnNe2mxNw2ECmr6a2hrrRa6j+wdxIynDbJilQA/ja9DN1rjcjW33rqjK2hIW4npPUAph0ee3LD/QymhBabzye1Kb7STp7jQN967bf+LZaTfGZYh/HrQPzKZH/MBoNCYN3089nbPqzF6k0emVROJvr0zbKXpuTGvzxQZO0zy8VrvAOzUzV70rzqQMlFjIah/Fz0AXJVzgnwsbF1YxjK3iTl17gtY2k2Y6j0AEMASNyQ83gVPt6RK///RsQuFppZmgYWo17+vZY+cnwxkSI43gO6ZT+ms3lhsRiCG+MzYNWzkg6Hhu49jy+MLAYRHQ8LN9/eJYjpZCuYge0iXa2kgn+/E2WqHUFC4Blf3oxX1c9PyCnmX8PKtRPRYyFvbyRDf9oncDiXpeyJnrcg63us1eEZDMDzDvP333xOTcpC/UgLff3oIrDQC7PWpMI1ynPrDHjLO9T1U/Lgs8cIliu7Nvc3rHirhjShl2qIA8m/lpo95rvGd4fYQRieM7efT/exZHezJItAIY59rnM1TcmDcvzpbD+9Z/2zziAIQ6h8Mst6VOMaGfUq8vVPt15b2oo1V1kn84djWIbW/3QawaN+AsyX7HkXTHWxIztfb9T6lX2xaEGuGI/t4bB2QKVI4XfXsm1V9lNRZtQHZWnxOkmCAms6uTjFm74p38AHrrLIRP4N1PK4c6Re19mdlLdYgqo+pYTz6RyZlmKSDdffvLRwIrioXauuy4JYs5U6g7xJCDc456nqCGEyradyJDntstAtcAsJcQWRcFF3Jzl5W4XFxQ8jY98S3qk3if8SZfGWLHSJt0TfhblxwvP7SIVL7bu6XycZJJYZVNUQUEZmZA9RIgeJfWTPVHMpsr8jNugr0QjF4oOrdjgbBdlMbujDvYvc55sged+Qiz1NlwnmCAaogfukXxTeXgJcL2h80P0y2Cfu+VXjdBdeXYqIamwtAWMn7PKDFckbxQvfPKL3RShAtsZjI0+oIwUe0WZQEjFZaoVV6a7JKgNiEjEKkwa1LH451QkppY6EXt1SLBThxw0J0CaKiV8zwbips5oCMiqzrMRadtybY6FY49g+96FSFCicfJ9m2fUASZ/hvmLvh5vITGBmjfywz98iLUYCYyiefCCt+KFlwOcS1BYB8E2jjDyrjMx188UPMqO4kn8njgIrfvqmRHf3K/0YNCIPtsSK69h+4hRymf5rjITR83SLf67IqwavCP1b4xRZoRcbn+6ckXhHrbYviXGDKD3UuciPOTmpMXzjuBoXS4Oq2b/E1PckaAVDaLPQJT3waoFCVZFp6zldTbutQW8mGsdmHT6MKA1UGvsAMGvYgqYJ44CtSu9Cpr3cks2zcLjzkhN7TWTvx8v8NZrH2NvOe4OGyZqwY6V8IO/Ji+2LCLN70uO3JA40hgngGtbzwIDQIxQCLn/esG1kSr/Y7rPLyD43nYjamyDA++zsMCTYz/NmLHmkGH4W2meolPpirsg1ffcACxX86AKvVNR0H9TFa7UxVcA3IZWEYnKf4elbhmuMp7tMJ+TbW8+SfuHGsSjoUP92QbjL9Du8QuUaYlGQWso+TmUkURqaLX4Q9d7eq/V1HIVpQHiYNpJXZDViKIbl1FqHIr9qkuxZdYurB9zM+hWSo29LiHBFiSfMmmLbRg8BHX4A7tgA/mK1FfYHFr5JkvcZN3j8deXX7/WmrrSHLfvEqB75LfAdz9JIDOTFO6Zx+JNuB5jI7/Vc1vwwGcB+ZrZS1QFsnTxgLlJ/7F6vAUIZuvQepv3I7BDRpZ8iHC6+BEkTgq32G7UrDahHFNsgR0E0Yu8nwSjktW7GxhS5w5ie1XkrZFrLkOLBRS5JGSR2JqCFBa43wljSfFYay1M0Fb+43lmyURGiO3+RftMKz+e8uljSZdnnNGCyeZIuSn5bZkd8k3b8z05PQGwcaIOQwJeaPy31FtkpC3YEErsxSuhnflMz0JSGdkmCZhwi5zF+03MKZwnyb4WWD2YUILLoE5MYJ8fVVOhy+p5S6wlJpOJlNQCUPYoSLBl3lBtQJiJE5MIe2Rds7tYjzM2OKSYVeC9pgtlSjntoXbQQhwMlblB94BhJ2hddii40/OyFXzEVmUEp6UHWuN/+ZlD5B41dX3u04cfZr/JA3Y7m+h6azLZ6/Mnek5kuMgV2GT0e54V74w5RW8WvSRaGbZ1fzhwz23/FG4sjr/nboisrfCrmI5UgJ1dCLZ3ivUGmzl4Lg74HcEnC7at4Bxg1balzsrFxKoK2J2Ey8qD0WXov2CckhmMZ1jLRvjluTnTbx533Ai0SrtPTeZ6quTP3ofVKt0ZJxy1tuqNQFdsvYKCg1hBWxXv+8FunmfzNG2IsSRNT19P0YJYbDTfe39jjlcDnZpdr1ZyIJnGyj+SUfN5fYGq+QWIGSAJ+k7w9M+MVq3z7HrLa4iSY3Nr/EBlIZoX42uel6XrS82QcBDgUVwkJh9FDh/xRxsj28SiI+n3yd4LsbY47InMIFEwFBjEsi7Nr7GxmCZ+EYw5PFemWfQ/Gbz9944SWUq3yvnQswZz7u+xuHurlZNr8pDXg9XhKcZdrnpJFMelLDsNqUTGMJFt3krW5BvflfoGmAzZo0yUBPn8ZBdtB10ny7xaYeh1sB2h+tTR/vK9A01RbtGjrKtbntPBKPmeZDFc9zFxlbIflCi7BkSJP1iN7Iiho4c+zKIPueAq03JAvCG2/rU9TUEL4jvtE0kX3m9+yDECq/kE6w7Ts/p78eE4akJrIWsXJ8jyzpfg+DnK+cTIS4x3T/WaYL/IlPjlDpfpCYBQ1oClfKI0zrC0lrt79XLFF2X1Bv5+HAtlcUpyv2oIgMCV22D65Ewv9GzyVaJJoRXqzUuDPGUb6Tv3Ufd5JJH2Pukx+SA/V25OcvFPAxzIQmI21NDkiAJ24IAyhj8FDO6THFQs7AFPQvxbTtbNXM1qtqYZjzdMZY8QJB18SNO3bxPr8mRMXZQdKWQuKob31K6SvaSq4nD6oGpAz1SY+61VTRQvyuTT8a8pM9D0+N7iWajcRcBWx7pyIl6Vwv6HHJ/p0opmWTAUHvrsaEq6wMfXZcehuufr05sWGT8OygD5Fp4iCcXB1LkN0AwA816/iRz0GBSLeQC0sR2WgxR5Dr/1A+fe6ju+TbpUcDmKWgF0KdkYWPWAzbF9z4K737WIQmY8Xq9cKFWw2N7oe2YGUmL9BDqCfamR1jFlSjMsVEAYf//ZPkdKy70p0X6z4WZP1mej8/dgp5yNxAhFi4nszqMzOrBh8zFVzbHl8ajDKU59RIbStP0w2QlM/zpYsDq8mgR4CseeaeKDG8dXtNhTIr683pkSZImdfNqWzRGBkHE3ZS94silrBFHpREEvzPt+5EnjS8N++CHq5bwZKDqXijW2tj+EjtwTJ1+xxLdeWRbBJHl7GXV/B002MUhiLLtbIGRj9J6ji9x6KQu95xI70Y8cZvRnLUau6wBkuwD3211vyDdPaxH4dx7WM1e5ZnxYearc93mWoQIjdLt3cAtTgHZQNw95oWkF6oixvVUJ/m/F0WbrZfFGpx4Hn1nvK4M3APIp4uRV3+uYjaO3HoWyRtQQ0Cl1Xk/GIFqlR9IHwl0l4BQJoymM1gRA5DBo0BqoWQZrQPrv+3B+NWT9hMRivJNUiG71Ia4pDZmq5YfLkZGH683M29b5ZlgkKw7IVp2FWkYVs7FWGfXE+q0p/gDWP7ssC8686x++IR/Si/yz1diSL6cNuklTV0GEyITRg8KBjruCs0gCvWhTejbgPyDxRLISd/mM4IbKo8+f5gtWqfNqrG39yJLBgZJdB3eCGMykgAM5XXvKblHZMAmOXphY3Q/TUWmcAHybNMAMpY22pYuHMWepS4fw3nQ4MeWVniDxJ7McBSjcOCT28v/HWBtKcDcXtIgtgwy84/O05/PnwHSyNQ5llCsT8otz2i+KJZ8NlAWmsoEJankaA7vwEMV1kWmxD5iea+D7pHlxJZS88EVwYk9S2pdqRfM/HAGG5bzATHq4+lUoSrJk64SmNNoEq1vJ6M1+6wbExBDdBbPtRrBC/ftpJ+e4/VcqelGvpb+ueltSPLPp0y/V58XZ39iiALastqN8idj+Nkgi2mADp7mASjtiMmGWbcjVnPlr8p1dj54fv1GKfzx6l2lVBU5dxECYo9cdFBIAZbS135uK7wv5JBHr2yQzZXSlm5xB2vbrub4mK1njtd/3qzl5jKe5bTcYGAxx+hS9UZHNPyMqrHPerzK6ZGl9oLx+/HOi21G00khFYn4vgm8IYTY9wxGQivc+rVp+hwnWyflA476FGypqNWceWUuigf7FE6LHRVYxfzoJ9jfxd5TxxJ3xDQGPKsgd7P2+Jef0NdCrcxVfDdStxT43HLIY68rFU87ZsO1vop+K2/RY9yh+OOlnf8ZH2rKZeriWDFteUWBPduBrdneLu87DoxaXG7mvsEZITRGewRG/J6VWovHpBL0GSU+X9auxqrzg+hRwURpAYqZMAnhPwtWHK4puwpGe5xfc5+uFEmp17GyKpBy2peySb7pP9aKeePW4dBTqZqVqq9WgB5hLTYgHAwD1Rucng3hlk/BdSoMiOm2xVaAggqntdoNL+Vkkz+4G1NjYbn/oPPUHNtfif/9IkIpc/DRTBCx2yrRiqaeEQvuS7K2WgSYH9q10aZXHbXQMJVkWBLdnxH9nKMiGHhJ+F3BjhpG67gRJyZ78m357ARl8y0oXYvs991afYngc9MikVbvmyuYT9c7yR9XpOkuqust6QU3m3JZ0XzfX+Tc5c6cfwqwSQENNN9XO0UHvxG5AHofK2Hwz8vDdN5rpOYABGFKF7+GmbD+nakxha4PFLsnz8M1aL4vgygnJH6ihxn9tETe6xXtI+EgJtvymferiZRvALmML2k5kOH1SppAsP7ta93Z7zgkHD1lI47X+wg50/QW4QJExW/pcgG/MojV2rEj8CrRieL2ombnlxcWRLwgNxgc931+SYdwPpjQf6YH4ZLd/G4jsydGN4EhZOOuc1xdsh8GNxbdLJjZdIhWUzksIsgJGwP2hPtjmxuzZcs1xcUdMLCaSdUo6lhTL24ZS5uGZ+IcuWEzJGsuHZwD4rjOWGcHxe2BlZ5RWa0HuVFxXfcTupEkCX3vq/5p7y270TPrgyXft+/F16n3RMzAuJtizIkyT+7r/wXJdrYUwTIcBD8x6VCNWju7ojoRk963Co+sAe21evCbhJyJdZcd7GsBPwWnY0tsac1X6mmfFoMsl1r0880DMFeQHjqNiANCSA4edVcwR1fJc11K8+c2mRZNKZPHoAbx4t3un2rx4Pk0IXZ4dDPm4wmK4CZKYeG4icdjsCZjBwGhHt1gNTpDpFu/wUovPvfKSrzPI9e+iMRODJX+mGcm3VEb49uFAibm8a/VwHDgTa8tt1Q6cketlNV5g1bI7ZtWiMDLf842vFuufA6z7gdFPOBO2qziGdbPdlVvgzKAO6gvP34RXM5diilXrjaVJy/UZb3miCC8jNA6Txw2RNgAollMZ4egI+8kD3fShWvl4JgthNuH7/JMzdwcNvSQxSegjbT1L/2K/l6gl+umtVSfl3jm0ob+Dxwrt8PYKSHOVNHd1C3Ac0WGqgEXK3hM/BWT3pRwWcozodTbmChScC0o/HR/ul28UQZbYYdk5rtrzFQE+j4QYARVlq1epRj/W0nMm+7qPomypTFaLea+zezvlCDpU5Ri+w/ZlIYydyUzSw+Rp3KKfpwtjFhW5yDktB1gI+JQjgnpgvrMQTyLPRne6znPgY7QjVCvoSF6xCE5Z+a4ZFLiwCDvYoA3xb03wR0MDktcnUKvUdkVuZ8ezohW41NWaGkI71u7T4AgmqV8hKmz+YEkw7X1afRDcM5RbwM2GEeyXYjSek0D8egHXRyI3VJ6BRzeXZ0BhSJ9VWGK+iwyRqCu9Eu2CqNnnZfB9JRofpB2vH9B1k1ETXMfHhATpNnY4Qq4Tcr0N38iRSj4esX1lnN2fOFpjEIuqrLhLfWTyP25ClNIH8wYSFqy8lNpot7DNaEfbrZ3U0jz+3wzn0gGpfL+VFx6Ltujo/euwFrcK5ujWY+27QH/b7zYwGIrYETF+EiX/p3nu/ihaFs2J4joPjhvFrtf7b43HlDAVImKy1gSSrYu2geOBtcpErKcSZBWNVJkriFMpHw0D4mbzvhEbxqD3kZCbvBPj93V6mQLoOuDtVpWDmdd/eb35HBGxDjBehVe5m2XinEheqJ0gOV+IUyb1Yk583M6Y1z4UOOsTgAIXPtyTGZ5pC580slY9WCcGKOQlkCm2r9GhPwHkgBEmskchVtqulrDNDD81PSJGkKlv8nvgkbk38kD2G+R8wcW35TJQ1431fQmlGjpbLTp5zHmPp8EZgN1tSB4C7ZnjhYmq1shlNoypGAtjMsd0HBgAgJ4IUwJM4IZtcHpaXOVan6r1eGii9pTaD0BVs2K3d3cnPR2DK9jNG9+BtE88yVmPLAdqDNJKksQWHyBEYOGoD3w0GdySwW2aKQ2TlX1dZOZ0vgsKXc5Py2Aku7OZyjda2P4vNDIUHaknAWk6uN3SS9zhGgK/9QZ8xnqIlkZnhrjK5T/Lx2ExZUrmlqiJD/NGT8mvRdXIkZ74V981oZXx1Dj993OZIO+k2ty/yAk8u7uVA7Dlxrfd83PNyfWXeNopfp7AWGwMFmYZC4gZi2/sdV70lqdJtcMRdGn7xpftdqrIkF/zZqidL8BLYTvJAG7UHizYxYslkJFaq3NkSkshYLEp0tYQpKSULJF1HG+0zm7Z5bSFeEaJ3/BRAPZl751e8Y3wSYtRId65+ZvAgo6qRvqTRs7xNbLXcbzvlb10AZeo4B4Qnu7zS/IuRu1gCwDWjCiEwFWE7l/IVuwRi+thSvc+XAh4+9199kAGAmCZk7BiaUk5D2RrGoX5U5fxU40uHByqEv8uPWJ+reEfSvhbdgIHcZqmi2E1yf02GnW8wLr9h9z351FWsVuxYFm7Wy/Gs4ufp5VcKwN1EP8iyxJv/8lN7SkMfHacdyXkgiDYAcPLH84TigFO03jz79TVVpGveUaS2h2Z17O9qNEIOuCjrqpd9FZtIrPOsxi16O2sFAlaWEnw7qOuZ51QK+uUSD/yirAyLDfEcJhwHkBVIwo5VihI7jqEIJqikrcP1qPYIbnvLHmbpyt3nzU2fm65L9Fz6jQMnurNlj5zLBnfv9DNZV2RZlmjxlIyBaG1rHfgtvVeqtWdZ3ogfhER0RtRyjTrxsSi/Tnjqqj5IroniA40DzcUWXbeWvQ7VRUstg7SBdY8tQzZPEG6kBJbfziA4wqGzcS1YiKbwO9xB7eO615c0/u79Lv7uqZ4adQYwfJHPyuUtz+EiuqDkSNAoVj4Lw4NMs+SiTz8cA9c5BOx85+N3zd2v40n29ynxiKVsoaecZ00HbO83p+J4LW9UuZmCUZqe/W8DK3xnfjH2jokNxLcZ7AUJ+d7VapUn0R8K2eWfFAnyJuDWUMHbcXylqrL6iEC6712pcg3x8NLyFwZEQRhWzOKpdCgW8onPiX+LesvIAEY6pDq99VbPMsezxgMzN86Breztdkbm8vyVRPRYPZp9GVj6aewiWTj0K9wvyFL5BS5myUojVgOVgsIuM66yJIox9tR5pOTRK3WApObcm8lhGPgQsqtutHYAJM0XZFwU1otQC/8ASBGMdoZBXJKnEeBuHn7hRbGZ+6WDxt+Xt3nZ+S+hQaIAlpwLkE2ku8oODAQ4vL6nH224M/G3UqbbYz9s9UFXXWeft+x/C3PnyIKC1Ry6LgleJ2OKw0BAOkjYKATp5Oyeenyy8m4fcFQFQimWGs9TFewI0hjPGeObLSdXGy8wtmYfl2kN3ocRJ5zq9NkxKnXGWb+N2K9FGVbbxe2bQE7KMVRV2MpeBxDVTUxbma0m+YhrEZgICC5f0OTiaXsFioXxOg75YJoLvHdsACWPkmDWihpjG57g7DWulTRZak0DdybgFmzpg9Xf4DvwWz9m1aK8h54aRZsRXHVeSioMeGIYZvVTbj5n10sAGkrv2A5WfmiaHzEMLZObiRm8BMI+4ZyIPy6qBUliDNFIXNPHsDsS1HwO7PNXGI0rpVIvpUAwVZGyK0awtA4zU1Gk4CLWoNTiSJSnpWd+4F0T5cXjXhFeCX4UBQ3Fv15nABeO/m0VkQTRHSOgqHVxnuOVeK9KhLiWHvcYTY222/EK5JTSI50IVs2t4U1sshfGSbE7Ca08R56R6MHVUIw1QzOt86N+yrqUXb5DTxhT3yIAsE8/dQf/DeQaLM1MhePay/mLurmbNzUoYc+pEFj3Au/4JbiWpXSptGBnImlPi/s0/1BPHbx/KmCmxtf9rHvrh1BAUNevTY+Ak/gP8wDf7ihbL3W+eCDaP1q9kjfn9AolJOOv7T6HW/PQd1X6OhgcCwVhX+AgHwPgvkGHl9m68kcuvyhi4fZDUZHAqbmtdt5PW4ZmIV+D76MpnBE55CnOA6mNI4uoiplFEKYeBM2YVfvuY4XkljhLw6JEBaYczZy33R+TnHSw3EGINyhEO2Zmt955GIr61RKjp6jPDdb0ttFISyigPvlCo76htNuPKrKev22KfXmRXdPRQ1EMP9eBmNjrXpuDw6seMRRFVRTXcZZvHdFnahNmNNPsqtaoueBXmNRuj8oCLgCZSOS5vQWxsyeuFTz1OzstZEUn8iELHMQnxxCcRFYuT1b7EXdwl1bgAwJcZTm4qw2ZLyiSRTkDNfbFCkCZQaW+8RYjUuMgwN/Oi8eIwl/S7AL5zPQwymYB/RbO10xkTqOW/t4P1dBdip2umwuCi0W2gsQRxRHHids6yyiGDp18iUR3EBz1hwAEEKz4b1vRvWq7rIWIVEtxdvIb9Vc2N/mEuro+2Z8c1CuwD5w4Ihsdve/VO1CcXybDoZ+RM/7utIBr0iN8jjZMrghnjn/rLbfoD30jNnldgEHQZAhiAQaOE2puPxdVp1AjAPnbfwusGT6g/iks6PUvdgZ4SdgXicJHANe71CC8Obvi4wAjGK4NXRNo6rQUgQ1afUQskbLdmclbzzyOC/l6kLOSjL8KK/fy1Bi7zE+SUkrrqZXhac966uMfReexGyEQBNEP4kBOR3JaWHK6kcOSM3y9sWRLtmV70Ux31SuGnTEOpXnxJUe8tm7GVc+s65HruLpIyyBbmByOzyR2Xetf8zQYSljgy6DTEMsOMiHDltHMoZzW1feX+rJ3d+5XU0XW+VQqp+L39dXoNn3DyAovx5EgnlEpq+Z0d+wZcYBom63Ygk81/GgvQq0UjXL3FcZ3kSmspQORWrhAWdMmp3/lZv7bcZKUOXT+f96ANd3kpqfz1p02Yi3xkzUePginM4jdPtgCiPMD+GS/xGNlcWsWO9R+hTdJa+2/SGTQkURfJFuPyJ2dykr8MmYdT/c65kUorJKRtmPjT15I4jWka4zOCvdOwsPo7EzBjBeCnIx1qu/XUOLTVh/hq37ao8qKAF62TvrpM8A5UWbc/ysE9/dBEJ3vLeHXJjBapOHHzg3o/8wccjrRKGm+9T0cddH0mniJddyX18UM9Ix95c0Qskbd06HoS7NW3aKQAVVrVevaHtXAEp1oKiHGqGKphi6x+gV6pyebTtWa/JwT6rVXo0F582FgCzERO4s18ZdVlgCZimq3SNpy3Tbv4TuWd5Q/zzk37j3YaqVFo7XunmgHPQ185WUlNDXWMjZLWD+DslzWtjD/p4PgsOWoQLhO6qwWG84vlUxe8iAFjUShM3cOLGTpjIBHunym8YsHGtowPO0Nm05f0NxWZ7YVUQaLozL30AN7g73JEp6bt4yC4Y5GzqS2Pct7HpHylhXTjr0We46uDOriMYbJm4x1aSrBeBxGcz+11yeN8bpjFUfejwhtwx3Jl5oCMqvfamWADeysQPr4cE98kd+8fZb4YXv1eDIEfODPZ9+Oh7irlb6BJWE7hYqh2bxaeCSlCyf6pb3kRIkDsJ0M1Gd+KGI8ICZw0jngS7aBURLdUfWUk5lvYZDl/tORX52KUEnPHn7OxwcZZO/zQMf3m5a/8LuegxEuekug+Otw8pYVD3gG0JMSLlRDUk+z9kSbhdHLMNX8jB9AlAXl7tvvW+ygEEYP/fBbLiO1k+xQN5h+7Qgq+xC1ivuh/0Ob25j5H5jXuxfldBA3/jep69wkimd0BNzh1nJGBwmNdxIJeIyiio9VgMC0gwAhgtTxDS+R6x3u14xs8xLWx2416cjmG4ZSe5eObQTayAEGl+oJw50PMo+4z1Gd3BEriW5CDqzVVJRK1keEMou/sNHBbrmFAxDsqfeyRiNZXPVqcDS4KWB51IxZ1G1Taw8d+E61s32c/EZhPQwZHC81MLQKcvOdeHlAhV7yHW6SYvNFjYH0o6e1PY+9z+c1Lx6Oy6PHdJtlwV8s557PEWYqDScOA+CKTenXC0Xto8Ok9OHP5U21W12tLOX6+533GMH4q2pH3csPFXmh3lnExgBV+Q5SdBWSx7z7hj27YEEXFfYjV4WZU8bMG6FVher7nFE3G87z6uLyGVmskCj4iVWlNATSsi+YIjW8gAFn6gL0+5QuOzFnqqPInFgWP+GwEHD0ZebfJUevWxP9JGbbE04lP/wpjuj4fjH/Pk1k1fh8K1MYQlXvndIT63pl6fEauZJj0BfBJdL0PZOSDIt9biS3tIYDTdkoyYFJkVOxXWcBEppVFnR4zmFGK6K4Zt3O0YWqU6bmfGj+57USJ4mYFEYvjZffrScI2qt2SFocoOuLLZHtOFWMJYAzPyQfemn9OukzLui6skFRGNjy8jeN+ZrGcczDr0SzIxE5ZisuiPI7gwi/f9G5h6GPwf1mSGEuxkOwCbj5gaG7BOFj2/f38v8fSTudTTCsWZK1ns8+ZfkBTG/af+ExkCMkLjs2RTDUQQD4v+PcZLHH6BjJE0VyCok8I0hdcuHHUdQV2QnGj8iNRMrsE00jRr1wGxUFh2/uLYCnNM/3vtj5sLLqovoaQxftQ7fHiwLuJbpb+XW7zMf82YId4uDePz4TAtanLVtJu8lCgK7K+58dKXP813Tv8oIouDft93fNN3t0KliQuW2n3HKcimPp5pe3ReDxfSIZFXelzO8HAT9v5vsB9ESXAPA9qHslykP7X5823Set+nPUH9fMT85iFNgHbOwxAHvLyFQVec1+GhDNPi6AQ9OSN3ey7QYGgnwB0vgBnjRApNtCcF1Q/5KQyYQzpdSamZHqpGbTEmfouUWON+gjw7o6zqFnRTmzbBlVE2zr/+BP845eIhgxUWMGVKZ0EChZuesf1wCy8RnmwT0aqunf4Ll8MAyLiuMURqmSWSZiaoOGT9RTeHZuZqixJS5x+qE1HFh1ty2NmlNEy2JvMSL0c5TZ04r5cfLig/UkMb3LKwWCTOhgPrz7rSNRV5jxnumRYWNVzH36gkn4K7+tC0dpJFiWr0MS2oDRaKjnJdRAFVVft2HQPRXrn4I1D9uE04v21ax0SlnEtVth+LGBXxhaHaNyWzlU+3MZLT+LmGk+/SgJvh3nifz0At8wooT7v4WtmYIxANDYfZNL+7FTAqHp84f6xZItzhNzdRJ8uCO61vr+VX1xOgn9hiiqUspTAlKZQeJKbvkHHS+clwRJ1xNhzQTJdKlzWwX1zjQkFrwBT64gkX009wuKihwaRidwkPclHXx/S8ZXIzvzjVvefryfRbmuFAW8yH0uAR3/CGu3DGkxkKWDBumMF6zsyr4Ig3y0JFVyonl2dZlb0deNf3rqBfBOhQ1Ka29cpyQrS1rHX8uMgwOWtefLdb+xM+kfZZ5YlakrRB80JrjkCmNYdRxZVhnXOTR2FCCmrjJZHkaBn7IsJecRqiVLUYC/xgW5uipYVcGqH2blP6wDzSsDiSN1aUsSTugPGIoZLPY9DZclrX+3Hj3CfInMyYws8wKFc381B6Q/OU857pdm13hH9qax5h1JX6iBvAU+acJXr8OAggvQ9A+m1bzDT2IpNt4G2iRqxUjo0O2g4QhO5kaMULSDhK8l2KZmVlhWsQnGtm+jBeNJk/KnBbYGNEXKemNPwoexiKPJerDJwrCCLjrL5ZTCXLfi54WR4+hFdHXfJIJOZxmPlI4Em7yijPVld7aZmLBIQPp6A8qS4dVxRs2XGZ3fxSQ/oKPL8Ok5NP8J6Cbs7qfxRV/1WxHUyExfc/bztAd6MF+bxyqmERivFbiVmDyhZh5F5HMAc4jdtfyWhcKdOIImmtzhV0pgmIHfnc8hDVtCuJU7Rkjsa0Y+y2Fo1FbfX+nhAPGNYeum5ln2siRFY+B2gnCyKSz5cJsZQA6QbiKFUql6FMdN1GZo10CpNNuhEyQdd/lluIsZV3TrofIIdCYG22EP9HUJIGsTuEZ/vJNJSTAYmKfTK8lB7K++McIRfT8wzIpldLYJJ+IAxdr7J9HAXHEAeLbRHPfEEtVl8Uy0BQRy9ACAhz0pUzms7PSdIbrmJoGjXU3WFIgmO+ziQGFnEf8VpY/4Hoes3RD/lqv6/wLKpQrS9MKWue2SOuGnjwlXz7OSniyGMCROOTKJ5yAOna6rPy2Uw5EyssKzIx9ZDF9XXERU9J/5lxynWgyPz0VKvUBNUB+4iBMO/zlUVvBCyVLudZhi4bwrRs2srrc+GMAgqGEBmeg9DTEi/meD9A6m44Q4T64pnU1uJ81dDzMsy0jl4rFU0Jx/eRuJqo/kADgomxtNsosP0+261UU2X46+jPb/Qrfyqz6ViHtzPzg2XNm5uJ1X64/f2c91V/lUT0bTbJtM++iCqd9x6beXv1o2jnfbKi4dPaor2pFPVmNOEMq4fWKo+93d1iXrFGV9MD6PHt1qFnWNsnSHsU5LsOZDsUJ9u9+WL/bfiJ8ar59Fzu51bprz2VhrDlUYIWSsk6JFwbv6q9oFuwiz4mpxQsdsWVKisWvyVJTWuPlNWm31p5cX+o/XfVlX++Q7ilZwy/rMNZMmVVf2ywpg4Q25G3aebHjzB88bOr1AuHhJblPaskxljdUgmzAFpfB9xRTB3kKiRtyO+F6KAlt0wOCa0zyVaNeqn3re8ebGEc4L4HiF62meHsulcyGFmPtu9zTfkphC+ztf36nEK2ynWYzKyUsvvw+ezqs9tckzfbg7cu3f6X7KXMxYT43TyOl4nt8ZSxTr0lKKx/w0v5/jwKXBmEWYhydKmv2NkdGpwqfU1cr/4ZaMbukH59DPyPU74hs0jpJf7rITDGZ/XkEdeCfi+EN3RJpD28Ak470qWdcmniA8TyWAJLSUBQYPFnoTa713nzBam+2ax7F37Mb4hQg0vOkDbWPX6Hh9tmXR55hCjGvRiW3rl1+gg6JFrct5MvfKy8jqDN8iwiw9akbfe0RCkqR6iih0mZUsK4AupTY2bxY4YfpMIdgUpvjW6klkHwFdNpZha8Zc9lE4ajantuO+ERzLVE/VX/zhP5AAuwkA4gNeGUVJAW56L0GRXS65rQBSlxsdtKAXzPy0IofZgFpjquCde1O4JWLkf8i0c+d+xuaqYeYFMqKMbg6qvfe5KxRBMJFoZibmrhSB6daWMhlgPoQqwLDE8UpuKNDmQMkxAl9u2jT0OLTGlR1TtZiIY/tFg5lU+HGVUtnNr5+33xbGtV5Q/GJJPmn0drcMEKSo4sTw1Y+Jhh9zzo3i90Cp8ee3xnqs5ppbrBlFr55toP0SpNVRdvAdmppH9jLFMaQRAd7O2ddWUY36t77Ex/ar8SJJBi8B9zJLL3thMVNa0mWkXo0hPondZ92x9DOQU6w4noUsvvYzWGfV3594avpSGOrJ5mRB4nEoP7k79xb9OioqKFylKo7i1YZw5V9REudD29o4F47vmoNkfBT0V7ej78ZEddWxdSKm2NREKnvS09t38qeMQENM+uOyOQlvIuXNo+JJEMt2f5cPC7QxhHOUbtc4QeQMwY+0U6R5Uo3CJX28V3xWNeTeqLbawh5zxh6b7sYh6Vc7xUS1nM/ZjKowKEBFCZEw+v7n5YSsjfw51qCB8cY2mizsx6RvbfiNFhMZcgw/VFLAtHVSj8Y/Zowj/Wxk7ayNhM0weeAsk3BfuP4LG3U2tp0ysl5CPisXWGtMYBnXeAKnr15k3YtS7D6BcgQfJ8x9n2tojwbcOaTwTUan0dTrEX7KWx2v6v2cZo22V6porHDIfHfWt/AuDD1p9233eEvpepxZwPlC3AWMDON0ETd/P3XgSoaU9BCagB884RjiNn6QcFTI7H13SoR/CmV9yHIjA0Hix2jiRwyneM8F0VG6lKr9QZNUiY73C3WHu+deuvQnMvu0vPcDBF4Nigm4+7aj41Hn+X96xsDsneZFh/v1HQB84e7LNQyn1CuuULEwKej/U709z1i1FE8Lw3DsqSq3Nctf71uOY7Ifx7eW0eGazAAY4KMGTARC9FpkOl04j+opIOK9vt0G8P/z4zf2dqSsV/fpKvv2LYiCymxNESiz8T3Yr2uPUWaO4YaR3Z4rQGUJC734tabLiu4pAQD5jDml8Rt5cUKtHYQW+BRF/j2FH9s8mqro90KFhsz5SvP6BssFn2oBaHJ4USTuCFRdTDMTOLm5Kh5u/Y5hF6cvFQ7MgnaC7ecGyEjKypWrW/qd/0L6CtEjsU3uzd+nJXcHLMl6fRzEaonLPbWW5dOtq1Nan2uVD12NbVNwQqi0btceXT8IHFTBt62eMvlmxHyM0n1MaYz3vQgjsjwTvgg/EmzSiJooW7h8LcGe5gsibk7q+weDKAqmk/0rL9q+iW5woXWEAvUE6fiCFy5FOUcJOqntAsh9c5A3OAeylDdM+qHMrikK8Z6J7AWkLinQjQlF6Uy8h6Qk+ZrPaffVFPR0wIv+JW6sJLXW2pj142eXLNB5bXzyCOFL/uunxfP09eWJ7pWHl375JWWcaDbILe7hUc5kLPoZYCQ+lvJRF62o2fKx2Z+84ZWPM7cqMFM7Aj3NntlHJkkabfiejPOCYJ3tIzb1XUPkPsmafFN6I2FMgBfXxLN03wqELcYeEOs3MWT5PJ7MD5t1wPiyXpFreE4PXP/63HpjONGC7/f4Qxk4ya4ktxuUoHx8bblpNGjhFf/Cwpvaz8jTNmRx3mLSCZHOinB4uVI2XablEmCyuo5x3whmTwqkE4wZosMjWy3DE7i7EgZi8fF3rU+IYcUbx1XD2pT7nzx2qWf56BO3D069gm+ZHzXEUA1Ft0H/Zsn0s7zvUDbMO91Ct8RvchV57scgLsd9Xq9d/+/Y1owqfizNclpNcqr6I8eM8JtjmFbaYzulIVeLn3jQdZG29oxWxShH2FatWmiK91Jnzlx/ydtVHpou0uVD9qvgeQzXrJ1Tg3ejuZMrfRp32C0HfmEEnOQFBKkKywfTNZXihhw4nFu0oS7MZhSnYTrujllYOL+yu1M5XQDpLEiiqu85W7b+rr2Bx/k0+cdKo4KJZ7S2HqZnxgEb9xee7BbCj3RDwDcEgTk53d92fgHSeUwXgtgudkR428BlfurJCHCcOv5PGEmPMPhK7Et/rOHOvHWVbJ/MGx/3YtIcX+GZV6dnDQVTwjyeQaNmF6xeXOejARvy89f9+6Tp19QgukDbgbBKblSz7YNsYOKBPLg+aAln7s1MqvJjaM6y1ru6+nhgoYk3SlgqAlbOAGNa0WTz0ntN5qxjuSsLnnINVq9uOP4MnFsnoP6A5HZ7EyYNf81FXB6CA3FBr8OpDgkSs53sHIHfoXSNCn1QckpKkDzAYdeS1vaqeYOdnBwCwoPn6xp8wmzUBQ5myTD3hzTR5QOFRIQsxrHm5oelX7RSbwAzHFriTtnwJWfurErCpITsblD3u/SZBRiVF/MMfOMbTQb01lYEub5SV8atrz1uqM8Djb7g6F7YGGUL7PmhmpIRcYufWBUqG+ceI62hiSXdXx4P+9Q6LneiBivfRwUtj+7iDDJwTJ+QTB7+Begzk3hGMtiUO0LT+FXbTGOAwV1b1aB9h1FKo9eC1Ao/k+VofTpEkgaqaevZ5EWQvTbzAx9OntoSCjjpPCngT/AMVrz6lJnhh0TcCYVYpAPqfE+FuAuC2AT4YXDi8IgMjiRBhuaKqEEPo4/LRc+espQxa99S0PaazU+OJzVPya6ioWtmFPu+RWOqGxwPHyiyzrPx3bH+LI8/B7DwJVHp98gASSxhFNYAO4r+npy7tHJFltMX+NlQcJdraHVdDxmzlRdWHO09JeshnyMfZwY2UcJisPObUwnvU8FoHL+C5j4ju/d93Gf6eakbQRs95lS0K/gwHUAAx2mJM2PF489iTBEaVkobc3jOciCZcJL++SDbLLaeM3sovxD+Kf2LxBAk/3wLz/YlMVTivnOqS7NtwYLtKc8hv43gUDOSWMqJVmyKyvrYjiiaibdFWBKW5ITDCUdP5cDTvTT4theRfvv1ZJ+ur9+qcaKAdVwWvCOaFIV5oSDA5QC8jVfPVcYbCfpxr63vj2WfioJ0AZYfMklWJ24it5qY6oPE88CKkaOUrWPjAr1KRxmqApy8ZRi/Y7IDSCHOGS562srqnJT26QxBxA8Cfm3TQc5qWzX5z4FvfDPKx2nRJ4SLUnYzhlGL8b5khBE1X/6tVqczB3XQGb3225wSNJTET39FCuumXm8G3P+jw9XcVFqg9qKnQj3jYABJPSYqH3qiy7M/vk7je2NMQ+uwDbHZEp9icClCk9SvstxWgiol2MklyKUhrklCuzafjonofWGSOviNs6CvXDLDZ6G7KNoPP2HymK0TqkQ/meRlpZVPdQc0ipHifjJRd9o7Gpp2E290T7GVAMikoIir9rDMdvBTMATL/wRNyeWKha0/sSsRmkpFEOwekqjk4YQJo1jvtkFIi5U9vkp4f/7uc7XTlZdOFmnGNUGS7hfrvTg1blnb31wIX83gGm45fqXNs6NmcRk64O2p0u22CtgdRUMfncZKScWM4jL9BwJCqFSdYCXqnZkiHpNocw7wO2ESJd+xw0O9ZsgVPA8xs3/RL4tH0tdfTkofC7FkdSn7YhbHspwSSKbpBPnyqg75EFT9toH0Nq9Sc8zkKAujsaHQYZgh4+xF46Hmd0Pp42Lxc6I24tSy1dZJvyYdfZNvvAdPWMb1t3CLZfYHkty8yUPdE06Vbx5oAL0ISWBQ3RZ8c1jeIynldW69fn25GMrTR/Rq9A/yJYH4LtvCudOwbMSEYUCdHtYgeKQQ/BoCkWNKNhG8uaslSgAxd5h5amoBJNsPNGS+OuzFYNWgiZflbrnbg+OablDBOX5SQKpjL6zHK0T5eWc6YcBUiWB+iBB4eYijH5u3BTdgB0vQOqamIif7BjqlK1sJJChqikPkbm6z8cQMHNJrSXIL+qy/tQqnCReD+Ph3+zwzNa6ubTkjL6NpAhzsIi/Qfnp3e4M5itJQ3mKWg4WNkPzGV3IQv/DlZPxhn/h1CBR94lj/xrEoaiBEOY11X5WgnJxh5hZVBD7jCnnnQyag1CIM+2IN5VmcNbiXwGE755JgtDx8PT80ZnJ1hRVs7dS8KOTUiLk21e2gJviDF6vRPhkQrC2+SFRJWL4kiRWVW4IISaIPHtaXontBFAnnorZv6waV9CoD9E4nzJwsCMZlmKfbB0yf8gF32vyuPuseLnGSs5ix0vxYEmvzfprVlOQprdN8RIeiqKU4181Qq1n6v6/FMIo38cfdkkH8EW7lUJDNsbR0I4n+ItYHpI+cRrASx9ipsiaRSOK48vpI/lpaNsHK1HoUe8t0noNAw9MPGIUU8eu0sNsG75IQAu5HS2MEVXiYsXX1UdNIlp1yetFBfu5wuvwh2EZz5hRQSNJkHTmkn3K+8ytUo+2kGkK35qECfJ5/0hvPQQyIQawdtwGqL1L+LLm8jnf90Tx9y6ngNfDWzjca1UXzSCcJgagz0IxATOWo2YFRYBGRk7NMQOx+3Ci8o2FwIkLSgGvq1RkbIIqF3Xumi7PaqG2ireH/83f1me9OGuHzCz+RdAMoIDt6OX6jExynkLdHdnbQh5EcBf7JHNJgB9wqZmJIoxKk96yE9PQbsUaP4D8Q/rl4GACAU036i1KCHfaFf+ugwGgtFEy9/GtPTBXXN29PaeDM5PfqFyheP9FM3f/7zpAAtQbaGjRRSpdqYXq4X1WOd1Zhyn/aZ3QyeGkMZIv6JOPkdUaqn188AK769K/0htfCWVQVaD4sEcbLGbto+aQLZkGN7bpiujFgKXqLDhrTt7eFhO13B/6hSbnjMzSGtP3wttHxZZuQtsPJORJCsnVsCxycADITvQ59GDL7NwX1Yd5O5pjj1aZC7dlkK6Q+n7WS3CW2MYBU/TmiqTid5WvDTv2IuB4iUOYSylTYBE1Aejk8G0FFAAWmCsepPQpJ6WywtSuU43RKK+aOrnTv7VshID1JhGl4Y8n4/R4zLaNoK1T4qKnBlBUE35D1QJgyviDlAm8QcA/0C3zGDTp4/ssoLFmtFpkR7U3UKwyVJfiR1JfQv5R2/n5+Pd8zi9cBaNDsoE/QSmMRrhZ5ASa/APvhOi/M2UeatV4WTw/ibpQJQJSn+cBPuMv2e1b3F2f+sFW0aAi8drH/uZ8NJe/mK79RetMAgpAtSe1H+ABUWybfcOjm7R5t/2cPIkwetPam8dHeEAYx+/eqSYlyfTovQw9KdEOfnGkuSX6+fA9OFceB1XDCyBVhQE4bjB5fIgUPOUmuUmCfZI7z9Fj9eYS7Axbk54zf4SeKYGuCFH3p6os+8uUAILaWBjLa2IysAiNMifamEffCUa5DXBXzviWgjyAKVvgGFLogcLaGHY5kYcCHo44vxciStmQgoWgzLwVcA0o9k9aoaDoD2L6BZjlIEGEMuYxyY5pHqpmMVmhxFpIvjFGR/HKF62vzMAQeoLOYYMCnKAp/balSs3r03wTgbMR4/cx1YRjTbENyOQoQhNs42cnUcDPSIEXSwHOR0uSQuA6vhvyHSxaOa6qFOS3OpYPVkeNZAweVBAfEBIfUvUkUOOTf8lOUum207qLBxAQKsKh2sh+koQjjwfWeNQHh5AERjKDpJJs1WBDEJ3F7w6KsH0uVsxOMSNxguM8NQ2ionKWQgSAIK1t6CQEjB9yiiViWcvBtDr1OloZkSvBRZfCIUfDeiu3zv8mN9BWgxLVQJ/RnHbE/isYP6kSzIP6GcxBQzYN/K3mN8PgezIxMvysVTyHraplO1IMntPApF2CZl8XAqu38W1L35X68gr5hHoLF+YqmJdQ6Mz9alLx2wCmMFI86gNHTqwFtNYceYneANs1vLlMo9ojdL2s14kX4m5q9uPxFw0gJeHlsmZ3rlJfRNsgT1TIroDCe6IxQD8L/dqtcpRrLSLZCIBGjMev0VZsYPQGstLaF7H7CWDH+6GHejxGJn8jB1UNoDNx/wZYrrUxONlOyWdILOp31uN2ROE/3SrXeCuPFgutfC3cPArNlKtFvKenQN91Q5UTL3HAX72vwKCwFCDlIYkxKpAqbR1sDYc8PGSC+8fYWKYRfEDPGp7oU0CH6zvZrgXl83Tu49t+RHxFvbD24yFIcg94kqwL60d9YCX8LgBdCFYGc3O1rbJe0lImtEP/yzjy1NhzrCfcO7CZr0Y20QRux2jz/hJrngm9m+uVwzUaHuWVz9PPpgfZws03zBnWJPppy7dX2NONferEACSDiBqfgMFcbMnUJ67KSPXvT/83us1IT3ye62VSBsQ+oruR7rVJ07lSSWZGBrmO/S+TXiygYBeDx0nkdUmqd74UxjOPZrP+OGCSAl06CANljtxkVoxe/4Ua06Z8C7YDoCQh2VozOKF/KskZcg0WCwkjsfl43n04njzJiXMrUu7/w/nn/BAOxXzt4jNMn485XXt6NWENbbhLLoqI2+Rvg1um1LFJN98RhRKbCrkHPGEw9Benmn70Ar+ga+8QRhEpyxFTK3jB74b4qmG0cwvAlQUS+oeKVhZiaoZHwU4y+Nz3Ov+o2t7Bzwrx/UDoKyERRwFjyAc+rhGve9Hwz1O2wyRXMm1vAC/7CJf0pMxkEfuGDP9ykbTN/HwoHjUus19AXhKCh4aK8TorvNwIB5f3PXNG3qE/0RoUT8mvWWU8dhfNYaZmSztx8tLXzklBsMIt6AEP6RP5EP8jqOhpFFvNHxv85CzhA4ixxnVyTV+HEA9rvUYUxYUnEdFshjvh+FpR6PhBIUzpI/eDB5bv/UwNIlQkzgv19C4vyB2VQq/+Fr8d/Ff77Uk0EzF+kvA8VUaXLay8KlBf2eWzOgnJDtu2760YLL819eaYVNI/dThCKKg+rhukxfbULN1rY/dCbbHz3z40WPfBNnvBQPiZIItB9OacqafXMBl1s/y8RvOz/TCwrRSPXsA99QQAo7vUeQSLL9tEo+Yp+5OAstdeT52rsGM7dMrgx3bmJfcERKYFZAsGNAc1NLEzeBh+p2ODPmKta4u3jL/HcDwssyXLs4ZaSxJl23AJjZ5PcABxM3/wQcusniz/E4U2BD1cveu1pNQ0SBD0R1NQjRGpDQMLuGckILUXWoXBIsT4/TfmdWP8563ZxePDzG4ffzaj/N/CBZVtzaLWYOI+HnZa9Bbgqz07CUH4CLTZ5gxJaiamY8T5H/rOxmoJ82CbYD8BbXpO2VLfXrN/W+U0rWOogsjOJ7ZjyfMT+nRyNJqVgeP3OYHBtVKq1kQzulGdAzZyH/3/Xgrlh25t32lQKokq3mKZsaiKVYbXgFweDyaE7SNjP5xB0teOu3o/+lgqFD28Ql5CDQdtbaEcAGs3Afb5jY24u7iNVYtMUciUYnYM8QRVabt2CegT+63+I75BIK9CpRZsufdPo1w2L35qSeFeUxxwa7EjYIONKvO9zrNLF55z7sYacUmTtCH41gnXZZ1eJ0fkCj0PHaYRI+mSLq91LAUBIa1+AZJ+DuzFExm/upDKYrjdyBFHbTXrS+LvuIkU/pvpykb4jFnPALJPMNHohGq83zuLKFIegPu26ELK0RE7NcBxs2bxEEGQmDHFdUjSPgVQ3xVWQnUp8QZHXOJt8UJDqeCi4SBqyM4xlO3t5G+3+kAKjYB+g/+4XDhCm0F6FBWSTFFSAZFRKcL5SjXnacgV1f8/HYlknOMcvYTPmVyO92dLkyrE4g0/UGANwfzD6EQTbrDwQcm+872nY+wdRq1ETluCoVnpFXahDwRGg6fNOf65Y67ajcik319la2fzVjOgPdS06wfvFlQ/gdQRUDqAM4KkGULkOVK0eH97GpKDk118NV5Sl+VFVehsez22fiFz+99xrMDgxXnhkhTD4oOTKknhbdGC7rzSIZ5gcPyHj/SZRCH7g1pJGM8U9Cpq5j4JhABOkBkW58O2k3N65X+fi6MkzrPj5pd/kRxUECJTOZpPLBS6G1o4Hos9e/SHHn+NdGKj/hmbgAW5WScNmp3rE2BnhYSNW6M+B2iXYExkEljQElC/LhPKAzRVAwztuqG3wv5BbEvtWAPSwA2AckNFtsVcptfqzDwD44m3J8151WTY0UnijWucid9S2mGhdYy02zKT89bVVYSU25QSsKIrDPTFNpQkr4XuogteK4Vydid3cfTEGtB+QXFoU3fHp2AuyydkMJfzemf0WBGn+u+9m80ZoIhkkrBJttp7t3Lmu73YHODnnoqJXV7SYwnVGg1iyAGqmKVR5YLbqzJMJkABrOUJ9VRcp5U6Dafy10Wr3XP2eo8SDRx86lV6dXns1upScloVe93zp3eVw64FNnNYO/K7v9Sqz+ucoNafBTR8QXzxbjBq3uLGFkI1lccDZcYJQBgtpM8vDX9oCnDroup2t09/hiwFRBoQR++H/OTgekldbaCcWh3oQ0/a8zFhfxdAzEzE2pPZE7G0xp2cRVvAeOfndVTaeDz9lHyy5znnv077wbDSAXD5CD9mUZwrjJnZd65EikPm1lMAzH10H+tSMWkMaLHg5Y3IF1S3Q4TebAGsWw8fFIEQb7mBE0QvjGvOq7RAyAAZxwVSXAHjnACYFpIE7rBCG+I9UMXG60Cl16F2f+7hJabdZlk+ygf2i8OPMp33dfp77gT26+SKfpUHdjZttCjMAi41iCNSBRpiepMF/rz8IMaiy9J6Gx6AesvVKl6R2naYViVorX29Rza+E2DH+7QlaiavaalSnrkWTHzoR6zjJe9ljtNaGUVWG15jv9wQfMgSpDxp22rJ2DtkIeU8kAEKESrlDhGg3H5hoNMXCk6+uZ5cylChUlwUtFWCr9RgGGz7nKXpoKYr/VpGph+R663ZqJ/OgL9TjLdYWL2qR6H3x+zy/axO9Mfl51Ty6jlRlMrOjMwSZ33I/5OARXNauscH+zGW9+M/yxV/Z7gDMkGXk6Wb+u/KjGmVVtt6+dCueWFf+hTwO2rYvnx2HacnmAYrkgZjmMZwClGl2UpbD1M3kBqDvxP1ADS1LiWzWdP9mFRdERSb8OO9TzzObebJ6yXXDhSC8ZnRBEz75KARtoxPu2OmXZkp6F38m4HDzdFJluc/2hKSmWXpZIbrXhPFV81xay1ae2TcMCwCLDaPV/60CNMwLOp14jmy7btn5S5P1IUgm3i6youD8D72W2c8aEdJ4BHIblP17L3qW+YlIq7ba8HDSmK/phOgCVThIRz1qSjHKvHHNw8Pft4IVfuFXCr46TGUSRsJiTcOaumXCX2dJ3hD5Evp55nHK39frPuS/+hbuDXzvi4j6KTtBnVRXztlv9WfxAcubrjZuxfq91VOMGYO9DV6ueta1rI7gUnKp0aU7PBqCwk81KlJlaX4g3U5wNHMSiAGAk7R50SJknaERBIpcmQ7N+QbesW9KtcMFKkIyWfJjevvrnZCngACsioXz1ytwZYoNzwiLRpn0d0SSSGVymH1NIsWObR2FhNad4BRkfjlpFAT2rKQ0iM5cJ0dOa/xSx4MXsgySeRiibhBu2wZgUav3h/a4QjXqHudgSkqS+EftRpwrNb3lREeeEgLTprCPQ0W47TKdKBpK27UaILJi8UpUrLmJU15gF5kiIZbYf7T73JcoqBKlcCdz8rDvQjcDcQJvd34XqH1MHAXpXyfQDNPPKFVrGHy3yj6WHType17hQ1yIvmX9tgm3pTQhJ/dcNlXRWFlVbHsvUM570XHU7/KLRN5m+EnZjFuPu2Fc32pKB/fUfKzU4XHoF/B8eqfI19dbPsdXMFmRklr9L2Q4vbZ9QTpIey/V1jIC3KwZ6QeL/pd3iQIH1AkowOlJh5JKxQJJCW2lDx1jig8GHjyMaV7RrccrZvihs6LPWPulpmbN+LG3b9BedyzsJ7UXHt1VDHXlYTHGSP8PJ8AWbW/1r3KYeWy4ymJtTYi7hWNEKYiNqnJYz08YDlr4tjVB+M6Pb9uQoGyCQAUZ7M/K9COJ7U2s3vFzCP/6zJru17XOjZKsFJ928ghQqohpWBt7VmxGJcag+XXCrB+BAn+PG1ccg2GUjYtJjSpAkOAMlLc/whrkiyQ8Z+zJAcVPEey2TIKYS5wgOg24BAyXcrmsUguFvAlnAGCIna17KYbfF14+DRwAQMnQbVypYtv6igMo/q/mZS8FdQEpiKqhANXNKKBuOo/wzFiJYffehpLxEM+f8Z303I2x4lwyt6Ps/AU6xTWSfVNnRKWpNbvCpNdnFG7n7anUpOICO7zuC92z/YWUqBqjzRqoTKlO8bmvg8D7LQuju42Tk5mcvrp5Vkgc7rPni+pZMopquKPeel7FOYXvkaFXTp7V7MfCXrQXDlWGpd6oM34INSPG8MXTfJp9vomOaGqufmU7/sTRI1bSCmQAWKKhfZiLMGy4OFMi09vncxypvib2a2HklJIDatwUEOtNSzIQ8Zkdy4jt2PJy4pGazao9iGXthdFyA6PTVx7NxrNBSvpQ8ZhqT7x6xwcV9OyLCbL64S+RQ2H9OkKO8jb6AkkMowGgrRNC9c7LiBix/elXJPrKduGZiSsSmUiMNHdd4xzkigk6y0TD1ON4G3o91p2d2xg+DtqCwH9TV2YYOxrvQWmyFKEUwZSm0RNYWVltvjduHjI6bfj91K/aSfrLuSRouQX9Rb7QCnjKUo317/fKCclFyFEMIMjHG/kg1dQz/jgV01Pm80dvml2QZ/6hUoaXHtHOOc2Xq/9DHJUpeBNQdEnMh0m0Ee50Swm0UUfCc14J/pOHt2SazEVSJ/1sYJZBNwzflHX5QVaVJlimez8MLW4X3Sm6H/5QnENddKcaeVZQMiwj3qx29DjizwY2Mg4Vp8LDfGPE6q2R7z2nRuxD6xuYulJXGCPr1n+13lY8J7gGmyjsyKglpyIPWbpJBQlSMmL3+HRWxakxj3qB8+JF0dBiF3zE//ehXyW7FXl9ejZEjYJrcWsVoWcd/b/L/VIW+s3KjI9TdMC59cjK2jg1Y3Qg1nyXOgStZ+AXFTRhXjRzGuw/adkE9O4JQfjRD5L83SsbgB948cFDG93ZaT4m52dgUh6v5osuhHgf0CyXw4EGFgTWypqObHfVHQVpMct9ug0H9KNq34HMit29Xj710qQOHgTxFKPxfkGk6w8HKD0dLGWEMxu7w9NrzB0YZkyyJqO8wGVhp/h6UeNudveVZiTYEka69b9rkb9bS4B7VLed4GfNPHX2ZSsXrqJBd0aju5ra8nZeHx6Xv5h3ELT0zveI0m94ZgxbQdBr/5a3VPkvvHja24ZTrPvFyLCIQQGTp779NdfaNzzXFcrHr9ChF870K9+WSMwbO2080AQAFPjiDoAN5BeoThpaZl6ZgAUvpSQETlx1tlNuIkaN670B+KJoZhPs+rmzLr5bfHiTtEkI61aFR1i7OwU05Q5jvqv+YK0LUPhEtkOaTDmmbF3cxRWWCeWEv9cHvexxXlrvg0kistna4THk+3jSXPG8KIU8yftjKKFxqpPLvP/II4H6bN2fEY2xFWv3TH7LVp9/jqPmGkiMU+jyVQQIY7wM7LowVcVfz56wO4YVmLx2c6uLt8M2NcbaoZgg8Rkn94jcupsbjQ6ViKK78BcEHF4GIAv4cZWkyHVne72bbWxY4fcPXj7Ez247O34x3Hb0JIgE4ZymytosFx6VevroTBWgc52cjIW9ShJEVtLxCttWC0jgjAHSn6I0tRSuvE7b6sAeqOoMHG/0/I+Lr9aQHkPj41jkMFeanNE1JIrMcFbivN22OsENMU2ibJYldYsXx4wXxtnWE9cLIHg3OMNHoFNs0TaHqdlTYRJ1rdymqq6ZTkn+U2YlGIcgAMNm/gtfyFQbJBQqcV2T2W3uZbCRszCJz0MkejzBMfNO0RTgS64wNoo3FjX2M7M6RdLhSVhPRdD762Ta3n7t+248zk1o+/C7UABAKerDBIrgrv6IdQzRGcUSdb/XlNhCI00R2U3xk7+VdzCl32MIowvu9DsZR2L7ocxNbMLX4mN/Idbrl2HKC4PjGEn7WHNV/e8HBu3T2TDBxDCN7TNOL81uwil2JXJnQlsvu2LEbUSPBE+nUrAoiVZPSYUvBnbUYdcSuAZH7AnjL1iLBP6x8LjnBgKLGu8xBJaNxLIqo5056rdmfZmjLwoG0Y+zINXKxBWr+paf/W8PRD3nLxVmhYJ+YGLDMA0M9Vew/BDxoa4W2eQc4dPyqYyusZ0chvt2z0qP1+3XsGetDmo1IxadwT7QczKDfZcwBAThh8rdoDGauhR3kcWUj+4cAhDAglWp6QYFHzerkZ36vD61gAYVfj2U6WE5/dMs8RWg//XMY6/7deqlzwvh9OZvdBn/Dk1e6JMCD4A/sPcVHJeHPhf7vkC/67AkBfIQJ1pyB4JUN8moh6XKL89twJpnxBHiZ5DKD1N44rXgfuB2xo9gQj3ZQTBsf0xUZFEQVkkQFQUc3QyFClBrvJ/bbF3dY6xU8zppSu8+sinzy/XMybpKpRCWpqAMq6My7clHjCOhh3484cO0BZCVIWrKnpBbpiexbd1lEVVy0Q/eFwRhhKJP7nYBTSRvscrqeYrCMDzRQtIXRU7iOPiRIO2QNM0nO/KbNm0dYK+lpV0EX5TXczqyKwf8xoG5lA7wznQKjN3o+ICp3WlIZWjwzQgSZwnI7Q71UgENTe+hfWGs0Ge7nwVAMyseUViCpfFjo8XfuQdOKqfnin3cmgtXp470svolX66KXpN9QXKqZ1wMaraGJNMrNEoXbN+xRn20Va/7LGPtw+2eWSBqtsoAPrmNHjARSaqp0Tj48FqwN/7Xy20kmGng1kuzCD3y2Td2yk2nB20jMK/JVeIt+1InMgVq8qPm1f3am6Q4LKXnHwP/0G9qyyaLP1Y3UitrlrjwV/zcZTloQgIBugZ+BUVVTSZdWZwo8/Nd1unDAMttXYF6kgmElsWxPPgpvgrypVM1/6zRiWHRPOP4xPuos3+4xqSB1/PVZGsFHCkDa5PfPny9pqTz3AQbhEQd1kZztv7j6DyWG4WCKPpBLMhpCRI5B5F25JwzXz94Fq6yqywX8LpvnyOLR4mwnmQMNne/o2k4KwLccq7v5WbuHvR41JYMkEP7SDJLP+AKZlqgFqjQN3X54aJGHTfAbIfRWto5/oSo8CYF83Xrt7z6peFH7leXsoBrUFsqVfD2GyXyXI1JYJFTgzmIDQ8f5HNvdgp0v+JhJL0p9bnIdBQFsxsmEWhDbNtJnBSYsOFXqCOZWFcNFzu/dvTUsf3KvDztO+H3Hq01tGp35rmfyx6ASkEUBnwLBCGF47KYnFH0UpIhgZPUD59aJp+5Rb7JroybOD2kEmMBkzxvT1uNttaq5fl38Imp1k8M4Imk2Ig0bwTkMPn9alJQFDoKmmeajTgwCIYCntxUf3v+031GPqxD1pZBVUg+V8LYykrF2Q693R9og5szcMCutHCgIyIwaL7IyyrPyAzP9XGU2/jNI0BUXOzruTrNBThQqRHTRQDKLvi8JRsQjfL8st1ZGIJS8arB9j+wGqTPJA6tnj2Rt5Mg3sth9vaTrryyTloSduAWitIJAJKAnJtYU1rxpKt51CI93OXvfNiPis0Zgs1lO8kyRVdmQK++Hif0jOUxIogjnMylMYKv2KWzx6OQIOnRQUr3uh8P0xvhfgxzzc9jDZ/Xkzsso/EykAOhpvwV/bSsttwW/nbsbmdr/fkIHI+BJbIYwDUkIEjHnPl0LPkOokWelzRjcKDxDc0l36bLgxklJ34YymNZJrsQFBBFfNujOgx5LMxaAd6p+2C/kDCyU8siu+sAe/G3WZyIintXY/rXnhWAqbGFlZS5+zmozuIDxvAKYivXj4+CLJZuQyo7p3BCAUnrVvdHBKkikNLzAlRRNNg0mE7jncGxFZE47eZdQZZsybeUJhQ5eJhqHCgIEQSGvy0sWf42lKmMIy8y3gWbhUOUrPFhFOlhPt70kZy6VswP8CxG1eVOhmxTxOVuO/Is/mu1QeLD6pn7YGXX79u4S4WipInSLjJshdcNH71xzbX/oN+5PF3M86TvG43md0RpPC1eXx1fyOCXCOPk42vpFibFPiPbfdC43ieJOcc2k7hEe5bJReWi4QPEMNA4dvZTxQj1YZhHcJTGaoW0joveGLBoNwYDoKVsR544nTFBwECYRmZKpr5EZI7ZAbrkdRZS6Sq3+Cm2sP62l99YUoyQLOaWH1f92Hp/PWl9msTh4q3glwi18B7njHtD7CdBYw9IU97LSAFCUKSAq1sWUzQMQP3lfTncKFhHmWGcdixTKhxes8YL7s80/3uY09q8aXbZF8XYlTclyukpHWnXX0l5ypEj27nLMr803jGLptRQ0dX6lT7p/lEf9I6/1qXRoH61W75wTu3N0W4hS/nQJ178Ql0NWc9iXoVi+yL/bQIPNr/Eoz9QzQYRvp9aFoah4FIH0TCHUx73eNy0AyTr7wNohjdNMLKtplpyyHN40cS+Dh8D6C6VHh4wwZFazVz5vll4CN/3iKKd7VKf9WLMsfQCtNrznsJ/mvpEmnLaVFePM2M1yRDLkAeJBfDvDejzRCg8+41JaSvuJbVqZH+sL+Hfmj8JU7QIQgMo5nRbEKxeFpgKyDsWnkXV5L5jb+5dLjjeUu918z2bgpwxzUENisTMgFdcRX5YX5P2UIjunEZ6MRopXu0DIOBZ3ViqTUOJxGZ3vvmXAZO+AZCFF24CjLkKmEhGO29b4e3N8tz8DncnKCXVDsGnoZOUwzDF4T7rNUdvqIU0LTpqUhi94/H2B3LpB6Ysjwdw2PrsV8sr0ifkOYGPuQ/7fW28qW60MGloni4nn6DGpyB9ZiwwEJpNcuRPGf16wW0R7ysWbg74RQDa4JEb+uRGdpcEguUmgcOYXqeE8cdpfrvXswPsdvpVEBvDGuG9nOc1sOnnwVb6zCZhaJFX1h8byMkCBbcmAnA6I6ijOtLkQw+cI0vQZz5XSaU+Hltp/uBXhDYO2UObNIiC6BdBfYAElSfjcmkUdqmoeyZSm7Cs+ayeyzuOS6ZVZ1m5iB8GCL/D4aGHBdIG3xht1ZisQZO3FbVif6eCdJquMpzzL4Xwz/Zb5FFR/v6b44WYq/40yAg8it6+pHncFwRRJOj+DhRZ13dZI234Gt5Pb2vNcHUL4AfuJynbskRB3//QPdljs2NsDPQOQkTBGv6BxXHkDdXBfSmtoV1aVB10QXUmkGOOLfi3OecytgFbzmIyAxKEz1IAADttW0eOgRK4HCBokCBgaiC1L267Gl1D6/0DxRXPKzUnNRKy/XBXCzHnZ4ytZLO2IWFqO0i99nOm1LCbAWzvNAXB0HvPCfFkPPt+071aC6rzJDeagqhJ23yAsMT+iePEEmmGiKYwF/5+DrLOfeSmS1Fl8yzb1melQR8ipfZO8vbDJhBAJ0ZI/fJC9XHZtCVsBmI5qZPVttFNI/ux7ksqFxA3teMYPY0Co0xyvMJxyMp8KLklvw+BozIY5nT89rvTPALt9xExGs7GoxX9XhIQ2HogY5nbwqFtClG12wqR9R59tg/xmyToMzs6Eq/Zh6y9Lprx8DgrIfc05y6hE3pbP2/DuxmQIfsdMrvImXiMmwgPvBC424KTl6xidjw8TVdS9r24PXH2G/K3KecoyaEWBMH6i+AmWJGYdkbSzSCrM2M9RVhqQSCUNk2RoE4cmyYwijf/+33wA0ino0nxjTgPw/WaFdieG1QOtgfMRk8NBMKrJqLkGh6wAuwuHdyxuUKx0yoEmAHfhF5mGJuSgntNQOG+KlKEjjchs16GyRXwkTczkQe5fJ57v26qjP26c4qht2uKKT1xATrRdEwqxXCqCZloV3XFGh3XSTeKB/KSWAAMgR1I/OKlum5HciMrdKLVunie2NKxqhizXAGFsp/nfYT+PB+Zi8Dod/dOhE/a1BGVMxGmfRJm36DAzF17/kyoDWIg8+LotQ+u1V7wrR5ccJVTORYg6c9kMtbzMtnC0xy4u4wBmkTODYYJlszLBRumHIeexkHBDr1onTvegZ5cTwAUSThQy6zjZ6qtHyiCP9fv/J8cwBKSa1DXQRi2ckw0do7HjX5dfcaR4cSLEAQcowkxZGcllnX7hHeT7SzGvqn6bAzSJdGKbLMXWFPyANlvQm7n9w5jxz2YmGEu7e4TyQ9GXwIuaW+kaeSMvEKZj6hxvP4e66yJKmNTmDolJuhOArikVGWSwKUEwkj5mhOynOdXzRQggmDIOssq0I+fwO1FFPfxNxKcoAMhuaMGjDkSHtvKyR8RePICw185CEnVsdfDsU7DFtbx5+oRITCUZjIjwx96dph57KLkXG07fNTGwyE/aE7btmF++v4Zz/mRUjKWWc6K80B1LXI/aTp+uusC8SXIX7jNAMI8ClCa3NurPrXoSxIihULpve0dc8WcFQudpeVWwkIViZ/rUVLjjSeaRPULHDuDGFAwoV9HKWuu+FZyL4/MaNpM/05nEqeb1dis3HlEl8hj5NKoVVlhPi/qz/7kN6oyR3a9Ln6Q4ELU655rqRnwEEZcv+26+DJk3dNzP5t2OILXUIwnP/uXNRhur39yU0iij5HIK0YPjZ8UDqN8JrZY+Lhw83dn31I01abj0DmyWNjNWmwrxdFVdlZ4jPQtayE5kXlcjef7izTLGMXDoGcSoFkXFUp+6z0rGkvhF1NtIsNQPvC0tNu8yPltWxWVHtNgEECiekVWmTlDjTf953FnwrvlruUElTHV80uDeITVywrqW8QbXNDQn9pa7YhHDWqzsZJKDfMHdzg5lF+8FGhzo9wgsoX3KjJHSq1f9iRhFiW99bfSPBwqWmlLmoAoI1f0sW3bRSwS0IK+f6AHR6jQM3VP+EjSAvzn4Xqn2DVvuw/eCCuuah/rtOVPAUBfgiaO4dN3NK1e2/gy6oZ0rW8ngDs5WOZ/dRLXugK4XgnL/Lc+xGBYSJUJf2L9OYit58SGSRWlpj4ly3/2Ucm9uY6bltHYXXLTBE4/+MdMc0TX3wHKAkWf737jXieeGp/uSIUS9ffEYNr6BTQyKFmi+PzuSGvtEQ5iqWNZNDdbz87ph5GF0z254MxHP9/BObyvfD5e9yJJlEVF5Gn7HhJ0TjBg/vjKFYOI0KjrM0yS3brucyN8GplghC28NdbTrLDnWbVphmMbmhuIsy/woYNI7Z5mIl39R2AIpD8p+qWtIRtQHFNFkJoJEGjeqCx+6ODO9EH0uqMgcMQ3wrX6sd/vi3F3enx/XQpvFsk3Xzz+Rv4FYriRHTnwxUiNNVQsbVMGQkpXtuNf6F1zU9+CxHy+WBidncG59vjTX01ohmwqugLENRAA7kAFnzwh0RpUTYSMwSqW8LhSerkquVuN/Nlnx0vDxHLuaxnn+2JxDm4r8wp2P91lo6ia0RQOIsVhiv6FYdtTndjhIWH7tWjZ8ZLKbjwuCD9Sy4vHly4nxC6jlNE1MjgIRRTNOMWRkmEkhpVtjv8V+2sZ10VAl3eAUfTQEPZGgeJzP0vIJqc0dexBlROvIZIBOfaxYRqLjP47kCRcOrn57BF2pVuRpe3yUBhzQZounN8HMriY51+g3NVKQk2xuUFhAihhzRQZdUkfhKMNLL4UqLstOXrvCSF0Q4OYiL6MRJOIelNv3tuPTCFQef7WUbo+822Zc//N4egJ2K9SkigEysScnDBMgTMpJuhwttFxFGTz/blFPJGJj3wLLwZzSNXldx4qw/NCUrovdSBe7WM6++Dn7zFcuMSEq8XI5owQYD0NMCWqQJcaIk+wu1bBmAh/mPPjKrKltQqjaNJ4KScS+qafDXwOGVBzheOpJkrGWp0Ij1V3n7Yg/t2kK/Ir2rqDa/fyM21RilJzdqLYLv0iXTFdMr064zmi8R1AdrC+LPWuXl7Z3H3jIAFNqGqNvMZ9uF6luBuRSxvCfucKO/Jv89Zt7ItjVYAE8F7nJXl+bZUBDgPUwLT9CoT+8cRFgpxBrJHFo1GzoImsmODm63qFUnyluh2CXn1wxdp0wG/Xqi1AIaJA6kW1JLNJQSYjtNqHzEpaHgI6IgPRPWhJwAxgEqGUNyS09VOHCVy0Dw6u4vFQ+fU6VEAXvLogPwvivJL/YLTkrLH0smGaEnoAjFYD4+wvKZVzTLjwtFpGeKLvyKldH9++kG4rIri0uejXVXXIEUSHTRk1SFnG762RnsZvIOiHLQTgl+Mr2flgjEKkIyGHTiQlXspne14p0+izihVF84W/S504b1Th1XYcgHZm3/tsf490QRQm7mCa+3KdRZi3TSYM8LDsicDvPYAGRg/+2td4m0h4N2im+dRR50JnWkk8QzIyNgfH9E5QFAQVEBGO6qOHtfchcczXlC/PVaVkOJ9RpQrgVWNcW+/g19MT2rRe59H0i2YWhBhvcLDftrSHk8X/735tVdWtJb3rPNwPcXovieNY4Ddd/oAQ1yeJ42zyJ/IaeYuU8Op/SZtytoOzTAt8JcfCpJqxVD0pv/TbEf4SLxolGlBqphKNNacrvRamzOt+4BECIKPD0Oj3pMwGMEUTpIxjC5wCTApwpkFKQQYCia9x0+DBGmOIseywZJCE38h8WIjCL24TBAMQtPSy3PA4Zzf13FeGWc+UESkPBDMQFEUUbVCwMPvKebAz7LrVud6piWOhFyHYexacKIFA2rLVDUXkHpNGV5F08b1moDCX6zVq4iFIGRp2c4ke9Hlhp1JNMHdNcJGrk77aAeuPX5qlPsZAaoytR9MbQAbSSfHK1ytgh1AU5kuiw4POLo4dX5yeGSA3BTSCSvntf2VtrBkanY8dez+mVprqWoNMtqpm81zyngebjv33BZT36t4zgCigog/wBjK5pjRFDd7f84z9F3THhoPe65YypZjvlAQfAUgaIvhEA/rAf/sjxCj4gLOXqixYkSb/DkAcer1QzAIBmWbPYUiv9UpoYT55j8H0V9sTaE18wuD3/QA1hD8s2oWJ630hWC8Dg2cghbzHAXkgtjsggL+X8lTWQVMFps831Pps4QY2y4Eug0rTFAGDFFiBANrR1IgO9A/ZYqSLAGzR3qWCzX7NRgHkXOHikvqDz53tDAlKvlMAAOmXVK7usZzAvCcRJuAX0Xhjl4s50MezKLKgw5Hsw492vlBoBhcZzoAAliwoWP0IEAQYmnpTCKSkNB9kHCAmffgmTFzEe76A378nlBzHMfTb+2sgCL1uvS3o2/NknB7enJpm9ZVOqtio8vxsokP4H0yrE3eD82XNzKEGEtOFYF0tTLLKTyr4O9c9Aqn1/WtH6EttGjOZ2uUqWzM+yLVSE/VXCqHmMhF0Dr4OsJkqPMXldOqHI/F+M+JGcACgsUCkcNN7Y+s7QrxFlTAmP2Vmwi75Ia7YGjz4OjR4qAdDQ7y94d6rKhDbvA+bOpV7d+dLlZv+gHHB9JH8G9ztyqvLQVqOb5XNapcuHzJflUNNQHCbT8CfiX3ppmR2xaGfDm7vn6DZvWEp73QpggZgjqdcE8UJBqFBJzdge8a2Sfmd5f3EJvz9I4kjyRxe7sQWwiGXgfzd+jVhL75GFR2uQVPh2be76FdGZlXuNJhGJ1NLNTVBEdFAoA4Eyb7ZE9b4fH0qsOqvKxLCiy0h8fOWT1JfplMYz2U9jc9K2LErNI1zdNqOPnDrCGu4wSBxPdBQ2ajo05qyC9fnR3pn0ban7T2mXf9x4ZXfzvPwRuhDlND3N3+ekxZcHF/fIliFBVghtwiBU+syLCoCjH9I8srfzjbAKS97pjiOV/9fFyre9CpAwAOo/YExaLqSvONTp5VZ5e/+E13YwF7d6UTOddfs8kfHrkwwjbXYNeH1AK4quHtj4fCmI7jFkqayyjUeNZVfIWQ6DKQbHicFobQOdi0xhS+u8D3uTWqVDtnShSXseGrcjaRmIs4rQbaTdoof9AQv1++pPi7Dch2RqzO2mmkw3zGfMvAIrfCRsMb19i0Irh0IqgE4rIQ/wfGK1o94Q22fyB/sU7G8AM8Lq3RL5a2wSqFNkYCAAoIwAORx8ObJT6d5l3kVAGn8mghWDoo2jho3zwQjWIzA0CmlWVlKJIT/bqbitTTJYgIwAYDOiE5V8Db+YUWwuFvwDnSGSbj5c5d2V6gztbvRRdPgtb/ZO4sHCLgD+HD4663oM9InoYvGF+Grvc4WsSF4DSgIKP0T5BXU/Dd7g/cL2V5XvvBuX7xhwC2dD/HGz47mM6gOnMSVvQ65o34oW+blFeA3RHsODvTbb0iG28//LeTIQ1tirY53DLb4Rp5Mkgttg9jR0jQ2IqaJPqVVaUypXNfmzYX5AOCuPlSPvBlNwEeRb0tCIvBveYuIv+NqCgdfxuNisQQFbqTNIiZO5T5qwjmpe9GyXcLsZjOsMcbIE86oio+USTo3o+/d9lC4UABovQ1fGCdp3zDFB6MMdDuz4EUk88HxPJgVGMTvsnivW/OODjBsgYB/bSBT+RFIXV2qGtdf53vircGPKEOo5Sr6KpAWXD1yzXekWvco+a22UtKHa+mrj5vXuVbplvyAK5kBavB0uSLkceY2N1EYvjCqOL5tSFDv9HTHEkzBzHgd7214/NnfhE4PtSa4J/aiZSzX1fn5Iebo8g8AsYx9HNGu+iMg7sbSW1gg9W28L7UsXXyB1hyj3142uyrdVOe+qtzYGcf5u9P1sfA+8un1tgDIs65o5uFPw5Q1luYciOk/MPTaNbVWSUXhcNZqQ0Sfvrd64VZwMxG2n2jS+knkca0uG8aNlgVJwqays99uMy80UYLayLScy5Jt1MPD5Gtk6tdJ4muvh/3SJXwafynuhVdHUgT9w6czfYVdrDmeJyGOK87cAzWaDx1QwYO2XsW3iWly6XNcFjP0dbaHSFyUAwfiDVMsazvEhmZQzO10Dkk6XxqC9uK7MGV0lT9Lc9dBHeO62qLR7AJRNp5XHmG6NjoNdePunvUSBlokNIG0KFMrUgD58/VAP3FQxKRNxcMPsZZATX1ZoqafuMjHS3zXJvj+qh+axANhjbo1YgWDuQzSHsYn7D9VCnBudxbkUSCKPX45kgNBfwJuZVGr744e+VSabcZ1fx/djWw6VNQmnpiweeV2aMBBxsD27nt/w5gwcJEWTkHqsOnZg2tH1et1mPE89wM8ENfJ6TxbtnZoknPue5NnASIv6JH+Sh097BY+8fwW4eRsW01XWGnnfvyRO6sCZExTENIs1JLWbPu3z+Rn+d091FU/XcfgKf9AizyNr/tj8oQM41c5XQD4sm9qNwkx0AgJUttAwk8BTgMIxunaDhN2dLcvT19ZDHCyw4q6reF9jKlW5ne/M9CzgbJTOafZfwFTHGIJhH630dh3me+We/bj4EMJJnXV4uHOT2U4k8hh+gUx0kOAA8Spw98qmqSq5kQu1RhwDE3kOvrq5s1yVy3O9I9UdtOHJXXza+mrc7XSDfLO/YZaaoY2TZO18qwJv+SQDRGFYHDD44AtkYCAQOH0QNAAJFS776r3Ol226iD0vsxxj3RxtPDY4F64bPiAqrLIvlXAAEQ+78qzFPKmb2BSbubjvX5vyCgqNqhWNezuX0Rxdjgqj2j5fKrc1zjMQLSeDuO1hY+acONWEHjBTR9eyjzuf/QrJbr0TPTBR9Hf4/Pi0BkNyH0XT+k7b0Qap+LUUOC78l4pmB4yAnJqvZHBIqE0tUDRd1pamSvmja9qFx9ZXlgx58iChvpWGZsv99ebsYFN9l2uQul4AiUdv0UH+mG+nf3HU4RX32ruWz+2RZ/flHwJZtTNhD/msjwXpR7noJsgYeuvgcwudlzIkvZFyjjPaSczo52R+7dAlF9Gql/AED9ERBJJ9ddcks+tT0f04ZhaVer+a7P+RQTxj/pwrMijObY4ngjulQuiWASR491Eg0xWM+sgZyUrEpsKFreIHji8vFcGAJ6/rOzLm9Bu+4XxFmTfQhOCo6wgUCVrw/IUrQfnq28mrZjsAp8or/dbGl99kHGbYilMIuo5J1huD1uPN9kqbYtLzKH6qEzA8H5MpyHzrmD5uwQYkyBp+uw/8Xt9Psf+Ibk1kwzZJo6LYeKsMhRThizJOyOSxBt71QRDEV0OTxAJFiweI3D/+NTxjzTdlxtwc+Crn+L1bKZq5XEQnbO4jU3DH0T++CqXjes3DOFyLjXVF3llUz8Q3+tFDsJerc1EkGyMBzP0al3eWHmn47HnTWMbmppJPYZf6Fcy8/05SHnS2pILft/iKhE4oRnxxaA8OgUnP8xpnulY8Y2h7eyKmckYljrG8lSn8BB0DU3EZ5iPgck2iLh7XQAKVVNtW+zN9cCwt2S0SLKAuAPvSRc0KLkfLLhSI9EMeyfzA1UssO3u88U2ydGkENlXwJmywvKnn0XZY1qZ9phn8HMROgNWIn5MIwZY7ovu2AafxTDYQozbDxYWHaQSbQ/yHumRiuUmtzjvRVKvPdJoQEpfggP9KrntrKLpvc7Ki2yQilWWgCJGgRdzSvI3rpoEDvH4I3oX5GdZZTmElh292orCt/NfxRk2/2Q8hnYET3BFAnDomvowRG5qSBdFM76xKmZqzARJV7oMGJAuSF8OkCo/Ivym1ce9Xv0MkMsY3nplJ09BVNJ96rJSaAAjYVSlE3Wl0+NFS18+ISJdN9+CNmj16h15fAaex3FFRSMUGvViLGRo6G85hkzc11NMcssvCTgoSYKbG1kr5cjvdn38L8+4iT7WvM3B6jvT7e9ZB4ahNdmOw9TCNAw8cUogLfL+BLLsCoHiCgM8UZyysS9Ix6u/lqEMqzTQVPuTm9KsxYCs0m58RYrUzelQU0E9IsXwcKira0efqF7cIPplXIwrf7Kt+zrGxsYzJoW+fGfDE6zFEJqh/sWNcp4c7HpA7oesGIRiGozr9thzswSAyGWGW2MrUnZyv8v7AMYX/91qfdX1tfmrDnX4fhGh2jxZIDPkDlnMKL5xsr6u294pTnD2e+EbzX1drqkAkKQFoY61oACrmbuDp+pKSyOL8pi6cgWP73HhYsGRxGv1ou29VE99e2CpTQfDyGHVU6z7yttuhpx8P7IvhCCQPDzLA1lTcDTICjY7/N33SPzIrS8AtxzJi1eW1BxJ4yd2YHMMM7kZT/0WuIG6UBFRo4lE35wlTMXa8MD035Hudy8GFdOEHJb+lhQ01g9v13Tp1I0wJSxLrEKlkVLKpoQMZyUn2e1JziRuJWYufshwOY5OKNHw2OhovyhUeRR3Ca/9zT2S4lsnDnuX1DxGiM6tvqWvWtP+zEeCzhJZ7G+HoPgiQvkHyLgmyaaYrw8Rv8JfXYTvUPXOqjrkZaXExxpEeoGh+6BIEiQIILkueMWZG0l1dbKIqFjTDSKOkoOvpovEX5/0s0/088H8rpOr6yPRxjr8cCFucqv8psdeNLubJopdMJr+UGmruaX+azVmRn9Us0Yl8kJxWd7UZn0oagQUruot6pB/hd3bLN0W1xUkwIvT0NHQdMab9f77+Ga1MR/3/EXvLHKTlGP15bw/8DbAlU9XbuDXywc7kHD0hY8Mv10WdlAXkneL9vWPsxTZOuAbNsRbthXzd3wtZrD3t26Lm0etUFCM7zepvW40TcUGtl7L4QFYtfQrCqjMqMgNmf5lc65evkPaZaYyKK9bU5RMC3h2Cg/lqhd3DGe6k9FuROHlMGy6ragcstnzu2bE1Fi0NYCCpoxWzc6l8eq42JRUufOkjj7J+31bDeM60uzFh+y3BtgatQVw95QJsXl4OxjqKaj1dtRdHJ8NH/qOf4c6XWtkHpF+MURpo+dAfIHG9peVK0s5Uz1olKErM/YsA+ES9AeSWRUe+cFdOlTbPTGZ+0uJwDaYpcUkM9Ce6WfdIawHwVOOfdkkk0BKyU6uUJSBcMrELENa+rf6dyQFfvBgGb9Yl8zEaACqVowc4+Th5cTHA8h+zb7lT6nGWn4t9xXejvG4nDbcBePDyHBXuKclOfw1+xBc2zl9jHTwjcXuKTjDFwcPwOVYZnbQkuPzqkLEGCqVt7aV9UqBVuDReEJwIuLrq5GE5aTAyaY03tnL9L060SBGzyBlwCCF1il2+DNrb7PfYYx0EvUoXFs6i/FFtWowHwsLARkIdK8aCxTAuFi1Ymy+r33Kd8ezWgDGn6vz6txwMjZRMWqNNuYX+rrcmZC2Ha266Z2JQLkl8HAdaUtZcw1NGE0tRdUBGYq0oXlAdoOlnwVZwwVfmeO88LNxmp7glFxrjCK1rvRBbM5OUHoOnSlfllBj518JZtC0783RCAvDa7hTlapVHmfKKGPJfz0UQC5ybRSqzJMt/bujx5UIWnpcql6EJyzbX2FpA0KJ2ynwYp5lo/P5gs0IHETcYmugNnpZs7V4Sr5QpDgduZ8Jj6XkKRuu0Z4XPWV0hnwsNCrLTElC0CdE/96WU2Ib3vC8RQN552tyAaWpxkbez5WjQDoqiWlyQ9tVilSeH3YVG2RjPnt1bGoBAE+nfL3Da9hEGV2SrMn94GMwNav+kKIhFWX83fvWqzwmlGOvim0cKAYU9e6oil8VYQfwwL+lAfGUXsncMKruh615LPJ8zw/3mOchgEGL/QhMcsbygRfW/qbMCrmoI9ZRitcc3ddt83iYLrT4UeGXshO6GLHKbcIqysyF2QYhRr6R5jAEwRuZMyi/q4uETf3anZVwNGxWMqt95IrQbZmdT9lnkT5U+hoFaFb2r4np/jYDLaUqK21aopb4UzMrMyaBHHwFzHc8YJEZ0LaW2K8uPc/GXP1pN4BayKbtuc8WMVdYOPWSXe6MP5Ec64hex7kpn6HiSacFMiCHvZ861NYDKjvzOaUucaLy14jqpCRDhgrmZIa/a0Hcr3Te0Wf30wnTaZ5xmDryy0mFvvJChBgpyqo12yPU4F8p7dzggLHjxL58otXv5ZR/Fw1T8oS7vy74Oe1NIVyfCEfhAVxdXXfdiIEFXegekSbVsLZR5OalbcnP8FjUbGTqCsQvQU/4LCFXaRwChphLkRFzGGveg10fw3Qh/G9fkWav43LmiG7WiXlRKg7FQnAf9pzEv7qeMbrbjVw2nPqWS2TuDxl4ca82RQO3NTtRp5AlM66YCAzbBwks4TSFgRp4lit/pvIcQveS5IanT/XPseGGcQqNUcmLNKa/9/qIH7L5DPvGmy9Lyv2mw6J4yJEqWwh/at1RrCmo6B91IRHqmFsfYaBZZg0t0WrvtKoGCkHcfvtc4H5JQfdrVTS/+wZSYCwaRfg0v7lapg2u3/R5pwxvj69mgvtXGT/LBjsYPAspPPkZ9FJRjd5PkLYROBjM3J/tD8dEKxU7F+5H/LUil7VatcUBOBvUE3D8iD4usxeOE0i0RF+iWRO7w4qBjxHBskhv6Ap9/R8ImkjcyfYvEIc0Ke1ISN54TBiy36NMrjd5LZrnChdPe8Wk2GBMJ7AKzs/aja5qPbmSnyQaEw/WOIlE/tuaTsRzI/7J0nEL+TvkgxTaH2lvu8+09+4ePt1NHV4KyuJz+z9RUrk4im+VYBu5TeZumzVov5XcQQIY+KQAeJ5OGWm05t9eIm44nXPH30ZFgIGLox47aT42rmCtgw4GSQJxwk+zcjColVxYSOIBSBnxhgZlz7567Nz23lO0+PVdHWyMmduhiBWPBBpgyKDTPUBIcwFLbbcjV5oIpNL1tWz4grQTaPHi3UpPfUVySQZa0j/HyQ4wGLWOMa0cXfVnA/uoQe8p4Np3LhHjOo0gGyyw7YcQBi73M2Fd+Ztj+Ev5zB0/knO2uIcG7ivKSQYDfvhdHDFEMWVB0a3ePshh+/vtq+sHOvB6ezUMPDfQXOsDmN40nyLYqTWap04wdWlrxMKfsSX0ZLtXdbua0SZqpaQMsiDbMULhpHu8OwsZCxQp426U/FuclQiyn8ysRrYhD4UeIvfzzjdUnHf8y81za7W+V7EBuJzDztxYzaZN+KkMgd/jd9XWkFHGLIrFgh5p2OMSn0zIJuy9/iD1AO8MjeZm7UPdYMFKsiDG5Mfzaobj8bHZy3aXyNUnohJ6F4P3xvVjfJLWhRsPIB1IhVqWFEEOB/s2IhLcmaaV0N/IE8H7K1zwDUUlQRoaiF57xDohMnc4OnMhFTD9Q94jm8UPM2OzGc6i/dYcMEH0ycOXtm+yc2nY3Qdo5/TkENdKX6ybfumNhqMkARUd01qlU8kH/AKJRkhfRNALE8EB/F5+0+hNYFsczkbIY0SKuQSSyxk4LVNqlmvP2CayB7irIAL9LHbRymuzwkRmLebbJszpcZxydd7iYUcfgGTe0QDufXES+dyB1UU/zLO7Tym3rm71AJFofaluIUgLMv8ecnO5RP9V+As9EOIbQkvM8o6miT1BZVuSfycI/mYlULgXMwFAlNcD1x5ZYnAxFh0vLPUoiquIQaIpyHjwzq9+spiZC7H8xs7zOCuNZCUZKEEVeRK4Nb0j0vbnVURlMYALYWfxOexHjIs1M9iORX5KZQvkT39K5+U6YBRY7q68BnizhO/iNJT4GWvrpDFSX5eRnZi0aQwUowmmaWoNh5XHq9uuEwxyDANZWeXzkioBgECODgeYJCA437b/Bk9yxjRc2pPliBj1yxlaRobvue7TWE+DVBlt8Qlkcrn4X27A3dL65jfHx6l909OtThz7pq9yKI7U80Q88KlFa2Gc2BKyWxbs88TLDzYgMI/cadqGzOZwHjB+ezOZ2HkJ2BGuyIc4TerxOwDCMZTC1G2PRF6Q+OLhhLpEYNa9KH3tFuSLbwk66MeYEX0wdJwSuX0/bzgx2B2jyomb61RuEUXhY4l4++u3afk3AG//GsU3eBokJ5o0STaRX567vQ4DFMBnEIQJ4b89qJYhj/SwcbefU/PHzAxgPXdffapNLra1eT4V3wFOfwChpwHJBsRcdj2dVdZv5ZQOqda2h0lf//sNBTj4AEQVh5nQ6lnu+wyPLvjZZr1snDoimY2YedUKCIkbBmjiLyl6ZeU5M/JL8PbPs4hSapHuiF4U87GvftsSYQZlsBUa4VOYWEmHgWl0ED6adusjXHKusRVGn0XFAU9xKo60fLA3RZ6tqYlN9Y2ryxp5v+IcD83tL5Ovvy3rLsiJE+kdX7vS5E0nzncMEYYEGEPVhJmKABHnEOUEmO4P/mgdiWszavU2Se+J6ZVrpLTrFYYJo0R953dANjjo0DUykZpmE4ng3jLhncBFn7q67DkMY+PlUe4pB4I0BMbT21f7T9KfXEN0CjyDyfQCQTguYnT/PrFKsZViHxf5fQIaVsR7tRidOwuKgB5R76gijeXHZKlr3yMO/Wju9ZlaUGS3T4snAgyqgEZxiB9O0meHZKid567QiS82zSo1nbPkm8qeTCelgtlQfL9SNO+TGxpdKYrS0GIFB7B2TkX0qGf73RtrdhEUMgeN83t8sciO57fyfB6CaT78KEgdInc551IlXZuDFq3rcX1+bHOlHI+wzB37GhZO6zv5s43BpYE6PWMDngOohJHsRgEsAzbJQGpA7I0JDV/qdMYP4blEucXou7KddvA5x0il0yZAOcM767o+rpMKitKnUnLHNDuM+2lMw5B+xJYEEAzZgbnA/oQRLG4+o/j9e7BW+YPT7HwJDQ9YecPwR2LFPtFAGHGgs6SHQ/zI2KhCc6veeM6pcG3bI8JymzZX4wH/4neGB7fm0SiFcbyVbga1oWrdFmDtzyBZJw5oZwBXgG+DlGlWLh0f6WWVivWdmwE/JnkBZAdIiUMBPJ52siP6w9V4TkbNi6RKZerC8DagWEgeoLPlLXh6r6fP9TsYgGhlcDPeekImSkAbeqODpc+UI/VUSqPFpk+DgEinyXVtMRyRToKl9+yu2w/IW4FyvhpwoqqXD2szj2J8lW4GYAaPFQLtSLH2Nd6KeoEVBBTE7D82Whjo6/mf2h/knJqomnV+Y/O5AjxmSBCZXJCi1198Y9ncDzsKJ20NXoL+Qv1WbaiE41b2cU38a6oF0KEFaB4Y1d3C7vNoNsA3uCq2juZpgQ2mHpCbwjhGYwECYoy8rCijMO1gIO9F0bb9CrzzrkAbZFNG1QA9gaZhchk09JvC+Do9mUim5pItXzxAwevp9wU8IMr5e2LebjCP5frq/bmoEXOzqA2XjVBS9E1WKGPOVLUfjr9Sv92PRaPA4Fk0s+YaktQHt8KOAQUPAoMAkHqlPyT50fEmT+oVK7Uiir6l5QzV4Poc5QaSpXtl5rGu0E2t/jqP5mQop/FNQFQRl/Q+0P2F35jYKg3a5nh+lgaFVfEkWspJ3Zef2lX0CnA/NRofItrlA2F3rfvr3RhvfW9xKTDKfuljljrEFss35dp8CV2ZKiwqdMZXGDISMDdiU23IZ6VqERfWG3YtX6+M+IkYjiI7BDX+SF/hbzYn4M1InVxcOeHLZMxrvkH23kmyKKVJpHsXiWwuWy3XYIYiqVhqHCACDQTHVnCJ07o05uRLBmcdjX9l1ZG8e0WoYCqJ/FO8MwAFmzh7SCI22yuIiaiHcYUyPOHcoR37cfmuCw6ihdExn1mctmQg6mxq6FkCCzPjfk+XK36kLeHt+PekBqZkuI6zPKuJW/kNBL0zHF8vMn9g9YH6gE2d2lTzWR8QENi28LH8YEK084yQSJrYf8y0UZ4doO2nz4I3c7QqofNKvB+1ETEzMAcNdvdnH3WG5r5cAR2E+M3o5K1TEnpfJqMq+itHY3XyioWHldR2FJ+Qi+ia5DW0to6rzsyArER/8Zz9IKgAmpnacm0d760t7OfBfi+5aUFCAUYlEpmMSQ+BPI6DoCDEB00HtCKQmnvSddR3sJjPutk15FNRrns3wSP4euzU5yLWK9jkHFUNVYTBuguyCoEHcoxOxpX8fG4qv/7yGH2QyQQubAGOywHeUvpR/FN7RSE8tnYRTKaMAW7pRtrr1AJshgJBcdaIOC9+Uid59WA3xdWC+oyG3OHSX/ffz+v0zE/T+nCdAzr3svnh/miqeedxQF+diG7IV8EpZUavaLS4WWt2XcKiO0Q28fq2gSmnTQftqUajytSFPRem6eRpAzdhWsTjx520x4QqHX4l/OcrPF+qe2vtoxXmKcASI6GP96nqH6t9Wdk6iSL9e+LcEpCNgwLcZWtMJNeTFCGgz3sXqtV49yhqxGtTTQ53efEddOgZL3o3voL4rKjknFICjVzpnPZrNID9XKSp7WCtZC4x7iu/sB5ZelGAAwaFp3pnyYARh+XwwPtzTJZHAhDcQMskbvcualpNXZefx6Cb9EF92PtgJ8n4HxaN+7SMjrhXQswaS7riQfjDtM83d62KF4BDPw1ImWoMWH7k9POJjO+8L6VFbGsGuE1QMP2ClgyCIaOd0mgZdwI0U1zoW32DYE8ANFBgKgBY8IYkX475TbYNvoy+vJcS20V5H4gOx7GdyriypxBiE+zUo8txYexlgmrKT2PY5PuHFwvzcuPmPaSdrMPOxHVj6aSvX6GYPeUX6/J4sOcy2//4xL8jYmtO0vjy3w/yQijgwcipvbohXeDXpW30sjOL8tn5+lBUZ/yUECqgzvJS2vfjELepqnYKJZHIitdRakikW+6TAraidkCQm6Ce8oe/7pi1Yqng8CO1kpebjYtEKEjtEMV4SbfCZwxdgur0iF/F9CemlK0A1lEt5uY3f2ZV+dynqEfzxiN12JjKoT4PVT3LPYJ03FrUEunZ9OHoNkOhNGgBx4psMDziiG6a8G0pWIXFoJ+UYqpntyFpw2jHAbSpiUmLIUtatMmEHAym8bLSpMEIgY+VFtxjX7G2HHE5CF3najMEMtSPpu3crbs/tib0pgx+EPo2oAATQJqXx8sV+Wy2/KJvk558oybTR+PMHiIoEu83QyfReOGhE8jnfUkLritz5gNfACUWU3ybXlbh2PH36PN6tkZmd7EkYW3Dt8lkriRRMdWFYq8BGUNOsJnvyxbi7/JWPQiNwXF9mm7uobcARbUGUFdwc1c9gHVZGQW9r7CfdC9+Wo39qJhWSAQ1mj1JFEHgNrsyPojCf6pe5DmZI9ifOh8mYzSRvpKkO47P+WN2PN/K/gBNFPlmsLwyS8zDIHW2APUM5ac2uKDDc73f/Ub+e8vz+21lEcRoYz7QHgGpnHw+KAGNTMzU7Z8+rKlnn1uzQmqw8yel+8yJRKAFbDcNDfuqqLWjfPNTPfbNN5bMsILptp0foDpwYM9SPK+HC+0/GH+FezTm+vh+doeijlaRazIgR4DmTFOAs5WfeBytL/tUjpVjPmquUJRuxZ+ZSu7aCmvCqJPw/MLEMzRdcgJu/AhiTcVocFk0iUntwl41MzYg8GldXPUC8UBJECwLKxCAro+qJ1AuzjA3QPqGZSJRZjHoBQiRyQu0lkUBSSlaxIIdGE+JO+We+9W26I4ni5bpof2gNPsn9jg1waQZAjQfIk+HVZQ06Px1YHm4+7j/+/FcFcb/eDqLXbm5JYw+kAdmGrapzcwzY5uZn/73iXTvIFIUJR1D1Vdrnd72bubZUndnMHEtJfvT2StkqhMi7/f2pdLTvrFJvfQtveDjupZspkiqNSkbzNmSznvAZSq+jE03kLWd3/DY504UDG0b5eL3BqY9IgWB4AmbAmSZUoIz9qxUtDgoiZDm0FyR4ba4MTw4gKsOrQTCitpEGji/ndqp5ACzb9mPheleQFa5Nwk+96z0vnC5/gnT6Jl7eOmFXxTjyEDt0/n8pPnfC8muMiqY5J3OHJZqwgAibkDdKEO0uz/WRkOBr2lvOjh8dwpEmnquYMVnGmPTNWosLXd+Dt98Wtg6JGkHjj6Vvw9eHjTf7/kX2soWcUSw+EjxOwARDvowTkX4LcbozyOKnEWcko/ALKCIZDGC4NGXQORADUSkFOnToNnYVXLJQPFUPzD0k14wqqJRtvUQrF8QqjHmlK/hH6AWuoRHB8hB/uaP4r9AWMCA31vOB1CWW88Sdge24TscdQYWTvB9bPH20bcJHVvrgItnfYO7HmsD/OVgoWFAASTMsH2dN9PCb95YjJitmRFfRKDNefHjKW6wX2ME1VMUXMpw3ptiU7TWUxm53NFJ0M0hmwoe2tlE3mEHNARV4posntSHmTTdgR6nOEO/yWM39M3mCEy8BPHDDIOTUzkPfi4cvAADfOOdfuabFS2FKP0Ax81CR8vvuFxgTHHL9zLMMh+YhRk7WiSK0hDnUmnyUAxd0e7jIZ9vK7Clmc4OqKnYUsU84KQHMnZH2xqVk/UsxRvfrvWRKq2/DP7Z/Oy5bnCPTYg5P9aDlodIeOVMemiSqG3YCcXGOdRyTPlwwOF5CVg25dCnhu00MJE93WOw+bypi1MRplojm9TPoeSF3N15hpEE6ZujMs7CKhd2TLrlXQXDflNUc2AhocYnjJSsDVV6m3c89JFkIU3vM1//1lyWu0oeQOZ7R8wIVaMs7QpxlhhY0/UhykFw1ndGlY8xgCQMHM7F/65YPzFL2Ng+AwdUd4fT60ohcxT5GNpNu1fyFQ4/yHFEMQeQm0JwGfffhl+g7YWCZH/IFcovEyxP652/JXDCD9rbhr30OLrE3AVDWENUVIJhXvlGxISGrrlfIevEMIMxUfdtDarw1Us26v3Th0THqARrhJnxQcyQ2FjhAQr5GcCBedCH8Ki1C/rNFOYEHkNeY3UF8Qm4Xt0fZ6knxKUk8klJykZpKjtULNkgNtKMGuz5Mu3RXd1V6wg25QnnIgeyN8ci7qu60afAiaPJ9hYCV+JZCNHOG1Gdcx3PyHJHdxT6eBvKyD+5CPELOe4vb/jom7423W4qrXSOyHUFQL3A93PkpaOE5z39SvdD4RbNCR/M6l6WU+RjRrt+C21lSA/saFQd+XarUF5pg89r1uys84fXHKBY5NEEm0AFwewND93LeKjYBZ+JUHvGvfnbczn2+puKfQ4QGELzmUArAYDPyOpQGWr11/MF25to7eMVicg18y0+C1CP7/k7YkIW+4abMIl/nCY6sNm7dMW3E6c+vJKjzjA7HmWyAPpvx3rfC7CJQfcEEa8tuENRUQe8i77GCWnJrqFt/B14FiIJCUM3enmS8VssFuqRYEpIPAxal6y7WujxqgRhTrPYxeP2s+ZTo41QybVBb0Ct8UNOuwtvUEWtH0ZYC8ofXMCdUYbdhgak6e/+znYEBB5IPUe5goFZciEM6aLK77zHzZR1rrG0NLKMdMC7PMC2CydiSz9Hl/feha37C5Kmp56bN9BMLwswmsG7oMlKFO0Arl16sR9iUVhKjT/SqGtZPhCjEUdEo137c5uqpL088oTQBMWfGLV8UdzJbNyF3m0uyqy1fYEO7gSKm0l4QGcahNke1EgAkz985puZjPQmY3FwzVT//IdIAHCtUYR8PRy438DHQ7Rv4UYA6t1/rMHPQ+tXUNzfhlydTNZZbAP+SunY7lTPEa5cDyFoPj98NyI7DkJxx71HjP4i6GKnU8D5YQKP48OYpePcC8wqTL44nyBiWI6VoNgkb8z8LDu1kLxSCshVflL4s9f21SFOcsOcqmyk4yf7WDe8/wq64hgfKIQH8dKh1ZFe8DdggpwezKQqPDMXMx1frCAlqujyKyz6Bsuv06Zhe6AffpP872+29lWqneEIhM8NCrEnsnqywxhVqhVA2efgkDCRH4PNkCBGgmjNoRD72FMfTb3gaywlMbG9pw3bFcySAt8DBXELUa3aWuNkRq77Rw0eub20COl+x704KY5J+f0VuAZrGFqWPSzYVCw1nQ+BuPb5HX73afO2mt0MceZ3BBObDEyXUcpnDyfv6Mtd8bKSsqJ+FVleOFTCSDPU6CsTYTPkY9NR545IrMwyNt8UrvFAdAGgF4aDAGRTuHc1A0+qfNvifO3VMcx7/QlKGghIKHhwNP7O4vunqZu9tL/WWfSY5upAuN751ZDCoWQbMBzyb6Twxbz8x1XjN7HQJ8hWewsAR7Zp6rcX2d1HoLHd8aNCyY02quu4KmJJ0HHca7lsf8+RuYmyeyWqXz7EITRfHkpMmmH5ATrS6PPDBqK6Tkl+N3aSLdYvL/g7wTfkG65DH7ky7PleVhaRbLs2NALRL5SEMB/9+G+/9ZfnzO83stPs7VNupMsLOwYC24b3iktuCD4TjHg6do/eIp5iFtPU+ItW5nucWwA2OQhiD8oRNzvDY81KAda53XMfu5Dj1OWjTF4SWYdyTQ3qRQzEojWj5O8lHXMLffVsKW720aqJ2u2HwyM0FVuLcZOXiKHel/zqS96m9Cy+pFfTIkbfT99w0lvVAKdvIP3YMX1g+QMQyv3lluw0f9QhOd/s8Hf8i6DeoMjFbDpk00PgwF9i88KB8It47Nplde8PZd+OemObzmmf4geliWntLxtTllKEX9gQ+n1AUQipN1OcGv9BwYo6FYhdzTvqQ/23la/0/jr5F6DVeyzrxODpjR7LTAL4hB4DVxyJqVlO/2Et3+YSpaaN8gXIVsN3IdZOV/HsAzTw9jHhSSvqkOhRs9jY73OHJplq52J/e/mbeEDMHd2T3+lSOqDF1fQ0/LqOnL6K3gcYVZlrMoFM3qBvMw43jhNq3Y5Z40gPcEZPTTW/j2SSeIAAzdRlgAWTavmcBQXDE/yUXw4JH/95tGmgdonBidSMH8NUGnRbhWotIZWfVgr282k+CBJY0PB1pQEMYWI2eyr/TsuMCCPDOqwQKrB0rhauYUWjZ2MTaUGVGmDtZ92FE240Tv1D7lpCHx5liQTMj8lZtd9F4aB2YoTXFychKogW3xoUcBHiiCcxNPj8UgGOl59QhV19D+DiRKDwJ7wMAqaR+Km3zzPEw0cphulecR8Pme4+rnvSRst7XQuVLc0+rrOdNbxoZS/XqDfHgY3GgNfL1wkFgQrHGGhnla+rZjeZOeHnUwf6r/vpPgd+ARDc1jLocIrUA993OfLkTeXTe9M6ZIsyYtYFRpVJ2lwM3tPRYUIzo/nfOvXlBwet9HNSaVhwpQqQPv8aOQJv0jOVoL5pS7Vk0dg9Y7CV3eJr8eV3Vl4AgZHSQuFZGqvaGPDOw7Ug35tognFGpyAuoiSNlQb6FLOQxkkdH0y0UNxQfpVNNQLcy8Qbi2maLFCXBIcKv1c/PaAA0LhWSNAA5Ox9mDLqLMPskYOyzqACXoYedU6A5oJT8sg2F4LDoUMrkLmr6B48Lb3pF9lqO+pLHIbLrcZgVW9gKhjqiYodD5e/WbabBCsUDOIzKoU4F9vCD1VA52ooWDQxl5dITl0mdu9+IRyhvl/fku6X5hQK47XEKCIPKIE8Lw/p2lO1hzLDPA4TEWGKKuDQXCiidFAzmOaI0hJk2oPRO6UesUdX016jwICh+66QHLFfuc2sKnkZmmB/vpAWqumaCX+R5pZKGM1vzwKDCrD006z+jIl31Y2x0t2gZPMhsdrq5eIbDhoX8/qk+LlKMbhsR9my3KE/VM+3enPNWtgskCp3IxkZ99Ie/wryC0FlqXPwmyGwBqyHFPOC/BZN7LP7cheOm/3tYjgn3ATcRWgK2VD/6M/A2yYoXCS7lbxTfApymwJhbOqc7ZAq8Bv/KiFc64ijnKRGHLo2kkhumkflI8yqad608dSgeSv9q+lic4IlOiO6OAHloLIJMjARU/3O1ola5cZtCsZrTfhpeA6d7R1Ti7TQ/pOeToAbe6aNGlL0sqWLz06brgH0gKEbue7mdoWLWoYLN1PEWIWDfLfYBpThD75WD0nnDHyHJLhkhTdAI53kVhKVAvOeH9HfQxAtPRqn3D30f7WHfkuVV74Yjm/gdYXlTjqITGS84xVPaDmBOvFbMqDPXvToXXi5akx+NkuBT5zz0ndc6yM3SRR/K5xZDvtOykwkZlaZzfq5v2Pn/14Nj7NbVZscFUgmF/L6wQDzhKTude4Xo3doy5PPIjRlp8i8/JWZTjf8nF69MD7Heon1a/0B3ai+Tdxijj5gDtO2uVjE4lR9oTAZ2FN3PBzjf9J8K7zjC7p7lILvy1WaXhOMj+xhLvITOAZhoPqgfhrgiX6bgzAeP36CIMbzhVnZBkh2K4KDrb89W/VjvhQXAioH/KRyc6mx4wySuZWm9AT5sWDu1NPRFW7qG9go01do3M4828pCkpVP+GUhgqyDApAauclqZQsU16Ett0gNgtqEHRXv95OOocsBirnZwvvAzrqUvyNoh7m5iKtFErTVhU8ZQAC+Tc4bPMA1fj6Ct2gQb70Na8UBpm/FEXzme04+dyCTkT+/l6yu45/TM7EK+PPuOsFT+EQax8OrLFuWryRd3giM7+DsmMwNRV29IMWFcgMAyNd1tN5bNgM+0e7BdAKZwxzYXoAknYbTaEQmgogW9eZYHKsQ9t1gSyEVY4uHikdbJkti3MQwIP6OND0yYocZSio3/hzU5QciKR3mhavr2zlJFjjsiswgDPPw9aYOc+cOjPujDdth52N3wxUvqB4oA5SF/0P3GMW5UeDjAK4Gh/WXr9cxwggFzO9U7J0HsZ+mJwmsOpTWe/6Sv38vHLr7Pdd35K2IA9seyqm9+jsyk9rvcVbrsudBsJGdVZL8WPcwOC4ly8FEtGmMsbRlmtMYwampXbGC3R2NdKe73m1FdcgabEqytPM3X5folneuLscs3uavNhrn2WN9sLAt3/e3UTeTrIjpqRFNpZgYqmynbTPOe+N35uTy9+wj0Olrd10rN25xo5yab9srnJ6BFT0U6PfQVRhO6Qz4BKblfTh/94ibWY1RiZSKYBDbe0G8y8AUsn68ul6WGkhH1/uVZWrassceR1CumWZ09tHHNx9+xHDvU/yZ0qcX4WGn76HoNibIjQ4nw6igpc4w6T6C/ZeM22rUVerXV148Os63vqTi722XaQ4feHyllWofsD4+txqODTYPPB21ODj1gBnIfxucuU4KBgBOuYBBNgHcPuBj9MBDxVkzSDuQPRdms7OYl01mFKft+XNcc0T0/vMOrYr2+jaReO4PAml9edBNuaXp5hEBIvWHRx4U1N+PaZVsvCyR6+eNpgC7oFwXHwtWIP5itSzrSPhcGxZ9iNKyKUxRmJ8FRZY6j2RDvr3NH/OmwhYUv7j5Gxr+KjMk0DFAVcDtqhSX5NUYjd8rAyNZcGOFl5FGLvKoQREaX7PK+mUMdmSZKVtY2vnV3hJw1ry5dE/UPQIytB2wJeDUkV9io5KrNPEsSlsKlKNjnTXnug6Lk0PWvv/W55dqR/wcZ+s41GnNlrGY7OY581WI95uxBLNrd7wSBS+0ylqW7v1+zSU+I/fZIlVCMW0WExK5SPqE+4KwEbAjn6CZ2t1pqMx5osow7PtB3FG/6/r3xECOMgUONEj+E8OmWRaIOFhxJl7EFg2nhKzAHEl1g3rDyWvu8KDVuKtpmB8dsHE3xL9E9QrCgm4wfAVQBdO0UhaOgEpivL/ajjFEnh1UyAQ9KFT4hXUBnFMp6jT1jMtS94U3Uh1Iu7FIxNtwURYenGyf392Z2DH+CNZ5CVs6Akbif0dJnrkCphsgF9Kcvur6tr/9lNRhq6zcTRI7+RAx1+MuAaN8oue+bICO8YIOudwFfGAMPAp9xdMV/ygy1JDj6F5hwhY4yplNWhcwiltF7HpYzWFQqmCpgxu1ndH8OU6QQI2JEIadd6g3ADOQKQiEQ5yZGm7G/YYchhVQftljCRcr2flCsGBfvFoJWQI+moQPaz1UIVKpPzVUpJx4TKQaUi3FrXjOsAEttq05m6bPtht/gd0g+x/Ev3dJ5pWkCpfyzj1KqI7h10/uMwVVDmjPfnw+BI3cs5Yf1O3BLSSiBwJks3/QfQy82n9ftPh0HnM+wp0WUBLr/F2lYCQq+or6ACFK8Bt/rKp3H4LgRfniwESw7l8i2mNH0l8MBG60HPK7dVMXJAAynqo2p6D5ybRCNX56Nc5rgNL8h8sLDcYrO2CERWkipfQiFZ1hI9QhuluTZc0feNnpWulMs4wyBtTzUcZi8TySWTHVGaSeryt6HM1yTUxWxBt/5Rz56AyFtEhhNo3toflo4npU4GgxlONSvJ1tjFQ1ELvL7bGX9VzPwej7Kb6ljfN7miD2f/n1LB6p1MMuTZpOSg92E1/KL7AfsleiaBFv3JAd0JJTUXwaHixKgA/OWekxu0w493YAWx6NpFZ+0sXLLYlTCjxLzKaarFGoSko1YlBeJ5UcmbgNtu8aGsDtAsphO4ylnKdQREq/4A6d8xlQ4OqJZFkpggJgnbPEa2wYZrjukoiv94asYwPsz1txVdwjw6HGdnpot4OqalhtJBK3fYsgZiEsSAINilMUgK3DwwhuS0EOF4+30UtTJXyL/STmKL/XJ0RZTQbA+tZ2NhiUwYRgrnmPnvqKUvisn/k90mCxAniWY+yDb2qC0GQ3Sp/JPkEqSgF7wWBbAUorp8p09AXbx0UlL6UE98VMm8kq8dKtT5ZzJVeASWocVeFuin6pBzz71gL1cwXHyN9l9+noL+9z5qREQETzMoAAuxQpZm6lY6O/o89dmpy8I7DsJLPsMZmfUdU1L03qUkn7fOwm9v3vrSaLzl/BDTw4J6zhtxmpnQVMxHn/uJuQ1n82Q0E03d1vVkOBOcvIih9gi/2IBai7ZOKkMmhdA0krwXJR+tPT6kBl9EMsPE5Ne4STA27YzxUOuEpOthCiB/iFUF8durJYH3KJcNCt8yJO+8WAXy0RI6CAgeirFvzFPRGyRiBibVy10Mfd2+UbhQRQ+/mx8XmdvoQlDmlVGkUNGmTbaQCE30JgImS0L3AeoZMFLEJM7wPWJ1t2GS/261hMdnwd7bDekfF2IW2kvXKfUIES7Bs8M9lX0/Akm40sCzThKzH9pFw1RtNiKkPuL/b8sVYZR1tlwnPs3+jUO6oRXWrqm6xCeBkPlwSGlnEcq//lyvN22DCxof6jCELxgJQJfwOQpn9WymSMJvMuPw82nnkDP1fJzF0UDYmGT7At4ZFYclSeL2SFFIE75MNuJtMuSpwE85Lb59Mp79EdT9BSJx1l7AkN0q08xxJ+flotkKB9+UT0wFaEF7moQh5F3o2GjmbUSuLl4KUVNqnFpJD7t7kEJPqL1yUtY0yuet+NeVmG0Y+7YkSrVA6awaegRzCqqaOmkJ7SFwfwHQcMo84VYylGLYZKwFOWSZturCTH1cW7aM7IwwbGagPcW6WNDwo2C0epC4nuCh3hOYo5NdD+LZY2DpNgQ/Fk1Acc5J6MroFvP59PNnzPIkZ4Tps2U8dRJNHJ36vkDuhmbRG6gItpm1AM+WOTTCP+rZ0V0qNOp7bpm36flXrsP+EQ3/C12HES4698tnaRV/3b258S8ZHc6TyD7jKsHy5xtFoDEBiRzLxRKxmfvHFeYzLUgOIDjSrnu+JZzmnuUX39sDOLLECyXn2IaJJ7l8QTKjH0mUpdnHzDRPuB+aeWm6VcT6256QhkB1+5ROjCqsKolGPyNZT0EXMvMNrqAQ8wesYhm1jL1mEL7m4wll6K0YLUB7O+0EcElMnNUgIDbHdBjQxdBzMGfcVbuwf2V7nNPG/CKIkkwwW/4F9mIPCvHGiVDi4JHb+vvesm4oteQrbCVgJm4vkPgaoQE3g4rv6mwx1y0IVBZbATBbsTbXzqsFA9UzSKllCx28lGLzVIhEawdyrN7nWCGkacphavVZYhd7RMfEJAFbnMNY/2HtyNC72Ps/01ai0GU8Em72+ERVkGOVx7aMJrY2isVWP7y30YG7ZBxpHnHScrMPjYcTziG0UC6+Qou5vpQIMx+vt7JtCU2wn6ugfKfwJo+0IxzJhM/ov3Tug9iRE+/vfs75xRrU8v+wkTu6+Uo6h1CEUheC7A+q0eDm25BPtdvT2m3ptCt+L2060fgoJAhvLYUO54Duc0uhRqBNS6YIfolzMi/huS2m68xkLmho04ShHy14PD9Zs/ORjMVv2tT282NtbzZA0XFqbSaB9gPyVELD94yJ19rAFekuRlUiz+5Be5l6rXfdQQvWEDRtl15nfLi6i52ShsTzAZPIjNIrlmyGZw0Nsgv43XRCJQtgtbF0ADmcherVVEK0qSpvuyGklxD2WAUJP5Ne26alNM0WI/BQTeIHd1fPjL75r6IDfaCFWVXLyN+072W5jI/r1//oa5L1extnWnL2IgyPyTop/ca5dnk2lj2eMSOPX4dle1fcVw2wXa00NYuAiAMXYjkqR3/jofdoEkw4XAhCUe/qOUN3o9JyrYcUUgMR1Vqo+lceiVflakdC40qRhjM53l4kQapkbkuonvUJT2oxjjcldN3BGzUM9B65lTcr/dBd5SjR4aOUGHagH3DzGwOFkpjoiHTfT1SOqTwFz48hH5FFmM3C/tyQCoVjo/xZTjQZlBnwIEYTE0NZxuA6HurgqpVAE43P0SvmNBFKd7IA8rGKa+dBv8Du3554sxoDoZXRiazzhSr3SJ9KikVEd3nxcmdAXco6ZSL7emv71SVmbi5Md7dFq6/yUmZFtIV6YVvyj3AqJ6dKHbFenv6teDrpmfM1pWjgf+CgTPXLtwCuslecREb0ONxLkSsSmGfDw7u2lTM5cFDL5XGqlIK6fK/Uf1NMwVgfInGjMnRtUeOEwmtgcLoLSPFVFE1CPoTZfmpvhbw8e0ryEFDr/JSEl7/kLP13vP2ptxqvk65SeCs+F6vhORmTyh1MBTvTp7LSfMCfWLPs5y2mK3fIodXexv1GsO3GKr3oV/NHU/T2l9Puzn43g247OsFaRw9ZfRG9bo6cQqH8iUQTQL2xidUQ1N57CRz4ixv1wvpUXEXRhRQYCgMvdH+Nzu68xp0moHSM7sAkJo5nD5N3HpS/xcIzoMoeHf0ttH01xKlu/0cQ7H3sE90uJMreDhiKWRzxBW2kKFT49Vdr+0h97HXjGBXFyVUS/zx5faFAfqqbPJEICnMd/pnrIDcZdwY3Nf9vkhSe9TT7Pyw1RuKoAnZDluwL6K0mh0MT0aF5J7c0u/pihi4HtwwTH7GTDlaXl0r8SSBLBTUAtdayO8V3s0zkjKoecpGgW417+RNaeVhSZZHjasgMJV97f+p7TY5q6vnGVmJ3wKVVUmUlX1r3Hb7CgUNbKBUdLPCu3yiJPNiqatRvhl9l4k+fuhrAKWIP+WLzO+znhrYQo4fZxs9GQplY/GJh/+V7eaXxa5PSHsFO1DsmaASyGCzedvV8W3Q/aGiML8Bruy+Cymi3aZA2qFa7lpL739qOS00+aZNQxJJl0D1Q4dCmqEDXZ3TkB9nZIJzRbDfS7pYKIqoxZ0dRkr7/oiLkkYGMm03TtLUb7ODiQ6h/f42omzfTz0s0bL5nEX7OirX6Q22A7QweLGJ5aFovRNvKAUnmS3IYryuffmZfHvuYhVOV1sfyi6vYSAyBzdCDFe/cHzEMP9DvlK9BqQGhuZ2FM7jdXbzMq2AJvXWAAt0SQpqAwz1ncB4EabIXpl6wIJ7Nuy8dAfQLEPl88XC4czzNUxvPMP4fhbJ1UeIz/Xxbt9cXe67KrBReg8PJzgV1MhSUde4IF+taB/L/Sb4sCKagH046yL9lpG8JNP4LQjv3Zs4+TsyCYUNT8lotzjfI1ViXuaJo6tin2q4iRf3SV/BHoKdCXuOtB9x1n9xYG+z0LqsQiAvd1rsT5X4tN7IOoEtYfyG2/pYGZYFpdY+Kyf3v2U6l6EOQ0SoKnM6NeVE1OA+KIov0+1HCMtCgRVupPLkYDCpfXl0eTe/m12G4YsPfTibybjCm8JLa+6yUKhm8UIKioxbjoP6sQqGZzw4fAQs0kniyB7XHKhYGqUSNlH3dr6I0DizT+Aw3gjaSaXb5rfWDL6RasgQMX+LQZ98wA7i/RFE41I+RP4ZZ0vAKOfRHHaDJK/x9GAmHAC1flxbTq133XMGISdddzVzrrEFnMATFv0s6qVRTdP/D2TrH37q6d0EKkkUyDwYdt/sg+YhtoZIp5nPXpJ9oTfdR/1k3w4MuwVZIOQ4qrO/GXEO3vW3usTSfUBmFamHzjyc2H7kZgcJHwovCb7eYd4s/QlIvoHhGSoZQRI76GOZfPLTRggGkemJfQ7YC6KImGudHO2Vh5xEW4F6uRf5LckguBX148eKYM4l2XXiGZ5GtbTVlhZyo1YEjsyHd48/dZgLhhuHM0+uWaLLqzX0ckGBVe9fkLDnKhs9qE5pNQCFjpc+lrBceh5bYsQXF0t8KoqIVI2f6Ingz/d9R5DY7mQLUgBX+uvh649lVmgc9SD4mWMSfMQHMHSsyCzJ5/k+jtiIIkHUieWZthNr6nKECPr9P52PXmWRoKVjvlVM0ibIFdFDwa41cn35iLBG40v0hkMMq8AZCqaYBIk9uM0kzvbllNJabC4kLtXRs4tAzFbg0I3V018Q9PCqV4J6tKV5wwPF63AWUdsFLCfdp224aEnzSaurlf/qABfiR6fCchhVHfa3XzASxCcuIYwi2AhXnThfYnv+GVd4jcXJGjurW6tuVy4c6l2zPCZJ2aoyE8rcjWD2D7TD2m+F7BHvp/vbN4Zkukks7Pns9bCfgVEJe901Rafm3yAYpVvhhf6Xt84ztC5aWAa0ld11u9g2bYjZSnSByZPbVlhnwC1Fb+zh9YyNFEsYxo8z8L8oPNhyOZT1euk7spCjU2p7fy9R7d/BcUCBsgaqemVoNcV7RsUUQS8WWKKt6kyqb0U3ELoCAj06dN1P7HktRwPOLkUWdY81Lm++J69Wcr1/bR8ep+SIHxRGSmSdNIXE9MU9HD2dHaK17eBnzXK0UBRjLsVdjo065HFQBt8P15t4iW6kX+PWxY262ae7GzxN6/9TnH+Hr7HE+X8vGH28yubr70lzDdoE/rkV0UXc6W6lADhjadNRQIuFybwzvYALWCY0HTkkZzgYs9mJXOIrzQrfeOhWaS1OlujFShJw8N/G5hKAzho8FYr7ardgJ7RTbd7N1L7XB8E9+KUL2OGXuQDQ4FBP4C6vIMNVVrN2+93DuM4pr/NcjHPFwPxjAMSeF2kilXzOZpKuJJsaTVjlgHLBdMDUAFiuKCd7bnfQqbSWx0Mg4hVWA2UCyhd2qU0oBzGct21y7h+qxNTrdXOa3x+IMZfomptp/p4Bz8mWc8KCPCDML3o7yeur1ZJIlPmd3/ft1yEAZMrvdmCYaWvuWhBPriIoTRurTEyFMZBRQlUPJ9bBrsRQJDdbre9tN944jHahQs2gOf071qOwgLDFSMzk5ivHqWWdQt1tE3pYMPNnSc7IINmhdN4Hdg0F23iCxW0MFV+mYt7ITtYDQTkGGvOOeyarA9OkxRddglTuxnBubaZq7EregE2+zE0TS7M8mUDU6eLOGjCDxluavNguvISN+QOGwwRj0PkwC0qSyi3AO174PW0HhPZ+bAnY/OTmawhzmgabyewE8BsiLJcDE7YozzjOKLsh6NB620B6Wq70t7UwvVR6RjAEbV28BkttAImD5j9WlscLOypzVEtwW48esz8jUqVEbsLJJDVCeiAOzYRFOL+K6jNHXbFxd318q0GCPMBptap52Xe2uWqC/8ek22ouRvWCKhegdKO+WFxsqrIn0ZXn0cpHUemerbx/Bh/D/qxt8fJr5aQEBE4t2HFvJ9eQuT3/HyWdkhb1tXOX183+uHzwdqyP/HvHdtbbCj1sosjrGdIPqhvGWEEGPzVy2jw8+jM7w0hkHHLFyX4fHtRI/cvvR1RtM+n3mFIDzBu9lzP+FqR1fthKl/bVuzELFwsK9ph+tZtmCOu+YLLwrKJUUU+7cvXdbpz0DSTAxmWdO8vV1wux1IOeVM2ZsibFQ5culw0qmZtNecHOCCPgs2xPg74BepKrvIWAgdo8fvwXrs0lZEe6SVi9jzu8jHCzDZd/Prad3DB8+h3zm+FjbQwZEWyws9gQ2QH/nKb0dss0RuEaJ573saUcr4Cd4Z+UGp7LDtKItAQtkC7VmzDMqs8YL/qmpahDGmKsg5P9Ss+4/eV5xFwaMo2YdW0JVbw/q1E/ffre9mgff8M8xn/NpT83mtExekv+MlJyra4iZ2Lx4j+i8fjbRG3fdMmwDY5eMvE7DS/uF67LBFllrvjhUY41oRddA/0A/vGmuaTc8u81VnhFyepwaPDbVDMN120Ay23vWzG1Dm4y6+Ar2XVhw3HLpWm0h8wPtZ1dWQVGB591MtQl2W9fvu+d6cBaRjFhEUwKwlylD6lCaQ8gOi8ng0TzeaCm5ZmPMd3YtJ6kUUSmMAhVoPVaJRFDV8gJWQ+/hg7FkeQgZ3mnEzOYnxpMTTiT1QiGQDsAI43MwO8HAQg5SmG+oIjIB3GrBfS/cvc/ZCcyngUYlx+Yf8h4PRZewbMEBqK38pSDJRCOvbXSkotZeiuwrZ2brkyK58hIIifAwVinQQpdLU4e5yVOClqBtMB2lncehQDU9yrwo+eK3Y5bDUTXXtzTtOQvTLoZt8tRtDolgkZIbjhTtdW190pq4HCBbNRPDWn9QQugUcBBM7tUB4jFVOLbjnNjAOaL+SgvLDTx/0RUEkpM7TTo2xFtub2JJrCtZsWp9f9rz4EO3P13wxMyAimXy0SJ6ROjpYISwN2j9p+9l++DMz8mVsKI6VO0tnJgmMBFYYsjhhE3zeNTO0M50j0g9o4SY/6kw7eZrZxTjdyDRGbru3ZjPqkW4f1JwTToo7ajMdJxMrofaladvIY36x6VrGvrf+Bl3Lf1oGqAznBhrjzlAR+tlKrP/VJP69tdFcYoTQS1GJadX5Zx+HRfmzNAWFz440f/npmsQZDDnHLcFlLPLT3uAXv7/9/0pePWcVJZHLb1fEvXCBpPgUnGceqsFQylYxf/qDT46fLvp2TMKPsw2pJ62PD61HXMEny8dk+hNfT0ixWEzmvdUtqgG7NBeWY4kv6GNUm03sVu/ycKl9krAPBJLnBr1/aR/SYfJwJOuPJU2iz365Nwx134VRNyV1zJBnMWM+5BWqbw+vr/TD81yLJGg/EBXR92BwTodBJ96RnQeEpWsjuAEIaEiYZJav9eojDBQYVoVLyM3GPuuZklktrVZXBylYicOgdcIqIJGvtLHWUJNHKC96Gaorzs8LHFEIPhUQE8E13vPw1kyQ2v1sbv2W9F2aRrcjfl7HgTgvch6nrUQV3M++vFb6Et8wQLtkRPxiEpcstJtRAac3LSq3NKRqv1mmPFsgYbG0Q/8cyUaFCF+UvHpauBkkAE5uQb4i/2kUcgVB6zwdDadQ7vDeCXES7J8IM/t4h5SuKwiMickzWOzcAxgz4Ekps2Y8CsrLdYexyP0v4DzYuPq9QLxKi4nsXH0J09/iW4mzHf6Dz9/OI2WB0XFQ7PLUFv9M0h2A+XpNmGNdDzwsDdZv+tGXmtHdOYwWt4LjF+OvBivKviS6/2Vk3pfJtl0ePR/E3CYUUyLUIwt0UzUCrD6jALaZTZrT2yOdJi4CImfNvkmXwLarNde3s1GC5DzSkcVFY26lWPOOO7NHaNhxKSbUP0GBynTdyEOZk/yqgvRi0Ix+g6FM5ua6SXEB+EH7Fk1au6UNun8UGsrc+1E1DHRH/ynRhObuiiFdOS4IOQJOHirzV+lvIoSt7x8ft7XkkRKUYlu81hP86xMpk3O4DJe9EgsGdqZClWSA+ni2GF/nobh1BGMxaldV/dMHmY/l0O8ggEkoSRZh3zfLXXxkmeQvmHI5BT7/FPa203qvVVqlcn24wAcQnaklKjNGwZsKQ+GKb7TnS/hFPbPXwvUZuchC5lKC+mk7pxVOkOBGfiYGTdT4RzSAUtuptheiJ4u7HwnDur3IYOXlJ29MAP6JcQgJzyDDUJRiHH44QuQMakYkyWIkkwG2SLvu60uqooPGh6dvPgPRHQ/RkZHTvSun+kWCiRgHKIgD8ybUUfFVFFT+OT3y/chh5CKxBFVkdyEfeG/lYvpDDDjtAg6bHyjtBPRc38A9B8oTWwC4ILu4RJM/w9/C24TzUQSvK51mKssLzAsShG385oP5wV4wykHlpdZ45u70sJ1v9uE+wrzmxoQg8r69Nn1/Ns5cp9ceAuNJaYnUVO9ibOeMQMfOiA+DHLYawdQs0sMLL9lrqY68pAF+9kENFtMMf0d4KcoBQk0xcw/VYm0FzlKeVu0YOLl8pADEnsjm+ExrmbPLi46885zQXP4dwFapOppQS+RR5VzoaHoNSKiPGK+PwD95m9e9l0EiafS/qmdNbmOHfFgn5L/S+Jf8WkU4qMfwOxg9OLvkNDMjxqSQnjgZetr1K6gSz73PYmIwGuVqvTApkySkzkX45nscvwTnRt2GYIPUFOBVwwufv48apLF1tfc2Eh8KwG1TKiyWBw4Tv5r10qtohtZDhdMNtiLOF5ZKoC/ZZjjd2QjcpxVI18XiAGnvNZIkCFe3YXVRXmVnvRsptzEOPO9UeNu82Xjv6cpn1DlfmvL1tiRxktZ3V+rjrVcRKrGGQrIIhvw5h5BebW0Bfj/y9n9a0DKTHalThKWK8zqxhCwchOFXF8xAudhl2j9JjIY1E0jL/+xZivFkeHWDL/ujuZURanl52rSb3T/B/6jh+f4axnU/VkgC3gaDAfK/GzEtHRp+5tL+RFWwOZBGya2ATQNHd0hLYpGc69CM9MnuSwVHt/hdl5cJyEWC7Idv8oG4wulvU585QS9Blu1+sqtKW6VLrwuf4oGTJfdZre+JBz6iA3rTSUmE0HOo5Wf3LLSKIgE0K74IhoypKR9y6+9rJ801B5HNYPgiS8YOF5t5ORJmGUGlm0XMla4KBiHvMNwdSLvI9OudEZbat8/mMNZqTp40rpPqZESt+GOyKB4OsgKFhBo2WtaJ9Jh96Bz1U0Ym/kL+tECK0GGNUJYkdUzhj+THCwLxhhQtDtdZEXrRpRPx8IThCYcqXD/upIcrNMktnKdlGiT6bnfFjMs8aKUSE6fm9tPXqfRq22gIoRNrWk9n5ZTmt5qSfn2P90bb0CgWQQ5YTfkuFBLTRVFibBykw25GUwNsZuCcJD5NY5ZbZONI6Hv59iwl/Nfo6ZyDDeMm4vtVYOwghrvoMEhNhWYIfyMoWSbscTFTiGQbjoyKUDfDrAvQruoAE0mgP5IiQ/xHOaiE5kwRPcBHj7ffstihoWOli8UltON/KmIo06kKSpUMyeTOrXwNRv5hMvsPZO0IeTvaX2ydTDxuawDhrxb74EqSh3xEh+nCpbgvu34OsqUAmAr8VUZRJVSWXX0IImyuF9kphdlpPSqXtxPvOwteTwNnj/2DTK1pmOzQwvvSHPHbuteMShmMLpjdYBDjRRg5hVmHh03hclnBExp8Ln5sUAa5UDaPcUZRZljHez0O/e9WKcTYUz4byZjan26OaLfOtA8QZByIA4fadZRn7dhSL3PzTXmCiO5v7t+7ADl/ucaTn4DZYb3Pa772a/1UKtG+1Xu0h0O+eyXrocyG9u56QIPS87PZiQvcZU4rkTBRVPKDZkkF458PYl9kcnmLkStI5toOTB/RC1DnEgwWy4HeQBnmqaNJKN9GEF7LjKIouKh7FD8yBIwyqhcLi0ATtXlBgcB2WqW4UEeEOhWZ1oEsvq7NbK6m2B3dOTdN1RpF0aMMUiePyN1HAZJLLJHmuHYRRTvBU8cO60AAq+fKsogDH+V2uYCcOZkMRLcyIUhKDwfvf/ZbAZUky+Ob0fYUPPhqpT0tIQlteVsLDtUKY/o0fAin78mpYC6S1Gk6HXMdRWcOvFCf5RS0AAIc+w2wzF/V1sF6XIdT+muwqqUL8gbLI8H0EZvQYQX1ia1wFdn4KjL917tucG2095r5U/sIE9UVTgqxYrEm5iW0Z57nqmtgM9RMbUg8RJ3e5LWJep25meyX45GZhWmoJl/pkMRKSVzLG3yncBphPYIB3OjdIifpRgb8fmDutRNx7yhmTwD3TaAL3S2zlCqsDigxTlxlnRVj45dte+CEaf+n5WkYTjJDeeywrc4v8uOhSMLzscNvO/OuU909c0KpKx/hsLJot1LeBp8Q/w9BPm5FW8Cv2tcdUOyzNaK/AvnJPbPU40yCJf09ksEs03rJaTRbFhDEFiS/aNA4/JsBb6HOBDDQkwKEfyrIOztXvF8w/O9Be3w8BEOD8cmXsC49698mnLr2cLxY5QVYoaqG/aQKZhTAYKxVUsgQh5awRzytIQ4aOLLnRwfQ3o81aQYkpfIohnXLc6wiX4D3/82r3w7DjL4nqjWV/yhIG9Okw2oUou1tpN/Tcj9kVoE4JzXT5E6ydle13vA9FTeZiHPvTbxjas+Hz9sWAds7b1ACNFuKOlolaLOeYC8vtAVvDhbM4SXenbOIyy7U6un2fxkSsJKf7vas5+YcSYs1emIagugJme1sotmfljO8FuiV4P2KzpUVH60SQbY3vZs1ZT1iiTJxhB90dWuKj8V69WlmuyVIkpjp9XHiOEB/5KCygkPoJ/0bL+lygE/cjRdJw6FLfX71+UnSv/GDlZb5XPrM8QABXns0mv0N8u3F8bqJaR1G9lEe7aQKTf71dMaGIiMkg42Uc9l5wFlwjSL8dytUQcA97jnjmWzM4BmegiX0tEBJTYjfIfrfK8XPZ+Pn5RbRwzrq4cN2ugCF8W33qofaSubsHsNg3PGh5Etd5GkJUR804pqyulvX1YWgbrIwSvS5UA9vlmAoWbkfEyS7SxnYMJgcglBkQtNRM9Z0cuPuIcjr/V6oeGWWWm/EdelCpdcpLUKt6YfneUFhUnShwzIcpvETI9DF/EZpZ/CXG2/AOfKWG84PDsJFd2+BjrBttVP6oxiP7Y3+y92q8xytSlupHoo4FQoZmMxz7HqyfUPUjpL7zt2X+I+k8tlzVgSj6QQwwGYbkHEyGGTmDyeHrH31fj3rZy7aQquqcLYQE7coHI7HxQl+wBg6cZN+Eu17Lr8ISkvCI2/8QJZjVqtZnJhDEFyNcF2vNdQpHsdvZNc9glFqQvOzasZD8UJ//Jpxboi6quDfdiQhnWBCCPk0cKCFD7bZqnjAffBvEZBEUUtdRJToNtJyV4iAdGUYcwKXeOlO3Tv4jv269HPeUQqOn0OI1bqDe2RSVmib6xiAvOHIiakkzd9FZB0gjGsQKREm7rOmwdMFthU5WzhgSdtEX24cHyFVCNZH4eM0Vf2kQ2U3Qr5ruh3JBYjyKG6M6pwBQo0gVVs+FklfqAiQQM4fGaMpUb8HxES3xtJGI12WuZYB8AT1K5SFSIdIZhy6N1afFzQvdXgh0+klTMRsv5Q6Ct85bSsJY+K2p47zEkSoxo0CMHv1WKzXiYt7hE4bXaLcPuwJoPB8r2aeRkbb8m5JlVG97pphpZb+TwFb3AVO0tsAzXZRsdykNhbf4pfzhsTdglZhDGZsuBV0Ph5vKVl9inGF4SfxA4hDR3h530E6E8HTDdrj+7o1yfz0YtbTPOCGuWaxt/GPEjaHN0/sSsp0RivuLWRnqVNNqmxbi+qh+28r4ShLBiBfmpcXV7KXUmIsIWtJGVa3kyOi49+OO+3U67IYnJ1ZJBLC7zcPN5eGFFO4uP3k38JYyj2sscFdwoukVddug+gjB+A8sxcX0CsE4mTpt188hTTY49TyJW4tlWakZymqRWn3S3Zk/Iv61pxVJ859PgisWBJccuo7LLKYUsXs4mQIfBykz/eUUg7VCJVSety/DDdDGjjIjDW9N80RY4pY/SpFdWkjJABwHpVUEoBjpTFS6z8E8A7pz9oQed3s+ZnXsOSL8HQLQWk7utI83KKKp9J/AuO/brRUtGMe/xXUaZEyz06Tf1U4dOLVn6KsS8bYGhDK3ZjsnVqljfBqdvTznZRYAP0VFMpbakOwlSx3x4qBOiIA0dDWOIEyv03xDVKo+tld2WHjNxlDwkbtVtFEEyAnV0IuB8o9N5W/flPPXEuMmW/rd8i8pikBhQhwUXPgDTnZ4O4j54TwCnQa5BmRZZWrKXlFghu+/9WnCHfB/59UeYZGfCt1ze5gsDiH/u39EH+etMbDNuPOYP41bjnLM2rYqfOkf9GvtfAqgbpQKySSymzNkXftgR+Op+f27EmP0T+N7YWTMi5TjUZWdanMq+J6CHVj2IAt0b+TX51ZgkCeHw8109+r2vJpTyArlzR0XREAY2Qml2x2ce44xNlIJLJYdj8c4hdnrEhWhpJvqq/C8FrNVancdxjKGBdF2tNX1QTa3DFxvGov1Kt5iCJ6IJ2EnYwAr8/xYbt2bCha5unPioFernfvSdLeu/XYfcATGQzHuANT7Q1Gismsu646/MoYcrpXv1Osfryxe8xyeF/Ve5/V2FQQccyKB0JUI8W1/fZA0+cDT3A3lfrY8wHr3IIhf8xw49r0/2G+YYZWKbVIa7JKYKejKM7AKq3UUw5wwuw8hKeSzlDYxJ8xM9CsF3lWIfKiSQtdcosKD0SQ42+xE3TqU3L/xtR6KqWbpEHPM2j4szUa/j67QsuP5bGMjdFFGQI6nIWcf9F1GlXg6yHoJjvCWM6M9Bvw88XES1wn41cZpBXp7QTAsipLkz/Jh/PK8vSFlk9acuV4z9NvSp1AdEmlrG7Cr5A/cWZZ+lYfWpMGVEktmlQsStXNLTbDT23szUAyjTfsaEHSFuqifNtY2C+WgEnSdUZtfGPODx8XbIqyzf245f/LjsfYcalll6+k1MEAArI3DFncA3WOy2Pddun1tQ650x6CG0uMiB8I9O5b3Q6MenwiaPASwtGAe+D/ET8YDMPE3p6f7o1ML5d/RaMOqvSMPaW3pBXzKIxsocJ0cRz5ifUawUIOp7UGY+siBOBVCMvQBLbT4Ivhg4PFtESKV/XrDC5+CVGeUTgCmRFuT9MwBG0D/6pVBfhxydbaJj7R5AsAn9fvn7zZepfMnK9MnjdH+qt8+n22T6A9REDlU5ZEyvSW+3TnKMqz0GbXIF2KIsWaXD9h8PLUAOM5rb0malGQGtyhiTqnGD31dREx44/xXUsC4AQg9ZNkJIWh1IVhahRYG0R+C1JccQOw+RchdwAIePb6mwkGr1jo7CORjKhRXnVNtHWoctGsHEUhphIZLK4jDen/SbF/x6XejQEOZvy/dM8suWPENEx+hDulGC+K3otNMXDHrWhEmhH4HmqF9hQ86c21ubqN4wFAfxGmlbKa8jyBOMUHiJL22paGE3CSeEq58fTx/qBDqQqrTKpVCj+V3rXTkQ/0WFT/l4+Gg9PF/QBTSAPBadH7ncrYgCug8g7YXJpgkzHI5EWs21A1Y8NXfDes12wD7gEF7qcsB4vOnyLb0ONcrWAW/iFBiZKnEaYMQZQLZLKV0LLqPsq18n4bYgN1v6nk/luT0qG9IyaNo6suIwdAz/evNzTP/lqyQGbtKDSlWmJ+gm3G+NRG07152vo05b3EChQypip9bZkEDtsD4/GZbQrM3cznrlZSd/GW5LsMLoqSQZGRoe3U6hlYCR1VmlFiZE87TQ+abzGh0mU2Rpi4J+dM+kPoC+Ny3WOF9KGhdv3Z3MY22yYm6fvL+BH9aNtC8irRTLpLmqRIgh0be36rdN89ddPe0MszOsQDDcU5MxAPfkvm328TFMZG9aoFXnXVnxxMBX2Ecbeg7OIDlJ1comRZ/jEdOtDxPn/h0H1P24z/h2IumQOjzYB9PLOwPER+nGETdAGiUDUQAenOXN6o2MU1aaf5ipTe3uDsWTVTcRe6EbG3eagb1YsD5/gKAc6U28ocvWXfDdNKpwvCncCzd8U3+G2KqWfJ19Su9BhEhGqQYGztgjIjH4koRivXE8qGvu7lZCKm1t8zDT8mmDDKSuCtZv59tqGIq21k0We0D9cvSGk3HnvBoi6Z+mG8fhEP6N3Uzl+hMfWzVr2iWbBhzwWialmlGsXnBM7h/e61e7nGpAPaYi0+FMGWaKSRB+9LmM7JgxFFte/F3tnRu4vJkNIbp5donDlfy7/H9Z165pF/Fp926bpslICohyMDfGiw9Hvg78lDPPCsk9i7Jdx4w6zyzpVtCju++EzA3H+/oWJF45GDZZhn+BtkPe5Lvkuh5ytY9JVk8m5Xj2dopJvz0JUjIctw0zYMy/IOVh77EclHZeonq45zZ0Zjjp8zsJGFA2Gw3/Nc5OX3bguxxeUcy5VX+BZfCsgHsN5emP137475bpdIqXYmKfn4rZkmsr+alyvClXA+G9mNZK5bmp5ONlT2V5wDT1+TWvejXZnIjN5fMyozZ1dhauqus6QiBEfd3WaLI8Boe4EaRvfhsuRE0RwIogKkIQMJWu17R3fzW7LBZ9X6bx7FQ2wKj6GGSae8A2POWDDCclLHLUM4hmyTPYG/C78trK/i24Kzh9uY8MUR+w3FYPwMq2Zue1hSr+Tb1HHLBRHoGuqKUOIDYufI1svuoFBydQbVOXzm3N5Emhfk8WJKCyvsN0ypX4h+LyIBf89X93JI69R6GAdnUnnY4i0T9mFN/s+fAUZrg6sEs49xywV9IQcH+ZkJgzaz/Ed7YZJ1fitSVaYtfUprzn1mfuqt3VruWCjhUH0t0GDxs1g/6Ojq5FdhDS8Yx88lkR+8gRxYfzB308uWUzPOlJQMtbXOk1c/UC0ny4uyvG621P9DB2gRPRx9OyGDEV3djST6yg2K/9ISqp0TTLIS2r7+wlme3UFM4VUcH7mBZezJ1wrnoY3wpOvNo/Ux8WAisvt+Ii+hObJ2zrcCiTOHW7+NnAvcfWfYOOhbKVZn1UyVukrkUCLdfWa1MVptfBQ3WDC5pmdUbluVnuvZRE/YQKT0dqkxYTQGrLU6oJ9CEQBjWx7leE5DLX/qkYBgfaEA6XwCNzIh8KL/r9wIjs7EylfamfJvHj09w7l+O5q84cPWM+wFg/l3132F4ahpOn+ueJ3CThNKWzrsYfvN0bt5FxzwA7X4JZdb9YgWkSp9OwHL1le5x5GfDbYHW8UFg3ixOqn2EGGXetBNwP3FQvLV7e6+x8RIqIOPkU+3slqIUgpNtHzJGOOjCSyaxfmO25P3Qew2/SvuDPsigb+fSwtkooCrK9PBdOVkPKZGofx2br9V+87mvDy72p2wgeEc4kJYRfpE2zTri7WexV1YBR4SEx0a/FFS/QQY68xufusIw6uf3O43uuf21mS0LfACcBHPYOEoHZuzDAkWOIJAepyy3I/AKF8yNpemVUeSB1qFDxOrfKfQ9GNFvSYjsL2snK6aHmuF+u5EfKF2fckrqNs+ZWioVi8RVhG4VNquOuFc9nA4cvecuRXZlbS+gOSDOAlIDqE7ujFimK5bVmdkU9PbjHhKjUmaj7tCKLNT1apmmARiFTr5FcFTMT+SoJCHBFE7/U71uUXEaSVOOa4911U3/CyMM8wnCr4AaJiYIX6lVEj35m1Pu7eK2xaZ6yWN6o/wrcrLRR0pJ3K75GtHr85SKDF2EwfsItCuJHMIln8Hf2VEZpKjltaHpSL2mr5+oHzU70OggSmHoxxNKSNdo6LDUI/mP8EIwTh87K4JMxg4I8NzEqPNc7H5qcHRUdUDG5xAMzsxt32wPMRqnCUsNi9NAYkEIsEDKwjLvMRJTi6A/AFkE4TiOw+DjR4w6isxDrutVrCulv2bVGquUKi7MGvpLN85mvViSFwAQISXwOlpweT0R+OYHQJQw+ZEU3w9icJI3/beaFkWRd2HCQQqlcCCfmT06zMaKr1z5fSnwAQjhm06lINWBAAUBB0U2FPj9uCIKD8nvNUmnR1qq4Ka+3cSXB2mcsC1p4G0vLum2L56YnxdFEVAWCO4DDgKDN94iCVIw/zao2A4rbKxEpzw8g8YR2UHVvHHFy7PpO2CP74HpUWBesBEtSOCqrPjHcoyvBmI4rt9yyd39ndKfQzI8JTdLLgtDiTGCJJe+wb3POzaW8UaihjjfZvKADkYVawlhVFBKm7n/an8hXSmQYdY18O+ikd/BRcD21FXp0uICRKz2XKI5KzEhH4S3F37+Bj8JcsD7gILN6MbPPlhVT+xtGJyT0c9fVALmJcyCkZR8mECDZONjmnE0f2VPkTbFyXUB+JM0XI6BEmp4BSQJJDLk0njlIxycFDZdlVBp8sx6C86fieytv+ZctKqxNbcEqKxJUoIsCEdSpNCLDYNrnC7ePkXKZwi0AniEwz3QsbEpUzCZsuB8bV9SIDGErOD1SUI3+zwSXgta2InIGnWUTBu0cAztOH2zD6M858GSVjok8EjOCIhRIDhib112OwgBrxeHvexDlkh9klTpuMZJWnRCg6Jox37vaMwnlwpkI16DlZnn9maJyogAsEV2GsPXBpAgKPoEQS0E8anjN0wXHTTjw6hJ6/2oaJsQwdtufRbk4EtikWvpOgkIc+xOgyAYqKULIDeit1hTIdBSu4AWQQG4DoiunlMHd5JsKvMf3zatyFwfLjVnGeFWwCelLopsIfgp8sdN7QFb/YZMujEFS/zwcxDQdekDjAdIdi88bCnyXvbDgyRsFuA08whQMPmR5mXYovYAIyUo7mBn+TKshcVf7ckYYYKYOYoeRDqZTBBm/pytvhy+fBwITCCZ30Y2T3c5VU1wKqaNQvXbDxgZs+yMlmEXLEkerQMVC+vPcKFUGns4AMMX3lME2Qmwz4HhKM+dXRCwanxIv19hWeA+bVMWZcq9ptmIsWG+mYuU1flb7ta0KZ6cIB6bDO0uHN9qBZ4pCG4LiHwe8Gu/ZV/BgDhy7fKhxwoVF+jCcLhRLfmzI3/7ShOERNmHC1jERc1kvK5rnlTqVxh8yrwe7kHJbQ4iJp/YFqAMa6kfjaSeHOVQ0zAHHOHhQ25OSI1gMyCyz4gd96TbQlf8YiLdb2VH0rp3NSay4s0gmCczBSVw7/z1+Lu4ix/lXqI6wtpKhXpEMK+Gpo4UVgdj6C7D9f3BeYbkOQP2q5B9WRZdf2/qOC4jBi9reVjajOMghZP9aB35Q3PuSHvsTY0SX7QhgCz8tXZUD3OlpGEwAGpMuD0lPeGOiR+avMyTM35xE2pqcnHnvZCmOgwgKNxr3QvxvYc2Sgxawp3v/bOkOeikSFZ3JOkjUWwq+JjkqQBozt5oGUXuymQxd2Rn32yN8V6Fper6HCcTRwhPq685+E3sjzSapoKc0Bx2Hx9doJEy1K6NhvSLDxaQ60JQ8S4N8nqY8/dUz4r2hAHjHR5m6/rVRfbO6ewAj1m6Q5cDiTl+CMoBwbgEF+jvyDMAp95SAJJtDqJkRv0dYIQ9ILDTMWbFAAWQJr69KV0nuhu0TeY+qPuTx6pOZv9rXr3CyHTNpXZAIt0l1p9Msj+pDP1GaFJc8Su/9jGSofGpbm2DjKVkleYtLzU9soyoAvlrAcq1oF8MqKoOGz+UUAusU2vyepcKrwZv0a9lmmc8R2Vl20uUhYUw/lSV1wAhcSzfctCLzu/uf4+0U4Z2PM/vT+Ze2wMuq3NTf2exhCHyXNBG1CPyHNvLYg0FXDVJUtT59kxDe069OUzV0Sx7s0EjYRu4MBcJopkI5viKQ/YxYKUybXZCL5CfpJEIEeOonehnWeHg5el0Pn/0WNf7WPXTz9lOmYYuO675iRZll9GZ/btWyrByEYxuhelx6OFbEHKSqvRV71B4c/m2qRK8Vlhc3lLI4vo2ewBKzEKHpCXR/1pCnqG2Z2UMTxLVlKo2tYSowWZUSiBk9ZZ8NtKJwGIDvNKo5xv7BO8juCuVhYa5vTHI2cqiHFK8dDcQeEtaV4CU5ZeMvmtA2e5gmVU/zMIKg9NywWenCih2EdKVJOYr9rKnPh3w12hz3gbsTrzWOcsuaau+DHsMTD5MrrGlNpJUf6vxeg81xwwfvyoE6/cOak85kMhIG9xBRfNrmxhrZYTa2Ak7Rvq95YebTuZVZbqT9r+4708/VjmzjPkW4ikroQZ0js6rC/b50tbCoaWU5oQM0Mkv9nIUNI++SSlKn2cQ2GKQRKe9BEAEpAAPLHd4y0FQIMAHPUD4JUcowXgS0G//m3yTh7V5WQ0mN33aJvlRZi8gBrLMiRPa0I4HLV/9kgAh9D4Af5eWmQTA8TnwkhshjtkXGjv3N517sYipkohL3tIw+7AZCxcHmyKfYOJOcd1IExkUqgKIKbW/GE+QpFjDYFrB+MITlLLDnwW75tZ79mV+sNT8fY4KUAzJ+jTlYvwdyg3iBd5O/P7DBrWIPiVIyBbP6BqC1u1DJkcocn1NE2P/nLJtTB5Y8f6lSwTVLJnAyeLJMw5BR7zSyqIauxM3CRPP1B4j17xDs/IN9Plk+R9MX9QL23L0u4BgdTq0CEbk+tif1+sQGK61PxHZV4Tj0VDyMwkowMYnBsB5lfQxv/JBfog3adz7sGA3f/SWWl9fcw8HrMPo316GtbKIpScvBHe6EUIpqEWHkU1937aIQvm9u+/nYOqKl4drnDdfDSkkV2l68R9765qfQUhA6k4kCeQlp1ogkEfh+LHAGwEB7tEQaC7H70fqqJeHarrru8tBDuWMYOoKtOsy4bQhg6ZlNamHcHuoFbchs0MKaKPtkrZCTW7CdWmihK+KQ5D+60hRhkT3O66Na+mcTBxP9eIJKdCm4hi5jzKBcwbVhy/p10/u3lphX/lnRi1Pfxj7zXEgxA8s4mi2UufbieUD2/T1BmZcC9JnX1VD/QIVNAQME7EuGTxfCbd/5g/XY3QT/mbZghJkqpdJ62KEihF85gfI4xDEr+etbdQHBH/ZURZeeByWKZJ6GP5++o80qSPvu2KDg/HJEIG7IWwUy9Alm3xKwz9/ghqcIvbohWo0DE8WxYMVlDYAnSFbWk8L80LZSUjjSxvFQUZt3LzkIwTDIHQodmGlXinSK8OaXO2ce9/y09Bsw6Igt1uEllOL3EO3NAXmJkVkHkqdEyhRv8fnd26KuTGbdReDw1LumTU3KGUwxFNqtLpoOQ77WSFzShcoEo37A9zfUS7HFA7B59Uv4AFhY8R+xjUAJBnnfpzapjDtQqPc2WjdbQl+wdZLOTKs79z6VsYIIMbbP80Z2PvbR+YL5ERAgQD6QZC6sS4CKsonSYFaiSQBLIAwX/RnOlPnIWajEb8PeTQQ/jpJ7gGSu4Y0u15s3v7l9mos5js8O1IS6+pc/HVN2sMwxpxyDysqx/2J12cgiZlI3VBCQSkYesdgTlPBLCXnppiTE78vrBYlLW5AwEdA3ut7LSd+HcdRpjV1/o0toaUXWEoUhhejTJ4ADwzwBIVlIiIisZtqtITvK8uUS2j2Q/LESoV6OLz4KshmkKEIs5p7QxnuUusVkw5y4fqU3nwQnykUCaOgBgXzHuoiEww4FdTnymfMGV9fuv1+Y7tKwNIS5fAZTj5fOoRxJq7/+u1ET8FkZB7vCaL9vdlZdPP5OBJ2uJz6774hIIMwGq4Zj1RbtjAxYYx8KChNMBXGbiarUZpigbRtrgb5jzDaHkD/9hIFgQCxew6gEBB8eyJ+Q54dcAB0px7H52EkKJwqgCN4SgEdxTA2gTcOqDhNT4kmc+kCVxHQvc8AUcFrhOpkfX6UvkWdk6rv94HrSgIAWKapfQKmshkv/fq/oY2EumXibYu3AoLUbFYDht89fg53ZPlotAYVyCWsJR9HyVRdF1lKEyDJvsNp+l6A4+ccpgwD+pQVXdwSOJpTSVC1Q+YjI6UQ9z+/v7MT4WDgba1AHD5eYGD/MRsz/4k9/pJvjmGEVh7hK8ysBaJgeZQWTmEgelkWh0nMnc2yWFOJLAtS+nd+Ogx+Ik6nQ2CDIDe4/r9/56AmP3/EFMWjCVXvJM78Xik4H9t7bM0QV9lwuGZ/F/GF0vIGWb7SoZZJ+MwoXCBZC6jXkJkxKJqKaYPJc2CM4AqcKAdhD2Kq4cfgdVzd1dySWhz+lUN5/NA9OA9EXsuHNU7VK1dTrGk9iSq3PUrBCR9qGhNXAIy+Jo8YAY8AMBbwCkE0tEAkPkC1JRD4KEGjCn8JFXbUQhUcU31e73l0FnKA1Q2BANmAIDmSpzSR2wrFqk2nnPxldAXTdynklW7CCu9BVRJxGj06hGlJX0jQa2OMwUn6NrVYdttP7/iYBwFZBwsThiCMIDD29UFLUGro3GjspkLmD8IfaC8evKSQidpufi0cUqp0n+Tjg2A3RiBTWbb9NyYEL47OhDvz1/WGNBqyj2rpIEIdcVEeY//GJmhivU6BKdxqYr96jhfnA1cgJQLsA0hhwd9ECoilJUgp778YCFApiNRbG0cLgTxsbhILgCg6bCLTpj9hFJqLWwTUhRBGvQu5+YEJbdxcvD0B0skxxFlfI7QEMYijW2qmBEVwS7F0UEQIwm8mcwSf6pcxhGNB6uwGsJbJtxuBjRU9wnL7DUhbIZFYZ8Qg4sUr5LFhoVQOIQHxC0lWE4fro4u2Gnje/P4t/jiXLdbspQpRn2s6QYs+OLHVLG1Hr/abkYRwJWw9n40854S6HzsfwbLgdOqNynqsdPElTCcnT5Uckh80mC0BO2pld6TVp8f20BDBQksSWb8MLaJ6n0Y1FeDmCYV8RjLfUVDESqSjt6exqrzII3Osq7R+MgX8Yq5kG0KmhytFVmTvo9Lu9mvtLTAcDSZB+xZRu1baXsNdp0cFv0We3ct0RGzDww0q9SFMZmhH6GT+uyADpPoOJit/D2DLa52qc4zmMcGiJJksIbIAcwgi6kNClvvDwG0cW6QH9B+Qj8rzAU6DtzgUkLsASV/pudoC0O23UKCrwHfo8Lldm9bZwMmFxO3WKHrJcNFSD3vfpy33DtkctxSUPsXqM/KESMXSlV1VKeVl6sRql5TLMMAUAFBvGi3DAZbXy7eGEycL9mor2BwG9kVZJQRW8gHK16hxn6L92EMGDq8nXyjsLo5A5+XUdFfFlXsaVCkeZpxYy3ZJ4BIMmTQecb8heYoTAlNg+Vga9WAUVCx4ARlrPC0JO3+UaqTOpCyAVGFeR/ZUxVE2OUashVSf2UgQKAeXWrrNnxD4yhIhHo9c3Od5/rsXG9kccnMCxRtN12Izl94yKo3kCvFTxtCMMGTRdK2zuz6dGgRfeuVP825E7xznyXzmqeWYkCtE+/jUrUDN3jok7lLXnk2LdqFj+SFU0KwQJ9307TAobolY2P5oEz6z+kfShvIjWNjqbqK7fvs3qgzauODlIcRE6jIU6vKpPKJeqVOzWDDK+IAAZqZsCVAg+EYqG7cNsDAFl1wf7HXI5H6POjUG87reMFEeLVy0Agg2VGa/YLpcgXzhVj5+7o7uWBVOzTsZ5EUGxc9W07D0hUvVh0MMjbJyH9owB8DMyXWUgM+ppv3YtL6e0/R8rqUQcFFkZoKA9aVP3/eSFXHDpZLrFD/fmDnxgYT+Zy8HSd/fZWirWzcqZa85IuVpkUsOsz7IFxhf3K2QAyGgYHDG7z14JwgWI5NxrzN2e4VExQdrBPuXiu0nx16exN8KigDUJi1vP0EXmwG7RI57Cetd8WE9j7CQfiYmLZtJSqoTIny8HTjPO6TtsLWlCsj4pkfY/rdIAUFB4+Cenwanxsr50nxX9eYdIoZL9rJCub9TCisx9XYodUXEGdqgUz5L6o1GPI+mxgvFtWWxqDQCF239zM4nJ0q+WPPpQBCbAxEWcAKOYUriYVjRBxAx9/gkZZ2DzgJ3PBPcpQyeK3sPOinkyq7sobaeheU5/bi4BxnbHWLIe2iKPojiFa9pKi1srqtgpNGNHIi/9sKyQDIBKd8ogU0blU9mKYsRm3u9+H7fup83YOonK8z59wPBjwv+HavyxFkfxOEPW648in62d4g0g4Mx/nMVdXUiyXvUgHMLGDj1vkPXauvIvkth0GoK6cOc1nB3QfVtvw+Pib02nwguvK7GD/2M41YKmQMzFxVBPoZgF25aY6LH3B43CMTz5ulHzB9hlNKVGrMm4F4QOSSmVn7RPiuqiZ1NUMED4GPWDzL/tX8D8CMtEIpCjpLJbIK6MIOkiIazU0G/+J/MYGE/cuQHoEjrGRGkPSiCeOA5MxmAstRJJyMg1rrPa/TXDCJGrtjZ68AqlAglwgODgrT4D5us3XMUuKe1zQGaw5ro5MAqmat8HPTchEkgd+YqRC5UPi9uPvJLViUzGHSo/53xe6G+48zpLw9fd01XNL3emLY7+hMFJf6rYIPvYd2bP3BY45T+OqhGLxW2eAaV6k04JmH/9ZZjY18785ZdGhx/09fROIf0k5LI4t/TkU9W05XqVEK7i6kRtubrQ7fpvJLXzSUrfF76o1F0xd9q8LM7nRl8311j17Zn/i+d3vJfRwt/QhMmTmRAPpYO0OwzxO6JtR1UNOljkiHe574Xb7C4KkmYPU7i4Z2j69mdxfGIDHtBrc3NwGVHA7Nu87HwtsKkLJPkPCEIPkCn05dYBqkdqBs/Knce9xsSmYgblAqBNLNy8qlAnMjH1qa5mbuLbSJC9qkkQfmXc+BMqWgWXrjw+KUy/LK0i9uXPduvzDaFPgmawfHkW5keJRZ+vuCoasB/vUl1wxiT2ldq4hgDUKqYLBck7poaDfcqhWq0nRKAF/PgzRaUzU0H+u2tkESTwtIS4E/tm4dBtny5n1C2rxjpSuEiBtqhzffQSPc9morGJQgMbzwFCo0PYOiwYGFWIPimxzrBAKHwPJRpbVyBIUIBvTm6GG0hT0a9KMZV/wrFgkvZvbHyOxR3/YrhIQP+ahJhXqF/nhRQ9eDoDnlWxFS4kZtIk3x8v9T1M5JvlPDTYulXRT47mbkDTkYn79yWmTF6o357epFE1Bam798eLSsH8WUdufSxG5ywZSDUkDATedlGmtq6HGUgOwzsqHTDMA1KzYeVP6aN4oUXWaysyvxN/yIVS4Wg5QPX7Ilw9j8HXEYYbjyDJ/DwZLCYVUt04YpNigVng03kl6Z5Wj/YCuqqHMJ3ArATCeZO0mk9f177u2/ci9wN5Euu8717iER86DgnwEEsnDJTKxWuZyJQmZiacvQkwbWlOjfc3OodEFNZe57C4X1DZmpJ0XuX56w4/s5YiQlzidnbBaiS1XsfJX4EVpjISDsy4WQm9XeS4bYmmB68uQlvzU+JHJ6hLObbHdjNDmr0028yaJ7pA/2sW/Rs1Px97E9wwmMGD+94QNF6e416Q07zArW45YLuf8ztKBGiDB4ze3wSI615ndHn+6qJJpPQszCKpK77ldDGJ5g/5pSQy680+JSTfthwvBGgvy5xKjH+pgw6z6Qv8g6tcHIUjRKExnGx9/1GIjNazMuMrov5TusiC5Tz8MnzPHu0amFCgXZpXNYZYDxK7IAafNB/ZdKmfcP1cIeIkII1dhTkU4WlB3bzhWg+yYTePEhXK4azkVc7Ak+r/BwUTieIy1A368BzBGNLwbk5nlX/zbZGaLNXir/f21xnClMlvIyLREs6Wc/Fzl3sA0iRsJVaL1LGMBg3Kyc/c2WaY6lBEMTDlzGxt9wsa/Wl5cUJvLKP8qhGC6haPg4nyg4gMzoLfe9qPkYLFurDzGvESoGeT6DuR1fMcGuarmZGFzgpG8Sx7ycB5P5UHo4mmS+IjXgZvCPk9UeZirfNfTqGoD14Cc2yjWIIeYaV0Q0FyI9qB6JqlK9SVawYwLv57Hbn8vpKhg0sgiXCnDKrHa+4FqR84LJ/ZTP0YLv8+KlKllweo6uqwLDGf/KtrSfS/e1tEUJngxfiUxg4FruIjvn9R6Gnf+tKVhkau5pzlJasvYpl2JpllqXbaG0k5WU9mOZ9NX8tIg8t+fH9svvk4FsJA3QniHuQviUlJ7UcmRbxu1zyybJC7fV2pfVfYXizzn/fq8jlov3t4ZBmLcdc8WTmEqtvWFPdTsBNs7mq38B56v6Qv30um4oMCKkvQRl1R1uTaYBxmiMzwzzK1CYhg/1C62tjPmdSj4j6xaTpT19pBQ1qlGEXw59bL1rk1c+H2YiftPsSWmizrkV+2PPO9ntREewKFMaWDyFahEgW1OTXqE2v/ozib4MfhhgLF0/dskS4i7N7V09aO9Fqx4piYRAb/fIfRQYF0t7O9UoU8hzc/O8MU4urThNRRuZTSnf1BoD48qgPeYWotGPx/zoM3b/E+YuuprDBqCnwOI8kjY31Q17xNk+/ycBTPzeoGRQlXZ8K299i4P0aW/EHZUIX+1avNW18ROAbujzz8UFdqPLoRyC4CaBF+giqFdjxZuZRE0FzO/PZMEtexd+xuYVTWy9pjm0e58KiKBTCYP9N+SsfaMz3KJnG15yE3/xje/mKazOgj+xLAVWOfu79oIOL15671uwUkNjomSM601gQJM/nAZ9qR0D8MhEOCN589XvbiHaxMdvB+bQTvzr4OG1fwCkYkQ0TxRb27heobX7fiwMgyK7IwJ7CRHzoXu/3nu1SL5GdOKdr/BcVyy9dyUO6U2cueKWNl0Umu5dGodN6HMerfvCQyLv2d3v9IkMxiLPYM2A0+5vLnppmNbzl9zefDR3KafIuDwd38vqGQKzYdUv534J47HFkNQbZZ9igZhJRtkrQVaNr2p5FMk/7eBAQalN91+ajfmhxcLiq5CZktYpxABEALHmc4QM75quV2zo7yAutzL3GSMns59oqlmfIrQ+CHGndZD+pun+hJxn2Ay8JCYiogNuiocjRXTuQcU0J915f5xeHPkXTXFJR4E//0rlAXJ9GONBcN/okkHB0Xj6N1prILu+pJeSLSc/bXg5aHR55gWWuC788+WiaZv7UwTT8ejHxNc+OehI9/aEMQYSoWYVQOpYius3yS/ic42BGMnY9t118zsjmK2+2VTt6uW9gZ3p1PvILku2y13JM+mdcQh+aFrkLMsVGnaSYgupNeBAPOaTJIhSd079sP0CxkMdsnHE/d3ltJ86E9H1fnPh3rKgstVDr8vOVr1e6vMhER/patZ5VsBPTu+SXobmIntxtWK7VohxU+X5V6PdQBVtk00Zeqn7Tz6aRWipD1A35gMA5jwB14X5rhpaGg7pJgLYiKHRg0OnAME2/Vpjv+a/v7OB452uT0SfX2U1GagmugpO0du3OYIKSbfletFVgbnwaB/eUclGiQEGctmTZBku8a1d4X4HYUAQ7B6q0ZZxnf+40kzsbZJypEvCcQtEP1KqDvq4I0jROYbU16tmx0MPhDdA029/Cb8BeL3+Jf5zZWw3ZIMcRbD+MArC9nW5LyhtcRbPCqgCrQh1faee9//yt62sYWyBzRRvv1zG0Sdp8moJCz8uZXkbdChVuCf3w3E6e6KrPfOdhcky7Mzq/9S/OFcu1N/B+aGk8lfnfgj/BqOv6gneRSgQgxra1rwfei9kj/HzfihxsTne8fv8K5ejbaKz/Ids+/fWpSLsLsBRmXAsnaxvtjSOpSEAAaPkF4L2dk2rtYtNcMP679fR2lLuRHJ4+v5gnfQx+TRrSr2HyIfgX6E4tFacuZz59ZdsfO2gnCCuB1ZWy1GAEG7v3h0WigFsTSbCyOiqPjxw7+/zTX+jWJet0db8oPkW+/Lw3RKeQNQmF9CCNJGMw/1iSjro5SD7F35S1RsgILLUX6ilJ3zCsPVHRVw3iRbOt+h3xkrN+CLGcxOjhH3exg/SgyKOtyIN7oXHTvAHUCADczeWwlgPEkHEEAe+DQ9fP/2nutiBzXy+NEggCPiYeA314LtdX+BCYeUacqimb0NbwLzzu5DPg83t9eYLOIXiiP0l6DnhDPnXlkolVZoZlSedqZTss9Q1EtTFlx0DPQVtxhQ29LuWk3wa5fsjvMaZRm+etJOGXhLorzL0gh1RJYlr612v4Wpjj8IShubZIYOFeMP9qiC5NsufbeEwG6ju04dk0r7y8bpHmWXOCmXMU/rZAENbAeVPcljxMOCueZl9Sjs6KETn19dmph/Y9ba4UWaJgcTj7y+VQOmich9W7ZpXaUs3LskPTVUsHXPDX9zpJPLtX/ArhveqG7tP3rjIPEyVNVFiW3vRFUgolzXH5hodpD0PJ5tlXj46PbRXqfPiKHTQtvzaPaxhICmObfv1AEmMzqQKxTh8DZcGQCylAxFa/603tSPp38+LRNR3Pf3iHIYyyftzovpxY1mvUbCfAOkoQtO5FyTQmkQczw05dje4eCYPSGhn7gAhSecGfgEnkhHOq3176AnD1KTPiuIOY23wq2ndhI3cRQ1xvXqUwjaIoM3gekCRzc9Rc7RbBOX8WLbbJrVanPb8lvJ2lCSxylSO3laVFlgsioN5EzxA6hZ75sydUYM3zlHwJfsA1fTQLTBltfXhjhmAHFt2xpSFGwPh76Az5OwqBpnGEuKuAidtLqEEewE+POIKfP/QsVPFsnD+PtYu/CoDCwW7Vrs7Ht0bLMH/JKn7bFvVM6YdGhVs20RLZPPFrDv5AEA3ozDEJEyChc6k2D9EjzzQaEioKezAIwfmyea8O36HVrX1HVxz7qUm9ZccdISgQByK33+HKohiVD8RE6aSiS04ILAnaVwJ3pT2a227Ak4vHKl3Rp9kvBvadPg9z9xtB1AVJAiYKy7Qn3Rf4gf089eOsYFNsfnKNBFAhVi3jqgGZP8wk8r91PDovtcPYUuy+GQ6h958mQ1/Yg1lb4Rt0XAZsgbFEVn7WdWaiAQdO07NTWHurMaPt3wPpeSMLPT8wS5d2iMQ+Q50cZPpiuFNoGXBIT7BbRKuAANu/vxjWiQn7Qkp+Hr1yymKvXgCEMPzgqDy9GS2O4fvMgowyWivcVfkUA2Lw3IudqBkzmWVU8WNmtho1jGN1g+DCLv4C97LPbPeUL0cPcgVYTPnn6F2hQWZhNudlWXP5+Nmu+nsHkWKAbLNTE983Mv5WxTt42Po1PtrltR2euoMfUR15qfN/DAbFhlTxPxrKYdvpvpGmGf06y56aK4l6qydU/1qbte39lw/NIBTCFHg/yRfV7q01Wa4m3gVN4xe8k3kemdevxYHyaarqodvvgyw76s6KUcWDzEcnRzPfIMH5BJzUhqj6xBKuwGknwk+Xq6FtoeFSjNcFHDQzmtblhI4MhrdNCJcg4mg7Yqr0WpWZ5eWlVn9peP2ZPwRjaIanB9QjNvxZYX1n9IKavSE3W4UKNJdX6H4hVwedP9/Y5WQ63YnrKpAuL0bn6fymOUZ83b6RxYyaE/cU/PBfkMEoyvz87fklbie2A7sfuH1ohoU2Lhww4UChfb9FjbN6WTm1uEuyNGw2r7BtxGj6Pd2awvwIrclt55ihvEiWX16wuF4OGdmJdnxtCdo2hvE5SQBgGQVnzBJgv79v4/R+LHfOPF4Fd0acPt+MIgDlw76MclDf3Gc8qfNgbV7okREtPgNSKjd2yjmRmamFXUiyUtM9T+Qlxxdtuc4mQX2wmfWUnxp9P6C9AfVgdXbkx77jDPv2/mAiJ5oTNEcfjZ398ael+1a7DFX21e24ILX2mLn9Yb5l6GXN7KsI4NDRGXvINSshSce18hVVzBRUovCQ827yJquqfNdEKkxvC/2FMg6NxGFVI3LB6N/7nqJ3Tqzwi4y0Ug5DH+ZIW89hprO+bQSMtpx6IuhnJmPB8lz2KapFo9dPvrYFIES6w7zE5VfXE6T8lQdwmsrNSG3q0rXyWq3nF6tb+Vz5haCiy2GZE4/MmJiuKyUsHLZ9lYRJwk5YK8vxrmhXspzrUoRTcOkv13sIUY3s8IYvw/5yQTZIw0nylZPbH7Mb3cUyM8FtlHutBMGnjtKJ2VQuVGjF0P4kgsgbXbbi5l8c49YrKbonYEeZGovSa/JP0T5p7nFpMXpXUd7CnCrqALH475V3qZD3HCKNu8OF086nPkeCeyaWADFCvRzTNVvW1p6MslbMa2LItMeIYyC55rnjedFgoGwLGCN/GUOE+QK6ooUOUn5xBeivkTlN4C4IFw9DRHOB3oUy5xQ/hye5mCbZ2njo6zQr9CRO3Izynfc3CWp3tBMNtHDqsowJOsA6NbudyOS/ohvYdauJy9eppNmQR9cOQ4aLhZ1HWSoryBVGfkeqNzv8VWVX/PGLOs9AqP9AFHOH1NH7rVPfPNfE1ehj7yP4X09maVl2dIZHmef6Gd/ee7b4LSZHsoMRGvIcAwghK6Tx8/tKtMhk6wzGnmPovtsdVa96c/2VVUhff9NBHfa2Lm4YBILh/zbwkF4PQCE/ipbkHbDpJ+ewk723c54X3Wuw6SJmxUHoNI+v/RXk2fRhE8hN+58G7a+57QbH1+LIyuif5yqPbgmKnPa8VzFVZXeHG+IcCxDgs43eKRPbP/3/ZvSsIff2zZnXVWX2c8HqlgU6Gnym+0unbPeV9EpNXrFjVTrief6i5eqnklugRn7SdQ4hJ8msNuTX1av9jQVXBqT7QTIzY1xr2VeDzBZohlmYK8hszRM5VvL9Lg6JJsSwb/M+TlZ1kXk0U48UzaHJ+I+k81huVYmi6AcxIIk0BETOOczIOSfB1z9830BVLpUtWfTpfdZCdLM29d6izwz4sb3qY++HJ9jnD67DlGa9dvXj5JUmejVTZSqmS0JXzJL6QZhNBpZfAkVrC8jHvUc0gepLiCvtxdaSvVD8VJh09HLFoi3+u3+9kjIV4PUUIRU/D8KzSgUt7yBX1WLR3oQIsbyC3lQL8MIQAyvhRxckkxtg45wbaUZ4+0BhqmoqbVjg0tL5hpaGCzNMwle34aKWGsjviNlr+pwkxIXs4Sj1f0Y/hFoq/ep4Wkiec6I47n5/4/9987MAy8OIoczOXTMb6LlppHour4x7XVZ2qOf+EIcydKf6kaOVONY9I3/ptCDp9CuMny3xGJWWkiYVBkYE8MiEzpNsER+efYD2XQaSOyP+1LU/3tD/5hWNkYFf/mzyZOUoLT6wNWSf6/qUnIeX2xqT9W8DlwDBwAmYLPNr4czs7DCEtQYQTg2wLb9fthUfi8u8puITyRFfRrqlhamU40IPx6b1zy/S2IGrZ9ub1uS6WKWXXv8/dq6rpShWsNm3+ompIkSOBN3CRIlEaFWLdGP6eoccZfuviAKb5mpNSC9HqnFEeuapUsHIvThjK9VvRgo2d5Xz3o5Pj4/tRtP1tkqRsclEHi0fW6L5MdL4eo1R3fRjwYJ7iC+J53QZtvWUeggP/qj43WW7Ilrc7vq0cl/btt3uZ9sC1EWpZ84zaANwCpmstRJrF9DzYzn0cPbjlrb8tPZnAspO+zpjH1P+CB6Q7IvtXPjG+k2+YNMrVfLJjfX+foTcBz/QY0SP97O4SmqoK/0WKECaZPszIcB9heCQ4a0Ufx8dOO9KsY3gQ05mrUluMtIo2vdp3p4PvsEAjL0ZGvAhARvnIdftpM7OyEVV9wpxr4pKr3CupffK67aLeQPDMqu+Nr9JGMx4SD62/lKcIdY/XabMOKUj+u/EFUkOXi9TvMRKfI2xkibmH59ImQsbnJcD1/aCCAg1RDF8Y++mCTTk+ErmZpzXCrZoLhvy8kWQLVqa6Qw6CNRVCJsbfk513fjt/JrpvvY0KTHh0gLE2CGvx+0z4GiZtS3YXYuZ4ZAECKoOprYmK8Wq0QmnslLKAlnnbeNcFMQc3x6pBAxxYGY/37QEMlMwZBhXdwfYwM1pI0BnOXwFuKoUiG5wuprcspHdbzsQ5odS19f5W6aJi08aLZshFGNi8z+gicpXRU9xWZahw8aJ4qcSpUAE1VDSmXYsmUg0i/M4tVDMZhIF2glRKwazz//2r0TCsWtUWHs7/c8KQP1V1ZeEJhFtGykiP/d6N4mcTxIG947s9tXnJpRxRAccBrY/VsSM5+NZrWCfTRqMVPfBrhZU+STfcYg6ILD9QG6ooKId+nGo71eud2Io7AIuvf3Dwt0D+YGsQojyUSC/Cy26BeC1BdzyOZa4kmscQKh6umdticp/RniJxK/6tF3lAna9STouPVfYoK4gu9OyxPILztVv5nmBXhi9buyM5vIy2jHORhFl+BmTJzACg9fVRVvfweJ4hk35Lq24SlDRnVpGNSpExRqCj/6OtcYazpfUenryaXUV1hswjyZhVzQiVDC3MzlfrLr9urEow+RnsrBrhY9Kk36Xkwrq5fBoAW/GYoYUfIgoiGh2od9UmlBe2YWwypEsShQH/pbvQbuNpEw6uAag0viiOD3ma3kPAQIZta4x9vlsozKYWJW9jXd8fXqaZ0Pe9xvzodLLTpomWQRvizEwdfshCCBk5TscR/EYBepQTAjWI5LRZSNQM46zwn1VLdp+Y01xBuWqg6kPieN4Eeo0gEifTbnmF5iylZeelQ6V4h59pyKOr+IOozDwd/3F9TFUn4Bt5CPo4l18WOA00Gv0OiLCnWR2EY80yIWUdyaltZC+0vD8aYs1RMEIu65vHGdvdFu4gf3NRjUX63vzxXD4DUXlHhwqEehWIOqgsqxg48SPlDKnQzNRNTraROLOh1zU5sv5AnsM9KYDXcaduvzYLHPUaKx6WCK8BEFNKJ3AawjWQqoarA+f7l46Nl98U+2Qw3sdYSXIlwsKlrwUNe3aJb8+hkbg9prGmx/Zc5qTQWnaUxmu3mA1iTpwGFUBMpQPSmzF2Z3VWR7PKXb5QEHjJSsEEuz2rI9jcazEfN5YJJNv6FA6pPc7CXgbSBbeCWZ2ZZht3cKESj6P6WGZl7dWsnHVeWMQhhPjCHfzigd6LOZqDPHLurRqMBz8pMmgSYG5mBIgJVfu0XQHODRWQjOJ+tqQoLRWWOdyc3pVmCeOd0+4IQ5ubMXE+P0RWXhfQf3J0F6XiQI9pJ2vNlphF2VB/L9zop1jzTsV6WU8FgTy0TeY7eiY7JB9nBxXikQMzM4RJdCyLMDCfcYXf2abRH99vf5dW2v8FqNVQ21fZm1oYt4rLRGMAtiZ+cgJ3XfKcT2nQNkaAgDCXfXfrWXzUGw4D9MLJ4DrLy2tYV0l6Q4FLgee29kqDFebBMHvQwDiYVZDJftg5+eM1NVqKnOGpP70HRGQ0NT+FT5U5AChrIIj3dJREuHu1/68GNAWmjP8fYNOTKm+QIhUhHGyB2cSrtuGOsTPN3rIc8nac9c/ROFpYdk/5BzvZH8Hon7q5UDx+kAm0h6/Rs/SNa+MDL+KNf97eFigOU5paQ9cF9mjIY16VQJfnEnmhUfWDoh5cfcncKEQqPfUfyp/ub/czvrC351TqSM6bkcMG2P06q1RA0GVAzygoTeG5rjXcBK7pNGGTFo3XM3htNyK6MUjaDwFdR7EOBWA+q9GrN9rcu2K8XhbuFVtdSaedRBlkmKEmSKIYdXoS8P1qrqNAuZb8n7Mc+NhSlyGNKArt+M67hc8ruZbgs8EJt30B0rLb16mTRF+voFqFymyIwLLymvV6+1V/QgMDh+CMzpV5ayKsyCgZ9kSg7Ug4DL17zI25/SG2UvqsRDeBgVoWnz2NL0pOcFpPqquYSXA25sFXwsKhvZjBZ9Ydpdtb51EVEv1R+QwrnaA2eBjQoRI+31V43lHp0XLKWyQqARLk5ZsClks1cwByjsLVNwqZ/1KT7OZEuMmLc1XBvMj3+rsexgASCoxqXGZFWvzrM1plNdeofA8z6zUaNF9SCPeXoqxJe150OFCnlTe9ObITAz3st7yWZqsgI1of0kaXLvhug+BPe2Oun+3hz8eMRzbcXQ32uJcLW+rTDJU5oqQv+8755yW6CImxGu2VYt1JKbS0FjDBgj+W7/o81dwP+p3w4ycT8CcK8FCWFeQoOv4Wuwsjciw2qQTBtInSQ14xI9xhoE8ue8752djtu+6+kYe5vBekPxdDHESFFh+70IF4rjv+9b1BWdqbb3JXfm2uobtJP5mVaocSXzAV8ZNd9wE9jPbzDbf/77XgA6u2TAtsL4UGN+Cdxy2RX+cD8EaWU19Fn76sOW1NdDLiAywrWgnKx8Zs2Hfd+bAsN8gNZONPDVux1gCHe+/FdnLy0YAtVoZ5/DqRd/CL6pgVZ2/LtypDe3XChbnezOMJ/thW4OZqDniOcFQ2c4w/IAX+EGmY1pU+wH2q8Ar03vfs5jcq1ShbvtkYgKGEZjD5sF7CJONIrg7cxtutEdF7sZotO9pd6MhGeJv0+TTbD+Awd8laqIPuJajXOFzxjGaw/ch/GN08xGSR+cQVxZP/xznOxvVltRSasI18sFL13kzttFnfr2nxv1lTGUEMRKuhaBqvbcniaqdRXFs+5r7r+pZT/0Xpm+LAE3XdckQTsVBljZKR8QY6IR4QArSnHc99uy/8/gYjmEQ8cd4JkOAZApiOmHO6xeza/GgzqnRfoBZZwZ7eyycW03ncIGxsfrLe7TVoie8Lvi03R+TqsC/tQ8eNfsOiGKUMePR1vhOInfYyVx0dFksS7TgEqHbdCj81Dp5LaPwneQspo0m8/IciRZHTY1JgYi//eNoRkt1ymh/4PitINdyJhqiy9bZygOuME9F8qGoYFdQYHWjApvMrilgVaP5THSk0DfhJvjBZ3Qc/fQTeadqXHkuXjlToHBR+5O5HycdYGVzrv/xWVsxY+h2/a/NfbptoFuL/Xmc721vD6r1il6C+Z7eGBBoe+S0qux1ofR1Adv6faqovkqOTK5TBYGZ6eKjj8hr8MZ+7SCTvhK8ykk0qC6y5bE26Ml5U+/0/2YlzjGGiS1xhe5wm81K9ulWUf26u034VDxezJZnhrpw50MOq70v7Kdqp4zESw3ByOnOZ2UGVjyTSzAeSyAez/Pq1yPOVI6W2L9rJgCiAGBmdT1HrIn83/X/BIqexd86U+p5k+llGTk3Z0J7x3Bpti2iK13BifOk85cqqeu1ibKD3CB5gEKsPxEFUIpZAgtaFscyzyj44hu+v+yO9efw5hUuN9LJv/X2vNG48f00zhTYQkOrpMqLjAhZGCsIrOCjrG/D6Bonf+OmBPYEjU8Tc0EUPkF85mF8ulcJuWeEEvvCd4Rhp7XvK2RnrXABrPigxlNpNBD5AR5vmoPtWIJEwhPg52fnZWmKHfYqhKGqQaCdgs/Z0B82kWC6A4D5E8GnVggzftUD+EgcbAkF2eH5BPofmTDbnwE8F0LT7fbgw0e07cobAxxqHW2kKtfJQhFgvcD8+fSWCRM3jGz1TQQKonMPd6KvGGDtyX9HV6zQEih7ySLoCLE04XZSZVu7b1izqOGsn+A1EVn7KPxH9kcZHI2Jt14jTbCHGaOqb8qPeyF/t/T7tlUNJAHM2Zx0pefhEvGGRHKfknMqf2wMGduGNYtpP264LuFsOrFQarRi4pOFC/qCl/BecV+bA2BDXs3vHsmXRcnCT1zwJqq28hU2oKA75vOlBx68b0c2/5Zap+bqzDBIBgQI5akRNUeQ6giu/RCNsToFWVXbyIVFId/qw12Q+O05SPo5SPnZ+Lm65i/OfDncqfDgXqDQOrL12hPt6Tpl1e+FYEnx4IWgX79D1D9MLAWxTE7ICd6SqpF1p7UQXpzfugYLz9uw4FlVbQvUhmz4u03AooD7gLky8RF/UP69su9K3H1M1ViPnzZuA6SkhyGKwgwMUvhGUR/rKMHPAQLa1kHhUPCQXxPhoqve6znZHOoxaI5cASrSCxaQtzixgaIoQTwgsTEv337fH5CMDGyXw4Q8d7mwkK+g+ijR+vbT9KQuoJDSonM+yHGKNvZz1w9pNYtEUGgNZlMruvBpc9NvTDouJvJXbfxtAwdiywsQganvnI+v3zR3DCyBKM/LeBmJ2C8inqXHmwbk8gGKKR3aX9voNkvBTy5za7y5VhDkATpUE4mQeH79zJmP4a6hX5SiEg1yWuWYIcRrNuo9Fqk/LbjwbYencXyZq2ohJiv/Zptq/qblEaartL6U1i4TOLF5LKFqxqpNd3oYtkKTrTOyGR2Ri+SwGM7x97W8rDkFS3IkR9idmKmWBHI+UXvAs+exEh2xXjc0Cn7SwaYbWqDEidBrWKxRiguK2ReDAjjcVoMzUOxOs6qO7vu3dZ4fXV8pYrbTOvQ9o/vn5urM4w6toaVvuEUtBn3Thh6Fjqpxt8HShSORzynrRcVAGJr1OlBfB01/aX5vVdbjIiQ+g1/TAAr+CKqAEshDwXBw5ht6cINnhAyBqjdBMGTO1oJD5qjpqnUDB3x+MxjtGOWX5VkkYkiu/ySLZ7G6SQs77lH4TSxUso7tLlUS/NvOf9c1n+DmmSlw6+g4Pm7iwbjl2Ai/9FSum2ZpDgNCLnZYnuhb58a4rmtaSCNHJn/OsxChQRK35gt1Mq9PVMxnOpKoXeFaaj/F0OF9cDTLCsMvh7lLqlWN7XVLn1jyfvZWCPevMTZ9q9JMF+RvbX5a7876v+tW62kNBUE8T3Qqz9M0jfw7693hFmd5UOECqApJbnA/DwZGohZ0BHFZHmiokcBVoj/cmqBs+DIXSU/svb5o+mJGk8nF+xyYMZJGEZ/3OSBQfor0vqij/0ip+pUXEGMtmqDjqx/AfV13T/++9jz7cUcPX14qrGWubqzMA+X9sOCcNV0+2Ic1xkHiVXsti/wKvX2fMnt9lGT3tjT0QxxSxxauJDMFw8VCgwMsur9UlIYY89yOHzCL2cHjwEqOvAyWdd6fAALsleb2NQl24AePNv6NLc62afmnTyQkN6y4c5D1As4WLbDnvxy/BVL0StgpAmTMfhQb40E9dDF38c/AdfhXt84VfWiZogvJJOS4ivpRgpUw//obXENAONSf2DzniLQGAmwQrEeSmVvsPYjmH2w0HGR30gx1L4dJSoi2vwkiHyJ03vHjm9qqFTXdTiMagsHeBlDVz18dt+1q2z53b8+BwsA52wxYGOxvjx3oQW7vBNg5PIdjvEiRAV8yOC2Sdh8UxqSsLPd2pSy+egnLrPoq2kAbBxNp2jkii1namKaKt/Sf+bcOCys9v035Y9i47Qxxs5GlDi993J8bfk1ZaeGsdXi91WktOyj+rWnd+ZoJT6sZQathvzpaZO6cI0GsJ0X+PO80S3a9xFa8gtM4bU9gzWyxaI3aOvVh+u6ZNkA/SMRLJChOm+LdL6m9r9tqN9uyTfbbiBecXP4lhiALbH3kvVlPdAVCZEWgPKd20ab6BTBkhT7NaphR/azqqqrq2/10mgpyQjxphb6ab1DXT5FZdscoBYVzv8g6ObOvGNtSuHXvByAnftm3SUayG1RxSVZLcxMIadp5pPFByMF6+YD6ldIAslNz3NRZkAiFHlcfy/gGTOxWLl8F7O8bWIKaATiB25zFlqPPag5CE+0XJcDvtyZ7zkQ2kRzE/Daa5ycwszxg4LklVwOfRyGKYHq8hJh5v9DCIWhw4rzf9HXHMlEjx+X7TgvL3pxKeR2gM+rAvt/SeYepRei2zb6t1zi4UvWZpGmChKETQW1reg3L3vOy0T/oaxJa7CzDskyZOo1SSqVj+/ogJKyDfgVsNA+97+fpje544ZHfDKF2FUIsfHz7R3dk2EYEwVFVSGNUGfmEpg3ZwoQJUi948mvkjfPlHg3Tnbd+yp6ZStE92Of9LG4aIL+KeWXR2mAW0U9SF1kXWxsVH8zMM4ynuXrB97HPbNr36INjEG6+RdOM7LSCyAqJJze5b+QMnCjVN9gULdjHnbER+bep6R3eGesY1tI11aT8WOK2R50ViFhiHoUXImVdKZ+uj4FFIF5R9spESFonq7tSvibQWNJXaCiKJhdL4KwoYJhWq7ou2pK3QkR0JXX2FzDbpEh/e5ZjKZpzu70FGs1P/Lo6buAzabbTdOWMJneUAgZL07qzj4fy6WkG10HgV4U8J+2IgFilDWyBXMje3bfrVgo/ix+GZ+W5MRE8eU2E/7iEDY6kPhKLBtrW2kt/i3YTVXgVjYIAplI0KLGSh74y2vi0LNV/p8RFpxl2+IVfL5FcaJiQ8T720ZRwaY77IE76OI+V2B8CeRiajupJ/ajMUBsGrVEcme7OzTdIXrjd6bM1C9lFHZBjKkAyl3gBMuTH/eTh60+Ppyx2zzm2vauoq7YASiua7Je/nyN/XgF5/r7fPT629esd93ZddWse9VAMd+1RuB2Pb/MGK3xAWnRqndT5MTXFL079vA5yumVZoB4uBeX1K3ggdrrmx+1vjSKvCoIx2UD9I2iWXwrKCxFxHoMD+ApEnRxHaa2xwrg7VfflleF5+sUXYIz281jSwNo2jjdWIHzWhsVKBMjj57cVuPYNQKYAB4QS5vNN0lcBcOoAyISPC8cTsATZ2HF6LppmadrxbMbnIvcZquT8dEnXvwc4/gY8JfQoBTD3E9MpeFA/Bp2DBpZgdgJyONoWDeOVhaa7zlrnJH2WyAlcNTicD97OvAsldeJD/sRMeyzH5c1q9Hx5wcy+h9hhZ1MLhvdtguRFTzGjV2lEK4dhr+80xzjxXLL8OdvjS7Pv3ILSBKMplSLy9dsA7tBUED3tIuqTBOE6lvTAN/ArEyuu6ZgyfszMRLQt0LsY1e+xrTjSmC2HvnzL1zXF+9KyM2yJoGUoy7L6ZUaDgjgvwA/e3tDVV3hb05XKI/xpR4Eeas+rcFmSIWnepPY9+lV23FC4mEDe15mYx4vypbCqTQ318iv/S7sgST5ZnEbKB0ZtWpO7xwyZ2pG0Bc3o7sPzaDPAaLI4HDmpfcmmhEY5JYd1pVpfb18jsoOqq52FIotzrM6msaQ6zRiUvohQeal415gdSNJTkxL92jyrZx/pA8Gy8sseokUOcP1UUj0Gp/m7gl02mC+u3ircfO81mIqIVRC97ky/FX/cT6o31WYdqJH8uk90JqQQgKl/4Ztvf98NMhhL41sdEe6GUyJJ0/L29PyHpiXG7uVtl8TqR+XLiOPfda2PGgbA0CT8m/HWLyoKhldLoPrA+Vnitfd2fbSJB4YWpvqLwPXUx3oxsQqL/TiC/cjcZ1LTQ2ckOlXDXxg5oBXEp70lH1J6m9pNfVyV8EN0musRBxXzqiyrTz5KBZ7eUApuBtsBFfoLBGyxU65EER21fN4WwTMPHh1bwdN5lnyJkcm58r5UVzO7uPn6v0/WgO6yFhkdmr/kxDuNXjcPIlBAoz/YWurbmBewwshIrgFbf5D6mSc3aFLfwDTgEcS9C5sWzpXAZK90APA97pul0DZF3d3oDecqM3gMwAw8yGpQ37pHRlEhPRw8ye3OTbgEkoNfWrvdVVXLH8JacYpQ8E38vvaabU5E+M8PIMB3Qgs1HIc+d3GRUAdLkYAN2iyWTTMVz9sKnsuPdAUzF19TSzf085oGIaLxXjQJPrhTxw77A6ENqNfcZcyzHkixJ0l0c1WvZlczOhVKHd8+I/V+WfGHIg0F2lg0Nraf1ufTaACDYJY5QbosW3qPzaywu6E/+GetZ78kmQati+4KB3knPKTAeiztIH9ht0tl3GbMILF7S4h3OOdLdDp/q0m/ZcEvJm8B7EsKrusPKaSFYYHCYupgF2lB/TkucEMWdYVnOBQ7+ZqF4ECzdBR7tKKxg1MDICEZB9mNhLh0zvd/5se0f5nhvJ79QawRpvHFBhC/d6mklmiFC7q9Nbac+v8c7reBxEC5khOFSgeuXYOZC+BWlBlXK4MvDD3/vCC2wotlHB4z4yyZOrXg9xeGVSWhuw3yWnolsRHfTbhOEz/JKW8lfmE50bNwUZyBY64tWlvky229EdJerClpG5U+e3TYE2cV7dwA00WOraDFomWbSUOjam5ICeq0+aaxn32ejBM494oZVqb0OyB/LXP3xy826rbAJGssVgDbdYqRINNtfyZFOO16yUhojnAg9jveUVsbLvVIVV/aqFcEmxwXnE3CRTP/ccoHDpLDoNBjrtMe6pKy3ISayMBfAvSvn0YmLXpmsFFCUINAagMlcETfvxuIovq29+zlrPFPBlMCDHFQf/8RzVq+8qgAkjKmtC/IuqZLH0NucbOKuljqxozMDYp6sGBr2qh6Mz+Wsk1mZ+aRxVlcqGAMJ7WCarOmPvnlr+OjQQeHtzmIz337Djp0pJ+tOn9IeEbe8YB8ezk6bigE5me5kKNzHwBGYoguOfEtmi1Te0Kz6E5jJKymETOeVfl4cqytcM81J//iv7s7KMnhM/wBBvzMdbM/32Yj7E1qO8Ns++dybOqdbQ8Xz1Ilfq1KkSnMemiltsprIQurGDWLrRy5+lACSqtbBTmPxUQi43XOj4I8GHGsQaEiaQ+qzYryDaLCXB32TnGEYeVqxgn97lF/0QDo0E5LlX61vcU+mSv1eaBKGuxp1NPJHbMKHENXEa3XUadwCJ5+4JWI12pTC7Y65A3Ylr/trxepLSQ6UJ37I1pFe+RSoZqHQF/7h2sW6O58V/OqW7GW8qZ+mk3t91q5awFomcld33zy9RgPHgAQ6ODmO/UTt+LEkxxyluJybdIAUa4hQYTflFlgnZXF0CxhnXKiWcPY58PSiTshu+ymVh3S0CgIUj3Rw5jaHbZGfPWnBQ2SApJ1WTZsQl5hr3+OxWnfjOusYBiZtYjHTKHixGIPwMoktmaryo9YlhMi1eon6YZxQzNqWngxvX3ZjwdzOPf9IexL7Mcfcb9Ex6cUi/wi9R/lD/4Ydt8aS+vbZGnAZMXyeR6QUN8PDDBUln2y2iHz9U3MuLEnJmVnS5vNIR5Gbodv5x2ZIxX3YEJ47oUND9wq3JwFlT5HFN/gttCEaXYROFxDEA+VoBTahHCE6wcRuXE6YwCc8fJbH7W1DVsNYmGPiCJIf6ePf8XIHLsdCYYc1r+3MA3LdB1IZVVRIx+2pdqw1BDg+PuCcfX3WBGQJ9CR1wZaPU35U3wg8MB1URgCNXlbJX7km751PR1cvfIKwSrWKENdb4kI7K9CJKLDKfBx5NCDvN46rG0S/aOUYx8m1MCfBvbJSdJKgmWyT1Jo7h9aqGERLN4WN7zys9L8DkJJCGaBEHKu4VDk9TnBVXvR1Nf19w7A6O2FpStuL40g12WJPGqwGK9ElAi2LfRDODyqI+zoCts/bYcy/h1vlK9Fh01hv8d6Kt5YUTxnaQIQutz4HlDyWiA+SoyE9Zva8rfeWvxLIYYdIIDtxBoCf4EzDD6w63hbIuJv19Qj/CKCUpyBJTw+/cbWwLrqv3vuOHG1KOxtEU4IHK39KBQaGjQQT6RzZ2tLyATvgSV2fYSEYLaHzrgnVbd1/MAiSASQJrDkT/6N1gVQiKTl+4mKBMDXQNru6UwOH/wiKdU+1BXhqxHKfl6x3A9RFAqdfCBvIah5tU+RrSIu76Lfw1VbKNtPmfxKPM1dzTmX8WNPq/y2nVJhlsNuhFRVjJCVKpySrQrfXRrp/XnxX0/+ag4tsIolvEgK30Tg5X4USE136bA6Do/WR4KwZHkM6Nbaa3sPDUCNBCzMPv2C86/Q35zhvV1UTWsVQ8MK7UGlvr5hlxcg82Xlp51o/Icl00Jri9Ml5o2FOlS/iXm80kMIYXCwfg/CeQZE+TBdaZxhV0GoxBDS3RPdUpxexazYcByYd4A4zGrHrHLjRzxsIvf6GTOdIBuB7KexKlaUPTT1vTcsO6G4CKpt89KkkNH00zQCFW9Fst0ICfEN+bVoSO0j4TALlkPkydwsad/vHTdGKyCExhX/HqKzHtmzcj2Vl4MtoGABD2axwZVjHgkQW+gRsS+VqkwPU+375sW2EXRT4caM/6BPdaESoGi/DIWfwLscA7gYEHqCcEFp6IwfyYl+XyB7LYGNd6t3UaxY074dP2UKaAahD4EXjghdd/b2wby6iWru55uaUOsE1uw0fimE/o0kQxMN2AFitA9KfS5qwck/C+nDnDbciCMpg3jaM8NyfP2wzJLEo0jud/nGEY4TURHU7xveKJLlbQ6cwncyyjBQ3qOtu7Hz3bzw43v+wwKnSrwKoB3o8tZIIk9lltl53JmpiwGgEpN5f+pCkHiCIwlJ9W0ILV7JIq+TauZH/ltSCFM8Q5nuDCfZADaMlhLqVFZrdCsD3RAljNKfVkHU223SxZ33qZSHHbJ2hGFCcnlepLwm5NNd5q+o4G/4y+CBRWh8jJZuNZ4CpWsToBbh+qQ0nPMhY3NEmGIVeWkXAe8O3qLlpwzhJ1QwTTX1uNZbQp0Oxlh5iAACJdZiXQPy7w7yYbDjIMUtR3H6Xz2oOFDBiNasfuQKpRRY2F8QOMcU7e2bZQAK/VsoSUKoMhLqqgXsWbQdQS0f4tw1KFwBQFJTitpBcwHp4TgJ9Eyp/fcEAIw612P0o1A+SRXlysd80Hg1FgJKKDtIogx2/d2J3dlu5Y2ucxsXVC3uX9pQOZipI1dIXE4OqrFBTuLSJEZKFiSzpbey6lq2kLbW+V/mDP33bz/+dYzsia1/NEbqoe66sn5aKtWZJ0MaLmmdpxfgQDNG/jyw9CLPpp7s8K9hrLHDO7vBrU4akcaqu5913Aq1/pgkeud6BhOvrGoZ/1nbfaThJcIaOWUrDXpeAIk6fhykQKdH3vUR7suutM2/JK04CdS5gd9SaJbjdWpDts0+Ts5P6HZ8bRb7gkVi5Xaoea3WNbSst0jG9Tokv2we8eiITh+7s5fIMQ3t6tlIQ0dcLhSUVixgmA9/4cdX5WFV68qyhlJP5b+6nYy+EAu+axP0sOdy23cP/jWV4/3bgIhLbQIkJiWyDS7M0r1x+jLnRUa/rRLnsvt7uR596WPvnjDCz1ckwj4HzV268sG1zvR98xRxIADIcNxygzcY7c9Y7dOMC132SHm9HSkbYt0l6EWpiBhwl9epby9f3DekrHy00jq8DbOarX2yItTb3ccEPmpfVtO28IbzOLC4S0N3hj++SfxeP7lnEiYDQPyM6Sh85jtQfqeKA99GKEYM6GV2fOWzwzQYLsJlTSbCeJ5gpeCFqC+b2C4b2x6w+YSsbCvMnFTUqViKU9VSY7EDmr9GxOxCo9OXyDFLJZCvVB0/S9YqV3EOnNkA5oloV69tlP1iE/obUwW+LymRgYrfvlrgr8WOZpko/mQnqrx4uCpsX0oCrecU5sixOsH58XZefFsJx8t1WqFuzno7k/9MuPFp1uNlcQfwSRXpJzlnIWkML/Ak91TGdfLX3mlli3eBIlf0YOri/eBksWtjEgyBktd6geEobQ0+3yVUFNHMNcuffij6DA/qlW8juwPtU1bsLZn5jf7tDoIUuwSICkppdikA0av9/qmkwZ7D85ru+2Okvk+BBwD7ddA0RmV5BeJ3O/eLZpqVvpS8aeuVm8LtvcS9vySkU01ZxkdKg+wYBnzWeZpGG6KVL21u9vTQ2Cyd8JWQGN4lA07hSC1G23/bCADlGP89/u3x3yvZO6D2ZqEwlecsncn6gfD7T8SBN4sRE6u+RHymyAa/KgyI7ZaHOGndUS/e/B1CU8ZZ2l1pbIQwSmx15dkgKVfXC6OMkeL539BTpypeZjG2mbBSOQBwcFf7oTxw2N13aiN1jCdMPfCHBfMTYeip+fC6Yd3eOM8w0jDUmyCHONFbDr3VIehj3CiNHVe1VhtiU/EyhHUifWVF4qHDzPqbNlWQKIB+5aSdd+GM5jfJ9Ai2pkZN8NNt2KNZB7Hld5SzPDLibX2hISsNpvd/tfrJXA7aF1IJ1Zh24GhqjH3AyYPom1uR5QUlAX79l0v7HZehO0B+zQKTtsX8Bk3pO3jb366OmGaJd7XCPSbGH4oUC+g3ajJCG0OggKRN+ShM7z49fQKvxfaRUrANE/mYsiLxMfP0nn10yPdFtU9BsYHJWJWgg5bO7JDRe/QcRfDypfO39K+6rr96Tv+2lkpU4vH1pEXnUDbOLI75n7pvI6DqCIKT5vc0xUQrzE/+4UJBK0UfpmL0LLms+709GtWfDNV/UOgWudtDa+omqVMI49VQ8ZO7XLsgXzNv/j3OJMJEreXJW6+EdRdmxcPfmqalL8My4mxz0q9iVKE5DzXBaIdhQmlpVH9ciqSyRaYyu1wTrf7ypReYU8aRILVMIY3LrqpuKoyKp5rp5iaWWaHhOM6zpsvPDpw2zyA2LJIbKdsynktPTuc0LQ4RoZ+/GLvneDeqVHPAXpK/wZjjdJ2PqWwyVOyrqdOhDUPjyUWQMy9kcbC8pHZZe5ORQr5M90FMFgQqQ0EpySlGBhp9P4bdXrErWmkc+piQL4iY21HZ66sdMCd4QKnyHctgGTZgVFkW+pHf9JwEuIsqVPc8lMCG+3AiMvJMyyX0d1zdPUTU5Cu5l6AYttl/QCcDJhHTbdETXE3ok7iXNMpu5lYQ+psq8wrjhUv/AKdrwxmkV0bIB3ENqTd5Mt5iz5Q+/2U1gWjat6uejWzoAAC425fkKkEGPWRfObGhDN1dKSThtNjBUYngrpvSECWeCoiEyZE1B3KAwWBUOsG+oyx74QSXjnR4X9BFrssOqGrU4q8ia+8Rs6nQUG8ch9P13O+3HYg/JB9Tinzbwn40Q3dTxalXmHuGQ14A6g6wqal8xEp1AhKtTXlRU6gYRQFoFRSj3HKuzzJ8iE+hgwCxWszv3FwndbCow1sZKs3CfCXe+6UqkaM15gq/D895wZe3bv/LaAoTbEinR9OYHenwq78/QlzlHq74YoBDsEid6Lat2y4eNn2T2se7PEBa8mJslT40vWI/DKyogDRKSxrLohks0FeXzSnQfe3OZFOZsBgaIGQs65+e5A/bLlnEXA5deXRwq2nq5jA6bCBbya5MZ8Zzv62MqLanHn3DrtDubQo9gzTA6QxvLKf50vSR4bj7TkWj470vRke2BxeGZJVCqKT5V0gNbZfwShniAoAmM+aSTuuezUzKeOplGrtK9NoQMKVbolIw2C92AcR8Z9Ogxpus7dE3Nqmj8PY+bTyzvfPypZqe93kuzo6tNdSDMpteOMFTcLvB6IeKAeqY5m+w2A0inuOAED4bn7amIcY0KyDdlsgX7HRgy55z6a9PKOTEAqwkiJg9o810LEeaZSdx9cITszvlkWy5f5hq6Q/7s6nhTsjoQBRL4PoodDK5Plep1DtQ6MD8rzVHVSXABQAsgwze8Pe9xq/9sL+LRoso4wnTkgOpR5+POLALwnGzd5gUR6kKOye2Cg4S5etw9wbl75FFFMKEzHW9JeiTSY/3m3d/IsZPEYcMwhrBhQhX2XoUkOJ56MOhhcdFdJ7gzwF6zDNeN4CTWftamIodZzGY8r/zG18qThLZ5bxtlmpeDmxFZOOGqwxJ6HMKr6zfyhN2NalVo1jsrY30YtUHnBUF32sjI+6QvfS+/S0wGNTbALkI0fTFh93rvatwu4sn7sulBkPjW0wF3Q2JOo33OGG9M7Rt2gpqwA0/GwM2W/Tzy3+39FtPlf5R8N+GZ7PRsk7HsHzH23ArVXM1Jz/ByXz3U6TuDhRR4Ehfw384+Q3TBOGC/Psp7Q/K+dLcVWfFagcH+YZES7wPEVuhYnQSfn8rNfOfQpyxlzbFgxoFIxqscS9r+ei+ZdY+ct1gqsd8IgGy3xIvnmqZ7HYxCwsdZzFfpm+XFdQPFfOOudynBXBrioI99rXPUtEVnMN3V1MpkoDZcoLaGr9B8mpPQb3xpiLBM3Ti9b1EM2yDtjzSeHiDDgOBLibA1UuhAz8U0B2kIdbnU8/3/dypDS/hr9/rSqHgZHNn++uZBI402KhsWPc3kYe/7VzB3TTB0TBfCgI/qHq64hN/ZXvPaO37jkUNsYzi0qJdtRr4nev9bw88iBiAIJ0tw/RBvghNIKSAdt17PSX0StMJai1qIt4Lsrbt2WoP8dxrbKa+Hi2FDlLOAmB4TJp8eXSqJkWng5/TgrKQ89CwX5WuzfbWsPxxBHnr/52bv/VGYTZmWRxkuDDkUhPRtdKb9ViXxANMr6mOkzA6b3AQ6uKFq3Upjo9ssj+fBgviJan/1uE1jTNXfZKQGkmjbqqjv9rAu1VevoaWkfKsPQ7LZ42R5aXgW0sadNeOKfOOkksHnSjfz1j9Y538ikZI/qKs4G6QP4xl/3dFKuhN36bFTa5j29BgztgAvgVhjwRpEgDClN3PlwajoSNo1LYEC8+5NPHm3L42MqNc55FaYvJt610kMbJEpMlO+yH+zoIb5zqQQweAfgmi4aDJsFGCifv8ChV45ywa4Kga97U5k6Uh6HYcTGhR22+Y+QN1PPOG5OZI9iueJeS4Bj5QOK4L//OftPBz7+GtXnaEBl+VdTjW6t5z229cjL/lZH1ZWCcA4I3Lt38c8PY5RekYRRMkftEqfjBZN/V511vx93fbgrfvSfiYpXOsdiT78BOrWRw2lQeecQWh74N+th0tMAvkbgGBmbqGft7jMdMIHHJ1t0Y6cAvwAhmSy4bL+9KS+khhMWZfjYMUhlu5W3mCo65shu1GqYAvUztWEmtVuJO/zYFVJI49/QzCYeRYO85/hxV6PPHu+/sKLLvyHhVSXP4ZJSuia250bmVRolBWDUqXypCyvpG8AliUISWwDCrRjbmsJ8PV2TyWzklW4Z0EznSiYVICM7awtKP3cnSxG9NxIKthCJtAokzEJEPUBQne4D0D2xuSyMn+t2IRgsBUS7CBETUoe0AQBgkj9shWwBOnhsQpP0S+F9aDnszo9lb1zVsbGc4cDIzEfG30Q8KjWIWu5/j7cZQscndLsxhqso4bEYqJ/RZrZuNWx4sYR2JqhD0Cy6WdQktxZvPvbHkna48BQBGEjrDfVQX9rPH5fd5h8UL07Z8ZrTafFx6w0y3G50HBYVDdVApTIOOCfT7AHa/TFovVZwMNEDiON6rMPhp7JD/TBoheYzLmS3XKCxtzFTAwDhMwtFXEVaqFHR42G/3b2xIFAeitP/jVsNSqGT+GNwlXjufTa68IC9NsCVCMA8RTpE8g/XL4Bx4UBJTl2rl/ewmTZGmmOH4M6oCRQLlS5YqH7vKTTyw3V58E8grYSrMko99zxC9QHfOdU4zsx1uPmO5+zPaZVwO/drO2yHbhmnmOiFiCUdvJczpKjZ8to0Jz6YDcrCmTWN8oPmEilV1gRRAJqb8ytFTFaa4DVY63rFsbfjTTkQBmZHfJEkuJO78iyW9uWqwvpmtQ7PW8j2rYwVQdSde4OK+frmGBVnhoYir4Vh9bP4bqvNE3MXwnnlIZXyr1TVWGax7frmqLLptWhuV2V9iB10mOinna4pmfga2bbvcBsotCSDd2/TzQOxvJ+VFf326APPV+sh196a2LLf2k4sodstjzuu3woWryVqqH5u4hu+jLduXmG3wXaV3mAvthiWsjt66YQVRviYRs0yNpMq1yHM+PvEJQH8OTky0BbgOYfayuZn3YY1hr58W5nVnW2oRmIyf82nzjNttbBJBjwxJd2AUQT8ms9JsHra48dcsKx/ZEk/t1FDbjLNo8NPCnk99fv2qWAbXNIiAXywJS1jC7Blu0ybY16T+GitbR9BUAv2dGzcCYLPC9Sozn8L4UYucy4pGVMa82PfykExNbJPu3WF1YhgP0Q1EkRYKI282p4YhAi9G7MSAENAR1tZYi/+6FIsptucPG4S1tISY57KcWy4KmvwrpKVbf0V89o1gZhOmIiIxRLDq3QbEEC1K+j49ALkcU14Uv3N862TRAEoO7aAkDrDr9MrZlvsIPHi8LFSH5wRL/wQWaY/zRwZyw7CIa1Sc7ichgteHyk00BfZ1RcKpYqBCoLxk4COKrceBAcA/TClIIAezLasapasZ/Lgt03m/DRl/Ra1x6p71W3XHcJu+8wo71KJ8joMwlpza9LswRxl4SLJTnQHelcooHKB35ofdnjl/PBrDDrDk2cPDpfjpqY/2SoEWA+u693JSfwkNa+5YkJnIu6AV/luPj+e3kvGTxHuKQynRIxe/D4nZ8VemChCSdCXFBX2yqxJ7cjcLGy/mPSrSfB9HhKCpAhl5g3NRuHV3512u0GyXjVK5DJkgeL/TTGhkh0SfMjwXcZwET/sR2WM0Ug1gOvFW+IB773qVqpQDVH4CoYna6tPzoYPU8ZqX8+DLjz15Va9BX2wvRf15KfhiriQ9V0Zs2HnbHaby5hpJmIi6vwiEsUFXgg67JN2LY5eiMmK5++ufDx4r4oP+RdBXLrStB9IO0ENNStpiZdmKLGb/+KfctUqlKJc54uueA1dO9U4+4o3yArAu8AFny0nThLtEjhA1fe8TzwQI0xQY82/5msqVezf/izf86En1uETqWmELZReMCs0t+cqFp5jD+Fl6XMrIZ5yxOazsQjcql2R+7rj8CU/8Ud/bhLFSuYCNGL0KdkKdgLSH5CBYMxFARkmrf31ewmqRXGpaDKH1VAQg8JgjcxV+tq0H/0Bmfn1/Faji2WlWd40sR6nU/RiKadjho4lHDiZmoP1/qBl7WKgft6Tu8CB/u4fSnDPkrCx/xwotXs9ZxG8TQBrX0rmOezuw0RSZwljYdqrYFKoYvkK5QCwBmCp4GvCQg+I3vOtkaG1ICS5KE/LvePSsw09hwbnUyS9OJ47e/q98o6AxjeX5MStR9lmFDe0JJDhW+rKbh5stDjZJbllIm+8WT/9XVQ06tjnuMePbMHJ+eb09NCOkWP6t5ZvPN6ROlAt8AK5q92pXkHHjQbUdplSZkRAmtfVKEILux6aIAs+SfxH66OGvIOYKC4Kvf0Un75Pi12urLBFCbuk5sxJi01ndtPn/Trm3UR7f25C87xly238ByjJDxVp8YkIEwD77Txib8wccsqKGvT+r9BBvIwrwWJNJT8IZuDJoxiaOzU9HE12IzpyTmKEbx5Aw+rR88FGi+NF2V4LGWoFqCzAERMbgtntjZpkuBH/TzRocnM0QXJM8yCwq29DzzXMCObnPAAxcGEr1O1SA9gYx64/t3v+/fi4J/c4kSlO3Q7F5J8PCLBY1Tk9QPsC+HByUvyUeflQj+7sIcHG4PQs+uzm6Op5Mu0c+QJ8MD+tI0ly5+6fpYlnOzOZuzXi9hvjoWIDGRol8PcgwgtYAACUWVpKUWCov5B93PD7gyTVRDX9fs0p15SfSr/ORL1YNfIUaoxv+Ytf/Kk/uyFtMLD+Iw+AHFTcn5BS8s4697aEd47TREAXPw+b6GD4/c1uWihoT13K65QLaurL7IT7JYp8BC61bWYzpKWkM8DzAoJFdjdx430fnB64NXH4fWGnSHlZe+n45hmpzRCkmUHjvaiie+Jf4kvq3EkRzTVO1Cf3UVF5mP9P0+ctb3K7/bxCAoltPbf4NEWWFYCzq4DBYP9ZaRTi+OA7DfQhR51Hz6MjfM9qj+wQfcWXxRe1CFpuFYRxadOgL0Iiq7oDwDJhLcyoHdXnqwtZByZ/RYQqDg+wt4hQLORfh2v+NzjYEPOXwBgH3AZ3j0NK6chzD06TXXeOREvcoFgdevC0SK9DcBzhU0qYxBgGBfveYUbyAPPgTPcCOLpRMsYkhGhfNUCdnHycz3H/hX3cJ8ZJvjvTo32+No6i+dt+yXRyT7ou6iePZED/5mVF6Jk15ffN/og88GHs5Q9NxbsnqCbCYFguW0MKqTG8Y1dN/g9QnuO0BB9FVzIAhkALksr+cd4lPMfJoENy+/Ae2hbnyhNzYyUkaUKuz6fRpA1kDANgy0LF6vi+rxbkJjbDvOOtCABvcajpoH+K7zzbllK1yZXRNQK7dLkMSGwxnbwF4ZNpjmcDi7R0ZmjT3r1zE7G9vID/laJeCmSY44NE6iNWJAxbJmtxa4GRY40Vj5mzee68E2rA8AXTXxTVnVu4Xq1V2LeJ5BNDDytj5IPDF2LTUGvm5tVmsTnR9yrIla+zDYyFs3lQwLdpJ/o4l73fEEqyLpmIn6MChqJQm8i0c3Lur4z1naYPbozyuJijMrem2wlidXiG/IC4ygPLKal4HC6oli2VHEC+Kde+V6nr7Z71Z9hRA+Gq1Rftq7Z/CChvnYploAxqnxqxIaNsPJuhI0VRat6wXkKKXeRi1HXyFZOJEYzTAtZ9VSC83u6LrZnAAdqYD9cmmnhq3IHr+a5zl1nw/6qg+uxuO1Dqd3T6EWPtjzpIutTfGsXzImzLmlMm8OTjME8A8rza6b3a02PoZKy0ql1HDXHQIbKONcs1jMjTTJFLvkbtH47taQT4HfwDQdlUmaes3hLh9WTJMf5SH2NlIFYvqOaKs0IJT563SRpv5QM+Tvcbi9OlowProV0q698MxLlVR8HiWNRRkrviDyNzo56nIh8biQaGyNyyDNlsEk+60i96MZ3T/Lj1vex4s1WbADf7dphxbpEPRlz9AvWb55ybIs3SB9ojp6hbkkvRB4oSAlguTJoiDuo2S30yA9EYfvdD7XdqYWAVfN6uaUf/Ov/+cRYghZhoesVBwDXFkO1jOEgAHKh4BEgnNXaxwA2QxsNnP3OLSsGn7wCj4ZbgAAJOml9mcwSQDblSr1nVWAnPs719ktkikEhhEQwlcZUnS/0v78AgX9Gs+XE3YwR1+VuaLly1licwEpEs70sIJDPMRPRuqZ2gFAabbYRy7gIrUjVwONo72//s1v/9dJpbbwyezYtqY4H5t4rpUzqsafuKHsQIyNGoSN9VrpMtmxT22cTEbCbp0+ccc2khBv9FrEv/D2aX0Mv6FjA2dk0tC4ZbVd7/gT81OCTyu/4pxO/JQeHjgPZtyiAg/SaYzv+EqH1U5jR6V9IkcH35Vtb5Cx2/toMbsResied9a4JtoltCMrDPEj5q7Us6R56SxszLhfrNyD5HzTrQd3jKfuAou4W6/Uig+UBXwx3JZE/hK+VPtMWprwHgRtMPgPckogaAlw1LkLBmFmDp01m+9o5DQjLMmuJDKsXZabjS466qv6oStHjKZJmiQ0RZSHR7tQTKMIscsVQ2lP5OIUtacIDmSdWYKLCW4t2ENnL7Vtm+twq3c6isdwHe5eYhHNpdMjgyQaUpTPyFnlLm9oY2OvByi1K7Z3u6WJdB+OZWQN8dhpfjPD4+UQGIwNCVnOsdmekNGBZwX8nqPQVxe8vI0UqmwLvGCUuSzZZ4YarteMpEFq7LRPeHwCukLoI1iWEVo5comDW0QirzREx1pRwx+CdeHYWAX3AjtjW+/5ebFwK4oPKgAN8VG8O+oL0jIdtqf7tpW26GddetJRCoSCLscznScd0oPsCBBJhyWcLMfJQ2xe2s3IkJ1pExhLsnU/+0CFrZltiUpwMznlKXdcZb4+EOFa0f54POpbsIiuxY9tXaGitMXeTTUNVb67DThIC3cHFQUdrG1tSacGvf0DZ18zhlz3ZNxQ4x+e8cP+8wuOzbBpvvEbrBSZa5PGYJLGWQ3ok1ntPkV6a3pmhTJbqHwlpGztSBY5rCzejcU/3xm9XmV4ncGjPkC7PvAPzosRCpgU5rDEP9yImCQM/ZFRUd2mic3VcYU79GmmEjeiqiw/6LR4s9wNUqPlG9Ym37RXL881ZJbrNVh39dVCMWeiSi7l5gIIb9JIiWsjgNd4/vkJ/bVswZcAQFNZkPASbEnEoUQXW2poU7FFwvt6047eU7iYlfrFEnu7ajQO7XUGtoRWdKALZjpU/57dHeJ9hV/yDyJ8OA/dGKKOhQCLlzL6oPNPMO+f6QHx23thQ+wpJHiWar/lTQV2AsH3dCpV25tvJLi+tXzo+PHCzqsYNgJ/AckPQyqNniB6uND37/GFvb/PSwFFVe/EJd//VAwbjIYogUvcAiKMSR9iXMsbMLPrr6KVHaEKIdJ/ynds7JrtEioGZytvbrVZkK9ykGLjmLUDEceOoFpkWQwOCBg0KXylZAxixHCh+fHCkCMCoUX5IVZspeCKouGlJBJd5WsfVBOXPWYIkqtIK9GzLm7ORJJNbMPeZljjlEO1OMXpjWMxEk4C1Bczubv8qp8RVUwNeXXv4X7U17eEA+KLZrhrw+NmDlNVXUJYohBNrgd/qsrjFV7Z7OqaDDfdwAUqcIGrJdK+fkMWgIOmFClOisSp3HFIonyEK6i+oHREUgPdpugedbgZWIoNhP4tSpTKCPHIVBYfqI3lNJDymVDbyDEa8qLy3T6H7fZhUhA8aKEahWHRI+3gR/quh6rehCRH2Fwlq8Q1U6faoIUToURqHPdw5fXYdCzJY6YpG10ficb5hLOYH6upisfxJNtanDPP+2wdSjc3Ag/2cS3pA1L6chbiUDrKkS+zPIKGMygqWCxu/Kv+sPjn75kDkAfpavpH+xWLluqvfmsFzFhmpwtimVgWMbyXTHhuLv7+JGUcXvnLRzs2cZaoxYv5Iuq+E+S81w8nxHuWp2me+hb0o0WkbEfL6qijK5YQoLXe1Y1Bs+eNtRWcX8UdtKflynubDC5MJzevWH7cmRA0umiv28bWDAiJymyL4iS3sAqDw7i2/KY5iuWKAvCL+g0cXIABiQFo0+AMXFxoml12Tmlzw9z5hR3Fmn1XOZFCMByC2ScWm4zJrvtqaBzhWSauJUlDABkP++zsR5OANl1z5OvhPtqM5mB8QyinWBWUap+BFl6q2Faa2DG2oqM4QPB1OST/NfZcWTt5buskEqnDJLezXdLPnQtC8OmYQfwe8w41SUWoLH7yAWZ057kiPbqotIKibe5N9JdlGCgCdZaHy5k9mSlxP/V3jajeAwlY2JxZu2pfDxmjYJXQlpBLI3C8EnWlsj7CMhBPgKafN5uF1mied6NdB3KNuI4tEyGUdWfvuV6SHcV6yBxrngk0akEtR3n0hrBQcs+YaGQs6dF8qdYDidNjDiEqJxn7r+1qvna/8ZbyOzdxwp4pzSG+P9250+73pOremJNX1czpQstrD08uYymgrYS5qxw68OYYPWWG9SyJSWLPE1DztT+Mq8QBHNYZ1+ozsReL99N7v/l5SK1yRhSvy2cFPfO8OuWqbYUAFH/E5akTN7Pcs4+hY2ZZ86am5iKrf917tJ9fVI506TbDCdQkGNmAid4BpiMCwJwITcsgzP4wUhjj+/Imsq0FybxXHA3lAle49ZNuJULrYQXqHLLqEz0gckGo04Tbu/uo1nu6J9P16fMHDTd/80YF7y4pvEnCTQIBlq2VeoG5oZqwUsbwA6BH96LfCq2c49DMt5s0t3ekZPy0ya+dXueHrh7PfGeJlw/fDxYwdSSubRcM/OmIJxiPjfDu3QrSq8d4SI1KkM/MARQRF714s4AjQGDJh85xiitIQzu3n2CwM4tJD1l7qimDAfAC3FcIf9JfqWPLq/Hr/2Yn2Sui+mlxpbJiccSWjygWv4g8ynJTpX/bjprhcVrUPC81VbRyUUUCnDEmAre7Wa8MUu1YUuS8kLYMC9E2PaaFEcXTxs00osfNMswl0/p+ek/QGr7/xGoEp5K+++bRIimu1+Emz0PfZmeZP+xv6Hnp8XzerRzzSBpmExp/Nn9fbMWVfN5tRbfYj8X1m4vPXjH4IdpeTywymsUzUSoWv5EMqIhXgO1uSHAfrSZowV0wNEHdW9XGwbZfpNE654muUBNJ48oKLv2xEFtbbdHqR/NAUAiKczli2a8PwICVt8ty00sakDtx8Ss1E32gsSTF5QKhNUPDc2JYvG6L+Rj8Zvi87zejL48lz5F4dfddp3C1YRSl4Q+A/puzwlhRQNkff2t+yDwN9MzSG7A1QNwkCydKtdCLUB2tOElGX17niG9w4nsmDbS8vFDo4k45kEWFlV06rLRskvRGim6GNmRFIvgQKXeJ/YQn2j57YZrCdzkOG/ko0iSK+KwIoia53G1H9LTP8+symNdruy3mlq0pfT4DmvXfy4l85os3GM1qTNavFnDN/rMykTDJfiIUzG2zv37y5bMABgZ9NSN0Yt96TvRYiiJjUjJR2+uUMx9bNfLX/jfZxiE3ti+KNOx7ltxNkxvYwBpHEsvOJI463nVT5D5M/QknSatqqAMe0aDGTUkG1a1w0ZeNO1q//AAPAJvT/hPdT4ZQ1p3v061nWOhWL85+zHZMYVkspdlx0HkLjd7Mzxd0lDhnFczuwXA0hwwsZ9zC1jBMEWSoX2JJOw9999hfSkOIMpJX2+By/uaabvSyoHg2m34jl/ut4I53BJgF5ESOIA++5hdSwKlglgED7QFiBKVj9R+4ycP5TzMhDzAmUj0MhX/5Lp4x9blePad7rVS3XRvbnO+5XlpkVdNK1posQa4UGIQf5Tc3cBJYQNMBAoIcEif7pabSv47kNoFLYzED4uvniaoHjfY3/mCshoZxtiLPjtGqtZ8WqaW25x6P8SKIkeAKou0NRNPvD3dfQVErrVCBi1PkuZ4sCIrcUMr9HD4gq8OPTwQsCb/fplZre8eWDTl+eJ5HJGn16DjDEYX6+s8zyLO5UJW27upeiVHKJjvn5UzzveLyQcgK8JNfv62OXf1+0Lu63qKdxbur9V7VQaDCDZxZJg+PRv+y7/YVrXej3gs8ZnP5bULPzbuRN5jvLWE7+AuQHq1sJt93IeXKVqDOTnY4gdpXqdWE6yyfW0smQASk+ZuMgukBsgMcG7auV1k3yXtek7Vcbt0DJ/+kxvLbkFQDFz9jTY8tdUSUPePqghE07qGhGUjkR93psH807DhuKAJ+zQsoaM2AcG5pPyrRRiAjgjEjtys3VNvPi7QeX//OWd9l7+u/BnDQOOXOsMk/Hd4POGrw0Ld9v8v9+fCJw898LQLuTOqBuMio3y6U2hzVPYD2K6FvZ9MyN6Oa8SO+uiWpEYWM4VTHYf4s97QzdaLKgXwri9npj3+fN5BdKU9fdmiuhx9ZvFS4eWl4sGyIYyt8Z6ib3eRUz/z5uJVkE2RanQ2slHes8bGBLxZTJakZyd8F6/LjDGZJ60BESf1R97+W2VdFbrqjzx2sHSp6e+0AFW1T5rntzKQfzXOquUowhd/b6GdOYcu7H6gFXmPGCB8LYK2f9euj+dBcJDUsLP1sfetE4319b14mUY3hPW89N7xvKWZc5nLZ1RUvvDSfkWQ/CtwAOXaHqB9FaXVvr9Vfl1iLEeXfXT+vlYyaK34Vsjw1AHS/aTfkXavf3+Kr3SM1W9z5ib8R7t7Y2XsX5/uSA5Fj/UAeKo9W1KslnR+5AYRWV7tFxcKqtCaoj+g20X64RUq63U/j/gj4RX55RQdbyTCuthN56Bf38vfM4j7pp0j/+j7KicGKahTUTv5nsyAcYrMHKGDv94u+3At/jrqRpEwBndKHmuOR1KRZaQ+LYzKYzc8YsyIfymgxbCxH2kUNCQytBDN+tS3+604xEHqgGrBQ2r21kkcCyKP1xr2ipOFTVWhBcd0L8JFPj7+nOWtMguPhz7TTL0d4NtBMuYUqiXrrVCA1JLkMgP0RL6KqQ1l9bEuHzRrJJJt2Np9O3Eesf1Q+x9sC49FeUj9TQJc0OrNGMatqKABpWZ5OpekkIZuDNVmDQjLdJ8l86FRTlBtdLEflanbW8X3OkFwr91vsMfN5Ddv0SyKgBJDYs4Qe8SZAaJQ6ep0z5PnNodLwjmUh/VcHo4mFQh1Yuq3mpdSHQTx7zJe6gCPgUFulhyH2flaIw02WREjR2GzDuE49UzjF9lE05rnljuHTr4MH59O2ufkdCMjDP/gkPD+D+fPBsSzNkNkYcZlMD3SkIqP6svShCXAZVk4OJjxvrbH81O3Yr+gxlfMblwBn7UKVP/b9mLjxPHryCVGE13+mop18/9VThSDLuDsXlDJjJJ0jG+aHO2JCVF7gOiEj3yFimh28zvfFC8tez2Gox9y7X9cYMAFNdKNqAQoCVl1+ZYc/dmnFsHU6liSmQnG7aPYeXjOtzee3oKS7hNvP9RiX2n2HA1a9XGIpIoIvtvH0PFvYeW5s8BCifTs1+tBEGag/ZKjgweQ2eckeC4O93h1RRWQuSST0i/KEe1PqwrgLihqGDIY+MoJurIJ5YJQXeg3dhU0VhxUUnLEtWMA7MTaazUxNMQNWoHlepWxgAbddrUjoZ32eZCn7CakYPMXiNi6qqc8Er7FGnvcJxk1HfsEhahKq6I31/DDcbW5G/xp9ciLcG4qZn3GNzwffqNnE6XHCKZXEDPI1OVN/kcs3P0yDA4+goACyAYsfDovF33M0CpuM3W9LvzIPGgePO1ChiilMjYcrVNBP7RlzYn4S2FAUVfILawlm7gwGP9JwDK802WhZzhV92p0fnMMSL4pd2Lfks6qVZrL0j+A1aq5YxjyzBibjc8jcfW4n6aZ9XrpUvNMBN+2e5DmKkChkj2I3SB6NK31O+lkaH7ERE86PILuov/iT4Y5vvTpMCuGs+vsgOiOi9vyxyF19pz6dnBoz7WOZU+tbtLxh5wtblDN9lTm6uvKnd5KAlqa20y1BeSW1/bNr/7VIHMMRDbN8X236io6/eZH6G3JUPkLz056a94bdmWKf21dNyMCw3dKPPQtPk5KAuiOklpEhlWpiOEbC1+Hpg+3LQgcaMP/RAWXSW7LtnUeK20J2/vAI+O7ri/GDkCLIT+ue20mZdYLKoO2LmaObrZbP4J++z+XYeLAyYxYAgafE2MTiW9ulhQw01GG4gtT9i4tMF6ThBqxYOVbjLWk0oueTmmWs15ve2q7XubsITaH5HKoX8qkVpneJtXcbcyS+Huc5MHFplePL3qa1K0I4azAI8QIFv59SR4Mq/VKUbZDHbsEOqhvJp+w5ej1I84pfBEHgE2gJiXEcp2jbHqrRYd5HuANQe/lUncwNCaF8dm0Wv3FgJcm+pdoSMrIP5uMFB/ijgXnylWBG8Y/czFpDoymj7ue4/7yygLmTE6WVOO3lBoZkrFp5nHeDI5yDKc60lC6+KBjqpotoDxuIHuiWULUnLd7KgbR8cqdXapk3RQw0dOtBTDpvD0zyJPtNFMVaEb+YQqGaDLgXTSK/0poiZdZDyvtjq8OXDh35BuSScRCG6kusmeGdtPDbdCoCDC/psIa+wk3jWV9ff/X8YSYhYCoLnKA0HP9oiqyfYnzdd8M0bQGjwJB1lw668jjHpykD5RUlNMMkiQegG5kNE1CiNLEPzQ0EChiudPs9xRkeBt/2uiWf9jDuw8YqdzZOlWSe6WCr5SluPpBt5AjVBKh/pPY578qXZom6FpoyRYpHeDceNzrImGAjR5cWCB8AW4PXtd7CWqramoQC3LpOtPDZAhcwUaTPHr2Yv5hb3uyxq477sxcqQm9+o10acI3YhO+vAyy7j6s3cWPCv1C+CxvvpfpdIpWbiocMEA2lRrXcBpPgHmjCjtzmd3aQpgGipXsgMtrgfn41ZpEqpI4c9N/UuXq5U6TnjD74E3fEQGMJ6W+nM6uk9StlzUDl69V6IOxoz7ZmUQ7SR0EvOQgkrBGmq28SvCBpUshIrm6TSos8vwZx6pTJtCEzqu8276hKVQ4LTPxtEQmRGtIi/2qM037fmBtmIdOS9N0aWGBXsIzfgOgV5dlZ47PICVv3Awl+OPyYyRCNxj1bhguzwvOPfeE2jwfGLX2i9AC6lWCUBpUOqmSVKthWRNPK+Hnj6h2K5+FaxCX6WiDy64eZcbU47VYTE7UsCQHgoAC5EaHgXgP2F6myaCf+OuIioaKiepk8UNFNH6BBkm7MfRTooGD2doC2zQnWfNINJj5DYdVEAPqsrI8SC7dnaY7jTZfwqiF9EHLGhDxW+Ot01nytZIzEL8k7uDjifnNClezET+oL1bbU+xHEPI2G+1atihdw8IvGK4WnDONydttbCw+OhBn3O2zmwRfXct8XnuMT5LVA7r+9RXnXz5bsziyMmWQjPQ8XguRlcuLhPbr7eRGECAPsm8pC/lI6CnUySqCPUb942e257c8BSyZGiUv0olGxNQa099kSpLI/tdvqXw+3blBzrNBzNAf4As22+DzVXO/+NfWHXi4SD3W+mXtPw0SWGFL+gWSAI61BukcAagrzXujwVmpwBH160OCeAL3kWkz8r+5t5oe2NUfg1/0svtN86UgjtSiVGBo7PGhCQTTG+TkgCuyoRUhcA2MGF8eL8O/phA8NTpAP+N3LDjuC5l/98zz4O9nj8R5ZhmRHQym5qUuUM7X8lT7pL9NK1Msv6i/P4Xc9zjygg3IHKzTTkDuBN+ijTgbTnydH0DfGdFgAANwpitcl6pQdaY9jQHHl3PkUM1Buf3dHSzcOMzMz0vijLBrTVlIklufHu0kjgNwYLSOljnWIQQD+ogw8Fq++JWkkdpkPTFON59nJZBEDMup58dA9oYRHBO31UT1y9mLUmqYZgy9GTFwj22vgIAE2luqLdKdl2eD2XizqvXjTQ1Y5KroL13KtwEi3+1KOOre9DYtTOJyOp3MCHzN2EFBig4ZcKJDN7e3NYbNfXuGcR4HBkGOWWvxZU1IIS6usRL//GJZCXIWSr9Ygmc1/13lEv8JiANxnFROv9AYVl4xBsBiGKY1lFDSnZGtGhemHI5eLeXA8u8/rOglbaIYgWvGjT7/214M1gm8M6/e5KDoCMfj5Vo/BXgCynt/5I5jRyDTMN5n3ZUC3BRJpuV7yjyzuWVsazpLxTY8nVTlbGvpLTOdLJJujz44XjVe/bd0qT4Zcz/U4K2nrLUQX3Ff2rvs3CkuoCfn5amzi5VvCTc1YZeyyB3wQkHKwMBfoTnSxOdVnXwSEnUz5klEMDsYce/gYqGI4uaZly+YdRGeaXKbf9yhvPNr+xtbSxeGOV7SHNRXcD2cWtBDMEB4iGWxXJPiFwTI/7O9O5FxRFkwegsfHfLK4AV6A5gscURg8Q6rSj3GoEEBtJ42GTqNMZwxfLyntXBTwg/70vzG39hjbJ+5AxfbTUiGsPEpx4JgxeGXYrBeMLqZalI1CRIq6lIS/HH4Iy+VHREbE3GpWHil2UqjQOEdYwqehOwah/EDYaoTL9tZJQYWQc/NlIgktUeNduYeVQcDPr87ZsOHkTretH9PItrAc97VhhSACNPAbDC2gj4VkcVfXUqBKF84eArd1zGtrfP1X2bb1SK2GhSKCYUtLttD4ta0BAHDuRXSORIPStT+feKoYLbi16BBXPJZCSPcYJZbb2laZn39awterBbuReqU5b0fPkV1wmftxP9vy4WcLCteQCuzts0ioa7m4FZpdUoCbECs952y/kEgdcXowMz+2YrthqVG68yMazmnQR918BDjcy3At7tOANHT0qwo5fGBj+GWVttIn9PjQAdwlYHUfpcZUDY2f4hTAdAKYyZojRx7H9QiR2BgDylxFiWKZldqXZ5cig5sI4z8Iu5GifGEJAJsrAqKzj5wc5ohj+7B1tnTRkifq5V8cDBxwNvRBu7rRlLtoWcwEBygd2Xeoyec0er/Jhu9/NZDLvv3djT3Xbt3LiSaRqa6bCQjgYXpQcujIlclJFUBzhZv9cCUZPN3MZ0NKE/reJoypHdxcKnbEhzTZ2668C6pzNAvnuHrhmR4OKRkBsBAb8oOcuitHA5I8rw0hST/V8UPjGb4Q0S+aeZVLt2c5O3wypdDUo3iRmHH9WWTalTsewfg0SYSEE6VrXaon7kGb8Vq4f49xKqd+268NZ5ls7LZiF/prr/x9Dtq7Ye/yfofRXnWPz3y5iPkZ889G549BAzHgeLyvq217+kr34duXCjH5zAo3UqYOE7JlVeV10NZs9vOzr66qjNIU1sCGi6hJT9Hc7PvYMR1mCFWSsfvlKdEeRbCW5zYpHFBEqzAAToPymtLk3RangNJEoelf66WyMu0G4diYnUp5leVqJ4Te/axy8PsARUSuf32dnV+KfFWGTJZGDCnS9NsPdZCDATKZf6NwejfyNxq5iMH68KO0X4jxU4Q+frEMv/kyg0GiiPb1HV9K6PL0V6mayGvHTYVxqcbjH4gcAfEEdvb1QWLMT9iY3fJx9Wq8zIVJhSQ9WiB98cZ9ZCIfaDALOWDw7uPuWB6Jp8kZYLXMY5123AB8wuIse3pPm1e0/mEipJzdTYcQ0oHlgBVMTyEC7OHmQ6cLXKq4J3MeLp+JIvRBqWVbQh1+sit92tXss8bD/qOKML7yN++yhYzSpTBQ0fpdnwr/VGNmjb/cvsWFuEyXERIo+tAdbVSG8UyP8YldK6F26nVFNCEsaUw/xiWP5jLraU4wBgJOMKkVVIugWI4OIkroocVokzKUhtkSHKdUaxUBQwu4+gDjUmKgwZdiRmnNPZltjjw1kC4+8VUdYwiQhebpO7/zX/czc1PNNmjE1VzTW/hKjInsR79DrqZgqNa/8cYzldTRNyn4QsE+8pdhvbzAZSx/6KiWZH1cREKdxngWkG/RI+GjxZVIPLwthPCG7/ph4ocKa5F5VvtBRreh/fhXSZIhKzqgE+oSr0N0jaPLHTdQpmH4FWy94xDHukl8EpBMGPQIpEfTOF7ktevfgBe+vpv7XrESd5CO32+7yqrFQ0e7+dwnUfql/rT4dqcyV+kwNd8KQs/DNr+sfvdH4nr93VIagknDSvm5JTd7lu2Lw49mQC+3S7PcKxRXX66zBkUI1mL6LeC4Wq4jTq/iMepyi/Z1cdg/gRQKgsTwnIpQSq/Ju4apryFXU4LPqblqRI4F0Rj01WlY0ED7oEBmEUBDFhDhvmxPbfnYJK3i0qXxKYiMYZiK4TrO8m0LM589piOSOTnqkYwb/liMwMA0w+5UYzz8Vk5wfj85jkJmimIDvBDDvpQ0Jt8nvE1Qjlp1SAznRLqyo35Iuzfq9x27Nd9UPAMY8ZyIs3aW2wdKzw6Qn2mKDxpJgjdljQm6fwCMJNCs4pFy2xLzzcwcXeme47iQy0jK8Zxgf5N3G5rp+X4FTKg1G06/LTAfLkrmqQ1IYZlSvpNm6AaaODZnIFg+8YoUczZ0OFC4MvRq3zWHd/XG9m3bN7TR9jztsunrqnih3v/u8v31HhJreF8Q4NhxNZgSwH04gfM9P6T4Ca/5bvtGSxZoMYD0TxB51mCfYJ/dxNIZcCfOTEjiGJT5WD6QxVU21GVt/l9degkOtV3cBIk+6IrnpZkC1CGe95Dj+/ZXBjQAsPsDHWlXWDP/ifE378ILk3kc9L60EA064wyLwaGvP2jE+XNXUth680WwV/rdmJiDha63rzR4fsauTmWIjpYgkPdWV3E8GRMFaHmztURKkheGrDRKC87+mXn/aZHGBo5oGWEu0Thn/Qiud/mt7+TfDl/YwC7YpLeF/tsaDuA5ozQuQjelPosL9T19fnxwcp/6TD6yngTrz9AKUOQTkIc/RBX4PrWzdMLVSJYlw2T0vyoYFphiKqLA2LxjtwxvWKtThOPBZbv6UaFQ42OGzGqvPQhHTrF2XqLCieqUBzPjY0p50cIjmtwHMQxEhMeEBeLJpK4oL1l9ibc7D0nTafTJaCAO51jOyuyHSNdxap1hWL8MpHVNKQ7HTWtDD5Tdao5bvsHzYb/GzYlVPpXS+v6ZdqkS0fPalFxMEFKdo3aw81QWUuGFlFdC/q6J4QOsnj9v1mSppGtgSedLSxXgg1G5MTzoFVB6Nww4Ug4Igh7O0RoCWPwwB0DJdEhm1KeCZrtvAIz29KFQvY/3lI8aIn0cbFdr7BWADwOUA/53r7UEFXcgFiUnyadQAwJ1aYzO4dzzeJhg4COdsTfvbdcPDwBUjjepN9M8hndBuigNE6IfO1+Csik2NJGLPmxnTwkW5+P5yOYv4ImEOcs/IE2qe1mW6V+7GDxmZRztgUOtqSso7vKvq0n9g/3SnM+veRwni92vaEv1a2lat2fnwvwat6cvvchf+oKF1ahKqrICfcEx3xfq895fqPEZ6gzWBeEwCshrgJEZVMtaYf0BEWBwpUP83MS1orZnPYgw8yLtgGOyZWCO9AUJtAmgCNTfs6Dbz2dJmbjTFiDV9RnYjePQ5JcDCQ3Y/72aBJHn/id7H2jQH6W9Zoy4lVBZf3IXQcxTJp06AbSLvhInnpG/bqQLL6MI2/is+VcGnzKALh4PljmqAyWoAZs0lfsul1SS/XyjrDOYDR53Ogo+S7MxDKURfb6DStMiaX+1h45tMpAez461wh4TZsL8iB0wJ03ibbQUhS8kvEerqRGgWFEE6bdu3sojeQYYAUtdGMD+wqNoLsOcxqpBMBd80eORVEAALcEdMcvDyV8gatpl3ufTSmk6b0h9wrD9kbhn1VzIDeGn9DsL+AAPRpfve/k9IDUmC0BwOUgFIEiWYG88OEmvPQjKJYgGM+wtwV/6wUWDlM+9J+UsvX97RTIPlyEO5EOOFujxsCb4NCWLl+rvfS07A6lK/vcdOARTps1J/4b4TYLUDGIWTbpIxUCNhpaXFsYgMOdg0idvPiLEnnY0eNzLTGxLPCw4tQfve7Oa+OX1F9Nj0kiRF5T+bvGDpNMK3+NuDpBIYTM7wgXHaKOx8cC+KzUkIgZEog8g7bYsuRvlrpWZc31GB7S0xBD+I3XWg7mq511Sr334AaLYkMhfKX6EpFKv0Ohdg0ohkroE5gli9+NUQ4u1y1fcVt95U6yaSVuP5rFLXsO7KAAxSVnUapGR1mOK17MbPZqpzV9ViGjHlje/jK3Jl2rxEOzBY3m39maN5LMU0vgwAPkKt2dK8WDWkZ1N8CnZgW7WOwgyBR7iyyjthnRyN0IItSV5inie1iI6l3qRoeUA+lKjfB7dZs7oCGBo3CjgYMCSZMNc/ew8NPKU8ykDeb6Umb5QQpvBDzBaevuDjxEx09CsdqsDPshuKoeWfkFvfFqGZFlTIUNjkuOPu2Z8j5kCVorIXIAsK82U98OHp9hOl8yJ8ycCRY0jO7rp5hjp5ShdWJQm1pF6KfOplS/TR4PEouCfU942r7w5Jmzzv25wnHX99B+80kN9gA8fgmQr4zQIlEbp3okrC8pcA+FNHfL9sq6aVPfHur91D2wLDXCPsoIr8tc0gkS01wvm6i8JO7z8axdAgSYPApoJAjIIQCA9xJs+0QQIwCWIzSRIzCepPUD24IiHZFMSuyp1GB33N+UF+Ls4Xg4kQL/J8DwgSBQg9ew0BR6dib8vXLKYKZXkGj8gueQgsdg1KWgmTGdwC73iGNmg1Ke609ZuKKigrwGRlZaaU24uN1BqQ4PTqz4dSw+sw/OQNJqDdOiks/wzpLSJUs5qf7YgdYviizreHmID46Dhqo89uZosGDYovPnZZGK8XdhHTbTesHCUxaGLBl9xhPyAvIlRmwwwdbPvAyZ2A7TWIq8EoKBQJGx8EsHHhHZWQai+15Gfs2ENBQodYkKW17u5QTGBLjtFCQk4r/tQK128LhnAgyW6Wbi6V6q37qWEEc13CoA+7wlw3fbrSF9F/gkSWkcloP38yDLIFgo+kErw3F+VYw1+q1SXRNyGQJXHDsOZcp+XlWOk1bhkb5gJJyLNZ7bntn3xG4njGAMaQCX7/Lz8haD5Ykahl7RA1YMnJl2b6dDQsl9bY10WQWep8gvm99wh32OvBhyCXzBEWKRuscIMuUaakrTeT17U5W/A2B6T9UxreUSQ+PkRpdg6d3rDMO0+f/NZlXm/SaUemb67jw4jx0inwxrzGv8CPv4oSv16BTn0bZv8CS4OG76Ss8iM+2Mw1eon0uV+mmcACrxN5ZiBI9wkjs3kBUk0nJnAtK48t3uBEqDSwH2uFX2MY7xGewS7OV3H2pVsohdl9iD3gjuSU3SD5uejjWN/UrXG674vynGUK83swzX5NBVxImxRuP5Utox8L3mPbJA3nviebVI579e9c+UcJyhGbyKJdCk4N0X5iQ/Rb9byyCnSUpWliUhYQeT8ngYkgj5pNo1CKaarxKOxeHO/0Mf25ddMAUFsdwXdctgfoD5oJGpvDatwGOkkYM/HaD6K2lYgEKlfJu+tZ53p0kUHYqIp8CuBiAbZ9hb/11PDFGOIKK8WyQzjZ/LEOpI6bWp//RkY/irCIbrArSwBmvTpNFD+LuH+PvVLmXDldxTMzsKs+fIPET/2yDoPq1VPDqPhlTZxKqhhn3eU2YEajoLI+wXYKAj9/vpVqTd9pD22s98H/qvgn18xPsB3ge7h0py2ftoota+E+QDmWhwkuIIgyL38lrWgOQw3LecAEZcAMIMgUL0/l4Q49+EXJ55Xx/EgtbtTB9OvCQJNtrErwtqSJLxRJLgLb5DDctmSHSFppGzji+r6VyihAcx3J6Lgni6+Gm5/rlK1W6r8Al8apADj5dbDJMk6+HdnFN3SrTFiUXHdnszxY/o9QrRQHhzqrmKFepjRCM4Gb5qv1m0ZDMF3hpIYWraFxJwe+Zfy9Zx+Nhrot2RMLrL5xl+ztz6wK8wk9ZVlqibTcl5NRF5pGTMa9vHwjwag/KU1Ehj+1F9HbDwcCJ7PjnLbHghwIvD1sRuI1BL//sgmA9oeyn/nQShKIxjLqX/JD6UGWl7Pir7/ntHATPzK9Elc6YLdJtqMk6TW3cOLTKUjjxw7LMFvQTbc3J0gzOi32Y0qi9R+xAiF56AYxGJH2Eo2sut10dSntKDceNhPYU6OuVNFlJ31jlVMp+dlYLPL55SlIfaqbFFamcg+IN+s06slHiJ/UPCsLpDyQRDiibum1uhH3FBU6R1FTiNTeuP8F1fvpG85UT2ahlupVh8gPWvyFwgPJQpnMjwXZ/3smmZsrmu1qW+PnXb3pnq94NPeNkid7xcOgpQMHLAxuhhoduHQNEGK5HyAL3vCFI5IIwAQXkgZwvRr6p4vCZ6oV5hiiwwQQNMkeoBAB4IuMfbtTBwpjgGlq6RPSALU62pbCmcjM0snKOxyKk04RZby/c0wRFaUv65LGRK+a8AakMbKMPRdJzbFBwH2BXegsqvFuudOtXRAGgRfGiTfPRFBvD/wSKcrl5IMbDpL0XGBV7R+qNgsXWNZpTDGWAeWIFT9gq8YejMbls6JQXnDYCw7QFo6L3wMDbiE50qQMH5rPJ0d46WphOX3oQjC9NwTmaPtayQEDHE2cZvtEx2ObhBdvPpxvz7meSOcRSONRQJ99nxa3R6cHHfDBoUH4yn/pfjHSLixlr6eE/BqLAyzH06SzcvXa1LL5grltjpREJWAYZ7zHUmCh/t7BHqY8o+BUqKyHk7sR4XoL+HTaX4ay7LDyUxf5k6iZE6MSIDPrLSJdRt9Rxj84Exw77zYlkJyfKeVYxm9rpSMf3Y74bsYwWqM75yua2rmdzbxEq6VZgs/4LsFc6GIJEW42MJZoK1dIM/J7pWXpUVqHxMu8Gsv/EvgWbyaf7MCiT2IIw4OXmk0zw6w2MXyhi2lLq+Lq++pEhAPMZXryGVpcnzFUSAYWtcAgvn7jnOMKkwZN+S5mfhsCfN+nsUdnH702SIMd8PAMT9v3v21rPm7T/8Uz14+MACUbB+7PAGUegdrWWrR8MpsZIa6OEbJiZLDPI8GYjimCB3WlHfLebdv1Ilr4a69lEf7WzC4OJ2F/guKhR82FwX+zXCWSvbjAXdFNVv3Xfl+7fqNwcroCsE34d8E3ReiQ0G8wym6QFP6r00Y0MyCoizmAV4z12tHdogTBHRQ3z6+h87oswb/+laiWb5SqmYE1FEswSgn8lAzDDu1uP8xGsvZYHRUmn58iefld1OOlML+tVhMJIOkyviup+4ufB4mpboUU0x7CUA3nLYhDaL5tVlR8vv4jNP+/saR2Ipyw45VScD8OxIHcGEm54RHhGEoCuuTpRCp7wZjmhcueuTnM/YTUxXW0t0GDlGnFdk9hKtlqua3+fuPo/PYdhMGAugHsaC3JWB6rwZ2dNN7/frwsnBOjvOSYImZuRdLI4pyBQdnQtXILzj5KPZHHvaGtJJTxISlAbrdxI4gm/jBl+QbHZgiCieJIG8T8p8Bikvsa1jHlZuFK7AmLluzabZwPh1rBFiisWXA1sMAhhTSXwdr6O/bazw64Y2pQG+9bVDia3whEJuK5d36aPmA0VldEWP5OMC30bbv0hODw1s4oTT7onYgTSk90mF3NZoeTNCfej3gau2QmNjhUWgawYywZtX+BJWv/PJoPtYfsF7764zr9RNzayD/EpgGxgBoFD0ct4d5are6JBVMDqRl5Sa4Ha3+1k/kcgIVSfnRdvS91RTzTHVGBEWW0UgNVvjPKT1C9WWx6mSor8G8sOfvt6esNuu/0/mtvqk/t6owffzbTa38wT3rWI0gFn8sVev3tnzKY9XRbwmR0Actij1Mtm8QxN/gm7YCTFOyq3r31wYGFLyJJBuUu3RqKIIbBwwf9TPr3aoUTMNySTKVMy/zAbQKh4Wj+v2SRnBvnvwEaF8+33R4ldqAbiKsASsxnCDBJDiwHf6XyQ9N5q9YbRuwB5cxkSaZA0A24BRYHO6YOlvw1ytAXrQ4FZKl8yuqYCMLk+exVurpug5qJslymMhC16wgab7l4w1nsgzELwWRFylwus1BrAWpOnwlRw7gSFC8GuM/eQH3W4ELwBH0r5/xolk8SAiB4H4gSkfjXbA3OQFYjdMUF22LxMpeT5JTs5fXzefK0S47prs4+N3B4QxM1ofUHVSnmrHyQp345Xcy4vDJRbrRt9gPj8VaRZbp53dfuX61Hz+OLidGxROSCGU8dzeQFoO4lGdSs/5S2fz132zEebH5Ib1yuHEzmZo7m6mvjQhxGDlYe+GWMJiKt0nDUE4E3vyiDg8N53bvaRO+eZ+2H/fXp/L9Q4fmUsR+jHRm7mZNxk0d6MXrLcmKM47mkoYKSoZVF2AlNR2Kzf6G62nih7ofN1NG7aVtRwouEzYlHhDqmnG5mHcEzj053qlxl/my6WysI+wE75si//zmg50ztswMKGZg+Q0kXvCrA5gmRhn5OVoxqXCXh/9i5CkiIoFmZqeM3V9zkB+CNf2ZJLymYwxA9yc+pt2XSZayvkUD/nqUgn8amHomGxV1aJYFTY9t8bP0m1Z1k8J9xDXGZRJRpeHsfCL9ZZ/yibeEGvyEDNEvM2tDaOLPBAbIiwOmMvRzyYAPVgxUCpKR8mbs/q45xfb+Ttx74JDZzo/mbPiFjkkbFZCXRRHuluXAYegPApMC/NR053jHGchbkKhNkTYjLrA8wxiLJwIvrchEAMJ44vmvSzgQimiTJSXY50aKHShGTfLh4/XqzjNLnjQqjya4mqOt5hpxC+7Hvofo7s7j2npa+2WYZ40gkJd0TRrQ686HtCcmw4Dwuxia6Dcr3evPD7eKzJk9N1BYhgwuQqGxyRvHWXYOKj7wZ0/UUc2P3bgDyN8BOggLT2W53yiZN3ZmHciQvXWVfA4Bt5TJ3In/m4m5m1yGAwTL7AW1BoP8rDyOsijOz46i1NmHnl5qXKKxogTJNtO6tYvsv3L7ImjIkQYs+Wmo7j8SXR0/8PthBXsEDERFHdUMqImmdYllPxKhYiS0LrfQ2OEwP4Inmhb9h0mlPjn6k0DDSuzfahSLYPDcUMw/RX4FRSPwMCWqDCujuPEb3pxBbrbRiQp6XDdWZAn6DbScR5aEXoZBRmcE0/wMI/1y9pM+Nutk21+CCbUJIyfTwwvM/KYWTR+14zGSTqHxLXG6NY0qwlT0/Ckn2561mNHS/kjqsrhRPR47y4+e39c5Qxupm9FN+6rTL+EG3pTF344t6o8UvB4+72yYRa4o82MVLEwEI2WqNGf2d5RkdW26COLFt4CZZBty6hnxSY04JosIyeL9ijA079j553s/MMntbJPPFg4sD9kDCzS1XQoo+MtG6GIDXrEPhY+awbxyjWpqxa84Cp7+ju4JZTkQlD9uALGefj3ooP2Rws2hAjbuiERVOiIc3BCGtrz2fUEgYU1/W7C9NCD+MvYPQb8zPujo4A2UVeTMELfQtMkFVcT8CFVcn9RktPRTXzpgum3warSO30Xh3OftSjIX+BZUUUJBCgqvN/HLd35XdEwf9x/wZYUhNhY8bwVBfCr2GT/QNUgK5Y1jmURwwZrxJ1LessxbnqEcRtwkJRPX+cODVnpELkkDYIlOxN1CXoQ5avSJ4BQr5nmuZ2fYeiEdNDIM0rcuF0yUL8BDPLKb+37p4O6nuF37jS7VM/nq4QV1QUcCB5AqVgWJrfkLgQTpRqS+g3S+TnVDk28bPY9YWR6/L8fvuLZEy3Ldnz3ZaR1VHwUKNCPTflVR4TuRiUebbGh+eIln84wqmtskub1Mqz93pTjeNvcXB6YiVRvY/QwDjXieKJUa03o6+d51+E2B8hXPkRoAgMkyFq8pk/AVvPdOcGuEbtAyTz6Zp+rtzwePlnxY200c6dA/yvQRuhcRJ4gecJZmzrvleObslWktsI5WDzypWrVJGXuWylB1ANAF4faxGhgLCuUmvU9A27OKV6fz1xdUBrSGN8U0jQyuRlTqU8v6wY43vv8tGUN7CJ2SxhCrRiiJ+efQBWkaXGEliO5V8+fbKRYaUsyjtQtEu6Sjcv54KrO/Oscr0Yj2eGoUCF+MGLxRA62/NiVO7LWDHFfVaYXPeRoZ+Lkw6pBexGKOv/Oqx1cBumwY0GdChWzoiGKZEq0LeR/+28uOQbAdgYQOv4nN6qKV/w2vJ1/sOQrB1yFUbW2qV4lgMrAbbk4WpUiX/EDhdhegN51qL6kD8b0XN/EsEl5jm9BY740WQRHw8shxhN8jD2YlVLBXyAIFPLEziXoseUICUs8+vzEoK4F4sLyHTTX8L4Z4YjiyiThi3Jwg1OuZ34OJTGb3DKLDUiCRDE8gO7l1ebPZbsvDunfkPz+e9DgmgceZ5PAtVm4z8ikF60O4JQ+DdwZCpbGRVH6q/+yJasK7m9YKpjUM6MGUH/TvkaVKlPSRb3nbID5aYEaNZxgDMsG1AEAJbxcZm4nMG7+op2T2gaA5jFZ2IUkGXRA/rKwJ30qb4xMW2jWhGEBdhr2+WS/t7I5t9Ecvv9HHhJnSC/fXLxYLUabNKJOLRAxfKrZ0FgMZ/Qmo/phIKAI3KOqTRMc4DsxuyxHmq89YHioUozJfA96DWq0mPk+OQr/hm9YgdONfY9H9dsmb5BHtwCs6oTt8bPrWq/ymoL3cDH/OVUAdpNE7PMPXudrkt8HfZ91CtP6hq/FbH3X+zQBVesjvPcG7nthAa1UgH4sVpGHifDPRme0/Oo3btoFaugF/xgc2Mdx7Qsg11L81PzHoYKe/79ibZ+5fWCR9YgSulQtfuBTA7l4s4Q5LtgEuAE6qANSEI2xGlOxighHIBD40UumCn6Lofwu1VqLNqozhw/K8fryX64yv6XyO1/gHXE7I1ZnHPMtXEqns5Lw7c/J8nnj08qs2+L336KQeEOMn6W7WcbLAX/tO8gUBrYt6mTfbB59kRTLFj4cCTacl90/y9F84TY1k+ZLFoXXZMo19LkDh+NTL0UMpI8HW3/poOH4qdImMDPs55IaQAYHW3y6E5y7wLymzvvmONBut4fV5jwhCitL6cDe/wsT+IGTx7fFveNmTwUPBjpIYDUli9Ld+Id0AYgvm7VlBK/BCBAxPhMY+zAqhaQHRR9N4x/pTX1/Hv7HZkXEZGJaRXP7A1w754MkENKb3sa6oJ0K2WMjDGJbMIqbBhJY1URZ0PogJEytflytfq3BB9t6agTTJT23EKMHo6HNUmt+FQt9CHay3CFAUi05KAYvYZ6XDYfxpZVV3laffdoQNtOLz2/grzT0qWfXQy16uyZ7mb1U8Tp8YnXO/pYmbOX5p7HVE40EQYNbQAFdL8U1w0gbaaz8m8cSQphXUcrn3b42HJEmNk2LlfiGB8ZtiXYecm9oNq0HHJbyiHe7KqHGu3vLl1MDkl9G6bg4zbNmaUhTzB26DcTa0fX5c+Xnay6ijPgi/nW1Wpt5MtVv7MtwLvI8Iw35LXa2mHQI4NSs6r0/ddk/yY6C6Iw/bTICnRQkcZQsikznf5MVMrkMruZ+czMOa8kf3RMOvky9YHxhRFFNyN6JgNke+PLNjHie4vbpUxqG7YLvp/oYZ4RvCmjlmZP3u+RhZaUPTMebc8rce850Y7p0ht/rxsyOe2w5/EQxy+q1r46/M6HEgNWldrV7X6yOGfLV2T+HQnPP6Ag4INKrvYEogLbNgdwllAz4SDWg3JeZJb0sBxUbcmyjrc/LwlnUGbmYX3zdX1ATd9WdwrbvAamTsG3JsN+lPBMXRdRE0l8c2pnlMq323wraKgQcDnRJT5hbHDleA6UrBF8X7JI99uqJ/PcNLCt01epiQwDLQg1cLGdZImJ7dudlpcUuVJLSxmbWgH3YFZHYyMYNnPc9m+3gTB9FVa+D7fC+gUZKRKi1U/YlWUajBRp9WQEh/x58KD6+qf11xikWIuD9M2/JhA8oKr6yGUqovmO3WgeM4WO6SQJSvjZfDm/3984Ujz8vqX3ibD2m1EeR5zKsXRmjc4+fZ+WoqielqvQf53vi37Svke4ohLdtskTSLGi87GS8IaRDmr3zm2N0KqwqoHXrD/Z3bywvR3TQ/Z18FXh8ErDa07XufC70eVK99xSQW5K+itNmAxog2VH2gnXJyO5uPUfd3ziiYlOj2DICRqXWCsdHNsmpvsMFCGiFuPdn6M33JjnbZttYxpCGp/PsoCGbbTPaxDZMUncAyn3liGlm+9NSc9W2Bky1YBE0ZEeUnEkbMB0Yvr43atPjig2Gj4EFm6Cw04pUqnz03858gUGeO2unLXFuAdnY8vdMkJL0Eb8TAEZuaxxsupqjR/IYzohIVHUa/AMiWAMbtoz3v9aqSm2Y5UoIp2RgHJPVbdYh+XwSC0MH9/fa8i+DrN/Riej4YmYhAXDZZlbC9gwdHbqi3V/jl+0kRvsN1UoEaB3DfcDmkaBYous5jnPFl7wYMkS3tsSVxMRMQu9r5hWgN44Anj4jxkialgQTW4GgXpMWuE9NHBKO61G7akbDSYeE/pgo3umOgl2CP+xgtu7BS1PJykCFK7DGMNddHX8Yzz59cFV94fr0sXtGIBi38LgHrNbV0KYqRuhokBpVYem1zW1CE7lbyd0YsqKXbMCxLmjGaUmgORr2/pNqOloenFs/nIbHoM+feXHp/v8c+RwlEeNDRN5LmICqP+fNW/Q2zii5hvWc1JLK3FVL0TlhXRDnqbGmhGy3APnGJiMB2jw/w/rD47ObrkEs0k2vaxzTKjYLjsmeW7vQb7rorBeQmyquignELtwv7uP5eJJX7BP7Ibxh9MP5KZVRtnyJ1aBFZLT4LsxjiaMF5Wyy5dwXNwYqqJuikKypZKryzzqr1CswMeKEN5F2vjtj1jMacGUqIMS81jqLNuVHdv6Xm+X5Wl5tHLmNZG2plLkznI6nQ/lrWoFzkRK35Fv7cHzugbie+vyyVFd78UERgUB9f8Jv8vI9iB6KhsR9d13TA2XfUtF2IoHJSOQkGIPyklvqt3TYXTKZ1365Ule2d3WpoF7U3189F/9RnokdlI1MTHF5gs791C85uXj41ewRnMqW4fbjssgiMtbpN3wyl6fXHl/5Rr7k314uOCzyqVyVoPB0dXLjwUF+q/atMS/PayExQOAzupMj1vu2lWjA0Yw/NLyPNWdWzY9g8g2zOdQEUR9kR/tJjO9cEUb7v1POEf4eJE8cBgNZDnZFF/n3FU/hYIjvDQocjMv4tKwOHlz+N6MgeL1sGDLQskjFmpM/gPj7S3+8CYiQsAAqRvJ+cWdLzioPG7rpk/B3rPbgXrJULUsPuyt/lcDimq7DUX2eEZPuS0i+II8XdPU3CPgOZzzuZBNGTBS0DuYH8HX3TLjAh7O/VXVbgsUlMVBNiFdCVcN+blZRaC3//fAXqWP3r13oXFhPkBV1u/UZ8N5thOIZxfYcNWOFCETANmflsQGk6yJ7TPfOduea3JivBvLEXtILjRGft5D3RNZdwrTE0o3wDd5vfMn3lqHMrs8B++befteI4fRKuHn+dK8sI+4sengBRljEXs31DN/CMAJd7nxGRL9YwrWwnny97a/uXJahFY2f/MhQ6T8sY8d0IB5Q8vPENslg8Np1Xf0jCPph9xy9ANWjaVIBjc0YBMbYe4OIup9Nl7ANSBAvTb6opqA92V9YhSlaHZlEYzIKGKBC/O4lS8QC9uIFmBrZviGSMg350xBG+QWBcH9fpk3XstEFvFH8JngMEADxGlu7bdJQDNrNDd7hM3cBPLxMkh7Po9AbAY+g3FcpoGFKL32aiVz1cfv0w150e+8CmsUuSiZvUec5SkdKZ2pmjTr0Srw39QHgronEXKlzgcEgDMc0YsJQrr7eVL1bp98tz8LyXSxeC5PsC3x+iV+PPQOPH8rBq3Cus1y9ROJm3hseTMaHljn6+f+cig+XL2IzEVK9bEt4mxAtc6ljhtEdXrX+LYpZ9qyVLiG9OeKIPUS5BvOCz7ZTa58mfI2vUai8ZPHhLdKj4wFsqHx48w5FMy/JvPRz1d4gV+Sr7CwYS1q9wvxc5RNGoJ5CCe+Mx/NVKGrb7dKR3IgjWDrqYw3BT/aJRAE2l2BuaVA/ZB9thPBwGZ7BHNsJ11kTTXEcUQqUdeaCNkcEzVscMGVH7l9ucb6CmRQdhrWCMLfJ33pyShH2oSJRqtVcPKNEYiL/sycepDcM3m2xMUvG+qTn5rY8Ty06/GRwGBsoIZ+ycpMXBt5AgUs3NeB1ZA4X1R9ux1wdnAh+P+KtiIIp7P/KE+VlWDE5XFrilXYm27HsHIcM3f2WjjICH3PwmNHTwaszHyqJdi/MWGLIrF55GTGR7JNciFZnu02hRn9CNuAnvsDvflmvkXnCiRt7LYFdkO+CQufYmabDvvp29DI2DUMa+U5vUSmsm8wC8//Xt0ZRmU65sZx86K3LJmp/6vfgffz6rE0xWzZgOHb2TO1o3MKj03xarvx1sdvuCeKQyOK3tdKJTYqZxb11a0NcpjuliahcNp6rDN2FLErt41EAiNavzX7y7+NWkko+EvARr8ppFEzP5DT8Ze5I0Gw/FKwSnUgUsp39qPKquufa/NMKLA2ph4NWJ2RWucQa9ZjnaFVXS1oe7aPVFDjC6xsr4cEqbrwjWrcEjmqHs/2YkkavPxEJqOx8906vAEfPt5/PIlbt0pKkvwxsb8pEdw7ZQqQnFDh37eM7lGe++F344QefT7ht/a6h13/gb59dF6Kih3L2IkjriqVPzFn8kfP/loJ6qQ6tx04PwHU0X+HaLcvhQ+HszkODae9wtE5aHxulf9+hX76Yl/et1rlhgHyBkeRT8uFRsQz7f9KHMv++xrSn/qDGqTTBAiR/gfOO00k7kW5Rg8Vjg+sRI3A6ELVdyF17xkdPSKZcQKeLJQpnz5xqch1Ymjg9/Vma1VN+S4N8S592jaQxfTAdM8/xlmEFFeDXWWca/dLznIv5Xt4xvfly2zzvHYwhSk7W6MUE9prdNIibCCpLJO/HtVWdTe2XAuk0AUm46RjFC2afn81MZSr9+J2VNS0JznAqc5wdNBR8vU3by0ZdZn19HH4tGZes83ihOBWwl6a/iiPY2fbCx/5I+jK1Ja7xFQL+UF3p8t7d9mP9+w7GRApWNmjnovwsm8Uz8Q5uw/dTJwk/y1VRqPZ1moGpCXuqjXxF5YJ/rvSOy0BYwvn/C67tMEflmxATb5NTtZ4D+/ZQx35hcSLhYLHNOPvQGpg8DUsbp0rvLhESyELgmsZDjJ7T8srs1fGLoqbclGX5IcnvSG2ubN9Udq92ZIq0wiT9/Lff+SbNcS0pyNh+A/8tI3BBZlo8jVKESNXK8mZZOp9liPae3CrJxE7uPlTuQK9H/AC32WYpl727iA/hwKoD6yyG/jz57zedAKVz3ggIhyLYA6CUgUxqe+iWezgUm6RvbhQ4niNKDcs2KBcEDrhFKJRSFqPhvjSbYAAAAglQJAiyNpmkVOa5bDDHEFtaDZXkO/+0HTeONpAESLkP6Wt8qCVNHN7efqax585mCNqjKvnW2mLJeRcJieLhLsbP62xLtX2YOlr7vR1dvNTO48Hfof6gJIyI+7q6NlwgZ5F/EB9A5TVq0a24ukO3WWAlesVtZreWI5RJlYh6e/7H1GKs//zJLMPw9ePAMfZRkL7gy7NRh8XxTSfZtx8rnyIgoZJXOcKRU6m15chpiHIhLLgQFC230agWEOIGqb+NADTHq5XTP8NAPz+Q6odfSzD78DT5+jqV9WTx1qnL4hYTja3yo3TAev8rNKtO+BOj3oDOLGJSubzLTBOGi6Yl3M/6sNT6ek/ZDBnz6S2pH0Uue2yxxkGwN3q9oRgUOL40nmrtWZJ80sHVZdlkJt2JyMc4NQaXyetjLXMje9axfV/XWcc5sLJd1aFoXuPQ7GuiaF85AvEsqAw2O4iBIuRGFH0qLuyRoWMOzJZdo4Sy4AgbF7XUYMkwYjCCbwxWlEXlEmbDsi5Md6YiQr/JR3UkccR5Jm/D9DsocBC4CYBLJ4aRsLocL+pM1G6vQuZpN5YczEZ3vPvBFGM9VBSHW7/3RqYP7+AQ5M2AJ3HYSF4nismla9NnfaWJhSd8iD9GWV7z6j2rdgxBhR243TqCzXzpgXrtZjVM3lKZ5siR/O+GP40DpW6+K88vdA0S0KGFvJWAqrX68Cg+BRQGAufeANG28TIy893REzKWVxjFpxYfmSI6xf5nSodHH+Slk+8XQvz1eCIxmd+8/aZFa4zADKIRvqP106fKJ52G80DDvIfD+RLr23n/WYty+5v74aHcgzzHEzufMS7B4X6iSfmr3EcvM4/BGMvS4gYeMV5CZRwqZElbdHMrnICPaXwm66mZH9k968CGhTgWf4iwDkk/gfhhHxw1CwAZIbiG58tqzpiI1+OzcvWfnEShx/DsB9ep1TOfAmfnJe6DX1dmuc392aeujEAdBfSvz406YDMIxxcTMIdMVozqvST8bdipjjTlUpNIaB+2vpFxngL2suF9TjMmf/tcfpfi+8RfKpLhFzzGq44UGeX31f1kEqcJisBdNRuDW25891xS40qlXf/m/Z70SSSXzj6b556/lcrRspLUj1ckSb+G6IYvZxWf8aUvEZB/Lpl9wZU5ov9Tfh++dBBxu1yB2Aux4YZigiOXj4quznF2wd3d32FMotP4ZzNOcRcOe0uu4bY7CHVGCpJ2lnO4A3xu/n7FJQBDErSI3PEiSpYY3HkVmfIIPwVYckjyEt5ag8WlC8HhnLBRI53h63FLwtSX+9naWS+nd4ZJvCFytOzenuOd+GZ6Pf7CR2296BeNBCB1r//58KA4GRp13FXgSil7QsOGC2sX2bj2EuR9SpbLNKIXNdZ13zK3qaVli2srAEv0spE4OwwNGqbVEFsg3Lnx/l+6Xacphl4fnTEiMZKl0Aw+RDraCJ2KENDluTzszAVPaU466rtoDjPtk8ZKog4mzDDlYXgAaIy7kkOW2oQiQGIuzfVUgbKFuiDdrCgTHSmmqmvyiRB8a3I0KMYAStZbfpGDba0PMC9Jw4ycfWnmsQM9/Ze41UC+TyMdolPWGS+33isvw2Ps5hgeKLQT6Sdb49iJwuegcOzrGsFVn11NsDz+H1HzesRZibuvwr5epl9VsHRC3K43/LiqrqAK/RwL0Wj/ewoF9i3z5d4RUwL3x/kmWLXbir0EHCqpPDcsOFN75/reuc3LcR34ZCEDhZJRPjimMhQDmki746/clfmHDKzWEZZkPrgb2TGzjDsd1IPjwjH9CO/boOUQ5Rxy/tzyFBg5bgRDwMXemoypnvdwk02QANtTULW6q3xtMP0EgsYdKemV4T0fM7f4T0WFTCyGz1STl8P6j9byG33LfwlrcypxqrFG8JrGztUosou8oyDUXZmxnDt4gtYv6mmjjF+NfH8pYVbgpra5JOLu4S2glvQfL8CetTz4mK38j10jG4+rcwJF/GZNv0YdnmI3D6DVvGTe4C+4rT2T+PRxVHd1WFQ4HoEq2MpJdAXz/3KOmtRNH86ysFJ/YuyFEe9GpwVNxbu/VaSFpZvujueqishh89aVtbD/dmSyjxyQo6CuF9jrDPCfsytCcJrIcFY7yOMPa82kucE9Kn2qsuyx+wHxR6RX14bk4phm35mvwH5tPMKr7+lYTDinsEgod233GCPY6nfgOfj3eqJgf93FrJkX7+4fTf23osSRTn2OK21kxnj32uDlINiJuw49MTFj2eEcQUpSaXmBzySD1Q6wxluKT29VCblqgd/3vPnUfknDprg83lyUZ02r4U3Y+2IYzw3EgSQELH8XTyw+HF5bKpwneeck3yaZadpcwVLv9yszvshZkh+z1VVahVJ64VzUiX0g4AhBqagAIZZdl1YIHmk43rIAWXKzwJpLlQn9jPBtkdKmigGn0xZa2i6PtlW5QAu18TeKkZ/nrSRB8v4nlx50LsJg4uzOXRo/hXysVCk5uIuHLZK84hnkiTFJzUYDsH+UiFRcVE4/oc9YWKY9y1h/9hEciLXC80ox4Mw18N/6eN60Ukfytmfnrl0/hVlc0SOwpJ5iRIpbxAuDbr9c4+hFMOwhCOxjVBWrBB7p/EI3alsBAq+ABATjMd000M8pzE3PuH/6bt43ns6RGi7IIc6aP2Ays1iYHF+SeboojRfye3J1I1q4n/eLQ6nPsAQN9vW23P9DSnVg6uS7mwQFzj/MJeAtA/kgPEU/5mNbzffENhvBTl1owZbfI/RPP2q3QhQ2E1JCVhmG53OleA1LcpCPrnR03dprmReDnfd5XvETvHRcaX1J3LuxW8s1nV/Ettq4xhdAaGrrqxANiJdNIv78ev1yo6FlYvX7qr4ucN+s1jOrth2uotTWITU9IU/iT4cx75cufGhHOqu1q2JPPuR+JL9dVbGpdXx3rseLMjSQR8D873fbDiD8juxr9KpjnglNwfyKwMue55rAVfoMJmHcJEY0P/zuNxC0mbGVwG/syB0HN8szHDLf2OLbOaRXThWNlTPCQeP/W2qNtEPIoVevTFzXzUM+ylUVT4WAWH6V15CiIkHtPvgPYzmlG74OHZqHKGNOc9rpg3PUdiLUjMJJk1TX0Epjcn0RwzzbGwN7ZZZ/S4RUxkfkIDTno1Gdj7vLJ0+p5SBDl82GGr9c0wxVgxfjOe5GUxRW6d/j3TDQe4itzXkh4E+n+6gr6xcIbCO41qFbhLRfUnhr9TdaJq/0NHUqSJGyAIGKRVQUeYgnsQ1kcWguaSY4Ex2F17brQ6JCQOyIlR4yu2bfnz4Y+asY282gPujsZCpGpCFaIkwdty4EuJ/UH4XLhEb95DIzebTOhzOCKmwWMQ17BPN9sWlhfIAIznPNmkLe3cZ10zfKhnscxt7Tc8eQwIC4Fm5yYLKaELEvlNUKyjZXO4nXo2maAxcObNXHZ2RrvQTdyRnnoNPA5xrf7DzPxwjdUfutFJdUafkCDSwS+7jzM9dnigloD28z4JpFRAKHTcCzwbKmJuePC+Zax7TOCmGgN5ZNVEuYLWzIPMTK5YRXFESnRGV6qEhTzvuh21o6A3MCbFNSat42/7U01uneoBZZ973J25TFrHKuNLBL/zkM7f8iEEg983vEXhrJSMXOFi/0QaofHNe7Ka+rROo6LxHiJSGf4U3NDiY5vECP4T35iNwFH1riDPaXJD22e6Ivt6fG3/H2rKcJNjckEyQfAwemnE5Y3eMD3psN5GxtNuuQfVJOrozVWCK3CuVqWCdsmeI7i8sZPpJ3ZJcMOTD/ezusbg36i3s8CWlBMsPnbAYoAMLLSw1hqZJy+pn5Yw3naFkrKYgaV1H1t3IKI9v1NwDBu/vYezntWgjQu2sBdpFzfEMtq1PmbrtOTfmsICUKTghbgxJd7/LfTaxs8cAFwG0pgNN5QDPgqjLkouvophwjGA7Y2drB2g8Lhr46HFDLXSGGAaWxnrA/bEoOn1k/zKvNXC10739IkKpk362HSO7w/jd/Ei6JXkttESoBDmRW4Q+FsaUbM84x3Z92DmFSIrY3MMdjVQdM5ppNNbt+EbXQ7WjjgPfuOkdsz74BMMjfXdqyqHO34cKnwEaHOds/Av8wIjn18KmjplM8vdCBe7rs7++k5OQW/bI6m+qjTRyhibARnN925rBD1eWzhH6YyFRXPFWzJp86yPuOhYgoReWlw1oF5jp/CT55ICkx/ROx9p32MWRBes6OBCVNNVXZ+qBwwTP/Kh5vI9N85QgR0z1XJzyWAB0SFU3Uw7gHpaQFCCJXkKRtI6oZoHMMiWnelHya6HI7VU98qFB3hY8FcVtuGXbumSFCjIScHHmOtnScBXYt4kW6WAT+pT0+TkMH0moKxbaI73YxZT9EzingafALaA8PbCS0LXuFlnNI3AIAiSKEVHYAUDwJTCBJqDmYv6ForkCChB8Sa77dpZPytOwlEufzb21H3BEoQkeIYnuQliqO/6O/N2e+Fo+/82p7PspB/+NCWfVZWmiTE/8KRFwdGacBn/14GAIHWA4BZYYnZwmOmh+Tv3w+Fq7jI9+0j3aK/J8cEuAHWtOGOz6A5iObAjiCEDh3BvbUEV8HG3BofrqmipV3TPFoX6X1dOQNhHg7+navnwXjWiG/dV+8t7/qdnK5iNCNjPmBc8gADJHsUJA0FKCm0y8o8N60N3silZVMwuvIrFLBgQjHyzknQ4ZwwQnEDRsvIotiyS37nNcEufL1Bmd+cEfG/OYqBHnlCW8qyfW++xipmrxht+27EmYhNO1Qh/cSR48PcTheYMrGzW27hupeerhSu+Jj7yIVy1i+RBhc+N1v5+/7MLYQyxR4SojtX7ARxdrqXorFTIIWE4dHwComxMoWdJr2tZnUwCFzCmKrJ+7wIAq3pbzOnN+lzX4r2zMo9ckr7sjcq2kXb2h4XFCsFCEGBrKk3qEsbh3kxJTVw+Z+3Vj+7xUZMVD397DR+04xpAczhiPROh019tXaiIs5m/C24F4fqxHH9K/4IGE+bGfwdZ22NdEZdlAROBO6r9v5p2FUkGx+7Egko8Hnb518BrhTcbsICrN7AnY4QmWPcjUgoIMrqxIQKVx93qw4mz3Luk7eY6MbLw53KlBXOg+L9CobV2D7I4JAm3N9tGzi6kynw7/X/vy6Rjfp91VY4P7BqiZyl2b8OsORPl3TKCBTEr2Lzvc7hpG1c19Uee4hWgZQjC8smbUXq7mR5hUcMmdGAeANfIk0Qd26KTlDQqx3uhIAkbVJDPFg2BblyLBsGZbvIl3RmYorMprnYK5mCkjlCYHj+Tq1NlAWBsn7u+pdBn50sNl/oMmUK0EEMDzzBpY34KXicbnfrNHi+GDQAUGR4gKKxoGh3+IV2QbN4mn+9FNT4xzJIT+JTD3YrujgGZz4E2dr+zrVA+jO4jEUUcQqGdNrfSvDGJWohQ7WmF7xxDyfyWw/RhxMwkUgm25w2r4p7SPgUWwG3+jCgaFjQ5b7kJlr0END1K9bWFN3qXb7l9gKj6QYiYycMLwN193bG4br7U5/+rX0qw7L++T00yw0gI+CAF64UXVyDkhtMUrujoGDx/D27xU2nzlKhWAowe1k609ZrNSeaBszPc4BPCNJjTS/gEKNkb+dHURbAJ8Uh8AwTFsmgcB/D/8+xCjNllLahczv/WRMkSjlZX9M8+uUQF2Yerl9rltA6sdHn9EW/p3Y5As5ivZz7cBTogOG9Mx0MS0H8NOOJkdYfdvnS2hnF0g+Mh89L/8G50+hSQRnHhPYdJ/0eUd/f1fdR7dUZjUQRY7US29eMe96etC5Ws7EfgFG0aUDxYq6z9+zQGiEdeH7ngsmwTc7FSyg7zR+3up5nP6dXN1TwlrqRQ7/OCSLPwXN8T/c/hzgLXbMPgCPXd/Tj74ABdJ76Zcnbhs5jh0jeyfTiFPVNicY6huwBr+WWdbA39meFzM0UBgqQYL/sfo30ADn0/U00cVpBNPa4t90POy66RnjS3DE0MbDdFM8aVRTk07wD651Z6iUzWICv1eakwRWALcV3MUwHiHsWCFsgFR2Emfa0+M4WCJGvwtEJF28HPUNpvkIf7+87zEMCN8OycCRHxR+XfVxt1iUGvq6ImjqPqxgTTl8GHq6QauEPt0F3dhkZeCPfamxgWk8zU9kEJ54RME/Qo/nG3ocEcMUsQbB/qUcND+Csynw1usBYDL4xUGYvvTn/5CnKrTpVlCaaAeQrHL/RC2N82pwpA7KuhY48DeLjr0M7gunCJ0h7rGBl5A1tAQPLoiDApf815IVRJUp2z/b6Oli2II0U4Pr8QJAG8T4PVnoXaj0uI4M1li8JQ/72A8sOAyerI5NypylvQR9kxe4G8F7BRdRLyEsb6ybym4o5Jyy9hIFhMTO/dplCvqq4HUM27ex42ocMcxhGMqrbgxXcqRxh2L+ceBz0zGosB29lpedmZq/nqb9Ee2dMiYiIHldyD29bYwPoEpCsV4cw8liB0YHGl7cdtenL3n4whnCjt2zY0Dou8BhwP/9kX21qo8y+WEdk17glfPZ8WVJ/AjsftudFbTcOJRVMfpyerEDM5pLjP35SquPPFy3aIDQaYZ1uPtNv+in0bXQ6DdrnSKw6WG/uVvQZLrJbbn72308spzi3rEVd/iKR7Hdq+8bkcBZug3cPHsjil2ueN6XOgKuFKPItUlQCpTM3Pk/700VLwd7LGGhCUS6IMBRknWvpc1tsMHEGaqHaNzj47vOtf82d4XuzpxhBXypH+UKFUhRI1BcN0JiFCzRJw6NxHKEBfF8NyGkC2N7c0SsDefT5O7qodI/gboE4DGDo37MQg2K6/vAntY3CJqytOtOq7q2fmpPKfQkzjo4aITqAi4rZ0ZQ2t5EtwU9KHiS+8yFBQ4KIt4A6uvRDggIIUgMKQliUO38c39xaSiYVbQPXO5VzKsdFoL24BdnmQF9eAn7ZSfrBUE6N6OueszUB03ejj5g0YohMtPp8q9uG0DRa48C2KI9NgaCSMeVeLeHT0jvYleDyhlAAkjsIWqQAvqV4e9EV+ut0jaYoeGFYZtlo/on5cGP5HJ/oHEk9oOp6G+V4bpuqzNXlly4LTlnyrRA8cstFZOn4zyR3KkscurkOuL+/kwDcAQbKBElRp1wGX84BJ6zITBNJzbtHY9MPQOZ+KXWPT5REa2pFDrllT9GpF8OR6/lLMJLcufLvC2sIOxEB4SnpWCgzw9TK6v6yHMyH2zDgIGdHhQtrWKssxmDc9RR/gdepJ39o37Oyee/nOErAz0Pfe/NvNvOAsNZRK2u5iZz4Mcf3yjsGqX+ZheMGh/Ftbu8DAX129vxwvCyfjSjGkWpKLcwB3RNnhTotPvDlG94e5jczuU8NjnBiYue5PEu/2Y4BKwaadfLlSDAVJ9/YNDDMU20s0FxPmeConbyFZqRtf8ytitcxU80NLNIC0lu7nZkXnCRwKbS21qJ8Dh/vikq1hCPlAaQUozDm9PpJN78gfST1XNUHl5nGjmRSJ8PvuDNCkKIkYTbrxBXPZvCvvmAHfl4iwyf01Tx5uaFwOb5zgpwEhCYPSwvxqryY/rdBugT3oQS/b9p/X8R2gMoB4QW5Ptsc9QSmRCmcefQWi+TsqTEMZZduhLZe0YdUDM7Ww4tnxB9VKf2TEtQUTjpol0P27NpRJmzd+TkMY0kPRlkSfj773/wrwVr2CBnDtHhkLz+AG4XyIXZGGGojaZY2RASlBjEVWR1ZMmr8ynKjrAE83zz+RzLIazuv62QAYCgWqDuWJQ333x479EPPf89eg/bgI1Hp39ELcAE3nnjse1bzo/050JQkMV1sDrAGwYSyDGRPPJYuNZMs9m0z9zlJwe6vcQ9ITgkIOschLCDalqAmlYP+cr23ZQvSIs5de7nOTaYxUaA2kKWfCAHRkR6Ip7XV4zlxhFXug4PcKpvPFjLq9BsvBxslMGrd9FVRPIhhuimSr5j8pbpmkPGfFqFBDmFJhVCV6N3VWspxJTOjwYwFc/LoR9i+7QbjfeoXPh7RZJx8OqG6N4PlbhsC5WWe0TmhMaJDQzkVkFfiqH4w5+HkGWRJDD2e4kZ7i8/2epwriGLNKJOXwLMEZSW92bLEyM3n40IN9tZkV1kRwZrdOA+ejdc+vtkf86cbsV+giCzS+QRdR0WBecuGauV75WHppRP3reYJNiqf5d3KDz1pcbpwbLc43YOd1abxq/RxjSR9rAw3GNGqOgk/t4KXvz4j/FWNI3PXxgfiWoQSO/nZ4kdM5lMdVd6Oo4O6Nf/r8d+ml38Ty3PsG/aQ5o86Cg778asfrFRqUt0XiUc9cnXSso6DyYq/lzuqTTC46N3n3o/YGXkVbJjRfl3i/nrmXJlbC/xwC0m5ofxZZrJXCu7+nLVNDC6Td2PS1W/t2gKahPXcgNVk2Smm0RyzZIbzd9HD89ZXBmE+PCNV7C6yRei0zKHXsc10I1UpDOd+EOe8GAxC37n+Xai1ZRIUKWlunqL96+NfuJDwQOJEEAd+yQHvOP1aIYcpx7jfWcSJTJcJi2DA4AfVPOVmtgISAnRF2ALCdqq256uRBSB95AdrWX4GwpkdyvJDNJT7OE2/2INHYahkRkNOk3iFgq0F0mQJtgdoziCgx8ReDskf3b8fBwH8ory4mk5bzYezcM7BK7VQ6YErSLXtfj5/Z99CRD28Eo6SMPoQ+2U2Yt+aDK6zvBSvBPw90GOjcYIAcoAcaJC2PgAJzpcEUvQBlijz4bxTfzLeEgsVA+Ocx3nP0y+NHNvszTo/4+O/11Pfh1XdxzEW4UT4RxxrSlwC9PzmgAEEWhCgGpC4yD90QwALnCQQqAYJpdy+5gocsoG2In5p5KMI/s5HXTtREyz2vnkcuyfbcfRvXXxKcNLAczuCJj+G50osi/xpr68ZJIg/3l8nVXJFQWQAwV+dHX/8i4KA9bRgBsKrfx0uZ0cV3QMkdEhhvsNWujtjzrNb3R2FwEEcf62P7rEH0vpTVRWZ7dq1zTAywyrO3z7vBLL8A0DsPUQzN7VC/yj2U2AwU3qqIoREmfjJXZd26Mc9sUPli/N+M1FLfclJEi3QQkDIxzgP4tzZCQSDTqRfgOMD4X8rUTYjTOcGBbtUU0b2DZ7FMBODhSxDJpeXfUB2jVD5l/OZwFyVL6FFtnwKtn8j428iRb6G679N3P7G1nIYfyyYwGD/M0apDrvO583MMn/LH8gXPNON0W/uV3pp9ZFte4YjpS7V0cG6qj0/KOWPW8yv9mGQM8CnNhAiizvLV+RjRcr4Cp5uaGbYTeXFcW8LD1vDT2EPvXCaXx/DY/A5BfLvbEy7kK1SivDvr8hR5pCmEle4Jk5KBjWG4sa53lUq1QNKE1Jc5npr0KBieUQmdIz0b+4xYKuDrEp1yOTSQ3WCoNQzt882ZxJzKGcWfF3uNf21fFM4sZy+MPbx5CvO72XX93KMQWvuz0etFS5TGd0N8ZgHhwf9XMXZCMtmPzspgh51mKVqsm/83GVvQPBKewP5UCUsJBJ5W+B6gFtSgg5IoCCOLd5ynCP4j6PzWG4VBsPoA7GgtyW9mWI67Ogd09vTX3Jnkkk8E5sIpP87xxYSRYllimQ9svtNaYFLRYa5OZhEgZbPin1NhqQJXIAUzHqA8FhoMu9WNLjtmQ+Lx5PUlOcMh20lnZMeiVciuij53zV+ETzAErPvN0yt0Iw2uZxSBndt6/FXG1EQW/2w24gAjIrrPIht498eFblbMXcHz7Gyo0KNmCtQeJEW+724ZCA3GLYPTma8Fv/NB7jQwLcFT8u0PfaZuvkQqgj32VYLeBVvMxzaJoEHEWnh3Q7c2eih5HE4IAi/1AqC2McC87AETRe48/eHVAIVCEBUjh5HbAzw/cv5BV04Uo06LdTt+cgkA+xM9EUGCi3zEbm3zQJ6l51slos+6Vf5sAlq7UDRqD9OBvQ920kS3n5Lcw6OvC5sUyuhDWxulX4Qz2YCW8GuAZA7xHiDd4nOgEZkE1k6eb4a0Jj63VcaLG9ll9AqGK0/Oj1KiYwic6tyvtFQyWRVOock/f58ssBH5CVNkZdC8S6pmab79ZvtNfrQgmcSaMwgOLPyTFHNkV2U1LbrwF/Dx1GUn4RX+hM5JBTlUoA2YUiUfuR+r4urZQHLG1kXIZ+md95BUlOlayAWDWEbSEua6VqK66cElRB1f5OhF3aL4GzcFXul9TVIrk2OHh4auZagzNRsFM+zS3QfHJCHzPuglX2HCAreDirwM1ZB5kksbTcxh5Cea2nGSMA0Y5XrmPbm0RU0JeoNmTl/qZawD7rEO+sYKao4UC7m70HqsXWNKYpT2I2PPBad3DQIzbfUQMj3DoIrODsYxQD0sCx8PdwFvF3wvl4xX/4m/b2PAAAsj0YuASM9AEML7VI2Cxh80zpd6LQAwRjFH99kDhDdyIu3Y16dECSh/6bHDECmo8GJMBjnSW4InMnB6os55z0URuSNBYr7Zab+eBlDkivEZCUORlk2TsUVTvB1T64gogBDxsLNxCYNWFc2GqwPlBskilDU3xIVn5XCBwh7f+9q356Wb9/ZnJ9BAtPonOCGLxzO8tAOuHzHgwEQ1Jbj6yaNwBGCIA+/L1LeJRjSJUiOIAWAVB2DIJs9B2gxJWj0aQiS8wUgWxyWyxupDdqlNdy7usDaFcH7L0RPbysR21jm+wNA2lYn0XfjMJL6gQM4etRH+RHBHNCKspDgiPeybu4mEJLmZT+yJOx4KldfvU8qxiN0tVY2/tlCXk6akXHIk56hKiEiVmCsrGE0lR00deaxXXMsG9v9B87SME8+7tdYMI3xmNNzBFjv1d6zRcvtfRE2HS6B0hoNBvjXxdOXHiqq7U5eqjhGjH8HJpRu4c37e0WoKOvavzcm+QbAFD8IrYDAVqQaCiNdzDgWnS9AITOEWRKjV5EqRGWRYH9rL6nRk6zPWummwcQWCWvPGdHHhxVX7tDTp/m4imtGXbt/tPMHw0nzrLiv9XQcdAdKfYBHREVCDMsI6Pdkyn1kOaImoTN1OyEDb4bipPXUo7rCD9Hl+03RN5p27CBaYtTYpp9pYybMzgclPCw7/iCmL5/SOO1Byzsy5BZPEPg0drNJN3LSERL9XGT+aVsqqPn9ausB/tZM+rPl/qZXslVBN41KS7RAR6YKAS13KARpPNyvHQSWEnh+IAipOUhzJXhqKM5qmjVOl5vw49mmZuoFHzt5CvV8XRL3rPBv2SXlPUD3iNtGH2psaEhHpouqT83mz2u/3VK8KXQxVsBAQVwNQf0sX0TR/4gqqt5iDydRtejJFkEfV4ydbuqV4yPBjJNeho2mFWVXek/ZnV0WVpnf4Y0EHHgchx/4nx4EKZnpgiA8vrUwaXMq6agHnz48b6+GRejT3Lkdh+SCz1afdCZEOvFRAt3Cv2AJfkDcQ+nddMEX1a42BJHJwhzUApvNjW+KLrGxuVGO1YTL8CNEEs5ckYchBgU5cHIAhTF0Ga8cN1VjUzPyzLPHZgic6Lg0KwGJd0id/7hZxX4H3ZtT+4ke5bynCDcmjfgsZb2jzMzWL/HvA8kuQ5zFEA0HHmT6+Zj8DAWI25iIJyUuskLhPWe+dp+GuJljGEHbP/SK8BEHkJchL8AsVzDvUXJPRSyGGp7nJwcGeR+FGdJ2tS52TQxOoMd6LPwdGw5gP1e0b0WdY5Akpi6NUvzIjD0+3DStibeXUJmnm8opoRowf+XMJp0gEabGu5WmSV7QkY5idp8kVUFYOhMp3xj4MKZDIslvosWSI9Wsn5sjKjGz0k2N+k1+QrJCKIBrH7IxK0TC6RxyxO7ebtH+AtUqLZry1zZWODTFTTwZ0+PvT3dbNaYLNbNLdbOT2xoXxxt1Vqwsj5uBobF/XusHppZ0bNx8BaXVuIFZeI0+U+EzMA9UrB9BUxr27/MqvjEn4zzkXYTMskQ67Pez58GmwPQX2D+NPnKlTAwtlqtbApc+NPvmdbQSF97c1udX01vprvutIse/ZdjcKX02d2A21hmmblrjRKwx3y3mJNaiEEiUvX0QocrXTfNldOySkD8H0Z54Ix2bJxGS3ERQ3w0l4gdpKk0sszHstA9C1FCUjrJi3TbYq6Qgop/oGG3flOXh1ti+dcQtx9ywXHuttMFO6+Z6OSYbG6Im375N6/mBgod5gL9wIM13nA+pDJLShVO7PJL3Dwbxuy7LN/fRgeq7bIwRdWZkEcheeTdUE0cwbLAruP+Q93vKheQtgqzLTQpkCPgQpaY6zCFMYpgzjJFTfYI1bbkq6d3W/NE+06qjYbbqfHNXAqNB+iSRGn0ZMFTzlwXweKZxWVmJsnPK6eXXdhrQ4/M6JKS3WEyCF52/3tXmO/qpbb7xTuix8QYfFMC4R1YZEiKcqWJRTkr3kS16aAscQhC4qBXEyQNsPr9g28ecqHMSJKLX33iAextCH0dp4oaJbPvLg8hE6r+5j1NE4djKiyrwi8tHvuzkWzim9hexS5pI88g8uEQ6q7ArmjK3498mHRGQ81a4yHagtk2QddIlnFKBL3uBoqdZeRsNjUr4ID0DJUXO+tYEZ+3ySGupRNuJlIYvB+WkHeUaVrbvq6M8UIZEh77Z4KQXKHW8m6sxv7DGRD4dz5iJ17P+p3yfNKCJbF52O8Fuw5PrYLpSlUz6Yrt7uNS+oCyBQ/Wlql6jm+4ryLMemUPXgX93ByYJKLcB1UNAKix/yMjoeJSUv1KQR8bDyoGUXTNBaGD6FiUgzmKH5hDWGmOTPAiG65xXIXPWRK2c2u9ojgvg4uV2kdjvWVVebapVUinfDwzNdPhy1psaTqCpP/HUMR1Lnhm0z+ehuWQ4uROkWMJzT4Zl1fZ2qo7ungDjWGt5luTtXkcObqoFFu9xkzJ9HpJYfJDEy3R9ZhqgDukoC6NEXSLWc/HeYiVKaYJyvNuSH8h0bfOuKlSD2sTPJW88kkbDQ5EqR8WJ0Lv5W4v+jTr07Rrz8lwEIL2Qdg4s8B7nXA8vNKHciX6/YQ0G3ibQP9a7wG9zb1f5AmaQ0kgZiFc2GhABPAZIvL2PQsH+QxEDBMkK1DcOroRELnGDzSC99n6pHPbzznppkONXV4j7mXDzHYAoWGCkBbrty8kdthO0CsDU/RSIpR6/OYGKMY2WX/h2gJb32+U3tRKrW736d/8IfcD1JchZFnKJQ/MfR38G242Tlf+ethf7P6H3GPab2zaz1A1P3dTwQbe5WEdeIBzZ6T8f8PMhxKLKHebsOZeT2vmemTY9lm+BEyG78noyBom5+shxder8LI7F0pyNtnNXRqUJ4u7HpRjfxs8spw4ufU9NMjXK6tir46fpJ13Kxdp/EERMjktBP6fyPEWqXqdie3b8IMv9wDKDFuccASWfGX1fgPJKJL1Zssjfop7xizzZLiQbZkX2cqZ+4eycW0hMVqT+ylVLoJx+KiRxt8ztD8cxo8THKw7Dh+nwqffh3YbJrMd/gd+AFRxqhTmsVIrJRkW+tIIR7C8rGHmAF1TwP/6XnFSANCigOB5xjwACEt/xRtqWDm19GX8TTgTriV7a+0PL+iObEvia1TgB6Wr39rRG7hB0W1aQiDR71cGkg1kQmb5kzO/km7H9qev7p6SfWvLiRAfv54m1kiCll0drpuWRGih8UYCO+h1UfC5PGbVeKAb3LRwQhhKX7+ufIf0OLGP/3U133koZ2dp6J4+9x+hDri4jrkHNdraUeIkMcFqiuUMThN66SlWzcW2aG15owO1IBHql36QT7TIvPobbkZmONyAAkM1KUciv2h9bE9SHw4H+IlK2Yyptb17rA1he4XDUc9/oi0tA/7zwSZ59q9ZQj1WWSe6pFo8t7Ifw2wnQdHooanwjuuWK5W1Q6m9fGHmlmknmotfJDOZsjdyQBrtcOCNANrz4qt3WgiaMwTCllSL9ebJWrd9/WM3V/pe1I+ZkIy7BDwX/mzDq/8hq9TEtt2kBj7IqKoMtg4Np5lHs+s1rNt/wlRzQN7jQ+pX6sT5na5x9AvGa4hv8QF0+ucuCV68MWGRP2DWOh22itd/y3YL+0EXlCv/mOEEISA5mmb2l/77E1Ij0YKo5PIQLHG+ixH5ltM1H/+TLCh1IwAMtKy3Pkd0/ohqXek13jU+ydvGcJqNTNv55dYU4Hd657u7UO/LkwUEeF9saCuV7z5yOyGXOH3drQy2Tg7kFLJf2PAAQyjzdGylqv9moMyP9oJ4ElZe3Zn1G0R5oggTlW1BEg2AACxT/2nbipASfJMPhOnFCUqdP0TXQA8jKF/38/5Ltrdb4Gkkny69OwOft4dS3qj7ueWTp6O7gm+9vd6TBVi+LPD8ScLT2AhctJ3tHxuCiOTZYo5syKJNwnikluRDrjtqbhp46eSC2caxA0TCMD7l34zRRdd4DuA6ijovfM9rtxzPxxZrqjYtUBMv6v85LN6hmW9f21kFpmSrVWOlk7d+LbBFcdDc7onj5llb+wagU6Qpp3tr9S/uoLwDHKQxmUijhRzjyryMBGYhw1bRcN6XAKacAbL1M53ipUnIr8J0oHV98AvzHDDzC8/n3x0oKJtVcpwiF/YVoQPjiybFDdGM2+ZmveCkuIR2PH3f8XrD09l0aEFMSZp/ghSY+HYHf+h4t81wWkxvkWaz8g5ISuF3oCqWbBWhkzJJIlKxHnMcGsGBo+T756ztd4I7turGMJR1JPfb+7O25y5U91pef2B3zaDGat79BV3t+0myPfpWl7cApIhqs4KMIMEqj/qz+/ko/MctA0/iItT6g/kfoaZxkahzN3MKGOVfDH5T0c/k2q2mYNFtBYpeLHmh2qetKid4yWmY9h9PJkh8t53Lu2wv7Nx0O4zxK7aDDp9+RTyg4m9b43awK4ADt3x2DIc3MPXGyXzIIDFleR+I2Be3Bd9zgB1dKWgVWm6mmHNo7w85OWO/XKLONwemv8ds0lQ8j+TEyO9QD6WhL1MjO2jHMaxYOiqSDVDlTLnWft38iZbL2X1xXe3KJpmGHBa6OAgulwMWAVDC4cBv+xl/hS+vcB7eLuxVcRmUEGvwJIixZ/hP8wg9MMG+z0rmK93ympWnjiTTqWUNnvoYQOR/PdyVLzZggFg8Zq03vkQjf4xErqIT2xwCzZgDEnDSMOCjV4yugl1+dp5zJKCbt2BLyekXYD4B8n+gsnCk/L3UL17zXGLNmGLn4yPKhUTuET4S3xjTJcwoU1VYTBfGjNBOqG1UtxZ0iQb7O+z+Jg3Fz5aXlSo9PFGi4iuBkE9mmWShrDFhS0N+A4kwM4EPrXjescNIbLaF0JCyO3pIVoSZ0mXnQUmZrF1DcrhGXZwv00MWpJbjJ0bXE/MRygYVi0Rh9cGQwib/Uz7Yclk+dYeqKuaAX5mClD1GW2Iu7A4Uf//DNCtYWuk01h+lRhHdhWw1wKKmetWHTjdFNiJP2wk6e76PfI2Ag+Ssz6Om0HhjIHknRA/3lC6Xq5f6nWG7oAPthUdUOasAAB+UbuhLb0gCIaqW9pkZHp/XJF6eEZxTR/cwD1r7x7qieT5IYI/0SZDG2EmYkVnKdnxxz5uIm/WYk9lfmPmFdHMiq2Ixs8LZyk5BHUb36PvytFDfbppW4vmebB/2dlzLgHeKncl4I1CxxOOVJKq2n2pIlkn9b455HNHr6z3so3YuxesAqle4iU11IKm8SOoq2lLFySZ6VYVJZ9vvabv2Sc7gW5VttZjs3Pt7STI4djtXVKcOsXkQw94uhVJnA/pxmVwVdupHgESpZz6+bjaCcPF4qjoPlBEDSG+dg3Rn16Z8v3hjHbOryVxPbb2JNJbEdF/QtsCPi5a/0VX5llLKgLETJSGxiDLjELYkReXwJbE38QPwIq/PAWLUs7A+RXisa+CpgiFDMQhqbo/AKnQW1ctoyMMvbXpYmopwx7I3m0DESsNjPv8wMakxGAd5LPkipAxJNKz3wvcINeDTmZGwirlz0vCOyW4tjw6gbN986Bvpqx6jGZw6JTAyihYfFjtUMSbYsTnEo/xxc371VVg90jmErNAOaTqtSYeAfj/Nv+1i8jxqQy5EkzDy/JAh6SnQY9W3bGsKjawXQp/CqHmPkKF1+z0v+NWoguzqKDsXN/aiS0u3/HohgbfRRehhQEmj0Dd/dMp3+wYZOMYuymkcyYngXigz0fFn387HKhV63uhe/ZRYguGtKuDh+U+JO1ZMf1gJIw0+sZa+IpxFpDT9zZK8ZcKs5ZBs62qKsSZkc0+cx4fJTk4jW+FXQjVr3d8IbM9XsVTX1WZWUmXa+Qlf4s9mKRVd7qeig8QJPvir+lCpR5mlwBkFhXGeYkeogZvObUb+W7cvsLhFXanghEWLpb07tzIiMmBW/0LBDW1WLa8fVT+j8Kh9g8PHtQS2vDvRoFILRvDhYEk5tmuRIUCIOi87vBzut8qT6zF1be+HrrG7oRxI20a+OT1VM0VtfQ42jnnGzy+aei6xK0VbWXHEAVi8pRsbcdj+bEA5bXf5yF5/XrVnrfcjcvuAWLyOmQ+DbtXNzDa4L6DQMArf89YUQETGiiq3SeWQiPezdoIt+7AZHEkJrBS3XD2AuJYhoLBsGgF/UJFqqL+BzC5Zv+MVqgdIyc3r0IGlrvXgZdXukTOlARaMitmmp6ldx9gc73wrpAjPZoVIhH+dPQdkVUIOaY4sYnqUZ6FweQc6B+RyDfyK0CtsTipRRiJYD8j3aM2jXS8yNBf644TDc95u3CLE/GoTxLueYwMTMv9MBiMM1jmaCQtxfvYuPWruRtfvKf1+JfH4M+QW6wwgt2ZxHQHg59/RQg8EodpIiQjEbQanyeCqw7ipzehp3qUxAh/otU4be5ZE7tHahOPw9SQCxP4LTfQe8mwaMa6i/DcXmj91v3EMH84DviuJYOsEKzDDeruUKj8d03M6YsV6sm1uVB4Qzc23MDjBtSeVpuF4zEzJOEQsXT5XTugYBrFb+BneX7ZBNw9tGc2qhZt9Ayx/viA8+7Q5uzhzBpA6Y3iourRqD2ZG2DElIfxb+C8Zk9ZqgZzARUshaFYpbIPFxz8SJEnf+YP1tWqo7r4YjXp3hfnvw+oNpg/GXzTnzPvcGWerOmCkmAPBbkRPMdLztZg9hkgR+KWQhwn2d6EeZ9Dw3NPb+01pq8hw1v32LTvdWAQkcWzbD5DWX7K38Z9v7Clh/n22f99BnMIoAPwQiusLEd8K2AawlvyTsm3CcUpSZOQncXnPrjVjsHQQjRL3GtwI54JzoKdXl7AyU3Xkl16FTug1aJ71e8fjflKtPt8UMeR3GzkRNiHafk4nVh3QMvn+2sMESm8EDzdbA7mH2QIRJCiWdzGPm6W8RteRX1sACfy3vAUAwLih9uFChd3Km/Uq+f+BDGpAHCJ6vm8gZiOoEtUyOkn0oi4m4yua6ZyY1guigZdHgxPGFjlNV5tQtPnqvDWgPiWcBdGrTPpJGELf3r7uSBBiAFeNFZBrURYMxtDneufW46bHaTrZ+t5lS1HCdHPFPMY/ffIpXH2SOVC3H3/ZIYTBbgRFpn96TWBOHtOrx5ruE3rSAjgOQO7Qzz2tmpdur0ARYxNajLUQg0zOEailqMF/8XWcgHDfS761E89ThxRfxiv1GfXhvN9R92+ctNA7VCfHwa93uga9dL6vPlylOXv7Mufsm2qX2NLK93UvcDtkwpiSxlGUivpNMfHO6qKeTUCb9XPcZMJo48nZM8Ijm3uLbpcvPPWrM1HSc0AusNPGLADN8sgr6UqqS0UUGLOrXeA1hJ+LVi52xGAmvp8OCKRYet76DlfHkbJkPDC7HPRCy4S7vgsi0cUHi6NfpJCcNzsihfB6cIMvZuQsEr6N86+8zoO6XCVwppBZJBEShMFvi01EHu6BfJizYyK9qXFo8VD5BGR/wKo5XeoWtW3WuLAomRVcpuyub3MYHt/KJ66pIPc4lGgnAlwFjhp3LsrmM7SFD8vjkqSU3Vb1DUBXwkLWfgyaFj/uxgfqnJkqvc9lA6qoxxYhlCTtGqQVY3DqRIjwJS1mJklada+u0hQB83gz8yinojFEbS7qVI5V6pBjkQX5717NieEJrml1Ter9vGZgAlABllw/4pjjsRmVM+QJmDhFiGg4hsNongi0/uESPFrc++/5ezYrqRwaI2o2g2JRA3eKKlEiq4mU60D7sxcSiERGFgP7smAJdvunYPx2gwODWslgIXwcGcbZwHZHG9D3J5ZC4pYd8PDtiWsddoOA+GabpBukFFG83cME2Ch7tTm2KF/BQiWPmjFgs5SKeVfSpnX6OjVulCFjX8QBn2yzeotsoRmA6x5Ne0VZlQeAFAGnPBaAHUe/F9b0B1W2N6VKcYFsM2gtX7+Nn3lMEca4gU67dHvz5RpLPrR3LCtLdq5UVVYmug+odqxVz2W4tqr8HEJJxRFvY4/McGoV8kN2Wk44s7srd/+kX6SyKCb/qVAaV4e3kA5/+sPYOPChe638Bz1RvDOXTqNlliH5F+fs71/k6wd9C2kQDbByeSnvkFfcUX1NUYozsnkPXJKx+7xrGWG94kjkph3EmB+NxvQ2kUmCMFdjYXvpLym1mNxg93OXCgLyDKzB+sE+Hvkz7qIXxwQX8jjRYDDiyl7dr0wGiK43r3l4vAHcrhkgkwy9OQp2wzD+8KKw3/NzlPt4yuqNKXq/hC/t7Yw+fbZQ7cDGHq+ZbzsCf407hul6zLCf2CqHK89tA+Lq49kpg2MW0JP6Kv7K02AV6FLkC+E7ljIwmKHXsBzce8aD9oEthbO12Tmy++eNL9Za/TqWFo6w1pP6AOLWkXnSeOPbkrxs3ANFexuMwnWB6qASkfvHtxONXzM7waf/WNXR+9Fvv8sXr4R0mwHQXg+TQJYL/Ab8l4ZFGyDENIjOqaSSbJ79WDUCT0/wSq/jYjU83aONSXpJ5UiYFh2c4WqP9vgDdxQTmDS7Hcd7wO7WmMzEhmgPYmV2H+dY6CyPCW1nvw0nuqT1sap5Irtiid9wZ5MZlxrimDGpW6M+JLyGcQ3fcAk8noWE09Cofu+ATCqnpDTTSZnML/20xfYmd4+f1hF4aQhPFni+LW4OreHqNQ6RTFY+ELiqUDXZjwyAODKTmNT0AgLPk9pE7yH4CM/jgBPK43qlWtQEAW6930IdN5RNLefLN59NG3AyUvrRs/sr5y4B3fF8kLrNYrtFDTySz9jstSc4QMnbpB0g8GpL3lB3/3i0G833+gTCV/sqjvHJ7QfTHPl8wAq4Nss513VnkTrSAxsmIWiN45dteNa91XMmHoHmj4YucZiUZYQoDfb0ejWtwA1kZJ98y9GLj+Y7JXyVI8uqA7jCN9hHkn36tUxQPnRtb9zv6OiGF/02HetPeuflEtvSyOEHU+i58VJZwTXZLi0bl+FIllXztySGAMEb/9pYHRTJ9B2Snqnqs+KI/iWy9ICt90onip9cvdPRZe7Qwz2vk90gY9YPYEWDRoi+2rGorfY7OuJxHZhti2tjh4FmVyKj9VwH3KnwVSB3WHNg2gxjcdkmW9evucLjPAhVlmuPIypC8cL32XtnVvYJtfuAEZgQUpDstS/CoC1xalYGK50hIafKgiPdVWPybbvxKecX3oSUAz+u3BtgjBTA3wQsxhtdB1KAfx0Tw3O7jzdtb9GAMc4RKmW+Hqm8+WA9Xo4EQJQ1T/IZ0IPCEEt0g/qRZ0ETPEcr4egoVjgZ9qMUGDiLZl4tKCBoMYnUAjsbqMYrLw3DuRJSfxIqF85MpV3gy6QOjczMid4Sn2qPcETAo0jwrt2bZjl0I7VQoX/gHhiTL8YKMRgFWn47XGZOWbZN+iO3vTrP4cY0AOeZ39ALg+VPzbpCfbohRn7Jxut757NJMLnlS9aAY3B7w+nhPuhpDrxOr60PMEY8coQk/OEC7dXwfzdGuHSigMVii2+Kqm1fuBW5kXddkEf22W8iV7zHdYJHRMgCGIGU9qjedz5jS9N9mMWKleZjGlwxlhQsMa1QveRPugiAF0s9Dfuxn8QmtBBE6ovsgaZRgOITJxyO3MeUjpcgmsy3T9OQwD12RQX9J0eRO0gzgjlW/BBjFk/8kgXgub80p5B5HQoyksFEmcs/LlkvNmZ0hKTOEaXPmQ7X8/oCIEYgPwzAV8/LT13cka/5kfJ1Bb+20SP/u0aAB10IcrwJHERN9Iq5uC3UT6xsI9wPW+vo5GG7GmD4ktpnwOeDbSa7Xbnsqir0FFR8mMVXUlD1t+y5HAnSs+ktcJVZlBvFlHF3QaW9Dy1pQcHNjbZ/CD16o+5P39OB9jBv4TIkVxbrm1uGSm3LQSZbnoQ9azrJDOqj4Dk2hCZVn/ZqyQLZr3HzHN4zdIcGFhh29zsPbBJPBb1PRV++GXyf92RWHweeECbtZLL5OjyCChWhNrkiomQCYCe36t21hk2+47CmDtqN0FRomkF5HxTyVL3xQUanl8ctu9t/NuJB4ZOU9EdqWe0MMxE5GAtA8F4ntKUq6gzic7OjnpjmrBvMaQlimSn+kCZAZc0qLTVoE+FGfbEWOdJIssrtzwLopknyg8TAToyENyEoe3tr0+goyGMJA5IUdOQSrmzRRLv3CWPKMX3otL4Bw2BH8PuaTjjQAjB+CGBIbBI0VpEVw6WaQbZcfOjk2siA4OLGAlO+Ek/z+3jauyAbe5wvTvw+O7gCAifQNG+CrwCTyWMgD4X3foC+LtgoNIDG4oeUeOg9Ogqj5yS8IBX5e+QZFSZ8hf25aSWvwQNSjn7spL1T3+XZyx/CBzWwSWSxZYBVEvAi7aTZ9TX3EaiKHcOBeMnIAax2RyoJZqZmGZvjcZTmmv1qCt48zKfEg9796IYscOdvFNBDqIxo88/eZ/PGcA7Cv+zOJo0WmSBH0fwEzdqAq09BvOj5wCJEHRGwfwGR6bmI19gwx7hVDYosu/+cvashyXDzL0PesHcPwGFioI1urxXE7OUTl1C79WGrKebXD28ILWQE/AxFbn4ZZ57kZ41kNGxVyYv5mvjm4ANQ72Hn+iy+u2a0f6XGP0rhz2P71n0/3ogPAd3Bd4kqJ6rGITcsx/bgAZltVyFbZTxwJeJKF1g9lcEsQoMNo0cPhKxpbGOHQqdPtOX33E+dZp+gSjfvbnbNqfQir39eLcMHxy1mRAB5KDUA2Efv4JeX1ZmQ7IN8iffYF4QnTiPe29NovOR3e8bfs3ZuItPPE/rUwLhL0YwYQ2yO3zAiW9UVXIN4WALqnn68kmwGufL9cnBNfpEtfc9Iu48wJ10zzuMUBit3DbDCs8oNfS0eTUJMl42/DLiBCkytAwBsBw62yocMckSwlnAA2isL/W4D16MG7baASUiey2iYLQNG1YkIArQpIDCukr5L0XI1fwz5NGid5aRwPeCy3GnVuELHwGmv98AZ0UOjVViOnCSUp6fKTE4oNDSzmbIqwQ14knHl6JLtTt2kwkpX9hPzNolWmOHUEPi/Lz3iPERqdTnWF6Ay5YwED/YU82BcYX6dtl+9IkiPXkoVO09ETJ5spZ/YYINZ0TkJpe0vIzPfA6KC/4fb8o5mtFYP19/vFYgJ53wRC7v1k3qakUk3waW4evpwqAbyVHrgQgI4rtc1rxDBPMqzMC1jkFklgcyaxh5XrrxYl1jZ0SGMDH89oweTGpmH/8Yx0i0IweEyAqXtFEXx+ORWsnNLgmlG9MhZJk25QT03joA7wt9RuhOfHsZWaQPrlWnqxDSZ8GhaiMr9wktGQ+zoE3iQHiYXq+EFm/aI1Br4LGI2zj+Hk4bqUuEmBWjDiS4tQSIqWuhC0yrLf6z1a+3ZhRFDntGGrd8uNRosPNIjIF7C6Cfckwki6gCuDALriwBOMaAK9KIfQC3N4VSJE309sMN9Kuz8/Fo2xz2iuFBlC2M4R5E9KCtXpN+POjvIByqddXC//kKZVpDCZkdYH97Ug6nEtyCu6eEweV42xfcgpr3ICWM5wJuHNUQ5yxyD/fu46cYz6Ru5wab/ZwhQ7yEMFoef6s1YEo2n1KOAt30OHSHHsjz8zVtdyigfD++kb8asisy+rDXdutxEfa9+0CfVjhBSlBJgTn7dE/BStepM3MXYf+122Mc5JTUwjrlXIQXYMWC61ZGUW5gz0GLN4KaHBoRHdAOKYM2po8JFC/Gs/Y1BrTgxag4tZvpUK1TK3W5SwKFg2hqBRDMusMuy6Q3luIG1gKZ2Sm3KLGNwVpZU7vUqCw7NPXL/Fms5oEfpz1SAq2B/RUKQvjwfJl+jeSzjpH5odkwOk01I5dEqqf0YJkg1pWHe6GLhYKy2KyvXOuknyGwspTgwGvbGoJbtR9zsjL39BuphyMv7bH7ssnzRwdQAodvShkN9iuUzerP5O4/d8b6BLHMC2QogMwKYrcWDy1Zr87IAWl7GKiHWZoFOAxBigPRTtyE5APlAaRkfLi47xSB4yL5wOICzgA75lLa2KHB8P6NSQKGUx8iTXxXufzbr211VGTMfEL8BznTITPTenqQkzXxywUsSbPMdYiCKU5oN/ywv103A7Ic7FiZVpXqAV/0Ji88Wav32muBXfXfUJkLqXNpawxHrWXDjiSvTBmYZZ4JN8sAPEgNpjWMPLubhD7eJzqwIMxHRp2ldp03yZQc5qBH5CDzIOmxM8L7Gy99TfrublFmzLBWGesAyR1npHRpSjDpZ8tOmwPsyg2nT7amTV74bWrxHMIjwxugb7MUjsuxgmatBnyBM2QndURR8rFxNWA+At2dpDNC5uk/rI3R7ZNdhMZPi+zGb2ty0s+SxLBxPYhW1tGSkluxQilTugaLj/YOWYW70mjqZ0mem169rJHbD67kGvAAxrhpwN+L1QU0pxOfXzOIFoBxU82j9RwiFHRJlAjEyUyrafw7PVb1WrItn6+3MG9oOSJGvTEVO80f0ATW/ZBEhFgoXO9ARBd72XEAtg+iJKuu2MgrsaijOchVZ4HSWvdqInMjwUOcMQDFH1y8zFbjBl4KOjV1tux9+tTtRzdOrukKIuPj6Jsk6Yb3d0pflTYT+rmH7XpjWGmsBEEgPUCclE9G0Ysf57y5Zpo1sAXa14vw9SJHdCyEOTscrBH5v6GcicgMdjw805QSJ6AK5ggY/n4tm/2raJdBNPaddxct2qqyrRm4OebJQR39VGIL7ptwmAHqrvOvfJ3ceUsrqBROiXtTPMDMXIiE8H28tu9K0T1iAHNMRGPbNdYApjBqj8+xgfYbsYt8ndwcprF92wVL6MrkdT1JyurJC7WdL65Na05uREO6sDEeznW6sy9en7UJpCMUjd5VSMfIhtn/s1uQ+NFZeKDUNNzQ/8evvrBzwXDCam5WIOXonHKZ9GtX7nZ++IPbQgsnAeaWA6m+BbYhkcshKZX9ckMRLJqoMITjJ8G41oVvJVSduoU4uhIKmevpqu80L2DKUIsSIzNqotca5i1WcC4w0AFbi0y889uOnnInZNrUtWP80+6Z440gwhjARuT8MUx0ZLi48y2QqwlmL2jYcNnLpDFeKMMQ+YTjGdiiiTFTfuk+yBtlYBUJiWTQKwhoZHe4+gc4W35Tq39RYD/OONK4Mqjr7S0VT3VcnTAKgcKzrxRE/MiqVg1MaBhxLSxwaaOZ3K5dZudh1Z15ugCZU6IxizNNxa1AcJJlkEM5er9ykQ9bpP35SF0dXaW6CgExgKgJ3NjqzrG1toe1pUkPiwSPvy+E56aHzicTp/PPrFlPY0W9/faAgtdKHX7SMzDjnj9GVFW7TB9mJw4u8LRTRrUY18rPjVVy/2CVlVwcn4KbV79BTNCnQAtTzF970nWKHGj4ZS+9jSxDbbGx+QtyYr1+C+5co+WM7H2WVecfoTfqZ8zhP2L7++nPaNDR3pHQe0UesmbmBtynQTqE3BTaPCiUwK9TO6O8jAdbiPVy9TQe8JSzAaLFUBbM5J4a46tweO02EddxcXOsTR/ZPyUWaswVKk9/yH+IVutKhcWCU53KXurkQqpXL/PYELwZ4Qo9YyLD+3cie76ZgghhSULI0YK37OCpG+iTstmuPNJJmcP5B/HlAFFiVDON2zoZBLjMUJHrnpVDNEAeU28BJR4AcP7uMcIoQHlzSfYZt+blubhEetPrSIBwFZGs1YvjnbWCpo4+CQeCAJP76aECi/Ovjj7X03em3ADhPkH/KEZwHj3TzOA/2AVLAztm7pmxxm511vR2jDyFfcD/bOKFVimn+bxdM5MSDo02X4kX7d1eyscmwCCSJB8qhKK5tSf1i3KbadfvBjGNgrkCgjJREbgBVqO8lsIRt9f61+ofIiFRrUn8P5VB731eCA97SjMayt4ORprhIdH86RvbZmGx8KvAhcBCpGiMi9OzOzfDJg3ruyr8GjKJ95Va8XiDNhrGK5vsh8hQlS1rtV3mt+qxVyFwP0M93JdTZRENvMQNM22E4fZck6kNf9g6Ei7LbsvlxJRpKnYIZ/BOO8WRdlGlMcTEZTBuID9Pk7S3MhXN6lAY35AdtO9wVKjSYSIEiRIWRYLg9dS6g6u9yO9QV0ydeIqTl3VBQNITPBU4XVNP2ZongJZA/IHI5LkBmQyLNlbb8Xj2gUI0rPI9GRPLhPkQHGsZHJhj9glxlAkbcEl/7oHjLko213wq2ptN7HM+smEYmt8ktj9I0dOZdqqGHQMBZDwa+dhwots/wEKIQGmMJrQxQUSBwroInuS5EpiGd8aGRUQMKsARpdCwJsdT4XktRqS2dHwWPaiwAic7QrG/I9p+0RAliJvazs4iVR8sO0Q1g/k7/caNTIsCpKHMedRUY29dhZJDTRofvV0yQOOpSKo8twjS1iD/xxBiamSDk835fiHk688D9YW36I77f+6Uc/6qdkenjp4suX5okyLSYisI02LLYfFmoJSWdD3mrgBK0XQ9/GV4K57kTtjzDcnhQ722/P4It8wGj57M39kTzyM+cR0W5W9rcpzqR5HIqRupTHpox4CXomE7ty999/WSoN9jySEST90NzlGubEHskGnVdMh4P4BFp10Ecdo1WGykyizbhFw31v2x/2Feo8rKNpT3P0l98q38g4zam5Yj0YBgT7Uv9QQoO/lQLEH8OSoJG7Z9Vg20byPtW39V6EWYDiM5DpznBoNDMiCVIUjZA2t940vnT7sXvxhLRZnxhtMUyNxzbaMHIVCxPHs/6AOykFxpGVuC59xKVTCfsA90fQFsZijLBXTLw9cxPKvRFK586Ew43chOqDkApsshTQmd/vGS8LC6EGgtV/60l0I4VgvqMLoTZT59J/ndhi+FhBinZBaFElS+pKi4H/kUyZj1lCXQizgTIxp8EGIcaJhz+NfyESm/Ad30aj+hliIfShVYEBdOnSms5Qoyj2alZOh7LLGGknvDM/J/uoMovJkUHcKDHYK8/jHoI/QlTaMwCNZSLdrj3SS0wNXQAJCekN6t/qCtIviSRfMJggTT0p6r9ZgqAkqNFH+Fn4qT7cfSNgdcce1lKWtONo4oK/RKg7S+kVwiWvYMa/epsq1SW3GH5k1z7Osd7xHdw51DGiJF2DSJ4M5nmHmku8Bolal3XvZgZmmEVeFCjm3XteBiiVRqtAwDXvAUSHrLFTNHRI8pxTH04EQZBPEQuHtFdS8WjUVP/cHdWgn+OuP9e9xuiSTQO8tfNH8TwXnki52qlelQYgh5DP2F1K2TyTbU5Y+rORx3y64lUjLoidMu2sjh9R63eHCnel7pyARfhSoqQHdgw6NQOtht281oF5V/4d8kv1c+lWGMaS/BEZqfA7M7Oq1q25G5Kq1F9B+35bRX9rlBNPyTB93Al6kFO7t7Vo4mv7qgcXIK0o93+baM1mm9/lg9Is83YCjdGUx5JgrTfIl+DhjI49JBWXpeE79I0j2tbP6bawnQzDtgVBZtp+5KK7B/gFNp2wPiRcIPzHS6XPh9no/jGJmiBs13PJTxZ+dv91u0BrLuYHESEepU3soiGdAD6QyY8cbn0GA4e5EQAhwUoSPC8uH1j8wtSXJDUYAQ5BPEZQCjQEQBiRN790HExT/LR9d8xgSSLjyw0jgZC+yJ8IK6DBA25p6lLqmNIVQeNaRpNevi7XeHPXcSdhrEjjOPKn0EEhrH+S4ghpdczXfbpVPSaSQCmmc3uvlZoiOaQ9LDbe5lidSC+Nbp6f3MYaAXB+aR3WRM0PRetb4aqTbbyPcBX9Cq4VN6lE5/iXfkY4U0Zk/7ohDe5UmD8aLUQIboczkwazlM98gr9i9uECtoP3t5HDRgmc2FphCSeV9SOisHQagduG4GdHsZG0jOA4fDcIVdA+s0Xmzw0JvUVC48/qjNvM4B3eFKka6OtlMgCeHIeVTFYLP6ObGlVW/HT/J0T5TZUdpX53iaGX0OrtDag1gLy2LMpfFCksRX/C8dOVHkm/Zk/ONnIhMTe6tmxZ55rwavQxRW+cHesDXZadia9nmxva+xb1IHCEjUPQH2XHRzfSARDZ8QRBxxdIOIvVwwtSjGWLI4SUxh/8k5Sh6uGUU42lfPjdAcr+AEF80NsB20LlYd+MTelW+amuvpXCZYfBI2/JLfFoElmAUw6bktGvhQUuy+rseje/zKgs+Tbvy5ATGzrJSuGe07QaXjMcWJ3escKIleQSQIV68q8Hytil4hAdv7K43LCsELZnC7D4K3dLeYnnqBDCNGbPwT/i3pzqvoM8jOKMGOQA9P3bS+suPJUTVAWzYy8QNYIMNeDlKrhg+vzv3n4hme/6cNIAeQsVo85keUlMfX8PfDdwh2oFHUHt4V6wXgumVWcdi98P0ti5rj1/6Lz5p4OfEFmNY2/dNsV+zf4zZYXqzzVM73o6f57zNTVroRNFEqT6LqBilq+ow5kS2cvpUrLWGFEIDY2WrjbGSTe3o6RdrOgNzGPFyeOc3mVWRHDgkDJHx7l1uqU8rNrr1MU2v26avfGbO0scef6RdB5LrupgEH4gFuS0JJicM+zINjmnp7/MuVWzcpWxRtLf/bVAKG6rKdEeKLpvH2NwLlGKiedz5PuoJnCGQExvFylriS4doIVNt+nvYbKFj7D3TRbSyQw8SHYBWjfJ4Bsy3YeMLYSvmkri114fSF2TjirIFC3X5LetfMoANhJ0l62HFwbhb1WTJbrvI5AC4AfYZimFqHihN/UDb1ew8m05DA1cbvRBxn+PIzQk6ftVvhkH0jAvGOAZ3ekbXnq7utUUmQEWGEwFUO3IfVlUkkLYeqDYCiKHh50e3PyuZVulrAj0njYd8pq6K6ApqtRg0BzPLx5A+LgeP3wznZfeAWFJOhe33nDN2IrQwmYCejlK6csg2KlMquChaGTuM/Ioy+zKPFlNeUGjMo2HVtlO1LRhItnYBP47LgmbzIbITO5VokwYu+hnvgHEjdkH15ltO34Iacn21N5SWETnniO4i6IBldKGsIdoIKEmSb6AYn0/RIRED3ZHDCIUkaGCrdjchwrtuG+WBDu0yrLK6aK7Vfe8isiaKl62W1pyMNv2S6JybXZcZTw9w/1EXdieVtzY2C6qm87sz4cSUtedC3B7id3+qk4F4OQ6b22bNkjhbrBQ5FMTY7qQECtkWbfFcayJtNjmy0YfdwQGclz3dZtLOecML483nHgLvhYI2vvXwcUGjpGViygJjO26/qXotgIj+4k8uN4RgAxFmDRsLxb+XhPmxMrSa9QP9Bo2nzvaEGk1t61+hHWdVbni9spv9C0U+6tjTYMe65wrWeCBgziYJQt9yeKei75ivmOAganxwRIXngmJB1Fy6Wh8R7FSph7ob01VZHJGr5RXEjS75sT4LiwB1Z2QzuKtKMkc7Dt8tXQexQWs3AFbf6Rp8FKqrMLwYazmBIYMghEpMuwKBOsGXneq7I5Ul8InPeCCM1LQ9cySXtzBCpF7anx8airjzhP0scPkzDhMKLNPsOA0cFdiA4HZcPzq2OjI580k0uOFzc0KB2YWwvXdekL0al46YtbcGx6KJByUevCFdhDG2BmkoihGzBpml06oRjiJl0AStsj6qW8PP70XUU/siZKMkJCts/4bzdZAm2OVbUS7w5Mhd3G8gPmwLhETV7npg9cBwE+9ASAlmz239/0ln5ge87UVfsUqsCOeMixphDDXI7d+f2lTZJr8RagVPTE8LFVtKptXUAHr2bwYHbIK5mVqya6prqIb5ezfo2D7SBhbbObI/cAM0FvzzSNIYGQgdnwU5PUmKKM1PBPNmy3DM929VLQJ41inI2C/WlX2dET2HElZ+3Z/CaDIy0P+RhGKEtRCTxy2bIB6DsL4g/wsBTROPl0/KBz0ZRfSiAFfY3BULwBT72p+1PQQIJNljDyc2CrIiylwn5fmzWrVXAPGdlMTapYpDvzx54C84ctd1zjh8vtYj4dcmMXWa+5Uu9VhtMiQchqW+1T823VtOKtfA8CTlJnehRUheTSCZOsXQDexEL47lNWPslSd9gWQMYxY0CF0Ml8mCTDXFnOeDjKhDSpTySJ3Vc3wXsjp43xhs1onfpDm+QE9T4wrZTEU/Dsz7TeVbwJedltdFkbdaUfuhrOD51/ASWV8h+JtKrTgvDCayk8qhCcBbD+GLOIdpt70mJ38MQ5UEwShTz8gag4sXpfl7aDTIoblPtkKJDjhF1OMtuyoOmXEOSS7pVMQZQI+jtAYj4oEu/Pk5PFhyVEnULSGB3t9mV1FQa8ivhqFSCRDkvvXtMQ4BD5cSgM48PEFLW67O2MSZfpKxhHAiGhyhoqB5ufXPVhaAtoxT9Vx0vly83cGpJnXXPCzWVTTk7jI6nIDqszHRN2CXKyEf3m5wt7I3tPHw1Cbpvt7wUSbakn4XVVKg3I1T6/VN6CHYz6pewMaOAO0t25LaEC88JMZx+BPEzbWw7J/UyiNW75ClH6CEc+ALwysDCsACA0EfxZI8qyffcQzwGAMwKE3G6c8mVRjcFb7hqNIo1zFlikC0nr3wQrKrwBSMMlkYApqkW2RCJOfFQRQtagiEABolNZ4OFSP2/5ps6QJ8vjqqtIS0o+OOPIXRoIzgzAU1Ej9+UmfSGyvFOmdRC34gJO5SJCE0Trcz3cWRSttDQNslezICjCw8Wr6ZVrXAxndINOcuOQX59kxyQTSJF+K+y0ZRslvsPqlganvVjdg+G0rtzFLEPTt0UGh7SIlPuOzcB8bw8/jDBuIzndfuq2ovmaKRJWddnkabK6cvm3edPhPaUFWHLZoBgv7gf1tuAByVNtBqXHtWjQI0f6694detGMjbycO9jfxwGLdCjqRcSAqpt3g62DVP9fhABWVAMBttnIVAbp7UXRhGEJATQKx+zK5o08VZaNfgNpIfofQ2Vj8JzT2Z3dKb4FE2+/69EuFZ04+7rM0PqUaQ4UTWkxCL5+8I2NWPgJrLlwHXY/nBJ4BJEuiQTkOiEbSaBv9vCfPJDJXUCNOpUIojua6dywA/NmAWngoR6BhtF9GoQzIAxJaWmFF7y+U9A4KgQOUheTf0+cAC42TCSPa1X4q17p0X+vz5+R1XNfcE5CZ+5A5RraTY7oBXBa5Nu0rNvKYblFjjTp+5Hx9ieYHcTE3uHKdzaE/MfizgGa8XZH5/lT6hqbscPlIIRXqTtAzHZbrIlkwo53fD9ES6o2xivObUxnV5/uJXz2tfDZeZlhZcycDQg3QMRw08MrCCeTHDLUdlL9lj3ZFRqxrLortIRZ1DwJ4ROS46U+Iulo9XX5/t6TWNAzAhEvjv02ayDOM8IDpKsZpYe33hWuwbc3hbeufn6++jwmEQqxKqNzfWc9Pc/Iyt43tlWP1y4XGXi0V//GD67DQCDHSwXlKEH3qzqGZkDV4CzXAb2eIXwdfygO6CSEeFvw2pyI+5FNAnnauOY1QLc5/nhZdgL3tjo6Q224Pwq6zX4i8DVnwOEE1bTi02BselWyvyVliSjIIEQReJzs0w7Z04U3d4NtzrCmj9i10CZHmobKEF8LaJsha3JLeuFvNqgMQTTMYVFfdlo05zfIMMicNf0nFMoHghh9HFoz+ZUWlzrGNSKoGXLUeZMQsrZE1enNcuNvYhOKoAqE0Usbw6xFfYuV3APaenyZlvwoxE4lnSuLDs7D8mct90ccWUt550cQVbnpqZOvzb8Lbmt+vm1r2Crrlij0iuWGu24dB5NG7j/wEo6Y8JYZ5hy8n0y9XqBDerUcfngzRVzDDsVteku0BremmxK3T8vGb/ZbGQmG6OSy6BV/9sEp6pF262ZsXC5X2avuT6PCJ3gkuNO4a6qkLqw85dJF7OMjBID2DOpYGK77abpphw6cgYvK0S5XF5p+0FbhsmLJ6GCVZa3gpd/U8lk8kIZ1lCYa+rBF+vfGzXXLqEQsWPPkdK+aYUVxCQAgueK4kMz8HN3Om/FsU9WPXlXH+3opJ3J9c/5BzJvCzb0AmwWC0DaK7mrK+lBE6MyVUYZwaxTPcY+Yfx+rns8sNsWGPhm62fqNwloEuKQrs2/pXrEqDY7wPvzVflgmzss9izkOn8TAobLlNwBrtd8qYvz/aTuQ3VE8byy/fkD0owSsk6+FRT22oLregAZsQdciPIeq9nS2ge9o3GumpBeLzH1FYig5qiuMkEf9ZweIkI2fftZUd6WYrrE7ZegkkqVFUyvcCLdDcPVfsybQT7lePiwWRNDQqdHZ3RpL9bqDslIhWn5nOW2vyoaRirPImAPPiYXO8Uj9f5zPcfEWEuBn7AsWC0koSNbeBgOEPHm80mtXI4FIMB0IqoHFVVRU55XM0WFPiHAZuVoU+UiVd04O+GQVAeaEnSnfhFVyqiwlMwtI2Z9zYmi49ftiwAGqZxOmx0B8yc+buZ03j9R0QSgzCZy6yOtXTkyFIinF4CGNtgHMAVCusg0ACHvGBAQLSEf28lKpVlmseeS8+mKBKB4rcoPSCJfPY6cwyH5X4nCvKKdIcnx3qhs8qRbEahBSn5GnnOt+Zw/wJAR5ntqGDFvnUs4bst4q2atunXXCKOfDA904HvlUQoMx63HZF8vyui5YScDqlp5GjK5i3R/UsqAvFxWYKP19QmfHHzaKmFVOtBnxD4QW5EiH8Y93qV6oiZZFeXtv2LLDO0ihSnPqCc+lk136GIn0Z482OJUew8DhEA7279F2FFftrTSZjFrjKp1IhOoTYRW/qUkHnfE376Ajenfo1MPmDPl/hDZhE7DcHf0fAmmXJDn7BOkZZSk5VawvwNw0Fg5mSki9m90O6ahO/POrx8CAjL2IXrwK+tXtcYiYPGVjgK7GWR8dXw7Un3S5yWNehzNum4Kc9LDAyDMcwru+wgab6DjMSeJkXAYhLEaihBoChodXRp/mYOJHTZDiAaAmVYoIWx2sn82s+mazijHKHPoKjGK/iE9xevqsK0Gpiy98LKXphA4ejGk3rOBGpWhCHKtFnG0rpK7NoD9BE5japPz+dazR4pQy+T4JQo7qWTEEf4AaFWQzNoVgo2Yn5PFtrVfhRb/uBYJyOegE2gslJW51hNwjuX5rjtqMzsfKTdPV7WNHqprD8A0JeOdKGn75GWLdylHwifZvIPIo/t9q0T98g1hpjc9X0AAmScEdWifMNed90oIfHtbX/tvuWEtbRxgL1Hb9ymkW37VaOKV9CRHCG/wMwot/dCO1g+pXQ1n3/ZzURTLwg1oIgigQi2PJqmTQOmHpsLPhuspydzxhPcSuTwOfYv9W2akDINdIgkK/JkO4ppjiO84oVckllXdTsFvHSptKbniV5fPmSAgwRoGt7n6K0VEtDWg68zR9D45hHhtf142eMsHs/cE63U8K2EuNoT2zYw8sK/bDeybFvy/E4cUnkpwNHFLHSyAAM3WBpNwq8lzvZBSDNCG8HyMqqsQQsabSsai3F06g88JsgO7CAKqZDIULmJDJKv16XbJI6C30kg4ssmHx2LX+yjsCvDLYEhw9BU08BUwprJuFwWlbfvc0jqWbXSu/zrJhX5ui0r1/qZ84mDQ/8F9ejAFKz5pdLNQR+vfGKj2SICS23PGZIYJ1TFcUGD/g5yYO7B2EtjjHOdmoj2Vo8f9J0mQrolWQrPVJzHB7QVtq1RdXAmVkEWF4fKfIJ/EBRR2kwA/BtiPZZBnkCGqtMqfdONzErguEk584PXYGHWaFAfRjljMP1sajLI4qTptvwlHxcewM9xr46nknbF9U+qxOi9fedBOJVhpwsjkbvn7tj8J9uQ5a1UlScF7DoJ7CLIJIpVNfq+XTr/NOtte2S2Ggc/9RZ8fyO0KAcU5X85t0kAIxkFP0O6JCVW5BtGVdYCL6bZML27XpSl4j5NgCxUKULzEV/lbXM4ipgsSHbLi2jhPjc9Fr6dVmgbkirqbrSC78QpNwRahmxYdLsmfVwtruEqYljpyPBhpOz+KtYpBrxpz+W/A45W9KjNEv1QndDtBupAJK+jbtVCvhqAv3FmKULs18sIStx7GSUDdqZfLefA8yZcsvuKOTvgFmp1WVx5Q0yFHH7h+n0iqF3bmVLSa/HuHXoHgWSojf2Jgqz+ogeLqY2gTw/E3FBntpvW43LmesZ1t9JG7Ull9nzWZJ1ryoQ916xGLV5gJ2SjH2rT2TS9+QlQI0Knjz0SCEQD42vENGTQsV0eyhRf63BpQLdzzS2pIxBgTzG2UkbACrgT/1EmdnadOL6nwvLbz67AeO0CvKRpHU59Q0Lb+A30duARaqCUDBoX2my7D+/ZrgzVLmge3UApkPEDU6hy9K5+Unz4t89sn7k5tZRF9XkFv4Z9jhyMB8kAZ56Z8LJzURaP9tTGWdsvzaXCpk9aOBIAyRRVm+mvwM4McPJt6W62un92Bx92D79thuFk3o4rdvm7oAE5Q6AoY8OJ5JhK9VtFmZeyN5tvyZQERtW2SDgEfWWi50gdKkfqw0ywPv55vHR4ioKWpJpv+RbilEtqh+WLCpqW26GvL+rKVXHtqdVxeK+Z1dUdwsUEBBdFyiZZ7OAKE+MJX5VooD2L5UFbvZFX+fZM9KD/BEyw3vOnPbbEwAwb2kAAJUuMsl0ETTadCfnwCVqzLv+GEslNTZo3YnRWmeYhvqMiwT8utP1bUp68az12I/+sq4Eq7YJVG0Q6uBVYz0ncE5iiDfrJhiSRI1LizLRDdRr/Zk2rx+sl6uLlyNToCJSTJw5ovapO/Z3Do6EqOHw1DjHdBDs5dlApZKF4nPtiB74omfIRJIQt/MPlg1k4KfspyXBj8d9NNlVj4m7XLQe+fCnhJEQ0GV9VXdkWtxsyksMbXtUG6wzKFPMyD9BcDduIHGMpvxCFv3744SWPUCN27s0clSX1sW2q/2s34DP5hbSw+sw0bE2yzS2+6E4/fRg4wf9TdJGODcPmpwHUPj0g1C8X2CqObMCKTjfb5qrHfduHyslzv3PeIqGXtL3yT5lb7wu/NGUIBIBjS6B+3sGKDFsh1s0uLpUMD+nAXgbi82fsG49B27BkX4V2jhq0qHFqQEY0arORRxw9dyuWuF6GG8y02hFy4YatTmfz3hZloA1I8KqeQ9RLUn/HZVhfQEaCwskwLFapr3aij9J/1GhCbG8kkFHjv4Y2rEeJICwKIQBJogS2FAinfPLfJQOsEGif6nWOsj4DX4Vl4lpawvg4kJssnjVZRvxPFjlW//AgaCet6L0KHLVr0n6eA+VwfUgVI41gTVODx94LoTWmS4bcDNPi1ecVvxA3Vkpi4ISaV/t7Mzq0ZLs6x6XKTgQUbXysssrCVNi/cstFhVwTkBNb/7JKEUgsODgudn+uStGOG1AYP3fKZ8ct4D6LXLyB7a94Az07qi3EuXf1H/VBUx7jIOUxvaypRmAV4tIYGpOgPH72LvDHRxPmSyHVJejbnbyQEjmD3vSFi5Pa8TZcVKbfLMyXX6994HD7qumy/DA2xgBL3GTaGBcu5PzJacjrcBf1QReySWqhAxfb74vtRfZ7LQleHNZTjDBANZ/0wJ8UOIoS3NNoa1Aeyp4rcgV2uyszNsIJu3fXtXFeMfkE353IS80TtwP5k0fCCYjz6GYuSVV3GDIBHFnxYqWJTacQHNNrTxZBc2LBChs/ZEXYkrlc4W53Jv+aMeZ+4gm1ndmDypCYYeFKRVZpzZDblkN9uvyvWo3o9EM+pxwQGZ9OBfrbxHB7DjRuwO7xKT5BrC6AWnDxWiluaAXCke++0up4AUuhxsjQxc/Fl/CDER4MErn+GGRv5SWiylaKtHEIokEBrpCHRgABJxeK+n5tihYijySoACqG05OaWllaZOUPQ9nPXBht2/k/FgXseZ8h5sa1v/2iE0iaJVOhk0ErMKvN6MzmmqbOrCM+aCXcaEbg5+eI/vTfl23h5+2zFrmVCrvRhoeBMkKBI6OtjS4IQA8T4yxN86oo55ByOUsiqbXG8SXTelSw/ZoSjx/pSqg6Q6Ld76KsVtZ6WHxN7HERoq8Fl5D/8K/8JCDxGFI+GbcymR+LsgNepQTnpYMV3FT0not1NlG+DoxUh14ITr56ZkOv8kfHxjV1/5mEO1FGW13wZrGBXs6v89tulYf0xrV2G2wC6ZvRwf4TkPs9doE8SDi1tX40xh2AnOxNFJ9zK1YL51EHSq1PTreLRG/UrHqiYq+8Gwc+sy0fLbvEr8X3g7n0JH+9obraq0ObTteWyyqoUuzbfbQTc056tONv5/1ERp5PfT+gNPHn8Vsq/W6ZRes/XatXAvdTsPR9qOS7Et8U3FzGqN8cAYYPjSABuR4oePbeyVXGt0LrjSteccpZJm1woRPmFU+7P2FN4f/xnpadCVHOHi/r92vwS32ZXsT/3Lhs0x545iWoFdW2mKf3xvAl7u92To9PozwEb1zWsNEhvSF6T2ILJbiIyIrfXSEDm+/FCTHzw41GUDF85Er3IEqW4fId3wal8MPe8wa/mI6NPkU1k3unq+Ut4zdBiyFqK3zjaR1CLYxsbZoMJrnNXv1/EoHT3GCxhfH7M+iPt+X/upvi1/bGHMXmrmDZ5nfTjHJJ9n6gbChrVvRp10+QkqICMh93e474/0EX64tKGHNgLCU0UNkRcOLWX9rDRM8fiT3Z9dK1X0VTAbQEefxhVTywh/PQ3vKL9CfzuqWNqQTLGbm3hO12JG4rfl5maKMWg/Id74HEJcOix/ZVmFHmZZDKKME1hOj3VSmry78/qDFg5q0HxKDcLMlqOJkmHK9nQ+SBKfIzRe7VXbvKKuRoj+uN7xofcC8JneebZ8YzTnzUg4tf7lk/o5+MinRdfZsLjB48is9nzn2MOS2UK0YmVV1528z2yJBx0/cykeh0WS8sE5wmc0p63D0oo/wZIYk4EF0fwLbJcATWWX9g/O52Ft9s/k0z92IuWVubbX+0nbSQo4PmvaIOdxHASoL+gopsBeUNeV7MOgz2UGj5erGlCJvG/NwVR1S211OXNHv1IIl8oMs6UD5mEJCMUff7sqBqkoBSRvT6zrzswn4q6+0ufh2EXC7pp6ZqbfjF2Et4jTJI2SIEYlKVcea1IGOQRnPKEtBYEXiCkAUfa5TI3SE6rG87VGskp7+ThSRoGoejoJOafVsfhrF9SAwOoGtsLw4Nz7WxOEivCHcbbegjEiMUXWU3btkGG5YggWlJ8SMpPe1iqgXiNPh8Picb+syTU2zR1/Sxqsu+OKzFaIa05DAa/6G8HyaNpdxaZ+RpA92+xir2QKL8gCKcXOp79IqiCewGtt9ZZ5x9eQn+HLntLMuPFG5pinlCLPOqDMdM9REKKKzsspBeZA69m4MHy0gFGGlNUslPErVj3k/cojN33VQzOGYKwOT1l0QsDAz34cPP6X4zPSWaDvEqt9rCc6Tf35SEegug9KGL9s3jheAItG7hMHwTCtocmScu44vjPWsr98K8IvdzrSv32J47/+422YGh1Vv+VgLoBt88JgYWFKgDLGxXzgO1CC8OmSCOcngcO1yxE8igT26bvCQRYdDJEfRfb7cJHDGJ9ofrbYth2KK5hOOchMSUtWQPan5WaYZwQDA8Otpn1owuxIgq1ZTR7aEQLNtt9Ld2yfDR7heQanYKiF/Q5rE34YW51vWynRGGZ8F5NkInD5PhR63h5ZJ6v8S5JvkjmA29kihym8EwZIdvdQAJ//5fx3SB0k/0T92f3leJFdo/hje7Ov1iqAZCqQfldGiO/9eRYugb/dKvIkGB+XW9+cp83SAsLV1lKYeUvtJbhFr5nKnlagcDB+hzd2bphMYL/b8BmNXFivUzGhMVnjkedOIU0Wm1y88OFudfIUmtwMXZZXAKmTLIPab+eidrLcLcc3zNDDggucqB9fx8tlld2fr6a67BHeKcD2xiq+ZSS5jWYOuNlP5H4XYBwyjl39y2YTkH55QZCXNMPqB2MGFqP1TsHjCHbCOnIRSy1nZPgr7fL6bIrDDSja7+mGmRZeMDCC/Wx4nxRWkaK4aSVEw9OyFjWB4dueB45qBL1tYAU9clxGMv7PimwO/AUEVLntf0t4A2inL1VL//cS6YxZFyY/Z6pmO4fGy5MLk65ThfVvkbd0bXSJzvjwBQOO7dVKXCSxhP/gybc3SI+qJEsXkRsUDhvaVe8CGB7LGIbI1/yANnFTOVaylg04dXFJwdOJeHeY3jeSUYaBU+0Us/+8I1/Od0za+bHdD7iCC4kOdjZqnAYdQWINDUhikCmClDWC4ggmEYo94ecN8IxhSvfnNePHMQguPnG61h8icn+ldZLZh4b7vyGHUFwTBHsTPXPT2pxp/XIZRFhr44lKpz8tE3wpdf49wxFe92qcjuBDYKJza0YYrHMaxECBun6rGS8iYir9WzOYdVHhOUgNlqePAKWyZXNuTBq792kgXGvTkjZOHIKCPd9xvScwIuuIgDcJvBJsOGohm5OpU6Uv3b1XscQHmwPc3v1XoF3yuyH8rmDoKPg9dcXbwMXVJBYWseqb8fNWm9Vt0qZKqnQd3dZLv+fMb8GECwZTDWmQTXVpWxskdSk+6PA9mLOpVD8QpzpjywJYvzcirX6hwHE2Wj+bmH4FisB5ZiqZmoPQr2QS4quwWjWvTn4RxfkfOqcTgJ8tTJo51qyQf9sxVePkkhor5goeBBCHC+xIe86cjFHbiuhLNTbqsYrHsxKFbHHXK23DrHhfZgkAikl2Cl+WDrwAKfmj8qHyEYbEwBqpN1vOxkpm1tRd/yCvtaz8B/VUdwToj0U5Om33Vq5a0sv7GEOw2VSWIMuMrWuRPlSOwX1tmG4sgR1h7EhDRhiS8UymRRDETNjx7mC/G43BLn15JhWhffsunXGnZDZo+rx1O9hFjKtNCUmnR6Oc3qWwRgZ84aPDiKeEB/E1hvIcvwEKcc96D0/Dn+RNw00pn0CQktT+kJQEbrdiQtk0/UjQUVpMRx8LVHHVsYh8OKgj846A0ongErxUDHLciQB2FWECABkENdevO8rlax6ewBx6OCH7sbwxYCtGjeGy/dPYA5VXK6/TDCxCkYqr/uT+8S5P4oHNJ4/FnJOnBL7IcVeTg77Z8thMJYbM2iArkeg0HDgbl6KtGyzGNTKNhZGCj9jJMIGf6TPmzoy13/AuWgO1nwA9GcKFiJjV9cgB9yZ2qFmMsh/sGwtlqevpNWzr1jtFNeAejatWrTgye8aRP89tagqz+0H8vhepB9No/R8mU0WDB0RgxizVNZvUx9P6cXqQLlaPVnagQR8xuQ/ckVrV/lK8Hba8+3en50cafBW2udfXjHPBT9kxQ6FTzApdKZUGvAHP+6maG5sDIzOn2lYjsr9flxLt5qhpUsUNIm/CVu4ZmiT1bogExHznoAhDlZ0ZSLJZUlO386rhTeLbTDBj7AqcsWDMZXr2Q7r70YqjoJpPIwKraRsIij2+bolzCvy3y/Z1uNPqmKZ5kMectC95qHgA7KyiPVjOTJ/3fegO4ksijzmusZgoCreGrQraLG3kvuS3d9nN3Wp1MaA0KZNmmFpX8sGSSdq8qvgJai5B48e3gFMfX5zdoEFI6WXwgm7LtnSDZYY42y7gIir3Ft6Z4d0VDpDSrACG8IWF5UGB646NmR69e0On0lpoIha8mVXXmxozy53O+l9IeX2kkBYjcXb/6+Vcm/t8aVTd2mfrRMRXyGbud2y+hQITe8Tij67IDa6NI+hHX5yPg8fhXafhV0L+ww4CE/yybme6ptaEdaEujgcpDQZ019gGzT1+K4XNoAgT1DLUBqHdHqjB2ARgM0k/ybUwTo0cBJKrHrlYLtQenYuwMPgZGrEjD5U8mTaF0Fo6QqvG4D1JK7cfTj3E1QATF3NhC7ANXy/tqiEH1ilyYxvvn7/zROMUWaBSTk5w4F30H6Au/Tls9YV9jxgB2wJyT3YNtALyN2bZNz1JMp/2R+p8yEEfWAriSwMrxizly3DqrPvZKTJPG8dyCWhYKZa6LunHJlEUnhB0U580mmLapMjA1vg/oAcy++2SWuOFqouVsAWT9/2tS4EGGamqf/Q+Sx/o7XhYImHqV2dW3sjCEbl5zslqqRKJ05KSErlvRp+U1PyrpvirUnxL30C4AeLLfytHVcTKZuI35hcn3qyQwGjwvIX+sW1qB1LAKMVF8/RPABQhk/Bzg1BWHw12evZ9QLlEmT4ij+2PhpKGrL2/TDoW1OPxU21wmXIIFia5RPfHh9M5++qn56US44tAm+EITtcbBzG2JXdvFQdkhOEL3QC7zYo9oDLWRxOKIzwP3IAJw8tww3eKAbO1FDN8uSXrgRw1mFcmbgoLulwizLBTKGg9/PYF03BhVqYFHe5o3TNvNSS1vP5eOofJnQD3VqcQZ4Olh2/zyeqegGMDxuQPoTUB+Q5fM/fo4rIEnUWWMg5Mf0pb3gL4OKxG2jNaLiUa3xfm9UTKxLyc20shmsAR/+83cv7/FPOzhEHwUobXWyTqRgyerSJXP4u0otQ1h2MHVchmNMlUczKXFvs+2y+dZ2afra7BVfbdVEsXV9ta10sd2uVvEd+2673R9y2zkmpgfVlBsTNINPs2ykPkXl06GPrwhglX51CKqujfZXln17V6OYAr1KFH2JV7hIASoWg9kpzvwwijQ1L0sIYcCfH1nD9COh5CnwMH13/P/Rxmj2KnTwB0uUWNlHy3MwBJcGMgscqH1/K2MPwXORQ8NHMG9Jzd4pER04/kR0Q+9SfUVwaB1RVeCfra7/q6iNoaJlhH1CAb4o5joh+E+FXVOK/VUpv2M+rdaoi1ysl3jKNCtCs/MxkdpYqJf3+iruy9DQZgxY0o1zb9v0J+kJAaguu6QVcvaBfN6Pznw+h3Io12AcpvJJYb5N+iM5bnF/KnHYee4UZF5CEGtFc9zP2d88AwJaV8J2BNZruMmq1151JtUfdwDQNAzZlitdad1ulHtRN7sFNVYHpnp4MfDnF/g4B6GB7qpH71rZrrNa5/m48oUEeWacaGBlBjsKEwnWmb5pW2hN+C0BeUTuiCb2k8UPmm98GHBiBwpsuCVYZI+UMcOzELOzeBSE6ZRjrv6Dgl1066evkbR0d+O7U9UjlN3E459iLZZusihOhp+MNFbZ0TSLDu/9BtbhFHO/IyAsvw4EvtORzBATw2RL4h+3y1OB7fXkxFOZ9bXA/DH+82ir6z1LL6OP+PrD5ZaRP9mvsMj1Y6ykZY6Xc2hgv4MOHRF5yd2vAChKSfXTlIWumE4Y6BkXE46c3gaRZC+eBQFNmuzagPUcfBbcxiBZHrfr1y0ItDhGDbcUeJXl8ng45pXGZlTfGiFPp2sd8wuRDYBA3vN0Rykh/zqLkYYg4dWDOaqz3qNVOHPhTyBqgsmnKO1EKWjbEHsP1/PAPEjo0Hs6J4hmC/KSISG/7u39/eOADJHdH8905iCYHjs9qBLhKGoDq3J4p/vZ9+DzOkf7eTf/cGP70ZB9yt7BWdHJZaeIKYpB8iCW+lL3hyWFMjyEzFIILkoepaAkRAZTU7R+SlxG6LKLO9oMPA8GJBOAyzR0dlnpp/x+5q3Sax+xbuFZtPFg11goj3+CywBCArAAQ1dcRDIUcGkqfC+Ozw6vITdZ+vnte1ydc+VdlMcOzmwdQVdI90tFcL1SyP0UVimDxvDDVbYO/uDjnHpLSm5C1cwUadCd4QxBwgd0WiHj/r3dAUlMyQcpO6LV7SPYM7+nb6nO/uQPyZie8unerMy6SyinUa9yW7C16Z2c6mRd+zSjk1z5CFeyl0A6qtRlAmGJakdsIpQAspIl4TH0p7eU+HXaCXl2fcSNglPINacRv1HXKENGEhpFzkU0rZ7axKgvWpJ5CC3jjm+mDfnFu5T0nWIULlofC4AHdiWGjwGy9CqCemKIJuW62yKaZjOeQfvMKyqn60pSkMve8RwAdE486m61twmm0YbCJ1xfr/qySApb9atoIas14Nc4igN0hs6iv+896DeWHmcfxlMWZhLgAzYSuby3q19KvmX6LUUxkAtlRH+GAs0RBQCJ289IEJJjr9HchThNUwwKp4jisE3YiF80y1rlwA8Eq7XqoxNme/+Y/IEiVkvoh15WhGglx1xJb2mC93MLI/q+Fk/jD1/eyGIWSbdz6W7mpce3jS1ET8EviDp+zmJTVMULEGd/PwFwo/FPMMVHYKQLRxtQJAQPb5pW94XS71RUgAlgy1QzrX8rGwI9kNi5O2A7ljEJdthliuXBZW0/oz+UELIr1t9YWLevZJri1rxLtpdFUMXEMQoXwZozYaXDS8kog+VCnHWAZd7BxDNF70V2uaUnX0txHrj55bhx4mgXUmIO/I04dLVyYXL1TBwJ2EwasnapuXxNkbFvu51ZK/k3BofrRuJm7pQUNWyhVxUP5sbnFHgrTl7u73QyYFEsrQRQMT39jqOMfakjRbN0BM9ak1246gjcgD62NSnLn0FHaaBfNErN+N2Ydi4GXAxI+aK0RirC77WudxB498+EbBzAzapXrfS0TlJIhYtUB311+lKkZin7THMycwDEpZ2Le/qK+UKbgNdqFlPWO+eATBIB+hXz+CAR6uxjrrM8RAsh7L8+U5JwcrU/Q3neEvY3KT6g6xAsAWX6jv9LY7sTJmhv9+TfIBS6QT8Y2uhOebi9nsCyKt7KdUvzpvBb5saX4INaGeK4u8r7RO36aVGMmhGWz3NW5bLGY1K93aXz8/MlNP0LXmehg21E+wPno6LWgJXkDWbPnw5krYBnvZxXnvDQxeTgV2AOJXcc3fgb3aX5iKDaYWxLWDr5Vj51gn70VDG1vrQtX9QkIduSGyRrZIldQKP6c6SjsXyty2vrUW/zjvvwwqwUCILc2/MRHKGn3ZsLi9UnHwavKovPhcKVeCxmrs0l6ApcY65MBsWYT/knccvf/dgbjYxJPtDDH3U9zIIoBMfMl/HGozN6/cClLxUGECiMKfWQFRnv56fr22FwZ1KoZBUSQ3FdQj8e5bNbWJpK6x4Nat+iKMzQ0HqfBazY8YHCEPD/czGjq/awrUxWGl3uzvmJCaU+s6D5Jv6I7CZjFnnKEVCmduQ3ewpgemMPgOlTigesfG9QzHotZZX3XlHPu7fyVxLZuoke/OZkn3fiMHEtVrBvFOJJJv0kQkQpFSJgRagT9ZUSf4ml/R0NyG/jUL67EUMze3U/51tH4QUJESqE+RO8hbnMo5B58hGmgbR8WDimyeDQ0l9OLLGxh6V9W+/BMno8kePo+HNnwyROhrPvt9Cpt4awtcoRoEpEobPCW35iZ/YbV5uhNSy5lSG40Ri+9j7JkIsiy53innoVSugL6oyZzfewblbPH98sLB/wLf9JNaQywpfcOYIDar0uD8xidK9z3u9VnIB78VSbWzo/EzYq8uNIZOGyoQBMbT5nGLMPsaEuapEfIJoOseSR2tkptBmVfGrG6PkMFA6H3RxRGnd3r5fZQluBUiZ+tuV++aYOJZmIIoUc+V0ATJ/T40xSebODpXkqbVcc/nxolXLUS2XnUFEeGZvkZWiXvfH3jl4wGh6Nc9xDz3wEJBWVH1m6WUXcBhzrYdfs7O+1+Icf5gx8UkWjS1jK5QpM62uGCIbMry04pqWKYDVnT9835M/OF910eCQ+tWvxsWpvXjBpTzKpjvdzJIm5QyGWFLuNosKCv8ypXQiYaqIxL6ImR/0ceNiSAAS9bEpx7H+Qc2fVtnVqqB+DPWum+yPdPO/q4C1vKqEynb9v9NOXh+IZaMmD4trUnMOyArFTJCAKvhBwQolDeKFaGocUTdWmHf0Mc58ih9PGwzg+eIPFldPjnlS+QHrbxEk69UxWB/aglwP5XF++ijLjZAojPsiNVjXvJGpPo/KSLN9R+hxE9mtVciJ69YerM6eZ4EYXEf01AlS3Xqsmb7cOdnuCISD6NASAbbwi6jql3gGBJMJGFNg0u1a6yEUx9t1ncpoaeNkGJlhFecj+Ex9Kt4UIvoTUWiJR34Cm/EJO0LLSvmuLsaN4qK4XGBAmfXGHbQ3E3x/VXR30Tu4LYTKk7T6kSfgN7GJ63wzTdy4T5zVf4plwkeR03gjxlTRwN4TDNy32gmAN4njANUuZL5fsPqMezdMoX85wZx9vfrzRofbIGRMQjDel8UTyegLp7f9MHCRpU1z2w79qdK++U4OT1zMwsUb+u2+2JSSH7jIwC+CSPXfHZTUBrczMIV/z6l5JLcpnYOuTDxX+I/oZ7q/0aTo1iCHchvhJaZTe5v5qokY0KeZcJakR2HtSix51XaHRPqO2K0LuGVrP9H3aauo0vkFAiI1CbVWwi4TAoaVfSfNgDSleqHh/Pn6sNx4LqokidbSjFqdWjktsLz5oxf4QmzzTFaOCRdfO0W7Y6mrPTlb4i+gWb5czeh8Hh4/DyMd9it5iUzHSYPGQSwlBzzuRQDoMe0H7jRlbnxQ0K3gve7PFMJA8xM706JNjDKKD8XTLWNXhq9ZLbwTcjMTUwIblb1yZSg3ntTpjS3tuql2W0UIw1FiwC3Oe/wxv6RnvFixLdW5IgRc4tvemsT3MRCIhmel7Z3zigzVmcuWbq4XyiRULRRZFGVTl5uRvR2uQcyprBtWkj29NeilSyai6gECQGXPWBL6nrWyAW2sx0sToT2WvO1gIa7baGfCTpVQFdRxNh/MnCggm/Iq3RiYROtGtJVic3VwhjE6JkklCYGnlNqGOnehzOtr1fHkO1qqWRCU/u8eOgjTpAtqWnUo8DxX3k9Vfvmc9ef+Szp64+Vb27P1wMeNZF+qqs++4LdXBsjQCE5dJzOxWnwNkYmGClZ0Ngl0wBACCn98Q/gP/pH9TsDU5VfY6q/PxNx6Hjo7VVadp99+ydXbmwUOYG+yw0/Er6Lj068/8SRpPj8kb6derCwtgzOTOVCdTmNe4clZF80lbGexlRf5iIFMHe8BrbX8ZKwodn+eU1sfJxTInApAm3MO1NLlEL2XiNubTDJE96Oy/Rjq861kacrd+HOOg0lJiW+j/piSG4IeTw1Zu2OBk5Z9jgmeMBGq9q1IGSbOX7IkSQoEbprAx9yMsfX9mNbfMNdXMIoelPMAOFT4beJNzcZjLHT9kGBO1BkWEGV5RhI3pa/wzAXLQKKNap1faiNySq5+7pjQqtWvjXuIZnvGn7ok/G2PhfUpNW417NK/mQHn1oJgjNRmYMO+nBplpJF8F3aah7ishlSoQbxuJib/4o01HsDzEq/e8a0M3t8VbEcPcYgBQQkp8pvrmUKQ45hW1FJupJ7xjlo+ljie9zQHdb3KSJOHLlEVjoaB/nbUoabPclvRk171DaBFtHdbeuHTDeYVVkEo1ioGtqsSDK7Z2s8FWkK/SrfBEuVpnvC+0rbwoGxL4EcBOHzAaiQGzaRgsitZ/vbis4VUlqhL331IxQiAoVVoqLwXdaSwAVUWahMZYotfATBVEWW2QqCBefBOkTtaCD6J4xO5WC1teaDxWChQDBT4/lmPjnFRhxdv3dvX6X4ISn4/PPGne0WRGaaKnZVf1II+XViTm9js7/dBnFPGSk/3/Sn65ok0/CwQBxk6j8dqymU8FEbeGh5MGMHigSL+wWy5lUois3DYBEtfj8UQww+fGnyCZq8umq2zsfg3pVExS0xya11POUNJBayG+2RuMcwK+nPBwXIOHJ6xc6WFRxAkgjTalzQ/W9RMxp9p24zDy8M60AgzFL1qIWx7kB8BmWKOtH/B16F6WVC5nEt7JdGjqLu1OBVV1P9VKCXw4QVEfvW6nzfOTxhYB17VXPLNSHIn/Fgg40RQoEX0T9nzd6wcxCVXPrd8gz9iJswFkz4cTRI5Gq1wjwFPg0gmzQ0eyj5f90cF3L0vZf25k1Vxd0WrjI4NzLZjIM77JiExZ//xdN4KDipZEP0gArwL8R7hXYb3IKyAr1/m7dsNiGY0I7rvrToFTWMGmdMJUGNVm+09imRGrzvuYh8Xa/H78QgLpN8NU9q/DKnQYSgx99kV2BhgSaNaHnAq1iFGpIhherksnNGVztRfc9mo0wDLQg+UwTV6Q+DW0eUX1BJ8YlQbmNGzI6UFqzb8uqLgdK0yZ87XlD/ykdnsWF34myAZigvJZCe+QGXLp2Xn4pNR0l2lr4ni26gfVJFUA6crCeyY5cf+yPmudw6+Xkpo8NjtKMSs6lMxyPMrZSb12cKppBhuYn2Gwr9zmoR3otXYKynPKfF2Htac6+FI9buoFd8II6AJyMNREceLiI/OoJbLdZy47UsAP7p9xljhEzq+0bheEpDnIDU8QOihABekSTAxWtAIkOnDL/eQWGA4p7tdVhXOF65/0lCVPk7chGAZWwDJgeODtk0FiHu7zKdEqPd3nxgzPyAtSb4NLi55l53mOr05IfbmKaH2bW2fokLIh2sdT7OC6guQJNndPIMKa4dhSQ36qY6eHznLjnNF2VVtbMuKJ73gWIEN2VuEdLYwNzNn9llFy7m/5czGIcKgSNZAPhahaT73MxggZ/v4q5FwtA3NnhoczikLEIimLcWFnfhwUF+ohWwWQd/BzAWQojU+okiCOFjEJHbACYv5V6w1okJ+IXWiEVyZJuvxqPg7PsLCJasUo/v3doyjZaSv0W1vG2C8wDAOHpVDvTB8/d288VFMCfohrpkK3FxIa1qpTEtPuI10l7yAFqKH1Zcf3zrkAWglVBwd1a5rGNtIg6EM9GF17aUec8zn9WGye81Ns2E6ETtihoj9bZESgtLfqu6Mj4ZF43HOsa/Nd36RPWFuDhRLdB1FMI2b5pVam9uLNV1/G2l5I/ULT7mFt/DtK/I3X/cAyEOjBTLZQTIZnM94PC2QyjIVQSfGzWzzS4QaYpn9VZmxObI5NWJ1dfSBx5e/jXDlDBSiQ1A7nFPLj0WT2D91clbBK1FJxSO3opz8lxa9DUu1XsTGoUzOGY2a6XFuc+hn+E57eAG02pM9GTW6Ri+Sk4WafBv9tXgoxx3ARAT7tQDVG7/u/hu7Mf6wt5nj/aOGMtGfJXGGpRabT0GlHjpwJI7qoMQ3XglwDXoigdD56IA336j9Fq4+10Wi0drvugkieS6VjEXL4YpRsb5dCbJEaEc+7ud17R5RabeQQt2i4BGvkeVdaQZmSV27MOvCF066N9H7/Z3dwuRrZuxmIsKn9WRYwL6v6PhhUHWcpmsBR9v4Fb+/fad/jquZDT84auHlzt8avFtIGU/D8xVxr0hTjQ8a7kisUp8iOrnVTACh9+vGiQoT9fuzWn+TPFKdOEGJkKsBb90WggULX9IbDKLllEmwstF/M6XzodGw6jq7Tu5Mns5IIqGfY5dQV+vLgoedxnAXMDp2bidMs3UqfBnLF095DAEsDucHU4tHNn1YNPdMpKqHa2ZAEDqGoG4vh5PwbepVQ9p09yXKzJt3vVeEJzyUD05mUsmCJyyi4gzXT5JD23tgd8bu69MktadLw7O5m8MGchVEsgBAlIJGlIrm1Y3AvWy+yKqKviOpXy2lNhPd+YNfTXVvyuaTkqR47lQRIUaD+lQLcUcORf3V97jl0VK3QaWFI0g2gJVmW1iRmd7JWKeZ8UC108ZXA6wDQPG/zXT58Z3l04knR0iUVoaV+3TuL4HwYejDs24ym3sQpVsgl4vDV0Nu8wIy/e05mIFSlUyyOWe++hCrE70TMDRteeKtY+kmkIvNUE8RhGde+0Qq8MvMuzFFijzlY8xGbYR8XIPNXdP9WyDkI/zhcfBLfNLIT+XV2ttelilp7GJp+W4SUUz9CknVaWoMF5Z164zLDEIOzbY9P4FBof3OyUf7ovmt3SfAmd2J286qBttyh6nZUKApffSD7Txe69lfVm61r7QopxUhz72JJ0qRsw5/IVx/V2LXDHuJBN+qEzzzgOWbZmbGMLLR8/kT+vbXCJp2lc/U+W6rwyV27C3dE8WHObeTDsR/u0Naf499I62N5x2lhK4xO0GAEsNsIWlGL3JVtO/RrcUmFWfpmToMfGE7rWIa9SDaxLGCI48fDVGos+QFrl4NMeF42gOu58OkIF+k8KNLg2vbcfWNql/slg9MA8lQHqkWLyhPyPYxu6ZKBfsiluOtWNuSEshInU3vd06Er/mwYYnBZA6vafG3nq1MJGWX7+BvVzEWoTK9l7AZlyJcFHO9FT8eBOBgilXRTxJW+ZOMnDKEbTPjnir5TMZFZbfc6R2EWU3AtkHaMoNO617SuooWeXTiOCQBTPq3wsHGlGltgYduUs9RlVJY60+mAguGgT1bMyprnFAwdgPx5Tqz5Gdssx528FTmKy+MkIeYNKlyjAN7VvS2g5gj0m6WDvTtJHNBQiAZT5p7d2ud4yBJprKmIy3qV9YoyNSjr3otfc5SEjeJpRTmpM9r3zedZDms+1Soqqfldx9AIjdyRGMJ1pcR5mXd7EYV9a0JBaLgPR94IvDokhsNrBZswCaX6TYyT9RxQ+zEul/DLj+qw+fft2KZm/XryPYmXiEMyBJsLiqm5klWFlPj4c37v32XstXS0nSVe6cuqM/dqOX8NrIu4zF13qRrRcX8e96oycrS6RzxJwGqmy54vgtgh+w46K205LXfogR96MAGLoogkv1gOOp40SPqn2ox/flDGVnwVTk6r0M2OQO4hRJb7KpVL8jzsylANpPktyQ+g7jmmnQzpF7ferN1UQVS/hfcvirBI4h/POU0cgdAVskHHFj6jVnk9neIYGx0C17W9Jqc3N0nfY37OjRpujF0X/mTiksl4/2CgRm799LvZyDNby8T9ZKLRVgzUs+gOwTBG0VQW3EKEMUykF4WqSqx8yuecB83hqyI4gf7eHc/JdLhYUxvI8ko9Pp8CcdvRGptuyrYmzxxDPXH16fUmU2m4bxDSKRPSatbw/F3bhonTqkDDjc67IN39dum5NZbN6qa8rvx5CcXjN/wnLxx2qeFDfBhnWRzv0hteF03NIIY7FIXZi5iT3XkcsDQ7Q7je01LMsE+nkbTLRu0vSogyAKOVTPJLkIPVvXX9nZFWR1nAwc45y7aLjTfizk55gQ0L5vk18R5fYR2vyrGdTkxTUQcM7twCa+6Ia8t6aUqNddSsh2DbBZPj6/eWUUgOAvQBX9HfvYC51DskUChJLM1vtfuZ94f+5de/sxU/K//eChSls/FS4aOVRSMRw6anGrFyC/QM0eB2Rnegx4fD77cyMUMmOjv4kHxDrbff+d6J034sRp4d/sISrGrqaG8Kvovv9a+pFdSqyLdvLbNFHrmoxfjtIwmfLOQV/0iPfxECaRn3RqnZf1mJyXYK0FmddDF1m8noACiD2gGlH2A7+XmkOX6uExV0zEpR321YR8BMOHY+9hTOpm2JTcOm5hvbPIF7ANuZX+4PhaHFwtWNj/7Xau92bZY1aeus3u3fU4zZoNpbth02eZijbcSLiTvzxNyyT39SutZYEWa6wTClbI4u+T2a/5WgICNxAEM8fhLkOib+f36gfeSq/5xBNmWCB5keM2PKNNYIrkVUiU65ivv8nMdNFVTZ4Oa48ZyphFLuSk/7ya4DdKXH+MEP24Vw1HEnuf2EYG9QXc39dpqOG+uX5cLCzxVUKv469Rw9fHpVjS1L/d7OarQ66LX202rpGNPQE+NnddAydkfw6JhfmT7BBQGW18BlcMtf+1muHHphKVx/pB5qAmog3dzTX8k2yYdOhvG3JK5ZnhT9CeFhIjOG/CDU6DafLYFzU7XiVG+S08wZlfALbvKaldDzj94d54cPncf/h0E8CI0isZFIpHSJR8kBMtQ/NeASOyASEG+ZWTBGMay7Un6kozjCRtNRcLrO5op8xlzDCpD5JQ9ibKm2NKtuQWAg64HY/WoiaxqN2na72RwcPzZqKs06YyVoE9MgrVAPPKUmjeduVhbzRLstmTLIIaoO/USjReEK77R9oShlnoX8Pex7B96bPi6BViwVNaFNZY0vmQmcebLW2PDF7bC6L52Oixj4YHzHNK8tDI9cjk/drSp9YAOS078rC7oM7D9r5wXOtHdQLjddOS3NQkdpi9cN8/bAOYOxhBHtTzEtu1mwtq/f3z+ibusl7b1Y6AVYf11TjSfVZuXCV0vqoPiGzYfOKMBM+grZNqnZY8vVBm236c3yHW+jIPnlC90S47qPcpP+sFuPo59NzgQE7zeBx33aQtEu6ZSWcbBzDSkPCfsotHjhIDlp7mqle0efiJtjpzLMgiY8ctQql0JwiwdBKcconTZ3QV9yhMHys/9URW3Pwz25zrUllpjnFW+UuvY3wuvrjBIXlYlgRq0qkGWu1hIA5S1bDDYGKBDvS1pL886XsS4n3I2JURB+/v7wmkAVpRX/DAmecjzm+/XdGRkZ7zK8jZFDP4uXBxYDETOEqaojwLnhnfqJg2OaQJFC+p/eIuO2bMom2iyIkSP6rqUWRgSqqjSzDM4uu3Eysiikkta+QD4GMz0BZC74kJ1cK0HAr5Vjo2VpiYJQE/9hl6FtFTImUG05d3U6JfV3RkQqzMfmAsjVu9tuadWGgBxCfz+jmpKiP1tUzBd/PLVJOniC1S6qhFgFHuC8jDErkKu6OkiyhEiYbjtwAZCjmsWDKTDTzwS3fzzVVA5yl2cIfn9XN20u062Nic3HgTzmGvk5sLkkybU/vc6IckLJ6F7vDnsjGcOto99aGy90DIURVtHyxy4Qa6P/jj2+zV6jjHgQWWF+agPZpZDRJIwGlOHwf2FX+2DXiIrRfWcnx4+NvTzczb9p//AyCqB36m/OY44AAYproyq3fFGSVN8KogCh3m/1XZ8C80aD3sHZPlLke4j4gGUtUXszAZ+IvlvAsxaYEWFYrBffLMRpwfuT+K7SJaSd95saZwSHi4CR5j5X5kl0BTlUtcfTuySCPM8jdzD39MC4DEagD230CSrTmvJXjPpskIzC5NfMbSziIP6285itEtSPSJwitgnxmqBgoVH+Ht7PUwDHq65dZmMGTeCgyTFAY+cpDg8h5sHvy4V6gJTVuzmkj04FCqKH0n+fXkrwPOCEH5c2jWelWlniGynzmH89HYFtoQmeoNvCgBhRP4OK8yL/rYoxJkOKXC/SHEOUMroJIzHXSsyp2rkqa1yPj8KOwbL+ghY3xvfyNXETtUtgL6EtcfNq9RfZTlHAEP+KN+Hpkd//+2JDuFxDgxbVfVeQGD8lkze0Ooa0+SyGCwE2h1F5Wa1GLyEzgVnGVvUyMLGjYxB9bnxqf49r6u9h0WlnCW7HfJI+pelrTfXl11Zmh8pgJVxbz7WFMZCMoBjm+qw55gYkQt4iF6JIf1M3Ew7tho47LISINPyEq6Uc32QkWY5kj68SRnr4aAtkpa7BLSTSV3K4G3aYocA1f9GFDXbpVZL/gDFjCgVTAnFw6eQzMiXFIKKb5sMlOmA6taVmf5i/IY/KsO/TTdiWESbIMfZW0ZMd7Zh64pclFyjxBplQ0nvC6ASzfNgFswivqQhJspRuptwbYvx5QpIfnFo1cL+Kt17NnJlJNtBaCtZPTWYcfl7NRSFf3GLvj93hTIfGboxQI77yzo5fkdaKPw2axd9QPoOYSd0+vFoYgZqv8pIiIS2C6JzeN+/W6ei0V90fjUdLqX9g26sKRYGgzG4Ax4+PJEEjSTN+JaYpF05wq/clvPS9GYpWucmFJxuqtN1dIRP/RjtZDvjvCu2ufGCxItSroUKjSdf00q371wLSpIqEGBFl2icxHqKAYm/gT/52/UjBT3aZoikb00ssJfp9VTeTqj7NahmVHfZQK3L7MCBtyySt46Hl/f2vPGj8gSbB4+tmhCEWUkArAR4lpmPpw/sowTNgVA9E/LWsutjwnpbkNIRvwsbCI6xu/iL1n3vto6zPZ0JQx6TBNzonw6y92QcK2x65ttZGa2++JBSC76dwDSINBaJeXaiQU0eZExV8Cp0cXpupl/XPuBH4x0ISsiWZP4hSb4+0VoO55ymuvKgIPG53do3v8T5fc+Bc2TtudfZMUIOlU1s66lpaeav71mfPvwkwYKqdD382Msa2A+RHFfRzEbIsDN+xNGeglGCl5pTD/HQ8vTyZJT3/daOKtDDoNqH43wnFiK3u5ukVa0jpe8YdMhfQvzorNiyl1Lsgx7XhlH3v2vBI908jaeFDOP+wb4Xwc9ZUIGtXSKFVNozxQjOG3sACXwLPRRiJDKWZRrNIuWXCxQU6t/GWIVHthiFoYaS5B7DpDjHYZpnNLb0e2rWcV0/H5LN6o4CQgGz/Azl7wydvuEzBFV8ilM+ALNRfkgcnN78qfa/B1fLkyqljFUl0De851AyvYJTIU6JGAczcwgFikF+28rNaZy3P/yunY+y2KM+0hkV/cN2fweJ1L3zKNmtYLjNKvFvzLtGgGTUhPIRnU50nxGicb7brSWI5k8FmhNj6iq0cX2Q36tm6vE2pzq9aWskM7d4ZjOn3kF6yHtp+WYnR2LfQx7zVR3voc/5dRwQ8r6fqZNCE6ql/Tvlb8TaaoYj4qb6WFESm79D4b8TCDZK//mFQvbD8IPLdaZnRpFbnxi06sD4rgPbDu6AddjcuY8eeTj7NTOQDPvFhH7KRkzHRww/NjnhNHHdtZJahZKHh6qxx9uLkBpgz7d7kibGpNGbyc2GEwcaHk4MY4shAgU5NSicGfNM1gNPqVXzJF7FeTjStwrpQvUNLD9Lx3UL3N9TF+ozXPkhAaxST7MUZJdSu32Lr6kS/tqketqyjILI/ogCYyyPQ+1nNWOzEwLTgXp85J7f2MUjN15fPqgOQLpNen2RJz/pX41UI7WD3/QJ1PHnl+D2FnJEfQxzOdBPn/Z3sFRvy2C0Sldr9rbUAYCOO1VSHxE1GiJo+Hyed2Dv2y5NAa1PVaY70RrqvgLR4git0uRkMEC39+tL5+MC+SZeIATOdFa8TRQer4Z06kTiwHn0+1o0I1nuBXkquCYnbLvcIte9IwjRLq/EqLg+flhpKWzvltmKYgWrTrJIApY8+6bv2kPLoV35lhMFAwpjhZ+vEx9gOMXeL75UZOG5WYzQL+TRdIREoilV3otuY2kHB/Gy6c3mm1GxbUITTaJJKN7c06//vvxsSb08cnv300aRdLiC7w+xikjQDSF2o88zWsn9F9R2b1850SjY323dZWGU0NM1Qf0YTivUqsV+DmGUzIkvRC08Z+PbkYFON32tE3YD17gmjtjLWEDQ9hrxAGDfPa78JuSAHDXRKRX8c+tjSSSl8lgmCqnN4qjxnEJBOzxJmvoy35w63d/uzHI9HBXJz+u3X1Ybj05yA0HakFTWmzyOm+tk6V5aDBBwKY2qnjr41TPmNNbbwA/oZlUjSKf1SmNmi42kBezX1kV40jninyrrDGAPx9BNUx8ahTpeWFHUT/728GLvTTu8eZjbNqGA6dbA2HegkUymb7n4QCyN2ZYtQ7J+jLsgZzUqKcWLHgY13i8Iw53cS8IPnKnwAEMqxwBkjxCMRE/BpzdmMaqUI3t/fP/Nrkv92hfw/llEjiK6CbEh9So97hYnvIgjbaTy6mQxU5zLE5rNO2bDGuxNuaWYrHLzYT9NTMmOAlCo4hKxCgYa4jgrdM2yNXyT8v2bwUYlxRZV+2WDPENKTKevE8xNbFTvkUG77+e4W5AmRd0q9PaYKrP955ou6BcJNyW440IioCc7ueL7q2kfWkJuJbwws58jCpgxfucrS1xGVTlCZGCtL1FlqOsMi8s6cgUjDVllcBIO3/XI6Ai1KoTMuMKuHviJnnhtwRHbgB5Xb9hYlcGH/Z92n9IJlgchMK3+2+Myx2yeSiFH+Vz1FxjErYgVrUmLvgjzZvKFobpjWoxRTuuD9luPdTxdHz1uqJDhDS8eTQKOmLzNuH3INKp0FykES3LV2L/LiCdBrFVYkVsahGpzNnM9jpqGUZgoU6XIfMp4dUMO3MdTuxJle2NQOK7GMOy7qKm8TDH9+8V5lBIE+g1xN8FmGTahlHrKEhrbvmG+9eNqcYVitdd7vTRUcaqdmqvsx6/1k6R5kdAvVZXr7Ql/o2hruodst988ngWo5zBoplAcZL/ur/rbIvUMJoKaUOznCKfDuIvOwgAAbgxyt5Oxtq7k5zjRBFmwwuWsT4R3V6btgkTggtA6if3jPnTZHBlQyV9undINsbIq0rjxtwvvDOM2o4PGVnvPFX9m536V2VO7nrSTq8jwniZ5BBzqVzwB/owxDvBYeqZERKkKRIJOoA7iugP1XdE6GrkNrdZ+k0+oQi1jZFZVwjcAjROoyMBJ89o4HnUq++za0Qm6ZNQaTgQJ+rGWe5Hg6ksh0ddQl3VtMKEuC8DbgeOGrUp0oxfNgc4yYK5+NnA7+GPmrqU4SY8HAG82BnUspKDHSKDAMy3Rvg23DKLNJOpDyg3TSBtBb1evmvvWJUwzFz9bUCF9GJC+xprLCBuFH3zaqvJBxlkeHAbRudSd7MA2e1Db5fZYOl4LcidQ+X65I+XNcW8pzUINEJM5zowmwqRTiXhGjGoN8S1+ShCNoLm1O2hEWTuqvh9erRTDCtrv7c6vdGiNorRuDDxG8iFBb05B+ovoVsq6mWVtFRZwVAxCz1nzEkJJi8XMRZfFzhrwOMlTRMMl6gA9Occ1Buayyrxa51lSmtnUlP1EeNgYCDoC3XgJ2fMZjmzWVV3a/qTtW21inC366ZaVrVvG6Fv90lWNlPrnSKDxLJYhV4btl2+qKmqOXxo2KosCfHwIZxL/tC/6XQt6uMq/PTiex+edN8VhbhhsUIUJ6iqxwAwKwL3T3gH8vWoLiRVgM4F1DcQUQVrqgFlNzHRbHucQ+om9czxXBiEmKVN7HT8HBPzCEn4JKZrJz+NMZDXtPx4k4Rl0LC80J/NErowEZ7yyVo7VOFCDPjHD6VUarbtYhTutmPFtYlbP5NIm4h8hKhrWdSURCDGjZjTyLjg1Zz/yK4saaecP7xjxLqJt3WV7+zyUeSyQXfuXNx3DlcPUUjHE86a5q4IrK1oUETiq4uPrX546frjBDQI/WczPeiVZyLhvZJ0i9oEf/EcUZ0NRyxapPROAShQbZpJ293zyfs1R3E9cx9TWf8Myw9PM0vkRkjraUfu1Th3dGcBnzRmGqRlhEOzA7rzpt0tLVViL0RCemWXG6ieKykroxDu95uCaLx226qut0/cMLJGN7MCk9RoWx49P+EoUJOHM54IFt2ism4iZJ8r8sDtvIMOrv8sBW4+8ph+eY3D6CkSXIoDfiizJyziT/U+YfnSOKXrgihMyboK7PM+vv89zHNcla/AN8bGhlsJPx6PdaRS/zgcv46ZJIPc5+psCoD6498CUia+XzE6DYKBxeMmRGhn51iQIqn6bFcjXEB9o9FmdPDc35k8EVroegTCchDKKH9wo0OZnhaADZ4QhPmCKUyidiM5uChKaoPR5PJBAADRIRWxDnxxFw+DiUIVzyp++LAuOKqSW/kq0chZXBdIoWUGlBrhqg+hqCNx/O/GiMAkgP6NVLAr/oF861QnQIoHrAoUzCmlSWsmWhvRL6PjiAEsoxVGwZzfImWlWG+GCY0ycig4Bs08Ixj4vcD0Zuk/D8/fQfiVpP+ehZAungKvowFN90deoENAYrdUMZnZeqgkCkI6xxBJNU8rS4ZQ+EBxA+00rrAc8AJde0dMLHvqHHmivib/zO0hgjDEgJ/39XlFbQrTdijWLwQacnJcVWGWuD932InUouQiAEcEVHfNaMDbsXRokgT1kUV8zaCkT2TL/HNq7VHd6vmD1mSqEM9Ba7FSqL6HogNYoam46P8nhVNyMFOQjccKv4UypJJTIMLW5Vwr+jz5pN/9kvhkIM0Euz9DO5dbcEZocAqOyrZV4C7S0F2ka8NbhirGszvf3Eq2E8nyME5YSVfzRMpDLCPgsQ4LGkMEDiaa43SLxZq3pHDlakWjfzb8BbmSlveTKXtq09gbhJWG8MlK66TJVWA9UyidyBCPQNuVfX2fzW1wPQymyFnaKPdmlWaZdWRmyfIs5DCQGpWifqzXwQV33T9mm8YelHMDcf4QsQprM0ANNfq4y/3QriDWG4Mcjt1psuMVX12qYxQp7znx9LNjGnnCrmYHd3kIMzDiilQiKFPl9REo3kxL7Bod1qLQ1ptyLDuHLqhxk0AI6vm4OeyzL9njgvvhj4V82PN2XWBixRsFCnboRZg8+DEqKNNE8pQeiQKGU0P0YLBS5Hb85DgDFi+7OIxs7h4x2rpeALt6wqXdf9CHbkLBM/Fu16xP9rAFuHqXzvxjhl+a5NIFP/+xXzWQTcFE1cj0cdze6hxkDgij72PU8VxRZUJnlgaOG/ITS50txuD6ep0e4U0Z9DoBCejIQH7luUT3V3LlHHgin5mCJRIbtK/6nqvUFrv7DdcADFKBqNaUFsAq+lIgoiCRKBuD/1poc9MhGDIET4l09hDvrDuIY1Zg0mqi0phaWT21ZPEQ/djedB40jopWVUpWe2W9ZKNYoUfoysn0YSBwZGnrU7kF0Jwm6haBztEwYXCuTPISDDvpvY4fDDl5Y8yW3WZHKA0kBEweOx1V1o0fRfXs8ZcBva0KeUH6FDjNrBrKVhIunmODcRIzm641SppksbgLLlO3c7vbzGLYbMlRtPDaPTQUeYDtaSv9RFxo+c+4Dtm8k21rUc8JmkSaeFMSiESDC0SytP9+0IX7MJxUN4ttx4o2UaSPN6BcSJb6Z/qIDan/IMt+hd+bH6DMj1rJg/IgDi5l04BPtNCazFVAJ4A2lCwG7k12kH5tbKflzp51053Nt030elpKANmrzoQtgp99aGw9XHwMpupQ0UX/i0aG67/AhlrfXHf9W5LbK8Obo6tGrjAL5S7dWGZwjN4XDxfycXyPLPUfXCaFclZCJCWXinCTYAs7Bhh88yMoo3dlCRFHlefQWfyl85PoLPGbgJXfkTQplhgvWD3iTFthqqffC4vIZ1llbMeuQ5HeMSPDDVoTwNZ/R+6ijkmYALD8DP3jlw8DHx22GbxlR5BRsYF0lZM6/buHe4MWTaSFZPHiSCDdryfFC8wUW4UWwgmsg8+mGKpImwhOzDLxqypsYQ+fzKERZsQaFUY3d7JCuNFf9MYSs9F5ddwP1l7QpjpQJEG1e7dZJLFiuAqMvUutogn2jT2H8tB2cEYJqvuQ10p/cT+SXPBxSRsosTWHNOO9WTPwgFgRBszghrt0HWxRTVBq+yYECQfX49p+jjHKAYqFEcSZoceGRzXNx0DVn7pNUpfg+lq+QXSD/wTkU6JxDRBF0hSQsDIHI7dtqzh5LmK9l08e5cep96c0f/5l9gocLWrucCC+Vthy8sMseRv7auKZ1F4UnIZ7Bk2VmspM33z52fVd+4mVvVk4giKpNkbBCYDcFsC1N8QzDKLBbA3DdSrDbrtUZbChCgZfCZnaE1l2lAqpj1JmXjG86qz2pzGWVAEvX5ITFfcjfmwKQ7d6OZJSHj61J+Q/tvCu671YWk5r6uhVYsdvy9Yza1FOrqsPw0jHVV7iNNEPnV+OQRhMU7IuaOFY38VN/vaPMaKYkK/ADJzWlIFYCt9JKufGICVpNU+zby4rempPWgGcbVPv/MvNbpDeuq8OSLOH9icdg9qz0jRDLQG2GeXnWfp/liBun9CXKSd7lTuf6dl9eAyoyKwd/wMzRhSKG6P4M3WIqqLrW+iUdqmG6KjVzlod6FF3Dwl4OXJ+XGh5o6lUWx9wqsLwg6hYc76nqO0FtyaJosZzFfC1XMglueuqpcUo6Kr7NxGpHxg5osvY5mTfJKbyYBeqF6t8PHeJfnCatw6r1FcsQUl1t7udrGxTXWdZrKctPqNr5xuL70zhaY4/yCj8y+kCa4+ND6iOJFZiXS/FcV8jIzvZkrXKppQaKujs4pgGmZDvuAJQCJLmdyMLG9GRa+t/Kk5XW8PU8O7F/W53tQ5BJ4emB+ruyixk1hEMwZfJcTbntJbrYxDDRnDyLPr24t6k4/Cqh07AKf166OBbvawgjWWTyCA9QwEK/xAoN2+vw3/QQKoYz90cifDu8lq/ENj86DRYfFITJgmqYv9aNCgq4w0AbGCofqQC3XOKcthBU+GhgRsItdy/WiA4s1IqvVFTG8mXt1uZAKnFR7hzgTazwFQUAK/lqIEIMWXHw9ERhewY8VUHEh4K8EuJ9fgLVVRUqXPC5CL98AdyENIgTOKOsATiiDJr5DEcVd1bKqCag67vcN+vMqra+tkx+ZqIar00zfAbMg8tXbQgYry/PJC0POlnJLAwxs0Hf9L4LVGvwbiBehnI+PeG44mxU6z9OrO4ywn2wwhacDe2foMGBarr4raTBDi8sL7+glUo+jlwe951wFjrsK7kTaQWidERUHrxyMP4Vl7Yqym83QB5eDSkvoM/YMhLGP/ANPsiT5XUr7vvJDjp4/tYoNbv6q7tFf4LPuBza3DsM++triQeSik5xPkujk1gpAASrjJQnOfW+KHaCIPmg1tmsMV25ag5teO0wXK8MbeRc4+9EH1PodhNujXFLbVY1Dhm7tByrXSLxD1hqtr04WTIDsNS2hVEYeMiViA/7bb4uzEu8wSFoJD2qFJxLVNo3uGEPjg4S6ivU2G7GBQ0mP7mhvBFU8fBcrNgTeZvtmjrf9GPIiSvPMheblieSWQMXeMlTbHuAcvbyo+byL7DUS6FY6vbmVTTAaZ+2nBWaorRJMXzre9n9SWEK5PcgH3AItvrMLAetW1vO5K79yuAwUbzYETnr/t1bVuLVjSoHVuDpasgpKsQsrVhfv2h8wZMtmW/noiG2hseaahAUQsa38KCVdRRfyfDW1PWk6QyHnlucsxmAx3Tzb/qr/vM7qiC+10J9P88o5SYDGKNGRtNyQHxAR1prA0OL0NFL7fme1BqN8XcrmpKRtBwOh6BsH9wj2r3JdNzMr8DX5WFlrMtVcSwQ/Bnogip+4kzXVpAwLHTUSL6DvwDyDZETQVYTpuYIqGP9KLpbj0ppH35L2gooiAjxrsNXOf/2IjI7PVwPzQ6yIEl2Vz3MeKLHfUSz13arfPUKsLZbKP7jxfdgKfRsxuD5jd33pr9XUuw2a2SWu4m7JwsmIQ+1k4/UU+BS2RNejhk0TnpYluwYo9dOogD2IEOD9neFQJny5odbhLNq3NQCqlj9WnLF4R1TdrTyWPtljhE2GxQtsgkYtmi6Z2DqvoCP46wuOFj0GobQzxptqyAAoPQ/24LAdFWdL+Jkbq6DBVhVx0GHVvQjJMmIHMVUuU/MptbNHrMvp6Op/gRnrICtMN37x5p47oIurR6TiHWNEL42a3UvLilHPgVRB3D7+2PUvpp4PVZtmz7lR+/uWNYHvmAZ4gczvugRgcRESTb1Pf9rp4LXCZgIaWUjHseV1Ivh+5o6vfMx7OQheVE3PwgJNfQuTji9nydfq7jZo4EGoAmjMrVhCD8hfYjsg3wsqj+A7Y16eH3+xp/J1i7Vdyvx43lLMyLSC0KRKWHyHJO3PrV7rdB50josxWd98D7GlBJmsEZ0sE3MpH5pysoWg7LJ5IduEt1NmxLqkL6IkKqZxf7Nci4aacWpBnF1NP966EoK648l6Q2JQMwjISF58EN+lDJCQyKE/VsnIrRWsUl2X7FQOmTVwm3/Rsa33ruQCB65MyNj/OEzXcyZWas/CxHejOVnz7G8lC52wiV89ZI3sebHg6td/uK6FhOpH6NY8D4ExnFmadd8VrRKhxbD/qEjOBLBhto3UQkIMIoPlCXHNikAyGKBRz0ss98s496hkr9bTcMpxfKHcU7caLgQZZ2Izxnl7lkXbyXgikWTvhnj/ocTGMM4Xg8J061z2FeWtmuTZHHj+6FhonWbmvsowesqZQEGs4w8YnZtzy042VvJyaQAh7BDEOIa7zZElIsBFhuG4TINXUmOusX5WX6nSsbziZSXxDek5Qz3wH79CaOtUC3NCk+0QBvihX/gC5/P7goT2D+PTg7otytM2MBIMgGXKsFy4dRJQu1RvYs/mQiPBWJjZXtdJM3dhs2ElF5Kj4LLNRPGlWzisaEB/JjXpBDCIwNDLLYlms1lGsjKMVF/VvFzgRXw0QUEV3VfLlXl9m5n24ApkNk5E5FMr0ScugKIvb4fZv/LYsk3Au7A8fZQ9Cjc+uDqXWlv+rr9SsuCMsFYvvzge9eqtTyRVPwDMsYCSB605E9D/9i7n7O1OnH76QnUO2/mg3GsGPUNDQyy3VpfQ8pJcoczBCLLSjUJL3b7cm58x1q982w9WBG5x6YeoygZvMdrFK0QSvYG8SbfU47KndAelPBK9LgQJif2g3paQxtsIluYusYHKWtnrOKGX52LhVPnaHUNFvj6KHhHvPqKooe9CrPu+02T9GtUrw5WJ5A6SqsmZ87Yo2/iOBBMC/ws9Md4hMvGejPXw2RgJYODNZI2CvKCqOqT54DiX9augPpZFEji/iLdlcjP2vcAL8D0EDHBlLjKh7/w4CeG45mWhDfKBp56oT3YUqd/JyDbXxRf818voawC8oxsJPhb/HWpl56Im1hVlvoxWrhRVVHagnRWotaQLNe8m2r6mt/4Zamvd4N+KDjtOKtr0sM3k9K6Bhpy/NN4KP175n+J68euSgFX0fEon0toPFQStxtE8ZK6N9Ugjp3rUpRVz/X9MF+hSmLF9yOeHzECsLuHt52vJZELmKgRpN/P0SDLYvwkwdbVSLHiYuWUZn6Scs1V08NMTVry2T2n1X97cNHc53euuM5VNItvNkawNeuwUW4ZKalV1Dtz2u9X8SGAP5B/ALUV0f3OAP3tVCUcvfK75RWoRmmGyOK1ZSUvvqlDklsQI290cfDiOTfu0sB4BKX4jgUJXYQQBMgVZPtvWDMSenLPUeHn/jvoVhXkj07Tg6HDEL5OaJaUsT3D2VJ5qKmjss3RDmswLH+OoSkMWNoPRKFl1MuDqXvKnpR2SSv/aB4EbUP8lNZ0v1/8th6Kluk7kDjbDrSIh4Dp+4bwONHKqf9timKtk/8zbm1EQQoYPLL1HGcOHgbMypHcUJS8v63AfGJ5O6wVEY0T3NPwjJHTYatgKB6lhLdD3O1SN1er+GVPVlK0iRBN3yvy3wtUCMABqjgvRo8gP3BvYCeO/8Bw36WPmWu7V9B+QXce2hbNG/5F5JjIcsAB0MPBp6dJQp7BACTfdKZGA4nce2MQ73BggTIJKmFpO3p5krcZrRigo3Wau8MxODfH1lpxLwkCJiLyUUf7H1R5yKHCXXsjF7+B7mT0yLOGb3IXj7IDzcyZvmqzajEk76i4CH40Tcm+/WyrhM7vV7YJ59Knnv57tQwz3Y26ifAbVr/Ek0JjYo61pH22kIkZWCobS+v9dAdiaGF7A+2xvD7FxpssBSKNM3JWC2NGL+RpaSgjMDus3URey37Hvaw+awvKlJ9l0rJ+2xjbWLevI4luXylc60Ra2ucOKj3p45m/WOBoMkFZFLA8cQ0dkMbgQ1DUHss8YGT64F835UvCwDdGykwsbz68A/Lsd3V4c70BNAfe/iIzU6YJdGjoMiJXQuhGfJd+8zMEb/MvkfPrk+gao3qdGQc770xMOQFacnnmvLCjQ2BIGMrnVHmagsyDt4/Jk1Zh97t5dblUIxI8ZlafgxsxruB+TwwoiPrf7aQCZfV4+L2INoVn2ozmC/wRWaBTEG9A/I06i/3ATWbsH1fntG1PlWNiUeBnBGYQcxi1AjP8/3vkZRCSYz+OSJpTmbrRxT3Vx3Do3UVulyv2NCAyv4ZCcyq+zMnMrO/fuygcUNFQe5/MgZ86QJrgLE9V07v0X1IG9OgdR4tT/V7iJBnQgMdNsfMrn1N44OwhOicCvvZq4kEht4vsqZzzMKxWV4z3Ha+ZGSc0KbF8Zg5yhIpVv6ETpHb186VxnBzdefltToyJQsvcW5lBfcIU5dPKhNcsTa8ZLrXH4zb7Xfwzb5xr168SfAxQ4XRYxhdwqceNbIGzrpDWEkXXlpP2YdJBgvbVaZQ36ItC+JEfnCtiinJZo3HvCHWGuuo7i1NrDtJIZd+EhE6Y5vnpB5uM14hO2sFjlhFTqzT+AArxDwNaDW/Gj6jZMGt3KF6iIG7tmU6aBo0KXr1IgFNPIg7kGDpR5rFkHIXm4XagdD/OeFYZvlZ8pPDB+MpOSVUd7Fj5fblbxgzL32KQAwXnxh8uSa0w33eQ+TzYw3cOHry9GyqQ8NakV4gKx3zpyo8Wngy0E0nffLv7b23XQUzTZ03rtCoxiT2+kof40K7Qpp9BjgMdp5TrN0meYRqYG4eLG+6Xeh77joNyl7IvkK0u7n7i69rbFUEl60Kf8T5cP4qrO/Df9azm5qfIV0tAmd6j/FG8MemV55DZ5fEc7UNDWXg9M46+UJzX7vhMg4O6i3em0JS84xCmREHjMLGNbzAjmAsrbp0qy6N642XRkkCJFPjaBZs3ISQtXpJbQBuo/kQsMrPrExX+PU/+KxGb3Ne7bnWWgzyuyRl9GmVK5UObDOHMjmLbK6+ln4NgJ1dQJaCzcTGnJGZUwCY4YLW27t0JJozk95oCmmt1wf6NjrQkXXLlUAKhvJbnv88s+8k+Po0YBOVNA2uwEvmXXpogknFc9mAQstBEfAKUURsOuYJda2NUzUwTLb1Iuv9WOcmIQat5PYrSbR/tD71nUyMGv21/+JLeMHzgWxouNyU7+3dlzv0w5dd5Xd5+kL+XAH/MDCNeI5cKGXkS3s7NJUbAEIXHII4Xq1EN9+xTBUIhjvkUv/LtRkQFFVu1Uwg+1I0zpf0r4B334PUbKI/sfuwn3Ae3+rKnwZnWj5IvHBWY7zVy5n3eyf3pY1ZVW1wy44PLYobDWujtT5lQywsGSLblfpUFEKl7C4Z+uvaeEBwMdg/iMiiOr/5IYIAle3FGrh+X6qyOpWgh/3kZsb/M72OOTTlz1m2je35i/u210dGzrJD7XQdAUnvUvz0BXnaF90R/x5CM09MzRtF/NjyWlL+VDWPODm4rIUlKpC13Kzj6zpf1oFn+2QIuAd1dinG5A+XcxLDyLXZnhO84cabnnREhvVAkqjb0Kl/ntr6mBvYd3eSOMvofKFD7kLMP18UNuha17Ptt0IBJJpX+ROA+ZdxOP9Bqz5NE8AxhqYDhO4rF9RCAtV29Evw15uOic6U+z0CfvDUB6Bf14mi0s+oGt7cIQ0o1Y2AiwYhn27sRyDixYAVp6rXyEsF1R2XVJ4NUqjbR2Wb9WE5osJcRzSi5iILGbqDMuXjUD0akhgUtDouRfdkoCRJCS9m7/KyFoGRH/B+azmO5VSANow/EgpyW5BwEIu7IOQcBTz/4zkyVFyqXS5Y6/N85QHcz86ddNN+j5OF7JSv1yRJvTC+pozWvDdvcal4Ue9Damp6AipkYou9TkKXKciqqsOMm5rmupzoXenLUjVXLBvjRItR7yD4Keh/9TU5oWmvwedW0OYHJiLUjEzKc2xuZaj3ZTKyzdWx2W4XoR2MAG3PUvSyqS2xq76WAizxAOE+FfJDfPKM+ZXYMcY4aA2V3aAxsIC36Fszg6Sh4GufE3wDuv9x6+lhGvDWhRb+N/LIoLtr3gSZvRcwcEB5jaDvHwO4XEE4Sk8zPm9xIcLF9hDCe87R/7aUvMiSi5I+QznEEA99++tQG7yX2fRAzAdNklgpfyB8AjKeS33NppKWd1rCthfRzn/oi7Q6CknkFwBK74b5GGGUU7mQC06uLO0RQqs1e+XmuEGFcqUbKhnZNFdu8fSp2T263HS+fKl5DphE0nZf09PUa/YU/NkgHIxIE9glm3VmdvbR3yqrE38GmEt+QJQoL1tWyfiLh4zuIdQhNO2G+kbUsmN0CSD1cxw/o5N05A7SiIbLjDU9DlzyIrxTyZpTQLtMZv+8opyH1ZsH0BvFeMRzC2WAbIrpCzL2mdWMLgtEPROTm+9qNln8q94u/aRSqgjX3Eu7MmiJ4X2Quv/bDKWbNSBdLXS8cBxeJ14dDk7rSxceNJl24Yd7tgOeKsV8LWqTWkVQKZtcv1k5d8GxQTMgqDlBDZYlxic9v6TAHoBWuRVg/A/D+G5Yr0NgRwbR87ruzylHT5sdvdkjYZBfLbvHBbIlJgcGKsa5Bzh/y8zzbAXO+pTUBNj7qhQVuPdwFFBCDeaNtoBNBCyzBrKFvyonHh5o+h/ahiHAlO9uNi4/Xnk5g/nbCh44unhfBgDv3QcxPju+vDoNAcHzlkZBY5fwIv5o8SbYD1WHXXhsnzCCjuFGKIAMFuOJFECUPWG9tht08nhkW+BDz48x1Bwm1Rt6n55UqXzA5qYLB9BxVDE/t6vkwzY/t4+Y66ES7/REG+hLmp9PVikAPAXEH7WOm0q98IFpxWDUvXB/g9Rge+N3Tcg1MhMXdbNW+Qf+4SFM4APOJf4g+WfCp1y/MmFUpwYyAgfYOhAuKLkFeRF35WRmCqWeEfh74bWga+P0O+9l/SbroV290j6ZJnmPLeSkDWO7beBh84//us2CC/nKS1E5acg/I2jamLafF4zXTlcJ/6I45e6wbxsB32Lgmc9DtaiNNIaM2P+6CBKzC74ywHRC+FTrS7lCNgIeeC4hDeyMJrxTt0g4qTCTt7VK9rtmDIdfpx9COyrCSeI7gTsYz18/bStlPqR7GZvQZ2UdiyL1XJO6rYpjpRbFcH2izFORBY3Q5Muesn9XZzN5UYIZCq4+QTSTYqCJspVf6gEuZ2JmcVpl2TAyDvnVeCGJk2r/fIDvNB+yFmsqmSKhuFnvd5JQ5QfiorNZe4FeJcj4UWaO/oFuqCKbvwpzHffX7BD7FaLYK74yC0HZ/sa04ji/DfkH0227tE+toiUykoqiPBMzM4oqup2Kw69NG+e1w6Z5N5rXZT2Nk7fWrEfYObHWyBeYJZKPeni1z/Vbj1vbYy18WsgJqMKfGt6lO2gwQmUgJ32nJW62JMEEw+5/aBu5vUNmHPVWdJJl3eNZeQ045EkSYS4DlfP6avGy5suoY8A2t8rxc7ur17bgh+AIvBVj/Kr7Z1zI7sUsCOdZik+19kjpNRW5EY0mEgoeGuhMEPgqP/t3B/vL0a0Ok+XxSt6TDI0HdmvOsi2gy/8nMkL7Z+Ig5A8xU20SM/vOCivp3Pl46v3IIvdTjVHq3egvl8kU8MPkv0EYwlX1ICkjKJ2PHM1p2be3v1f5wMEfXmvi2BDxRS6uW5AO7aM5HskC4tRiLktIcqO/p9tTBJMs54DTZQxcHGFNxxBWdaHbTVqnquelE1BBPM1e7Mbn0nyv6WZycEtQ30U42yrUqT3PCNvihobB3zFQ0AJFqj4EWHLakOzpzRvYdE8IhNweRClkDhJ4ERDNP5Sjtj/klPeJadbf6UQ1CusnYvjBmHUOorYoE00/iaA8Wb2fj0gxTjXXEBTv54U9yEZLXR44KvKMYqsuhFwO3+fJ9XgoYgrzzpYzxcKfjq8fhKJWDgUgGZ0twV5DdZXgsPoZ+y9i9xlhBx8iRx9qklUKaULsZhs551SPwshKiJmpMj0pzWBpOHtvEfysXzHsQZ4btV8n54SNC+M3IYqCGtHeTGVsOejwIjhH392gdd7ja3FQpRzlFUYi1wjZDLKe9/YxtGKvTRe+J7Mp4ylYTrZeZxh+Ye9KAWXcwRJTyPV8sWqJEPTSGtikKXTERVNa+KmK+n2w3W1m4Sd9pbkXfIwN88I8pSQZ8/BRADeoHXRCDsQEZyTGwguj1aA6s9Ws6Y1B3Zbpz+peoPIGHz0s9f9frq2CC8sraEnWWjfBYln706e1Wz4X7oQLpbC/FWg7E2kCf30q+HrfHW/dx+y/gC1b2KmUJNduPKs5yiA+Yy8OvkhWtK33DpzG1dZ36pInS8OutC69qtIGuG3SmsRt+DzRz68aJhMQRK1/SeI5iKhEJSZM+7fCxpDQ1u5WZkIdoFN79fX985IaYvBLFD/hq1uY9IEgHBc/0GTEF3VPlvpeckioFlD8vLD9OP0cQma9ud88sjHPx/oYIkKOGCGSLlo+nTbOWok0lMdavMqVDHh0n0SOMaX38qptenDTa+lzVW9Emds0jEDddmUgJe/vgM6iuMEa8aDtUgjq+LwEPyf6Oc1Oml6ZaSCruSdKXn49ayWH0m2hVVpnY9/OGPsE2YMeHIYhhYJRnDRN+4BQQgwx6qlD+pURharkxjIzDiaY3dimNAzTRlw6v/UAKSCOLvE+2LNdLqqVXC0r28Q8wn5443xh6gxWG4RjG9RzWf5t8fZxMj5RNALEvoGdDmjMIIjS9GodO16Dt3Ona2Ee1ib5anOKtO5LQrgfb0lBWQcrWU6H6PN4zXOktSRIdDaIMWvcV/EG0jcTFHc7JBXpRqzDAnq9JWksoEmwOFpIOFgD3h9rKED2VB7A1G2qGYmjPc1ZlNWAPKCXZ1aMVIq8z4KKW91vJRb6LkUbeURKRmrm0GOZaJDOUoQ7y6r/V6G7/wes85etAyMGJorOF68vydkmK++Z02u8rn4k0+guI4yeNEDCqyNCP7ISnkeqOu2VbxB0piW0OvzpWH+HnkzP22ybr4H2XR4Ke93K+j/Yaiz5XTLs5mODkAaB8RaG7rh8XJ+a+GN3OF27wAlmMHOT6N9OJeokJ1iK3tSrW7Rso9RboQucpc3midEO4e5pK062KuckwVyhtN+xLHcEI/YVnwhSx8BWAIPrQs6uF+PtqBOH0aUXlTEc1+qIxJV7t8fzu5bzZab5RVmNKRCep0iQ1uOZg1sryz1fyFUfUtTWs+FtPYDvD1fDpvY/bKQMZxEv6nAWBK1nbXzNOvzrtcO2vv1tTo0KPj7bPZ4FWxl+p6Jc1GaSejbAloyY7TlZYeqAuRypHRplewl4H+w0S3OXCo3wn3uSUA7+Q1gbl3+yR5MOpl7vpmGFvJ4ZHTRIYnl+6Iq4UbzqhkMU2XY68qjkAynioLSHc7dgpALpwJnv7t2CSML45GJdQ3W7c3JSpXEfx55ZDm/34mdFLP6p3hxLTF8B9dLd7rF2nOSqI34nl4GKomRbXget2B7KCKAYfn3j5fR1sQT02cTvBEfITOsKNRNXpXDaAVRdrfaSwKIASlX8Z6WllMj4VVtEKU9Hbb9MGD0dZHWOAaZbwk4Lut6Car8YzdyZqxNlRr5DFATKT+Lnh+PzJ+NO++8PTSadJ2LW/JgPzuavF1znNKMZqT/AdZCetwb1KF7TkiqgN8SCTbYORQfjom5zDx0z1eOiZfIRko1g4PZ3s3Fj4QfrRK4BFvvF4iLczfQ0squD9Kb4mDZ5/6zdAECdBprylEo0qD/Wt3+AAgJqc+P/XX3rEj8Ee4dEXnFKu5af6ZtRbrFRfWbES2oQ01RRN/IBfK6QB5oqJfpjgRpORzacCZvGOKJRXBjlGx5k1MZHonzOUbzBpzXyP4/rwXCrwUktayP6uMraFrvP7XXVBVVhd4Bwmql4oiiGlZutxDTC2dxffMr9OZH7zdpkVpJKEWIjZEHZ+cDNiLu/mnzcpuXocalh/0SU6O3e4RFL8WsugDOolS7Qu2NePuqXAqFFhswReA427oUxamWPXY01H35edgdjtctxGhjru2NwItNRnW6dVkGhezFyPcayqgKPimyjUcfmAfPeZ8cMRkfSwmMlBuz4bvx9fVKC1iYf4dPqGwVStqgkIepwbsb5ijCTkqt015RgerYAt2V001JHksGOmRt521WhtYXxZGZUNGWVIyaNovPXGwg7Q9fdzrEeJItEKnT+iRxy1pTnT/zFiA0sDMxfcvMfffIUzRxKE/APlQzRU+6Tfk0EiuwpeE4tr4WTE9v5G1bcFge+4rknl8zyt6bJ3WG7a42AxlXrJLHbDRaZ/V9Q2oyANvG1GKRKIzQ7VqjouISZGpyhedfr0MrbolYsByHaqoV8SBdt+QmUwIdZQw8dO5pnm9FC+RPtFkCZDWBgwvNuv+ug3YjdzGQpvL/ZiX7qiuqVvqclzS6WxbX3J98UFqDAhCz/LWQtIHSFgYFW2F1qB3YNtkwxvKANGv41G1+V4kfhoSg9XLxzw4w8hQcAqw1AxwfjB4ZFu2ElVr+7zO11MU6c7OEaVN1HF+c71HXjxRyVfu+kCcWflX6NkNeS11qi1sC/nH3U0Rsiv1P4F48gcqA8VHSAtUQbHEud4ncrFb86VJjhP2KZ2ccaXD9/2G8zeu+qnmH8AVzewZvmYeHO9iyxMQyVMxEyfSHPJRMKlT/6Gby/jh6U8L1zpnfMMUcqbhMqlPDtD0txcQr/n5MryS5E4L90tzw5LRnNwlD99S8pc5PYOcjbILX2e4FxZfB5TqaS/yJYLzbmJbdNYWNUyBMMUVfrsarj56MD7M/f0CtbqGf6Ko1CuG/m+9T3DeYsYew1gzXfKPZ96KqTxjtq35kfhap/WiMSOorU1Pot79/atIAkfvLM0cvl8fm4rKIgPzZIxGt+siwbVvFiPVaR5En6KW4CBRv9qaRktA9O33F1+bh+i6xGuHVQDerdfxHlNGvEIkyzXJk0/cdgk+x36PrBnc1STmxp3tQpzz8eMaI3znfXvehXgguc9glGNohFKM8PMLdic8tgbYA9zFK6RgLWkdswWwT3A+9M2RYBHH6uhTdRAkIPoS5hJW1tjb74DRgfL+yo0AKhzV3eM6BOeEegIZM46X5g3K5GuyuWSyMW+0GWJFWhoGZGqmKypX7/MqszKopyYioogA2D2u/CrGT3JK4dZFX9AG99/CEeoD0ELXzGj98DUfg3C/53GnSWlhbFc9iL5tEBSRhr9FDzUPuhVuQv3Rdv4lq/FMfqQi88D16i4zM2qW9AWYTptrUQTSxqAryxXwvP6RxmIrrqsa3bddJQp5zMsvMnSfb5EhvzbyvEBY/+eE3Kouww1uqyxhHKNtsoRbuVXJJUqTC8QT87rnLVg4Fcv+UiR6WGKjPldY/BHmpH6x8k4kVZ8cn9kpUE+7fwTYuZhvEpkDFwHmfiTVy5A5yvARhTJdy2omTdV+3vTVXxBkD4cS6cPcpOCRlBeHNAsn7wwf8WU3FgkB87Mh8GuR3A9LsoR1x1Lh8sUV9d7ghH+sYCewJRkr+JrbG9/IJwiwNn380IcyG9l3zvzD4yVczAl/KZrMD4QkH684kBfZDQBLgcLidYAoJxpHSaRBgwl05PlNH4djz5PWPYbvCz6FWmWYlR/DA7Mb/n/nVH0yycETCAzNOyrIaRCUWLk7/qDZWcnj5Tj+cTe3vHRZLPxW3thu2Syv2WOlxEXIQZkEUCTwA/aCQQmi3GG+Zi2ne2oe1UbN733SKgOKPMLujFOmbmd8s3mOPAVFY3HE9PyUUOKrqsMMh5zFQDv6Fo8x0FFCG6aZ36d+/JQMyd8WYlHSOIUU/D7/b0vZxNTl/+gt/nrxjILvfAtR7okS5p7GWBczfSNMPIWfn7Ep4nNlkI7utEhPpHaANnzP+c15MgvZtBkIYTreYKY2pIeeGixk6EPmJ7Qh3vKPbEThtbMvAJ57fD3Dv9DZ2ERLZxYnwgikZdR8CmwYTei/O3L0nHYIz5WVNu1hEjsMJBsz8V4hgCXM5xitZG8kVShFZLggKNdkhN2p7l4bDn1TvSq3eq/FDm6mQNIDhOg+1ZXnvCi5zBEJmB+ZwhtTLEhppSuE+LVYWFNJKmK7uP5A2yy0urb3Q+Q60mtfr86v6dOMDeR0xa0ekOkcl86WJlaZGpczk6QBL5wLSdN4A+4g0IuenrxSd4hz1WM0Enus36kQWk0C39MK9V/SABFSGCBhEOVCdnrD9lRWrPwuxZt0qWZ3TEIynewzD1yvUeO+vJcsS3BYW9Y4HVIygSpOr7JM8/U0Yh0Oaf9HcdifSPo5bBSbgoGLqZiecUu5FelLzlyRXLqk1NNOn7k6G/JN4pWjcxEuO2Vp7wXEsRA0jrBR8AvxEsOUHBYPuxfGmf1LuTH20Lwibo1+mgyNM7j7yQGPv/bv5GlVyt44PKT/ZIpTRwVDgeUsL0oMW5arxbfdm4p2pvVGXziQf1YpCnvxyiqdaD232leOGIFWBc4KdQIrtPLMwGfabTuA02CdAP81Iecx7nLqiXW27OlakO1Fl7Zg25W+zpQDyJQfO5vp1yD0vkfZTc+I3j0WwrwWV+Ohhw/jXhmeYRG8nkmkVzTxJcs0qTXD7YjYJi7tatuvxLeEe7f9QMoXLq5idBQWZbmMydNh72YOdSRwnzimPViXpp71ZMYWOm8No+XaNjf8csraBKl/ghhEMhzfG0iDx+AmGGpIgUqYmA9axlD2fI4SFPAfa+bXwhcQJqDj0gCTjjCwfpAHCCUyXBR+Lg+06Pqevxzahye154a6fEGzCFJSUqPz04uJTMmHYZkaIJdvjxgKVLA+7yVdcdTDyecRT/OPH9x9JEOClcu6jRpXU+s/vHM3U+gW4AkYqs4X5ihe22wiCGeZqnqyPFNUqXYRtAG5+AN1MWlkfXn6r7cKdEq1lwmKFQTEXVpMabpcdOwpxAXu/78eiRZBAqEguRWk7ecmsKK/ErUJJQd/xRSuVFrWD8JxeAUQg2H/MWosP3QR04R0GmHwDDE3w/g2UsQ8rs/JgfI0ZYPLj8ePH7lA64ELAQ+ircY6LKa3lwDhw6qv9ffyi8+lp2os8zogVSak2fRfzeFZLxz3aZ/tAsL0kuVVKUjwu/pGNFVuoVkQvJ5fDPWECjtAoLOdjNx3I5odOQ3ujXD7/P0e73BWrSPvLsP4+dgOzz9+lWo0SNrxbwMZ7Y30RArMbIuth6aqnASLVc3I9T2PjhMXEJtXlZmU1OceQBYcpvbiQT5uJW1X7Iupd0iwoe9fIJDgbJ4qdwcZZmXnLUXIAM0wAxu9g63XAV8ILt7Kqh6fNZNvziQu5UXVX0Y3/eFUyDsbZDYibU98r6kQRCLHsauT+MRNwTPu6Pejwm3pVZNEkjbMkP7Atv3+5MudUqtlKxPvxxBq2hOO6/tbnAfzl5WdHKveJDRMpGVUeaevA/Ao9+UmPUv+4sFghetrp8OMU/QBttroJ0/4+0YesAxqHZBQR3n26Z5m/ZNH8bBQfpms2PAwXtAdwobR/5llvFMGg9XqRsFofoXTmaeMIcZb23yGyJkfmAPDYPu0uSN/FZwpF0z+k3hm78RxF3M8QVtcwoPLztxj56uHN/3rvcfsiyBhKkhpa+Pvaz7NpyPzxOz1WHFV9GMYW96ICbjaY4+KsHD/BGbCf9NOhdXvwSWgWBM732H4SndSz8AEc+oG8FKbb3GSnv676yurqbEUWM31p1+oVdXnCh35FuT1nf2akaLoigpjQ6qk4mHbWGzs8u1DpIcDXFq+CPQdDA52Dn1QksGlP6ZJpbKvV3WYiUPmjKc/iCkFKy+IK4GuXS3gblv9Led4sdzFn0santwiFj4qmfGBx4A1w0zR2o4D43pmp964DVr611ntahGhVtlEohvxpszdq9W8b1tuO1Fwq6HrUFB57RkoCaBIJb/doJMGCPEB1IESRG3U9wUVCofSk2c6AUrE7ZbwLkPgK3Lbv39Sj9p5acP0jIU94EyvqsdzvzREMdSNNhm/NIfwc5kHJUBAW3tDblDKWpucZxJhkCb1k2WEPr6AhKchkwWxSgw2P7bH4XKx0gTivPHrNXEBHnkqY6sPJ9kVkRFXITqQ9xjw1RicLnUaD7j9QwfsZ7VKHlDl/4gyQtRhffW61MUMZzE1Ks/5u2D7lK4rRb9BUvQUtSC2Rw2fAPfgPd1N6WfX6V8WNGtha7EclHN1JUiXmcQsJ8l0MsWTqX1UFzGD+E/9VshMHwL0cFIHM7+7HiqSj1QAu5De9VAtr82uiQbteJ0spCx2XjUckv/w0SOtMx2J+Xc81IsStnMZ36ynT3n0JTgL93sxKVj1Dz8NLMBOYQk0/DAFxp/SI0c4RXGBpQu4RJ403hDERBQ6wEnpwS2beMHgTSRzuVIiJIJim3ZUQDIakgRQE9IWMNVwueK+KKQ82sMHjIe90saEAv9lB36/B3FC9Illw6A+cn4FrI6/S1+lLX4mkZKT4lpeik/5FhK+VEJg1v1nRkf5L3Vl8bkmcJubQn1qIUvxip2coOmmhe9KmgcxfNdwUEMEep3oi4q4W477I0xJbyMcdKcwCtBcYsBUdVFX7m3u0vjGDhqC55Q4PbL0N0dsNBnpLjdwo++h1PlqYnzdarG8eo3BD/a8u0ZzlevksSfh2J6eEPq5XIFMTBgvXG6IPIGC9a5KaG+2vZ5hD+Kib8/Kw0YmBP2sejaox3TeCko520vftr6fbHggZjEWcm/BFQdFbqYx50m+W4HzvJOjwZ3s/WHofrzFGF+2gMyl17gRLAi/CBZ95xaPLrB/CIPi6E4Zvaq+UC/BLd+TN6PpgA6OQTVFwLXt0wM7CIrnvZ8RoHFCEBKRHaNoNc7u5JdFimt3TE5jwODnXFts+U6dJENA5F8ZjprCd5Os36MWNZi74RuYISNWY7RtoTDNoE5GnRaolrQ/fcPkpcmRdVt1uO41n78pi424ckv2OhvrlI/AzzG2p7KmImneBQXQsGnPatQkeDGO/XhdFNBgKNTdvBer53+NiJCowq9asW5xiA6tha5YIW6QVGD13Ht9FXa7Vzz3C/uSKK6nJzM7nPCsF63TDpOxFyVf1blZw5rG37EfiB1wufXHJVqjNadz16aCu6U5AAYz4UxB/IgPLbUFNjOeswRer/Kq5/oW1pMjSsaLiDTnZVQef2Zm6EUyy+AgxAGD8iXKtfr9G7vijOkjLG63qv8B5RCCTABxOMpKuiZ/LmTpKXWg4d/IMaTTnCgW2FSg3imYCEf6JwI5QMRjmV8Idres5THErwe/A61ELR0kYj92ccd7B98wrh1juzvpUTqDBV9utkireMKzvwIgtPx+Z1N5gIjFKHeNkvKBAS+Wtq2BI4645KzXjM8xbezfMymNjDwW3toccNdlzBZ+lSQbqEFyvyjsOv2Vff5DaRbu50M520Sa0Gg/nwdteZ2XlXcSWr9JVP5DfcSJwi8KaLVpH5TUiz76xwsxZu4ac8Dg0stlChDoTOxgHDFGILb+Zsw/D6A40V8rQA9TNB74K3vV2BD94Lnbrg2JZJEOjpnSIHwk6gYm64ZcIiaf5pjphec1Dvz0S7CN8T8M8djmujn4IUSktzIG2Hh+GBZpk/y+G3SLG4RKs1Qd7fa05cAgtRbkrLXw7qsch0nVC07kHEqLF70n8w+2fzK1QRX9swLZj5p6sc3Y793VPPnz/EXGnFiBfv3HwfLvPaQqWdFAw/tAUVEn3qE0ZqNSf606AXOpjAI5ynzsMusrh4xXxhXUhZ7fLBcZjK7ZwMbqRa+U6JA5mQX7dKi/vdJ83ZCJdDDl/4saewdBdwPpW9XPAMqMcrfa/sKVlzwVx0cF2JpGsiBB7BfXcl/ZBqrVhAkTBbVGp0ovXAtEMmLN5XkNgiYEqguMhifCUtZwFTS7wgMLJQ0zdGh9lWD3AT6sJNo9oNxfUlYHEFmNy4wwQr8QCMhgQWi7I2AVFc4B3OUNtav2cc/EXscL2Hrb1wU5Z2d/jGAOTSyeJ7SwucjFILJKmT99fyL5D5rzK0SowqRa+1O4M/7pAn01CrXBybmFa/838YyU9cNPI9W1fKm/lfyDkihN8mJXpjF7SqnHzQBAuBHnMe6XoTS2Ch2HZhNPrsUh2DdWSWca20hBzJQBnkG3rkw4ls163OoxqZK4rAuzLkv0MgC8EtqnoEbzbjhEaOHUkJhkfdtddLEV9pPUof0wO6bjeJHOahfIgajFd/9z45X2jEFS9pj0yAQdKgqNN5N7qWP7M3GHz1IOE1HhEWxIfrBOiOAncprgPrv3njjecG2LGfgJ6N3ses6nGF5ehpGJBUhC3B772h+ZrURD5gkMtV9qIWJF/csSm5vwTOIHj2VUByUAWEqQFk4yW4Z/YzKWBeUdIQHfmsLGC4+NIajBQCF8ikCpMui73BZHU1QkQXl2LzjwwUeuXrXgBaZ0QyKAThIXVXgw3bR4VA4KDfKaHOG4yc6+/HGQY2hpQA/XKi+E9groQvBd/b53JAc/zkWTX6eoyBQE0QEqfjy9Qa7h27l39dS6B+ob/VtO6idywWuYaW8whBlv+lLWqF3mR8WCGTdhrdQXsHrcBHGOo97jYHt6eLhwZbCUd+3JOjsxECUBH5mAu5u68E/BjB/WWzleHnaRy4rdAFlELR8AwzqGUVQNI5nY6hRJTAeRAvrQLmm1JXquaka4Ljo6R+6NcMrF4Z8xYatFN+8O52v4Qp8kUa1FwLGTyHg43xIYqXQwnWK9aHHdCdCnL4tJ3VJHfnWgzmiqkPGD6Z+x8sR+jebBqpPOJWvP9fPG3hZ+BH5bKN4LU91FO1f2e9o+iUf2zVcGzuaVf92P9FUKHrmcpW/zTUQh+BmMPS5VeRvCYBmfgEg/kZSgW71h/MYFMvCSG6VDxVN0yIUilUk6+WNDe3HahYQai8sZXZvfhUwa7LTFSDsd37fve4JNiOGQOYG48n3+t8xtzIBF/aCPO6ZhPb4Q/P4QhzUS6aF2qdTouOCR1e5ys2LvITlDo9SOw8W7wovP90dTL/gzZ0n7oTZ4/jkiWUF2GSdLFl0y6QqdXYF1jRhuOPSPJpaYoMLE4JNSz6QfoYpuKLVjbiYlDEdjX5dOjtUTI/LPLjeeQ/tz+mvI7iEaLgAoggTfFbqIgBQIIUvJkpPR0zuZYKncYvepFKX8e3ZSBhLn7URE54wWY9LfwCRv8Z01M7yWcOH8H+IfL0ufI5fhh0FLJ2K8PnBL5TM3n7SPxFHrvixng+sv3575pBVQRYw1nWZfsh8RvyhFQGbAqBUuPBH8XMDn0kT6A7kh5/9eoTb/G3eGQy2uW9cwd+e2Xjh8/O+V6q64+TNCFqXDe+ncdI2ciVs3GPr4ACc+jXH7+vPpOUxD0awhf20LXxrys3kVwbN379DDDXLxVtMCxeYpLfeQ+arGhjTw6lJXxTBRGfCAfgfO67UM4YM+btxvwM8kRWdtVXFk4gNweeoZcJ3Hcap0RhmEfvBaNW5kqb230HDxKKRYOaOcJwVBskaucrbHF/bWPEQ8hwuNsLxFCKRbkn9QfOb30ss6KVdh2DYx/2u9AsGzSTQDQy26WpDL1wjWdikfwUrVZA9bkbXs4PNHH740ZaIdyPPiz49WS5Gj8+VksbP8GbU+i2WjGVok5jhg+EyBqVriQbArzErmfzV3emp2NVwwk+RatP2xZak2lat8M30w36kORhwY5jgV2h+lDXafIRw651y+xWvdvqWdDBbG6VrDY6EsgR5HaZYA2qW820y3AEDXLQF7JDtcZ5DBplUbYsos+C+/AaBcY6MuESGS78rvZgtEEzBEDFml4Zc6zBc35rdaZLcY6gaWJi1RnsAXpU5fUtYzdivzj12VB39xhkyEd40wGOkhxB5mCrBoCI5DGsuj/ZgSdISbevBVGoQApRii0ArI8crCkc4XCQxkVv5ZvwO5/wMyW1/jGujPvgrI/dUpanYkMOs7UVBZ+P5jh025FQFIA0DIE3QvOzAS3d7+LYeKr3Ujd5RRh6E1UIUjB3k8fSPjJGiAIQPOL2NioDfEnBsFwuZaNzTC1DbB6kk6WMMMaxDEBw3KOeb6LqNuJbMt5yGN49mqY/j2lWWT4S3+SWPfsPsc3V064FDUPGtBh6Lu1jslorhrIaZHcGN3LslQq9mDDnqquXJGZlikijqEmf8cCAXYR9amxo+4Hm2cCPEmo1YA0jUoYJEQyvAg0e3QCkmZfyzJ8UsAhW66TSISk55G0s3nz6ijwJnyQOqCoWW9ZbGfJMOihNNlfUYHDNYua+dX17kDNzfnz3orQuhrdaL6o+rqON+97Pi+wQhGpZrsQNt/26CIgAoRo9UwCnXbzz22AGbQSF8agTzEgyp05iZ3KrTDL4Uo6fY9ssHdzEJ8U6UIm5/u5K9RGd5Q9df4dd1pQyptVmEneGyF+2AmZ7Zu21Sl0H88IwVex1D9mT2xHHSe+/AHrueCW3u95vRzIPRv2ukm+IjNmSBBVrmO4sanP46e8fubOYaj66qnnZxK/7Of3DvEwI5WH0pA4lU4leFrnXii8HTDx/b7pK18iVy82ofbIewabBEGZWwnIfaYpSk1AZ8wJWPKXMuf537Oeib8+GInbk3LCokpD+5+ZzDqAImsOpIkoDO+fuq4FqQ5orwrisMIL6sdADfp4zYz3SGnOCncoMT4PQsCZyjhP/QT97W28WeAfTixnoChJXJVpOD9N6jJDy2o4VUeBIXrY/waibQ+2lcDmJ++2StmeiXADTn3jAfRLAczDcQfQF7xS5LLTDDt2cqE1Au0I/+S7gzMh0LWU+C5sYFMKmV2ai8h6O37vsspjQTJwernzMjQrerEYvhaQPZuk/AywsIJrUlOJfG+cBkDFK3Dib+Wa/kKtuY93FnmJRe+KIudFPiPMtqtkv8CaJU5utJDgbh7KBc/oeCJsfh05WbB2ZhOO9jC5jNWi+5JxuuwTPrrW4+ys819TJbI1JspLxthcsu7TOrN/110+sXvtrAgjxzJ41nAO+bZlFHhJ+iOBQutWmPrrlBbJJg2mKP9OR1YhcvDaZVoLMv7TgdzjXqO2osgocKbBnLvwdhAlDlmVJmIo3MqeedrNQDaTdTLpEP6AmfvxjmJC8+4qNdVocLPMYFHEbiTcpDfN0NzlyhauyAPU17XW8ek71OrvjO3FAb8Mhvj1/bBYJAT4b1RdFZUbCpiiYrc+QNXBwaQNskej77BuZy7qSEMtjqRJrGksoYM8DhL8w/Nh7tHdjWWPj8u7c/4OffeXfeVkWlAvkWP2a7BtScHUMASsNym7yVnkIhoLRHr5vodR+YzYOftsg0xs75DEZvqGIT4Yq/IlAWT1CHSpw47/fVh69kemPPklJ+zMGl4qZ91TrphZ7PDbD7ehd4nCy865e62faufIf3w0f8UXFHNxsM05ljS0Qtnx05Som6s7PbNJNConXfyhezRGh/CKTZcCC9ootcbX/ewZpV/lokMAMsyB4y3DGbdfw5vKkCWpokimEuaNFMsJ/pI+qDdw+6p7MPex2gmWvcUXsn0kXRFnbZxNhTeP4H74QUgqXI/4bR4DoO4sc0UNzHavgaXDvybE0ba1ZKI11OwTwqPiQ7gZ8sN/uq3WiTf3z5wPd1S5pBy5mCEL4W90R7HhcVCqUVPczHOSR1eOko/AOEQsg9DDajar0PjgIRldP0zQ3m5lSyr0/G0+JzsLVypdR9l2ttnBn6nLELm1eXntXXRR32rSk+mrpVxTAKw6qOIHpXDlG++WRP8C3g0jXrvpPRhOrzkPiNGRxW8A95tDjdNUfS8ksU6DiyKOjzc6zP89r5kxuK9hlk5EeUdiF6+PN8G/SmZRAANhv5RChYkAd4spQ8LOqWc0MhgFU+2Tw2bqbFLXSqcrS9b57dC8i8iDn1t/RLCoJex+lTDtPCAgQ/rsfigPQwXIY5Sxgw26VvRZea2F+kjZBRfD48ThYttawoytrlTdD7p/ogaUmPQIpcOIGtmWQDqa405c7wma1i4Fm8eZGPQwbgQPJjUCLJDE4eXfPmYruHLgt05lvYLrODRxZbqwRGDbKl6X3/GC1cIQDPsIlHafXHllcM0IFEwkQk+9X5N4386Y5D64g0I4zfmo6lg47EABwzfRvSLotXIwCe55nASCkfFjS2ZL6nbC2yfYz9fDNoi1aOVa9ffP3e3pJT8DWlDTkviXeHaduekyUKbZrRqJvJAj3yyqtFemhAEM9y5px5WXWlaU5y1/Eaik349oJ/8isEmzTMJZ6W0iSgfzKxCuwQI9+COSS+ZVHe7HW4RJg5TNgQeP+0IovuTMk1HkCMRTDtASZLI8UmOQfO4JVgwRwiiPYdbA7VBuhD1w2lA0CeJDDHY2JW7YuhAwkaT1uWZeywao3Zf08oKUr65VqFq6ZgypxZ+SI9eg3q7mQv0CPmXsXxZKVVFTKSHiNTMg2SepSFBNZooCaJIzZYdAnBkHUffW0dz74YXeBVy8Pajpc/PQT/fjdC9VlykOMG28VGq0txjOYkdW1qEpzlfuJtHEiLvIHetix9WJeMgrqGjy2fL5eDHxVN3Ha8EuKU+dTVvdFC87uVLFYyRlS8DVuUZWzvJcMCzozU9WLnbMlXssMD6tgO94Ti53jOzHG5C1fy1xQHWUS0Wi4W7AtO1DX/LoO/C/1FvSeZwuz+nTveZx8IqkURnF0EyceKu96y8lrQ2p/xpNnUuDWVqXMHgXHsU+XsYMxwVDYJ4cMMJU8HSgncGZN0PME1j+q5e7US+PSntTlv+DGB4UmDSOPg53uvrGZPw5ZsE0ga+h2jSPHCOnLDZ9LQ93fRJe+VQVOTsFlHFgnaPiXy61hKjAW05zhi3Z4r452agtc4HzGmjXIcauGvUKQGlqG2TojB29IvuSvfi7E39hdUJA4A4RyC59oTcEmJ0a6IxHdVorztAZn+97wDQ5NNgXp8/snZydBdcM1q3iuoJGbgt0pS1tLsVP9oX2gPmPkTt2lMTz9FdQyhAg3CFl7lizUrDz27LHeidVetufKCcIlUMDOi8RRAtrDDfHsn+IDAMng5Jb9MUaLli3hQdbFeo4hMAHlvyvgBFNRvgYaJqP4B5Z2IQp2aAkSSAA2CD6qiLMBC1hJoJYvH4aROxPEjcsImuc+FvKOKVJQNU1+sCkaDiGcwTZ13ZNgAhIOJdLV1RYG4kxPIYCwzGdfN+enePsBlre7NLw0PJTknoqFxCkcOyuBHi5Z+3IxncYM9q6h2ulXwIDXYY36YUV/s+cGF5+wVQD9h9merGv9n59IvjPXPVUs5V1tHkyJVlJvenp+efAOPDQrFieJmgoIYvSKhgn3qd2QnCAw3SrWVPWVchhqLYu4YH5XKHKLrk8+WJ4oH1R2ZvioVl3fUIDleDL5bkY/UYOdb66+kvjlzPSBIdcMBAY3xp5umKFqMfY6KaAbwuS94wBGR6B1VcLmuLnOuzq8j8yRygNGsYRyxK99j7gRE9ZIESEv7aNn1uKIY/ULxud1kMHf/thx9s1NtUwrQdnnbYE5KykQUGdboaqKQWwx/JxJ3flPQs2Y59u3qSEDbsmeyeODQHlErwmyAiOA05YVQBDIX7fDypMrUxKKyPu639MSbBAf3epcDccxYSixvw3bVlqPCvq9GxgkNXStSsu1ZxRuGxa2Vl2nkMY5vTTujhxiOPc2MU7L3EUTxy6PSfiRG7DH7L41N0Tgv6d4zRMwOr8Y/4EI9AJltYPvFSNkmf8TPaVFx6JTRj+7JwZJdcCSfEyI6fet50c+i8RiiElAEdHeAQF0O+umOR83zg1ddm96PtdDoZkiIsN9UvHd95HoDQd7nReu3ZWp2IKmNyNPWUvENU1oGq+IEreMldVhHLrvgWy+c7HMzN6hjqAkxEzkYxlykhyNZSr3W1/nYleWAxx3Y5gsQt46PH5RtY5PsgQk5kgOS7v4nD82FKB5DdJ5oVUG+6h+Ao4ZaG/NYM4ehOTitELnsMSYVbkPP7Oox9RbPoyFU+5Fo+FBtzv90Q5wrWVfsTyX/8EU+QZuwGPo7pMkUyOHdVbUby9knoFBMjqvfzR152kKeF81/55r5esd/wkjNyF28rU/yGdUu/Jy0kudm7WzoaW8oXRzAobV745aTccgLF2DAaiIuuUkRvlCHZroA1Yx5h5lrRtsb1h/hdiFOqKDpgBel0jTuIau9R+Fb2Y0v2r9v9ZnC5flWUEhEGZh+U378obj655zASLUJrKjo42fxxWDW/AWWag2lUr+4cnzafvLTRYwz+pFXNLe1ZnMOaK5ApPrCurSOGl6Ztq/qvwjRyYek3q75tL2RlCttL07A8D8ppbWcYTifgFq/stzHd+E+7qLv7d/Bh7g2qSy8gRlqoRI5RRc00wbbG88rX9EuAvqSQP7H/LOw8j+zpyGWzWWEaIteAieNOna7qPWxOqv80envV/r1vWfY6Dr9olbUrXjuSlxU+Un0j35cPJfgfukUWAm6gtHgc6I0H9+J/hjIOhMyPWnihT6b4qINwfdj5FaFqXW7i2UGw1IQ67rEQxgKvGM83+MGHj4jV7VxCclHFCP3CQuxPzck1uETmMwDpOb+PLVeokHzOTYY8UOrex207rHUBIan9Y7a5JbP+DNsc3BLFY2+oB6H4vMZUHjDVgv427kb8Q0X6LXD02fatpB6ZWMgPzZW1rnFZqWImwnqkzJeRJvfG4ixTUIR8Kath2Jx2q+/GZqIbovyTycj1IkbGXhipb71JbJLagD8QPZeDlANt2e+tREx4c899JBGDT4L8n/nXuLgIkXjq2jA+s1wfNfLY6fIE1cp0Flr9wLYcMODoUNBtLXQ+cxxHdAUAUF9YJ1OcC7OV5SyYw9B1I7itFtOdMXUt7se03fQyQr5TK22Tkw89524Z+oOMZpTGRmR/BZj7zjgGBqt7wieH565NEKbqO+ARr97JFuM0VUZPcSfwg8QGZvdF3xhXoSpu7oGYfp7+qsLSPxp9TeNZDpQbc1MTienzAZTWZdZIB/5YKhsCqndXI8fYwwmV3eHihOX+oUKWbv2CeqfwLFis56hqiT5f2g6jx1ZmSUIPxALvFvSjffe7fA03run/5mje6VZtVojkRWZ8QUNVcHoJy/r5lPLy8z0dUiC1mhGFfbNS85TMdz4lkf9LU1wCVEgkznzfD5mslYa5IboZFcoVzEYPtlk8D0Q+cIoVaA1+XNvDVwik3UQPbjyDwbz3YcT/XLAjow0bBw62XDqj3JtHCUjw993tT6KEQ71KlchhTOpKTiW534AoBw7IWt5bcibp+DO4HYInmJyezRIriBVpsr0T4C9oLVNn45as65FRvVH3R4scPiiUQj8M2zrRxeG67KA/jBomyfvtAhOAEKPIlqMup9kcLM/Icn3hry+SSK8+v0yj3NUW0T9PXLbTi8p/q7JR7/+lOsKMsuPyIyncUYKonXZiaQF+YbStL0sulNiLBnCzsvEvlbt9s0jiaiJ2ZFOLL1/Ojrsm6ztVHiRTdfsVSeWp7Cbw9UefACm2Utl0b7WOutvzydTuRS+WGDThGtkY3FxVHQGud+EsFuujdfwhZzsdqP7uBfZIgOQUTHaii9ADurqDHaIuzYv8y3oEa0hadI9zN3amu5sXggiTmeAj8A9v4qHQvicu57D1lLT71mSsMdLBobYItgA7SIUNxJ3GSh5vvEC42+/AZqCe3N5q4NabzJ8wXw9H3xdz7RlxJrWtvnWToI5I5f4e172znlorm7GS4Ro/N0TGBV2sRNguDFEX1cIonq59X1FXIkjxcXMsRku4zjbGvvY8wunOO6cmeuFPfXNb2/KSLEOykfMZ74jHP/vZFKmUlotUIN1/5KCf67Tm3njjyRvkil9lHae/fZ3I5VFB05gaX0Tyyw8aKjfk754gpmFi9IX4FzCn+YIQ01Nqhmc1ZMvJlquacflFHo3uoI6j0GpVBL9myhkON85eNdG+l0S6Or5UseQh1+E2gKiNP7CrZQATOJ8PMv7cHtcucuswnfH4U62m/G5jsJQW0n3DWbGYNn0YhIUhxlDGdGhbEYVsSvl2uptgHJ2LcyH/Tvx+NdX1rTNab7C8EygIkFQow9Jq4hJozy7Pv7hKIHxV09evSRThek++n190zLz6Ld9yJM30M8oQlKZetR0Y7ex/vi9v0giN8VGzbVdxdpWFUA1+aLapMTFb7XWYCg7fVO2TJz6q1v5sStIqd6UTJyzytXm27i415VCHRHKmSZPQKgBMFNvCCwQwLt3fD6xouzYc/Hk3RrxM40goVk++ArkgURqi+UmoBGNDlBNJu5osJmplF933b4utAKUlon8e842J00BRLf46tteDvPpxxGnE39uqyrVjpUFj3Dit0ESZRKtLLm/sd4M2qQvnV0002WUuaT1gyW6kZSPs6SnE+2QmE6OLDQwGE9alOrxVRMacAzsiS6XwC3pBIlx+ZyW28fjg+zXfysrToaPXcn+SEwac6reh4y9a04yvsLGxIKRXkquGYzaypCuj2Pktj9EXp+wDyjgkDWSU4ja9M1WH0ISyub5HjycaW3m1vdcItaZcI4aa5ViyVH1MWO2YSKWt7P16DyE2LhVW03/7/CPoztNlzP6rhhWpIgV95PJvzfiAPpwKal7I/bS9zf0mvvLAfJFAqgepZauSfjNeZgtAh9/aKpayFKf+sgxECWmiWIY01JWx5sutsxLWVyyzrfxHMDj9Il3yN7BMkeV6NjPeDVnh4Ou1Hyo8I3Z6R0idtw8QnB4lXD/WJDH6ANqZYRFHod8p8daDpegfgqoj2NatQJmSztUquakh/tZxCKuoow0EF6zW6mMJvbjRXHAYqI2Oz8Nxi7JStP9aYwhSdEQYCF1ihaygh627jjACKrRYtvsjKBepJ2SGZo+gfyZ1FC2t5qW03S7e49H2RbEB4LwAcs/gm3h1CWTIqKnFn/6KdS7AMXOJvBPbzHySE/Lpm83TJMGp+RBhFvbLoI8o2zoeGLcM5uiGOMbjhzJkEjapMovQZgfWOvudHUugfUGIZJ0UH4j/kF2+HpC4UxLb4ZG6Yg9fkFGMVgId8lIp0ZFZNnUfIcrWfqLWxUh6yyeqLh18xYG9d4EFVTZ1IYhc2lIuDMOufTym3hN1MFw/niRhxLjFWv7AyXDULyjXXuQm1Sy24i9vEO+/fJjn/0jGoRpHywD1SG9TrkLHJw4NlbdGs+sjHnX/KyY/REV/Dqaw/vVB0LlFPE0bQ4Ndg7SyaNUI3gwzkgK+zOxvZ7TDJzrjMIxPbzoB4HkTtjt4u3WBbX/ZN6m1BqDw9pCzOet9hvkL5FVlBfDAu90RPsTJK1POxPgP+wn8EZvgxvrwz2VlODwJfpzdVat/WN6Gcdwg9bNcTIu2KYoJxVS+7ZxeLy3a4sUTtAGYXMJuNWPUWoKsdyf07exrEBJlvmAG+9gcBoTaAa4AFrYi92h+BLtBGYvuRuD5cF/HSqHQvtcrL/3qMw+NGXNEj4rSDP+SWNfAkZg0nztJWi3Y2nu0IjdWpU7qhBrMuCY+0IBSqUgDoQGQifE/n4bwVQw8/GBb34qu31uZaLaC6OG+yDNU72QCLBAQZH2R3588f0Ie+/Aq/lcty1dXbddWt2mcgx14VkPuRTBLOP43h1EXTmgACDYEeZEFcMEBlC/HvkTwjE/SNAXkg8gcdt1OT6eUqLahYBRlkwcD9wR6+ZWAO7mLzEw99fMjMAEPIR1jCQpUsl6q0ENlLzWRBIO2lVaIZLWO5/LbKbnMBpB4RjP5+70+RS/DdgeULHlaI5OLwGeOpqL8cGMlY69RalWVdm5GAkku2WPmRi8E5ZvGmWxBwS/BXOU4LCIKEhpCfmWsRQPvn6HjbYxvAQblvNEPW4mGMa6bHUKF/epmFDE8G/+OiG22vMDEEd0YkYUstZjEJogF1lPP4NkvEuDGASOD3fNNUc2poNrTWMY78dqYFjdwLe3p+JbtIOSRdHZbUoKylxj9C/HgJAVBJwSkTEODWwn3KNZ/Ko4ZNKvtK/7uUUtsmSJLbZCH8J7rnz5nwzHBjAui/7kQhxrstbq5AwBxrPWgvAdj8G6nOXroWxzXNIlfvzVRUijXwLh7RsQlmFcb+J1h4VXNdTVAjBgcOODX8w1O3h504KnElYvbBjjsXWqBHrZOGUIdRCNYvwScmSvyEivz8Inchbtq9j0hLfHhafM+s4K+PNDzof+/C633Di3iCOyfTLcZNcjCNB30Y/FHzJyHHIMeufIA/uBgW43pK4fMH3zWfSSbh8Y/ij0P1pXAp/LDu4lm/gSJkjjrcYdZwLMiMKsLYeTDNT0QlGA9vSqnOKxz/n5xMmpcCthCsN5prMBF0PyGZf6ftueMcmNSk/ESyutp/FtgMX1R29kZTLldrw2Wcp6RdFYjxYrksPOrwBOLCeHFGqyjX+AaAmisRWs70/UvPEI6X6LMYM3B3kTg27QbGIpHMutIMCN6cIdeuj56euW9GnfTeekP8ZzvdqbraOpBQNGw9CApP/vAx+kXFoX+Tm6xMF5yRMqT8zmrjynNyGCQ4O6wZZcd85JJx6+szUSBAwZFu35Gvr6CeWtkeOkU75rkhE9YNoFCm2hRHUPfNK7vDNd/bfnsjFQ11Qoz09N6Aj6xfSCDyTdJSyoPilJfYwPYeqLR8YuI33a2rP7sYc+7O0nVyuX5HCAIBKCIAyeKobQIOAvt4Yiiu6o0RpA1KSrQJujBuTaW3G2zvC5uhQn4jGctIWmQ1QjWyxA2iVT/EzrN1lAc+5UiCDSgUYpjDMJO9wcv+XHY45LcPlya6Y3ddQgKvZf7+kKCMP2yElbFo4dPMOp7rvIsAexQ/4LVZxIYJ1ZviuzLVsCUPw4jNanlssekksIo5HAWScX2J4xQF8tBrRXHOz2qZu2t8heT2IXBdW1GXC2SAjc/QvX/hhbNK69xpS0utpeirFcVSMhuyzwZ29qGtPsuOx/YM4jCIPFvi+yzFg7xQyU3ar2+B9KCUjemDsGr+KGmEdIPeGTwyacs+/Nbt6MUSEFIAvBg9KGbdQfog9/9+m7a+87xs9HaJvYQHlWrZZ7fnUwrszkBQsk2CJkzpGEVGYXki1nFGhJA8arqvZMjXD9vfln2V+wKPOXencBKEGwTpJx7xnxmiFwLOTUL0tMb97x3uyD81ialPCYwuN0b9cvV/9qVgJsejelku65Uu96t/LM3zF2EQlEgw4eBGD8vrxMAqsuatHrFw3TjoaljsCPE1QZL8aKWYcwKbONYtqlG/EtJk2y1RIRLh4izZlEGuYHtzNWh+293Zm9/jv4tvXvV+v67AfYFRAYVg7U+N3+dr353IeXvdafTfmvrZyfwohMcn3ikHoTDBbHkh3APSvVvSwvyiV662sDIIuaIPZSK0r/nYk0AWiU7LtvvWSow+7R7tqtEaefsDqOiEkgq9vMRootDsmXvqZ8HFJ+OmhiO4x4X3P6+7l/3/gi/Q7fg0NqqhTx22aKCOQdOZG8/E4wHZX0jL2iM0sY0cjKF3F/xqssib9Jg7Iyft641hezq1rkDOvkpSKE1S7wk2ngWoah+4magJcpCD4hdIGhkRbPrW6yaKh8CPKPlmvU79x6+iv3hM5swttc20kQEWZbc5dfb60T/KXeief2zmOHal2vTne8soVoewAQE1zzWPsFlAmxLybeDGD31zMt16RH0YbZOE9n9wUM05zUF9auta3e1W8pmyPfcs1tYoLNd3jwPBX/DujQq+L64hErxTvxnUC5YX66fqV7H7ZOULC7AmPWTjIEOqFIjJCOTdqZiICr44v0hQqxjYEM5CseWdoOHSQfcFh3j0/3v/upGpG62XzANL7Xr4x68Nwb8n97FyfCtZxLBg7mUygeUc+AF1dppcpujB8EZ7Yts1f5VybghGTJLRwmowMF7nfoScp54rPj3qFBjncjJIRtgxCH5VEF8YKtCH7hxoQ4JSXT8etQqNcsHuJtdwk+DUmxO3tkj7P9qo+zCJxtaaPNj9Do+omkyX1QCmeuIPmZU1QMtxH4Xm5fbLaGnK6wqz4p+22Z0x5NkAOTq1W6wNN+INm3REtITZM3mBzp1IWQOcVjNixP7IxzyN5W0Vivhdo7k6cMLrKM7UVecaWCokSplEBvt32+CKPUUWQyHkmaRttkzGzgo7upFcQZmxHeDV2NhdnzJPZYabgjTAaq7VHvznGdaOioFyF8qGznkj2p6K33zyT7/WCJvjmYZSvJW2dpa8e2wG77Y338XOQ9QLmPufWPwA6Si0MbpAF8JWi7u7mkR6/4VHOWOvYbe2Wl6dDkLX12LgftQzTHm4ocxO7DIt9byWN0RkTJ3jxODZbDN2djlOGKjPENI31MX4dC27cT/96NDX7gy7nLAqaxDLexl3zgKdjDAfiqkFseZO/WRkH/6Jb16TTug/ZBu8dQdwFmdWTB8CtMD+pIZ5CbYbLoGnfr0G0Oh45ZUHINnztjY5FwgsENKRlpAUDnwl9TxcMD3DhWAxZsRd/GrdafZyNd8W0N9USudH7isnsKbuz+tl28he/H95EDhtY3UqluvLi8Py1Gf0Y+vFhfZ45prO34ftEyBlNSL5Ezz3P0Myd/CxerQR6/QV4I+5gDbnoxG0czA0oP1TmK5Pjnz9wuNYJMFeZL7WPyLL9Xh78f2GEBY0RqTwaEHmg/VcpY6hQUSSuHrOQUrRBi/4q6txTOyP49A0eHLoGAIAWWpJsCOvbhqyb3P2cCeQbiny9d1igVRoo6XYZvS1FBtMhPXpHyO7MhOz3BbffcqxYBn/7tjzgsWSwp+koik+ZP6QLx0sHov97dEoIj7lbp+7YABrnmcPx76EUJ9PkHADSpju7Ehy2DScLPjzi1kowVR1kua/EO5S5kBoM/Y48zj91qVppxfN3KwXWlNBZUhlKQMT1Wn307PPy6i6dG6otWAR1O3bAScCUM+R1lALaVu9kmhMGFtLosVTzr5f4q0fR75IyQBjeqZxcVFYYz+Tu9KuJdB59ciirC4hmMKNTfhzX9TRpvrvQxk4XrMOH8keU7fuo92cxZvImMGtJEmUJTmwq1Xw0Hu0OJjOsmUdYuWPhh37qGEGqFT4nb2BddhQe/0VkkdaSz4M430UgWvW88NYEW5BZzbvNqYYZYsbV8Jwk0BGLQ8AS9DObwU8MyQaRVNveca9NBWfKn7G5vMAXHuJfYly4u1Y8f1lJlH4wqDRzKjIfY7qDv0CVNGige43Oh3Y6gUh0EiKNjJh4qA081xMI7LpCuNIviJDeDacfj79JihMxSULI1B9y+ABGEdNZd5kz3A9sXkXuFeVosFB5Msgk8rLlf4bpg1lm5D44G7Df5YEqR8ljiUSb7eLkLFQ1RwOUwYxYMFnrjGXpBP26roeGPYUKOMtepbPHxQZ6PkN/F67WNRxkQxFj5glbTExdz549g4uhZbU5EtrYoTBWb+uPfRPCdscphuUitjlEpxsSU4gBuZ0c1wnOTid/S/DwMaCWa979QanPcoh9mY7/X+ZLyIxA5+C4Tmzb9JMVvpigKojQf+MIRaMonlCa3O2ZF1IZis0hCHxHsYVjIzKARzkR/XtoGUf1VdQ56Wm4d9SAJE1kL01DYdST+22VNU0LCItY1F6rWYq54Q2YnUl+I76f+bKVVX/uZ4/skiSAuaonnDqHSqA9jqenyCXpl6UHX7efq2WeF/7U3eGd/x8g1KE3E2OwjPRru6tQRgxV5cs9NXth1lWxJR6QVUcJesew81zB9F0aKGjMYZ+0zj1+95cZMG15oy8qSxXbSYmYGruHv5zt9vmVCvgyqkGckADpPVFRDaaypyNykwb8+WPydgvU18YbWDXhC4BFflZJfnU2SRJ1Bo/BDql5aFkOReXx/20scJMorN11o6yvH9DbBJjDLmM6Bj49vlbnCjEMEtwcdRHwbX145I71DEbGGlO7p3tiMfYeJKEuxIWXzgWjTa29Z0qApuNoRCjxvcIeYrkXeFI44AYDwAOLCbM0NP0LcQ0UTFtiB45RGzeM9CTxsJ9T9yZ3TZ7S3ZF/kXEsk7NOC/bndSnRFkI39KupPjbpOxImGCNBk4SIY53rBfRvxfclCLXzIURe4WwpP9s21cPnKtGr2V/LC14p5sZ9x3lg7/8crfewTCB8PE1YIqZexgzD333ylbX/Eka3x1O4Zv1jMoSnyHBdspi/vv5fO5N+HiiF2xbeXysJnvWt1P2OTYRgFavdg4aMBzVeHD6Ra+gSN7BdARyLfj9DsrhvZgbFesz8UMxvkMp3ukVq2PPRyY9Dc7qA91tO/HxnftMBjgBWgKcrmOJxU8jMgY8rUDHlC353C6OIMEYxiGAF1c3GUFT+huNVFHgQHj+Sdvq3r4p6tRr0rT1WhBMFR2k0lSTmMMtg+Gqw0w4TuKC4ZvMHamjGh2+7x7AhT0n57324+FYbO3d3c2so9jquEp/H6FRiAEnPIE48P94DSNSsIlccZOLnRz+j9FYlAvcndlrI3jZZIw6yR0q4gfneTr5tt3+Z7/yQbRoOs0NLYfnDtnu4ELuPaS3LCWaG1+r5EgQfRgTcqAY7pXp7eGw+1Hr7YCSz9maW7C79IXIgjUBluKkYSj+QpAWFAre4bkyW6nv57p3mtg/z00KIA8Dz6DIVU3tAAgEpJ/53tWpNL1rD7a8TfdrFVJGf11SVIvXxh4YupcBRoYH6X4nVjORYW4Ceu+hSKSdSbykEgEbLkow9reM79ydxiRJZhYS38QDbVuPpOZZgf0abm/ZF95OwCvWpa4f3aHkhGPRutOdxuh3OMqu0OnxxApha3WA8fZ+oHBwKDmbn3RdjOJpvkcGG8+ETf4b2edvd9JzRTMVzHWb7VyesH2tEDeQNvAScnnkERayZbioi96rhKnBP1dGMHI5lFnxAgePDohd2A8d20fLORdrSZYgnSiuMq8Kiq6jeaMmV9KT+tg4kzc85duL4NmSh0F1uJehUvwPrGge4mAAhhxo3D8rf9nwjNknPrOqpbjgkTFYboEoxulHDaQJQinWuh0D6DjxTQYvL8UOgPxaUaZBmY+/6QH+fdhJQrwmj9yjCpnkGZsGi+lZ/fDp95mH8b6/h3/XcmgZcm7pDRwKTJV1wx2b3d/LFZdiLVT7Fb62YfciA91LHCL08PLuKADsbYQGAoAID46+F6MALxMwh3+iTV1uezT83PsvkZcP3JsAtzdyVDA/zGangK1LYw7zv6wHlgGBMKetKXwqIPpD8RZ4cmX7izXCSwAuWboBtlQhGVAFMgRHhxCkhfkFfdQ18ySh76j8HWWCFON01Dr64w4HuceVnmthHqTi9p7SJTZh2q+zh+wm3/0sjCzkG5DTZA5QDogNpCH6jiczQdYkbnhOWu0yBwP2Z1HmWN9UNcRKcA0Hy+86FZAp2H6AfJ00umkOAjyCl5MXiZbr/jy3p7IZBsZBtAptD4O2b50t9Mk6NQKvEujN5/43e8hmSYxU/P0IONGX/vrYs7ZubgMniEoPGGXKXaC7oyuO/qwZ6RLdzCUBzc8Z2YFRiBvnui9YMFbEFjPbzsJP9JTWfWArWH+5UgExEerOa01jDx66oxvjfPMDb/0t91+N5bokJiT9q0Qoh6J+zf7QSiJIFyfEwQfEz07WYSBOnjlqIJYYIlidwvZz+WE7Ax63r7jMOf/Pr7xS7UOPWTLNFoO/miq16mUoEq9ZMlf1UAMBU077+mC/+GovldiRvM3s0wHi/mn+/bMWoT8NJQLm/y0EkY6SrITgWjKM0s+4p8GtIuqmLupqeteGZphTYjpAeKtg1bt1Pd+TjkB5Djd44qIDu4Wqqds7CiW0vaues2Eut+BKqfEuyTJ18D5Ps5b8JwVCOnPYQTxkBzEb9f4KqdUA4bCa3Qw4VAVlBYbnmkQTUqALCC6IZQxvM5m62dLHAYUx13vGV5RCXFk7i+VYNcpbkCstVrpbU29RDtJZg24mcllvYw7WcnmMe8MIGfKtmuvU/bZs0lF3VQG4T8nD+dNJVGvlV3xI5r8mHfstp1TYh3vt8zdxW/3LFklMYKlnlG6Tcq2arU1MJOJN3mHt/YatVBXb8pvGgeWvkG9IC9KhZr3pzY+AHwCrYnSx1rkuJL3c/f4XhdYVFN9RjIhc0ezQkL/eOaYqU7RWA0TjFK5S1EiIT58nOXX1DT67jsrSqYRRh97IJOIji9xfYEH3JJjN1+aEwH4ArHFR+79cj7/FQ3Q6duI2g+Nllgk5s1iwx8MsbDea/y7TT214hiAe4zB4aOTWGLyykercJDktZLnWV/e3hhCp3VMa2pRZugICRa7iNlgH3WrombNS6Q/Oz+Ugxh1dwvhfgkaPcBD+oK45uNN+vJngcEcncuQJEhBggxL4BKdwT+4OavIECB+3dPMH9xH80GGaOJMKoSJUFQgKNHgVFXCP8kiVKPCp7JV5jlSuHWlIGeOTCF0h3DtSa0jfncrh9TfI/tqJpD6/0Vbfpt25ZpiJPSWcvQ4SFOfRR9fSJP4Rt/W9n11dzZ3M9aPJP/9rriD+63/cE1Y/FD9IWxCvbayWl/Y4PwDx5+F66TWs9qEv/CxVSBKvIgE5J66aJEzB85PS8Jwq0pgTlyRGyBqt+NIcrDBSkJ3baH7I6gfNMA2f0aKF8rM6B9WrQsZxkL9uwptWFfXtC0M8uzCo2aGfcc6iqRqg/04aSH0IdtIpNfE3dSP6B4kkHWjIcgQlO95yNLehJTaVoXblT/WHF5UjAJq2xj3RISRXl6rjItmLHiT76W5LS4Bs9mQ1vg7FhBbKoeGzvucRO/j9lPcK/t68pWrj62+w0uK4Ldw4EgVIZ3atS8QugT8nXk1JE+gVprcVtdX4eAhI9YmJC0nofvSChwCWdaaR0twzW3Sn8Hqr2pmFBcIhVy8hPULXE0mIB3913oU53KFVmGL/WleJam5g4xQNXB1h6hbKuThI6sQDmxQSgDnzd9SqQtpNSXS8oPRE7iYS4wMuj0sCHjs0w3zGRqg9H6qwLwrv8GLBpsN0wFJ8EV8LNmhmh2gKsWWHq8fuzn5RaKtPv2XFeD+n7TXkmZDrmuWH3CWlrRWfoEjwGvZI8TUBUxSOTZnM0dzkGLfO8lQLlMF5gMuLBg4zQ7YSZdFBiHza/qPGAmmIE56FfGsx5vQYqABwwE1JGD4E+cyJ1pk9tvMJEruPGsGQe7kvpZlEN3DmeabQmpOgOuHD1OYLoRNrTusbNV2ns1t8n3HLsHsXVyBXrIVRjFh/JRHc1GyO3bQSRIwot5oNTy0yuQI4Pzu7sjyPKyzkJnEvUZM94CUEFbM7TT7Z1tHzA/6SRbMY4tN4gtGdKsr6EpidIHlpQl9S6LMp6mwgspjAYdk3X9Vs49V942/R+bS/YIrXZcOzjR48P+K2qxv4btZQjoR+23qev2sN8Kiq+XMB1AgZvjm3zhxClWhEsdG+sUaz69RaFrZt/m3zTnqWVdEeQPds1XRRXxcLP4/NIaWh+DZUNBzU6+DdamVYplvgIvWnCgGrgxpnzNQhfIUrCwA7vB3quPEu+8I+jp7o1BPv1JYali5ThuOsf54G1sUN83AifiO+Ez9vk67xXLqA1HE7h0sMze0cYOay0T4YcfIBsx0OFId7KMASjufbJcpxbXkDp8IHQ54rQCZTSfaC0dDk9oGuwp5Gz7e0toM3F/JURxQLgZWV/VZHtx6n0T9HabwH0tifmYgJqIiZ+I6KYmdKmNhrQqR9lufoIRW3VAdXcyRUFnMu0avHskAOJjtPlWswEuLzbg7zdMaTJh0ob6RGo8PTAXC7JCs6EoxIg1SnvSQupgg68Y3xi+2VLVaVN7PDGwkdvnbsXuJECVEx2rBDD8YxWXcdKShfXXtUwXLMqyNreX/dx9Jvy5FhzGGZ6HYeoPIzmjNQVTrOWddfU/OkAcoeyUOw7Ndj2N8AnAtX0Txgt+WVGDxTVh80hAbAG04307FOAjY6YIkE/SX1mKC9TZvkZzs/edwt++7n9fx/OYcUSKRJC/VIV/y8wbFiDy++GHy8AS8r0qxVaYk1GaT6nDGWuec8iMGXbichRNk1T7JDuYZhOf0n1XwgFLj0QSI7wowzPmawIn9/733m+k+zHGmlCDa9lFOIoc/8nSbz7139Mf44DPlLEg9eGi4xyLNI1bbccpgsl+tA4kh24bRmZUwHTfU33C6AD0tEH2P63nMFseIwp2tEYf1m2rBq/JOB/igyP20wilDojcFWolGJUkavsCTj7iUmgg5ubjdoG/qbEBn7SzJTWhPCwP6zvmBaqJByo6u8HDHK563U9wSAxMCnJCQWCDcJM9AbAEyTUESRIk9mEBwZc73+BA5D6pNNR2AQIMhxHIvMO/zqhupvgioTVRA9M3axEGRHUx0vxcHMDCBqJULOayOkB/jglwy2HEKt2bv/4HqscIiTQL2Q3zJ/J0a7p5Ggid/zX9F1Sxneyl3/mNttpJ6yf7rNUmJ8NGthJ3gRHfy5UOwUW5hMfEGl9Esa4uGbnQw8ugcCjYbXqwLIe7/vaO5u/GhZzWTjZ1zsxy3Ia08LVlcC1CGwb3pt+tuXW622iIx/rb5nQAiGwP9YgQz1t4s6Btnc9bF669lfPDaxUWbcGU/G3yeqEkN7EMsVJkhnhJ+GBighsVA3epFX3TfaPpIkO3Azzm9fMAOuwWxaYiXzxszoe8nozePQUsn+oUFW380FDFnJv0HaDoqxxMJfZW2+neR4oRU1UlW/xhnFOdeSdZteW+Cw8mQivMym/ZD9srtZG7Pn1LdzuDNyIZkHeziMMpj1t+vjEO83Aim+4M7XwFoMcgxP/uU+kmbeY0XiVncc+0eabejZpYJv9ti8FNmiq48eg9ET/t7JItK24xi9menK5/oWquGg8Mf/7fOVrnsmIMKy3wpkdYWaKEi32CQWDmHP2ZNq9J4gUN5Hp2/ElOx7oaqxa8PMYsEVbPN5wxt+aKZO+UE3pS5P3sR7MfPAsdOdu3RqgAcDQyPF10cDUvLyjr2xSM7Sfyo1m9I+0zL32H3pD4eYS4zbEaqcVOWpySKRhAPE+Z+TvZh9maH8NLRu5bJoMQXcdiIjLGcg5P8W/2DPddoBl7EoI03Z4q3XBlcCRBKA7McjVmVaZj2UyAUtU2G1K5QN0aOlrCB/r6sYRhQRsktIlHXFLpYwdX2jtvVz2ML8Q+zSup6nqs6+M71gEDjiVq5dDr9x06435GECUid4huhstuAFgGP773QkT/HujAgQLeKAC8IrFELyJoxji+WlJbkO5eAfGITTwgu14E4xpGTtHJsdVFrnGoWoufGesKvrIS7L9go5FjRVfQW5yMnt4cjaS8QvXbdTu53OrtZymjLfn5S1xsUTJxNx7/dD+5wWC3xv4owesy9L+zk+l3KojYO+VTnKIYcH1Hxi7u14o53yqVf1IVZSQ+hfOabx7G9RQkt88Pfy7zZwxPR7gBE0Zxmx0I/DudfYHfAc6Gj9nR6qnuFw0aJjIe0DjsifRbD+dKAG7rxS/vyp8Zi4Mfw/RGrdxVRncl9rt531bfGEn8jJlJJSZNbuHj4aqkfCBmE7ARf/pzUvAq/RilGI0If+oWGq+XBYHgdC4m6GwofbdtIcapqVYAEtORePArLxaE6yiZtkwfbwxDwuJVP+WdMoj29qsFWwFf09j24/C5ya6kjmudxlsFAgVZ1eF2hxejvDvueXKASjwTHjlbUe+V0kLlc3rg38FFfLdVaPvutdETvb6ICOOwdhk1Uc8HJtGcjFDmwUxu+98xgKV3nCAFVgRKXQM1DEj5etIvzh4EBqp0kY9jK/sRZigfoo01RvxWF8Xub+gsv6+ZQdKRxkK6r0/ghof/O/ZHJOCBdLzhleINLIy5I+HgwuxSyFT26RplRnrwUH3qhr8raKZAjF0tuIYb6EWoqyIJzX/7yYXp7ndvzpsm4Ka8Oq+nfb0cdZ1m1m1+JWC0vtS7HBxHbXtwEQC+oPmBjC78BXopYuQotOdUKgQcMdmVRM4m1/5nOgo33CIEbujkV7wrMelC/KExBr4o4+7v+iqNdAiD2WhKRCxgGyg7aPnSZ5ECPNso0hNvYgK0yrl7r8pufcBremROZlbnr+7upvr7ak3IVR/oLnwqYwJJZKNoX2WJiJ4WlqHll8G/qTTeVCddCXp9OJeyTwpQOS0EQiW431GBwpnvaP2jYZ/6Jl8SS9K3g6Tmh9FGaHahAwN2YOepFMxzNLW+/sZDaPJl/ohUruUOu+B3h97hoREEj/jbXqirRHUYAvrIuK0rLT1JCJhCWZWkkoSlHiTgr4fZeRgFR93UQaVn9eP2UQnqurKYgrtbLdtaLx7SJBlRKB4/kRT1Yq1BJOzYTwW1kD6hCgqK4EfDm22g6Th+8p3iD1+kafT5kY+wDAMgFpTj5/vxDHSng7xz/co9baDVJXDKgRHo+WVbijsyoV1Hwo1VqgIpCkx4W7nwW4ugHVoxRywQmfBIgN/UnaubyQ0wQS8kh6QYlsEgIhV5YBmlzO2JygvrDT6wS8FScjgG4y5S/w5gjVcpRMcP4wL3OpZNyaGB8KdMSbyGgYb5hg9mag7+Hp9mqFrt0pUlckWFKeXbUBMkDgQZntFMKEC0yJRCqihIXjTVED2Hg0aIorgRgnhZliA4dCgt1FDjs+8S9oY3xmFQSdqi64dq6V8yTpOctm3NM/+2NsBv3MfJKYXILVgBBIlAyVSb560SQ74ulsIdoOfmOGIyeuy4Wzsrw3EBxuF5pQ+fHJcW//MVnSDMkaHGvuHGYbQ2VE79TfRkThxB5rWkSAl4N6y6WBjLGXh8cTkvwSYrpnSjcQuan3/7CpkP3i/DtYDbrIbm8Um8b6uSjaw+Woxin2UCiuv9TC8qczV/07pbkWiqU9QE3/Zj7evv+6q2KvOA/8rJ/Ps7gEviYF/mRjlVblaOWt4+V5ONgVtmA1zYv5SISKoHtJTw1C6S68QTY8PlYOVUFhf+TidvGNd9gipwQXxbm+xKt8QYKNbNzbJqDyxFNqBAUAQ92HSL3lF4eBttPPg2Zpk4LT9Zuch5nh6DS2VXumtYR+jQAdO02GNys9/TYyBNej0CqBVwk4FIpIF7RjhmqqvaHi16Qi8Y+TGve7OhrWc2rWNW8vBN/NoQAiCf2AMfDWQTYEnCSU7X1OgINO3jsF3Q42pKHYUKr2+xNvPlDHWBxgVK2VyA2mzAhyZT9VXIa59fsuKVPvfpfEcTcpvf6WbujY5OEPwCdtScoM0xX2NsPLjLYZt6PsG++J3kfSOp5Qyxxkq+La5RHEqzMCcWBth7CafVLwoQa6j0ZvKhig8ggN1vLL9tSb8ZNCFTg8U7MDNDMp6pQNtSwptic7mBshnLh4QBKOxPXOUTpepEd9M27kkVD6a0u2um8qEr0/l7gjutCO45yqODjo7S71FkKFEDwuXJ8+/5BYChVnF4DFSsZAH+Kh4VIQrieRkv7gJvnCa/UpyOnDausiGU5xy2Lp+OpCEi/+sn4lN8hxAF8QYEsQcCyrAVMpfYIX3U19AvQzkDOypbDxBcKNramb/v4qU5oAg0veifhA4Rbr6JsGTM1VJO9vvQHMKaW6QI5Y/WukqM/PZ62Gn3sXcnf4StsZwfdTTh52rOr0Y+IMYjEY7NmFTqWlJRehuPf3qTmpC1W7h7yuPDKIzNdb/vKemu401b11tD8IE7VzfzKPz6VTbaKdxDvPRpBfhz8Vvuz3pZdy+QwbRlV9prH7mOaaqkCfAQwBqkfuVmkvurSfk1yPjq/KifeD03f4J/2x2l0cb2mIYg9rz1VPqZKEGkf78vBr7Sz/d4y8liL5pJYqOWtkVi+bZLs+MIjcn6LFn4uXpebY+M3y1HfHkwBBwqMZUjjO1Hh//85JkCmQCH9UqChUvEyIKYnHsHTrzoEXwP+gGrzY3xk8siQt17lW0/sQUbqYfnZX/QTVoY9yE+3o152A7GD5uTLxBo+jvotK/66lvXcN/pH/CLfaE5+DCF7kxz7lK6kueEEcElnHpfTRuDcfZiWdtUJ2V6xz+sCHLuqaCrM0nvxLk2m6t/ayq3+ZnvQ3Jt7QfUavReytzqtQAFyLxx2Jc5zvvcDX8MO9KqrHqT1epj75na2p9Q7RbAe5CvQ7DST0sAkwL1xgOCbREMK3/KHiqWEyTP2i4+HS3+ndMSnJf6liUaHZnuQYGF+Dq3CCP89vCOAH1teLrUMm/DFvT258l0VBBzST1YuRmancPIBRY82ayV6KAHkLJgipLwlFKQmarF39lPJzjMSjCbRFyGDUEdO3xx1Uuwx2+lEYxGNW5K0PlF1zelR8QzegRyn6kNUNkLjnt5YAMXaY67rj/lBw8rPbAg2EE3zbxzZGLNWlpUKDeqv9+3PQlKiUxFmE/2GoRhPyABaiGjAMcCpwoRnsCQ0sCRu10h/SShEpMO1d3zGG462X9OGEXnbUB+9bVXlOOSnwu/fKR65i+4FaQfpEqyC+BkPC0esRVB2+uqal7hvZVe6uF+fAPQvvds4lMNO0S9vk7nXfLo0sKpPqac1UJAJdnyLbmgUs8LEzWcIHPYi/wgzzikAdOPPtXg19R8Rrbq7xktBO2n9o2lA1znAH3K3UfWzi5kXOnaX8JhtNnG8IzNT8c26290lmu9PIqG7WR4sAa1caYZvaVGgDmB2btG7OE+3r6GgOQmeN+ffl7y+Y2/sSYqiCqlOOwE8P4BzoQkvxo/5Na2SU4KmN6r1WhFLPJytuR1hAqK1nHgB3+bMBXTyKNAQE7WUEufdZr3Iwk+tjcbcByxTrgTuNzVQPNcFQTVuIR0s5XPQ0o4DZKR6aIEHISpp6GmC2giWEyKWokZS64Im6mUC8Q1f4hTKGlwdpH9mx1aQPS+yl6A/fyoqWGACPVFrL/oFcNYdEiDjRwQ8XkpPwJyCM0V+2E/VZFiRK+Je0uwZxa3N1LDMXFgpwK8uST1uMsIIhFTIrp019QFjaOhLSptaPfvQd73jwjj1fCpwzF576pEFo1dbiZ2/3sMKqrmkjNvwaY+HfJxAQqyK4YdM8drHR/rOB+5IOWsEP2H/9gb76JgfqzS9uxWYX351gsBkkDXkLi9lZOwwJYgW2rG+FBml8FJXCWaMilk1aAUp/nnHlx8twfnKTLF0nnp/SO9dhAYjNWsWBPND2vn32JOgQ+kD0Hv/vYO9rTRP9Pssb/X6d6BkFbmhd5gYcWkCDzlh/jx27EM9MiHNtojcxFi7uZeTxK1kTRviXDsr/g+X0Ocu+ghoh9S8akM+7EGueZZcAfHHcjg3uon4mJWiqNyEwZZEJRbqieFCridF5zc63oMlYSabZ3Y1cdCuJbqNF3mC861SPPk8sj9+QzgYoqV3mHDF5LFdRZPa4x+zgtpVuUzWAUQBnGEK3FP6Jkalcb5h/Szum+KsSEMBFYn9ysvsSr39o8gf7RW4VXeeZec7prgKotfiqXGZi5yeOD8DsBuBMHTTHOgMUElukFpaajRPXYwgUjVh7PVhoVBJggT20JADacK8Ngc1CoOY5/97Dv0sLg+KvrrEDAubDeZxvKYKef0XsAYQBPsFw32ltKtZRoW4rBwKyZ/NgSAjHZMn7JacYCLP4TTxObuauAx6hbj/y5CGKm0pLhGjan+HrrZp6bbJ7+77U2fSa53j+lH7Fw/luiA0lS1pNgRkVoU4wVsC+0D4Koiy1NLINY9LjHDpvuBAaEU5yaeksNA7uKcvxcV+vj5+4IAZfQqwrM41bowvPR+7AnbUlUm8QBvgGawoFka8VMeaPzBOfSSNBhWX51+Hm2KcUh/ZwdePMaDog/dfHHoaW/N72Q3q39My5KCYFX38aYeg9GwAUQX4nXqicPY9x/iuz2rF/WuyIxlzrgFRDiSKuN96UXuxllyBe6ORJzj+V0wNuurvw5h+jmmOOuztHAMNJk/bdMQdZ0opug21L+4RPqipMYyXniq2xeJ1qbWYgEo/9qpduS4u/dTUAiCjK3AxXqcz02kOlDVqJTNdBCNHZu/R+evhlMT3vp0vRMO8510O2JFUt8vfycirojWRXrx/L1aj0AQ/cWsWr9i76Kuq2tUXH0FCHcvfWNXn1q/x5jqWoi/ocHkCSpHrN17kqDxkqLoHNCEu+3TkST43SuAuE/Zj3LUeOaFHkQNP1flmk/0jT5S3pkTN1pqnKi5OeAPf/wkf0DRl1XoMjWbiWg8ssu0Oyvd8CcRxcO2RzgtWP26P+v97B0ra5/DX0foFm090cGqTeQAYwBfzpSCh2NCOBC0CPTTXa9BZ1rpFqaJcQQ/PyeU9QhFK/rzQXMK1e6oHM/A5jAARIgVmUkrRZB68SBa+CUVysrJMGAj6OointZmcmjLURwhIMQE+dlQGhCRDe7QAoj0Fn3At/R0DFAAVMizisLN3dwLb5qLT1GlOX4tDk26iT4rPNNvcCYLcsOYY6P+4+g81luFoSD8QCzobUk1vfed6b0Xw9NfcrfJFwPSOTPzE1mSVyTCIPRMkO898DyJ74jA86VWrqnox9YPYmfeDbt4q5cTBIAcKPvNnH+bpK5vNhdvTYQvmFHjnC1VcHyyC5RawpBhMHSfAxa08IukaiyGhxxYqeAkaTsV3Ku9hI7iaVe0KvMb81M2VCjbIO7sCVqdmKvC1IgSTkA9IZ6LeYlbfHpxvO7LDXsl70GnN3fJ9zmj8jEIoiCogSBAA+DoE+MurLdXl1UkZkrN9jH3txVTN9c2795mZ6hllHnbWwxXEPKk0IVy7FQh2WVtrO0MmByV+LfGLO2k/ex07WZ8xW+zfuwezSx1xDxfnTNkcmrf2aGLUP0zUtmExAKCJC4G84fxEM1ApUZjpe9kZZ+PeI65EDj8TE0fcQ9VWrg5bJdNMaz3InryL/W0Jf5DOz1JJ+BVqkmZdyn8fWXz5j+7x8qbp8W6l8TQB46/N8/LHyZlP0s36K+3ismstJP6EXI6uSlqSHMAmbEKPbD3LqCv+TFVV0/3j1ghSgJ5XlcXqq/RQLqEH/FLabgXLc5XgL+7q63IeyOZOvfBp6/Um0yDQbwrJuOh4pmTKNTr1w10i31eOGCEKezmPVMGxSkw/ynn0OyRH1FXA63HXzSi4JbOyArFeDe78cRCoYkkV5tEDcuc5XQIog4RtYD52waoDKHgChQ79htYEHGOZ1Ng8tGcL+keVbCPq1R33v38ja8pQ2t83l6VAPoIWdnnbp7JeMRPfvcILgMvKcObv31OoR4oMbqKxmGEKoS8OQUFfg0jdXEVPmwdGy0e0WW3ZYOvYJrfiF788vMgAar/pbD8LXCy99EJAB37CXVo+m18kpWTDeBnvxtaxmIsPRbC741xnYNqISOqZ4vNvgOw8XQu+V4Pd7u9GmQxIDXE2AYiGwhvKJ1sFiX+3Pl9mAO851PHtNgJ993RU9pXFejnMydPAPXkwC79a76PPqxWfAxY7ztzBmXPQUhUT7BkbhrEAD0jQ6ifjrnC38leL4OffVb3fWSdC3JhMRP72fdtJa3tXbTukrv2fiMIkjueWysQXKYCm/5ucbxV6vh9K5RcrG/uICAda5yGXYZ13gLGnYtxORiWMelHmka7LKFiB8q0313qsk66kzqWj4oUTQPAkIPbIzl3ANG9Nem3zX7GQFeHUOILjcIO8mFrrawF9LEw0NUyAqmZmAn5iVoiJv4mBCOsbpN9A6KyGXHaRsXBpjJVisIkmTfxXLSqKnLqDp0ULEXofvFPJ/rD3myb2NXSXnypJKYAejAl6qRGU0LZR5KdSyfBirne6AFhCIJgMCLFcvf5zXvV2fSuyav/xi9x+THr6cnUdQRB2Ul+o4SAfBjVJwdGnrlD1mG9mQJcdaE/8I0zfIc7aiKIraEgD+4ZT7HgfNtb8fKkFbpp93kpWmG85pRMaNZI/lX7DfGDKrUtvsYwNcrCBZ/BPfbyovT8LgXTp2T4yPkdQB7uveeJYTiGcX2HDQxNicoSBaFCanB6Q44H4+cYLGkfLzpwO4SDBkPGYgF4NAGEPp7HEl4Z5rMQZYUFAwGJi0ZpT8AzAVtyn56gsej56Mhnh74e0ZNYPvQOCo5NutILQaAErZQAbK9O7HO9Lh5PHlKyZCDMnPydVf6dgnMv+cNcg5Q5kGZBs0iW9zQVEhpYp0nov6ivq4ggi4FtrgmEhhav2dmXkh2t4fiunyHddLJxqp1kkezkibhfzGfidHqZy1UBRwiXcP0+ybEPjMRw073QUUwGGRRVFBMOXEXNJn3bJB9dyC94QSfXlEnR2P2DGb1I8t/Lan5d2nD5lv/wuq1KY0M1xWX6AvmhYtd9V1AFDQNlXWIc9b3+4UVR5B1bwALNGLpsJkSzcLAkDpi866U/0dDhJGb9qHlHIJ4dzu8l5ZbfTrtzWuNbg4LKfApzXiKAl5lrZtFyWbPX7Y86Skze3Uuz0QERiFefVoskmG9JRFisnmQ90W13+Mqa2pzDpxKWX0S7Wa7VfYp/YLm2z7Q5qTm6/976fVQ3DDvm+PnVJ3VH0Rc1Bt7soaDrGKgO7GJ+uXa3knUpj1uev2gDhNdlwKT98mXrng73d9iByDrV9/OWocgFZocrWecUsFXGCOzXASMI8TIMLQUy7UT5NridoDMDzVrk2Sca0XOnaeq9xwGhq8FHKfCF/60+Ffs0xxjgD/A73QxRmvna/dJ8/PBUfpjbAS6LwrK9PGryx3j8qouVwrcoOFOSHXVT64vHeU4zGq/LFiBL2VOLK/orLehBXsnxQLI8IhiipcJ6L4koZJKp23x/1f5bTTa3NZu0LGOUhs+woBspk8qnaupQUCTu+6IECvSQvhp9WPwm4lkEZg7UEBzHq97bMxcvM3ZgK3dVwV6KWbGhlT1RmANMCPB1Rk97PKhJafBA4359L/bbLyTMEoPhiu7NuaC9Y8qWIAWCGFmW5XT+LfL5CBB7ifrhjreI1bKtjzawRrEWTZ9IVSpO7DU19r7dibGBZzr1V4FYs4IuZk82Wfkgl9O/qSFRuCF5MT13t+/TmbtXnIZjbPRZQt6+I+W26yhId6NUXueg/HqhFxLfahaiFANC6fc0hhgwuNjf2h3JOLfyo8DSXMOoo4ml8VkHk5S73n4lXg9EptY7qIGza4cEub8g3gL1N7QTc/PhtB8GKEiS7zymkyoJ7oJHlwk8fOkUWSiE+EI3grahUUS20rvhAPmZ5J/xt7O/ldA0m9LV498B34vtB8JKbAHN+ibs9EgbdLadtd5pqICZyChGW1PTeOzNuD9GwPSeg/Ovi23XVnHC3Rt4lzEQAj6i0o0apPOIOP2i+71s0z8yaLxVhYUUW8n4t/kZhkc2QigFSG2k0KfU4jpl2dX37SsDzDbvn62l6yfaQ4NGaCeyv6b8o8KCYtHuiajoOZFOskJRsWQwIX6jhgsJYPOlDJxoiUYnsEPnpFwk50CyKX9G8+wRoLQwVwNp9Ry41U1I2f98tQVFf1X5Rabzpgm6As4RrYpYxFkyzFtinLGoAVOKzsnsMcBQ8txRUT6/Bk5zEk9oGiOYki6vNCjE5DnJAOtYBUyuv2+5QOWVT6VlD6gD1Gje6Lxl6AWa09L9CjNA0W6r5e1W6LPSBfWxKIgYmXWFdVo6AMCXHqzBIvPS2+YS2QjwGFeSitQpccVf7LqoEd6gRcI3/dk0vexjhQaK79+748eKSOAA6RIEeuB3LPRaKG6UBD+PDwR7uLBz++T1Pqt5I7eaknMlC534/dG63B2lVREFYRu4r6UZvek6QTA+LD5enKJplBueaAoXWp2F4UVI8RGzTqxP5XnSKDWgZgJbnQYDxRzVOU/gNDSlvwWI6JSjJBmUtpNDUZTQwvZMzwNiGUdwuJ4a9zfBfOw9RYlkFBguYkZv2PFxQ+R4/HrjSKFfsF++kYZxWTRjihDT38hjtSa2bds4N+DTZrRESPOSKjs1Ogg9pSk2H1b7ZPo7j4brTGytln1CEMahdgFrOH5P3TnD96HjPHnXcIL/5VGWLa2TMh1Nq/1ndB/hulJwmonRDxs8rEKvW8Tw8SH52+ufN9b6vp89H/dpH0Mxe57julcwOfK7X/2bxuW7CPiVfh2NIxhcmTp6jFMxAsnTT8nbcWkoevOhUnpZBfqDGWh0j1yUZadP6sviRPgAc6MUdwHfqq2qdSbWMC+H+K3gQgXqRm3uZeteCu5qW6mneQgw6mBhtoF7CABfS+R1/vBZAdLa6N7lYB2kz4/3jcYQXB7OZt6S7zzaaPHmBO6mytHJ1ibajB9CTQNj8OXHqMFChbBMVn9kN7QvCXJCRN3LZ9yAvklQAsZXQSRWB0PkZxrLuIBf3X0+X2SjnXTwMVR6BeomlVrq8pnC95WjjxAK4ZJYihtBzr/tdNGbRgEsoMVlvBRM2P0ikn4wOOwEYQG3zKl74gWsnRCY9DN922cWvy7DcYZRT+s1Z5ytbSARzyAlsh+4H+WSJTwaWFnCEOX5bruKbbuxl4Io6MzfRCwkt+ncFFy9jwSkiiLpnDl+ftVSNA0wohpMA3XaI7UyO8HBzAqQjADdA/sJIm0Kdzynq+4l/P2zITd5LvOa3JOYuYwmIFqJTNa/GA1OT7VjvpRfKld8mD7swSJbRfwnBzsiWR+enU6U0bDiXLL3hyj82Pjin6BkYMths39rrXra8gXMijwNJtfzeZH6eO+sDNyAcH9KcKpd6AiTOLFf1//2hAW3rgEP5h1aahj2QUgAckLcg2EdyhM7WjG4emX+gBoGt3T6xFzBkX7ayXUfxnFpyhKchsEmajIoC8SVgzsqAcBkbj/TpYArNQL+dcHP02OZfhdAEmANwb8EVSkqHLtd4u91LWTXKQmZcUQYI3LYJ/wNSTOo15EoptPzb62D7dSZQT3P3uCbX/gggYtkk82zSqtk/QQXFZqu1hEvvxUET6U2GwP4JlPzUphFjBdG3vwEXaDmVHZ5xTDlWhiVhb9GUarwxUPjTdQ5VvNXA+l1qFQ2x89t4s9vRnjl7ikuXba3jWg6IUpb76hB2MrK2kNuVi6XopOewpcTLswKhqk/bvA5ZTajpuj5SQwgw3CFN1fwVnwfw3gWG8CngBwcX4+lXejcU6msBRIYXneNjWFpUlw9Do9DFwqzBx7htCx0pWHSEH4fFISJX2J/5Y0CcWsMpfPz+Tl1Bg0GxftVRecEtKtaXmbxb6CmEdxcMHxAL98komYBCM6A4ODxMUaIfFL4KCL71aKwMnGshEbb8/uGwRzeQjo7COdrxdFAcpJATUI4eBtq2t+US48oDkTBNWIX3xVEljniTqsfSSyvsVGeIh+9ptEgWGbYhA/9Iz2/ol3Kc8ZNhlGncbcjm1t6R/f6bBTRyzml8u1GJbalqRUhRq51wqhaGoEFEiaEQODbbTzBDAf6N5Jwd2SrtANxhep9DfbEvOIz8nSBPGCR4neJ48lYTeXIE+qC3ysRf/Ul6VFUnCZJ5WhJSF1XDstv0MiVz33H8HpErhZzjeq+qvXYcEP9EiMKhlKgsPj2pJjIVp5iOKXZjSwONjtxFed3+hsHfcKWuklnNkvSLMgNv6mbAEu/LPwvkuiYlU60AhjFD6N7cT+VSa7rfJ4eXbw/K0S/kBNwTSUqMxTBOe6KoQvgM6CTRz0U1aRq6tWbUW/EPqZPW4MWXJU4TMuYZmO0ZFgRptL+ZAs/nxnKI6nJrfII4el0PdwTau1NH91nEcSK19DfiJQ9GkgJaM4+CaCMFWUswJ8JNedWWqT0tndKTg9F+E0zqsBB1JS9aaEpPcauujnErd0H+Lh/ZxLypeYCVicXdsr6C0agGHZJnm7heZgS5ly5/FceVc9Q32rysKM1DDU3cijLq+5KXwrZd39Hx0nf6ufzQjXwphFwerX/rZo2f77fxyULuvuSaAm+2IyCb39XoMY6BfLScplLBCye+7J+z9fKoOhzRDuSSJM+AicFXu4I4EUAr0kJ59YbKBy8aOjhJ+mzC2/7hxOFRQW/IFm/KnvqA6MURDuVmXnylUBSXKXMQoHNml5pChfQhUWM52D/NKZJaLBc3yid83WK66D9SASRR4xG0+C5kjgNvKxjlCAYlNpNnVFOdA7HNMQ6N1HUTVTXKINlm9ue32+KI52Vnmc7QZEE5G1oTMu8OvQiqp/G8sRf5E4LmfYYlUXu6Vm1Pv/9C7uVafA2QRU1LCPD27caUM4N6w7dF//XrYIwf/pTWKpa8Q+tHxr1yzzJm3HcV6DXzGLiAq9CUxP6G/fvlSOLFVF+txUV2PGh4A/00fkLUcqc0Gk4gwFjjwMvZvSHApxAEcNS4J78EOMJ7DIChIxuzJT3UzcGadi2iXaF03q+EmFUOITPpZ7OYu/tbL/uzyxn06zoPKIHeaKsevk0WHmqZD0QNXUvKUNbB9Y64+Cr/KJJt8eUL/V/J06blCVYjowUX+9A95GeqsS20/q71Rj0y+JOLNqdiLm2OujSaE+6cgdiDAb8SFgMCD0rLWeEp80W23yfs1APIOkakZLdoJtPD6j1qTvjsZ48jNUMIfvbaxD2Xr8OD2XnRzQuMyv1L1FlOySSbJ29bJmoGVA+r0e3DI3bgEq9HyprNaHfYiPkdtUx1Mf5vEKPxdszwsSB5vm1xxEklSQlb8K56hj4+GWOI8DR6GAs5TvpUvP9VFoO2YX+J9k7aCE1sMO9pUQ3EDmSu6+WIRlgDtZARu0Y/HwBoPjYIhXGkhfXWAnGyA4CLC6jzXECuUOOdGlm+8OA8ATtJ+JDZfNTIaAL98wqjAovQ0Vi4V037lvjLueBDtae0eNvjQBVOiABlOfFTtBByS1YfUX3MGvCIn95ttCAcX+kEoCofR02uejS5N6PwL42K0dLGJPYFTG5C8l6JV/Le3YN0IJ8BXuDHqtScb8+mUzDC12cURSh+M600d9mqi+p2G0Q2OZJ3qZYvt0P4hR4yiQj++aK0wsnMPip3sdzmjPrH5h/t0rx6e3Me1EIOOtALFUvWi+fZws7hGMi/eod2yzWuqIvr9iprtz5ktbkOSblccLeN6zSca5tEDmffTBNkvZMYiAFd3I85q2Nc3iuTzvQY2PodZc7QfW3wfkmuVMVMKp2KsYC7V+Lftt/GEOZ176F1yTYwXW99Jt2YzTk1FDF220N/yNwGture+05/DtAcLAn7fGDndMS3Qed3bUWV1pZ4JwtZUavbuA3whMmM7XxaThoJoOPNtMFeZ4g9AMwSSsFxid+LXbTYni+LVKO/sT8PurreYIiZ8wh+o6IgO8wi7knJocqN9rMpKXhf1vHd4HQjr92vCbuoK2s/fSCMVTJlqyRPezXy2pFFLmDRTgvuVwznximZUI0dojFSfY1QcO04nqN/saep6No2jqzPf3KDzWx3jHR7FawKAkDk7NHi/iDFL652SFkTG416r3sXeQCBIaU5Aea+7JvnhcHPgYaljCsG4ljbh6oQtX0DYZnfegnlOiYkoInjeTNVq/G9t+k2FUPDN/dms/I3K83zjCW0MP7p7GCyRrPRGoF2+NKhx0OzpI+4DixxSSX8VYlRRnYXU+TZN+4ufItqrfEJC7cBq9wobdg3M+1M1Owi1jJMOaVAo7VV16ruKhGRddr8Jq2viKAJBPgv+lxgujjZ0meRvMjBPT+V4jEsIjFMh0IwStg9aRxJGdBCkzHiSGtGChIcH3SHZDaMjye9pekYGbtE5JT5r3C1iVCDoWRqisnj9MX9yDmBDoRKxrRdJ5bjD7LQ+dr2peEW/Ork35M1T3JBwZk38wEIU/eFtQqT/zbgtuiceMoeOwVHZzCXS67/TT859oFQx8BpKf6pibgB8mCFdnfnFUAgiTUM0rYmvCFQUZQj6FtIBnzhzPsDWcsDVhtHjUZ2rAducWC9QH6lDHy7bHfx6nPc/fyVv3d3mn14O7AwVeiZwolaeWelfeOqiGNbfZgGnsVCk34+UDBJZUhRE8yemFyyGNsUIJqDiqjborNB76x46r/YX2GlWBG6heLlTsyx8l1jttN8KIyo7cQYdhWNE2mE1BO1CTU3dBAI97CCBhX6Awfulo1lfi3XW9XI4EWuR/Sw4AEQEYvmx7sR8xKTFesrvVq8yboDy0VgrsTv0Lrv4v5ukoQfa1weXnVhYQjnrnrpyKaZu+amTJbUM0xw5laa3INIzbbwHaaeyFib7MVLeDPteImXBEdQAnh7yKCEf1FQi7BmH7Q4VMyrMvJ99IWr17KZCc/cvtwF2QdhuyQ4iTJLWN9jW+/OiCACU7vJ3B/ySNRDcTH8QgCJoWGOSpUoh9YAhDp8KMuojD0oJHEm2B4N+EfHPVQGtXmPE+RCJsPZqcjXuGxcpzlr9X8qzXtapXyVjHr6V4Qs6BzGHbVplcDQkl6LShPIwp3Hv7du6T8etw8qb91btndyh4AHic6PA6PiS3FV4VP7SppDcC4UXRzlfzDyp+h6wnghlW3+FGgdJoM8YYG78SC2IgfNRDGJagZ22LcMaOJL7VLi1AjPwG4P82x7lIh2U2xT2UDnSsxdX1OOXksgrn8Y9hvbCkAUH6qy68g3aTylPNUyOKYVZtzrpijB+0NAvAx8UtOCmRjz5lxI6WEFMYgd4B2qI5UZOqMFlbh+7oDlaTlQD7OAM35f4en/J1EIDfsPeeVA/hkSr7giScm3fDfdy4W64pZ/3FwwLD1xuMEe4qZLnrrlbnCpLlT3bfVaZu5cDlJU5L65hfJeScF/fZ8m4XqCj/Z7k/Lw7TaE3yQ6ZHObBaiNXnDlJ637YsmsvScVQ2E6Va1mg8pbUw7bG41iWIztBzbMVEKux4fLhKJT0ujEicGg4q8FYF/6cci2HLAaIvn9IM/4xEz3c+HdaqQ7+VfVmzdGKP6r5+Y2f2BdsKYqxffgPIzyggoXuOlrj/IadaET1r6UjQFiWeywufMCRmyjKsO/j403ts5yXcP04E8ZZwfWAkSE26cM+V1dpQ9dHdy9ngz/YSn+X6Ju+3zqBabK/hOmYKTUdrF6dj87QoRFwM9mC19wwCYtc4VTF1GHXjSQfQHAR5TM9bklQCLLChL1Z85mhd32yfZppuBDiEdaNvFGOmPFVP515pQkvqEyY7zUPtm/vBV1wPOLrf/gu8w1rQjMNpPkFvXNkhKonR8Us4z6sCQTKQrlcs2JUA0x0gAhACL1nXpZrM68/c1zeH36WMgrkCvYBV1wx6MvC33pYXyIfenJ6l1GsYSB5COfLYML3c7Ja9F5lnPbqx4TSnq6DxrRGmg7uILWdVPywprHm6asM03oP69mJB9Wy8yTiSKb+pwv4zCefEFqQPkHU5irCJJFT1Pm8uB7Ur6/Noi+Oy26OBOFMi5Ph2ldcKu9ivRZY2Kylvd5gMqq9GCCARTMj/+qMFBVeFvS0Uv0JerrzkTNphy1Hy3nV7VWkPifVirNBTF+eIZB4UEC+RmahhIkS69dGKOniE/eCVSzEY+JNQEF8eSLvYZCTKclB74yIm2CG0mCpq9TEOpGfGHsKrvllBhleW50sUCbiRJZabmMKpla3N2Mouo+8QCQd0gTLeXOjAPZ37croHSYmJB02tQCn4Nby4zQKfkn0GcC49GV3wqix5fz2+E/OuhG3G4ZFW4riAbjWSrmO4XzIzMEaNGBWvshlTUkMdMVFERNPFnEFo6pnVG/IRzxOD9Edpw10FrV9RawbC7fo9uJyZDBn2kztjMz0EUKwqQEyZQ/gfGANBX2YZ61Vx3EhoJ36SYnprObhgoAzPCFpj6XDZvlNlJdhfW0icyqYqinbEIYzwQSjpnNd99IClLqTdL/8h/Tbsd90nfupQwVhO+xnDoVnpi5BFZMk2jnx+OSBRziWirahxNF5BvZdKwtyahpyzeYsYYHPYY4jORVdvNm5nAcII1Y5Yj6apd3wWrTm0PEflbikZSHC5oJUIFhynyCVpindIt5IfCsp4Mg2H1cawRWCqlrLeqADfMokhhRBGAvh4ofQMtGo2qsxTFGEJJASRlur3TEPMwIsvpDNT7hGIIsNMDYoITsFujA+HbgGfekyAYdVCVJaPaOL0aIfP9tkUrWILU/ubEksf4QurxwQlMfip5PJLZjH/rJ138selP9xLtjeH/Vs1b89f7nhZKAMcmG0DOB5DhitLGZuowfSHIzMjvdvRuLnj1JYMBDSbTJGKCG6QjwmD1t8WKtpEWfNTxkm1qDlqCv7OhaLPM3C/EuuJZb46HpVhNGmKlM+UJE/Iw3KqcDXZu3N5jlKufPxMV0B115zPGS4XW6Wo0WpXIM43kDLiAV1ioiO/f/Ei/yQXTlG/8SxzD/gOLGDFIOYNZHYl3pPmk8UMAFIjyllUe8ocRUejTZyEsoCs+HqRN1wWk/sDwFragu6ezXq7ECtfdENj6k07St3wKBpm1dlhUZuYdBrpI5Q1fNbkebq0qLVURR6Sfa7Ulu/R4daVUuH/Etmu/kU3TFeFS72VgXmivkBqyIXXY/V4MiW/AMPX9QxH0qbo5dS0bzT+FL+/mBknxZOazc6hj8dpoJ4IOg9svCXPD8fB2DuwHtN3rtww/8v2rCybiloTNlllqUVH3MRmHz+A6/s4Y3Mg3JLzVCE+Varqspfg4n5waGypfUeM8DXutDOJZmQtSufZauVku231rfC9k23RJPRZ3x6GntLjWdkifSGogaIiP20oWMoiCDzaaEeEf5AbFkkzUc/Q9VXRQSKqJqu4HNct4BCtBST7Bh59ausn4FriBE/XOhNS9xyWoH/IuW/OEJ7A0xwdXYqKJACel6H0IXD760VSeve6n+3u7KyJ3CcI7K6WTeAxHkANwWmjHFxKaGo7GwbKvmMRnOCeMMnay6Ju515mp+AUtLAQhqYSQbP/WLbjvxQOGzkmN2sGlTKssooMIZ5qBP3nAFMN+h5teajs7ob1O6mlxQ16Fyh5dKrURZDt24Ix9nCGFZBqSlpkAJViMeR7BK31YJvkOWXcOHIb5WdXAgqQUZEDhUSCClV9LWZ6sHFHnCFG6F/3xzFz8JWxe92jQ4OOtlVDrHQkTp8gfCm0gIf5A9CXvZEPjR5tAQNpLngBP7elY/PS9FQfAREs9GABOSVPU+tfair7oAp0amUbcKruijBLa5N9pKKmNgYJIfzSz4cDxRr+VF3Xab5Ub3A6C+9RS+GcyPZ63vM04niWbMnJKNlFqZlh2jcTMEsbaLF16pPYVE3YlOCEUmFKxWUHJFVKqBYVBqg6Sq8KTDJTqoQj++njiXwBFmn4G69CHVC0cq6SsD0z6wbYSPc6FkjIHLa1l2p7VoE3H2uTIUrbjIIwGfYQtVRtax5Iq22/h5c2e3NOeF3sELE0tpCFT9WVNsquAm/I32uLh8rNj44lM0x6YViN9wV2SNRYkDVnz+u84Jhtf91SoY2IDKuwVFJDIDcH4Xe1nI61ll5GGtOiXLpCgKm+vT4udon8WbGJIQmytMa6Ny/zORP/90M/pDbIv2yzHFRzms/EquH1ATIvIdtRSSGszBmIUdOdQOKpjOjx/iYN7C9Gm15N7j/3Ac1QYiglwhl+V26TN5XpgNvWe6+nZbiqVCeaujVMT0TuEBp8OlCKE4z5VgqCATgfXKLlHbR88OWp2LV2+7DRoxpOKQe+hl32D2zPAHcn7qPAc0SXPHHWlT5rfItYn0umBOvXKZRZLH7NEPrnQil8i2nhKALZSPxnY79edfRMwS4WF0H7w6YuAKID+zLLDIbJcZuvOPzqPjZbg0h7qaKgBbmmTf5JWCSr61UO1CZTY9jBoYkSt++Bw201BGbbg4RdPeVpLmYakY2sXDYJqiTsPvSluzALo3oNCQoFDCU6ueRfYiWuD6GAaZLw4b7zoDsYSgON1XNrTFOIgzKhPgJM9iV0DBhNtLThi9FjH7wFEjFbbtVjGgP/7Ll4kf2RVQXw/dPXOnpjVHwJxlTztTIZd0LVamMY6vqzEgVeGw5QLHpzfgst7LSy0GR8SmvIL51lS4o/WhQv6CBPs4pcRPwppx1+DKKSf9LG+XyAqEWTGC4QsdcBEMgamt3FMBlR6Q5RZjlNgyBvDsXYta/FSC/DIV18Fxpd5vEhMC6GO4P1FFd4Zd34FTAViSnxSYKBVt1Vy65om5tE96BPWnhLL8Y10KhfoDKMNvHkVvTAyCZNwfEoXwqm+svy6fO1jcWfyu8WGQlKVgdsx7eoOjttaS0vt+/w+nZ/R58pgKhy8xR9ktX6MiD15nlorjj9t5cAEp7EsbFyc28qzQspcdBl831GvggLaguQm9FDETfGaOORmg0RmNn8LCmleCkVht0e1Q3fIgDindi9HTKVOg0c+fu+olQeQnOjerF9+KQ8kZu7MINdl9PiCtRuZ4n1KZHF4ddwmOPMLpolcmiQWecguaa2itMXddFWcOvonX3RbRp9c2iIEuWEwZ9fvgkbdRLpUSuqM1ASo09MsuabI2sHkPu5VFB6X9sDp9GaDr/SgaTVbLBUdvfH8mHM5f5WpPFWZ9lK4c5QuxKrvjLx2hoLNMr9aDAQnJjyBTtpmSJ0CDRc0n4p2JGOMfUNTzQhD2KKJ3r4t4rR11yuS/tEix1QbEL4mJASPcYDackmhvKLJ89svKMNPFgvwpm4QQRWd68LSfmURl122DqG/gOyMA4e2KDZTJ78Hi+SBC/igABXCCxZ9oQEVTeUDFBkCimmIRzP9G89tx3H9g4sA3oppvJpvGrRCU7XC6dRugI8lE0/NGguTFM4Z9ZJkTPEQ/OMmhM/pbYJxEvqR0GnpOygNp+vNi7g1wsrszChIFyDYhn9nRXtkWMkwMAOhC47UM8Dqa3WA/YO+Dcvp3TjrE+1vkDz8Pnvn6YvVTNV3IP/26bj7WsshaCZ88UBjYb1bajTWSkO/dYzUR77uTVYgDtWjF2JyGq8BZz8+cF14+cgZd6P78QpLsDHwDQt8OfMrEQv2GLOSrJn1GfQHVXx2q/2QjPkuzH2C0qfyJg7UkWdHj+GQ8YtjWeQKJrY1Rhi5VZoYSUZmgSsmpHSZjz8jLZhfKGY6JszAwJalbeQ6DtYAO78YRmZYxRFE31H9fiG3Pjbkj7HRh9/W+8CQJrk5dCyyKAae0OsE1He12uM6FLfIJCViGV4/AJz35dntpl+iVcWC2NpLnjDRyIGtcDTTgBd3Zm9s/UiLzWhcxWjnDpUMBCXZiCTspNg/C/cAC6g0ucqI2/CFHTx1PT7rjlVLLMPNemEjKiYRf1KnVLsSrICQhGFKbppyn/55Ky+/kUge7wULeIaGNJUeWmSfSDWkS0aSUuqDgI9lTOD7W+JXNQl1/EZUXJFHfPzFt9MiTC/ESxZUcPei+Bqfs6X3IzKsHARONQRQ/bZzNCeLuwct4k1y4Ehu2CWlegXWmivnlRlFCvr8bR9euvUCAPocWL4C3fBBUzeMU6KV4xv4XeZiyKcSKP3DKGAWOFLJK6AytWYQ4lrfQb1+hX6vVJbllCKpcZ42+fvRx1Ogd8WjJbjFH23NR+SpsPokSVBGhzWM+POiJOjZgBRhfqlPXMlpbc9tRRiXJ5uWpt7giyIetw0wQneHjh0xSrYwT6fFYfA9iiqpO4zNQGb95nObKSQY/0THhtMWdppmF60bpmlf/0LVxK1RQ6dOkMZBkCq1u5tVJ6lv0vU7tBIU5WiZF/TVb6ddlMsbiuyYAdO4zluu6VoneOWrmYpBuposwI+JMZWQiDLTrCCeeY5t7PLzso7ArLMtSY+wr2iyH5lzeKCz7QwvMov5AweCl75hh4zjt16IMdtF8RvYq/mLJAm3GTI9JUCafLI2aruwEZZ0UTxE+oNdtvDKOa2eYj2Rq71RxGAkq6oOvg1cbT4F/PxW8B0cN+1tv5z+Z8QZJNzzESuV/0DxdnHyJ2Hk7NS23GYSRVB68tvRqoD+9NOXq0HXWFFsLLs71XhGgesTg9pM4d3cYO0CrWmKd8Rk/SKi0AcKQJOiXXVid5OqUdO2CeWcavYqPDtxeo2vZ57TTibUB1YEUNVq2pNlsRR1ja8gWs5o0bHvUuNvbBK68N4Z/24w7RPgRQkL6rXNIcJ0N6yox/YCW3NTomY0mjhiXCpfHbPpnQD3SJNOmD2IOwPW1tAAiA5XT70lFHz50G948f31QfVSFmmaDs9VBMatOEZWXfdQMFjFNpUAB0T+Xd0MtxlbAZypTX4RuprFYxphOVjd5SGAmKhNnQyONwFe5cJ+pn4CRj3w4ES8lierW60HJT9EG90PmcbA0aZs+rd1YYJybyE7veADSUwNu0cYmVBzDEOdv0UhlHMhj6j4yZEcizxeWQoivSixFlt/WmQ4k+xc+PtlGrVguq/mmAYy29Ye5TNH7sYSIE9JLohKE88srks2cmXLD+OE7oEGGsGo6DYjs0LDbCBsDp5vCwkTZKHe+IChuTjqaY88SKWCgl0B8Z31eGQMdHBJyHSn42D05SH+RuZo01qnbIcEg+scSReyJT+igZFKW2jMOGMH0VZkyYAGgiR3OQbGpgNnJ5eM+jmfEfoBeHQmd4RBOzCYfXH8bit3UYm5OHDl9yh7x9UTC0jdvqtfFgeaEd+SzE+kqnA8arHSmlTMjPrEQ/KcoIsfsQa9J/RuTub8PeyU+KO7H1OqW7PpsMgk0udtuciyQloHEhRHcMD7OiAEZzITQBT8vYc4O0ufK04UWJaEbEGHgsYfJiGZ8caU89kBCwGtXSOfVERhLEcjlHhVQr0if/Kp/oULn1eRE52H8EkNQCcCDWKddu3V6ZRJtVIFX7me2t50Gwsb9VKD6EO3NSJ/v56sdmx4B9zdJEycfHWilhBAQX9ZT3tfL/TRaSTQH3aZIUIe51jYthpTD86lvpbZQMzSr6nQeIIUDiDgKbZzcToLhuGz7nYyrp+xugbjTNJA+eUwcgI2jbrQznnP2TE55OpFYVNzjdwmWSR48mMTmpSkrYqMnVxsWB5BlP0IdjBXTJsK8Su7vPB8Ar0C+Mipww7I3rzNIQMB7M+moU/nfZFSii70ij6DwWhez2dM5wwYvgun3rVwbXAyJ2csNSKj11dlt9CPHD/xCwphm0AH/KjFsLCtnvy0OOktyzF5Eq1WBlejT1Y8ReFBBT4ifZSfN1KmL6w/51ufOExVN0OhawLwRngMs2GA66OSuylYYEuW8Q72bBf/XhM04sfaZwz93nnKOI4bpsvxdUQ9F7FyYR0ao88S9r8EVFqfh8K+Q1c6FlQaWQTjBoF4FFj7xAu6rwI8OwsCW7TOZp5hZUaTwicqCKkbLvJDO+CjNVZgiZ8KgBF8z0aAMkwMRm9sJBSUB2WuMnwUl8hcC42TOXX0idCp24SqsKNqT+uzmKWtxpZPp4/EhRsD0Kem688KfZNbOzOxXIaXjdrkPozRj20knIM6ukvWL1gEbEabWfd7Mp3qnevlS17eIMZeqblxB3v49i45jBSpkQUBoPLBRAUCkvG5Lw57bapfvmn71rpEAOTp0JfM4NmIcF2zB70l6mTZDfmVVXr90RIu+cme3jvD7xc0xPOpKmeMdNeD5kDMER/Ht9ka9zWMZ9vgdE1zq8qGgmQbsmSpMpnVo8mJKtkRBybm5tFWQ08iYFzNlgg4PxMSaCZsatbnUvK6SUSIqiPNcGsSwIcDH4xBB+7YwqwTIH8JLdXLyTRC4IhM2NXLb8zhXyDE+OXIKKySCBekJBGuyIG5w0FUY508lPH3/c3+sJzVkq47fK9fd/U8EVJI7Ykv6uibul4Drd03zrDuq9SFr+HCl/ef7cyHjNhzurV2dK4MVnJcDvWTFNKXfieeJpGNcN3DzxvuYEGGR+jKMG5YJZru94Hzrk3XsherSKCayhyh8210Bj5N4C9Tnl7GHxFs6SKyKxst4SiNlYnyMildpjUIKoMm7IZmAA8m+X6BxvgpdTfZqifAI1f69y7YmFuU4cpyKZCiuDGknTunxWM2ho/5b4s9YET0R79qizHG0gHcMOtgmP4OZv5d3IFezPS4o2cXxkuxee7DxawOKX+nPfgfPyUSSuwGHAJVMTV53yM8IAEPD1lf7i6pHen5tjidwDhQgCZbmHjbp3A6YYDXs7mlL5UwRFMmLzocGTSWZQxycbwn5N+ypavcMvnvWwk88OZLhYtLlKCd2KavXpDomiJg4rzzaVJDuHUhZ/+EVcF1Ut1GYFbSsoXgquaaydShrzCpQ1JvSk0ApRlSpcTGNvehqbx7fLAY16hnsqI7P4fkpfloeYSp6S1dcDYG+F/4HGDF45XB1adewFKyc3DN/mRB1XGT2xhebfpu4ypThJp2RwyhZgc7lGdAFYon822ExH6oAfoMWrh5A/OY+ERwPeMe9h2Kim1t1/URLCfZ+3H4nb/ZPqh0+cZPAryBga/oATIxHQMA9F7lr8c5l/UpJAiAaMbUXaEJFwye8BHHlpBQFd4PJpf1fLQjQBfDL+LDrHdvMJC748BUYMX6t0ArdHxH3jsWK6J+/i7bpjH58HUzRlW6LyK9cDsBxG5dMrPW3jfKNaakNYQO8on65q3aQ+H4hj3UEKTY40dRkN0DB+7knc2eoOsXNVX3sCx4UIs3JSGlQMLbmnkPIUYSTBZUnYB4OoarjXLlgyI3wYrJYfAHi1l8Wn/2pV870xLaOKGiIyYSMs3ySCFz0KnKYR1gWi8wwkPPK0RD7UQi29KSeJ0SDETkRrQYTUPtd3YST/TKBBZCudn2mT7ObyqZMnmgFARpumbuQFGfr308D6C14o8kk1N6aOhnUYnmYYT5d3iKUtM0OCRQYlSg0YL1trreeVZAdAH3KkmF5KANQiLnB96n7SUILg4ne4A0sjnu/EduNTrejrx83QrzXWC0RDr3iM5D0QnmnPUz+4WqAceRX/RShcP+uQ2I5K3kd3FbakYWizWA5IuqUvyUrOQq96oqsT54YzaUT/tFwgLc59HrPAEVYjC7J+JzJP77IG8uYXgu9j+/x6W/8LZZ+64olBTZqXp97OMN+Tv6DsoQx/QVDM8g9B9HKq/ZS/3hLgukRsNT80D2W1yxuH9d4fO3pZhkzggZsJxnfj950OasvvEwV9csmb2Jf+matY+m3/+9Lu3Qnj9urIxLoyJaP+b+QuwM/vJOQRoQk2Ab47UAVMVimErQSyAV554DVQ2GbWgBT958VWtb6L1OtMqyMgOgwfHiq6/OMmBYC5FGVxYXkHXP+KvXEakLPLFjge6QdV+EatHtoQu4XmGF6VctQOsTLZIMfWNxcTsBp1B12wslrwpmP9npwYgDhHv389xbS1Vu5DrIKr7WzpySZXTWJ0E2cae5AekKp5/ABWst1ymranJ8RK5rIMdaZhvTyOqqxnuqiBaN5sMHi9ad4L31W5oZXXrxb34GbcCfcKMCLv4lmkWh8zcyP77MC21QWQl8U7owDRHFqExuZB1/P/IWYCL2XpHbRQz6olZeeI2BU6qet13OfzNg/EhoUEgdLk86KO0mnFz1RRHDuZl2SMFia3w+4Da05px0Pq+p34A21cGPH7oxaagsU87MQ0ZjwuYYHjW0CoGKw37raOA6wAHs1TDPNUEuWyplthn0m7jtigfAZ5TJ84h7aGc6riUkYUmWRlyYoPUpHBIs30/4O9JvA+mb8Nb1V1OgeRJWvhdNZvOVKskEBlWrKkmtxpESM3EJDcsaSuu0gq/wRfPa3syfLlky8TEydwVfT1dySemabnZTFqepGURWHURwMF7rUgUfyZDO7WqKtDjP2OLp0BIuexxuLWQRgqFHWi9pcu9aN49Xa86xwk3hTvmG3jmWhiwoECqtzUA6C+h8p38cncWWq0AURT+IQXAZ4hbcmSHB3eHrH/1m3b1WOlB169y9E6BwClNr/ubbEqA1LqIqHEqkwTRbCO/fFyJXbCA7El0AEc9O5x9b2aQVsV9oJEy9sVwwdqGUIhsUg55U97bayKeqhs3vRhntAVWdI0vcbypwNWUm3+Bl9pJc2bpXK4GZjo6Rpa5xbc4TogriUsqotfPlzpFIJShZOXKVTSuvVPGNqTmeacqGkw/8sdbaMSYq+j3Ww/z08WQSYkBNorkeoDk9jbiwxsPMVZ6wnGR/WwSiQsi2maAMJjsG2K/0difDR1YXVebn7gkaFGNo6Cv+8RMsbFv/1QUR99vRtQOxuusXYK447aa4tu3U5oyMVe2L1ydTtIR+aWJcQ22l4q5WOdMrhefPmaKmaMIgVwQk/vY/eXtpcZ2crGXSHZ+4w4n2BBp7PEH5we81MTeyrLEKQQolc82SZnl1E8XabG0D8oMGg5TiySdVRj7NaLyhmJH/FW/LOTMmfoL6chsNSx0wXL4AD6RvojFp4IBiTNABatTzAxbE9yPgOLZ75tTPjgX/BTv705k+iS4ivNHA47OK9VHmo6QfdkaoAXjhzCcBiJjki9LJohtfy5BaXAT8a9lFyEeJnBCNB1I+vKmnw3KHGiDxxPY5ePiT+EeWt6f5oZqEyJagVO6KK5Ty4+2iw5fp4X4JcqdXqOEXatfcVgrrC/JEjACB50rn0Dd+IHDiqTkZ04VRUB3DutksIBToLLFjqFxhP1zDdQ3juO7HIc32NZcWNG4EXrN3DMvLXUeSZoosXtM1aHvzYXEsH7mjLYOWhK/5agCX3LIWhqmuATDOrA4/1dImYboWQWB4dmVHtiz5qtygMTm54kKZw2Qo+nJ/9/PlBIi0eV2BehLgnY3CoiLqXxmMwp+YXoluU92k4DaKHEPTVfzlJMwyJ+zgHRXV2heWuiWLBAN5Ztz126m/3r6f+Bl29emM45dm/STjR5lZpFfUYNjkMay16Uh0jB/7/SFvb5D9Hwqh03nrCAfdMfpt22rM+7JHP4k3ZtPdjtONrpvtclbKtiAJVtGuM6qi4F9/fDMn/cmEFOPgpKcwxGFpiMpP2oIIQl1w3c9PfvuaRZ7awCCmlT3jjOfQUgcYK39pcd68yVg5P4SgyemnaSNm7BYVLJXtaURupMplyON2YN7c63N2I3k+z/W4ZmNrQdE/MSZGVSk6F7qZALb2xv60j1O/NYMVFAMrnqy/qolkH5QEuEh/VkCdHkTdC4i4saBAqNgB9U+RG4/+W1t5ZIfApfzfkuWOpjGUCtx572pcf91n92P6Kxb01sfhlcQm028/Qrjj5gHC7XaJwDfu/rYp07mGVql7fRVqSq0RzgfwQ9Gg/GCf/NMtwGfJzOf5YYz2sSpsmgBKagqKhQCOYZSfwnF1OdC7Rpjos0sfLfc+xAwwn7kB2kTQu20PO/dojnDA3bCueHUzfO43m3F3y3So5xClp6rf6XUObk3egb9thVmJoBYqG9IkRAKzB6DuSPrCtEEo2fuwp6BPDYvupacN/EZYZngH9ffkEPkXQ4uqdaeHwONW/nxgsBA/FHDkhTo+dDLpB6YMIlUbssDPJ9whl2VRpJpqhac4h/OVtA8UZ11o9o5eeOapwLk0A8Jj82LVsLIgO7hw+kvRCQS6OlOwha8tv95JGnrhy+bN95XqUiWMkpTpF5h0cguhSzzGWdnkguWYr9CrkcIeL8XOIQSh01P0MWK40HR3z7dmE7tM/CRhpejvOmCKqDJVfwTy4rwRy1QhoAfHFI+/jm5kEBHsRCXtNAqY2i+Zfq80kM+s3ZBsfOWNzhaxA5XkrPwrq5xGH5VWG9wERh4aN/FIB0zh1+Hyi6oYCdCpYmFcSKyIYIqQxPDGztEWXBP4cNKRPg27Xes70Nhds90WuW0EcOxICpjuW6UwLL0ryp4nzEjGFf1oWKGtEAES6MclyCCPpukyppuyfk7fn0DZ3OaOafDfJzfIaJZiLGru/Mu2IMDqJouWthATwOT2x5iQrf01RI22lEsaOMmh6HMgrpkZyiF/iIMyDY4oWiSffumHPE1p4UTk6b6fvK7jXzhtz9zsFQeS6vKp9TCNdF7TN08lOFWdDhhP48Kr5RgPDWCyHzgDimI1grpxo0YgCpzINwPBeQz5jLzESyVRVNnhYdo7/gMUzn1J09i3qwu3G7WO9us15XLCx4PKi6IBHq+91cJga+6D2vT9eBvB1ibWNzI2eASe36elT/5CGKVwyrXf9gcf8d/I0oIg/ZI+onTwKk42jKc5HbUV9vud4pg+C1z0xseoRAYhjkhV4ksV0zFqRLQfhX++8mOntHIiUl0keJrvjZ6YaUD0O53hEMAEDi9TVlc2+nzXHI0cOqwSTQZZRRlh5wsnv5lXrcjpWq/qkgQ/bT9EGbV6oV1IRXUyMHY/oZDPhpwEYQ/B4qY3P2+4OXWwrmv9CAkffQNVGWXC2Rp+jW1mF+2QCIsvvHDfZxA2Iv8hyxE218xU5UqEpfsVbTbK8a9Mn5q63j7baKrgBrEY+HsCVj8hyDk/uSDT1dvv31dbxDjPrWyjUTMnYD5UtluFVxJMsXN3qm96cNIuMhPco/TlA9/OK/17zO5E/23Je5uDl7Dx5We7sXAmhg3D8ftw+zYosQZ9OM7bqHm0Bdo5nukkhZT+BtMICcxvsm1ZRS3Jr8HsFOQp4Imlse127USnGhj0kZ2IWAtfko3rNJQmniLU+QlzYNVo7rlJ6bnBfbdhn2dn5C/kdwOQVMueIWYihLFRyMIuRuVKQIZ/W8Pa5h4yPI9GBSCN3NTmDiMzTs/EexDIb3Dtjop6v+DRd/a79AlFzWqqhRn9xmZWQQqsP7fz0avkb6OtLg9+ThwzJS/wkugtKZRZDOzfb/bOdegKH3OrTKYrffqr1aRCM1/Vbtzis+agPcDbpYl73qlmIGhsrrzN7vYE8WSI2A6Vkl5zGJ6+1QfmSK7/YF/YBtNuRKT396KbbieSKB5AJsD8/BZOl9+DcoYHeDxo8jQ6Y4Zprtnjug+XChYhMwp4ThdEokDsHdw4V2PqWIMIvJ1c3tqLK4nVMDCuBbLdR4j+MsiDkuC9MD4S1YtPYhTSmYJPrNg9z2CuqFNzAR80oYCBjzdkvOaH9r22r9SCuu0fvj9+DV9+k1jEcYfkhSgprUEeg9llB5sA7678qmMSfBTn1xsNcTNW9nlV/M5GVugZBWVp/cQUYTRS6xDh8aApMk+nUIZw8w7cAZCX1NxVt1qxNP3FWRfvybG1Yur0GFk5ZTeZ1uXO3C3Kclp+WQ2shLpWWM8vBNF9vg/ELzLAqnsb5zIoq809d3bm9D6PB7HfqesvjC61insxeFjxW41ZGXy9daowt9WxXqZmrDV+8sdoro8/7SCm95T/ZjidFmeUG4GTExyTVsMw0D0DrRzGeSRpntmGmDU0pDB1xgQeYvr2tiRU5z5YAAFfNMo/H/wHoqHm7iwevrIbXdxA/VTlsY2B+nuQDo8FaPEL22+B0HuMCWQE5AD1+HVjFhEuoRhI/fZ9rYzW/vB1apOkvMrDCYxvDYfd8DleBvy+fPhWylHAtOk5kwQ8j46t/AAv5gG0Lktc+ifN+nhA0/PKJQ8V9pBCC5BBF4lP36Rei1MLrvHn5cWvlGA7y+xYIwQYcx1M4z8XFoa1DuW/r0pfG+YJvZOPo9swJMwS5oac8dKSIrNtyAcGsb99VcxNPFPnJXGLWi6//7tsVve/7BxXeZuZ9J3/WOlNz9ibg2SWaTdo+QJVEiWpPfyE8x5yAOOZKvETFcZ2YWqZDWeVD+eQZ+CS+9AjupK85dBx5OrPAfRyldQGusd8WqOTzMULyKXfug27HnpNexyF29KpSqMKEONxZDyzRdNRPMigmkiadTJWG6vl/NlxryrKsquvpZwE1Ri7goZMlDC64QsAR6nIH7uNEqcT3ESWFWuTl9EyGGp0QpkWQkEOmfhut7TS9XSL3qkUvRh/tWKFnRmcCIhSN8SA/GYzqvhAsNTHGe6uof5NsZJJIG6hlumBmdX5fmoHeaqxMjpWo+PqOvMv4irF5HZU117O9+tV645uRHFYysGFw9WaQCLdNKUdhJ+dmEk99Rcwn5uL4o8NFDZ8bacBPpcNu8mNgByyJ5JKrIAxMDeElc/7ZoC9w6clvpD5g1DPj5JJgqTylf0zs/myRLjKJlVXOj+EOi1mPGhZzqAoEz3m2GoX/PQiROQTXChUjPFnGYDdkiGt43zpMCBfsHrob0SiUDTuXv4A1PDcNRpZwwf7gZKKU4DzWcfgkDg15D97Q5noB3y2n0aEhw/x0vkyNryrlr3LaWuA+bnyTcb3SnIdc7al+Yng8TzshckSEHJs74HFFENqy1pkyzqQbqjfpNhMYWE9xXZUdfeh4KFuevqBjpKiCDhGWZBfnm1aEIEC32FsvriZPcGrmXOQYdvsOH5cT1oBDoQCl+0jCDWsGdsWbwOX7Men1VOHHOjnczwfODzcgN8dgntW485qEsaOv8u+dmJ6fSiv3BOQtNuRLvoO0ZAVN9ZJhRrheKPWtwGLSuMshJ5Dp8/j0uXzIg0SF2f591R2pxUFRy/DlKc7VSh72wLnbPhd1D7vxH4kCBL+kEeung+r1VptHvvfrtQAvuOOxFiGCS3phWVorzVcMxjUB2tqNdXr3jYqeQibiiEn6R4jVvaSKqRhWZhdhVUduQSFlgtBLC/XUNixsWlBjGeE+QvNMtRCrUr06Rr5BIutJsSQl3IGDsrGgFx9A79d/K818qg1QgwvFIvi2y8n880mqrNh6PVGWOLi387ZVsvRfLG87yGlh5onXCtWbge/1ln2CH+WKtQ+35NzS5PDe45qh1Fu0ij+25l8SkqgHMO+SL+NXbNeVRlAAQPSLH0zmskzhqHA/hx5K1+OD2OJ1LelseE87N5rCG/LkfrXToTZRJU6O7RtK77CDM9GR3n/tOgnzzHmkvpB7sRVqTDHiTVjTuaZaY2ivoNy8Cj2WCOv5nfGs8S3OUpjVbVrjawgA3f61Zb+fX9uLfWe5jg7+/mBmRk4RGweEoX0jeHvN6LY/qlGxdrzPx9UTsfZC4W9UwNBqdfsW91d619i6Z30d9eY8v4z3eKyuruO/efXtBE7hXyXiB5OjZf2a4YohrsfgYLoNAkc2vGyy51Xu93qsBMgSpmlJKjcPsPSVip9U/V7g21Iuh2aap3WEukCsne2UGtAfPIkHmJAOD4guehj8boZV69/j4AEOD7HsQ+XFoCXrw1zj0XrzO4Kvrp7tOTcj5GJqnB5qubS6p+xhkxdhXLLQCCGPmgDu0ZXRSAus8ErNvZ34fJfwvKjtiG3JZZ80sHEziAYv1epGs+CB0TirJJixPh1+zJzC8ZY+c0ZO+X5B66sL643SycibVMaCgDD5aBiAsYbiDNdaeLSTs9X5dnQ8g2ROor5Nq/ajsFVMlORP8VHrTCDqr6Kq6jJOi8PHXu74J+FWitDkJjOhHAsaf5h3GFMgVwHt67fAp8SRYzTuFK4rzlp30YZh5ZhDNzUQ3HGNpwXS1iCc6TfflQmeDXgyKYmZMtp9oUiUZVbu2yNNykSy1TKRI8DKbUMBQmfX8pAIq3cJatxEXglDs1a/uvSjgaXCJrfJSFzdNao7Iq7i7spbnteGbZaQ6SXF/3TGjesMmrZeFaMWqGt6YTp3IotneTBSU3uh8SJUtDQIeI3Y0//2YwnpQ7EerbV04q6lK/ulVIgQ9hfE9VuK+G70I6VXUFc79iX1I0Fwq+yP7x9a8HgYsY2AqN8gvcl+wq+VaF7BZd35wGccdwJjufkpb7eYiSXcchUS7vcou9uDgyekL0KuT5WbQHoeTx9sOtbHIs1WKaJnIOmu442DmrcDoUCf/s0WUpHjRGRFRZglJWYtRacd97A/kUpLNVSc8xUS378ivXGrGo1YW0zuHsNyPIsdZnrrJbXvZdfzspeVrM/ENCY7Mi0QVIze1rWijS2SP8MaM7rPxlP3qCxqfmJL9rN//bxjHv6fvRUWc6idwMs6Vx3ZED/ZZ6ExS8/JqqR3YSgKL/J65MQut9fXoygcoWneGQrORgryXWeRg0/GbJPvuAkr1KnBzUbFeyAvzsonICmz9TzDoqD6FnsrzsV1GslWoxW2tflq+mUvV5RlC/LSq0txUABEXZjIEAi8Ea2yKziRV4bzIsO1yVdobSon7hPTwOuoJw/CxiBEiNpFJgQwLgZuFLf+tsuTE8FVgSUbEnHJJ/8g4Cp47Z9993fGDgXsFFPYFM84/d5mG+S7TrXdXp6nqstMD6rnqN3BUpC7PwKFN7yQPkMoe+aldg0qVlnpkcrCs4aH+KSoGm6pPmOt3xbIv1y5uwGTnyFoK+JGvcs/Ryz0iI+/t2BtEsi8kpHrywT34UxzfmQ1QIRHktaiBpn8jVFYS1nYaIVOP7O+5z6pnnFsxlKm6GusvtdvaXgWKip+ukiT+qaDIv+FG4YX7HJs7yM5HxMyZrR++NVkuw7QWy7sIx+5bQtGj77t1mpYspfEO76rTRooST/Pv7W/Zf8rhSPx4CzHylmqvFi43jtZ7uf4pb2gunXK4x9MCMtLyKC4qpuCHjgGt7HOa0I2GrFBCTw7X1DtSODMcLUzZG6NTeWfBEs28koZJx0bdC/I1bxEZQtv8zmh84gtUPkWXEcmLl/AED6Tx6al4ZwaPij24Lr1riM5HO6CfVkYr4iM1Xs3zDo4/a7lb60NKfbxkq3TW77ETx6Mq72rPoFDBH5+0LlpNPi6OfWo2XeLFuyV9Ux0u8nimh+0NLtXMNCBAe71SY6d7XiPb823OCg8hVglh0G9CL5MaB/Vfl5ZROdyO3MlCcM/KQhfyCFE/4ENNTIYsM2F3LM1XmUfSMCNtMcEm9HdmpBdUvPRYCf9jZJuDBJ9yBHG1hxJIlWeBsIHNRVhtLsY30DOko6Du82ZOm0T0JEXcP1LoGlWu0RQZkleXcnS8MeH+FMCQqkCSCZyB/f557ntmuMNVcBAnH7GSglfWRGY5mbic6ghDJI+UrfBiSB5Hsd72Jn9sGyxXs7FHhEmTKhNvgxQr9D8KAIHf2X9LnI6wsEGY5KdpZmce1rcAsCFused4NMLxDdUQxj3I/TyWtY0yxBsn0fxneMf10FQHCx+lHtkwl3D2A0ue/7tneFTRysSZUwPA4KdVPyYeNZbdUjgz8+5CX9o9Kn5fBex1yPtA+qFwRj8rCr7+zxZI9cHLkWPBVOtKO6pfvGAcaC6MgWf61CnOh09PVM2s9MfhntwdoC98P3a6CIDUbtoCzZ6It49uswa034hKTV7oeagx2Yxd92OuylcyQ9ic0sPjpthK0iSByS6KTkQajFOKVnj0Hp0TwGCAs/U0l9DuzsLhCCDlAO4dj9DF1hAB/5xcF6bi0tauJMKBOxj0rth7LlNcXrIvfQITQ0Siv8vQj4DKZYAqrZItTEos8uiRiIexEIXrlbYiCGCdLwN7C0cyX86+04cX/wB8rKv0Nivtmk569rttNS2Fpbj9jMeuhYtrbhxSjDHzftfC+nu3hoQdidqRUd+LluPYdiLC4nttQxbq1E2Rhgm0kEni3LHvsDAt9hWG4aVF2r2je6jvSTUfTHz1zBj6J7CTuv7eJCV7PmCDby2R5Qza+yoTtTw0ECjQMP4M/j31iuLfSXhuhCFmU/sZrk12DtmLjNSZ942gFGkFX2BQS6NtagKwRSxjoUA7IMb6sQLyuljY+uuJ6tuuEB4G7U/Gsu4HkOafpaOzt84u1vcxEwb/d9GFIIQH59IwyGhhGru5lHzkIeYHKYMRm/3gb1HUrDeij3L0at9EgqBEnsxTG7dew0qd/XfN2+EvYZVShe32WssRYtnl5xEkEbphv1LSWUdQDym3JznTzTJyk76QPYrD9vGhVNDkmrUCCEmxQ0jqQCSbFZhmpsNNO/cDy5x2w2Uv9CmxEddZHJtPk4SQi2n/rVYVWtRIR/oCQFXnLSjm3fQywbYQ2T8bNCOWyPEhPeNqvQ8LHcPs+puSMf2t7U28Gh2s8KiIVdfgmJ5JemSiajfpnzVB19behq86b9VlcEVaIyvNCKg9iTmFWIqoGqb9kB5z1rUBjs5BVHS/DT6psrfOdMHc8hp+wRU4cP6/RNwlZ7VxfyZ/lmxZyFAAR4m76Fvjz6WxOWFR+VCRO1Ce1pbIoRXvXYmzIIu/WevzW5AgTIuS/dFPkl3vVyHPTrCyM2fNmpYftZCaHYczVam18rNm+ZlU+adgO5pQTyaXk05GjGnTLrUoNQa6UbfRGsg9diqjwvCe6rzp6UadxCc9iga65zpb8kSnzR1hqwCU0sRZ3xvPUdeE2dMj5D+dOGlpsPUIFrHOEvHEb0vFtOsQAibaG9Y3qEVga2Io+q/IQkvu4U1C8xbQZCbQz6RjuxCKAfT/KhTtuPE67ddWrVF8k53WDzcHeyQow3QmvZ6QpByNsDB0/jmRaMkqH3pXdeBB9pTW0IDrOE8i+WbnxCIwBqIlT9B/xImz8byLgXkEB04l574svB8c9MyL6soZEi99oULKlA0Mc9N/SKPLwFwPNhBMgBch0GyB6+KvN0LKFXQ/MzyX0wT6o6sA/pjtU5DZwbhv0PAXqnLxFl+nQkOSHgMsCG0phL4cMdiYT4BEgvvCVmudiQ/nzF10o95kIQnhkDv/INwSNTY6l15mU9Ry01tjci14cROGzmiqbvbutxtYPSDPUmoRZ0Cvq+8xnPeHLwKh5CKsVQdl/IJ85DAPbU5YzzV/fz93WEl2SXhIDEkcf8aC2Ql29OEVBQrQyq1WqpS5xpn3R7aqpd8ryzMSamyXrDD/yG2vfIXFcBVX+ug4xsQ6f4/tO9+rYt4VaRnrask8BjSVAYxUsJlGnoUae+GywwzOoyseFo9cxtMWqCsPVjH29yh1r7mD0Tlvnd3M4tQ5hm0tEgPSwEOHVwPZt9E1wSZdZEn4OgVeXEoSS+ajxvs4zSFmDN04xctFLdlGpzOYeEm5ptr9xaMSXm1Mm2+HiLkj+VzO5vPRRVctg13XCCNa7yyaKiPsf36GunpgycjX8CmctoRzCRWNWrF2FPPZU7mqoZOvA9y2dHm5CNc8o1V96P+revBEHei3WVmOtOxGcK5n0553d++8IgCqjuirdXaMlBfxwvaLuO5nQcQi6lMuO9HQmLCVKn4L+l/R1C4O7SKHnJYvZtuxOt4076X8xS8UYsxVApT9APzTH11o/L9gt9EW++TMErtfIiv7dxBlYsEE6fqgOILStN11PI3J7xvSOrLG3ZauHOaYWJnlyKuySDQG2w79T7VEvhS6MgBbmQ3B3GxMpl9bZAHaJBHzOr4GqIS6fdr/ibb/WVck3oNYgdXAwDmEB4T7QNbTEjVYXOUfB0I1a0RLhOoNJiIk9vJ2fldPFFeR10i+EYimSkm8BMygvwaBn9ee7ReoY2Ad9FuT+nK/k/CKkszkfg8Qd6sPHhNU8LxJxF2bk4DlhJe0MPrhP8RQ7e6Dvv27T41jkhFxL4+frF323sCVhfEt7katy1Q3KfKE0vnlvS7yI+XyKuvsFA78AS72oj2Ujl9dP6sNygp9bGMG7a77GALqM+97jYOA39kVDggU8qo60O697BacRF1WsyU+ZHVV5Q8KwT6yCY1dXgXo5MeENcBgiZqVKlNSwOpyFsRAm82xNdNzbsHIWAqhtnJLX4xUvVr6pwvBhTTlJtOUPQhCOaNBomkz0t41074PmmTVw9KUu0ivzOY5J1kFD36zInPhV9t6eD4MjF6xkRW6aMtfJ+YbhSbN3c6J8K5TF8J8TXHyR81p/Kw3dwTzu0xbV19qEwojWD+iL/7On8ZXVq53zSUK2tbk+64g3GIXz743KXtZp1yFrd2eEz/+Nlv5lzi8jiAA1ePoQMlZyrYpA9eb7XS734M4jF046uqXLqJ4KX72vHr9YoUW09TMs2sQgHtFJ4W3cQM5eGQ3aUGfFpYARzH2Lhwj1O71mQJc0CjVk9aM9wjRqM8MNOn5YAjPhicSZi8pt3vjQRe9aEUA5IWsv2c4r8OKX9eCakKPIKdQsFA6GKQn0yhNavuWtAFk86FDmWEoxAHkgs6n6CoMOUBe5VdaM5rl4d+RN2AjVUMyGi4IcZ3ePly5ssVoiQTr3bbLcABx9uJqqjvlkfH49+fqDve2pu8cXQD6IPDLabqodslPvRfKv22vYyS77sOntU7yK9APWHq19+GC/efIXSj+SOhN+5zH4Z3Dr1p+3MV6OFlAmLelKsv7vUo0zdrEzrtQa5t5vFqzj4QftejctkEC3P4gtXOjbt8Vbur88wwNOnwef5DSdIGgp+5+mnJT0L3k2GW7ujOT3wlTd56xADfZ5h6r/3b/8IaugYhMhwZUt57YnOuuqTsRgWat1iK8PsyhnsuujsRf750BuQFfl+FBG3VGTzqRiwNQJDwVKYvyreDEs/oOVOt0w4ydTlbyOdku5o1qis+q3u36lw+htB5TjnkoMy+QiEql+iQ8laJ2SrTKN02sTy0ckvQ0oq53qtUYfAxnjZkPELtBpMISNLJ4W14xSGp/G7+L+LYZ3BXR/uEw7hVaENVTHviDAFYk+yQUzc4JkChELOBzR431E2NeCeeXbZ8WCvlfHSOci+igkWvEMBxAAKsyP8BjO7AN8r+aaHqnVgBS1OuN1mabRMslc5rZ9LqGPRRmzsbKO3VWLXGZwbk0e/iipC/IQXWkt5UfAXwGnJf5hjkXc79voF6P3X53hHakHHlX4UGa8TslnmnbbdmDPf8zmSKl7R19+J3g08kpAvW/pt0BXX5PcAZsDL4QbYcUzTp91+k9nxsPGOiRt5xA2UAMO++T8euy8q2shkCCQ7i6EVDv1I1H4fbBTXsIIPsQsy2Hp/+N4c4ljZMbQbp6ZT5KRLBztU7j4XBmmNe83SN8QMtN8jEFtR7gHklJFdK6bL5JJ2z5SjAIBOaKhLz6usatzJzTdxkGpAeJ32IC5NpeGrsnHCwstlUgwbmwIUZDEPxTvqqAc2r2qSzOdtI+btbbc2z/lq9+YMsDNWgk2/YfcAx+x9LYU9bgt+rlmfg4eRX27p01oocXc4Wo0LZOZ165JTPPun7rvVfi2ujmX29/O/ywXiwD4iU2VpBGGbI83H2xvpRxPqZhLJcPV9V49Zozz9NnSR6x6ORmHs+s67UGLtbONnfYq0UH2t6tKzshMPRWWDhM7acwT9kO+SCFNKqX59xfOictdxAX0SJx5ktc5neYS9y5tgjpXxZekx5iyDnWd1Zipog1v8Dh6svOd0HkzjAfaoAWPToPh8A8+kOPiXkNABwZCJPcc1pVEhNhJqKFH0GkhXWQ5bIdUBR1VId6UjexapoqqsgVVkRoc7fn/b4oZvHk0QWk6BZwNNcdfUupdRjXfO3iniNzBcGXO2vHVbr5Voq95UnshEOsjEIsGkNoxTfPm43tPHjmd+RgaWOn0YHcDkFXW9bGNKssuwE9hi1Qp43Mj36OmnXJwhQ4rBorLmdeqYeJOH1VaGlR6b78LcCh2wLGDQRlE86lzfrrJRq/xln0LFYSrPxl0J009CYRtojLXy8+yoC5oV4K77V9tmYZmqeQfWB/eJ862k/V1ioKd4Ir0CpjI7NanOPznDvqth5PklCQ2l50UNJK+VeoeWZ0f8d7E+wYfBbdTeI11QGaIrusQxMCU6h0TrgRkW+EhL1w24BPVjieyBqr3HU3RMbLpDuAB3MYDTS84wC9XhF+cSlHyGX7UlI9oP0A8uc+tUeHZV51Yuorz8fC2Rx3RcP5Ni4AbFrb7P3it60jHYwvIZ9snCZzNQT08vWPm1KA6bNQukx3EL/tcj9i9fnBVR6RZHz/3szSN1gq7Ht6SvCDhE+gazGQnEFwrYNd7o5eawj/E4ieAHU4Ne9EaWP2tpFJhTOYVVap2WzllFuBP5smobXVuZe6jxSzqMJajE3pARq4rJU8xpAEs7Jfi61xg248AxOamttxqURjNV01o221GY30OeL/gYbH9OdZb5Vhbw6uCdHdN8SVYr3q4DewZKHoPlv/0+MhlBYJTzaWZ8iYpWxInMeTqAXv5H+4TtQkiPDLpVA1m62JmFfc7XpMir9JHBed875NoRewt27UOjXPuKddkIbNDKfPV9s70TvgJO1p1GW6XNSWKzrt691OLPnsoEc30rHr0aSlJGHA8mOqtK8aXFLg1siVWT3X8WoHpyJ2H+224geOityAmO5Xp8h4Qb+h5yK7hJQXRlNaqUSZldIzStU1qu+uvnAJD+qhbvnvS39YeFs70IFQQSIOMzp/x3RKxJ/DgJL89sxTcaLYbLKqvguBuMfy5J4WZMK6yQDVn2k2lmyqi270hUibE9j/qcbmBfew5rA0udFQKEQI6U6ag3lG5+cA3O3ComWrzVZ4rxFV8JS7toHfuGdMOzlQbevUdKjZlp8VwCiEAzGq/Kc7/W6d2Z0vlr3CNvE3EM7bOVx0qxxQMTL7QgWVp2IsGBd0/PZOBx9AVEFWGR6fIrnh4hrsZXasf6Ni+2BBQCXEc24b2AM/a8PKALn6AwL36/j1gfJf6U89E/4r1tQai4vMuncj1mFU7/qvAgAppfRYELBfmixavJXlY3np8utL+ZVdphH5yhE5NfqiI/nn1Ff+j4oN63Nfu9LBAcLFlKKfgDi9j0tFslHvwQ6a6mfy3pyHZbcYjcbmFhzGiMBdhtTd2Y1e6Sh3zaI7SFuXVUR1iZ0n7ov3lZNVlyFnQOby7fneqidlwlW8kt1lodwUprv8FWsqk2jDVBCsQJsRv9WJVDGysG+PdWAn675m7kYr/WIPKH7QzzTcV5vJQVoVkV3KTvfa+2rygB+vLDmwy90BJdA3JZaQbt2PBe/pKUXdoTZ6on7/hbLwaocXq1AXMtY6kRKCHKgfZkGr/FmSIYR0fkB3brHgUz/QnprAlmv9My6ZB+Zaf6QfC1CEfS/YH2tB7pVjzqTna7+QlnF8V8uIgV+rZ0Ae0++Dcyf/dA9p7Z7+8gELGUUyULstc2ikPyVWgosljfwbSgdDS9O1O0DgcHFMTIGXpiLXDo/uqJ07TIg6x/j9UF4pgO3nkqQa3Dy2hJFtWmR2jolKiHHFQLT3dKCcWm7/HbucRRYKRWCkrxsBkBwAwrJ/LNKM+szvagLH2ByeJvqhfRxqtQuuiF7ZwvZtXWqtEbUag0PzW18M7/LmYUbGlMJM82B3Pe6vwusfEQsAQc60QZDpdf3LBJgCH6HeHma0Xau5LtyIokWn0dWFFR6BaGFIRBwpobpuyz1tW8QoyY35Rh9ml3gR9T0sT70v4J2Bf885oHV8oIFuEtvLYtP0xaLXTY0hP2kgVeWXNLt+IYCwbtRDLDZ9rxTrVyOFglO0M1WF4f1j5ZMzEGWUmMQ/EO7vjhwp+jd2zOcTlqpz53IQ9SYUnfX2rH+Rk4Ll39Vuvz08T7/HnaK+mz7JwTExhfWlfl2pqd+R7l0bvln8LKe/12CxkiIdXuFI1DFdh1tvbExp5ROKVu6lz/FYX6NU5gpXV5COiYp9/1TybhR6F6oN8kOkOwV/ArLquswA9gcfE+Y+Agjip+Ndbya32iB0kRJVSYMGkG7liHVOtU69OnVCvGTy2K+NeXS+cLKdwRVVw1WgSGPJsvpieLBUIGqJl3A7PayZwsmnHwTcRebnUN9aeJeimc3mnRuv++epf5bhUcSm9U3BMcDe2NmK0gFMDM3DH8Tx0Ul1gstPmaVG/bh8e+fGRzfFEPdnEkkNDFhfBDT6eHPSE4SITxvt/A7g0CtqcvXYZhzUyG+AiMTGh1b3B8zJakIBNwuib+dDvKK7W9KwR6+A2R6pSefQN+fcWHDAIMQBcOvaL8HiCl7JQBT09elQ+HQiMx7OxP1r8A3OWFUrFs0Hed7AakXOZt+XucfBU2PNVl3DupQ4UVHHebqp+NyBaxZXKMwjryD2IAZozUhzOSBFH41czUAWmWD/H97KQCUU+pCkPiURM3Nqr1DSvac9Y9bfyKUcZM9fChFfIv5t5erbdWdTOqgjVfch8j6YCRwMY5mrfeNS+yTduwSSvGwgu4c+IduNIJnVsvP7lVU63GuQ9kM0bZg3b6MgZYruHFMo31Mr96Zy+oXRNq4GL1Gu3BEH+bUYw5EsuZkPHwpPnDsvLfl0Y9W4TeTuSaWjdFujXSKF5ONHaiHs8jqSf27Qj0Qg5b0plpfraJBw/8NG76eQ0ujuJzrS5G1izfnjuvdm/39+GerUU6yscoLXp8WD89+eE1ta7VcP5Il8eSy1t4SC8ppnVUQ5xggpsnlKfOJEPQkcjwTu05eY6hDMjnc0NKYLkrTlfWHRqpnVJro2nZwtt+9ILOVOb0cukdR4B+1QiZPHeL0VnNie8Bo0jBrWZ19qSj7jF0lsl0/za+vOdlVeLazxTcIWZhrpwKRVkQZL7v4uUDdsgkRXJUGWCW1ucQFriJOiLBYwxieYE/IjxFJH3K6PX51BJveKYoGWOSZoVB7tDcXqCSWHjvhsNinWS76rO9HGcOvthjqHydA16QSthlJWDtQDyCjmDadU4xO2faqh+p5hlRPoqaqOlqPfvYmseDq8ME+dUJ9dYWtRCnjkrA5yuKmx5FJ8THhukh/UHIvhqcU6D11sspxyHE27fIayf9fU8H+f1MaoKkovm5B2zNlyoAk7OhUaeM1hiWG1YNDG/N/c/+iZWsIvK8FfnLFb9ZnJh+ID1s+x0aoznP4+X1yzRaR4w9NsC1kmkATtMxNtmLzK4cDhfTsubV9RhbvqL3EKfgd2OVFOvYPMnpXpdWGItli/p72qjNEr2Ww1eCpjSZL+CPQNGRJU1qJOOPlTXK8OYnuF1s+4k1AXSn/lITLMRIGtCj4EYxrikM8TaoQSlF0u7+HuT08N2b8LCCdj7wEjqhNHonMxBXEbjjDM1o0eFxxZYRhhtNqU2dgEJ5pca6z4O7/+hFGFUNHezq/TOEao6f+Tppuabi8HzBO/y8qTF7ClLt04ZDVpJE5fhBv+/GZhP97SZe2PhLNtueOVsoDiSxi5a8XdRMRG78phkBl18JP1V7H/iqxkCxyWxwUoF2o/V42Clz5ecslorMrDEC321xKkSRr71zTD1VWG+/4Vcw7/Onuugvz52xI3O0k8t/F9YwDwLwYkbiZRx3VbSlkDooeYJSYBR1r0a0+dkkWheVyuerXqkcuAw7znemXmVZhPz1KnvsB76huEu8//LIw0i0C1rU95qqsla06yJY3k20o1j8gOqjoU/6iXuPYW0K+M5w/elvyXTWj85D7I+3ofVrnbXBZqgb/d8/6C6CmPXXmQkofNQPtJaTkRvXoX9H1voWntsZ8XA3NaMvm9TEUin6Sa2xn/385ICLFzGzxSb5HPlZcfe6Zq7Z9Lx1cmnhDPXXssalLV7FTPJMj+baElpq+s1bp5RYaUV0qVspuC1+5AiBEAb7HY5kfSLMNlarJbz9DCoyGW5xJa3pdyHx7XdybL6WA3xn9/UKY6d+BqFRXWBYUdMVoa/An03XyHd8qY5qVxOlzMfj2b9gK78KGBU+WwbRFP2BEt/I1kXLFlTNULxUHN2vz5w82HKvpPH1DLJhf/intrUXscg49Imkj0RN0858Go2392Hozar32djw8bZYFf4gv7SHfvVcq3K/EPUqVze7C/Oq6a73Nm45AZd6t2pu6v1Qmu0vPLZ1PgFt4GcDeRbBWGXst5dN2eVUIGD0Cl4EGVDCH0XPsRtW1Ow1CUGQh2raH8cN1nSAvxL2obSTGYar9mgbgCEsvrNIpYiqjr9HBD+xz1DpmnEKqHBZwB67QsDzUdqEWYoyWZtCD1aXdktTGQBuuCHvJGcM0yVZzZZiLZJ6AceXkjHlkOURwFEywW7YxzgVJ9ZwN7m/VFIYPrCYLaOlkpfA9hBcEY46X+LTb8AewHvoyq7fF+pgnI8qs72CYQYGyYe96uePciDywWumt885ezKGvTgWDJzVlWOc3neyNbpubtTFQBpofTosipDE4lCd4VrXocVj2cfwKga9CUf4C1mb4FntRROtYPOj18W+4moZd2QGByeuGI6dh/P9pEqYO9EubbxWDin4YxAH93mDeKEGRD3XNASamF9xlSEziSpULGSI4Og5lOrqsDOOAf8+YIRKb3FAyCRwVuDEXNDZcCd8aJG9AqkckunANq6nyAw9kq7w+Sc0BPZpLRrniR+Sj6jODRmp4QQNFsH2Ta5vZls00kxRxTYKwr5L210Re2He6m/zqhGMQ1xoUR5Z0J8l3QoBwCQiLW5Sbasbh4fodi4qg62skzBDuEFJuKoOgrzaNXrmZwRBZPjh2jYr3oFMUDRVxCdGt/oQUIS5H8etlsHcLGeiHRglyxr0KU1p0RDSsK+2331L4IwLXcR2rSaLRIIeJQn6abS8m3wVBCs3DJqR7KFtrlcl0Sh4poQKXYMuB7B9Yqc0hmmfRArJbW8+A3hOQ6MJ/MK1sC5KlTGK6A2fVNkTNxG7QC/4BQl1REh2rxvEfjfYwGqND+zxXEUZQErwPe87v87z7NUcAp5OJfNuHiHl16uuvxqQjFlnwYosJL5tT4SFXYv0jiIkJUz9apPMvge1bY4fr5nfhuxeGETkvYKQQhEPz8BlaIhDeLchyOpLz4a1zCXNQsOapHxvDfYqN6/TcyS/zNfcU9s8GTStlCCCv8v24pvk7wkJZM5b3Rn5A9dCFrfSjwFshaLQVp3JU+o6x4fxyOo1UIrmdL787t1S+RUkL8EhdGj++/3IHAnztgHLYx79za3iL7sciEijmpYEcdDpnu/5bxOqfWtBEvpK4dvk2FfXqx7evprFVvO3UAmDCEXQZNJiiOWjIWmtg5Jbn418+uS9q2u9TEIYrzBhJKxe7WmdYv0mpV1bnx9Uysc5eH1qs+bf2nGyil6tQbBGY9GgHuoVK6ixZvffsNEuUYRoEAQ9ZXM9ruUf7570QXfzdC6U3kJKVU2yz1EPOr+A4NYdTaAECfcGQ18Eyu5Neet81Y9pyuCv6K1Rh9ye29rhk8BujndfSU6+bFq5Q3M/IU4mj0wUzSjZLdtJMNvVRjLgpr1HoEcH3ddWLsg3NeROb9plx70iUWLYbofqCPYJUjIeXeQV2ST6bo5ScmYbEhbCrQ+Ljfk4aXSpjOfqpV8DJE1D6pBfgp1uNbeudE7PLRkBVq6+qNDfM4Xa2WSBXhrv9XdCRe4ERPZbqMNgvauv/OTWqBE/np5cueEfR+eR4CYMQNEDsRC9LAFTTO9gdvRiejNw+jDJKpkkxgjp//c8GvioaiekSdd7mLoHeqlN7U+DTAW3WqhA4igpfuVd54UYMvaXU6VgeGy8mdpl+rbu2/TdXd5qA40c8mjxN5IdFoZ1eJcchB7xdrV2cbFWb39ZvglW/jRY5gBmUFn3K1587sEO+/cgV6/5vYvdZlmeZV3f4QKrphnSbYKFR/bI6n5bKlK5xMpG4M3z57kaxJkONedlA0OlZXEUmaY5dcY0heZO/Dd72UI++oF5I1QSWTc8RrdJbGlDd7gerzxpRSYLncFW7CuPClfInESmcVikM/QrPDh2eAstB7IPmacVQ/395M0t0Zaxbr+sm6OaDC+VY0f2E8NhUHvMo/4oyjHPkCWQbgbnlJvz0q8yj8ad72rXUymQabZbW6VWaTnknD0y8HJjj1vbHUPl7Nz4PYTkEz/mskW3dLhlBHlPTAzrDq1Hy83E0pOtH194PJ0QgqjDYqULgvQak7n9Iq5HcsY19jYkZJYRHl70GeS/p2ZSRotDcj3kJGG3JMsATE+mx3rK193wj/9UlxB1AfG08DWVJovxO9OR+ifZe/rFq20uS5nng17AS00dsXRjFr/fE+KCfAlGBilNx8O68lWIL5dyWgtK28H45IwiKUWynpVESZSyYCq1oyvyGnbaBUQOe7FXQMWk/qIvpRSR1Iu9fyiPMY2+88chMn33vhAGQd2XSJo771KxWKkDv0vdJ4kW7dupGPJ8Lk7QDCen3gRtXqeKBSjPFWN24mtv8B+1YOjUrrRFvIwIW/TpXnfmEefcX1sbRerBrLifXHohERC6PaiufDo1xzMsfGP1VPtN8uO8ry389rcrurRr+hE2fA+sZlnRiJMPPTfG4xl1GKKKrbzlt3XU25BU4xnYRs9qeXWFKas4c/+eHqoAmhWEpukTy6Nl/LfbrzW7pK+upIVYkyaj0W9ViDPc/t4czPZ0Pqs/Ee3lnzApRhsWw+d5z1P3Ipqjs8dcZ9ULaRRWNV9WtEjDNgvP2/9ZyzuCYm8q1iQ2XsJcLGuRWugoLq1FBvfIfs28pBHjaQJbr9rhl3q2nymS5Pux8BChpxXyCbGJpN+6tdefxjfz9mzVG/jYuEzXPmhVU8qJbqi+U6rI2vVBX/Fx3D504+BDrPNaIFmc5BiprX6KSMjQzexeoIdR5lY/39GCQNy7ySYL9awWB9hvJQdtt3x8CfEaYqOQCxTmQF8ChaXrAWcySQc0HVWACt2AF3i28MqwMFQ74RSIqRP4/S0qV01eqscqp/sDiS+uR687ryi9Nf6+KQLhrFSC8i0MYjNunzNS/+4/dCaoitY8ffvGXBhyXqu6x3faJ3nBWfzMddoRfTqr9aTLH426P4bip2/moAIijkoM3uJfaULSHCbjVCUI7SSMXWDzCOly1vKhW6D02DDJ9xUfvJ3tWxskUQrhOxr+cKfsE4mxzc8tV+zN4BJHK2/uIqjoWkVbf/T+08a/jcJ/T/us1rc4ps/qofbWUdlg3fSWhNL51DHWDmB3f8id57/vUs1nYy+xk72eZr5pm5KrU7J8y7ypW2eJ7tqmKqjz74dpwJZK9ygr5hMPVpssUtXxfImQ2nErxEyd1OvVFjNUSmimRoUKsjkHmDoFcDg4jKVsVpxKi/K0sM3oqX7Vt69Wp2NnnsSrkdqvP1bZdKWaECHlJ/AAb1G89tjjiXwfnDMH5ZUPkFdG0SAHlhEViGDJpn2zor5qur99sjmzBXbpkmf5sLJf0W2h8QfCryFN95QBQQmYg8zihXckvxqrZEQT2dKo9viZcfeR7vT2RT5ItRnfifwG3GeellFteWVmyfajfAXahoI2bATO5sIF4AsvoQ1L/IRfN0pC8iT71RLyQ5yc4Yd5wUYf9PvhJw5D4Zyr35Va+7Xi3j3/g3hBVjojIqT+ushUx09max25RC0h/l7IhsCV+HprJ/XumbWqvuMqNfLufCx1wDJzzjMixK+hP7bIMuvQ/aBdXtTvrtIeEgqdun83iVSDooDW8MdEqrLwsL5ezTKGL7n6Ye9nCBgE5bUrs1ZIDqZphwAN40WRw68Qg6/O+xBdGgU9IriCTRt8JhSq7QMh+wj8t/asfHp90yvhWVpeswq2JmtwWml6U1b7Owu3bm3NstVONzfCWW+2U0y8UvEG5X8nr2v69/X46fTWSRdJzDZAJhzBv1JM2XjnrFIK+w/y+PNDGbLS3u2nToqvn8GItTdDVAkNIIPTrSaG/7Ssp1ga7R1JVrFftJIsYVTaJ22HNW/iHdakHseVTN8jGlKqg7teIf2eneVhiPbyf4FRfZzcrpK1g1p/7M/yuyg/AS3dI8aSQHv7bmRlHx4/8DP3HryzJ+dOGljAaftIAmkz8y9xvbLndUB+X0mY77ws8jvY+7KhPmaUrdwx6S8VCfKo1Q3D4c2R8xL8YYUttRQaKlDnLOSeQhcr3Oei7niu4YUjsc4lRZkNoooBpmcLixKZGKCpL17hFsjy/VvLmZO17koKzG/SuDHE/GC+Ph7aWxtL4Xmk/RW3gXx2r6B35jYQ8GAFDtcqLKDOB8Ex6mJK6KjAdnvdLrTRT/xViWr4aiL41C9f+EZHi8pwt4gkLa7tLtIoXmKjJVfYk2YC5RQHFJTi6JKqUZXQVbezIgdJvUqcu4bWRbmGynNM8GK+YzxfvQ7LIrMt8SCIj0gnse+liYiHTfKjWtsRulJ+F3QpI73okqAY+ZbEFaW6MtqiOmpkKHD04ZGOUPnZX2yueeiTBAyeiXeO1qA0SWKnBGSX6V/fUMLrUIc3u87z8t5j1f+kTiSe6IuxGJ8ABeZ19gLBtyR91mSUOj+HOYLimWMZUgYuAfOk9cCgq5YTePju4he8v9KSPDY8Y14xZmBzR3lSgBwOaQUWfO766QpqeFQiYYRsOzdsVLF2/3n4a3m7CVU8yysvUWojJ7FukRrxLGj921S8TATNlDtlK6vtp0oftnP1Dhdynj0hcEJRL+QR2vT0M14Wy4/zLFac553B9Ul3LNchF2Rgw+1CU4peLX2jqcRResr0jDtpviIPh3VJynfTnTur9DSgwoEhvLWZSmxHl1qk5ZNPn7Uhl5mLfx5BoLNnK3+/UDNvUtISA2Z/xUaoXs91iL4y64uj/3H5QXFUCN/iGhLQq1eFShKv3VmSulFj+f1mk3g0g9LXljJpVKhTwlFZ0GVjil8SK7ADCCoxR7UjzfmQ1tlz4+WUlcbla8VSSx1HS5FL63d47S6jqeybnwTdT2BDLV79SvaHSOPb8W7Iq+2esRsn/1yCNXCf4f673QfJ7XzVxvypMSrPr5/e3gRa7DlZJBnTwTqj+1bQkPv1Sac6z1YdaSQ/O9t+wjdRvzxufsNH/oaMnYSud60ktoNQ7Rr5SfNG35jpYlGaR30XVuOOKBbKp/j3A/PJbhyC2LJttoauvbmkziluwG6x9IZFu50+chUA3zSwbrQ7fohfXZ8lztIkRrSXYiANK3Og9quORo5DN6H56ILjts24ODSb2FVgz83gn/xbMmmoSjaOZmd4X/rm54URyk/byIiCvNYfu1NhZ3gPFtb3qggFXW0/yftF0b6vk/CUbSPgC8aqcWxwnMrqJ8Vj4YyLX16CqI7wuLd6hRbXcwXy+4ZfZHbHNUygLHykEnaOe9Gy/OFAV9ePko/+9tCZguMJhCoU/VaQ/JzQ4Hppx5Diy7XuXi4Yi0InlUCmCDH4L4YeSnAT1xKFpQw99D4u6L1Hzmq+zLsoCknDHIIg4iX/mbDhM8E1HeTjKzuSpgzz9/hALNoBBgGLAAbF/KC1LCDRu7Gb7j9b9CRb6xwR2XqH/Hlenkkwr/Db3+izJB+dYdgx0GqYMvW8iSPe0kCJEi1KtU+v46UltzKF/swCaFnAMEk0Y+lOMDSxPi8G5BX0WeO7yKqHzdLgTFYGN3JRGbb7oDwiCctnvUVXCu0kNOYFVofL4+/ePUfK4HjyrgH0Cu8HDSDjKS5QlsVujEXVzFiLQhWCKy/lOcFPmXUF8vd8zTTZ/x4qXop1sxDxESP+whIW86OLgfOzA1udiwKEVICDbEx3c2ewPKdvYV6AMKc6BM+B6P4Ldc3q8ZLsZGUB0pa4AUJ7ACdGtDVAoX7augh41WwwpUDwBKenKCK3e6dflhVpwFXvssrvmPoCuSZJCEDrvCw0NWTX29WoJ6rA0CTinJdgajFQrvyTZ0d5WweYNwssXnfRgIF+1HrLWI3vLzLkf+wH4iHlYdWFQqGdEqkM0BfL5Nh5F6WFdgZD0J/7VyCMMevcYu6vuWjTAsvJ1GvK4jqebgz5c8eWKX0NGaq1GIIf4fbLeWNwCltMKebesFx5HIB4EQhwn1OBaL9sBQgdDqTL82eaPG7Ybgcy44nU/3Tnm8swRgDkd6JBEY0/bxfh9L0uXmQWrjqT+3IxHwaC1l6rqRKp8qiGCtmh5KYNIHBgN4Qd6WCcYfH0R3vmOp1QR0BG4EgMimIYDxKzLrLyBsp6+OpprO/eyzHcDdo/ECYlJviNKrW0uRgSxWxgBUrkBAC/upwrgM3Ugr2KNU4DlLQmdJQ/cvPkiINfHpFC8Qx/kDd1oSjq45k3AKZiytTcAf+m4XiIhhmnU2N/dR0Yu4SbRPQUsKSQ9OFMdKFLNn2pve+r+hnm/ZtxR0WUIF1T/4vdr6MnmcZm29f8mlu5S5BMtgg9qEclKcXqAUZeGJvS9rUy3rT7JpTcXWXc+YiQLTQBqTtJIKCamivL6+rK5NSr5iuJe0NHkuXBbDwwVz2uqtAcSdNzGCnF8wFhOhUekq308FlqC1vwr/vL/AbcJVy3l/Tr7XRO9kkc0hAEl2FxFw82p5C1b3J/ZZ8rkTO3l8Mp5lnospcuXevqu9958SP2bTk6y06v4OkpaYQD/WPIEuGt7/6rLG/9h760Sph/L1KDC2Znjq80ddiCGfoP2og3RdH9oyma/+trUBv+7ShcKPH4t6lCh71eTeC69Fx5eFi1XxXNNslTuy3aKOjMjqGlaet9Dh3hHVNKGFKYB274pv0QB4+tvF0/oqobr2jwuHy1Nto1BZH9TA7a4maVEmbgafrkfeyfWenNwSkqG729O2zF9IAAVhBGixQLRpSvz+dV1/s+NX7siGHGxBI+0R55d8Rx2pN1nXqszjN1lNRK+5nYYulCIXcQIJ+QiTx0heUjea/Q+vHx/Wx8p+jaT+DRA/4Y6HbwqKXiBcbYPymOuuHlmeV9LOIIV64/upwrjBixq7fg2Gh8qwcUf6Gc/jm9/pIFE8ql8Qc7cZLY8M5n/F004/zeMXt9epw33uG7t3uRXpCb/V7fmYJf0lPOhRQ73w/UxwLrsJqyjmfTdEKM6nmQ+D8/HoLKcJJCwZGuwvqIq3nU0PzDvyyHKA+5PoMtfGrlRapcUOWLJWZp14lb9IWPXstBKvs7yfKnl7X7PHYCkEIT+oYFhJfhPFEKOmc3rsD03y7Gv/sQrmwcfKXfz0RGBLcSaXnmeq0OnxQmZfdS+ffCSX6oXRq/9W34pja3LizLf/D0mKG0aOdLRw/N8fyxWu8BJnZMqfwcjZQh1GsUjwLo7xk8Rvf5cChOH+WzCBFAlUWZIcljfWD42x4CQT4DcAxQSPgEaPmLADSDPTUpxi4ObKgJiqHCUSsHceS2+e6mdU+j7UMSKzbdWyc+xNFvwC66nAyYc5/omLFWpspe6p5j1AnRUDZv6FNvzqxr4oVn8slQH3hajmOxjkVgSwCeLlcGC4DpydPp7B00v3+ArGj0+GRtXIcj5zqjSS5z/vrEhaEpeOTSByLjKbjr465Lv5dzn2bysjjQIQBUlwOceQMaUXIA6kIqd3G9oWeA7nmW9FReOdH5GpU3dDlUbQOKbC+LGXLVTHMHWxaGmn0DHODp2OThBQjPdyTxHWdf3eajISiZm0eBRYAsAbm02A1eAOgHEMpImy4KKQHGQF1UDe3gbEfa0qd5t1VDHBjFgPwX1nZU0wE9CZp5v1PhYlYjprKjlHIKu4e9KMqnrzswo2mHpU+Bdh2BHk81FoChGYikjBIIG6D8raQMi57vvFCfoD/4VUsYW+HnjYdJ48y8uwBr2y0eYVDLiawZc8gGwzBkGGGyzNA+RL/VRELMFLdziBgKbIOwfH/w5Vcpv8xKG8YIbSwK73icCWHjGsOZSiuiaoqGHr85ZKu0lkc9whed9jXmyJQ3RPhVA4DVDESj2/NvQWhRNINNFt9a52oM1I99cHn6JrkJ3hqBTpGFyV2TPHMQ2gGdbAAwAIQAEMgH5RWI+AFYYmYrP0REM8hJgaj3Xpo0KFICp0rsabQFoTaEIph6K5+5m6MggyBSB5n1Co9EG5nAEbdXNkSBI3NYLh055cC5OIb81Ts04R8ASQHkYOXDgAA5wL0wWBnmvxifJyGBI7dLxvCscc4dD5ViMgKmhmmVYvLLQL6EGrh0R3VYYQOh8l09wAqU2B89p9JPG7Hx+ZCuLyydau6sISlKE+CTXdux3XeyZEztyX7FljMpsQs0jK+f9Aze3cfwpNo1Vg3huK+LlCrtrOi0RpX/k1tOiURK4MUgVbbcMfjHiPT276ZMK7on2Juf13xaGYpKk0H+iFkg/NAqgJOf4Bq6G5qFkkzE+qXLkf1ZtKvc2k2+C2zEfEyWijJwi4txZ6Igl+YYAj34+4n8d6sFgsgGc89eaTw+IeyysIMnSu8/v5cjwdeNLz4RxcQ+zsD+xBKFUK+fqP2ZG5xdZ9I3emK4kPldI5U83N9HID8XwbKwiMCC44hHex++eN9Zc21d7ev9nfUz+TX610acJ7sER1dmfDpZkafQONACHDLbZhk26oOe5lHTpSTSZzms8Ojh8yKogXpU9uEcX3uyq77S9GPKNeFEJ8wg+ujRuo0Cvoq8K+q9lQZy8OCphG/Ze482ObyWdciTAtlN6St/zd78+gFMQyC8kJsHOOW/+8IbcC5z6SsubhmZNip5uLK8K8LMF5n3UMdhvSIKIXe9Db+85z7dX5+0wQLNcbr488Hh7dR3eqnT2/W+mfhcLHd0Gt17cqXu/77/4M0uOcPzRBLkSLgetjJ+8vokIFLJX95+4zRE9taPaFquMlcZ+XYkLYUOnaNEAfiIo3UdlMQ8ELVrEJFkU52ixk1BXLW/gsuPM9Jdf2/05Xy/exIkAfcbjXJpSl2bi0VFKfUNkqIqBor4rRRUgfXv4Ux/5wyBPTTWdqaDskGBcf5M1mZfyMeP5Tk9Skw8SuPVQD0zfjiJILdGV+jjq5xF7bCOThh1LLlyx3lyW266mkPPcj2dr00rONvqQ8y6Dh2P3/ZUfTtr+F6HLUGC6YusbtX59kLI969gCZsnc9+bUzY0zNrUgiZKkVopguzSC2SDSDxn2lkSczRhvMfU1HoUdHM61dM0VASdT5JzopU3jlncAb5PR9gAQv7v5QdgAWA7gFQC09Xk+4Cu7eH86Nx2rUv9a1D5Zve7rt5M+z72T1B6UBl8WoX6WOWOpQdGOgCQ7xAimA4uZXDAy2A8qdINyCvYZ/yIlhNnitGLwKDKDEnn0QpJNC0CyANgRUsIj24LtHyGQlBBbIJ4hPBahW/bjirOdxr22Da9pTK0aWcyl084pyyw/f2USnMZEX+XYHnOor2Y7XMjJLg5Of5R+6vfsTe8fU2cSy4/SNNxZpd3oScUB7Ly5iCa3inpS5TkfYObET/cSSkpVZLIAKAlfeL5XoIF+U3pLSV3/tRIfpPl8PRZUcrPG3gsD3qBkLvrDAEQ5EBkvodbRX/PGf3ptuZUyx4jhoeSpvOnudYz4BSOvoObUpd6XBbslo3IoD4QAwd0OpRYJAbBAw4FInbIKgN6igFOsXSmYRRiYIDJTGA+vj5dwBJhd7/JvrpQt8amKcScoqcfCSHl9Rwo5iT8h/mmmyGJrLstd7aeysi3TaXy/REYmVjdmZyvul5e3HH/7X5MMQwhGZA91Z49c4HsViunPuvNpJYIJBY1mKjuHFK/VURe6KxLOjPxMIze/b9OHO+BaWNsua6dEgjJCAP03mdmzS9qfyqvEPP9Oe+/+z0cOUjQY9EiQPHa03zR3T2HTYkLpssiouEZHpEGwPGlBA0/Sa+CKgoAGkRCIeAHZRCBPh6whaQnq4CSDGR90I4QlMkcXmj1R2MtDMpeZIlQ/gJRMIYN99L4m1WW73sAlK4QgJkCQMpXZlE1t66QjYsJBDUFjvAOXPK81dyouOQ+7o4sWS3RKCVCHXHx64e/Exv7qNHvQ0aOyYbJ7mt+LZat16+eOS/7PBTuF7Uj1Cj6Pn7nQ7MaX+uh+TnzKr2aYc1y+FsYhJsQOG6opMu82szJKnY77oTriO53SvpHJ0thDkxriup3gct1tbIuo6KuGkOu8P6pf1+f359AcrDmDLK5bdj5Pg51xwOSu7RhPjo6Wla1kiZ4uy/eyB7kV6rXjJu6H4T22w1/n9AcSbdCHOGSKnRUHWKYGeJ70VZN/20spunlmDlTDMEsmrw51a3UdIq+LNzDSXWLFj+6wPh9bb/JCwVlkYvv23e4MPiKNed2ed4mi/O2CZrjtN9T5n93E9RH8fN3N0XOYY/isEKSOdId2V9lFxn5w7JyDQxsoJbb3aIB/Vzf7bWMb91V2ML1v8sHa5tTGNlNcKFZIg2OCmMhT4CQv6bFf+vsGR+4xspCKRBmEPI1s11EhpUHxWIkylBGs4uVnzHPH9+kFCKV9cyQPR0ckkalR73i1LAD+aQKzBiTwTxpf2zuOBcOZ1tlGEyjpZJTgFJrKp1HawPUcRV5qHVnGT+Zh+br7mUfkdvbK/8FRy7R2fdEQyv9Fi/lzsje3MCBynrneQ9Pl6Y0iQjAL2vIB7coS1nDHnsnMpSVxOv5O5FqsaiX8d+AMvTHmibjyeR2QNKyQB1gRdhxEzNM5WRObSSTH8s8ztVwYmL9QmqTkzxWUH/y941+BVQ3Nt3jC++7PQjxHj0VoFjFqkazpEhNMkyZ7rCODzgYvveXtIb2xHifstLwQtVWeEZlJhxxgBvcIBMh7WKTkkzSOCgDKVAW9iWETWNYMnQilPPx8PWKhZfLRZzhep1m8fOm48sfUdPE1cu5CC9u90712W/TfaqZ6zlI5HToOdgLYo7sWFj0XkgBKgUxUzIg1fcPta7bezDePizLk7PCXPa2RI5Hw1UXAeALWYyNlFFFS2ybDMvjiXk7gkFH6BWzTrkErDeAVnAw0HUAkiPw1M0RW4Dm7uPhmg6CKDI+Hd1bK4t75hqHVHcUruhQuTG6SJivZc4CZfe8RdFwtARGkSN+xMBAo+ggvQUj2qJ9SOjVjkw0a+dHfTurVfswzcTB0OO4ZdBIAQFOB0wFwO9PogDgS3CJMri/Fpg3jOpwKu7bfs/nZKeDScXGOnDvzznr8zGcv5xk4L2xQOFqGwKB54ojQCmhngIUZVklQ31LkKt8fRT9iZQmlbZGRufYi4hDWuQD59tI5nl4xQ9AhBVE5UGU0P2LS9NKNQYls8IyDIRIb7X8UeuzFIgbq4cBw0xiWSgsJH8MgPQconcABRgYUkBHJV1axOdxkKUrQcRAE6rcTwo/KppY299yHUkTQohdhi6G2ca0hMJbu9of2u8HMKjjuQa0UdN6jR/iZwcce6f0qYbL30cpSwigKx20AIAHVrgj0k78kd+/J2bfGcz8dfBce/txvNDyvmPq4a5ZOxBejP05siI1uSAACvIeKOpZbCJMb393Hb+HLS8sanyY59G1CMelEZJH2uJ+JreY8fLUJAlpl4lg2EGpB2iZ9oEDvM8B0UBMuRe/XAjLhiHGzJTpe2UfGqFzYOAA0H+dtjGDQ2U7htwfyiZmBpEHDKDz47dFIbUIUncpBH7UjDzzCCOY9HldBpmLrvqo6+FKvN6ARyChIgPHVGVoTqJRbl+9TeC4HupQt99oLCDHU+IUdd9LBIjkbzoRg6VAk1jH5LOC7u5Ciqc0yXZKoimXZuM4UlXFAH1iND1k59Dgwc1EXPvDTUkirYnOpM3EMoheve6692ecHnuehJLWvlsCY4+QSKMexExImJV+pda7Te5gDKZXMvQOD4sD783LC4mZdTXNDxoev9B27hg5y2y4Z4MVV0+bojhQA3F5G8NwS7NlTzo7P1Br4cHX2aVxihF/+Kpdj7XfQNo+nOt+rQ4tO2bEkpqSEnkP5nGsAJ0bvVPU0/vrP0cRR6gvZtY3dC/8Nppks0k1gfnN6j2Gi2zxtgOh47WQI+OfrWrjPH4tFt2izTDWhxrPJUfRkdbOeasc9j3bv88bDzJcRw+0wL+GHbkt2cecGMy5T7GIjKhLFBqfrxeR/Tl20UaMmyjHDhD6d9SQ6DybcFB31nYofHS5Jw8CQshu+J00pixJr3niwt1TUB1RuwC1bhU4DOae46MM9KKSCJHbyxbLvaLOa+GB8mmHg0RjQOBHik5Dce8djgc4jHK7+bJJFzI81uf7zhHNyeAPQfxh/ApVTuOIZ5Hnr6NCbbQ/6QfLKeUiIRoY2nMNLqrEdBjTOggkw6vC5Bg7XRUJXD6R0rc2Urfz/kFPOLi7KVaF/KP/9rfEWa/NvZK+ogVNATqUt25jU2N8wsTbeIariq7ruYPg1PqRyQLJnqgtAVyWBZxi522J4zZnZa/MVFmW0fGBL0BD0pMpTgn2RTJdBcPqY2awlSeSbwDUnjac3zsLQHuAjTy0gCAv4nAQU96kO8e2NvHNIfS6uHofuWgjYvAgECLiuvYsHPuSrFQISBzal+t+1NZ7bANvn+zWL/oJ0Av5en5V9cGHvxT8RQZ26rTvFXy11ATV9aB7TSMPNypq69CFB0ncgmEL0j45XkwR2JulvkNiH7jV+nhx3TjJ8MuhH+MmdeqpZUU3XVTOiDguLP9VhXx4NDW65/MYrAPqBkAqNwYutPJHmDVIO3u7XjCJENaFo1udXIUHBnrQHQAewKjI//kKCweBfbUrQMvD++ibm1D3aj69ZCw7fSQbQ5DFFJYvTWfZgRXOH/fShLfDCjxnsL9Grmpb6a9YrMnr55XQJVtUazEf0Ht2MNWs6k7OO/xN8VuoPPbdMRwev26NrCZqHyaqjFIKoYIwLPCTifOCYRaEtuLqw4q4f5sdVQYks2tBH/RFThP3UdIBCyWCRJSbAfeKPF+bhXiX2I7sMgipYGuagcuoWhRo1SIEmM55t2ZxCWWUxiHoNdFVIny5baLTs3hjEHlAVfCscPbNcoojiL6D4BoYuBecfVPKAwiauGfYENquKZXPLmvaPyYUP+I2DvIxlH3t5FGAlAOxZ23yK194eWeYJnobTlylGS4RdQNsO0ooIWULUDUDgHIA7OsACiqxL4w/mCDWo423twXHjajPRvIoFxxIxHcqLqoD/BLg6pnEyhZRwycxgE/G7pYd7SrQDE1sxiNXUULs1E4d2qUv1sSkE4bJ4jAySGItzsXoTV0CggJAe+ZJer5ujLyUfpCpY1oefzLTjvyUxtzNCKkECsqG7qgvZIf5S+OaOFmW5gOdDmQcukmOqUaj2OXYWowFy0GgKYIYSCre2Z4WjIspVLgjvpK/DHhnkIdfpVuXSv16d9a7P7PjmP6+5zwtGLgTUiXX5X3pt3EzxRLYeGZhD1sfIUORpgx9jFeKhV23pJu5yBjSAjAe7YNo66780ByFNjRv6wNRfcwzpbVKuuabuJYGm1/96cgdygCNFn9b3/3AmNM86ZktjXE8C7Ub0vHNYDC6shmQKG6EYaAm04uy8pmmH7Eu9ymXwSJ2H4fCAlGLAogRoL1S1ilsT/we0vtXxIu70hAEmeFRlp0FQOvxSWRsAnIar/VvvDXtpJmid9oPsFwiWVleU5nV60H2RuS6tGWlJ4YwVzozsk5M7/qzk1HiZZUgMwBjF/tG9ahh0CVxmNoFsGyL963/0WU4keVetupFFEc0tPQaMk8ASaCfmA3DvOY00p5YF3VepB6GBrqGAXPS8hvkD2VpTIbu3Rjm8+pmS47NLCUpKLNb1JXsG1Y+WGJZw3dDSYII7NZ9GFJESJoxk2delfO2+HIJvTcnkGjGUDQMtBICqOamaHvy+xaJ7LnNUx0YZ7aeNcQsZrljC0F/MwhYBlESteSnhyPXLCKt2D5y7DOdvkVi5z/xAagbO68fdxiiXe6HAeCDlscBJgkUPeBAYFUvRpaUWgLGkoYvYokdOEy/gF/9/Fr1Su4riPCgl9+MMz96bqutrUaq1/yMgaK8a7OSWGkSYna0o2Z1BZ0f+d+cO7MkPaUedoGkVHJ2feOIC7mV/fKxJEdZzw5VNqnvkA8Nrmh+dvNGYP1Z+uElSU3letKY1mFFtLFJ5uo8k5jbE4sLZZ3vmdO5p5iMzSUOPqYBo3RZoX1Be+3jrw3ahovEzHG6PVPsfTp5d8k8W4zSC5r56TtVb6w9BjcL7e8K5RoBl41Xn3uZi2SkDe4pHfOWuLOUNW2jtK3r932z5PMQhHKTC46eXJs/OSuHvGK3fW0Lrg2HmjaxO/CM5e9OL5CE154XtHnzMEUoCGtQEkhglLs+X6ieed9mEoynKPdG4d6CYTUurEYSbsoT7h1OITaP0zBZq302Z78jqhEo5qJedVb5ierVpWTvcouyz3/Fz6OvmiDsGeRkzYtG3KXEZWHVhidEp72EgJJhAP774I24KcxwoqNUcMRvGFuw+yX71ExhixVefXXpm3m4w5XrIoeSUK6avcIbGT/zUcTA4bYMmsW9yPoNe89fW3whT4e93+/ZrcpBd05OfCCCkq2FJPLq28dL3rKfTZwMHIuPAww4lZZ6LMAjzl109Wve73qvtQm+ji6Ca4xlW4pHdkRU+3R1dk34HaTrcpd0Pyjpf5pIEZYdwWz/u62fT6chxY9se/NZtsRG3TRblgxEyl4NiwRcvRtf8kflR0bhXc8kLwjvYiZet3n+gor3UQvuTbSKZfkRiHS0IZoKXkfHAOK2hqYEEDiOp+VpHCHQnIq+nHSls3rz7qhCSWKbQut34TBMFTu3vAmvmHGffhqcn6kEL2O6wYX7mbW4bHOzxsuOd4etfoH6tiT9FF6Cx7kdR95cj/AqHbsnhw2d4QXjhz0xFZ9hJK3zBNBY402jrgma/C2McxLD0DmN+mfwxsv5aoZU6IxG0J82C+Y0GxiP65BhnnQbddmfjGuPsM8xoNjtIxxg9sqdsT9Gjz5cXM/blPeEZPGvX56SW8g8Zn1oLnlgB/R3V/bLVTQEGoghQAV9aI8bRtcZOw5VnAiCBsrjQ44OsoLJH8WkY4jEASnlv6SJTmNbeThWtOPVS+4bODxj7reXlzI3lk2w/d34Us8LdeeMLUWv3CqPi4dK8wl7h7noTQuD2Pneacg8mEQkXi51J1G0ydWZjz2nTgHhTA7JHRNZ1tKmaa10UdGQkliKutj8iqiubDNKafh1X+twbJAheOttKAtjGu/qpoa4j7sRwQvwKFM37QavOZHoebf0FpAXvghZ/TFFBo9Jc9wZiYGKhtYQZNhhp4ja6S4X+w5f57OqcBlbJKg8IvN3ZzGxo5xGsDSkk5jsbRDEA4iyGHHNd/MwdmidXsaBePBFqrC4fI8Ppyw69m7fzVtaHzxNHwDOZHFJoJLjGAZizNbBcizX9FUNUApx8FKxrHuvmahWEUBc29LgWzcMA/WTP3SWeB8ySsDLtjVPJBnBm/nfMX8wgdTe0/CtE2diILMEOgraX1LjKAxdbfKmb7x8/QqN//STYbpz1P2IvCwiFTPva9ZsaihwJNOOoDyoziX3jei0MGnQ/TnuXX6KSGSUHoWTc7OH2Jl+cE8Z949RGIgSDwAFXns9WO9RJGmt1nKSUHEE87dxNf73B1fr7eJ5ckcJtt1rYs7+27OQ+v52L5j+LCSzHoPGwAyyQb82bTdfXzIIjv1gyk0lpdZ2nTNGWkjkGKKlw5k90H4PMW3UucUhihweJ58tl7rwlRGr5fydE7H4OcGEHgw3DIMtT7X8Sjc6NnoZwXRYhS5reLit/sfWvW29fDmAFNf4xF0/CoL6tK0TrIz/sylcZ6eP3SwPEheOr4pO5kuBnSFYoiLuTNUNm2Wt+0qWlf9QOGW7a1fwtRckHStlNv8Y5mioQeSfg3++puKBDGMj5kl4v+h99NRh9956+rF0IyQFpS7A/Fl9qPEjxD+/akkZemVyrca+UvWzDMx9ti86Zrd5Qxc1JI95cesnbY4AI38u3K2LX5rs1azV2Giz7NvMYLXunsj3VGYtAe8OPG5ewNhK+7ffXuHPs56W/lkrl+iE3jfst8x2MtpG4e+cqd27t0m54t90CYNWnLiZxZj8GYbPRPBDQarMcXCw8AzpBslYpONEmZXow9LoEhBeoxJ6d1nqLD71mfBupD3z+elEkB/3G4+O/TjQeqMA8n2CBaPTD1rP3zBccdmYcbxYD33eXZZX/Cb7Ch0iy3pa2lVAOIT9zDT5/L5MkqEgd9vA1fYwyKFtBzQ9vKeNUESx84TwlqDxx40namVO4qwf1dCTNJJuN71zaVwoXhUCi6COjOml5D2i3KomI6dHMfJDRa7lX8r1ttefA5gdZYo9UqZ8JgzEuCfCnz8DPOSZbO6Ie8mupL8N7QMzjUn/2j3fdj9Qvl1dibdDQdDb5JnOVrPAE/WRaitv2uhYS70BYp6qHp2+IsktQrp4OCAEQHNkHa9Ry3zWX9+GHuvVp6v4wZgZ2Pu8hHeZZY6GBlZnB0HC/m2OWmO+CxkE2hk/66ZJQMyv5RHgHW+a0NIzjYDcaY1GCkOfRDV5aF3jwvrCqMVAqoj3Bx9+kGTOFU3Xr+1hiAgjMJhkH8k9o07aTsL4/T6eEmg77r8Q7smAWgvtNl/7Nt15Pgu7nsnMWBUiYUI+3usWHmBgSA6H893jHF902taxWf+Yr2LDMT5yzo8qRaTPi9AuAnw+iewdsh1/yFDrGCvzvXrrsgUGTObC5gxmWRprvwM7rLviyLBxa6CDkHmeV7i/R5ZkS2kpTqxL4573CP3k9WKiEEPhxhOd434tT3w5vDuYL9nBQojR6L/PnYEq0mRpYvlTNtytIVeld1CcxEX73UWWFTuW5eO6f5Vmcp7WeOIJvB68SYgxyp+3E8nI1QZquJbH/i7eG1VgeFsV2eEaCkHsG1dYg1cT0OHmJfg9UUotQ1vmebFu8UXS63LRtL6I18Ohzpev7fkZErKfWav7ZdJw/54ew+nC0lbmNf6SGI233XxUoJCQAX2V8c/qaYMnE7dQa5moJvBpVP/74pCqelmH8palt6VfN5PO4CNnrrHnFmYxLUEN+eNmWCybbgnWB5E35CROcSGIsv/bQIfK1vPL7DRAKRBGnR2apYkP2c7w+ansVjpmlwV2VXz0pjLPGqa3v43hf4X9UtXDdfPHKkGBZUOOZU+XYvSjPlig47OiclJBwEGXW6nuEVuJVy5U6Ow7FeeTTdvAd9mZP6Gx+qbLJ/QYjJzWoixR6fZpyryn5JW19e98f5++V5E7zWjmXZGWBVzHg/RncB+2WVEvAUj9fQ59P4BWfcoeAzgcgyVFqKegFY2ytqT7WvWQozyMkASSbdr39nrxC8qcgqy+zlDoJOISqmWTNHMqE/MUQ/H7XUbGElPcpzeGwnf8QCAdWS6wFP2hGfTU5YMyYN2jYeo+qhYgmX5EECbU0kq9SfEbI9z+Qs6B4JDhgnNTq5HCxI4um0X+td8do6yFZJ7wtZ1HatPqMwn9OOjDydFGByU27wJEycDf6lXaE6t+I3hPJ60wqbJRvPbnvaVwdFnI1q2v8g5wPkD2qotVlDSamUFYe1RJe3UrW10OlTM3kpJZ0b8pP4c8RVq7jIUJteL6lPQfsytRzNvdxNijV4cF62joPonBSUeMfJ/YEGkD3ySWGYfmYBfluoe2lHAR/SB+16eY7DPlx8JHvYtlKN9+i5X7QofKsiMrAL5Q+YH9VbtgIgseFF+sPmuXkadsfw2u14h8OGtP9Px4J/3AFhdnluC8OOFUZVfljEdAWkeSZsWTkG1VO/f9hFC3Zn2rMBrm9XxAw0YvEQf6piKSScMjIMN2ya3eFYIF52d228nzVl5vbspjem4ZmaoUlbaE6FOp78s40tZI7m0YWnAzD40BkzrABD3+vlxdt1lgH4dy78MQxjfN81c7y2v1zVY4/2StYO05CIe5NoQgk6CjpvlmQsyWYJ/oSC0AfnI9YMwEQJpS+RD0b3fJRsfNuL23Egskyu+D6JAxibhQigVWpKGRprtmPxgOltDIatat6eyDmh/bMZ/gGFlOUgVpHYv4tealKT8a+UblEX16yE95fMJjdLvfWW8uNSr+OEWlmFDzv3dw+dITOb+Ae8GJS7W/qyePA7b8VtXeazpfyrup9cIE6EQHt5+mv5U+FuSHA9SegfIop/WSSyAxR0GwNbV8FNaAoT7yG679sYfv8tkPImxWtGluFtnx/DK4y6rIp9jQbSpTmupbYTUO5jP0+1rINsYQAXUhJ/lQyoyy/OGKjagGjiBz+h9L6mipr68ch2HsOS4aYQwsfXpe1IP3dpHvwIFNWX3jM559yb1S2ebjZz/1cgtNEi6TL3wsp6myX27dlq7eNXw3qb7z4UPjPuLIlEyAbLmW7B/odvRA/l6EujF+xBn1e/KcC/SDduYhfOTwZzaoV094hvNICLiXT5pnvrEdNE6xemcY83aJy5lubP6SN0ZzZVMEKGcqkOXuIh5DrZWipytrhmK5R4fAVJ5EFGMAKN1RiCJKA4Ctu4kLrNFyJDF/C/GCeaurJI3UxS/okx50JmMGuhx1syZqYsBh4zN4YRgGVpzjL3WkuzGlJanHVzNpXwbTJhTPlmT0/OaQHYR5tMYaXiv57qTvkriNiDntG9X3xYwpG9J6fYfUmq1vS+PQkwykvKPSZUXqDewQNyz10AEoa+fHTxIcpuk9VdBYcTCHtnYgXFQjBdROl349fZpbFL5sRSOcsAtwA8PobOzarfbY51LH6Sqjq1Jz6MbnMsyp7buYv3WZkWPZ0etnvg4AH53GMATy9y2Z52TWXCuSI0av7bdiaz12fubuHG81vBypSvNtfpR+67TFxzhGRIaiodTAKjuKiE/Uc9Bgvm8IiR6qz4pi2zBsRn0oL6Fh1TxzoeHOb/guQGOe1EXpdQrchguhzg2dAyl/pJwdEUXicAGTmHui49Wq6xH/TO38gXWpuzhcsFCMm6lLqcB4wWtsVi5OoWi9pvITZ82xYIGluQRWb0+ifs9IyZdMfotIkqzowdf57ZLbCe8nXHTT7BcTup1WnIsu/ji8BEyt8eq/rfhrRlWXs7ndlOWzrvw9Qf1lh+J4GTdCQvmg1kUUtAlpLlniRvnMfNz50o32EdSUO9F+RlPOtmragEqo2VPzGeZgWjzuTCH6jtXbNOL2uy77jeZSGuvePuD1teAOn1WsxEUrpJkHYoIRZambhvGFBEHqCkfRHHwh9I73e3iXhPxWh9lubY/5/t2dyJZCpXjfr75G8+lx/zg6ix3XgSiIflAWZlqaY2bcmWNm/PrneSONNNIoidPdt6qO3UB3XrU742zRJbqErzKbEE0iy3BNqcJyUOuEvCFujpO0pO7jNL50kyvCx2Qx3Zveb8wAfchSrx/x9DQWSLJHjd9nk1CXOy60ATov+fou0M4xPsylRCHhnJnQInsSIrn771oSblbeb+QFuUPz9muW08UqtIfwTPVjLmVWi/mmqMB2X44Z2A8me7w0cW5wCvwYQNdUV/Kvj6iO8Qm8tyc72Fg5slj8pgNpkFxBsvIX/8mm6N3WODxCLKYvvk0jQefBx90rAyPbM2raZH4py9Tg2OvFvymNth/hcp8hEZiLQ1Lsi4y9FQusd1ke45EuAwR9j4Kk8PITd98v0jxzNCpMXT2TnkiDYZ+3XlnzNxSESLROrE77rFMPAqbeyiAo+OWkMvtQSWemwWn0fjhLLqvfTuyblU6oJ2uqrmZD8AgVBPTraqtHa/Uwy8ql4GyKJo3Zo9Gd3EWF3rFgMMIoQjE/b2yArhNO4O0QwhUo4FIbTWb3e+s8CpwR8W7zKxAaP1UR0yWUdw+8ggld3MQE8qO/0kpjgO6XZuErPJlNEGMbjI5bHbgQ65Bezuv7sXBT+Rcb7Q9FXdgGkBf1IUzup6pBFHq3JL3YBdUoOELf9/UNd4luRWcUcajKOwKDWwCknyXD0sYsU/SWEtxfgyHMefKmkh2ByczEukA3/iZtwAVe46VOLltRBsEMBdP7Qef3WuIDUT6ziMHZGRzAqH7h1o27lv5G1z0/bpnQJ464ttpHJ6tHMFBWmZcEy4Nm9exQuojH9OXOiGEjmJQwUnf9qmiEP96XEXpTM9cjyUar65yvYnqKBCtoz/5gvXQ2FnN5ifNQLg5/Ed+L2gP5b51WC9CvRsxMFMD508baSmxTvzXD6fRvob0MAUj6N29gTh8MQpR8AT8av7SHDuzclsTbs6R+v1SMizaOI8WU2qYcsNGw8GMeFzPVnfw7kAxOcW0JMoXIP2NQAh4XI+USAp/IfBAEQPRUxa55w+LBEWAiSlgoVzdYQgGxpiz96bL07Cm6CGpHZ/19HmHCvL76sxLGRzGydBSQOV921TmPQe0gufZWyAlWDNpSFQY9rw+Sr8nlr0PDpnl8efRTfMo71kFcLS/qIg30cICZaR1Y4b0qExRGjoe4fzNWmhM1J2vBWodXmo4g4TTMrGbnod4Ekoc9RbwjiPib9qxvZu8t3zxx1Pzy2JZXLM+OeBfD3yYdDuh87qKGHD8CHIhQWA9SfzWoD9Ont+ERrlF/WTNqmEN9VsbIvmDoyTWB2xhzrw+1vr0YJ3vck9XV2FjNs7n/664thsfXNePZ2hz+DtN8sEW9/s4NOqtkQAjY2wGhzuN6a1u8p44NW7eog+L++yoqYyRqhPCsG5DUbU0vCeK/OixrVnWs5lt1RmEM6fTSmzbWWAdOFQPdh3q6Yb4R/Z20k1unfk2sgnzjCzwLyuypqgNSkvmanA0bH8l3pykNhw6Dg3Zf0fWztt1aj0LU+LIthm7Y7dFXQvjEe54mwp78+3XU1huJvgOM04WGnCjwIb+7JbtkOLj669AWn1gTPWz6eNJazKlKTkrFHeihE5wk6Taa40eB8WKgp887cXEr7bR38CxaOiVUgVAx26f4Il82wUqYHTNXYVgpeLyhqT5pbrqvShW6ofleFb/WRq0n58GOBt0qvc8l+DDOkQWLRvRfHK/cA+YzAVY/VN+y2D5XUylnXh3Bo9PxwgwIHe0L6IAtkiMjDiawnReNiVAmSr1zI+szfldzHaaCqLQoNuUzV7jAKiSIetl0YVMDViBPoJe+sn4Jfu6dUpJyASSF72tn3zovROdiUOSF2PPaBcHPueDQq7pzjRYk9ofbpBydocNKSroy3oGCQ4jBM/LqgOmCuhCRIfDjpv6ZrXEgcGvAX4K6jS412UhSUB+EZhdO1vG1Zj/9sgbnQ+DCzhs+z99ZEQXWeq//rmVFOTNh6QltJ7/f1lZTCCeI+0vd0oxXUuviymz2dlJtwRm78RTLbRM30W/FnXkkO0tYWLq3ruoXPS+LSNfqizR+3d9TL8JPP3ipGVJuEmOkGcBzby7hDLkpWZoxCAAuYaZ5AdjXlltyOBnRawAbZXoC6tGkr/hHHcku5n7rebUi/MG19XfipRXlX1/UMssqwm8xlwaHL6/bpLJFJgEstns9t9JxpD8MGz3g73749SEBQMOQ0riaA+CCjSC2i29ruyP48OdYqtLx9As7csv7qdRzwKRIDdH8IKZTSXLVHarZbp6kPisLAAdk6sHtXtbIaILtE4FEx3Z3R1gtzQnaOtXUqeN41/HKIxQQm0O8knYOoDYkhLOjOzxf3Vg4hEXp/Dh71C02DI+F80Ktx5H0+iHAqeQKLKn+aru9/hTE/tkvcl8c58sBsb9yAy0FoZtXvOlZAt7Z8OKfnvPQ1zaj/muSp8CtupDWvCuKOunjavvLQgFJ4Pwc4yfxg98Gg7D58CbQvIBLXPY163DbBV4Nbi0c3lIdo9QvRFSOWziBufZiY1LtzVG5F9CNJXbOuK9Ja+mpvDLGiZtmeD9TEsS9+PNRQsok33GZ+dtJ6sz4EfwbFso9fulG7XoquGt47FPwKcvsmROG+hE0itcXwzCbLuy/NPdo1TCPSjnb27k9jSXYN4vjcdJ81VYfEZPRZ3w3M9e+uk+ryS7Hn+58imZXS8jiWCKdeSj2dC4deG+ZJLKNFsvCK5yjUvMzju3sOmwE5JK2JXsj1bS1Qnb2cTN+XpCfXWXy5/jbAE0ZY8dH/2Yp0yhjr9b3qBzQbuDr6ZQABuNYgkTLSoSO/9XS+IlUpfVF+XBtpVcVUPy1Dpt0sTNMlvylFE9sWZ1BpSARYSorQNCqoz7etoeE8n1QBDhprFsRQuU1fbBTtOCNnfOP/pRZnjfPcw87RVLXAZCTAVCf+ms2TzgcB0wRePowH3NUppe570lkuRtUXgDVunolQivVCNOetVr/TGs33qKdrphG7QXvZ9pnNprkLjssglfElTsnka0A7iJFk8n0sn79341vjWG+Sds01mNu0CFecobklNmH3LbptjrnwKQqcdp3z55/ux72Erdem0YeU8Fhay2bO+OU3ISWYmzbiAjRcWN8+6SNMRrBoGSnvFSf0uAGMSgO9CFGerQMsN+id9v10KdDlZ000HnVlOE5V8u1mOzPp/XK4VtQ22LVraJwI1JCHHdZr4p7VSsUhppIlHBcIjsNmub8e2LQDGkGJ59X1FqVdNHLotJhMwX4pA6dwh+PNejNlspCLwX6uf6ib/YJ5CV5smvUybqC56LVbvg7fXY5F7SXLMdKPPanu+LwNXKOjLY7+r6sADt7CJOIeO6q1oh9KrM+y6++HKum9GZdY2xq3XvLUwkGpo3rMTjxbfVaL3u0GBP7Y2MNexACGX/6RMrOrxOZgExxMGlHs4HnSTGvOT0VuSTYXs2tS8iJCuzFa8rYE5olZL9PttLV+Zz4qTL4Azslk8AHm8R2Re986yNmEIxBfEVV45qgs9IU7chCRHVeb6sPISXUyFJnE+ncujEeSe8KlgWmyHrjiXDGismHyhcWv7A4R8xU3TFo4PhiTV9AdmXyISzpfjFEiK9vpSdx1obzev5AhsKij1TNLshV7FTTs/8ri66rff7i2kOaUYu3Bbv1R+8dfxpa8/DVTcsiwVoUcvxXcSbX8XWGjV4C9OoZtpluZWFnJsmR2WKAjEU4rCqSRoKOgPTZTLK/NesFOzHkWbxpBdEKFqjxdpKVfY6I8hdikM8PZlZXVgWbQ2bBTsxxmkb7HFghAPGCHYBfS34YCKI+AMAyAMAsCBEZ9k+d5xsyDaWF2JG1MOxttkyJrUh9Yzia6UsFeebjRXKVyr1FcLCvu+DrFMnUKiMjzxXh1LY8LgX5SdHavqzF6hYo1pv7LeKCF1kUzohAR5Y3koatB5d1zibGuuGVCnBbPmy/tE+jg4jO8jx5aazG4BJt//zivsHL360pbj+o14M2KpG/pW6BmQVsA/9XhPsP3DekyIf1I574vmQuaAIYcgCq+0V+VVnh+ztWpi5F/dXq5igYWXGW6SEeOVoRLdWjDDPFd7aAdVqVeLkUWE2PvIpj93TIs1gGO+KCHyQ+8jvg6qPwImuSzUzC9VGHdlJPcYYirlokkJbqRTHYQmKHdU1S4SnzvvmvoluNGRlx5HIKwtF9D788FfszUCz1x9CSXisQsCXKYHEE7y2zyhlGeTlPP5i5m1b2b52nXjoaLZAv/SIi3zqFWAdrE/vHkLKPYOWMdKgeBxPdMJ6fd2f7MkncGD9pkYKKPVSZHyKR/TgY0sGAHc7h7+tC1Kd1NvGQGpm/hICK+2tNK+JBcxab9C+o1yj5GfoLsYEiP9b8tzG7Dn7+notpWemOY0CRGlzAy2F3eEQWxjtMORBYa43/AfsWQ8nvKcJsWslNzdDjaaM6+1vX5lUXHlAvihV+P55e9QA6U8JO1N6ubD2NpXg/XTGwr18OOGqiTuvyPtwK/KVPezybu7sNcdCPu6ogRv4tYIE6pnuX2OqLAZBBmjTTvMwJNLqpcmdnrgOtYwR24QQGPdz+ZMSO7d2aFrK6564NEDBd+yfVR667xT38aRsZ+UQcN3Lolh2BPgbu6G951Ovtd3pVzmJCWaq/u2W948/zby1rJNvOEJ2Y8YvaG3ukhpVQuNKGn97fjnDpwLTbBz8cAOmqzXYN2wFtK6XyTd1nZSvxnVvRRmcXlqHA39xYjRzVzt1m53A+JBQCeVsNytWVssgiJ0IQ21EQMHrxiZ2SYIk102BnW/GpZhyapiua73jLd/VETbrfslOqBUDsT7Q9rtpLk1aa9HX4bvjicCxXEvjmsTRV28vYFpu/usT5geMqM0Elnind3OyBwpSMflaLeZsQkg3wVkVGbYXMJG/M7mnaelh2HJxWSsGUfWOuFwyhr3Ljpt/wvfxeKtFgYQIHgnjwLFwWyolyAhM1m2HchYVP1q8bjktWhqE8Q0kwsua56qV/hReHx4Qut1zlTek0Rgx27yjhKRkoRR/5Ja+JaTwFwUmCvz0HI+uKRlo65jeiRPQW0IpAm1HvOKOPnvAmyZ3UeXTj1d8XJ8ffUEvFqJCB/0zhfJkHW1OOtI6Y4H+k9duRGJ/ykDzOWuO93ngGpDR2dSV0ca33vDNLP4cUpMH6pUrYBNsT78VLvl0mAIiPIl9JPwpxCMxgpbjjJNX97t9R4vXpC87N33Nu2MvusOhe6o60SfXzfAUnY573yT9Mo1PAY7j/HmEsYCivOvSiC6/xNi8EpTmU2wB8LsQ8BhkBjuNvjX0JsBxBtqpA7aO6RZ40qKykDgxMTtVv+FqfzwcwwQO4mYxlpSqya4Z/h0yypA9Ln2StyK3y0flvCaS2Tsc0Q0KHVFYWsq5V7jVBpKT5pwIAYDqGhwCyZAYxDG2kSrjsTVV7aucSMNG/C+2lhvlJJL0iKZDQrzUWe0OVRVH2T/nXRi/bdKWrXNaukoSpC/z+gF6MfKAcIKkMADgTYXU6z2Vd6gNx9R1P+Y4cnkxKefBb8wbhl30z58fj4+45vzCgLjlymKr6vXV29fFq9CoDpltvtwSbn/yXxZcjZ6MZptHvjWSwBRfkTsnYLMAEkHLw40aoHFfWhYKfIT2Q7/XJ2v3iRdEmIxj5WYM5cB1OwpDhIleEx4butK2mYcXxEa2FZTC51ryn3bSIhn9Gnyy/UcddijZWz2rRlQeEn5gelKFnJRNNpwG7V6xyaCVZB9azsjPW34peU19uW6eu3O90cKWoLcZscB/fwXF/EAxaCZ3k8wy5PE45c25vx3HNVCScN1faY6iCgDRwH2R7SAxOuuRqXX1R8GhJF70mu+Fm94cVOh0dIdGgj6r/7TdxRi/ZyO2eilQOs3jJZtbQ+KzHEzKIMFUiCN++6TLCnL7aNqgbShVb+elV+4uj27JhIEhCJcZSB4Ek6Qqaw+SS0cOSK2GghiNblLRu4h11tJw9JC39IqpPnVaUF5JcZjI21Cf48Z/wZrE3V9hQ2bdks1PDdyeEtvY6vlbG5fVpPSkOvub7yy9MvkZWQ2W0vHqNsPNrc+uWNuWM1Hm/0g8d1AfTlxXNQ2GFS2P4At25p0HctcEbFHwXvOyvkl9z6yGmoliV9aMZK2mRtnwtzZ9E/zT8bZP7F2Dy+tANeVrs6UshcvEJWlc/OPMtWYjIku9x6AU7lOapKZHlx0rGO38xQNQj33gzo1Jkq0fXtmJbHHRNiJ2vfH+PnrQsHgezdafE/ab3a0SSavvci7bpzTky4yZHvVRtJ7Oa5a71j8Rw0ih+p5076Pwl32r3RpyPKa8Vvu5VdXZtiRXXh82rLxhghkA0NcX5DTGv1V6NXm2eRvDZc9kjoSaRllyRdIjrWGVD4HRZXrEF97bw/Pb8mxcj6z4rymfsJbN0HNOlQpeg09PswPzWN3dA6BqqBvs7SoAB3SBhpwgbujckO94PE8n1Yvj6b6+7Tvl1+1pPpvO4lsDYX1HONQ5vAA7VMoSs8x7F6KQH7dXAZOijJ1z1a97ww8KDS64npirj9tqIhZLi5NW08/uMo3kkrMiILxB0pE/vFG/rCE8BYVF/bjtKBejwV1PqJfcK7lVTtB1XftoIKjJjzdYa80KvVdbZopnCm3VIUAK5lf5HnZgqXLIfdZNakE/JDCg9LFswn3vWOJ+1mTtugyC1LXWWN5XFXpCGgi02WOnzmanDVC1GaJ2rHTvP+oKOBLX6G0qLPXx1DKAWDCAFAgDAv73JRK38gJUHhc4XnuZEXrBwGNJcFet2XZQ7Ox6UTM2SuF6/RCQK1uN17fJNlmhOyHJj4Qh0+wWwwi8e+eOI/jOiJSRQTgoyltmAXwDACO2p3TlfyP4Hl6Mo5UgCx3Dcr20CH+qZ1Y0lonFN8/MorXFL1snQ34tkrcRO4A+oBVB4he21svlyCN4Fx6FwJQBSo72CZx9kLYF3WH46iiD2AfYYRBfrfjKWORc3lWXb4uxvNJ4v/VujdNt8f6p3skh7w7RAO36fxI+A/PhHhLclYgzzywsR7W/mHjnWJ8E7V9LAUDybfXl2O01fWIFhudJS81wgKjui6BYZxrcINxoMXikhcZtcpowuA1d/z4nCV+KdwqZo0FOmzWBTXu/lY6oaEAGta0qYprhI0lw9GNlVg6GVxHPm2VnmCvd2JL6fdKWdUVsdxoivqVBoxmTbflEv0moTPWK1biDxiwsGv7bXNVC7vOiaoSC5mLUQRGFc1Y5DajesQmGhTT3oCsZWfpcV2F/AEfgcKR/s/UHzO84IEaoA7EzCtMe1wbdn82VjKAq7KxpE8ANo7MYci7aCJPn5PC7+ORYFPr7wjsREgZ2BMMs9GnzpEyEqorHzGnsF7BeHQQ3VMBp8HFPVMHgjj+9RGnsaAu2cHeU4fj7lELQApTNcCDQkBqN4nh1yhB9c2FCqgCHL9ntJSuC+YikqXiXUytYStTD1byjWFjw3hnR5nmY/wu/SwfqS0EiZH4uM51940ImCjKfmOEwEvNOgS4fyRMf1SHtoo9MGw6Yd2YhIpM+gLmfSzGRi0McZrxC0CU7BEnbijYDAZyhIspsg4G/utDccGG52qgjmx94Nss2JuakmWfvb7bw5KAcqA9Fd3EfB8t1Wsp+O5KGVfL0an/vakus4Mmp0V2XwU6RqmYaH4gHusRvLSJyGWo+N2EPBlO/hg0Fan36u7Qsc9/GsYLaPYRrPKzCxleENtqaKdPTUvBFUo0bCTYvV7a3RURusbeQ+3k+ayXaV/EhnRkKCRP3nuLRvcqJIr0xkmo4BWo4d45EkPs3obLXdJ7+5uqUMTjJupbSLwQqO68yntetGNc+vpK2ypOidcs49U81f+RKozpfRAXkz+X5iZaYB9q5dny7OMuCTrks2h7Ix4cpcnAh1H3dKDsQLXBzEUfLlfjUcmgv/nLWa1FF2v+OolaWwa6F24cL1Uxsio03fgBWlk17kwXf9gPT5LkCFSpGixsvRIDp7pPmRrPLG99MZt5+1SPvJi/G0Rzac878z5OliP2jpk3ETR9vwTcuO3L3YUr8VTlN+TYp6UFHZ9EpEwsQDIgKCX6xk2i/KUJueCyMwrrlM4Tc9/V6EabsRvBVYPuwZ6LvVKkqySzFr7cUJezDFm5Miuhds/4rW46bUTqkWaH7zzsB+8lesNIvECNxaLmToy2luL/nHTD2PdNyl06kE+fob4nzyTIo2su1QOM1INTmVVinprDh8ruc+Si4Oqr5sez6/VTbvsmcJxLAMtDjWL2gkEYVzUNm+v2DI4atuB6g6ojqCR8eK/+0WK3h+LCmkE/68ZRqYbFpS31FzupgZw4YyI+TUUOMxefK4rOVm/7Wy+3pTvWEE5LbF41Mxq5GtHK//DDu7qRyYkBLYXRzKdgD47cC5RofavBw+vnEO3mhveK3zc1c0jebJj8RLs3F++Rlypt/hhQTSHfd0SoHH4tLzRalmi4UiFwHmA4ADLrCYhiRl9v36vZwSD+BvuGK/RdukvzOOq1P8bEpMeHtozB7SJE/Hmshv1Z4nn48c/oCgRl0wDA81/42aaf6d09uFOYpxmwyyWxLApu888bE4LLUSMLXrrxEIrfMR595CX0A76j56lLOgPnEPEgoG4CZ0AMDbIjGtcvxYyueIWgSu7OxES3kKJm2yaXM/18qnZ+/0cleDPe3HGwU+9Ono9DhLtj4c+Sk12n5b94xi+n4D1k+XbxAvRv9rMbKTwLaKvwLi6wYBgG1U9lyU1G6g9FqJUlZOc4y6Het8YzhbxWyL0g7s0DBIZkqpHN5okKyqycgvvYB+VNpbigqiXF9keAHPmjj7WpOIdCWytExXFEplwhsE2p+YaAI2aYZ5YgOOrCUWBg+IGDDx0/uRkGd85UmQZH4U1nwYx/HENUEZ7ChnqTcwX32/ED/n7ItiCxqPEldY201T1PjlL8vLXf9cdcWfEatufm+OCOzGnmRjr839t4fNDwTyHSBeAPO6X9p7JOxmBwulCLGRGAAQX+0wq6MC9eVXGq4KNvUVzmrG3z8J41ormvVz/BAwlIXuBadpljl4Vg73LzUH6KaKonC35roxlKyRA3jHy9vfFYQe9/629R7OqZNp+v4VTlVlMStw2SK+FWnjbEVW6o2nnXNVv8BSPReWhD5WhD02gMngfwrj68NR8LJ6ayAYCdtKUX5ubH690n2ey5bnLgP05whxQGWNQ27h52x0GW5/ji7sV+Mo3KT3SY9BFPVFjp1I3TB+CxuDtqGZMLqOg2kJ/CsPungolz8fO47G08CP+Zt1glhQIto3wVfDED/7mv6uLo+3KbUchnHL7VNEeU4B0FIfh7gMBZqE2C/33fimsk0Qfo07vPRJkWg6DMA+LyWyAMaFU0DZzFjxpQvdkB7+t1x1FcWMcLMsTAq3xBFQIPfCj8PjgOr4yUcXzslg1w1F9e3swzovw2bcr6d1lS91V9B6vIHuvuGrsCR8Phm9EpiWfcXiA3gs8bhnpRtDskmHHfn1M69RMkObvuuugpZRfjTrOpvfHkXbr1UUE4G8asNEgCDynJztSTyuiBLIhpIJK0bU1q3P+VvdGNtq7Lz6Ad50s0/X7MhcxkyC2IczIKp8rh3b4mUXPqPFF8xyP4dmUkb5Xld3unYsO3WEl8GxTxnS3C0BjOVw6WTUJZ/Yfcuosy3/bRdi9YURDe/uJfM3ML4DQAgqeQd8BJZtvqWSuv5xvmxVLzviZKFkO6MwLZ4XtuDkhvHJyVsQavpHt7V9fYVNjdAQnddSsvWUvcRXIeRAvqWrIVP8BuRGYjcPBvJPni9gzlFOx92xBMgW3vjRbCmjlZXhsPJmtYxVqD9puVkY+unmw1QYyxiEfGdx2IEIiwDKhAiTBXI4WGrDvI9P0/DA9HVncSLMT5NQAPayQ0uRUaNzG4ct+jVC++ItnPStNvRu3m8YhcKxUzIOXvK41AaTrtyVl9DT1kt/t5nfgS1mFeWWmx2NCdDjp/pZN4p9cEAhnr3rfWMPz95+AHGPAo5FTy+B51LW5L7T1PUp31MakIxx+EYKj+ROLVCMWbtPDRWx7AgRd+5lX5Kug1k5CbNRJEgVIE2TUvwM8hWXCQJswnf2LKKKFGUc2B2BR5CWUvHMjImwMqHWmnH7rmYtsKcTXbL1GuyYSlP1PJ51+bUX9ZtfXbrvvYZCaudDCvYsTmvNupHXa2ldpun0QxX+7C85nrapoSgABrfqZ4C9iEtiTp3szxMYEp74Vq044Tehb+uiqY6xJuSXR2WaxIe6xqYTGSOGJ2iZHL1iXxmlbosWIabUfp7pwT8zGY+VIE3guBCLXm4F5QMB6H1HbhhVddSrOinnQVfPO/DJm2wCyGUMRdnQmoOiqINVJ4W0cS5jWJ5pGI7j9tXUnYzcgQtRRtEuIXdkaH4fKvafH4q+cfRBKAEg8aT4kFhZIvmTBAJI5qYr3a+mkfppTbnsjsmZnUWxq6K+8PDeKrqjNz8oT9zARVbcJ4LjVR84zyZHxadv81LdEGOI687l8OSRxDmy0vZu2EVR1LRTKS0S7y2/ShqkrdenXXI7shCFnTq4913rZBw4CnRZBcR6IYjGR/g28KfI3mtsgbL8ChiRINvng5MUju3loAYI8l1vvfw0VaHBqyaRn28RoSvaGQjyBhu98uGN0tNAGPQhB2LC/hB40WSNCt14KZcv+G8PAvxYCsCfXl9HbNuNVlwBHz2SxyFOkUYx5RIEjdH7GE6bQkPV5zsS8v1BgVR0Be1SJljV1AW6WYXuIBTfke+H8TewDIoFUTF00ZG/jcoT10gyW8ZqyYLGUKvQ4TvdrjKJyhAYmqVFPLrP1crq4r52ZM/PAiBYfhUtwemrlBcU6phywW+e6p+5aa9DBF7Csw/fyJbIXO8bzUo1VA1D/JgT0L5fwdFYE0RfecsPL6DpPqPeFgd8vHw40KiMxMqk2a6zeFm/oRTxv1f4/SpjTiavm6v9o+iEPxn571n9Ywf2ek9fpWcYs5VZlpebBYr8JQ2INbW9WuOHpieULY+WMsh3PXruyZ/4QRHbTXFsdwZxH4TO7dtZcpAnISvPXq0olsTtW3WonAiUBC1w+ettbHh6P3EXL+JySFVptaIW6C5JYophfqTPmHjne5AjklgiF5dcdDnR4fdbSTQ+FYcCKAEvMWvM22jtvB1vx2MxeW5cI3UCQq7wXQ0/MWZVfVjPER+/Yq6FETK2Gk3ZoxRbQ9LmE9zmsKQfU+3pv0OltYxWIkC7k86f4HI0FVFp1kLZcIJX9917FVDtPIilN0ZO1w/QnemPTmlyn5SJ0pYj2OG/tQYsN97T1hWBQJUhdh2TNyz3sfQtSWXGcLVRKO6kM1KO5tCiTA9rS/92EygK4FOWQNHhIezVzuxPyATiNiZa1/O92inmfhRJ8vCQ9ljPWjWMfEiop/qF0WUOZAXEMKkbeOPcpyOCgK4Y0wM0XkwNkjqjnXA9c3BGoxSxiUoV8UHnK26fGJxCemA60fHkXjocCzZGJm48x/3i6kPAmbdLXLrknn3ZbR/H37cxEv6SkntiZ8n2Iez9/D7PTLg6UTrYbfobE0c2bn3/9ki0MrfpzaKEDxDmsxTrz9TegDYj0UzD0ZWrS6gsyRbYsgqmphYaayOu8WC/BnGdFgVJINvfxGwcCIdEtuTmS9vDTYeVPUlP6m4Qie3vmGVsQa8o/5OkgfHmAWoaGfVjYKSVmCORXol5P/5hsfjcTfy2ZjzAdxh9BVhoyHpijYoreLXQ+bWlveJIQQ0iOgRFwa8dA64V811CtHLAeEAFWtvIzFzhT5c9ynZKlSiQl98ctVuf0Ssa2Y993xU+apoI/duEZjia/CBoNMB+69UBBYWXLvxZhm3JDitqrAQJ3Rsyj+LzGOk3za/NK7fXx2sG5OLZYd5Cc7WsnYMbQhtwN75CLcMdjuXINiSPVDRT7HNeniaIjeRlBlAm0Lsc9CG2rq2SGobsDc5h5ykQ/eoi/HYkZ6boa/PJYR12Et7W1U8E3rc78R7BAF2XG0QxtG+V7zKoEEGRewZ8MOgoC/i6CPzZVBnGl9Q1UN0O8ZpeJejGPEUrlGoUr/R6ras9VAOCAkK/hDawId7p7/NeHNuYuIaApM00AaT1CQLDAorC/raXeZkop1AEYhsE9CP5URPqKWUmJFlomxD4gxq3ysP8oneZ2bgc7xXXNPB12CG7y5zbo9rl53jpEiAAYDYbGfygXkidaXp0rWLdWe9P4yXxouzNH29eBDEQlLGfW4nX7egLXyLImgrLtNcyR7jpdIwRiPX7v17To7u3fVh5e73NpMfeJnNMYkhmFVmIRsiof1/hou+oy235ZSuHydKmauIqZPBrBu+0Ep+mzp2MrhpOGGqkGVGKiETFTzjvpXcYLxZYPatlSWDww+fJbNYjdwVs1HLfAF5d/OBo10ljWRcoWzn72b8LGiWXD2fG+qoAyIoFLClJzigJbeiQMxXaeQk7yTrhQ1KsoBBkBvsF88eChxhlB+dpbGTUNfV08Bx4C18DTpoq3q7GK9/ksI9iuRy8AcYgb3198Ce8Qy7ZHANZTWzf6/dknFVHW186hzIwulTZ4d/GLNAuyIq6rCEmKBjl5Zu76HapfnR+di7B96pB6F7K1F9eWlLJqivfE9i8BemM0xqejiLWY0V+XL0PMBsKgjOT5JQfQ69WwsTMTI7iCcJbyu38G7J3jznlYvx0xjoHUUpzuARLDrtfPlOUVM7cxjSuYZg3t7cRGUGE0eLW5nCU49VhiOpV9xCkBrSnwgssiyMQwB0CgGifudBnNpyMStzMvsfjyXz9LJ89AhQo4xSeYTED+FMFvclpjGTUQshKqpmyl2JpbPkoVueDluXHY+yxvtV4NcBght8IaLjYdC1x1yIEGb9Qd38owz+odOwy1Iwg0IhIiC/RyYigE92IOARF1gx0aMHYaFK7p8gt9gzdXRqjuToGr68HX0DmOEStsvh9PgC+l2WpYQCrUHKg7Ar1IObwd94NboxuzfdZDIRiwAT0zbToL/mU21+AppaNe3OWQUEfFR4hV07Afrr7JNVlJ3pVzKomXt8j2ws6mUHHv8nuBYmhCfgVlXPwNNla2PiaXm6+UXy81stpfnUfasDeR+gW43/b79Fp3hcOPfNHR9bb672b3SUeIIT4mtHEwtv6HnaddBw5mf7M/meIpDFKtmJ/WemkTzAbYpMw/YW00gQnb5TN1PwKonlsblt0GSp79K+Ayl79U39pueblr8UPFW6MColN90BTxfz5kZGqKgLYcJkjy0OZFlLGyURQuMQiDeWXcDUUE8b+Kr3GHZsx6q5trJ+wN5AYcGECq2vqyXz1+Vq6qs1kVU++4WaW31kFjunXQek/OIRdG/i1lnEyM4Lt7usEtClS6FJAGIYDOpew+RB77doJqa6yJOxjacjZUBY8T+lQ+qstJBKQ37/9ZN0017p1okyEj3hH3gxlYSGRRMGA+KC7/lG6R2U94W8tNzDc8qsPbpPEYYFqlIISSLeQqYl+gU9cbqn6tlJ0TN8k+lC1z5KIQPS/9pb9NiHr+KaUwcq/5p4ZKpj24TI8B5mVxoH8PfF0BAXGgQ8RuzL6ObZ8TnGcIglvLz8fdTABE+RJQHtWovhbMtOUg7B+1jypUbOzt+eGs4MImeY31t8R47XfmhqitnNRAWS/uDTL441aV7a/0Ax+dO6HZUG3AUALIxmyIccSgH97Twmv95jpjiEfsDC/3EaR4opg2rUT2rJl8J76lU3dOlNraGP7VCJr6Muz5m9D2ywrCuRCcuSg4NFr68Yf3ngA7ovqwzlSEGkWdsQuiOiVTUdsrYT307sIYiflinoQYo9IdrvgaPGKaZ26PedR87IfSYWMgi7t3P/qeT81Xoi+nifHHggilkVbF0zT4jsQ4oSLUqVbKJa04pRkbelQ6yMQvqnIsKBgQMeCn9+fKeYHtay5ZAQyPvyo0TRXpjg3AnxEQpzBllLrSNv2JRu/Y+KFjBAon/1VJkv4SKGQP/sClt3pLeJ6fUWRt2zJCiadZ0SGD37jFHsJTuAyU81Ocxux1Dw//01TaGru8l3OqQfQArttuMo3XR33GQJqWUlAEFTLnTBNiyitkyw8xVbBfL+abPOt75nl64D9OycrTWaafFkHC3R6lYnyDZFLgRE9JGS97gNI/sboUxvCR26GryW7W6xhrKWNvo60tjL9bXkmwMjM6o6oWvSXnm3mdQz7shha4mfFuRJ+LY3O62w+il8HWAQ5GUrj80jH76Msjarqtq1FjpdzT2bJfYJCv+g8n+z8Eb8FhbogIt+xsn8w82MCaTFD+42DlVujNdWAHVD6kMv0vs34Gk3b8sjXNDMuh5xOcjPp31n0hpzEWYhSTmBUwnJk8r9F8qCkQPZDXJoIeOCOZq2lSXasaZwfhTey3bjefxIUSAxQ0z7Y51XWcxT4FoIbODlCwcc0kCxWGFlVgkDpv11EiFSqrWlvUJpOtFGR8kuNJASetWY+j9OyEJ6kZ/c+pqmJ4hzyJHYBHESPKobmB7mZh6qgexG+ppF85gIdFNJnr6254sVjt0YLtD1gTwmkLfnxxzexyT8V50/sYcxKYsd1H5xKSTVYhBrPVozqxQHhc6VDMep7DI/iZB6y/NJAtb2fZSBoY7hwTFusKiU03nh4lp6QkftFmAqvACDFM19RrARRbR33DK6Bp50D3bWZGKHmlxoQcN0BD1+58Tdq29z48xaneaDaw4g7rsyXNOvxC4Hg3S84kH5B0JlIu5k5edpepQ/YtY/+CdjtEFons6W70iABgXueZVSGNC800Z7BbXZTo4UZHmdrONEXXgYKMrwbR4A3J59tK1CIsggeTbcTYcSrdFu8Ds3JtVYX8y0ROlCb8ofTsg4sJ9JmCHIAJwhu4dLhQJlR0VoFJ6pXt63b+3aVvYCihRlOZ1Qqi4wlhfF502EDmWngnZTBuTuqp2XmTi29fkfdSB4TMe0U8jmf1yVNZyo0h17Z++jQJ7Lh+l63CE6GsKrqX9m2ZATK3doOq6fx5CvJJ89WAuVxbWxn9ACDLgS/OfiLP8mnlUBNmX+p7U7BaLiMqVoxytyzEB6qBAhiBou+r4jZNAnFpyaJwC3Se+9C5Jtqzs0W9iV+PFgm/CKIr+KkfEChz0leLW6Yjnu/O80MMHruaeuuadaIIZ2I9OHlk9MSPMsRWsvqfkeYIs99J1mYdlcUbse5CuKiW2RucDRhAENGgoDxsOBrN8v0kFh+fJ8L3LfjOBDQod4frR1KQFVrFMS6z9enG4mRoYPak0GuTOsUfxeem8R7abf8mfdlhrY0wAd5mstBP45rz8j9izQdyv7fwxm/9skMEaAByvxD5mr7aCoI7mF6g63DWAseeGkbnDGzOswvkLaQIDN4qfJfpwlfAgFOAQFg7CqOsHuWdPXgTxEtCDAPCHDsGlgY5aHaf2GMAkzVJ9FpeEM1tR7QHb/8/9k+8fP1H48/HKpAtMOCEiF07uvs473huIf6fEgQITYcyz7h3FkmwQGIWwIJ97T2sG8hthM5UBTfdY/WUMUolFz7wyzhusrjeepk4DwWKBwjzm71oo3I3JYcy9TJ4cfWhrlsJ9AXx/GkUdDCjmxgaUsOLfV1HpB480m5bD2SGV9u8ZLNIUQItDlIZBgrbhxhfeWmdAfHvN0VSmzaWtulRozb0P9OvkAC1TRSWag6Rp9HvZbscnmw/tuyB8O/Y8aIaJrWWBb8CE/KjTWYBUZIVYJUBLLhTFTifVx0/qpPw4GHV4/U+zoR2X/ALmsfWzDPp/2xICIPHNckfEvoFKZYwuYYf7ClE9kilOzQ++dbhWO8ZTTN0rTjvZKudt4ik7ceh4upEP4p3RPqQrSYUKTEZL8h1i57MjA1dDWpKFDsAeTtzg2naQHBk2Lo9alWKSHejtO5MOasOUOwcdN7psTmeDNMfZay+LEzl/4cuH/h+G4NvaurbUCil69Ir2jLooRZZMuL7q9ZaUvs9S7R5Fi/+it6w0bfByL8q8DHeHQPz/mT9O9+wgTYk1C9pWRF+YS3tbQ639E9O7HSZuTY33wpz6c8Uza0aDAFwqpz1DrY8ePjDOF4+4cvTmVAi7sm+hSQ5FLIZYH6jdKPFILktNuE25vGWbuGS+VAerKAJjRsUPIvQk5arTMkw7K8CV2pNDmJ8gSQ0TE5+wCaWEE4hbT3vVS/7Bje9Hof2/aFA95B4el4+m2g+KbdfxZTbX+nOJQUoBz2muj+RvuaPII0OFXRBDGW96bkbl3me/27X71vIOuCoiMXEKyBQ90vlJv+Rrrgao2JfcesOJLSQ/MtcaJSQy8QoraIaB2SD31mSFWWtreYR25ltF+u5nr0676i8xVrkM2sWKFtf9nSULWcCiQI5LGWjcoP1zzOW1Md9FMiry6y3t8JSrNEPVcg2BXNSbtFt3F1h1PMD1PKGR+yAMoSMLoS6YZl6aldSYEeKqMrYXcrZtr6043LZLOXCIi6Ah+v1xP+l4EjkkfXXCUoQDC/7nWnQf/wtPx53bSGzFuvGCb3pOFQGSbgpb4dKUVv6c08zO9nbnb6YqHNsvllG9RCIG8/4AVQa7zamNwWKulwlPqfZLGtQkeEBn4vnUolkJCcKTAZbqvUhhkM/1HVZvy9LIuuHu38wAzlBWqsr1sVgdIkR7SWD/I3zo6MYIRJlXerhfnSw3Q0+S3BgU5XNLL/lK9m03CDhh3yCdLrpC/oishn3wMAgjAfguAatHi7baCYZ1vgG6/wy8T6YIYD8FCJ/v32EEQNHb5/xWE+dWXcXUEgPlcpUr7iAupHu2ONCOLJ078D8tReaGLEmDqjFQtndWpQY5MNZkYesFTggX0O5JVcuV2gtwCX+RpEh9xV5f37RDhKI+7BNsyHeVnJaNz3Wv42nKcUKDu+MKW99kTFAofIVNr8uBu+7DewHXAcL8aUp0D5BWyONn7w/vlQH/L7GcG/u7QyYizaI+ZuuC2y+UAwlZt8EhPyEZVkc4GflboM1UxASp6gBHw0e26xool++/fzJFG/Lfir9UhDay6GfcijbiaQ/d7XkWcYlRsDMKFLsEBgs0yZx03gi3lrSAhQHOwT3J0Q3IF3BfXh76e6olg3qePwvMXzMqCpPxIr5TQlYGgLv8AU58W85Cwzgxb8Qfpzv7UvdxRJmsDd/umhirCvVZEv6wRZVOw9d8V4RZJSiVY+TdgLg5E7Q+M5Yap/n+jmwgJqzjUAZqK8o99cDd3fWgUYBqqvryZcAoe/1SHbH96fmn4yFpNjlo4M3NZ2tKxu0WTRI9N7GBu/40Mcf3yrjE9hGoNSF5CEgc0ofU864uJgY126/sfReWs3CgRQ9IMoEElASc4ZROjIOWe+fvEW9vFxIQmYee9eBAOEOdfX/unilJ5iyzXexilQwQHafj1qJhLMd/67KsHtVTY0Gsn/quuDPzxi/Iqs/l0rNSQ+thre4OMyjeXKcPon1WA/MBp+7VPmhYhSKTeot3f5wEvvPlWHcEiHre3ya+9YEVxCUNX0qrZrm5Oo2sBf3Qfz2kDREH/Y4usjUbPkFoxU8wA+K6bKlVw5Wkd7jRMrQcBS6V8F07gCICliPE7hW2iBuBXGd0dJUt+SjUYMd4ghFf9ZckV5Fo/IR5N4q8Gpu/3QcxoKc5x/2zKyb81KldJUVxp89UmyVmt0xrSz8z10yN3Ljc0oXgyBbmwz1AdByDQtm6BkFfzvXGlCeffIOW6zQd+jPIpBNAhyl5uMWd651aOyEDqy/xYoRXwFEjWX5/Np8g/da9lnBuxPqZYoqGCURoclWkl9De8XyCAg0A09tLHe+ILUh7E5meok2uTXkIKgBoOJyZIajdBlQbY/cY2lLWV7EmXj2/nE154EXZn4iyBoN8801pSJvdGhqig2N75VSMNWi3C3/WS2kXUmg1CoVCIR10a1gu/ksj0C8o6of08qAXGzQ1aZXhHhWPVqJGE1iZ5Q0ToLev4Wilm63Uo+Ck3MsQB0R/Rb+gtMAa0rASM9CvNAguNm+ScexXwVrK8kXaYQRLQzYkpI0xzd2trpLvyYk2wWDwdCvrkFQFScULU+PuQGoWqJPY4c3omXOMcaElfcUvOFiFxzckXyQwvWwTUYz2qqDwHzd9bPXEagu69j7uFR/3RNarhkAEZ6Hb4gfhVygOLZK2I0dSm9uKfwNYpGgd3YK0ESS30GwQsGaYCfz2gC4Jkby/xpIDz+egLTV52lmgK4Qwz8Fu4SuXtuoV4go5Ry1rTA2IhKD9RWkvGAal5VbtRuGF60P3G9Yo9pYm7R9E+0F4V4CTWy7H0MQC91qgoJxfFXTfATrRPvQjGTkTMSB+jfjhdItANprNdJy7rXSaYm0ic/u7VofSg7yeSVwk6lbYhn8fgCQYfZIEBIxfAgT4oHkd61kO6Cv+8RBd2v0PDgY3Ac8Y5tfoVWv0PSzw8b27ZtUu1btr2snV7OYfrpm0YTNIWT/kpVzbZ8wYAoEaaZ2FxZRnCExEFQhwGi6AnSWF5wsX11Omb7JPLX0xS167svAqh313A0I84b2V5Hy3Jh5Zt5RLGnqfgfZzc/3xsgDBZGcmOYSS8z6A5r0DXR4XP9W7uIdYBjiUlET+Yj6tuHxAfKypGvz8RyED/u13MvWJk9SpLw+g1/5O8mdgCOBvcByS5Fwo2d3fn9/1mwNvryqMh+qq7MI9dt9EKqdcfut3RkdhS78aYR6sKwP8iGjL64xhaKPwcNK+Bx/QryHT9HV05ZKBq47shszmX4dNrnra7ukVbe97mArHCqlrz575CB56aYytOUdEZ+EUsRvUWh4vtQDZj5VQmPOdoj3VKencxKq41UZVkhO01Oy0xbu3zj8rITuxWNcpC3VlYT0OkE6H5vKp3I2FQW6WbLGrogmr9tkN82EL9vFCbMrlKMmCTM9MMnFUiJYfhYQ0oqFuhr+/S7+B9qzdSHDEeWZzXaIzjKjjaljsq67kpdqsv+hsq1rPgyWndH8wttEOJL9299i06sdUlkdCmNsi9npkvO+rV2uCkABsh+FdYRZ3V0G5mQRdOOorzmgE5w0zLIDhlSINlQMuxvWd+VNnT8L6fvRqwau9erQtRuYorP+3y6W93qwUn87M1ipukAu7KCg7BXL614XQ5hM1ytubnanbnL1qYUqUgIpJyluh6/1iiPzStlwmoCEtUwksk0aJ6IIgaBxOFMq4liYPlUzkqwsEiWz1ZVX/an9zXjEKVsMaXFNdT2EyeiM7gvPAzPTfAv5gRnKOAx24e936aPa4fxnBYXp3w/1it5O48lh40B2Q7IeGbFmU/pMebEnKcC4Ohy30yg4XHTa7r0KbeaHVuwD+uUKErB3445YqRQEuIa8Dnzjct3eB3fEw033NcBhtTvFIodXab1CG9U8NQc7dtersKyzLayIYYFydjU/39lBxYwB+pReqlurH9jHG/SQeCMWf+43MiXDu18nYHnKeA3N9AHED1MUxUvvSATvHGPBNK+awqryufbkxm6FHZsw88U9rt4YjXyo4C5KJAQ+GXKt9nq0bOczf/FaQRhHP06gnr6czBXoZQ2BIo1lBiuPJVaXCKljH1FA7KRkU9Xh5VMjPlRM8ryeAAs4V+FETapaanOLw2I8SE5+t7pJkEk8cDeyIZdnSTavD17Epq1jioWk8xgoPQIL0mQDFYIcLZL9nZXmCRfFcOWd7Dx05GYPGCRC6JtBqnzSAP21o+4j7bwa/5MiqM8+3bHxtaZLGCOA56WNOtbCl4RskbWPihM5IB8giCJXFJVCP1m38Rd6twJir9Ftw2zKHwbiHudlm5IKFtOnuatyrppsJ64SVg36YCXlWNdJ/FxqWExDJr2q4t8lXqLDhCUJ+ZnGNTFZ5HBOANT1ygUKDzM42Cdz/KN3r5YHFaO2CdaldFqF82RohBu66y6BWM++TWyG4VF1Ae6CTIhbU0yH/KDkmnp8l88/YKxcz4m7uPBl9iWfk3zHNgfPUNNGUx1T8t4/ziJkJH2t3wAxtLXD4M7QRyeOsJPOZg/92Jpw1aHie6Sa7AM599DoQvDFP7uzHu5lyeTdsT7V/VYqbHGJsTB4P7KIiMsqsC0zBZ0ekx/RCtprN6Y9CGB3gDAaC7rdWyyB198wCsWs4Ygkvtbz5T+GKzlHjN7cr9um6pmpHO0NTFs+k6RYLwjHcvJjc6zlpbZ2at7m/8BjJsY7QldG6/H/Rkpny+1RrVf7r/CTPv9awxokeMXkKNFCbn6Ln+4cMnM+Ws/cIXlWHvNlC9y50x/MLklcpsxiCX070kp7WUEw0/YUsOq1St350ifGYybc9127UUephCWBvXL+/WrXvFLSMKSFslAjGLHt7zUuM3paBXjTtWF0N+l9+jrp7B8GUdzwsUga2SA6ioShRXr3ScWtSqTVq4BbKkx4pCehf5gHJ2/aw8seRzsE764qiD8nX5UNcAIzwmJovpU/Wn9BQ0b0tGcVdZPwRiY41VBpeVe0nuyDm3ltPWeftZHUSqw7+r8gNqyov26pajZ81q78CmJyRQ2mr/fy6QcJ8M+EFv9ytlxKucydFiAUi3y9U3w8zflpy6NJx/Xmza4g44fsLJkP/Nh36yB9xhVYo5yEKuphSda8kFRb45m/N3XHt+GIFS98fLFniG3POiUREuc09InFuuRgzmvoFdtOjsC//7fVnz8h6Hb7zP8PhMGxNr3CPGUPpVQxjXWmtP7WzmMff8t/DBd0XgGkGS1dWLI5HG+SjuMDQi2B4lin/B5S4VC6HQbTFG8Wz9SJ6Cj5h+Lw5W91DPNwO+7cS7NAMt+HDyzhLGxe66/9uYFXJpf7fqYZNbdzS5xljEIkj0JQBsimQIx0ykZ95hZ0JwdKvEnLGLY5/ckizxWKfmUGnlOFGiuSlFc2ewXNMr7DkMVoscdbiS5/CTWF48RgNh5mNDgYDg1jvP5lquxQFot+1MTjNPyYM/hv6KwSwmViuNIYHhluA+468xkjcgn5+GxEa3XO3WqCrklMnxeWiiXKueYiXvjI1MYvetVV5kpRtFYJ1POIs/zjnGhZTv2Sxy1zNbcRxSg12oW1iqtiDpPAxa0VI49j0MNa72f8LcypQ0DWGnov70+61IRhJ/5Kn9vUZgzrtyHCtG1obIjAGyhMdcQi7sPM0MlEnfPm78rvXLhmSQ87uI3VMUlI5f4zL88EWfquWGAlWWpQOD5TQxfHavQYH/rtrq1kN99wkhH62ttVxdMO8lQIXMGukJtp7l1trkV5dEIVzmBTTZ9+yOLG6c5fer98NUo8ErlMlUl/yLk90QTSkH8MIDwHed5sS/eHOnHcQQ+cZPE/Ii/+CjRzxfbkG4IeMmNm+dltlgLqyTJYgbR/jIXQPEDQAmS3OorJF4rQQmQKBrmDPX4S2Cc95a2vu8uB7xQn7YqjkCKs4/QAmC4TwyU9IW1VfXLSmKbnC2jaubE1H7ENNZsaJ+qnvlbBKnIdny7UDIRMOnZBQCMXrT5EiqMCDMiz7HHblASYF99DfOBSlfinejQ990NiyWE6658dqukVJTwrhs/SEWQ0BwMehF/Pk86TH3Kl5rxQC5GAGZeGvwcslh7LnQcSY6GSu4qCDX58WF4lMpz+1hfEirujZ16+j6tOj3wNWfD+IqXsMeg9DlU4Be5EcdSlKxxOkNZUH1ZQmmNNnY+qFcf3RkFqfNs365WEuUXBKktv/KDhFqd8O0mGIyWAFVRADteHhJ9A0EYcdp4Qtpru6pRcNQtXb/Ua+m0F45fWIt20q6edRkhknzeAcCxKq+mgkYjsrS9rtyd3bUrJUORcGnZ9ZtSslI3RfttUrRWoXdzwxQxId8OahcM0y+mrl+5ZuiG8b5pOjzY9v1dV7SKPzXFLYkta1BYESqaOkxiRf4GsiezEH9Sul+ys2tNsmBfMFPNzdbDbH0Qe34MC/YusHp/Nz7s/12s/4SOXqJ2ZAv7YbDD5NRRZrV+e//MMWCU1hFbrqVyd+QkyhsdpWYvOlU7zvZsCc9/sBKRNc85APrdsjVajy28vyLkUdMinNBHHTmYbi+sAPeON98DB2fXJ7nxtpV/Nqo7bE10Ubstkji/ut2IpYdak0VXpSXt9sVIWKWRM2MsgCvVXp2nz3XL1ivKTsvS9KozIbyD2Y50eIRoTW/1BAefw1FzNmPLjhLpqoZrLvczEYH03wHjR57nkl0lzkuyKdVOiLXFhLSloPx3GYbhwuHtmbds6UvsbrLa0L5xRy4qRXVa8XygINe8dHFraUx7y6Z7mmkhv1qT+HkhR+QwTmvFGm4AiuNQc9mMzwVgfcnAfdpQ9SVJ49kOdf7yGkfXShcL2T7bbzSfYf86K9BtcVLoCLuDUgBDxtmHmMtR29/iN6olTLZq370k9baqa7ZMhA1rRDYj1W/EypTQVc7NUzTFJRVx/6qPSfHcvXQ/3tkUvxDlwsiTACYanRL97Qxd3Isbvnd9OffsM5xImVEoC96PhbyTWE2fNZ4daNOwMIknWS1DWNJUDRqjB8s436O4+UImtMm5ez3Cpk/MEV0GiFfvVRXuw0+GQYGsT09/GI6xJzg89AIvsq2XX1c9SLypjkzaTP+JVMeNZGdJ2LllDMOz3rgnwM8XqGXJ0uRwRolSqnvRXKX0CKTK6/uIfif1w71cYEuu4tw/g6aVUrKlJSF/HDe+/NblOJL+4CKI4HxrikZNfLgyMnydt72feaEMSz0jHt8+X2zkADSzuRye62NxPqQpLcjzRdf3PfQIllUaAzDeIbUkP1UAgxq75UqXIOHfEOpw/sTC9kxu8NRK2orll4Bbp1RcP6JwJ37SxMcO5D30h/53LjrHofx4yBGSD//dUc4Yd3s2AGQGBD18oM2EsoRCZnthIB0CwabZQZHv99DUYwj0+Vk0I4qPcqtjmG2pKGG86KG6yJJ4u4SDXKc93H/81kE3lT2hOUDYiUTzgb+IVL3p0dYz4IYDTiGe3BNpivJfCm80+OYOl7aGDk3Y0fRVXkJLMfbC6Yy+EKV2cCkgVuTWSTlBZTD6NA87k51mWe1Vqf9d9bDusibfZLk48js27gEk9PzUxUQPSgxvCPiKAZiQ016uWKr+GW7RCCWLirSoqmKFGLq965xHXSEKJgkKAUsf8KW3itKonivqLjFu42EpzxnjjKL+ImlBeVN4Gr100T/Xlyy6DCuLUSBmYi+TTkaZshjKYcUWWK8GmG1u+o0YJqHiqcwZ7j6ib1Yo019AhFTL9VPz8e6A5veF+Xs5ePqLBC5bpJFv382m5TadrLx+8zbX5UG4vZLeV8FT7nR4/TrlvLbGi7ren1I6CpPQeWeWuk+LHcwvm3eozFnUbyzVk2LP0uYd6d4HjjoZ/GkChTWVBSLlY03qiLboG/6urYFCVJXOYFnSZfCLgoiOen3/HU0Mx0QTvRGlZTB6Y+2tMSWvfMM96d05JwhUex5Rz91UpIRoADD7QLJANGVf0inNqXU92JFfB+IkbIIHJQbfz3xGWXB6y6AOzfZatduSX3s8swMpRs+Jz8uvO0Hj+zd6FGr/dMN6K0VxLO3n+MoSRS18yoF3lpdDXE+fcqoBo1tE8vvNbRLlVrGTqtcKysEmcZjfA1hPOau/WZ/O7i1tnXcHFdre9q8DamVde9ES3pbH8ZIFDQ7JhJSvUYFl/34rcqMjp1pTbI0VlZs4LR1PCqQHUgmbj37iUSMlunPi8CHqUKYdqjMM2vKpWrr8Ui5pOvIYrhU+lnDanL0ZlQRlGCKxLectDeHa+zhvEivRKvBN8v07wRmtJ1/jk08sPr4s8AGsX7qL3y5IgdwA5PHONeZuf/J7cELuo4xpNfZP6nMqY24C4ERz+L3JcGO/uECAmE3KxlV0FWD72hNkPqcgKRTCvqapEd4i2DtEmwvEe089D7VQG+aQtlxVW2nX1SixuXeXvESS9bzY6COPNnIrZbZUrvNa0yMBu0VYkTAIZU4Rz+/cQqWRjw8yWMke9naf1rwx01+WDSWF0emzFcM+yuLohu8Z+lvfRBg+n8H12Trr+4YDg6DgbtIrWgqio6/UoLNGhBze2BT9NmQ/g3/X2X6RvyUZ8AfHIP3vWSq6tl4oTCEAulohHGfR4l1GJplujBfJB9PcG3/J87Kn7XGMUz4sktpZLVYstFn1WLWu5eVNXsvcmXQprb0tuaxp1Q3IslH8MAyS6eT1AsyXLEcKVmMvlDBYEgBzVxZFI8CjdCbTTL26J7CqXki3b6K34zjMD+0uqxxcyIoUdx3nGqwHuAIaT3q9YPD3yKPCgOImmP2Wuihq9RnHlJmuteMv1FEM60Q891AyXYUl5iXOcvX9GgW/d2u2wgzn+UgEH8H786RTBP7rYYoJSs0/FpUhWktkIvbQ66lo3HOsqcuR1ww394O09c0zsJACBBcPCHlxtslUv4h4UFLZLtQ5jfSKlP6P0obyt52+ed5H+h7j8FGoZMtZnxdjgOcTvSb75wq7UHOm5lXZkpOeN3exUxHgRDySqNaIQ5gDH/19sOV5kBsGkbvmrX34NKMqhrtqXNnmy/BsEZPx63+upwBoeplPW/s3LxnndSgBKhcJNURz4uAx2ck7uTzVSx5oLQszp2yWJYhblLYKLZVh+vdVsxfK8cPtHMVTs8lJdG2xjOf2aKPDmrVn8RG6ylXFhBe+MwVCJcqnOaRVch8v8OB2xI3bh8pu40jR4NKPuB14s9mkvr6sy7Jv81dsYr6WgATGM9f0k969y3jvsHGFdeFrlV4HlO2+cK7yfiroG+DZmB0vCmdzzu4df/fbv9mmY7LQ9D8vNCi2w6d5Fu2V4tSCDmbj2JYY/h4/H1WLvDC2jGJKKEWU3fliuufDEJfSJi2lpnhOrPnZn2IBi1iNk6eI3oOwStJT/iB0CutguK48myWn1PPKvrTxdXhAPij5Kn4yRWvlBoKpHsSgZyg91E3gmdmgcCL+uar1xxN3ySkyhCUIvaZdna5vdowsWbhp6aLqrf2MZ6nS+OQZvUB/xpCyLY9XiSymViXnxq78e06TdbNR0Qwm2OzwDC9ZWq0m19RBtSCJK3sD03+aYQr6KNxKKtAoCiqZvhwfYtL24EgY1zyqsejZ11Q6zmcorcx7kukRBAHglKHonmJbDPYx11GkKurT3Iqh+4ykcirrg1EZMgPJgx+sTxFyDn29foSM3kjpIUWhsojF3ljfvMlyacVqmQym51t8ovSqNvI7iuVVLP7r8Y2i81lz6h3rXz/MAD42BY4nO8zT3N5es27XBPMYxkYI1n650ayJexrCmNySoF2pUden5HsfbrihR5NJlEVJnbWQDz0tjVHgfphk4EqpUTNDWd9E0zb4/OJAwprImjTXii7FdeivrQK6kEQ/CpwLUyQHyUjiqQhohW5IU1xFer4oEvRGOVI95WOqDM95bBiy2/xYcSm3Ls764ndcCZWLHu1ZvzCuXNrA9wGkVieaMZwEfYUPV9SmXrXx8FYFQLHegUVhAQ0fk+42kQdjnmkatil+u240SL4g/BX+8uUh3jcqWxtFU2/iiriZLnRzuYtd3SeNIedKixycsfoXPeGj81FLTI0zQoI/ZvnyqzJM63WZn3WG1rlKkEesjOjRkChF++x4DhMjNIgD0pH49ykMMDZgAMQyPwa+4VD61TwOCPI91PZRhOQLQasuM1Ep8ZGUh1XtPJC/QqFzylIv+BHRL2oR6M1WgDcR6SChfgrQUNjsxrLdKKe4sZe90S98TTK3X/cbtsoXpKRWuTn6eLypbh/qltGyw4U4SKUao6Pa1f0mi5QFS8dVRo80meCD3KfNIsA8f4DfRPRCH27wNRqBNf49sHRStn3CtNm15Khz9l2eHSpju89hrXa/wkMEVQeEN/QRI+7qpfIr9R9xvkVR14LJKyVJYzda8w19syld+v5+ghRxnURIZ3W+b9CVmtY/uRx9kO5iLbt5hf3Y9fALhJpoax+6+zgIDpov/yUvAa6UE9+ERUK8Z3SrI3GubrgkZ7nfYQRsKoMn92YgCSop5S2a0aK7R7UdWfA+uQ1haGz1dBKGv+b0amwWInX9yWqnh4VXCi9tezyxkA7L3HmHJEzIqijgWpQzejt1xCwnG6kDlnMnP/a4yIJFjy6T5Vk7p2kaxPz2JCkgwTJfQ8M9oW1bYeAt8eDkgt/YeiWA+FkvxT76D6sfLSAiETuBwuDwXM0ay+yIVVb58uVBTqds4+Fa81Wb0LaXaG1UP9LTKIxxldMWXe5DpM1/QLaEMaP0+ZfCqBoBja0Rpw9HuXwJrxnEdoOD8RVGaiGZAgolY5QVtfyFselvzH7CAcDi37Xv6ywa0Eq/XW5OU1oYi6KtufITiWPrQjDy9lx897Tk4y8U+bYrBYjw6kQZat+NvKwohtgwncOTvLYeaufqMpYXBzfcTIlEfuNuPJT8PBkpXtx3Rp1GYvVMa718PMPQRcZYWzZU5oj2zI3Nwxxxrbc175SrZbBdY/0op+UPTTihfn95Vjs15e/m//I8OY7zJl8c30OFbNviMxOO3W+C4y0JshwD+Y0W260yez45B5hcDacXhwG0RcVAnfsjwAtC0thSgEeIdBpaeSX1vsTfYw3mOf/VG8Y6uGUTsA4ONfTb2VqiZ7u8Va6Ve85ydJZScuwO5L/V+zhCq3R5p37qL+MUW3OkF5kpgaESSeve/Doyf+d/MkAp5eqVcc27LIWZTuvnYOAorVe8BRIl9DvAhw5aoUPgREpDrZ5QIOo76kL+7lPSBG8T/JggcIBAAY6z47NjWEjhVP6UO2ToQY0iWeDa0NNGgW/pWj0t8Ro6S5ss+IbeF++oMODbuC8j6qyZRarfaqQk7tv3I5ezdEYQEPmGtU2z2cys4TlKtIw6o7Up168cGAeyaM5hpFIMQgoEAPbmG/uwwYga7VAYR0eivJa7CIilqq53vIbWzjTPi4NA4s/Hwd3DFOA5PylKomjZ5ngP3fJ31Id9YbHnSdLtVF2v0Q9WaNm8Lh2uPNAAnCm0h75J/kwZanlJGsBcTTq2Or2O5k7RwwskIhH9FswbBGxTyagd8gBwOaxsloDyWDmRamrEk4nhwn5SuRdIaG5+LcCRrvOBvwnOM/YBQU2yQzQKpoZI8CGIx1GS7Ug2hL3EVN7tlK1HOarknVxePYKlsdxyuNliOnhADsoDlV8zHs9qflF5QeyoUq5y8H0Chfmm+MgwT50FDEPznRbpd7bN7Tc098fLXl8cugEHSaChDewkwKVbQ7aY3MfuaMTedteNk1hRsOJnZK955ksUJDqBg6D2QcwDR0MSRAT899XpxxfwYPndQGGK4lrZOUjE0FH4Wx2/TjqixKYeeGbD6Q7X1y8WYL/qucVZ5C9Hq9PLSLEqrFA/msC8F5Pxx9H4L2atDhpFqKgwtMiPxSWA9DVM8WOQJIEWsf48Xzw18fOT9skGf7P8SChgYROm+TACUnsav/VUbVcclxhe0cVLhq06rSbaEz849asG18RwQ/2Zz0N+xqMoZr9guzzAb2OCig3hu/VJMcP10QGdZP86+bCKHeG2qij9DpTNvWnVMnHnWSJF6u4HTvbXlcJDZB8vXrzTqYuo/84Iy3OpdScX2l5PKn7cM9tfZ2VXh2LPwgUMdA+6YJkuAHyp7coaWC/RusL6Glp9ZUYS8QdixwBW6A6b7zGDiQXpXgTeDOmryrbJRU6C01A8Nya5rR2fgpzGYGKj0OHeN4LFZxugrADxwxDFhaLJlr2fTykQrRlsLwibNbDIO7US67WHKImFaMdcRdnxXfSmMChpATHzlMYBFbiC+yNhmzYJxf11vHsVf0RPU2LuvUqVHL90hOG6lS36ZXiuz8+I6xd/o1Utlj5oe/yeU9imyI2Y3WLsRqXHjyTg3JusX+bBVW0fUjgLw37OFC+jLrZxluK05QkvNsnp+46pql/7S6Wqkkb23H+McpanWm+Cy75ZKg5uNoNXIj8lJrymLCWrVIWroHSMxPMxIrVi163oC18ULVzQUoIZdn1pkk6okMoEe0xpVN/u3z7Wne08UymW/ClnWnGFl5/LXH8lnbKIjay2h9jbB8gA7maaaiw9Etuim62y25ZPGRzHapEIEDzE2G2SThnr+wSF1UdH0V6unUvtnMw0jyAE1dukKPVtlQUDgtwvjJQJLQTACxCOgDWxAMjUbnUYtP7S/FqPLZfGjXu1u7dgZ61ETkNHxFDK346kKcrsthzeR13KpAoImaZ4e4hhBHJP9HC7cPHHaJJiS/rXkwCo5FiFqWla2tgblQGQqG8acDOQyA1pZcH1cgZPhvNNoko6LhOdkRyfAG/gtWiq9rhG4Sz9pq76dr1ZQ1HBNYMoxSVdKmnzWT+tgmdeASLThBIHFHO0Rc2pDKEVV2pNbuNQhQhNsG5rcCuNKUMjCMjk1xjgkzeCZP6s4jQhzFfmlXdO0+zhG5ezc875ESrY6/XufCZ+iJaswaSsd81rvrJAwG4cPnfpNt+Xliz3Rixa4cLb2DO2N0y4ZwUQtAnjhwAHCZgCmM+rZUVS2+I+RT+xMu7cKZZfF3UZeazL3F77cjhf5MchKIj2PPGor8vkQw8NzvckWyBNMGRPeuj9wbT7TcbuGlhZkifm767FWataHarJNJLOmB295f7+5FDYaAmcAZF0Eq7aZz0f58EYubnHHdLZIbb6FqxFvNkbfjnKpmfS/2YI2Y0YuOaAdanZpC4/8AFQ7fMKcVm8HoSjQwOASfDBA5RcfssC4uNFvokdP4H/hQyD2NaVNPdNiXeEBNI9UPFTF/Hmwo+NXdwPqT/Q8IXXZHGGrpR03Hi9iGcoBloVyO65gyY5mlMOM/nQilTWnmzXf2cavCNYQMBNEPxo3vcMQGSFCvBDQACQg/jdxMYgloC30VtFK1HGkpnDwEqWQShX8q3sG4n+WIi6SAPlc6I9lNIZPSiOXB+CBL0g+M482JI5AIp/17YnyQclgM1+GNB0/SeFNy7RZ+GO+MnaLA1BdIm7WsGa4tiDlBki2n0LnnLxWQBISJbenPq2oI0RBPOdZJ90mEgcxQztw1Kqp3jzeyyyD4xBjyLtkK3W9zqoO/j7O5lJV3iB3fvb3ht5YBAQ+EGQGFZJ/vQtRPTmyPfAHJYOBliKetXReL0of6CLqOhk1bvtaYHO2335qpZP3xgtSo+Ki3TUCFNj0F6fsjoONREN+acZqmwYGH6GxIGouKYOYZQN7Cu7NeHT1BIIFrd+YgXnP81dhxS2TOgVn2g8WXdMe9T+Zl6W8kQeovA9tQ/bKYP2du7sfzTWKlgOk2IGaReiLUpF1ohQEnosvclPnjUbnm0UOCzR2b7ozDQunkCicxKy7hcY99ZXPJaU7d3gSZWBQD84PxLXV5N9zf7ePPe1WWrktyruT0H1qaSlxsdsRM5Lov2I27Eaq4kXKqrWwrGekuDYDSAn1+OLwZIrl76qI0DqjMgWBH1Hu3rOB2sOQutuB5dhBZ6V8nBmR3R0yXau9dpzfWs67do3+ujhQoCqfhbcv7sM8J1AaGWGR/H1s9W66IEJdq/rBdk5zFKslJgfgOSOAhyA9s0nptYmOmo6IrLMRA4mOMU9SHd7aJv22h5lSlPiA/8B+vloB1gGJlFOpHTjOvLLN+IHiD0PsQX+rb5kTFjKIVfSyVWS40zo01kcpYpG88lq8IA0YHs0vV6WONjTPcZOMTUOA/+hnvMrRRf2Sn4+rZKlyqnrYgmfwWMZ/PJLGfXy0l79jbU5mc8PTrcjpWuYeEhXL+TlAQDiYYoP8AE/IAisLyWoSNhHw0xAjFWzXjklKEOVodnSolyF6dWqtYUJbw1YklU3JRKFPuTWtdGFlFRKghPrpWkUiLHhGP2s2UgA1ZAJ7WJnA/G7JQrTvZrYwvUw8aq3LcLLOZG/MRAlSwK+OOGYcmihXZSR1ifYDncmzjaUOPrklwbT/BVxfAgOTZXsEbCDnPYxk29Jb/cdsqAXqrBxLrtaOg8GZLjuKkbxwZSXc+ygZ0OXI033A3CfP+h6/wSw1NBXOVbO01QJ5Od9qzdXvHntvnAm0Hvs83VRdL4EsrhwHVK4K604xiTDXCfT37bWrxtXV5xFCzTiPd8Hhl1lnDE8zSGhdZc64eGwn26NmPuoz+YzsMKqzg0Tn7Etjj5GY/7ywj0TWmWf6AhMcGgfLfriIMfK16yT7zyMsGMrnMQYV6iaSEzYRt58N0OPKt1PjuwNUggliBCyC9SdMOKbHjZa7WUJglg5v5zLi3av+Gf0GpYazX8LK+KFgSBtJK7NsYBOjLgxmEI5N+1y1CCesi3r8/nAK3Gti5YN7458/aKrO84WXqeXe7nSo7blwwDpiqMo0VUsirxLRPwB8S35gsH7kZDJdQD4+6Dtx/TJjXuPX+CZ3cOiSG0N6S5GZIoY7kal1CNc2tTA5hXd4PvBwpeH3Oc5k6vg/u7t/IBzXogiSCQi0qeKHn3BeLM/0yBEOpu27yTZf9OPUiyBMWLrhS2CFnJzCNrsxRgOhap+KGX4sX8j7wvPm6zlccW+koP5bmwjC00eL1kOMVU+42ABRmAslsxksUDUY0y3ixOE9pYN/M1N8RWNTZV3lSVnVj9n12zAKhQEwdOz0knOvUKKeMj/Ljd6Qx3SoW/RAydBZu7EPigGXeDHvzR1RnX6zn70m+2l+rv3jSuAXYYT1CGXAQKt8JP442DsM8TBvxmdSbHs9m9odcxrspzJVGYnfOJoctw4YFa6+HSrDAuRvQfKs1rlek5ysK6mcepFfj4nTUmndHRK9Ps6J1NuXlBRISnUaDPI7iwgH1KZIv8XfXTXzLaG9eeuN9mHx02FbZMfxLXPEY2blHYPwvhcJwwc/Suo8mWrFnmUITBcQK6pn/gnEERUlZ3JxxfzWrp0wrRPURbMuDoVD8pNlrAr4Zj+hqYG8Wc3hWsTpAd6l61sO3XzDPItOlESDDqWDB8TFmtcBY3Zo4qklHg5qq+g2GqpTuHFrsdHS1CyOS7vK1Ia82I6hsS509UUidXsWv5Sgd0t56lhIHuNHj5jrPmFACKdG9Cwkd/OGhXSpc47nal4DpGaX0fiS7oL1lLNZQPY4XHlGHzJ5sxYKaVdqOs+XgOEdyhvrFSaNkF9HbuYj00kTxAALFf7BHpjBykXbrURZTRo8qZZNdxn6mP3i4jLG/AflqaOw3rRgYF8F1pxbOXflACTN3uD7gKDX5ds0fc+mlBhqWaoSotNq1oIjef+bsm2BdaXFCEu8E5447dc+0i0XrqMXk7e+ZlmK5po4s10lf5ggA78XYTNg8Bhgt3yLXIjJMbR5bg4I5AXySWGo3jEJzMkk6QmUT3oGpNJKilWQ4oD4ZtZt6E94z5r5XNlRO0BrDpY3L1F4/e9YLlgRojINv/CInyVUH9QskclcVimM35+9MpXc20A2IbEDPHoeiwsNyvRoVSz3MM3d2FRpx8u8/b5ZiphTI6dkdJGcmO75r7C3pQRgBRFofU69GhzNmUPdhhF7+lMEuaGgunL7Bb93cF9m2/jyshx5JYomYfw4yypuQdiTysNGXaM4soLoic9u656GlC2Ew7Tk/o6HMZvG6wNC5K6XhjJRuxkHFmt8Rq/S3bu/rJ1FCOb90QPCKAGYTwaUZjDOH/XLPGs+XvNtiMRSZXvtvPx2XdEbbAIGwVOz5Rvfiz/HdpUafmYJ6Ryy1kvfqDDPm0Li39xlXevK345MDbxjozhBmh0D3rHXgoABbvuHhn8mogiDZWhMsIUiI9fwpmTjAn0RsyjW6QbI/evXNnti+V+QhI5qS7bXXSufIHHtQ4zNNBLr4ylK93AFnWrECDXdSjZFkLAoGBbppD5sVToVy5b39PdgqRdudbgb8b0hxV2vsfSoXK8pP57sC+ZfteE5RW4Elhap1EjuvPOTLobSP0Mg7WDub0kIy88OkDKhzUCAPMaBLKsKMCCaLIffhMwVsLSHY6qZvMra+J63NImOr/18fc4KqCv6rCXt/Fe62TYN4cKFJ8k4kX84Rf2mhP+i/++CwEPd91zPL63h27JTkGgEv9EV1vH2uf+qmGlV2u2xXuQb0cihUCmhEMEJltMWgns0nk/QQBmNI4/PT/51ZxPP0OuHG1It0cM/U5GsLCHYF1sDEOxo3ev50tkTjZCBslpIVMAsJDZ8ntgyW2tYFHvPlHG+YNJEfLDPzjevjgVkFB0HFwBArEof745X3K2YtVTOIhp88ZQy1EfgQlfsSmd1o+bPDfjPt6CpXpe0V6Pw2TrJ1kXzJtT/wGbIQO67v3FpHeFduK+L7dpplaJHBqQoSf0TgnLNBYBy+iPNClKCsH+t+5/MM05ydOKKMrbgl6jQnYhDsuo0k3bTkGF7juCoKZJ2h9y22xoFHXapoYmMYsQW6PfFByBB8bIp/cgIvanxa/mruyPWUso/aNHZm5cevAipUu0ylcUk/YBQOtSXO4XvqNBHXV3uj5TUQcIT1uXHz4MXP8F7058oacKx619xYFaaPtSzoEdPhAA3y3lU59IjAdv11mv74ZbYPWA8yk456gmhPTFSBm7vAbVbBZX9KO+m1XHqHCwzye0J1RWj3MPnyuudJVXYHmas9sofbrZ+pCaGAgly0HBU/kDh2j+LKl4daKeFu9GgGXordKkUczj34n3PJvb20ZOOqRV2grT2baqVD5Pubx+kZbb8rnjPrPJbURhcXUzpULxaipLe9L1t997El5rRsyebKtt+EDVrURR2CsbwN/XI1Rpb4VdfBYsFKz4KhpyBF5RNh8xiRJC0ei26ZTO30QVtMnhtG4OIWF8U2NnUVDOdEQvZ1zLiKzcFqAZeSeU7r7Rp7ZrURTmFyDy9VnjB7ig3va/KMU1UrcaB8vgih8cmBa9iSZ5OqLCdVhLDzta/lKBIFK5HwfJ3xKOR87etIo5mTonZx2g9cS3sE+Xm40kQZ0/U0+fqAT5oETZRh46uodK/tUXR0x1+SutygnUK69jhSbiJB5AQDeR5gEWCJhiiJFe3mUL2EGaoNh17WWMDrrovjNbp/QVuJsBjfYAlMzz4+avD/huPIh+ii1INmRnJx7ttYjOP+N0d8oL5Syn9h1Eh8Qgy1vStrZ0MRXX9O/8xeaGO2SKc+gx5KrGLjgQKHAEG5C3jJfHp19H5SnqN1q0YpknqDHUIsa4HxcPkSDVy/cEOVje5ebfHoKp3HIoaarm7Ry9lZFgPtOZolik0TWKgEsySfjZklN1jeVRv5xC6XSVqSCifQTTZRlPSROnLNS6bMCjnapYF0S6sM8Sx974lQHysHaz3qClNlgUNUnEOXV+XsjCZSSCINYqOMCFIAFiRXAAJ7bZLDp70f8W5fqht8lW4KgH88vNH5sxPf0thzzf9QHDMcwwMbjohqG5ScE30sl+PMGpH6gvKaumYhZeohW4K6KOOraSK8ELbdcjrNkpY5bR0KxvgDkmiSgIoGK6evV5cFgTWO52rK1OcY5A5DmMqSNQsQ8Ofm8QPDMYBEDDMM3mpWCT/x6JgX3sn1CfFfV5hXl9dHeDsZfbfyu+NszA2LLrcMNJsA97Ed/JvMudVDe2khQfgSvj3hMmQ4HXVv051cSkBo4Bh87Ix3a1Qg1sDr9I5y7ofhzXPbnG9Oy6PNGmQ69bXYQyRZ/fTOl6PDvy4mehPT9/hoWNrg0/B/OpofxAwOcNOtMcwMZfPUMcELD/JiAGXyCkP3kcRpRBVygj0JqlzM4XJwPSYtIvvM8vOLVkBsTP23c6hbWullFfhBjvz7EWAzjM4d/KxKAuNhgYHnhjMZL+2QW/HjrJerPLGT3IkfMGf1mda/6uWf15Zvz3lKEa2QFwVI/HHLOMxMnvBwkGCAr5H5kOE1Q4kNEiyEPcX/1resvvynpsJYtDn0b9Tub2CWTvHdTCwYUwz4mylD61+5gOaazfYsiSLWcMoxfhv9sIFWKDgAPyq0b4Ytt1qX5U2DS/HL+tdtlBTotqj6nYuNyIQJwGzmyl+gjolrV6ObNu/6si3+udSe9WWzNGM97E4yzEUHAqrojhHznwqFneJCtcqLoG/ctHEU/t2mzMAUUjNSapEGB/2J7/oRrH8eVM8zRts1rZLMOZD3zKRbV07nIzoYfj/E7BBFi72GUnCpgRPSJnPGSZ0DzKmutTzqN7OfkGjrVEKbv1debMAtKZP+5nzxFssm/c1O9izdoUF5BVQyrRGklaCGV9YBFfYisvBqmSSSg2HVUGQyngcSQcwkwL7nFZJU4r8mUjqtnWvbEYu6RQ9vzNjEk6jnMIG2rUN06JohX/h0HVRXFMqynZwt3cjUmiVA/O1VSqxciN2QGwOAo4UN4rJiC4Z6CzLTuqryWPrXt0DsQ6BZtnxJwNfQSF/dvRZ9vC7G3QEw3DmAcutpQWH5OasunonQv4Fq20UeGqkQ4Yadc+BFBLP/VDI/j8DvYhehBCuibbLxlUE7qOHwGxqmRVikQWuhmti90puHtb57V3A2wOdyhP/QA4iFgLDFPkkB42VWfscgLbjiQbGf3w+ef4TFiaMipwYWhrej9+Bp819yTzQPNZUYaSkAJFQiEZ+InyhFaWBKgJAvj38iqfcBIrdjt9uZZT6qFFCAP2BXmqX8le2Gn3Zxz8fp0wxpWCcDB+n6K4nizsj7kIOJw1C2KUj843XjF8RRAQcRDHlwA18ecLDGuwYDuEBlRD5LMORwOWAy8Fl5XlvOVFh5xOeZzstzRj8axyW4B3zatFLYPZ2ErUwyUErPrgruhC0SStnIygrD+1plm7/sfReSs2CkRR9IMoEBlKMgKRMx0558zXL97KdrErA2/uPccSQ03b9bcMkj45gbkYvKrtaMvaQCPxAISpmerM5V9JUPdPslCGK3VVEo7zgS6/tNmwLmWqaaTPdPmC2gW9lyKLqsiLoAdVNjVtZcnI8LAtafK41bFbDv+ktSEDAl9/m1GtDQFFiuVsWCZnfzuRHwUKU5cIYOPfDT3gtfoykMZLkaRmxAO73TQv2e8IhYIURn0uSiWmFfjEjjuVLzjc7EcsvJfdfW1DwM9AKNsTdz55bQVALb0/pFu1OTjUpkNY5mPJmGY5XDL+MPdEIbfx9WO9UrMYF4Nz/9VnCQDUmWrcie4/R2Z9hbTyVF135EDgfcGx9u154P3hQDrrogBfWSGp2aB9G0ZEwKIbMjN6+xSy8jlR9Vwf986MQUJJ9WoLCeh25HvUYQGdMpAPK2b3cGy/GfECHDKbVPMjVSym8EGSqGPlHnW5PuTfLU0nAmywcGSQf7hrVAoOiTfOrMLIRBQ7ktHQpzURgjqBApTYo1R/T9r7rfvwW3VAj21NWbRQT+F7wLX2VTIZ0wdNc2C5LgS8oWF/QcypPqEqgXxEEltCeYM60xS8QtAC8Zp2zs0rrzsFHMTqXaBko6mHrzjy6aVMBWABiakyiegCdl5Hejj9OIokJvIjGA4Qlj7YOWths/UdrbeYpp7VEtq1auyKVZ65y4zBBxfVwcxvOTzzZlYAkpk0has/6089k5AqAgj4rkRmjolm1jBAIR1QxIMd0cn3Ot6JTvb0jVf1W18vo7PwnDn1MWVVHnCLAg0QjH5EHBnhZgQQQu7MFIGeihezRh53aM2mIqVpO82sWtzSXmZTyLrh7e8PsNkhCbBII6/JFi/nJCKwoIjmuMLbr1XEO20EDkRPvOcd08wp0QM1TvSjy9MIk4a7FJoxJvSFBW95z7CRZmiL7kub6TCCf7CHcdpc5BSUTMsOXceZK3QXu4+R1c3lVzKeojUX5tyrUdr3Nwja7vjY1Ejr8We2dHaePSWkXNSMHkfzuuKkR076HtiWCD8KAKwBRXFhZC9XtTqZEf12WVl4PMrDoT325aTid64hT6/rqf78fblWhX6+0BzCNuo+Le69BXS2e/BdMODCLdfk4UN1eb83bN2TfZqnTVmUdhcn71rV5m9j8Zbk0rQzTrrshWnJebijkKdgOdHzORV/8dvNQ3Tsd/46uC04opy7L7nBJ82xaM44/bswg7e+ntAahAp7re/D+pEt17KWIUr7Oge9CIw1DKzqwVNaS8rSpi5OAGTKSilz/D4vzAyzUG9E/cS5R1Eq/yJRg6sWU9+4ZSnBQn/n1YPpO8+L6DNTQYgrEeB+d7v62UfrlXwriChkXoYk7O8Kgi140JsXCavq1kYuTegHAa+bPGtcHlnj0cY63jf5rHjmawE488F3gSwdnHF/trYgnQ/StNAqrGlaaZ/lYMbnWM8632lTTz4yVYvOb3O8DxAFZR9BFuRhCOCp6flb96d2OXF3MOrvKH9fhebMsprf9DpNSObvMitVF6Tr8kNSfEVQKEClR1QA+wVSoKr9NBzM9yzT8lbcfrMZ/WLdAC+KSK754yOxVz3QQgSwmIFLryNBMbqZjNgQNN8uFNe8ab4AUTWlevXBCn89B5a58/vBbFn2TPDLq51lCQGNV4k6ypb3lSf94Uv6Izai2ZfhLSYzn0OKgVNv1Rbpy7B79jwbtmBpkWPEM4BhknjQ295jD0/KgegAhT3Uy/wPvILxNRjxCtHfUoW/6iawvCpa9hOxr6SJ/SwLiy4tBHgsG7HSnvp2LFopcFZvYeCN5XM1TW1mGRlaeVEcUkekP4Q8bbY8JPXGchAFrEiSQ9Og2FP+Mu1pIANAfFoxEadC8BUVesf+0hawY60ReBpdtb83pzimYlTI4aDr79x6Krs5sQWWWj6KzAefPSihww4/ewcLwuWB6z255wJismY4PpWvpIXJ1IfcwwHqPPQ4nBlP34qTYj0jIiQDHRB79LdatncxQwDlfwkEBGEQTNVB2ykS3duAnJEnJTEpYkMWTVj/JykuyjbuhEDtHbcxGLvStrloAcZ6wkXDVhW7bhyYjAEeHHiB8z1xFE4IDae0qdPh6ZBjZQHJK9wMozjUCHtfZ/suHRUF2oVRmAFzjfuRpPUzd+BEHo6RSibSW56QF7mzCffj/H8OTzBg89/fz2J/xNquVqbemHrdwTw7JAIeqroWTPPEnQNP34mjIf1XekjJ7/SA/ITp35sLvwdDflAF4AROBFufB9sn27V62yIKu+IgO0FqfXVtIa8+BQHAgYmDQIpXJmEI3A5E2ppcaAvA4K/dPZDpvo6AGxC/H0DyfhaUQI6nTIMEPIhlff99YRxHo/IUSJUnuDZrsYCx850ZTl/rR1s3X6M8ddge4rodEN8wEKhU2JbAhpHAhSXJtxcC/CmQ0Qx7uwwEy86HofusLgge5aOwBYJIRmCAgIYgCDTZYA4ksfQjICCFcCvaBmhtb1vju6creoxEMn0C1wIgkAEaZjIDIPHa43yjgPcXXoegPoa1RQGJxgIPKv42y9A7iKIiZ8zAPQaBFQ5+EAH4rxBayOdyPuZcFsH8usX3Z+1NwpTz4KODExkMtCY9sI1BgFxTAWeDtsHgmx4/MCCAT3sYD5A8yYQhUE5oV5d4M6MpJvTwaQZ5tkvr9KRHQQO+1Sv2sTkgz/cwmrlwOOQpQb/QB4d6qC2gwiOJxStlOuI7XaaHm6BdQqdKpuI1b41j+qt8ZGcUlqXEYjjdjO4hxZOeeXwff7iQHhWa+T1BujReLJ1Kf3pJ/cBd9UFXWZK3E47Ynouk4vHE2QXoH6PYpqV2jHnNR7as+R21QPp1FlJvYNJ0ZcusWI5zt3lPXlBYI+G+fRDmJOnk+p6SAeYsVkChfD/lWvvVaq81m5sZARewIEbZdYWj53Mp6k5xoGJ1R8U0a1dNafV16D0NZd2pjIEfBQKfbmJApoPRp/pX9XX5pUVMC+O3AadpBi314lcuYORK8mI2vV2SFub8FYSC1CozydrWz3na+RlHTTUbIEpduRxwkuNunMmdbX67Ftt+FFu5khVd+uIbafDt3APtl8Ci2KWqiqLWZPPGQ4Oo+GPsrCOpGxtHEWpt3y5ZrQIxE+XLfohg5fQ70osCHm8AwRaY3S98/kQ8HZbX1D6Z9hL3y3OYsqk/QekeZWHnMuFbrWspoQDxEWhtj971XX7H6JS9+W8rj7WFYPzNIPgyMCw47Od3BWpXJYIYX+tDIO7Qwm2dLH7gO2rrCZJD03RJ8x1veu+Ecsipq+EYFw5fJGdUvoGa5v5BjOAPqfvB6kYw+578oE1qwLmOmxLg8q5j4JuDlE8ZDLthAtxk3356eUKEtVe1fn8irY79vaTPq+PzjNdJIjkB1qL79LtwbUBGiyC2z035r4Y9D/Ksnw+4A3N3L+ND51V6NrRfVmOlEoLYOnFzhjta0zRatjxFwU7hBeAwaijY+4xaRZkr1BAzf+q0tPQb4pdfIHkYGhLrPXjG4JBQn7JKHMXgRggh6uNCba/fUk8v59v7jVaKq+nm5oqH7eTZdaE36YLwWNZmS+hVvGmdV0iHk5JksLVDIdaHe3iGPlr9tN/oep9jSYcNTjx+rn1NedMDCaI3IqU99sOP6VBy01wwsU1JcG5Jc2ffEnZl4Pa/ndqucM+4wM8FAJQEf133t28xCCQ6Mke05cIZyqJ1V8uQsc3a1KvyYgQLgGdws0CAsYNYjL9g+5znfgS5jqivuGWWlAaARZROLJeQvmP4JDonDimNFs2GZU7XliMWtSLSg4GjX2wgOBngVAzDsfB7pg+s84thEnm0b716EP4bq0qbDgMbFIhCGdg4dASoSCLNA4wowAffrN3NqBwmhme+V2x8hqJFio6EhC3J8x6qQdB6y1XOKIiIhl9DpW8fab9pyR3qx2wt5p+w5zHDh4f8RPzZk3iExgELEQK+RU0Ic4owGIbh6CZICCI8ADBDBohQFvUKfL5HsJ3nJaWQAJnoqaIXcmhAL4e+x2UYxuFiNtk2BPIYh7wAqAVSxTZFGIgLxP4604TpVsPCFNm9newvBzgb0JY7eMAQFLV0YC7BNZjl76IDKqSAqSXWfpSzckOm6bbvTh8ABKMMQL3saBTgPTIj31Lk7emDa0DwkimAeqlIXiwNiGos34erwhITwm2Q+hwgubsghYbuI98AkDaDzCzg80NAIgGf8369acep1UGKHqXMmMBgNkML4ih2eBjAlwFAACNANZnGaGiBPmLkhm8Pf537+V4GBa4t7UPJ3kgJ43suJcH3LIGLgpC8S4gyKCW+DbPbFEH6QryYPOQ6fTIh1/lre88DV4BIiizdkzxSDxcEtGgdhaGxjxhgDZw+61nIHsnVhkWE/ehPBWXDhlQ8cdjiFtMR/fVce/8cv87DwMQ+DOIt6R1/GRHcPiAg1Di8bCSKRgahBdXLc4tGEMhaZMZcH91R1Xu06JcdrCshroQKLotML4Zm/eonhNA4qyGniJqr+1DcqZcKo0ZkKQmCrKb7IGq9mVxi5jhHKYu9zfimNSLS2AeW47buwIXKR+dA7pwG5TDbej7QzA97jGWP17JMiOFuJ8Cn2LzckzB95vtrr1cB5rn3Zl7oVpXXArn8xOOBhqB8LBaN0BQKiRsVloIJnNan94gI2nui8paA8A4QER2Oy16MCVQL1tnOjbqWiVs+D2ToHFllVFvH00H+y48mFtHLvMkzMZ2O4G4mFIYigZweZQeeCdlZirkD3++a7Z4nQrVxi78qOP5sg+kaX21NldA6Z6xV1Yu8Mb3F2QxJ22vHcT9d0BvNsiTr43PSB1tdw0vcdIf9ftg1C2BvNdbLh0OYADAztXjxcY31dXdXab/N09gWKQpkXU70TWCM565E/zbbE/S/ubdKq35Tgf3KJVp7KQPx+mwIEe85HsnKe0WjFRbzL4XJbfCjQ7XrT3nVnirmw2HGttRJUQEXqpFBMu94DxVKmVBJXJnJijxzMZFVdAfe36EBsKaFjGzDnb5SB2BMXP3TokzKmU4NHG9Ovc7AuXX4MYqds5Iq99Kzl4Dv4mepso5jTVj694NSvFuA5jBQbfZa0JEpfI2vUs1bO3tz5RBHU4wGPTRgdbY9FGoRKefdPMapp/OOU47qxuckXyeVgivehmRQjEah81pW8F96Vonjx4LOoOrWhQC1pweofl8OtkDgqxaKmLyH0AclopnfZPnSOER3Vct8ZayqmLVQ7Jcc/GmrIAt/CeyklVE2BkYiD6YASPbvybV7AX7fGACdhbjhrFhWKBPd9F59S7e9jMMH45fL7rsAuQ+zzISh9wBfXfmCA8MF2ouRWQBR5EeexTYxph2Lf453Bp92lxcUIjt2qr+hf4BH9CbCM+yjWqdQ0M4vf0IYmYUR8iSNCrsMPQrhvRBLoohFHHqeNehDXQYvy8+kcZH4Y2QL1ORa02Q4/redSidzh3bPeV84BAihHSdvtBxj7TdoyU0k/MsuyVTpBVDQnukXYPW1M9i8iXbInLFmfuQLeQRpUSGYuov56T4R+JYvpxvmGSPH7/a83vvA7QXvL1dI6f4U+c4Vsnv4MedFGrzw8LNoxcENc1Y0xYJRg1IUOUhST5R/gFSnYeeZeBXK0QrOohUGLfhKL+3bhNXmS4vdLmYIJcWUZ7MUZ+OFG+9YRN2IUZZXDDJiVJieQfD66XoVDMS+xYe3gfvyvhKxMBGvjBMFRKAuCqDsAW/c6J4M29/uCoJlh1Rln1d4J/BXlBAbOW5QQx7bkVKYRGUscAoBVu2N8PE0l9Iq0AYCV1oNR9T5ZwnrKJMnJOJvWhLwtnU/l9oW+kK2ljoWDkMJEEkgHER01GDuPWq9DqaM8addikm0cCdg66LNGJR6yCJD3XJAaoI/0fqKIoBvHBau7rC3KkAOkQUfP70A+oGFUgIY5oMc5RQAVQwZGgrZBvs+nHVthdc5nAo5yZ7s+bdMehQhgy5PZCS2f4Y3PwW8dDeR7r+P7/wwLNqIadFsL8BQMPwQznwFK4VcJB/ncrUOzoSiRVHMeJX0JCL7Dr+6EbspdhN7rzxX2RhFEPx74eTwEnGW93pbYh+AMnnp/EjuExYJe9acAtHb8v3XzjGsNS/vENBVGE6H7By/Uxg8nDFToqTAWgJdexbP+r42AMRG1XJv8F2e6oRwESPh/F66Rr5wdpgbcpjIhOoLHL/yPhK3sUlaUwAnOsbn4vPLQjv2lwkF/rYMzIwpp2kzwBvMbbU2f6Wk6cnU5U2+YUBagAATAgd2Z9yWoidP8usB0fdGOK/U1PeSfLAZEbuvKVWfjHAZIFSqZKi5CNXDoL0uxo8saYHi+pwZIXy/cS2zZSiPd55OhMZRumLPCqvUf2rZDVl1yxu7ltuh/rpGvTZzUJ+aaoaeIny/5+62/FeB+Jp2AyXfneJH8y9m0PZ2oZ/nS1aOpVviqMi3aV+UbEG/nvS/EzuVxPz3AFX38/YFG6TlJXEedmiWzT0CPiZvWKor2Xsc3ldOsO3I304Wb8N864ON8Tpzl4ZqRtNUzMq0vuWU8ybleTU/npguFg88MeWZo23HQ5HmYvx2vdwu5GyR1zawpDs+j4MlYO4UCLacm/B3+/bb1tZWBLXwgzBV4/iz03FtFfYJl2jfVrPDC+rmpOfspqVzlvtp3drfGxo5srq1YekW6sVxFbnw66J2sTyBrKNtIa0g8FiEmA0DfHcQh5MelZaX5QwPcr1z4yGIWlKXFSt2of2Vka87X27JcYwyxu5i2YIwer8PDMcxOb8t673XhsQS+MdP1NX4IFTiDbbnLCHBhaIBqSl6tMk6nloIdagOIwgz30sk1XQIg21NDNegC+knj2YQKoiSJg3opnmeFyLUzvZaCzUszy/Y1RnPCB2bGC9XUzgQ90Mwen2kXDhddswdrD2FIwW5EAew4lLtsqujw5STlHzclPtHrlUZOA0y3UFQfMENhc1lPTOGlQ670FRJOV98M0kDMRRw5ZCiTYcqKMOUdHj2E5zSNzgYYTzBVBqCA+FVHFAdlxwbChLNV19aiX/uZKJuZ2mAyFZzALHtv3vQgYuKPkBlVr86LkVtXgAIvhGFDgv94r/rJTA2w4+EqNrzIk6ei2q7c+iWgbQ3iIWG4XI2SN4g6GgLqnYQ08EOLH0BCb5WQdOxR49m7ts0XT7qknPXL5+sm5y9zJjkQL6+felk0YeMzTI8IX7+oESQv+uBfv0NceoGe7gAmxDw7G05maOfGgkP+pm8zkFX4wCOnXLtSGd5mOOm+ccoYW3T4y8isp8H4EVvzKbXSTBDuL8emnPIwdruXTwbrUIu0E68ZJTMcEZeOmBn5kEkJtjQt+s154Ez3JdT46y0kJwc0Uiz+6fF4zdJberjkTqIHmchNvYt3gvudL8ZQlGGeYyloMDw7hWzTzrh9Q9qrzGw1Y0irVSLjKaFUHt6z9JQ9OKqSpEfeKOkpA7tG3p9ivb4vH8UVPPeCiZUDEqEJjK11lwv2VXOqEWmwM1+36zhOaTB3f2g+AAxRHh/cz6JKMLLkzvAzDYSksD/e/jKxVQmb4PdFu9HN/tJ98N4b6r2vge0Q+oaTf7MrF0QObKSSvD6Fh0ncJABJFJgt40G63P9otdTJ2snNCRKoRQitan+9VEE+MNyRDMA5L27qBaFE9qKuy0kwVhiifizv2u3pnypqgI5YZdEOinbnsDu9/ovVuAbSB03tiVFthLUkyLalr2OfCQ8gWgdgBSJPnDdBSwz+OouGcLGhv2OnPrA/SCFzjeG94Qi05xqlzyWdSMqdIfcZ0EbxsgGwFekU8ME3oKrLMEzPWK1p5ZceiDcDlbyNe+A9vwIFLBRD0MqXko3jjwHG2tDZniK7uJZPsuDgHPrwriCKWpV6Rio1/y6P3niU+oDg58BHMciH9QJNKoN0r2nThw2zp6vzdeiF2WFQv74PZGVgyJeRoR1eA+kicqRjciJt2RqrA++GHx1ga3D4lsU/LN+mN8PxnLiLfECR5BtSUHjh1/rix5Zj6Ub1AKzx8VPe3YBtFtIN1lt+yFI8pd0X8r20WX+ThLBXvHRRan7itsNZRqyPARw/7JPG7HOe7G3RQOSFPLnPvI664W4vg5FIVLzyb3gHHBPTYPHOiugGhIXSY5RqzXtLCln3ZDJeMLVJfow76zIAiR3AXrYMe9EsldWNM3Z9eYwFybwkqASirfwAvDFJYgz3+HSWAKFcWtQ1Fhvf1Wy5tVvOBX5aLYs4PxQuh7fNHsz4FlYxZbsmja3694GsdbBPgfuZ4WKDw+d1a1y5WOAEaJ0iju2Rh2fa4NqfuNiu1eFje/JfODo2lUwAVg+KDuLDt72ZIVWPlouxyBnyiFVhbfiMnXyhtcJtbrGp/oehqIxy83HmcZFqrY0KWxNzZKLJctEdVCp5lgxz4eB2dj+KnHaJx6zs2bqd/KaOkLTeXCFG1OJcD0yLGUyCxl+UG+km9IwWkv1AX9nc81fXfPMt8csvGAv8eTuyS8d/giqW/6Vg6s1dvK9oiMuPsk8uEs33Kbf4jfzRSIpcLaGFzbj67TuLxF4MJey+XBflYMvkrStNjVJqXKpl8cf5MHvt6+KZnUdgfaiQU1/XYU55hmdo2oYa4NWMl3VnmRg/h2LwieKNPDpHjAOSA9VjI83Ahh9ZaP3ZXl/ZJ8Lt/OX7n9P8HDT1b3VO5246fjnz+p4fhA+dO64uKfJ9P7i9ESnML7G2ySgpcRNjb8JeMQ8ybfp41NhjO9uKvQWfjrcWA97KMAwcI4nAAGfcHqys6PTq5030EoBmy1YfpeZO8mTVm9KgWxlSPu4LoFgXlEYAqIeCPxA8O43z4/M5rlRRGOQ43U56tN7wM4DC40ytCBMXIiML5PMnhzlT0ZdGL4gRz7Wr11+KiaRfJrjGZeL56Hkq2w1O1J7jZYCMoEyn0grl3udEIed4+A34zkJZjIis2vtREVOWzRL8zfxbKA8tCRJhhjHyjECJQegcCtoMwoF7TMBYbzL8vIP/96MokVcmJxhCOuoF2d4Gurfr1+BxIll+9+7JYEUicoPoCqw/3o3dp9bbEdZT+rZy8ug5juSA4DHAN2Zg2T955VtJ+NPAsmcKTRnS20HK1D027BnULsI6m8zLfaEZH5hAQyNIV/2WEmZq3CdW4LsPmZpCD8Dvoy7Cdz9RlA8N4KeaMwoQ8VFR/ZRYqQuD/Pw71mObUKP6jCgkUR+hqFsAG86cPCG2oQEfmr4yoINFAck/pYnDpLtSqFSQ/y//1b63cU0GyT8iMhmZ1uc4ikJHU47TZQx4T0LRVDUoxT8WygkvKvaCeNfbj89pk7n/MBX8AEwV1XaWY2TE8qSHj6wk0KDLKa6DyyqeFH8XMh/1dQ6kuplFYcdkc8jDNgxoRBBVCoqq9MB8/swzJ9kvcQcCoKuuEnfBIakVVSxs1tpwO4j2Wf27uFX6OT7ucAVOzUZ02xc0YcU7ktSjIcFXFgIID0V89P7s4KynynI63Sygk/L/gTk5Vl92w1ytP82fLFjcHv+Pmuieu2x7Hb/97lKCABnJ3ybxHc+zXf2iEHJrbbX5i7VLEBj+iEm0Ae5et+jiFwyn+nvPpksezIfQ71hS+02nBzWnntvgnkIJL+/Dsc7zEuKYIEuMI01EepAWtsnjg89+d65Hjwc1fbeTobnjT0zghF+ct2vqj6uXWpcDb9EfrdGDZiCVGo9PhTjcgdO2fdgEx4Qn/5b30c/U1QsD1GUi6i7vDTL9Z61vK/qayQiUTPcSeY8NpHXcFhNU5HDEJa9fbomPDuUbqoz+dg05XTnUwpuGAoiq375EEqukZjdq6cp07kVLaQY04mgRKo30uS8okfPtYYM9kNYoGCgmi+WT3tTKJSJJCvnRqHR8KlJ6nzmIykAXNptiA7PdbTZF3v4RX3/LJyELMwxUkWpWbZe3aYylc0VK+mcvvQYWC0XM55JB9ti5cpOzhgGL4Oh7rdKb1BoYmvYX3UW3jpNO70ddfYUQeOEDKZ/mpu210RvvbY+SkCmQPAx13Q8znBf8bL+xUopgWzPem0bcNaqGris76E8a7Bqsq0f/Juse8+S6nujuJEeSs3vkPm1v8GW24IlQN/WinZK8Tyq4CbKcTyxdVK3THH4W8aDz6lTM0g5kq1WvjwNvhkTse/6Maj8BwThLxkLtsShI+By37pTvrPckoJCkejzQkxEWaN9sv3nJ4Yw9kGPHHhZHY84Wc1a+82MMu/eAKMHh19IZH+5d8fW7clDr77FfoECFG7LELLSVU8CqIsdRkOleH0xmLjsF2K/XzNaxe1JRS8BcCUyzY34XYsqK1uVX48CHgcSs9sBUgOIYxEI4hFZmj5u0nwiMzU/MU7F09u1A5ISR/Dw+m/mrEFn3EGFgwoB7Mh75hGwjRDiqpEjkPI8mUgsk1JsCD+iPUF7ctRLAvm70mPx38NAtGQgyiAnAcR0XclUPMERYwiP53uzwznCzK/84Zy/zQDH/skgMn26zEh0SKMWTYfQOnLuLKDG3XY0P867I1OKelU4s6ft7kRDR0bUs5TzRClOGNX4PNiqRUPt0mLvaLYfxoQv1LD/lEt11r6O/CTBDhiEt9mGPwSjiNBvQtIfCqdOF2olqneoPp5Q3uEsL4KECM0jRWDnoNPi42y/Y+Y8OCEQL3jKa3s+ACWYxP4TiMlp1W8b/N0rehxbVhjP39ZtH2C4K73oIgu7tyCA15DReV5ApzLCMjbRcWy+PpdiKPsMJFf8DfyOl/g+VMe3ZegrR+0e9cxa3S9Kzft10OdWAXcvLwglVYns20FONefsqBEnpG5zQXmJdiMptRG6PWQ0wvNdsXufq+i+bQMZQux2Qq5hXRDfZz7LtQ2KEJg5BDFmNma7dRStNmbomtUFeuePtqVAUHfA8qIudegrwW+Fq2iMoGVbivSDAxghiNqxyB6SUW5Qh+41YKMllZzgbTWWDZ2CG5iOhYhjg4WERr93Xry1EaORPBx00LBPQgVvfKf7PXt1VbBoDz91xkGRSFKSKmMhuYKS6PaT2+RbZ74NJA3q/cyO7n1626OiXQDUJ0ZyHcOMK2IJl6Teyf8YDLywFwiZLKY9GzHsoHF5L4+4yJ0ncuFSzsyffcLldKwr06w0e/NS+BrHzzZEN5i4AQg++CyMEWbEen7O7Vukygy1cKbfTsHNiXBGcwvTaBiJHzli0t500y9kRfeXoRtDXAP+gydcOGCJOcae5VtKYi+CYhk8fG+ZlEdSiptNcnLltxZMq3cy1hMgz/6xD/SFWI3mRaT0sD2hK2PJdSt+qe4I2Kx9PJqcEWfipO5N5tHZl4yJ2TNMQgvLpkv6RLuf+qrfxoInz6Yct5s5TqIv32w5YIGnrV9j5E+dcMUuldiJrqO811w+5n3tPMZisqduiafoksXFumLuCcu8ORJgtaCbSC5p1LpzYFJwSvlspI9PSmE1wql+Tds6bZori8Px/FxdyydGc08UhvGT2qvKhY52cpstH3HSZfMCZvHKPbg2rHwvaYPwdZrUIgayH2qThYqr13j5sB724acSRT3UbaEJFJZnx0Zmuk6W6+jnCEEnImzg8RKDkN/y+7o9++MrcmM7OHlLpbF+w+wLSMq04jGimxdSiQuD1ydsf5IIvGr/c/cU96Wn12cFykxXCBltR3otskf9vu7GgzqE1R9VlPWxQgckRK5feZmZVeBMTuzq7ABTTPmPZxCcGMNu+EGunQRomVm8gy3pz92p/R3KhgQ7BAzi2q2XZbyeIoSP3Or051dL6s6ktwDOMV6oU1/TMLLoggDZ3uBBf/HHgkT1vAxgQkgCqTKuXAkCW1AMJ4iB2Kt8M/EgJFByaC81iWPJgUwKxH/2urDGJOL9yKb46blSXrkd0nXfM3N6D6x4iqKmgYH34QehSXTN8TD5kNrz1GpOmvVJu3H7ZSA1Yk63isoh5sbqDryKBnzJy6qlqlawLGhf60sFzVzoWR7Hil2hsZmDhs8MDiKeSwCVZ7s3gIcMglUBegVowI9PVaqrwotpK5RMWw2pIFvOKvN4U7zgTv4lubdCcaryZYCr17gDLB8DjDiQHAxnbLJY2l6A0hGL7+Ku0ZqdDgTmJFs1rfshwNknCvTqoqiVBsN78Gz/9DGxk+3xZK05WWc9c+1DodBkzvDCqaned6K7p+/+XpMyEGkUOJ0BOfb8wqmUQcnFj7B29H0PcleNxts7lfdSU8XpTKIu+EyG0CbR+a1yPf8084pZ6/PxdVkjATmezh/dw2bejIT+5Z8U75dyViZCv2wdvawVXAB+HUC5ci3hUBiTtkRHMi89f30IW7H3mi6VF/Xlx9zPcPC2zHP0BLOIHNCwML8/dGM22ffT80b4XfHhkV9HR1UaBdNpmV9KdYPmlqpuYExJbKdGgLSn/LWnjwx7nDPL5i3Hs/vWkmJa0Emjn+qDJ2AhsyzzW8dF4s3dg48Y9XhNNBsGnxNa7alzvnzmUNZ7OhIuzAtCWPTvXKih45mz3LMhAhuXlVrskL085VG7Fd2IECYIBFJZK6q3jB+quoyQrbk+w5U86bA+/XupVCXlfaG2fSVMK8yd33Xqx3Wtxg8E29SaO2s6PGJ8Wfb+UQo64JAU5jfr0eVFl9EPig9y8vfZky2B0faaiTMec6/QJS9HuW92yKS7sfAJ1aNrSOI7bB4J0ZoebT40Vtr64K7htRW0xaY8f+n54XhIfK8SEhGecB43fG0pgFeW44STgOFMwfHep2jGqc70wR+gRFaIIvr4nRQHHvSs6Kwu1jm7ajCHuecjoa6pKqtLqaqoUdMHndy42BYk4mfiJX//e0Ahex/c7TnKXRCqE7m/4P79tiwyuL9j+eEQl+xNV8UaK03PyIr4Sb+hRwAlIASt6Bou1PLAvfzKYdxv7/yG7xe2oOGlZeSflOozi/CUe2krPVRHvBJS2j/y6n4kLBihoMEAktfIc+b6X/mM537qXf4rkdocf9Z8dBO+/sAUYpDdp7rl93vd2s9b3T/JX2xz/Myrmh6qrtKK5AHhtdhZORPQK833DopmspdZPyy6nADvZ12nstsYPxmC5jtnyWFt2xrZheHnU34a5glrpZzROOI4PllF8RXa8/1JHmiPqb/rIf74Eio5StVKcmBQ1P9BGJWei0QaNncg7Q/by+NwLWc3vgDWNR51iAIyxE3/6S6x+F5p55OQ9HW/FVOEUPkTrcvSwsjz/C+OryrQaPs2XbgWgb/LbGwJ8YDKX7IH7AQhd8KNxG71jggAlDRkCPZUoatb+hadDQlujGo77rBxKG7LURSxzfpRY+dLSUr5U+1LTHYFOKMGcxmjLa8bvlOcAmTr0G0s1OggdW2gzkzB4OE2lYUkbGpX+zHPRL6+Xe3xn52CiQUhlpoZf0seLnOpsJ/+JHHicOass6Jz106yGhslfIdhyYDYKTJD9gxo9OdrRQJoA8jps4P3NYAzBoImCHBrkW9Ub3woe+1mzY/u65Huz/a6laXcMz8LF1evNERzLMZsVfARBw5cCnAVQGpSQeo+DOR6o8qML5spe8EZlAFXUhlur8PAcwbAsfzWtJJGl5oE3hM8vws/rLdLtCUSGfyIIME+z0V2DuJ4rLyvqLGcxui//t4JygnrQtjHNhnCwFca92Is2n7XZ8kNDJACSHR47d/euTfahSozcJ8aBGJB/dbQm9Pm6Erfrj1pjr9q1S+ZkphBL3lOZYnrNW4VeRFp1izLMetBOFI826s9v6WBGNRDChPj5B4DqN99W0BHVx41udPJz0kGukDO0BorvGqKKtvMVrml9aS+pOMm6pdCES1Zk6/LtGPNieJ0/8TTNuSORXbEHGGBDqSWn18WJmaCfmpByBqB+yml9DAc4puvw4HxIuyWN1lvpEz11xPQKpjsgWJ/+pMPJPS5V8h90p+h1Jw7+rZ4OltvfR25fTPy8VBscNHkZ5/Gd5ErPP99mVejeka+rdVW+p343ki2E4eQKXrIL5XOWmx/HsT74nEXbI7zUVm47Onj23n49Q3U8Yz424sVIYeYY19f6hX4xulxQ3Ya4XemY1ttmusOkrDpCwRQujWRxHwH6x78LvKymr0lES/+tDqy8HSVimQld2M5yCLifuwEp1VxFd1QilpJ7T7KyA6eSHt4KiGWPbqrWF90LUYsELtvJHoXz6RY9HluQm8j/H6ra6CuIbiPqdGiJh8An+0iTqcKURcW3yUyvA6PxLdXOra3s9QF78srtll/8bM6P0EFelYXvehKprHsxta0DyC1N4ZNmNRHLbMubEblRamylUbdokvNtxXuKs7eRJMPq9qBxnqYUH1omqVp27UYT5++0KBJsiGLKgTR30hdLs5kdeurnuarQlA4Hrz8xZt7ZY/qe55UW660FvP9KimVwaXkIWj99LcdfIJVY1mcm27lsrDmCcWlfMpx2p4K9xf9e0sXfvAXHc6lSi1WqYJePpYIpLB3egLC1vAnJ2qZ1SfD02c3lszll9CgiiluRRW8dGF8ddY+XzT2J2RdzPZBg63rsR2/GY0GT3fEW/qNAgSZO2Sul9p4A4E/v2qtliJSAVad43ovU17cNNo0dDSOqvC3EpkS5Ks076qb8O96i123jagqGVNq/cBPEp/YSE0YGfexqsTN0wy9BuavEqoYLOzeBUgcMFpKLtdBKF/cCdC+ut+BcPOwsx7fFSXIQoyD5vGm5eYtj/dk5XUgBnkHG/3tkjTNsNHXvi+m0baaJIx8yulIgn1pNt0waNxIAEwIxZXg+bQHMhUEcxskH9iwngb2ptWhbaGlhqc8zRQEAWvp4vr7KPlzV75hFAnAXERadwy/ylB9izWZWo3J/NiuMzghpvZEfjKQcDJAIbtg6ZDEpz64BrsHJoig3yd3KRTGKOC5+7QRZywIEuTFN+JoFiVsl+5BYaLnhWfTXsuPQB5UZUkoJuO4+i5TxqXtnitZKJ0GBTo4NLPXwaJ0anXMAsQeEKgJ4+C+DoigAcpXPiX4CUL/RLT/mo70bBeb6OrC0RxNm7ocmTROS+8pIUAC5UBQG8BROpC6kdhjSLg5VqV9FE4itZ0XzFmO7mAUFgcEXUMgp0tu8vV94GE9WiyXog9wdLnYAdzmrML92G/zOBGrsnmVL1fFQSLU9cDofJnehN/OJVBVe4WtGZlhJKxiB4xG8D7qvjohyJg7GOjH4w7tQmSr4AKHWfjP51d/LOwH1J+N1enFGJzC+2D5nvFOLG4IKWQey0ZodatbGT9+YcrCllEZERw1cvHRD1k4Jj/z8eGPyK4aaj1RpuHiKOi4An5kFqFnyGHqx/XMSRp/ZiPTyrKq8AdWG1G3vz/t6GIziAavcrj0VSi3bG0PCGgJYGwmn6Yo/fRggignHrbD1z6lXPwe1mhPk8zXtqNdvoIo0wvfPcwqwddg2Lk1W1mNhwiuoCHfnT6jlpULoZyHZVGA9504cULW3+nSJTFVQslksCDfv3Np9FrH4bDaqSbNvRBOxo8KUclwZRa8o4S6S8zUttN8tb7FSgUuwrr5YBqLqwkkBRYRDD2oKFG9ztbQzviZ3oo3o+a2Vpe8rBJJl7vA82OufPYuzsaArkvLf6N+Fexh7+vVc/icVwB6HXQAuQCVgnP4PVP2xe5pBkCQrbJC2g8b5A6RHRxjBubpgtY20i+TlZkoX2b2SWYMOUmmXdBrIGZ5p9CojZU45XWSZ6lGreLyw0fSK+Mz3ffIhwTtoutxZtq2b9ZCqmarHZWEsUOEYpsa098OmzHgtKGqGp5yWh9umcNgbE+5J6OBZwD6YpZrpvUn8tDAt9qkvO0zXptQh+vunVxT4qCfhyNsXeJZ9f5e5U+jbBB8Tpk5AL+95RtJQZ8xug1JZhD7KWmhnrcrNpsSjRb1demvb6wErECtrV+H1daCK12sfZAs/krDRHlBV7wjS/qhZ9onOztr2+haL/f05+LNh+a+emhijsUo7Qw/1hFlUf0t3yZhRKESOKbZxdCZj7zRPj0RBQWkf7L4EL3F1qX7EfaUG07fSpJc6SbdtGU2N+vojvPvLZk/gLtQB7wmCCOlFJg/75XJjyn2v5L4EcWUGKu7pWlncHKEpOyfcp8xGCNXbteVdlUu5jbfYCC2vHzk5jj2EQasKIIi3+U2eJwwVEQQYffbXpByPI8xuH86I6coXd0NSxBpqItM1jCwQIRwbHP6CwTRKoEuNT5WODl2xMIkbGpc8aGk1cqtd+HAk/x89gv58Xnl/8hi19eSadOsUBRib5Sow5JDgg1+7eR33b9Z+fdh21DT6mD+IiRDfL012ov9pxYWSEDcG+GAGA1gYxUA2RBPizBubfUW0/GOAgHBjKv0OPCsd2qipq5ka1AwxoNmiyI5lQ+5Uf2K5xuAOzD8bUQ5dxosy2bYR/YcVpq7A8nEaCtk+OiuHzrlFvryLvplKPxX+OcT6xVX46iO98fykovhhF+SfsvshTKdW5E49dbeM7ns0sqOCT++tL3x1QQO0cQI1GSYPJWw8+PFnB7HeLfbpyf2SLosl13VnH1ZkbljMSH1ypWn5mRdjV9d1/x+QoptGLa56CpvsZhwHS/mY/OLzsqvGbfx+h4oE/jD1lnsevVnh9GDYZtf17QPzBRr0ZRbZ2LwVe8DZa9uj2s/ohmM7IvzqVw2O3LBQSKU0umMJcSPLjVyu2AfTbjHgsD/zkepeWoOSi9P1B8/1LKkvMikoemgMMzGw7isZUMDG3QM+OdIJTxkjC/eR/fX82MjLsPRNrHe12H924LSlQRzC/XX7u0ms3iaCdOJXHHSPIULi0Kh/NtLtaLp0rOl42weSZCo0Tfr582cHy4aPC7mHjsD69O57FRlT6ucOtbSshkpQgSap6lEX6HgVIm2K9umfVRuFbVbXSEV1MOWNd0dfqfg6OoMRruIzl9bEZl6uJ5vKe6TOcsOXbaPwISZ5dXi9uJ47JItKo/BtVm1CJf+NqyZ1e7vFXZNgKavebraq08vFsPTE/k98WhsgXP75S1P6y8SvgNYsyePwW8wtwkcirMzG2ge6RAzi06b/rgTYdaz4pil+84nqo60RwsQo5kcAHiQx+YOyQL9txM9+/U+pA+bdzH38W+PITQwjEos6+hT0Ewo0Y/sjZ8906iFEWztbEaInhj7EUtnIYG9aHeagr8jyjZ1hOhLm22/+0lYsy3bVSM4brJjj/5IHUuwO6XGXxw0oC1BEywxMPd0+CCVDD6DuVdriZLX43q0sNkRFkkJCRRFr1Ia0eQOM+diPtDHKEZQ5DRJ0LLN8Z41twMnEsrbKRAu/Mm4jcPct9WBcnI2lVEWxA2Cfyydx5KkSBBEP4gDWh3RulCFvKG11vX1Q6/tbWzaZgoyItyfV0Pmd3tb8+SrMro6pvj4yTo1AsYhPBsH62jldhZ4jiMNWUbj4bKsRXMXonhpTtapQj/ddTyY2K/iRUh1Fr7fxl8xIdFXdyQiEhLAUMRAqSCHtyAJv5Jz/ttzN5KVUN4RVJ0D+k6VYdO2F1hlf/68WiNPTI++7klErE2TDYZjaLclYajecyX2UERFzOo+qvSIuFG1rSYUiZO0mG4w8zfWpVVr7hBC+y/yW2ojKlUhaH9oYX6QHrpdJ8/4Ht6qx/94FwOslZ61AqHKC3J5HTO3dT77g8Cx+RhIssWR3ykrGN8RvXm1Sr2H9ppYRQ1XUqHdE4Auz5c2wNREczk1d4EV1+ln2G5P79m8tC6MLuJTmL+b/t6/7elfNI3SNSA7FIRoEgazutC/stTEBrMSYElAnlBCBAkCKTEtP3Rdo1/+Xa43KbyktmjZtApYV4/1mWLAWABlAeR84C+R5jv17ycmZW2KHKiJ4ztPxZniLTCZD7+pnHYTbqAGn6bR9dD0a2HkKvbXRfWG1ERQF7iFfv2nTK0/nT6mV7HLjQeJnkdBOUILT56jF2hGkf+ukj0kv8NDyKt3blhjLT+5JJUlhHgU24Tl2w8eX+aWZ1RcFmWxhuAZEg9lLgPrL2YT3AoFSH9b/L4aJWY/iuwwEri7rKBvj+CiiyGWq7+4oZc6LR0MPZM+LpvyUaSBaAHheaEFTzzH7jNQFCG9soRfjPPGdcyvgxI09B8Klsj9WxpuwflZaw/mszC05ih+eggHRBle73Z+1gCw8MgLX17uqiufUhg+yprm6e0mtKdAScmKVfUzUHcORK9X+4hAOj5gUwvw22ffiW92tfKVR+H+EiKnHWe7mRn/FpYe4gPA7NFjhdLfpKAS74egNeRxQzqug32t+4M6pcDY3B42hBLjNd4H8WmnNLGQbg3fS3wLUkc2sCf8XiTcvNViaaX9/E7yjuUIM4QjuR74sPjXh7x63igDxCJRJ1Peq2VvbWxL/yTPMSaQIYB8292NHDVh2Nvp1sMLMrG67J8QZtWNWjbiJNnbeFRREGltA5RKW0E9c35gJzP75YMFj6YD1xdTngdN/IsJzj1hrjXaAXEWjHFNpdHfNYzZ7NJTLLeNJEdXwlbcfNjF7zztOW5bXn2VX7UXn307XSr20jwQarglvIpGYCkKhQsMbDKcm+5xuGXROZSAm8+nPMKKwxBeO2yuo2QFbUittkP72eUb82hZ6soFbPhEKJSIE2rzuZZdWf1pYkVadXNMHNw7fH3t04Flc+Zl1ScWQ30d4drubuUDKaAkp3MAK+YFJHWs48nugPgx8M3btL1NWSOq8Ei59ZjdaUASWv8jBvYzu9V9zxjKX+OgbOStLDzF68rQr5LlyMRM1EYahO3Mck28oVnnfvgNRDrnA6uMKAEhO8Xnbxg+OIDqDbjmIlvN3Ox/dKs8l/nvGYKA8sQw3KrJNGD7oQjVrgRJ2p2r5U1U73B5IPhRavHzzKi7Yx1F6KpfST6dtA2ekEodMvRIFobOnBfHJX9FCNd0B7nZI+7TzOVtMtJt6hcELfdClxRLSlUpzu/7PSX8UKK+nta1AAxO4BN4yImlNaVEcJw3P6VuIl5fkmt2b957IHf9EZ17EBveSO1bJZWhZeGm8jhaDHHQ3z2WPws6DALyqJxvsaIaqK5/T8vXdOgIgW9tSIaJU6paEZWe40uyPUETLQ8VBIy8ifkmP74Xb2C8EC+Bpji1qA3eg4bjlhY5IfaBOIrN2syJXy1fGK3DSAdvOIUBysxxuF6PoGGi8VvdaE60oX/tmH/3MUJXUbH2gesqxy9VkHzXjOa3CvKrExWDX/lw7kSPx4lXYcJKddPaksA2K0hPF0nY6YXb5TYOq1XsqHbwKvi1nIxzVnD3wJbUwav4KQZ51RGBoklu6J7z0yBGw3n1cChdKQgv7qSa6bnwNuLUdqZlA5YOL/9ua4faWJ4GmkvPv3d8nb6KB3ovgjXLkDMdfjz8Ey/sTDU9VvtyhbUz6bDjGBu48pkEXYjcHhsxFvF2nUOH8GuvDwNbIbTCg9Lih06uECtjHclBFnrOCH4IOiRQsv0qzFi7juTyeB8nFGFwJFUvg5ndLD1+conNi1PJ4PU3zgxT9yfmIA1fDyy/e8IXKmXpbBjhgKWXcAMLjx2LLBdqiEjWJ7Mty8QWX06EbL4ct6D+8/fQJiv+fGVeChmZFLKbyXXrSH2LXqtgin1gWGSDF1gs8qRa8pdFuBrg9MzHZTQx7cmpZsUNEwjxXC56vJLqftslVQacbp6VXZJh4FVMfd6JOTnl25jOJ9MVhNphcz2zMG3nhWRe+oRjptj4pnUj0gh/Ps9+7nOYTcrA9tBs9M6pdctJzDQVCN/WY79dxtl5eXH/CiLjmjboUok9Dvqi8Y3sqhpNSRU8tzOMrNGVfrPks11xYFUuVuMYD8Ja9vesO0iuOWEH+suLe8iCxKJValwJYhVhKHpYb/i/8/Ksun3lBhBMjPIrapH6SUex+9sf9aTJ3XPAwz/L4MLW/c0C6qmZDog8/TLS0dKsASf6ANIvfk2C5437TnOcMSqjQnAVf7+Yc/Hy9AcN6cilZwN4D0yD6Zk6ntDCgqGoisVJ974dZ3t90hrwURSHjq4gINI0PZYA+NFbkvyNwA8kAPk0M2D9whlWfWEt7kSvaaQsJMTdvF28HrpTFO5asb6LUENkQ85mGqLf+KxVpVvv9Nvsq+7sPNrkCT6SADhm4K7iHE5qrvHbn1+TDaJX2ddLQuzYMCaYxDEB0FlohL2s2L6vMoF9yCiv/Bwl+T3F2eTPREEiensfA3MwKiIRQYXU31SVn/ENbvQRc90WcuridfK3uxagDSIcA6uMVWqPCaKeVGztW2FwAH6NE9WOIj69YQLJttQ+1IQ+/e6Ls6uK7SEORLDVh8DfkeokJPwdQ2DeEiGgx1mvmrRrI7B01++pRgkD8UovUlLB0etPcXct9Y1E7Auv9UpW6i3yxIh2RrGYd6QcW4S7r7Bi9+EIW88VmkAAm7NBFejUW8RbCNZ966cGL8Xc4PTtxmTBSdSrURT6qTkl62sR29I3wLEuw7DCLRYHt3fBKZ5Jvfy9fTYomqVO/Dtt9L2Wqy/ySuWlL2JmYdeFJt3wtgjnZ78eXVr8PTZi8AEStogb6mjn82dqH6L/ZWTuSJV6ISaaxxOrB4bQGzw4Lc0EixzGZnjOSYLxRcmVazDg09TOFVqtNtV3Xr+6NhVDQ29T+kFjFCooPou2o6b31HelZlEbg1nKE5Gc1OwzijI4Mf/h2GXvhDj74ZvSW9OZsHdNp1q2sA2i6bKPuMBXCcpxKZq7MkIGN/tQV5tp4qbrPsF3prPt7atsIn/V7LLLY9dqDxlbaKKdqz55rcjBxMvCMe39AHAa40Jjhfl+hqtskqOWE3Z7+FnocINBsMsgigKzB7VCvXRokryYsizyialnRnk4PzPhQsBMMa7jToFN/LWUHZdcJuTZqiyttp5/5M1qQF6xBhIqUqR7/Qyb3vMgITHmIPX14jumyN815uqQwATrALRf8gxvtR6OU23024Yv3uWbDO73sRJNIW7rbjwu7XFnSWqlvLb3UCHEmQbifiJOYUq4om2foPc/rv9LR9MGyOEO83Syq67ANSCm1QbqZga6YYcdlSrkKDM4LOaou/hrfz6xG7fGdNIXZ8RHHikS1huC3lnCiC9eYTjqNSFK83plKZhv6bif3dtcj0ufrrACgl3w5u9sV3FcqwP+EXEFivvKZK19gRj6tKUe9PmrVnT0czUG12X4ho08DYu2qvITE3JPyolbJVP26/v4Fcy270wfbMUXJvykiGM0qtQ3h1993bExuK5xJ4t9m4m1pVsPJtdwaeYNLJ8LSGsliWVfR+tvr8Cf/KEWQXEu1Q9kLKDhW/InfGYwBFFQ9rW1p6YGdgot9x2jy9Yc68t0AdQ604F3HNMvf2daFudV3dBkQeF+zRK6SOdtjVcyaVth2hgAMAWXHL7BS+pKhCnLTdoMaPyqpMHTZEwg+P4oW6ZZ6qaP+z/03Nxvw5pOeisT7nAOH8GvRUfDd9RfnKC6odW6q9N8UsrrvIHfzsGs6TXE1JdwD0oK16idc2Io/QfFQEvobrvq/hG25GlHk9xOV4IUBiigc1n7ytIySwXWhPgy8xvnkQeqOYbdvnF36131+XTDNw2+U927fDCIzeszjoIKMoE/rMmmbA8E8YaQBhkAB+TyKo1tv9iwy47ZNRXlrBfXi8c2bjV+p9+K5Es0UucLvZwUqPfdPnR5q7iITIbM63BxhPL5NP7rl7NEquSbH+HjU6tm8g6QV9Yyd3cu7YNWcd8kgfsg4bsqQZPnSRJU40IabamCk6a16BtAs9mKdpncd0RX+DmDekeOXxGPiI8hfdRHl02xlTCoNatbxSJcY/fm5TYOAeScFgyp2U2LJgkKlkwR8mI0z1MXaDi5R4j8QqrL1A7qY/qQkJuuGr+EGZKzbTDXvqYGfAtOF+5njHI5/LntSJ8gCFEoCP2ErSzNn3OCpEP/UNtOKO7WgDNvJpCleGMal66vpnUQuIUXRi9nXQuVzxDQS+CbqvjTTBVaV7x6Sg+8BvRZaDyJ/tI6gSEG5bRWQe/oFVvXYjaOwexT+DI6CRdhSjyfe9dTBGGQ9BcS/trn5vJAlQH4SOlLTlw+rXGG8hoClblqNo+4j3FL+vFB6ia8v63OXnQZiP27gMKr/rbT7l+e4D9dsjbrDlPNgBmWHHWwWag5DE4adytpl9QJ15ErPZtQOPFuNpaU1822x+NPqsNw0Y7/m2tdfmcx2ZhWPy52kX2KSetVjCHVaQNm0q6f/0DXNdcTDcgMpUmpwGqk1inNC9yByyJjxPwcyEQQu4CcoTRPIzOfvYZU7Im/oQK5HvMQze/bycj3+8lLsqk24cY1I8+Y/nrM94401EhY2/n5oWyL3Hflh68SNhvUNdzSsNrucBqPxRTu2UuIBZO/AIA9nemFJPfvJxt3Xa9vnswd57dNkK3caqRMJkPjU8rBMt9jP2Oi8J3bR+B+for61BBQOYfl1ifDzULnfb2J3c6gOcWiDBids5lS5Orldg5/OGhTFcp3puIjTKlzHvyv7ZQy4/5YHMqMH0HbFojthd5rnK5jXGct82w9RFIUZfm7DwRxZdMMOSXGZaYNhtMavwR85l3SUmlOAxa0ljZ7Sfv9zTnG0q5PEmOUWRoeCO7GqLEjE8/wFvuVd84aBD9v10O2llc/i/k0P/vDr/jHUsFj2K+i/0pF+zliofAnjslFnCDj2cV3z+ueHkv8a6s3gJ0/iP4ZFOF+OgU3mDsSGNq85mZ8lzxgux5Uj7I8BMsCB3wEl1oGGyClpwkn+vHiJbkwk0steYAStx+3GIwfcec8xqua71FAd7M7GF8hFRA/96hXiGmJRnFyLUCQ3NAL/S0JsAyC2K0C601EJKs9xoVvriUUE+fSyR90y8LpM8rHV7qoDCMkmI+ziJh/qmYgBVweQ1WUdtHnfG07TJXY/ctH2q8D7SlixD0vSBFyOJmquEYQZWxfP0MbkpQdqPaUjJCw2JGmiQUzZLzHqbuNs2ijmNIg9skEJK6TOa3AF8d+R7p8P3DHIdLlkpdxxewE8YZmWqh7fuJNP3RkCyMe9fHYE8+U7qY9FUEQKUn284vi113B8uncagkXcKAE9fNtfMq2qu/dEj/p/VA2YBkZu/R8eGOPqcWifmGCnD4OIwnz1fAz+vsyVqGmHsseirYWGZq4b9gNPsJlMVBGEqqTYlG4Nc182+endYECvY7HT+vP9HV83k8EjCQYwNgAbSdO1tdNOM4y+eShcCWdcX3zUs35l2QfXr+0j7tSlN/Is+9wLvDndw06O76jvHMZ5DRJbKdVmj0wi++ofM6h5qZ7PhDGkT5OZ2/RsiiByn+VWGH99K1Fqk5GQvfswKTu0BsWVtI7tuFzupkVSML7QhLVDyxNkCYBxEGD53GTafaqj+rEkWviccORyaYIzqYqcXsxkttftvLGsooStqJqWJwPfkwRMp4jxBvjxxVXT1OdKNPHHTQb/2zfHd2KdKZnlKJsOiwSwK95Mlx5C6RT8nNSuEZwGJriBP2dkTmEE4KGQTLYScKfBWXSdbgRl1thD+sHW+JBvLYn/Pbf2K8SbhBI208tHou04rijYAJ5YQkNpYy6Y2r0c+X3b+mJ1+tMLYNq6XEbKJaHcaLj7NBmyoz139/xN+j4s2Na9BnoO3OP4IsMUMzyj9KeViEU3TZLF4FdpCqnvBy78mUtUVg+lVFvaYCCeE+BFA6CE/zQhc4/rpi9aurjIaLTXpguGJ3x/RmBNC0Yswt/NXrYzMcNhyjgfNBkxLJc9d+v2SMh5nTFDWCD0ZtLMzG186fYrSRWs9/7skgRTE68eSTqoxVwSHp7TKxx9d4HeoIEC9efmWGNZMhibS4xUZhVVqDNklkQ6WYrFrfdzzS5ZLBpwS0CuyinzpwHj+FPn+FzduXfy0DW/AFBPQNppyZTtU9KyWouz2BRkym8fgIuq74+ODTGS/oxAspytnwZXe2q4OZ+U8ydm1Z/ugJIF43CuLsr+KWCJHH+Ey2iKgAWm19ZNttWRn9lqv9aPaLjYeupUxdvYzIum60+l8wupN0UKwkCgNCsn3R850HsZAmL/WRNvwpdIPI4/JyxN2U3UjeXX9TLT3E6KunIvEORk8aYw0azUgiCHhw2yyvPCQBUrLPPLOkyMMTJd04eNUFCGvgQUBdkUDta1DYHM1qFQe9+i/TIHRQNTHBEyBQAPbJbOSrv5XD+sChtCS6UJKCsaSWV5KIXdT5ifTIWWldVd1wVkQ+OleyIYYei2lURhS91l3NLjO1HViuGWrDXcycKWfKKqwSmlq+OhajC6GMKyvnEHGfpZ5Q8vKbb8KwQxRTHLw0P5ir7H77QjXsduMjrraL1RF7d/leqY4J7PP9bNVUrVoA6PLXLjrDH+b5ol7cnlM5a5iz3FZSIHGNfv89X44M6MNzq1HamF92M/04Imxs/1vmItvbB7dbn+oFzszCb0Hz+OkGyahJzcSu8wz+EEPLJsnULmCGm1r7QC9X6Xd/XJOw/lYG1X9YWHJD14sH08+o+9lSLo5g5lDurrajUiQPYjdx84ECcg/KGkGz2YDls22dEg/Bvp3vhgtDDzJ+1zveTrgAm0vCvUCXFj57DMFxpAANbF5yj5Zb3Vnv+Dlp1uHIVa7tymtYoISyi3kRHd8X4/WGbn6tddTQRCl28R4XGfIBBDpCo+YO7O8W8aSgHBf0MSzCBw7yn3gBSWb+ug/3lkq/7WK8TmWT1zMF9HSZorD1XSd3TvYZof47RuBJjsNfjJz7UnQisqFwKczm/agA8V9L2xNk4bbiaWnC6hXN1Y5xF5CMNgNVit+Egzr2TAF6C6t82tBSegiRbgmto/VQ30PLFl+F1S9SyjjVbYRb+TpslYdbTi4Dl0wVNqwVoiL7rhGcnOGUlulKG/17Fzb4fxryOdAeNaLUz7SUtcBrlIas/rMm3W/qcFVRc9wVJIio3jMR2TN7M1+Ovhbk71PixxdfwZS3TdqrnuyS5gPBZUiV516teTbltYUEdw8V9wjD3Q+jvaR9je0Ue29W4aB/sDBHiZ8T3x38TXMRiCyucQgeMHiLIjIXbjDAzNSfkgBgKB5U3ZbTug+dLgepdLttzIn1JF0++Q5KIlm8E1XTDq9tZ3yiwGLvdRbZAEJykJicln+Jt4dl17dBcN7RFQ2Il8x3WfDXA2Mwg5oUtrnA16f39z0li9bPFVhzYfUBxVrzgkM+xFHJMcgZd0C69wyut2sjl/TMVkynWvS6RaRMyNYEbKVjlE8ZyQzV7P5IjQksHa3kGA4HVaLYuebHxbaGrSs8NT68eQNfiUhS9ms9YNWyJb+YJkY6K6cQqqClU0KZ0rMCt5MX5JnU3CbYbJJGAHJpZWMaHKCetKBAv2z/fnOlbOBGmOvReNKQ2n6x9C7bTCERPwuvsi8F620fHE+YlUfm67pIWp3IA/Qa3R5DhXDAVqsBxbB1vL4B9qiQirpu2Q7lmGEZhWNURRE9WvV6gFK8MO8TRHKPipGPg9kFtIpuNsrKSDWHWiyoHBipXc67A0yOGxgPawhy9oE+zhelvOIrCxx4cThy2oXTPvYgdWn/NzX0ltxlk22QeX3dZVbMtbmj4KRRya0BgNNi13cVzUK7MxIvsD8fzaPmSmY0rrTJQGaFepLqwKX6kL10YAOsj6VuaRRvyCPSv253vioNsQJstKb39c2waR9JoNM9LzqR4sOdf+2OKr00MGwLQMXqSMIjfip83aqltdfmhmOyrBdfRZyETv7j/zmRaIu4m5S5xhCJ7s8LXATWWqwVlQ/oVZtBV8dzXXS/0vogSoM1zkGcyg+18ryDrNVNFAWRnYeBwghNVclhF0McSofc5JUkEE94Ruds+XJEhJRXtIJPnwoaoHvk9+eDB7uieY7/ZR5DEgq+iPSnkfODHtMLTLfB1sZFUy71eSYC+ilO5bLPYhakMq5Xs0Tf5UO+ysAzT6DQQvf/cAs30LE+ilcGVmW9iauWZx7bKGbAGmc6CmwPUaLa5jbGW1vCytCx/MGX9B89U1uopakin8ZQXCMA7GP8m+vzyySYyzcIJ0aIq7mJZ7XWbHxVmfC81fka/153I2JsIsc0+c+Lbg3Ced47R2YN2+B8n4h3mtWB+y1r5It/rGlD0XGwQXAgcgOEI+8Uvj/4M1dYiNm5qbqP2PAxUrPVRWBViz9omSvktCOctC1+Pk7B0Tlddk0uRh5zuZvIjdlMR29SkqRt0K0GhSEVI+5MG4AOB4cxccAG9PTssyN/htvTVbUFj0giS9Y4vvBw7BxzexQzaCkzm2NBXsNm/77MOS5k0q5ai7wzp6/go9gFItKu9DHtP4dqz0TIXDXzP/pk6pGqZkTZ00zzcJT7qOqpBKaFE+hMiJkAwAVJPeLA+VZAXhq3sTWKvYO3DmnovDSf6SKAk3C9kHcX/M3kvoRZuGP/6LoRJd7ehuRV9aVQOnaciCGZ75rGjxl69UXwd6E7VT20jgi6g8gXT3aLLn/5QcPfhtoLuu9dzb1JkAu+gwHMuPXxaTmvtRlsAR9HNZ3tYmjkcrM4VTBZIWM5NNCADgp5RlVprtCbcvmjiBTrObdUmBdoaJB8NvUd4MAE96A9dPCwbBA4FFOkG9CTLkxm7uTOrLDONBAkNB5iqQlZgZqhL7K3uahWEv5APVZ4F+LBrhuxLozEVOH+LSFdXFrK0x0QG7zdSaLpeHfkBdBqkoDNMZ5SAbN+6jfeeAdsIuVa4DLFXGb1X7WX1IbCdUuQ5qUD/manfw/6XNYlTBvgEeu/UbRd7yBhhHbgFKW7ob5sfs4XiVHrgcAnhNgDW69tY+rW813yr+I8lNbWuEN/1C0V0ecG06zQIZZKE4N0fT/C75SgIVBGNf2y7SQLJxrpaNB5LlRV5UrEVl60PTlyu1Eq0ddN7isx38U58CVg8uU+sPj3TxnUft2FTfSi1XJtpThMql84tLcOKLuzMZYlqZmUODJgIKWOWHu2P9DlXpIpRdh7E5WWyOynO5IfkdZdtenneCbhdxMXijLMEYUSp+kt0i8QCiqbd5cW6Y9IoQ625DWfcaH+3S+XOkfAwtgzyTdCOPt0faDY9c0L0XViCi6b6H/53qDhXkWwQW4OMQUIVHwMxfrNSPwDwi5JuafTrDGH8dLY3ty2vi3FvnrTveW1RKIXgQ0+W7v5Jmdcz37aiQOnxu07N1ns33A+X/T519EGPssfxiRBIzRve+dvu8igCVV3vgUs/sOUe3CAvAi/rRjKZ1tUtxeO/hgcjdPlhCJ+kMjIrU5K+VR6XxO8hFbjJGyF0GfsViH1cRARMPV2cfbBVFZ2Dm4pPN17u1JpNJ0UA/LA2dA2BDXk+K4qNACw/oxa2QWjixm2WwDGcwLUja0kbKfjsvBv3DzK9fjaIAgrKj53d6fjIJ7qgqTXGehZAP/K9/ZZt4XY2WQegco2gNOxYGrCq0ALIa1b/Eu8Ps+hY2K2xYGAUVtK4nlC/HUPN+eZbltpKvWhdrzAmOxDgMFCbgSljBD/83qLpKMnAvD7mTtbG8nt7eHUQ9VELkHrhA/9Se/UGo2++RfH2kd6y4JoO2ULA+k7ufYdoC/VpxgRXdJXawDBPDH0yHJEAMPYlFC/7KcFMCw12fTNtYASLcdN96A3P0bivdeUkmSNsBQAn076u+5Rb59ZyqfgawlXaHsYIWB6N7LdtGBiOyDYeI0Usw5NGz62lBBesPzNuJuyu3dksBy25/vlFlL0Zt4+nkJXLpcUbjLM3+Bb+YAKg1gDutvN8ZGz4ZK+FKLOBSxNl9vwK8kKzzLVs3Lc5Q26LLwiWLIcGfKy53SXw+JRg3uV/RxXwxWl3q8GPR+HkKfUbusi7mCBSOLZ5kCvmYTQuADmBP7qyA3AD/640/9HrQyx8YnXg80XyT6l4b2fUT60EwSn7vG/vTYFDj5o3k0OaOUb2tI/cczHPNIAAZ54j5fylyV7D+5EPwBe5D+7UIX7znIGj2FFUGbm/ooyZ8PIbvMJUdZwtYYgEV6DQ/b6TdLWD3Ce2zsxf3vEK6ncUeHaX6Mkq/f47sKE1ajQ8PbjzzwmgCu4++tG3WTvRSnGuRoR7/TvgWkpzzIlurk6iOGo5VFsAGmXCBbsi1mVtECol79Y+xdxS2N7jDW1Zr4sWrpEn7Xh2ogonqq2po9bNjPp6C2RE1wsCHCcRMlSjJMkdNY0e36AeMT1R8xBwgQXXzjMtpgxXHrhzqVzBKyybZV8kKPon4ZZ5e37ev3qDBTq4vdnfBLUPFZeQx+TZbLqRefoSWa9Sopxs2SfrprbHOzFh2YgOTX7dEwyET3i8BOmXaSvQ06uDvhumOwFaqr6jEXhUpf4SyUpFKdpOtf8pPHbAvh8CGLtFI9enT/bkQn5u3KWNXuj38SHMufeVyXIA6yt8CBQn1rIsTVSaIgIZqoh7Tf87VS0xHOQ8OvvGgylK36O9rSoM3oseI46A2RXaXgS9TBnWhxM2dvD4Ur46HH2VmqX8+RVrMuJU+DnZSOI9fzSE/GbvKpbPIsREPjPeqZjElhFFW2DVx5i7onP4Ehwbx/Y8nnm9zz6GsQndcVGXJoikl1+/gPcm6/g09J4AoJrMpGElAS3YZzK+y08FbF8D+EJXI4/bbK+6+2u7Khd67y0no6w6g110ARTLR4Rw2vwhVBNOa11n1cmmJQjIe/hyR3l7xUJ4SqOJnJ0cdWBMHVRPLCXJ0QyoHedxOnhr9bLOXDEQt134UZlgTCLOlmJT8ZzgEzdJzrwTk5ZMnC3wdAGjS4hly96CSWXe9EEX243CYHz9Egp1G2va6azclvcG/rYAcdaD9Varqi97WS7JO1/q90MNg0P58CtbdDDEOl6hh7PrOd1owxf86/angKrO6yXSRkHbF/jmn73jZiXyGS56wYqAkNCBdplTqVD8sEHiLW8AFzhjYqaANA3SF9SmDruRxZrDSp+mScoIBwTlzNJMiI7aSPPil5c2Eq+t/u1Av7OjTe4BIRbYXYMMOL3fyHSxsvDSfiQoO4Fi+719FpP5RpN2cskmV5LFQ4N39/Wb+uJBgHncVsUmHnz+rpk4uR6n/TK7kLEbL+i+yzOOG2tgYJIn6BxfU7Nwvfnl8jOjmk7nXF+Ibu/1uVyMYt8bslQCpfpUBmupcczbd2aT6rTiPGcDOP5hWj3E5egHvoFAXnHzvs+Nud6lzPmi/F3C1f1Ew3Fx2YxVb+7meUUmOQ+pkl+ymcS4WjNxwfmM+Qy3e58EmUZ9/AyQAIeYOWB8gnW8bgUqAecsDjHvsdMvwIEO5h2lZ8jflfbx3SF2a8pEIfzj0AA9jiWQtCO+ftTDuvHxApa3bUIPrKb5Cdr/XrpTANM1aXlrGPq3LCwUVdwaSvBZgyDIWmuNf+J6b30645hmS00c/rDfK+HhtVyaaWWFSynKWog48EFMoyws50HD8Ov70GMJdr3zU0pZrE19oHBs6T1uv4nwRP0yJXy+RwzvD+uHAF3nDN8LRkA613WTDotfZvHFsFPYiQ6vt31J/P4pSjJ3wLFo3o8x2C+XuZzZQTAWHytFWo3TwOfXx0l6SN46NVYkM0LyDCNJbiTki0HFMvTCfEUMK5D02x+ShDxG+7rhvbjwRwZREcUPiWyuMBsNiuIYeItAEaClEuxBq6owGqd96p1QVGikOhmYESSriAR/8Ov/r/R+PZvchILJq9466yHsjWRbHDbVFurw0OCDyDVJlblMAGByICTCk1HAxoDgG4wW3BGCgx+LayCImxDmRFlxY/ZXZY1VbqOWLUN1mZ0tvjCqU/TCiee/vX2DAB3hNGMwYvD3Yvgsol955I+WDRMIT7RC9T41mJqRDpLpavxX7VWlwffQOzd/Um+6eRV5zG+Gz5pu+S4RsCw7MReWb/q+TxNvjXducp9OU4+3X1xndD3v86Y/L37w8HPHO1c5hGQE9hY8p1BluzYVT8dMiZoA3pZMsx/rcopQS0jrMJhRe98thHaE+UfrJkB1DIbYvPHzk4JGWbZh/hWvdzrtXTiXpumsLRuHE3XuV5vCjxCH+dtceSVgY7gKF7uKREF3AyqW3JXf+3y+MfJXGRxJnwVMrwftkzyA/Yh1REMZhCwBYSSuU5p5gdBbpUEMP0vg+YJAL7T5MUSXpAyYPjwPXieJxixPKcQspkTsJre9Xv5wnyT7ZRBbRPQDP4U1A99Mp96YeTZnOWQCwZvF1kYcFmXvHKJY8Vatv316Dj+eWqjnmpzPGQ2V97fZ+6gzOsDHkbfc8oBMwJl28OLr2JOViDWMIIiMJcjlOwqe+Q8EjY0+vxW4JbJDFRL8I3G9RPga/u6T9M7WN+bj7eSX6RXLofVHmWuShzha6OH/jvKx0fKAvl8A3xjdkjbaYhEmOg99A90ozlzbtjcmP5iEzg4oqZ+GFeDg/FrnqNgoSL/FLhg9UlK/0c8+/zZF1H/1bP6wmFGbBeTlMgIJzxQnKF/JQSG9mGj4y22ab3WmViPIRbuQLD8Mu3hq7ngj13oqmZ9rldE1GK4d98TD4Kn5lSNhtWQLcOPXEARXX8U29v15zacuzTzMI3Lnd+94K1yS4daKxPI8HzmyT74W4gRUdDg3hHCftoiIil3LVl0yEWnZ2Z9U1Bm9KJTM+E3pCl4l/PbKcrBPDqtFVxuZPY6qMQrjAxPKjVrWcGgKZJ0rw5KXzAqI1lEmLFdWmWaN5A1UqoMUjZ3YnU4fU5D0m5/8r9+O97S2UeZ4rTv1RGv592yHkxK93B7eZui5jnqnRSVQ+ddtTutanfI+B/Rd2k+tkPp7hUFuwPVqJpFmzK+IZ/f29aAMeMsWcXKgWFBAMKuqI06a4OryrYusSURd8yma52v04XfgjV7oZwd2Ewrj/o4ETbceN+U8hF1yX0S+GVEstns9cgfx00IxIn5jXtieYcKLEKyqi+2hZRD8PaJ5CQWgBprIxnazhuyndVGbOjIbX2Il/PswNO6UIzFLlFZ4Ty3vl/vkZ3udhyDTk2QKbaaYdmfnGvboMW3eiUPj5FdSd4oeKvF+FCnlZT0mfVaeo3scIzwwSXRa5Ynr6U2b9OuMS/GZoctBlFUQQo8Rrw/xxtrb8JSeaC7OG4qmrm98scxpsqF+1D6N4P8kjFoAmvpOcda8wTy4BwqUjzoba6G8txz5LkQaEoTF8hH6gwS8BKvrtby4LEYLdHoSfGi9AADw+WD4fp5R8kFTSJbbJhrRbxjtjevFHZ/s1QXkbOv678qWvP25sxV8NhAAZZA6aDqr82k44iaM9wQM74Zdfc52J2ezCYh0Wf3HqBhmRgaKgnDs27CEk0Y8nmkAp9T9A58pytS18pZdNlBZ9FYAFSFmAEnLwHe3E7xPHdGkTMkCc1dVAd1hPhVhDKB9AotYBrTKSKOrBrT8izxpIrOw5flXCnPeSdXDI1cT473ZKiqrt3vK8lijR8R22qVFmrtP4WOPrbTWE+HLzNNuOtnu1Lc6hAhEx1RAgArdDHVatjfGutM5eFsc4PA3g+MOLkl7n7Ci8BL4kWqOYZ719+tATbzexQs18K5jJhTV+RqqLuMZZA8jYrq6juTUSLTjpFYWEkW+dP151iiyGI7dCdohhaKgExhqV2+bK/adg2uMVTfl7ZCUGOmyT+dNkdocMLutbJnqDjLiCWX7VXjOMWJHX88Lc5TUShJEn0aMWXmhxlk/sIOMRLxfF2oPKub1h0jNkBz+vtq8NgKbDpO0xkCla8UtcF2WCKvN6uOslAUXsxz95s/9pjzw5m8gwEBwOABO3RJAJ3J+Jul9PMFcOcv2Ta2STa9jMIHy9PX0C4fuGKS13CJhGACM9J51yWeuMP4VImaqqMFEP2lC+5/WqAZ3bd6SiwWybzaLvNFJ5lLkNSppU7zCQocm6aRwnzXLcb/Yq/GF5u4jRb9JSyaBiKYOdYKD299TMQrH+qYoSyyBqSjBJRhPNIQ1mgYp7/w7nCtwaYAyPphixpb26onDYIjhZ5amSpwiZAyZt64LhCBNpCA5gj8XQDOallzk9Du46Kd18CQxrb21kdXSYaYhK5aYrQkMKniRwAqzphyk+P0elcrD5FxjHiZi7YyM2RCx49KudZ1T96Ooso/NbN3M9fUu+CY4haAkD7YJZw+auQkLQ2bAAs8wer1uPHCePzfPOufTiQMjtTvGc4DcW3NvpKoD+3h4rHHEVFFx2m3wQAZRYB2edFC+D85V2ddEqSWTGcESdUit+oxy96n3NexoTXw197RQvDYleQUiknUTcb4HywELUybKIx+QyDNYm0TqxzekPBZ3Ezg27ZclW/XVmR1zC3rlJUMvfCjqenT8LAEpW9QJC68QUjF2Px5zH+KbO6y3own/eTv4eu2aM/wbH5yQQQRf5TeAYJ0cJyM0J+YULrYith2feF034DhKGsfvgBO2iIZkBzJWDETpMXWbMsWlf0g4RW7ltNgqXl+n4lbcIR2frnsQVrYd200ufsHV+xdwkAkTp8Bs1I/CUiVbRkVei1Z7JI8+3hk79asuFX4G1ltZGaVCAC1Uy17eNhAqsxCrvMC/+8MRwPtN3mUgf3I8OaUFBXVUR50yFxlynuy3Rmr+ZNXLnfL0ePJ3kxbC3ayKe8nJTe1orwOWwc9TAfhnWZYMfWcQTqD1lM0lbapk0d6/xeHfOkoNWppBsO2mwe/7MbngcO8dYsn+NzS/9TvNO9QsiO3/VGjgHNMxJmNCHzNQM+oxZpUXkoBJegtAjb5h/l7ZONUbPljm+Z2o87vzHOKhm279JF48iKw552uUKmx9ZGnz/aS2eHirGn83sP3EidMchupikCUSCzuJpvhNEnuxfARSBj2k/g6GvIeZ9rLaukZv/nlAbTQL6VgIJpDenC11UhMCNpc7oLJHfTouys95YTT6PGgqbB5U9hzMA7oGNkWfO/wYiGqL+ARoPeBy42pgIveh86KkFb8guvzdocDitV7aHi3kXoyQ5ZzO8hrlA4S1HHJP6f/0vrS0CP5EPI4Kb6zcJ5imL33FKZMGnp6j4A3vlN+lQF/vgpiPQHgro8ase3VBqkESmgK48SHFN8w3SqZ2VyQrLpt3bd5n/rsq5y+v4B1g8GBHBM1b/UBK70Nake1nhX6K3DlSr0G+/7ipMiCNhx0M6z+hdaI//8JB7C5MHNTlEPwRcGKpBF2cYbsRhWkNn4BWWtF7cK1z5XleHn0BPyUxqz8SWmKQBISsQNeTKaaOSbKHccVjeGpm3RWoP7NP24ZoWn0EBF0DAFq7HDzF8DzBgdfNjxIP7L69t2dQLxwPc1lcHAX2RqnDb3NyED3uUuR/f89E5Jf+mdSU/TH96I3S1xi5Zr/jSdDyex68zrikpe34je09rc8I1psi26EUXtZ/IF5lNIB5556I2VcYM+lXpBSTWZ2c04PtMkJMM4nEAKbk7UQ2zo0fZ16p1aSFJxSMlnHMoM06FNIXVdQmDqjCn8QMx2vLJcvTkZRDosB7jbIBPmEzLh+u/EJscWCJDFllE+jq8UizP4W6xjITVHBQ/UYuxVK1a1SKi+HSi4evb/n0x0fz5qD5ErTbCELgxh14HH62cEcKThUBz9DkqHJTn+SmN/tAy6fYz1lcBEYEwTZ8CYAOofX1o4PvPcyCUsD+h2/ZLXePRdc0l689xIBIlFwQulAz5Lee99e/w1jKDNbv1Y25NjKUBn166qn+/WyhD8QdXtcrtyUEE9Qi0GeSmS6JH9zG26qigcDqq/EsA1XB6ootqw2yIzNNY9raALldMCvvao6T2MTM1x+ZhauVmeVaneoAurszIMvT80fTz1eoe+4wmA4qO8DhYdrkrWMlU1YANJr97ZANBro2Y+HXGcKMjohfkpO23/s2xfydVpUxoModd3iC2t6W4AGBJmLFU54OcMHzeXmKto/SApb/FPJlvbRChZ0BrxKkD5AaIwz54DRZsIwDmJ2QWb3ZRB7aLy6Lf+mxkAunR+Na3bpyg5PLgx5mv7A0yJMqeeC5D+6Q2Wp76YQADkIdpoI6CNY3J85Qp/YCqbY4bPYtSEoqUjKsWjEfoogKGXT36QXknWPIrL0Gi7fHHa5SXpVsJngBhK8YX0FixrPFaKwqXHlUFAhhx7DUBf1N4BRQej+ONZyVQ+tywjuiihXTEghiG/VhIwjpsYj326V4thjbAmqCtS0kX0sLOkPj0ch7dmTpbvWjwlD/9iJjcKwTvdG8JSfbJgLhRnb3ymiVdhLMOySnzSAHw+tPIEPytO2kG88o+6HkCPM01tmatrJTpq+qnN3gjXcYzypuDNtRbIYcsjjGpWb4TvFo8SKO11ERYTmq23ej0MzOR2kLsoXIFftNPNKDcMovAJpIfcJuVf91CMydx6ZjLkefBHHMM9vxPE27dJpviyF3gpB17WfqRGx609ncZnxM5Z+FsNS0wrJQaKnQlF/7y9UfniMKzUyM608EM0dsrsRdDG5EqcqIo0b8lz444GEXhZzIVDcB/KD7r3wtRbFdCfNws0f58vKFJ+vlMxv3udrHHK8pFtzweccU298nWDMCSQEqUXdF2v6+7pjEg5Tc9NXHqpmWi2JQe1oclVF3KZeCpwnfaBVGLWcKtyEKemXPslUmRdJRm9oVoEH2bjsfbtOLfQEG389ufffhdv4OaTNwwY8KACdR3JetkXx/CN+xLF2umee5efKw369US4r0GpjAO8TbrEHZP47OYstRIICiH8SCQNAl7u7scHcJ8PVDT6/aTgJF1Xv3ppvKJ+/lHFR31Yf8xQ1mCuLG7rWBFSSwPQjD9kJJU9RXDxa2ZVXhOf5CvAbX0H6+qQ7BewNmkfICOP7qSNrlQrpMxdG5O016NJMasny1oP1DI241nh3+sWOpW5i/5e3c1X17Fir2xMdOQm5oKxczH8ovp62IkV67BKuWvQ9a+SoXmyi13TRp5MJ/2w9wwy/BqYv99ctksAGRsEPv/egqQqtLrcHRG5yP6j2b7Q2eIQWWv9HUfFGNtsm+t0NW7CkzzHbsWwxneTTp8fjbN2/QIt+y0cIt/BrB331Ud0SvVMezFdSaX0i0IEzvJ9lCbq70lbrT82/PIRVGfR0MBYvlJ7jVD100iQn3gLIrRAr+7rv5/Pgz2QRx3JECP5bw+RC6YryHw6A8KnVrsjiKNfUocAzWHAIXMQczI5Y7eMLfuYbx7nS4owNQgKtOKPU85JlFJ0OceoDbz6s+GUUw0bZBUhk6KkP7YV0e1UEdquSdguASh03kczCVWIUf1Xfc1pAjEcT93lvm3XW0vlXT+CAkb1sJWg3+bOotKZGR4Dl1L3BYaYJ67TLBjdIrinQnvgQHLvq0UMPyyUQYmQfSf7glEvphQ1t46RkFa5pt0OAxnKHv6oC34gSW+bxA9XtYX40VZXLnT8Z2aqP8MFfDt3Eoi5qS9f0CwxVyrGKXWsYDueCEDyvbDmOIvRjO1jWkR4he9O+zhnZGMeWDqGtWDw4RvRKAWtqNJrh0r7ezbNYiKXoO+wmv3RwnL0YOLmUBZxMWczB+SoTVomz6aUHggJ/lum80H5sQNyyX4iTDH54BAF+JavHnjOH88clsSHjgCOBMYESBf4uvq3LxwI8uO0FDLB+e1lP0h/kMSibywFr3wzLIRJFt/rX7s6o4O3ZbajzeWTH3UhWZrUTkVtXntXHRyv28PSKmGhSZuHCPGdRuBefMaspyeBp9WrkzBLE+XBpIZBHS6B/IukvOSFbS+jRRFEgj5U6JVKgZ35SsNOJNUJjgLvJ6fniM1N9GDM9vnKQQ+a5pPoVgct9OtSZzEOl9AGAoNlqGM9xF85cJjhq4FqlZbMVFkfhjQ/6JujC9HrqzcowvGQkZwfWhWFZot4C/fJaFol9hic9n0b60QlBRgkfScxMbeCpr2WdXzLkMZ3Bf0kDrmiOr4qcFjNxERx3/ku7oxe/wKUxleHaimmYoTfiqgwTdth1wFDeVyT/WCTCOtoT1YHZ6m6BOcAyC3eWvwqLYZsY5ZnCBnOfEN/bhESbT/HqFUT11qwDTMNXvvL9DCzeZuylwvOlOWjYChXWvDW5N8IPmP21iPjJ2660LHMCjWFc0AmDNQtC7sJZViu6ImQVI8ky/8TDVVvKUu85ILuSIEKRCmLVti0iNNOAiCYOCPML4+h4f6eUlf1ZqzMocksfrUnjU/QPCqc5swYRtaLBCyHV48JfyUxS/vdLTlNeQOQ3xMFOculcCe4E7vJXmdHzEU12irMXTVVGw91lSTE2ClxxDZ+EoyPzzwuOnIRyjwDusEx/h1pCAnk/WGNoJ7hZqe5tQu1zNEYa0H5bRUKpOJyzLvlo5YBAMtXoXWUIcuc8k7O6JQB7cXGarnlPzF0OL0a50R3Gdzx6wMdh6kEUz5hmHqc3cKJqWEzE+5Uc/eK35Cuwu8Rz9bGxPI2FTiFAzTdBECCvoTGebT9ZWJe9bllEWA8/9aBfCZlvyEdmTED4IOKptdQRuiePFOL/nF5VwCLsAVDxYWwC0fAHIzWb0YQ0xxRvczjFM36Y15mDsKvW+nCsmQ4xUWRLYCwDAcwAPMpO9UxwADL1zh3zMUygZZ8Fh8xidIhnharFwJ5+iqIries7y7WQZQJ3IDxDEyj0yQEn4FLBQVz3kUJn6uauV+Vj101uZEN87PnzOywyfw6bc3iOSKox9h+mp0bweI+V9iHTvH7LULfxYghFIzBQAhNOyMGFOJyra3XB3VzRU37nzadcrOmXtsrqWqFireOOn9fnL36ydMBRA5U3SMBXnr9ZjXlMab7/h21csVS9kEV6LOsAEfNAgmHzNkxFZMCvK0hT0v70FkTj6+J+Xjh8cvajk9+YVxU+xNG/ovmlj3RVIHms/+SLolD5B9e34HPmNdmEYHBpStxA9AkNs6B114LQv4vPrD8vESQnUQJDQyxNQrsRys7GPt0g4rM61Hb44ZKwYs5fGgEwYQYHMy3yXYD7VFVW2cf2GWprbghCVtY3qas7AklIjo48MvzyqlvtFmB2MMewnJnfap3owKW7WVO2pKkqRbQig8L/VxkqzshbCpNyz0bDTw1vnxlDSYF21K1u6qT2+nuPAzqXRgrMt+cntHhfIQuvTYiXG+gw2wlTMi+tuc55q5hzcoo9oT5EaSWn0wsOqSbcqr8rst7qRbswLKaF4hJRjO4fUfP/gyZ5BKBfQ4mdD+qo7d97WE0ezBwFHakVuWkNjjgdF75B9Yi3maC6k+Xiqppi0TvmQnSAwoTrkevZk2rzej5Y4i6QPoELyQh9zLi5FpI/m+b6esbfM0xKk6BeywkGDcH31souv3QMnHdrTrWIXG90061/7fsmbYP2buHXtJLs+hVIYJkcUez4nnc76J5h9AkNRTeW00u71NoXH8ywWQK4enYpcIT6ip/57izL1cwWI6gFQ02t1Lfdfb89NEzSbhizMb9HS/nCKUjclF4D5qnety9kgTMbiX/DtakuODClitZj3o9rj1cL7Uh3ebyz3dRG0gp2eafhIYmm+qZAFhXewEOvtQ63Fwmecz1+xfqUddJzbi17T7LD9T9/4dxx3c8erR9JC4aNdhhmx9a39Ut7J4YSNXsXD0DonMWA9TRetiuJwsZ93DWkbgXBuxusXv5HnoIwsFOglFX9zmEwWdMFMiAkU8/lR46/PC3PdFxomb8wcQ/FRbXKKcwFyfXlzGYKiGM1oTldNjvM7UnhEwssVNR+RR+LgTPIgEHThYG3me6SksfztPOrky11B4fet598a2Hmr5ILX+V80YBnms0wLwwuuxWeaXGRXsMvxfCkBe+kWJC3yaQ585lIg+5mtpo5BcGh2CHoRsEyz/QJi1WJ9pns7XC6Mm1wxN51+ROPyTCTq4Qul5gJuKfareG++PbPfZSvEa185q4A7WrPG1OmizImUjzmptvqhj8scNOfN8ZFI8hxwjd9B3Y4islD8yiodPXshHCgW74z82xz8xJZfm5lyaQRrSiXKi2W/OWUkprW0jfFt2X7j5D7ZqWQR9gqV/QmtoF2g3zOO51ikytsnFt358lSxtPbzZE3RqICWa3sfkmar7u1iuZqtMCWSufznU3dY9U4v+PgiOzOXTQDEgWwfAU+Mr3uzcvuOERnaHc8zzg7k4Dofye16fZ9tW2zkCNxqoxBOEq+RCqckinpHoiqvbf92P9OSm8y0O1J5jEBoN/u5e3ecxWAD844tKaSn+Y5kWBCl84PHYNt4HlfPOi7/qEfLZWoo85A1Fr2HUAS3SvP7XZfoewAGfEhD8tPQBGUupDfnyzSRh0SBhrhgFUEzdw/X3u3SvzeghjHjGGMns8uGAixL++zgRzBM8zdTiDR4AR9kGXXsfjtT1MTO2H581x0lYFA4fEhwf23nXVXfX5mJ80iifX7JUVfDY30f37qqSYz7ex7ASnecpER+yGbLrIIMBCMwcnK5jNGlL5e4ehXvlSeO9465QA+ByO/ISyONTHMUtn39YuSJF+vQDejhVl8QiOcbDQQNqTO0BV4469+RZDyAUb8gnqhuMz3j83dDgTD8vRFueuQ4WDJa3/Kfs8V++XGeYrh7F4l/jOZTDcbljKKnbkRW7C6VVTqBKSKZZvrZ/aSdc1wpKNNn6bMPsGAx3wTNSyv0dNsdP+PSQeQ6rlUPTkY2Tu5kAOv9SYb9kJZunT5kFUfvaZIJMMIlQCKu7FwXMMitX6ycTBY0cxcF8AUdpXUkSfKl2W1Pjr43TUMXLrBDilEbiEjXdABJ4l3K5zsdIia8Z+gzmddndzFk2EwkMM2maAenWEOSWw+RERUtWaJN5o5RYp9xV78F+8ZytU5BJ1TDzdSllf9ex2M0RcLWpcKnyX4+EKXJluwI8my9Gd3DbvJ0EG79cp0OieIKfUpT1mZZThrWKl+IdN7T2kZoVykYMnmu9p+yWJKARSZLVFj5sanrdgKnL3a/N+7+RpKweDFmDlebiDEZs0ktcQG5C22E/SFKiLOUWEGRV7kyXfNr+4OjUwVeISkMkK/tycBovX0GdA9zH3UwV7E1dZE2bvjbb/nT5sLOSJFoRtvuF3Fhfpoih9LxirTBd13VgaeTIBQFfcet+5zOOwXWNEPUG/OPSYtdv+Tq9PZn2hsZGUXQwe4wAiRhOyvLQj1ZZtHqbwQPv1vQS4+/pnWaE/RlnQZ+nZ8ksKCdcRAhkwHc1PP7M/30AugBIZR+iE9e4sbqQ9iTGz42LQtH3DVQ5sV5nafTR7KyHAipoBZva/29Ocp01IpCptpDpSHD++ZY3WSVi1LRFofb+IHu0FtyBkG9FfClT+atBn6T6DuQF5dF8sljsnmrZV3MWTd3e7l/CfTWYHCWA5j06lFYP7b2CLwLQ+H4AAUJoN8CIPYXI7xyYb7n/gIq6fxA/IPud3babvt8CYxCT05Y1Nsb8MPf0Z9/Zxw2TMGIf8aRUkZKLUvDXKQCRJoEFN8Hf5eJgQoRcEu8EqwctLjTRvpdb8SgQRYns/sQiLYPjiFMmjqzPVmCw/EfIsXb+aGzsA3I2hHCWkwFTj8Vu/LxpsXX75Wv/c9VLsEOB5Y23wCr+ebVH8hdP5eo/hZFefj4/nFjLwPtjVSFLzLycd34R/rE8Y6v6fUdwCuEB9RlMaU75S/aAVWrdmFvGFqGlKAq8cNyrg5xxsUxTGhFq567vdPWubteraiBGgT+88NP9zvDYnh1Y7YXU9OTX6j6TVXmX7wSHid7XAuhyNKjhog31L+dKYnETLcNtZtPc+B0//d/HvutA7uPPtPtvAMScT4Qby8Vdjt2V8rllM+DGvCqTXl9lNmWe6zuDIbIj4fkdL1eGZA74dYUMLrijHYteRenUaQD077tNFijtrfZUyVdQitPI++VJA0Oo85oWUiwd3TeDjzXy7Bxu4OPydlc7PdRIPVM31n19mQMpDmj9eaU4pgxDXfk5euKGFId5FudPibocsS6wiQoWW4uOlfRlt8jehW/8ouLQgWySbMfR/PasPFheoY8cq477xPQUJ38wCP3QhAkbTcLIfQhdmwlmRT74f2iz3VWowP+/H7VdpquIzW36I3/G+aax40J/rj1osTwsUPHXPyao08iWdOvYSj+kOnAY63FjmMTKWEqjDEwi9cgs+dV8c+ssk3LBaJhw/TvmeruZx61GYxZDpHIEBwTRaOsuPD+YMpAJmZ986A6KOIcIJl/m7ApexXdZgsdLh+6MHd3bsbJHMpvmdQ0hWox/KBRGt21bXAYJoi67ff5VQl8FUwkpAafC7lnpbRo1IUkUTOyhmPbq2kYWEQXSb3XyIECr3O/p9XnW8uvRBumGE7lsEiS/klf8zH+9muXZBOXX+W+//6FnHHnbKUF0FK2D++JzXlJ87AuCUxR3dZd/eFX0ivLdT/tEyCD7f7m1RN8QeRIvqLZOVhRmlXFJl95gzbr238DEyZPUFT5a2D5LWngBeKm6EpSymb7AX/El9TAg03XC3fIysLz9Yf6AYbs/rHRnP42mAw7TdltvMUECe9fWSluAJGLMekZerB8toUvV4lobepVUIjegvNqsuzl6aDHfkWHBxW1/uR2p0GxAR5xL83wgHc+TXVL/cS0VPq6nP4oHGq/+Ucsz+iMv2XB4uSZ73g43yLMD3ngurxFhStPoaWDrbv+Xb+WrVuvKGA1+h0Qz1/c7h7LbjRxwVYe6U0NDnxku36mcvYKLQghEoPABSY8vijEcoN0yQchoInItOyRZM8L39oMs+jEvHCOeSYslIJZqCjbo7Ogu1kNAWnNC4Io2RFvNAFKjrqYk9JtGeWPL1Ewyk+bf99Z42oSQr/I+jUHtZYamVtZ7pagq2P5wteTaOCQ5VkWW7HIOIruuWVlWzc9W0Btswyq7kfPgmaBnw4VG6sQhtjS2GwOzH657y47EPtDbjURiUYvFvW3whzuqpVLhTOEC7A6upATZHe4T/Mqn/NMp3UiHQj0m4GUro5fnZjnAjIKaxy/LCGSiM0tmgsIETWOzQKx/suj+bym4CiudUVtfjP16sSZFSkuY8+xh06x6kHmkwO+kIfrCDBU+EecknZNuri4rZwRLl3K3qfRIUZEBZ2SBKXuv9F3R4qfOV1XmEgPhYvEMktnwgLGh6JPMUZv06d+2n3YlPz/i1+g5oc5f4q0IAwzf6JK8fR3YiWygEguNRlW38xRvydDrC2n1J8qttGDzjMWY43yo6fBhb3L12wnDyPtj/Yx5ArVrvujBwhdggmLBeCbIwSZAxvHfp/pEjDoW7Gvmm7p78M/GMnXYMbnLG1tGxt4Eo0tnh0o/tT4jZWVVE++Bguz9XzSldrdj5LeUWeI0lW9gF49N8q5jJRA60TO4LpW2ov7DZUW3cVmvxNRDoi/HM7GM6FouzWPep6T4cmfX6y5lBw5YZIoWndS0PX4jl29Bh8pG0KU8RkD38InZ8dvv9TgFwM/1y76Cq86R9ZMWDWwp//jQVdHnxeXVQrDtqubFOX6vKWXi0k8HyXRjWoynfSHzLntSvVlfycHdK7Kk/sd7ighAx4moGzBR+bAN05qPwxleunVw4DU8aYZbudcYuJfbiFrjfNkldrBpBFr6Q6sgCpOwQYPVJ5KpkZpvXded2I4K+RU7ZKXLRYGTQ/Q2svQogmrj11ZTyRVDZvUzoX4VqC0NUsX3jf0TmUlqWOdfYzU5ooJhtNCLSOBCT2XN7xUi438JmHrNEFUdoXHgjdneqTte8FHE4kV1PccUz9sbYxXQZlpOnHJFH2f5tm9L6rKBRIwjLgeLLXukGJuJIq37Od2DVJUwCIMj3LGcXB5hFOVMf+1+uAQECzD6EjbJpMGN0pbd4AgM1n1LxIjFEGx9OjRJRz9umEHXhlbjC6HxB1AELl5ftsdODCWxVEYIeii1JnHg+e2mw2nk9io4l25SylF8DSuqgPB0IEPHsR5iKMEHQ+fvV9ES5u7kBE+NV++UIMvrsWHGo0MntjBgmmyFgAm7QNCSP7ZC5XXAkAdbd7PhFfgZs6ofIpGmoFr6dy5UqupAlGZuUkNoiC4TXtmM9de0d22rixxaPex2KoYf2IxAtpVliZZgkRfusa8f8ezidk1FyOgVr1Kk8ewXRZjLUEtNM+0E/SUZSum4n1fYldsb877R0EYicXkq1vf+qqDeZU5hZI5P/NZJ1p9Iq+pk1bhXLPKh1yCFfri2K+Ef/egUk1/1vdsUHX1gyYtK85AAcn2wjdv0VfzpYu/l2bvAn1o+J7q6ZIpbzJYodGiVLoZHg4cK+2NdhgDSvh/71tyBHzKBjCnHkvRKOsVF+SFKGzDkHPdzTHix3MBGkxtKoYr8NT0nUlY4uJpJO5lEJJnvqpsCR0ElQrmTKT7zXmKnUz5ZnNYIUhDAGzrMAbbBiULM++Z5ziwf5vS1WwjwLrcdyMOEm8IxYFumEDFckp29u0fJcbV3JozObZToSxs5ask9lgH6xektB1k1CZJbenFwzFTp1mMGKiEq3kJY93KsjCM+9tYrb8MF82zt/cSDZwS164WFFWy61avdlU64qL76jOXU426v0jibl/BIoKIpenm2bEP1EzldZ1S7R0GoLKXfMUz6j0mJZ5tiLNMz2PB0d6NG8e0VUAt7b55p/V7/fciir+tZrtZ+XvK/vAGqD6X0ub2rzoJXMfY0pe+xEL21G8iIOUzZrD++9t06GT7FXyN47tMccwkHje8C57ANucpX5CQYehkQLDo4+uvbSK4xrB8w6vKe6UPNsyxY6cEQKmaaiT0Gx1WBsdTPubfKq+V9TPN9E3fpFeF4oIwGaGkNWSIw9I3+4bIk7BK7HHYZ9hCq32IHPqj6oG32QDylei3SArPyh+Bl9SlNDBBtt7U4Ni7vjen+ShZjjCMtiy4D9UGq3ivBYs1VI/glydIkDzOsjD5CTrw/U2eGdXbC908RJ8lR8++HSEJOzCAADIViQdZqafQvkjm0q5Eb0s9e4/jZPUMOnm/MmuuNKvcC9bpmit/BhFN4ueT9mY0iIJgvE6GQwNR6hW47ZLzdq1REuQBPM+ScvwZBtBGKapAEUIDCF7Jrm/Gtznc0IDqSupn3rbYdVyHtt2Yd20xtD46wEAYO6ujG+7a4tLgUkVcTtCsfaG2wOjmqPzOGFdVF2MbWOdgIQ6hxri07naKbfyKWJQ8X1DnKYzIEBbMXSgQ3wYMgTlyYXAnG0ClidgGqY6AJOQryNhotpzq5MNPmRM6/TndV8vVLJsgI/fLc5GtxW8PiF7Ui/GXzZinHO5jD5iSD5k41NmbquAIPFts+1mGSuTgfO+FGP+ZxtvQDPJbS2YqhmTs4ouIL0R0BHiK0qACNIJXVZVNb8stuWIYHT0fPnOyX7haA9+B8CqCJD4EpHc8dX5IvCZp7uIcG+JcODaYgA/9PTRL/ZCSlRRP8/mQVnHhPIeejIw2JiTBFPvHQay0TBMi0+/zXS8s6ZUVuIyNxKzJY9XzGC6nIYIEp6yZ6qN29Chm9F1o3tf2UeGhZ4FHHhDZMhqHT/2skO3HmYhfPmTqfeGtyV4UNsDy2vNKQTUBim/HDT3uvLNDNS5pxiCXZzmGJUiTX3eM5T90XTRL5njlBubCINJaBENxd5/Lz97UjH7zbvj+JmsapjMSePdBCN0Sqo8I9KkvyHTCcwf8/i4XK2bBqbCJ4cakTPgkWEADItjmj4IK22Wj/UY/PdR1a6utFYM5V6ztXYDv1V9abY46daNaecYF9wC/O7QFJEKYq67XBFGGq/fLfZb5Dt9JTjikQHaZej8QgiwYXCvod5RNtH99CDj1U+TvMhKYIZhAbmEV2qV+P54vBkmmeq73RZfhrWtNb1uiADK3RaETV+nDVEFOnCj7nuAgI8/orO8COkP0tN8FJdCLDTCN7sF5foo+GH1zEkMNSaU/JXi5IIl7xHsszQniflmIltvCVzMJkK5JS24VUHrwMfGB0Y2FbJ14K4i/qLmJykfqpCpCJKHjS6r62T6boLaCICnE6BmF45dw4ltxEwRYwmH4HPFXl5W6Dcy8czq4niPpyHif5iDZgKroBQsNJbKUEKC3Lk77josem5j3SlpW1RP8QAEphl5gGo7hLF51sX3ZvzdD9pPY9F2aqcCGUiop7XcteB8/DrCFKAoQmCGQ0Llxn3i42jkrGRbxkNEw1h/BWKRZo7IDMltKAgiwMPTJrL1h7MX2CI1Iu7vLGYbixbyvcR8mp6e1WDsLbRmU7HVyIPNJLYf+NFpy75NSCn0A4lnrNzL5mMS+ABgZuIf23qw9XfC1QWclACNk4w8cIdrnvPXg+g3JcTItDgia0YiIQIbnrv7IohfBJX15SMLhU/BqtH5IDAAEcXk0Bcoht189m5IoR5kJLlanqRRsQXUQj04+tW97ngHb23i53Zkpa8Er57S5r2ssn3UMG+H0Dog96ET46NJhZjTky/SL3fDqNs5wQT+IZV9bZAei3lqXr94F0v8+VmF5p2OLl2FlCeXIo5LnHxRy7NCqGzkJZRMOVLP1Pt7629OJETipVqqlQS/bD33760myZpHNEiJQQAh8ghNFgCpt1W0iZ0kjr7g/SCFCKp6+6FbLB2DTl0Lngy7TeAmv/cS8wbklmHnJ/uUA1EWS3X3Nbg1kMWqM3OL7pd4G7Wk0XHi/kxWKsYgr4J3jXH/2HlUEy3D4uJzt+xZJgvLq/8hfZBuPEkUsrL6ZLVCMXK2KhE9Md41n6+UluP29XAdjePkVWyzRO3UyqEI+lASQwiVGeIf8idUUNAJ+4m2rieTzHuwgeQT1cJHv6xEtQZTfwLlwn5+bWh8U/NU7bixA7ffBtsSnUmhvs4HvfL6Odl5VNgCNVsfBe8zB12DKsoRFQn9wqCrz8nuOEo2iBGaoCCxpdEQO0S/pROGq0r7GskmxJ9alWN6kOBektCHRmHTGm9ot/u4XDJ/nwsk8fnYYgYfn1CP+youuGmY4+pA8IgrosQ00lkNjEt0IpDtuWZIA+62ibG15Qfe2ai4QvD9RiaF6NYSuNszZ1zzY3uc7osN6g+5S15Dcb7s6StMZp1k3t7AwaDZeN0jLP6ylMouFiQa8F2RBVATrPnyEROK3oo0oiXX4cd/jKGGhLS/DSeYmniNI7cgT5F6s6Cch4jGj4un17cf1pW8IuWuWEyOiwt2w9bLp65LNt4BgGkF/9kJ3YX6v45k2bONdEwqCt/2ewj6jOAFuuUoOOVoKdIXZeC0mbM+qqtSyZ5J8sCDe+iLAayqeGbfESiNpVVRd/v56InSrX7vzAyl8XZ1NW6Yh+R1p0EAxArVuiS5g7JKDMo32XVji92dpvACcn6OXeiKo68c65XKFN7BpHR5h2VU0D0xVjGme7xgsdwliUIGIz9cJxI7202jandxveCmMApDyaJqFTqB4ZydN3Tprs3i/ypboZbA2zukf20qEH2Y5uqHFdcUwSMSg28+jtEoYeco1JQ+9+ZizRKX7eRmNM3XKWRMu3uPp3xe10x92OTm2aYc0wWGk15MKIXb5MVKiv77urGfW7ekhHVwi66YXyBbS/TnSnFiJefY9CuAUVBFuMxOP7TUa7ONKy0v3p+gAZEUcfjjcdUSbGZjUCYeiYRXD4k50P/ruHdJAxt6XycKDoxbvt2NINzzbp3UfRkNEzxENJLMKlWJbr0A0C0V6VFtiouwIqeDt5YQdh0uFNO7C91bz3dSNzWHSQbIhAQArisJsP4RAAQk+Jh2PKpHXuHZmJEt5L/AaAzlcjiA4viKyJnFrBFQm3M7BKDGdFUrC8hd9fSaoil0NiaRRJ0rt0UGDpUD8NMGBvjMNmgREbuUeDptq7cE94fNrbkMUNOKVztr0kxCpga0j5BfBi48Po4+XoF+LCj1q8ClAUZjMdRzBfQh9bi9BnKq9wwy/+NRZJ45/wU9pkbnQ45ndf9eMq9+puOY/apkoSnj5sxetp8mQLamN585PUx2wN/GQzAu/K3JBb8SSMKakN5rBeZuLuU3koo1ERclgRb+ZOoKZ88P8hOc8zkGzvGf7WYVRHmAsgrdagidhb4F/KMKllb/JGbqYu4ipSyYTR+36EXtC0ys8deCI1V2xccZP4X5cagPp1LOVN6INuBoJrlhBJCeJPZ7Nhp6H98jEy+L0/dVvwCiWyrsMlqzxA+9BN0x3sMV1dyD1dOuqyQDnOdcQQkuryyJHp2Uw4sWrn3pZwdH5pW991DM8RCMhcPQp9u+pAs1ZP2MuQtKp7e1v3MwYoI6RNA3CddoW0uqA7t8y0Pi1N2kjD/Lv3GppBu0IyYIYKWm2ylalYL6BmGEYDKMI6pGHWnEtUeKoyxAbIZszPlig3vBvAsNQ1oE2O6dKbgAHYQGjYpE27jvh9ZaJhc47rB5quve8b6ELudb0R26i7lcXa7GEdiZR3B0VxqLMRew+iVQFnvPJxm1KIjthlI/T2Jpvs2fGpt8NKE1+g9ZfR1nk8iFIRWbh6p3Za0jnBpkBtQU4krlCFdV7J31lQZtttcZwKDjXfQW9AygvTzDtBPsTmTGitQwfcKggSN8G0Bc8PMj1NcDGBkjqujYq6au4J3uOvC0e71N6fie0tfr0M9gOOXDkAZHfXgCE4Z+bIN1DKEBoqgNpJwbpp3nKtnNbL2070nA/OQqY9kKWofPb3tFIGsNdEsWUs6BkfrpRW84i1gj9o0HPd1+9GdHXKEFszEhPXzH2cwRkJTU+MS+7AdessRrWL6YXeThSI0vfM/7id3DBpANtIbaICBbviZiH7TdMAMZ4PsGzDeQ3R4A+u1UcBRYexZKYIOJTGH/4O5ifOoWvja0Slggrj/htHv8U3xg3YyS0sa/atEGx72oaOdEHT4DkXZT7suhrnO4bplHhWYlif9JkWP8c/tHjU18OYdJLduc5y+O6ZvrNDEhmc7qwmUGpcTbEk2dLQyAGLSad7EWAT8fTfvhDBLvLpCmDKpn2g4aa1oH4tqbNWQMhwPpKVOs55sTWesVzwdGq1DJk9b7jOMDMwInjhsmeoeb8QYSg254hho50AkcGGRcu4cIvw3UlFvNURwL9x8MLx7tBUFJTNiG9noJlSxinlXAggtNiSdWHjqlXLfUcO/E37dyp5JQEzqAmVP1ZIzlxcKC/Qig4WGVmQEpq4C8OunP2b28LKpxDyvoFIpdWKfgEy2Q7qJ1HrmK/VbjyA6iAVzCb0UooNigG/XcwCbK9SnQdVvYAWEjA4n41+P5LknF8hzD4vD9bWxH/SvNSJsOQ9b9XbRPmKytGernB5aLZoc6ONUvXx/nK2BySMlCg3dDIpGhe4hkWDSHxodqCdYHWRQEzftrmYzxZlGwgjfp1qWaXVFAFdzCHTzTq7C8eqbe6juJ+5gTxXQr+3mMnUOA53FZXgKco0AxKfKfhFQLb1wRHm70kjknj+iaoQxYH6JJVVnaHrMWREoVsAWC4RruNZ9kQcgZP2NWAHwXb5lu98eD3MVAK6s2TXL3FUXCgIdWtAeZFuHqiAbBim1sMQqlA5qbXEJc5ODlb9tyAzvwoWfQLl+Z3PWOxZL4yrUtXqaXP4kw4UkVUsE5Co/5g+aNdx7KRs4aTToOpEeht3AtVVCtrQyjzm1fDP7ZUq+htMJlaZZ5USyn+kfyf0vUK5eYccQvWjsLHh2D9SpL2voE0+3wVTGVX6l1irrnlGL0jDhsCtzOHrzJlMvocGkUxFOV4Nu0ryCD8uL4HDX9T9N9nlBCLb8yAPqHvV6/owv59oSsULwwbTG4aixnZ5BqKQDJnv3R8GD8eYzUCH9v8eCjku+JQuQJnbI/i1yKnHSjytymp/IaCz5XHxL6EaTIRY+XZnzfyc5I+R2Zz/C3DV7IURU6JFk9FieY43VcoFy9ZbsePWItNc2OFObnhNGnDc2qNYZoDv0rJFbbDKHo4t0ur18TS5eF0IqAolTIwPNLFxD+SAHM+4NaxygeZHab2M3C1TBe0N53wMTKW5W5ENXd3tGK5xnF3IhdQ/ObN1gFfVSsjphJKRMu+BVWNyhX8Li02jVYdMYKxfo7syHtqETPaUW6lwvr7OI3L9VR5oByBiFwfWUMOa7xzy54eIfvWXgAJ1eMeZu4owXgWZFXLwq5w9MCubBtvTGaIErhvY5XVZ5SRfeGhvCkIIcT2cT97mDp+yHAUt5KdDHXc3DZQUGZHXofO837N+74t1bIucYjIfsXzi41fkABcEsDBFC3lzSChnDDz7+VCKGHM/M2k7zShPaW0lR2MrTg7YKD+QfEBAkYAgrgCpnNSfAdrmMDXXhwdCozG9FlDrYNQVgGdj73v3jUiMEDsz/x8KLa0oAdtB67cCRgOEhpapqX3zHN2zfWud6fv5bJCfiPPb3i4AJPrmL9pQSauhmCPZwF7n4OOI4LOG0zEHgPs53oO9UYibKS6qjPbUAlxFf96FNHo4jAdS7Z1K7qOoXPcMf27xyj4SXiW8YuT85nFT8JGcz/HGkHvUznvMm+mgAIUhmELQnjjBgd9obaDdBQInFRxwJlVvuUv8QOTHqRVSyYpOiKrV0emud1sxo+lCogwgYRrS9jRW3MAcIibwGQ8S2OHUOxDR8xPa8CEVDxN/mSQz5yCaQRWz3Q/2XG7j2NV+P7AQTdJ5cxn82i3Caiw5JYAWr4w/Z6WSO35xfLN5K1vmJr3WZVKL+xwLZToXVmnOCirkPebQUHNl/5YNN29OK5t9BgPlInzwlCN871RckfD3K8ut1f+u91Vscs51C8idxkUne3rEYFffEy+u/m0+yjEqO330M0CRAHNaEbhVgR8Stps/ebFVSNGkjYZs4PwwecuwC5Ycw4Fb/LGyPzokuIsVdLWo715/kGrZHMXc80heoD7jIBQ9XZxtONO4LzHm//ZDGgv9af99K6mRUN+tm4RArbLVb8kIiARALfu7dgJVsVaHJyQtaKyfl0qaHGbq4G6VNuMNaKsBpZUaIA+V1ZwYNvBIN+ccMPaTn9JeJj8XZ/DfWy/0vdLBFf0BAQD0ZaDKVh8HxmGr0DZr7NpJsrwf1sCW749WoJr5Lvs9nWHNnDsh/kX374eSUQozR6hmlXbOwvd79IkvS2JoMpZFI4Vue3nk/F7/A/VWMGPbwPoifIztWDXRLONA8YihmJdE3VwPng31AxTWKKmHH5zzGhNez4V0Jc97XcyaJUqvubzkuz5VgsTEOVGt3Ktd0iVjn0ScPBNcdxhK8SK8y0idR/lK0akFWFnXN9v3+kX9PXIClOf3bMZpuVczi7s23V7ordBPYFfUrREgNw0LYDXnUt/StMs/sIrwKCpNUsQ6YH+7cofV2riiD4Y1zG2n6Wq+hpUBKyyL2u7cgZS8WVyXl84Z30MioVEJuAFaUjRN3M0YZoIapKdjeWAN7klRXhKCQen39Lz42XSWkQkA+YxqXy/hZ+r8upELQmWJZ2f0VB8GynI/fpZeoFp9uqnuarFGg/5JhDEZKDW8s6Qf+wQTMWjmGZlKzjg0J4aysHfGN6jbKFccDqB7PVDQ+l5/XnEtmY34qglofN5ZLkEZsMuBlyRdYk/Mlzz4PBqhM4nHvWg9Uf6aZBXLwZ0blAF7Wj5euUGqysO0AX2NL+xWd6VcOuS/IXimGmAA/4oV+zcoU0+fNMI2pFFSQx9Sx8P2JGiJiz+lcoSFuz4unYcZy2C3Zrs2prxwmkn4qEnz3cJHf53AmbUfXGn2xDp5314enuf0vUNfXY6UFjA03OwtQOSLzlvn2sMzUWYB6vqiLE+ANyu+DxdNRTw1lSP2oTwAA+96KybLuDvhfJ4KTS/sh+4KcoeSlG0YBeGWdifja4IaoUlEX1427wKIYO0z4EmCU/4Zm2HLntDRIHpzseTKKdhwCnA+/Ymj6CfvP441KdLQgIw2SeqYwZnKwL5nsQW+8LEormj6+6XSQ+g1ovx805KTxLu9SGb/JNowLd51itPoLJ1nDEVg95XPYjeOng+cVCPbwgWiZTpSQHZuxzwASE5lQiY5QbKVtrZnmmRGyOOB+YHcA1V8Um2vgb+rYQPIp4jTcjOQnF7JvbZRvj4yR37IEcR5akZEkEOnZyeuXQyaka0FxzNqMPfGfwhi+QfGYAg8Kb5bFtymHsmIlnWfPL02BreaBvrUXNBcmdntuCAuXNYYMvHqAIXF/FSoMsJy+Z3kZpjOHl7yzpTn2X1PL2asLavCD5pAOYHkXafHPsSfGs2WL/HrmVEMFgoZmZ1Lkrdo0MVhkX550IckfT4RBO+0I2rtYn40yhAV1zUK4ENwfe4GtALf27aEdMiqYi13F9rKiSamTVa+1qtqCqIeBML/uqh/9WJ+9cY2fb5OD8U/WhB7LCqVhTZhkK7thyLZVoI8yjUxQy9zdkuXGu2S4zwIUBDGnpvjMXKAaq5wZz+y9Nf6MmzcyADOlVjLoFkej8Wb//0ArQDUCZWehHKKJCjY21MxTzDpmCK6OtMdFc3bJcBXRDZXAyN8RE5hBJXxdJOZICGewy/ylpgrptdvu4apATTcguV2aeBXlcOtUJX68Fs8THB884KOdRZy3xdQuSLpJ0J9Xhi3wdERD7oLb8gnC59b0LW3K243mcbBrunDPC4Ac3SSle6ymWnxsQzl47ZIvL91UHJrqCWopa4kRLMZOyXWoec7mSrbYOr9aWOP2fwRcJpkBPHS7V7jA7i9GRk6TUgH3/x0uC9XnSzZ5SfQCBRQk69a1PL7qIwOY0tfhzh9pa2CUeVaW7tOXMvZ73LK93kg+qgxP2R2hSB8X63NfzjJh3Mv2jNThu/9nf2oX+N8zJ8BFCsuwmkEylLO9TzuZrGy36CajDsbr/SUb+rxe0lxETAUUhr51EhfPoioBq4Kba6bmnO7fMklo42xWzk1FvTuPqoDniuWHGIZaC+3qaLOwGI3hoY1pKwx+gkHTgcuRxLhwp+8MLqe7gbwiz/0d1LtUJAX+DSK6VWX+VRSnll5fCrciTgHyLIaAXOFWJ/PA3oBn1cVb3b6f23n9gfIR0F03+KS78SP5k5Dygy9Fs6nE0ErbbYXk9Pw0rb8+HulLQNoQu/MFop6ZyLNfa3G8BHBJI3bHHjyrUVhY1gZXxpjoNC7tDKIVjNQ2ekh9jKgaWCPTm5XlAvzTllGm3+Cj7G+wyG+kMfr7vTi4HvmdV3fbZ/OyZn3602FX47Vh9OVEdnkJLhd0qm4gAtA0Y8Sufm8som+ur32SZoT5R2ubRRJg15QSHTrrwlL8pvki4/j88eeIDNVzhFK/2y3z48wo+RfKWPOHPDFB0jOX8fe6pVgUHwkFihdRqgKkmP+wZeeHyNE1jhJ4ciZlV1OPfwI+4/Qxu8szcSP7XzWrOtViNcDD64+9aMtAnDheXshW9/JiTKDquyBFyv0HtF066/qtTBB19RUy5yBDLiwkdZnyXiSThsmSqb2u1ydUmqCF1Pbkuo/boJPBFhnhMyQHbGGyP1A7H92RaZ2f+aWZNpWycrUHXEgvdWZaWFxlG6t4OGgVNpI/WpZ6a8p/P1BID5i4baD4cK9vqerxeG5U+uStwFmkeICyILEuRaf15jjPuCU9b1SQwjQzNP0ChL+bG2NWM1N1IWxTju0ztV+X6atDUw9uGgiqNxPY8phHGQSHgwby7fVVPndo7XaVXm++IW08mbkAYS++USdoVMK2q1q8d9NfEyw7QQDoO+JA682Yj3HJ+DQJPrR0by4kJFifzMeV6eXRANThsc+618x5d2achGWKmWTjixgo8emUQwtpjtpuAGJGLe4ehVw1Ze8Ysw5OeNJLvneufIDEND8HMtTxvik3+77d5lzjEI/pdIMGBNj3Wesvfajz6jaP6eNC4EYxjBmsPbfpOOK78Qz/y8rXDyyAP8UriTE96ixFXvVl74zMPr+6Yva8lvswVHW9cb/5XUY+4YyOk/2VQyhuRbE5cJlJrxGUQceEFvy9+O6QoT9PyQfDKpSNrvvu3Q3IBqfyFLV5sRgIdAdCZQ+OXYF4MQsuVIjGcSlfNNfwmXnwGELdcbj8RUX7VA3knxsScooQEYd01sF20yb7Ftays2ZpMRwqV/FJ3HmoIwFEYfiAW9LRHpvZcdvfci8PTDbJ0RNcn97zmfMbDp2kNiIauInBe9/IhwMns4dvmYin5/ZYtnUacipsqDuPp+CriflQ9jGKB96IOpp07ztVSAZsjDq5bp9Vdho8J7IM84Yguz4D8MddGyAC4SRXub2x4LxfU+ZXoFY6WJ498nCLpcIKoFAR+c6Kk49L9BY3n8z5B5gdKuaSWaMZ918h5Hx3UfD37+jhqw2t/yIxTeIFq7zErYTxiTVw5fgeVBsjgqYyEmYaPd7V4tqyBGHGHp3lItVQJV7MYx2YweYkXO+FqLdHbYg3bA89YsMbuNdYAb0yTPlRrLmLVK3v6USGClr0X18sTo1zrGV416Q+c9rtddgWUkHhLP9Q48i6ttsOWDAlgyQedIika9XVrymW3k1Q+ofzQykkKh8IveSNzhN8LMQXs7brpA8Lg/NDw5jePt79l+EvM11DQtwd18XMPUpomUJ7hJtaZB8yfTNckKwuRh6fzXT+d3YApt77zPpujE6JGpGOse4Z9+qQyqOsTjcyNWDo8oHhcjEmT8CoZHTbxOWzAUjYVcskvB6bnDhpBOgMXzXVh+FLCvRkEChs6uLfJaxukR4i9dLF6fxVAx2kC73QH79UqvJDFBoUBgqRhxOgxnxu+wynKv7x6auXcXLHJ1dUjQzySs+7fHzsleIIocbLP4IKy7J3egiEkoaOQ1XmdihmC7fMoeLMSpftXYQIvZ13a4eUkRTjMwEtMteVKk6NthK0jy8/VOMP6Qq2S+ljf2oBDV0C1I43qhQe7g7x+E1OM1ZhgYvRPbaS1J7ixju6vL9V0HFzCgE0hniPBtr2YEkL7H9YX8qFUAje4VZypdZHp0yr/E7Sj/dQA16k/3x+6vR63mzOefz0RH2BDQJxrOPUQi9tQuraleCRaPEdAKiFASWrYjsVEKF+z5v+lhB44qso6vNS9Tx8VsYO1aDqjD8acfu0jiMwq/3LbK2gomK2qy8ONcS0u+nOHjSDG3Le8y4mr5beAOTOir3ILY1ZG/m3WNCOYQ4YlWPPv+gl9FIwc2KiW/exMUcpvyrTvi4jGh1/lrXllvNQSg159+iidU1zSu2PnAK/jjyBt4oUBkSLapptUpjigmupYfN2t32OrvIPwWV6ahj9M4HojIqg/4wvy2FV9oMqCeyY7jhryiIbT2oXAfgP1akDEYlJHu90nMaUBLXDfVtAlo1qA3TWb1XipxR0/ZEudLBjADlfSact7yAP4NTh4TV3k9ptWXYafm6sv10TyMswGpfj9HNE42PScJWKcsJ37e1zKxoL5FfBpwQAf2X/4zPhiXGiL+BY3PemZvdy+JNtlyj32OJ9fMxrxOD1/gkp4/GeYOsEg5Y/X99byrA0mKMbQFeLQcQutFs3dovaOWGR4qxEGuYFVJe0sybGFL/9K4ZIplcBukD3m4RGmw8OZpku03p/F9fBlchOyUT8fJ8vOp94qwa12WI6InzzMMz6sNf3T9YJYMf8ig/qxe9zTFeWwm1RufAl3ZZVM69HqaJ7JwTZLaAtUvTRoS7Pl1P9Ff+Pscm2Qx5muZM9OSZSzbu10AcffasmLSdYwAk6AU1+/07UPwppV3YtF13dE1z+Ed4sInWNOGBh79S1qw/OsXn/QlFNe4xkk9nKqF7UOgOlgMe3TRy3fLgEhV0Dul5+DI/bCHVgBCFzNXiDKm2EHdYMF1MBaQ84WhzPVCABTl87gIrC82m96YwwPbXbkva7/MEb6myL4F+nqPWuV9VzhyusPiY94VEOEP3Rtnq70GFRgbfCeLKYPz7EzZJNws6/tKKhZzDzfxECu2rMck1ku/wJ/pbx5QAgE+CFqLps/PCMx4ZsLr7L2jAMBQXtgU+8s4n0RyPvGH70M5DSdP4R2FTlHCIZ9aLm9SmujjHrpnjJe17lj84n2vMrRPBk+F5VJu0YO+PV2xv2iOYcXqKTJfsps+j60xrnm+q4FjTMRQv2hM7y5gJdfKDMXa17ayk9pZWT+LGeLkSjjSl+l1uHBQOZ8pAqSMbJ5ZO2iUJgsU3pD/pZUx64zRBdnQY0KcFN19KjVHBpKKA1eHX5XDcmRyZvYNhT3DS1j25y7JtqjehOIe8bmWsc9xkO2OJ4jrqxVeTYqxVQMNmpL0S5pWWY2oTVcTr/no3p9jxVQiVUmLdgeiDOity1qabsV8ATPCzyIeBK0QpE0bnesZgUYVOVYVbusHIAv8REQB7eXYh5GMwVGxh4lXh1nOFXjyt6y+Yi2s395N0ucu+nOt5pQftWu78tuVXXSl8uteg5NKH9vpkW0jWBbb5rDbB61vzktzOV0een/ondjBNt8Jjs09JG5uYkdylttNBdnoi83daGAVEKPhTzEBoQ9fAl2yDkWGNUZQ5NrP4D86iPyfP+4j1u8B9SGsGCTfcTWXV7d90gtKBbtsu+fgAjC7Nv1A2Y9CUw8s6Odb2b+2MnP8rvbSfhiFqJ5LhE9HNayL+VitJJdNedfm5NSopaQot3fWyA/0a1twowfCyFMV+I521GbDp3bOOCD1mNqIpeuVDf+JCBde3ln/GDy+jvvcx2g+zZR9EzpI5wYOa1/7/wpN8r9Ftc18GLR6//asJB9gReZHeAeODoMeY0F2btVxJNBa4tU6a3OJeUOelIY0elidw1Tetii1NQbVGqWtzW+1jwG8AV8KT+Mz8NaNsTRBtb5lyFI+XT6d0A9cU4poteWv7POyb9uXb2CzB2E3wYAaLGK12yhb3VvN1QDBId1vNT0QHA0vswdIR5NSoPd5cVy923b8efamQu+moiOUWlhePC2xV6SQqUMRxOKHY5EYK/1KYp+B+4NyaD4njG2Ik2oDJrR8irpUrcLB1/Z64x9wWig4EdiZwId8SpjIkQNNOI4I5qHJ0QPYiRAPPEeaFRaRGn+Jb3D5fcbYkl2u36s89z3eU5hRHt83gXm4heAB2dN5Ii1s8i5d7LMrk1FTyXZ2RG8lgzQ1/dx71wTLE2HGs382pk+psU0zau09/OJOSbzDq1c+NzrIajOmWBwcDzJHPdbL5m9GSlMNTscva3sBWOtg97jRRom+4mab3anU8p9tbEo75WL/UBlOo74eseTvJzLkMJmYwWOTMIKBDhees7Tk0feRP5jtzsMFZTdTWblBszxeDGQ4sI8PgJ8pWIYwtUKZuJN08cQ/yvguFw0ly4zLNCCtothX2WDuyh64jE+OvMMrvC3vlkB013MZH99xbDILO5Ng9Y/PGVVw8rGHC7NI6KNNgCfVAwSyVzIqleyOVEEBnFK2EOdq/+R4zHLhJ64kbN4iMP1OIQh10M5oYR8bVzhBmx7k9KamBPpQcgz27KVoAIn9empNSnsEBCRY0qVX2QI0wMz87m9G35mWv34DoaYvlyDn54pGR89wQZ/r6G1VKArY2fH6McWOMALDVI0E4xO+efNU8l+woqcoaBBzxDmc39MDuhPxdFscc5x1PYroZHvmeFvbErummfRi0OfX9Rsk4NqhGioj4Q1PT6KV6VnYr7QfD3DB6jVfvM1g5hfEpeWCuKDIvpXmZI8w+AqHuum8NlzRvMHY+dH+5caP9HjWbBjQI6PTUbvfn81dirttYaNJW9kYU318VpB78N9olhPlVEf8E50Za1rjTPS2n0FoiIZzJbDvHPMCaxUBm3a/Nx0t3/HW/qG34yvulsqUYsNY8cLVvDuuU3mX8fv+5kiIKD01+zz0CQRL15usw7MTGNddEUQSYJraaWA3lknppVYjqrn17SB3vVMzB4peIC2bcb+ziy8TT514rGeOKDdl2VQ95y8hrVtYmDqnf37XLw02qif5nAoLZHRU2S+AoFDbj1CM/HMcw6flyuq+oexhBXjICkl4cGX7Jj8TkqMvkX/D+IbwEAbTxlYd8mx5E3oCD+ZfLkKtsNYh7aDMvddTgIzTPZDa7Sc0bFDTWWzEOIsgrb0M5dwN+h7Q/eDktLJjrJzg1NvBGzzDOE3t93NFpsN+8wE9ugqVGmmx3s61ZRmcpRnt1BtrdlBaUGYS9of9fyuCw9Ear5G9hWQjVmk2HGFHWYTLqNU08vcF/s9OP9iayWfNCugkV+Wj7nvviYdoCfr4Yp9q4jjpUOWmUVAH8QKv8Qdc9w69cAuTg0JMIzJrTzbSDEeuDdkS8XlawjNjReGYmpQkLNYM01PtCd2rJW362PcA/h33kaddq7f0ACwf4UQDLz6OufQvFD0nKOUsCdnT5bCTnV2jvEGgUk6qVvHXFrx3UxXMfADVRzpicJL40cpCENCym9tbA1vxdIhLk//qdgMZSeRJgawUOEZDit11WiH7UB10zYUIyzlM+PaVXkj8ApY1C9dUU/DFzufm1rukZpL2atJsUx27VaLCx/C3tPhhbNr9+JCtN7Aug7UKGtJbHZ3zadkoAiCAzZwxeMYwGfCCSqytM9IWVDw2tsNFR+2J9Ejne+GKj19UjQw3gaOtO7Y6C5Hu5koO/cT740oZ/hY83s/Jd/glPZquRi4eiFclS80LI6yZSCQZArHmc7rjA1TyeTmMVEn2Z7IRGzL9jrF0HekHQoCOMa7ywHM7NdQ1F/mz1f2zJahTfzUda2T6eQ7DpPePuJUf4CRpGihDfQPeQPvRHG0+OIUXqAq+tUiV7SoBMS769huFLoSYfmEtNYusUGgLSBrACiS4THzLTR4Zay7vDa4K6At7idPRonw1WH0mJZaX90XOKykfVmQKSjlTzkLmnkCSb/hc6Q8hlG8L0NtyTbbhYmVrBUjhJz3C7dlbqNpu7w4G026JayLixT8jikJ83+2BhR5zJGWg0Dpb/iTqD8wMP2x8aQVsK9WY8k0EQHtYIhHOnyRDbYVPsQbmfVNJjNIaVb9qixKh2LRnd4WkUOcUVmVPqulNpPKpWLtkbZhQGROXOyiIWJ013teXreyqxqsLUwbWGdyAD8G5P7g0KEX/bX+xu+d+/OMHf8uwPE8XpUkMB9CtWnuUgIYyp0nDOQ2Gr7ghUjIF6wNYoxGGMrBUriTc6TB/+KDkfO+2W4mJ5DVwnx+txvHt1MaSTJnF+gQZiNtk6V/CJXqTgAICYusA4HxkvEZFKzUA995JeWBULcT7rnHWB8F+dDlaww18rRSPq0UmUUXzxvkxeOoCu3tbgCuoVuMM/Dzri2xmNEEFuWxi8RVXvbwM1852YHekAL+dhk9DnhCQJRIX/hFsZr4Ho8uJe0DELxstXXHPtQhwXNPj37QswkxCrgB7w4LNWc3Iwqk/sYvHqE3mABDOLZkOduM3w2BSBurea4tNh6ym3WrLNyHttd+zMAzybUG+gc73ZpDBpr5SdxJZfWYKUG7l/72QIU1sPBNRLIDl6Rw0HLanlpUcTnoghcIJ7GYL8Zb7Am+RU2wnWEsvUILZNWtiUXCZHPb1JnimAifHwqSOL/1i+p7M+9tsV+3rDLbgFPHFkbrWLtK6z0Tbjbq76uKmN+n92ZDZR8ePus+ldJkf6+erPJjXiDZ0V+8xlz2x0061Z85SlAl3bvOdFnO+LeLpSoxqHNv89tzkDNTbufoAbaq+ejUd+0iIQT3js9eqmTPGp8+XpodJ8y5nPygwlpuRCPBD70IyL+tDlm7zBzqKSqBbijZQdABZLMDLBAZkO9FnCOzlZVXuSlAD/MEiGTdxz2vaNY+oIzVCmcpN/l495gkR7cRJX9uJT6FflzaU4ilmSbhDyC4fMfF1bRC+9M9NoZaPAyZFmoOK4HlJEsD5C20UANXhxU0SAI91QPZIoCOZIsMetVeC7RQlDDiI4/20gn6ISLsmggAYMgLNkfojzNu5P4c7h4F9vZJhlt885AVT7RVgqJaN8JKHnUeJhn1xzGYVYpdDtcVs3Z+3VWBHlkwh9H8H+m+gdaQe5e9lj7g/7velXTGC6jo1dFnPWwOsigpNFO+agk/25s9LKSj5zRWH8GwXdZm3CXsrUegfIlSbjkWsanOybVm1hrfcbtMGgG6aGlKl+JdiPvidG9QIFK3ThKl8R4UQY67H0R+GhYxlm/fTiyDzIEpvTYWXAmHquN/gqszqMcKIRMiHVb8G5J59pkbkAknzUZAXNI+rnp78s0yWeLxErHh88LK7v/lj9mY2BwVMZzWwf//fI7yIok4gjoSXcqqS6onvWNsvSiWSh+cVT3fD/F/eV8ic2tDxK34DmDAXxSC4wDHpQpbBktNH0x0fROUERHYijbSoA3Ze3Kew5ws+WhEDQ2gBqKZRZOacOL0weIQkFlSGNyfsvqVjv5MWt6oFWjZMGpqWUQW3pCUtYqR0xRvmGjZGzsr3E/wIW2i7tUKU3HKEJgvKKBK5X8+Q+MjvI8z/Os4vW6SjfuGi5IfjcEPz7axZCAMtRuVP89p5ODOSLcgjc3r3jpHnheswrfO9+PF+P85aH8P2l/D1DHyMqFeP6Q6leFfBqVpWlPGtcVjMw6Dij3qkizs6zOrDZwjnWNLQdTpKq7zPzpuizURU8Nr8+jldrY5dfx0oQ3FOhWBEOHYP85Jjt0qMyPtRSlFCqBiLD66c+j+XTPkAVcyXcqEmKdOxEbE/PYbhzsJQuvEayzqRogS5qE6XooUme/32DRyWa/+yrnLYdjoVMhIDRDRD4CRjSbDEpoyezc8V7M0tuPyroYceW4nAGcuPZofF4+ifGZl9pQntzjwWOrMqqnJtcjDBZ72FexYSUPzfszpBFsgfq+N/kC0X/aAU1Qc9SEx4InGcL5QoJ9M8YUhcgo/BMIzEfGSb472trZygt19l8/oXWkdA1HassFb9gZyAzIfXAkUw+jF2G1RRdE6hTrj3xmVesX4sziswZNv7nBr76Hy+v1/g7QBToCYbsNybksm8YNpF++I3OZ+sQkjLmj45d7ij+wEYH/rf12+l6F7TJUAbEHpppNl0SEfm90rh9LyFbTZ2wjR6UCwkaN1Upcl5/IdnbNUn/s8QbDgmmsYe+UK17aViq3KWUv6SRpmDWnL0CFdXjmu9SliLpXcKxgrTzYjcdekgo3k9finuZybkictac3VuJg/CxacDOSDuE8XKwq5mXl3ODNimTju/Q3N3DaUmT63gN70sLym+zXiF5tAKDxraS1PwbSC1W4buP5HAqcpIvmtMUn4YLTDbhxpHof40GBUhZPcOY0oBmf6M8ELj4Vpu8yJ6jBVVG8D8khknAIY7Iuf/nF6eowlsiHsdfxZbnpuTordGBbxckViBVvhS74JvdDB245D0kuS9uZx4T//8zMD2NE5RaOs8REm6qd3o9nQLPJSFSKjrSQkQfGh+7liznvk97QnHwW0/6sRXflPY3NOHdeznHBdg/IGikndywSxWw78qWsq202Veg0T71dCBRfrS/IDxUDdL8B0k0OfdGDJKgc1Esy5KCndXJtDjzm0BsDCVhOSp71mqs3O6Av2hnLj+CJq2YhGqejTggyU+zT6RRERtIg35Jd9a/bGliIV5iM3fkqkOszvY8PaIbkm6ZmRG01ldd0K/IubDthVJFI3FIOMNwi3eP8Vpv7/57L6viw6j8SHhjmwQoEEH/PVMRr+PC1HTqjM4Ph5ZSuX5Qx39cSYpuy4cmkHvj8pUTbdUcj6iqs6oe9eRYHGdhUuKOZrOyyn5PFw5y2TXcfmgqdGSO4dfTIpuhLr/TuuoyrdafzvlI/mDtldXGb2t+bf7sHQWoZ5XVPTjyWcZADhn4zqZHxtwvrw2/xR3r0JBNrV8a+zyNRWsXbzUum7vlDDKuw1j0CYnOvOYia4Iv0RoTOYI5jT25IeOPG7ISejnx6DKhwbpUu+PZ2uV3M66nxHfbVzsON64Y9Auzkh9hMONzr5Qex64aBuQsx9OEsShiKIBhGyUZg2TpAuAj2qn1Pnto9uZHgDcf9qk25b4QCLyfNpf0AA5hmLP0y0zNGZZRSLFImCs4iQsPSXFKABD6WKFjE8PhbgkntWxbg9tvWYhyVcDP39oVd2zlPXwkBqfO9gA5EPXhQucPowmpjNRe/r/K+pHxraifF4QaVwQTceibH48wDEYNzy6juw0IZoZGoUTKL2wJR4EmLjlkb65z2MEo40EC1WYknNW3mAvHsmtr25rEuWKEkiw5VnJC6FJ1zOsJZZy5Ew5K4UjkiR3zVk8FztEtsuXb7//yUXCFLNim8b2lPaYPh2tEAxgQJAOuczW9QmO65K1/Qmie7Xj3gTuuQLlriHLMmJVLcMOCOG5TWVlJYnTgBWAD629sklHVuiTaT7sn7f12JNRJv7K8gnWuu4g9INxPoJ8jb/YN5sY4Kh6w2kjAor/c5KzoHNTB0JxXPleDlWQ0eQ31dXA8kvPnbLcsXJCQwN2DQZB7fP2h6xzPAZ78un9EOPLIfsKY9I9kskCrp8tqrByajHFCXVBfwZrAaarMEavwVz/UF+MWx8KpT1ZbxPJ7a4K7H+G8aAw2Ue4g/ZG6YgpTBZZ4X1W8//n8V4QxHamr5kOfc59VM3DMMavaXRXBssvHAxO0/qhr+rx1g3RNHEcwzGjyjEwysBMVEyUTKZEUi8fO89muKqOAO896CzIOTFwc09r0dBJXcT3K0HMJFPakkuBmPZr6XmtZMhKnB6E6ZuqzVmE4lIxXtsoeeZz+mcuZw9E47r/VI+jMAhSAdmmsyInXUEZxpt5VfC9QDxEjTFil9ZMT9+7NwRQbgGDcC5SyL0iCZYBpDUvXMguV6uIESLHx/C76T7uOl3BIXGsTV0cs8SfYRlsIm0NhqSR/0O6i5OXGJGhxBkbVtEgD2dl8iTdpqWRHzpJ4UpW5RUbJVKAbMgAlc2V2HEJkYImzxyemJzoathm3b5JWiGmNtT+GWbLIgqLAJP2rqUxiIvPSa9ZhX7KiQYH/Uks9u0/+1O6ysJicCc5qsxMrJzNuH3+GtkIKyf7/oojXiGcr45e7fjZFY4TKhykQFny4+zg/Bt0DEeyqFRqXvnf2FpCJJbLjyXmQYDShAHU0vKs+q5H94NgQt+aFrQHa7+qBDeUPhQzHKA/mhYIdy4kC5CVnTqqNYmhIIwvBOJhIp5EOBGlbomsIHMM/3enz2ToxDAGXnY1HXhnuxJ37fJJ8YlRyBblHa1P4Hv++K1CU1w1afyCxhHNPPEG7EhQOJ5kwReMtrakO09Sc4B6u8mPmUsEP/RGbIxrp52+titDIKK8/7K4/PO+x+ABGVcdXCN5VKbM8GmMxDImN28uI5AlEY+9ylKFHMLD+UAIbtLK8GsZiF2Iuwv4e+x/Pizqx7arzQqTOqRj9OplhzcEf2exB8vsxHa+FCRUEna+LS1c0RPkZ9M7oV2y91SraTTXdzq/G+UU2Y4h0fqUaoOv0DrWTSRPomYUiKNw1tNAcow4VfSRKlwQe0SgnAgdBGiX36sevTIskUMLVhpkyDhPQDc0YZwVZkyGE5B1kJJL53qt25cAS1MZDjoBkwBNiP0NIkYZb41e37hM+vXBI1RB6Avry/Z8g44/FR07a5RaUBVpcE6Ud9bMsv5onb2pGzQ8jjItFdmIecVbC4y4nikD/LIuLMonavRUj5UfJ+VGLxT/XHacYGTJDQjW4VysiRUqD5xAIh/DFV8Qs7U44RvsFeYYIAiKL9UyrPukDl48wR5ON1yHdLkRCJrTDd5LX+K4ahDvf4cJd8ppB72tAwN0bAsHu5zTfA0CobhfwoGXZkRPrxQobs/dnm0mkXPCIGiU02ZeHQn8lnOOTmtQDe8/2ks/mqiMy8BghLppd/lkCjzn67EKQ3hboQLfR+H0pYHfYJB2GqaIUyjoAsbv99iR7DxbKuEFzOaZSxm+VU2OTdT5m3oVqpOkIgyQ4TkkJ3E8TtLYZNzbRz8A0NsUBf1mtgIsE1kTfs73l4UlPZGwodIgBUiLmxsG8G3VXA6P7UVDvYelJSxvM477Bx77+zD/77Addo9Jt8nMoXQvUs9vDIBhB66MBuhUNfxEB0wVGVFtrBwcKNW22LggSzYaIU49YKYqxXubpTR+GvCy/UH6U+CIKZncJPgpUTVz+3miXm2ygZvrmGUGuZGlEtK1LT+5PofLsFoGOkLCqDbvGP3k5qGfbsgvi29AXCeyq3FiBtVH7tHgmWGc6SeMgz6QhlQUX2CSFS4wTm2RvY3gDEsGJGCKix63Bv9z7MyIDf9PsXoqNwX990N9Ds7vynoCRIarB6umyzrzHQYFPuopZZeWXb8uJf0Su/CjuDic+gfhkLXimgjc1Z9mJ63RGk1e3BXFcdXZr8I+CAzpC1a1u3eyLB/AJ1L9dGS+oVug2c7/3YB3g0D1Cn4w5s5QQLyl7GmINaXtDT/Tbz1AQ8Fh+cgGTCNVSu9r6IJmP0v/mR7vZD36BTMI/02y42sH1bN7ZfLDju+GawU+tNQ25iFNeDh06y+W3zyXCrjzJTdMV8t8a6QML6MsApONHPzvZQcpWSspASnSo8XiIn2BSNJNfPmwFjMf4K7k4usKFpa2r5nmMQoHRpRexz7lRvw7PZ8QvOpe3nxwRkBOJb9u7IfIwBZaKQX/EvBnChGE/Sbw6HfojLaQBP7SeFFKTj71HhUnl6jigP5k/VgAMGp6hk3b/rnIV+y+Ug3byrDxjAB0PAAf65bSMhfkt1rZOO56Ol5kCkc/d64h07Xpz0+1cUOreXziZJJJTWaWj6MwuV5v5EOC5HfK64Wsc0KRSeMDSY1JMg3TDNahMvg9iO5DTZ2qCwnzYdeyomeODnaegxkdLawpoS9TmYuMvkM1fAecK/O2pMC+h7tVxHQiib34FAPQmCCqiQqNRLJxiuVwBKpVI4tqGuxQ3/ul2s/ot3m5T4CFfz2bpwpHXsVZALhuPGgQopcmIGB511kfa7dt/csk+dBq/qo7DZ66JCxN7vc3nsyD7txvgl74JgkmB8vwmuxTzP236OCnhXD0a9UIdnHs0CK9DjbV/D1f61p0Yp5DPfLPJwwOqGjEUk1o/5uKBtvx8pJn1R4t/UrzvK3z/ngC2dzFwmkrs4JdpjnVHAQrfJjmBzgaMxUH3x8ZL945U860tuw+Ftl4R8omtbYzBVYtm1UHZiB4uMNE0SBAj5CVrmRf4GAO7j7TfdhioSAm3CbrqjuE5vz7ylQTnijq4Nyc1qGB18Ry/Kk1rI62AfvVyILccDW5mAa596IKOze7WAv29XXikijKTtyIYm/7gDwDJvGj4ZbwEObxB/gRjYTju7ap8nb0cdDZhpcnLl/DUEHmyddMn68Erw1Fx9wHFej4UkdzhpHTTYOukT0ds5DfkZpjQ4Tw6afs5X0p4xe+Jj4nQLasUn3ur8p9MBRRXr5mKFgmzJk312dGPBUPdL/j1xh/yPGt3sT3JWP+BMM6cbXX337P2UZK4nSWAd8oACqGIXuy6PdJMrKpaVRJsSVOWLETDn1xw/YMfX7s5K1JdQoMeFmd9nH4DxkypSHMpkExI4o/eXJII9p/8pIvLA7MabMGE8tjbQSGhdxne75BwVfR7tiJqA9lh8H4Gy2sqid5SoF263/htaUrdu2XO/6MOyj48JTKAFq/C50B6qLnJ5m1LKNkYSwv06fVpdeZ33nIPc7TwEdqgepX6Rbyzp7NswW3h9AzeCNwl/dNlcSlVwM56gs85mpKW3mJgi7v70R4Ne3lZ/RSjVZWKO2vNiT9Q8SzHgw850TIBCmiIQL4jC/Wj1pXkW+sIVK5jw3OVuPBIUNt1lehelkXgXUZvL7f8e0rzMmyj6PuOJOyOjwUtBC5pz15o1Ee94WhJBDBvuuy+hrowRd58zxV+7ELsymQCj7zJ84VbfnyC9uTBpl6r1FuZzxXXrhnTMDwkge52pWZ0kHPKQ8ElQ51H7kly0oaPhU7iFpxngS1WOrR+Zry5CuWVTYRpAHuLbk1DdjRwGuHM2kQ7+tOymc/v2KfojrgREycdKi4JWR7bOPQNGHgqyo0bT6Gev1VJyd/oNVWkwDem8dPAoHKLMHnpvQMLEWRjsYcpoCQknGQoo0DBNBVgWnzm4LkAWw6eJsbhP66apI7bxWPB4X0D9LOuKxirsmyzGQY5PVbDr1Lx9d4LWRXrk8hf8idW04k5ElMba5Ebi3/nH+gx1PZAJgv/5pkmRj+2r8g4dHth25iub8pFLKmPqBPrd9kllz1yLUpVbjjl4nynipECacShJTrUWxr0J+lIDKXVOxU/M2SYFXxKL0L8mI+PYavcQM3jZZPL2Sg7QPngc8ZfkzdpE5Bpk8b5JnC3PAKrNw3ljJPYwzv893BBrsL8Pug77vbxQ1zUzuLpcUWtcePAAq4UbR2mH+SAXKEKSF/BbZ9RdOWviKKpyDA9fijEXTUKJeJxSUAbsz2rnrSW9HCpC0/SB1tw9dRbMyCNywk17Z3qQ4E/wNS0pEQ0L9Tf2i7pi9TOSy3qT7ngUadMwNgaLna5CY2U/SlBsvFoyOpUiJVQhaYyXNOyr0+jKgOc1+yXxMnEmR/dqs3WH89oWiEv/zr231A9SPd/74LtdxErb89RCxcOxoN4KZGK/XpT++ptG/4UjXBvSDTPT77SlA/Av8t61pIVILcrzYjeASt6dRkpxWjNyBaG1eWkv5qvZdgI63XAKAkCSxPj/R8e1J2pitIAKGekUU5Gz1YW+aZp+dLn+DtluBBAqlxnl07F7XI3qlKutU3yUE170dtIon9nmcZnDexoGX9oADhJtYn31rPz7vkaR3E70ilEfTz4Hr/u/JFBcKk41MDXLuP2SV83VeqrUo9v21XTMus+aWQRICqcEFFus++rq0t+YLIjc425cUR6kejuUcavEEftjUjpihKbn3Z9ovWv7I9SztiP4q7gI9Pg1M5CcUbUxd97Af16HpST9pnjw81/lVyWX5ZYf2RmfG6yC46P6zRDVktr2vXoQN73zSCnLLOOmroyrApaM/7ms/Px7HPwA8Tu52Oc697AIPw+ATpInPcB7i1Vv/p+QPbuHJ2vLSsKFwtT8lPRgHcF+OE/WmgGf5d9Dr4qJ8JwGh9uo4M0M1QtjFqp0vIICDgHGknZF9GZh8kkK6Hz9RSZQtnddhxP99WD/uF/uVh8vjmHpoCdK76tSb134zag2cXGpEa1zvL9yzClwEzuOsZZTOHQMAXR/ruMBARfbooQSIvX8wpQYa6cRqGHu955z0fTXADQTIHwVgDAVkvy9d9ef0lLj+4M4kK6AXRqLL9xJJWntcyXycxgTCKU99oTCGHCrzX0uRPGuOf+ll94x1JlDm+c17vgEs4kQNo+4HT9UXLqN7vqbItv1ewPhgmIkpVxGBWFQzINQzXQliZvKEfbS97at+U5WWTk8o4er4mz+HTnMSVrTjZKhxtVUWI72wS8z5qa7oi8EOqteO+OmKdIYF92TNzvJAa78WjMYSYx2q7skBoAVrZDvqjIbYdLAcNcQy+XrmmirEx6BSR9t6g1kDqJ74VY6qVx2+6sJ+4NE8D5xTAyxZpbTVIxz7ZDKLwHT1jZhn+zn2kfaZkhHJT9crtWJTbAknU8aOc7u9ndICYghQUZeWcUzSuH6EJjpgNgpON0hBghOEqde48ghcG0WD+Den/KaG2QBVBEsGc71Oa5gZke+o7NbcjFyedqLdvYY02X+atqnv+drvmqTyQSzyk30qaUvYpS4UHbT9dZ4IdxDLwhANzRU5ymwZ5fLUiThQ5MN6eiu3Te1GKoDaXBJW1pjS0GvKoHNd689O4pbDzAc5CnDdTm1fzbn5sQhBqHavbay3yal3VBzjX74cjuUY9t2viEQalrM6zH8pwXImy12YZPpQaJLDiid3BwSj8ohDlBdQnrj6z0hDyvZvHvYzC6fseC+DVVP0aqcNI3uG1YZbYPvi0sd19rnpqBWQvGIeNec8J6ahP7irxWmo2KhYG8Cw1v0VKeNiTyRc/1ngWBEKNRdDiCto2itfe9Y88xqf7BOCo6IFEf17vVRy/Ra17oOGO++k+8KWYxken3rf4LMyRinxA+9VDTS9rqIlf6tbCfL+Ja+d5QvroL03wb6wMFImucLMFkJ51N+5K9+1PwEJun72m+bOEydOIHC8rcJGE/FFqOMlOVHldd6ZpkCLMw4+fKeeZpAwcaQyj9OdZvEHwXUQFTvDXFq+tUVbKb5u8b04w2J3GS750LNhq9bhe798kUXY0ZJ+DCbOpmM3Llv+G6r5QqGIz0YjFj2r/IDn8NR+rJo/+fgqn+Co4+KmKqLXoJRWGMMJpMkHLpmT0fjD4YegWrdNG6yvmzac2Ugydi40qwZnC9tMEiiMUIQgtwaQdUZJeKPrMVCOVOww6rRIfQfBWQeDtN+/CJgEQLFDoF2WoD5ePylpb/DH6J4x7JwS1ODSo8jdAYqEMKmhe7qGhsdY+AAL4JtC3FEcWd5o18/Dl5DjyV3aVPJEvUs1Ypn38LDP0sbOwGo68pRIgf/wjJz92sLq8iYsfkMSCmxQL0l+k0wtEHNf4JAXwV6bekQcyh4az1npYbkyZIKZOpVOIJ408tUXYe/ZDYP2OT/HY7ejo+BbvV7Dh4RXnlgpes1gkTbeDslIMkpa7B8yzzk+o+/XX31pGh20H+Wvm1CS4Jhf9ZGGHEARpeK29rmURoDt1cbSHF050NWxXPuxRaQ9z4YCprDRYiCZItF9apQbUwUDszfXzldWLyk2SJumTF3MYLLNEnY1CL8HUKMH2HWsDBWmcBun4E9kSIX75C7wREHJ3PHgHHqQF7CRxFNpO5uKYTtw18wsDsQJp93LzEp41koF73gMA/U0cC231ntRN06HcH8PJ7FY1YMQgrs+OLL5PMpVlZ3W/QQsJ7Zs0RJXia5dLSn7CEYdcaAr+gq+0+4r6UevEv386/QHjh9AdVIVacC/atCYUloJZEF+jmF+SBBeAV2vgnTNMDzYzam3nN5qJ7pvazZ2/gEPwkDnbmKJ7SKtt/UGUgKsolAIycFn4RoYt+JOlbi0mH137QOfzq8kzpCAkI1rf1rSc3VMIUN7uxUE1OqccZCpwg2MF03QYkpWT6ZGUQI937Nbb6/+5CvFvnBKhlgTrSUUkSbb3ehs9bVXW92dUIhuJUvaE7jdbCnIocTN5ey15iSh6fxEMBMDH5XEwwAOF6M/NxE0GBPMcBNa8PMvbHF8NhLPtbBIQBX7UQ0bUxnyq3fssoSKwBQhXPoiY7dFFIXsWLeeSmUz5VZZkzkMRXyOc8qep0Jtj8eQnVguPhJPaKf9n4bOvCX9/wUY+FxQHaLfDI2icntvzkaRv3wGMXjcBKVl/Ben63nF2joqDy5o4kImqXKw9lIgjdsGFavqq/hQ6v2VOosW94eQyANwV9IhWDyh7WBRqnqTlNpjRdWWvq0Fu/8nR5hSETt30l7xvWf0CtPdbSZF28jPYsZjwxqED2X1Dve8nLcaAGwIza0fD8SycaipKlSeLKvhfigyYyAfDsqi7IeNbZNPrpo1KnADwVMftJVeP9yEz6rxylmcRRVaQNmOTVc++iPU80eAdA/5JPITWDReuk2Qb052bUjt1KOOXRj7o/ppmUpZwHCXj6bNDW62PZBt78S6COBvITrAOjLVYzhTyaL0T++APkstsQsgf/XdxhyWlfvlkfbAyr44hPQKeyDVG2dEiG+zFGuuK9j1BW0rt+sWxSYrDKdAHCxAFzekdvYTxhWNDw0PGFeKx0w3NnoxMiXcYyiV41z6B+SptiXSVw8jL8ND49kJModLZAMAYckFuSdXnIxFY7LHrdeWu7eZ94lGgQvTUd8TfZiYEqNRGdlgGfO881prhHD8nd6LZLIXT1EuI+k6G+Fga+P770Y2nEajZC9EZgLCUEkZwNsgqLy09+BJLs9r14uhRU4627fEsLXmPStYhLqPhza+X/G3TIluw14TSd2Q+ODyF/ZbebrjpBF2d7bo8XafD32PCQO4D/39FDHtC1c/x+o1m2I32Vmy37w5Q9v9pqMB5ntd6nuAdgihfoicZvg1mArJyob//kUkA8+RCPgg+GfW4IWAS0RaO4H2CwOuM+9uOUgC8AuJVpm+YU0XaoiCGFzDtrA1dWmOFpOZ4IXrgl5wBJUuzgFP+masU6bzAUn8b8vGtvCEQvvMLbRhtZ9Niv/AtmQvnPFE/yhppnc+t8BRc6pOJzheGVlIhvHhvHh37QesCy7fBH7pgLtfdAuiqFXDAK8YzCfVrNoainQPwYDA8l9hyV2vzYn0vBdhiKPVlo6Baq5KOWLnkCxvfqWQo0lSHSVy1ya4tKlL7kgWodPRm1vUsXOdnqXbjDk5QMQkcdXdJcxkNlEIfggWMmT6wCmsoHWf9xxbY3wbVIY32+kkdjCJKZMThnO9q1FesSTEe96NWQr8Ma8wieYbH22bOf5olM6wwoMtlmzLdRifS/NBawjIj66zvPtf2DS7TZNlIulAGptd6x0xR8jXG0heMnONFQunMF9LB0OT+T2q7Tdv245XkDtvfSf6gWYHDk9belPPNRQffdKTDlpCi0XqKAwxfzQ5Hbz9d2e3wqTOUXHUHsG3xbO7SrP7lLp6qKkJUsiDleX+00QJp7B+elblYR2yvbfEZRKvuUTL+yorRp+pU+DGqBmpuWi8qEOvmgcQGx9CioPqoiOAqLlHSfwasDX5v7cy1/JvqGTjVuAwsfbEzr95+jsJbXMtdnKuEmhmyHM+vyT72UykX30AgTfgjB43G1SYXdT1sUuGJHgjhmeGLqDMCKx1Blw4j8Mj4vw9gPlOy1BQj3125UJAtmwq3vrGeSQtsYZiLTVjyw+IwJEqV+BE+yeA3R+oBexRlwmpkYLX7NBr5zGiO4fXsNMmBNAHraFv50c8qq4es5NF7/VJaSkLjsXYWr2ISi7aE+/JJC6UAUL3whubog26RcWSgKrABuBLQKCQ70emCyaSl9yaylC46meZYOaPnjJjXvqxoMHVCeIHM5ONFHSbawyV0gttIqiDY1P+36VnMtQTFq74oJbSp8RbN6fXhknTiYV5BfCBpGw7PoiRHEPtmT/mSTA+CYgn+3vqOQFAPTvKI22NbyAEruS/cMbNqfVF2W3/Eqw/EByeoIOCXTjkgYytadDSPr3Tc7LeuogUSxkIqpP3jsPsaQYk7V4qcRibfHWZLO6mDeG3c+09B2Hqs3TX4YQUr/MiEy9NBCJOwVt3w4HC9heOP78u+4hc5NpBCSGU/wqfhHbAf113hyz3X2zJUKMzZH4mdi3uB6LwvYJSRJGB82XDoc0Tz5EHPaxIwv8L6DcwRKjRD7X1e3+Vx4ggVDXBBlMzpg7AiiE76PVO+6s/l28r/KjpvnQe1JQq/y20pyKk4BbbJOQfpFuScM9J598OP5MaFsccza31LwN6ZH/OxHe3NITcz9jMNRqnJFGz23RIt1xb51x5L7SONdqey2ocHLnAHgh+7sHjW7VxMCK0E7Bul5nqangoEQy2ovAK3UqiB0PzWwKWMWrAilz/POP0jQO4gpU/Ex7/k1/fs26952bFrcGm0tetW/rKnVs2vfcB3mflsj2wtyWmBxWHEj62vtRLg2S+WqVLm7Bm27i/8Ab4uQghKqVRehwWw/6IbHm6nc0I/rHknqFLAwjxgqcDH9t6cFzIn2zhm86EK2MUWfGmeOqrV3qhuKm174yum/TU9Dd47FWtiXbLf5KXK4OdJ7BrOWWKa24kgta9js2qooG+q3kvjoyqIIV6482WSm+zSJkHRc+lcm/gKq8IGLIN/S/tcm6tU5uxThc1xuY4MK1QzUtfhevDnTARPibmVwZ5txZ5CeHDRJqddyRBbHyHjRjx0RVx7g4RuDj5Uqc2zvUkQycVuQXwuBbSvrz9yG1NJx5dy+26MdJN18Pc8i/hpxUrJ6/SUKiAlkRQpDrA4kQLE1jd/0dPzZgLdMPAJLmDbJ9Jf4CpYrUsOCKRUdHAZwjCMy0Eda3oWOAwq8BWgDeQ8Hu1AhdyTIAP7AzyS9wWDgLwXBTjcHj7qO7JaukUYbcup8RLuCOvw5ieDRXc0sjHt0DtA+7tfLpGBefIKx6NavyiThDqeu91sG73Mj14IRzBqymUsrmhJWiHIbM871/t27gwxt26UuE7KwY9j4RPkxlkkwVMQvEhE5BZuY1bqhTeyLNeHrgN/Enr98wZ7bhQx7TepokzOnaZFsg9OVZ0h572m2VDVI1n2fL5V40dL4tzruwsWgGxgh+8vXoCt7tig8YGeD4cqTuQ2zvh11FwFv6J6Jm3HVUw3CM9NYARv8jrPWhc+kLrxNe+EJziqt8m4aEfx2KZv9LNxnuXroM4K4LnCz/sm8+aibqyZ0lKHdhWPizCQe9st82+xTmwMuFhZAjkgXgYPEr5mUNgbdWeIwBlzfHJFiQC3QlrlFis/so6RR3zEh2T2quGXnYZ/OsOBUAIeHKLbUbNptBgQX2Xe4Uxf8ISfSxapK5zZAVXBGG9S7SXA+lgJ7hXZRDF44gvUyCLwQusIa5jf6G/XTNXbi+VAw2qkMiT67BHRyNoh5+tu8SGl6llYnwwhpZ/uE5YTe2G2dpqeF7FiZxzkiW1mgxnJF5V/ozXVDs3a8xgNO1ksbj/TAZigZguvP4x1vlOW7S4HVhE0PO5sWhwP1x9/5Nug27xCKGlsHrDItzx2M1i9n1xa9ARrWSHrsdb7MZLVOi9y24ufK3kM0A3S/H1QVbpQhte7gIMW64XqILxc7VodvtI6e2tBY8N23HMZYXJ9Jbeg1JDXdktLuR4gv+ptv36jX3XTaPC3BjmJgxRM05mhB2/w/r12doG+7MfBm94Cy317q4gy5umibQr3RGKqYPO5F9ZZiMKexkiHBoffD2ovEABMCgQleQDR6/WwQAHeMaOqrCiCgST+bifZBSAXMtDB7ds9Wv/4tEceGiQvrU0IwgCMWP3VHT0ro7FiAbsnci8fgDDK+Pq0orLlCl43KlPq9g6kunHMd5Ql92V11ol+uS9U/G0BRogtL6L3U333+ZcpDsu4dXl/sNIY4ErxUxLkadt42rKITvtx3cApxlHBgtmxWA/RJH+zifKcPbznnHIqCyNLM7158o+FCUTVaJ+297n1q4zm3nPeEQ98tcVcfEHfpVyylCjnVt2Q3bdfT0q8QXQ9cxYJ5v5puPylWz8znZfp0se0UlvpPY3x2bgtkrZyMNKCJA1CbNHYLdBbOcl5CvsEGQN3RrVwo+cxFjOGouZFezqeYUpAAb4vHiWE8OHyqYWDgDuJotUVe33sbmv0XGN3s9TIjBVSIVNx19uNOtmXMeRAEUGxcnhnJb1kshpiSnAuZ/wotqurzTtS2izJ5DlDFiYWisTan/XUCOIa+24GvM/xGJF9tGR7e9ZztJjfoNKcV6bPMFMX+e4shCbCVszptgP0feHx9/n9Ai7Zh6kmo+KlofDe3TBGswVedOCrajBSTjGCy0lEGDAk0094UEPTe193yKIr/JZREBIySmtmH4rME8qpJcl+lzAkbMfdKPTh8uvckJPPgztY+jt/LWTyk5AVf+vnFr+vBg9eSWoe56SWrQvkJhPIMimkNJmpXGIRyGv6Ks18qrEiCqG78IpKvaHfWP+ZnIzAwESfMAKImTWkPKbZlXHPxumaOterY/VVz4opu2cqJMj4htmyF+j1K9BJAMnPOxRl+dBAdui/xoCDDJ3DBCfAUmdG9TImg8u/goHWHAmK6WKO06eFbDis7C6TY4ecOar4oVkAPyy2gDp8HOen7I6mKAyM6yQXw4FzsNcgmLljSq3gKE5fnbXFXDGtGQAlWXoytYQDp/Y9bu6rXB1o5GNllqgDcx19nut3urA+OTjUUJYDPB+xEUeNPnenAz1kMYlO8mOzBRv91H399gba8lLUjkVvn48wGLFYtms7ivudXRd48G+L5n4F+bITLaTcry25tnWul2f3+Vuisg226elO73gUK0z8dovC1M+phtVpbDPdrQAj9TiXeS/OrimSkgS6CdgPgzu3CRjMmMMRFaOlbGjpk50wYcKOfFthJ1qs41ndj+o4T0CzeVUeF2eoZcmPxVl7uFtf6HXsVYEscrvgtx0vi/M2oRaifWtuNbGrn5tYlMd86aLo0DfDmm2OSLXTR3hAdBXOndsiglbd3grYqorZjZdp9zEfnomDfCq2JaTqWa8pMrXDUX2dSmalnY0gdlZbqCUejM8e35O8h9uJd7WOVNL7YGbaQMA3D7KpJ9/fmsg3p5PjCXLcRA8qjnUAWtlOFFXDwicWcHjlyucbHbo2/6bjyW3FOZq2FGQVUl4dpKBx0wnN/gW3Xxem9Hbevss3TWSJr9bV87QP0VpJ7HprlzB5DXUYU/bV2WR5OVldNcW7iV1zvGmSfmSj0VUUnw2zO5N8i9eg0FiQHnBe5WLfqLHG+iHj+54fCXo+vmTmjvWaNpPtJLfT7uCAxC8wO+mxrQtpVfiolTbjojLwKB8T6fbTmiU9sYPvR/xFmdLY/d/mflH3ah7MSp/jQIwAphOvkyH4iivrQ9KrZVwVotZYpD7cpEUPRCDRVKBZOavIPXH6CrTiOvkpCtgaHnT9Gp+eD1JBzVx9uzQQgrXaBUBEAooI6aWsb9ZpAY8lpkLVdBrVAUVqbBK0k4JjoLt7i8XuvAiJrDMEmt1MN3ZIrIusR+H3AIQ4QGf9O4sNFV1gChp206Mg8LkousPy5BVPUUONOKLxDh0FNA7msKENjZyYIumJfLbHp0M+m9M4Ru3ZlkTzR/HykLGehSEc/OvVN+IgKV6qzFjbrEAi4OfOa03cR3MQobUz3aGWbjpJzK8eJNMtT6qlz9LCfKvdbri6fJwqgf3OJjKPd5oolnpzg6APAfykB8t5bvFLbig35Ykb4CIqzhFkf6EU2PpsKdKxBi3bzxu/EavLJyvN7ydyVeXXxkxbJvJW3CCXo0mNh4bvUYhAfWw1xM2Tvc+lsMpCnPjBl8JYGiUgL12YgUzWCrTU1rvuNXC53Mxj+uahZATkTbfQo35MkRPsK9JIKFkp/GmjvkdGZpzZ8jXIPttitSmRbYRg1Od/RQ0gb0FtoKfdY7MLP0i0L3vHuLA0PYIl7g8HLsU5/OunObVt41+nNsCd3EEFB0rQ7uzqJGtgD1qfHYRtfTXL5oImFRpkYdeC6m6B6nDJ5OyF38HwsHEOyTvGbbDzbEfHDC4aOuE5tHe6kGktJ3XDq4ETsXheqeaMFNkgtZNpoi/LXsmLwG56lsPJxEEN5M58EItcPiePxh0rEZBk01rC7uFf8CxyGNSBOxmwmuxdJd8tLfTreabVgDbFm4lSSgvtLoWNaJyffK7aGBKtLpDM3+ubusW+4pYjZayvZokf9yPJlexKI17wfn8qlsJG8AWWC23lFyGfFTKIoe9+OULFwqhKtMks8isdBtwEc5T1HS+R7EMNAkj1IF4clY0RR06WIdCOvkED4nNi2/Ikh7KLPu7r9OnKDBEUdKP128lzXVJ6t3ZfnL7PYqXh6njzFbaIqX+7Bf6Z1AfxO5NoK+2s96dJIUIPZRNtQpee7SRbXNKCLfEU5pm/zlej53pJb8kdv61Ufs1OMqiunM1yGutw/P0uCro/ndmFPBZbLNPwBPFGjs5AShcPNsnJh97hRVdCement7fmQuYh+nZ9sdX0Ptxc71+WAsbR6E+HEexoj29Xwvu9Ebua5r6W5OMdqY9uM8prQqAi1pS59vvBcF5av+mzgK+IgMNjgGj0eQqQNtCFBuIjQ3MQABu6J+0i6ai8nRe7E9vK4DnbcB9zkUVchgRv+VhiO3xa1p2dupVcPFML0GX0i6ZpKnMFjc4jhI+v6NKTs4aj9ebeAKF9R1eKRlPxqAWsbtIlS1Z2OwN9ckIzfRum7vu2GDv1ulQkprhu3V2NZdZnQ3E3U1S8heDp2A9Q3RCYkwAzJjxbLgRxx+Dwu0j1gbHJX1WJsfJt5qDP32PFBoSbQ0g7ZT6zdxVlb4eXat0Hv9kYMJgcpKq7uJ+8cCzOhzG/EHUKqVZm9cTwfZWckd6GWcKGg1+fcu+mX7LuCwRba4+CXzAFkg+KZ0yMysksMIzFJfn3z3KK+/Hq0j71E7DswZo9jyqotn2/eoNOUQYQoEdUtwPyi+YRfixri7CE82Kiw8I2IzaW96qCdlkPVfl7PtCClD5jfvbx635UiQWjQI3/LgAxm7Fk1lZwxrRVxBGvp7BmU7nOTMbNgcOMORd5FF2zfMm0jS7RbQJuR+Pb9Qirwijfx+ZM4NRyd9tt6ajqivieHCsJEv8swLy+1s6BgXG+Ij+s9eWbHBTHgL8pcMFJu5XyLcJa/PNjFdgLpuuAoRDi3E3OyV1TCh2jaOYm/7a1t8MKB/wJ9mCF7uw7/8Ld4Tf4B1Jt1vPJhZj6SO9WjzDreNjsxSEBLfZCd60xdsKHUHGEPHFYuvTLL18UdT1vPtEGxpA0jucrSctEmmOyIWEj1TDk1EMLnT/9nK/HgOQP0Vw0hMenjvtXN1PfUlM7rBd5fYBf4ipzSlw/i1xCnGnQG85K8P3P1OESeR2j890nq9/xYNqQuGNf+LSXzQqA5jWWLPt3qNI75gK6E1px6m0FULP+6L7S8sIr/x363agbZJQ5RNTyviu+HyHPItOTi1kxPbjzlhRWOpNFeFd26Rs4y9jOCwhViODwh0cWWyW4H3EUKO3unS0UVXQ+xXR4UQQPSR3rPHTe0gFl+vacyjM5NdG9JdlhT+wp6eJQivd4KGDVlwgH00CAqRSEDONoyhbfhgfyc7xYkzcDcxXQRfkxcCRaE8D+oxuA3INbVlhRw5y9PSHYsz+jTsN5/TwP5rRmHpFPu4hmOz7krmI0khnqVeYto5Vvqs3IR/QdTbQiH/MFmy9q/RNkygtkcb9ikUDwDhKR3gD/3R81d/1ElqISU8HKuXMHVZ4jQlMBhotLu/I9LFNA7CGC6sXRxXyP7EFOLf6CEArBumxPyq7T8B0T2dh8mcXsbzJM7wQZs5a8ufRTJATcXet9+Ur0U3vFAyPu2oZWzKvN/RZavwk4zBqdZVRmWcPwetNPpltz7U2tIvl2/LQinODt+anj1xJQFBUXU9DQ3R3hWdv5GJ2phPMlSAqPVmR7wK3dghh51b7M/k08pCHDZzms/tUxU3V5PvQkjscpXZPU90f1fljH+Yo3KCqRyUl8hukZyQkPgEUc1m9cHCRziQJr7tChayYMoyotC563dBlMnUIlE88Hh70Y6adb9DPUjVHE3Q50UvgiEdDo53XIgTfgyo5baRy2rbFM3nSDRvhI0eSck8F1SMQ+nclBco3ky5ZuzN2Dd3cvuMWi3Gal4kvSKrZUeyNeT58AX7ZhMHuzfvA3LCrLhIdPu/lkWlZB3IlMbOS93qsvLKPDDCgDhvqjgWsLchAdKSBdpseEQOfbb9vYGvL/Bt65ogFWXULqmeQ0kjyzc+0INygoeDU3Dq4LXQYnJZNoSuDc7O0D+qHK7uO+siduQ2ECxD4KXFkq0ZVpNm+xEw+umdFLse3Jr5Foy4fA56of+eznW6jcSwER42g9DyUj+1BibPLyi33eCdqwKJXYkdfZ/LFivdBY6CCrabSE852hxNPGBWbFze6gM0GkTf35yeIG3EOT3is8p2ZGvXta1GpkEAJ5M+El47leYfhQqzMtianqwoKTgUOI9ZusXRRDqHDL8kmwfwi9J/WLV8qqDmPQGTuHnLswx3OmVrdRoBWdGxqwuJqYEIpTkABVHAN5WJlIufjk1s5gRThNT/P84ErHJRVrV3ElWhtKuaV3ZmgxNDbRym24KOChCx4M8D61B1uGxyUzaumswc0KGdsB08KXdqNwnc4v1GxuBfmv8l5G13YRbPZShEPMnv1tNNeo/hdAe0RrZJW2aJuYaEK7NZINgP56GXroO1A1MMRkZs1fvJ6oQI/+4IBZJKQf4AO8a9BsGUBCBABH76abJPaSLIuDCgALB86ty+5zXWiGACQL/3wP4jDzyOGKtN9WP7aCjKKk8pMG+lvrn/rwWt5SWYIJj7dszpDmTYHfVwiQ8q9PaBsPU7xlDiH2t91QKOBG8sIbFi8j/ABovQK9Gpn6XFYbqECMu2rjQDMpvUq0kfUnGRNojxfOc+eAB5ATDnGfVG7ElriV3gqii5LhXKmJ81lvN5o33L1h5u5KG3Vg/Rb5dLb8Fzoiapf3Of8O2tr7FC7yVz3MUL+dRCJFNUp7dbtVz+tUgLrAcFVFL2835cRnMaI3Vl8WfAb572/KsuUCgVIO9hHjcCTmeJZ/Mw9euegyOsAJ9xlm/j3GaXX2r0+/JOsgfhDW38hy2Y61+6iSWpcp7cjWDqJmw+qRGKk+vmLrqEDvPprDzaucosb8tqWrtEHPpT33XYbHJYZgEUPN24PvM/bAwTFnKoyo76IUa0I6jKyGugfY5uMI7F5Ngqa4vd9KbqR4yOnPtYrBmevyXmtava0f7ncIkc3eytoOnl5l8lu8JAUCzdS8HB5ROiF1tgVm4PGnVOpWdQ58SRM/ozMeH9t36SMTpSuT0FfHXQmQlR2wJDaq66De727/engmALsnlZsljUoENS1fTg+O/54pVfim0M1xe4sgWhlP7lmZr6gtIEXsHmB2Hcn4zZa2j1SxuG9IH8T9daq04gKb2OcBZrvzSJYw+2TBdx8yNfK2vbOOD4EhgThD4w1xHV+QlPAxNRiSMYBNl8ethcidkXp75fe3KyrGbRLotth8Dwas0fqtKMlX8X0/SeA48xXunNWB4di89o4jATTNvyWkAgdavD2+ixXSm3S02HaSGnkXzr7z0/5m+JO7RiKjyq+GMRY+v3a1tYImnjem7Zi8rK+FzjVEHmV3Zb5qO+NQzLgqDD74BW0snMZerBhJxc5bNk1+vsQHBAE5cWrd/bFSeDLv8ZEsF2eXN+yU5T///O/ff//9/38=</v>
       </c>
       <c r="D5" t="str">
         <v>a66d5887b696ceeb594d493f509ef1e25</v>
@@ -555,13 +567,13 @@
         <v>Chase Credit</v>
       </c>
       <c r="F5" t="str">
-        <v>#f7c327</v>
+        <v>#c44459</v>
       </c>
       <c r="G5" t="str">
-        <v>CREDITCARD</v>
+        <v>CHECKING</v>
       </c>
       <c r="H5" t="str">
-        <v>789523</v>
+        <v/>
       </c>
       <c r="I5" t="b">
         <v>1</v>
@@ -572,13 +584,57 @@
       <c r="K5" t="str">
         <v/>
       </c>
-      <c r="L5">
+      <c r="L5" t="str">
+        <v>data:image/png;width=100;height=61;base64,iVBORw0KGgoAAAANSUhEUgAAA+4AAAJnCAIAAACGTp5NAAAgAElEQVR4nOy9adBu2VUe9qx1znmnb7hj3x7UGlBLQkIDFkYyEjgIYjAGQwRYphQQdkLKJnZCBhKnqFT8h+SHk0rihEoqQyVOlSu4isIOgyEMrhgTkEBIWFaEJIwG1KjV3bdv3+9+0zuds9fKj32Gvc85+33P+ab7fbffp27fPve8++y99rz2s9dem6bTKXyoqoioKomSciQAkJExLIs4yyIxLGkkLxze3Zsd7j3Y258ef/G5LynBQISERAGQCgBmAoSIVBWAqNokmKj8p/1JRUsBiAkAEZXyqBpVFWMAgKQKSQqAiNEGVXGeq/iFBICwAFAvNhICF7GJ5oVQymYFYoXNlBWViKwAXAi8GuJIsgZa5svLIBMVb4RaEyVRVRFVFfWTc8O7PznPYmOoPUtRLwDUiUeoLiGr++xUuiOIEJhICESshFouhLz2AKYqIds21C0Q51nbW4LbZvJMNZ61vV54VbQnBrnpmkoaMq4wrkh5eyMiYvY7SAscgVXzYKQoy6qoC0EDqipOxPZZi/ZUNHsmIlsX7eVmBwERIiYFE4mq/btsk14VN+AOAs3+RYr5fG4DlO3KfjKZTFZEC6dsqexHyrXCbJZ/a07LStECzZ8sgGpgactgVAZrbc8r5HGLUZmIafVAVBZpLhmTrZciKi5lIETlV0xRJZvfHdzEWKvRuNbfUfT6MqdEZNuJzQiVw2w+MlBtZFBV0uqZ21pvOL95OaOqiDXjhhHj1mmj9qX53mazklmZOG+fdqqKHGEiKwAJAKMCp+tpLR6AiA0EwV7j9Hdxv4qcZ+c9M1clKbZUy1rw06UyPlsWBipkA4s6dV9+VdaRnRerLmyM+H2kBjfdvA0X9WKgqmRUy1ZRG6OqaiIBxECLv6spXopCBupDa9EPyPZKDsrYJrY7U2kVM62MRKmaGZWgUgjp9V2noXpDAQNQITuYcjnUsDJHpVZgpwnxYmztMpzLoAplUSmfK3lcfaDMgiqUnfJcPUtKoe8J4KolXqW47d84dWSr0mpu6hXRetTaM0g4b/AGtpool4fVwBmsWtMKTVtei1KAhPIZtxgohCCkQkIMCENYhdkwsuXxYcJIEiQRz+b7N67txNDjvenigTy2+5o3PP21737ru+5EE90/vplcM8fL3dHuMpPB7tbCZMz5MELHx8c1mawen9eNKBkSkmWULngZ7QzuLx489/JX/vDLf3T34MWj7Hi2XKRqUpDkosr1nV3UxvF8msvn8Vq2Q6ptc+isVHOSqkApOKB7qqpTAUJWy0AxGIlVCPzJNe/StkPaMkERiautrtKoOuVrBTrNVT4C3anocl0SJSYitUODzZ3boG2nqsvn68reUOiUPDtfSd45mznwaoGIwfVAQu1TV3g0ccQLqPV56/KUYAW4GODcLK0as7qVc7sMttuX+h8xufqfuEvTsB5ciZ3/u4ohQlRp8yCQ2PhdVdIdQN16b8mXlENzBVIwMUQYgGjeswrFMSTzCtT1V2ecbcW6VPy6ywuHy/bGRMxJa2yBpa+vLDbaaivKYbBU3+1zXndV5eaCqdaLutLFHTUkwqrUXQnr01v1HANVsVSJqqPKN9q/299dGXIdkSCqSlAVZUau8ReyOwOvjcedRG34CFQWhZsWaSU/28pzRwatdN+i/4bU98ZakaiYsRy+SZWIbGcpA1eElDKX8pCUNYNitZOra07l5uGjXOEWAkW2P9olsFMazgK7ReUFV5JI3mBU1Wp7ta/sEqVcONkFUtX+tb40zdNVBmAYc1bTNv6V8dvIjTHlc1lEvVTkKl+2BMAADESFDHJF05YSEREzIbIzu1duYfVgBcq1gTravzTUibJsvXw5wUL59YavgtZUFYGKqj+217X5IlEu6jdX10QyFVVkXkrKhBE0XpdfLtUzA9KScSF/xgZgySaNysKxKlQhc71l5DlSYwoGR1CpyyVLWObLjhV5aVD1XghixIC0Nt800GUEboxXeZSWIrQrGdsGmmm1xq8+bcoKO5YRcURKpKCMWB+7ddOWSkLpti5HUTpIzDBOWQ9NdpSlB8QmihKRDCRbo60R7RztGzMfXeOtb3vb17/zq95yTUdymI1pazzcPpwu4/EQrLYYW1R5Ywo2QhkAx8m9g/uLKE1uDr+49+wf/PGnv3j3i0syqS4MQZkMQyJSQJkM1C5MyV2eNoYeCUyKXuk0irEIKQh/1RYe9RRtAyrmUCKyKxtiVhH26S47S8CqPjmj480Hvuqwnr5dJ3mgoXYZkoLksR3ouw5qTFw17op9r1gBN6JK26OyPzi6qVb16LIUZW9pTR5WU9HyRYu+X3FFTiwS2J8Jqc4+O+6p8kRcaA9st0HIJ4pC6NIyPcKGpKadeCqFM3B4y9FAKrlCU/CpqqpKxdpcrSpvlYyYc/VdDNxhyFXl3Qpq5ssqbVbCCCSSkwBWn4ryGTYqy+tMVPl83A8r9CtTaWzmuDqrUD5/UUTEzMz+8mMFASEiqrJifeVJWGidpZpuky7kj8vkVAqu1FHYUajCZWajQsgsM7ROhlD5OO+9zcC2NeEqVZ4dVT5/z0RMypYhgIqiYot81d+mA8DhxlSVhIzJp3hWiObaBmsujBGrKvirPkcLz+srtJtXLJ8K7T3/0KtxURRMZz67aa4AiaoKubsKVGg/XPRfu6dllS6IqhARRRxxxFZNURUDVcrJawCWfiYi5XytUhZIrqhXal+xzvFXlfPZsipbZ4Mrf2PzUohdzvsOjZLPjNB8NDaMl6eHhSrfMg+2LBS9pVR/FNoViuHdOAwLgON5w6zABs6/PpEqb7/1tZTaaFNrbOXSFEBEeQcP5skdV8u9blGl5jDLZbhcNssfU+QmWrQIgzpiwtBT5dvmL283iW3MDiUPAPWY8zUqU63q6zGXHbCIwW6YOMv1as9EKZ927RylTC4FqapCbEtpBbrMMp7G5m32WoY7z04rjdiM3+0v7q6OqparIIUBMqgBBCSRLm8OsiHPR7EZxoutsQySdDjWUZLdv/vczRuT4ShK57PDw/nu5NYwuRHP9Mlo8r63vfuNd14/XCaDdGQWtLN7c54u45itGrNyuUZiiF+eTa899dTz0xd++1Mf/e0/+AjdiGQimQrPR3ZOMQpRApNWpAS4oTjaDXGL8XirfA6tspqqQ7keRTGwroYbA7nf2oZrwzApQewal8ju4CoUgIkKwZhRdDmqjFvy711epMAqba+L5GF0UVXb0UXFLON3OQkoC7lDSaXRCsHh6EvZOrHyLruf/+pwbOWHJZfjqFTV4F7Sz+IK396X1xDzUswNNlpHfWeicsBqZyVdrC7n2m5snlaDaGyNx5tawtt8olYL9GgSImLl2XSBXNXIi5EoKlRJd8R0IixrQ7w2VuoT5TOAKIrAFZ1Z/q81Ox2xQgkoZfNKdfVQXtdHK4VerKZVZN4dr/JPAwZ7QGk70CmPuQ5WqJ5EkUPx5hSXqgL5cgKAKXTf1qaSk9xMRBTBY6ab8rsKrovpdFY8sv+VaX1fIrQQdashE6OqBlox6FYV0EqqVoMcO5cXKmZUrGGYKsMqRqD83UFMKtuhRl60ouSJc1Lcfm6MKZu95lvwVYPMF6uKsuSdDFSFXFrLUJlrJiZSpvlsDkCZmEkL1UHsqkXyYjGqyMfhYhwkAjGKGs8LzN1M5nKszsoyKUq+vp9cjsPSVOWZqNAQGLC0t1Kcf+uvi1wByCnMpjLUD8qV2qesTmwFibDV+Kay/JGerLy/xeukRVybVsbjsfuJ2urWqtWt2Dn0SHwudOLifYBXLmY3GNTURyJYw+Aysw5DQRRBHf4xrMrbnm4cqrRBplbf2hU7KdvNJADUNu8S2x+lNJZTNS75VsWtag3w8rZERGAUrCIhzg3+Is9srCXF1eN/w0Sn7EGuJHbuEhHNCrYgHH/eqanoMUCal2dZzzlTIISCV50dLx7ENBgkOmRNDmUyira3BteGy9c9+drpg8/vHTwYjZNru+MoiWfLg/lsJjT87c9+FMBXP/XV5nipWTyIJcuUKRcvZ+VFJCJWFVYYI0pISQ1hGfF8GP/OZz7xyS985r45mm/TPqazyFA8HCy2OEuEJIUYldyEjkrVTdzdUsCZQqTcFGqfVNzwzr89I4diWu2qVLmajTs0CEEIs9nM1gl8XqHspSJicpqsPh80BrUeUq1CB/tsJ8T6AasTL1Lq69ZOtKi8nO2uNviKYOR+5fTzgCrvyeMMaFYpcVV5EhWV0raaFbXm5K46nMy7Wr6fWpWYOJpfUzmrhrxig94OQGU7XlMvtXIO7LFy+VNp9++qJgXD3bBNbHt24S6EChvoithIOOGC9J1O545ixNZsoEYLedsv5XvylHqXdwQgEJfRUYKowBqn9dLmy7DuV+EIyjpfM5R7bbWq62JqjKx+VC5EvE8dftqjCfxxY8UUblFTp/KoGoSaFnXncZxu7iRXLvMqtuqjfdmche2uQbHfqOpUh52EImaKG6VXt2pthbuUKq3DvTxWvYes1m6M1RgExZKm1OarKYPyaZuosDvNM8ilYg1UYeCzzi1LlxUDtV+nthdvb7uUk+Y/iCpMvgwrvoj8vYi6nX1RMigKkTjfWMjtue2Gvmi+J8kOI27j9Jdn4i2PvcVGufQiIo7A3sYYAOSS5XsJxeaztVQpdkTzLSa3/ZcrKMRcdpa2JbQRKZcHxYGoakrta+gMsLMRVxqVMRFFRb5KA6F8x95j4tfOjFXheEHziqgOBZUqgS08t4rdsw0F5RecJuol4ESuRf4AhPbhSxIn78JaGAG7+yEOYeH3aPZ/BUgK4ZnsQjwvXQW3dZacty46LxwDtjaBiwag5TpW1Tli4XxSUJyc56tce9sHcrGKgK7yu8L02uWqmBo1T5UFUBFbOTS1zi81HkH9/QqAiWIhmEwKW/kFeBpxNoijJKbDB3sDpsFgsBMfP5bcfep6urObQg+YZ4vlMUV8bbKb7S3jI3nTY6/9tj/9rY8NnhxHu/PZcjKcjPIVM+jw8BC5+mBiARvKVGg4epDNXlweJ7ev/cv7z/7mJ37/iy+/LNevHw6HX5nNv7x/ME+TidxMaMxxTJy39WJbystqs+vWjoNQwwKyZD5U3cjWbJVxW+RNaLn3WayQqiTcA2RtCmjrMCQqq3X3eiQ96Un3VEB9jmyLqbHLVu2Su7qIE35FuUbNhFQFde2zHavNqNw3zoZUYV8bICAdcCl5/ZhsM6inshtXG3KF8YT0Txx6kTXgqTI+e72iQdZU8zy/4aVCU9VYAedYW0HLefxCtZZwtVuh8C5Z8HSKt0xaO3N2bP8B+cPhW+Pvejy6WebVsZxaeHcp24qaKh+qqfow2O9odT4pFjJxvb9UlSJY1U9XlYNWG8Te82pIm0l0rUyCu3b+h+5X/k+9xtuw2G3Nw1fC1oyT+cmQPqgZOvZXbVui9ERqLGZyXrN47fZxLbnzDrVLjp2Ps0VZptuek9r7ap3m/tNzPlGLoN5tq704fwntlKRj220j98621ThdR5V3NTxnYSMuYdGSRQ9rbbXLhpyH1GojKE/Cc8jhlkwZhptLhUD5r7LzyeWpdDcIoVyIK/yhPjBAOfltL5tyS9/feWAgP/+wUv71420t6S6qvFPm1a41ACchaTzkeXF3fdfaXCHnSdy1B+fRUlqqJaS5apfoPDt67tbW0atvpa+6o5HeFXmwpOU4GZsjnqTJk9HkHU++5Vve+V2Yx8PJeH483YqHsQKugQ2JGiHJNANNdkZ79+d4/ImPfPkLv/NHn/vCvnnuKDpepGZ354i2pqM7koyOzU6EkZOxYiOsyI9P2bpZBJyhuXBP4fzu7Lq2m2W3wVmaroGgtL2rXrJCPY2sbYJpmxH7WgF2U2Uc1RPFUkFRs13xSJFKHHfSdfRRb1ujppqsh6tatVmJtGCFQQLa2GtXaSufV8Vf1oeuOwngrIJUTRUned4bWouiqwG0I9W6RUgpiVc+BZm2Iry77l8jVUAedtt1lWLZSTXYHrRsVIpWCyUA6HAeo2N7E6e95Su9Qtj28JUIbvwdVXkf7iTa2P3zqYq23erav4PleVrkNZLnpdhCc9p2We+G1nMczbwUbUzQob25X5l1g7Arj5IG5XSeT2LynMcR/rRNzrB5UnsM0k+T79JF+qKmUrtttQrgDAhVmaivTq2GWlMJa03RKLvmm9b3rgbfPqGHGo/mpzC04uAoNzeqq/JuPILcTqN8HRgTynSqxYaNnwFIu/1IKzovztRVHwtxSaCsdvnBHkuoDuOuzj55kZNQumvkESeIM9A2aicQTYsO0iKCVdypnGuKVufkLlzxwWhbQ1cjCAeGjbIhuQuJQph826EK7KvnMNVSoRFxTbOnaulStsAiSQaG7kxlHxcS0eg1B7p/9+hemt173ZPbjFmEVLKl8pAGNFsunn/5xb2Dvd3RrWW2MJICQxtDccRKVJRUoMRLjl+e4t5o+zN39/7RP//cF4+HM379dNvMhdI0MfEAHCNiUCySiCXRy4KAuMNEe4ZtuKoQufwnF9N1TheWZnxdegcBxTb1GrbYJwbKl56qRBVDXIZvbaq9WfZOTbNq6AqPVLA7iHmgSqkqtqdIFK4qX9YFgaDQphLTcZKuVCU/ihUTkz8p11OpvRHnDbtVvyp+t77C4QCAxSuKaqljV8bW2qe1KLSDEgSnyYkfyYp50lumdqgFDak5q78qlQd11sw1PtLbp+iierqjpP+83ji1d3/x7HnWfe04LAzN2eFZrwoszt/eT9Ievyex/8+WFuRsMbd/1AN2t7LaMynT8LYxO3AcjTVIPrMzOo8S+Xf9Avn12zmZjuhdsCHDhtCucE9a/WQHMXvAMx5w08rneqkHZud5fdSFytXcbQ9838bKNyqlGjfU9rt6bN5p6ipmV+2ux9bef7WMef0+WKVq6zpuu0RYJW2EdIyCSi45J+Pzf9UkJKccuD5ud9sVaRMD1RhOVv4+4/n6kilz0ZC/SzydijNyNmHc+T1q0yBq6Qan/iKAE54cOdcK5uaocnHeLkdu0hKNNJ7MdPAgM3q8vLOUnVgSMWJmEWkc03w2e/7+i194/ovveMP1pcliBshYh0JF9yYINCVKk/g4Hr8c4V/cPfwffumX5jcen43v7KcRmJPh1mI6pTRhTiLbJwms8DkYrtwhafDQCbdNZkAVVW7ZeNJBby0tVCI3FFNomzqoVI06FKB3zmKHtAa/qRVsRLVkJmeNQYWxLJWrIeP0wHLz1Grg6o3defzdpt6ioEr+L+dKw9n3i6upznhvlKo3QijJzxXxdz51AJBoccwOMFKal5AIVZpKIMJuS52qTFQIpTvfpk+BCjbpYhHWLScdpHI5bK1yZQUstvQQYqm7KW3OHEnufNnF2GytMl4F8uTXPIF1X7tKbYiJXy2k+NpAIJ5mV/KzkIcKGwjlw0tANVonoQ9qK9dq3FitP7raQyO/Hjpo2h17ZSWbuuNbJ9bm7OHsj1H7+1DT6z/+n68q78mjgfetmvH6ccjOAYQ21TakwtbZ+mYqhMa4wS2KXZN9cJUqT8Fy9PiGgZy/dFlBJJdx5ic8na9WopPS77SBnCFuvHcDOJ5V2k/7hCVbv7SwhGClsKrz3GU875Jfp75yfYar9z3iCcGdj7TffFQl6zQY+OXs6WDkjlfr+0sObo7PTT2KKFGOU9BxNtds9tLebPTY9YEexzBLk0ocU8KH8+kXXvjC61/7TJzxTlId5qkcn80zc5iZw0G8T/j0fvp3f/HX9IlnXjaSITUDgrKkyzGNYSI2sRCWcWZKk0zXqZ8nfjvcBtva8nVFMTWPwZ2mDbhbSuTET/Vgji6LYktbnY86s6TrFyh2Zi2bVDNmUSoNnaE1LUHdLOU1QKqAKbRGP8JOx2Gd/5eXWayjSMnd5Wim0qxH31a+nq9m/PlHa2kDG08erNrKyMtQUFn7tLHyHVTb/EyMqsAzF19zS4iepP2sry/yy7CIX5XJ80bS+hxeQNcMjar2CX9mOrWm4lpZkNOKaD0lD7e+NLx1sF6dEj9f1bfl9o4ffxDE1WZj6WcdyP0+eN97PWJtqy4CiJbt2WmqXn473KYUzK+Wir7lAtahyy6WdycRquf+fsfXo8N4a2UqprJatZZscSCeznRtT3lOjCp+16KaVUuKjdU90eiZla6JGiiab6OmWjx7cBXSswWnoqmq02hLbZIIkMYo51SKMkhQtp3cot0VyvKytns507aNxzPAWD3BVKoWtWe69auOgUoa3d5CUL1XT7lnR36H1c4V1kqibpsi7VCqhiL1WG3qwMqvjZ7LRgDlwp5I/bo4nRbnDqXl/J6jJj9XL8tKJSmcl9TaibUPYM9kdv3qqfzV+ZkUvvWgY+VbRWNIQAJOlnKdNbu3vL91zI9tXWMsiKZLLJI4GU6Gf7L3rI5SOY6ISCX3dhUDUNVMBTFjNIx2tj790vHf+Zmfx53XPDBjbG3Ps5mAY40c26LcqKM8/gxvQDj5UOU0zNAPbS/VCb+6cE8wVZQRKihgV0iodP1OUa4Qw9OQyv/XilTYEcw/zggAhdFI6w4j1ixVA7I5BiSnmnEdZ4v1+Gtvuhm2dApZGqI7JkmVHt8LobxT4WOnWJUodeO3rS1493Gslz2XP1SG6PN6e2g4C2rG642VjuYdMs85Idwy7N3qvONuvbYOpPq7zuqJ0/Gkwx69B8dHXq/vGqjNr00xvKmnY37RvgvhJnoW1x4HTiSdix7fFXV9xanutVk+86ugzxLt9cha3ctB7syl6ybQM5FJG9r8Kt2rfOlsA2rF5roL2Py5cVW5338j53l93bnl07r1dSI0+69dcgjANkWynl7qNdJ3C7QTyPEqw3BdF5zJsjNUd149njqJAuvbUgNl+dfLM+fpSbm9j6xtDb4yX8J3UVC9UYihOZQlSua6faTZnzw4vHHjmszuDWJkulSKOZKFzj7/3Oe++vabYgZlufOcQpUXc7Rc4saNPzLmf/61XzZPP/1yNozo+vG9JbZ2QZIBBFE2RIZVhCBsQJWsjssyqsvqkk1UFVhxTNbd3q0VQTGTu786LJ3LclXBQo2joigDAdz4G5FEWp9sSrWFtW7RuxIrD0oVUVYvxFH03JP4pRR+aRsRbwfBEq4VAeasSm2UteOnrRI7vdvauHVhka2EUjhx88VusLy1ItfGAiUAUWGsOZxKKHp4wcRbBr3U7MkXMiiV24trx9WLWspZ287y65orL1o+6BWy3DHw2Vmf5fLag7hbT9V7b7ce7ieVv5QTrY5Wg123j10+8M52r89vO0ptII/MYbi1LU4f3q3yK9NxC9k7+7H6O3cIafHYI07MtnmHYmtu0zdXBW5761K569pnsbsi0PJZUWetzg4dZHbKk1zG2rtbJ8TK91SnzpmV9+QpCW+A3JGftdJnSQnV/VMd4u/83uu51c92SznX5u1MZbuSSh6SpMHxO4xpwZLaIHa2o7q6Xejxtf6rTOQ+t+clt3zII1LKD2xCnWwEbdDtVLuGDI/gl0nBADEAsc4YIqaqYZaLEy4cF2htHAseO+5gQ++y8oLqUiChqrmGPfMosNKPU7lutL7+KnMCe7rXyUGrnJ3uJajkdy+49AxmAMe/fnOU4+rvPF2HnHY0eeloggowOSeYrO9/l4n3Nft8SOSMMFVm6I5Eg/0s4mRyd3FwfTiO9IBFDEsaZUuRP/rSZ9/21JsYgMnphlitJ3ywjCcvLpcfe/7Fg8nO8WA8TxNOMdm5OZOlWgJeISQMMWzEO5xRFQEpKo8rveCurJsvTxbVCX5tDbayLZXVUxz/XYOTkE+tpn65Gur+VKr1DEhHeTzZOrw/DXkWiv80K/NO6rJ3IRUVE4ND2IQNbFy0GDJZGbz3zv86lBX1otk7RtoSsvZVgymp5KkewosMdwqp4cxJSm197BS+QjC/LWi4gfPjcUb1bplt7YZnSkJz458n0hdbvI2dszVILf3z0uZ74lIT7f2hnkKjIaXvwtFwH1n+0GYrX6I+6/k/aunGsZZYa9tuicdbh19QSVViCAnASkJerZ3jLlnNGaWTnL9Bt4ZxCkrix+lgZT32RNiKZlURuYte9l+ezbi3YiB2xzr3zixGZsBQA0qWs2hw887nn//S175+K0kHNjIlaKIvH98/XE5jGW3TdlSy8gBS5uV4Z4/55z78sXu8fWwEGpOa5fyIYzJsCRQBYCy9q+0XbinASrUaCrWB1smsMOeu2PiV5ijlX3nqbTL5r9sC+X7TGyEUyG/WqEdMmlsZF1eQhEUtEFq/+jaU7oZRu/yu08lSBip2HrRu0UjIqetVIkrALThXKfYghe0tMN1W1SjE6yFb0742vFfA5a+m3B4gV4smx7DcTzeksjcCF/e2tO8NhWTrP7EGmnmj9Nydhjzv3u8t7Y0BBNqnz+443V9NrxG5o3PPKl2fz1sff5cG6vqxbmmftrO0Z0q8/thhxF9/+XDLELeG63XpPK1M0zyizdkG8zc12+VXbRsc1ONHQ0Xbpcz9WxGq9/kiu9rfX4O+un4n1twrz6yfhtSz+/a1re8Cf8ne2rYrqkwLB3FceeBrQehGp2DxN0J6LSd/k1uGWocN1ZZ+8UGVbkCeZlJtrDPn75u3I1W7ExXq3sHLe0mdqItrmxpJOTE08xuSH7ltkTOzlK3Uzts5J1wjmCulu0WeEPsemH9L7cFaURQbZa5f9mBTLW+VKt+sGAcL/xWFh3utpFrdlV3JQxsoRd1V81E3HdyhrvKYK70KWEWwcf3mrDapnL/dXNSv13BemupdDGX7Z2v3zv7R82oGcyRDbJFIIhyDwHRslofpfGeoInnmSw82PI/4U8++tJ9G81GimoAiZmu5YKz1VJW38yQtCq3xJN8Grkw6uTCeiu/UROWk/OJppFILaUv4stBalwy1y5hgO7D6h8rDeorzvDqZleGDDfFCic/VOEOeZP/9QxcAACAASURBVIOLQ+OAzUnx8Jvi+rty+2vzvXGxexFngKCKeUn494eE/oqKd+S01GnVedk/tiKWFQFl3VbAWY7KZeOWcjXVuoG/vvTqAdqL6KEpJO3Gwms+usC+3+IVnZCr8jaAIdKYaHw0S3fiATQmYYZoxCLmwfH+ncHj5UWzhQcbsDA+/bkvLZUUMTiGkjKf7GhgL/Rl6S4bXPr7ItXo0FWIOYvceZegC3rdM1r/Vip5PC23g4rstjx3mHDLubDDc3K9Gnl9KbTGUvcz5HB3UUJNuHZ9YAlvJyGQr7NCpxmoWZ4AHu5JxAJ9R5++M+5q5umE6Flu59EGXN5BA+3QkyHw/jyUwZDDxC6QJq16puhd/JdDW66Osfrquwbeo8bv2mf3E8r3c7oambS4p1wVxL9pLchchqMv3q8UqhmbG0+5L1GVnsPKF+HtlSz1qGrlVu51NN9b6MrdoXpZUSEo+auK4k1LKw0t51pfEoioEq/D+EDeNVvr89uEu/cSTKWxh+DcLlwJ76bYb4Igd63mSNVAF/a9L7oYbeQrEBIoVIkoYZrMpw/4WkzWuZBSHEfIsLf3wOwsy9GQrd2CEN87xrMv7XOyFUVDQkSIQSIsV4+i2OBSIqSjXMT6xxohaMNLTnvg85dngw0uCg/JU/s5Qij/s4FFqChOf+fJORXyOVzGcnJ4hEtDsC6NLZSdE2bznAvn9HV6xvk9BR5F3bQ8m4ss0ygeZ2awXETQyrcsEanq0dHhUoyxjqZVY/s/4fhY8cLBNN2+Dh0wEintBdh3T/Sw0fd21S4GEt5rh2L13ntGGm54e+6+uzjthRnKV5AFD8iZS9KwpXN3P7yjsm7lhi6Zd77tklPXLaMbsc8XOeE7xBlivrnLJsTKb5vx+/b3jj2xG2V3w5vVCLW3AEK7WK485JR2Xz/Wl4GJv/I4Beu8wQYu1t7WiTam2cLjL7vfBkrV++4WOl3OJJSyCVm/M9XHJ5Ez9J4qeZo/ciMtL4yT96ZswXS94FU5aKBeVsO1vFeqH0rsXT4Nntv+27LO3eeGkM29+/5kQ10o5iYf3wXr2HTLeXeQ6hTGaX7zaW8noU81vw5MOOIsM8wDNeM0jQUxmJgIkNSYbJ4tsjRLU4NMNYqiiK0GIMSfe+7+ggaIRmlGjteeDTbYYIMNNthggw022OD8UCjezETEzGIYMlIZAjE4shtEmcmiOMqyJQAjYowRkcpW/vN/8oKJh1Ey1plB1NW14gYbbLDBBpcZoTMbITRvAunx8QanwGrb7pPF0B2nN5BYHcO5mHa0xSmO95raJ/5OxSlSD9mm9yyBlltybULFWYWa/MGzLn3OEmh1FUj9wyAb7XDnbgjXT0vzy04Dhhtz0wtQY7fHTWW1e7zTGJMEi+EU56CwtkBUocyR9b5PypSJEoZihgImIiGwwmg2Gg7n6ZxiMtnSSAQgTpkJ0YLp0MAkY8QjmH0Aj6YZ0gZnhNWHlT1DlJ7HmkMOMUMGSL0NrjbYYIMNNnhEsdr2/fJDz1n+847/0YbQGm2+xpv0Y0KImAlMAkmiSEmFYBBliERJqHK6GceJyTIiEiNGDBHF2NqeL7Gv+PzewTwZH06PaDwCiYApPxFb3V7ZBf1N2c9eFfP9xJ88Hl4Zj2plJd89F6G7wrrYxHvNImRjHbCJV0dFDq3SQv06j7HhhWa1DZYnYcOYvYsHmDVouJgMRhQ8h+CGcX1su5/WbdBbUg8IyF3C98x8WJ52m/6+6N0fTyF/F5zGZvGVhiAz5xR5qDy9puSxj/k/WIPu6U7jGaGLw8DgifmTJ7sC/SxLT98+ax45LgCr2eXCVrtnbKG2F7CDZ+csaSiMH38779u00bcRhO6vbaaljfJXnyd2b5JdkW5I/vxW+4D8vdHTVr5pO970d35SQdpPU5yVPuf5zPGuzHDCAFjh9ehUqQe/XrP+8cULSd4Wb3F6QYCIM1FiStVonCxBmaiqgllUQHRwdHhttCMkyWAQZzGAeKl6ZPhA8WCRTWNFHHFUXD6/wQYhdL4uqq/qFgy/YeU32ODhQTZ3VmxwRtCr44Bow1tv4KLTNYXOc//mwyBARUWUBDAccwYyUEHlwab5Wayq6TI9ygZpmvGAlNk0Q22wwQYbbHA1sVFHrgpOX1OnieA8bNl9Ly6njb/jWQJ3qVAXqYO9ewhdTFPW7FR3tpXX6tbV3rK5aCVlV2Wkg618/mH+un0Xwg2zOn5P8XX2EFy/9Sfctj/RV4Uop/m4Qu8+Rc6DSlmBRgmAgEFgAiJVJrd6YxKdp8v5Uu2BWWP3NYoyIGUubWw2ODfIavsQ2PMQQeeYp0J56/sKu/YyLXXCd05/dcjTUH3klAmFTJcszkjaDTbYYIMNLi2uui145ztizyD+q1g+ryCUp5OtebJjccREIFGqajAmxXh7sv/sfYqtH1ZWFVWCwl6rp6qXy3NBU930mqOVOeArvZPjbm179OL0/Xa3Rxo6GyGOEGUYbounqVh7tvLBo+wBG3TXxjrwadBWXqv/5bdYq2rY00XdhrtV1EIeDduUu0a4rcsM60jVeQ4tRWStgq6OPJ5t8ZrvWiJqewzbuJ8D/DMSfQ2c+qW1mQs2eCg3FtPZ+Vi7yLsUWmVeoVH1tcVfbWueh3HFaNz2Wrxu55dbeOUai+yj6ce9kawvc5sfdKHck0lLGm3hXQ8wdfnZS7hVZs8+vuknvlGeXvzrPNKsksf9pne9B/YDAuUTqq+mDb0G4sl/bctvL+r3bO9V7enHvVs8PRG6T2D1eMVCAKS65ZdcVdGd1ZWhrAqeTudZnGUZw7LySjDWLT2xqly9ybloa1dP8gJWz2vXukJXU/W8+ieYtJtoh2OjvY8tNo7JXvwWz4Zo32CDRwz6qNjuP4Q7Ms80xfOWv6+05+1S89xjO+fyPPf6Ot/oX8HQUoGi5oorVlUDFQKYVKXpxfNKgJQBVgX4YhqSq5Q+LAX1qsKWV98jGfkeyBnLssEGG5wWHoN1gR6Kut0S/Ur0mHRW3OTVAjXuOPfeA/AtsFeHaaKLV5yWN9QeJiSP5uF7elIKseaNX5tvLhJny8E/4iAKtUUi8tqMagxRiWCo90b8JUFFzNidKgGQgarjAgrq5PBsTTJFhMo2RVYUWyKXtdzO1INbWc5rc9uRKqttapc1FNwY6BTrJcKjQRlusMEGZ4Wr4rYlhPMmdJX6TU99w1+28j9veTZT0COHIGUcq4oSDo4ODTSHgDgCsSVOiUiJTn/IsrfTwICNe36i2bHbZhtAwcoEYQCUCWcGKcCKgd186Jxsm39uFQbbnxgMzfcBWGFgSpPukM0lVdGou87y7WXabdk7Cd7BJr6MX2vavKs7r/Btnx+88MrfRdOQBivuexL10qXKnt5bdRUvTW6c3x6XE48rc/t7dYbPvn7i/XTbbd9DNvfh+Hv2C2lrn7UgzvP5T159/XD327+6dM5G+7K2vQyxtb+21Ld4gpdKBBJ223aAySP3BongQZwAa9ihfkOr4k6akOvLPJSUE09fFr8vmraz3ijdzFHn9raaVyaHUQ7F2OXAJQVsf0OMtWdL7dvlV8kV78lno11pW+OnNj7blTP36V68qUvX4KqLb7nV570rgOuTvoVZRzv8u2br8qz2/9MX1HAu0+z6Le2kzbYeZXm2hK+P/+6/m+H7Wi90bP6hg4DrO3NoTDuj3UIN3JLbkmJ+Y65tV1Ro3vkfFbLauapCjWqiqqo0m84ipTiOY4jK1XHyilKJtwVdG3ZJWPICYzspKgQIXsvUCQW7ryAMVCX3BwQAIgTXYdAaya/uvodWz7Ys28vfxyo9vhm4aIHN6VZVXzl7xBu8okEbJu0RxFX3E9K8lOds43TVj6gZ9PTyUPVVl83SkDp0ZmpST3n6wl1gvBLMWUJF+GgOpQEuLM4V/as21uQKPYr7sQggEUBIGAAGpDE0AWAP/5Ja2+wOOnf9OKn9Z6w6UjARFBlIDLLid8tXr431kWpXRfkHsVaPV2c48wK4w7TmevwjVXYbbPBowdspDezarf52TZhTyNZ3V6fpJ3s1zpvFPxmuusW/ld93NkMoOVpvI6MepjW61jA1Jr71fVOq1e+DYXLOFfDnONd2XBrhu6NpDd8mm5NuYBdlg8uJov1za+tU1fiiJToBQlYrNTMFslfeCoBIwMq2nTJByB9vadWRyyaDTwooQ1iJgcxAEQs4A1srEWvUE1z9Uk89vnfn6mkTf8rO24nVaNPjuWZERFR3iNYopXIaPg1ZuRmsNthggw022GCDqwsjhplU2g0FY7soPJ5OtYS1F78wv/Ihv+8rbeUtuDAcLveqGBIJdJnGiGSZTqfHw51tcJ/Fp2v3qTnjzpptjWj/wYPB9pB0KSxCCpWc8icqhS0XDWVxK2pKatgevfjZ9wse2Ek4qU18Lf6W/NbSQX2nolWb9/h1J55mOXDBHxCR5UJI1Ijkra84ms1anVsoGmYbAt5Tw+XgZ61N5pC/fD8BbXtc8T6QcN/71y4lC7jBKxmuRfJ5+Gg/1aZxaYcdPofgynweLL53/2XIXrx4U0N3ft3nX+sW56EUQ6mHbNC9swdO5Brwmx5krL04GX5JlnXg2KYHhGYv/qYxff1jp2SoYfueR+nEoFyXXxvlGToP4EnCXMbsjvg1W2pn4mwvzxBC7Hvf+mrCSlvKX5uuQudn8sQ7xL8andp/Y/fG4soZmzTA7h9VJSaIIlJWIc31cxFh5hjcS8+9dLBtixQgYUikSFQYGS2nI9XrO0ODmWY9RufcxbuqqIoYFYUqlGU23QbvDEYHC1kssyxWiQAiKKnmVP6jZUTTjuqocYG+B1lElIEIREatU0oRE6kaMQQwMYOYiJhUIaUBWOBEx1VuvBtssMEF4RL6ob94VeNsUzxvzaFv/Ocdvokz9kB/lpG14PT53bjcfoggQxFTBim1Hlbmwj1jfAaOGi8WzXWtfcOCSCXRLE4XiVkMOY1NyvPlCEj6uGitPJA41zZlFA+2b7+0fxzPaKRCES8ML4U0iuxNbrkgJcN6yeaMSwfRKBU2eTEJMgBxbmsrrCCyex0CQFUMI42v9ppzgw02aKKvVfd5eDTyWPMzj93HauWv9S7VXsi9vpxoqHRTD8m5ehA+O/lzzrjp5aYWZ5c9h1D4UOrNb/NWWjDlXjDyZAv6rgm8r4Uv5Q/a63fwuOIRbX5wbTycIc4jzoc154fayfnfDN1oKcpQJqLVnldjITYg6WeD8tDAWjRT27NUIkVkjeQpY8jILMe6eM/XvOY9b3vj665jucBOjLjPWrJk1pUwSfJnA7w4w0//3Ef+v88/O9m+gWSMOEni4dwgI7Tcq0WQi70P/PxAzumBVlqLAaOeh1+7SeL8DgYiERZDEBKTZGaULuPM5BOzb2QSCSIyNi0lGIqn8eCIR9nDuF0ixOSt1yg61v4j0Ug22GCD84BQj3nkEk7irZshNfc15DyHgnVM6wJQ1+PPDufutv98oz8XrN1MO9ma88To2x9PKEXD7Nb6/xDHCXsN8fR4ptu7+w+OVUhEFaoMqFrzZPT3Axj2/x2wie+CUgYFxABQYpCwyFgwzmQxO5SdeJhA50fvfN0TP/TeNz4JPAkcyWI7GnZycOWLRqi2MRjIgNeO8dT3vOdn/9n4n37qj9MlYTxCNEhTg5gyAsiabLfd/Cqenbf7HLKJ975fZxMPBG2+u9hwe/XVapev1QekbayAMquqaBTFDEnTNI4oWywlnQ93rmWItsaT+f7eiLJs//61QYTl7M44+dNvefWNUXLt+rXJZPLE44/bmDiKIlBk0ig9IrO8dfP2TKJ9k3z2weK/+oe/vNSxn9Hqtl1bGp5kwfKpHlv9wdfDh7T5nv6wVwTvvkA5wf5m//sc+sbfL/wVd63RHz0z3He12t9Pcz95+oSWnuFPgtOw+KFZ3+2n5+77pRH/ap2DiLpqeM7Q3PRenwfpkGIzBhfaeK8FcY222vfIxILzqjuwd3yWdyn/mnf2Mrawhxl2w7fG5tqOF/et1rn2LvUQuqU16GGG2w9LneY21lr5tMbf/dbV/Dii64HHi6h9t+SssI6Mbpw2KWvtdNKsaIfdV1x9Db5QnEmwPYUAsmcHlUiUYhJ7SFMVokQq1s+8qqrGAhYFroQrGwDONass0OlxlKXR4d4P/qX3/9onP368nA8jPH1j9ynGa4AbwBPjgek52bX6oBdAQMmEfujb/tRkMvnZD38ymdzeS812MjzOlsSiBCGRZve44ubz3sVPlia3SnPRgVWUVQlIBsPZ0REgO1uT+dFRrNm1a9f3Xr43Hk0mZk4HL0108bavevrdb3vzu9726sfGuDPGEGCA3CulAAUGSK5hMgAOU80SOgDuzwdR3UnoBeG87Wt7qW7NU0cbbLDBI4weTK1VQC/ZhOOrldVzyJinrwJ21Y82nvd4ftXni4s//7AafdvbKfqjgAyUoUCuZEElmL+YmIhyH45XBEyKWDgWGUi6mx187/ve8Y1vpN/9LO/tTXU2e9VjT1wHhoACEZBBJKwFtrAI0rKFwSSpLm7F21mi3/++Nw23Bz/9G7+ng8fjwa1El7Egs3fjCqSytxG9ev76u6LpXnN2PB3tbEcqx4cHnC7u3Ng92rt/i9PxwZe/6s71t777jX/um9711iewmGOouDXGwCqmChEw56N8JkgVCTCIAEANogSpwe989GMAWC/jDvIGG2xwYlwGW/mLHKbXJHVqSWxeTjhO+nYv64IEUz8NXEbcs0pf6flndeqeH/cOqbe8ISr/rqfuW9h2NatsFdVd3gQ+DLH1Nc9I7RqPW7+r5TsRLtkq8lR4eKpbe80IQMxamTLXG3JOxl/Oey5aQZBEwCojmWP/7re++2t+4D3PzIAonUpqIkWkSIGsGBMGiPuNj5ECECgDImLE2EQHSA8Ov7y7dT3m3e/8+tct1PxfH/ns3XtHk8mOIc6UM+aUYsOc3x111kXau2kF0j9b2oaRe3mLhsliNk1Erg14HCfTF57bjWmXFz/0PX/269/42js3J48NoSmeHoGB44M5EgJzEjERQ3JrmZijQQQ2yBZiJCMeLIF7h/itj34M159AsTNg12Z2SH3E7t7aYIMNNtgA4eXEw2XI6nr8KWM4B1whXnaDVdAI5VWkFapbolglN+Aur4gqfcqL9asoat9ZW/leyp9nB9bFVjikirV+oJLN5m949av2vvTFm7z8hq9/81/+5rc9BXwJmN7fo4wHYKTZBBiA2AggxVVRnWQWgPPlDhmoMmVMqhopEvDtyThDGmOWYvJ973rm6TtP/I//4BcfHM5psH3niSfuzxb7yyUPR2BkqQDWyKtwl17lt90mngIFtNZPfOMDx7a+zRZca9q85++8Hmf+InfQ6UpbZYFhCJQ9eMBxPBkwHxwOOd3F7Fvf9e4PfPvXPrmFXcIYSIBUjyVFRLw9gUCIRJkUIOLcWY1IlCUx5Y6GswiHwC//1ifTOF6q5AdhVbjIjvr8Q+jMQKgdhsIjFMYLv37ADJ1V8OTpzWW8Ipcu1uCz4W6reQJps29ztuiudtiBxfUx3wV9zjGdBOfN+veOv8GqhjjmIv6uJnghD+7NyLlDNwnmKyB/04a+CO/IH/BCk7PdwbtagWYu2tj6Fv8TuchOaYTKv2HrX3mRL34tLZiD9tlhrLCVX/t+dVqu33eLLnaYvW+TDdwJcN5+3Pve29BbnstLBTLQMuWRWifzoNy/nwpBLCuvao+SPnyvlDnnGq4AVmyNhy/+8eef4uXbH9v+a9/2jqHBEuYWohgUg5iIQUsgXaTpMk0i0kGEuMd8YW2Nyp5AYIUBEAkDcUw8ALaRRjx476u3jv/Vd//0P/39B9kiPdifHR4PtnZTUfsxKUDnsh18CUFibt25kZiUjx7M91/4U+948w9/z59/age3x9jSLNE5jMkyc328BTFmsVhkaTKZgKAgVc0PfBCDFZmqEkUqMTPhpSl+5Xc/MhsMRUlV7MRWro5I0ftc9gYbbHA+uIS+2y8/Lp5jPtvl7kPgyB+q/JffanbDyl99tGjjVNyeWYbIjy+qqkrMxEQQMTYcE5nL3VKHEcXpwVue3Pnr3/WeJ4EowgLRPjAcjscGY5jJcDQGJsNkwJG9C9QayawFEZdjRJz7oyEFjICUIQOAM46NRKOIRsAOL9//da9f8vgfffiTX/yTL+0+8SpMRl++f6xRvH3r9nR2rJqnWxh5Wx0fwPlTqw0e3WWRz3x9Qcj2nn/uZoIdZB/8vj//A9/y5h2DJwYYAgliQiISxRHmB9OE42iwPRlGIqnd+iGQLQ0ikEZgZGoIaUrDu0Y//ZUXnz04wO3XpgtVDVI/GzwqYEAYAETscNb3NtwNHhJy/tgav3XvqJdM9T93DzYPCcHbQDuEd6GNMC2+5Bu2483Ymv5hmr+Sw8eHb5912OigB5t6Wk2OOez9prMHoVyc9TJc5ib2qLb/IE7hKegiocXJS1GN2tayBSt/4bsMJXnTJWFCblwxNrPx8f773vTaH//OdzwNwKSDKF4CR3OaH8/mM00gs+OpYtfYuFUoiqMOGw7NEKpa7LxZ7yl2FRQzUQwMgfliejPSv/B1Tw4Gw5/9J79xPz18eW9x4/rNeTQ4OnyJoiE7eWRrWEMXOHWFEjqlAKJxTGmWxVEkqrEgUozMUsyDXc7+yvf+a3/x3c+Ml3gsxg4wPzjOyBBEwQYYTXY0y5AJUkMJK6HeKG1JEWeazEGLCL/4/35kngyZIuLYrj59aR7+VtKlxiXTk1Yir0pWJgiACKKULztbecRH496GDV45OLmf6cuBq05gn8QdyiXLwgaPNKTQjD3FRoiFmBAplyuPwLHXOtjavhGBRGWtRuDbXgf8c/u2yLRyhhZowcYxILHqZJDMDw+uL/ff/7pbH/yGN78KMMdH17e2UiMj5dtD0NJMhpNosdjZ2ZnbiCLWZUriZH817HqG87VP+Y0CFEVCoqQEYQKBFppFyWib4jcQbr/95pPXvv2nfu6XDs3iIDXzKMEoQRaRxqxijZkUAgJU8uHN8tBu8TirqZBN/Gpb8KYxT8hGPORPPUjXW44fAgWrJtEgXc51MJKjI1XmVK8l81ffin74u//ce9/2TJziRoyBQbbUcTxiVRCySFLSqRpiGhAiIdh68U3BCNAFogFlEt2b4lnCJz7/0mDr1nGq4Ig0Kh3cV4XhTBensYnvjZANa6tvfnhUjOd8rS/p3Ffm3qv0vuH7raZaTM7sBpgSFCBRBZG9DE7E2gJWJ1jcgxFuut79hqeV56FC+pZ/L1VDW2yFV6P7eikvSbYmcJ1qgfr7pOpbW5fKVp5qjDXlL2tvPHnCCa+SpMPdqE10OdDppuLbKHMZQ8l81+MI2YUTCfk5cnzFkBN/37tancha5GmWdt3qmspnLuVv1peu3GFwZWgGI98ve/k+tAFNDYfXXEpb3pUbkMGTLeQJJ/Ctt6uAyieiK2b4DMbJGbcuG/Gre9DJ0P2Mypp4eoa05twAcjeU+bVGUDMQjIAjUZXyhBFVnuUZgOjFzmdaTQ+t84Sq2rOQ9qwuC64Pkuho72a2/2dec/svv/edb9pKhovl7a1JpEJAYhBpZTkEJWPt1ZkMrJ3JGkC00njcZwCFiZJErMwaKbGChIiVY5ZsOJ/vpHjnU9s/+WM/cJPnk+zwNY/tMC0iLBmZqhGSXL0olbzLpTz0gWoMo9kSHKnqeDx69WM3kunLN8zRj37gL77vbW+8BtxOMBCNRdkeVFWGMsBMRKSgDGYpsgRajnQAoBFlx5hNMRzjtz/+hcOMU8RGWDfnGR9hqLAKQyKxFyUDgIBZGcqsTIr6nw1fdgJcsiK7bKztOUGp+nMV0Vt+AvqEP29PNSeW/5xwTvvlF4ZQfW2m6POCMsCECByFmmUMGFjtmYiZrJv5h9ikrB6vZDcjiZQSI8P59GZskoO7f/O7v+N1AC2RJAMAqhlRREQuB+S1J6ZOR6BXhiDn75ruSdGABDcTAJgA/82/+6G/9Xf/3r3PfWkr2Uqj5ZJE4uIjyVcmF1S4+elm9422PfYCM5soy8x8nkx20jTTdLm3d+/tr7r2b373+/7sG24zFGKYo5iICURRfpaehCCRZrFmjIxIADIUZxRzxO52RKQSEZjmwFCJfusjH14YYzTKDPOVucRsg74QBmIRLu4IE40Nx7AsAxlWaV3zb2aOS4XcctqeR+/OaT2kq99CuBhbYXY4VBct8/QZsWyu9Xk4UD18i1Tu7m6olkO+dBryNN/3heedJugDp3rvbtF7HuTc20wbuw3dEbKVD92/e9nwSrOVPyv2/bxhClv5fJe66cwNgDZZeVGoWj+KF+aRgB0xSEGQSGVgsp10tjPbv3l876f+wx9+UpHNZTTAgLBM5+U2ripUpLjDtrgmo8xL+I/Hyq8MkzvrhPdHRZOEHuwvkxTxXF7L+K9/7N94KktvzmaT5Xyg8whL0BKaWXG4ZBNt8Tp/bDW0vK+VUvHHZSjbcQ5rf1WNYzLpcszJYGmi4+NXTZIf/cB3ftObb6eZ0WwRGzVLoyZPQywpT2BFpNaDEkBAREvSNMKSNGVy/nC6XNDOKNqmgwWeu3dfoyQ1qhyZ3NfNBo8gSMH5Yk+K9syC2DAr2BBLuUVOpJz/eZgSb7DBBhtssMGFoNA/6yiXhbGoqkDEQCIRVVijm5yZZ4WBriUGvJ87+Dt34yu9xnjLBpJrkzEtZjjc202PX7ul/8EHv/cZQBazrdF4OpfBiFXUWJ87XLdPZsvtiTCz3XAISX4GCxXFMMI4AaA6M8+Mo//1xz/0E//9P/zD/T0ajZeT0aEA0RAUkSgpu7dxeWSHVybO+1B5Nt83PcQHWPlQrj1duU04VT08OHzy8ccX82yyXDy1NfzQd7z3Pa+b8HQ6IOyOJ4vpcjwcsCnM94uLhFkZiGk4ms+PRSWajAUDBTJY+7gjUgAAIABJREFUR6g5byJMSkNlzBk//2ufXFAinBiKFUyiVKygPYvGDjXY6X6DDuiSlhtktZ2xej1is0qpQESGCts45PY0BsIcl9Qv2Zsbmmtd58VlZr/ODH1ZtJ4N7TzK0OuPfftyz/xeCtatWIiWL8qRen3xBvLb3GwO+ZWXwtgchfX5SjHLGNh5rt57N6daG/dmDGGr/TI8g2pBPEd7zChKSZxfm9bYGsi1L5bD3Pu26ZXXaWageSLHsyknbj/Z5DLxXbzohMT05o6GTXwzHouT1u96OUPgQJmv0LPWxnlWuBT9/fRQbpx8RaYyAMbjiWTV+AGr6xJiJbd3gQDK2fHixqgLqYWaKsMKs5in9158Ziu6JbP/+IN/6cb06Aa2JRkbIPW/kmJjIZdYhcEKiBg+7w0jksUyHW8Pp9PpcDx5PMG+YHGM//bHvv//+NU//D//yf/Dj93k3WsHqlpT7FqcRa43gLkEmglH29f2D6Y3kiGy6be8++3f9e4nbwIYCGfJSGGMRgIipbLlkAIswoqYgWS8cwjcTxEnyIBMkRmkaZ5lQ+AhjODZr+C3PvOlYx6mPFCOmNhuj0i3OyM2uFpQgoBBLEB+cFJE7AEgERSnTWLJJ24DVSJnlSsbX0YbXDlc/FLzbO2/T+IQ5mJTXBPbOYe/eFzRwxgbrIWqGmOUVLi9HcaXgbhqdb2i8/kupTvTe3/rhz/whgnubG0fPVjs7AxNGbZYCkcMzbx4SrNqIgbTKXXgwkpeUVvXAkxieA5wygBh/2ixSLNrhB1s/dVv+urDu3u/+dwfvzyfz6KBSQaAXWx1cnJ/SUGcjG9M7z4vL3zlbTdHf+3977gNHDx4/s7OFlQjQcxEUFYp+AsRYgGYooywP8NRhOfm+PL+4td/8/cOptmDB3tHR8fzee5zyBDf29+/+didiIafefa5wVNPpVESaQQFiEp/JupsVgTp7NDS6BS2uZ2o855nEjZ8PMACZMywljaKSIXV2AvtWDRfA4tCjapwFBnCPIahnA9TQDbu568+zkUROecJ7mT7ujnH3JCtZToOjA/NkAEqvAekSwwuSx3wud7cEyCfMyateURxorfjQGHZrwUTrwHWufSWUwrd4le6ecOrvU6cKg4gxC7n8dsYOFDbAft7P8X29/XwFHi/Mh5XNVnVHp1BMnSuoC9T5g+8/NDXEg87/TMCtXkyYwYFzYxjoyqAafvZNlvSHiMs9b6GnkXzi2BIBSSsQspDWVzT48ny/t/58Q+9HZDp8Xy+HI93ZkuNhsSUuz0TsHV1k3O6UCEIwVqmC2IFYaWBTQdIkTUVf+/GXjXKUXIwP5qMbswMJuPhre3hfLqkKZ6O8ZMf+oa//bP8C5/85O6tJw7TLKNYaP0G9wVflxh0RilFt7B/a37/i86nN8fxjRR/+29+6DGA5/NXXb+VmjnYmjwQICCxVVFYafE8wjTCiyl+459/5dc+9vFP/8mL949VeBjFEREzbefpM5lrO88ujKTp+InXLKJIKRKwVea40Oa90x1BVd41N/IyfMKSWpGWF+b0x4tfeSAW666KRHXBmg4kG5gsVoEQK9gIhOy2m4GaOObxII2TTFmiyORttHBf2+YZaYMNzgNrL7h96MrN+eHEbuaVPFXVjce+zy+Hsm8C5j0hNJXgFqWIqpBuiq3h9cIcgZyoqWjg+eLxCDf1hw4xxbnQ/I6jOmKBpgzDfjUwkRATkZLpqVyG7INb1RoFAxMAoKlSpmZ249ru3vP3ouXhDXP3P/urH3ga2Lt78ORkMByPzFCMZqw0ZhUDZRJl0dw0XggqqoqtLU6tKs+UKiIQ9IQshV2J5/9BuYUziQiTyWAigkShjEwwGA4iBWegBf797333Y4/d+l9+/TdH1x5fTLaWHGmatXY4t5DdZFxbeV8jbQxZTaW8pwGPExiRAgpjVy8RY7qEYjJgvPziOL3/I+//V95yBxNdxoPlDJHhGEkkDCTE+fWtmXWiTzQyMb2wxD3B//6rH/3lj3z8CAkNd5fbsRTbJyUTYO/EFQLHnAECIiEUdjX2BHJePnadyaSB8UPd5u4F6UDfhson0IrcNu992qHVbdT9vMhmy93bt44O70Y03Y4Wz9zefXK8xYtlRszKQ6FYxfqflkgXcTIf7Hzu3t5zD44WPIYwCKAMgL2VuXvi5+13/LLhvO3TumyO+B5RHJvscyjai/DIsTKFSn8FUJS/m9E1G+OdbZpDtvK5AMSlpEH/687zCo8rZY5CgjeZ+GbFSrOPUsXHd2kIoZr1pHXYKNeKOrSQ8D3rUxVDZ4Rt0Ov3CVhwoMt0uTW2eFW9L2IOcvpVuqfoF279AqpU1nVo4HXy3nNX/Lxt3899fOg5X1h9T0sP5moA0kLzQXF8zPHEoqLKqrGBZoTUOqNXsEIv2CasHBdUdD5Ns8Vrt0Y3B8v/9IN/5a0Tvg3s3NnVVFUWmVkwUwRijoQMNAKgCmuzogSjKiQgGECBTEGCyKrha8sztG8FkMIA9QM+yNcP5edRacNEyDIdZunOeLAgfN83PXNk8PO/8y+mZn5o4pmouVQnM1pZ+fKGLuvB21oyC+J0eXvET4wG3/1Nb49m+/GWxipLRIrYHgliJgHs7bggMUiE6UGKFxf4L/63n/nkC/tm9066BI925sfLsof7l5sIAJOPolTO7qUeHzwHvMGVRjxYLBYMGcjyHW946j/6t77nzSOkBkkEBkZAVJymSIEpcA/4T37qH7+wv2/SGSXbCgVlGz5+gwvGZbBQvUiczYWv1DbhWqbcVXP7j/T1+1kdVb4pSW5x4P4a+Pb8cNXtAjdM/JmCi8Vd7fQXV6qZauud0TEREV001VS6NwEJaGqvQY0F0VxuxGby0t2f+BsfeOMEA0CBu4vlFtOAeEgJK6S0tyMmJrWXqCoAEVoqpxIBAMEwH0OIsNOJZF1XAC22MVwfx6koxiiW2fxorNdkgScm0Y986zM3J1t//xd/NRpdk61r02jQqZgeLgrDJxAhS6MoTiC8mJvp/vd/4Dt2E1xLrrEeC6WsDOSHEjiKVEWFVRUUpxjNGHeP8ZP/3U9/7sHx/SXAPN66/fL9PR4llTmYq8mHxHH0eGLaKPSPEogiGo0W0+k45jHkm7/uHXeGiIHbETIgFsQCymAUGcARFgM89zI+89nPLaMxKAbs+YnN1QNXG+ehFlxOVSNomd2UNjA1t4RsqqE94Rm6hJj4gDcYTxCikokP+qdv8lmNXYXyNlwlND20aOMr+1nLnbWeNx5vsqnChzj4DkcQutz2Wiuqdg3ebQmBeEKcY5ebet1k5ZRsNKFpbd+pr/Wct/v23wu2Tz5PeG3EXvlUnCHJH1x3iPnkV1PltXRwjnP2YGP3xFVig+10MUoXW/sP/vN/5we/Zhd8tLi1PUyB4XCgqiLCJgIMEwwBGilXFnXWXUp5U5QCAkkJGgm1EgA9Ue8qwWDlcMCLJDmYTke7O/uC6QLf+w1PvOr2D/6Xf/9nDmULDVWenRZ+ZuUdNCLvFw1DJFsOhkgYcTb9qtvXvu8bXzM7wpPbyMCsTPmiRspR0igZBSNaMr8wxd/7hU/8/ue/ktx5Mtkej28+/sLdB6OdG8t0SpqfAHaG8FUkxUZ9f3QhSZwsZkfDLYyN+bZveN11wi7MENkYg/xWlxgQLAFhRMAv/N//7MHRfHzn9myaghkxswipvR56gw02ODOcDRN/FqlfzoVZX5ztAPUQJsVHohauEKyfSXtIsHopqg1V3nHkaE2ZqDJssI4p+yQbYBEKo4vqDQCRnWuT43svbWcc3b/31ls7f/2DP/g127g2x+54QMZoBAMGEZShAokQAwpQcdmQ7RiCW1vX7+0dDpIkYqTAHqIBxlFxJikqdGz7J79Usjy97vzdKr2UxjbF360b+RHlh0UzUDrZUeABcAQkYyyAd74h/okf/9f/vf/pV6ihkioqP/HqRx7qNS1u5RvnX0L+1IN+1rV6MJBhMsiWUyJKYlA6h0nT/Zf+7R/9GzFwbRuH82xrGJEYgomYlAwUoEhAKUgQgQgRfuNT9//xR38/fuLpI4qXyWB2dDQYj4xZAohARXvIE66Nca2bRfm1fNZ1iYT3k0I2eZ3cyrS/Dvrjd/+xZr2x8oRDB/S27e4V+iQ4xcRUjAYMWhze35oMB7N73/6N77wB3ATGSNPZXjLeEXCEGBTrgBPgAfDFPfP7n/oDHm8dHi2SyY1UKDLMakiRPUomNisrL78xFECvVrEyzqa5yAmMHM4XPdv/5fFdS84Nr82DlSs+WxFbKP4m5+15bQ/YBXmUtu9hxjmx6nHnIQ82Tvj1N8I2JWyy8lW6VP/MeeZ6Luy/vZ2BQHkWvrBWyRny+hLwAe9Z5Pv+7Kv39eTWpBXaCfHvDw61p3oJr8bqhZNXX8zACt7XeR8oq7PCI3FbbUsREZGBGCgzsebm3qbQ2VU5zlUhESou42R7Sazaq16V6RzNAUlx+NK9p3a25Lnn33Jr+4e++T1vvYGnB4jmZmBESJSYCNAIIGscL44xv82xAkZxf+9okSXjyfbnXkScYZzNKVf0lq5SZ09R2HVF7pZeRFTFIF/LVH8pCt8pqgKIqNoOQ1omDlVlhTHlrbCiqkKYm+zwaGpAo/EWwMtMVOXO17xerpIDbIEKgxii6TRbLN70xGNf9/pBPIcC4yRiIQVHKpGKvWRX7VWuUZyJiePoEPiV3/29Z4+PJ1vbtLOVLlVIWDMSZa38hZdghQSG/holv2Horzpsz8pPUKnsDpn2H4yWx+9/3zfeZMg8S+V4PB4qMgVbN2dHcx2MaA586l9+/vmX9wY7TzK2ZwvD8RgqkcQgIeUNabTBFcLFM82hCT0kyVm9Pxm6mY6cPPwlwtWSdoPzBBUnV5tQZtjLVVxWnhBR2FflKRE6rayFfxVSTSiZvvDSW0bJj/yFb33vq3h4lA0Qx6MIy2WkiAUR2F74qAUNDzJEsTUXsq5nRYHt7dSMnjf8Dz78CT54LjYLQ7Go5W7JCiOSbzmUkhCRiKiqCBX8jT1HH+UBFFAmTUFLqAHAhSdEmzsRZUCMCIyKkkjpU2V7Z0eMHBw+IKKtrdGDwwPz6zvLa085JVGcXyfp0o9FVpbnmaJkoIkI2QImHVD2vve+dwsYCzKzpNh6q4lYqdjkyO8KVtV4ECnwsc/e/fjn/nDn1U+a8fjB3ssYbUFYhUk928Gg+u4+Uy5Mbh/WWloeuV+4JqzD84O7phRq0a+rokfIUO98wZq7IbIEYQKzrUuYo3e+/uln7mCo1vsRQyNSkDKECbw7wp5gOsNHPvIJQayIESWAEEUsiIRBSIlBLVxySH3hNu8aKyQ35zDfevbEeSM7+V7H6hbfLAk//6clGnr7pT5leg8bJ2MBaxbbZ5huX48fIUmCNu7ur0Hb8boMzVYRZMdPWJ4MtHh98ezgLyVcmTezx5VGuxHBOSSUm8or1HpaV6hofE5K/Co5tNJ4Bkaw9/Ibb27/6Hf82Xc9yTeA7a14OZ3GkwmIIBoLMrKGMJS7r2ozpzaMl/aPplsjHg6/8NLeOBoyIqFEKCYmREBhWpR7M7Rgijix/1RVQpQHkDw87MymDMoEC0aWiHA2T8ycxVg+Pi9ABsDMpEAEIiJmOl7MITremkDMfD69dm33/tF0OzuKOctokHJsKD/7ey5e2HpaidTAZA9TswppKkPIrQm/78+8SVOME0WSZCJGlcFCEtmT1woGC8t8thhNtu4Bv/Dhjy+H21Ph+cEBRmMAhVt4CJHLy54brrqq8AjC6vF57eP/Z+/Nwyw7qjvB3zkRd3n3LbnXoipJVUJCaF9AArRYCIHBmEVgbBqD2+423aa99bTHa3vctrt7Zmz3zOce293TPTO2P4/dHreXr7HBGzQ2GAyITUJIgCQkJJVKpdqyMt96l4hz5o9738v3Mt+rypSqhLDrfPlJWTfjRsSNGzfixDm/8zulB1yKQdsO1r/1zrfuS+D7aEZWuNnNOg0bgBjEChQeueBkD5/6wkNhc287U09pWJt3hUJ5pit/2Oh0eeHu8mdByo99mk9+3FMJAOfJf54HOdd0NzKV2+K8vFBF/44vP+dlByKzEd4l10sZ+Trr9kqV7/f6GtTGVd1RiZ1i5adY4kvlu4TsazV9S/dBzefL2vvB17/u1n085ytrXM1EcA5swBCR0uZLZrghEYSM0TIXUVWrCDgMbBikeRrWE1XxJAIr4I2zipnpJaAqhaxHZRUgoNoAy/1NiF0h9WbDp+0G3NV7m9RbI2/E+SiIpmoJRFQRBLEyEVGTmGR3KxV++OjxddNsm6QXRCAGquaHh5WZ6uf4ZjuOMKnmwNZT2ZYy1e/jXPUTZJSjfFggprTbSxZ2pb31iAKbn7rqkpV9dTQDGCceMEpKrBABAxbeEAEsVtxcwseBz53Chx890Y9aqQSgAEIgU1ody1kwFTZ6midGBSwfexQdpgzYaqqvfpfRf2bVuVHVVDkdsHFYZCywZJxbl4fvdfptZf+4fK7qhDnWnam4Tdq57eYcn9W3owJuGQGWoZYJeCYvmuWuGQW3vvziwqMeehWXqUHQTKlgBSygUnhBYD/8+S9La18utdDGnlmcAOQZogyCjpnkp51ax1VYKU0ao+uzvC4yaw489324mr1jcwYegEwZ1c3KtxBo9tI+ZAkTUhjZTF894q8YTbMhV/SWMJ4dPuPObUM7LL9jq/+5jkXZbv00YZpWbJpKTJi68s9ksNncT6KNxEe8pbbxCTW+iGzq/1RMfHXPBE9LtV5N71y1f27+bCazyW62Rg/R6hsrIY11qfpQJmoY/0Zko+Gtu8AMxn2M1b/11uqvY43M8jjpDDvBREfG3z2NF9Az3zDZ2tRmZjHSTD6vmV7jTtex6l2MscWfYSkcX7vOrclglrdnZvkdrldTX/U2K5mpfw7HZIP3aWwLU0Zpd1cqc6tpWXLTRPg6WOVHQorIy82Xv+jyFVsXNBnkhp535xEwjGFmEQjDUDW3ZXKOl/llN81FR6xkS1T6tpbasRWJQaMvkxUlx4oQx0u7ekceDyR7y6tu+sFbDgSAF7BHzU73SW/ltioHv+vxucc6v/R7H3A2SaUiUH+hudaI2HsPa1yWsyImilxx+/VXzQdgqMAxB2AWgghYWYihMKiYejMpUq59+pHDh7qZabaq6Opqng6dQ2eKDx2X6bO0gmmVSvyYQg9AxmKsJ2A65buqDmibnnlWGrNtamzP5VOaGsS2qcK/EwE9ACAEM3oHWp3qY8t3vuKVSQQqYChXVZhQmbx6J47UE3E7G6TU/JvPfjFF7BEDlgXCUm5RnoGdAEQ2jefXlRxj01SUbWC5ZqrxpRNzWEEFf5NhE5tTVhNAUNFZKWnOy3OXCQX0XDQwpuZux+k6q8jMSTfj+gts1/pGkg1t/vwgnhcAW76+MnJ14rQ/XPN1aMoZl3PMxDyhbG1cFlUrUIWqNhvNxRAGEK+WiLgEtBDEg0AcGAMeO05WQW3T9jEpkUPnQFiRrq7HtUarwO5ajYF5wDICRggEk4XLHpiqt8OdFQBQAJlBfFnzzpe97E8//1Bsg3Soe2xHsZ0V63nWz2MinkFxEGaDbt1o1j554Vz91pdekQAQMWyUyStUQDDKTEqoNGEtGEqtAfC393xWC6eipflTRbafyW/UkdEjbv7Lpkcu/zWuqevGP7fPwrF1JLcef2ffeJbn3rg2/3dGj98kDAQeoYjNe2+485siAgAPMgTL5AFDxpEXEW+oVm9+9pHVLz3yaF6/UKwAUhK/gtzQnVRFk1TR6sMxG0/lBgAq4+M5dgR43uFYNCQMU63+y6KqbEQmPnYepZwGZurxo+f14y0oC4M3m/nH/qllxNF4hMlzeKCdTtRzPLGf3dr4AjrYbAMTP5E9dIc9n4XVPv31qvXtZyStrs8oM+v6tmXEt72ptlGE1bOo8/mR08cknJdvIJlqdJ+dAXdn4sVPvU5MEIgqywZH5PO0jZU5ZUeSpmlpVXN+rK9qoAzxqp6nur2GHJuq8KMjQ5nzdpJu88yyTat9r5+YkNPCrbeNQxNoAUGOEDDDH6uwikAQeoSCUBB6BIXaTOzA24G3GfpdqQOvuumybG3VihiBGYMOn0WZddzfTkNEJN6H1iDvJcgXDN10+WV7DcTBEDOGGZp4Cl2AU3O4nz1yZPDVxw8H9dZ4teP5h7cvuvWENst8Xv1S+qBK+L5lYejYz4ZMp3zafOVM/SU9+0epTf15IW9Fz06EKn8UV9+Le9GepRfvN3kPUE9EZAIABkKQwFhjwkLpFPBnH/tsWF9yqIwTUuEIBCRgmXqY2qzHQzapIDL8GWrMW36mz5+zIVWdPDq2lWGvIjTZh6owEzERb2fKUfm8XLplPUOIRz8TTzTsw1l+tPNyXs7LFim/x/NyXrYvI1zNVk/yaBvYllV+mz6giUNJxXFZGUvHONtFFKQqJdWO+iSOsyq+EkQjxBqBeYM2HhBUuVSFBACDNzH1EJOIJ7ZVkyM6fR1DWcza/8ax4wQABmMGUQUDUXM+67ZrglYUL1hQnrfCMDMK0NCgVVkdmGh0/GAQm41v1xAuiPjRFImBFSfwpBUwADP2Up2Fa5/R/43CwFYCe2CCwx4ocT/DFzesXxVRHHfW1xKWhuYJy10vvTEA6gZGAIIhGhJao4Q+8RCs6GA0MX/yx3+z3pfa7mYvV9KhhjLZykYXTm9JKk9s0zD9056tEtaNKzSjzBkrAaB0hvmvqjtxkm5BjZ/pXtVqxJ6FQq+qs7aNWe3uODLvtJEA0xoWAJ6ggjiKs3Y34SBx7o23v3I+RCMC5aoli5QKSHprqwvzKx68NvCDxPzVPV/uU4sCK1BRX4LrlMdcJyWeZOpTbBz2qle2qZgQnUmjnTgGTORnoC0Te/S+Zl0fjogKNvyOqkSm5NWZnFeyMdRMZuPqDuSMQJqpye13JDu1Z59rVtntfzXPzhK/rfpnFKHx1zfkRN+mjFvfT8NfPoYcnbguM67PKq+oGMHHltXZ/PQzrOzjZcdx57Mw9DLUBpQwhTN+K+P7EGE/qnB47+nGlba0O/ksMzLFThaaennSzkUTXZp276zx3I6cLXPPLG/P1KLPqvW/X+eYca14FrtUxY1+2npEVUq+wDIMhjbf8HylOj/Tcs0l/8soAJ90hIrXMrZxdByobFcKJRnqeKLjfxIFnnV0RVXJ6boqFgjEMUKrucLo5PZ/+oY9FCqHnjwRxUEO8Sy+hKYo8TRNfVx9n6nKz0zLNf06zVKFN0og6/cbtajpUawfvWTPwq1XNooughijDYeHClPpZuHqoIUCONbHZ7/0mDNBPkhhojO0tQ0NY1uimEg4QALlM7ADbVFDVTcH8Gz5ZLaUL4uROddhJ1tDY7dZ/usYDzNTCMLoDQbNWuJWO1GgN191WYugHtmgV6snQmAIFIZMN21r1Gom5s/uObmaW1cLHbEQlERoaJngYajDNKATK4xs0koZgBL8RN6MMy4afDrleRSwsTlkcMb16S2yqlbm/1GHt3demjhaVFeqPHil3aT0YRBRRcC/sVufHXTNedmRnOvhnvXZz2p3VvmZ9TwvWtlOs73KDsu/cOT5Gc/z8gKXiRRPw4sjsAnRkC9kcrZYft60+UnhYZShqfI/gUo2uYpgfbteKCKMGb/U0FRL9I5FxrSfUfAroI68V/WAIgeMVSfOnobKd9NDKGkIatUMB6i1olUSN2KXkNPqjF8XITGShZLfcsM1CdBqIO2Bwlmlqw3CA1/4yrFHn1k1zZXCqzHgM+9ZDNGpdAi6wbM9dqSZWuEGdYmgVGtKBYi2AoWxWVUaa27zU83md9sweRNUQUy6mXmEMZvfflLOMlZ79CAjEPazqORcsYVW2A+SNI/iejfLb7juJZdfFESAsnoC8RCIJT5JogJUqPYJH/zYZ9YLqtWD3HmEY6mgKhfYWODyJju4IvQw4xcVADwjNxvxFcP6Nr8rGdOkaeINT52HOzLdba1hzJG0+Y5R4elMFBjr+liXpdTjx1sYHQhltEYRNsGHqs9xp1b2HZXeef3bP/Pv1N6vO6x//K7ty+b3Pdq8Zs6aGRbf02YPrRDts63vs8pvOK5mZeUcr2cWg834GG7pf7mqTGZ32VxBuaWW6SnHLevjJm0du1ln1HN62c4hYacWwS07/hnqfz7V9+2oVM/n4Wc7be3UK7jj/r/QlK4ZMoIZz9I27VhR0RL8UvG+lBCVM7EMPVspd/NtvqfTFHv+UMQk5Y4+tq9rlaZqq0Y4o1cK6vqBM7UoilZXT+liHSoVp+YYKPb5NKOWnS+ZZ1QFVEIg2NSjQWe9lnVX4vCKAxf32lhuwvB0vZwggAeMJ/aEj37sk8sLyx2OnGfo1owhw9TCgII9Kq+GapmoszIiskJUtTqDCsNxpY4YkaHiW5reNwJbGRAhBjkLRypVTlllgGWIey7fjjJ7BRM79dW+IrpBCIrKnB+onJF/qqxZBMMMVhvaoVT0/LNiUcZiGTdtsQQi8kOiUiiXI2bgeeR/2GqsVcbkQRQAmFxJSDjS39SXh46p9Go8zPwwdLyMv75q0wSJEXA1SsNulOC3CZ8PD8en+ih8OSbWQAWWVdKY0tfeeoPrqa2LITaNGgBTDhobYraIMsXhp90jTx5BWBdr83QQwG6cknSY6IkVJFAFxKgwhFQYEojUvEQTgUMMoGDOlQuGgJVYySihhJILMdQqeOh6EoIAolQh5rfuwQQpi43NxmpweLSwEks5AmRUVUgYQnBWxYgQSp1byndtpbLQABB2ShCwJysaCKwSC5gm50B5amWIEZAKwzEciyc4riZh1f9yzguxEjxswdYTO7Jq7TDCqoT0zDw2nJfnKud489qpYWCnu86z26WGtKebr4xLRau5xfr4ArSyj9t6Zunx5+VZyxkBrpsKv5BFVTYp4rPoKadKZZJTAU1zeUDYAAAgAElEQVRZky2ANE1P3/wZ1wQaMyTNBoGgKkSwQYDCsVcUzoLKmNHSTK8oMfElq4LSaV3aTDCMAhgMsil/LbfA084DGvrkMU0j39DhSADhIVyVgChuVFs1bdb0qHT6T2tXFAHHAeAGRSOKU69MKuTBtEmPnz6Msx5m5phPH7lh5QwvpTncgDy8icjlPcwnSFOKQs5YHa6+4rKD+2rLMZDC+ByWMYV+GjC2vbYeLi0cPpw++cgjAdcD0ppJUqhuMnQRsSAWjYJ44H0Gcd4rPCAKEwZButaNTTjXnM+yTAgFw/MA2hU/sBTGQTPPOU4aJ098bW5lsb02gEcjrDMHzgls2Em7rYWm6x0zkpEfqBcV4jD2pp405tJBXsZcigDGFgCY1SNu1tO1U7AsWQqVOLakYPFBVrBXEe99mWPMAwBJo173Ik5FvGaeavUGyHQGfcSGTVD0c641JfNxvZn2UrJWKAe5ybkyVBlRqunCyoXL5puttU7bhrGor4YuDJE5Ua4HAaftQNyptZP1RmSD8pMWANYEg8FAhMIw8N4zM7MxhhlUiElNnPoyykFBDqQMIt2c6rQMuSRFUHGMAmDPDGU4CWtJXmRgjaJQi8z4nLOUnKsFtttrNxqJ86n3RS0OW62GZe62e/0sNyYsHDqDdGFpsfAqwlSL17t9s9CyKv21I5ev8C3X1JdCGDeAiYwMA1DBQijE55CQ+Z7P3t/rO7WNAcnC3l2d1TXDoctztqEhU3IskiiMJyNU9I1kOug0Ix60T9Yt7UmSuSSs1+txXFteXirH3xMfO7V2ot3rZakG0VOrJzqZoyBM5hbDcO7E2kCDBJmjKDCah5IDknNYKfdj4yYAsdajoHvkUC0KAhFVzVJfbzXzoh+bwAhr5sVz1Gi0B6kGEcI6RzWnaZF3luo2PXnSnzp1wa6lDIPdy0v7d+/ZNbd4YNfeQGAEBNcuTomhzz3w0KET3SOdXoa4vrg7ddrrdWzAaVYEQWCsERFmLgbpUrOOrOi1j6+0gksPLF960e5L9u8myL7dB9KB6/W6ee5Onmjf/8BXnnj8ycJER5z0TdxY3jNw3HNFGEcG+SAdcBjrTkyTLxzulwkOlnOGyN9OdtXxVZhmKBzPBeu81RJ/+qfdaonf1uhssbXPetenf5ZxVX4WT/z28GQT/gEMDRMTyHsAkx6MWcLjrU8cHk7nYajaGMPBj8sEs9Bs6tizLrNGdTszbKe87NuZt89Rw97R7c8CgIrTaK0z7irFGOOyDICNIu/99KVgqIOVZnVxbqK3hjfqHOIwq8DAitZFRVRI03RgmEW1xF+qQkVENU3TKIitNeNW+RKNI6OUUNUvZ2ll5rFYtFGtozQxE41Ma7Ey4k7xxJ2d7p1RSlMo6chqyypMDJqkfjtjl1iJCKxshNkrjAcJ/IQ7c/gyt1HdcxNiBORjQ8jTQa9tcsT1sHvyMOI47OUtaHHq6B2veNtyEyYHfFHa0AEztKCXTwRVJcNJo0nAPZ++p2ivmpo249ByYaUoivHvpIxaFpvDCQfNeWFro6DERgfifPfUUsDaXTfFwOa5JzgLw2lg21FMWdo7deTo3otvOHL0GCeRYYoMx9bUtMjX12KICYJ6zHOm/5IrL06MJJZNGJCtrfb1y4dOPHF0FUFQcgg4Fc0djEUU29DkaRFEMflctGgElLVPSJ4lhhcDXplr7d69b3FxYWFhEajOdSK+0+msrq+1O71nTpx64tDD/TRf2LvHIcnFUcCGvIRh2usntVZ/0KVgy+hvvAYRAiuCKMrX0k5vkNQavXaPQxPUIhOoz/pUZDYr6lBbdA7sXTlw/Y379u9eXJwLQpskURRF3oPI9Hvp+vr6U089tbq6evTo0dW1dqfX947nli5M+5lpLYhhUE4iRrg8GY4fHUnFQIzCVIuArbwKxEnS6B8/TvMJkSBtF+unkPYbxuxu1i7et3LJJdfu3rNr7wUry4tBqwEQQgNVdDo4uYYHv/zIo088+aWHHn7i6WPJ0q7Cezj16+txCKv5K669eiWC0RwKuKLcU1W5NEI7Mr0UFONj99yXeSStlotpvdtLms3uibVkbq7fGxjDQYV3cnO1oN85jrw3H5kwxp65+KqbX3nzlZdfdeDCxHIUIQxhxz4pDzjgZA9H1uSRp4585fFD937pwcNHn+5lR+cbu7wJ2z4LxPDwYD+yLJSOrOoTgMCL76etkFqc33TtVbXAeM++yJaXW2m3HTjbTOYHmT/ebrd27znSTj9x78PWkkVusnbe7V5Q4yuvf9F1V1xy7cuv2bevvhsogBoQegQCELrFQarh7Xfd0CX80V888Jd/e+/XDj0cNJcXWnPr/d6e5aVur+2LQWItqehgtbt+6PaXXf+qW19z5cHly3ajBpTIOAM4IJOm81BB8tarnnwKn/jCgx+453Of/upTEgQc1udrzfagX0hWSxqZnAfQn00514bDc22Jf46yoQNsGYfnHnJ9rmU7IJmzzkR3Xl6w4rLMRlH5C9kzI9WnUF3vBH9BRCqqolMdpfbrZUQhKs0HYlDxvZgNFV4qaPQ2tFh63lJVkxA2WPqHJvnKf7B9Gabn3SC2ozKC9+uwBIhFHqMXpP0G6YHFWtpdCyVbd53YFVR0l+N4/qLFK3Y1w9LvbwvAgWm2z12OrPaPP33ogpX5tnLbdWjQ3rfU4inOAbYcSdCgxb33P3HYoa6AQAxS03vquosu8rGzKmEYeEZmoBwlPNfP+n5prnbNRZ9+4JnGYquvvfUsNZKzaPvYM7ddd+XtL7v6wr0Ll162tFTDCgAg9Rg4FBFOFviV337giUNHfGQytkpsOCAOnbCm3uWDRhwM1o7vW54X1v7xp67cu3LT1dde9aL9N19+sBlSs4EYGADY8D5BCV4hhOOn/OEjRz/3+fvuf/ypD9/3pZWDlx/vdGHTuaV9x06dGiiSepLlxdbhKvE8MoTi9LrteHk+z1wvy+fnmj7Ns17mXT927SXrrt2/dM1Fe153521JjVutgAhONAypZhACaw41C0KSaZLQ3hTodqWXuT/+0MfuefDRBw59tc51KoxH4on9DF8XA0acUWG1gjK0lAELRf/U6sqe5U77hJV+jYrIDq68Yv/NV1zytjtf2rCo10EMBQJAgN4gZ4dGLeQFZPO47cLL1Fz2lYev++tP3vff/vozhbWt3XsOHzveW1198UrjLd/yOgZYTEWJqAzmCpJODKBRw0cfOPnFR540S5eqMU685HlXqXXB7vaRI0ESG8nYe4JEkieraX2wvm/3wtWXXfptb3zVyhxaMfqn/HKLDZUkHBCBDIEraermGna5jv11vnHfvvWX7lt9/SueOnLyTz/08c/c/0jqenHc6kvqyRYUK23kWhoXUkQEMxjMqXv1dVd+/7vvnI8QE4oM8GglsIJ2F3ELChzxeOAQvviFz3XW1gMe7KrRrTdd+dqXX3vHNfsDoA/Ew2GMgcDAGrCiZbGa9xdtLRR617defdetV//8L/6nR08cHcRhY3F5dfXEQhKw0XTtiBt0v/str7vpiosvXFm4cHeYADFgAHYwBkIIAcMQhgIGeNF+7Np/1cvuuOpPPnb/f3nff8+cU29DVY8IGoIK3QlJ0blexrZjBR+XyoW9/W1up/Vvs9jU9rcBHZlpZdzCSLMV66+zy29Y4reBid/UoVErM63ds3fEkT2ufI/TbHObjerlLRvWYtp8A4bPsnP2rY1fZ9270/Rem+uhGdefX6Et/oq/q7JT/H1V/vnUvp6tyk3Mm83GYzJ5kiAZR2wDmI3xfTYyMsyPm+QrfO1GH7afCRuYeAUbXVVVlSEwdHhp47/jt+vG/4Zejg1jMzaslTpCNT131idFyfG8s7t2ODAzZ+d4PUad7z7zHa+/49Uvu2HOwhbI0yxpRmma1qI4Xe8cWG5GCusUlGfIrYhRC5k4vpTOHpflNq41NHjP97zrnURFgCIAAdGWFFoABMiBE4IvPI2H/sPTvUFfSAlprWi/9+2vf+dd1ySEiNHtwhMyCxDmQyhhDTgJ/MYfP/n7f/Ln8UozZq0FxYWN+B9+9z+57bqVfDVfnguTGshncaoBccPY1PKTHZzq4r4vfDZOam1iz8wK7xypGGXmoBYFwWB9zuqJL993+0uvufud77n0gsVL9wVLBPGwpOU5M6n4vAXqRRyY2ISAWVowe+OV2698wwD4qweO/+77P9giefpEd/3w1y644OD6QAa9NgdbD+AjiPnwdcXGuUJ67Vqj5fvd2LkG+YSLV73imlff+JJXXL4yFyC2CA0c0Ot1W/Vk5BNasraPPMtcw5jIRh6yVPd5Pfyhf3DX9+Ku3/vg/R+65/7Pf/VprS2KrSvzMAgBGLmnFQQxIBHPJnSiYKpYslTmaiY9/tSClVD7N1524bfc8fKXX7e7oVhmJAZe0e2kjWacZz0mXanFDEqzrgq1avWBqgrdfHD56oOvedkNL/v3v/2Hh04cafpiYffSBQ170RISwBCB7EaqLyqPu+gOgDr+6C8/Wt+1j5oLzwzSwSBHGEK13W43lltFez1QH2huxSU+vSSx7/y2u7/p9svqIbIu5gIkQLBgCJUDTcr5X33tstKwA5d6pWYQdTwixcVzONBYesnuNz96+Piv/dbvP3rsyaS5O+Ukp9gRA27rksiKgDRiCfvdu++45ZIYEYAcBiBTaL8gsY047GfoG9QUf/vBP2jQmhTZdZcffMtrb735youWY0l8oT7fFdY7GHgviQnICbRMkyAUBdo7NbcQ1mEzoLmM/+sX3vt9P/V/frnfXz1aNENN1082NLvuwPJ3vOVdl+9f3jfHMRABFrCiRhAoeYcMcAQmBAaAdvtrxH4+XtYG3vn6a5tx9J9+5329PG+19uamvpamfGYCqvNyBvl7bol/jrI1dck3jHxj9fa87FBsFI0DbJ5rdTKGUx/KOJhlZPxlnXKMnuUUmFCttyml1jtEqI+rzorR8lH69MmxiKqSKKTKp0kTjoMpVkMV0mEWGFUHDaRMMoqSqUdElUom7TJprCrgx2kZZnozxq6PGHAUGDFgglC6NgyRGZoxyvzzz1FY4al6SQyI6JCCfQyNNFZ4qkwAQasoTwC8EZK4cREYe6dG3a7Qf/c339AEyh+DSAG0YgForskeRr1RBxJViDElpmg8ByoRQa1UvDF+oW4bQNvBe9QM4uEkk+ppFEABOtpHEuPRh57pdztBMgejzTAIT/Xuuv7SCy0YyHtaMyQG3oANdhM+//ix1oFdDvjEf//A3rnGoLu+byF877ted+PFFxxcCvL1ImmaKBSBt+QT46DwsEoJhfj4Z+9/un28aO3xNoHzKogMSdoPCEkQrR1+opZ2rrzswu//X/7VdZdxzaNGqBWwZQwiK42FfxIrQ2DgxEuRChvDwXwUFIXGhr756pVXXv2u//r++37zD98/32q0148rwjiMC9q6gzIRKZN6Dy82UGOsuG5UY1N0E0icd26/+sDbXv2Kmy9rNgLEpanWQzwM+1YUkeRVCCWokByFJIaZidSVfKOGvDpf4/Bd33ztN9187f/7vr/+i7+9PzPWmUbHFULMYxhTJiE1ypwXwnHgcwdD6PURxIuxrQ3akbRX4ujbX/fab779xcsJ5gABAgcqYIH5WixFERvLcOxyEEeAMBnRZkACOINQ8fIXz//GL77nh/7N7zz46OMq7Te+8e0JAAVDwQQtgxgAVCyTYYQnTuFv7nvIz+/t9jowYRjGniCGoIXr9Zfq1p064bqrl16051tuufUdd9y0K0ZskaaYD0E51DsJODBMkLG1wEF9SXobiyNr4XUO7Il8YVaI9y7QRQu7Xv7vfvCX/p/3v//jX9LWXkeR66dBI8DGqjD8jkhl0IupuGCxcWB3YhWxK6wWpOKJ1TI8ucLP1U0vw7Fjxz7xkb+s1Xe/89vvftNdN11YhxGEmgeagiE+ayAkwBQwCEiEFNACWWepVfOSOs9Q2wpDOPyjt7/+x//jH12w++L+6tOLoXvLXbd839teqUDkpeYHMallywqrllQhYDBVlh1REWK/kAReNctO5B0sLy7/gzsvR/Ytv/q7H0DStGHSmm92B53pi84MeZZW83MmO+7PTi0s23Edb6Pa7TDVTMj2+eCrep6N9X3snxNXdnAY2NJuNRpDRppNMv15aUt/NrpJm36fFkR7ZsPZdjjjZ3PPT78+iy//7MqQgWoCEz8a4Q0NbHuy037OigEYl8nBH5tF34BHHS0KG8cAXJp6oMTVbNLjqwjMki1+kgsRNKEHjMjlRLX6ErdqCWO38/AzLrV5KBtrvXcYalnPkoJ9+0KT0NLTyekjXSu3+4gFeUKXHtKeoCRDqe6YSC105rDRiSLjl1WISf2WzKPPSjblPS05RKWMq5wNn5odUixbfmdAVLXyvo4CIIYVlf+33r/pjtsXgWCASKVm2ajXEVEPE1XmUgCWrJGS3kZlkxuaiKyN+r10rh53iwLeL8eRQtKiXw9qQ/+GjBjxMg53J+axDB/+4AcHg0Gc1OHyonv8ipXa7jpHAHsfoCCQEjsmAg0K2rVQ7wOf+PgD/SNPwCbfcfcbvvPNN12VgACT+aU6QzyguXgLLX0yZUJQtfjCVx7gelwAkvq43ghckXfX5gORQced6ly3b/FffPd7r3lRHBPmGJGgRghLQy6b4WpO6kXVDQlZQMQgFCUFEYOYCofYIGD84zddf9011/zY//zL4sKkuZiRd7rZd1++a8kR1essxaDbhuShIcsauWx/o/4P3vyab33FwQtqaBgYj8J5JSgMVXQoUtKVkMKLFw/LbDkEylddcuP4mvFGBoEPDrbse992Z92EH/joF3KOBlAZSyXL5ZxhckpqTQ7rWIz6xkKz6HYHxw9H6bFXv/KGd735jZfutc0QocJS9V1TOcu05Akq123vi8wkDQMu+v3MKZvYxDY0WLToePzMD7/7B378XxPpDVdcanKwQtgzAcaAjEKhXEYne8In7n2yx7W+A0UV+xApy2AwN99sH34mXqn3eife8Zrb/+G3f/OeGvYQQgWAwMKrEpeflid4sMEGko0BgTqIECkU6nLAGlgGLPsiG+yKGk/0ej/8PW8K6gu/8xefbOxeCGpz/by/9fsjSBho0evc9prb55pgKFNO5EAAkyiIxDAPcsQG7/vDP2gF9l/9yx8+eOHuJiFb6y02AqNlBls2Ms5kVV5jKIGNF69wsQljDjtZHjm9/fqDt1518G/vffDCpfpP/vD3Xn/JfCgIfboQWJ/5iAxJycvkAAMmUrFaYroEWv6JAgrDgBeXk0cPHw+XV975+mv//CMff/DE0QE49YykNn3NOS/blnOtsmzDQvXc5Kz2f8ej8Zxb//sALBmXb0QV+RtGmKUiZjjbarNUwVgjUvkRgIKVaSzn92iDYN0wPdsq1lW2sBSUYbKzgeCz1MrNRHinEfIjNr1hRNmzF1ElJlU5R24tVWUFEbHZli1+VqrHDWu7UhlAWb4w0WFk8rmR6qRYaZOVSm1Ubrz00rrHSg1WmDJPcMriWIiJDHM1byyUfKnSl+r4JAX1+NphVKBZDFUIfG5tUE4+VYyxrrMD7n/gyOOHDq1cfEXP5RFnsV9/3a2vXWhUHn1jDQA1bJg9xEGVEQD/7fd/+6K58K1vfMs733h9qAiB3BXkC2sswXvx1irBgGoepiAuCF99fPVLD3/VtvZK5uv11mBtQNrfnYShrCvWr7pm/z99x9uu2hu3QgSABdjAeK8qEK9Kfkj4Y41hNkDpsqnoEhmkyiIwDCOwhYfTsGGvvND8u5//0f/x3/7a8V472b23GOQyJKlUqni+BQxH2clBmAQXreztHnvSd1YXG9GVFy78T+/9zpcsUAJ0TjmfWA9RIq8KVQMiHcFRBKoMBpExBsp+SCVYpXplb0lC9aFEUSv4ge+4NfD29z78qaC5nHNJv6QMg9LiLyxUQ2yLoo8gMKTsen7t6MVN+9M/9H03H9yzu8ZNg2wtJeskosBGRHb4EY858JRNraG9voCDejNQ5AX6PeedD1iajdreOVxywVItSa7eQ9wH+5JKqXTZWVYuORqFkAo+9NFPSTKX2tgYhlbUn63mgmufmgtt5+mnfuHH/sWVFy4s+XQ/xZmTTIXIsCGAREiVmOGrHMzDGUgAsVcSEsNGiD1DxJiSK1thDA/c+kIcNg3effdtjx4+/sH7Httz6bVpVuWlGn0FJUmlsUga9uZXviz1KCxSwwFZAAUzQAExPPlCHnvsiUNfeuRf/+iPXnnx7oDFnVqvMRkJlGxmLIBANzK4leZzVM4EW0Yhe6UawMw24FYIOvnkzRfP/9K//mFN3RIjQpoErntqdS7eRWxLEgRAlISg1YlrdJjRypRjlQa99OKlFRvhsRxvf8tdD/3mH7QWgyIz3sumj/3vtuzUUvP8BJttbWUrpnzyr5uR6LOyq47XNuHcPS3mfuso8QzvxxRGFNrS//HyU6+eScYpt7e+kO2wspzd/pw7meJl2sYEPHc+gb9vwtaWLDRs7WT6znFz6nZrOyv6HhExkZ1OTf38vXcB3JlLzZazYSEfq23G76ylFXZLqh16lpEEKiWaf1QNTmuO36nI5LlICGA4oIx3BMBGxMLVXH7V/sVFRgKcPL6+NNcoFU0Q/Ajlo1DQ2Opf+Uw2nfOck6Qe93tpFLMJG1nWAdCIGyo0PCaKqhAZKCvoRIaPfObexuKKc16cbyXBUmLfcOtN7ERZWWGMLZ9EFEYxSFNL9qMf+wT6gze/5jV333n9ngBugF5v0EjCMLBpmoehJRgmUkXJk10QFcCff/STuQk9WQjSfqceBk2lYLCan3zyn37X3d/xhpfBocloAlmOMAQUBgw2oIBK7Y8rb4eoMgRkhmz3AmKGsHAhZBlc+HrAx1a7UbNxYBn//Hvf+R/+y/uOrR43cb2kKheCipbk9wDT3JwRUP/UsScPN4r1Revf9k2v+L533NoUmDxfX++srCz53OcquXgoM4+FXgMgD4DBTBYCESXVio9ZSIjAbFVIhSX3fd2VhO98w8sfP3Lko0+cysQK0Wi/F2Jho+KMjXzmDZvIDUx39ZpdjR/7nm9/w9XNOmCBrNtJYgYzQFrmWhgmTC2DQFgBVZMXFNUNWZeLVyJDzaY1ZLNOV0T3B/Tub31tCVGLLEg9AA/yCmKFeibjCQXw4OPuK0eOh8sXWRhfZBAKPIzmQa+TH3vy0v0rP/szP339PqwAJJGFWssCckDhc4ZhNqykCk/wlYtz+LzMKhHIK5H3zhAxKYg8AAKpTYJap+io2jCjn/vRt371R/7vJ596hOrzsCEAZVIBKxTMCtdvX/GSiy/ZE86j/F7YM2gsMIVYocX6yaP/6id+annPYo1y9kWjGUU2cVnuyUJLnBFDFSTjwaYeQ6uMMhM7oBXYHFjPcct1l9z8yluaHrUAc6Qh7GDQieO6sAVDFMwEYqgY9eU3OwYW41LdI0GtERd95yJbD3D9Sy5NDPpOvOD5ywj+AhB93kgUtiff6ObV0+TXm1X+vJyXF7Lw0CrPzFPx8eeSdom3/i5aYc6tlOyUShuYliptOA01NkxR9zFNiR6H7Z+Wx7eCkYiq+kar0tiISCoORiXVIbHNGApl7EGIGEQj3bfb625A7ZWZAJVSZyproGG7U/tD49fHsPKjBhUCEgOFKGtJFyAgOs1xd7SHV2yhVbWMSj2dOBWoKInStJV7ppdj7BQ4MXto2LwQQMN355gclD0Yag0Qq7eD9bfd+fIVg8ipE11anCthKQQbCAyrupISnoVAVJ0PhMQQAUIVFh8AVJVYvdMoiqDwhTNIOLBljiZhgJxCABkMUi1sOzDPKH/o3i8OzNyg051bWFk7ceg111x0MEKgHHhPxKPHCyp8EEcm+vSH73nNK171jje/tlVDBNRrCPKYvAosBUaI2RAUIj5FwTboeznWNX/+8c/I/H7mBkwaJkXRO+m76w0UP/oD77n95gMWYPaSexeEWb/fCBMw1BEEFEAE3X5fSGq12BgLkMAAcnx1tdmIGjbQLDO1uimIKFIBggBGlxbDHM4Vcud1S/d9bv89Dz/9VF74yo7OSgALjAJeaeDydLGhaXt1/7z5J9/2xm+99do5BQmMBvPNhgx6Ak/MykZUgpDz1BFpEltTBXDmpGEZ9c1UZtTwAiYTGhgoCMZAOQyDkFPFBXP42f/h7nf95G931vvJ7oVukUEFagEGCbLVqGX6DH/sRLNmltn/+x/5xy+aQyNXo31vHNUl9fC5NpLFvJNGTUihWZELwYTcy/IwCdP2oGlqEdlO5ik0HCAx6PbXkjCIWklRQIG7rn+xtTCCwChX/qgqHZgKDJgNdQX//f4H8ubi0+vrprWoFEq7vdSci9Le2tP3v+O1r/zed9598SKawKDnY5+jEWaUdXq9hcZc5rJOe7C0uOJz30mLxkItFTBgTfWVFwL1njWrBRQZHfQ6YZCAYjWBALEJO2kGMo0o2DePY4I33nHDb/7xRwpfD2qNTr/LtUgJnkpWWVoOzOtuetkyEAKBR91E3Wy9FgaaoVaLYF2/300azZtf8VKiII7QlzwwofMeRcocWDLlsdnnICaQiUOTuwIA1IJKSJtIiYLy6pUMUGd89zvewozYgzNXtAdhq1H40JFdqKFbWkqKIiatG0KqRGXONa68tFW1MEQoEAR2IMqGDiyYixb2PjiwyEBJqLwDe8WON7IdYtnPLTnvaazRM2RWGZrErE+V0w8rbYEhT7RFW/405vHf2qspWvJU7DttuTL6yzgHdiljLU5w52+DZ31Wr8Y31El+dNpcwxYs+FZ7/DjNxlbZTkAtjdEDjI/JppeziUJgVOXm3LTbllkxHjPn24w4gVnjebZkp6evr9vpdEwjnTKGVU6yMwOwnS/KLcS5YsLyO15ZhShWTH4vFfR508zZpOCpluxqVbrzko5eYbsAACAASURBVB+ehjY8GBoJLNFEdOnmZ9p8YSdMZDsWelZW+crhW2VrGl1hBUlpLQSUVfRsdb7KTkpc5mKs2ny2tSkq++mwz2fTIF81saXCEmBNYo2w7/TiIttj3Ftuu2LOwucD1QIkwAbkiYRJmZXLCATSMrXn2HhOjK1wuZKwijoBsw0J7FHBJITEqXPkw3qtsdCKm/zhT30paC2KMYtLi3m/Nx8Gb3/96wfdzEqZ6XNDWGEEoTVf/Pzn9y0v//P3vK0GtBidXtZLM0MeXkpie1gSgnj1UBPYFO5UL7v3K1/tFJp7IwhjG5Prhvla03X/j5/9idfceGB3iAZQZ2GXRga12K6vDbrrDgZqsNbBkVOpxEncamTG9oHyp0u8sLzHB0muMPUk73RUXGAQBuCAhEDILdLI95Ys3n3367LVo4GUhwMZGz0BHHqnakHRPf7Y7gb++fe8/e2vujaWXLPcKgwpkyc4w55UDIg5JEKtZm0crGV6ZJCfcNSmRteEvQBrir4BwiAz7LmKlzSwBpao9AaKIUmsa4W47tKL6+SLQXeUvreC/cRB1ltvwjclq/VWf/2XfuCSJSyGMOKgEBZPEthw4NKs249qsXfo5NkAZGvRqjdtU19D1K/PUz064SAts+rRB9YEzWQ+d7mqBgEZp3MWdSBWWAaYS3ZaJfGqAKeFP9oZpIzPPvTY408/DcNREBqVZiMxWc+fevqtd7zsx95z91WLoBRGEDMHxnovIhIENlcPNksru4QpU8v12jpwQnFUcBR42uMZwSqhE5g4Sg4dPdHudcMw9JqL5kIqhF6qSRzVo3qeDdTpPOO2G646sGchNNrtduNGQ5wOM2pJIK5lcP2LDhiBdYgI/X7aihvitBbX8t4gHfSSJGQUofGkkhZQDnMEhYldEGeB6VsMGBmjMIgiDAoZFDL8bInG8suW32P5UURAkyHpwKW9WhJRGB1tD4pk7hTVHx7gFPD4AO0gOK7hoa7LwAgTZVPmVRj+iFIV3wACqrQP6K11s05m4tZzX4te+DI+IC8IIVR0Dtsr/kLDxO94PGns5wUm21FVt0NkeV7Oy1kSHkc8jpLfWQCqIrLFUzDKNzXTpDBjAdlhXr3S9vDcFyNVJSYZoj5E9ayvC1WOGLMtM9LItahbjCkEoEzaBUgVm3c2+zottSGrxiSWyQYeDeY56d98cN/BeZCCA68kmeSGyMAQqRCILLh6CiIwQUAgKMOLmsoGMNICR/NHYECkSiKqQqywgHjkarTwmnCUASdTfOIznwUZqLq0x3l/oWlecun8IrYk3AIA8VSEScxh8aY33VkDfIA6UEsihg7yQQnrJzYKiHghBcmJtdXa/O5aq/HxTz0Q12sZq4paDztoR91T//F//bdX7kfiYArULESk1Ui6a8dtmCT1GGROdb3ARE1YxD2DowO029jIdUXFgX2hQ5R7TVTqc8sQylJxIDJg68t8B7vjhUOD/JJd4UuvueIjXz3CKiVsSVWNoHLPMCc+bQXul3/6R67cE8dAV00SGyeeNDdSQD2UWNmIFWICMsWxLo62868efqon0naFLzjRxqX79l+0n7jvdrXCSPNIcqOgIUBCxHuosrXGJsAbX/tNH/7s/Wv93LQWAHhoicZoNJYT0uLwExc2+N/+yA8tRjCErkuNicuzGeC6WWeltaK59AdpziElsSN8bYDVnP/m01988NGvzTXntZ2GbKN67ZabX3r9i0PXQ1hXosA5scYYS+WSQ1TmarAKGRHIEpENTBzbP/3Ew08cORrML7QW5qMkWFtbtfnA9zp3vPSqH/6nb2hFMEDEkByJJSNBkWcuZBvV+wWxCdpAb4Bagk8+cPKBoyfv+cKDTz31VJLURXyr1VpaWlqqB+95+x1zS/sdstwIk/deRBw4GEbVO4LEBgLccFHt8gMHDj1wGGXMCQGAUYkkjyW97vKDl+6BLf1awxWiPMd6hint41lmOPSEfmHWvHHMZPBnf/7Jhx55wiMs2AYet1135SuuvfTACjsHU8UvbyTcJibSDQ4EVmTdbL5RA/Rk2k/i+iAOn27j3geeuffzDx491SlqtROrR2++7sU3XbbvO268UAXWhuT9NLsUlCDECrQL9LJMjDN0jvllXqhS2TKfw6q8LWabsSKnz0dr2GA2I8p2UhfRVBv80Huw1aY7q/9lT6r6x+uZVf8MTP8Q3b6l/89KFSiR+lv7XL3Gmew0M/r5XLtzDuU86v2FKZO4+dOV3EE06faEiIipVOV1uI6MyE/KHp3dFjdIbKrMqaVZfTg19TTHhs0VCbSCg4/uEPWqfpT1FgTa6aliO/Jc2UOl5BzyUsHNVaZEFk+87Fmb6ajMprPC9InCUKuwrGzUzYXMp9buvPGORUJEMGGYFZmKB1vlkkx8c7wEaanNg4k8VTRDw7/JkGiyHPbyL6NYo0o/EygZI+C1gX7tqbVTa51+ZlRtSETI7rrllVogDOCmTTsi7efta2+8MvNIi9SoefpEZ77eFO8pCsgCZIoKVUQgEmLbmO9r8NQp/PU9X0x27SYyg3xQc0XQXfvffurHDi6CU0DAFvA+sAwpoiAMkvp6Ly3IcN14wlGPv7jn8Jcee/Khhx9ePXkyTdNhh9yBC1fe8Opb3vhN17UY/bywoCC0huABZWvUC5BrEQH9FG96/as+/qu/DdEqXbCoAawSq1uoJb0jT3z/P3zzSy+Im8AzzxxfXFk52fX1qCDN4Av2UIodRTnbjPDkcXzyvsc+cs+nvnzo0LFe3wWhCwJCoF231Krf9sorX3vbDTe35pTCkDKQYyXAKEFUvQhB2JgacNUBXH7RyvrRkwVESkwriVEgy7Luasu1f/qfvffKC8yuAAUAGxQeDCNqWCUIEgHavaw218oBIXzqy2u//4EPfu6Rx9tKOYfWRvlquxbYOI5/6/0fevmVB7//3XcvvahJNmEoi/LYlqRSGp+NMUh9SoahzBYZ8Def++LRdndu3+7eeidbW0f3VNY5dd2L9v+z73rDQg0x0Ev9YmyyvpiQCRA1XtgiSL2GAdYLPL7q3/dbf/ngE0fvPXw8bC0m9aU1Z06ePGlOrdmnugmlH/rQh37l53/ixfuadQM1XpB5EdI8icN+OrDI63HNgfoOkcXVLzr4wc8/1ppbXu/1UU9QpAFpqGks/W+58xYC4nL2F2gkcTtdj6Kol/XqtYihWb+TFr7WqHsbdfp0wuGPP/Sp//Yn749rc+2BFhQWbANxn/rCfXfddPU/evu3xtK/eGXO6JCti2QqkrsRRf3M5wY+rh8C3v/xh//rB/5mvQvJAzHJcZ9pED70V/f96Yc/uv72u77tjpcuhRSSAXQ8TksJTlVNZUc9tgZEURiG69mA4r9HWPnzcl7Oy99PmZm3p0K6fH1sGhVZ+fBf5f+ohNONwXgA2Iqzb/O5niuikunJDVHWsf3rG9dKXnkeokpEmSuEm4wzHJKpKBQ3ndc3dZM2LlUU9apaHhlYQapUtT3Ev896WdNV59FRgCFM5ArnvZTchAotc82ckVe1YtgvKyy7CnjnAYj3SmUWng1aHBVlnJluebzLU7DyG5R2JZAHQpVXgSDt1WOX1MxFexe9IPXOGlUOABsECYCiyJkNjXDXkyKqRIQS+S6+0+s1ms31Tm9ubm4EWywT27CClEqgPYFJTaFEIaIaffKeL662056axaULMOjExfrdd94Ym+nfkhAUCKwdFAMmREG81u7WGq0gtj0JyrhYLwAwGPgkCZnRy5FyqIRf+b0PHUnNbgp9lu6Za3SfOfoT3/uuV181Z1LEDAuAPKggpbQ/6A2K2NajenyyD7H44Ece/uBnvvC5Q8e7FKqorS1wQl7EO08+a58svvgbf/C5e7/4k9/37gU2DYtOpzM/3xy+noAVlrgRQAWX7J9rNePVbi42gLHiCkNUU9Vep3fsaz/4rre+5barmwAX7oKlpQJoJCaQglQ8UKh1FKUUDBS//of3vP+Tnz6VuUGhydyK1th7GuTeqQQNe9zoH3383r/4xCd+5ge+6/bLLlioRSRaDX9p363YWZADLYsbLz9w/8kTHlRmNmA4oy6WYimR73rDN99wsLESgHzOLKBACPBQ0qKAc1pPAp4L1gjHFb/8nz/0V5/8jAvrPW7lUSJR3ZrAUZ3ZdLOsvrj/M48c/t9//fd+/Pu+85KleE/NiHoe0sgOM09QludBbFhRo9AGWAceeNJ//qFD8cJiu9OrBaFJ0xo7SPcX/uV3H2whADRLQ8PeUWi0BJKTtaLoCoKYHjuBrzy19mu/+Tsnu8WqA5b2dznsOgDgub2wZpDn3QHq0vi5X/2tX/n5Hxx4t79p253evsWVTp46yYIQRqFuYC1HsB64aM+uuTg+1G0jjIlI19bDhSTx/f3z4dWXLCZAIDAK0ULEhGEoULIyKLpWxAS1KIoKE51QfOF4/xf/8+8eOtmrzb/omcGAGvWCbW44kLxo5x//yiOXP/Cld7zmBilgFB4KLn0XTGAiIqVhPjuIIlOTWawCP/er/9+Dh9eOd229dYH2uZvCNRue3Xxtubf6+O/++d9eceDgLZctYXJ5IWKBFlxkmZtrJm3g8SMnXGDVIo7DQry8kHAP544xZipK/owb+Mz+bI9vfiQlYVfV6BZr8ci4M/rTpmZnYrVH/9jKN8+bsebjMi0PaxXoNWplErg+3fqOyf5sTks32flN905gzU/LmTO08W/xLWCDYX2rzOz/RCtTL2/isx+/Ph7SN/3e7cj2OeynPO/kDWejO5tkfOR3aC/doVfh3HH6VTKeR2iG7XdCGZuFuR+7PuGt2rY9uSpX0rgphoh5haiW1lJRCEFUuQw0nRgcC0BFZZjd6flfs3m4Fm7o7cpl9OWsO4ZjtcErzwBEhqBzZYKIwqAMUT0rQuXR4Dkb+kvQkocQEVXZ442UAKHRsqVy5hk8w6EzK1tFadiDOpCrJfGdd912yYGIAJDF/8/em0dbelX3gb+9z/mmO7z51ajSjISEQEhCgASYycZYNh6wM3Tajnt1J6tXOm13HPdKZ3XazupO0kl3G7y6eyXBoWOCsY1tiAHbgEEIWyAkISwEmqXSgKpU86s33ekbztm7/zjfve/eN5SqJJWQjPYfVe/d991zzne+852zh9/+bbKhhV6lvvQ2itlpZJ/7pYtt1Gq3LZssa5ayQX/mFRDDdSYAAOPIOAAxOsCzx/HVex6MW7Opk95gEPU777zmNXunMQX08kEapZPQQwHgPQSSJi1AulU3abeF7HHg0Mny4DNHTq+sHT327MrySq/fEy+NZmN6buGq665P5ved0qx5wUVsU9s/vX78iQ/cfMPPvvvyhqI7GNjE2IjFCDEGVQmTNGZmVksUjKM5/p9/9+m773+oY7JqZvcAVsij9LBsbWITQ86lSQTYv7z30cU//NNf+cUPRAw0sn5RRYnF8FViRWLg2c9FZrbdeGptjZOmkkL93NSsnj7ZOXXy5374+r9/y3UNQMoyAqDsASJYZtK4VJ9T1JW4SvDf/y+fuO/QCTc1rc0MbNfZemKJGSmhqipRWBXLEfr/57/72Ns/8uvLAz8lSJMNFYGYQKyqFmQdLt41U/TWbGu+KlkIRhFpWa4cv/aGK//2j79hL2Cq0qgDUPm8qmDZZIkxNtWYHj2xFrenH1/y//Ijv/vs2uA0mlE6o412JaYURVU227NrnfW5xT399dXG1MLB48sf//QX/vkv/Q0HxMPTbrQZCSHLsn41iCO72l+10QwifvDpZ/sU970mreZgaXl3YrS3+m/+53+8p4EGUPRWZ5pNAvV6/TRpikAVcYzuAIMc3MB9jx390G//3oozlW3y7NyAjR9m6cVxvNYfWGun5nfN797z1Pce/q3f/+Kv/b0f63rMzMz1ijyOWUmgjtUxmNSnZBxoz1QrMuTW+sncrqLMkcVU5b53+kd/7EcWYljvjYcBmCG+ImucFB4VE8BUKK9VnBt89u6n/+Nnb33yRN5euGAg3kzPVuI9cRWqZJm5g0ee/MyXb7vlHdfFNNys1dd6/BDwFtQxr+iXaDVxcBX/5a/82mrcopnda6gqcWXfL+4+0Ol2odLPXcM2l9Y7Dz555K2vmd8Kp/QQjaAKB1QVDp842a2q9bJLUQZ64XXwXqnycgMX7YTJ3hGrvUM73y/QyEufIvmDhlb/Qbvfl0B0SF33kvUYSrWEgihhp54AQYDHftv42TIr/Pk3fXYQJaEXDP6iGmgoom6YTfjiEyGPrO0XON4ai7Jt7EL0RfM5bZTCGQqXEAeyqo6z6HXXX14BJzoym3DMEA9RNFMa5HY6xnqH4njnljHKPEbCptvvV0pxvIFyJ0C5BtaIRWAVLIAe4IHvnvJHC1NYa2Pu9Qcp46ff/24qkKOcSlM/PD9ZBcP8BIABBaxAHNlOUa4J/c5nv/Ltxw8/dviUREkcx5GN8jzv9fuqK2my0vnSd+YvuPCYF2sT6pbFqVM/ctOl//i//mFTod/ttJpJEseVFkxKUI0i5XTgUER44qT8sw9/5HAn512XqVCvM0BsTdpMW2me507E5WpN0tGk2drdW1t+4IlDHljPQUU+P93K1dNQjwdEBInxCczC/LR871RkyUGYyeeDuHI3X/3aX/27HzSDnAitNHWVB9gCrIhc5BQOyCl+alV+7X/72DO9KJ+9OJubL0RLV5S+kIBtNkIRNyleO728+4K9vZOHyy5+/1N3/+oH3xrDbDBQBTbV4QNqMPbMNY26sqqE4hApiyQ/sEj/43/7U5ECBKNiFInnjMENgvfFYDDwVMSt/bun7zosv/6bHz1SpvH8Re1ZPbGyknJcQaEVyOVVZ3q+ubR8erbRYm9KdXd89/HHnx3MX5KJSOC+UNGxqKYZlk+WRsQH1/C1e76zmivPNDvra3tmpnT55N98/w/feM3inEXZX5ltRnn/NNS2m3MQVIWHMcywEazBR37n9t/+zBeL1mJj3yXLFUuaStmhYYZ9v9tttloAOp1ut3T75i947NCpIx3sTxDHpuf6cRQ5VIQQWQK8j5gUWJgFUyB+VwAoHZJycSr5oTddaxWRlAYmGCgwRMSG2atT1VLjitMysn/0tWf++X/6zzx3kS5OLZVubq7d7a0YViEHdg7CWZLs2UtZbBKgBCvU6JDVUhlMo61IIYTK4qFj5T/98G93MN/YffHJPG/tm+4ur8/v2nPs2FPZ3DTD2WoQefE+juzMJvV02JZYE+WRFyAv8K377h+owhoVT8ack35wztvjS3hGno3oVu/1mWVHt+3ZnkE71fCeuIYDFnxMGx6b5/GeJlhfxsZ/NlVjN3W56YN66xjCzzdfv4P3t87VHvrgN9hgznj9dsPkTX8djw8MxzZqfGzYk9m3ZzPbm2TbIe3IXEdn+vXsZacvvgqVf1W2FVtXGN0oNKrA0D1+ZvD68zX5SYWGiiApG+GRZcEhyEECBY0l3TI4oLADVKS+UtmCQvUUT36oHI+OKiYhZeHncq6MY6Q2/TwS1jBsEJFlE2gy+czzs52wwlDFiNl7VvDYaINyfObkpxcqJALxLJ7ou0+fPP7MQNdPyaCIEKmq9U7zYu/M1M+8/01xuvmrOiSjRB1JQKgKe+R078vfuPvZpfUciada/R/VrJUAw2U4aEnk40zt1LfufXRZqN/tT01NRSK7munr9i/YwXrWbg7yMo4SIOBe/NC3bVJOSkI3l4ojiqPPf+2ej37qz471RacWqtbuiiwxEVFfaGrXniRJxImxvUE01Zy1Va/bO7l66fzMP/z5n50GGiwaUxKbY6eOLizMBjiWIOopigjPrOKX/8WHT1Ymnt9fxY21E8tIp8BWhctSjEkJXkmdkjvV8e24PTX/nUee+Ma3Dv7IDa9pJs1BOaCYhg/UYAhqssDMVMP5KjXkKp9FtHr82QMRfuFnfnIxw3wU54OiXumoy7x5ogrxgNEh/PL/+n8sR9OnxCRz7dV+7qFOXJ1AzR6iBjzIewu7dp04fnquOZ3OVmu9vPLoFlWzYbd1q6Yx2Ei73TyWD0zcZJVIXeb7v/x3PjiDYoqSorueRDGUjQIqvhiAyUaxZq2lAl99cOXX/+//uGamB3E2WO2DieIsH5RqCMZEUROuv7K2HjVanbIsqyolQya5/+CTb730mm3XZicv0jTLi7WpxkIfuP97x+66/6Fo/oLcuWYWy9rSNBc//9M3twHxVauRDIpBmqVGWKseIVHDHKEP9CJ87FP3ferWO+PFC13SOr7er6LMBoAZBIAhStIoz/sAoiQpNFrxrnf4+PFVuWAve0EjSUUqGFunm2pY82qZrMK7Km5m5fqazRrp3IztHL90z+zFi1Ek3pBCfKCLBADvwTBsHSCU9WG/9vDSb37i09GeS3lmf7+Tw/rllWWKwFBWZVFhXxp2VTU3vz/vw8YgLwr14qFCpKwxKQfOeAVKRtfiX3z0EwdP9bPdFx890cFso9vrNmebq0srU4tTRTUguNgI54Nds9OvveLCrfFwVQEhAjHZCuh5PHL4iESt9uxcp5TzXql0OxTfSynjnW+qL/jSjGurpjj+Sa1p0/ZXnlleXkbSuY//+ckmPX7rGM5em1d6QWP+wfCRv4Lrx+2Ij3+liYrakdYVyo0q6oqA4QrWHR322yqdtO3nAQ0eGhQQlFXJkwiRp4xjApxHGsFXJbH3ETHEOg55lEOjmwOaCaSsgGeINYrSgVOoupoPRGs6RVarMOShXPKIaGWH51ZXQg1Dl41sgtEZ4yEsAoCYArifQMR0rhVFGJKqKyi2Lo/V1+3reMTkTOia8TNvZ7r5EfrR1//X+QNGFErew6+LfPzPvhJrbtygrnfgNa2qqTK/cqH1wZ94UwaUQ5r+cRHVuBIAIHGITq7hqdP077/y4GmKuqX3G8AJFVUe4hfDbuhUHEjJGI59Yo2Ni8Fg0UbvvubyBYuFJIUCxgiUiIg8QnEpBZwhQpJiXfnYGv7pv/6tI7msmn15SyrEiow0YiXvNc2yskJZiYgiTrvFAOoTV0xn8g9+4W9euSttApEBGrF31cLcXIBWMlDCWIvH1/FL//o/PKtpP8oSb6NcG2m7MNYTCyAOgAYmVyLwzByh1EZ7+sAFJ9fXK8Ajb8acoxp7mkYIgkiAZrudpfGg14FyFseldn/k7W9++40LTUAFcRwHFkBVTwoxpgJ6jJMVfuVffWw5bq4bU+UdkoYXBthAVJSItBI2bCDE3Ol1bZwWRS7d7vrqUhYjJkdkBCAVJgrVG8IrdaoomrumojRJysiKn2pk0l298dKL3nbJZXtI2bkobWJUxkxQDgbZdLuPyDGe6ePX/v3vHEXTNBcqBwtWwIJU1VfKQr5yShYmLj0bjtLpLKm40ztx6OgRxTVEIQtDiQky4t/1DDST6RUnJwx/7u5vxgsLfTKxVFnZX6D+r/7Cz+2K0SJYcOHJxWlEUVV10igJi/5Yd0Dt7FPfXP3kXQ+djGf7DhSTxpZT43wOQ1JTOhIAxAwgByfT01LlhmcefPp7bz5wKflhUpGkjFDqwYGYQVohNojSpDzVnVlorS6f8FFky+ID73rPDIOFRa2yEhFgRAUQQuS8epMsFfTk6f6HPv77/TjxjEH3tDgPAE1SiPeAWFbLUhZ5d3erecOVV00zYoZzPoqiyhUkjqHGCWB9YhnoAavAf/ehP/jmyT7P7/OcNudSpyVx5AaFzdJcqipCpFq5QqqVAxdetG++Xpo0gTNmQAY+b5p0yeG2bz3WodSlLfUE5fPNmHGWhGAjedHHM878PebyDr7nF7er7WVHZTFg2bfUYd0qmz3BZ9nxuD9+iw9+OzaYs52OrZ74FwRV2sGMmUSr06jH8St1bCSbGtza3NbPzlAybPwN2sR/f27a/wsGRJxPg+Es382zf4XPP2btXJgVdTJKs+03iRgio+UxrpuNf/f7BcaLoigsRauBlHtYs6nG6dDGcj9Xl8k2TzVYCnWDEjBAWl/LVe6rHIUgIiHvhConULipqAXB1tKzgQBxPOVFAA8/7DqkhJFX6Cjfc3QPO6c1kA5fKlUaGjAjbZ6gIkKiPEQpKFQFSs/raNHxhOiz1ePPUUYoI6kPbwXXxTnhYQeWc42VWk4rKzDkKx1wXvzEBz/Yq0BB5d18QmxsGkLGg5pzuO+uI8d92m3N5TFkQ5X3GrJjATNsRVTD5x5Q7xdnZ9zpU9XK6XfdcN20QaxaqILN2HwKCBAb0LqHluGm8Uu/9pEVTU+r7VozsE7IMCyLCVbnCJwDkshQ1sjywapbWbn+tZdfd9nuTEBagkHExjLrkK9JRYROCT76e7c9dWINM3u9mMoZKx6BS32cw0OHKVbeQZwnV4hWXvPCKeVVLKmN6idKLAQhFpACVeVdVU1PN9ZXO73O8usP7P7p97296lamFQEwxmhIGA512cgsD5An+PStjzxxsrsGUxhq7prvLS9F6RSJHQ0mrKXh+cEkyp5Q+piNl21e3jp7hBAnyYnlw51eN2lOtW26fOSZpFr++//Tf7W7gaTyRMTEIJYAc2LJFvb2O6toJ0vA//vxPz6RE2YWJG36/sCEjlQJsCB4VWYfSJCUBSicMyJk2MSRAsSk0AAnC9q8h2ZZo5v3GVGcRsd7eOTZY33HiDCVRn7p5CX7Zm5+48UtiwRaqcLElmitXF9MW1oUZMBRzIyHl/Cf/vTLT61VjZlF46WAUByH4BCUwAwdqvL1BLIo5VWZKsVZSoBKeG2MKFgJGsqvAgZlhU4P693e3MKCZZlvJcjd3tn2266/rCoRGwqLXcmH3S1AB53n0kRRgo/8wR8d7joztbsiiCsopN0EbceEBGw2iiiObdm94erXRgp4JO2011mLs1igpBICa728v1rq3FTzE1+455tPH1tP5iITRWAiMsRQ9lAhOCPK5BXWsrV+35622TEFiQd5sR6jiHD3Aw9XJhGbeHkpdNlzhtVaXQAAIABJREFUPQLPh2Ux/pa8xI7UzWrflu7PdWwvNy/jy62A607jebHW1cvtfs+/nJMp/pwgiVflOWUbDLmojpSU70OURAnKJmu2sxRNIAUDDSgKKofGNYOgAV1TZ2ezR6UkxjARKjUOEJCH11DCcKg3EjEhBBxkZDzttM1JsC5qTR41zQeAkeH1Yr3nYKG4VDgYIVZijPm+Xzw9ftjbRv6lBHQBS+CFZAErsZKQV4gYP4h8dflFl9z0pgM+hxgX1IuNtoY+K2GwGk+mAtYcbr/3XkcsXpkboxrvSl4hwVgcPRKCgsSLV1Vj3Nry6Wkp33j1ZVdc1GaCF8NswDU1x9DeY2FDhDWPlQi/+s9+98mVQtvtPG44y2odCPCqpLWZNRSjLhaNSokoitL0Z97x5uv2wOdIk9ipV3iMuVVEtCz9pz77zfu+/dBUMjOoTDtqutzB+ThikKs27T4KeDLCRgqgQFUtzu6aalrS2YhKoAQwhkWiUFRsbb2fpQ0LapAa9W+99g1X708awXBmYsAF1Y4YBE+wTdx178rvfPKPOyZD1oYaKwyBqQNQ2DwkWCgZlciDS26ZaRkgjrM64sZD5latV0bPSe40a2TH11ZNhBjFLe9+6xUXgjyIyLCZXIoMsI9aA+CLtz92x70P0PQ+MlG/37XYtkjxUEkFGOLKXKiyZJLEEhDyXT15AjMovOUEBdgTe+Dubz1w7ORq12Xt6cba8qk9MX3gR98z30bsoKLMRGABGbGAASxsutStXCv64y999emjR308y1GsVBqyjhBIfGC0tmonVHmwFi7vWM5nG8nmMBQFa57hgQRFhaWOs2k2KAv22mRY7b/2wosWU7QACEgNWAArBIJhiIKjiB3wydse+MYDT/HuSwuTqndGIdulk7L63qnjb77qoosvMFzUD0yZmAwLC0llS0+ad8u0PXPPofzTt92ljTZMLGQkYlURBYg9VJVVCSSi6PfX92bRm298Q7s5jrUfv1PTbLaOFrj34eUnnj0K02Tm0nvAnrPP75UO5g2+aqrfl+etmZ2li2cDPr6Dm2mc932n9ifGudMJckZM/NZaqlsZYyaw8lvHOYndH3nixz+fZObZXuXY+mldsXXrCMfa18n2N1HinBeQDJ3FZS/kVdjhuz8YoJ1X5ZzlTJzBzwMLfjaiusE66Qndqup6kEAIvhQlVxkHYDbOGORD9mQIk9Vau/WAMDNxKcgJDlCNRQwQbTAwogqbcSDGqUNvOwwplBfVYXYghjVYxmagrmRDRAbEzxdgA7AHV4SKYk9WyQJgZnWik7GbF1d4I7rCSiywqlaIoSBhkiLyRezlpuuupQqWEcV23O4ZUf4L1JECUsHkhG8/3nvwmcNmZk9vUHCcjYBnWn9BMbmrGmZDFgSD0vWW4si/563Xz7bgHchY5uE+pcoawimRY1MpOowPf/TLDxxbjhf3dyqSuOFZ1DDUK3sWJdpK3ykrp07OTbWvuuTAjW/Y5xXWoCwrGjLzqAoRB/PpwQcf/PPP/edGe38nXy+qTmNqPh8UKSNL457L/SSnrKpCYB2x94xe6tdt2dMKZd4tUU63Y9RWswnO8mAYrq73Z2d2ra2sTse2bVvve9ubygFms5CZsk1R4pMn/Sc+9tGyu2ozpM1G5V3vyIkDs9O+XN0G7kzsyEKtFU6cuLLTZvUlKIbWMPGxxaAAIbF84vRapztI49kIvuyv/dwt76IC1k5UgamnErx0anlmcf7+E/6jn/ysZrNRc6Z0TopK0nTbk5IUPCw4UJalWiFWG0UEKOq0UVURYgYxaFANsrRRAqcVd973EJJsdnox7/dTrS7cNfv+t11eDNBgMKsGRl0vM2kr73TTpFkIWq3o848s3XrHvZJOqYl8ZPJCTDRGsyu8tfwYQ1gKLdajqJiKrQawm2eGgHRUndcZGCAnLA+K9UFuWwsNw4PTx+e093M/9h6nKBxS2ijQEfpUiJDpFLIa4bf/6E+luVhxYyAUkVhWr+q27B5GpSnVu65/fdWBSUAWeT5oNaeKojBiQVJEzhG8iZqEP/zy7YdXHfZPMcVsYiEVLyIAWQkBEigUDJlqZJfvWrz2iv1zZsNJEdZ/PTeEHuAT3P7t7yzlhTSnvRKMecXr5S9MXike1pfbOL+/49mJ2vL8yavq9V9jURU6n7rZmSXU89kk2xrBtv6TMuvkBQrVIX3xdneyU4KmbuXSH1NURMHKVeVVlZWF+LsHn3rjhXteMw/nwJbTOPaIC3ENUHCH+SGOoHZejMwPgjXoBf3RzEBjKAsoFMIhIqAKQyeFqN/2LgCQbrD2jhy7tAVZtIG6Gc3JGWNFGxT5o1JJXiqV9RIrykl7LvdGiV1ZpK3Mewe//bE5npgxMfyxXyaHSsPRjf5TkWHAQjmQnigMiIm41Uw7J1bjas2g+663XJ0ysi2JQWPMACRM3X6Ra9Qz+PRXvuay1mq/b7MZPz4bRAFgMwFEE/VQwyBihrQSa4q1N16xv2VgPDhCt1/GWQyBz4ukmXiHgfd9cIfpP3zmjrufPITZhdWKJM4qJeIoMnCuAiDwBFLS0ax7oOOKhT3z+dLJd7/zR5stCCARtIKhjTkCQMRCOLBn10+/7y0SzUg6oyYTJVUhlMRerBCrjj1HYmJhI9aoEFep9H/oyn3tchClRFGrQC7EoZwWDLwgIvSB0yudZx59enH3ovQ6P/6j77pwDg1C1RebsQag1hhw3Cgu22X+zo+/nZsLVdw0SeqhjDJiSYBoeJtTU+3hM4WSETDARpBqtWcmm5kN1q/W/wyXd3hMFdApKrAh9Q32N1x75XUXckPAXsYddQwWFQUvLs4fF/zuZ25dKuMqmy1KUsM2jXUbM2S0JhkAqUC8sZyl2RWXXwqEuwzl4QJTtQIQ730EDzxwsPPIU0d6zlRVbyqN4sq//103JwCrsvgosYOisHFihNQhjVtesdLDScVnvnrnkV4lM7F3Va+qxJUUx1AlZSJS8UoMmsDtkjr2xZ6ZRnvQu+LA9GhyiJRQgRzgAPYmWffQFN99/GDPSdHpZtNtK8WV+xfecHFkPbJouE9NiicyafyHf/LNpb7S4lSJBIZ9DXshqrk1aGT3RiLTTD/5jtfNC2KFg6OESzgiY2CcMmAd2awRfeNQ/tX7Hs/2XrLuSawFRL1HrVXYOutaFSitIF87fe1N10xHyIByePtEGzh4IeTAuuLuxw9WaQPWggnWAOcOcz7f2v954JUPLdIYR8o5nNs7jGerV/sMvStA0RCdONnyuHE48a2dmj9rRppxP/d25+LWTzb831t98zsx0oz3uxODzZmFsMENT1sTA7Yi5sf+Ou7Rf45eaINMeVPvY31t3+9kOzR2zXN2e6YBPWf7Z9fMeQgNTPDKn2P7Z319OArrVfpia9IbSI3xlrerA7VZj9+BP35H8Pa5EplQje0OgPfgHiJSTyED0ZMEDmdV0fHGA698PaQRin0I4nyxZUh6P2q75Pi2h54yUfKOa1536a40Meh3fWFdI0keW+8bYc9wgc9dNPCUs9cAEfFk1aA/gFp8b7lymsBzOB2JnRIDHsok4Zb0TCm8Oo7OmFBk64xYUgnUeXVyMEKJKBrR6pydCIFSLgt895EnHIzAwrJzPpSbOn8ZZgorQM0gqVxHbVUI0s/X0tQ3rbv6gr0XLKJBQzwTMMyQnNjpB65qN1vOYbWLB54+1DORGMMGon5sKmT0PRryIRFD1XuFISZUjYRuvOLKi3dZ5DARuj3XasaDogK40Uzdet82GqTwBo8f7v3Z17+xnswv5+XU7K71fhUntt9bB7vWVDroDzyBaHMKiy/ywlRXX7D4zuv2JoACFqGkzngKixCxYTPVTv/eL/4NGFKgApyvAxFMiOpg+8a9KaACdVCFByJ1i5FBlcN7JyUswfBozpSQA0vLcuToyfb8nnZsTOHee9MbDzSgOaYbXPk6v7iukysQ8SSKCj/1npt9FKJLYCACDELiN0YVgjaczsNQEin6Pcms0JY8k7H1gAHw1DPHkkYz70vVW/u5n/hZLkGuz1G8aadmcEnUFxxdxhe//lfRntc4Z3NYVk+8owfOaO2YB2CjSFwBkn17dyswrsdvPC+RzqDgLLn/kSdWCx9NzRmNi+7KnlbynpuvcRX2NIhKGvT6rWajX/kMhoMxbWAzHHkWd3/3YDyza5A24KmCR5KJl5CmDNFQXCkQOIZnT2xIKnIDq70rD+xLGQQIqwgMDFABAZvOwlQJOg7HTq82mtMeUVEUierbrruqbWCcqpIxAJGA6u2VPBSV4uBp+ZOv3j29+8Aq4kAWLBwJGRY/7uOoI34q77z+jfOMxIGMOvHEUCVjmEKEQGJhs0r45Oe/2rNpCaOwEEiAXTENubAsw0I9KUci++fm337D9ZlATWAP2GY9rDvc8/jykU7PtRZACbGFUajWqQKvynkT3eHnv37y/Lz1Z2akeVVelXOVcyIkHbHCnKfBnJMEhuv64Jh0olmiUBOVZchgU/NRYqiynjcRQm6zcubApx9b+uJ3vzSXWoOyX3RL6xpJGntsqPJCocRVJBI5ZYUj9sweceVAZFYL79pTI3QNAFUnJAwmMXWmm+6II6RxemtM3PRIlScojSg7BRpGpOdWfVDBueDzX7nvrnsfaM8d6PpBkmZlUTDR2XspzlUULMTqE4BNgNQoIN6QMpyYXLHk8+O3/Mj7QgFUVnhspq9hqt2OrajZAxzjm/cdOjEoy8ZUFKWVEqTEkLd7YpHpRvawIVFVr1Aqy/7q+971k9MRqCoxZLFkgFUgtZaWpTiV47c/9ceHVtexMNNamF9ZWW60Zga91XYzBXFvfZ2t4UA0Ah4dFUaRtqZl7cS73/bGC2OQQERi5wjqI6pGvqXwL2lruuWo8mp8ZaBIbMgU8BZI1EThxRlqnirwCkdwBM+wsPAKTrxqparKPBxJXXgrL5599kTpJMqi/uryj77l+t0tNIG1whcA1RWllIJhyGCisnRS+jhiIq4U8GBBAkek3kTKQ4wQ6gJwqJ9XsNXcTKoknrxWxGSIYUJNYRp7A0rFwwefWlvze3ft28/0thtmbb/I2FlE4YIxBmtVkDC+9LVv9SnpruVuahFEIn2i7ckKScddcRIZyvv9qy69YHZu5NVjnqx9kCQJc3Iix2133O0pdrAMEOQtb7xmT4xZQARmeBcA1A/DdIKS8Lk//+paRXkzdSZGmqAoKYpIBKIGRlWVqc59VSizimdlI9ByoNJ949U3Nkw9pUwG6ofWGCtDQMJY7+N7x052BvnU3l2m6KQ5v+PGN8QClkqUiCMiMLOSQqpwZ57w1W89/PRyP5mdzqaT3DnAKseACBUs8Gb40MK6Jbz3LW9qAkaVDUgpgBGJwrjFOgPCY8v4y/sfLlp71gYDTqaHxQKEhnm6pBwSYqBIPK6+8uLX7TGtCiwlE3uQTNpRAqjFbXfe04elKHGOvEidJ0Bj++FEmsH4LvnK07B2xGrvgO3euZ0X7D0d8xxv8zbtgJXnHca/lb/lOcYz/jnt8PnEx6+8Z/2qvCrjsg3GRDdOlm2u+b7q8Wd+34goDN5Crb5EdK/1/zVyVwHAMc8s7l85ehQpQ4pBdz3LbEV2Za07HaVUq/KqSqKOFZEgqZQUFbOCKziwYeGkkVnpR2BAhERIQE6gpGBnWHmEjZnAooxIKkXG98VNjPIAPHERxRAND7WOcEBARrdjrKLg1A3xA0DBFVFlTI/wB19+4JNfutO39nfKUokiNoXzJk79FiDvxrxtcY1P9vUcEx8GUNP5AKCQBesYSnCNhGLH8yneeNmF2RYNvu6CNjofoMglWSnx+TvuXCkdt5MkaRR5KTQOsRmDVBGzAuRUFTCAWGZTlbtTe/M1u/JOORtBBK2m7ffyLI3htOzlcbtRFegLvv6dQ9+4/yC1F32UdQZlNtV23iVZXJQ9iI+jKBigpOzHQ9MABv2FxP7Ue2+MKzQjWGYSC3WjO3LeWbaBVDshThB5QhGrOCUf9LecoUYMjevJCiJjCdawD1B4hStLyyDDCWeOQRKSjCsHD0R54U8urS4sLB4+sdYyxQ/d8LqZBARYBrNhQLySIQCmXlpILLON19a7M+nU0vqg1cgM+UgrKFTYE4/CzYZGXlNhCEGYQAwhUVGQkLFbmLtFwE9+r59lc0lnTXq9G2+6FgUahpKkoaWOuIpk6PX3wMkSn/zCbc5O2fZMrgZGwdDAxL1dhpwS10UflOHF97uvv/Iy60Gm1uM3XR+bdDXHtx9e+t6x1Xhud144Fl1IonfccK0ChYdRVeezZqOTD+Iog0eIrzjG0ydw/5NHCk5t2qzYpFmalz6KbJUXw26GoabRRIiSIVUV5+Gryy/cGzEiwKgIGQqAw1pbYtGAesfx5XUbt1ZOnWy77tuves0Fs4kpK8uhLIczbEkB8kTwQImoD3zlrx40s/uSuYW1QQkeAhrHlhMAI7Dep+Iyl191YDc7qJRATMSqvk6hNgolVXjCd544uYbMxg0plcE05GKi4T2G+CoRMdSqe8s1Vw7WNc4cOJTsACuE2DsxllUhwMkO7nvs8NSui5b6VQjcDWn1X8G80ecqm7JKXnHy0pdTPbO80ufzVfnBkfNR3YJ21NqeW8b15BBo1YCcHBuqsMiwXKElJNvA6FU3ObDPjPiZQKeN/VxD7XUDYxeo8EQ1VM9hxfqpEw1y0+jPJJU1UhUrZFNtaFL1lZxjEls7ypjUCrOLoFZIiFRJRStXVbHtthrNYdzEAwDVSV2kwgpmJiIOBHsb7saNOxjNTpZl4zD3xEbOuVMDvX9p0Bc1IBtawUg3JsUWmI0ISgdmsOuLmKSVA2vA57959N9+6d71xt5KrVP1INcdQFmd34EHBDqmR09Az3fAyo9jl4chBSiqUEsoGBaqAiIiNYr+qf5MZG+5/uaLEpOERATCVraj0YRZjcsKB0+7gysr0fR8gajqVWQsjRDZwNh3w/MTQFhVHEU2JfhM/H/x3nctengprE2FfFlxbC0pK1VxkrjKrTkuM/7DL3+tau6h9kJJ7JX7VcXEoY69NRTWKXEwmsa8m75oVIObr7t8zyxiwHkwvBoCbAXtdrtT7RhSUoDUmEIIilgQWVDgUyQIwxBEmVy9qEfVZ119a0GZBjghSMXMCkQ+JnGgUth1+hU153dNN75+57eXTvVbkdnbsm953e6ZGFUFZhOsQAEFfY0dSIlAHuqkaLayoirbmYGWMuyAVAzEqB26x+pXk4cPSFWgbINGz6TimRkwqr50ntkA6BV45vDq4WdO7919gV879jPvfOuMgaVY/QZ1qxAq7yJrT62taXv2T+48uMJZFTWIwgMNnP8CMdtoe8oCBjOUI5XpNEUjes8N1zQEkalJjUaIeQRCIKCr+OaDh0uatqaRlkXscdHs3PUX72kpbEDBGfZV1bCxEjq9XsRJa9Z2cnzt/mceOry066qrDq2sJs0p3ysJrL6u6Raga+NIaFLxqmAVkulG46KpxuuvuTAjpN5HdeIBQQ0UIIFym81qifseOpp7G1njy067XLvlxlvaBCNcl60g41UDmgdawTaXFfcewyOnu71sflB5sZEQk4pqCUB9adNUmaU/UPGJr/ZYet+bX7+nhUgqY0lFlcjAhiwdIrIJ9SpUBn/yF3eUthVxm6XaeNHqSE24TWnPTK+cPNZO2Jblu2/c1+wOYBTinCebNABTFpX3qhwzIxfcduczBc921pVsBjATRLSG8m/rAH6RtMBzxv6+WMrhuNONAIBruPTGqM5qZDsejOc6QVv8QZNUS1sun6Bjfq7BTLSvIwDl8Cs14nKn3s/q8zFK5TEDekImOzjb9s8YtdjMGT+Jjz+bZzCcjW3Gf0bZ6bw+V2z0yyvKQdsxa22RjXs8VxD7Tu/vVk950Km05uw9N4R9LeNa6wTsggId8qZR0dj1ox6ldsvWf9oJtLoTeHun3Wri+jGdTf1wnSsUIhAWESLSlBATGQ6aG2mov4MhbtxC7fcrORdBMRJtZ+mB3Xt++effMgsUAzQzkEPDgIGKNtLJAg2LysZTySwUcEAcSOmGDmwaIolHEpYnDdsZl3EMNGolZeNPESDA0Qr/zf/+6UHdrDIF72ztBlNVDEHzOko0iK3rdj1L0p5b8iCD2x5Y+vDvfW6tsbdrG3WPFMpPMgLu/vyKq6cvmGlsPMCq02lDVlbe8+a3Ng2sBPh1AGPRdrsV93t53Er/4p57Txa5y6a9GmzU+5lYoEog4WB3MTFDXOnbSbMs16gYvP7iA6lHReCgkaMiMuo9CN1Bz5kobdsv3P3soaV1n0wPNBY2Qf0T8SBlJpHAzU2s8JNDtSqcr195YA8LrIFlQFF6R0QKjWJ45GrEixKZOjtXmcBKGuxhQlBF6zySESBn3M8UbFHSQBRigw4NZUWkKETNQnPuuOB4D88cOj07ta/bPX3ZhbumUhgBHGwgCFEE1ZjCViLiyHsAsEOK+aCckR+acgZMvAF+G46HEfA2SqGOsKpAIEKAV3XWGhPFVSXOezLm0ScPFSW6y8tves2ll+ylLLA1Co1YmVjhvY+tnZ6eXQfuPfjUwKZeLUGISEf6A9E2qzdwyCobiFEXS3nZ/n0Xz8f7ozppXSaVDgV3ga7DHd9+cKBRLBoRp+wv2797sYHEgRTMbDSq0zBFp2eabLDehzZw7yMH49m55V4/aTRJwaKscFVVI3BCJYrxRazwqoZIvUo+uPk9N++yiCFGxCiLgRCMMAgCI+DcSRTz1+++d7Wb+6aZa9jdJnrzVfsSgmUmInANkAtO7NK5nuQuTu944GCfk4oYynUtpFDCQjRJW3m/B2abZQ1X2vWO63R+8t1/u2WRkCpZX2sFzEqsENFeWeVJdPAUDp1eRjxTOkRR4rRCneU/MaWDQSdNjBadm657/QIw04oZpYraJCnygcJmadovtPJILErggYOHhBpKhk3spSISqyKT++FfZxlSFp4TjvblIyPt82w1ydHufn7ud7xsyqvyqrx8JFROehlKDQDZ+e9bXGaTWHkmVlEgcBKLBkWvZlbX86rlhxLKrax14tgzca6f+tw9v3jLm/ekaOZIPCIDIgTqQGaYOrQAHTMaCfAKcWINN3jM4qPRPxtX6g7HUvhK+LwCyuFs6lCV90CLYNSxmqC6WcAgoBxIoUQUtHkMdVklKfrddKplES/1pRfxbd859uHf++xq3K7GCg7RSxK8Hla0CmZQLU48A+zFdVcvmJ++7pp2olCBAKwOKtjCSAhAgShLO8BXv3GXhxVYDVEgFSIM8QBj/WJkcbKKRjay8PCDqy/Zf8Xl8wFbTKQkHlDD1jsxSUQehUNf8IW/uP342rrZtVhVHkwInmYvwRYJdWGHR++EJ4UUGev1b3itURjAhLHBiFSKIkm0qLomygoOXE+xAQxirusHjYHidci6QBtwiK0+sDAGVRWiiqFELA0hdIF+hYcfXet2USCXon/DG97RZLAAHlECA7CWgItl6NYiU7EtRCM1DBgTuqtTbzyBif3wrmtE/pBlRJU9qfj6Tyb4pQxYQQQHQFAJ5/3iRMl/8fU72zMzrrd8xWX7YwYArxoN74QAViaFAxg42dMHHz0onBEZQBikQRsngxBIkC2kWQyokC9jzWXt9I/f8lO7E7SBcoseD0BA6yXu/M4TTx89OnfgNevFAOpjLq+56rJwgTFQUSEYBeAJYGMADJweOU0PPfEY4mnvnElS71S8qvhxqlhlF9Dh4f6YDARGmASzsbn5umtSgEFMdjLJjpWoIpzuyVPd6uChZ5tTbR+ZyPWue90VUxkMgUIB4A2uJhIYGJtG6Qng1tvv8IggQmY72l8ygLJi0F1rkFx5+YWXXgCrULBXHeJw6qaVyHNkCJ+59S9LpShLiqJEFDOz1Cy6E/kJUuRc9dJq8IH3vsUBDRhSIhMDrIQ60heT8/DAdx/rPfDIo5i+gK31TCosJIHHZ5zidYKdYzwq+ILdEDsh11+47JTLtBMv+9BFe9ZeeQAhirFz+2eWoRc50EadbY+TtU6x6eetPuxN/O663XdflVflB0HG/fET+9jYNTKu+n7/nN1BNvkXuCZ8gKpyUD4Dg43sNNDzP34hrCyd2r3/gqXTT9/xwCPHnn70N/7R300N9qTwNZwDJuRv1YgWGfHfMFFAg1SGIoZqcCVPkEJgtFGCRMRvxPQnU4CHp6AlNqSOgLq6DVkYD8QAOQklZkK1VwASOLLGtfmN+2LTaPRKqQja4HseWP2//r8/PEZptm/eD16iZXFWpqe6mSR+39vf7CsgAoZR1p1cUwKs9PDAsbWTq71k/kBvDNMSqnFtmocgrKKqQpjKMq26LS7fceO1pCCCsVbEqwqTUa+B0byZRWsFnjjh7nnkCdPaPWAGPDzXqaHhEYiGIICOHOaTPV55yYGLdqWRwheOjTIbImIb+WpgYKuKOWrkSCqAYYK6H5j3ArSIAUMbwdv6ljYdezTxY6gGVYYWjAFwqoO+x63ffDCaWYyZ2/HMlZdd6gHysKY2TQNZm5BAoRTlFK0SfIzIw25gqkOUpDaueOwADu90sFE9wYHU1gneoiCBCkShAhKsrfldu0zXZA8eW+54mplvF8WJi/fPcL1ZiUdFxAyEyFPM0aDwpeGDTx/yZD2xkDANIfQ1Sp9BUMZmbd4AziWSp9K/cLZxyzsukVX0W7AxhkbvWEIF4Cz+8lvfkUbS86WHRhBLxaUX7mKAGaohkl4vTiF08sKmiWnSQ3/1VGE0V5+1mj3nReClfh9rhYYD1k4AAYGELdRLlUhMrnjr9VfsmYpXq2JXFAEU/AtE9eYgZCrGGpm//PZDLml4QX9taSrjD37g/bEBCwyRmvpJal1Jl02UnK7kocPlsydXXHNxk7oUKLzy/iBttB2k7K/NpVGjLN75luvgYQzUE4iVJrJTPSNXHHX4xv2P5RSxtS61sNYCAAAgAElEQVQvY4pkaCoPbcxgsYjx1UxkLluYfe1e+J7aJqkyGHlRpEkGUL8qSk0QYw249e6/6pSOGSaJKxUJLmo6S6TBK1v0+TKrvExkXC8/H9efq+i585e+Kq/Kiy6k57bOv7/huFHvo3189PlWJwcNXYcqG38eS8PaJEMArmyuvLONTADpxyEWWxD2te962KSHopEtlQOenl3pVI93u//oNz7+G//gF8kgBmLRTDQ2HAkAERahoNrULtJw0liiwDhJWis+unEHo2tBYEMAmS0ZdxPCE34oEODLwg1i9U7VEBOPEeXqEFGDTdQB4By2R9xx+O7B9X/5W5/op3PthT3LpXM7+J8m8e5jn4/N4eQ074QDq+FIGurIA6o+6NlbO7UqcxZvv/Y11iONMGBAwQKGDWkNo2QHARTqCdkUPvvx28U0Ss9CVsGsErx8oZTChIIbAMmAsCFBUQzivNvIirddd2UjhiosMcQxzHhZgx7QN7j17nvLpFlljVxqpnNIXe5rnM90BBnH6H1QNiqXHbhgOkbVHUylTOKJFBSLgJCJ5yxOK9jbv3Ps1rvva2UNgIsKSlyZUNZW2KtRIREV8iDoRrEhIeiIymg4DlYPEsfS07KXr0cijawVxdPdku577HC3qppxPBPTay9pwyMSjYBQFLciU5nEwSnFlunRE/5Dn/zckaUBHFtirRXKkeUpGshVUNfN9YG9x7Bho2ycwIs6kcAsowTxvqrEeQfAGtvtDwDEaZsX9h49ceTyaXvNlRcI4NQxiScBSgOONIZwRJzEOJLjvgceW1rtlGkMq+CSYcNyVyVwyOz22MDmQEkja13ebXLRdN0P/vD7pw3YaiOhynvheimKFxFhZmfxxAn9q4OHtNEciJubnemfPhJTeeH+JKjJQxtzJN4aM6igEZ48ergnlaQmr0rnMcpwJQpVdCEhsmJYnIMiMWREZ6ZSrQpDxQff+7bFJlrGKrxyRDU5u4dl8VqqdCoum/jKfQ93hMTw3l0zi1xdfgEih4jARB6QkN8QTBRQ4VkM//ntd3E6TSbSsQBXqB4ApUaz2e92YXSqlS1Ecbq2/vbrLpoO5WK3iAD9UntM9x0qjgwcteYc1FoIqm0z1UnRtHG5dPyH3/Xu3YSpJjmBDUU6bDQQZ9SRseud3sA3T5Z44HtH4lbbG15ZXYqmpjxLbZ5hlBISHuvY3jXu2drh8+cQmthIn1N4wg/9vLCzZx7OdjzrZzBmJvzc2/z1LLutvz6ygs9y+raBlI8Z0qPxj1o7Gx56mrjxHaIZW/jpN3VAk32Nz/4ECGwn5rct/YaYyYgzfpPdtXWcdVzl7OM8Y3GMczDqdoz2nHULz0vOObfkXOswnNXrMj6350sFHtcez/wW0zb6T0h0Gm9BRp9PeNmH18ikNk+6fe8TutkOeu/EXYz9zDtdH2hSau0lnPVhSEJBz6hJ5VXVk3iyNqDk/dhuUYd9WZiVOahhdP6ezoSE5SCsfq3nG3Zu72WD488eLQe/+pu/+6F/8vOXxFCmSCkioBiCZ8LRjKGvcqy10bRuGvto+jYS+nT8m6NTqv7dYCLvgwCvZIaMP0S1Kh8YbGQLF0cQDx4oS4yHj1W//m8/dhoNarTJxi53Wy8+rzJcArJttJhU3nDlJRcuopViIBU42nSUbN43gWdP44HHn3EmGVSCpGZPYYWn7VYzjRUUBywzXHHD1Zfvm4MRBB/kZHdUVC6PbGnw51+/s4pbOUXFKLM17GLDwrjBathgsB8TVuydm46AVsJRYl1Zig7x3UweZNn0gdu/89gX7vquVNRqT/e9eg4k7sIAqbAPdiEjJEgOzwYlqNSzOkbrLoB4eG81zZJIfNE7QRx187K5e1+SplW3OzfTBpAwbM32qaQQDp51EWC9xPdOrd3xyKFVaZBjw1bGVXkISFSVVeqkLiYQh5qyIpXX0gmUwGzZMMgQMZsYTGSN9x6CaGpOwaf7XeuqiGTfQnv3bBYad+pIHbFjsqE0EisHEM1qd1AKeYZhBTlSMEglIpiwz9DkUjGCGF4GXYPuxfOtm669Ugu0GrS+lmetaHRZbINrW1cVX7z9rjVhamcCWllfi331+tdfkpodsbZZZD1wSnBo6YSPjFr2IkwWY5ykYwuXXV41mtNGXdFZnWtE5PL10yf/1vtuuuqidIYRwStENQqGHKmDcLffL+PUpukXvn7o0Fru4pY10l0+/oH33pQBvoSNazYYHb0FDAEGlax5vvehg7lENk6dNaGcRw3bYAJx5R3FESDiytW1pbddumeuDXgQhegONnlYunluZrI/uf3uQdxyTALPkRERX5/umzVAX+QLjfjGKy7eE0xgUQh5qGcSVhIIyfx081mPR5/uPn70lJ/e7dRRbCrvwISQMPODRF+zVV6aoITs8POL2/LZyPk+9p9f++Ov8ys6fvKqvCrPTzbgmwoMzTPdwCQAI1V+R4zN+Rtc7bJFDKRzi/3cLT+50prdiyatuN4//De/95v/w9+6btr6ClWhkaXAcEwb8JhAq2gw8qPQFq0zyFCDN9vc4lhZd0zs3CPfjAJKERQ0JAAPyYpnNo4FKAn3H8M/+fBHlmzTN+coznqnTvi8imYWXrL444YevwEoGgHBAYAhN91w3UIDBqiq0iRGCaSmnjNS1JTttbYiwF3feuj46XVd3AubgAkCHrV/hpGAmTDIe22p3nPzDTOhYFMIAoyq9oABZJFdV9x171OHl1Z1YbYEQQVM0G3i/YoNJwxEh+gYgOTiA3ubFhkI4izBiXpWEIgqIlIfeZhTg45vt/O10sSNgTjHXJmwroQVcYApqwVYaWOlCUFDpEODno36T8pCsPb/Z++94yy7rjLRb6299wk3VercrSzZChaWLCvYxshykgmewSa9AYY8gIfwG+bHA2ZgHjDz3ox5DGEGMMaEscEGPT8wtsEJycK2ZEUn5axWaHV3dVe88YS913p/nHurbnVVtaoUbNlP63fUuvfUuefss88+e6/wrW9Zk6QuQNGrN2rl0nGwZr4flfmeXWdoQGJGSYqqTMHCs3qm0kMbUW1u8Xi39KFe98GQcajSVsfcC1WBBRqxTTOZSpMLIqpBJAhg2MnKAWxHg4ABJooBBIosqXNu3+6plgPBD13+kIrrfCU6JQHGYW5hSa0TMJEQgeBJLAsDLBS0qsA0Fo8xKraXp3k+neq/euubXrrbhkyMYzEqxFAwAoBA3iASyOKS/9LdD8STO9BsZu2uiiQqu2bqqd0Ur1w96VJxvN0Wx+KML4KhDSDpFfFiUt/R73QZ2XS9jnK5257dNZ289S2XthgRPKPg4cgBa4BjAI1Wow97HLj+ti/PF8Q1UxaDXZF53asvBarABEMFSrxSfEqhjFL5hlvvmF3sTpxy3pwfZo8M2WtHs3AQOBuBipAXea/9xte9rc5gvwYiOAoSkxAak+l9fXzmC3dkE3tEuTLiVFVJVjF/K7cMsdBLzjv3vAORD4gAiEAUjECs6pUEhAzIFDd+4S6uTQVjB0Xu6vWiYpTnkfG/Xc/OuDd0K4rX1jHlAEaRxq2LrvNK8thyOGzC+F/H9stJdcchsm894/tw/1atIB7zCtPW0S+btF838bJvevy6hPXRh+fIitvM679ZldxNTrPZg9jU3Ho+lP41RXm+mhf+2siWTNmvMYz8G1/WPwSmIav6uCrPAEvYOL11BFfYwjaCF5+8BRuLaK/dIS+1qR3d5UFf3MHFwaKr/+d3v++zBw8PIvQcwVSnYxqia1YuJasb+YpRXlZWIBqF5kefV2VUC2slnZkrxg2sln0dGg0KMeRHCtxGlEkMoaChqqIbwB42A758SH75d/50wTTMzj0d1YIoBEzu2LHFXtm6rF3FVzqkavwJenzVCYIhr0iWhv5F56SDLvJBEUXGQIysnpZEwygAJcQlmQL4+A23NQ+cFUzi6o2VLt0Ml19Za6wwCifStHjpKTsvPXffYJCZofI3dDBXq2YgLGS+5/HPt97BrV19jsthecqxSMroRoY69IkgLgF5UqmnSR1gRdFtwxjVoOqVdMTILgzc99BjapuoT/bVlCbOmHOKcooyjjIT9YzJTFRYV7god66IotLZ0lkyltlaspYcmWozzMYyJcYliIrlvNsprWsdnes0mjuyQVFmOYDpiUmqFCRmMCpqdqNshC3IAEXAQw89FEUxmxguEReXcexj56M4RHGIYolidbFGsZikpKhQmwUdeMkDMVHMJmaOoFQWyHMqCipKGgxckce+rDNHlnuD7iDPk1qt3pywzrUadR8Krrpfh4h/BaAe8IDmgAeWuj0FK6ySFXAQI1Q9WA5KSizgFRhJVbUUveUpo1de+vIrrzizm4dGwr7EZCOtypqyGFb0ut0MOpf5g4u9B48d7xMfOz5bqsRpjazpLCyYTRkwTLfdFcBUJZbYSlDDDuAQFFhfQIezPLikkSS1fNAPeXdXw37Pmy47YwJ1wGlhIBpExAMQMvCS9zoCmu2VN9537OCxRa41BkUe8v5lF55z9l6bd0tnAaoysIcljaUEEzzgE/70rfe41nQ3y6shulLXYsitxqoomSRiNkX20n0zb3jZTNlDMqRHFVCAeFZhFSZRQkdx/S33ehMHdaqmIsJRJq1yF2Arm3PYOyo2X778m86eMHBGQQW0xIhNtUqECEpLpX/iePFPt9w6cLE3rtBABhAPruoEvhBd8tvyy254cJUJMLZyDL0E1Ta+/5n5gNef8+TbyrWecxT7ts+2hft9Wj/UWqDps2vPi/KiPJ/ydUpXtaFYVL7blTqmq4qgiAqr0NYc9iv8jyuqleIEEP2YqApAygIEAlsj8PA+qvEgW44aSUfCne3iv37oY/e/9tK3vvKiTHSPJQAYCBmrK1AbEkCgIgRikmqtktXZhMe8DrQGV7NmRlrn00IJFpADgkAYnkAwqiIVm+fKDwOh4m4hCiyFhAIMgztn9Vf/9JoHS5u0pizHUcISNGo2+qFCusjIJNhksdwCBmsNJmwc1rWCIlImHUXeq8Kalc7MgoX5pFlLsu4bLn7pZISUQ2rVKkNBSsMn7pUJbBAY3UHPpQ0FvvIkHlwuj3OSJ3EICgJISIUhNExdOFGFqvKtjZdEvOsd/7Zve9OMRYOtAYhglBhaFb4piYJBw9pHlnHLfY/NFamvxRCG5iYISEJFw66rtyOrLB+jZ05C8MRh566dA6Do9SebdagoExGLUlCbsJXCC6PsREuZCNuZPTtC2bOKwFaJQSLwioJEnI+g8EYEoVVLFo8cjYVqZK0nAUojYpQ4kAb2hfViKZ6c2vnk3GI/bjSbU95LPZ52mqNcjqKo6RAAdWSrpEyx5MkXiJqNtu8NcmG2LsCWQsZ64cCiUECMsUYQyrIeuV63C6DZaAyywsXRoN1lS7EOaoSiKJxzEkIQAYQVFkSisYtMVH94eS7duSsv8jx43w9TIezZtb9hoqB+SO0Cx+oAASlYCqOLhWTGNGam03a/L5aCA6yNk0Evg2qUOu8F1kI8QL7ft7WEGDoYpDo458DUT/3oGxIgjk0pGgFSUkXMSCyqmGxMzYPmbfyuv/+wTLZ61lOjoSU8wwn27jnAulKUYvTOVS+/cC1OCiACIhs5I8ZEpI3BUs8mDAQhGZprAACBwJIyQqHOUOfooauvvOhH3nxpPW+n1vh+P202MhFAlMEwvgze06DUTuR+5y//7tBySGcmJupxfmj+jZe8cRKIE8PiVU1VhhUAIqCACnoBtzxW3HG4XUZT/bxQYypa++HwZCIiViHrSXKjnEj+LeedOwEkBizKJIMyr8XNHCVIiZikBCWLgr+97nNTrZl63JrPPcECHixgD1jVlABrSmfIC/cWjp1Rzy+7YGcfsChj9sZ6eGOEYzGBidUqOzj7uS/f7hszS2Qj6xTwKjBDbtlhb9MqhJDXTKBjb/p28bhjsm3sL21WgWOjgzfaOc6qvoGyvpbZ5mmF12HHq6VF1zG1P92JaItXrOQERpqx06yCGmmz408819auOHrKutFTWx3hY3+hp0M5r5eT88Svf/SbRT+2yyC0UnSv2rfy17VXHBsb30DUP2ue0Jrb+loa88MAZuX7GGVKVCKyxie9pv1rMO6y4f7KjQtAsLVcxHE9dhNLdY2DfDOVbezzmhxUFTxdXxMxVf8Nw3cnHj5U5YdAcB3Ln12ZvrfzJrKehBfzRBkHt5gV5AyJEApjo+m9BwcLH7793iDm7Zde6BStLFihyh07upHKHy8MiG4AW5expDB9mjE6RFZU+ZMy6ncdqowAk4qM+NOBUedK5d9nCmoyssy456j/5d95z8N57Bs7CuN8EILVKry93Wj1s5O1EPkRwYUKt2rSa++M6F9ceXndISHPTAjCa+pQllATGEGRpI0M6APX3nzHQjAD65Ts6N2QDZOshw0ABFy55JNQtIyce+ruGmBDYLZjz58ADgQPLJX43K33tnMOcapkQUOnfiA1zGElrZYFMFDCkA2TCCLDMqsCEhshAJFLQKQSjKGSghLHZAEkqZ19IjvtwGndJekFv9hebjRq3geoHY4tgsKXPFyrhcSqhO7yTIz99ebrL7msEUUACislSh/yiKTpTGLiTnuQS1Lfd/pHr//8g4dnPTPIey0S1Xqj3i8x4RAISiAlCyZB1EwOHTu8d9e+bqEGFJMudBfjVuKrABSLidLQbYeAZq3hQzAmAon4oubUURj05vbt2/lvv/d7pyOjqotLSzPT00BlZSF1tt/rqzhpNW558vB7//bvXWOGBIYoBNTqDQxfBmaqtDZmFaivOEzqsSmBNI4IXdZq/NhBr4hrTSLK+t2kVsuOzbbOPK09e3jn6QfCoJctL2t/aU/D/sz3f1cTyApJIkA9CQQsygxmZnB0pDNf1GeWBHc+Nps3atUbysaqclBCxcWzfsWsUhiCDwWSyM60mv0Hjtqd091OPrFrz6C/5EMhXphX674RScwo+kvIliJ0L37paf/7v/nuKajRUgqt1Sd7nW6U1qxxnV6PiJr1WqGNPuz7P3rL0X6Y2rNvsdPLB92X7Jy+4NS9GCwHNVGSqlQgG4Ga7ly/MVlbzqE13HrPwWVNOYpN0A2TY0TVIhgNyMsm5NJzz0oVESMUXiNfj+udvJPGNYCrVaQg3HNwuZ2jNKFf9mxUD1V8soryaJWsDmYe9HoTrSnH+vpLX7azDgAewcGDAGNBbCvXPNkgtq94+NCxtgi3ml48IiMhEGjEkPBC9MpvF79+gptmBaY3UuhPdv5nwD8ta8+w9dae1LWznQZsV8Pc5vG6ya82Q7S/MDm8X5T//4p+VXWw51o2nSGG0NKTF3N9noV5HemBwHGcAsmj80t//7kHZpJdb7lg90xqAIRyyFNphi55Xz0YQwwiVTohLrzVqW1EO73GkzH+76rXYXh+BoFVuawuGsCecd9x/Lt3/uHh0sTTU2ocsDEs53mUIcm0VC7zSq+tFG4Z/lViwIXywI4955xWiywYRmVV5VAmqrhiEKoUAwIKxWLAl+6+vwQFqAQZokQAPF0ns8Kod1qcd+ap579kV/BirRMdAuXHRQkLfVx7422dLOeURVGFXIZmlSgxKRREQ1Rpdd0VjY1XKNaZGd6jFiegQLRSFFPaUtY4aXf7p51aC9pfnD9mGnVRUY7VjOUHV9hxksKCFE4lCcWemBaeePx3/+Cd+1toxmCgNCAemouhQOkBBzg80ME1Hz7aasSZiYTgpAgL2ZqnBFYSIfjSR5E9sGvfXJE1asm5Z5xWu+2eFqc5FUKsBMCGbmbq006k0+kjil0SsRQh76PsRywzNfzSj3zX1efHTcAAJeoyxH2AFKVHksQlMAv8v9c9smtqb690aZzmxYIBTbUmPWCqmAVgqigKWJmFUJ0mAS4+78zP3HvMaMHqVopDBVUoZ90sntnZPj6LenT86KGJOIryQa3If/lHf/CbX5KGEjsiLlAY9urAahWkoqEMsCaq1weMT33mnkEpUAtlEgaMwAayQqsDbMS/Neo8CkH6hlKGvfKKy6+5/b4s6+7ae86xhU4cRS5wENEQVLWifCdIQ4skFlf298bF//lz76gHnw16Nesyji27QBHUDgaDVqOuqgu9gUbpQ7PZh677TO4mUZbNyHKuF551xinTNTfoOGtURYirTA9WDRpgMRjgWBu33XV3pogIbFc8CcMk/+EXIglEQaJycPF5Z73iwn1KsBG8HyZSD0mKNHg1qnZAuO3OB5YGOVrw8MoeFfBMGcO4QCBBCIWGPPSWdrXiN7z68hmqrGSGGIhCApSIrAKBXEl44NH5Bx95XKVlnfV5FekSYjYCJfjKspMxpM3zoCZuWzXfZhOeTerqVn77tUpU3Tw1bIOdWK+9rEaWN8ltWOd1HuYGbDMCsxkmfrNIzmY9sNmz2O7+ZyfjeSybXfiFaAA/M9nsWWzGX/ONE6d4Icp6DPuJf36+ZCvPdbPKW0HRz0ncVJnuenQh/P5ffuQTtz55KMN8WwoLb+GhZUXhoxX3DquAlEn4JG6Ak2EWUdX53LRDRETWBnQEKlAh8YScOWM8MItf+a33PFnYTtTitD6q+vG1GeHj/VBVtjICKExA2V5OtLzq8osTRQSoDH3ba+vBrHr0uwUyjy/d3390dj4QS4XiEakoKoU2VeVHaok4LZwWV33zZZMOZZFFK/08SiQyxgEIwCNPdQ8eWVATEdlV0P+IhF11VFh0dcZci5Ua1XjqdGENjD1xzk3ZAdJs1I4slJdeeHbNZCjbMRWh6DvDFgoRwA//hQDeaJGErO774egTf/2773z5XhxIMUWYYEwrJj0aZWgG2eF0Tw11AwB//ZfXdbtL/bzfz/u9POsVBTvT6w7qFcBGqzQGBRDVbch8GUIjSiLFS888rewstNJgqGuoT/AAIUpDvyj7WZLEyIvI2tSQKbt76mx6sz/9vd924f54BpgQpF6aZZgUmYHOQKcp1IpjU8ByH9dd/+iD9z/YX86klKXltnUxG261moQKAEJEzAojTMoKK7BBpd9rM/Dql59fk24t9CPpW82aicl7nbLfqydxXJYtw8i6MQqng+VDDzby5d/4+Z/4jotn0hx7HLrdHsoyhLKUMtd8WESMjRdt93MFPvbpG208wWKNWFbHYiu+oEB2FCHccE2Rmot85l91/p6X7N1h886xR+6erBumAlZchNhR6jh1XLPcMqDlw92Ddx5w2bt+8+cvmHZ7nN1Zb0UuYRcv9vNave5LcS7NBn5Qeq6nbYf/9ucf0MbOYBNm25k/1kT5XW++SgpMps3ERXmeVyM/EAKj0WpmHkjw4JFstu8pbWSq7Oxmr0ZsLYq8yeVVl7+8sWKsWiYb9fJePU5VggSUwgXbDLjzoSc1riN2tYmacCHsq2gkVez+5JV9kfUn6rXB3JE9DXf2AUdARejDalWqEJZRhgAloWB89tYv94MtQSoEtkyWVvKGdSVA942jmnyjyvOBiX9RXpSva6GRM4tWS56+cP3xvMnncRkpWhvPyScSPoxjbEhUR7jEbVDcjGHlaRNn/8hLvYpewSrOR1ShzF5MX20cT6IpeR6960Mfnzt68Y+8/bICCJm30GbqNBhTEfopwGs4ToTGyujQqn/9pG6PNUofAVmuZAjAIKs0eV3PK18QWWOXBU/18NO/8T+7yTTv3O+Lot0vDDOAIB7gsQ7c6jy6hs10ff/LGJ5vbO8KwkkVhqyqB5hW/N9BnMp0s94Y5Jede/akW4k5MDEqcLGqKmHFwU0Cy3AW/3D9DWVaCxRVmBMVrSqLBgYrK21slZVLyzt37yiOHZ6etK+66HQGJmo1v+JRH75gVTdjuYtPfu62AdWjRtKDYui6N6qVysKGaIxLlUc3v8FTXV7q9CaakVHynSgZZWQiCEoCeXW7pt13vO6b/vHaaxfEBzaqZdbvsVqo1lv1EHzwZShz6eWtiWb3qcdO3zHxS+/4sfN2oR4q2sEAEpaKhpNTx53Cl2TJ4UOf+Mo/3/g5t+eMEECRK4vSGQ4+LC8vO8AHGKrc/6IKqDGWCi/GmAbh3FPSn/jB7/rv7/2ANHfYdNpqo8ipNjEj5B0Hx4AJ2dxTExORD10/v/SrP/WDb331ORGgJchoVY2rSt6oxkPsrAAPPjX7rve//1jZau7bNTc7N7F7N5dF8KHX6xvUh0VzCarCCigrAwQCT9WsSHZqK/nJ7/n2P/nbTy73+vHkrkIIhjiKlx9/aP+e/egu7mnGneXZnTUzsa/1az/24699acqK1EEFzaTmNQ8QkB8fqSWo2Zi45VCnnXNJCQI7WEEEsBfUa612v1j3aFffHWOivMhari7Af/zJH/vZ3/ytetLKFg6GOE0aTQ3SXVqM2RLIKDnJp9B/5eXn/+JPvD3O+sY5ZynPc7bOs8ZpXBTKcM6hnUEj1wHe/fdfenBJjqkrbTJdb5g0OXdX/ewd8WQEhMAqzKYa/AACIAGZoM+49pYv9jgqXU2Rl+KpqgqtI8BvZTOBQiFx6VtJcf7pO3XYIWDHojAuClIwENt0UFJfce0XZp9c6Jv6VOlsHgbKBAGRI62YAKAspOJiZ3w+4fQtr7lkEogAVoU4UkAF6kFC1gz6KA1mO/jCfQcHatPGRB7UWlMBUCuSGCUMUfJhteNPFnxb9fJuU0/crpf3OfGM0Obt3Iw3fdNTrUOND31GW27nGFZ7G7J1Pvjh+XmDnc+FDNfyF82Dr2PZ5phfE3nYOqR6mxdZxyu/smOoDo2UojU1ecb540XphJ+Mvmy4f1Oe+DEXJ20SdTmh4uGKbAZQX5ODSqpjR1ZMaCAACtHKYy2jWjYBKqqkEhDCWOcPVfnxqNl4TfivmqwU/RnyBiibOPG9vifsmJjwPZkbxB+7+2Ft1b/nqgt2plaBTBGRqUpWCIlwgJaVV6lqPJ+omW8lfDmKgIMCwIaqIH+llBOrYVhrFENe+UDGwxvGbQwAACAASURBVM0O0E/xM7/+7m4yPYeoUZ+CdFR9kI0u+FUE24wgAMAIO8QQo5K1F68474yz9rMpwSdYc6orfbUyO1uLI0u4/4kjnUASmaouDgUdlo4i9QTaZHFIJid9kVspLjz7JbuaSAFAg4xnMcA4JwEGyDzue/xYxomaSEEgGSFbGcoV5x5VJEPjZX11xG06dt3FxcX4Jc3YEkINmmPUCVxhjdQ4wp4U//Zfve0P33+Nrdn5dgaCi6yayA8ySBaxWqtTe1r53PF9LfcH/+kXz5zCpKtqDyvIC0orZMh0O/00niCYdhaeOOY/+I//ZCemj3V6mNg56HWSqcm8veSzQbfb7SqiLKslUaXFi4Q8z+NGLYVp9z2sTSK87eqLH5t76m+v/6wf5M7saDb3Fv0uyoJ14EraFbts0C6OLr38zL0/98M/8k1nTDlR3227JAXc6BkOeQ8VnInJgN953zVzaqOp6XY+qO2fyvJ2JGxUjx8/HrBzzRCQ0dNHRRylloQ5fPurzps/PvuRa288fvQh19ob2Zi5Nj1TL9tHNOuLy3em+OazXvILP/720yxSwJGKhqBWlZRiJqNcVJzpBBGYoCiBz9x0+/FuhuY0FBBmYoGVIMvd/qGjxzddJZSNSyjA5NpydP4O/o2f+qG//tA/PtFePDR/zGet1LodJKaUuokaUTLB+rarvuXtb76wblCr14wiay+1WpOdvEdQkHFk2SDPEDXsUY/3/sPN7//UF/KJvX2hNE2Xlzo7Y3fFBS850IQLkKIkw4mLwhjrSD/LkonkyAJuvvO+rtsd0sQAZdZnu9HUr+xgURaXXHzWKZPDN8EjGAgAoywoDLtBKI2LBiWuv+UrGaIQJTmKQktlVijEQJnFBq74u4IzLFm2fyK97GWnx4ANA5KoIgsiGNCwHq+JcSzD7fcePt4ttD6jbGWYgMQAifih6bH1JeDrS417nlv71VdqX/TKvygvygmyGeIDXy/5G2vA3jyEjo+0oPWTzOoiPtT5V2gaR982xa49d/D68eKdQyEJvWVbTy2VS72jE9bQ9PT9y93OTXeksb75lefvqXNBo6R/ATGDVVCBIlZwqdVZK2wGYQu25xiEQxRwlgFYwBgYS9ZbY2GMpRFsRmGW+6Gsme/7md/uNnYNkqlGfWpxbt7WYjlpMaiVuMT2emobMrx7VSFeqWArpHAiMeFN3/yqFsAevEJzjsr6HGrYShACC1QRDG667cEnZhf89D4/8lpZgWcwIZx0YUiStHv80JSU3/rGK2uAAQRSufyNjuz7EAI4L+mOux5+6PEjxeQ+cpGWg+GNgIWwOcP4UKrxWhmyqvrQQw/qZacCAPOK7UqQKHgSQCNDaJZ4+5VnNmo//jcfv27uiUOwNRuL2JgoKErWvgs9s3T0l3/o+99wybkTFhMRSJCbCqhcsgRDxio3k3TQ9a5mrTHv+bOP3HW0c+D8i+JCl/JQm5nuLy80akmxiCeffPLJJ9tnzUTjzY7rSdHpi41aNRtKBEXWL37sB75jel/jus9/5c4HZzXAUkpFEWk/tj7NipZm3/PdV3/XW167K0YdEOlGdRuCklT53wDABFLkbOak8e6/+fStR7rx/rNKjov2MqUhL7okSUx4/MkninD+CqJ7NRBpho4Bq2D1NZI9Lv3Rf/m6c0/f90+f/+JXHn4qg+91u5NJjWmwc1f6ute+9nu+/ZW7YyQBxfGjMzun+/CeXfDDUgxQR0o85iJQwrHl8trP3hh4j4nq7HOVKsIBGBbCE4eeevTw4KJ96QaDm0g1sgACTMAZTdTO3X/Rz/7rj33u5pvue7idBc36VmSqVj//9DOuuPiS886anG4gFRBhqRdSxxOtyW57qdFIMgxYrPExwYnFfB+3Pbb0gU/csMAzcE0E1Kd28OJT2fHlK1958QQguUTMyqYaU1oV0wImJpIO8Nlb7prr9sudrmTrvThnBaSjRWVlmmMgcQmzvfKSi5PV+FRl+rNh5QCoj02tBB5+Su566InQ2jcQU5AKA+ShWlluBhbkvVFW6fW6NZVXveLCU2dgtXRaQC3U0AjmDHAQOINMcP2Nt2hUF46HGSmB2BEUzHakygcowzDpcL4axwqumbmeUR3W0TDY3vHPHq84CpBssho862qa28WUPzMM+mbPYjNGnQ1rwZ7s/JtWM113v+scZ1vxA26jXu/Y89rATNqsKu02n+N6x18la+5lS+P8+bWTns042VzGgAZbr9b8vMlmdV5P8KyPffzat/mrIDoqDbmhjLzyz1U9iO2Lri3TtCqR84N+QBYZ0/M+iEpzai5k7//EZ/JB9ubXvnJvHQYwBGJllKKeaJhIOUrJPOG2RZ5Om69IZghQiJShhFPDnlF4lCGUEkIoQsiAJJADKAOOw/z7X/8L3XlKrslS7iEdm6a+26XIfu06FRiL16iKIQ5aOMMcxInf30hfe9Ge/jKm441NVCUIMXQIIVgU/PMX7syMRbRaqnMr8zUrQtZrJeaMmekLzkxtFUoakUgqoTSGgcHAu3q00POfuvHWzETBRh4nRLqfhrVzrO5qdVl+4NHH2zlqDOsDoJYcgcsyVGyIUFhgVx2zS3jjJbuvvPQHPv/F7v2PPvnwE0cKRaffnplq7t+3Y89k/K3ffG7isbuOcgCWYecEkCULhqqBcUHJxHhiCX/1sc9e96V7zI69R3p5SRbO9Af9uFkP+SCqpw8ffuqRp2bPPfUceFTxp4DgizxKjBgUPmiAB++rR13gR6963Xde9bpDC7jllruDxKHMnWapDReceeCVL9sfckQo27NzE7tnIuOyrMccVaF9JRJiD1aiPuMTX3r0g5/9Ym3PGZ3AEEEU5XkOg1IDrDs81xl4JAaAG4ZKK4ihjAXklQGUnYVG3LzqopdceelL7jzY7eTy+Oyx6Ympcw/M7JsCSuyJkQDWBDPTKotesOyJwFZANByNDHgmBTQQl6Cb7rh3rlvU900XLgoIGgQKVWGySWviqaWFW+579Px9F0QwXNWWIHgPS9CVN5lBgu7RXr0eX7ardvp3v+G7ize0+4gZEwkmI1gPFiDAErK8P9Oo2aYJAd1BaNRb4vtsoEa9MSWwEHDrw93/+ucf8K09cTSd2wQoO8vz5eHH/7dXX3TWXttt+4YjMmvKzTEgoMUCS4Ib775LJlo5CfKMjCFSHpa64KpXmZXIEyRfbp890bjsgn07gB5gFIQqiZbDEBrH870B6uk9TzyxFEJG8ICwAwD1VT0yA0CEDRlVlWJmZ6ve7Vxw+inpkNfJQnnVTgcLQRWzbTwxXz6x2MtcmttEyQIiXCHmCcpgYogQgZRUaUTquelC8kxVeaHtq1zbBcCsvyiATVQifS5UJdogJnzS9oywV9u87mo/jDd5s/as2f8sVO0NSmKtO/9WbmUbKsfY+Tcio9z4Ylvv/6e5+Jp+e/pzbnf8bFe2b6Ks9vM4AeL4/vD14KUelsvb8v5vMBFVAQuxJbPhAVZUut0uhlB1VahUXvlxenhgU4Z4AGv1rM1Q9RthkgSAqoiCgQBRKEZlrCAFGWZNggSBUVaAC0rDjjP/1ydvOji7/HP/+g0NBkQcMvaZRtFgkNfS6VxLqKMVhhMCoGHIeLjpU6/Gg6pnsiRqIRAJ6oWiklEqMvWI1Ovy5ISNAAItCZ7K8e//6CN3DRLEsWdrGEzwZUHW8DpY1TjAa2PrZa2M9+T611fHfrsGj0XDP1c++NFlRMUb45yx5fzi1W++fA9jZgJFjjVIS+IVkhDHUb/ME2e6gi8+JTc8+hilU6UPZIZ1TytnfAU2UVq5u7UTtAQZdGPtvflVr0wFsYHVPMAFIihKRg4GTNqICuDRpfKGex/l5hmeMURVr7G8h49Ph+gPGhb5qmhWWUkrrAMTiSd7cHb+4Nwg2ZXuqUVFJwfAIJNToMjUUgCSeVU7XUfpUQiuvrBx9UXngc4bUoMAVX0io4ADeziLiuqy6l6ihChkUgZLZYzFgGs+c+/f3XRvPrEnt5Fq8FAmRwzvvbMsaRR847pb7n3Ny8+ZMij7A06LqSQNZRZQUd6zGitQhU0BBRrAKdN49be9bPiUR/8GL8ZobKzZsUvL3EMcO4EHJLDxFC31MxvXC8Ut9x/7449++jha6JUwxNYAFjkMxYFVItx5cP5IG7aGAGqlliSv7s4EMBAYnpm55jXUm4lwlTiNV5/REEDObTHAARYoynIicb28IEPGpoUEBHIsRDmNyD0NlKnkkJOJlGMP3H7/QTe9O2O0s+UIrgohkkLJl7CY2ven//DZt7z2gpmAVopepzfdqLMiiuEHqDz8bADGzFRdCKVHg2Ei7IpW+0oYxGALAaKo1lMQIWKoM2Xwqs6DLdXyGPPAx78w9zt/cc0y11y8QxVWcgfP/fbumnnj5RelwFTLDvISvJrMSgoDBEIc4c6D7fvm52VqN4oAS8ZbEzAOZ2QmQoDmUSh2RvKmi18xbTEoYQyMkhMjgDCETNBaIBoAJfCJ2z7fTag0EGao4yozlQgCJZD3UWSEkIei9FlWLF55yYxfBtedhwUR08oETQCsgY3whYceO1xIr9kaUAV589WCThoBHKopioYv2QqyfM00swWVeg0p4UYqCK1VzbfiW9uUEWXLMv77kysBW/L1rV/vKoTqSiLPCVc/afvXX3FT02UL/PfrvS0nB/+sgQpvcuTJu3/9FcdV9jXn3LJKOn7ceuTx+rNUbahWz22UINiUkWYMMzC+Im9WrfY5AtBu1p7tnl/XcAasaoHr1feRb5sx8ouPlyxbc7/j6NbtmkxrHOtj6/uYhjlEVciqplRxRIx5J3WlwYoTsPKriuvmXvxVrPyWWj9uDm2Imt5cNnte69sm49+GgVplqUKiuqpZMVeoAB2N8+pUJ7pbqhKOXwss0doOEl3x5AmsDjf2ZDNu9Nz0p++8/3ff+4n7O+gw90rqDIp+r5fGaX+w5JStwHiYAJZhui+DeeiqP/lmqlQxDlrV1tGKpEXhjJ1o1KylI/PHl4AOsMz4jT+85p7jnbapd4ItlZlZg4cEfp5N8+0KK4wxKmV/aaFBcsl5Z0VV5aixZqrIeHpHuzNIXNwJpTA+85U7+hwjTkNYoZQZKyq7OfjMqkSSJdK/6opXTDgY+EoZrnBsrAggDxzuaBu44e4HslqjMFySBih4BRXFa2ZwZayo2yMTdNiM0f2IMT1O/+SDH+0Q+kCgGIHhlRUmTctBXg5yk1rL6kRjlRZri3RSMaWYEEwppgQtQT1oIhpLMAgW3qhawAQ4AYnWYQalDIBjgr/65AN/9LefPKb1gUlKthWRn8gwWSUoUVLT5sQnbvniV54YSAxbawYxnaIHACQaSoYQsSWy0AiaItQQGlrUZZAUXZctm6xjsg5lnSnLE9b4rKtSAhBwIAaJsgTiggxq9b7DLfcf/ZX/+11PdkXjllJi2XEgFssaqTiyrnR2weP6Lz6aMZp1ZAKK4pW5rdIAR35iQ8omqAsSeal5aXhpeWmVspPRUuxuuuNzSy6Kunkx3++388LAWIETsVo4lA6lNerYlkURVBeK7PF2uPFLd8/3vAfVm42AMETpkwASGBmnfdP4p5seLRO0BUmrnpdeNCCAGKLQqggUAzQ0upwiAWpAAiRVASmGqTaCIRgFCwa9QelL46yNYzG1pwIeB373gzf8X3/+l8vRhG/sWvZUEokWsea1kB1oudN21FKDUA64co6rsIoRcSJOhBVHC9x81/3LSr2gsAZgBJVQVcMdVk8zwkbEqI80k/aR119+nhOEQVX2V0lhFBawo1wQV8c9h4u7nnyyTwgMZstkiBwhJnJgq2Q9c1V+mCHA4OrXX+EEk3HlnKAKJreyecZ8V3uC2+6+r4gbPTWeDZisNcwMqszhE3Wg5xz8PU4d9kKQF1p7XpSvvuhmspmGL7rh9tVt9fZkvKHr9w8/v+Dv4lnKSTD0LxBZ8VmuM1GGWHnZaKayWEGhiaoMXfJDrzyN1KUNZY2Vc0JDnpXw5hETL1jq5vWp3UHS244uzP3FB3/1J7/3FE53tNI8W3QoyzyPjTMUAQbKUlGpbymYR8POCmAwBTIgI6QKI3ABM3H9UHvZ52XU3LUELAje+cfX3PHUEdQPUGBjhlcY8fCYk1ur22AEemayjr/P2dj4gQmD88445aKX7VFFCGCC1zG0KvGKKV7l7ObijhW48ZbblY1x8UmCM2uIv1d2wqfGv/ycM8/ZTYvL/bRlK2gNK1yAEGCQE2yTnhrg+i99uXRx4BEmcuVcW+iqIU6eQEQKDoiKZOqm+w8d9qgBzThCXsShYMfgkaOCgYgoDGEzphq5FWhBh0GPUeK8MERVSQoMoRJUlLrohV1jucQ/3PjIn/zdR3v16YGJPK95/zDKWuiVOUdR2Wq9+yMfPeXU7zutBpdPSm/RNWPxpTIZtcO8w2pWJak8qsTORtGISB8MdLN5L9KotcpQDvsTYJgQqGCXkekTrrv96G/+9h+ke88gicGxcZaIqzOrspLA+ryQxWJw7a03fevrz5wFJi2O9bJdLsYw44Yqq55pDV3SuLCiP9+3UWJatjE52fWQtH73g3fff9ddP/i273SBR3dBhg2BVIOnREyDjfnwh6/teEmmJjqlz3vzLk7X2vMCIJB9z/s/dMXLf3GmjigCEZjLot+PknoQrkqaCY3GCAGADTiBTImrjFoEUigJG5M0kgKhX2Q98HFEi4I/fe8nPnHjF1v7zytRc+lUfzAINjgNqfdN33/dy1720t2RRSbSc+p4nUfLo7bQxi1fuFsl9plBmsATiSWSYDyoQsYQiTqFEUTBv+L8084+Df227GvxQAeAKNgIJ0GEILCFcQPFdTfetJTJ5P59ncIAQ+pJqtzkhoRMkLgwEUigbPLiza+5bIKR2Iqt60SAeyCgQXffN3/Pwcdo5+nGOK/wEpiDmFClCoFYiYBRJ/LGbCxbARKs8adu0/v+XMnTeA1XBs9Gv3o2GA3erJrsJq2q1qivvgtoDeZ+HKT4DVTN9EX5+hLZAlZ+3Br5qtbt+ZoJqyozwfOGKhFLOBmU/hnICpHnkNdzZVu7/5mJYdvL/NKgPF7QI4v5Q339b+/7+JeP4jgQapNLeZk2m1lelkUuvhBeA6BeJRbddKNKq+NhDVEGmAQVAH/52EJEca25s4xNBvzK7/7V9Xc9mNWanp21FWa1EjUVBOWFNbyYgZoxO2v28pedXXcghteRGqSqKkqQsUW21aoXQHB4+Ej7+GIvqdW9aIWS2MZVVbjoXv3ay0qgFkcrz4OgEHCA8VBBAdx23+HH5tuZiYYF4YdkG1u8yvBD0GoBpkB2uTS+ufuHf+H3Huli4NDRqK+Ai4rBIKqlUS3NB5n4AFK2RKxUFZXdaIyOIglSfSYG2cikNWo22hZ/8Nef/L33XtM19cauA54s2IEMyFTGJIRIWQKjYHE1npi5+f6H/+n2x5YBFyOKpgaZVZOoJqqGvHIQozAKIzACVpCISiiKPC+zrOhleSd2tpZEeTkoFB5UkMnIFYhzqmXsBsDfffrh337P39T2ntfVlnCNjTPsmC3DqgwT4VVIDEmcPDo395cfvflojllFrZ4EJvDQNQ4IaWAJRmXjTVCbaESRPbag3mBAeHKx91v/44/OvuBCha28CAAzGSKjQkGciafmOn4ZuOnO+9Idu2zacq4GG4/192q8J8D6ZPodv/T7xwfIgTKyHCftYiDkxWjQIa27B4TgCTLCRNmxzciwP6vT5kGWg28rFVESouj6uw694z/98V1PdX2687G5Ltda891+0mxVDE5OfBSKq159SQPIfSFMQox1mwcen10+sjhg2xRx8ARhVpbKwVKl7RiDIKzgoE7kqlddWgOaKa3c8nh9hsDICcuCLz3yaDQxM9/NxkterESiVqZuQ2rgz9w5fUYNLYBVQAEkIBmfeUtGF/jUbV9C0iBXZ5uwMdYYYGT8v6jAvSgvyovy9S+bsUC+MOVpp12tsPLgE2zvVZpBVX0a+3uIgV5XAXvcQjqhWWPfV2Fmm2KMwkriwirOqaI4HsLmFVKFCjiw2jgptLTNadOsP7Y4d2z2aG/5k7/ww285dUobgRKTxIkLZRCQD6WyMWpGpZrGGj+KPpyQ01LxQ/cG2WQtzrLMJmlByEtYi1atcVx5cudpXeAPPnLXfbPd+mnnHFnsO0sV309lSjIPKb2fK1V+0+zsTaIiPOKZHjuSDeDA/bmj+2rFGy6/aEh+p7AMwyRKFRtQVTeyYuSXgILRY/zj9bcE44KSECsxqZyozY99HSLbfOmSVFRC0T9z18QVF+51QCuxkFKICYFEGFaECBDGALjhy3fP90qpxSep0jW80NqAQ/XGjtISJCgZUmGTk2VDHfTe+WfX/R/veONpTZRlbXGQTbXSAPVlKYaCSjUuVmBn1TlNxf6tABOYyrwwxnBcCz4s9wdpGnk2D7fzR+e7f3/tjZ+59d68vhvcbC9nESJI0CqwsIL8CVBhMWnWh6Mondz9P9/3/3D23W+7/KzdEeIoGuIfimAZLjYgiFdiqgyaagAkLqJKx6U4+GUvSF0zB+cj5tAMsMAdj3b+9IMfu+3BIwPTKnwqUc05CtUrJoKKNh5QVY4TLUM0OXV89tD7Pvyx0087/TUv32ssmnnZMnDOVUNkiMOTNQ+FnEUIKtrrZXmmU3ubuaPlAR4/Vv6H3/i1U/fvvej8l1mgIsYRgQ8iXlXhwb0SPok/f++xrokXBgqHbq+I05qIX++u9RQve4/I/rv//O7/+PM/8urTksOlj9Nmz0ahFFKiEIjI2tU5TMY4SUOokIRBROI4LknImMUSpcORjn/kycc//YV7Pv2VJ5dDDcuhsf8lVITZpXZjcken04bRUHopB6cd2HPGqfWuwnJNECJjlc3KtVQRRNqKj3z6c8ulIVuvR62+N6o0LDFGhCTBck6RA0BEIlJLkjNPOdUBTUfzx+ajiSSOm93+oJ7EFKEE2sAC8Jk7Dz653J/Ye9agE2SjzG9WmZ6oOStF3h905q/+tm+dBAyQ50tpY3LltfHBVzNqRvHDbb3zqSN2asdC7iVlZq5YvwhGeVMSyg0w0OsPekYyjn2ndUvJBrJdHvotH1nFGXTtr57xJL4Ranzjlg8RyrTm6wmt2kC2koIJYMXXXsUZ1jXs2a9So7Td0QlPaNc2B8r2039PPH68w54pp/ZatWDDz5v+cpvjc5t6wvOTVjs+tzy/KvBm+PjNcO205hjZ8Ji1n4f/lxN/u4qh34wQfG1A/en1rq14pbfEW48KEDL2fYSVp2qNgYbxXFZVqAZV0TFeeVUlphOuxye8A9txpa8NbT+9bMN4IgHYpi6J6ksLs4jN5N7TZan7xIB+/Y+u+bWffetlu2eOdfN6kMlaqpBgSQha4QTG30dUVVCGmwwzJEZ/ZUymSZ5pMpl6hSp6PRw6Pmj3+qExuezp3R/4/AN33xunTQkx1yLvEXxgpgof/7Wq7boiqrpRGzjv5TroX3bZSy/Yb4bqrx1OPJaYVME0Xu0h6/eSVv3wEm6+876S0kAsoCpiQU/H/UTWlWUJX1I2eM0ll044sEAZolSVEoWihCooAEHx6GG5496HYBqKaJNRw1uPBlQARy8iwjO7T73h7kd+5bc7v/BDb7twDyYaSTvAaAAxMymbIWXoWI+xIujIpoEOeh3ACHMEFNaYVqMHLAR84LpbP/TpG/rc8hP7+xKXGo8WMSYBEVWhjpX2GGOJNBBK0UFp/tfffTzWt7/p0v27Evi+OqZGzRQe7U6XVJr11DJXY7LSRsvSQwORGsoUTNZ6GA8MPAoAFvNdvPeaT37qhtu1viOzE2U0qckkjAUNuCowqzIc7aJBEQaeXLTQ7uw99azlxx/5rXe/7+d+6Pvf/IpTyVhCiHWII2IYGgVIVuaEfqdfr9dcgtg1GhZHCxzKcOu9R973Nx/olO6n3/b9i4IgiEfDhJmJoAoPRAmWPf759jsOtQeSzHT6ea2xM8sKs1FefiCuzey3LAvdx3/1v7/r6isueMcPXF046xUtxxFgYBTwVTCtMvSGVj8AVJzuDBOAEuiUJjfIHW472PnHz95w8513FdHk4YzT1jSzPTrfjhtN50woB4YlqMaRKfvlhRdfVAIDgiGbw2qosOzDUZMQOoHvO9q7+9BT3GgFtmVQZogGUa8kbJ10enF9IuRFHEWkkhfhNa9/XX0HLxZQgdSni5jmCzTq6VyJlkEGLAPLwD9/5Z4irs/NtZFOEXj9CiQsRZF3O8tR4g8cOPU1l57ngD5gG9Pt8TXZRGoAoAvc8sDBw71B37VsUs9F1YKMgRIMG2KoEfmaRRRfaH60r357nm/o0fNdLubFZIMX5UV5NlKRiFRTz5jGs5LMCQwRJCf+0D696vnCml99Lxtou2zt2lkWRb+TpS4dWDN75Mlf+x/v+dWf/IHXnr7LAYUHiCv6tmEHjAcKKi8CgBFCuoKeVqiajkAMBuITcb1cC5CPce2NN/TUB+fmeuWjTxw5cOClvcGg3WubOAkiptL7XgB6fCUyZMkRo1XaIlBB3ePkVRe9zAJGwTwEXweoWeu/qYyxeqveA6773B3H2zkmm0GNEGO1FvDJhA2H0oNNq177lssuqjGCjJ6AGtYyMBVMQYmFBLjjnvtnjy+adD+C9XZLlzjp7TNU6420Nzc3D9Qndn354LH/8q6/+jffefU3nTq9v6mNSK21ZFjGxsWaWmurOylNayDT85jrIWPM9/DZWx/45Odve+D47MBOL4ckcA02gTJRaUYVxqjiyGIACD4YZwlOETRoUN192jndpflf/5M/++yXL/zeb73i/LP27a/haI5ahKmJhgEyLZWqWBoxM4HgqmiJ5FmfrSvEtgeh1TClxR33Ld985/2fvPHWx44tzhw4vV2YkDQ9JSVbhRjVEXYCIkFHvD9gp2RgZcANM7Xv6KHHPac52gAAIABJREFUfu891xx60xVv/ZZz904lO6KWEUQGdpSgPN4z3Kw5i07A/EBzR194ZOmDn771gSePzuZ4xctfdckrz84Ax0MNGwDz0OEaFFmBnuLhI3PHjy/Gp+8GsdKJ3T7W/1Zt/fD8/NTk7oV2fv29j9/4H37/+972Ly8549RzJ820gwUsoIxCqyQPqmDe1ZzXBDKg730/J6qbw118/q7Hb3nwkZvvf7jDUTfap7bW2DfVa/e0LNJaqpKnzpXZcuriXHxkzPSunWe8/Nx5IAYsQAJPq26/ipn18HL+lcOHF6BuMh14H1CAwCTKJQMkKAKMIoxKw2YWPWdnFe0O0jxYowLbKdBQlH1ohlywRGHJ0L3HFs3kTnTRmJzptZc38qdw34uIUZNKPT7cxlOzvZoMHLRXssACYCIehREyy5/60p3LQoFMECEmL8Ey2JgR04Uws1SJUtVstomfvsK+b+VFrZ7FFskKn1YX3O4MuxXGmzVHrI0SnHi2rV93Pf96dfp1jDTVfKfDIiknXmLz5KQtN+Wkshkf/GZ8/8+tmbdR7GJ7Z3hundQbkF0+l6d/3uXk7+PX1728KBuIMsCiYb1fkz5/sHvz8exPPnX9fFLr2UQ0EVgFC49ISsaIe9acc6NX+oQj15BUbgKwobEYwQkAGzZDoELlmayWGcts2GT9PrNxxhl2vXZvR8Oi/8QOU37/m95y+XmntY+1VUNhJSC4AK6co6JYSZIbVcFduehKpoWBKQZZqx5nWebSWub5htvv+MwdDywkUzIx084Hu/ceWJidZ4VtpP1+F1JVH+UT9Pj13vFxusatp71uO9AjCiZlT0wchIFA7AJ4qXvp/ol3//K/2GvhCNYiVC754WMKDFEhgIOSCoL8f+y9S5MsyXUm9p3jkVlV99G30Q02OCD4BDkgRnwB5IAUMbQhhyMbmTSzEU2SmVbaaaGFtNJC/0EmbbSStJCZVjJtZKYxmUbkcERS5BAk+DISQ4IiAQLNbgD9vvfWrarM8HO0cPcI94jwTI/KzKqsuv5Z2+2oSA93Dw8Pj+PHP/8OvtXSf/bf/q9/8K2n62axotM1nQoa0AQRYgA2bFt7enr6fWfyP//X//QNggt5aeBtLwusAAswcAH8V//d//HH33j3/fPmhSz4wYllsSxg8c54YVZ24tZKEHI/+ckBhy0Z7ua7Olh79fDxq+fPrxaEh6z67J0nuPrZz3zvf/hLP/eTP/rJhw9xkn4mvUcdcW4A0La4svjmO+d/9bfv//rv/vGffPVv3nz3qT54vD59qA+ePG3Z0gJsQAKsjQq0oSCRaVUAiKjhxsXdJQhjtVT7yqnR9aW+eP8V++xzn/3+L3z+85/7sc988nVA0RCWwEmojE0/8KcAgHeu8I1vX/7OH/zZn3z1r//8a3/z/qVcLB/h7PF773508urHdXG2pqVSA7VkVg0rACem419DMub0sbW6OFuuv/M2FvQ9T16x773/irnA5d/825/70V/4uS/+5I/+wKsnMLGAmet3QCtYt/jrv3rnL99861/8/h/+3l98o3n9U2ta2lZ+4rM//H1PmsdoG/ETGxEbiC5qlRSnb3707A+/9faHxlzQSXPypH161SzPFOuJfqXNowffdXl52dCFoRer83d1fd5A/+4br3/hU6//+A9896d/8IcenJ5+6pNnDbAafauer/D+++dvvvnmt989//0/f+tr337/7acvVqcPPhDIw8ft8gwCtHS6WC4MibTt1ersdPni+bPT01NLfP7hew8X61/8uZ/8s9//vYWIkcaAdLleLBiAW/EkIjZmxc03Prp69e/84LtPL1pagpwNvSIFWjo5OXv+/Or07Gy9ujRNu26fv/bAPFpdPbBrevHs4sXz5snj5YNXnj67enTysLG6tquntLpgulyerhePWn4EXpCIWy/uRhVignIrvDhdqLlcrC7esKvLb//tqw+Wq6urlpbqTHnmpvEumzXjuVnrgycrfXj+AvzgsbKSXnGj3pTXBmARR7Jv/ZmpBbFyU76vbdSFJlHk050TA0WuQUjYmH6GGZvTO98YwmkuHWhOdQhTpnPOlJ8rhpjXfZ9+XLn67BbaaYi5qxCh/hmxxZGYxBg0HC+3lbixPSfOzxQzjWBI4vuK995E9ckoW+yN2BOTXnIEm+j8doKNpscBrEmevcydZtuckyoclmCT1sFtwwvVo0C6g0DUqCzw9GT55s989sGr+s0TfY+wMld4ZfX4Fz77xe9bfO/pegmAfvvr57/5rfP/8f/+V+8uz140pxbelFcSkJBKdhaeNGt/mLu9bJeNTPlezN4xdGPOsfuMGa9/EhfEytB1Yy9Z1k4bjhQgsaoMLFs02pvO2lnzSc/0ciXuMbPGD5KFm5VpLhcndrlYg1SVLalo7MP2SeMcRSclKWXm6FJiyoczTABEl6eLq4sPcXqyaFcA1o0s1vbBOx/+5//sl//LX/ns6Wp1as3izHy0kmbJC4ChBFG1qrBKlrhVs1L83jfb/+K//1++eaXcLBUN9FTAlkW2jWi6XsE0ZtE8otVP/Z1HZ/YSgIqKrg2Y1KqqkFMcbda6+P++9d6lLK5kaU4fXrTtXkz5AAbEqCygRlfLq8uTZx99/xuvf/qHv/+Tn/zE537q3zo9w6NHOD2FhuidrHj6FM+f60cfffTs/MWffPXffP2tt7/x5lurVnn5QNFY5jWdvjCnLS1bahRsneSLC8RJFJs+Ft2MzvE/WkDY7YtUWUr7oF0tbQsSVvnRH/70J77r9R/4vk994o2PP3zgQhMAgKxxtVqfPz+/uLz8m298861vfetrb721Urz77FyahpYnWJ5afrQGK1jItQ6pELECLbEScTx9JRg1BtRABOoa2zYq3L5o8P7SyANultz85Gf+3itnD1579WOPHz48O3twdXX17Pz55eXqK1/5ygfvf/j++x/Yk+XFyXLdLFo+cTNIhjTWsqypFQnWZ8OGiJhZDK0MXxm2xqyZLQyoIWkMs8ICEk9xmajbOAsIyIWXEgAn0j5crxZ2zSqkeP311x48fvDkY68+fPTog/c/dO8CgO985zuXl5cvLi6EzaVZrogssSUWY4SNJU+/4dBzSHRhmvX6yjQNk1G7NtoyxLggT5r0se49doKPlhctLSyxheOuASSsEAEzQ5mZW9syQ+0VQxZqF1CjAgi4ceE/4NU/YVkscQsIL31YqMiOH3zmmQmGyK5PbGtUHP9Nw6eaiLrt4EoQQ0IGtLBqWktqFGjZb3R2prwrrdt8zF17dveLDSbaxuinuxNI5poUc5VYxl7869U5pwc/NtHiEFF70EEfweV/M9FYS/K5XkisHMbP97rme5JHd3RoUz6bT3E/n6pTX4dkl2R0q/HeRcqY79erj69VayfPJ3sJCrjyiXia5NLk3ZqT+ZdowxeZ4NMoSj8y5TudmI4/Q70p/9HJ8s2f+ezDV/WbS32P9PKV5vHiI/MLn/3i9zafeoxHl5cXDUhU3ban6QoNQo4fA4TA2kvOCYmChc+ETlwf7vf2KRoDE7E//Wp+yKrLhDu3vepgPkdEltEyQZR9YKLjapAYjWmunj/nJ4/kymmWt4AYXT2k1c/8vR9qV1iSLNisnq5eeWX5XHspSlVRJQu0pJeEDy7wf/2/X/7Ws8vm1TfW6zUrGwERRLcs1KkqmoU7uBL+7a9802jr8rciBkpExACrUym0lhUNN41peC0rJpoeA64Jp2noDKwT++DB8uzjb6n927/8tn71zf/pn//acsknp4vlyWJpDJHX57l4fiki1uoa8kJFuWlO3wj0dwKwpqWz4wHnaI/0UyOjRygeuQTwmonW0b4IlhrV5SULAEP6e19/z/7V2+v/58vWth978hjw2xLOn543bJiZDNPyBExiHq9U7KuPW1ILtWiIDNEiKlnJuEUniIjnkccbshVQp5xJYBY2K6A5OVE+tbI+X631cv23X/6LRmlhmoUxRLS29urqam2laZrF4nTx5JOW+LLB2uth+n+ZWFTJqIYFPWO4IePeoysDy0OfhBXhsLYlyUZ8ERYoKzHQWFcKyxonq+ZswSAVkfW3P1jTh0/x1jmYxKqouv3nzIbNIzp9vFZZGwgCaYSoO0TkqmKmlVo2jShELYGFlgys819nd60SiNjJ/fb8MLf33OsfQdTHejWLMxFZQVYhAwoB/OLpAYBeryDVq4nBbuuJhYIvzXKcoDfl/WYetwmCVKGm95iEDizRQ9wDc7sbKoNPbFvqggwrKioqXlp0Gtmxn7dxBor7g9WH8Owwpu7dOkq2yUr08WgZLWf10FnZ6bZIiDPrbCyNpvZCEAiLKimDRBWx6XaU8CEBHF3e4rSVH/uhT/34Z07oyjZnJ7hqBS2whJKIBcGQErHV/nv+/gX+5e986WJtGktux4FQ0RyGjY/oJK20hJMnrzfkV1esWPbkHbuGFbKwRGQMFhC2otpaIYbZ8zwp1JkvRNatJQgRQEbPnhCLAXAFWa9cYAERYgUxG14I0IpCuUHDxCCvuC7EsdIOJR6vxAAadhOKPJ0QIVwZ775jRsMGOKHTE5b2I1GQF465WvCiaU7PTs3i5PnFhUKVmBdLMgvv6lSrTjR91C2JCWLEdosDYY1gqgMLWHFKtLC0FmNfe/1ViMq6XbtAV1A9sQxVohVwSVBwy94t3cPbioYD0UgAqyCv7JpMkgEXUDfxg21b9AHg1SeZwGSevPpqq9aKWOnklRhAq7a1IlAQVLSfV23sYP2WAACO4JR/2Tuif+K8i8kkfujxz11Vrd9H7B+Hu+VwZf9/ITC4XxcObMORu7ev3KQ/klywhfEISMIY2us+SpdfQWpUQ8RochPRoed1zx6NA/hH5vpo4+QT/bA4t1wfnnRGa5Rz4Yfl0L6km/FV7V7KQTbyHqufbism2jM+c9xGS0UhJklQfjmVlQefdnIfsJI+fa3+0cfg7UosMI/naoU6mT/FqJLBE29JSNhtffWReUhEORFzdF43l6F6Efb+E3scW107tLY9ffjo8vmHdLaAXblgTA/X7T/9xS+cKU6YDchCTx+ePX2xOn2whBpVK2L7TzighK9+4713L9bLs9cvXqyWJw06cstWQ0t0sViu2zWA1qoos3HOYGjLxAQ2nj9DgoYAamipa7ErUbXE0bbXyEoBQcE7DtxCWDFATbNoiFRE1LZqFRDwiXOOMjdu518rAjA1pEKXIrJuzXJJTGXKTGn1p8EKtBy9ZasWsgYJ1L9+jhuzePIqMa+JL9TaxZKIlqcni8Xio2fnzE3TNMvmbLVaj2NxOxATJCdtlDSOtBaq4IYWJydnzXsfnYPYND5OgqpS4xz/EU2s4034M15NRomEqI+/2xPYtjRKIdwEUxVC+OD5UyLixiixtWsN0l5ux6YLjzdXJA7u0QAoHnZ6s370kyc56ER6YDjMTnTyjh+/79GGiaMXf/hqEyXzhlgQM7fgvplgs/vDvx5HfE76/h7HRV1vb8Dm+riPS447nsNc4lDJtuPYEJyzJWGY/+bzFBF+djfE9/BGRBn0gU/6U7tmf+Tgo7xFKrcPo7OUHl/jvnq7tOzifQWO3T0fZ8oP2ZDeB6PKQt5XPWYXTWl5pofpp2vQNjo80oizFRi9gSijGpbBB6sGhM7IcBc6J1dgEIRkw7q75QbPeHC7YrvvlGg3Yvt9Zux83KzKTrYxuY/o78FkSaYmT7MVAGZwtiyIDLi9WqFZGNB6daWtvGKWH28Wv/ATP7Bc4WNnZFs1DNH1yYLVwhhvJrs8HzQnH9r10yv877/66+bxx1s5Ay2cNLpQ6Zfsct06vgE1xjlZHUmbmqW6mqvAUxwEiivbMoiYCEY5PEsJuifufjuTcbKRfAMNz8ckMTgNUkMAq3U8jsZg2fvDggy8tQC88o+KEhmQ8vJUfRmRB9kfxxXb+An00vj99dFPiuUCWPhtACTwUZdxBTbcEBNrwyC1tn1hW9hTXWirC4v2YoWGCJ1zWAYl0lY7yk3miUEQKJQv1y1OHyJRKPUvDQAnRu5OgfyF3QYGKODDbiVloPPKR+tmMe1n+sMcDHG3JAL2y0PWxRETNg0TkTApgXgxyMKKdMXFBpYvKxirToYq9lJ3lo31rvOR9kh8e0RBwDsd6pjQ9Qn/GMKoQiBqgOEm+Hjg8guF7N3zbHjgkhnoso9BxFYBDi+Bi3RG/uVKp2RF1tvA8zf8sySLuHozt5nmlFXKc9iM7eZ7WfnZcjNe+ax/OtM+c9sB8SpinM8ONKq4zrn6T69C0JBL1oFnTrl3MuVHbqmxKZ/kXqIrP7d/Rq9zsu04m//wJaWJP7bXIc7lJh33A058P4QOIrmOziu2c+U1nQOUaNIPbOj+8iKOe4EJnsknzV+7msdDgUKhoiJKqqIqKlAVEe9OTr4FYZOTs1m9IJYUjunXxtwpCOcnWOrRm81d5rS5X/rvrqBnMbvC/K5ZAOL8ekRQdmKf3h/vjVGXw2HbahZI4e7GEJPIoydP9PmLp9/49q/8O1/83ic4vWqBRtqWl4AIw6ioGxtcqHax8kLXqvrB0+d/+lffPG8+AT4hs4BeusmcFlvzsQ+4FwsSx48nwAR6hALi3jPD0DTEwb7RRZsNPVwbG8Tg+zEl7RIdjxnjYZpk88iX7YH9OMV+dy/gWdXdjEXDJEEVYCtEMNb58JiMAKIkTIC2RERb39qYSperrYMBqUg/d0puujvjGrAFM5ShgLQgvwcAKogFDV3+2x7sjK8gebtcoDBETI69IzT8irGzYgkUfQMn28HtwGFHeddoSCD/jo+v6ak4sXLjNgiBiHwIWGfc59ZTCp5aIbzgjEjMz9ndJ3q0W4YOhQPc76GNp2NDyQSg4t5jFFQ9+elWMJf0ccMBZVUTJZXIvhIAjeOMuL87KzU4xft0R4WBxlBcQ++F9cFiu1sYjZd9g7BPEU1vnPMQiC7HOIfgaDumkVhVAYJaVhaR5+fn33VyZhan//Bn/v5DgO0F8NhJEnoLTCBiF4ZVWVWYuaFF0+A3fuvXP7q4enFGsmy8Ph2x8vaN38FMSNWNRPvzAlYQFoKFrglGla2Qgtp4h8PeGqR/0AJy2jvOGGVoAwXgDsT2YjiDu3QbE91PhJBMCJh6NRJBqwJWB2mYKmi3+9BJWxpAlAwIKgIhdgR9I8raCiAsAobXJXDG4WSV+rJA/RQraWhxNedoeLUMy+3Q2tMueWBfaEfQ587JpeSoUH7oiZ9soqjgznhF7Sk+d+e1VULniQz/KuACwIlbSZgUjHLpKbnd3GPpPYUxr2TDIwyZCuWcp4N9FASAiZWgpL0DJr6Y47HJLQqRo0j5DIclTXv14vw4DFbMiWYuJUx918Jp5TUlXUSky82EmbGvfV+EihxyijHXQ0x3uZ7P8jBROfePxMtbUOVB3PjJ8xXHD69p5qI2xgOvG42Prfd6qYaMVz4xCOPT0574u4juiagqE6lqN6qrKhE34Y/unue75DNNdANTloEdnwNteI7eWnd/xEoO0ZnEtju6ic0QJATHbGABmXb1I5984/M/wgsFwcJqY0yrbeOVNpiUSR1jASfMAL7x7OpLX/n6U2tWABOIrWJIKyqHarKV2vcKtY1CiNSKQpXh9U8x2Z3SPtmZ4/Pgdj9I9LmSkLM/GXakDmeGEUbf9mshfjUyy+c+ofjKGCjUqhrpt1i6iooPPFRoJOW/uDKoCrt1S41qGc1pWd0iixi3yzXckZ/nOAqmwkU54HQcHlT1mo5nv+TBQkLk5+1dnLw+SWZ9vxPmGvw+bMbNrZqMHlvQa+COZ1JH9t3s0DWU//P2alJRUXHncbgRZGbO1/bA7muZdJitJsfjzxYrVMWLEft14N64h1ewiTZxhswEgFpI94HvBOw6bJPK18H5eOaUJIvyGeTgNXc0uzIuklCpumTuYzly8vVc/JHzyWUHILEaZayL6BjJkbqltqM0uyKeS2X1+Cc+/wwSgZM9MWyVbHt59eEv/+I/+O5HoNaSceojTGQsnN/Xbb0EGUMQe/XiKeGr76z+7J2Vnj3BwmhzReRVbgRQFs9Lm4oaAyS86s5ZG9+A7XlNV+GceG4cRTl7s96XIgTWMdnD/9SXMarVyKm8DH7rbn9INCvwBn1/ZkSOpsE9hmwj1W3O9uc+TRyeI6ospo/BXr1RWY04/ryzp4lgUqa1D8WAyazISwk5V3XT10Fbd1+WYDrSHY34Kr33titC2vRWuyWLsC0v5it2Tu/wt/Psiv+p69IpZ1SiM9F8w/cT9Qo4YUOtb9pRTxhyTMOkbLhKcA2r2tvo0YpNVFTqGdB+fcATt8JUrSs6XdUJAsOdt2z83vHEUVw7oiSKZ/JjzyMiNuhaO+TESBqEohqPR6WcJ0/DvUxiQnd8OqHHfr3vcYm5IFbp2tGumNz2in1uA93ePiW0lnQ1Kbr2OpWaqsPYovCRBxRTrZTNp6hGmT41ujTWa5pIsrEov+cn7K8rrc22vS4DjH2XydMMg0uujvH/yDGx1y0Zg67OM/3xuZBSY2ql53qEY8XAmz7yoBdazAq4qPYqHRly8+p09wF1xMutJSxM4ymX3lSm7naiKmfstNxNjM53760flAkQgShJv1ZOTM6ID2GNfP25+5yrUpoVp/kfvSt6JoZ7HeI/7rwXSkAgMQTRq4tHBv/uL/20UQBrMgxtQYbJBQADkbAwVEEKxlVrV4vmX/7el9+5VD572CyXQlZU4VRlCgJkTNQm+6bMmgLtY/9GJFM4yjxT6mDKFx3v26DY0raBFSMMHm68dtbeDp01Ddg+fTxAp++ZeinEkvdbOEa4ZvK5Zm335L2O73c/AV1uFsWbrPdT0BFtBqqoqKjIQbd/I0h7w65QpFGsRWqsH3JHX1fGuB5qYmo4EaMPXtvrJzgKtXJCmwIwxTS/ZXQTuKzXsyB6WT590bWdBRN7Oo8DTAJSa7R94/HZp1998sYnsF5hyRib40SOO2sBKC+ax6+/+e3nv/bb//qyRWMWLbwa91gRpQSH48UeA9J2nDwsupoipnIhOkfCXJ7rxFUeO1lrkWPDe5opkqGcThw54Dcz8cKSImF6anFcQ9MYabRI2uQQ1WF6ZhaR+GAzJlMMt2qPnwv15yVq7bReg+RZ5KJvHppLvUv+6SOKfPNRV72vXPD5Yp3T6XPimHIDRk/FfDg/S3COq2NnON58HEuuwy1bOBu48gpEqicJk2KKFaI6zyMUtMeDX/yWxoH4cRj2e6jcbbtHFrzykxvO/G/znGGp2FDm/LgYF2m1OykCwMWodPX1NeTjsZiPEaRMqqwKWS+wWn/0zj/7j/4TBswSsJNyKwIvIiMtzAcWv/Unf/nW+08fvPb9Lwguuq1oT/CtqNgjSiZ7At6qFLQX6IEnn0pFxIZjQ9zwd7D6FRUVQ6gIk2lvZJaVW4DNyRI6PXgXtfM6W84HhIvO4M9XYzMMyNo1gETOtfOmdZfv1pacHo9JvBy87wkPMHjhDahxQoFWhESV3eRDAesUtdlx0SabIbNruKjejlHqya06OI+OnhjYdL2+ZES6gp+PTU1CMl75Mq3QmR79ubPVgsZKksxYYbAKZmlWl+dnS3nljJ6cPPjZH/ukAYyb1fmcTNJVSAAR5gvgucE//90/ap68duUINzeM2N8/wXpPVXGGvx6oToWI+8BhKRvx7DzX91KHysQANEwf860zHNl8fcaJzPB8xuuZE3CMTxCpk/HBtCk5bG1/L+M8E2WYpICu0J0kqqlfN6D4pqL8pwqIWPKubpw8L/dnfDDIZqupTYOlgHHInk4fE+BRe8Z9oNduymOsdx682qXjSUzWHfdvzUsFFeY/cenU80LnZTrwqgL7TRE0rMlm5NqzRPs8SV6QPu4DOQ59Nu7UROnT9+icwaO1qX0g12dy3+4d+tIO2i+HmOp3YsoqSoC6VT6gta3fOmlMvFeEAIgSkb+gq1uBTTW5N7K339wKgEvpqSATCjPOOIU6tbX010RXPr1Wp46B5PzoHDpf5ggU1cdwM/w5XBJt45zIBHmbM/12S0wg9nvHCJ4oL0qkLy5eEL1iRRo2BEtMqhov1UaceGXyMV9384EFQctO8t3Likf/iWq/7ibS/Rd+Ef//7jgcdgrlFZNghcHiyePXFobef+dv/8Hnf+zVMwBo3U5LaqboMVZIhLAifOVt+fr7F+9drtfM9uipCxUvA+6kJ/tO1fm2p8G3j9t9XrmdKvcVL8M9HjmcXX6cppTTRHYo2lI1IIBHxyWX7yK0eFhn56hirCBRAzKODKlq+1A5aK63l7HiWMFQZmGBGG3/4Rc+/wrA0DVWCiWnJe8p8iBSUojCxX5aA7/2pT/89sUay4dqmnu31bki/xGNRo0tht3I55QdCTP5DPLf+l3f/Pv48lyGuWF3dn1y/sKRN3ecf4nPNX7tKASOjQ+G2OoFJKKoGpu/XJuffkkms+20Uf3j2tKoLO/VG9917rnM3Dc15spzdH7cPrdrD5X3/xzmur/v08Sv5F5uOAzQTWLyCx8o4TdZkYrt6Kc33T60dAwcLRzEFxcWkuvrM8/XzrMPiEj77NnTh4vn3/v640+/8ahZY7FoSVpVImKQcQZ89yIrwYLXxCvgt/7gTxdPvss0y8sWsqoPpOKwODb/3KHrcyv3u1/ba6thM0tqaqzrj31LHw6k8ScTVFTksHVf/uwM95nZ9TFXGuTQyDVy4FQDyHrf48Rz7yqIl2RHgcHokerYTJ8fQ8YSoiNSd7+Pt6tLR0WBIhrHrBVnuMesxd6UH4532u00jWo9xYUqPp+JvBN7rTJbFgboeiFj2umSbdZc972l3dn7jxRLgsXq0ZIfri5+6XM//okGT6wQxMAwFgA5BSMFoAwSIVys28Xpg6eCf/Un3/jadz76aPkxXa6Zm15K8OVGwu0u4UEeuNGS2MYZvqwdack7XHNBcONdb1GqATDwTEfU7RI5koTcAAAgAElEQVQjakJ3fONlOSWNfdWnBNn8C/jicR8jCsz/+GBkfW4evAY3lVOY6bjaWzPcjKzu+9RzmdXg12Mhb9ehHyzLjH4PXPnM1TuzuoNA9EDEf0v6HDd9bn1y70u+9J3L3UgoOsSehB1ns7Mu35p2x6ljbh9UkiahlPd+dg3UaqdU00f+jq8teMsoytkfRzz4UHBvMXb8+OhH6dJ4Iz62zSS23/0FXjl+kH+cPubll8DnQACstRi0W8ZeNVy6F25svu8Cx6sxXtJe3LOLH1/ilXdh21n7oZwATIWeqjhWiDF49v7bp/rBf/orv/yIcCKWwMY04YvtkrGPAga+Erlo9VlLf/jnf235BOZEVazcSb3tiuPHsQ0md90TnxNF7SuwxwVPCjkW1ie+NEd8OvTU98j6W8X9xlH3t2DK58Kq3xZoQEqMjuNI4ZyY2tHxDkXPJcjl0ucM93KplYmEYccpVMnEp4MZF5vybkvp3Kl5xbFCDGzD8lM//CMfPwG1IAI3zVChiUBMDBJQw6fc0FvvrX7jS3+ExRMAZJipIZ2/WFVx3Mi5lzKLZFMpi7nygxFl0vNdFHVy5s/5qKL7qc8G92xcqcmsZn/mqfccRS4kIPra5WKUYioB9rK+v1/GzhRXPn46vQSF+1/Ga7gvb+6En9J75RmT3PQjiigCzO9jcz3W1VC4w7AWCB3amcgZvamKY4Qog9hF/1CAkzDeTQhFG+vNwO0Kpi4+rU7pUW6dFlVD8MZBkPX5R6819j/4J//YAMwIoQOyb+jpafNtiy//m6+9+f4L++Q1t2bDEAUpRR/+fTr3Kl4uHJun6l554u8dEgm826tGRcV9gorARrp0i8Wca1PFmzFHfPxTajFG+u7iYlP5NOrlIDWh34RpexBTF5XueJBmUFbWyZ6tjw7ODFDC2HEu+V12wMel9Ix/DT9R3xRdQ8WBqxC88lOUKY0f0lQVc9WWaY5R8hiSfKbI7hFN38nbIyJmbf1QZkn22y68zgU5XdUdkHgK51zIkIVePjT2Z3/8u08AVbls1wa0xGLSm2Wha9Ca8Ktf+soLfqjUqCqLKCywHNZqtF2iYjPKvLzz8hzryo/9akQ8rZNdpCE9kd30cXk+SQZR/YvaZ9jjYn7o1L1HXmpKfpiqTj79OOkon/R8pAcfndbk3jdGe/XpoxQcbj46GFaKk/uaWKQte2TE03sqhtOG7YNvjklTtlyCRMGmPJ/C29yO0X4G/9FJoxTHFdqQWfmkbm79J3dNoOwdz6XfbVUq0w6jVYvN62C0X4k/ssAwenFf+g4a8FkcxQfSRaDvmeiqQoAuT4bbBROWR7bqhIHKPLr8Bxn2oYEGRADt+fHUxVsNXYOnSTW99jynmQ+KLQn/NK5PuLV+BTBJ3/VDGuw9mHCkMBCL4MfI68oPm76fXXTjuKoz2KFChmHFEJE6BULqvPAOjZNs77ToozwUAu5etgmv/P32Dd1JsAraF1/8wk+8zngCiOEXl5eNmuWjJVoAwDDkJH/49Oqv3m2/8e7zC360oAaAiktqNgscVRwtjs0LXuFw8NWAw2Z/Q+ty90nusKLiSKDewLvutWOrdOQXpyRSU+LS1XRqIaqsvT0uU1525+oOqivDCuS88vkKJi7X7o+9EPPG1dsFpF53ixRwKvsEACLeK88NQaCq8byiQYi6OibYwD16znjlbw+TazGHi8a3XxQ974IkrBxiAoj/+CkT5LVXHv37//gfQXG+lmZhzXKxEOPt+IDYgbI8PfnNf/07b39wQQ8+bgHQ6r4v4F8Hu8Twuxkk3u5brMdNYRz39BD57258p17PY+9FY2zl4h8InNFxv4eYuW5WUUFEhYajqqQLuSnP5Mb7mwSuh2pia6dmukyePwRy4pLxNtbx1vxxrcq878kP8R/dCf9dm+TBhEfZPTWJMuEt5ZVDw3/XRR3DZiOEbm2IWWFUFtK+ccKf/q4zs8YrS3727PnjxYOTk5Onz5+5LS9KWFs3R6bWSgu8u8av/cGfmoePTx+chTy7/zyqKmVFxTVw193wdU5fUXG34D7WLmbqwAbdo1lMxfYeBa70uD4bMFn/2TW8y3B6kuVoiOj8/PnwtN/nGu8/2jiqh1KVBjOtNM8ofQTqzvVPzk1QvIIu+vmbJGz5fv9EmudG0tfk2SH/eAIZTnx2D0ABSh6Vk4BNzzHHDQ6wIV21C+KH7eo//vmf+YS0j06b87V9/PjRhaxJ+ezhg/XVamFOhejKtsvFQgWXLZ4SfvXPv/MXT6U9W2v7gqAKVj31e1+VmQSA+KryNcaCu+tnGnvic/eSWGzRHyV3Pm7SRMl+xECVODxzQt+VrvC0nn3+2Xc4usqtPQ5yEOrOZCiBo5rH+kdEHAUKTWuxoY0ipYWxKnwytKR89Mm8c7ryYw69jvJPK5XRcp7yXl+j68f5MJHw8ABpMNS0zSewXVjdZTXVPjvWP5f/5vPXWwDLDU1zx5/x+O/fKb9zqyCHQK6fVW55PeN3fGorx/Z8DrGxOPfdnBrBol9H6efOHqfKjdXHXTHRmZndqyQWRIq9cv0jhCfL4U+w9n7ZToRQoKwCUQKUoKJiV2hbiGB5AtVczxy/uZP0BwAQz3fvH6Ufq7U3aaLkXlFetDS8rvpdnv1XwxF4cpd0Ai1RbWP2ubuZ/jA6Xf58Y4LQoCaizvKdeJlydc4767VPoKoqFsJeRZ7TfyhWnuy88jv4X6LZw12fCR0hNkdlE0AIJFbbywdsl5cvfuL7v+cVUvZBFhjKrks0DQHWQpxA6fnFSs2iYfzOn/71+vSxEgxZNw4QFtCmc/n3NTnwUlfFcSKJvnktMys7gt/VWd52KPn/DpX/rougt5x/RUXFIRA7s0dxP/fwQlOUf+w1z3mRORrm53rZDx104j6h8a44UfEhYp3XTPuxXCSZ1B4BYlGkO8eVLxJOiuAmX6lBL6COXcOA2PX6tCFz+eJzn/nBz3z6U8slWmtPFqa1oXEMCNK2V61isTgDQLw0Db72Ab78R398cvL4at0CYMOi/mEfbm3uLuLQvWtKzXqed+cl4hYDGLTYAe56vjcuk0/s6zr6HRdjHLqdN5c7fu3u30AUt3BJgJeX5x2vyGEOV374IR9ktL9KlSHDle+85qKgSJrl8Fz53rhNVXFyHPp5nPhyrrwHEZBMxgr9Qc2m+u3YhvdtyL0dhMnVEMQqSsqAEMS+erJoP/jWL//cPzkNUcE0euFVBY3Rq5UqGmDd4uwML4Av/+nXPzp/Qa++AoCN0fXMiGUVFRUp9MAUeaHDjqyHzr+iouLQSHa7eut5P175ASjYv4qUxNKVRaSivUfD8wXcvzKpQ+9UFf3VUW4pB3ua2HxtWyXHKLn5lYGOw0MauM3kZGnEC076I43t9rzaoGerQ3U7/b6IE1/QxJNTMXUELI04SjrRezTmqMV8oR28axt0SfvsZz7puT1t0h8sABFse8VnT+Tq3BCtnj/99Guv/P2/+z0LwoJh1+qIT042lYhVlUzTcKsqi4bfOcc7S/yfv/klXp6tbAvldmUx4su6tjPULwtUn9BmJF13c1uFMJKYYu+5MxNeuvHeeQKi5zIoNMcdn6oOZY6jMxuzyPLIM76fzX0p0ZAZ3QVHHu7couFmTjx8PiMur0vDw+eyBaE+NBj2Btz3Oa+PEvVBGcPBIH+kevDjpigVz6a+/si327Vf/+y6Vk5X3mk1jF+iuVzQnVdXQge8Dpd9rlJ7icZR+Vs8N4uShzvXsDm023dqzElo2u5/0ZlDcdn3gY0xCpwF5Enp/vvABPfSSyr1CKBdrSAWYBCDCI0ZP7y4PAru8r7EKfF2xfAb1AuiRxl2Say1DLKt7SVauoijEVdn7KSOA0X1nHxN0sSI+fTO167pz4P8h5cPrPbofnN7I8eldxXemj4dxwR91Rn9zEtIVGgqQusIiSnvWFAy/FZUHCNau148fLh+8RwnS716dvnRB7/47/3iD30CzRpmYpmFVMC8IBZRubjCleBrb+Gv3/5Q2LQiQsZaq2xyg8nU7tuKo0NVlD9mHHoafGge5M1M43ffm1FR8ZIjlV0/5MAgvVlAkdkhqTc2Sq/eA6tJ+pxOfJwm1a3PmdTHxQafh8gh7fx50f12jni3I7hXjndojl8wu2ICJCBREjeTOz09e+3x45/+0R85UxjnE7LEkk5EiUiZ1EUmw/IM/+I3/vD952v7ygMLtRrkgkSrNZ9DiWFxPeNj7FvKct+nvJgo85rPxVzTLZd+c3zWcsRtW+SJR98guecymY/OtyZzL0ay3jLTSTL2QI0vvysfrtxzn/TaKuUf3NxV0D29EfvKZ7PXfA+l7OmdvR+Yiib7EuOu7CesGEFVu6Ej7CNKnmYTJ1UVUcfeYJRTR0o+YgXIFXdoVZxdOFLxNPGGYRbcnj/Do9fx4vn64tn3ffITX/zp12UN4yoUrHwHcZ98ogYsBGvwtW/jd//4z3D6yCq1oiCIW4lTlzyvuFd58xV3Bdf6cl3Dji/NeZ+ZHQq37gg/XPtXVLwk8DqV3hjYktg51o0petk4DpUaHXNmfEsVIUtKmC5rbxjk2OmmpGXpNkLO/pGWIgCobz1JA+6KyGDrcwPg8vISGcvVu5G23UnKJeqPS7jm0/nExHjfL4FgYE4xuJLumvKutvitCjlSkzeg0baPQuzl48QKeXG1OFmun3302itPHpjVz3/h8wK0CsPyYmXNgtfWh3glJgW3hgCospB5by3vrq7+5p3vnDevaPMQSmACQVRDaKi9OfvmbkM5uFZMwTKURv/O5kzP1pMeiX6m3PetCGzyXP7bMwrRGmJGaU+ZDvlzdybrfS/QDi9pngll7pGKNmW48hPsap/Bdj348fny556LikocjSIz+wYzi8jgAIP75W2+jplc+Q17Lfzwe811p1zfGD2XzVzzMpn8uIB56bPZzOPKj3tsFhsf0LEps81Vdpqv67+r3XQXpn/X16qPm8dGprq2FoBCSCFXK1IwsQ5M4ejNcojYMWhbO/iVclx56TYopmz7uMa9vU8QH61EoawhkGrKD0kpBF6fXpFYe6k5tj3+T26vZpHXOEdxL+DEJzXL1TNuW1ew20XgFCSZ/bYHAitAznZnAKenpys5V5XBlyvxypMoQUGHi3JQMRvxwkqM5ekJUdM8evD+t94+e/Xsp3/+h54B0uCKGTLcy7cSXAAiWNglgNVD/G+//tsfWl587NWVVTD7wEPKAmUpsncrKo4Qx/YhP7RDZ/ypvl4Fjq3dKioqrg1WkIgSbInr5KhW2mdGOd21tIzpf/NtMrhrcYolzoWtflrVMZxVlQde+WOb9FeUQMCLR4+fv/se7AIPP/Zc9b/5H3794fO3zeqFbZaiZvBYr8DnfGKtLOW5UcHy4Z997e3T7/nh5ysVbv0W+MDkFa3W/DRunpc8wfXczJWfic0e1rnm3Sw+9DWwIU7kdFWvS9XQWJDxelz5bfUpgYRLkoNrZXXryLZ/hit/bFOLw3HlE1fgqJRja4eK40Ec8b0DT4tXA8e0wsOK4YpBxUaISifaRmTG0528GGVQIyzXqK84EMaOeYU+f+ddfvIxubLm0cOPvvP2H188e1XPr86fS3PWpqY8Ma2puWoUwIm2RoTMMzx54+nlGs0JYCGJkcQhahjK6CgVFbeLPTPaEx7PtbI49Etzr1/K+rmpqLgOpETLtBQbuO8JPz74iQmJeGXnMDZENpKVdL8B5JRYcrryXVnhzGh6clQrCcWIhTt7BJ5Ubm5GFJT1tffND1QKe1M+svIZEFJWVVZVCuryeSTc0Cy3qaDp+yeXPFcnig9AnERP/Fx7CtfESeAe7tpWFojidCl2hWVjVxf05Ml6vfpIjHnlkYI7DpqoKAFqLPPy9Ozi/PyKmyePHjw/f3q2NHp+fnLCa2nBYBhgwkSYkKy5R815iMFgM5d0wkyZ8rIr9VzbwSW5OucMoM2emJQNHzu9PTO+m+ONOdNTdRh5HMc5FyBeZ4h5/ElrRO0c5z5shz79dB1yX7/rceUn0o9adQaYfFBnig6mynWYrm3ZbDynmDRun3GfLEKG455t/xxXfu7S2J6cESUezXQSWLpEtan3zuem3yeUdLOpVcqIWV6wqrmlDkV2y76e0fZ8CD4GpKq6aPchPjsAyGolVgBShZcyLLjd3F7BdFdiz4+Pw0Il/PjouLu0tdaArFjflKJEJGJBlNOVd9sUXZwoirZNxsg+loLoqrk4SNn4SBkkdHeZHphG0XanCwNSU54EgIqyKESVFNTvfFVVJhbbxp15oCvPrJzWSO6O3NnLAj+zYgtS2BUEoAWWZ5drBsCj+auQY1WtmyURLVZEfHr60fn5w8dPri4vwWaqkIpbw/EoeBybUN3s1jiy+t8PVK95RcURQcX7CJw1qTc67iWe+IjJjciKtWKTS9QTebO68tFu3HyIpbvnld+8ByCeUA1SsrfgvWknqjx6xk2a3kNFAfW0+5tpSv/s+xoAAFUrM0EQ8GGQZW4NtevWAqyqaAyWJ7YVqwoiiiZgSmBZL+VquTSWzeV6bZZnuLQtcds79fy215u/qSPBy0Ylir2ex3Dn++JxxvkUeUnn5p9TvBlF7d1D/kx+IIwOSjM6cH/2MYmPoevsFXmlnRIX8Z4rU3HvkfaraOy6nn2Vu2jm2o4vPXILDogS3TEn6afSBL0axGlSacWSCs2q/11E1xqK8BydS15VoR1RXlV4yjDe8IBv3B+feVg3uZ35DoFEZW1hnSCVrGUlBFo0WBgwKRuE/4gMNaa1LS8MmUVrdW1hXnly9fyclxs2S1RU3DLmLgvcP8uyoqLifmE//jJSsIIVZNU41ZfIQS4H3jjOofRJ9DMBFSi8uKQWuToObu9lmTkHLncj4pacblVtVNI9kESxld4QERExkYoqqUCV/eRQVVVtoNPaceZ9pjHPKepB8fkpttOwytEuBwDd1E1Y/SmiTsshTZk5OfpjGkmKDNc/h9ne3GvNL11b9c+AWPQUADVuU6yBsOoKYKh6B2RUjlVlc/b0QgELsxQLWIvlmVhQPMMruZUD68TPbc9cANoshzg6nyupZApbzmH1nu9yneltBWdOl57XYe9IlOP9mY1VSJRkhoNL8gmhUZoSSGixIe891+bd1v5ZxbhLRv1NozyLXoj4qnE9Yk5/pm+PWJMT2eTSb/W+58T+O7jW1kz/zOm+z8ZcjnIu+czx4RCqHdfjcOewRUVqZiD6Y+PWl3hekxGjYHwuz20Mmfv9jftbbtU6W2ImvU7v80myzPQfCZrrYTVdjMK+uFKxxEZFQWHgZLffiYFAxt4YA6fQR84KKBgQ0YQLqo7j7fn5EvqtL1Q0Zzl4gnjExfc2WN4+LK/txhKT7ELZ3Zl5712cWy4eUc7OdHE3O86MEiCKsGBOCoCBpcrC9SgiUrWDQqtT9m6im2/B9RWCf+SiYVf4oKdL96zrKkfF8SN4lQqdNN1HpS7iVVRU3G8ko5woqQvvLpscroepRjzwdsFZuyBQFPlku5hHFUXQfiJIyuy98gZwYTztYLI34MqHa72x79w1me6R2/l7zWjpkuSj8cSzYhOORyz2ToNyiigzZ+d3Be5+j2dgHXjjrr06vCHq6jVzHOSf0QWPo7Lt0mOSdiDvU0sOyhpnqzN+R5TX5G6haHXr3t11xW0h199KfeSF3IHZuj2B4B6dcv8XBWm/Fh5x4lW1d8b3Sjiq5JIlG1t7Ln7RjQ72Ut5HJFz57kzgylP4vog6CSDi9IvWBIEgvf7wdK/bt+JeIqbleBlBFRzf8vRLCJlpICpV06qiouI+oJw3wurt+N4EFN0TDx+A14/veNs5bs5AKJ0j7ooTxXaCe53DPjbie135QeZTU4iD40bK4bS5OiRc9Ewop0F8oaFXXlUvLy+1B0PFF6S6wcLXtOy4vP44e0dxRof1es7lVFWr4G5hs6JI+AMI5nsinhX2hLgLXKId6zP2hnbMb5QZqc4n3ettjwjjmcty54ejO7mg0EToNJEKahXrfydU8FhvngmpTzpWhd+MzuvAA692yqMdv8yU1k0H3v2+cqVv9mZ+/3iyx9HzlUBwzFybe0aZNEyhb/YHKNs3V+6HI1//jCLNlA66EHJxD/aFQygaHRol79G4/+y3fndykTbT/6+7Zphkd80qzcMeLOgNhoqsW39EADdeM15hRWBFrKjYKfUYL3q1OXN09lsarsdz1ru9iKlPPfYcB/NdoJ4ZHwvaqKPLq/8zGTHUD9CDjZ7h6mKDfqYV3q0X9H84R94uXPzMHsvh/oQB8ST8ERctBIhj0CuJkvufiqiqWoVVb5tbjSgzjWZVgdxzrU7KinuIpMN7Iz4y6G8Ve4g2uhHHQ6qZi7l+k7peeAjE/ef+EWwqKm4RfaDTyS+RJoOaiKgIxEJk758K1qIBtLPCOeLKb8jHWfxw8avcHtnRVTOM+DuF3D4u14bDUK86b99XQ0wqwW8/sUH7fhKFK+4lSrZsZOOPXsuIH5syt2soj+uzRc9hZm2nvLZRbvMyS3LLXht72Zkmk22PeFr2a0nKSee+RN1no/tre7nxE5kYjouf1yHmpHd3Euiw08Qjc+1NtklR/WfWp24TPyoULKo4XzsAqF3DWrQW1qJZ4A5tLa297loIApRw/8Yb+Rr41RK+fQd8fboVFRV5HKdfIa5VHcMq7haUbtmarws7s+Bai53L1lpYgbU+zutk+izxWvoEyflAl9GEVDPpKY+Y9EJ+2+uIYKPdQbojNshTTrjd7yY/flIPfm4JEq3LTPxMIlbIMAARjZVVGyLarNExWy+z5DFsXGjo8uC+P2SrNElp2kVztOK2MNTuyCM3+qcc7hEn1QCAHe/NT7aSbJ/Qxn79KWrx8Nzm9Ln8c9z6rE58puY57n5ORzxXn5L7pRFX3v/G03VLnlfesz7rY5/TideZbmrO1XnMHY+e1+YGLeExDzY2sY/2QtDhr9vymRf3IH6+iVdvtEdibn++HnbhfOei/O7klM+05yFWP27Yur1dY3pQ+rFZ9un4matcxO9PTN4Z7lEiYu1Nl7Ztx2kYMK1Ia8WKWut1qBcGMM5acqOccWMFGIBmpKxi499HbJ0TgZUVoiLBSMsJ6USRgoSiu3M6lbPNtJL05fZnxI/XQOvvsVGDfwySCXaR0mAKFFez/8P1GW/99gQbBcBMJETEqnR5cUnEqhaqDx890HOV6Ck6U74avhUVFceIY/u0V1TcJ9T36w6BFEZAAlKIBmvzWk8w9YcCw0nIyKzvrXAgMiF7/RxV6Yz1QY5edHL0U87yjM3oPYkIHxS5fQXjbQBb0TvWp30HVrUlakBOpTLyyjPxQOOmouKOYsIfnMOEb/U6BLPN3PFbwIG5+5u5+OOidKOreoMZ0f+UKrpMpy4f7osT5lYqc7vR+oht+TyL9OA3/jrD8Lr73uK9Y5d34Si+kAV1uOvP6CXHwBLz/nJm7YxnEkAAAcnGweZ2EDMptPN532aN7glE1S/TckeXT+T4MtFendzR7BjHFRUVFbvibpkjmjmuqKiomAXnZy1xrRZaZ5ojikRedhmf1yAf2V2dSlUO9lc4mnxHoQkO+FBH7cUoMfBV7y5EMBc3O0Zv3YhSGs5cdDMTvhGVXlPecW2cmLz6YpJmT75a8aONq8bT57N1nMg/dAiJjrfswMjy9Y/CnVKxH0x4heOhKvpVM37V2Pue49Qm+U+OmBS7jZMcsntWylnOrmIZ3e7NnPix3zH+KpTcb64+RTr3Oc3snPZ/VKUslz1VsJkcUUp48I77Xr5x1gcO21gfn9L9WxI3oGD1QNP2VHUa7kFtf+PaUVz63L0BWU55LgpvTnd/T1/KnRaK4yaMoziXeLUPHOek6L4yScoUbO72924fUYqTxw/M46wPMZshcc2yYrpEa60h7rqiE3mU1lor9uoqRGOiMZ/bFR7yGY4Ycc0SDkvMF0+53ZMhokgdV14ntnJ52z2uhs+nV4vvzHrNEFCSd3CuPbn9/Z3gx48nPJkp0GTv3EAW0tG0Z1BPBdgZulFmUIBFAVGwmydBLQAmJVaBZTEKG33QvFeeFUT+CVkNXnkfrWuyhhUVLytK9kHtgNQg23/+c3E4nfu5d1d93reLY+iNFRX3GDOYEGX7MuOpac7dOR2SKeXExz51iM+0d/WqQiGiwUqOtCUUJM5FrBhM9V+CAf06rg1ndSuoi+EIIJrpKQEwErJmIhVtVLX3y1O13CsqEuQUY8qjt84ua4J/v6tQ7Djncq/nNkWdyOuZUY/JReRNF/O2p7mLiL2Mef799mfho7HuXJ+6Laqi4vihkb4KMZVb+FEO7uLozExVljiv7t9OXLL7rUtDGpRx4h2uGygVt4Td6zCRQybPfY22qgIYgJmMxUR7bjQRorWSioqKihtGHXtuF9UNX1Fx6+BOuOYII2soSACr0IOT0/aC6zEAKfy3xzw3FRZh62Z9YhLV4bZXUfVceb9dFjbHZ4q9cdHp7OPM6dNP5u0YbmoHZ5JlhpDvZC0mD0swd8Jmtye5k8jNXOd69XLe1mz6nC57hKSH5XjYGU78Aa1DX/Nd7zecZ2yzpWJ+/LhNEpZ8SU0cO9wF004Z0pjDNR+XNTsK7KhW/nymrXIa8HHpyn7vQWnpmfTj5yXRqgVHZ+LSc9eOMVBSImKlaIzL7IiYymdeP0xWDzLbImJkPVtzx4fcHpVZuYwQNVG6p2tr7TJ9KVefue08m3r9ks2myhgm/TPdwq3fhSU/ge25cTReSeQFz52P3yOLYHqhH4pZ0V5cwlptLcTC+OEmKjIebhShdVzLUM4TH+fgHOqDHYhuWSBcHkvC+39V4eYY6io/UpxMTb5pacvpusX8/ngpOb7RqG0zGU8HHUq58jGSfAY1cnxzGp6cPE6Ki+zhOP9xrw1DFiULKSrwRHlrAeu3rRGYmMS1k4sNlXRN1nyzzfQAACAASURBVCCQWb1hFRUVt4jNbpCKA0PJ/3cXkZ3q3M3bqXjJwYBRGDmIbeYDx46h0+FLByAFAyTSSGbakMv/7qCr/03cSDdGaT9xHAxo3nnXOVyIVLXpqfIQVSmZd1ZUvDzIrSpkFU52QM7znXhMr8Xzm4hRmrkvNmZUep/DZhfYmJEvG8tKS0m8wjc2+E94VSlzfl/5T6TZPuruqz77UAipqKg4LDpe+zXCDDn4GKKjM9epzMDX7ujyIgjeeZ+GvDWvqVc+pdbfvl2/B76+u80k0xsjFzGUoOwYId0zzejK+ysqKioqbhQ3acdXjCF31hlfUXGfQCjyixdCBqSXzeLLKp7LLNGOyRCoFei2t/YamqK9TE2ScqKMMsOXGBumH7Eyz8Qe1I0VyJxPZxwZtk18+wV57jNarfKAMCaAEgikMVfedRp2CpYunasc+T82FREd57hZyS7mOH31Et1TJHzrPT3lcS/MeTQTbmImtyKd9SkdcQnnacIxn8knl3/M6R/lyd60mib7a9CenywrbnP3LBLe9hxOsETVH5II4/YJ9RmSrefoqQ+aND5m5slHqRvz9zsYrtUDx1SNsVebR/kn0vC5OAZJFefVP5e8KE7CtnYYdqmUqrrVyqeZLJbrRVneluf0+YPoTY2O94u5dX45Vl2GI9sW7MCYP4ziSjQmRBsCk+Cdi4W0rYpIK3J1BQGr+1jMq09sCie2WRyQR5XVn/HmXrAG4XnwXdLoXydA6SVtlIhUBJzxxETmeylNJTLWx6NE1nw/GML0IN2V1u0giFNGx3Gb5+s3MW0gDQx9UkBFVaAWSkoEslCjSdCoCa88qzf2Kyoqxohf5UMMHokL4Ahew7n3e7g63wF9hHuN+lGoqLgZWNuqFbUC2+4nxzQCVDf5pJTLLp0kvKgoyIvBq1JHrZFAsAmTAfLueXd9/6/PKq3GTJaPF0EeefGzhrvo9HF68fTpTD7+KDbixU97ukS5UJXXC9nmHgq7Zh5k6MdhlpQ30yC468Yf4Dpwv8w4hJ/p5nvU2PjbpQ67m5IT0WpjKYKuoNQtmvW2ZtVv+vOacvq7rGbdy4aoVekK2+hCdz6XbeY4webnRaM6bEw+gclVF+oVaYZbjnIVuZYn2P1a0idvxtN8uyiZBO6RclDxkqNICeqW+ptYgQhsC3tUHgzpJMGmxm8N/2hIPF65ntugJV+POLlOH5dcm3xIRp5yimYmpJvSJ1Ue7j27HsLqExOZuCwiUlEiahA+BkJ9z1YVdFtg74JWaEXFvcHAjt8jrmf2HVv02c3QOW2mU3SQREry6O/3ZYPQFmu+PrKKI4TIyDRMfvZeXte3SdG2graFFVhxg9o8O6wrruM6jrzjCUMs1Krft6raRYPSEPwVkOBx11jSMRwDjtYx4mN3pR/FTLxgFjBw3JPmXPnb8r/eN1fVMeDD3wxtrFWxliFELLI2IcqAYzc1AlxeXtjQT0RFIWEiNbU+sm8cQ/SvinKUcBP9E01Y1Izr2qUJw7sgvZ+aZn7N6rjnuPUjhfX47ibyGlm7wfOa4fSPGLc0Mp0TL3vB+yLpVUqea5jMEebq/WcUe+J8Yp17/6uvwPayctrwKb9/ex2ymKoDTfWHcsWeNPsMHzejQ58mKWifTJqc5XrMe5CSHjK/mpuN9R1nm7PjZhxxO98W5s6m5q60SBLTpuTdn5f//pDj6PeWr6OuOEVIElErsrZW7MI0qmQlsiDdFydIiSPXzqpBnh7AkHDiB2RVBmnbdue1U7xxOStUwX7bpJCqUVCQrCGF2L7ybsMrVDpV+8CKGc5eNuiy55B9dPO4M2mhicmu/fkko8QKIA17wMrs1V6/Ms5ycz9Mc3aKQOpnUUQ4VWlV10REbLUlIlxcXMCb8twgdIiuGFKQ+n0Qo8pUVFTcJRy/H32/yC6pZtphP8ufFTeFl60/V9wTTAZIUkDE+SdIYQQqnidNrVURtQKxGAkEbywIFFG3J2eabpNrP4MK3vSubqSe/O7+gQoJYn88BTteRbnjsvcZ+kWGAUiP5f3t7j2e6eRCTcUJStZGdiVlKSDKoC5aKwAoqxgVhREiUrXdt0tFmaghYxBxbNIa+Xy5bjh7+TDXa1uCm+9F44Fjl7vaw/rRqPhJD2VKjs9y5XPebiLqQoQWKajE185U7In/nM1tiKksMy+Nc9jluUy2iVDmWWyrSfHp7XUYV+ne40g+8xUvCXL9LdkGGqXZZZ9GjrxBzG4/5cD+a1srIhCLdqYpf1hIRIsPZCB/fr4NW/K+Z1e9Stzyea58byLnOO6ZL1LWKx+fT9T8M+fnofsuMxOxgsSZ8kQkqsZwA0BVrYhskpivqKi4IQzs+F1z2BmHVuw5NsQf72pcVlRU3Dx6O17s9tRFOQbWuyMWdnT2OKjTiMBJ0XZWh8F8Zqwtc1TY+67luRkmIuy5aUBMx5FR+5d9gxrveQ/Xs47cP6qxm38rstXN3kb9Wt5PuE7l+c0qKDMEN+tMT3jZx3FMXbKgcT5UXCnQj0+d4CPqd1TPCV/ppIYxRf18uPY1dMtPsOuKNe/juvnjjdFqJxR+plNH5/P1z7XtLjz4NKNR+0Tnt106zS6d+yHKrXJk+9VU/xzkUBYRdnuaojgJBcj6wYpoySWRa+Pj6ffrODFuYdcDD6fmnvj3itr/9htxbmPMXszL9Z+52LiS5q3eMe17v1CGQtZWrCwMqYiI1TZoUBqGYfLBHlx/62sSW9WDvtH/FZmGFLjyXlexDyirGhn04V+BiN8zKSriTDhx5GvpROLdTXi2/LxWKkodvQDJLKJAjNLzzKfSSJ8mCjUVZ5+PjzRtzSdxk6I2H+wtns4UgNf07GwAArknbkCTMwgmijNvVEWskCgH85/7tZOKiruHo1Nc2dnLfsu46/WvqKioOEqoSqCnQ62otdrKWAGmHM7uG9tvYYuqwNl42m+BTczxzo5XjQmVXbJxtteu6qFxCCHRXbzyeXd2TPIhUrCCaOhYV9VJxxwTqWjjpS0OQIyuqLgxTDC8S7y8R4OJtQXnDbrx93Lckhqdv/n2zK4qZNon5x/NKdLEQ21W3egAEUkrjhObvbxH4RqouJvo1BtpxEshUVWx1qoVlSgs1ObeOJKIQXAnR07l/gdRBNkcaNj26jzyqtob8SGFDwXVWfMuZJSKaF904r0uMetnrqLE+Rd6zbfXJ0MKKsnzhgeAoGDjno+S98RP1LPRICFUUVFRUVFRUVGxR/RygOPzoiTqFGysY8ZbgWgJabCk5P4wrUBHVikMoyQ6yRy9P+Cjd/yJ6qSjgZislcaHJCDyZr92DCP1T3uWNv4GZMMV7qkBj3ih5xDILWzN1kWeqy9ekn9JkmJPZ8wnTrge1xrsNnt54xL98bg+ozQxxl7hWOU9virniffisGmmmTpn2jBKP1H/cf67oIAfP+bE+2NENcnp9CdFTbfPZqZyaP9NecYI/a1X4i/hoOfei1x/8FcV5zOu4ZY0O4wPqapSrOG9HXOZAYf2c++u+55jqB+OH5+2fwHXNr52/9XZCUX9mefVmnawKoveHZfG1Vz61bzsmB/c290ZFxCKO382lCgkIKiIc3uL1RMwtdKqKAnW66gS0WHiaWb0xk5CvwhHpKLc19W3lQDsvenBeysKEoUTHld1Qjp9iUqd990RsB3tRyk4693tcFc6FTXu9iQllybCM/Fx1CYZpjwQzWT65YW0/qknfvo8Z8rNQSjq5+MVFd/JrCpATg60f8Kq0u9oJQYRMTm73b1iTbewUlFRUVFRUVFRcTNgq+p2o/bGMYHp2iavk6XfO1TviRzugdrnBqAqk847IlINCpQ1ZF3FncZYB2NutM7bRc5D73A3R579oNzbnUtPkZd9jJi06tNMucq3V7TiXiAX/beiYkcE572Qc9urhkCpUBVPhmCKRxtmg/xKyyQv3Ln7p1OHuE8I/AtfMiAiw9z6NElxXY392WiHbhlVfiZXvkARMS/1PtEOg5sqKesWnd0DrnxQrZnkyotWrnxFRUVFRUVFxV4Qew6cJkliZgXr0IqwFSaooheQL7bIOgdz3pzVbrutwpFq3CzCMakV4nQmRxnpIJvAtA6Um9IqHhp7qsik7M+NQqe8SPHvOa48kap6XfldwphVHBQv24IJj5xgbmY9oaASp0wZpUK9PmtxtM5STrDLMKdTPo7B4Oswqk+iRD5ixOa45gk2asZn6x+lmXjvp6K9alzbwe85b3eJTn/0M2Xac8JLmsvHnx/Wh6L8JzpDzLsd7cdIshhfWsChH+vNl+wH2IJMkqIl8II9KruMOLPHqzs1vpX0z82Y6+Gbu5fgjpIHjgyMoGfiuePecs2t7Ln/u9FDABiioL/uPdmxs1xFQYR2Dau2VWnFrldQBXM/IsdfhLiPpYoxkSkvk+cB4sj2VgCBYeL0x8VrU4bsO76+pCa7VXbC9n6vWFfUzA4393UvUaHJT2Myp6PWiWYuVKKKE2H2vpQc2d+BPWEf0aRJVYW7hRTnoldVcaEA4orVEK8V9w3HFq3z6HTuZyIZcu5g/SsqKiqOBN5HLl5bRFVlMMS6BAUjbc4Dm0znQjikbgMrqDMJBc4e9K55QBVsvCHJgjYxVjuCTb8dtuJoUE35ih5Fb+dMY05Tb3c/QmW8WTepwJBMkvdqpMY+YBqdGacc1yHLjxxuCpj4dV+j7Ox84klLQZq5SJU9MtnvKf8kz+j4JidjJWXd7ma0iRrO9SJv/HV8d7ssIJe0VWXGHw9KxpA7tArR+cK9aLtM3SH5GJ9eQSuKKHxd9IFN+0pU3HEQkVtXD3sCyZvyUudYFYfHXfRJV1RUVFQcJ5RmWKdlH6B5SpeJIqF6AURHXx7zNTiY041CQhQmANFREZJwTl0O6a8IHH1ETPfgmxc4IUr4SvSO9pgrTwQbiuhsRL8dNpy/a+HzYk78HZ3XiBXX6G4tRUSIuAHw4sU5ui2y7nHDb68GMN8Nezeb56ZwaO57idp6jnFeRLUteHUHHuVZFnwu2mhOd7xItzj+g6frX64S7XXNI151zD6HDv0o2p8OCI76/tpIxRxxbhvh0oz99yVc+bg909pOc9mTIbuAI16i3+8Q6+5zdMb/OpnLHASV6GGJXYU21M0h7hv2AJujJvrG0SCnu+9/PUCJu68zxDnEz67E6Mj1T//rTvWazn/rBfOSz8v9KKAzrefh5de/50y56jziADxZ3B0PxMidcSuRrrwChgDAWusd6t321qsrKKwGMURrpbVoW6xbiICNL4vCyBwZX2Pdel+1zTenXkTe3WQXxRUk8ARsb+1xmFd0eYu1AHRte7n03P7aTOTUCRB3d3E9Kyi2vDds8+2Pp7jvGp3XdCaW9WgfwqbdHAvFxeLN7b8KYV87yhN3XvnKfKo4EKonvqKioqLiEDi2bcGx8zqbyFq1gtYFdgXUGfERHXN7KZ1hHpA57rdy+n2vAhISZYnEJRUhIlFPmmd1OpOj2xkUfae2rd8PaIgd5dZ9VJSYGjBBWbVF1bF56VEyvy58cbsRNscFz844y/KfxC7+vP1yjsd6LLl2iFc59jDt2StXfraLr4Arv6+pXTafHfLP5Zn0jRscJI8/KMvuT3NLBqNlo8TjPvNZlLRntUyOB/fGDcQKq0BwyUtrYS2sRSsQATsxeZKZM40JL/XEsnXYVetTe0GU7gT3NjkB0NZLYh5b2OCKGM4rD0258hZqnXrRfXlzKm4X92YIrqioqKioyCE3n1QRANTxOYMdbxRiLaygFVgLooGgOOtwzhk7+Dt//FBGxjPdfSJ3zqfRGYQWtS0Q6JTO4p+89lrk64pNcN0g7U7czanSLRmgYcfrCDY+RTXCjg0lnOlyHNqlOLf/TClgZLLItcNIkT1woz37fDAsxtzZnNc8W9tMfQL13XniqasVxTeY061P85lWnc8h8N2TilGRazGb/2AvQV//7Zz4XPukp6fbX0fPcYzxasa4/2TvqyD/8T2GvlSw3JCkidqwZM9DJptDeIizq2QZzB4xZnO7h+njBnM9JMekzpV0kyo0h9aVr7gteFY3eoZ3L76u4KDOrgBFnBNFR5Fnhsi6dekbY6gVFWvXFpdrACAi08TccQNC8JR36mcqSoAPBzsYK6Y4NdyrkisUAjChtW0X2kkUJCqBeyMiDIgVd4mvkk9s0W0S7fp5yIeI+kYpeQtU0K1Cl78FERc/uaaE174hTfcoo9N5Xfn9L1GM9xwq+c4EIOxGhoiS26HsNq/6p6QQFVWJKtYIuJWp8aUOOBV3H0cn1bfX9P6q+I/93m+d2FdUVFRsQ2dBaWzWx6oyVmCtrK3XhNHeAbR1dtfZ8YM8x2arl2cJtPhgj08gZ7aGnwmSFdXpRGDupPNXj964DQs4G5rWbXVl6X3zDbNRFT1+VmbF7aFEteYYcIhhJfG6FXjxb0uhKBu9NafKklHyycXW3e/qUEVFRcUekBtvM/ZxNz7vuDzS6f11ZQ19t1H+DHR2vFqL1FAjUDcaD6cEwrEdP86/s8i13DvefcccBUgU3GuhkHZcnezt3EPcqbtzLPkBGiW2Son6W/1kV1RcCzKmC2yEzkx/aNStThUVFRXl8ISIzvDt1Nkd9VmUiEghK0utiNhuX+muUPCU3zx2mTsw0FFmEJTmHa9mcBfH7q6ehZn3crc05lV14GBtSE8BJhINDCl1az/UX3SvHvC+cWgv7O7wL3akIy6jXx2u5333rL5YZz1D/o1/LeKC50p0uUWe41iXfbNOeY6TneMQl/T9rsSuQs7LkvDwpjjllOeal3jBeaSTEy6e17adJ77wsl048SWzhZzCT0n/KdrzsHF1Zdyfs/lHnPj86k1BHIaZ/W0uUgrWTC77WGd9yxXz5oObV9I2a9QUcf1nxs04NGZz62fmfxjCQ/9Mi1bndN53JM5xb57ErLe++50AnqRBx8GS4mNJ03RGPCsILFZA0cYOVV21BNZ23V6tjTK1SgK15OxGVRDTYtm4TFRUCQh8G3b67hC4jbDpCkBSzxii6tOLAZOIm06wDxTk2PxwNPcuhFV7tQ4MbQFxLzcZ2X7xaoZGpXtn1Ea1+ESlTWb6izL+8uyiSkI6yubDOpFDzpoP+yUE3fs1Ln32nplcOwh6Q5xVRUXA6jVrmEiJ3a46Irc0JKqk2gDYxK45fl5RRcVxwJuAZe9LL9Z5qOrMRFiyO5b6VFRUVNwRBIs/GHmiUBhu1Iq3mK1VKypChzSpnIHoNrZCrYoyJLhpQ8BXZ80HO57jSEoa+3Dvqe2n90F1XVXJJN/qhggWqgRWMGDjX+/+DVfsBRx5YmTzdplbxSG4YSWceKLeNM9x0PeFnOs8WhJI02fqM6z/1Pnc3oC7t9WpoqLiPiK36pXzenbpd5Ul6T6EUVAoIAzBCogaYitCCgKrXW9wSBMx2KuThMy0zyzPle/N8FjpxVp1MwhRVlEV0YjcT4DCgNy10ucnAGBtn3lS2vF+93eHu3faLerwodFryU+tjDXqHpIylKtHrqJiLoTmmbZ6ZKawTGyhqaioqLiHiCx4M23NK/cukeKRUQdBVUWNQFUg6tRIrN3iaFJRMElqMSsw1I8P5BCnNTnk6AMEUisQcdMJIYHbN9vx5d26AJveQ+eImp5GYrszx/SZmo8791XT8GgisAb3uhVWsEJEmKAqJn0+DfwjtJjkBty55qjYiN33NfJoRjjWPEk46KP0Y6Z7WcEJ51UB5SFTOWbGl3Di0+ynud2UPe9L541c/P4GQ/0Hb6uO7muQfoAxR5wAgY9FwqNHrDluK/X1yQmbU3RrcTuU+C4GXv9JpHsqpnX3N3PZZ8QliJNszB9R/hOf3xx3M/krvpeC1ko2Scx7R4u417n+XJB//QLcLVSd+ymY8SlVgfLU7YcQTcEl3v8bQwJrWiLNeQVUneQ8iaK1ZEXb1rY2pAPgY3cQExHZtnXniKi1dvD44oCskWAOst9OhVoLZoCgCgJUyQvUEKIcbNvaLoe27XPjnvuuWsAXLVY2iydO5b1uJ0585nx4pIJ+v68C0JKxN8NK2H3aE3Tlp3JWqKghMqBWFGbiuTT5jOsoXnGkuCsdc249r3dfkjneHVXMqqKi4j7hegZlOTo7Xq2FFWlbaS1a8XLyPhE7Oz6tmGarFJ8MM4JYwN4fqJev8SI23S+T9PxwhjSdp8QThrvyob1nUJAGxnt/MkR99bOO4UWNEFSIaGLaiqkYwhW3iGN7s+YajrsbmrkWyPXScfq53XkYQ5umz+dK7KO3ZvLf/ExL18ko1pgoyz9T/7nvey59kSe+4NebJCMdFfEJhe/73Od1nYocKUr66n4f6biH7JL/sfW3Q+MYbImYK18SnmkbZKzj6Ox4taLtSloLK5R6fIk12tkUrf7NrEtihZdf63gaOYWGYzMyKgKYDZESEaBELATlXke+iUV5fCziI3jfKioOBKUtzoZBjIVkH/jMV+OGPtWUOT48juHbXFFRUbEvUCy+Pf5S9NtMHWkl2XtKCgQ7nq22raVWHD3GRtzTmLw37UMNRSDlylNfuCAi9rjzno3TOesjZpBGtBAOwUQ7IRc7JTpZCI1kKOPjij1DlYhELABVJaY23UXdfPDhCxJh5T3FLajYghJd3nSTyzTnuxwSCt6aw5gH7+uTizDqfvUX96TrpIuN6j9Ovxne6TFSYolV1RN9lY35E02HZeo46InoOMARhzvHoR/olE86PrPPPbOXIKebPlakycVn3Vxubg8AE00a6JP12fD4snrqGb97uU68b+0S3fcMNscNCPXJXJzkH/Xt+Lnk9OYL6jOOw3C7yI0JecxLX9I+2ZWfPeW/GYMBYfTzvBzm4uDRo4vyjwzOgvud3FOEm+jPSdSjzUmJGOJl0WNyyyThJLWnnb64+L1NoqSibQsRbS2bRq1QK7ZtsW7JqjOjqaPfM5EbYwlIqdfcW+pJK3cC9t3cwZXM3UZWha7W8NMKZY15Mhbdt3K9hvteKLC2scnXFV3yjJLnG+8o4L4xB1d0R9dkycfqQPGZicrluPVxHYY/Fo3S4/rEv2au2tv7qzDU74omIh+IIKBh9Rs4+q2yFRX3FyWEkF0+vXedwJAlDuXarS7IVlRU3AvwyLB2RBTqndziTfnIZCRRKFQAp1pjRdoW1knHeHO7cyDNIML05viUKdypxaNnVwNQx58ZEG9SU9gRbLqbFVUJ5v5cz3r1yt8QVDs+mIoSD6ObuUhjwxiwFceJYzMT/3/23u7JkuS6DzvnZNbH/eru6ZnZb2CxxGJFfAigQJEELZCgbRkk5CBNP1ARYthhv8iyI+xQ+MGhsGyGX/w3UH5wBN+sBzpCDsuig2GDhkSZWlKguDQAAkssltyv2Y/Zmenu+1lVmef4ITOrsu691X3vTPdu9/T9xcZsdd2qrKysqsyTJ3/nd7a14s7X6tuE3fHoV+ziyi9T0tdW5lTv77pizv65Qy05pmq2K9ZR8HmRf7q91xdc/gXgsnGXd7Ok07HJ8zrfR7qaBq7ls9/ygX309f94sdH9XvBLH2ctRaKtk48uQZxsvJOKcbmZDBsjzCACYp0MJAISUVCiR3AefY+d6bXDRvAyfYgGwS3sxFSFloLNjvm6ww6noGso+phNwPWMjx122GGHHVqIvNpddjy1JtHsdBx9x0ptbzeKS83jhR+Rga0BwyCCAuJ0ALHmTHaPICJx1GLwtbO/kMjytN455AORxm34s1kYlotCROeJv9a4sq4RErBO06ZeSFl5kRpTfq0dvzPud1jCJtlAsWN/+/hNvRGu+4uZ8euuuHyVLt3xbu51i9MZed+Xucvrud1nMZw34az7+rj/dWVp3Vanv+O6m+joy0M9r9VyYnR2KRu3z8Ptbx+0fvcm9/soSSIvZMq35XL29tz3Bhvd+ZbFX8XV+LXPEeW05/vQj37bIVht6eV91KSnHw+29GRLHMcS/i+MQMgN80S8sStoEYLqo+/zbVlzGwAAgMEwCIAwA5AVsMyVEctoGVmYWYS9gU8IAtaVRkSJrmsAwYj3Q1B7nhCr0/i0UKe+DDUjyHHoJaq/tYYBwHh6vMsrG5FwBNpf9+nt+3Amccw134gx35bgXP51A078Mrd+3Rlb38uF5WE4vQOJD1sLjSu/+dnbFexhd9jhXLD1uLv7WHbY4XrjFGmsy0bcus6opy4+i9OpQAlBruFPZy270FhXAiLWZHoRABZgBssg7O14QmABAVJEWkOsiyDt9E+NKz3SjHcq9U0FGoZ7868AsjfNJXDoGwH6JQV6dz9X1kX9kLgK94vrpxsAYV1ltYepJ0U6/H0Vp+YXA++NM9EuDdCe7e1wwWjlFo287Ofrw3PqNKt+r6sVuNPy0z+Cz/WjxKrv/6q0ectbvwsxWsFVeY47nC9aSjWX4BWIOfHbnek0JtsElbX5m5yXvBUpC8DMYli8HU9A9QBGWmlBlGBtOwdQfCFcNuK9mb5eO0Wkq6EjO34lk1RcyNqdj6741NHgZzyIC/N2P/ZwQctaACyBxSsxafkIQCDkc6e7f93anBARsSkBAJWSKJq47sBw2dbvIEicNiMICb3ihf7I0jz1KzvDqlj5eU091ssQRkxBiLtIaKs0dlw/pLcmAEK3jodG8OwK7/D4YUfY22GHHT4uULfXcwne/XnqaO3U/5wBXpNkxDBYRsLWUgwhkRZo72xXZYt4X1k+PVaxXHOPEvnvd7jEEAw6oyvocpE0XnlGOF7MqmRvzZFuz7ZvwGWYkm+L9R+Y+4yDxUnKR7ooLfOpZJlOtZkvrLGJTrIkFcsisjz1lGWDVVr+/qgKiI0EfCTt5M8SgXXpJDCAkEidpmZ9irdssVgMh/3FYmHZ5nk+nY7zPDfG1ZMaPV1QTtTcX1KhUrqmpJcoc1NaZkfCVlqR1gBgRSrLIKlWKQCALAAZUFzLrLK0BQlWXmbG5rWqf4q90RKVgAC8iBOr5AAAIABJREFUNDWNfdWxTvxK+5zOrV9X29OOb1H1urjdq3r57vgtue/+3ldO6IoNiNOUdL0ZXs84+nlzqsDalsGzjtkktqH+Yf11N6pddHzU/pvdXMcUPX7ukaduE+OhdcRHyH3vQuu72DqvxXZPYGvd/fjcc6/N2p5zaQraMdbChl9HPECcfnwjRb5FpMrWa8fntLLU1c605fvMrZIegRMf4MnqcRYnd6wIBu87N15qRiEQSwDMttWczTESHOIsIpWxJCCW2VixLMzkjpDQtgKAKAgGJMwQgBraPQLUbJmQ9TU21uvrsgCAEowCZJubIqW5MsayMUYpjcIiIixICIBOkh5sfTsILM3757yQrrYYNUiE+DnGCxEcry34d3W1W29Y+3XjLx+zitVjOk5qKUptUDC1jj+nGU5HORu+/lEPI+BDHcCrmfqXCaazmRtFpQELs/Msawh2jyDUGX3pmvvPpN1fCyAosb5hEjbUS8r5GAq+kefHD+7uDfeo4unJeDAc1hMAxdDuiYLHXdqmPHJ4Iuy2AKDf60P7c+piQMVdPHkKymmm3tKlASDP84VZDKpqUS2Yba6KvBrnqjDWAAAI1WuLGJWPqCV0FgBgCSpb3hgORGQ8HqdpOhwMTMkPjsfJ/mg0PGSB6Xis04wJAIjFCvLanncV8au4yWd3rV/dS4xVIb8ddrj8WLbjd3jMwbUX88xDRQTYshVmAWsiWzkAvSXB57QMTZHIvcv9CQAo4KwHAAC14j0MJPrzuP4OFwKSM+yWrsl8bSXqelZ6rekOvjVcGzC1/gQQYDYAkGjSwjg/efb2jVlZzo/up8flS4neJxgOhzgaTacT9/2jQIKgOCLqgN8Wsc2fAICMiCCEqAhV4O2U3HbwS9faCLJ/gtZa9zWLFWFmszSxXucdIQAw9226mA+Hw3S+YOY8z9Vklue58cngOJjy9VRE6v0WwuQDAExZWTMcDp+/dQsMpvNUKbXo0xyqo/tHFfRHwyempqowtUxAZE+1uVf1cPyecx1KH0kF5dKgU8nnEqNTj+jSV/+qtPDHhV37nIEORa/uw6/GyLyt9/2iUa9W8Za0guCtb49368jlXBNXmMFYMBZMy5RHUp4ysXQJjp103mMtwrj2cnF4K4Bl2ygScl1JYGMQSREhKltVDQV/rR0fi12u3D/AI3ErHtLPvZtpPCxcg+vY3XvtA+2ZhAAA/Sqf60MJBBK0ppwNkzyVsiqPP/z+68/d2NvfS2BRvP/GD773l69PTk76g6FOtCAAsBJImAM1vG5hpwFll/YAOIsYRQCRas5MXLNTQknEm9MMod9HktUSoj9bGeaTJFksFtPhYDEvnSk/nUzyfGCsCRUWAD+ZcW8L+9kIkNZIAgCCMBqOFMj0TvHBK9OiKu1s3r9x8OwLL+594oVP7D9ZEo8nJaX7BeSlpKUkrK6A3bbDDjvssMOVQ23BB0WXQF4NO5FFQHjJaMawL3alReyRGiguS6oAC1QGDINlYJf7yTOjCJx0zfJI1x7NEV31uJaIX2fEc2QqSKB3ehIsiAAYKxoQVaK0Kcv4Yv7fFmlnw1a8TNiAXfMYI9hvtX/ZbzRceWcI5v1+UTaNhddGkpKWvk9gv1N0vFNDOdRVOjvGYnoo5bNPDL/7r37/e3fePOynYGbP7A0+8eWXnnnmmV6vZ4SJIE1TTUgCTHbpisLiPfHgDXciAQAiStP0tdde++Y3f++LX/rCz//8z9+7f280HJVVWZ/oItMpsOP998yeO2Wb1b2WIwcRnSBtCGZXsVlfFEW/16tM9b/9k/+91+v98i9/Q0TG42mapHU9wU8PKFTbVRiZxU1LDFtrbWUts7XMRVGw5VdeeeW9P//um6/+mUnyG8/92E9+7etvPXiPaM9U6c1nn3u/KOy6JUdcoQm5zVU/bve5UWt7j/76KIJVvrvnxXZ566MyIfDylybA0vHNUJdOfDcXXHBNWadHQWyuqu5nfZt84NGqyOaz/S59esf159WfHtOuphVr8THWI2CTN6QrL8QmT3/jwMKHxLZe/3PjwrYqcf5FdmFb/9pVt2za3v2um4/inTZzumPgl7ujXWwoNlqQ4H+qrXcWn8HV274WatEZABSLVsCwGAOGoTT+20aiDd5/H4NUe1HF83mdHnxdn2Ww95oxgFgLIqCUr6EwaIUspiwrLgiRLTf+9ciab78e7SHJHXUZNNDiSkZt0ebEc31s+6Y62l+kCZOI928bC/qxtQ8F8538g2szaXTc0zH6hFLXkG3sYk9IANAFvmjnoQc0BJzwvC8Pbma2n8q3/59//n5V4OTk13/x3/nUc08f3hw89fSTNw8PAaA/GGRZVlSLB0dHe3t7ALAcOwtcv4KBG++tYRbZ2xt+8//GV779r770hZe++rM/OZvNh8PB0dGRO17ERThwe8mVHGedLbsoF3BvuSi335/Lbr+IiGUrPoeFAHjr/P79+6M+GTMd9vDw8CbIE0VROPYOszDbOqI3Ds+V8HkYYRFWpJI0TbRm5sVi8aknb/f6vVd/+MMH0+nv/8krv/tb39//zE/82Oe/oqE3+eBdvbdfXj4Rm23f/Gu/kPVI2LXeDjvscBFo1BqYYz3HwBcFFqEwqPlfmQEZWFBWHOQiIOwTrwKLFSgBjYXKQlm58ZCCq4fXkWradYsm9ZFspNT1bHnl2W/X6wwb33u7/ld+mvfwuCr3/giV1MyCtbr2lbjbC4BfuhACYBR2EiqebCMEyIksbiezd77zR8XRkXnv7f/wb//tr/30z/QRP/GJ5+ZYTRfzAng4Gr1x562iKPI0u3Fw8N77H9RvT+P7x9q8ZsssdagKQFmV9OxzDz48tqWYBdoCj+9NPrhzL89zd4D4ONOm63E2vIiw1KY2OW7c0n5vyoMRFkepZ7buyJu3bhlTLBYPZtN7BzcOFJWTyd3FYuGuG0JyrYhY5jgK1l3FOxiA9vb2KmNmkxNTVVmSzmazwWCQJ8lffeklytKnnrn52rsfvPLq66/968lnPvdzADTnAUCy9nHEejX+3rExsk9l2DfHL52+/LBXtzfAo6SO6vLIrqoSnQ6O1ih8rTqueHohXW11XuhMUX6ul1t9GWj7Tqyu0rbd/Sb3chk88V3YZOJ6nadbF+LSuiLc98uJoPByYRcQcsZ6lK2Hgx0vwBZY3EAKlXBpoCp8Niig1SXOmuV6nT+iHc4RhNi8Ve05W8sr79ZuHmIsvOqQwKwgAUFm5ESE2ChhJaXCydAcv/vqHyXTD/7qZz79S//Zf/r1r33t+69853/8jd/48c9/7j/5z/+uAZ5PZ+9+8O6tw8PhaMTWjicTz4TpInghaqVQOxlJBIAhDbRW83kxGh0cHR0bI1pn1oJTGQIAACYI1nzgyLt1NrfCJiIANhAnCBGK+dyfGfseAIiIggk5n09FhFCShLIsyfJEKWQm5hIAEBUSKCIRUaJrC15EwKJEhK3ZZIyIWlGSpylpzHu9NLvzzp3f++Y3X/rsSy989sUXX3zx1t7hn3zvte/+i9+xh8899wv/viAUShtSBgkACCyCWiH5t/rBx8/4cG/d6s61Rvm5fJotRaAr1VabYG17nnLw40rs2WGHHbqwpAnhhunglopStwIA1xRZhEoAGITBMBuQsgJmsDY24teOUD4vVP13w8KHQKyXFld+yR9f/xs2Gr9r7C6MtqU+47qFk3bf7lpj7Iq1jlCI56aaKOHgjbPFYi5q4Ha13sUrdqNbo75ZN/xbYlEiRw/yvWygKC1mqjy51Stfefmb6fTt/+rv/ke/9PVfBMuL+fju/fcgp5P5eNDLdFVCog+euG1MJaZEgCxRolbm6IQADUt+uSZshdCCrbjK+nlvmBdmoTNtbR3agj7OxlU4Onc6nQK12Myu/Lzfm83nANDv9YqiAABPsBFhNu7RZ3lujEmyAaqsKBkwAVQ6VVopCJwccBQeGwIJXL+kSMEKr50QAPrD4fHbd7I+AapZUd4/Ovlib99Mqq/+tZ/84ouf+/3/9+U/fu2td//F7/z4v/23Xj1a5E8+MyVQaQazCREIKWoTbzjiap9OlF3N3rqaSXR1u6WjEgpaW37MlW/pxLcO7+DEd+vBr7GncQ1nkTpowuerGbJaGrdjA2CzCcC2evCb30WoDwGst8O3mJ9g+7obRQ5E788Gh2/bg26rE79Ju20r5xqjUzurqz5bOp0vg+JNHP0ifrN5ux6/6e6joEup5mKeY0f/7IPEBML34hjz8avXGDlhA7nlzwIRNoU/gEVxMH79ircFDIGwEBS7AYEJjIGKZToDoFoEBhUBIhESACIy+ldoPV05MrKx5td4Qr//gwSAG/Y8szR0/9p756LjpG3us3DE4XHVcH+e/iV7m+SRFWzOQIv807G/dTyvP2TdzMj9sd5/ymv2M24fS3PhJrGfUIr7DwTY39J4PAXYR9QEBhGFfQykQ0vBhgEImxnqtVKX93dKAArVzRtkipN7H+bTo88+dfDKP/+dYXn0P/y3/+DzL31qfnQ0Hk9u3DhAklkxS3vJwY29xWLxxO2bi8WijCLHl16RmhJTi8cvHWANjkajg4ODo6MHo9FQK611Mpk8GI1GTQnsiTPMDI7vzgIAg8FAOJSNdV4BWSwWg0EfAOazuUsg5QIpOYjEA0BRVP1+X6v5YDACgKqySZIv5tMsy+q6LWbzusKNKQ+g1mWBBYCT8WzQH6RpOp6MZ4tFnvd7Wf/Bg/tHhen1en/zqz+dZX/6xz98990//pcvfeUXvvPOG8MXXppMp8O9vdlket2Wnzc3FDy15nGfXT8idobXDjvs4NDJGl4x4LA22oP9E/g1bi+Ac3tbhorBWADw7HnA0+ev8YjZiEc2FWmmFk45x5fMgJH5jgLIguDTyyIziACiC4/DuP7Ld9rIl1yHoWOtHY8dXHkSWJYluZwQqieqiOisuGWvPJyqCOt1bB53UJh4gxAIZXlqJ8d9MF984Zlv/uP/+fnb2X/zD/7+z/2Nn5pNxm+88ZdVZbROFouFiJycnPyjf/Q/jUbD8XhydPQgNn+3NeUXiwWRuvPOOyLy7W9/+4033hiPx71efzab+hJYHF/e+XdrMzowbSz7qNiGQz8vi16vDwDz+ayh1LRhrRERpdRsNrOWf/u3f7ssSxExxoLzBBNqbDzCGJvy0Zszm87q7bTXH4/HWmlSNBwOJ5PJdDoZDIaVlePj48PDm3/zF37+znv/6xvvvfbh9wcvfe7Lbx/fH956enI8w+E+m2o1XfaG3G7uOKYrX+m2rodH4cp3daPbFhmvUZxe8imI1Y5Piyt4BDxKhs5Hv8rDlbAtV/6q943XYWh/FOymhecFN2bFKzxdq5SnrwKtppnjsH+rj7fm0mwEdrk3BSoDlQVjoAoWoNcUEUFGRQyCqGTdqvvaCmxSh1pjR+I/24XscE3gtcrBZ7NnEXFJiWoeNuOasNfOGe3jjdKWdp7Njl+4tffN/+W3RlD+93//v/6Zn/zCm6+/Tol66qmn7969e+vWzfF4nGXZO++889ZbbwHA8dHx/sG+MU0m19WFm5haszp9MtYkSbK/v//ss8++/fbbRw+OJtNJVVVpmjYFhjBZttZte11KcqKWBEuUEqXu3r0LAL1e3xFsfEZYaogxx8fHo+HIVSDLMue/n0wmoc5+lbCGT6PFDADK8/KRXB0I3fFZlpVlycw3D2+++8F7vV6e5/l0OiOdpGl69+7d557LfvXrv/CP/4/fvfP695/4xPPD5HBycqIGh9aIIFHbRtqW2/0YDMAX+t11TWx22GGHHS4OEq0Gb46Yo4KyaZcVlJeDV5ul5sc3TJt62hCpx7Q1bfy/CEgM1jBaEcNeT+ase1lL3qBN9A9ZANBdd+nY2g/o9S3Cv7oh2zNEM6KuKdPHj62pfmfvp4uWwv3IsfzCNwKUfsOGhAMaYgTjvfFSXz9onaTF+Nlh8vZ3/vW+Nr/xX/4XP/3Zv/Kj732vf/NgXpa9Xk9r9eDBg09+8vkP3v/gy1/+8i//8n8wHo8ts1ZKRAbDIQBMJ5MuHXEJko5eUz4K83SiMYvForbgK1MhNnZ/oHQihGfktpMkEZE/+IM/eO2115775Ce/9rWfL4qiLCtK1Op16z1uez6f93o9tyEseS8HgMV8EZv7CtBF8bIIRV1e3FUZYwaDwdHR0XA4XCzKPM/39vZefvnlO++/O5lM9/b2jLGlsUSUZdmDe3f3+um/95W/9k//5bf/9J/9k5/+9b/3htjZYr73zCdO7r+3JM2O3otMzXYXOrTeW9x37NhuFdO027LntT6jw+8Sd53Ssb99rWZ/64tbOb797Drerk1Y7FFpq8d36ohvwBFvr3hcy+5jBdty32Ns4vXftpm3jg3YGhc7mG6e/dTZNP49d13W7pX8CLGmx0MGRKWUUqqqqrVnqfj5iufK190xow/PAvDGjLPLu4xjQc87FxaChqwiIqd7KuvuEY2IFSkKy4IMZJkZxFowDIogIX804WqPF5vhJuSHsVAnjvL3FP4f83sQBAG4MlbYh9W6Ow1XEc8BQnFJGgGAYlO+5gfx8vcSPxfPpI9+pZDfCi7IAmxb3s3ulYfRkuxslP/XnNBa4lj3KkjHtGr9hbvg2i16Cufbn3RNU6N9bV15IBASFkIEQr3m1KVS5IJ6/MsIshbKqZ4dZ7C488arX3r+qX/3Kz81PTp5/tnnj3l+Mp+dnJz0+wNEPD4+IkW3b9/+xje+MR6PF4sFEk4m0yTRAMCWSdFaTksYYJoPrLbU54sFAPTyXCd6PJ4AwGg0nE7G9ZHxcxgfHdfbSZKkafrmm29++9vf/rmv/fxnPvNSZar5bB5/ivN5Q4CJX+s8z+fzOQD0ej0Rmc/mANDr95yevWMEIbOTsJTIlA/K9E2BSZLcuHFDa53oLE3TQX8wGo329/fzPL9z591er6e1NsZoraCq0Jgn9wafe+bJB3/+zgevfid57seHhwcn774D2fLbtq0X+QIH7GvzIeywww47nC9YRD3yDF9ENikj5qDbyI4Hn8s1EocBABFmcYoxsqTszkKWWQAsEwOyiGUwnqoOzqojDBXDeGRv0hjF9qUsmaTrhhURAGReM5dvFg1qJ7wAiljmmJTf3P5uzLo6qCM0HLmf0FP5sTtGTsQlGAYNANx2rz7GaHkc41kdofvYlJhbOer59N0/+5ObCf+9//jvLCZji+rBeDax05s3D8uynM9nWqssy27fvj2ejF//i9cRsSyrxWIx6Pdn0ykAkCK2bOyamIrI/G0thA2HQ2fKV2X54YcfumjXd+/cSdM472wohAVZOPQUSilEdLb1+x98cO/+PQAwVVUas3TXrgIhb6wAwGw6m81nANDv9S3bxWIBAPkst9bCxqY8IorIfD5P03Q+n/d6g3v371WmSnQymUw//enBcDg4OTlJ84Gz5iFRpbGj0d5fef65773+9tHrrz71xCc+uH8nuf2Mke0CUU7P3lq7oLcq89Hha7XzUu+wwyXARXjRHg+cEil3ClprHW791nmTw0i69ngSQAEkglOyX3NT8lIJ9TpwHXgGbUu1bTG3SmjWkJ0rbUnNZqnOLEFextcZGJiFDYtlqCqwDGHVGhEbm77tS17P+w+SNOHGvNPY0+G5Tv0afhd/Sr2kEBWyfI/wsCymM8FdJuJuXLswePUSlnrTv8ZRk3NIuXOGV/46gELLKAFtTTJ58NknD/6v//PP/8a/9VNf+tLnJ0cPJrNZOuhrVVljT05ObhzceOqpp//0T/+/sizZclWZXp5rxdYYpRUvGAB6/Z6pTJKsSYHUzKWDTe2+wMlk4sgtk8lkb2/PieH0BwPmykWgQjQzE5GlLqw36FVVVVXVcDDs93qWOdGJFIvmWuFyALBYzOtzTWWGwyEAzGdzFnHbs9nciWDWBBvHBhJpYuqJKO5wiWg2m+V5Pp1OT05Obt+6vbe3993vfBcR79x5N897iDRbFMxEpIB5XlnD80+98Pzn33jv977z2qcOB+9PKoM8Y+ZLk0Xlqsc17nDeuCxv5g47XH7U/We8PE0Caskzve6ULjiv/OmsaM8mCJcTJ0S4wtFoF8uBxeGDXJ0dTyzIIv5fBmNAXMYo2lx4VSSqbpdXPj4AgAAsy5LuSMzYWf6pg2NEl2MUq02Xh69M11TiMfJCezmK9lO2Z82VnGXniRxuB4AwA/npoQSLDS8Vaf7cZpzk8zchAgKSgFjuGbNXjO+88towxa9+7as2wxMzL9AgEyKWpRkMBmVVTsZTRRqEDg4OR6PhYrEw1o5Go8W8zPM+ACzmZTw5jk1eibzO8X6ldVUZt2GsJaXczSaU6kSMMcycZZn3mue9siyB2fkA+qMREZFO+8O9PO8DUFWW0+kMAxGfWbRWKtEnJydZlt3YO3TWfJ73iqJwEbF7w30RLoqiqkxCiY7IV9aa4ERhr2cJgAC2rDXvpbI2S3vT6RxRqRSPxieMoFLNDE8+/czJZFpVFSKKWEQUoKTXZ5Hj+fzZZ5+49eoPT/7yh9nNTxfFgnRSf+2rOvEOj/IOtM+ltfvj7ib2HrW6zhVOvN8jEfuw1cus58THXrGWLvLqymiHyynOJLDa322tE9/FiV+54mr5Xce36tMZM7B+XFzz9OPtDe53Fe158NrNjeIoNhrJNxhpeJP2fITy5fQmeyh0RmvI+VsO7Xdg4/Kj7+KMWvkvIqJGbFy3y7badnFzzTVc8EiJX0j5bQK30u8cTm68YwESyPOcBMiKQlArHG4RFoQKQOpsD1EfhYTAvuNDFtc/1i82BYUct8OLsrvfWISB2SKAiBBi49qvPdzOR46eUYPCIKIEyApYK5bFWjEWTOl7XqV0v2fY56NzmUFE2oNC5PhHAeTGib5Wwi5o8QAAEAMvCg1kgd16u7+RaH2Dw8SjUVqslyliTx8uN3Q8sqyuU3H70AZd7/mGeSfcKgK2hq7WKBZ9od4w8/sj9kTXtTgus5OJslE962ut3q9rb4yuIqcev811pZ7OrZCyT+9fCMlV47p75eO3nASI7ScO97/zytsa5MWXPj2tipJYSEB9PBQkv5yCmKYpMy8Wizo01pPyGUR4Op0R0Ww2nc2mIqJ1YsyUiKy1SimlSGtdFMV0Otvf37fWzOczV858Pqsq4zQ0i6LI81zrBJHKsuxaAN0Wq0Ooa8rpfNEbDHp5mveyhM3s3of5Ey9NAdcHQ330uFwD9A477LDDZUQQYGBnPBNJVTT5VSjT3r1dE2wEEECvjKeO1WLxLDckN/ZnHCm4NEWlQI8RAVNTU6S7Y3eCNu4/EbJCAmCtVFYqw8aAtU1MKgBDR3a/9WULgVd/FwSWZfXMOhWUSFNtb/qivzsMpqRL7LqUfGppof5SoXbJXxNx84fAaswrRdT50+HYFtfLlG9NmmNyCIapOsBivrh///6Xv/C5PM+rsgQAIrSWUflYdYh4e1gr0SDGIS+IBMC1QygqvnP2FhvOdh3Pb+lEa1kpAgBmyLLMKcNkWSbCWZZVVaW1TpKE2YoIEe7t7U0mk7Isp9OJUtqlbnX/RmUaACCiJNFdc5fYy1W3p9jm7giJQJggCGW2uOzuRkTEMs8Xi2G/f3BwICLvv//e8Iv6IVxcq1z5uIzVbK8fDdZ4sKJ22LE0dtjho8TpujeX1wi6eGzeN65ZT3M5Vl0JAoCMiCCsI1nkhDSJj8hUgCBChCBrrktALn8IrsvBiUgCdjmmE1rdvQQCuoS6tf2+AkFGuWbDe5d8Ld3orGQrxIwCCFhUlRgLlQFmAAEVLd3g8rxAVtzD3isfndJUIBxGgQXh9ku72iitTKVi2dbTp3Vcebig8W7Hlf/I4TnRLIA+BSivcOXdYcKia8Wux4hxtB0wahn3KQ5Ho0+98AJ4Wh4BCrNVqjUYrIsVdmqNZzbkQ7LXRCTP80CwycuyrK35xWJBRIvFYrFYIFKapiKilKpNeWt5PB7neT6bTff3DxDRlTMajRaLhSPYZFmGiMxVzJI/F8RtwsxaJ8wmTdOTk5PDgwO3JnB0fHygE2YGtT6V1UeGJjneDjvssMMVxGqQ4sOFt24OFE6E3aiR5lmdgEREAAmCE9pTWhB448TV9XjprN6lsZPZ04BXT5Qg/d6iV3FEiAfwdnz4T1gUAzF7Do+AGAvWgs+u6iqE4O34dRcVCXcaLuSu5qj2bRMfADCizSx5YYXFXWupoda324ZEl48bZxqaXQd0RUds6Lq+MnCTtGgd40yuvAWxELzyhLRb+HCYzqYAcLC//8wzz/zgu3/6xO3D+WSWZVlRNYuGiOjmS0joEsS6notQ+SeBGCXaJRFukpWKjdyyrS+33uJI+ub27ZvMUlVlURT9/mAw6DMLEQ4GfQAgImbu9wdFUfR6fecITxL94osvvv3222maIuLe3t7x8XGWZcZUN24cjkajoiisNUrpo6MH1vJwOETE2WyaZZnWGgCstbEpr3UCvvch51RwXi4OaY9RK7AgiMLLucYIEAV6WW7KigQsi0K0AGmSDgfDo3sPenm/3+/fE6BEWRZEgsDtkRWdeLfdUiNb8cpTRK5dc3yMmFIYLkoRzbKuQ1zamuv6f7H+Y9WDtYmed4uLv3nsb7TysCasZXV9AADag9/pMQAdF7x0iFv4dMNlaWH64qr0iLjO3uIubPFdrOAqtufmLhXvde5cTT27nCzLLLOpKmONVhrO6sdcvhoGUMz9NFG19qK14AZHYAjcdxF0wnmOYI5xzyRe0wYREgUqRKRY41kmCqAsS0IURAjruhIZ8VwZf10AAGDx1OGiKoHZ91htFz3U3vHoP7JMDMQClm1ZFdZCZcDpTrpg26BXAyyxDGXTPuIHj1jTEqxdsxbrf2MAYMsgjUPeCoBlT8QBADYAoTtmrxsP9S4JQQK1pz9eCecot8xKMyAztL8LbI19y1V+FDSzF1kXuyLNLbXmKtH+Ls341v51wS22AAAgAElEQVSu/nydsicAwDkRic8La6K/oHskjuB5FJctduejgWOtEbZWyobDYaJ1WZbj8fjWrZuLxXyxWGi97CqWKHtcDUR0ybcIkR/BSogF6d94401jKmMss33iiSePjh4URZFl2Xy+AAClyFpm5tFoxGw//elPi8i3vvWtp59+5ujoyPHdi6K4cePg+Pg4SVJjqul0lue5iBRF8dJLnymKYjabi0ie94wxSoGz5teK2j7MvUTkIoAglcVSzBd5LycAdyMQ6Derxui2uvLbZofdHFfRFNhhhx2uG9aF+Z5tslhmEUZCvX0QnRLWtSkvAgKxXIYQiLCV08jlbplbGATr+reOZhFwCRNjy63bG71+/PVe+UCqWbLjrRADWnbi8WitcDTt8D6bzpZE8V52AEA3lsXa07E/PiwLbGokdB0lgRR0RWjo15f+sTHcbNBFR5yuzC3YWDsaHFPchYfv0IZSuqpMnufMHPwTMVee0edrpUZf1oXCO7J8U1L88Z/d0PHM4Td/8zen0wmL7I32Hjx4UJaliBCRo9YQKWZrLRPhbDYfDPp37rw7nU60TrRWbv98vjg8vDGdztLUm/L7+/uOrvPrv/53nn/+U061xpVpLTtr3qlhriJWFF6naUB10EDdMs2vFBqq3SgifiXRL6Q2nu8zm6qFR5da4qX/w4pHHzv2t30hgT8aPfcNPPHwsPcu2Hli19jZ9RZ+lD1texXiAsrfoMyN8s08QvnbYjddjHH6xH4Ts2DXni3gaaOPMQUiEhFqZXw21qhP8+rDrVVQL3MHoIUVR6Z8WKV08XwiigUAxaAAECOo2BwnFBFnBFsWS3U3RHU5FwgEACBhJYwgBGDKCg1bU4llAOs98f4/evSuykW1bmLDU5huLPfLrgqrru1oxhHv2eExQxw86cys6xX2ugkmk0llTJqmo9Ho9XffUoQ3b948OnrQXvORmmfCdcQMYv0RPeKqvVJRWijEsizTNN3b25tMxp/85CcHg/5kMnWJr53x3e/3RKQsy9u3bx8fHzMLM6dp6k53BJs0TYyxSZIMh4Ojo+Pvf//PyrJcLBaImOc5wMKYyl3XWfPnBRv178JcR77283w2d9lt+54+6Kzfc7vyWZDtV9YuuFt8uG53TUqsHXbYYYcNEE+HHOtSKdKkrFSwpPAGjayKgwRqOAqjqHo/edKD8tsCAGCDWY+htGUNFkJAqEwl7K+sddb86pgm6LMnOe5JnRMm4qX7CmC4u5ri7n+N1yt83ZAAlAA637ygWBZjxFh/E+6wU7vWpVmlC1gECZdzzPuGpg+1XmRjKkhdn6BXI2ExIK6yRP9zob0A4FyIO4f3tUGQOmVm77i/SqZ827/7MDbLqmYzIqA4X7K42U2/12drtU4cjyXPkslkAgDC0h8MjCnu379/6+YTlu2gP9BKEWGaJkHekaw1/f7AVJWTsAUADty+UIezPfTGVACQ5/lkMqmqkpn/4T/8727ePORoMVFEmC0zhzSs/ietVaxn7+g3PhI6KN1Op5O7d+9+8MEHjmnj9CutNS7Ml0ic47/m2CRJEi4nrm5r25aIJpPxwcGN2WSilCoXhUsNq4jcnAGdiIFlEmBrkbk3HCzmhav8bDa3SeLc+vHzWuP7jJ/+Cld+9XhaO2VFb80zMgSfeugSI7156vD9dbyBLZZ2ywcWc9NjPXuKIwGW7mUTxCo9q5OBrnK6vqBth4NNvsTWWx5xEx/uflcRTwIxSMWdJ+rOIpSMkeL1OeOiwxPPqfzVcuKVuk18GW3tqSh7Q4u5u4yWS6XjVh6nRfxtvUKu/0GKnEHkVpB51ZNHgEpA1d2RSkQYLLNlsqIUKdJaKyKw1hpjRCRRupdmimFeFoWUpHVGKkddjcdKaUx1onQ/yaqqnBdFUZWJ0iggzAjQz3ru4TqJNgZmIEYwDABQWa6Ea/oKi7glaPFxWSjo7VbrxiARFiDb5EMF6/OcAAMIaAYNBERO16H17vjk7ogMhKIBrGW2jMYsyspOp35BABEAm4U7t6zs2MuBMe9qUmdOjJ9WLTEJAlr8sS4q0QZTDIAbu7xxe3kdenSzkViivn6stQYPBnLSZl92zEQ/B599O05g/SGtw5u+uVWTlXOXeLnrD+o6+eLQQeh6CMfgShGuHIHmtREJCjYBLMyoyLJBp7LidRSvq1dearpdeC6Mfmc8kGRZxta4jiNN0w8++CBJ6BOf+CQpQiSlVZIkSqnxeDwYDMqyBJF+fzCbTfv9QdVBUHkU2LqrAnBGPEc+b9dNu9Sw3qBhFuFacfLMUUGEHSVGRIhcoFKz5qCUJpKYQ0/Rt+hmPkRYVZVSSmutlVZaIaLSWivlYnkR0VorkQguI1gRxku6FHjRncTlvOsddtjhcQJF/mkAcCvIhCH3akDjIxYgBoWgGFz8quOEOCKKEkiYK2AtrAQ1cD4YGmsKY8r5ApKKEJMkSZJErI3jHd210BvbjUSBowhyR3/Ytd9zY1pOaneCEDc0egrLAs0dsje+FYMSBgE2VgxzWbExdW2bbIin9tKrkjIsgswQ5hjIwsEr79YxSCBw6YOZ7oxxb7P62RVK8287RaCPcd6kejs8fqhfG2b/rlxTUz7GKYRXy2xNRQDWcmHmw8EgSdR0OknTrPOcFTiJysgFFV9vfSZCbIeK1s54lw7WYUnTCgDqpZZ6P/PyMUF5vfbNrJlLIpJL0bdUDbenUxefyFqbJKm1C6p19jHeIud18Nyk6FwRdold3Wyq7rW3NXMfnbscrsjRoNfhJOxoB8bl57vm8DizyZqrL2+fje258pcB7Xdr/TGP4mHdxDe/VsYOoo/uFFxE217ix/Ux4BwoZzvUHT5LHRLnvMsoqJAoGoDq4EkUJgACRkASYmAFwMII5FM+CShCtw3oV25tWRhjLGrQSgHqNInTRXXBDZFuE4C9ce8s23pvbMiu2QKITGpErKqq+XMp/45TmbSMltkKAAMLGsNlZU0FVQUICAIISMBE4BzxpNQlUztZgzAvau/Y4XEDB+FXCFbZzpQHAGBcsq/ZUSNMVTkvglKUqhQIK1Mspov9vRtsrTXWWFNVpt/vHx8f93p9AHIu+RAzdD5wCytwqqrMUi5ox7qJS3AbdZxu/edqOV2O+dOR5/lkMu71+kmSVLZYPcApUTJzMPFJIblEUgBggRkvTX6DC+7/ztnUwI7tHXbYYQcAqL3ytQdBAAEcRzx2KtcWM4W0oyQAbCkQHMgKaVACCKAYEEExAIgpK8tWKYVakkS7IaaqKi8QTMgu7rWTI+Hyz3cOcBTPrusN8cr1q2C2De8csdaIZJduyevHA7GXljdlZasKrIE4cKvb4d1oNrihtj3zp+VZRrNnlVXv/ldz6N19MQMyAxEJrA7lLcLJ9ZAf7NKPf9x05R8WQVf+ejRG24Tyn3a0hwGZgMHHzfCw36vKBbnUdKQAQFDtDUf9PK+KYjGbH4z2FCKg0qQUIggqQAUo2GZJr/UohG1qB7mCI6ukWaoTW5npdObc7Utm95LLPKjXe6IqkVOMbXqBmoGDNR1ehIi0Vk7pUild87Hq8l1YbVxOlmXMbIxhZoq8FESYZZkxpt/vDfv9e/fuOZ0cRdTPcmApiiIhpfwcEoHZJS9zy47uKmkvL4JYr7urtc8xboq2boxeOxRIF59bfIMIeO57W1nBXSzasYFXvlW3lkc/8tBHxLrluq1dDdgA58WVfxR8vCJYbe41Qmc4ww4fEU6fsrZ8hxs/qW25/o+oQPDQ6BpSt105jO+Xoi+sqxxcse4QEcUigFaISHUADyIqBgKuw3uSRAN4xYMCmEhpRUorawwCKlIpKmutEkhIYZK5pVQloBgY2JYGNQ5HI82ALMYNOoDUuJYctxeYWRAEhMGbwSIh62IzpogL/YTwEOsfLDc8GREwfptjnzl6njsAAhsrIYOsJ7dYq4RIAFnYMFhrZ3NPVZGQ1l0Ff7zvTBCjUKhmXuFugFtTCkeYqTkw4jJlhRRRjtvjj+9w9LvdFB3i+EK8arhKZMw+lFnfml1cxEqjf4jR4o+fkMDSnlZ9Vn/u0JVHjpeVOrDaD/ilKga4dOryD4GdV/40zOYzUxQEgIi9wbDe3+8P8jxP0+Tu3buJ1sfHx4N+vygKROW48oPhMITanA33llbdjvz6s1+15mHdWFX71OvuJhjoLpSnEYgkQiLlLHKlKETQNlKbzpqPy+mqpLVMpBDZWp6X8zRNTWWOHhxNJ9PZbAYAe3t788mUlJ9FICIFh5CIMHd4V7bBw5mSq5Orjw0703OHHXY4XyA73XEFgJEp6FMeCeiwR0UdqGJQAIpAc0u73TK7REmxSgwy6ySxioywtbaf5GwMW2Ot0Ul6RvWEAJCRQ1TrepBE2a+Wgk19sicfHgiN7SgQb9Q/CSgGFEYWZEFjubI+mZWPcxVPQG8cK52mnrTt+CWTdAOW3pJX3nnggK0Ai6AgoTfiJTDjm7P49Lrt8DjBiZe4bYqsOGenaRFx+iYfXw2vHqqqmk5no9Fof39/23M38Sot5ao83cZdZbQ35RBaK0t7HMemPldrpbV2XnkiL1MjIsxQW/NECOAnBoH3jiIY84yryiaJdoI51lSJTlg4y7Knn3m61+sBABE5Oz4UQjGRvibWn9k45wj/LFadt609u0/j40TXK3HRXVZXNtwdNkHXGtG6Ix8fQ6Tu2x/CK7HJue2xw3ekq+FMq/sdpZIEfEiS+GglAlCRI9dxOXwH7xg4jkgT+RhsIN6IzwXi3TGJToqqZJaqqgxpFFGAqBNhiRcAEdfYt5ER32KmxOoUGBGB6hgwAQDmQEFBCbFkbgEgGL3t9qnLYeHKQmW4NGwMMCOSD8MlAoVALrGry+PuiaCr3Y7L/dRcJdqQhjDTZHJ184oQ5wr1ugMIxwSbGLwSF3e1sOqPX91uH3/2MReNy9ba9UfkX1LE8C37eu688muATiIKoN/rW/KiVHHozP379z7/+c9rrZ544snKmP5gcHx8nOc5oppOJtty5V0fUcvAA8C26jenWPNRz77+XCJyXnnHunG9uKP01NY8BNJOWLcEEQXtrLQARutEKSmKwhWolX7uuefyvO+YNpPJhFq19RKZIkKk3IZl3mqp66rHt131+u+www4OLV71R24GNHye4C+vO3wnUk7Y6SapT2U8O8q8JtBbAMXAwbXvxMqQmYWn1TTVOuvlOksXs/lyCYhEZNtiD561jnzKymS9aGAjG7hWgQQWsEH4IbBvSABYgnSMo86S48qLiDEVGCumAsN+kcEvNJzRCBuh3ZLU5aGX6D9o3Aa1rX/hGbLOCV1vTtfSRFeDbMuJXyrn1KWdqw0WqdfHMMwtIVhumiGEthA6ix8lEMSc0bbl9c6Ly/goHN+uOge/B9V/ICgERkQkQUFEKRfz0WiUar0/7CszrzSQECIB4fHx8aDXS9N0Nlt8+Us/8eUv/cRgOPjhj17L8zzPU5cUdjQasEgvy50567nn1kpr6WNZHdLZ0FqrqjLWmuFoMJ/P9/dHb7/9JgTuiku/miQaABaLRZxGKjQXhdJivUgXdaSUyo6OHmTZQZ7nDx7cXywWh4c3lNJ7e3uItFgsAKCqKq2ViBRFkSQpt9YNfZne724Ns1CkAZ8k2tnoSTIYH5/cvn373ffe/eTzn3zppR83xlhr7969OxqOjLXMtqpMmiZFUfQH/YW1SpFYSXTCbFElEK0crX++2EwhKPLqdXHiEU5NeSW1hDAIrXhgabt0WTE/vsvjKBEhP77FtmW/6Xch0fCz5v4vYLrQigPp0IlvVSH+I3bRxeV0ed+7KrGSIyIuf7XtVhVpqO0sXPp1DW/NHb9le27bH168l/p81hji9uH4DYz8vqcjvtN47eUMXflz8pZt8lyWHNvNfm9FNm8aItZyKwCAhFKnBFrHhFxzF1GAEEKjAU/rqJUA0M9yZq6qSoJFGzJMu0BPcAxGEXGWLyol4gVqyDEtCVGAARj9uYuySHXiOnUhsiLWGLJW6WA0COSpZlM685wInR0PANOTMSEMdQYAqU7A6b/NF/5EL+0lDM7rDwoTRgBUFRGyLMrSoFCS2KoIZ2BoY0BCLYDA1hrLTiK/dsa7eUvsF19HqmbWAgTkEkExWzTMVQGVBWPAilu3AJDmQbieX4DWLReb2t2GCCJrglNjwgx751Xz7EOkLLEQgEQ0+lCCf51MWWEcLuynMSvUmpUahneGof3+MMZvlAAsKd7EMV3LrXgG1slyCDQ0Wmj4QW4ZJTqstjSaHLfLx7d16Lk+Pi6na7X2jDwqqzXflj3foXi2Yf/fPAIR92qQLPd+9Uve3HsgSrDIzisPIBTajAFgOBx8qOjll1++89aP9nqpKQsUQsSiKkej0XvvvcfMAHTz8OZsPhMRIMzz3mw2zbJsNiucP56UclQVCA8g+s7jxabWwtOTTz75zjt3Tk5OfuzHXnjnnTsAQETMdjgcIOLBwY2Tk5PpdAIAeZ7HwpRLQCSIBgM3ZM5m01u3bhVFwWyzLDs5OdFa/dEf/eGrr/7AhZwqRcbY8XgsIv1+bzabO1n6unp1+dayyydFpOpRyhgDYU5SFUWapMy8v79/fDyeL+ZZllljTVGSojRNidTJyQkiCkIFyCL9fn86m6rBTbt6P+tvcsPjdthhhx0uEis5MWQD9/ZyGUuuRQA4S47COch94qFo4Cfwsi0EgIB+sr3kJK4J5R1VVSpWORMScPas8vMEt5C73nyUdcoqFEY+9rQcESFLwAyGxYg1LLpDT1kLiAVhK5ZdtimnvC4CjOBo9pYFEGOLCkOOVWFGFmJAZAHLlm1VgWUfbyttcZ8tgbK9yRvBZ71121E5pmUz7PCYY1kvdR1iMzL2yiOiMDvRknOIOHxsMJvPj4+OFyf3P3z/rfnJg6pcEBMSFlX1xBNPzGazNE2TJHvVvnpycnLj8Mb9o6M8z6fTSZ7niNpFryoiTxcBgOWZ2XreGLMlUtaaLMveeustrdVgMHQzhH5/cHx8/PTTT8X1bHmJIs9N2HZ+kGZm2e8PptNZURQ3b9565507o9FoPB7/8b/5N7PprD5RhHu9voiMx+PhcOCyUC1dQikSEWOsCNemPAQj3v1rq6osy4P9g/F4nGU9pVS/359Op6YsiVSaJk5vBwAYwQCC7j/qY3souKFojSdhJ31yadC5MnPBXVZ83euh9nae2Hxt4SMOj9kKnR41Z6m6TQSoA0AfjSsfu1g5UL2dmeg1TGK1Ls9WR8cwoWCLOi4oAYKAy7Ta6uFcAZYxNv2jAFZgUT6gSoWKEYjxJExEIu/gRETV4VCRKPZ0yTVDRE4ksmAjQCxUEVUsxlhhNgAqWpyoPd+GARnEMgflNGfVNG5sltog9lgaucJhbK21BowFY4HFM1sCDRWcIDI1rJaYmLT2sdZMmNavy9z3mDcf6EBOP5qZg3t1jcpKc4krHLDTtR7V9ZnwBsdcOLqEvz8mrRtqC4gjoc86fM258oydpKp+r6cJf/Znf+ZnvvwlruZcLEAICff3D+7e+1BrTUSHh7defvnl733ve88999zXvva1rJdPp7Msy4qissYAgNK67vvAda9U9wnrTfk0TWaz+eHh4Y9+9KPf+q3feuqpp3/t136t1+s5lvmTTz6JiIvFIs9zAFgsFlonp9/j0mjKbK01N28eOr/+r/zKr1hrkiSdzabf+ta3ZvP5T/31v/6pF16oyrI2yp29HleVSGmtAMD9FIvhKEW1KV/MF9bYm7du/uHLf/jnf/7aF7/4xRdffPHk5GRvOLLWWMvGVER0fHx88/bt++PxH/zhK7PZ7Kn+4IE1QGe8k6do/V4J7PjxO+zw2AAjsz6m4HRRgUnW60jSMn9gTScXH+CUWPxVAscGoEmnCgDaG90AdU6SYDHW5jvFDnTHg3f+flIQ7AY2QMGySbKsrkDXhC3OSr4WglAJM4KF4JVnJ/nOoFQzRNa5zBnYglif4Tw2p5yiDjgh+aW1EREIwbvuT7Zs2YJlb8pbJ4R52njiCPeotuy1hf1cov5XIiMeoFaqEWleFI6lKTmk5+1OJrPDtYJwQ9JGxHq6iYgsfL1M+eAkB4DAmF/yySJPZ5PZbPrSp1/8W7/0dbOYiuWbN26Mx2MBQkK2rLROdGqK8nf+6T/7xtd/8Vd/9Vcn4wkinpycVJXt9XuENF/Mk8jUjv3lAhbCLDw25aez6eGNwxuHN4BZIWZJ8o2v/yILM8hkMj06evDhh/eUUs5WzrLMsWLi8iFyja/ee1lWBwcHzHx0dDwcDr7ylZ9h5l6vR6R+8INXX331B1/96s994Quf/4u/+Msk0XmeF0Vh7XqNLUenWcpXNZ/PnEe/KIpUa0UqSZO33377z/7sB4c3Dz/72c8WRTE5GddTEXeJwWg4KYrf/ebv9w+eIbekS42uvHR5xTr48QiqI793h/cojHT1vREoxnakEZ7dk7YVss/m7sde/219DpdnJtBiyZ+qWHJpqnwOaHlqH6cbuwBs8q4+eobmjxjiNRC91zdJErZsTQWWdW3mgo8286dwxPpFZ1kiANjw9aM0SjKup02Uis91B1bVoq6GDjmziSVJEghGZ8gVyCigpDbfuXbrIrBWPjqo/oCdZI3LcCLikvU55r0oRNBJPYuYT2d1HXpZDuuecivGQISISGtSZBgqa0S4Yju1pUUCIAYCUkmiK6vAWsNOMWKZaGlM5ZM9KT/HcD50W1XsrOEO35ybcghYyyxskUVYwDIYBsvQuNtcAlzyEhcUEuMiAIDXsYj50DbiAnGk9h6Ti5bqE824vJNegB053clN+hwuAADAFtjLCUEY2ZvWxii+K6zGLG372z911Wvds3uEmUOXB73Ly77B8dChGS8d3PTLhi1WFdyB5ASOfDCFC2YB8El4aqUQCNPAGt6U96y7q9arnjtIgI1xsvEnJydv/sUPb+yN3nnzTaU16QSR2Fql9dNPPfPmm28qRXfv3j06OnrrrbeInE8a7969q7XO87yMVGhaprzYepvbn83Rg6MbRzemk6lWuiqr119/fTqbMgiRUkqlaQJtvlQX1lrzSiljLABkWdbv94jUycl4Op0horXGGHvv3ofvvPPOdDpNkuTevfu9Xq+LK88s1lpmO583Q0uWZffu3XM8+wf3x6Qo0cmDBw8AoCyrk5OT8XicJemDB/cBIM9745OT+WKxKIuTeSNx8Igxfw+Z5j3a3n0CO+ywwylAxDRppVZkAmDFIeQqpgy5fdWKYep/pcikdmRuQnZWaUgthJHFr0g5U9PlNnIJTyQM347uIkCeTIJBeBEZGi6+C3ttaabX5BzySVWBqPk1nmCISJqmQQvy4W0+RrAEtraWt+x1nR6DZQERRAJxNo80JiCHtE0QmPAsYq1UVsSisWIYjAUvH+8ZC4KR5F/NXT5TqVvWTSFCVGvr3zAJ9AeIP7JZgYlnI1KXdDVs1h0+Xmh4ZPvpY8Qm7/i25l2apEqRtWYpx1OiE0RkIp0ko9FIKX3jxo08z7XSSilFihQhKLbsvOYmWmRsm/LNvxhZjjrRRVEyszu31+vpRB/eOCxtZS0z2yUv+CpXvmunw8HB/nvvvQ8ATz315Icfftjr9QFgMOjPglgYs/R6/aIotE7cZCAOoogFQNxPANDr5fUVjbFumsEsvX6PiJIk6fV6VpiFrbCIqEQrmwCASjQRWeYkSbKtFhBXvQin/QiCDN3ecTpd2WZNaedzzOXBatNf5r6g1bZbjv+rcRHejOhQvNmoDtcMm0x0H6f2WevR9FTD8MYkSjMyCjCicxs7f6ETF3ZvWcWRNnFUpNaNK02JKG9UShT3igxW10QXVACM5OgxQgwgggDkxNA9Wd7HvAKAwiDWhhzecQRkBKe96ExYQvEPlgBRQKErtlm+d7xcDian8kmLHqarQMTa02ijpnA6mGd/hq4/NwbA+2t9pZihcWaGeNZg4QODWBZTgTFgWCxDWQGLc+676REQCfnVCMS2A7jD37/DDh8lEP2sH8mHdyOizxGBpJm5/vsawi1vueHH/bu3t1cUxXQ600mSZdlsNrt5cHM8nqDr0gQRsSgKrdVkOhWRyXSSJIkj2AjjcDjUiS6KglcIMMGI53o79srbwmqtlFJOlz3LMlMZSqmqqocLonIb9bnj8Xg0GrmNwWCYpmlVVdby3t6eU8Dc29tL02Q6nSVJkuc5s7WWugg2iOgc8zXPR0RGo5GIlGUJAsKiSDEzM5NSvX6flBofHTuCzXQ6TbW2xgBkiCQs1C2Nv8NHCT5riL6mPcUOOziwlGVV54pPRynV/nWXsVQAABJSjGHCGaUJidVOdB1aKgDWsKMWtntBR2JxsLbyXycCSOQqkigoKxC7yRnNCG7ZIBzKFGYKrr9VAhumC20FKKtgP28AN8gygKDP+iQIDGi99A8qQGEQYWBBjMgkkYsaBRQH3r8NCxWBsoKILABV5b3dEtRsWMAFoFrrSTWVBbctAAgSnPEufG51IortCzU3FbvPWwu76wg2zvASH+Hgbi1Q/EXCykDkkr96vex56cfvsBY1oUiY6xEaCWuahuaQA+jjQtfVsYtP3KFL3YWW19b3Wf5fF0DJ3iVAJIhIx8fHSimt1fHxUaIT0mo2nyutnPI6IpZlWZalZdZKZVmWJmmik9l8NugPXMmmMiKSJAkvsVO8FGyTo4siq8kYk+d5L+8BwHw+J0VZloU6rxNZocZTvpZRUwehgje+fQYoRLLWzudzrTUzHx8fu4RQxlSTyTTLsizLuKOTrl31jnuDiC4K1u0MYvMkIkVZ9oZ9w+xUk0Skqqq0l1fGKK211m7tAhFnsykAkFLGGOoR+hx7ACFqe9UX2HpnWu+DG7hauufQrZKBTt9hlfwc6dbD6q+nYtvuqbWQssEFOr+XzriC5f2+dZzxse6MDW/Be/m29GpvUv+4HR69u+8aFZeSUG5a2sCnozwAACAASURBVEYTzmgav4kaklyutZDWF9Gl39+ByzZAb/u9xB3pWi1I1Co+d1YsqM5FKqAAkkQrpabzqYSWTLWuS46jpFT0ahaV0VoBotZJZfyCMApwUWpCpZRSCpPMWmutZWaKYrHcArIn3gSBCwDopZ67zwJJ4vjuDACkiC0ba5A9L97drDi+Tmig0AotH3V877TSQIz1y+xfaQZhAZ9OxBpBYARGAtHYhOoRgE8OpQSAwVQVNMKUDAJSmsaGMc3CCCNwPYmK2SxuHmUtiAgDGhZjwbJn14jnGAmhUUg6JIJ0IpsIjD6qgcuy0XqP+dlhcHdZqKD95gjbOLwVgVDAT/88zcZbYK413RAMJkzPXBhSIMq3cAk4FF3im13aqSE8oLlfCb7M9SfE5kfLhwjr97cu9hgtC0YQESQkRA5agvPZ/ID2GgUbHyh5RWIIzh8IAGARCNc4I401JKxcz7j2u/r4gIhnWvPxwWtJOBD6LyL1iDyrWoeYCK2NhkPVjHxExIhsLRCS0iIVhlaNBX92+BhxXTuCHXY4B5CA6shY7Ts69H8AAJszlF4AAIBRlJstIHgx9dqn66Drrhuh1+/XP7VyBUrD3HGOUhI/Lz1dvf6hUNvx3iZmBAGohD21holZNeoCKC5xE7C4JE4oLbuNBIAbLXxXYS/QWZvRsa48IlgBy94TL7VX3ophn6/KPwgQQla4Kg/vUmfGTc1RW9XVq0+sZSfr7eYuhJvyQ7FBz6YuseFAdcaD7nBdEfywLTMPkZiDVx4ci/TqrecAXPxav6kMArsU073+MA45rfNsnde1KBJ2dM+slu8Nvday/P9DWPO1n/6Uw5oqETI/atgN++VUEDcb0soYkyiNiETKp/um+p+z2rO9Dhl2nHK8U6/v8sydP1f+auFqjRjtLLMdz7Qr697K6sHDrSpcsSY7Vzx+7//m2Gh1ZXVEwEYGhWqea/i3iqQRABgFFRK6dJzIwWpEZwojAiAzMiA7H3Zteia6mTokCmtz03i/NhEwOppNWIZUIIAiwgqEWgp3oeKhZyVBIlVfgFuKIme3iQA5nj4jVFbYm/WWpJEGIwQRIA45pKCtONz64rhpVf8Bi3hekwXmJt7U2e5l5bk0VqCswLBTinc0HkAAJFSESD7kNFyLalscWxZ8yG/lf91hh48GbeOQ/GqPN/kYMWh4uw/s2qLr1p1XHkJwpGWu3cbnHl3gA5uELW+a8BS2tOa7wNEVVxP4PRxcOSLi842Qn1A6qR+2VlT9ahIAKEWktjOsd9hhhx0uDi0HWKwav30fS1hTOBpe+yKKp6LgOFeONd4QXVr1qQOuUBp6C8bShGVlw55gf7NTi28INgICYFko6NA7xISfyKZvpYaNcXqKSmEBwsYrj2DEslOXAUZMKbjYfVCuk5zZcgASy+BkYSRK3eqMcsPA0nLPs2f/NAPlyuVc4zcEGETwZBCJ9NyW8xjByluxZOhje5IQner+5tN9BI0PTjxP97SjrwJ2XPn1WHlt6k9sjXqhn9gDAOhr25oST/pP7T3cVzSfz1WauO93uphbl0kaffsGh7c/xa+lAnGYPAHUPWs9GWh/+bR+f+uYDkvdq3NstlCwSrZxJ/b7/X6/N5tNMQqDJnK+IKnbAVGJNMNI4OJj6PgYkZIknc8dO99z5WsijYgopZZIcsJCpBzJHpHq9WnXoLg0hPh94dwVrnzM0uE6jd/6pljuEL0ub4sgvx2XvYUuz/FjwSN6OK75VcdGd3plW+OaOHT8oFj3cqojv0pHTonYGrPOZBUQgV6aurjGyphEJxZY+d6KauVBFu/WFpEkpVpyPiGtibRSmpRVvqusLycszEZpIgHDQgKJ95QzAKhQfwq8eQenMQCgSJg49G3ALsg0SzQBYHBUkSx90U12SQmK9YItWgsQYds09XdLmtkKSGmrEhBSXVkzLxYm+N0tAIgNwjlQCzcTIldWLIM1UM9zkJkBrGEBAgYANhYkKE26b41r7ZrgsLeCguJs+sqAAAIqIjeIAWLSy4HQejudIeLPuGAwt4Eiq0ykVTMUgyKQqfy9xMR9tyrgTre+McPEwDdoVNZ6Wz++GAWyFkL4ZjHoF8E2vfHqwsIm09TOI07VifcWQvgQBAC7QvJaMQmnldmqkHt7JTCsLgk2iA3//9l7l15LkuRM7DNzj/O89+arqqs5o2lpmhxSQEMDcEkQWmnBreZncK9ZaQCu+QcIChCggVYCCEGYLQloIy16OMOhAGJAsjl8NF/d1dVVmXlf5xFuZlqYu4fHedw8Nx9VmVnXkDh5bhyPCA+PCHfzzz/7LMcP+B9cc4chS8drZteZiRoBbCpQMpPmZmnEt1ySYm+ubHtWo2FEhAZU/sg6PpGLAvn36s1jeMGopT21XrX/6XKWfGja7SGwx07dOvSnW+vZqxrzLjRORLWZGtY7eWbxvV6DHYPnkt2Wmd1NDyGomqowu2gQgYiJuRQLR1Ii7/nxD/ZgD/Zgr2/F73nFMmALvPJ4e40/u6NHGmWLa4TL6udsNsklAWwlKgKDrHh3B9wsLeGCxg2I7k69/zSJXU0UlQuQsoHVufJZV17LWVomCzd88QaWqoRv8Giyx3eLXeWqUsZiFKxQbdyWXIGWpG7GdEiE32t5cGTLlHPNrrxlf5nUteQNKTlIn/EkcaJnM1HZr7YaGRRGlmXmzLSGt3r1RxMt0cFBre3FhHSCb1Vl5l9ZsCHHvpIo+2AfsFl+KdhG74KZ2Xhi0HJDhsj6D92ORW2+RSZM21D+vXW41TSUsaH6x+7NY6w7WfHp+qXu4lsCh+rrNxypkEHrQ95842SX+ujRzK93XOA+Zo8Sycrj7J7FU/f5w4Ga7BszAcEzbLsrn41H/7W0MGC8xJxnQw+92IMdtv3H7+Fh+bjtbp8m46w89LRuLr2Fgn0cxUeqyz7eeKAa40Uq79prRvHCgYEdkYxzEgsXJRzfaxf6bdTMSvqn4RorJOuUfKBquRiGbLKOXCIg69JQg6tTA2lVpqVj2ADMSAGCKQGcHd1y7WUdVYWIikwN1LnmzMlYGGqcdZ+NQrlMtl0m+h2WC1Czlq6FVCMyEOUBS2LbhL53Xg3l/KhwDXkde/BDCJzjoA6x5aoqAMqSkaPy5XN0hKauu1u07GXWuCVl/1dc+YdmowbZc5we7L7mXAkzYyIZbwepKR1ZWPyW2SBrRZCKy6uZmsHEFGyBov/CY/C4iQgCHJU3bVUmK9kGew79jjdfP92nPVbbY/KUr2ctOX7HlW+rei8M4I61C/fmYUJEpIMDDyZiOjG27MEe7MEe7HSruczrEl9dfmRG3/e1mPes1gSPua+ZQ3uYCohDLBl19jJU3ess7Aig6Op6x04gw3I+KMxc31zWUwSO+wB/0zWXq3A0vZzISYxD+cJIJCZtQlT35erbljn4fb+MO7NmWUXn2AhkRs45UhiYhExVPMGhN75itA6wK7NDYIOMHO1S+Z3lWfNpehGSd4q8V1EMmy2SIKmHvRpBCEFhzCBqaZnH8tyfHtW667YeWhjn4y32cdjd+vGDoOfXWKWPyNTZSDsUX4VUVzC+vL7CK2Mu3qUdVaJofccRdZkPbT5+/KZ8dlvNGWaUGSIGagDi7MZr8edhagpFnFDf92BezmfbtBEIR+5mnQKXN9chMAjJ+kmYaBKlvQe7hsyPAeydlbIdXk2rk7OP0Jfvw8Jra8zkwPxeg1DXxc1mC2A6nYqkrOze3AhP+9qGw4bA1dFXBRE7Xb5g8wMw71tS6j3f4fX1zXK5MLPNZhNj7LouBOrF07+WKZMZNM+dDt/FXWt6/9EquevVDNWgE/K57jPgx8r0b9/eRD/+vnb3lRyCB+933vvW803Kn7LrMWCvejk79q47vtM0Xr++ILb99t/Pq/Amuv73vb9txzW+13SwzOlnGfzagYdK4Pz3ZrOq70a9RWaYc1TVtSZTpRjJsAhdR6GLMZluVBLE1BhYTGaTEJWgni2v7wMIBIaq2cRIzIShhJQ2jhNFxcSmlDSlpKrnYRoChxA58NXNTTJNvQL9kPvB8OT8QvvUW6+inYVpmCAqJpPNat1xiBQnk6kRi6QkIn2iQhkxQuyK9rxBaYhwDc17MJkMcF4rjtnA1qY5iJbCgM0zTIlYkFnmIWNAnFTV2EDCrARFWktKSa0kTWVj93cd6hbR0RRCzSdFo3suDRC5D/eaQdRXMUjMkiAJNj2cElN0J42QYF3n3o4RkRqYSPOMwlCYM3n6JeK3AKQ+mpuVqFnAtH1LMkffh0bULFDNRanVGZGVTR7AmtdJjlkz6DPKu3n6W7ZfMo+IBb7cs1ePfTy6AwPpqJ3DjKZdJTxgOF3DNztkzXY6vHl3Xld/PtIwdmTQvbeK3b2S0++c66QTWEOUR4ngtop6GkczIdhsubCX5kwGNefKH5+yfwvNsx9Vyy0KrFYrAN1smpLcrlar29vV6na1uhVJLbjeUmvuu5ZkbXTp14VP7xA6qyp818W+H4nbnG4pyWKxvL6+DiGen5+lJCnJ2dk5M11eXqrao7OzzWr91q7hwR7swR5sz/i4XCJRKBpag9vKQKSghIiQCm3dP4PBtGiNAwHEBqgG8uw/uxQJMgTKSu6Bs+BzYATNhR3CD5o3xnbK1ywIaJ+gFsDMWVret3ccHHxJSYgUZmwg5tqf73hpb1E8ngv/pzUtFHFVCEFJhbg3TdCUtBdxP1iVACUFJHt+6oLHAzavpGaiOUWUITvKnroVrlSjJQFT+edKNWokZtuEJHkjZ8/X+fFMlGBE9MrW4DqXKKHPdMQVox33zmz3Ufh2WyWM4fgCyIPdy3QI8R2etI+HK39MRfG+YaD7VvKbWtd1prbttzObVV9/u+1VhWiiOgQUe2VktExYpACID9JsMrwdPGyU9zktd88N9iffZubA/CnXWFckUMMAOHQdqjdPlAmiRCAaFgGaOUwJ+SeSIj5ARLe3t+fnZ+fnZ59//nlKcn5+RsQ319ddCAcJNu2FtxH6+aJo2P5gD7Zvb2s148G+HjsdX68QyYlHyFyX0ocEQMygMCY2BKZQkfvi2bEhhqBKnYKUVDXULogZqpHZRBXgLE++S6TMx3F+uRkDojYLnZo5Lu6zC/dv2BAoi4FNOQyUnpp12iB9T8QuHoAsd0MgTGNnZiKiRZghMhOHigFJ05kHAwceaU3mpCVsMog0HG/VgSbkUw6BMViaozGRMLYiWxNR1UACS2RJoVrcdYOZsrKaucfOBlVxhL4cTE0tq8KXLZAS1YoiOtm68u7liyKJJq38+Fr7MJkMtyZfXTm0VhC+oMsZFs0obhWisZYr75MQHygr1l5HZ498He0xnMJ2AOmWK/8R9V31AtVAo4WUj5tn9K5s5HFZ9QYHzPdbypV3mdtqLRvGKR+oOrKWk0qkPk2nUzNd326fPnkSYgwhhhDNdAxsj9aL7zVNaj3pXJOvcZZFxLtsn+LN2268PDvPHaMeP4d4EXGMfHV19Z3vfEckxdjd3Nzc3Nx0XTedTl0rbTabSeGnwi9ZzdTEjq2DPdiDPdiDvaY5HMjF8yNgGrtGpKU6YaDAIDBCBHpREIxgBLGivuLa5ASBBXIqiLVnqeagRHBgPkdMHQlwVIsj6bBSI0Lfb0MEcwghig59ZohBkpiZJCGiEEEUQowVcu6APvWZOQ8En9RQOzwNavSvPQE2H0xVqOtUSUy3KgpWCwIVs15SSkkV5LCamgCkJkouMmmiUJeWdBa+ZE1JqbRfhUoOb0VJAlWZ8e73J0WfIJb58WMAyzORjwZTHQbZXV5Gdq2HdRYflNrRWBv/u0bKDnfWqms+nLCC0x8DbvoG1kYg3NUU375myuSY8YUPQT7NypVTtX2LaDITwGKORPl4/Sc+oH5NRHUGTMGlaZlIM9RipjGGly9fdg5FGwN4+vTR1c0NgOXFWZh0Ly8vBUqRp9Np18W+72MMDkgzs8iAW++EyVIJga2mNXChi0R0c3tTIX81bet/nKY1kkobX37zg+YGoSJMS0S+mOBLAa5DnJJUXo1fSIuUD/T2wwRW9gnMZDKJMfhUR9XOLy661brvtylJCHx2dnb98nJ2tuimky9evNg5TvXmde+Lt+CbPK4HgLSW83hPJqLb0enHG+jK359TfphvfXz74eN/+7rQBxvsTSbS5Yk6jJ0fPePJaMUxbL7d3h5TGx4FEUWDFQyVDBMKBWs2kNYoncubmxhDx7HrJl1gFem1X/ebSYyRQyRezCbMQVV6kdW2j8wBRLAuMNgC4B1KL+InIqbZJHPWq0DNJPoWNVMycJPKo5Z0m02nfhxNadzCjqcYBwSAgUAWyLbbTd13ms/CgJTJAcOzyQJM7gszhnVORg3k3UflB2i+vSmRCAbdqilYOSTtt9YnSUqcYAYRU1eOIQfGXKbdDGbOMtI6gKmZe+0oPZEakMkzsPafZolJA5wf3ws2/bAj7gK51VetG/5VSsM0iUoQszNsCahYXyU4jZpClSr0bLbvyvvqSt5rh0l/JCbw67F91js1349Z+9uopDWqRi2Hvnm27VCZvRMM2OopK/Ajf2D/kN+sczvqlw4XGd7q+r8/2PlBMpAZJYMQRaZgRkRBtSfuasdVuPLfVmtzsLXt7J3m7eqWTV30vBdNpgbIlS0XS1FxjPnLL7/q++QO8WQyUVUiVhVXlyeiMY9OzXbfE/9zNpuZWRe7STcJHPKSKgeRd7sg1WaKDSEys0dilY2K7P0PrryI04cIzUxptVo7n4eZXB2COWw2GwfjU9+b6dXV1XQ6ZeYvv/xS+l5UOk2r1apMDQ5L5uvemPJgD/ZgD9ZaaJTEUspIhFJWRKHCZiEgOIGld96gQxrF7RgoLgiKQCyMnAqQhu1ceeFlMnBHt0RqlVRDe51/NjW2w7HPVHzCthtkg6RkZoEDEbOBA6sZ9Wky0HNA6l67Qzg+jijg0i/s6viO1Pj34xdxyIxrvLAx91uxaApOjCSkBCFkFR1jIgpgpaxGScVT4ebTt+eYWSIDOVzEJQowa2EWdD4fR43EVIpkgvgCMuE0VOIAIFV07seL5AaXDxr9pF4eHp5op6Hu9nGOYmQntfhJukDfcjzJhi5LUB4YG0RB2iezgqoRjqPeQ3npHdqoDkce9x3HdkBwTzj+6QoYWtZVM4qgAg1d1ykh9b2a/cqv/MrZ2dn3vve9y8vL2WzmkHwDwHPXjWjfubZm+725/+kZ7/rUb0u6uK/TmImZNpvNdttvt9s6f1DVlNKeK68iyctUVz762i5nKs5k0m02m+9///tPP/nOP//n/43LvTHzZDJRtcAMDoEDh0CBKTAHRgjM/Dphtq9rb07m+WbpQOPV/FeXP+X9+jrtlNb7NgMN79reh7Zte8hRRpQjuHvth5p9DUAIXS2fpG+OUBbaDF3ogoKNAWxSj/JGdF0mtwgNMpRsiCFuuWdjVlOXAyNiKBsBqqS2mw52wLaHTQbyCUCT86W5Nh9kEI5Adi6/0kZqEhNIZZucoR44i5WZqahNJ9PiiSpglaa8M8A3TbN3xhO6krJqDOMc8JpMzSCFciOcdfGVQqbWkwt5Kpt38qk0v3Flp5hxCSdwYn0JD3CGTs0VmnflgsFl/UoDij6PEkCjXOBvZO+De7Rn78P7+2BfkxVImOiAY0nMsa5XvpfP6ivsDR2p3EkU8MaPFjjUw87nC7YMJSj47GyphOvrm8mk+/Vf/3XmMJ1Of/aTzxeL+XQ63W63LZlhPp8fOGNRZWo3ehRs13Vm9uzps2dPn8lr6ca8nrWV+eSTT1ar29vbeVdUzFQlJSGi6rKrmurgytdRViT5FyJar9ddN7++vvq1X/u1s4vHIunHP/7xYrH45JNPNptNjHx+fnb98nI6ncbpZLk8CzFoCMQE5ofu6cEe7NtmNvjkAGBq0TsW75PNM34AY0pA21XEhkrYN+yG1q0OITCXqNPNILzIXencDME0KBErEyKzWuhgRBCknIe1wPMur85jL1kJDiu5g865zlp/1XYSQt6FDmr0zUHyllywWQRgUzL0KTFznIQYAhEnSyKqKYXJLO9NIfX9QDYJr+5Yc2f+qmL7kndJNamwkRF5bpacg6kI/pAaM5Ia1BRGqjnU1UAetOouu2rOOGsG83BYBamYkWa6i6lB1Rs2aJatNECO00/bMa5mBHM0cz//1/7OZU8jG6aSh0HoduHFlGruAoPYyUrLD/ZR2mvd/WOaP6qy481nHgXTUSVtuufC2ykqiqOLarns7XHaRKptcR6QkFH5E85LY5zGCEbkKAIZcRFUCTFeXl5++eWXSGtygg0xQnzx4jkAUX351VcALi4ubm5vTenzz3/mmLTbIXb+cEWtpu/t6hbj5ZLzs/O/+uu/MrPlYnl2dvbi+YtxHOpwLSfw5ndL+O5E5G53jKHrIhGt1msR3Ww2n3/+09vb1e3tbQhBVZ1sI6Kuz4lMEBqGopQG0Z6+7zebzWIxd1x/u90+ffrkT//0T88fPb66umLm58+fr9fr6XTqxJv5dPrV8+dg+sfPf8YxzuZz74upyd9BJVZsl2PTtupRvdgmFrkpMqJReTPdd2H5a59svFEN39n4sc9XPqk+dPh9P7rvvev17bJT+r22I2hDJ0qgevPrm9fnyJNQs6uioua+PYRkaqZIaTpddCFsTber9RQM0ZUlFV3M5uBgk8Ah6Hpr4kiC+jGzA7oeFjNnjVZ0hdiNsHXddNKgOD9bVPLJ1hF6swgsYwRAKmqyTr1S1roJYeposZpFp+skoyTz+cw928TZTVdWNkR2dFnNrNdt2zhtvCkAwNjT5qloL6KyXC5z+aJm49h8yKgzAEymcwAwRTJiDWDqIrqpe5x5aTR2yNKPWYhsaI2sozIMJALEEFFnFK794OUJasa+yO+pV5hgpNmtZ1MjpqSySpJMjaACYSXDRFiTishGt0SR1IAeRe+ZoapKlsU0rTJokqr1ZRoA8twueRBSqMpmi14kJSR1whCB/MsQ70T5cW8JM5Rh/j3icsral4OL3hYoDG+VlBnMO5BcWVUgHZpXywK7tEc7zJKndgsNX4boBZQ8CVZGQGqmu/VXHH8H77ZjsSh1Y73enUy5+X+M23TMj98vDwDHJjft1OuUqjeHad1VbQCC/PVrGbvHgDnVrUOerB2Bk7Y8Z35YvsmKQGQ0KDzV20TE7eww6qE79z7bW2aOEwAI5+QhbDBRQP/dv/u/NjeX845aVz6GAEBVnS5SXfkYA3NoRaY8WrR1f4coWAwvYWvL5XK73VIO6//6rOu6+Wymor/927+tqrPZbLPZ3Nzc+kUxs5nVKNh6IWXSMgyZZjabzW5urufzuW9Pqd9sNhePn15dXVeKzu3tKgSez+fSJzAtzpZfPn+5uPhECWS6oyzk9sCVf7AH+9DtlJif4eU2jRyIIBYSw0QJMCEFZpMpRFIQFU2S8KouIex4C6RZwgbq2X8AcGZeAwCbKZUJknGsFJdx9aMxU0AXnHK+c3w/ZihThYwdDUiMy38ZbJhXBWazUXVbh2n0HV7P4Q+yve17VoCk5hBemHfmFQfMQRZVUwLMfG0h4+7gZCowMduk1LvupKf4VJBVpUghM0DMteHVzIzUzBQiZuLKNijZmtSSiUph0aio7wUg605WLL+43raDYBCqukOZAgxN44FZKHz3u8zHu3FW2sr1r+ca/aTeTrYzGXjFiU6zB4W3b4n5ct+xh8bUiFhZtVCSI9wtY3of4K8RejT+qT7BdGjjqXZCeUlbAJPZdD59Mu+YoKxMRBRiiBGAihKTqV1cXKxWt6oUY3SXF81Ma7FY1GO2OL278kxMRK4i79s91JWYbm9u/+zP/+yeF3ZvO9h3q5qzhgDM54sQgid5reXNimoYH3bl5/P5YjEHcHNzC8y+//1fnMzml5eXzEzENzfXFxcXzHx5edn3iZkWZ0t0k9uN4UNAu987a1cbjl3Lke3HXvevs0k++Pb/wO1ra//CZyiatjR0KWQIIGdCsymDGApojETgwArjlHoCmyghoGNAAQUVZ7I8ywfXj9UGf7ng5rsPOTdrz8oITffIcJVezdSOfD0SiLouZ2URqAvBmFkwMGX9k5wgqqDdtSmaKg/ph0KMRsRgISv5WltvfQfP0OYa9MBb267lojlYW4QJhIDBlZcj7qY0WWCNyYw9V7oCQkgCAW0kbTSZOZ4IsiyiPzqjDWR3V3tkwFxRZ4TDmt/foY2oyLzZ+J+XdWCptDaFvFZD/M3QhumVa4n7ePxr2YNb/y0y40q4IE9cwKMHLbbAwIHd348F7q/zkVWz8/Pz3/gf/vsf/Lf/Av06Z/trUHlRPT8/B3BxcXF7c2NGIUQPe81QNdcUT+RYyPn5WT1+aNibLWbw+c8+//TTT8/Pz3//93//a3Dl3cys7/vVer3ZbP7Nv/mfnz37xIV3zs6WX331vE5RnGmDsSuPowSbrYhOJpOU+mfPPrlZb66vrrwtREREQgjMPJ1O+74H899//vn/8r/+70YgIMbQ31HdB3uwB/sAjYi0CTPlbuAQM0CKhJxLNWheHY3MFhAsmCJpTwRTAmGz2SA5v0ZjfEVeFGrohlz9SGq++08+qWBCwa25YTkTEYj71NdRiEWJQxcix7BarQwGD0stfioboIMj6zz+nK7Ei4ydZjYwB5ivFLzS9Mj3u1K6HpzlAAjdAMeIHIzRYtezZyIFw6CkIE7EAjgkr9CNL5HABICCzJcmmsFuR6nGKQSmRQFmVDGnse9WxOD5XNkAIwUZZW/mtX32zLdpCAy1Dm3NB5n5SrVHMz3K991ZN2rN8vW3x6gRe8UO16a5Qd+uRrm/kQ2fuANZI20WChWFK8+wrGClhvBxoWV0SFe+/mWFc5YzjTJdX10BmMTOzJaLxfr21sCT+YKIPMDITGMIfZ/+6D/+0SefPPvFX/wXt7erlGQ6naoKEULI2uopPduh/AAAIABJREFUidPkvvjiC9dkDCF2IRx8yeezuaNWX3zxxaSbxC5ut9vFcnF1c33wuk7gzWcq7G6DEMXYiay15M3ut1szWyyW3/3uZz//+c+7rru6unZwHcV97/tUdy+Mz8y5r9tDYObAHIg4xhBj+JM/+ROO3fe///3NZuP0oZRSSsn9+M1mM53Pv/jiC1HdrteTJDsa/MftxGIHjE5ARO4OD9nPPnvSuU7YPi4zsCSPlR4t7B7ViT+y97E6vMEI9M6n3HfiDtk+yAD+w3ZKP/z+dNWtnsz+0xi6CbDLUyGg49hrHwwWYnAJtsz2ZpARiIjO5stkciMp9dvJZMHMkzA4oFQy8anr4w7bma2mNSUGQg79ZAYmXWeiKaWUxF3tEYlFBwfR/czNzYoDewcemMnQrzdK6CXFGAGKzJLdfWKDNaKQRYYFGHydUfswwVPmuQixX05oOkOfBkymA5e91FZR8k+158oCL6M4q1ass698fekTUW7oIbUt8rvmg2cXp749AAkEQiIk0qToTTcqa+l7K/mrxMwM4s2uZDBRzwNVFWmgmWxjUFMl59uUK8rFWudalZQtKUQhaoaAwtbJFPnSjnW1h4fPllqTtiOBOL9JKgKi1llvGDWKoqiD4ZEo97AeuITtYo8anndpWVj199YfabbUjvTrBDHbah8U2Rto8e2PVSHRL9+Gfdr9d2jiB8q0VuZXtcw9GOBNQX9TRrFA+ye8Zwvf94YcDHa25knb/YldGaUEX6jRMEc0MRJ/achsHEh9ANVwfBTfyvkTEcWu++r6cnk2l23/1fXVfDFj5edffTWbzYiYAwNIIn/8x3/8H/7wD3/5V37lu9/9p6vVSlVEklPMY+xiDNPpdCdCVHXddZ02rnz7gL54+TJJWswX0+n0dnW72WwuLi5+/Dc/jtPuUE3fgjFnUeFany+++II5/PznP7+4uKgbVSsG0SyCqicyH7b0/XY+X1xfX89ms9VqdX19TUS/93u/d327+s3f/M3Hjx+b2Xq9ns/nZnZzc7NcLl++fPk4BJe1ebRYTM/OvkyCVyFtD/ZgD/bRGBcRZRQpZdojZqiKwYgohHt3Dn6ojLWXjQG83fau4BiOwAc71TibzZlDjIGZt9seZhXyV9NoXCXSR+wYP90otciRiu5zZFpa5psFs5EN6hKm1nEU1ATeg/v7SjOCofXjsRbZSL9V6d3nVTJRUnJ4yUBMZDt6NXDwycjTP3la9SJKA6h6qlfNcaj+mfXjPZmrQdU0JdtNQz5SOzilWQ6ykUfMeB0cWFenyQI7haFfLmcIrjXynGMnOFB2wI//QG1YlTr404Pd0wiDdu3YSjo1IJTIHADRfftR3rN3VLNvNKvZ3babaa986fvU9T0Z9326uJgA8MzYT588ub25+clPf/rP/tk/m0wmIkkkdN1kNlN35Z1iXuUaQ6jxN9oA2aM2efzoEQfuJt3jR49PqfMxZRuRk96bunvroDOHvu9FtPXvK8+1/ZOI2rwojtzXAN+zs+VmE83s7//+72eLJRGFGOfdJIRwc3OTUjo7O7MDpup5Zw+NK6No/ffY3gSJf5/tY72u983oiKLXh24lXojQeEc+7ARQANVRiIteeB3G+j6BKUyYme7QPSDm9mkkItYhQxNal8K03/TEFAlUIvIz2u2+YIvQGwDEEJnZPxMyAJ0RcMp/ZIJQyzun8XkPctaL6Eq7pdbEvxfdsz06TQYuzUF3VQ1H3sehDkTGg8MrRuPLbXLFlyO1WbeTu/KK3nQtsk7Si/UuB1cCPZ0TTwATXMFzFAVXmBhWvtOR9FjVj4fHAxtIoWpIoqLW9wAsRmb2mQpzqK8Pk0fV7oJQu2cYSDJHyjQFzCq3xptDxwWzLz+ksz1h1deo0WAb1E4aVvTY6pI43h7YegyPP4qgvxXu0Bjpf5OYgffB3prUqJlnIjMdt4kaCbmLxUTOJDEmM1NTNsQ34Sp8fEbEqe+Xy7Ob6xt6+nS5XKxWN2S8WC6+/PKr2XxGRIH50aNHk8nkbHk2Xyxub29ub1eqKiI5/Rtxi3ZXRsq+ta9KN+lWq9XLly9fvHyxXC7ns/nV1dXTZ08vr6/e2cXmWlVw/dmzpz/5yU+fPHm82WzrguyJtL+u625ubpfLRUqy2WxCiJvN5vHjx1c3t65S/9VXX8bYzWYzEXVVyouLi8mk++KLLyaT7vr6ent13X365IEr/2AP9vHZiJt+qDshg9Ku28eGYNhKCojRiDla8Z/qQdjyLjr2CKv7HjSPiS06vu23MYQQA5+G40pKFgKcA2OZ1eMVZrA7o203efB6s4s81g891rf6aNLFiV/LaTDvq00JgYMf3wieyEP2atHkXmRADOwJXLewHpqgveo6Sa+ixApTuJ5M3o3KPM2KhJvTBLwgqXn2VHPXuMnzTcSAggla6QHGYpTU1BggUFKFKtRgxpOTbt/r0e5GEiI7RxhncW/nMKeb57H6wKyZX73FY5K3Nr39Y78n9kb3uYl5PWQKR+XVyHI8LAGZoAgQFWLjQSj0KBp3ROd490UYfshgSDlunpK25Wk0i311HU7RWh7VTU3LUp2avXjxfDKZiAibMnMXp6KYLZZm1gUm4pvrazPbbDYxBI95FaEQAhDMLKUEF7DkQESqquqQvKlqjGF/mZiINn2fVJcX50boJYVJDF23Xq/HK4ZHtFr9t4ZhVucS+7v7TMNBMherMbNPPnkG4OrqSlWZJ6rrHXyrcGzyEZChIKonJaLFYu4pEQHMZrPb25uu67quizEGZucdbbdbVQ0h9H2fkoQQl8vlerX+9MmTNOnMRqtDRK5FsHu/RprxdmR7Wx4N7tUerhEwa693rMO9h4sc+X6gPkeew7tXgXWvOxtdy9E8DEee+VeiTbt1e/W74+3jj5A1ex3bcxRd8MqjAydx4vescCsJaIX/XnWqV6rR7Z7llCM3ZY5ccHsf790+7ZnuqSuvja/R9iE77/vBMq3d/Zy03EKQg0bMBn9Gkkkts96u4Dg9YZW25srvIVzfXEfiSddRN72YLnpJkqRf9zydGGWBlAnHCvqu0jag6LD5wFW4Olwws2m3rL9K33kdUp9CDAA0Y/NDF1fqDwApaTBiCsY8mU/61GtSqMxiVNXAOeDKXRI2xM655gHNKgQBGrn6zW3bBgxpGkOjzNOnTS0TOZiZQP26KsuDyqirau34m0PoiFAWM8r3QSKzNj6Q37ucAYoAQIzMVIiNWIENZE26gSaomCRTMVMyEQHIdydP56Rq8MS6ChNSyblhzbLujPpUgiAwT0rrQwwEcD8+kgGqlgS9WUqZ3wJADUQIAaZUUG3PAAAATKZW1XicEkNq6uerUhNmVjhU2iLEOYZsrBs/UPwxlKxiRK6+KVo5JplHtPfucBON4PfiFPMLdHDNCTyoRzhYfo9fTjnw+i7/YR+P3yW4N2G+Aw299J/1Dh47GoZyxUp7kiGIPys53XJe5KEsBbtf29NXg/NE2sNp9n2Je6Lpp5RuTzLQGZopPTV9wh0nyFyFOg1uT7G3d/EpG6/fkQbUWPt3MGs8Onh+0zNUYhs0sESS9AClpMTmSIaoBkahkpREF3sUFACqIFJvVVWr/bSIEkkr4/hN2UGOzR2FTykGIATeF0LYf/FcPn/H2T3xFPe1Y+GD7z9d58Ee7OMwthGODqD4Iz7iULPJ/W+KFKCGXhIrARFkFLZ97/qSaug6ghMZgLDHevZQV2KQFrHF3DEpgNCkl8q1oprLddfMLHQdHL2W5AOp65RlqNgO7LlD7HEUX9QOQ2MtNZ9Go35bjTcM6m5PfXdIPQCBmUGMjFmBZLY1bINuVPvk2b5NiXtJqnmkcwfdzDhnmFIzUVFTgSPvajAtGjVqPhC4s5KdquRKNQDBQEmtT5qUenVX3kxzZHAMQFAYbHeho7W8YFK+tyj7/uoQjWk/uGOMGLukLR5/kmrIoQwqp9g3P2bZgQWxNzQ2RMsRHQmoPv2300ZdJYDDCV+1+Qdkrry9rbW7u6xFs8q6mWMD78EdG6MjnjFEHXePnSABOFtOVFVVjoVJofFE75gymllKEiOOefOVn+NhqceOs3+KuzVtjh2qpn9qD9t+tj+ZjarEHIiGmH0iYs577YCFNE6CWw5ucIn9Jr3rMT5Sfn7eg4flbns9JP79t7HTc3j7g725nYKyf4hGzYtBuePPGCrvvR2BKIpHH5qKGHMITEyRY9puqqebRAZKPTk4TfkPIBBn3cmCxSYVAC5j49DMAcmsQ+xqVzsAYGpJVaGeAyRDhmpVJwe+nA3EEJ0w4CiqaNZIYYOpKcHMuibEPzRLOdSuUjctE2y4urKInuucayjjdO4nDOvaZJSpHoN5llpYTzAiBXpIMgi0l+zHO8otKanLTg5HVJOyYsCFn1n+Dd9VzYyzc28QydupyNc4XTgJkqBPkob1JHfIqSS3qtXOmPdw9WUKZdDK4Rm/XoPnc/fq5Q4sXXb22nisc+blU35ucVrfOGYc7FLkWxS//ent9rr35cqPVjJfuyK5SUvW4Q+d6d22z5sdx2e1bGPfWA0uW2OWfSQmB1jdXqEr/22z+oaIinneVxVT5cAiwsxmENUkIiklkZREVUTUbecgjkIQsarWdKe405vfCdO57+r/PS+W67naSchbPKmZ1iyP+xMD4O0FizzYgz3Yu7HT/ZLXOOwkHFDoYsMkBk2iIkmEzUAUY0AI1g09Rt/3bCh5TMnMiKkGg/rSeddNar232y0bEhSFW7gvVZw2/f6VmtpkMkmSRJOJZzFFF2IIsU9Zc52K8CVzznJqPr8gMsuLugHYbDauEUdAjCxZfz27g+VahmtsSRghh0OOwmQ9SrUygsysLnG8Xt/qDAdXvjNCD0uWekUy3UDEpPjxVka9qj1jdy/duk6RS53sUU9KtPFmlX8TJQWLqScvSWLmgbQjXsqJwtk7a+Y+bdCiqGPU+JS+vt4ssxfijaEdGasfryNU/pVw8ofCj78j1ehOsbvtbSH3DwZgx123Zm0njn72h8ybnuBM4vvy0Y+hj/uo3iA/1dQMh8aMo+c6Woc7txdOLRVdebiofPkEQCrumidVgM0opdSntJhN1uv1Yj5XVRVVldVqvV6vVcVMY+ycIm+Zec8huGfMqYim+3ms6NtwjkAyALPZzHescai2K7Z1bN51FwfublPN6gd+dtfeqSmvX89ms7lfJpCDnjxzFoD5fKEqrjF/fj6vteVSnijuPELUPhV5Qacp0PQlR+s8UvsZvt/NiX8f7MOa6LyLfBSnPf9N+Y8ImvimhkAusKJjlvmdS4kng9t9vH8YtpcUTkqAbBMUSgqga4KFukYhPpXkFTB0k+jQFAGBQ+DQhQhmYqvMT2bOQ4bBtmkSYoyxCyFJ73MAFUUswt5mk8AorqfruLs5eUbdq2auve5O/EDu08h88MimRsg86S4QAHJhyizPZ0YjxZLZZJpj+0yhmtndlkNyCeCMyo8qQEwBZCY5Ty4wmUxEVVIS07oiz0U3JoQYmLf9dvdO+XQliTegD1LIsa3V2NR6kBErIaluVbZmvWFrJuoQN/kIOOxklHF0hZmJCwcZmampYNCVV3EHWs3M80kpVBtQ050Dcz+e1UhhYCEayjSLt77J8+lKmXMSU78pMQbm1HoanPjhOocednfYrOR4d2krLX643gGPZ/W75hlwHWGm+gn4XIuUsgJo6+dYsy5Uef91wLK9GKTTx+V2Bm57gvcjP6EF1Bpu93j7UR+jpdQ3KaLyN8WIj77rn+RBHx6giXJLzRQN1Pi2cIR9StV9aTzHih8dqZtr15Yuf8hPG3rbYwcjKPggne+IrrzlL99aa7jvDPDO82cNV77dnlLPHJjNHfoKxjuDSVVEOITQdVk4zPdqsXkbC72/I+74zrXU6FUUXOfN3xwq0UVjvL91u4cX9cEe7MHeK8v4btsPxKivO6zuZFfNG52/niQfU42Ruwg2SEpQI6IYojtnospmAeSetBKMAzyJlAFbCS5WwzkkdPCn60U5B5pGzhOAzWYzZJIq0PjOZfapz0vbHALVJIB96/rnsEJWp5dkQofBikoms3vpfq643W5DReLJBRyzP5OzzNaBX32FNhPKMwFmCNbK67fZlwr38PZ2bqYR1FnyYAX3Jr1ia7YVS6Z9DnUlVVHx4c/R9OLvqmTCTOn4G3aNOgk+80+sNJD78VolbgADibof74L0ZkrMRuXxq9MqwCe8Iyf1kBxzOxLlCnv1LUdID86Y1xDjUNdcrDqqjR/vGYutwM9vMHJ+iB7XK5WpTjdfDvrA4Kv72LH2qf72XVefw1mPIlXZlWei10OA9vc69jQeAz13FGmM3uGtLHns/GSokeD+Uw4DYqPcLb4O1K0qqsIcnD+TksQYGmqNqpJIchGbHWzerTjT3MLzp1sZM7wyw/Zjl7C/nYja8emOswBAEyPtOmLew7p6Ty0ZAhOxozB5t8qP59op58L74O7OnTpmx7rCdvPOE/vWe8+7j/eh51Heb66v84pOuVkfVgPv95/vyWL0gAePMF1g3GNwMzod6qza1OKKLIVeQrWqEwWnVYM545gMJOkDETHV9Tqz5E4aUYZT1VQJwgiKjpQNBGUjLdKQOqqDO4J5qXAymdRabtMBCVzKUwS/tMypJqYY2YXDveuO7F3ZgNqamqIozHjHaEVY0ReiC5zc5SVQAC5IX1cguUE3c6YkwhD2ygCpmbpSi4PRvrqbQCekFORdrDefq9xfd3sTJBmSaW9IpklNQGKUVFRhRiVFPMEAE6jArCgymjkIfecINrA43JvXPBkwMU2qfSpZVEusMGc/XktbBRqGzjb7+Lu27Mc7X8bMHXoYGCSF9vDmfeN+j/dh9W8P9tatulU7Htr7lVnzG5uVNrOh02eWdwQyqkpKqN68c0tC4PoTcsQVA5BmmdJZOz4fcAr+21paOtHeCiRfQ2n90l45K2imOocAlWbXt+s4fogoyIM92NdpLccDUmPUsksxwuT2983dqXLx2BiKAmT6smTjPo6CUEUS16xMgSVJUtMks26SsWnGZr0WhhKiYnLIhb3Dj2zRk/l0ijIV8RqYGjVjAYG2221w+k6IASSSekkm0i3nquo1l+3RrBglJEna6KBuMqHCZWQaautbMrXAJV/dox1W5zM/daCI1AKVvdPckOM98OimqZmBRVVAyaw39KZbmJj10J4gsF5FTWvXqWpZcMb9eC3/XNPT2MzDWHU/Tf0guak5kJWIrBdSmKiJFPH4/ONQz2P9dkv4IUIRSi4KQs2VepXGgpO1mHP6dxbi87JDU2fyBRLnC9XSJy+JfAS2A8mf4jq1u7Q5yPSg6/XxIvQnmg5POzswT0xmFvPaX+PKr1a391Zh987izeoHDNjAjke13+nclxN/TJoqZwPJ+fxYa9AAaaU+3t7cnp+f396unjy+WK/Xs9kCwHq1nnVRUlrdpuXZmXjQfuDZbKaqq9WtiJpZjB0ROd28jW3VvbRwquKC9D6iiGjfb2ezGZWQ5Ol0Op1Od3rk+Xz+4sWL2WyGsfLMsaXG1kTSYrFcr1e16ebzuYjOZrPtdjuZTLouzueL29tVjMxM+xo4p5ury9flBTNjZjP1hXJyeR5mIiZmX8dPKU2n090bOgryOAa5U/P1SJkdycv7PO/3fTv2J3j5VdxjPebK7N2v9637yiryb2mEOmWi2K76n94a7VtwSqL7QhfJMO3Jxwfu/1SMztscYd/9ve9rd/+aDOXbsVP6FGIMIXAITNR7Kk2zhj2SibAcMncOgCtqu3L8gSD+pFyQ6a6bOIrJhi4EMhCZEnqGcMabWyG1GDs/fZ96uNg8URcjVD2w1Qyz0GVXnhApOHOjTwkAEXceUVvurEtUF+otbzYbv+ls6AKj3Iv8fDKgWts2MMfZzK/XUvKUU5MYEaNse2JymlAosQEMyLaP3QQI2+1We/Eo281mM+uGKUcYu6e8892XKL3Nfaz0elpB+j2alodV3+l0WqUu+9RPp1MV7TWpFc31LP2+9wgQBKZGyUQMSSUpxGwLKNnGdAP0UDGBofHjCQaoYHC7FS5Ho5Vjw0gJSZzbVGgtriuvWZF93XutgsKUWE1EVYs85bAATERkmQrF/o6PZmu1PdWC5MdVVGzvBWdiG7uhuk3FTVcrcycQ4ApJObwvT00JrpSZn3/Xuwx66H1+DWtiGd+8030lJ363zOi7HtludRVqWD7aOf5I9rM8ZQoW9UBta2gRBiTkNCU5Qy/MSQXUSMS+C+jtrVF8jxEo2jiB9rx75XNFjqmUM4HD6nbFz0J+E7QnIyo+0jePyr9XyKi/o/V9nM1m6/UaxrP5bLPZqFnkkPo+hlhQFlMVIvbYLefKZ0ol5WjXGHOoqzv08/l8rGaTO4AnT55eXV1dXV0nSWdn5ymJSDo/P7++vqnVu7m5ZuYQOIRYnfITbT6fq8rFxcXNza1I8ktbLhdd1/V9Sqn3nKyWs0q90Tp/y/V3Sc19Bzd23c319Xe++1lKKUlaLpcvbm54+exdEwzeq+ftwR7sfTZXcPcObZBKrMAkgIYHfwBUy7OW0TZ3fYKiZN0A2+Fx8O5ZHxmk792ZTAB198jUURapQ6n2oNdez9m6KXvY0uivgzJcs9ksbbcA5rOZ6xoDmM/nI+R4bNrIybffj5RuerLyrUpz7gd3HTrEkEkGAIyTSVJLqkmR1HpXnwSUNEGFZARWW8Hj3XEXG7jyUujvRDCFKESzK1/XEAriHhQpaeGrkKs6muhAD82TK8JxkO7AtVn2ovYheQA+5VDKP5gNj3HrcA24Z118MDAK3d8JQq3Gph52xT4U1ZqTzMY+6RGjnWYs5vmbCRCU1M6FjOQhBx89Y/41zCgzODx+2swCqBGPYoAjACaqurn3tr0H9JirdBJHuckfOSrcFjm5agfqQM3haPSC6atSNqSUYoxmttlsJpOJiqioqKbkUr6lWyxceQAhoGrXMGdw6/r6ijI6TbPZLARfm+V/+Id/ePr0yaNHjwLzurG2DpPJxJ341Wod4zFZ+gZ1axprtcqu/3q97rphCvfy5YtHjx49evToxYuXi8WyzEPe9GWq05X2c1Rg7/C1/fdvRCu6dEefeAdX/vBPzcZj+963Fe52KA5c2gfVZ50eG/Mu7Oj9bYcNAOVNf8MwrK/B3hNm/L7RoZRw5S0ethMbGXgU8KS1ZAOFKntQpxGxAgrKt82H88xKaFxSFnXfrh6YOYAyLcfvb4w83GjSvXf1wONSO6Kh/1QjGxRUspK3GXETdrp76MaLZuKynsA2/BhidDXjEJlNRQhAjJRGrvyxt4eGH+9+hnOMW9vr7D5TNMb+gbrERnWTkSPxtjVNhgRRQzIkM4XH244rk7k0oCRQn++5Ej3IE73WfTRBBZpgAMWyMYvHs5ZIX0NUAKZJkiRLAhVwQGCUiGRjImKjwySNd2uGTAyzTBtrBFqQ0XsX8WRtBrI3TQT5QXPlae/tGZKmESthX6bSHpz4Pdvtety1IjKlwBHOSwO9vijBG1XufXseywO0M3oVgg2vV+tAFrsItfV6NZvN+5T61LuoIjPLOMFpZb+4N6+q7iE7oF55NY2IDZ4+fdL36erqKiVJqT87Wy6XZ1dXVy2efXNz+/jxY+YwmYSd1E6vtBDicrlYrdaLxVxE1+v1cnmWksTYpdT3feq6E+Kl7ml3PFd93y8Wy5ub267rutjd3Nwslsufp972piijp+W1npz37nl7sAd7L+3dKEqVXs7A5btPzt2fP0CyP14Ll1jxL4vZvIpRtuKSd1id3cXqZgVIv9nvIao+/eHj7B2wNTJYn2azGUj77VbN5vMFAFeH3C3cUgT9kwfqSFapb0pm35eaPZiBrJ9TJlF24FbaaGaEHIxsrgzZm/RAUk1matSbJbVkmsjEQPDZTkHlXVsmKUvW4mTXmTFVl49UgyozqxT2PBodBt9dzO9+Z+SUFVNLkkwVKlBFk0Jr4JwceTYKpl4GcrsLJsnMscqVdwmgxgfYbb1M/jEY8pNb3dPmmZSPSAnXL7ARmrzf3m324kFEtIXn32Mg4+1bWfxpbad3cSe0baK99hkUbJKpuO6SR4RbIdgcdLlGXUyzsJWhB+eY7s8a79Shb2CLA7arjHX87PVkB8v7nO/AcVy31byjJCYoEYA4mXBKkC0AVb29vhZJ11dXq/WaKHRxCoA5rldbhgLMHFMvy8XZfLZoj+96vW6zWRcCV/6odw1OqTfzTNgoxPrAbGabvk+bzcZTzJ6dn9/cXE+nUyvylDF2ZppSn1LfdZN9STW/zXewfm9ubjebzaNHj0Kwly9X02l/fn4eAm82G1U5Pz9br1fL5UJEU5JwaKGmWfMcta8vVauKmbliDzsZnuh8eXZxds7Acr7YbreO3HQhxBg5BgocQohdRyHr6xPTAGa0YB9l9OgOOzpzOBZTQa8u822296GrbZ9zOxJoPrqNbd6AO2/p17Me8k234d3nH36NXQAMpKnfOPk6EEKgsgY+nk+TNn15IaO3WC8AoIsdUJDjvdbO2lZw5sLoZ0+JGjzmlVlVPT2qEpiDj3YEiEjmQ5s6oaJVYhvJgpWngstVaxq8aiYCaeFeK4BJCADUde5J4dz9YiIJNorH6LpoZqG2Cem2XzMZgH6zFRGX1t5uNvP5vL1MYPwguv7YyOMhFLKN7XDHS/SXNIFN09i53ryZj0cM45xWtmSS6vstIFaW7AXWm20NYpoox7xuNCWFGCVTdVUes6yWboCCksJLQF0vktVEBaKmriBk5tybJEgN18qyK29qntqVDKymvaTUmyk8M24Ins8VdQJjuccurSFoPW9ryT9DE9UBsVJicj326DQAmtWEEiJiYENgZoYldQ9VNHnuBWIXGGIAFEL28KmMJuM4LqN6Lb6Fd8qgjHED/3Z/VLpnr3WMB3+cQ6+j7e06THuc8tdojakKT9fOBe6cAAAgAElEQVRQ4PzuZ9Y7AwE8zIOy1BQAGA19ADu8jOzFtfp1dyzd530Pb34n1r6nurf94Jyw1tp0d3QiX6nwp7TJSLB7RmOi4InTiFjgFA+OZqaHqMwftB0bwl+JzppZv92aWQhxOp0yh+12a0qL5YKyRIACcPd3s9mEEEXEc78SUSWuOOztnjpzCCG4GiMR1bCk+qvT37dbR+IXfb8VSbc3t/P54qc//fzZs2eqcnl5+eTJ0/l8sd1uLy4uttut3jMudblcpCTL5eLy8nI6nT5+/Hi1ur2+vu5LWpa+TzEGEVUVX8Fp5iFltCYrcWMZ+2mzWYUQnRw/mcy6rlO1lHqAX7540cV4dn7exfj8xQtVPT8/f/niRey673z3s5dfPb+8vHwynd5ut+fPHn+1Th/SIuKDPdhHZCdlXx4JF5/UC9GYnNASnrOE34HDjHqBygIXkUqx6DxbCtAZE1GlmRxbWzhOuLpfX3oQGG7ytigZZpOp8+Mdjtk6b77x42s939GSuBqFVzk2jR+vYro1EaMESsBGTUxVkVSdCl5rDWReDamRGmCkOS+USoIorGlpbVD5GiypBhFWwEBiwaBJNaWshOMe/HFa/F1B6gWVV8uD9aEi2ccanpOmhgWnr18Ag6e4DdlDtc5jDQlKGvz5JRgh8XGi5oc2qLmMz2E7pZMwxHKEHLpdWqAV4Kfx9GzHPEB2OO2H1oaD+ZpP8xYdfDNrZtydX7PSjNpOj0E5EDEQcRz6bsopkSnnsCA0MljfHnvy9Mnm+flsPotdt1qvRZQoSZLFbIbiyhPRfL6YzxdEdHa27LqYknRdbJGbGKN78MwhxpAFW4iqB+/HcbINM/f9drk8e/z48dOnz3xW8Nlnn52fn223vSvkOG/eh4S+37bnaq3V8Wjtyy+/Yubz83NmZubFYj6bzS4uLi4vr7zA+fn5s2dPf/KTn6rKd77zeLW63T949d1dUUF16A1vbq4//fRTVXv+/KvLy8tPPvnk8eNHInp2NvuFf/JPHj96dHV1Rczf/ewzUV2tVr/w2XdDFz/97LufffbZ+fn5ZDJ53m+vLi8xWeyf98Heih1VfPqwCPvvwD4yLOMbNxrjkTmDqePCOyUNrmHFxNr4XgoLILKs+meEACJgpdmVr8oznic1NGGvOe0Uj+oAnLQQs1Nz/2+nTIvHBy6xs3RUQz2GqFH9S/oatc/d2me7+ka+KG8EVVIyVdqIKpEwRG0LTVA1TZZXPFrv2XO1Vh1M/2JqmhJUB0nNzKkxq46yKXKshJlY0AzfalLp+9T30JrZq2T/pPrFJ32DjVDP9nPPbA+NHvz4cSLS0a3O1P98dVTEagIRzCYclOAt1ou9YWBrjtAA8M6mdu/Kjk2bmxkvN4tJ+bvzu4kGuZ6PaAh6u+PpMIFR3fHGC0GGmCji2+es322mtlqtfvazn12/fNGn/mx5YYqfXd94gnGPr5rNZo7K/+3f/u2PfvSdzWYjkrquqwQb99dj7Np44uzIEzsMT0TX1zfVlQ+B+z49fvz4hz/8oar+6Ed/8W//7f/mOz579sm//Jf/3Wq1UrWLi4v1ej2fzyuafqI9fvxYJF1fX5+dnd3e3vzDP/zjfD5fLhd/8Rc/8gJ/8Rc/+vGPJ9PpNCX5y7/8q/4Q97T2gA0jM3fxMXZ/+qd/amaPHj26ubl9/vyrq6trZnr58uWPfvQjZt5ut/PZ7Ob2VkVm02m/7SkGCvyjv/6b1PcvXr549OjR5WRygLX6YA/2YB+IuRJITt8TsgPdEmc9W9IrZ05h7NDU1EgmFT7NiV1z+YZOI7hfHBGagLxXOmTO8b078xGAzWZTBSgnk4krCHtsVS1TZgq7RNYqolaRfmrK+6pIcYkMYObiob5iqTYzMPMqCLGY9SRJtVfZQpVIiHvGRnUDFTiUqM7Fcb0MFXW/Fg5Rq8KU1DSJStGV8JS0yDUv67b+z6CAKkt2lJlo028tadb2UUMk2NEbUYOMd+3OOzJwvltPq3o+43ZjK/nO1IIR1EizuF0oF8SBfWJqxKq9x36Mq/B+oQNkh1vo2PbXPguQl+B2uPKvMbC/UozkA7DDPK7XOpJZBTscFm4PG4fH2qe/DDIq8Uh5nzetwT7d6whH+ei52u3tNPoYNfoIx4YbaQvbUbABiKCAmYnID3/4w83ttUfyEAXkdxiBQEQxhNh1s9niv/zFX/7kJ59/+fOfTyaTJGKqi+Xy8vJyMZ+LagyBQyCim+tr9+EzKs/s2y8vL72MZ1ddLhaXl5fzxeL8/PF/+MP/+J/+0/9nZtNp96/+1f/4q7/6qw7Mz+cz52U2cpaZTL8vOlEdbv9+eXl5fn7+9OmTzz//6e/8zu98/vlP5/PFfD4PIf7sZz/7rd/6rRi7GMP19c1k0nk+2t0bV8lwRMy0Wg0CO07gMbPpdPry+fMnj59sNpvrm+snzz793d/9XSbqJhOIbjYbEQkhRGIlrKVHN5kvHj15/OTLzRpTMJGOR/G78xjcHZtx4BLaMmOQ53D50x9/R1b2h+djZ3R7W4LtRyv16uO/QsedgG+e832XjV725oa9SsGGgCxvdwqOQne30vHa7fxtr9Wep/TDpYa7+SVauLgNHxxJ+5WrYyD1gys8mQyrf12MVSe+9wyp+TTkCSICKJhGI3iYf+MhVYQO7k0WB0L6FEKgQBi/CgbNIH5R0/LF4vOSpdVFJKvo9LZfDy1AXp6bdqDmEturVjIEEAO0n/KcBhUdvxYqxAoGmIMWLNWzZ7TRAl3XQRTQaQxQ69cbKhWq9SR2Cvugn50144u2D2ik4ePXEjIpabiuwFHNJCWARUAcmAkQU6WaVdvYb4sqlNjAAkuqCdqLJFVjbIm2pCuV3noEAIwSDOqsZhWFZBKKipooJXVRR7hGT51OVKdD2q5VoWpiLBYNJmpqq+0WUtLEAnE6TaZZPagJ/3XqAWPQxddRmG8G0fO5VEkHV4EAUjMzGRjwTSQuKcp9rKqU0Tx1l7EKNO9FqvkZZVpLMjUlCIuRE8TIqDzEjdppeZaGtYXshLDfYVUa4fHWdjUHuPK7Kwyl4GEfqZa349tH72lb/qjefBZvHVjsfvd87QLKrjY71K2Jdypn2Y0BbcpoGfHbsIF3ZHyEhXV4urhjpW66tyg0yJXmv/NnM73RtjDKE47Sa/mFZ3doHMte207NxPFUswicNIx9WHaMK1+376j2tuk5NptNjPHZ06fxk2cOOhPF6so7N9PMLi4uAFxeXnYx/tff+97V9bWKXFxchBi3221gVl81DqGqMVJh2HBRoDSzDMgzd13XxbjZbGLXmdl8Pl/M53/253/+R3/0hy9evLy9vbm4uDCz1Wq9Xq+fPn1ye3uXrjwRNwR38us6Pz+Psev7/s///Ec/+ck/Pnny9Jd+6Zf++q//+gc/+IGZdV18/vzFYjF/8uTpl19+OZ/PDjRg6QtaaXy32WyeUnJXfrtau2792fkZx8lms+m3W1Flw2K5UNHLy8uzxfLRk8fC+C9/8+O/+vvP77iWB3uwB3tbtjOZHKTTm7d5vphzGYr8U1XNTKQXNXc925DWUAcsQyQOA6FlOKaOMctX6qbvdC8VNd9zt9+mtaoax7jCZCPmQB1TGq78CJJ8i7bfqsP2Js9J4OjDzU5BM+3FxMjI/XhLhl6tF1WGUVDoJkkv2+w21xBRj07MaVyBJPA/RU3FCqnGefOWofpmFcb38n9Jswg9yERkm1AZRz6pHs9eDtp9PZaaiNTvUYPKl7vd4vQGVk/DXtTu66PYhtRjLJH8uvZ285d/HWZHl6RKcoDsxx98BfQ0dOzDBePpSPu8eYcwiu4gAlNdfWRDrBwJInZUgcrKkJ6cB/FjspcvXz6dz3/wgx/8V//0F6yi8sYh6y0YgNl87poAfUoq8uTpUw9yJaLU991kIiLz+bwi7hWGz8HGwanzxEQhRi9ARElkMpmkvu9Tujg/f/zkyR/8wR/85//8J+v1OoT4/PlXnjjWb2dFW5ruaAeSH92++Xx2fX19fX3zC7/w3UePHk2n0+9973v/+l//T6omkq6vb54+fTKbzX7+8y8nk85DYPcbp0Xld8baEKJIduW1F2JKKZ2dnc2X5//4j/94fXXVTSZPHz2+ur5S0fliHimEwLfS/9//z//7V//H/5mv5YN9gT8IO4pwfHST+fvaB8ZPfTOrsIXZ4DS1I03LC/TYzZx81IwpA3FOOAQRW2k9deV43WEaFEf/6OhsZpwlAUbbI4dyvKGGpzyp7d3kNrmG42StHtqRw3nvlnHT5ghEhmZFFOXqHObZH63zudpsTm/pSTt4nKF/Zpdhb5BOaEoiICUSWFLZGnqVXpIRFJxMe/fjxXJkgw3/3I+nqqdu2aWzEs2MMvPJhA0b6gQzEHmoK6mxGBlMVbZJJSEJAmfdSaKcSZ2I+VAs9P4lt9yY41z5AWyuFHkfGavCpsEDANigKcFzuRaFlZ24i4FlSlljiAhwjZrXsgMRGh+CtWqeKH786T4rEQ/RMx/FEJTxdffQ7MBP1e5xueVxGFD5gqhqK0Hm/52S5/xbYqqS+rRer2+ub8xUlZgCwL60F0AgTSJffPEFgE8//XQxn//d3/3d48ePJ5OJqjpFcrXdmqqHu/ph9wk2AEy1+vqz+Xx1e3txcXFzezufz1++fDmZTF6+fNl1McbQ91sAt7c3T548JaKd1FF3WHXob29Xi8UyJdlut8w5MXuM3Xq9VtWnT59cXV19+eVXjx8/3mw2IfDBU+yg8jtlCsFmslmtA4fYxX//w3//4ur6l3/5l589e3b98vL2+jqGKKrPv/xqEmMvcvHp0+l0mkzVU3q3zsWDPdiD3cds8LMOW8verWoJaJniAADpk5VBOjQSt13oKjmoOOhEAIPJYKeRhk4Z6anILJ5uNbTuGBzAb8lb4KPRrW/TXptnbWYquzIYahBVASkhwQRIRKKy1SQgI+qhvaS+T1AdEGzH110YXiwD82ImlnOpqrEYzJzBompAgeQrlyO508wQYRm05LfbLdyPh88SFR5AXKNdx1aDJQDInuj7PawG4Frj+luO4vVcpEnUHIy3nAeYXpH67yO0Uzn0Zf4WNPvxdOeSFBO5IPqOOk1dpvsY+PGNtc+tm1+42eHLPNZ05I9r5Yw1tAg/TsyQ/HEi5r62Q8ZIuPDLdn49cig6ofzR+WjLtWrm6nREP56JjurKl/98Jm2l4ygoOT169Disv1gsl2Z6u1oFjjFOY4jsL7Np4EgUfvjDP0x9/xu/8RsxhGdPn754+fL/Z+/Nem1ZkvOwLyKrag17n7PPdO/tvkM32W2xRVK2bEoQRMukLJOwbMAG/GBAL7L1JEDwHzFgWB4gwA8WNACWAUuyTJsQBUuGBWgWbUqkKFpDUySbPdz5TPvsNVZGhB8iMytrDfvsM3Wf070D3eeuXatWVVZWVWbkF198ISKTyWQ+n3/y6acnJyfRi0Y1jR/XzKDqMlsJeAjBCaapfqEIEV0sFvP53MyWq9VytTIzV3mfzWbn5+dN0y6Xi+PaNRVa4H1VQREhcIz97du3ttt+uVxNp7O7d++cn58/evSobRtVWyyWIrLZbFarlUg8eBYP4IqoiJipxxv8q77fnp7eMLPVajWfzTnwarn6hb/2C9/59kd/4k/8iXe/8IV1YFJTi4EDde1mte5F+vVms9nEGOez2X0//uv2Jl95lVujd6+PjRjex9QG6sBxzad8qTdijDxd3lcvpyevEuR51c/asz7MR3M8jogTXM6hdyao51wCYMNmk4h5ZGiK2rphUlWIi5ut5vvld6oJTFaY3ATSuN2k40CbEAbOiW8cqWUDmZCTZOD7Tfny5Oapjycq8WQ2FZXYR4kx5PFnOJTtHnnfp65jhYl5XNRySyptFWdmbkDShmbIyh3njxJGmoYMAqlqLI5OM+mGxlXnJRooOrbXJ37XglV4f8pvJQBhnxzjZz8yzScJoLYVURHVxO1OHE+FiiASCZERFCSwCERi5SAWBbqNso1RVFCSGEzhqvBqcBfcN0ZA1InREEFUgv+ppAJoEqYs4HeSrzEW47wG2G63cOlJolTPlbh24jmwaaELM4A+9mw5oblWAarfiyGN1WT8J5Dj18zpQ3GM0qIFLMZQGDrmtLglpJCDGsZ5I72KHnwlU6bhcDfzZta8nUa7X3WAqLnXO5zp/V2Hz2OJnmqfA/z4en8b/7YJw2ImyiCJQTbi1Qz1XAtwDLRt5x3oakYe0TcYY5SffnC43h0/ae/Di9lRTvwVItVaKjebjo5FBEAANrTG++8yI6V/15aTU/NnR032LpPHa4Dy2eu+eoLHU1v+2tlTOfE7NgT96CiC9Pjxo5P1momm09lydZiPzkQPHzzsY0/EHMLHn3xydnbm6pNN05yenjYhqJl78xzCsGAwczy+ePNI/rFeLBanJyccwnK5nEwm6iYiEolou+2BUkS2B1pffuy37djQcPv2nc8//7zvF5PJpOu65XKxWCy7rnv//fcePHj40UcfvvfeewDu338wmXTMfLCaLBGH0IQAkSiS2uhftW23XC7N1HUbXKuh73sRUVUmns/m2/VGJKoKc+i6jkS6ruvaFgAH3iftXNu1XdvVzYprMh4HfMpRMza0ns6uWgoGeVnTSXGdDedxVejFE18GKABI35NhnFar7tQNlGJ3vxy4eca3WVLdE2ra9rnnI3q24LUc47UfqUamZOiatuSllXLp47pOT5e4OWbP99viRTAHM83ZyHCMPpoK2Ag9qDfpQQqLZALbmvaifey3MZolPUYzhWRwXQ2ijoSbmglMxFy+JipEyRQGMzHVlNjquBXcYSGIEogVrAY12fbJjwcQGEQgxtMG/5eWe1Aatnd8zo5pKYCAcY6HPEUg6NLTvuEzWyz17CuBjdqP5+rz7m+r0pklb+J5fPE3rQ+TeuneU3OVqsCjKOLeheveE9WoSw0cd+VfhCn/4m9fqsv9Uo85Ong+tCvYGKHvY5/t2A9PTk9PT0/6Pp6entTbV6uVxNh23Wq5nM3nTn8PedAnZk0ptIe8eZEo0gCmai7YrmpmfR/btt1sNkRUlYXqmdks7Ax/l4yGH3/80Xx+cnIydyg9Z9vyer2+ceNGjP1qte66DgBzoD0xnHJ8ToofaY1eBOZDYJ8JmEPTNJvNZjafAZidzE/PbvYS79+/f3p6yk0TY4RKYDY1b4eqqqiqRntmFbnL7XVbn75eAYdr+z6zISdUUfR5SDeySQn3xKTOEgzEFKr3o65+2gZKFHBiEx20FHy2Hml0MEibMNLIyQ3wvZJrzUmfoWosk6kBClIiLzQbiYgDJ0VLNcLhgeg5u6cGvkat3dvTaTQEAKGOtpHSmI9KhSs8CEQOu/tvpebKj1SDnn92TTGHfLAkTM7QqL5y8/IxZqYKV++OBAPELJpFWFTdqPSi29j3fdaDcTKMkhU/vk7zBQSaRHvMDJpDFlpk5p09n5B9AwykCEAwmJpse4l9Kv5agkKjbAQqHfXKR+/S/1kzPj14VeJy7TDV9QqK5gwRCMQEI+LjEOGbbYNCi2K8DiIMvBoy5uzK1/3m03pajNGgjFf6qhR9e7ONCePa2MTgqDWlJP3X8AzLkr09S7RKCUowJqUsRvn9J2LzTKYVFW46nToL/PHjx+RZTknIZggwPXzwwNc/Dx48vHPn7AvvvPPo8ePlcnn3zp3Fcnl6erpaLlXEU13LUp401QY/6M1PJpPlYsEhnJ6cxBwoFVWR6KLsjgMVb17VQjCqarJebrdv31kuF0+ePLl58+Zyuey6zrH5i4tFjP3p6Y0Y+77fvvXWvdVqJXJ4RFJVJ/w4waYm4azX60Kwmdy40cf+ZnPTzBbL5Wq5nE6nvcp6vZ5Op03TmAhz4GAcQmA2M1HVH7AE62u7tldjtQSkE1MTvdhUZpMZZ7+zRpIXi1QSjoEb81MnXtazA5lN28bZNagUbMhQp8jXylpsg19L4+m/bEnMWvcbJYamYUPTtnGzLVOYjTNNn2p1iF+0aEQecBcGAR/b3TJcQv23d13gQeHHN9e6h4fi6UPbjvDXeLxp34+8xNQsSbmblQlBjMzMfWYDO1AfTXuRrWrP2JptNfax72NUHetbqGVI3hF3MzO2XG+y/GMpH9Z55+qSkC6Opwl4dXJ8AKAWN1uViKgpEdaveMy1y9L03tEptnMUkrdjazGQVTelFlvU4pWisImaiuftNUqdK+KnHoTvTNUMCiOEtnUuqMP2Lmz9goWividWc+KHz7Wyp1uMaQ+kPg/EZGg0L4GqyAYwcuh9bZkkj0k9j/hND1O45TzX0SNKWfxpZ/R4wUuu44eqyhXeamaNVSPdFW1fF/lyrPFyXfBj+x+1agV/LFvXjo37lZ6AF7a1vL7JlVhJJM67rus6kcgcAEXfwxhETdMAULMEd5i5D/rw0SMAzOwfPv/8cwCTycRddqpE3xUgkVh58+pKv0AUabuOiZar1WQyadr2/Px8s9ncunU7BG7b5vz8/ORk7uDazmW1bbNarW7evLlcrpomdF0Xozirvm0bAH1P2+1W1Zzg3rYNc4hR7t27V63iWlX1qlVUxHcPWdu2jt9L5iwyo227GHszCyEs16uz27eWm5WXxQpNE0Vu37490HGYLy4ubt+6tVqtzs/PVTX2/Xw294DAs03be09vjjTvshKfz15WZOl7ZfVNPNaxUnEiR7z5ap+jOTDPxYm6XBer7vNnrcP6pnO0rsaJr3qv6p4GgUMIgULg5FITAZi2jahKjGYa49YDvgLUlXFmk0l1Mk2+eerM7HVB2QwgM1XZDkIKMSJzmtu2BVLeDhtExbdT8asMXTcRUVczj9ve959w49dChrjZjqZGAwFOYNz22+qL3V5KfGvn9Ht/QsmoaZpA7OPViIfumY6H0HHKZaesChX64EtJPxvIdOLy1KVlCaEJLvSsAKZdKyIxRi+pUfYsstRAntcsb88A//7znNwj9QwDSIzzkxNiYmVXWlQOgOMjpiSiUI1mFEU2FnuyHliKbl2+RiBGRp7eyQm7EoVKSoE1QAV5bef+vfk/2pOqy7xApSR9JdUawAzBOIDMTGNUiaW/iv46eepayjGFOjvdrzqROvw/tcvpfZXSr4uOShnq2Ej6PqCAoBUlzDNcfQ0pvodCrWRtBgULCGgUSghEqRGwtu1W240RmtlkZWIAMZVHjbigsTlmMo42WLkub1XOqdix+v0/NgWnOH/9IB/lxFfj/zH9+Ly8GdamQHV8BYCQSjiwpT5kBRnCqBrUUOs3O/SshNCkSr1KYNut2vty7Up68C9ieVjxTBjOOvpsQykFtsGVT1+lJZ8OtZZRCe/bs81x8EU7E4DlemWAqTaeMSNm16H/fVMVM6hABNaAmBuCqRk5PKHH3jQAse9zBs+IBpO4NEBTTQBmZtGnGSKi+WzWx+jJao8fP3KhGPeeKVt9wPV6HaNcXFzEKKent1erFYCTk9Ptdnt+fg5gPj8JgW/cuPv555/fuHF6fn5+fn4+mUw+/fTTcihXyOz7PkY0TTAzkQNXNyoDzuEgpf6pxkTz2Wy5Wkmg2WwGX9IQBeajrKZru7Zr27N6OhfzqZStePgV8u0o22j6PxTX3uOODwmgVTmVVBLnkkmoaFmMVgO5zZ74VdCsGkcn3Z2LngmVLwIayRtU48yWqc817H9kwV+oAiM6AQ3tPPiTnQ/eHo0CswBiDpW7l9SBkiM42j78dWzJ24QQAcDQNO7GRVPOzqpAjIIxMbOqMtr1atVrFLJo2JhG6NZEVNmIsjKjk5rU/XjJ5VcNMB0o5gKIwmCqEDVVKqC8u9xOsk+9Ru5bybaX7Ta5jGVRGjiE5jCZ88oOWXq2K6g9XYhV+crV15Qvkwysxgay9BC7H18INon2bUkKnYhW2003nShhudlY1xhnmGbwz47aG+ZfjcgaBmR5VvdNKyTeUfl9S2El5M7J0jR+S0pvvHYqF89idZ5AUITy+NGBfQok75GcF2QguEr6kNNv1pT6Z5f97Hn7+sVvkr2k4xw4Mo248lbQjko6PbnrEDOK1jMRN3xFQouoYruFs88rb17NGHBvnoiCmYWATOwhIgeW1qvVzZs3Y9/P5yf+P1Xdbreeo8xj2Z/JZHJyctr329ls7hwYB/LbtnnrrbcALJeLR48eLRbLu3fvTKezDz74YDqdTqfTDz744Dvf+Y5Vl9y2bd/3Iodzavet4PelaBTzsNH7mQJ7GTw1MJGIYlQHr9jLV4DZf2G+tyoz+4PeGzuOXdvrYq7sbmZ93CoFRSBwcbu9NCkMSHV7tGIsJK/Zk1krBzSUueagSzVUoEt49vAUs8c8iQwG8vLY7grUB1B42RLVwyPB7ule9C1JKKa3pMJK7fJERsqKPceNq+TXQ+dlmKo4xzoNqcNJX4ArH5oGQCSYimUlXzWDsSCqoCcBBQ0kICXbqvag3mxrsVfrIaKiEk1DyDQV8yRZyWB8ceTqz86VN8DUFUjdwyveu+YnjQzMMLM+Ruu3OQS068d7Jw6A+6UaiHmtkttS/apsutxbKIQuBti0uGL7EoqemziwaMYfjI8p1Xx/jujZj1cyEIwLQo/q7b8CunxQfeVNsgyOUOXHp+VfLjE3TjytSTYvx/vgEAw95boR5Fx5XMrguWJprjfdaq6851/u7GCmUQTbLVnjom0qamaqcgmBoXjznIOqie+evfl6Urm4uCjVYduu8zzXPkZi6vv+/Pz8wYP7Z2dneU4aIRnr9Xo2o4uLi/n8xNNYvczTcrn4/PP7ANq2mc1mZvbhhx+Z2Xe+82HThIcPHzx48LBuMHNwWpEnSx1Lfr2i1SsEyfnvROSJB8vV6vatW7HhVZYJSuTLH4Dn7dqu7aVYzcVkA0SVIWoUOQe4FXmysSrs+zQ74GKa6sF3s6SH7m7HkP54FXs+iZKdX10yePAVde9ftmt6WtQAACAASURBVBFx32/bXAqwj/Hpv7mCMTOapsjhsas6AqvVVkFRRYwiRdm6ljxFxsZ0q3Ej1ltUkAmgRKqkIB+uxUyUckGopDaCiohlSII2BhYzE6/3BAOrOk+P1VTNV5ImUAG2W4jAkIQaDWByLuWB68rLBqUxNJ9dbfZ2USY5+JdXy5t0PB5ZORFjP76QvAuu5x+KN99OJ+vtRoF2Ntm+CZld9bromV7G/eOUjgpVivBuJsnYasR9B31/cVj6e2Ulw6fJT+Mey+jq+tWX2cAR3DM2RFWVVNxDSRmasolLnMjJUrVzv/++5Z2rlWjl8R/jqR9l5I8y+hMfa2d1cYwTn+TA9r6kI3XX8rUkcGTgzCdxh4SSpzQv4polaapCpKqqcbG8MAiRqYlKxaTkXUVFNXNNyeK1e51X9+Z9AN1HdJbL5fzkxMy22+1qufrlX/7lX//1X99sNo8ePZzPT4goug4mMxGFwA8fPZpNp3fu3DWzzz//fLlcAHAg31k6TtFZr1fM4eRkvlgs5/OTrutiHPFZyCFzYD6frVZr5qQRfLDzdzvcjKgufA5VWy5XJU+AiMzE/wXo7bfffvz48dnb97y7Tk9PH4ms1mued0893TF7FSy5Z1WLf91Qmbo9u6VVsl0xAvNSbMx93+3bHZTnjbMXBz4u15XnnRnQoBY5MBO3bdM2J6K9RIn9NoA5cBM4NI2KmghERWVKbel04kFNok268u7JaXmXJH8KPkxm+JYoVGhczdopkXXgyOtAagEUOLRdyMopBBphq/nnA0c6RolRak5/3292HiCq5iYPn84mvklBxD5AVU5YExgA08Cfvzp4UccenRlfe5PLxaLruul02nWdNE0fY+z7tUjXNM/xjOzPcYuLZdk+ncxdFzjGaIQo7sebGAlDjLYma9jGtFfrVRWkCjImFRYjIufVuJIQVC2qiTpHnQymkqTc3ZVXI4WpkaiJkOaqn+ruuyT98LQ8SIQcD9cedHPqzi84mhEwzsRVpPiAOR9YzYDoPy+nK9SO6KuckfQkGRpYKA59Lu9aM8GcLCSUur3w49vpxAiS3Xpgl5tFtaaQezKVH7LPlU+fnxEsO8aDH22vtOELP96q7WXDcBw79BZneSIzwJgVBCMDi5YgxqiUW92EGn3P4/xlGcxXsZc0wfPoQg8f9PDCx9KS0p/YxogNDCJkds24lsVzGOXIUhq2aIgDpB0KkqvmAmK+vZEkDDzIgSrl7OMrn/7lIvcvntr8bO0ZR9ZU5dCdcESKVHvRVlU9SKqqsXLlWZWZdxx6M3NJymG37M2TKpjdza2XK+vVipgvLi5OT05u3br1ySefnD85BxD7/smTCyI6PT3ZbDYObITAprbZbP7JP/mV27fveEorgBj7zWbz8OEDANPpdDKZ3Lp1+8GD+w8fPgLw2Wef/ezP/szZ2Zkn6QIgIlXxZvd9HwIf07G5ar8OqDxnRz9JpCEXhPcPk8mk7/uLi4uT9945rOR/bdd2bdnK2EKZMBAUxM5mCYEhikAUODSBmdlRTA67LILijO/MZ9ttH6p6PVapTw5tyEsOL+WzPyO+0Jy9Z346JupzDhKA8Mxhw8Ppra9CCK+wwD3bFU5fbBpU3k+9zhl9vrL8csqoy358VBgHM1KYGQtpD4omW7U14sakN1VTMxJVUoUSmQU1EWWXojHVKBYjqVmWr4HEAZh3jXkDiarEpIxjgKipwOVKLFdfMoUg6dVQwsyu2IFke15uDXxWrpY79sNa4tIbSmq+9hhJodtAdFaCZGfdCIvMj19vN0JopxMlxO0G7eFCjaP2vhFkEruSi1w43wMkf7XD77tzby4kjzE/vsQlOG9JAaUqWPSyhHqIiHJawjD+E5cBMCnYPPU528eK6i2vAg39bpqPBTRmPe7jSaQmZJyVIgGUD+k4Dreruly6D+U1bF/MvflhDMqTjDv385MTVe267ke+9rV7b91pmrZpwr179y4uFl566fT0dLPZFFT+xo0bH3308Z/+0//j+++//8f/+B93bbgYRSSenZ0BePz4cdd1i8WybZt79+71fX9xsViv18vlqkDpfiEOzpVkVgfmkRtZ8PWqc4Z1nyfGlPmyPGQhcOnPMuuvlitiAnS1Wnmh3O12G5ouSQ5f27VdW2U+3qbak3ljyCVIQkNs6EJQkIKiIYBCaJpAzEEhBioZKhUxOf/Xhz5VznmYac4ArABpl4Zqy8acWkogUC7Y6eIK9c52fJitrzd90AR0Cax23/eLoTiJ/0CF8iyNv3NGYmIbuc5XUXwaxw0O7GOmXhnU5wofQxPE8wKIXW0FvWND8uNNzUgdOgcLW6/Um/RqG40bs7WXLFFx99pEScEwiLEZqakD7VEbhaiRJMfECtPGnHQL1uxYq3FC5fNzYqlkGBzbVQMIISBH5PZ7rNwt23HfxzBxOr7mSTPhlgmPvwqBZIfiXOPx/rmu3VMLTXq+ZuHKA0nRJR22ft6eUXHrSra3Xi1qPIf3eRr5J/VeyTl42np4122tRCefNYT6faBBOSJl7RG0UKEYilHC6wvakaEmu/IC0/rF+O6avRbBdIXr3hILQ4g3qgqOJh5AY9duU+W2ATSKFFZMyuzM8vCDU67qA/f+yQaZeaJSBbbemc3W63Xf9yGE09PTe/fu3Llz26Xl7ty563qUfR/diSci58y0bbdarabT6fvvv39yMgewWCyn06k36Qtf+OJkMvnkk0/ee+/dTz/99NatW2+//Y6qfPbZZ7PZvLRHRNuWAfR93zRhJ7kW43nuBW213cymUzbebPonq+305t3QzlbrDZqnox3Xdm0/yDYMLEEhPrNyULShEYuR0TRNGlUCOxFPEUFgampkuo4cOvvTo7XTCnE0NUflAzHXAf1KSd0dqVc6khf/SKtQYQhHz5na8wJ5pZcc+aDVSDARM5N6F4n0Ik0IgTkwi8YKVDuCyucwvVJZZhw+KxmM4MC/qAhIuVMigwksqmwlbkU30C00mkIEou6OA2CAepAqXAleoKqsamqNQbI4jOng7JkNv9Us7Iic+Qrs5Ui8AOEwUWUoHZyy51muHZk3woYiZr9/EMsUhcY0KFrNBx97Y/tmQDudLJ1gM8t4PECTycH78aqh99EzdmzpYrt7Pu2gwB6Lw2y0PAuGzohLrYAcDPQ9X9+Aw0uxKhDEmRa/nySN6u6/lEFnp0YBEZeWMBCQeBylyl4zeJ9MDnOwOqGNQpbxvyQC85RGH0HuB8Rlv/XHrmq4pF222SgYSXv77B8nScEGAozVD6BgC2az6Tsf/NDjX/vo4cXF7Rvzm5PJ5sk6breOfrfTyXrdt21gsuCqb5TSWAEEZh1NdQpmr/ZnFXRPuWhU0ZVnAKquK+za89r3XjCViS4ulsvFqmnbJgQOYb1Ossqu4SgiprrZ9Pc/f3Dr7M7nnz/YbPrYP/EjS1yWrlhcLJvQfvTRp2Z2cbHy+z6bnQJ5aGY2jd5QpuAp+pbm8RKssLz+oupPEHGM/aRrnd/fx+3Z2S0R7ftt32+aNrRtWK+Xk0lnZtPpVFRPb98gpUef3z9/uNg2N+f3PrhpJ4teOUAO3b1jUaD9JzPVMdhfdTj0mI72DNjJsy1fLh3XXnzQuwoXv34r63DasZyTY/rx9d4vlANQKRuMb4uXDvHjD/voFZCtl5WTcKxPjtl+Zks95hx8cg8e5yo6/TkUZtXnBEWWfabzWVCwWCDartZRZWN9VJ3MpjBBn85lUUWiid7ouoErn6+JCI3EavpXZFV1CalVZkrMGW1NTfL2BBAD5KVQq6tou1ZiVFU1q5DXQZT9qX3CRGoWyIpXN51PVFVEZCwboKIcmIjappN+Q0jik5OKWy/bDVVHBvK7TfXypvZCuUzY9XjiFXAti78REUzLmEL5yImk1LZkICKNsYZsaZRtkJZG3oFZIiCXcBlOnTnHkrKZldjUeo2iIkZKJCpbgxpFwlZla9JbynPNUpLmaDOBIWYSNaovxlSVRIhcAdtYDEAAtC49sdkASVyeCWIp7dWvRKKoSkKFvR+8fBgNauJ+UUwuYjkQaRLTPcfGzZTy02LjXkj5bGqkysRk0HqBmvjxiegPA5sUHtokDlwaroTAa3/UJeLcD9qqaBsA9CLGBC8XoIoq1LzDjx/uafU8jPyfeh+qx8bxYmXwrROOZkO4jADQEa48lWUPjXnb1S6J9ZQmcAFQspw5u/WTENgAhCDSiAb3myh59I43h4acKzvpZkqJNzuZTCqVat6ZkXDI6p4czTvVX88Kbx/jxI/8h2PoZHZwCuKeIjk+mSUWuplD76S9lmXtSB7AOPjEwIRD4t5Anvv2ae1FDJTMfDC5ePKEba5lTaWacpiISrXXKluxcOWrse7l2uixfgXHfw5TgjGEeH52+6KbN+28Qffgk/v3bpy1J/P1es1tG7fr9WZ5cnI3rgYVAjMrQHtxC9Qs9j363lULHCHzr2azGVWWaPUZlS+B4GqSqCbYzNUxs8XFRdO2Xdd102nXdaFpHjx8+IUvfrHex8Z6zGUCPtYJzJwiDMw1o6be55gLNZtON5uNmc1ms86a5XKxXC7n85Plej2ZTJw/c7G4cEF+UQ2TKRMvVpu//0u/Yie3P1v3uD2L8trVN3gVz/+1XduLGOc8TSaOqmzEWdkjTUB7L9GIG1COU2QA1KiOC1e7ubtJRHYEuaylG7iSTHhZXPmd4z/VMsyQSmv3fSpB9axxAz5+OuZdp+0YBdzHz6ZpdobiqyxEj42EplbP18Qk2yhGwiSg3rBVFbNIJjABCdRlIf0JSal7iuBotBppqrFEququs5f3yu5FjUHKuCXls7j0mxeWetljOFXPnj9glGv0BHONbWhm5xS0emB1KxhKhlYRjJsjAKTuvSNKiPnGjm6HpXhI1cTXxZUpjG1cgtxjBwEdCh75rxxetKiixlBTBGqCo76VEhQbtuvNZDoBsNmsFOwr581mw21JqddLRBg5y/a/dla6YozEhwNaSep4sA5Q4WAv68qIqEZACsm54sqbgZ9eRPcAVz75mrt7vkj27vfKPDmeiAz8zrtfejg5/cZvfPvd3/27um7bP1kqbc9unT3cXKANpqbmMFNyiyVGiRFAHHPii058yImw6VyqQ4A1TwlcDfREJGaIEY3XC0wMqNqldpTLiqna2JDDAnWTjjnxV4eoC1eeafexXSyXZ2dnZnZxcRECTk5Ou2673W4Xy+VysVgsF4vl8ubNmy7iaSLrxxe37771N//2P7gg/vGf+unfevLk/Oad2VvvPlksr93na7u2HavZ3scWmEwj9viAQOdYuVlyaneGAg6BFZaz3kfn9fpKh05IeT6hqoVNmSkcFfc1gCqF4C2USmwEAAePW+Y/c5CTq/EQtospMLPU0mE54SfPSowC4+ZfFQ7pAcZ8FccbIsY2ctBHweAUxiQA+rT5jsaSBqPoynMNdAJz9bVUCAUQmDApEFWXJhsx8agsXD/NCaFEilT4SUBex0kN4tOZy72oF/0wNRP/wk8pAyZeRWfZQUAFGaLj8U7gaXdrBfAz6oAdNPeevYJYwXxKJVequrMQcko+Ij1tHViLTtoht363MTvKe4cWyfqSIocjRPkYP75WqnkqD7a8Gv5qu55PJcfJOdJCZUX0knzSNygTjioPvvx74EH6bq1DiCnf3oz/V25hIzZSa/oBNyVub97D9Ow3fvvbv/d3/ti86SbNpO/7z+5/phM6PTnT+Wy9XqtojLHxIh0i7sRLjPX0sFwsPPO1QO/woGrTBGYLwcxI1R19zTuEMtA3DYmUcV9FJO/j5iqT2+12s9nofL7ZbG7evPnwwQP37IGc0f8yxtCr2GQyWa/XZjaZTLqucf/95GQ+yebCmj6rsNids1tbw9/8h7/0pJ3e/pEfuZjdpptnT/r+5Q0a13Zt34+WJAOrJMKDfnY15VBiNu/iSVeRExlE0J7dL7Fn194uAPDBk6nTKizjiEOWLXSQdtbaYfASpB4HnzShLEtGx89s7CtG8F1XIBFCvJCQHq2OwwZuRsuVZ7J6tkYOoVuKnLMCAlIOCutFtoSl9Fv1ucWoYSmAj5ipICqiQZKKC9RU1fJEY6KqQmA1hcNVvuozg0rlJDhXR0EImlychMd7pVhcqYpivibzFeZ4o/qSbuCceGMqok1h4KAg8Zqg1PIwMBBUAT3Gb06dfNCPv4TRUb1zdaHJ19DG4Pv4kzNqFF7ty9+p4KOKIRh3IVAAm7JkSaI9m0wm60yqgfEqf+5V6g58iVouV7TLV26FgHTJt/7MNGNvnrGPygMvO3rvRPm8WgXGRFDP1CciQNQiSOG68oNIav5Z4kQdaV9iG5ebtPN1zbU9ppFc19sb/ZQO3u9jocm89q32TL1w+Lz11tw0rr5g5fZb9y++/G/83g9V/8E/+pX/6Kd/cv34Ps+a2XT+ZLUUkbYN2+1WVGIfJ5OJim6366YJRNTHTaJRMQOYTqchq1LWqHz5UBB0UvU0tcDsBHpH2UW1YTZVNfN1wmw+L+0/Pz+/cePGcrE4OT2dTqcXFxex7+/cvbtYLruu6/t+Ppt5RUA3d/3d+u226M0vVytk6Cg1NqkNDCjgYrksbdYsrHYsrxdA04T5/GQ6nT15cjGZTJKytdlmu7pxeoOYNqv15HT+N/7m3/7NJ+f83lcfddOPt1t7rkBb/YxdxXF4Vp347yd7/RCRXY35N13fYP8Bflahwxp1S1xqT2dyCNYEhqYZ+m2zXQHccuujWNsGcJgQtuuNZcG4pu0g2mpC7ozAyRlVOI6uBtdP5MTbwSHXs5odU2x3CPhaHnS1wtQJANq2SeFfb4z709lSGlFGqRlo2i4wF7FaAE3XxX6ogOFu97TtiBM/VVS6NpgpTDSTH0sbhtOpUSmCW89TOgSvd8LWBy3GQekkQTCVes8+FVe2sbTnKrkZXdepai+xUDdLRzuPBYAYgzmqRjUjjobe+qXo2mRl4pmgslGJGqOZWeCG1CiaRSUxZDF4E9Oc1WoqLsYMAKrJa1aFCWKmUwNQgYINDQgG60VUEQUEBEZgJ5QjXe/g1hcpvX2qZ5SY70V6fgw4Fg5KzStgvAdcdCDdk4GSZrzCwJpceRz35ms/Xgokz2nR7O1mykkVRMRcJ1hg7JlodVjKWTSWFwD1KPGCPLQhl+PIDlalJo+e6hgBduid1akjSSSLzQnYsF7IYP4cpLs2ilwBEJE2NIAL+Zt/FpHa2SqjelFJ3xknya60HLpKX5VrtJ2xd4cnnJtx7LRBq6pYOjjxBxapVfAvX+nz+xh8aJr20cmqlmMvVzu7etUFlcJpV3nGXv5a5Ht6hJ5ZbtykRj5drN9++87Xv/GNr33lvUeLx0qGwOv1ejKZhBA2m75pm/ls3rRNCOz67kQUuCk+bhNCcB2JGpVnbpuGQ+DsB3P2ngsbx1tCzCGEtm09vRVAYG7atqbjz6bT2Xzete1kMnn33Xe9furdO3em0+lms4ki89kMldtdQr13bt/2olFnZ2dlytwZXsuUpmbzkxNfXfihUm0qIj+I2/n5eSHYxCj37t178uRJ3/ez6fT05ORicbFere/cubtcLsxsOp99+ODzv/zX/9oi9r/nZ37mQdvefe+Db50/wXaB2c0XuoXXdm0/eObAJkj9dQdhPp0GHd7ixpqoUfnZeOdXsWPqH3iaQ3zwUGUm8uIY+wesxRyvRJ0v11ulOR44b/5wOZpAHsh4xUHslNermnAT5qrmD5CwNlbFJooa9URRbWvYmmygWzKQsRoNaJGZKgGkZkImEQpLlZKcomn+oGQ9+JTZClQucvLjFbnEEuCVpNQOCS5f0cwOhCsSTTQzwTij8VoYSoC3WRw/2zvECEm9mhR6weMLQv+C7sQr1ZWn4+9dbUffEQNME4vG7yapk8p8Wb6jPvncz/xryIM/mNuzs0OtOFn8+H1UflhjHz+d0Whp96wPVYom5TtyzBorML6THqlA96nBlpZqL8ee7zjj9dTwcbTaq/e/Qmcd7NCe+QHZyenpv/5TP/1P/8Yv6Obm9GZ37/07jx89aCZtv9q0bds0DTO3bdvH/tNPP52d3GhCcDSLqMHA1xxY8plTCgAO1bvvPnxX8k1DCt0ycxNc/y2Wgoj19MbcOJtFRZq2/da3vjWZTD7+5JOf//mf/9KXv+wgfdsNlVNrNEjN3AufTqdDdb3CsM8efO3c+78qIhoTXZ5ptRpc+clk0vdbVZvPZ2b24MFDVbm4eBI24cnF4/fee6/rmhj7x48f37lztzuZ/fk/92e/szh//9/5mdVs9uFiMZfYNBNrW710Uth/fl4/pPl7afu98Tr3z2s4yj+Tvfr2KxFdfQ4lp7WbGdCFrmH4/XeqAhkrpXEggCu42tLwlE9U0NOnno7YikvBFSpfo11UxRZonMcPjPR5kIJmCqAuiqpmxGQuAOH6Y6m5JdT5kkNt+9f+HPyiy47vs+oR0oLj8RKjmfmQz4A6SYpUSQ0sor1oVChUwBGiRkYcQxBRGBsZk6UBwNidMzVQdntzfqSSZXHK/ahCMas+ZBdHRUzUafKohUGP9N6L92BRlqwbWbDeMtoRlL0uqYGgl1MjykGUACYQkCqzuhhGfpZdPPrKr4b/57mu8tWZ7nweSj5lz5VIGWCjzAvXq+SLX32Web3H/HwdNDzkhMGPJ4CMan96JJx06NJ2sqiHDyPBVpCN3P3LWVvElDWihjyc5ujub469xKC8UFg388/6ix9+94P5F9791oNvvXN+Wz/Vd96+t3zwmJn7vmdqpm3Hyo/uP/51+431es1N8AlmvUpKkYXjXiPicLglRjULRbImf1ARM3NX3n/rK4QYpbjyNcrVhHaz2Zydna3X66ZtV8vlbD7/F//8n3/04YdR5GQ+jyLb7ag9Q+xJdTqbIZeVLU0t0QOn9xTa/WBpHh10d8o3y+VqPp+pWt9vZ7NZ07aLiwsF7t2993i5+trJzQ8//JcAfugrXzk9u/lf/rf//V/7u//P7F/70Vtf+50XJye3b3/x44cPQ3dDZEXtBEd5p9d2bT+glmQ3CECtpgcSMI/G/eCJrdteFT7tdG2rlEDpIlKB6vMOsn5UuWVv+yV4/I6788wIfVWCR/p4ecOO2bOym3ZOUV/Ay83guZw373i8s2vIkBwGRirNRIiqW6AHIlSIhW1L2Bp6V6TJboeJqAAiJsShcd/dnyNN1VdBoJCXi1LgPANASswGhVTlKwEvLWwgQEThRRJVEqnmmTqhqOdV6PsoLfiIjYRZzOolKBlA2ihcP55NC4EkdQun60DuBwDCEIIwjGGZYKOHk1C+lzZceKprU+WEjEQnq+5JSzi/o1aO4wwrzrmtQRN1JN3clIxRH18ZaWZON44TKQ4VLSTJp1YkpTr9AHtuzOtgZsocKOt/ebe0MkQkqA5QjH/reLkiLYdqXzTxYfKf1YJz+Hb484AwTmpMOW/9vaiqgivCcONu2cHlI1V4/AFVb376OjspCeztNEKIR4v5wxGAEa9xjzdft31fo/p42w603azB9FZsJ/cvPv/xf/unf/Wv/5Wv/6tv/Jv05e7sztqYm64JYb1cT9tZG7qTKZ10cxMNXQMg9vHenRtm1rTNZDKJfUw8FKb1al0uIXBwlkoI6QMRhRAAPHz48PH5wzu373iJVsfm27Z19Gvc8uR/t83EX4wY43Q2bcbj6Y0bN6peciYPI3Nhfft8Pn/w4MFnn3329V//+pc++NJP/MRPPHnypOu63D9qZkqJVkvEYGJmb48V5F5NzZommBLUYuzv3b774MGjv/i//a8PN2uaTB9fLO7euttOuqab/ld/6r/7pa//RvvFr/3kf/LHfnMaHnTtcr2k2RyiTdMCpONp8/Ln7fUaFV6l7T/5biPm5d6vXgdU/nIkJtUBeI3RmtEIVt8FAKijmgeez2NOSb2ds4IW8ljnI5hLY3Vd04ag28gGTygsfIZgIAoNAoeAwE3DFtWkt15mbUeU5Y97ZaDlFgytNBCyQ0/Irqq3qa946l3XIbF20tc8mnOqnwEA2raNMZpZjLE9Utw+LSFGGiAJpTa1qH0cf9tQIHAIjDDS0j42/dSJs2FPqSZdVztELDUOmvqDlo4hVJGB2lU69iYee4Trt3LfVd0XfTbpCWgqp1NgUBESgUXTHrRlXoktZbuVuBLpoWJmZi2amZJny/Y9KKpFhSg1raoaxExgooAyiND0Ck28GlIztZzGaqwKoKEQZYv8yLUWTEWjmIhpBECBETh0LUoM3/nuvhiz4fJi7KurHE3T7sRbfiZVpPZWxSoKjVnS3ymdTh6uAIsFQ1ALhlaShmAwsAyLVUXtX7Ij8UqIAcLpKymwqLtGVxOESZ7SMyLxtV971MdN1Karu8AjLROfAnwhx9nzRkYA2ADEAHgBuGBeXRkAvMiZQAlo8gJACSD2RwxA403LY3hx3PtcH0YJbdOwGQhmZhXr71n756VZVUfC+i2ahkFd18RNyqnw56cMI6P6A/Vh0iE8ScQJ/6F0xY4r/1QbKkw97Te+HDIz4kBEq+XqBnffD6j8SzRjmrQnT843HOYnd975g3/kP/97f/kv/Oq/+MZ6ufnaj37t9nz2+UefxCi9bkLU1cXqd/xbP3Hz1g0KQQmqwhwmk06inJ+f3713z6uxOjGmkOA5MBEHZs61Wv3vt9566+d+7n9/9PD+7/qxH/89v/f3ADCTwMzcEPGeK4/ZdE5ETTMxL7okcTKZhNDUj37iyvPgyvvoeXp6UvZZLJZf+9qP/Mn/+k/+8j/6x7//9/2+P/pH/+gnH38SmiCe50Q+kg6hbYU325iZQiiRYjVrQutTCBuatvvmb3/zf/pL/wtvVjdvnzxaPP7hL33lN7/5zT/3Z/7s3/2n//hicvvH/t3/+Pzk/c/1sUxvSCQYg9m+70vHXdu1PbuRodEBtilveFC0CExszMTBv2kUpggecQSQiQAAIABJREFUga0PUv+2QuX3cSbPXUveuwFA4OHzgeX0GI6hIllbl3DSw4vKEewyyiTk8W7pHGP/P2/0U4CT0CSqRVFN9aHhV55n6UWgGIOY4MCnJ4xKOI2ut1qGXcGVr7fXAdIrun2uL6KEaCZAVOsJW6LYQIwFQUy2ohp7GEi1iakYeUtBiIXZDP1641UDoYbM1SRD329IEyID0UFTOSZ3WdUgMfPmYQQTNRHbS8l9VssKmEnJfhCrOWLDA2wV5pkVFYPCwfhgBZJHcEg1py0qABtKEGoukeT4sXDeQnmFwOWU45Z/zwF758EeQeIPfHY5Whed3AvHpf5JCjZafA3Nney5CmSJgKT+fO0JSAx5wznK4dY7a9Z2m/Y9N1Pl0PgKR7axMXKp00bTOtDtqcHAvJwcVWSCr20sfUBe6rwUFomZpUJRhWCjnmFNnLjyDDKiJCcKAMSX5ZE/nz3DxewjFrtQzu7G/T8vOfKOBcXqyfmN01s9Tn7z8f1FaH7yP/sv/taf/R/63/54rTrvwo/88Ffb2cl2uVifP/rg7XdOmO6e3fzs4QOA7965E0I4Pz+Xvr97dks3WyRqDXezUGJbDCNSBjGMCGzGDIY9efDoxnQ25W4aOllt4Jg3c9OCd8ImTsjhnohNYWZPlmuR2E+nITSz2RR5Ql3FCyIOuS5d4fk8XK6qg/En3/4oGGZN2y/Xjz57cDKZfvTRx3WVREUKcKuZVAhiL6JF1lcthE5gZtq1XRO65WY7P5ku+ycnU37vvS//1f/r//4LP/dXf/OT+ydf/OGf+g/+08d3vvZNm1yodDr3rC7JYkKXMRqvcGN/kO3N6p83fdn2yttP+lTBpRBCYLbQILBa3Pu+eiJoCH+Mucu771toriwmSHsrBihIXR+tTgbL2URAWRI4xm+Hk2NoNArYwW92HO2rkHqxi/NpluVIi4djHT6Kg13hLM9nGaH32qjJCVNi8apPgMC2aluzLcWV2Hrbb2Lfi5kahAikoltRUiMmj/waWKAmESqIzpYhC7kYahRTS1QNV533DpExryaHX6IIxI+jaA739zHluhexjB+PUnBT27zilSGouh8fTN2P904t/9GKOTPITVb68a6hly7XUXkrEStCxZUfPQN7Cjavl1miHhG0cOKR35dcxFTz5+HmcUL3gRyX23/yS3EDq4g0Ow6rjkpAvEbwsfOZ2WAingdM4KcMIxWif3UmcOqQ8j6Rv9f5kPvn88ev3CZDymGl4ssZ88CIBtDYUB3pTbWXOKEa02QyWWxWwk134+3vPP5svTr/yT/yx37lr/8f//yT++/fviHf+Nbv+NKXRfHOe1/UXtbr9be//Z35zVOAv/3t7xDRZDJp22a9Xrdtm+cM3Ww2A4CUGTX+wavBMrOqdl0XY7y4WITQAplvaqwGHg2OBGC13BBZbFs1a5suaxWY8+NH4XtO4pK+ssBYmPL0dN73288++8yLs85m048++khVRprQlkRCVc0EAiMCETXUaFqHmjm5HyZmN+68td5stGn+vX//D188+fyf/X9f/7n/8+/8hZ//Bczv/PAf/NlbX/7qx+2tZXfrs61i3kbh1lTMEBRg6DVR/tp+cM2RNrqyL+0KthaYQtC478o/m/nU8LIo6WqW9IIr7/n5lHMOuO+X7OxRzHGEu5bHgQMlagAU6MJhItDztXDHainAS7w9q0ga6YBEAPciAKJBmKJqD4uKSPR4uVz1cbXdaLTQNr4KAUAwUSE1MlJlURFPTlVF1OSCa0bh3Wm1okZpQ9mg8jkwDGgCAFZov4EfTeUquXY78YckjldtdDi+4IVWXPW64s2gmeNbrOZZFSQ+82q04PGAMgYJEYfea4/TXpJYzaszsgMONAZP71KzwY9vLBFsCvMbziLTITOYkjuLKwo11aizs5VKl9ZWkv38L+zF3F6FXfY+luapdV2rvYia9cJtw0N5imew9MbU8keVX3rQQb3keTu4v6j6nKBilq9Nq6OkV/G5XfkDv6pQDb959U0rqQ8Hj5a21wNuOibt7pM273Lx7dLjj8WhDuxjhm1QhAboRHly9s7jJ/TbYfPFP/SH8eE3fu0X/95Xuxu/+rf+zo//0Jd/9Cf/wK35BKKPnpxTaDnwjbObUWLRazeJwYJz5UPXDisvIhAbkzFtt9vJZNK2k7brJMpitVqsltyGZtI9eng+m80Ch00lqHx6elo6gYg4oG1aYgrMatY0LTFZSkplIvLG1ASbxNR3bg8RgMl8RkRfePfdyXy2WC/vvvVWVLl//8HAkWWXvQhEpKqbGM3U1wV1qtPN2Y3ziydRZX7r5qPlakO07SZvf+krD371/L/5U39uOT/tvvxjX/2pP4S3P/itTZy89f4niy3CBKExNVY2GEwdIHmmZ/EHWSd+3143rnxd5OJNtJc7wdczRA656kCbcf+GDS7MDLTcgBQmMUqbRzYzIwypY5NpK6Lrfhu3AqBharuum7BrmZcZ091WU0OVdnaoNI+ZjZ6ZpIZeceIDUSqxuV90CqCAAEKuL9s2DYC+7xNHr+qHg1DU8Hl8YB43NUUVav40ULIAmbjsPxBsaNCE9nhneVu4mv+uws3ljFMCA2aZ8xK8IVYOZUDXtKKiZtL33Azkpfpa8i/dhVJR7SWaEpiUyIiiam/YGveqTzabJ/1GwaGdtA1vNpvG77QaKZGSGhBVdOn3GAqIkpiJQaoEas03+5KL7iOg2G59d0SFkytyFRQ+gsGrKICAAEBEvKITaUH4MZQoMTjJZ9eJcRfJtRayPnrSUnMBFgPUCq+miRoUjVWOKakBZiQEIjKCmArDK9wbELmAz0esLEKIiBmqRjDiOpNwvHuF0Off2k4ooRqmR8/boWRoK9vdIfaNKZHgyG/rlXOliZ7Sf5EoNAMqr2kjGyhltg7nSkhwTpbztTmAtBSmpkpsZaFh4VTeqaZKYX+aIujz2EgdstKVH3nkaXDwmFRpDNbnizaEadO23VTXG6o0KJ96rqNmu9V/08mefSIs4ktmRsGI2FVaM49Ry8PU5PnjdV2TfndNPTRsgKmRbhixm1ycni6h73719Mdv3/vOv/oXm7O3fumbH/7Gx58uHn7yo1/5yhffuhe3m8lkcnZ2JqAHF+cAJpNJO5244mRg1lL7yayPEaaszBTCpI0NE5mYbOJmqX1744SmnYSgLWsbjCgalTjOo9VAjJnNOjJqyCxa13WbzaYJYQA/XJdmcU5Zq95HIs6fkSfpyfmjpm3vL8430Mj4Z7/x9d/6xjdu3LhRDiUw0zR5i5mI+NynBIma6Xq8erIw8MV2tYz9P/mX/+x8s/57v/iLoWtund6hd7/6Y7//D+CL7y9vvfO5NO2tu/dX2p7MoqlZb2ICBgUYg/Q5Hvdru7Y3zpjoYBrbaGqnAz5G7SsEuIKIqjnVTdVY+dDPXrHRWJjiWckGxEwGe5rue33wOgUt90nIXz2lA0aedBVPp1cjrzGsfIYtw2fNVHWfpKvfsXgRVVJnHm8NG9XVOi57UWIhZuOsNqpExAYV9Zq4O5hqMEBtiLbW96cqruRa4yNUHhWpxbJ7aletyl1fKQ/HG/mgQ8glK9ikQEHqMYOmkk/5t0Paa/HjW8l0+bErltRUAM5YafofEHnAU4fm7HTOa29+pQef+FqFk3d04jNniaz245MCUg2qciYjHbRaoEZe+xDHjrGBQwggUhOJgagIQL10q9Xlr/aDnSWKJoFwM4M4azq/Rwzz9CamwCw/8B6UTwABBJjySgk9kzW4CBPrzrabOJvd/tJP/ez24afbzz76rV/75fbszq9+8vGvfeNf3T6ZMdFytZIYb968SUyPHz0OTROygg3K0jaVdGUnvaiK5XF8fnISY3yi8W//o//37//qrzx6+Gg2OwmB+z76wsvUXO0dSYoomsWmDR633Ww2x/Qiytxfa02Wb92fWFxcnN06+zN/6X/+83/lL86m00HI0liS5IX6dGCmRA2lK2lKJC4oUwhri2vohg2TLp5Ofuh3/e47P/Tj5+Hk4u69J+18yze2PJvoqa0enbYroX5hqjDVjropjGBMPlJf27V9v1hxEHccXCaS9DLSMzmRTZasDQwRUZVoElUABQdRRArhiD8y8mL3tqesnDE6SHSlLL/LL6FegdSAwlCTCGjqyqAjbvrQe56XBsDManWaOsV2vxkJqzrSPB9CR3jqkfYfO/5TLT8AVR5wcd8vCbWb9apiIsSRsSVbbLbrfrPuo006pST80oSgUUIGgdn2BlBnL2ryz1HA3ewqY+fDcNlle/Hs6alOfB2UyJdZ6pQcuEat4PYRrwbVeSuCTeGAcebVsCgrWIwVbEaZkrqjo554Nf5nxZXXzAk5plV1uR17cl5oWVi/g1XKeOms8b4HNg7NK246BoceAHm1r3EVLVQ7pJ+7N8+evzFuY+60F6cq7RPM0tlfZQaCF/hp9rjyL9HMzHOG/NV5np+bsRlRpsYTmWktce72GqUgvAbmOe6cMrcAowDinjoJs+bs7VbPHrSYvDVdaPs7/8MfvjObfvbN31x8+M3Vk0eLxUInKlEemTIYt0436xVVMLmbQmBARObITwyIfYRKsyazRuZ3z7sTAFsWhBkRGaUaH+CKaKTmiWXUssGgitCjbdNUXN1jn6WMgMy7SYuHDFzNTk7cM5i/++7is882oguzRKEJzC5+lx6bBkAgKuiXkr+BDIC53UTtTmZf+MLbt77wljJh0l4gPO7ubKZnj1VX1sSV3bpz88njVWjCerUInbVtQ12n2yAaqelM7c1CRK7t2i4xT1c6/BXxDgjtse96NmNOGs87VqpPsKluo4hChVQBRYAwBYCa5vI56YozVo7gsV4KdR9E5YcgYfWtc1WpqD34xoqscqy1xav0QWx3h6p8nhwqPnqV62UieQWo/MHwCxP1sUfWB2uaBsZZmtp9KorQtWlvMFIxXm63602/7mOfcHRWyxFbNYMWphC5X1e55iYaRBtDjdnVwDfg3m7+U/PPbfwnBuLFJZfMh9kiV7BRezwOAM8R5LwDG6wSDSxykwMk7wD/mHnrRPmeIQyqCM2HfdDvyjR0jAd/dP+rxKzz++XHD9lNb3Rw0zMAn9z3UG0fxUsclc89U/O/68VP0Y9//W1E8DOw6aSb6DaamvTSZa78wV89h+l+2sDelqubKZnujKiVK79aroha/zL9H8QggLTwvcbnTu/alTnKl9/jMfeddva/nPue5FPScfZQmT3d4mPnTbA3AaCUOGadEZMSJlONMbSdWFjZZI0Ymmnz7uknpp8hdl+5M/3ST5yq3kuvzpDesbMiT2g6BBVokUbt0hBjTRUsmIjAgbKBGwBRoqmRY1ekyBn35fKJCDz48b2keGqtjuQ9V3VE+vwEmOaeIXLEvdQSG+c/2Cgprxy8I1bCI+BhrpwnxJGayI1yaIkDeLW5oAmD2DDdQoBGI4GhCkIEeRQ09+EQ5avu09iOidwds5fFrX9ZnLTnQx1GT1c9+Fb71BzW7yaDbn+osprxcUTB4Hi2zrPdL37G/tx3s0btP+K7ZB72YasvZdZN+r43f1BzQVSkWTnjstBAPGvahnlVqUudTCfl4lfLZTndYrNi5iY0xjwLbcuYogPKu+wF2K1I5nF+AIiJoPlyQGoFcc/ONLFhMm3VLEl957Ah53cTeR1CTK5z37VdHyOgpmpKRI2ZTCYz0qT8xxb6lPNjAswmwScao9HdHdVRrB7rkB4CU8Jk0vV97wl6I5Bbh5yisI+S+jXW0FX9Aql6wBQ7WWNHHsn6yOEKz5u5NDmTGajI1Jiph8S9UwXkRaBUoiIqR41boiVjbbHvNaoAHBmhm7SKrYiHSskAAaKZS32bmGgSpdGkL8Qg2faslQ5MJl7rYpmu1EChYWP38/rN0J/Wx5R1QZQEQ9MCL5ReyjETAJAE9/oEF1GPVzWoXL16A7rkbqgZudq9GptD6bYlBNMAQNEYSLUVTGPJcAWZFvH4hOUzG6VUD2PWgEjoA+qKN+6qaiAFmIgzVI/UdxkUIwanFajnj6HsxY4o+0VV6kP5AfL8lkExquh4Asc47rV2rL93RX1w2DPnbadd8/FJjKFEFLIip3MNghGZkIG0VMDVoGC15OsDGrxbvLYWK5J257iYROOeIsZ+PGWly+ISpA+V0suhiBEw9t9G39YErSMj7g6Ja9fcU0rfcskW8CuK6xURE9mkZbPETavkj6qzZHe4XFeiNlWvc175JmqBjC4dpkNOMIOr3x4S4fV08PFlFuS0XLVvVOg1Kr9jbKSAl32DT1RJW50agzsiBbtAMO0CGueRazQzMyn+N2d2Tf3wSjU/WHU789m9QDeIglHloIPTXS+uvP8gu/K+m1WfMzHGBj9+/3KfRsbNk9bhwDewG5c86koOv1KQZuSJUV774AGoa2rNtf1AGBGTSoHZCOrTaltNaRQHCLXhev2sIRAHNDRIy70U88lJRAHos8CqROPaTVUROv9QqrfWDS6oJCUX+hB6vSfw7IjUJRGPF7FjOQwvYnUMoUz8MUZ4hm4gJ9kYOJr78dia9YYtbAPdGHqImpJBBQKIChQwgXsefdQoqRdNLUripSRXngxkImqJx6WqlrNIgcEBoSiuJEMGy2WzEgHMdxyBY0d7v75fZWrw+/7UnqWsuAJzlzQ5iNvqOMHQKFjQaPpf6tvx0Qe4vYDHQGQIofYbB/HEYan6tFZ+T6yGFY7vQ64saVWFLEsSz14grrBo2Gu7YmDgWA6XFcX94qYXxXSr3Pd9PN4PUt/376YdANRt9C3nYE4ZVdQAq/KAc8+UDin2fM+G99Il+QxXt+zKAwAR6ZgT3wyY7ksevt48y5OKu+/VJkAJNLqX6cFWYrD1FkBKNGHPPCIS8VwmTVTyJBMWMCABg3c+ikKgbEmDzUCVyRvrULJW7rvaaAqqXXz/UIYvNhyRRK2D3sg+9wEHvdANd39fQwxHoiJWHTM33meyCo8f8MRru7Y324jYLIl1+Ia0nVNVTtcM9o1NM8ArIsOvan45kXFA0zQBTLLPfr9sthlFQfcW25TOG5FnQb6ybJwDmse+bXLZKc/7GbY7PmoOnBxq+TgqXBi9YtYcibAd4MqnaCdwKG6jNog0y3PyQp5iObKRsJOMqJGIq9SQEkeVqOjFekhUbFS3Zr1pVJFoIgaIqpmSmEIATSmq2gv6qOQc8ojBlfcyf2TGiDEaEZGqZ5SqAFAFceoXNRXRJJexu5JLXSogV+A5nqOMjDJm9nNeENiRKEf6ShOO7n68F51FSoo1SjIzbMqCxtjx5sqJt3LGEtFVgvLgepYPVzXKC8zntRfiyqecgb3jHKTFm+sUaenAOtuVcp2C4sTDxTrVDMPqKlV0OtQ/tZrn4M0//7UdOsWxx+kK40/tdewqX2F46gZPfSzH6bvRuN9elnkmSGEXPs/PTVW1Cb66YnfiA+1qel6j8le1wtWrQXQ4hE8KcOpzMWajhMez88tzGcIk/IK8YBij8gogCRL4wfcsT+q7k3GeHvwoI3Bs+JWhCBeZ1qGq+kTD22wmALvmVw29J1Rp32fYX3fm2QvjwWjsxFdNr1LTXmmyy7Vd26uzK04DTCSO+pAqowS+6vTNvip0X5VsUxDYjRiHKyxdoQG7zoA7Q+kvNXPHOqn+ER9EwU3NA48BpGY6IOiEIgdZpe4kxfd9pnuGfa/S8orpc3yfvdS9Kx351Qw7+2RLESkQm5kpm4Ci8cYkMqLRltCz9Wqm5uIISPM6BEAmnyTPTEzUAkCuAOZMestTgfv05AqhNqS+ptagUK5MhAp2npYB1ezgd9MK0+BKfomTuHRXBbXyR3d8r8qVN3foDSFz5puS5OqC6AbS/byJ5GsKA4RYKrmaX9LrDQ/Z7ge/HUNAY2eHKgXFtWGDZlAZaIZkVmPNgZoMS2fW2Uhc5VjvDMz4KmN4hOUdAge/y/B8ycApZ6+/Qg7p1AkDRTcz6O765xI7eF1lhaMvfalDCmiRuoKj8pUSJdyVP9bujI/654rtNODKT7lPdoRRus+Pr7fXwymlc132+o206keO5u6RR+4j7Q71VO1Zb88OcSa1jxqjUn4ZUv6AEYlKDjE7m5CFUIgxSuA0cydgHhXSfTi3halMgD5CeztLktZA7xvNuAYiX3kLwAZJz7SNDlztXi4aRA5WKRK/kzAuWF17837ScUAqpcbu9aofh+r1QPUz+//Ze8Mmx3ElSdAjQGVVv5mbW7v//wPPbHc/3M68rpSIcL8PAYCgRCkzq7K66k0rrK1aSVEkCJJAwMPDY9Lr/RmaUP+9bR9V2bY0Culfvj76/W/gAUY7bWhei4A9OnydPzTbvsRScsQtq8IJXspSFi/++voqwFxlWcSGgrvhy9eXWqPWNYKLlUGBO50KgzUqyf0QxX0vv+Hk3kOwxqBGyUg3a+rFjU9P2E7bwX0hGYi4VFoxwWEvy2lujG9D8vUZx6Hm1t8LDUuNJutuqtXNvJSX5XQPyTv5sklHJzQAewDHLqdTSr3xJl92tPNgFtvHNNpaaPIrp6QpH6Qd9ehpw6IpMwsuq+NiZYUu4EU6iytZyT9fLynKApikCElEBGpDrE1ADasEMrfJGNkYN1FMxnxmXkF5gWoXZFYEGaU1EOFeUCsrpcAUHcrqv41fnuWEcmyfye6cKnr2ZYokM7CGmSnC3DdWw/BCRdT+W4GhQhQzm3TQAWTGX8rGF+FEeOj6Lk8vBr3QAXeBYVgh5GrU3Hw/H5m5gZZs9s1PyJSxcYWpIMJ8RkfidR5mTgV6xxg7MZdG92W/XFeZABqffixNtz7X7vLdbPHighu00gWD0PuwmKGXzTLR+hoJaIlMCcm7MJNpZ2PPEu48Je/eyM6b2D71Gcf37PhdKsptX+1wyA1Sb6/SnYjZGMPd2gJvb40U0VjyhqINUEjOOkifUoQfWO+0a+fkdm5tISBt8cAfJW5d06FbXmX+sRw24ro1f3vj5PLuu2tPg8lnA+Yjt68Bb63TexYIYGgZrpv3lXlFaP92F30+lwkAe3rQbnlzk+I1/tjB4X1xv40CRExvYKAll7Cd0FtbvHvzu2OPvye3/upNOOTWbx+eT9fT/jYWzKybR8DE5XIZZAwYB4bCYDBIMpjpoSR5PfF+Pxvz+wjirUrMR3464MCD7Uejgfe65e+0Kzx+3v6huexQy+JTjNpxISWtrN9UXsULVcUzeWZdI2pdKyU1LQYGVCskBBEGylJgPYgaMM/JyZJgAxRThFJoz+Eann3j1UDdd0nEdmHTjCGvcZkfuVoMx7SrIO10J/fWgNUu7z1wVmslS1mIUjVQ+UOJy43DbYiuH09DdQQowsqxw/or7R6i+tC5bGuYUeypZxpYf4AHTwmkiaBMyuK4APJWh7d7HXZcHWnvx3v68b+nZI1NtKu+aftqBt13vTrx4+dk1g/Zz4Lk3zQ5zJeNL5E5yYK1FWC7lHtxtM+6kfNxytHGB/uPZ072c5xCG3SXfdLDFEsy1zyfunyH3u3IdhsXHNDuiRmLtnHk/rOmxhDjCN5zvyb1hhsccd6ug28fwQi05srTRs644xAj75dwdIrj4x/U87s+5u8dAH3a38vuvCnvZmKo0xIARKySw4qyDvQ8lPVspfP53BPmbVm2ShGJx9daSRpVstCm+YufZnmpw/bvJ60JQ5tw5Z0rfwXzj4Dn7So9a+rdrUl1u16/buFWavMG6Do+oraD2iEd4K07c8iiGRD7QPh+0pSioaPeLRiV9i3iT8UacUGcGWvUNSKiKoQ+9kZ64UmTCCCUmowKikO4EYqW1SqTSAQhMB12EhGYyvSaypjvR8qp7CetYm5tN7tCcNnsbA3Og3oSZxEXqXTntWUM70mnNMgdnkWLXEbOUm92jcqj14JF5xFkSVdhp3xK296eudrrTh/sFwUiS6bpgZn6MFI8R/kniA2S1+bOxpz++5B7tLHk0RzWOWL562zTUwJghN++tlMk0LBbHw4bD7+PrwR2Tc/GQ9HOofqQA/yZyx75HB4dK9ml6aqKowPGHc27ZT9z+aU90HubBnplV1/duqo/18bofvfxdRr2MzRwz9W+xt0PwssuB2yaKW957Y8sY1sDjlJOxsns7z69DNiDed9BGH2AeN347r3Zh/t/BH572tP+JWwgPYogEGHsS/TmpnRvWdLlshb35XSy4suyYQSX85qg/EDlzSyDaHPMfew/3PQrDYff1h7krj3YfnxFd8aQRpS6+XZ36vst/F7bDdQkJJMZIVFVpFBhr2s9w9aIVbxoXSMqKzKXddh2ozG48o0Bn+B3eletcgjgMqYwZfqnAtmZ9Nu1WzsIYNhVrBougX0nVJmsd+ttN6mTjrarsQTu1XuqE8YcKSSHImaWrQslUfkhlI4tVWSWOY+e7TprrWzJr1fPgN3Fwn6Gbaz32UQIB5QbtDs8UeQz9G+5dhu+aRn8+Ay6DEZ45hWYi3LSO25dRlZtUuj3vANOn0fHDjmgliL4l1gnN26f918Dt2k/+zXG9i2VpKP0p9qY3AVMb0eSK0L8rR+v6aurx8a69/WZJm+viPl48CdXXqkF3DpFgB1dwAfs1pO9v49dOY7u2D8jvfu2/WebdcftirtvuEXRbEfwmA+macd5e7YnE1JzkDMAO9HRO9z6tixpqZzTNW2vq/bu+/woJdkmHzkmZ3V8R59huDcxKOCazbJv8A5Rm5hvVrBJZ048yJsz6qYD2vXO1z5+9ThZyvivjsk/E3Z/f3trTJtUfue5NckkicY9pKPEdIQvpy/ec9H+/X/8PzJUpwznb99cePHFgKU4KDfA8PXr11K8lGUp5T//8/9zz7LRzrV6Kf/29Y9lWaiIWmvEpV5YTiOHvb87icRPOOUHXdXTFA3oaeidSaim/u4goa+nFwDLaWFwrWvUeHl52X4784nH6dUUcrxJdAuA78OX19OqDXJfQo+YAE6LAAAgAElEQVSGPqLcDhc03BPP7Vyl3Wi/seFnxe532O3zYChjeJtFhy+Xuv1KlhzvACq4AlX6tq6VC+QkGTUjtubFFlP0eLAaOJ3OHUKtQrva+kBJoaTIZJHA2VH53r3pujXPPr3/tTZKupXL5eJuzdl9mULNy+LpaPYZMKThXrdOHWkGPUU3z3fqHS7S3FkrjEiXIzsQOHE7jsZiQnBEGTma5EiBnUkU5ja4H/Qig9xlTXQSboRgC41wp4EuOerVM9n/24X3h7s2XKO+/cEjshsZpidt5HUImKu39gXNO+bxvgAzgVEL3FIhHnQBtRobe+0Fvcfyp6KtdUmZ+ZSc7+0qqeaRUIIbu/51au3Ly9CPh/dh02BAgbo7O+7cAwGrR7P6/LJzcs2vbpGP7kyd+Py877z0nvOaNi7N0PazDPtMhxWc104/2zKyHX/gy7O3CbQ14aznQ9sfx+6SBn/QzOzbn9++nL66maR//Ns/9F/rkq/Bjro3pSR2r25/pB+Gdu6Sao7WWNg7i1uqx4MQz53u++4F9y1N/PHO72zP2z05lli37vLjI9+2Z/t3fuXSz57/3OLdx03+oUfzTUf9wXDwtKf9K1m6hnVdTbDEgywLRzSNV+tOiaHFfB+sEF5eXkpqOVKJzFgp7mXmCvcZS+Psn2gP1BGipmimLyffnbohG1tLSpIZmHlohr7ed2wjrON28LFNDAetylvzwm+usuzpFnP7b2eWluqo/nk/JH90opvL1X07v06tL+OAlCpBKBwX4Cydg6tYxVoVrJXBCCZqH0QwhSNNUA1EhYRKhFntwC2JCJkbLPJbCUhSDREBMyWDq+YBhwNOhddOZ5ch1Ng2w4VtOx75r+8K8lDDQ5rTOksLGzTvfNyd1RolLLk0pS+Dk1hf5If3MZF4prvpoCW1BjJEcsHVaSG+zar9MvImTf/+9XYrMXmQFNtXY50wM9jwpQuw5DBSekaKC1I03gjV04h3MZY5ESVfqIG+D0bN+HO2Rvoafxt/Bjm2Qebzur2D6ONZujfUjQ7pvUv06k35qg9SzZVxrAT2Wlnc+6tzHjAn/fhx9g/5je+3ubLQGHOW5IQQCZd6Q2kbr2ZKxNwd6TObdZj5+8BuXcmNPfL5xrk970icanot4x+Y3axW2/y2/XtgR0vOn2cb6SW1NeeV0wfPvl/yji0f0Jp7gtpP+33sgAX+3ge0FXg2lgabwsNoiBzibZadfNvz/vryJYkTWYB1sZKlmDdQWeMgth2wO0ab7TDpSXFi9+rOqOF1S7x71cUMYHTpktK12cflp25+HmIpZbSEDdffLnynY3YwSgxX3q0Tne1+lx2z4Q+nskljrQn77nCj7eM99YzZatOHcRnW2PpwpEfRUrXAqymAM/Vt5Rqo9AtjFWsoooZFa0UQa02yuwAwsNbGh6DbdOvVHbIW1tfU/r6+M5IhRDK6mqpH1Iqr/edP764qcGBvPdMu2OaPtmk2iR+LUNj/ay4pmuoDAGyFEWmUAW4Jug86DdxSg1IwGmTOYhsAP797TWhpiiS3S+9Lu9Y5dvvtfKE7VfsfUZR/aDbXeFIq1Wzc90TcHW5iav74XJnL2qMx9KA1ye13ZcLNSdXsrf5O8/KWn5rj282b3fMEWjIruysynPutx46Whd9NRJyjCnNj5m9/2Hx+sTaCzaEn7T+TH/+3s5+zWn3a057229rAvUgaEYQLZNAQgKyLoB3Z4LnOs87X04uC67oGaeJSltNycvfz+fzjrTUdL7OPeb17c7PL5VKWYl5KWdg9ezOD5JNnjz7pdgd6+rwXq71tSIv7u40VyzyhaSNhy2yXrjQcrAeu/D0e6MdMzsg6AKKhnE5jDl0vF8CBoDwcBMKd8D/XyzliFQJ2qVHJiCwtyNZvslija8oAEb38E1CFzg2woIKglEQaNuV4oxRNnqah6pn5Kg2v7kA/frhGPcP4Sm9nZB5fG3WvK6km/54SnK3WLGX5QRznWhKSZ/PmT4PVPbEgrqjtYaB3/fiNEK8ABAsH1TTmfwt/9N4b9b7tIyF41kefPdSlJ7/mzupCltZKMAKY3oTJWYeBo6i87VHnv7Df3ulG57VvKRZ7m0M9GfmkIbMLnG0HNGmsu9emCZKfP88dMkPy77QZEb56mN9tB3PHTYkowYUdYfnepd7ZfrtaffzbWTM++eu3z82orPTAdisVu95yqyt/T6v+ts02H+1OTGC/aQKidwk+j5H4g6ZMH69b+74A+jvIKvcw+Hv3913nPUYvnvaz7deSk+6P+L/vUvbged5nv0wK2YbB47w7srU74ABTRQTIn4M4FQ+DCkIq6lCqbbO1AQ5+Pb2UpUSNr6eXGqvDvry8oK5Ra6wrSZIpqr0s5Q0FiQ4ibMhQCs5uTJzW2hlGtB6PFhqKT1YCf3z5AiAr1w7z4v/4+hUABNUdCZk3ReLyJE1+Z9fORxfR9Dfc0SsNWVa9mH51Op1qrZIul8vLy9ftWtrx04UErmYKjUvc6fnM/fDYtM1Mmq/JikusNcgoy0sQNWqF1pAMK1VZ/6uuFXaJWlc2zXiEkvgelZIxAXgm+Urcsl095FtpJzHkuYRh/ip7XgoytOlyRErdqHGvAWReRPtc7GauGX2gTm33Xuo1IvqjMh6vifTAppw/hSdS/gQuWlI+ABOXCR+VlEh8IexShzzSWFRWg1nRoFG50SF3AWFYO38ctoSDBgosJgeatlyLwWRz377BR9YAe07vz+ilPR6/8YEP3q9p00yhuf0B+4MrFGMRSnETsNISmweKeUk8HsRaMaH1medAA6A6glrqCZTWpc/zM3xjftvOSZ38zvkJuS7FMFzV73BSXdtyYxbdzg4oPepoxtKiNJa16aZ+8w0H6YQiAFhrK1aAjYyE/TKe/TKv7F7u6EdXOAPfmVnihzm7d61nvt5Oqa2Y9m+xWr1vzxDB0572tF9iZpbkkCHhjJsJG9tS3wBYc6QsR20Diltp+0z8lkkTzdTzOGchi0F0ocjq1AmenAFzk1RruNljSXh/C+i6t8zqRe4IAOW3HoLNLEtxATidTmPdhT3t4bHxNkl3b3OpxceHkqGKlayKKiwCFRchWF/lqyKgcJzllXGpXFWbTrwINdmZRVCoidV0ngCbFiA8pio/QUu32ODCWmO4KdFd/xaUCILiJPowLuk6uXP07eSzGmAkR6Dj6rmS7gFAokiaZ2YHJS2ESamQiK6is7G9iRNhbPA80GhpQKMMDEczmfF0BFAniJRGCTIPhwa15i+0e5GuHzymTbLx6uKJhfBMwOlakzZYKNEXYECubXb54nPKZvfate/hGZB+fzt/pkvJEZcAOv19b4M8Y8OBFtCLauWKsgW+eOPR7+1K3Xvjyn/SxXyPTSyPNr65LUnsA3ISMs9YphlgfD9+/Ivs3pD6l6qIPI48tC/vIX9vt/Od9bHftjtRhYPx5iaa8bSn/ZB91jP8L2WpHF/cTChupWFMhlbW5i13sPuj+e9a10W+uBcvckliREjl9FI2ZvP7RxUDkGz95pD59dzU9ynYjwOjVVt903eMElMRvcNvHcCMrs3j3i4uemSZQmDd9BP8iHvs5xlgQ7pEcgg1anLfKynUIKPWM+3PUIVVUzWs0iVYmfKLRGpBitb9b0UsasCi5VPTHV/fqvwkcUewVp5wbDdD6RodxQCKQZNM2lSS/R3Py6y+sifbtE8tI5ONg56cGXMwYyk0N5M1lZsUcJ/UzXf/YmPJI+RCSb1kgwtz1ZbmsnuT5Ek2SMVw8V3Anh/fF9udo2VeMNj3HePf7myfMTs6bGbHlQw+x24zX48sfXfLyIyauOSO/42e8HGn4BFLwg2GQaTprKSUq77awo/Dzz/J+rIc2CMUR0XCaNrSWzHikJOX3+IyN5f2I1z5WyvwmY2D/rbdq1R9zyRKpEzJgL9F5WW7fNinfb7tiPJ/R5/maU/71zVJa63DsS5zUulknUjWBmp0VvHp5cWAUyD5D+lm2g1SnjTfVOC4RdklRY3iAHxZlmRuAIgaOOFD5g9d6m23zkc5vbQTsOkPfniWG07/7vgfPcpbVmstpZRSlmVZ1+ug/6fYIaFi+BEhRacREcnVVsgoXIQgK3WhLvSLgUCQK1WDUKviNPteCHpqgaM5mwnBxtitnz8/x65F+gAEY7ukwcOfzc+qukflh/vefzqsJxQn7cEngZHhx7ds167HMksHuhDthI7uFW3LpyaxwiYWZRAm99R/jpLIrck/DMVvA8Y4yPRlfs7AGHpWq1o6ASYKjYcKAevAc98N2V+9wowfOr6TDT9+KAo+tu9le38nO2W22ec27Xfrz9hG3JqTCu4le0xHxn4JdCvg8902q6D8ePiilwb35f+cz/AvST67c+aHqPPtoefP9346fUU73n7vCLec+Nvt7at5z/kcN+edj6Cbo9l0NHvjju6Th8bhunwckpF2ZPfQ949y4vdCbK3NN914Z0Wojqmg3fcdw+829+AeUjX3/E754e0p9lfFAe6znz92nI/6Oh+93se6/jMDdEabPjfSu3/vpueW07d3kfi7hI7jvX+4f4722T5f6fDmpu04lq7odNiJYNPg8FnnuB2nBbUBqF6KFS9lsUKGC0vIgC9fXsZP6uWVnq+pAebC5dureymw5eVL4jfL6QQhoMvlnMwGOU5fT5rQ9D6fbep6WRNjXeto4XKa79cmdjK/p0sxA9yNQG1Ckw3RLEmyUGZStouc1x7z/YrLuiyLGU7LqdY6jtPcuJsnpKUC347MGdZOH2Ua3wapBsCyvIgCfIi4zzGNWalmiyfsXd6uYHN9dgAk5/5p/PhWlYkAKgNJApFRATeiCQyRVmus0kU4k99UKSM8oKgVNcCKShCesvAA//lfML8Ei5fXf/5zNPG0nCyqJNBjiGULgQjUBOXr+eLm7buAC3YqAF7/88927RCsy95rkuvuUZp2jclaNjempiUBiKmnCgB16vzso+yafEASHIZhfV2T9bG4L+yLEKrAPANXlIO5jwdO0dUn0bqkO1Xt7tEgL27I1OB8+kOQQwZrrB03N24hAoeAkn824VSMEXKq8wrlQSZPADZI2ejr29FJ7f8xbemDo7Afdnca8x2At/H6qbWt02Nw5XoKDrmY4p5u5tnNgoNFeElXPg/W0xMGsbq0iIIRsOgSk3BrnYKw1uAoScLJHB4HYN6y36mRsDD5U25zEYfRq+0nfaGyTRn9rZ8mkW0Ea7UmJhx9nGoaYGVENAWbbUGYlQca237/K9vXLrDphvTut61Ju4zBPIrbkC96x1Q6XMSrfUeExHs/cD/aybIgxHj45vcxunqZMkDk1kS8vn379h/2damOwyXKT6Wn33PxPyuOc/c4P7x8/Fdk7f8m0bGnPe2/sdl+2M0PnkIK3maddCJzCF///Db2P50KjCn5YnKJVwuSJN9zvyhLxysZ3rcpm1tjqLIUUT1p7Hgu8lJGm+d02LnkxIfizpROp4boR2zOzkeP88CWZSfbkPkDn3PoyXICxbTqa/eXm7dGMWRZ/ShA0sNRiUpU4UxdQmdxJVdGyIAAPGVn2n8XQqAqJJhjOuNGJIhQEKQQjIM73nSZpampLTp0z2wKytseiZxtQJvCW2jFHlTOapqOjdyfz39BA02NKAKIzPG1KlN7qjM1c9ZU2bFrriDk3D5D9RMwpyP4u7XXjj//Apto7rMTv/Q+tM6PL71e2DLUbGLLAt9lzO6h66RTUT7LcXLuVeu3WKixAo06X5YbiZT3X9a+V+cHzHXtlc1+vOt6+6G1IaWzzm7v4ZD9+Q77K12+vEFvn/GWK2+2AFDOQ9ZWppZzjlkvq/f72nsUcn627VFDw2BE3Wz/tbbT8Jnb9g695Kc97UdsrxnyCxvyaXZIGnnnDwEk0X1MLaevX9JndsupyJMZ6aWIepwt88CJb2d0KzB4nyOngw2lGnTddwCtBNW+wQ9M1KFKVXFPQg5JSctDV2Cg9YfnPZibG9d5Q9zn1cIn2uQTX9/u8XdzK9EY25RXqAbWqGdqDa5VZ/LCWBk1uK2+mt8ECFjPXf1agPo6YXfSiECtmWoRYZNajAESSDkmEgWjzqP7dzy0ElP70noPkNyOc1u1tIGgm9xkcU+1pSSBGOBKXLnTbNgceoMVoEYdy8fk8JQuGA9rXPlRt+hK+7xtcYd5cWePIMzXnLkfU799em7qR2x2ZCnTRHPPwsaDJYLOFUnqSPL0xPRcF+6POt3lVP8z21Y4nmWlvfkDYy2k+07kD669Zx/6SrPl1r2enfj526GbZL5LafXJU58SgnfHvVkv/HVm00DWlRWBj0fvRyAR8MPfLgxljGXru1/vdj7taU972r+wHXifAMxrB+xPPkRhuOQAnIrdtqurmd6t3pHIeTwppsNUimv4hbyZIAFgGT6+g3UHol+fZT8ZX3nQHFry1HI6RURE1FofuPIz8/vg26ONqUS5LFuiwJuu/D135AFWd+0QjOzPyeUJCEJI4RZUWFK67XK+XIQ1eAlduh8fEaqyhvSbW2kS8AJq7fxGAhyQv5uN5S8jEM23Rmyr4lKWpsMBSPDuv7NuCkjwo3qtVwS5w07gnnlPyR8BQOlLpceJVqh19uMbqLzwGpXPr9aIGEGhye0eqHxYk5Af2ufpxIcjNn303XNj9gtASbtTk8GuFg9t/dZISdZd9uHBF25+vGcSM5CspyGdXgjxwMFjdxy9By5yCwf52zYkfpZLz0XyyU4A5CZJdpDDc2hzKO+wW+Y9tx7ILZMHv/P4pyOUuWZtWzFumjbW9Zq+z2bx+LlpI/JzlSz7YP2DfjfHDsmMn7MLHvfVbJLcLItASDaA+Q2VlxQMWx40595K7e3uuo+a+/E+tqHa08Yr9tKE1txVsDkennj1et9v7Yy1zyj77UUfctNv2jAFRA5b9lMt5eTuKtg87b+P/Vpd+fu2yxP8Za04sv34s/2vT4wT1jixrtsHbdVMm9OR7xplxV988eL1/Oowh5V05osvi5tORm2g+FrZlS5PpxcAQJFk1OZ/Tc38MrnFQaI7K/vJL7cUAIoIIBsAzbg8TVjKAjT3fbu6g9NO2bojVUZISZBZqNGApSxe3AWYS3Eqy+2SYBz5MAttvi27PIQpkyHWdXwuc25S33V8a9NFuW3VH3O77y95PhE6X2Xz4yXA2FdXNK/kGjyvK0u5UOe6BnkJrsIarMSflzX9JBOK5ektaeC1BkmrZKCkbvxeYpznyzXlWkwPYjQ4uGKtMAuzE8FaSSqd/tGHpQhKRf+57sqtkkaj2dSt1FdcpjY4MFZ6s0PPyPCCBO2k4tUINmYl64/CClhSjxJwqb5evEcnTr5sd23mUxvCYN547fS2JZ14uMMh89kf/XQzXT1gu2+7WG17NQTYFLUYuRYJrmL8i/TjBcql9NG9KcQPmo1MMBKCdyTehXhdJQhM4jj3vsqcJbVT/nGnOeB0h7dyqdmfAhoV4/aNE4ZS1q6HD/37rl95u34eI8z01TTmGAcAMfJwJuLQgCGYydPF3MRW9bYtde7c/ml5sPMD35F4eu+QMzHpnTa8efWWzAPjw+nb012HXNQf//gj1su8elvaMHWzav1dCNa/STOe9rSnPW2ypjU5pjfNycZ3zQWZwbC4FebEVr59+yfGj0/bnvigYNl7zHvjHzTWjyBFv4OdFxhtm6GTgDHvYBOujD0XH5/Hm/9cm/14Bq/8XXY2Og1BrlFfo1ZYrVHFtXPiK7WGzmTX8zYTGHI270QMBUWq1sVLqYKBjGQl5ZncS55d1DWge2O5KCpE5gV+DpmN+2eBbzyThiZEY9ocskFidsFBo5aAB7NW1Cm2yMyh9OGAjc02Ls3w45WeKLpejWFK+PztTY3nbf1DI8rbxpgfXy3CQizJ4uo6NtYOc2yz1A+mPqyD22VNb/4vEJ2cF+0b9L5bGOyBeWwauTaGQ6NvspvVBhLfem9X7mC78Putyh6+dcevIhXX3368r9pC4rt+KwnFoi0Uba+LCIwSUVdR3c1+7NY+ULA53Md+OMlgDoLMW+7ZroXT56tf0TY8/uqrj7d3fqg+Nty8p3Oea5+nPe2n2gC9SssYZCcyvsvz7rArQMgCwKlsRALXNHc91ImaG9P/mNRsUg++zZebMlWf6HT922bsh+3tGdFhu0bgzJrflLh+2oWXB/R6M7crpH+Osk4Rzl0O0t0eaHP7uKKb5mFc9vwNRifspDnHqqz/TTGYfJrNJ5hqAkhaIy61ruQKrrAKu9RIlnwl1qiVCHeYyWGyOJ9FRJJhaIzaFWw6+tiA7dYu18eymbwDvon8jVVWU9z/3OnB5geeyR3prGWeupQJ0FRWh4JNkel8gaAGqW7lrlJ2Jp+ERFjNzK2VuRzc7vEB7oM633g1nQs+2MK3/Tf6hL82H7A77uhOPGYW+ECa9+5+EUFLYklybAZJphHNvV12GOCNK4/OEilz4ae+Lvqpfvw9cryDyb+abTjx1ztP8jm75GBMIj/KAEO3Sd7rPZDBA0f4+82m9vzA8tLMUudAXtKPH5yffJj3CgD9sfhV9nvqw8yt+j1b+LSnPe0n2TWEbNvnUpp4ognruha0aYkDf2Jmp12TN1x4/fNPV+6L//iP/7DBUbEGwV414+50uJsaD7ZfoVwfut532jJxdtbJF2kTyvBFJid+a/ZbI+pVgGBk2X4Izs/+3KdfX/++939LD1WKvyQiLqHLFIomUxJk6Hi9XC7iWXFRq/10Vg2gEiHEXGkxa2mRZKdDVCICXFHFoPvSEhqGGPakNN/kJbvbd/VQ5fpibLlm+b9j2pqZS7h5DBoZbF7O7WlRirb48ICJziaVOMuPln45yQJyNqH00hm3nJ9Qda6EozrCEQ45wvwWj09cuUHyPXgxq873Ju9SD9/jxc9yQDORDEeP0PYWk3b1Fuv4c8oj+c3Lu/HjSQgGN6GQhSyE9rLvt7yRYVu39B1GgkFM6bC/3GalnUM/fmzxvR+f8Z++yOkIfX+MSx89dNNFV8pF6uUI7u3zfXboUd/Lo7hnWRtB5iFjQEuReTr0GQUlmah8Wwc7zSzrjU8KNnf56LY70/E+d+aOfU21LS1gVlm5c65b+7B73Veon2L793kXiTzcbH7cJ3NYaHdFdvjxyu4V+UqN0k1neo+jALib83A/D+H3ePWf9utsHmR30/n0bW7//Ze+B0opO12LxkEfSPxMULmczwDM5MLSw+IAyvICAIQZvpy+5IGCkamfBXTAlrKYL8vi7qxh6ji0CYCnSIgbqWUpA5zr/OYtxXO0/na1MLbvSDXJ7J8yZ3wanrxx7B/b9Rii2LZ8WRZJRiqaI3MqyzY+dcfUBYrq1JscRb+WL+M45/N5fP562iAngQVeiruXuJI2Pxqddtz6rKuVV1o2IYjmw08xkMariRh/isaWV/ZCaYUudT2zno1n4MK4CLWgUmdSNBkgC5kkUwEhMuoZ030BK6KCBAOrzjwDICtokxc4gYy1NufrfDEUVxvP3X2NanRze/3zglR9AWBNDP3N/hlNGhR5rev0y6FYnr5yOpdYvIwF2zkqgCL6KPCUzzk3r+uklvl6IkluVWllQsv3yNIFTCFKOQ1WPBy1oJbug7qHAe7VW221spQWOWkeS1tKt1yTRPpb8utWS6G9D0ee1r6Ptp0PrSe9tCyKbfv+GOOVnKSKtrtAwOewVbRaWiZfBAVFSWERIFNm3AWJgc4t6Zfj/sLm/AGbag2sX2x2WuQ4p353J0392eY1M7ch6sDu+1TziLHbif2OZHDAe6EDB1IEqeurMok0Jji0jYf5OTKXQMqip5kgDuxy8ruf0yIfBvXIjAxyU1/2zMlEIzVoLJze44TvUIZpicJ8W1uPzMnzb2Ms/b54yIrZtz/Ppy8GtlLcohbirjP319jvP9k/7WlPe9o9S9juj5evJkxkmw6l5p9u6CWNyg0m8x4gvIWS2ynv7nN7TN8vrj4dhLuOOWjDa/2OD9S8edtUw9PVSBWaBMWXZbkNTaCxmD4cp76Hwee/WUIL6UgtDqQeCKvYFP1pUlBGc4NdxFV6FS/ws7AqzvCqCOIirJKEQgfNwiCYCZSiIgi2wq65wmj/AZ413kVXyfpbmeI29bOH3JARg35b5TAqiCBMwzuIj6t4zL3tQMy31bb/S7GFBdhLGgkeNCATEDtjhBAWbembYCT3povN84ryO+PoQyTROiRf+5ZIenfptBDrhWBv8FTdHPzD3TKj8lcP0n4p2KncvnXmTuBd0yput92m8r0Dci6dPJM/LJRRZXDEs/dw7XRuuLsBo9jtdPlJtmH/78oGJenXmk+jymCduZpu6ShMYdr2HL3XdMBuRo7Bht/IRe2LgwbMDPsZE8HdofcjV/cdzBc5fKEhREnyDf6W5OYUF8B/Hs76gCt/+NUnTDNjLPjI/rdnv27J/NxfffXRezvj4je5C4/tPf3zHfHxpz3tae+3DFm6eSrDJ5Hgdp/ZWeQOq5Ntjlavi4nr+KeZYavr9E7bRqliPpoxhn28GVWzqdbgaMawA678ARD04BQ+CR+3LdPv62VD2U+n0+ao3E1CmLfPSOvcmGz4FKHv32y/HGOyAzQaqBAEK6Ews3CJHqYwl3SWzsHXYKVW8CJcalSRhqC4Up2+zRqQ0v9GDaTPnbisGQKQQwQdCJOnD+hyanDkJ2+ebm5QSG7whsrLa61apawNc3s/ckvfzr3S0YdtOFiUFKAoiCqGLLdpgKVDj85d7s6W1iBSfieKG8P7TcgQQqFBRrjJHYaUFRxM7lkEnda14+wuceC6B1onXn9uS9yfWfBikOAbAr1fcpeJ6l26uGTplaFMCULLEM25lwMxnAcz3zhF6X26YUjvDyX+sbbZu/h/gY3B8IaKPtV57c/VnOa7HUGbyz7SKjYO0tTD1nI2rt+dtKt7TNvxGbInb/d5s6sevlDfnxuZluGC4ll3AfBiViLzB+oAACAASURBVLKURAo65ecdV/5HX/L3N+43WPl9wOzO56c97Wn/3e0eGZ3dv8xkqfP5bIK5AJyWU2534DK5p1kxUSKF0sO4rmtp9mFt/nvfoOPvw2Hfr2R8e3ztneHhIB3m+96bSjaUqzlSNj5fJnUU7/0jKSPI80E+y/FqGWOndr8IRYDcbsgKFi8iVi+Vopvgr+t6Ac7QKq1SVVyiac5QRMAYJiHMKhvPXsSa1Ii+WDJvajDphNWgkIXZEXMtp7cXYEyKjkzmj2PsY4qfjm+7/71l7fZRhWDUOR0zD5Lsmhkuta6PvkYF8hohIabXyQSfROIxFX6CNUi+46muSX3l19v7nkSfoOKZFO5d6sd66dZ06BexkAaYVAgojP1yjbcBqwY5a5PbH/zvuhftsL+WCjHnF72x27SwGa555DJPWCZfPx8qSdYrkaH34eHIoGkx8+NG+9gQupXaeKeNHrv5kczNLCAzI1ssEUbAFuTi/qatwH4te4C9TGjBvTbdMvPsevutrvzRYe6cwR1X86s92n+nlnPLy3+HrvwBr+7OX5kn0Pbfoe+PHoPPfseGwNfT/hZ2u+r/K4M0W27c72oHimMHQ78wdMo7Vx7dAcqSPUpPvVUfNBe/nE698zd18JBOZWnwPPmlqat78juLeTEzs4Tec3push8iOqO91nDh5MXV0KbjicHg0/hToxYvZnY6LcPTAnZ1MCKJJQ/v1zw7vCynFsdvoYbu8t7BgGwiHpxOJ/Te7kHzHjvvT+kfLxtXfnCObX+PTmXJIw+i/GM39/b+5tnXuqI/D60ofbJgulMO4PX11ZcCwE9f/vOf3+gvNeq51gvrKrzGGpLMQ1pZESQt/TAQxlDAakWL+EsRW3gh66dGxeWCIGoNmUwuRNDElt2rsfJK5DF4XiFBrFG7a0ggKwzlsqiMPsklZYNjRUwMBGwho0nJvpfZiquO6+47AJMyV9WBIk/BkASFr6DlpI6QUQgpKrXAhj+6r8eS+qdmxegIB5K+PBWBkrkAJW5qjmLahSB+gj7PjfleTWh00JyX3PNYNO9Bwbm1buS6OLGolM2Vt57qGifB2fo5zmvrcyWCQHMXabaMdMSW3lo8V0HhjStfJ/5349h4ArlWbiYH2s6vu7XbnLwZhtiR+qbJyISoFcCynPaPlbYfTnI0XCuEAlMfA9uCsBeHMgoYkR9m3+ZdmNujXWbgvXzCY8tF7wEp6x0TKmttg5IbSTNPb/57gPIebzErZsuff/5TVopoLqn1Re7YUPmZI7UTIrV3Nf1pT3va0/5WNhFX9pJ8Y9kvJXmxsVxK+liONtZeY/F7voqRaj+0d1EgzXbOkQ9ZSUEx4cyDby+NwPd7zHHsrwMt4Wy+ip9tn4XKJ281/QxaZruiUgACwWKCVlaYV19W2SVwFlbaqjiHqrUym2sEIjyM3S3LIk1iNQooC1DVZV5aTwZCIjp7PiQTKARokhQCaFbQnL/o9+76efs+2yV1ZOWpUQHgfu9uvtRMntEmtuNdRaT59MQOuR/68Sn+NMoRCG7WkHgkbWbTWBykmsZ0dYNPej2/vXmPS4w/0xKEPkVb+TiUOvELYfXVk7Akh7g0/XgGKEB7df8tryA7yhsOHfvtuaffB5UTQf8lyF8+V6llVJbTQB+GIpAPGhK6d0uh8bVSbh3Ao6ub7T0Uo0OWyqbRkhm6++qtaV++fMGAZpx693jlwCR1e3NquMzNrfHjQ/PyZNkPwWaWMq5G61GZ3xhje9rTPsvuvmxPxZ4ftp/KQ/0l1sLBTRVRw6nYtPy6A773NxLXbGSVKxsiOQDMvBTcKrTc2pVK2HY6wc2KmaSomyc/o6GL51pjRvpv6BxTQ+fK7dJUCko3v5rMb2p770CuDz4bn7VUaBEk7/ETCELISKvpCxS3goDWiJWXFV9egxfyXOPCqOIrY0tuXgNBRnJpYAIiFFStCn75498UdIGUyERWPQn0jSmS92vfxLlYQSLiPin5qOtW9n6BeXvsjrpokuvJRmpz4oE3ipHt6RyD/OCT+85pi035mr18jwbd2dCUUjjxkouluofJYcUEowGNMe9ywBzemN80EELJVXG+L9e+yhwV36ntvSdj5Krf1DqaV/yNrQDw1MPzv5P1XMxdLooLHvLYaN+NXsKqdYVCgqksLdST4DOApoPXrt3NgOqwzoxPPF4jo2BKcm08k798PH5Ph+94Wd2V54gI9TgPYEZmEK0p2PTeA3oC9ENLvsv7+2B304+O/364ne2lRibU39V4nH9iaLkR2ohVifCbGakQF/rS0BZrTfxQNYqnPe1pT+v23TTs39oGCfijZmYuWJnST03IYLFBNwT5nDCW0sq9ej/tOwPDJRkGE0lwfJrJ36amfuBqBMXrZusuYea/n6XfsDISDJZAe4mcbsP8VCRV8pV6Fb8JF64VvDCqQiSs46RkV64mqSIoCCr/MyGCIE1QTVwVMlvgte3DscRxgd19TAR2eNtuS9OV/xk2H/aOp+NiEQuRCvCD8OBC2fxRKtQZz02bUnuZkdSD9L6wlCHkZhbearimTE1WlhKarnz1toX+Ews73VNxuRcDeCM2kFDxfp/xZxGK6I1xVxveLHhIQak6DOrrw/Z4+BUSrD1v8GoIHqg83kF9TK/xs2xWQBqJqto/ZkOmxhrNRibEWhuFcdLCGuvA/tP24I2zvJOcPHfCnNI66ybds3ee4nw+jxpkIpPd9DG6/FtmvcdGa8cqf4SCARg9RRqmX96sHt6nK284vP4Jf7gaQA7tbg/msrhxgSb93b0Ew1V7bmWqdsirG/bvw3yl/lZO9Dj+Pln2kWrNkHqd9r852hu2Hf/x/rvSY2nlYzPDe1A06T139c5vP7ia9IdpXrfGO4XH7+n9f3R1++F59sfHzhk3/eGD2Z3+3MNRc8LafPLpHbzzCPz1dQkO+PEPx6scDl5OL4miuXBZX0sHwABZF4f5x5evALKQOM+rocnMeYdMNnUawoBiLilluWEkebkAwJfTy2jD//7f/+vl9PL1j6+5cZNomNwXl8znFcIbXXp6efGuSX9eL4uXpZTUs8f+jlvPDRhJNuPbeT4YhZPGjHXTk1sWUx5h1nc/6vNH5tNyJpOEx0SVm3CFzk7WsGtJagsdKqQ2DgZNaM+zmjZiMbM1gtD5nAKULxfp/9TXb9QlVsaYdBwRiEyOSPmY9L8jQkVuFOUQXv/rnz4K+lZ2T06yMKYEjNQZ1CYHo8mYCs4mHw6gWJgQoRTyH6ieJPgp8Xh1qNvMqAkDbuuHDudTu1c0vaiujClgLgWQQYsk4Xg0xLQQBvMOLRvgwSYhEszFjIsvMmv1azUqGbtgMgkBr4khlkIgFlu91Xti8Zbh6haGtRjNez5A+nE9+3V7ox3ovPDeCeNl78j99LTvwFbbPs16U6Ofcnumx5jvUr2H9GSHRFvDUmgShNCrQxQTpDWL+zrpcjROPFMfPak4EiFm6rykyBgavEAFEGTwpsWZI0MrAmT07drdEG2s9vl6M1tia/7oEu0jb+8YqvcJCv3Jtl2IyYwNxRDnuYBNUrOR97zdPy7uTUJeyI4yN1HW3QMDjHLl24tAYLrL13ccgBxmDs9Vzdw/Nh54QErKzhbuSghk5xtoYCx3bSnTPOhlJO7zZtmn6Q0tls3zkrEFa6G2/ChSlhq5mp1xSQFJWgA/1Hb9nXPXnva0pz3tp1oEHSiQgJflhJ4I+3o5D5r7JcdUowvLzeh+mwRsSeQ0M6B4OcTzXk4vZSkOE5UTeXkT+cuDm+2S9Wdi7kfWl8OPR6JoH/gpALy8bMsS1nvaPD/LHuvHA2CqPFKGpNOIgtwz2ZVwGCqxBtfQmRJsNa3iCmNTXsz/cg7uDBkzY3cCOxJvLc0UoqhoUZpJXxwmBcFA5ZieTUAvuWWCtWKfAIBKMRREBMrH0viGtezJ93Zox4lFSAtRegWoTXEFzbNHF5VXyEVQS6/w2sIME5DcGmPmjtU9DCy2OtbSgPkUrklHr7oz3am2Onyvd/Jr3Rib+ud8PpcuVnMq7l0oPSMNpa2UoqcWsKR7LuSCGs3hpk/e2i0PHv3DY82WGc39Wdc+ffa+HLoaxxwcwjVDxmfLqdhlX+ySOMbOaTu5x6PrGppIo0NGX73HflBO8v3oVeYq3B80/f75J+6dmcM8o0vWKvruVnJPe9p/Y9NH0fqnvd9a9KwjiL8Cm/+oRVQJBDGqjU4jYWrFZEXSktVeX74AKM3BulZnny1H1FJm6Gb79usfX82sEanvTDcDkgeaaOOm3NwP5flVh5qPW3LAj7++O/NFzEjkcI5Huq2ZmVuQvofqP/dev+dotS8hrkJ2TFBLBlhIDASMZiFUIlRkqMFzXesaa8RFqMAKq9YA8p6JGRsBJv8T0KomSY1vk+FdWfLjrfFzJfmocmoC2QDygVdqWocJnAaglVVB1AqyvU1zeGzq9tZLu0BKhxrVwwDziHdVMSA39NUIQy55d+JH9uH411q9J3ZvbCSsokoumBUMyJ+iYSlOQxirNT++OuQOb1WfmPU4k+3t1vD4GVPHVJnYNux55+g/1sR7Z4RZnRCkrvYzZH/m3st1nbXvR6ZvdlEhCpFCNEXuzLgQPR8AdjEWoIjW6Hfj7m7LUbbLNVn+11F59EgFOle+7fkLKoBe0/OkkteSukzb5o1gs/HdtfFcHMgHDyNLYctbkI9b8NEr/DBX/pEzf3vyT3eZaUiZ2hZcRFOjQo83Jio//eBoTaN/pUzxpz3taU/7UZMEQmxTTXIf3czNTqUMgs23b3+aEKALXychxdk23zq9HDO3Vv8SgyEzecan04skRJjgnaQzZyG4jqeu9JXenNU29OuTppw+oxBwhVoleds0jq3Y7f5XTTpo58dbMgg/mRtgZhFjcQVS3BJVPdIPN6uyAEMlIMkr6xqqpnA/r5cKC1gYrEuISuBgpyglZ5RdWsw4fDgApIeYIL0xkbKDi82Qv113xUwCbp2cED6JIJab49z0BnS08uEdB5ZCv1M2w6JgIbekzJBzEhtJFBns7juKEAprMHNb+7htcYZdxVa3cKNZddA9qTWjFNTQlT/osb/cDlPVD6xxNVoiwfDjv5y+FKFxQuramN+kpbcKeMiiGglArJJcvqPmAlAD5eeCWZhReWyyP7yPyt9e2qcrzV+95uPw8xO+rWmnUI9PqHzGMZJXY7t8Yn43mfSv1NT/BNvGBgDz2j1ZfRxdseR3pl1e81Xw5TgWcy92c8NN38kh2PU+H1UwmPUQ5rtyj7u/235ngboLTL+vFdPnR7840KF/fLn/Ws/Z034zGxTnqy242f73NN06TP3dT7pyKm07cDq9uGAtnrChIPN48h///m/5wcGTuzfoiCb48P3VUGrfKz9eLhf3sizFvYxgsQwRFS0/jJCKl9NSFvNvr6/5QwKLDH2oaGikGbqu/JDCHKVJrgYVRdQI7skw9+xuxt7S0nMZGSVvFF3zTvyYctq23s5/9/1/OCpv9+Xq2xlKHh9meZauYd/c+hiqEWoUdDcJIQRMAM3/zz9fCQVEOMHK/FbfzpcwDygkUk3rfZfkqnSsRZhwiUj/zAVFOIWgGBZMHrsARcR8MZlccVq4XmKT/58CNpcVQIxLNcfiWJCC97ezLScEF8A4m2rdjgA0ahHQ6/sKBtXosjmw6NwhoCRfGViIIpbGogkJZEBwcK1rEZNK4UFT4/66G1urWvqEl6JBpCle3cO9efYGelGnlrRKpckWtlzS2tVVH6ZuH1rrE5s+3/E95vfU2AB4WY+ftIMcofIAskQrUncfLhQzV9hKRFPwXGQZwQBpFCgHLeghY01SjffFGIAUJLXUpfRFBhQIBjP67o1LzZ/2LnZWyaHZHGGbFt5bzAh4D51k9wTe8W3mehezes9ISVjmcgRCIU2NpeadHK9GNmquvAtX65w5/NDGwH5V1ha15m1x+P2RwquVwNUqqEVCps9b0pFZgUnae61NkGj7QQ9zHXndPjb6vrCgC8vtGmWnK/+0pz3taX8D25gJN/otdV3RJ6r/+9//L3SglPUCgM5pWm+zC6ViBioVB82MXYokh9bz+exeIspi5d//8Y8miSi5laZYv9cHLD5zo79nUdbc3JIVZ++ybu6Z6QBQ/3F7sxnv5/VeoUKNkCAjI93WXN4oLIBKVIbMq8UqRLryYiVrVBmq+UVo/r8YAaOU7n/UHSpfk4APRChVFwkLMahak9aTvoSZDR48gKTfw41q5ZmacyPrVbgE93v6hm/3xuEveAeXnP1XoXArPppOfENMmwp+cuWJvkMRXdGo4QkWSw6sKmzJhT0tvqPyawELoiP0tSPxmoqVDpbzp0WRfqr1eJfP0pygCUsSbNLR12qCMQxZGBimMIZTyD8fnKGl27Q6UJyg0qHBwk6j/4U2v9d+GIzq2a4YHK3BlUfvya1qQab+omd58P1LOADKx2lyxMdnf9jbH7VPfkjH4XTDkjderWQWeMmyat93PbeD7B4R/66DPjz+4wf0cXsObIpMPe1pT/s72zKqsYKbJ20sWfKzQS5NcmHSk9kmqlwPlI6Lj3+bbtKdfIzB7Zal5ngXw5gG0GxDknRdvhUDt0nFa9ZrU+bpbt82MbvOoQBAS234Gelsa5lxXnXJjsF02DNH4cVd4MjU3Ol9sTVlM9taO285sO8flOtAoIEEwbpbLzUJjHJ+XSuMxmqieZUCqOIlolbKEM4K0UAQkqkh6J06MlD5AMMIR1LoG7UXCmco+TD5hJjDsFMh1RA/6UzrtOauaPt3l/QHoN3Ind8wg4E/bEmeGWzvLF00mA8t+3TyXKFolV/VnHiHUQ4LGXzJ+H8m4xkLWLz58Y4wVEN46s2jCczbHpWHwdRFaKYounHa8uvzmoYfn068Ay4r6unCgIusNGVf0ahWaYuEmgeeYa4r0oGZw7pCS3IpMh1juKfzWmg4Nn/l+qc7lz4t+1tobttpzrdpwQEHmiJn6vbk+5JZ1JviYC7otlPgvufGaZjRTSd8rr83Axx8y5HOIGRW1R35DOjVptpfN4KYyv0z+OmlEbPGt5KZLcBd+bmnPe1pT/v7WKaQwmi0IoghoxP/+OMfbQfhfP429j9NSPk8e2XaoCHZ9gkGU9IscvfHyxf3UpZSvLx++zbisC9fvwAbGtocx4IyoVB13VzVuQEPyHs+aNPdGZJUMEV1d/+bDqV58xYWnyewmUZ8S6eZzW53uzP57NMKj7+9R84k51zftqeZCZ4VZML8m6ECMlQzmpjiM6Ws50tFUFjXkNvAqke4xtxC0bvFRFlz0SABnSGNngNZYGo5qnCz2F+wDCnpyGn2tkx6nhlZZm+i8nOfXItJ3/Sh6WbbWFeg5Wim62lCoXfaN5XuacjAklqZgItiS9Y0eiN0m8lK6wV5avQQDrcwDFJN+vEyV0ffaUj9eAyu/J1L/w6fbAR57E7QIuV9xvPZFtb9Mdp93trRisS1ZQxRYNaXQA4Z5QEPOuhirOvQnvFU329LkRblGC1pPdaJErTu38tnWWl1frxNjJpfC1CaduuqQSDcbemasBtXfgykfZXYftgXwJmYQeuP6hsllhpxheboCjYDns/GjO7SVEjrr7ch5HwA9vTnX1KIwLX8fytIQsBKke4C6AdKve3Beu9Fv6F0fsv2u9l/x48/OMTbZ7nd/z3tuV3lD02zd5/saU972veY34wM9+yWrXjPbELWb/e/rA0OdcFkTUteYEd5CXz9+vVyuZy/va6Xy5cvX9z9tHgxX1/PxXxZ3EtyghsGLoWZLb6go/V5zJO3EACEf8wps8zfOQzoMhfrXtXRbuLC8/SfdTObozJjY6msPkUMSnMZ04Nq4JfpqihVmw7HGV/Ksu0PgILx1DMmpR1shn7vkr+etq7rY1Dt1noewtYDwMYWlRSXdbT268sfDDCiRoz5b2W9UJVBw2rxvy7fuJzKy7KU5T+//TNq1KgMRkRloKlGDOlJKNrzIAl1zT4RiVR5T45VMOMvmSObMQDLEjESI86XcLNx3VHZNBoFpw3ebcxLtWTn59P0cp3r2tKmp85pLmFEB/X7o87dDJnpHE0lBnAr7qjnS8p4L8RSsUR70lpuKwUL89XFAniEXeoply6RQvGQOeS2vKRL5vAXM6W6ZjruDrmtBdWXcAiNV8PUYXGmlM24+MaNGDd6muuPCM/t5Zm2CMAs4Mj5zTiqGUJsgqG8Uqq5si1Hk2MhbURD2fu3BXLaRlgC3FMzn50xXwEYRTV298RcLw7IFlnnwY+eASCHwc1poG/9xD33+tPtPgN/M5/hgC462bMmmsCXs20vRNQ1l8GhMI7VESOxeXOpYvLdMpwBTvqS07jVA1Tjvjv7T2iglY2AND0s41CfEsxo8dUqdIp/KS/ZCRLk08M3Bd6uiUMb+GEI3VYRMTNFOBKVH6L5T3va0572t7c2MUswaY8011oluVlZFndfvLjbYiUUbhv7c9i9Rchuz5vht80y6eZdCQXe4aw/4LJv/B/teUHTqWe8/BDp6nH/7rJMbZ/XFXNjc89cwHCt2KIBDRL1+zz4+apn1H9XwmbOUbDusckZYKhGyk0qOS5VuFAXuYDq9uV//F+v0nldv62vf17OJDUSnzM1rWlEtmqsklcKucJktJRQZv4ss/SNauPK05MxL6MoFrpEBY1j4dQuBi0vormPHZydSFO3Rf3u2AOn03o3Xu1vgizld8IA71VaS0tv9U24RuhphwSqU0UoZGkyIwKyBI7RrGQaXmOBtFhQ8uOrg27VEalBac2z67QQr+8hL88O/We7Lv1K28F3AHxH5YHuaypdUg3fHcbhxFtH5Z0BOpoMi6xWQ+N2eQdc0W9QSyLH+Lfrx6c/Csoc5rOyCSdSze9gW28cGNEx+3nBk8nTA4b3fjW9f67jkClQ8AjAlR9i9vNPfmqPpXaWTbzGWr/3YbU8ggLSjbpoQ+WRoq3fjTI/7ItPyJ3NIMgnIe539/9t3oGnPe1pv842fvwMAM3JrAxF0N1PZqeyuPupeDHXnLa14/LaI2Dvod3W2J657yMV6WHIYhvZvdWxnp13Gwo341y2P2DjlrslZ+D2WsxsJojecuUzOD674Psa5vcaf6/TbvYfHnye0yAqIoKoEsEAQqhmFVYBAauwrlxjjVprRKt6i21x0HhEw6tLJJ4Z3RcwiVFiB4TNSGR66IP53j//6GTDjkkDUGeMjJa+37VtVJwseEsBW/mnZNckn3u4XCZtvOesCbVfHsiNmvJW0UgkMrAYDSxZxtXkGydkuKGWS+FGXcrn0sbnxmqx2X9vK8W5BR/ryu+2LUGTs0tqaBqULW4mNiSeWERX0uJZ6yXTLFxMKpS1esNN5RZA48rbkjkD5kY3GmgmM2ufIcPozLlo6y8x3/KLbr7rKUbqj5AJ1tjwmQkx3pR0G7eQ2+G5ukxvvoYTHt9GOWTGT8sZuNvgX7n+mYOMplalGD19+crMfSbCuFntCq+S4NYCdoNofx1xsqeu/NOe9rS/lSVBZfs8zM3qZZXB3d3M3Uspxa2YD9QoWc7bT+ZB9SPTxmfJxVyN3r8qMZBTyq+/Van0igq/n5XsNsoMICD01IWIIEhpZdBI8yhWqYtZBcO8mv7f//k/rfhpWcy9uAeb3iizZE+eJlF5EQLWOocGtizV0TgmHaMxCTq/hkaNh6BV9RpXYht5ZpCtMeL7A3b9Pm9DPPSCNjK9mQlcqzqAeppheDD91NKlFQE5aorKe+xVbjtMnhC79Q+D9U5DLS23lY7VQd/58Zyqlv5WtlHqdb19JAQP+tmIYJhgZBEL3AQLmWSQi0VcWSW6tXQK7e8w+zOSqHM4YIhkextk3hRsJoWf+P36bWcTobG7q1zkojxTWJRcpnTfmdEx30f/vsOuHqe/OHCROrAt4X4i2GTDbttm/cOjY0IUnY0EKcTo2+M6E7csog/YOxiuP6Irf4+731CKg+XgbimDqxts1/u8a0W7K7L35M0/7Wn/SjYHtdPYsOfmnYXwb3/8wzrOlAoz+WWNSEqNu5sLrCkY/fLykuROpGZ8KUspZhaUo+tOAOgc3870bSj7lqTJVORoUA0aRWGvYNhyWGVmLkDKSqu2ESF6cqrbOM7ByDbJbh4NnAYgKf1DRfG7BZmXO+67HfGVLV3zbjfZcr6uawStFcyNdHEudY0qkpm+HDIVW80FXKRVcRZXkGrooVlRINaaVXvz4G5NcVvJaU1XPojQoJsruha7AMIEMYXn2zKA6aRLDBoVl2pmPnWydSoFAdZADc6LriGEYSj/OM0KegCKACCG6tEQutG0BB3rya4T3xgJ/UGKICQjTvCStYqEU/dQi+hkEZPncIJDdCOo0nKHzSiGZXaumcmMgJcF5mGeKjQ0wEp4Q+WjNI7NKAWV6nkcqa4AuoY6OsK6Yw/3aqYHT9L7bJ9OffDsSY37nn8MDVlYX8LlukNKAB6Cs+7I8dy8fEV1YYHq+XXJOsCMF0Oizg4AZbSqR8ZcaPrxqeETXsLc3LcIRnG2DAuk2s88huz430fv13axjzvynm+z60LdfmbPMelVC4AxsvUgBqMugGqYEAoZU7B3YPNtdJpbOPldnXQ0NTafCjkAd+sSqEDmm7i1csMGNC2g1tjjS58udBd6evejlwSbPHpJwVnYHJykbXd85hAeHw2WaJG6urGbUVmYjS42V/6gvtJvvs572tOe9rQfsJ3UY0mSSZuzHyDixd1LcffFfQSUd9PN3j/YINg7vPCjaOqV7f34O/60f1z3/f37N6n7v8oo3SYJAADc4COzdiD9NA+TUGi1GsTIYD7Ji+sirFHP1IW1Mnkd7svJzRiMoIIjFZJASrxv/ggDNbKUD3I2jtho0zSZISgK0RYgkQnPlQqqF6nSRGTKp0KSgogAmeuCIQl62C09WPG+BdUdXfmrYq+FOAVAOFAatxsgnWGoySSRfNk9NwAAIABJREFUAgwJTpW2MzX83e5XUZ1OYw1RFkBHcuKrNy35GGrx/V8OgtCv9Tq6Dmxf9lx9u/tr6KD79KEIp+ipBZSRhbLGtCEYbgJoWfO1vdc95jGY8dj1TzVnChfu6+DO6vv/KlWAhh/fEoulnpWUxRVqbhTgElJKyN6I4H24DUIGw2b9x59tuvN5GB9OOttvMzfamjhpRD6xArCYt3hlh4pa7E1db/h22HgDBX/aQ/twVOFpT3vaT7CtJlR3sAYqf5i6mq9my3ZdlsVc0cQ2DHAlKmQAhKZGV9wOZCPHMXWgSHB7xgQl2XMu2QkS+SekQzXhzkfXfMDr0+XKZWLkH4xO0+nsB3j/n2jeKx3WqEhU1IjTS3JZZLk9AKfwLepr1ItUoTVUFYQDAbeoZCYxu89SoeMKm7qPGiV9BDesOXwzzD5wvNanuxZbU8M57N95/4a7n5YmG++m4Li/u98OtDVd9kFTPozAdFn9DpBq9GQ6oI35ndzlroleWnhCrDRWCqAY8FBXemJxb3Cow8wTok9SSaLyPdW11XZN1k5DTDvq3NIN2uftrfws261e5tukO6hzN2091qJkmRwxXNKRqek9jxPsaH3KdJIGGIOMIjoByRCj2OpegjBHITMkN9rlZp6fm+6+3ITNrZ9yqLej/Q4m5eO29TB7yQVr6xyNkq6QaJWKFKoqOz4Op8+bpcfatA173gjGQJdtSM/q149Y77JZW+zeHkj8wuFecgxsM5ZhoPKOd68Mnva0p/197S/LLfvJ1qqfTiKJicqbmwuiZl9tDIyLubsv5ot7BD5kgwmdDtN3j7WNVwMM7bGfrUL2I6j8Vs3qO63n4260WiDj6Uz5EIUlF4KridQKimbGcPzz9bwKBKqpiuxIfq3Nd5+44625w2UfXvEmsiGw79DcvHTu8mnZePNCOZqVKRlLAvPCcBS3cH4uB4sDGDXA0OM5m+LkPUZof8BuzzwLszRWF7c8V/QCRv3PMIW3yrXCujbHNGSEKBmoWMqyJbaaCy5zwonO8HZUQ3Uoa7t23vzg0PuRP/pLbEvp1p4G0futdaAAYcGmg778/+y965ocOY4saAA9MqWemf133v8Rz+50dUkZTpjtD4B0xi2VqZKq1F2Jrzo75OHhFzqdBA0GQ3LlUeLo2wHSMwu4FkKfikYm09BmAUplZWitzP4ma8otg1S9iqA/qkP0147Lq+t4hCKXb7NZhrBpqnYefnaFg/5gjpAch5jPov+z7rKMlDkI/yhs/koT2R6n236HXUjxzpW/CCAkGLaCo8zoyXkDYHCDDTLR3STfNaZz9e3K1Xnn9hl8vKazryPXzaxgy+3dXultax5py/cf4f034kJN4uKH1/sbsmqd3e0ifMQ/e3D9D6ThHtrD/IQH/EJ+C5n4g2Y/OZdAbxZrK/vJBdHee3S9ymW8Y2+43fWNKDTXl7Ft+fbWLp7W4rUf+18f6ebs0/N4T1u87u3dFU755p7rPk9PT/NzP3+dn8/n8/PzM4CXl5dlroQxwSE68I/Pzw5zlQ/tAnpfBqJiXk/U9dPpSZQBiiE2RwI4eTMUUpXhcZHniP/5/A9cYofpcI5WFoDPnz4Fo/dz0XDz4QIkHe6bP51O/eUMYGW45vU8nU69BxlXqPwjPD5vc8YB6pIkPxzeq0Zf+sNSzbSdnqJ3iS/nPRv51q4ws9FzFFH67NkM0/EtXjpNgvtJQARDInsn92AndmKP2Bkv7EF2pYC7QiVhR8mIFKCcCamJZMXXlyLYaGK3Uif38FDWx+XUfRfNToqzWVPv5fgCZhb77u6UYF7YZFJ0rGUwITUu4enGrcJEyIy/i6q6Or4HEC976c3Xs1m4+zj2HO9CnT3BzhSi8VCyuregEyZsJSuJLfNlBVOklA0CThZW6qbNVbRjE0hPfsQTzIGNXoWftFkYdrdwwD2B+aps4IisCbVI9WWGAyvjd4mV4ZhJPT+vIPuFX7F44LeqqCMjeRnkxoehJnl1HEk+eVxmTlVSgXxUd8qVOY3KlAmTQXIi/fiWpSFERjiIobRpNHOHubQBmfx5ZA4A8CW7Zt6p+fQHvPQcFzb8Gyfa22H5smLu8dZflCLIZ1RNeOQOHctLjR5rxIWMD4yRI6oJLndlHomsiN8OsWne8ACnBUA85poaZWyZKg41p4zvGDQcWgCST52fwx8r5s6MV960T53F55dXDXvVgHermnCsp6+w9izmYIDZ9Yy3YgqZ/DC0JWu/0z8+S/97/ZMi/MV2nODqylZP/WoatQeff5DdSUv90fazRYhW/eYP+7C/mz3ihf+FtiqovG6JyptnANcu0KZZph5FqcjbvNrnkpmYTonZ8tsrizdf27zCiRTKPVfp+777jyDA3Erj44Zg/UaL3vOHbbuvr3BrJhQPPYnLdCBEBWByF0LBdNsNcAtoJ3eokyHbQ506M87BM2OP6KKUCwMA+cBkYpK71XslhtaMC5CIq+VFNQGYdQZU1Vgx3P2sP69yVoCV0IKhU2IGEFlP6nFj+v1FcpFgK6f2wW8v3X1fNNBTD3FwuOEqCZrGY3tpyRMuiAGpMjs5fg4DEAAR5XelgqADgpsTmzING0w2SNaECodGrafJAi9n5Q2jxHq/P2LWfpDmqCMD+0r6J53mJjjhAQMaVleVLlrSQqgmc4UDLlnQkKSablnv2QXAlXBwsXIW/GCELIbDXlqKD5CRQxsURwXQn4Sc+dqXxudVnmsKTeKicQqPnx3PxPTm8wWvHi1sWhZW7woxyl+HlhKVH7j0H7Vvzmuzi+aHH8X0v4CoBhwZEg0BAtiS/mhuboaMYJrRLlD5q4v/4Hb/EXuEJj5CJeOP974P+7C/vfV+sNZfD2yIIvDp9FTs4aKkF4mleZvo3XhnzRyNlko1yak1q+KgTHTH3MjhLdZvB0hcsmUrdz8RSl/ZF/krd/Jy5xykpYSY5zByNc5kzJWH6kve6vWeKYNzd8aT3lC753L/GDhTe+Ch3v2VEjU3l5hpXipdSLogdZK9Kwxy66ZzxJ7YFPRCdmIPpje/B6WQXU5UcggSuXeQi0I8yFET6vKacjeNVNe8xtEoLEp1Zj5M0UkybyEnUKNYSbF2DagnMP+ttr3mOA3Jmnnxq/mQMwdwAKKhwRSKNhDlRJdTcRIME5yEaATK5cr2SxXKJMO3Wt2YJ8OdXvCrNZ+EkUghRXdN3UkvfrwnHm8jFn0ZEcJVDPyP24VqDe9s1/3enbG1Is9oaMYLDWMhBJroSRcRnTLAGF6LvmjZ8xiUHET4vMlyd13mjSjEnoPvIDeYHxD8TA6+qRCUVni5XQ9uP9Czn7JLWrbM003mW/LQquRZDiaTflahjyxFHACMFTIisn5WHuCHAaGP1n4X8Yb5Lv7C3iylBtAQkgvN7KzjaWvhyhuQ+cJ/2bV+2Id92If9DJs65Tbox7ffXpm7Lxi8Jhn9jUlUfngkNHNza77Fvt8dX2Mh3U8i0Cuc0Xkxkk5PT9Gjs0eP522bl/fKQP4dbNTvAPvNbD+ft9MpK+Pu+353t4bDmSuXvRYnREZIiH1IyvRyp62DWWU1oLNAsSu6eSd2xS51xh7soq/AkyTR4M38fH7BcCNwuOYJn9t610nscZTrmeSZ0S4o0k866TNxtn7I1fvJtMnXIHncmYBXiX2OSMBcSNS/5wcU2DuTC11F2GmDnexiQsteea7MtFePUSZX8AgfJAfjKJY1dPPyLASAlEc0oQQozVM83ktCHuiLfvyKyv+CNjv5QRrJVsqyWaNh8/NGOLuBjTDKkBwbesgUIi3CKdWDCAdFXa2vgWwW1gpr6tKMQqXEUPgZ5bT+qpabNbAAHMkDczWUQpMVhirHvaRpsrRCZQYTqjzXYuNoinL+YLuiyP9S9j2iQ5cj8IWSMoRVV36loP2ab9qHfdiHfdjrdsGdveTNL1+p1QafY93T09N54dC7uw9083Rqcd5Jxh6n55ak+STU17EHx7Ew9eMCiimrUMfkqQiDVNM2b3D2fqTVev0QU4Qg8eI4p2PRTr4ii7G/AGjQ9tyc6W4ZgBWe417c1radcKNZeZGItHyVUHolB28bLkG4o5GX5FFcLiFOT0+5/a4fXwGErHOZmCIlWiho5TJGUAbCXejqyayVWbg61QM7QHA3nrte9LJ3dcXv550G+AazUJjQ4Inri+z9haTRJIeErgObJ+q44/kBgAJBMv0Vmjl6pCjNeDo4sPzBlTJApHqAEcW4GnJHY5+tbdkQR2Nm2isPL+kinHCVZ62bD7NtjyKjRR2ZbJBNRGqJpHK80NLXpJxqkcB8GCnFeGWc7UDKp965bc1LU8WJJvPUjO+G7s7m3YG1Lqm1DHLNjmJ3UPn3+XV3dc1n65XxHhK/fq4l4nSAjs7cZJms2QZPycAteOJRDcpJY1AyBUgXQTnDI6M0PEQCXdnhzZrB4JYln2jwttGbrPKaarHkRgd8OyhJeo0ePLH5Y8vy7SPXdowzwuiBHGvRuYOZ+fy9dDDjV1R7jC05cjZmzIde/U0u4lCXX07BO453RTXzFLOfqNUoO8MbVpJC9cgWBZvV1i0ZQFjfrLd7vOsI+bo77pe6OlFrcKGyA7LgyLhsjXf/8Up/spJ6D22UuzenmCu+7fZO/lB9qA/7sA/7sF/YMjq5eg9rZvCykZkg5UL0nKLMljpHOaFqfH5kq4/bBtkGwwM2hwteZJxHdqErb7Lb0yW//y323QIRd/34b/9qqGfe4vpFv1kYhMHIFFO4OTyknZGuT4AkQ2ZmEkLoxEuwm2gKsxf1TnTFmWLzULnaRoNAhCTuEZGOe9JshCDycNMv58Jl51hL1U/yfwsnZyLiSXfhepsD7OcEMwlzvDMvQvP4l1uPv7hyT+vMTjjlhEFVtGjWbS2QngXSC+ljtRAUThi7AVtmvMhjqs0s2iQEHE54fo7BqEk/fgpQTtIIrRRs/l1cCx9QdKUTYCHYCE3cehZwhYcguWQkrIMxxRY96XCAoS1e1rLMHri7TaJ8ogGZsulHNdzk5rTvfX//oE0x1pmDoTVRuIQm630ZbQKDkKyzotzQwaxUoAfDwkOT32eezxDGML4f815XR3ZvJfAH7ZtAud4Qb5k/TDYlUHhHdo+N3wxD/FyVsw/7sA/7t7N1zPh1tSkX0a4xhg0cfdkpDrgUGLfGiJ2jorihnWTNzLdmnqmN1yB0TfwXLWOXZ0LbjrYaegUwIIVtfEHBL/S4rpjE3+2Ll3b+ekV5tesR7erzSAfg9Y7HXkfs4OE+N1YTOQnanNQPHhRBZNklAUE4O/sekuSU4YWxB/fQDoUjiK+dndrJzggbytQUCKMoMAhy1NSBhxBMMv5x2ckvv0S7tapGrvd4dacL62CeHFoS7swhwA9v/hGC+A6zUqVZLsNppUVTMaVLOREHQG6D/ADKUX8NMqXHiEaIXuoxcjcvrlKJKJoM8oYhPRnm4aCncvyhVyM7UHzMv/OSfY1XXBvvsOF+th3tSaTiflvyCkrqx4VTJEJfYpRg1fOU9iFNKpCwRJddLgdkLisKfGutZ/TJYRexi7oUmWdhAw7izV841PpE3HWscGdvly5Gv1GmoO7cWKE3R5jog9OGQQ7R9blmcPHChl7NkOa0EX9ch/O58/JhOsq3bvSRY3Djav/YBr+SejfPirMHcO5jvvC5ojODD/A/x6K895F6ZGaqclG24b35wh/2YR/2d7D/FP144BBiv7UGH55ZBXndZDLt3bIovYCA3H07nbzZIra4qjrcP+/lLLVmfzJZHJKy7NQ9v/C1YOs8xeN9bBG0OY7/gE6zHnaNy9bS4ifoG1Si7iA2MFLRgqXmx05IUMik6MJeLjVDyuqtO9mhDgi+B/eIrqBMqaYxHAZRoxTrYMUEsdMjpQalqmdT/ooW9DGrAk2xRwBmQ8ru0uPHZUbgd9vVQUpHcdL6jy+Wsy9XUig70uNUExyDDQ+4SlMlYXgHlYQQSbErksdMowFtHLeQPwA0r2BUroZKUBJh2IdSTXgVdpWhO1b9+NVkf2ntnqtYx3IlswOkM7roxMuDCIp0yGRJTzIwGw1ScmmkjlR0AVBNR0uyvQE6iraGeeYVoAh7HoZBqK9mn2/eOhxfrBjzDn7QC7oeeVVAmpA8JQfEEoGu6CIuFGxQjx0Oev5+eOyOJISkuMBwSR8saPmYbfUIgL4imLyxWVZUfn7+g/PflHHjYEaV3BPQ/VsA+j3TsZixTPuB28yzeoNG2I3kypD+fV/f8Tdw4AZz7vpctxnub7jM4xhvvsY/wx5FlB4/2ve188OI1cMTvLN9/maZ0Xq3UODP9YBvdehXnPX2LXggeHB10EfXfKNvVujsv4eXP8ZxGrDV+OMAnp+2yfCWJlSPz0+pfc4mfKJZZ+9nks3xdGqf2vb09PTy8mUefyjM0BLAO1CWXBLkQHk8r9+/5G/pwufnZ6tJEJ/aqUePHhGxDd3Gxfm+AIQn0cWW4xdHf9nx6em0711ij/h02uxoEM2j5v5XFScOpI3HXcS5A7DtvrSajxvBgNnSYlENuog2yCWZOaZ8tAQgKGTWnEjzToWjMzoVsOQuKBgq9H0XXsj9HC/s0SU3wCBppMkCAM1lJBEouguAoHW2GG494JllSwWpKO3xFBGXgocvT5mh9zwRsLwLw/XPe+wvL/mQ6u+A2dxb8gSmy37NFzf08/lotyJimR0uPmuQt+HHp87SzF5V0bidYRoM5v2cwn+NgEBFI8A4wYyBXCLVSwGDjXHGZYBvQGmnZD1dVREoDwebZ0nXcGjkuRYS72AzzhHk1pvP+1mXl+tcP3ZbfvPqbLWOjbdKNdNDr43jP6u8TEzsmQe7JuX/nXBzY4gE81EzEXNRX19+T5KSgeZmbCm/lGGYVD2v7FlzuScVwjaEgd4Ir4yCZtVuI8XYzGHwpDPV5cd6EwCajhTPbKvW2svLC4Dn5+e4qWN3y/YuN/12Hplr1DFUsqI6vala+yhepvl0aAL715YjiFAvJMcaQJCUDmEt41HLm+Ppy5s7rN4vJSd+ke1KzScfaUrHHc2+MHOIpz99mUtwtZL05Yc+lsffkTV64DsZnTliLKAhcHFVq63judfSbgFVho5CVveYP8mB1My2mVfOy5ngwz7swz7sP8aCPHSj2zGLpB9PZj5ejeeNOGV1ImthOPnWYEZl/miaL1TRN46cE5W3xZMGwN5NajBflC4xPZ+bKce1fIvrz2m9BC79uTnImglu9P79HjZ/QZnJqeVN9/dt0+JUpX88oQeKgGUl0YAFGdAe0YlOdGNXUGI68YyQ7VInu0giSHAkxAUhDufMUyNSXAB2Kn0RRtiAFatBhBgf7qIcK8Fg3BWGLkd+fFNvuAq4P6p7MFZIueSsExsqMpCd0HQwarKWkxeSyoMcIm7ilEifHJvK1ASDyrMIIDMHr9yOyf3AOH0y4+HYkxPvCDt2i0WphrjXO/9yW1RWRkmuhYA0ipIm6F6KtEFRuTpySSRFMkx9cxhj5Gakz3sBNFdMA4A5R/uU1n7692ZhmHwpGKxc2DrCscDGnayV9LCn3/ny8jLL3m1vLumQZsvYcjdsohTVZTXaCi0dKD7YxHaspogEIZaI0+PXxFMv6rvFV75Pu+ZqbJya/T9QA6ZkiN4VQqnlLLDQZ8yNUEhmJtHM3PxNj/lDPP7DPuzDHtivy5ufTEQD/usfn22Ar7+/fE1oHAOTLlBzIVhu28kAWDPqtLmZBTsVa9XDtEs//mYSqUqKjpyigYbtao6MHmZZ/s9wL/BynMur1NTNPV5b9J5oja8q5sv+nlF94XFcbv3Vg7u7Y8f1rEjYavsNUggU+UXmyVEIWBe7cO77Dgv3gHWoc98jeu80FzySgUNp6vpDHtCRHKzyroRMWC3HN4sk8nqhopUTPOkWOZVq3J9glwBxPlBO6ZuxdhoMWABo5uYXta/XZ5eKRglYliD9qzb8TppgRJE9llJQuRRpnB07syjnGrJgXIkjA3lcVZLOLBFiBxIdtlLYgMMgkwxq5XLNvMzi0MMyw1UTX1zvd8VQKxF82fKznY25DMtV0EDi0z82MZH4bbK9B2epCVI30kGI6rEzHPAIA8le7CzMN8CRRAhzmMsapvKPuxxwU0HNfyXV6I/bcvWHpo0vUMUA68dOdvHu+NhIw2YVvToOfts3hpev8eGbBJG/UMTzuIbLf1aEYa6Y5/bNlWE8A2wsrCoaYciw5ygROIqQmLm9b8X2YR/2YR/272gkRzIbyI45QBIYwmcjhE0H3N0cm3nv3to26hRpsyKZ2KUnd3c6maSI9MxO2wkTVJuCd0JnuPvm7bSdzoNc8X1zz7yqiDht7m6ttWD4UJL5k0OvpRR/0TpOnjGWN0gGtpncgpQsgAC6YhfOPXZYNwuIDpn//hIkOwWEbw45uCcLAkAmFCrzY/PgVMprlBilSl4j4ojSzLXT5BpNb/7WkqN0wIs6nuOFWOQ7n596xygIaPdIcWuJKBuVZT0JV4zpjzZhY4GmTo7sQ1ZR0lzCFWYPA6VI2vK0WoANvZru5a8rKTGDJ5D1XLsf2jWJxB/wPL5LP/t7bSEgvWrDlZ+PeLaba/BqeKyUPDg8e1pQ7JvQHH3/2tzFEAMqzR8tvfo4oRW+nu3TDXSvpYS5XSYrToWfu+GyN9rnp+cv9wg2fm8t/pazVJmwUe/sQuRX8OMNqu3OkakyVqfroR49J9frb80Fu+/RSnfGkX6g3W23WzOzYNwyyQeNE3gvJH9jFPlgkf/3duWPeNCH/V3sZ+PGvzS+csFx/0/o9bdD9qWufE1jJn75+vuktrdhm7etd7vI5KHZBiqyFCjo7s09SDIY3FrzUWfKa1QtPNiFFf1JRZqGE4ZztsLtKz9HWQfUPRXVl314dUcrnDV458By/XPf7dTSbY29Pz099X2XFNGfTk8rmeQVu6PQ/yBcsMfBiZ96hZKG35hynwkpAVBPGkHmCtjwKmF7RCdDkuFfX7/SW0Bs9vvXr7twVgQkQxc6hI44f03qqAIWTLKEJOMRiEgJPBOuEmGNnDdFKWvoMpj7VL9hkgL6Qh1g5KFm4+wv+VikK6z+/kjzSHZ0LV7mKFReI5OyLme6ZeIzPN30JhqRJYoa0VilzZaaUHDhvL9kySoBCk1XdZwTkswbgMzL7Cl67Q0GegsHmmsSRbatePA+VCa93JTJlUfzmc94kQ+w+joJK67RiTeMoBds79E4wigdWv9c2UvJBRl/k1Y0y98O930jDEr33UZJIw+BysKuToloiiZ8+nyK/YUR0m7ZnpeqU+YGmbsbqlZrOMyd7oJXe8ITXzA3M7Cl11jHkGEw/o8Wu/W8c4+2tX2473vEU9sAqMfaC7kUm+BytLGkrkd1tOqFC86jn2Q0JxeTCyFn5dYXKm8cfvB4NFoev0oNyYBWg/kNHi8AbfScltvN4Ibud+I8dxF4f1+h6uvf3rbbrW1Ppywo/hJ7Fi3Jkqs0TMGZNRkgZ4SZQ3Lk2lKyyzuyi/97FLPdLiunfNiHfdiH/UdZCnZ5RS0F+LZt7r5t2wkO9G2yIWx4NkoX8+o4DtDfPFqmJIuW2lBPp6fb3SRlqSBRHf12h7fb1ZWlprub9X3Pf27bCdQfz1zXzYri/m4s+k5Jy1MrIlU1UwKyvGv/eu6EAiLwtYec4QD8a0RIOxgp+lFsdYIKhadkdWchnUElfyY9FY3CKkVipgmgYnxOLYh8WADMTYmN61XAcibCtlbK8eSqGW/e7rKBNUoOv66rfWf7saVWJhvhogmmKK484FH8eFAOeYrSWC/tmvKxZIsDd3WmrMllttFKJDH8Ak1MrD38EE9MTvy6Bbb4n38JvHG3YQUMNnyKSKYf34gTkTkGlfYaKvKSItuwiUZZhInuUeJJCkQn5SkuiNSuHQipcYoE0kC40o835/BpSwfmD4cvVn68n34wREvRASqLB1++/sA2yinMriSGUc56hVbVr1eoLn6TyfNQS/6VS/0rnFkzSz9ehub+fHpCrnas2PbfXKCmwtEr5t5QAL/MsgTzxYOoRy7JvTJjk7QZxdb5k97D2/lgRSn+DvY4C+TB9o8F2Ifd2G0v+gVYgj/LtIKj92yMKgKwnU6JEgH47bffEpV/Mv+f7VRacgMuzJnekbxt3n0xH3Plv22VkmgHkF6CgxI73d3cqrrh4Eged+Tt+uy1PfFSXe1f+jPM1Cgzs/suDuoCxqdv7TD++ToMlJmdGVk47+d5bKZKphCqlFQAZJz7HhAhGs69sxkJNtsjZAhodwQEJ0Lll2kg4hxMWhIDlU9PfclH5BD/llFRxJt7j/ibz3QSCtYGuGyNSn/IppCuaDNmti8KP3M/4HCCNXn6N9aG6zm48iMFlpr8EFMVhyKyVhFHKufkkl1g5FWf0tysycxaliMdePy4/um7z7/Toa/9p2LPaBSbPPsf4VC8Y/0zvgDG28GqPAodjbYRrVD57D86hCZJl0zcCChM4SBIorPvve8KNhg8QzX5WhM23m+jmxEbzOluboLJLGs/YURpfsFYbqLvSefQLPMmUPkqjfhGaUvm63YoFeWCeWipDhffXhuwaWhJB3+DYuEvZYwKp3prd9lxeM3BuzzUDR4Ds4SWVs0f4EJrGB+o/E+yt9Tu+rAPA2YI+sN+rrVFa22i8u1BKFbLQHmoW0wFkRuzxb02N7H8tgYzu0+wWe10OvXo7OzRn7fntwD/71o/RPTWNnNv2xb7/o5fPrCBKC/K0OYACLfaXrtFfWt9INYyN4PkAcGsF5OEXdhBSSGF+W4MgAK7ydCJcBOH3LkK7QczDRMYtF3igjbtizz8Nuq0QgUxTnulxc18qfA6znu0xf1fPXqIF+ufdOULpD8uw5MClEDnPAwP1+hEbCpXPvF4O1z5w6dvh88qsXJkAV/IXYMNZajyovDUgC8CwFrmaQLwlqo1noB9cuW7L3j8txrnj9jM+OrcAAAgAElEQVQjTnwtGqfdPqMh6TNbbMrUZIJBG3nDRkKR5KUGuQJUJiRkkA1G7hHR17PITXCDmzWYQU0G5AOx1ESdhPy6YAzXbUWjvy+b5fn5+esk2PBOWvmVvUI09eF+5yIHGHqmo7kwEnw9c4ILVSFn2msESqzzwkyvvmmrqbh5s2U4lgGWOjD3jvMdwjU/xMy97+cUC9pa+/LlSylAeZULeAt9//VKC5eC7K7XUPnEEJLyNf/Dg0DVK9vfvDCohNwF+r9gm+WWnEeXYz5Md3hwPW/R1b6MFz/a5839ZFRtNEG3Z39vuz0E6+9/8XBh9vC891/qR8dRvHOkeedC8dGi9pG9Ivdxf/937f0eK+SJh2LJW+y9yfW317+2wMiIP85O3p9aL6/P7+xx/EvXW97Gr7i90LxEjDdu/e0a53/kBs0Ro9BKm1dCAN58XuE4Qv014OvvXzb3tnlz/+9/fGKwRz8HP58+xdj/vJ+nuMf2/MmPrNVoBoqfn0+2jAPFe3aa8PL1a9u25+3ksKdPz/u+S9r3vTVz9w3u3kKFwvplG/Y4A/CG5+3kdgPEXsyIPoFVs+vCTbd4fNrz9ikF8uIcF+/X6CdjAKyv4ltjaVZVQlbXkgA3eH6bqowR9TxJSnzp/fOnf2CM3gFjJ8ke0Xu0rXXhy9cv7lvISb7EHuZRWpMRnaGEe2lnicTeEUw9v9ScObUNVEo67qzlioeshyX3ZuEAJBiPZTq0qix7NM1sj5IMqrRpwBiZG3DDY56PIXfDuiA0SAE5oH0EKA7Vz0FNFsyF6PvmnvmC9IG9UScpV5MbeQqcIteQ9KABoqZATeXIjnxNJ1LVJ8U6c2463iaDrMlBcyFruMIdbi1RdtZtGoH9SHIlbcsYC4/6lIdizxiM5lJrtOeiaYOB8R+Ntw6HF0KHA9l97OxecOjr/4hMEUYmCrPBWsYxjiK4PBEtcApU4Vsmk6SfoA1SkP2M4MuXr6Vda2wOF8LNZe4pVuPuJ9PmaCTkTWY0yC0M9E3m6VS1TBBBk5VSUElP5pBWvS4FHAFg3/dJnjm1BuDWVe87N3ca9l6d30a6LUY/dIHimpc5++dMpjRzHMtC2mQcLe+LFy1NLjp3z7iW6PN5pfirzXwPl1hzIjUp46UeNvqhVU9wQ4O1HN+S3JXST55Ss9k1AM008QutLccIIHEJAqz1Xh7OWGOp8C5LmvvT6Snb8Ou+82k7VFzHgi3LaKSok2z058oVqXFABkfDwJJgx/rUzCj+z+d/JPheP+BI5qe2FEF737V/2Id92If9u9mBXA656Fyfz6SoLR2RMfmZhKFIiNKWezgPPD09zQjnvu952FPbeGfavbwqq8BMe39xMbtll752lh9mKylFSnG0yEVjRKbElSPbGT2C0u9fvyauQVkQnUGShr2fT/7E4FlCD5JJs9mFSN58aA/piN0TEepEj4NgA0QIZCYnY6CSZFXoxMRiNNZqSZ1H8QRySswTABjlb3JhTBcYNI1l1QXqeUzJq91vcCO/ic6hsi3TRWhqGnD7EFdhE06RKPKkvw/oFONzaFM6pjCFy2eahGo3p0FGDhnv0oN3QO7ect0pc5mXOo2Pqq4Dm5+qNZj/zXt94HBf+fE/y0aq61SnQdaOQCr8HOyajGycogQ9kcWeGE3hJhO9d+t93/dmuSLmVGXxIaZJwFuj3LURDW4cixyYwr2yPeWyC9fzLfb8/DxLPrH/oXSa1WqNOvpMbcTRLL6EerIWAY6InCRZVsVCR4lw1lHImGybq6XXfTT9sYp85mCkx/uo+Ov62yvGeb5EPw+/W8/iKaTrh4qOlroKr4PuGHdhE7/OBf6EpNzmTOJmIab+1HzlDlTezA1uOShlpeX87nVs/gfZ7cD39vSy/xD7adGPD/v72CoKZuub+x/dWx6BESM2ovSWJ2aZEzYBA1rKIuToWROzI6efBM848hQht0LIhxgOMEbeT58+SVJwZia52eZ+XsTgSgZYEPSI13gRSL3Z4pXOdMwKt/o268hp7xm9OcUZH0QgR7H2ebaa1KMvyiFZUVYEEEKPCEYgSz4qINFIhDhc+d23LYyUzueXc+8B0ZIRn0qS1mBccFlLKRokZaJ8DkYHxWBq0Uz5C3+jRuF323r0G4WW+XSkifobzPEoxqsLmohRgtqkNwDOoU6D1d9KxRX5eIielTWjbzAHpQ5KKjx85ZW5b1nPNbHRchpkYSUSHzYqthrCE66fia2Wf21Sa+4saa5b448/jrV/rse/jsxrRlQ0X3+LkKoBm0rtJ8V8jAJoDGMpaoJk7IoefZ+qjhc6PCO7wM1C2sysuZmHlOQKGcw3jTxXyyiHFZg8pSf/fBsqpTMgNLaPfgWWxL4JUICs7NWRwg50K9681UFKFmfy6wJwkRIo3bIZr+w/nJa80BG/sePaCmuY69Jaa4pkHILiNnKh/viVftiHfdiH/UTT9y5LJlqZqWyOYmVoTPa5BDql8sMNxTPtyvem5MvGp6enHtHjLCkitq246dbPc/w+oC9dIFW3tzljqNI3JrgLxGuJMNSJ8oCPT3T89g1EtelCkceK5VKJxeduoiI1Hq2JsVupTMLt68sZqIKYHbYDgHfH7/sLaTJYa7RJ5so6rQXMt+KHKOvAY4CIDFbVJx3LpO9W5p597PuPgLr4b27JrQCwUKs0YgbbkKaBDn3JjUMqUUnmmPmk3DIDmALl7NmzU0JzGFf/ceqdzxxWAHRszbiIxJeK/FLSlRNM/a7imt+0a+77sv2qBY9nNPLgXSCr9K5rvvjFkp85BkW/Aa1nz0kyfQdo3MEuENH7vrNHikG9dsFWZKRcbXOkFtiaFlwfEjK4f5zbUNuqTpMEm7dbHm1l0VB0wZPWMQTj5wnz6J45AyOG6UQWxqpGBhw9aVqU/EEnP0g1Dxrs8Vd1j4/Q+lfU2f+SeqYc9P23EOK/b71iCyqPm3lB0iFadGfMqpBQiQC/8ZS3Cvl1sFf5r3++PZpK/26lbduD9n84tb+zfd6YuI2J2aTOwE8jff3Ex1vqEwcq+SZ7M6v+vXbh+C6eVhovWmJ5Rr8Mfn+jkjcUNgbPfskgPNDoAXg5gNNWzl4T1eMEb615gxTN7PT0vBGNdMFbQ/UNTpq0gK1tM2Tb3CU9n55IRs8iUzRYJtH2CO4dQERs3kzVh5+fnxDse9/j5dPTcx0r8ZORHeuyyZCP3ltr7t6af/39X6fT1rC15pFqifdepjl0T5flaDE3zmiAG4Dz1y/z2zbcgiFttvBlL/vwrXaNjgpLSdkv/zmquKokRABwkgGD+Zf9a5DbaXv6r8+//fb7HnHaTp34v//7z3PvhrY9fSJc0s5gRACkIliXRxmwv3zNEjtN1iMmsaQBJMuH4xKc4gS6ZUu1GhstdvB7b+4aQQEmElD0SG6OBphpS1DGDMC23XGzJGVvqXeQy/s4z53lG3UI8misMx0lNDnSWHs68dzDCYIQn7yNiraRpaOMHZSHoHCYNPTF7bh1d5eD8Biu/Hb6lIKSDu9mgqdIPJsfPr3V59U9PRr0nXaha45skkHSwGWa+cylHu1W/iLoAqu9LPscAcSQoJkln8DFj6cBS0nXcIYrSXfR1I1nxh7nXdFbafBULx95q5ZsZoyRx90Bg1mg8h2302m2J20rBRIUIb5iNLLZhjMR9oi5CQA+D4LN5+fnfkOwufVYyrdJx90AIesH+4AJXMhiC+Yu0uagKlA9F0ukGiv9mgrXmYpsdheAGKc1WlVeiz5T6ithbL5NcxVULHlrAPxSJ54VEUo+jVfYzYbLKr/6MP3mK7Dj1p+2pW2v22rN18oX+gYLudjyLXeGtlwqaiE3/2EYtL1xeowtdXNjLWruKQVbVZZtSJuNYn9mtm3b58+fcrTd/gQi0Yd92Id92B83vhmVzwmjpy9pxZdtQBMbPSsFtTHEN6HlgRcm8zd5Gek6Tc4M957T4bZt4ALgRZI+QlH0lKtF3iInchw5P6RrKCni+JFfwi7r51t4It3fTBQmIam1Nh33dbn+lsXnyo+njp+U55BLER4XLJlEkoK9QJ/++396nH/719ffvv62bScL/d/ffuu9WPXw6GGMXRINJCOYBaPyBuoUHamNJwERmf+sdNSywBN5cS/S9JunF4jhEWb44Pj2yvIucnVXj+CtS/S3QxhYrurKsnOeOLjyYHLlDdBA6w1AUFT6VGAXZbnkkDwindDL616W9Is6zRSGJxADkg8vTvzMQZz7DFLNO270h9tFn59tvvDgJ5Nk3VK+3ZAJAgMMEwEaz6bO2OP8ku+sBiP5gvwmwNBgS8kjr6wDDPKMX7TVWFAe17vmZb5iKyrf3onKj4a5oLlTOMna6NVrX9VsnAnJp98PbqM8Q7Zw3sG9jnsIWL0LqF0JKNdtpbcCXm9IRflFrRKUxz9fGWgOPGLh720AzG2W7uDlcueH290F04d92Id92F0rfYN7jpFdIj2rKWstpXMpgtjW6VzHjNXMmw5o9dobNgJwP2E6LUUbzuqWhqFjExEpLeDN4hwD/rQewYggFZGkmXYETO64CCNeQgDbdiIj3dltO9X1XF/h8tsFIV6/XYu3B7miZd+0PB+zJuPNksPMyt0eDyiKK58IPUlmoZSXlx2Irn6OvXcSvgdf+s5IP97UNY5UOCEAMMuvWmWasjRBPTFsxsGHFsDklhAXrsnhyue/xxeHE1/bb7uYBrivsVvByIc7Zd/lWj226xmyiW2IxA+qQ111eaWSGHXjqRwPUjJGMzOXI/W8s2iCMSu4wkv13iEfqhr1n9E9MFx5O1x5ovjxWZ1UvujHV9dbnN1M477Z/qfZ4cEvL76Jk3LjYObF1md2Q4eixx79CyMQAW8LeGzI5HgAWYfHN5YMK+Dmcg7EW1mA10B4sZKQCbK/BHY6gOrFOx/f+OLE25JLUHeJIyTyRss+nVHBobF2bLfF58xV0BxpOAtTABjZpX+yVRTtWFT85PO5JyfK3TRyUfKbVeZ4BDeO5tjiJgHn78Yw+bAP+7D/PHOh9wBykobrfv5Qzk63TvyAO4CBFXkh9+lHQiPpMGc77t1b207efJN6TYSkeohURPrTvviT1IFCzQ8zMdeA5k5g33f28HTlFy7N5YXet6Kz36Te3ux2Ac6tu8ziMKlQ6bqAgg5lGbio4fClwgcFdRgc3fxlP/+///yXDJ8+fT49ffrtty979NPTpy9fv+aRIiJZvcAQmUN55+Vnq1zq9OMzExQ4kNcLWZlBGMC1K79Md7x08fOcc+IUxPtI/Lvdd2ZSwXLSG7Orkk+DE19lXAVnZSIODx5VwFWmvae6TmHM5aTWQlQGjLpn+btwg5rcwkG3BI/DAHMZ5B7mgeLeTF5N4feeLumP5MffXai/9be3PlZqxotNJaXfRmpB8pTy/UWERimoJrZk1yAa9LK/MHYwKD0aNwAAqYgzQfeE5J3muezxEhT3GFsy/35e8ysJM6utCja3BJvra9LDf3IZPYyzFvOFX+4yk1stDgGFCVAXhEGwwRK0PPAUZZ4rrMa4dxBHa9AwGIxofhk1Ag7PHvjzvPkpk/qKSzwvr5LCf9B5sQ46BgBRBXcPMa7Kf8gg5KwwfDW+5z0Uu+gPX9ktA+kyRfe1X6W9scf/JXab2HFxsbeDFH/UGHi/47y3qR5dzvsCxK/Ym/GYyYEG3qEW/+7r/BkpWgAG3vCzuf5vtwu9iJEHOL99lML105rn3bZeYQo1bqfT3NL3HQC9RBMABDvmWNEl4akl6dKb8dPTaSvHTGajZiHw9D//QMFOePny+5zyPz89H9yVGCQQVKXD0+npOBfYZKenkwsIIPrnUwMyKm3/8+lT7iTRRoVzA/bem7s337ypiEAOYHsuPr2FMv/taWvY2vRBfVldzIe1suFtQeLNrPdwbzbe89N26hkkIH2p776+R+fYcdmT67O1kM4v55w/WttGONcKtTd9Ud9jT3idhpeXF2un7el5+/T5/zk976Ho/V/7HjLJXl72ythM6L3H4VInEJ6PKt3xTGTsMiFV3mPvNtRCA5CoYPrfCQn7+N2FDXj9UO3Iz7lf5SQs7qUh0yZmT7vg1y7tFuej/NbRnpJhrKY0Ht3FqEUXnnZtswQPe0vppHQ6RxLnk9VKxsAnyhJsF1968p6za0mZNmgGKOsWAYA1GehPKkUat+Y0qBkM3k4cgvFhTnPI07MvXRrP4AmTWD9GleX/buPtN2NO2oVzefOri/H8UbbGqrpiY4sBSkgXG9iABjrgZGqizyVfLZkYoDxB+uhbEIqI/ev5K3l2hMDW/FKzPNu12nO5pSaDe6M5sAGbN4chODR/DBprRDNry+3c+ja37bNH963lh9eX7r6Ejm5tGwozlVI/DqXRwkZXxmXgroAR4vybFaCE0qcHoCTWj9W+lZA8UCJHnnVbT1sOND7PdQktNxjcGg2G1mbPkc/s6mr/tynA/EFL7H8td3BLYlwwi7nWvahmNS1DX7d3nVYs+YpXjPBO1hbMtOSLCKstaIunB3+wMVNVYC48r+o1fNiHfdiH/eVW7mkmm2ac8bJs9dynguluLjx7sxSFk9+FAwh83c8YxNnNbPpYCs4R/IK3QtnNlDnj+Gn1bcaJNTxLwZeV9mTuui58kte577V9+TCnYRwezvEz1bz6jRX+pQrN5VdHiqHTJCRzABKgfATpmxoAmn3Ze4coAu7m0drLy0v/8tJOp9557mSoqwsRY4FEiAyseb0kZAdeziH6ThqhkKMS8tYmsoUjYwNy5CirpIVOM/ICL1H5q/qgms7i+vgf2iPFFSQHZizAalG0trRhIzbiFEWOHz5CdY88SBMhSyX3RlgfkjPCJgC0K7ItsEZ9ZAhzwLuBZmxm3nKuD4PMY8rGmw+82UuM0rMTo5uXhs4PtR8DG80CrkAjGnlK8VTRRZ+vLZXC/CA9ZIomeARI9D1il8LUYbDBIlpPYua1uAUIt8GfgVt4ep+njH4MPUsY/C/ERy5zCZaPWctt/AOz4zDjR5VFDXWI0E6EjTdFICAp9fUXqD7VKv2aifdtU6M5gVY99vg9L9JGAZQmz892U0tI9NUb0RR0uvGcLy77vWaVNsC5Fs5UeLcYURR3CxItq0QJqStv5rrkQf68Zrq9vYtlxw8Cgj/swz7sP8NsUa2pKZ/H9tXczITmZkIzuHBqzTRKO90bWxzo53LlTcgSmznlR3SqTva0nZLUYWa6d9516smrXm6Ax4dyL8eeufSwGdi7+e2d5rjVsTn279FxGSd0s/JwF4XNbxOXdUyonUO2osHkgtLPjPR2zSNCMkaXbIfU0sH05At34sv55eUc//jHf0fE3oMxAvGFb8VBZ5+PiQLTyZ4Em7pxnV9CiLEQwmRGqZjZxc0Z03DKccwOoHUZtmzhFVVey9+rVr6cp9qhVXH55HT1/0P3ZFzV3AJhC2xVtKiY3JbNN3eTXGywkpAH2M9JcgmFGyQuiw3yoNK6lUiiw5qay11u5saWqy8HRtprAvtuNHMa7SDQz2pQWOONb464rrGdH2zZDQcNqY2/W31mVYYqPhJMSvkaI030CAOdwejRX2J/IQJQa01uJsCNGtpE5jCz5gBMbubyzQzWtlSfpBvMCNPw8Hx53EApxmCNyvyZyOkYBJJi5GNYuCbYAC4i04FEH6Jex1+7BiCwfP+6aSyEMLvSQtZ6C1/jz2SA355rUm64+PHTYb7rOS8jPjB89EcwTb6tMMuU4RQ8RobjsmSvOYDm3nmRLbbdHktL+/7KzJYP+7AP+1tZLGyw7YavTMmFUzs5YGIDNmtmcBlSiG2Za6aiCyI533DKPz3bcOsVCZ/StGY5Hj/HcN44eNsCRm1yYZRnzwkpEax32Xfs3xeVldPpNK/kj9hcRImUO0VJkWCQuSS5M9gFKbpph3VAZnJ9OX/tnbCt9z0rQonG6DA6PJ+MURIPCk0+4ijgr6DxmcmqLCeLoo+kZ2xV+Lx8+IUXtBJs1iyF10Ifo4/ZG12TQQtMVH56q4d7NLgIw/WxyXefkZlGeJQ6jQNgzPRWMBxMXo37qFEKBs/HCS5XklMXJWd9FlqMbpBXZVZ6KaByeOrdEIbuYApQjqKVU8HmTxar8QcaUnbxGk9KUjXjdOi3qEz3hOozW8ZAZ09yvEHGgORg8ePZiZDCkl8kS0zd3SZJOP+DnO6JymcQI3yuly7o3bhK1vxh9No/an4jnAXACSlMcJOzcp6rpOusPjgX3QKA+P4RJtfegxFihUTnPx7u/1dbEdmHB3+8QfcumZd3Mm8Pk3Z+s/9FVO1A5bnEUKCRZTW1lTCrvV4c6/Jwj3TiH9kt5FPyu3afUXcR/1nZ0svnWPlq/1aaN7dvy7s7/qPV26MzvvPwjxLqH0F37w6Gvnn/WVPzlbP/yqZVV/4N+NNAqg5q7w++nvIdypfMbfPbh1PKX9zyvLqGtR237dg+1GBs5VK6MfYXt7a19rS5R6WfJitgVddI6XZgJMbBXPh8espsQgBtaySjnxV8eXlx923bpqbvVLh3wXwBWbmMYEEBzWpLRrRtfPt8OgFwuBbGDi7f31EOxjBVaG5n32XL03bkEpy2rfeAtO+7LXrnQ/Rdkvp+9IK2HRUmzi9fD/5r82TRREjqovZgFwHbX877votJOtgAC2CP/jX2LI6plKKknj//Yw/2HiTMffKdQgST5z4zXJEOplG5RpKIEUT2pfTPzCINhAGxB8xsuPWx75huR97LIkZuy3akXs4UyR/vr4BTO0qGjRGJ81BrT4jokWzs0Z6HJ5+8mgOFZf5pPHTNm+jExqErQm+EUTBCe3ZRF/bfzyykOfnKKpzVit0EsHS4cyFz4PGAb+mOZ4ki2vw2wUUPR/dDj9KE1MQJx4WShmye0W6mNy3jWL6Wj+qWpK3rq9FuQ8oQuKQ86Xr7kPSZeQUjvRWNwt6V0ukZpqEM1kSz2NQd5tTvv/+WuTHn6GBIvQEwh7v7Bk/JmtKfKb6NWc8CnGY0M3+CebiFIdWBUrimtNuzp1EDX4VZcSSmG3OnDV9pr8fMhSv8eA4Ld3IMUJkhpuNNQPV5NrmL6jsVTRR3A8UQkLJg63uE2SmKQNbGwfz09IRBJdeSV+DLZ1mDtUKdK/aEqSsPJPy/Vux7NEu+NzZw2LoO1vLhTo5NgfG1AE4/Pt+Xq33qWdeYkfQrA6Ahp29zz1pzV9+wwuPztwabqLxlMkzKKGURPHdfH+4dVP5XWTZ+2Id92N/Vqv78t7OHl+HKsnbjCKZnxp9gIDQ9kAvl4kmnWVRBZh7d/SkhMbb0MhNQSq2WBIDtAEsu05seL2jt0h2/uLdE2R9Un71r89S9R3Eo79UtGhrrcz42xvVZ0t3H1IaURESoMzphzQkLcwIgzAPALp2tn6mdUqrpyxgAAoBIldLm9NfEHmKALHYNpclpJpNcfs3AmeKhuXBaG1MgY4r9r9u1fH6tAd9JAjnaMM9yLDEWZ2otTTWcvNz/lEh8coYEgyB4ZGqvHCEEQJBKjx/TIYdDXFBMlx0yGg6AlkXdD5VJTzWV8AKPJ1tAI29PlxBjFnnFFST/3TjsjzZL3f2o7IIJzG+pAqSFSUJ41SV9MfTk5GypNAVKXQiMcjxwh2ByWPJoPEAzWHMhszscSVjKCrjutfwcXBE3MAvKDjbL7PA+YN2f1ybfDOjN2AWWpVQhP+yTWgPuPogkGGNyXvhUi7od2WY4S6/fpvwidfjCfgkA/q4dfvxSCxlLsuy01x/xI+rOusPNlhHBoBqa0ROqP7jyv7L98YSY94aY3/uK3So0/zID3b+x/TD9nA/7NzQbSf9Xua3ShCUOx6icVzcNX9yBZuZCM/cJPN2MlQmCNJkDbubpGqr0OdwRgLkrUq8SDeZmAdwWKn/bHV0GW78V7ZRUMjBrjPTxjw5/d3rh6Tj61o8qjJf7z1S3dDYHE6ShFZFGIiu3VULPok17BCR/ooPmkZW4AgC6xYv3cy9OfJLdNRY8mZopChSZ7qlQxYwOCHb68TaKvBYdKgdbd6PMDmi84M9yg9+07Jl4/O1Xj7SnRpc7lkAX1XCpWYJ0Om03v609AzgRIjwAwal2SOhkrVYh/0LNAPVEnckA6JjJ2WowGC9U1FyRsCbc4JMrn5EPaw5zax6GUlYRJ+uXB0hfmlFWSiTDldfE4222xvfZ5Xt9Zxl51YbHWm6amRsa5SEHSqmzODZ0wqnkx7sg0unC7uribgI7N0jsMMLCUgzEDHIX3N3MozJ9C4bXoUBiZg3W2NymFpABlrGRw5n26VinB4/K2jyicMsd/UD//nYCZULeCuSKpigbC8ReeeFhIBimZHblPznjXZJox9taHSH5bBgo9LfcKDu4Sv9+Nhk106fHypxB3f36hmiMKsII9gAY0fhVJF4VVasyBgO5N9ybdOYTuc+V/7AP+7A/zVb+3M8w0x0A4BW7YHZ+r/3xzKR1Klrbp40kxcLRvVxFIzWU5pqhpTrxTI4EIjH4qYkOP2D4cbQLo9ygUS1lmg/9ctfFhHWFhM3zwr7zCZtZskQSlT+VEOc3nKf0isw8evfmZu1CdXTIcejSGTXziNKrrolaiYbXTUrqDJK9M3rs0vbZSXTu3cShiRYEaRFgVGKDC8AgF2X7N9vPXzOGbbNkrAo2z6iIDSwTwDYSX4Hr6ew+TKOsUz//9WeDAlc6oWkzgdVUavGJGW8VpqBDnowREFATLPkzpEnpeDno6W2uh062sYqQUKopKb3igGAOwgNGuHnRRaLY4AjV5xhilFoK9OQxgV8AoBrdY/5NSH6b6PsQ5p/Jr146/WxmgEJn146+U2cnRCkIoyvLj0GeyoGLqwV3OauMlsFOgOfaPyzZRF6Bi/kDXX/44/YdciAXQ1b+FWc0zgXHwb6eNKdMmnARCFNUnkb95+96lfRDKw/8+bYO7yvBffrxGhGtGYfBzVu/dozZdsA9s1IAACAASURBVK9MrzRcLYIsE/4T+LcmbdA22EilJZXRki3jpkLKnlYhN3lxwb5jSn70tLWsqi8Oe7HOzg3Lpnyp1gLj776k9/3A3hlg1Q2Ks75Ft1d7q0P/jeM/lDh79Ka87/iuB0GuB+/tz8sfX3vIz+PKP0imemjvvpJHJWBu0b7BrU9I6dhc+x8qvBfHedtFYK7yYaY7KNqj44SO7AmfXL/DJVoAh7SlQ5hdbDhWEd/o89cqClffyS78CTd9bltrDcF93wW6uwGn0+nJ2mlnBo5bYJSntOPO6yYIaPNmwhZJzEwV7p4wsoOuDVSD2WlDUdDlYth4YQxZ9Sd/a57u+3Dg83tLLuxCFdVFYyRT1i5e2qMd/Cl/uL6hqZ6BO7srgersTWIhsWLEkUIpfv39i6StbbGoyJFdNAAxXGsy1VGk6AElx5cEoYB1xW//3z9pSKX5//3n/1bzjFIvbnJYT3Z8FxjuzwyqvyBopy3BKAf2L78fN7K1hC1BOcdQTGVIRFLKrXgDyLa1Pc5JXzlUQSkIm7WZqbzve65Icjlxp59JsCRCjwlyjNK8XUDYsQQq0rAVr8Ywcic0JviEsanKHRRceOLWJqubHYMfbxEthWty/6CxS1nHyaUoRfmDq7Os0dTczGHuRhqyikAmtjoAD3N7+mzwbr2SGZsL6I7esoxRHrJd+/H5XKqX1kt4vE+LEvatjRJE96MTd/Zf0hjsCpifbHhYZQyHXPBQVcMlGw8lSmf4Lq+SzLSkzOtL9C8WZ4/YR5FXKNOCk/rsyWHI2IMDZv5fT/9Fq3UBaSkEREdv0uXs73Jovqs+BJqOrzGXee+f3Hwc7UKfanzg4g9IAg9swsKmU53BL4A+opG5v80yFIzNzs5AycFK6vk8zvvZW2p75vs55pQcDvPyluUL7RiaBrlxoM4VCxj5rpbc8AOjv/QxZv9K1lJ9e9GSF3P0D/AcsmMc05nVNCRDZAgzU3vaQEas8B1bvRcvsB1z2lnUe+qHy5ZmZsvbV8eYg1tzeTN9/v1f+j//57/AfyGf3YgU3VOwmR++Jav5YR/2YR/2U6wA4zEzLq58IxqwJVNYlOBGhxcer6Ko2igoYoDm5xr0K+Nr4FVXa5Mic7iQg+pFyY83DImHZ3npBN4F6lzvXHy/ajNdtZZhuUS8WUbOGq7lygcBj0xvTTrLEJIBLECRAYgicVZ0IhBhnrW4BlSqVONTRYNTdjqpI2gGEZEZBX1Rw1in4SDSdQypxChnmh1Ly9OYvkSmxF7FTOqmImJxHG9LEPxw8yGWMh3EsOEDK/Myi8N9IpZSUBNRLtqtA0BsxRSiH0kCusSY/OJzsrorEG9DFcSUAROge1YeTaI8uxV+HylcMw52F7U4ZAd/PhviVlnoUB9KoD0DboTXWogrJN+ELZdMZLr4AGEdJPkifnXujE4qcyei8uad1RNbMdjkgnOsXZxOc8cmc8MGazIKDOdcit+9hTQuruf32Yr0vw6l2RJj9CNVwAFi1GmApeCptZTdr1cRGEEdQ0dmYmgtoLyoM72tJ/xoB5KXoMZPtxmgTj/+TnrragVDD9KLHUuOSbl5/eofLfAqPiCYNVyg8sp3/9+DK/8IG/4pR8jJL5G2N49b35gkLobfDFUfqM+HPbK3T73/jlo3H/a6rXK5nkHDAivU3Df3lqEGoMEqA/XyjTJzLy2PipfXESdQlFlfSFJsbYwcddOJ94srwRgTUr0eN0O5vfpKW7L261+rIsoPm+tU1PN7Xy0c+nVjYnSSCDF6QKIl1g4HrDnw27/+OfXXIN/Zz51n9iBoJJxkQwvS4KJoyWunJDN3IRTphyWUZQJ7qvHkWFtBHwiIch0UjOnKj1VHdQJnMn0VgJlY8mYNm8Q8Yu/9G8MCB6vnxvIxDsRxba5D6PNKxCMTDXyg8mNlUxhzepw+Chi1KOV4FyClS2qAi8aAYAoQYKS7aG5GQdlYhlH5uOIzZskLkRzmYbDN6JCbDBp0GpixEltd7rBDqeaRW7Yqzt1GMiuC8VoTf8NqHjyWdBWdOLpo1dIqVD4J8alx7jCXNpiZPNMqBJOMEMNFJ9vkh1iQL+QL+pl9r/hJvXweueIxy2TWJqc5DO6nlK+BN1RwzQhoeGnyYjMfbYXrPvOn2ZRIKjh5pFtkoMEEGEQ5kOK7qQQwSjEI2V0pGMnMTckYmJNxBUBIGpoEwISe/WK9whGqnOM4LsdSqwSlX3ruXrk0h+Lktx6vxoK6zEoHHhN99zZXiatyXVV+tcpYh7sJZkhJ1CzQNY9KCVRr5VK6+S/vyn/Yh33Y39AmpCq4pbD40JvzAueSMa/hGJkAsY1l+DVosoY+U9urMKo8m67mFVG4N9OsiPsVR/YuBDVJ0m+3RygyZ2Lo5c63n+cRrpx4UpIYLJHfqaHetq9ff4e3XOMYJINBNLxwcOgNgO8RZ8YeWc+1BTqDrNYza3b+cgZQ/P5tw2C6Jz69ETFc9tWNKwi2DxSQFcafO4BCckOPoq0Gc7MloWz8tmLgftEyx9P5sdreunV0S5pmCiJ5HCpJSe9O6NRjhIYoB7M+VIqxaDDLQIm6kgxOxpSSbnH8RQmqDNB9ldqYMHwsfnz/ZVypa7mhkc3MkciOEfrYsgREyIweagJEo5xhoRRUMhEM5xlGV2ecLXb2ndyh41QGp2hwCH56bgDayQHIi2QjpwEZAzAUgFAM5L/AZQdgS+9dr+BY87Dkj/KNy8hVtikgDe67V1ZGvV/CoI3Y0deu0pHvDEpTFb7sB2d+vcV1/kl25LZefn5LROL1fb5Jryo12DzO+l64IatgZxnjyVm6ReW5BhEM0C/DsfllRpw/ZIvmNG5y9h/Zu2/9zUeu3d9bN+Cd/eG9K++fp9L172i/XGNUHHbZcMs9vv1HVi5felr2iqenJwA5+p/PhwvYYwdo2/a0NXMPxi6GeIIZ2OjN2OPcvD2fnvzZUtkDYoPBZnrr1PfAct7j/xMZeX4+cY+97+w0t6217enp1DZ9PRsuhlJKnsLlU70hW8NT/SZ58NdPbDisRR1xYeiUD6oqQJX89hgc0MzNrE+Uukj5d5/IEWy9DAwkSC8WipaDfgFuX758AeDtyTyxRsFbSDQ3yNwknfcXUX7aGLGHGKSxM/Zgp9y2AHsXQw6QiZNj83k9iL0DaGjW2td//nYMHYVep/NB02ClD66ojf9mD0qPamlWAl6LmyodUFkEmjNcUe2XTIwcgZuLB1F3eRZLo66aHqnEV8/iBs6fwtqqkC4zFzOYhPhG2GBmm7BlCZ5c2+xRmvFgs7DMagXOX7/m53kad6PkKS5ZORht6lJPjLwb2ukpC+7C4E0yyJrD6UYzuMFAWAwvX0sAes2NGbro2UhXeOo77JFSzUVm1NBGrVPkw+HhoJgwwhdyokENsFCKq3gxkQgSorErAhFAh5Hcv/7+T1hHaiWVm5R30S3vUZv7yXDCgAEkGSzrQGmIiKO5zNObLw2W0Y2WO/6R8fa7lLz7k8KiqDtKYsGxKNkumEITmONtYSUzHYlfvr4sa51Umq1rmafa2gkDidcUNL3Y7SCRjwuuqOTY0Y83fHieA1eoeqi3jXDrIlfC7r2d8Qd8ibnQHY/eu633giHAY5PUfvHteG0A0Gro1uWDq6oLy0WuOV1VxKCOlS0VZsq6DaJsiLnNA95D5S+9+Q/7sA/7sB9rOWz1fQcwaobaRJ1Xm36PUYaMy9LgqVPRyGYtirRmV6z3VZF98UwAIJOu3P9/9t52OW4kWRb0iESRlHp61vbYrtm97/9i+wJz7pnpkcgqZLjvj8hMJOqDItWkpJlhWJu6WIVCAQkgM8LDw8PiVAEU964I5pLqui7nQiFvcdY3YHvvaYHh96T7ebalLuBk611CyKxhjTG5k6SUavG0XqkpiY3XIqqiQpaik4nmhmhYIAQZZBUZDGplJUGA1IkUjdZqYmtEV8DI3aYbVn040/DCDhN2zDW/4MOJF8/IFWOzrfZ0cqzR2ie1llLNT0/q/9C1uYG+v1Y5/hu2R+XH7XqIDZhvbugkl5QvKC5dhUJYLZs+pX78GIl5pRdGap4GuMGMKEPfzt1OIGWDVDOckuzhmv1cYwCNvwZYQGu85Ix8vN9LLaOlzUNtVa0yE0G6sgCVEp0yri4YA6ziqghYRVN7J8BiEKmRuDM3S5GnBVpgyxSoaKgBNqo0XJaF3S9FZ99nsK4zeFqPhQwl2aqE8/0WayJaeG9NEr2wf3N6It5QeGfs8rXhza8A5828muHT48XjQ9ud860vPX+mmZTQ+UPqWXDtVnau/C9OV/qwD/uwfz/r61EWV35j4/SBKLixmC3mJVthTgVeQOPaJpHALWGfNoUO9ovZgH5kSSilzKx4WbxJGJIk6XTvRMYxfSeGN0HvuTcBME8Kx+WkPScFnsuYnRHZ8YKMVldbTxe9OejzHtSzAVd/jmzlrTI8nU7hINxMRpPsFMFgFYOxBhmigeRaKdJsMXKtlWuN5G3PDHIpNKIRpm+B7spjo7/DZjHKwarqfPj2EQBxV6C3+fe9KLNnHHDGRrlE0M/M/c1itk5OSI/z0Pkzg0gzVBSbT5+dSgUYglXZyyx58/1Us0FkFhPnDVGK00B3uMtLonuZi6DDSnLlnaCsbOh762jjAmjK7qTTwGxJobOb7hvVfn/OeivPdhPkmSzCPqr3oSxZmH3faHInHCzdlW/ulsIZBVxPT4WEUYrSVbmZD69MBlK/PdznyRMLWCA3Kx0WhZdssKUsKTbzAR5/9yBcum5/ym3t84nnDNRjnvaiU5J8y3/0hwXoNdaAuNZsjawmY2pz1U3XWkxKHs7Tg1YKxp3Tb1yDy22SqNnhzeNoXuUcv5U9oxd5ttklVz7ff+aAh0IlhutfhljXpuQzZBguOZxeinXlNU/4H5bd3zJ6D1DuZNaDTakS5JT64c//Z9tlk45b9lGw+2FvYkn/gJjUiObl9Jsrukh8FnKBsBSowXUhgCFHk7u6WrbugKMj3337GnR3L7aU4sXitBqxrmGHYmZbMVn+ik17mPd8gZxc+fVvbaOJCtLoj4fD/NH1bw02fEOle6xi2xLSi1CTYyOJIQURqLnehPmR6ZETJvcDWU+1hiApYJXpmiNSNQhmDKOslSRrO8iJ1jIoE6TcDNp4yrOeTyP1jlF6Phmsi3/RvOH+h7+WZHjlR0aAMX5m7F/7F5Pb5NEJ8dmfKFo9q4faBkq/plW+skcyLqxrwGrDoQ2jA8CQ0cDkhRCNw90CB89/jcDqluWtAcC8c+W9Oti7t0b3NsZZcGME9NOy7f03GMn2WvMH7eenEA4twtzI8dnYKEevwArgoAWdYUJRHIzQapIFIFqEgQ6yniAgFWxS8nNznxzmQFhpJYamIi9Q2alJKeUlJUvFF4574JxlupsQ3tGXsrO9T/f/OIJeAsRBXoJgM1trtNGwVgbDXg9jO3r6qx8iokfF5hc0+tvf+lHO58bhmexMw2DQhbTx45sX3mMaRCPQt5bJGl+f+Sz9Ugm7jwjYxGP3OZboO2nisD3OSfVQAYRGqpPkGdCz5Jr38PAQpzctBvpXNG1T9it6xL48pmwKNi/C277bXu5q95z7K7n1r14m39f1f++Q/s32/+Jhm57oa1PPMw0/96bpfn6FGN/Fjfk8+/BK2eW0zX6Omxf1vr2VFEdDrZ/uH5ZlqbW6q9zfk3z68sf/9fCbm+NQcDj0OkLSzA8OqVKK7Gzf4KLfHz7nfGdugEmSglkNZu7yshxKAdcIBsjf0l3O5qMrFkHi3bKUYkYmMuezTr/mFX28wv3S3G5SjmtiMoaDH4CGpa1r68CqM08gx9xdUtSqiRM53PEUEe5PYoPkyWB0Qn8CtO5ull1bIzh6vgZQiRUhOIGQKqTlACVJxf75zz8Al1s2hqxSEFWM1LiRkWYUmO1LCoa8TKsQzEsB9rZTwObWA1CEtnekjujnbZqe8RW0zDosltqO1m6oFpIdT60gug3qNuybadtPWRq5NEi5Scrw43LzzeXdvPm2pfUWRY1IEw0HLURhFukmNT2zB4354NlJNz0wa5OwAdlnNE/Rd00hx21hyH6mBqHIUKzQnEB46+GaFBrY0px4kfBqqGbhSnavuu41RnrjcqxuLFBXWF7zp9cj6DPbclnYBBOBya9i12BZBCAKsaC4sEAui3oqYhELVBBOaa2gFJSiruuxrlnTbS4o5awWs9TdJ8wM/unhPofZAZoZnFq6I5otcg3F6CnybV1bsJ/+C9bBmUb+cof12h3Yg3xhIRxnWYusj2x1I8y/FK1rnrkLrGtPdKUST5RGFJqvCHBtpaABUkqoL56ZCgdQrIwNmrjXQFlm7L6VDrd3Gh49LRQtfNI5Rf7m+Mzx4Au2z2D4qh8/jpLZC6LlrHrVaLsbeoiSFMS+H9kOa8dhQpimfFfT+5/041m2T8frxvUyUxZc2fZ4hhtgdw+fEf+AW0D5b3ELcHQyaaj8ruD1w/4D7RWu3seN8mFvb/eHu3paEfz06ROMT09PtcbD4a5hmVk3O23fS2YBwPuyWtQ5o4CrpYPTxIYJp0elbsPF9L5I5Aw66CL5pfHzNq1286JyPB7H60/3d9jj653RnqdBUimzeTkOV4P8s/WVjPmj5MSrqXaqlbEGyEj+fdQIBrsTJtpKBsyKyRc5DP74j/+hQTRJhCtDJISoGjVqcJDs5UaRWWUoY9JahAh0FflxvmOIUoCotdWMCbO36fXEkN4W6SFZ01jpTaADtm/nx6TOW3uN/Uz1sllr+s3teDCy1hNG772k9dA7E6VaYenikim508pwKRNbx1ahtAQKx6VMFdQpZnbaLvmUXG2ay2DWUXnz4ccLoHnTibcZj28bc3StOjvVG+67Lj78PruOxOfrno3Jfk/ARg4ZqLwHBzcpW0Yo1gPpDENdoKJQVNZVlRJNwVpZT0n56r/lMFdWqprl0NLcei1mju0Y6lbU6MjNiN7wKY/qwieM6RzfdXkcOkhn4VEnr7HFl5mOSAoNkzs/iGhEToaI0NoPejqj3VTzbdjo3G/U5qlvf9423fCw39ySFvW8aMfw4+cI4ex1TJmRS0B99+d+z+P964dw7bZJOWWaAcYhK9aIlExq07DFy8adP/+NG/JqH/ZvaB8O+of9eHuWO37NNnR8trK0Sa0QBoFNlmMxT71Fn/AtMx/a4e5u3YEa1E6flMW7Jr1d/d39MrTNlZwF4zRUaBhTZeefycvVum/d0nB5db9EQQEeENBI7hTUVx7CQrZCrGAJEYSOtRWVptoKE9ojIxQ16pr5gVwsBAokkmDD3ggqWtATGUu0I9sGRYM/M5Pgd9z3a+W+w6vurrx6IiP34xu4P7ztGZX/hkOf1dKjeHWH+fWdc/ydEn5sgpLpXJZNJ751LEpdVE92q+DqbNvWSYp5MU6nU38EeO7yyOkGoDgKwGJmbu4yyBYZzIu8waFWnOZylwPZr9RNEOGtZNM623mgg3ZtNC7eecf1vw9mG599Y6O8BX3Q4kMW1RgUi+hgUS1iUUWsqqvWVanUxBrrmvXfvUK46ag6HE1jyt3dvchMZm4GFAgyuJeN5eypFGSlO1p/3ul8a8C0c+XbE0cXoHSfYwMgMrq37REz13pa/XqV0nXnO++eIQeW2kcYTmxOk968YO0d4pt5mx/udJyh+KYNYp/FW/mGkge5msx9XmeR3CnH3ivXnQYvlny5/KA9GW5uS0hya1Uf0x25tBzQy0HZD/uw97Qzue63N/2EGeTDhs1SuLOdTqfP9w/LshyPR3PdHe5K4fHr108Ph6v7OXUxNQB+WHLP1sXHr/xuS2AOvuyrZ+szkZmz4qeRJTDh69cv4/37+wNa/tSjU1wA+NwcZOd5fvPudHI9e0c00qTW40lAIEIKCDBZ0iJG/ZmFO4k/Hh8Jr8lCogm1Zel9w3simAR5MHxZMPIeTdkvRTMSEDebYhUX+MwI61uvz76r83eSRerz9nbt6X59yORbS7L2ThmNn3JR7Zz4JTnxREltpam8laCJDhQxwUmDHEw6dpP35hHohYYtTHVk99Zu7PSMSP4uirLTkwFNI89pCdJDyNrWFmWyA43zyJ2ziH6KNT++ZTYGe3shQCUA34cXYHjIQ8YooqEeIOearxUni9VZJcW6JlEqfcysVgWArat9g+EtydyylLUEPAFX+cSWnvDlLqYEAH61ePq2zSvaXPnw3dZx2R3Uaoq8tovG9ZeD3rHgdNx7xEqyXufKvuB5keUdvSt/bT/yCvv5RXczRV7v4ce/ickHGO9jAbJ8vke4iiXXt5GpnNKaP/qAX/ij7z0LvXb/r3gy2S4GcAk93TS9cuJ4LZfdWxPgd0tzvVrn/qX3Xq+FF16DcfLF++8/85qN39ouZ7tfa5bZj3y7IhfZyUP2XZGQriFaD6NBUCbw+6dPd8uhRqQrXz6Vw2HxT5+vnTABnE4boeXzw19bBpUtv9wF52xZzOzQ1LvVfvd0Og0O+nhhfbQ7dp2VmjF+P8+0bEx5zIVdM5p7N+ku2w5vlruXspTigyu/jdVMxWliLK5eVDpttgJJt57yAEKkcmRqQRbjYSG4ntZOuC+58wiuwTVp7OUAz46BePzjj1yKIyAdxc0pT/eUMKOS5j4KXq179slU2pxgmANU58oLqIEN3p6R+DwBnr8znXA7wy5Vk+UFBFRrjJFv6ZMEVC8qo5tL158nMmpF4w13gkSGKJlTmK4FeiG1AyY55BEmGOnCgUsRVKsBFuEdd1es6RUI6aGyGJw0phNGqZELfPhX/XlZltIlq40p7+kmA4sLJi9qCiGO4oLTEObI2tZinSUPWsNmw5ujf2Uy2zfS2l7fqMl5pgIbZzmNNnrTeqcBA9N6p1uACcA39hG9+/TMpIcHTLSozgBrMRXQebKosT4qagsrKeVNbQBQGpWm5Mmo1fn6w8OnPDY2CrybCtxZrPbnOZ/criIkjMC70ca2k3zerW8pHdsoMSm4+S3j+PXBl5DC2mH7JPO6fcWyxVi215C7YCaH1fVkfUZBe24I42FZBqi7rhXXrGSlkKGHl43JWO4OrYtW/xgNoTf1JcBTLCzPYgulsCMH6Xy9+D47U26dXbIWmJ2d11KSD3l/f79G9PLWofK02+fFj20rAHZr31Y51eaZ6dOdsMwuRvQmayPQMxs8Q5nekyogbbFi7mpKtee9cnvpT/BXCJI+7MM+7N/NxPWUbtPmTjU3Gsj23yYc7u6Oj0814u7uzlzH47FE+Xz/oKeV2/Tf+RPS4XAYntbx+Jjz2gGGQMmZ1L001Zi3CVN3rsn5KapyHbXyD3cbV55KxffzY5jdxHnViAtpgukru500eTgmD4ZkZFkqgACOiApRESYSyj6XUhAMHYkgqzdAH8AaYYkaRnQC/CY4Q9KoiDWDDBeSY2OpMZK+73R8WaK3g+U1nSe38AbAVvl7FcY/I9ikK08avHsnfSdoQFV3+vfD+JJ0XOOydydsGu8CFNJBUA54MBHlhRwdedA1lyQtWlOx29OjUYhQSIJntylpIVV66FMOSOBm9Pwy686+0Z3ubE58SViUBut+PA305oiENxEMGkKAp7sgvNWT8ALb4swdmSqN6FyaIeZjwtIcdw7OUmklxXTSSGc2hKpF1RmxPqKu1AlAtksoJqmFQDAOZUkA7l7czZZalUrybnklAXPCwwp3cU13Q9udsIV2P0O/e3fdtB3MCLZlqkBtBcSMzLJJUKxCr5pF4/tla62uBLqfWG7IZiSFxroDemULuV4syfBOdqYSdgtmPR6P9/f3AJ6ORz8sZ378Ji/z/rDZ8NpfwkSQu9yCV1YBpCufKg2X9QdNzvmnJ+N+rL2aa/RvwTJ/re7Nr2DSSEm/5qr9W1yvH2PzovXCEVbHi56/ozqa1d36Vz9zdjhsxBvW063Nrv+6OcHOid/9tl371njnO2g5aZejV2DJcE9tvMxR2NTlarhAYwa+9CSy1DWY1HWpy+YT+Pr4xOJe4MVPp8cE3CWLulT6Sp2ouq7hoEKSZe+oJgNiJDU53yLVVB4IioCHWrVdAn29jrMZFXvP+crto+uvz24Gjf/pfMvz17Z/8yL/aVvhr7rHP4UQSp17G+KY8x3sIZdcchBkaVo08JATUGR405BmIxVQ80oRRDbrCpmAqACUQPE4PBOnR8as5K1pBUrSdnHzxolHBh2GZMbDPOXqtGtpBLilxy9rT1xjWO0UNt7Mzm/yy9B3RF1zeeuICbP9U9hCmFiaWosZU7UHroBqUbWorE9cT9RRk5CiJMCLO6D0e4qnfIpZSW/JDAfHAYK7d8zYSy8z0KyAfqYV+LaDdc00RaXnQ5nPfguS+zMx+uMaUoIz6TSs1cSEgiPWBvNPrryD4HUkHgDkNs3P+U7Tl5xsx//+l7Xhx89ceeBbJ3arAudi1euK+9P73vzts/dHdRb6ImPJo7NMqbH4Am1XwXdQP5Ytk/jh4XzYh33Ym5v54dCUsgYfI0VODnctK+hCPZ0+391Hja+PX830+fPnUko9rtmAsU1zjecKAPdDc13y0gBaExZTF+fezWhXIZaR+LaLmTGNUnlB7GdupWxJ5NPxhL7UXUVCm1SO+o/uvB1tLxJsPPtITmvztYDugCukpMAAkNnj6YjDcud38FLRtBsop7EaKkTgVFcaEjw20KP1WGXnz2xjlvyWrcgVrea1A+q2tXACupNhZQuUog+j976empe9FNa4wNV2Jz5kz3tbpV1Uk+KNrZk8tkF9eejePfiZ4zeUVQ5kEb01GYVTXYmSRR2VZ9+eyurMVK1hRHpOosBNgIiGxReAzJ5mat65vBCpVJPiKoVuTDWVVLOGp/ORoWX1xqSv3lD5FI839ILXdnpX7L1qk85Q+XEXCzA4p3JhtmRI06gRiliy/dNofBvVuZoqVC1OrCfGkTqxriRp0QvZS1NxkbvgTS3RBQdNV3bSggAAIABJREFUxd08VNzczWTe1fSNhlkH3a8ldX6wnc1Xg1w2zKZbtKRGKdxFE9ZYO80QwROQz/iGzdMIKQmH2w6fPeFU5zzTi3y9H/++sP2QY3/e7u/vB8HmqJsdCmeE/gdoPD4nsNOCq9bJC9PtsUPlE2pqFd8pOusGWWlL59vHXbeO+EVZhneu0LXXqmpcaA/ctGTg9fKFlx7P27YZvzD57ej8qr33BPfy69tQgQ2bf9n+b2x564rcGP+bLIiftADcPJ4/vec2hdnmc+5+awA36acMCHnSNyCZPl0xO/RpyEsxNk1nB4rga13M7j99ttQMj1g2+DABaU8KhQPHr4+L+aG4F2cwhdTbYVoyZXOuYKMXZCuf4bmL2Z+1ZAljX9SB5gn+/vvva12fHuO0nj7dtbBhFBlZ4wVNWjejHZJUlqVLysCmFeDh8KmdDGFyk4Kstd7f30sKMiJsNB+l2IQeO7U3W66zqvdCNxOhgKKRayhZrXFiXe7uVvDr01N91CaUKb97+LQcFgWPX47mAqmaVOO8UpUk5G6Nd16P0/ywKecYycIdKD+2MqENPm17fMb4oHd+vWge5ENmY09VR4pXJi+lXSSXGu+2zaWNnuoArKT43m7/MzjfffZRBJh4PEwISIIbTCjICgoWocRpIT2l3xmJtRciuw2NtgZZoObggXAGLZ2oaomGJufeG/h3WJaaRFi4YxEWmckQLrjRUPxALEDJOU4jkDHQl01wwy28lcau7ns1Pes9JqeunNoGkjbN6COSQZsnm7O7y+lPOOLmrqc80kiDZOVDfquDnIKFst5gEZbAQhgys9EiwyIcZIcAFIUs4qIqnjyqc4WCNYJrxBpcqdr7k5W8usuSv0ZzuzvcRSCx5IdPnwmHF2KhHeq4T/o8xpwxMDyeLfzYzaoXcywvt5lcQ00hFF/pS22dngCx9+egJJrlvZoKP8nsigNLCu64CBzgdBmMp1Yfia6V1A8Hou38ECvZ79Zo1hD3LdSxjG/zlvOsRdnHAWMUGmF95/QTyrBKPomsaso/7MLyZ32eyxV2y1vai9yTqLGUBUCNKG4pL2qG0sQf2wkB8FZE3lCC6rszxcDRh81rZdn4AjYd50j1TEebM4c3PL6FWN6CzPYITxAPsBwWg75++XpX/vrl61f8FYtIF6TrIYdjl+H9sA/7sA97ie3UDdQdBoMLS/rchDUe8aZA11xq8Oqit8lzKT0tWApQZjbZ9owIJRMEg/M6PEUMKZKOdXUPfft6jSrKixde6S6bENc6iUI+HO4uNzuzWQ/+qmUd8HBkaf3fLJJ0gxBUiIFAW0UYjDVW0WhORo16Yhw+fyaFEhbNE077+9//z3J3B+B0OqWKfB5ZXoJo6uw6d6P7CQx2Lmr7IIs4JxR2WnM6Zp/bbRv0ZP+05/aGxjhg8/5Rd62mMqp7ZhivQkV2y5HKhlNT91mf7paFMKCIC7mImVYqKbQScDB5MBvgYhRkrEU0JWtZDmp3VFlDmS1pcp1uVaAtzsgiVwPdGwXZLQxhGdChOuib2gYdNUtdvUHy+zP/Eev35Na3/49r2XI4Qhnjya211iIgsfl8MxMJZFFdRMQJ8cR6klaQsdaIU0hk7bmayZfyYi2d5emVSg7zGi4vCmexahyCNru00JSXm2/MnwLNNFFOAPvnIFNW1vtq5WC6YFUugWxSSLHCSLDrnAzaHW49BMMuZSHyndRW6gF+f/9GtnOPhnr349/Rvvsy7WpkL3Z4plD5Jjb8+KtHss1CGafaFFABMkh6eHj459+eCvTb/UOpHZVPgua/POPp7ez1XPn3OY4P+6Y1bbDEXF+cS3k5fv8fbN4Yfhuy/h3ZsG1Wyryfm6up4b6qdGwkgsd3EttrMcCEi9hIGastcgDMMOCrgUcK7unnuw2vYz6mutbcMvGPtn/35xU8bln6n4zNlT94oYnpqbtlA6ZBmcBAz/q8z+7cs/jT47HP7w6wRj3FmkInVYyoR4atERGVCEY9bb97elpFMzMFIW860yk+E8xR3QkuzJdduDJSP9tureK9ima6XlsJ5lSV2x1N9HtpqKlsqoit+ahMYUKrfIVMNGqmOgCEKkDGJmrnCcx1yLeRcQyAy/L43N0Ao7mMMpebuRGOIhrhxvzPgOR/uyWPNnc1yL5nQ3BjZN7l+o2uau0GylwHmix2IUA6kUFOgWdrLQ+C8mhKndZKNmmiuCKeFCczMoJ1jXUNkhnbUqUU903Kw73Xz8jdDwLMFpgHLIPQgHw5qHv/P6OA9TmbaoWHXykghSZHcQW834HZgwyCudbj0UUYpYAFGVLkDQXYJc7tFyOQaQnJkXQv9IddNhRs3vPs39eu+uKjtiSfoMuHqCW4+rN2S7sGY5q8uKNS+8indk4Nrc9Ps4luXsx2RXI3bm5efIiiSuHJlU85sfknzMxtiSQoXqzTg0X6Yc/bTbDnw35Je3fd+n8ja1IJ3zVcZxA4OpT+qgrXGfLxCfnzjloVbqFZc9zHr3dPKisRu0pg/2gT1LGrnK5gNPVJLwY2L7z78ebuQjlMafr9PqRWADwGb9KdAACV60jVgOSzVS1lZkYTyVyWQ6xsGfeUmAmhEgFCILEKNP/jy5dgVIKx60T7+dPnUkpErDwNl90BBdH26jelG/oK8utPehLngvgdzL9TTGwllUMP3rowYjFLOZpkf5FJDoFVulnqUS6CwboWOa3r/YmVCFGpuTo9QM2rp6H9oKFx3zsIS3i6DlnYSgeNKktS4cMAB80BSS6z6MI1t4DDl5M5XznCgjZf0HuYZ2yv1EZVpi74k5o/apm0JdVpojUaK0pvni46w3gyrmKkzOJa11oryYjayHvZQmspWyGg93oVuZXFzQm31s4rO+P+BI2VMS+lKuULp9PO2hrBZ+dusBHLCqPBGYCp68QbAUY9NTy+Z4sG32/y9Oz8B59VhTc3aFSj3DzkH28v5Mc/v4fLslf2tGJW+w/Byqu/JXszpyKn2N1Qyml0K8mVB/D09PT5/qGYnv54+rTc55tLfut87v5J8/RrhSx+BXs5Wmk3/3jO3pvd5L+KIE23V+rov/pevVFccutX/3PYZbkqv3r4J9TTzNVR3oOXDcJgskFaUSN7lvbSmZ3d8c7Y7DsZ4IKxCA93hyY1pzDAxK6Ko8Tm3Ywyn7j4ALJH3uFwIDm07ZNkT/WlLF18ygxmEoPScFkW75zjLhGdH9WJPKNavRd8Ni4JBSAq0V2Q43HNEbPixzVZ4A4Hgyk3FoCbVeJ0OtKQWhwECBFirvXJIadWoVaRaydpkFJApCS769M9ALGutUawwKOTZyJoNRrhWxGYWJ7dAzBBPasgM0TX3pRg3EgA45pR7WCv2Jx48LG9MJBytj1f2pQv6m/sFz41FlBEHVfn4vc7OR50wDXpmvfsjSKc7XiCsQBKOXnhsJgX85AbPGSQUTB++folGckFMndjzeEwWyS6F8AdRoO7Ee7LAgcNBW44pLtpBl8sclk2oLi8yU1GE5rM821iORQi9eOTTD+NzA3kda+n8Ww+03veYrOhmpJ/tRBX7FmOJsFBlXxmuxPvwoLk2LizJkkpYfiixpV3CVpdNK2qJzHAowOwYK2Mlcw2be7WVVbkxQ9lKZ4anXlUcHmhLRkjHZaHMHcvbpD9uBl9XmjcklL1rJPTPmLSZJpXlqXsRnV+19DxLD3mhMlQYRwePKxKFer1PP1h2tD5HoKNA2yuoAuQTR5h1x2wDty3uouecrJ+0OgAMs5r+d/NLq/l2Tsjt8lr3vYsX7P9m1EyMsbuDdeGH59c+V21mFsHvK6VETswntk8pizraXm5fA10DeWt+Mx6KTYHuJ+fFFjUWO78t7981mPrizJ3QftA4T/swz5sswbkAHh9MtqyMw6AwYT6rtm9ydF0qgyAUaGYoiyp/YeReu6/XtA6mhg22LUdQCSAqgHo8EZAvtOTASStsZV4ziXpZZlSqEmGubVPCmPJ2esnKBHdqFl6SVsqI6AgKkMWLWsuC7GVwspXqmZBIJtIPIBKkqqVkiy2gQ9WSWQMmjZJD1nM3Vm7VHw/cQ5HIC+ET6VpqY43PMIhA5DNaC4HQTPRZfpXUy3s/NF40bIf6mP8nJ1duE1uMo9A2y0xmFfN42zFrGhQ+YbZC1kIa+AaSBUQUBEuZgTrqL1ylE5ScuPZwsoGnhQalCWqAODDbxAa351AOKo3nfjoL2RgKxthtn0dDsePzDeeYVimgQptqbds11q63H668oV0IsH4IoJqTV5BE8GAVsUJsUacLGpyvmus2fHAzNyRvJpUn9zoH0IfbU8py4yOsiFumx76dPHjLdMuL4kkLG/LaC3MpKZeisQsWnflNtKtcHpmxlsFole7IhtKcHqcgTMqyOxEnqUXN2Gfq97w+Gh+/cLy0/e2+Uyu5qw4eflDwrUJuQo5wbY0GjrB5s+dWI7MrQTa/OYoS+gpP5SM1PcL8Vhllusr9K+fQP2wD/uwd7PG/3tZxmkmJXdpiE6wSZByQgfLlDJGU6SZNA2aKpHQcayCZNjnMpNrlRejpxOfdIMmnQHTYIdoqINbp9S74N7oD0nA4F7Q8LUFgjXO1Z+uaNJf+yIN674EdqbftBUFWcimCgQZanBRgJVo6pMAwLUB7ZUxqacFg4oaQ12mIaxq/YkgOIxBSOdRVnYUmaDz/G50Qo7pX3R9yDgB6IGfjzCvF1cMkcThyqf2QwaESLZMgKQJYgBPZDjAYDFRcsvlU26tEsMsPVBBBkvlwPTEOmlens2eZKTBcJicDB+NnxKbTy2Rrmmy0XznS3iJx7+3NYbQNMI5yEU4RH+BVnjghGcbV8BJZ+YaPP344Ak8QlFPT4rqrfexJNFkZqW1opBZu0Ru/fd3KYvuwZsPqSE0xbPz8XlvZbyX2RZjzGWvUgGyiD/F49v0kJ2D2zS7+fFsfnxGLBe0mZZ9LQWAtbl3Igqam1mqH4YEg8ObWGoPSs8c96uv8xR+QAYkcwBj4Dras99mwOoX7890+Q2hb3eJK3vRNSS+o/LYrRRDq23UYMwIPXPV62pRg3nfkyLbfppyTum5YctWZv22FWDFzGRQ58xJ7H2NbQFwVb0mT+8DqP+wD/uwZ2zIzkDb/LappM1b7v6XtkkrGJq3DXSUHZmAtKKOo/UOSIOI79P8fC66PB1MlybsSxGDUnGYIN/J0j1v7l5sw0Xq9IuzW39YDviWc8A4X1lao9bOg6ccpjCnxarmxEsKGclQF6gEstUrA3UryfWgcpkXXAxM2XuAS7rmJKhlP3S45Fv2N18HZs4kmv37XXHyYuMz2y7KcyOZUdl2CmriDzuBHO6PRvDA0hX9spdT+vEHojQhkOzqKodljiQZDi6g1kxQSFVgB03Jb2UMMqXODqWbpU8LOWz4EOaeRBpDmNd9A1dNAKEAm1rNv62dSXluHyThe8uiJFR8Lh41XhQ2Pz7H2ZP+xHDKKTc5WUwSHRBWakV9Sp+VzDBWUoUt1jQBEzgIa51xHVqgwgkRiAmJ545O9NPopOx1R88SbGbRyR51oytxtYKEGMnGtT61kNvoIjeHfuzwVR4ce37DAB/tFS41bZ63c+T+3eRrRl35rYu64RrdTZ/fvFCS8d0XRwrQ+p/PPmXPJMQGBs/9AVw94C61217PmZBWktvrjyXOZThLJl8eHh7WEAyx3+8L80E/0n6N6HmyF49PK4PzV+CdwKuRwtfaLRrALXunIqphr72+r0WebmvdvC5uvXmUv5gqwsttbsTTkrkNR8d43T1qNXEb24QOvCyl08xd+K+//l6Pp8enp/W0msvdzX1ZFnI0C0Jv+aTksrvBUKf3Mx2/YcapEF+yYDTdQW/uPiaO4TijqAGAWF04lAIIKIfDUsO8n8Jsh6aXnMxfQX2bhuFdJDcNd13Y0XoZqwuSmdpZRNSkv0etd3d3p9MJwN3dHZvAogN4eHhgsLKuEZ2WIRkDvq6nUw1Jy93D4z//CeAvf/nrH3/8Ma7Jl8fHvFhBZuMtAFI1OQSzYm5Pa44DTDgwGxEBgAXH45Cdptq4sRqz+6vYw4OYXDQzO6MGJecm9znIOXOZ2O655nyhEjvcobnTQpoXZuvsO44hj1yUubHW0mv8JHHSuR8IWfdMANCEA/0QWWEKY7Z50nDlGyoPeigZXAbCIusuwtYk2rcaRHkGmX1udKCFiJ1ZO+orrNzdGZZMJMkN7q0+OzshGGCovnQxSrCU3DjvxIxHBVsT27OmrWGAm1/1J15NjZsu1G6Hm8xk+1+OEoz5xAxqS5fy9GUL6QmGt4AUDhbKWNfjSfX0l0934FrXE7mKJ2mNqGBYSrMCKR9p5kvx5bAsS7r1Bi2wz9BixTftETeZY7kzc5PDsvWW3KIfvrVnc7ond40HZsz1VWO3ty0LsB/bGYCYw2bmWOVoGmi9NKWVEcvEEuZZxGp0MFQjToq6/c6ePhQSEIO3PUXHG0ubxgSezRwqzBZawKEs6PGnwwbqO1enaBorhyVzDAP7t8bw2UbgMm95tn1Hsi9t7gPAftvjzCfJNg894m3es2d1Sie+w4d7nb0jctFz+YrWYokGQCiHMUovX9mtZ4OFPnJtHWlnMR6reSQTg0+TZ9eTnm0ziNstambmlpwpNzOzx8fHqQvjhGO13XXO0Id92Id92FWbEbhedwoT6vEUazXKzZDdTJqby6H/nj3TWtaxydEIw5XPRvYGG42nrMzCONsBXJtjJZalKCsac6m+PRe30tXI8lz1w9uJuAlhbqfTOn8xpeKziLa9Y0iZ9r5n79laD/Lzb78BOB6PNrU7ZTAIBkhURmom0BDyVaxkJf7nv//2X//1/wL429/+VryM32KNSLYsW08pNL+kd3O0TRtewkSnBxlb56ZoXpMr99X3M7k4W2krcKVcMmtJG3dEwK6WYN+jKeOwaXl5PoCfBUAvxGTFftjpJ+0h/3HmCUzle044uYSbkD1ZS5c58lCrJ1U0DndiXL56a1NArCsAtrta+8FonoQBhJfm0Jf0492WSspT+tzoW3IfvW9UevDtBhjkmQ7mNaZT3/Lsjn5Dea65TmZ3dVoZQ95MMMqakNLkxKOrxgjI2uJGFwmPMMAju5JVB1EU66OD4CPqSq4kpZA0cyLMzVB8KW7FOqlA5gZj6qo0Lw1wE4p5ERytRjHdqg2e+JGWz39OROhB6mXiywVTsmVSOiV29R6t/JqLQkEzihWosApUWr0GRH0PqYI2gPlX7kEOe3f9+O3XXkwbOXsieu6ru/LafdS+guG+f//haaoumAHxq0/oeJbVff4Nj+//junSzQMIaF4KF59mRhe2+ihDI+R9uPIf9mEfNlmTgUPivolY7+YnN/v6+OiCFJ7+sNHMYCyljAkoOQLo+iEGLJ5eogAsnXafct8Akrlo5tZ7P7kMaH1ez6bdAaInqz5RcDN1RukuAuhllttkVyaxyNqVW4xW644fn8oCtdbDhByvUcdSXcpdikgSiKAHAaxBZX8seP4ZZIRW1mDIhmJJrKxHUsJy9/D3P/4B+N39p6enp+3YauuVQ3IgN1TvkuMyM6wVaDN52HaWJLtqDYKRHnaC9xpdonbFpv96tvOZusd9CByiCZx7Vl5uWvIjgb2VkjpY62nwwYJriw/boKbwZUelPf12M7gVH5Vq5gcaZCaj3DJ5wy5MmeqTLQ7q1N7xL26Qkr1zcM/sfXXTBYjWFJ801w03r10o9HwthjcYngV00VvkEjLCqkUN1NAa9cR6UtTRSa2H1DkPuJfDUha5qampFEulUDngssxlNSUfk09Rn+2P/sdZMiW8P0DW39yA+RmxzprxpNYYt4R5F9cyx+npqahx4kshRLygirfjvdtdMTjZ6Ddu1nUUL5Cn3nmLHs1oyDIZu6Cp/JjAiNNxbumXkSWeDuK14Qu7A63p32Z27SR7RcH2/sSVH9x3GZR4/A0VKU7fRS9WaB/nsuUFbuFZc9M6bTcqv195uhfctm/wuj7swz7sP8aGxrwrc/nPzeKU6hq+UZgbgLJTZ5v6EPkkAugdCJ61a7D7tXnpOl/GEivNabEUHzu5UvM0SUy2704tnGZXfvgWZr4s25x5Op2Sf8J9Z3ty3UjrU2Utyf/zj78DuDvczStigBSrGERQMoRFo0oTVaIMJmWfGwdK2dwd88Z1kY/RcHmetRM2wTGuLV7JVkfd9U967nAdLgbr1puv2cCf3f0Lba6uvvbplX0PpZocnrzZSoqXDyQejQfvrRuAdbA5HDARUYUexbGKKYbIa0ogABC2AKhYYPAU77POkjcAqO5oTtLg0EOtOXyj9goePmF74zQbXu2Ac/LkvhuSvxw3XSLx6GB8cuEauag9tmVwacii1I9yE1DDgIUsqItkoke4yRBQBVdHFU+KyvqkVvWRWaxE3j2j+VKWklyjxIzNgFbMSrhZVjRsDIpvMJtbzuEd/RvHPoy8YS2RmXedukIUANAH37mPvwM1JX2aK48OTHAOCXYNobb783kv96au/CWi/KuRrr/bZJ1kZUaB1pWuXn+CL0Tfv7mThOe9i9kDV9bZmWkz3lzOLuG1DN2r45xXbv8vbq/Eq17eljTtl3tqXnlAr37sXzycDZH6SWnTX8J2k++NEXijgZnz+y54h+Q1QYCjTgsiUR2leCkOLw2xbqzZflzeEolWgPuyGCBVV2v10sXXALTZrTFVprOmwYV1rQCSqZ94klFmrMcA4KbUaJcUUSNwd7irEZLWdZ3R9GXmZE+y9rPjSMPW8NXLqYYJZiVqEuIjGJ8ePqNXoazrioRFii/l4WAOYLm7W6NWMiLIcD8wGKIMfncfEKMeGZVxYl1DNSoD9/f39XT62//8/f7Tb+N4BFgjdVBwa0UO2Vwzshh38XYKLpxOVRIYe6k2iJs2fCqDXDpzWyRmE9tmG5pMDmi8nrcZIKNs72pMVpbr0FIvANimTta6E6ykKmmke+nJhE55CvNef+mdB++MIhYyaV1QOAaXBi6wMf7ZKSKrxQrUvKyeJA41Bom5AzRkMQbcEFhkJWxxb94WgOKe7Z9ogButvU5xyezh2hx9L+N1bTXgG5KXXFu3A+DkJlqR6GnT0MhffL5cmJmxf3bCvdAGbWy3Ncx8YeOSpVu9sKHyhWBdIYg6QFA46eLiBDPVtIoyEfV4PD1hXaEVoDFlFpmUJPdD5jYOh0MHJ83bR8XMih1WuS8HATTaYckr4XBD2VwX03QXzf5R4C3sGz5y3qH7N2lQ1lVP3YJHUCZpjWMWdQAwtqsQ4OHgDhJyaa0nWHWjF69rnPniLXfa2IsJPudEkbnKrdzflyUnPGSOyrZVIxEbNvi4k8fmWoL9+vKq5X4uS3U7f7P9+ezOBx3lu23IhWW2SN4P5XKnF8j6rFST+bs9D357Eq/blF5IKN46JD80atjv1k+//WX9clxPq9mnDmeYTxXdber85WpJP+zDPuxXsr4QwgTz53WDCaB4KebF4aU8PDzUdT0ej6e1fnq4Q1/eNjUONe9zTkM3XiAAXE8Pspfk5oz2zBGdyenwwjU8O00AQdr3gpzZeqlVo/aSNchPp6csk318etLiFawKCq4gSDEYLgvoKeoaPIZW1kqSLOXwtJ6irjiU4+kI9FVC0bREErNvPjRIKNiLazG6d/XzfDbjmpIZO1eee6fPz1x520pdp397tyZDH3R0ZPeaXV2GRnnr7cO92EP3iUbkWYhCLNE0zkEsoNWaXaJMXbXGuN2ZKfanMKX6Q6ssdGgkQAxZt2qSYLRe3mpmwkIsNsmqEFmaaY0EYk6zyX0fOhvOrh9fzWmKrm/TTmqgzuqKFiky/yc8misj396Z4qV2m3XuLpl6nQYUJmEpUXllgJQIvYMeYaDxZJSzxnpCrAIYjPWoqMBqoCNkEocMn5tZcffD4u7QAqA1h1CBCpBCfa7GRHK7wYG+NF6g8j8MDPKJEpM1imWrVu81NsaUnkTWF6GF2VLIaihcpII8wWjKFnbLxMcZ0YPvCit9cy73FKy9eMs+ezbyP/jWPfZ9d+BV5tgPs1AS6WyU0v6ZyOCFKwYNl32Hh0KlzlZXA4Cnp6ffHj7JPz09PUkyJIM0pWxko0WUUnTnZ9hHFPGvZa++Xv+ZePkPt5vX5U3HP1GDnEEKjLdZuaWU4u6LuzdSwVAMmEpC2wsf2XmbeDiTls6leWcomsHNzh3TSYEHOH+97eT24ETUWyyOZyxJGhGB7oNGEyIXwDVoG1feqlgjuzUdGCQZFHmq5FOslViFKmZV62FZnp4eGbUcDnGqmCds9RVo52tjULlzoC4ZE3b2zvx1Pbf9+KlzAdCz8Z0Ds5tDduXzsyhLuwZPAAAK0kuWrFYn3dsSFWIhIBWjJVe+l72CBGjuTTYRWOsxqVneqDWdJ9buYLfkF0ulUWjyTnMzQzmYLfOCbe5Z+DG0pYcqZXpL7Bn2obAhA7w0Cu849ewX248AAG3TdHoJKVa8EsT2z25/vaG5KkTT5URLYmTJpgeKWWvfRjgIId13A4uoODIq16NSKT7WtZ4Qq4Gltyowl6PIMiumktV8XXSylyEskJm55L6UMFNxWO+KZE2zZozEz/IxqK28dZc/pTYiOmVs2Y/NjdTk8RtM9I7OPh2fRg0FuTaCTctCjCyiIR13WceMbZRz5Mypya1fZhUad6Ss0sgCTfv5WYv5jL6/obufwU5TmMm1xDp/fVqD9lx5x75GZY/Kny8Z2aU7F8G2A/MhmjPD6lm9UKzQshWdwU3ee+5dYBneIfy0n+/Kf9iH/Uh7rcjDu2//CkrRL2dDNsT67NfV1rC4L1YWM/dyfHxy4d4Xe/BZgmb0Z73UpfnG727fFYBDOUSyBcTeo2rnrDQ5v2tLOxmlLAAi6kbPyBJV2wlWNgjkGTeouWIOhqOkPnyTl5EALMuSFav+cLeyHhnBSpmnS0/WqAyurGtwjcpJXrAUZw3U8PswRlCiAAAgAElEQVQlJsB0u3v2A5ge1aw5c0YDPatb2HmLSTKZd6hpy4vAIPema6//vF3x4y+OCtMdtR2koRAerWbgEEg/vgggioPJ8QC8VbhWpEPdETrEmkXAYXTrRKYmL5e/hy5+ly6+02AotE4dz09zY3cawtll8lrvp4HKA6la49jKXpt/387Sxr83mc1vb+MZ7wB83i35Ih/DA1ECi2iEUy6IdKGoQifXagznKp4YqyKiVknBqnqitDSVyhaaN7UbaTnc9+pMJxZgAcytyFvtQRaIhzeuQstRvJWIz8vs1mVwnT2S/S4AR+WOK++2VsvTU120Fq/1lNpIhQBBupjiQRFq+TVpORePuTIOM+VjQjF8/MtXdml9v5F+noa80zbCqDYB0NzYERXPFeTqJea1K0dtGNOfa86gG18/06UZb+IC/FLTvNrc8JnmBODh4eHpy990fHx4+CvwdffdROXNSmIMkrJ8PhXLuooBXtuC92rDqWftnR+8d+/S/Mr9v3KVE99X4OlSXfuN9/+yzPgwvfh4mnZeYwG+9FduFXPf+lU2Nv7F9rcK7/zGJb7xA5fbtivCDUueG7DYRO+cK95eDiFfVtPPE838aUx49uioCoxnanqHBmA9nR4Odw+fHu4Pd/rnU6GMFOJgbMKIMJ/uuLvDwYRGyGnevEvCpAs+o+mlzYsB4WDe94m1ru7FBbPSqMWLm1ms67aH1nQjwQsXaVhgjOCyFAARFdIYxvVUHx4eIDw9PQX08PAA6enp6f7+fozP//zP30n+7//9vyIYp2AWraYTCERzQSWDZDTUuq51BdxOdRVXMELBarYoRSdrNLUcL8WLImpQJCL++PK3dmCPT1inejixaTWqUyAAUFHdBCvF3LjWFInfrleCN712lg0RbGOefPccCHFbX9T3L4TtNbkHwcbg3jo0NWKMtntlu8lwzS7B+JZskJK/DnTMbMwqGs3tk7RdTTjIDTBG8mpa4BdaCO/FmqdjXXoLYSkvGw14/PrHCC+xhSXJXjI3g3vT0/DGKDErzInLOg++QWYy03AUVERDhScWSAPLou5kDF2L7Hw6xCgj2xfPs+JQmMfQsjhnYuf/bjHBs6rkvPRzu6AzPx4GFpgJRhUBkkcjxJehWhO6JzwiN7PKjJyLTo4vxpV1VQQkssa6Rg0yqExeidSQJ394eDAzoIioKcsKh8rDp79kdUFjRLgl0lmtKFHPvMfM2wWDxgD4juG1jVW+f+lm7fN4jaeC8yzW9scleQ8jgzO2x4qU9EGr9iEjes9lKGAMEKOfK0/DX2XdriTriWh9sorukLGPeXYBRe9aY1byHkw/z7raOuRz94N+1g55KV4yNYUBiLTc3plt69FZPD+tJjscYO5pOovS4vx99XDijHHe/uqE/XSR84rTEKU9L1nabhrhcckpiY4K9chZ9MLeka3/0HQTzIc+RwhTP5Ph5G7FqTib42DLdVfGZw69Tz/v8xXZyDZtQzczz/+dTqe/HA6n02Px+8bu21B5Pie6/GEf9mEfdmnD3cnJ496XYgaKa23+E9oGALs05BaaKhoK5cJxXcdKeTh8O3wd+pXIyZ1hMGkjPzyTVZ8Fm4u3Ld0syCHR9vDwkAj6w8NDQON1nZbV33//vdb1y5evETVLdStTBsezpVKIMKVnTCki1hAQFnYC14g1UkpSkioj2Fz5XCrElIkUQjaVx5HbK0g7v7a78ltyf2Pi7pzv+Z1kPI/d2vYDe3LCtA6fvT/8I3ttz7lvWfPjR7lij0dsgPW9V9HQQSroeDwm8LjDya1MMwcdcg3Yjq5US8xf2gmWNnw9nXV1R6cJV1rSbVW8F7A2scF006MLUzBJINaZ8bbheTYhiDHrzb/aXgctDTf0HHJpzxfbeAogFwFhIJbexnURDXRGERZK2R8hojRZm5P5yvqVa5UkmhgRKxmZRmt1fg6DuXn66LAFSh3PxX0BXFhYShYNp/MkQEthhxvG2XzHeP0IswvVSI3+xGwbgMl9J1hEsI7ItsbWy6KT6bGd7BWhk6vj4G5lyyeNphbJg7fX3Tdb5cbbPu0A+gl1QuY3DkN76N2s+fpDWXJ+BmWoI7RGb8CEafB07pHvPr12nN9nt2ozrpy1AcLj49NvDw/yh6enp3Wty18Ww6Ee1zscOHPl+TLe4bvYqyVdftXH9T/DXlh/Nuy9Uf8PS7ss4hw1Mbg9cbzWzO1s7m560gYA2YUREREvSv9HFmUa+frpx/an5Gr4opqSXcIx8/ZXjiglU+q6AnAv9oK5qNZtWb2/v1+W8vd//iHp7uAkayVj4HEeEowhAS4xahzrKvNSvSpqRI2glO1gSNZa19jGt3hm4wkKkysPtpVUSRm/4spTG9ndL135nfzLSMR27tCl07/71rPv38riNg/E7WwCuTo/DFJND0waYmcAoyG+g0tjnkpyUwkmWAiIw7kHZZQTWZQJ0MQCOMKaKmWQIcahuJHJ5bbGgAcAM0vpQxisETwsFRPViDdIRo0sRZhS56m5nuiehHmxntOfa0i8uyPNNRnuyK35sxGpv+e5PotyZ1aSes2EbSR4lKQqwUrK9hAutqipqdbQQxY0VnRhFgegYF1jrVFrkOMmZ/fj80ju7z7lkbgb4cVK1rMWv3M/tAPJxqGlWJIWrDnDt1Unt2f5lUvWm9loC4V9Bb1IgDJZZjlSSB5kZO8CmqgaHKh8cDzCSQIcJ3R1Yp/rl1JDyYtDnshJ6XBFn0R2O3nvbu7fZ+0ZmV7fspk5M2hXz03rvZbg/J3dp9MbnvUGjj4zeJctljX9tP5Vs6HHn2Eq2s5GrcuewNmjWmRka1mhIHdoa/MH4HBY6lpjXT8t90Mgd3DlqzWo4sN+LTu7b3/SpPRh/ym2W+ZvoRFkMR+Edet+wKEsIpP17R0maIjUNWPrQ0QXPj882OZM8MzbeIl1OFgAVOnCcrghbjhUF6nDYTmdTgDu7+8fp9ZL6+n08PAATASbfD1NqU9PT/effhPt4eHTuq6VqhGSASnzzAAhBAISoQpWpZMdlQxmi9W2SGflKyZXPkswOXzW/skcTe3KVceh/exp4qo60De+koyyS8+V2ocKG0V79CJIZe3StCOjyDyyb1CmhmiCSUUAoo2eaGJC8g5CfcUnr+YVmni5J+rXFmLIZQXd7YbdpbSEOsddE2q4ORaTE89978kzau/bcpFb9mlf1WD9o6aZ2FHJ1q4VMGEJmVCyuy2liAOsa8nTQReXoHEFBcbCdpmCwVoZWFcKoe7Nnx9Zd4YMMEsRSSeWpRzMl/7nltnoAoK/buubNp49W/UMnJVBkUSAtdZ2K4vkOmXhkkLWElISB6B52RzjGfN+HExXMf/Yf73RVG57zHreM/4Tdotx/ipjR+V7RcrbP0dXfvQCode3MHv3HSuOF1E5LUliGS74/ae7p3/+t05PDw+/f/7sX/77/6unr//P//q/16dV7Kj8tx+G11XY/Amt1hc8lq8Fea9MHM/ba6/6O08lZ2jiT5+4Xj08L4ZEchW3iSP+ErvOZL9mPimi/Lvo0H9D0RjAq2s5btjlqpn6NFijmC/L4u7mIiwCYthSbhzcBsgtJant7kIEx/YFmJgN01efrXvpDOC2KQxlaoEXU5fWeS81Tjm/ffnyhCmSMVuOx2wQu7jhdAqJZkX9GCRJ/seXR1/ujmuQqkSlyOj6zQDw8Pn+6cuXNY6HwyGEmkRQwz+/fEkyKwBFMg4YtWpaAY5Px37EpDA6s87c2UaXz4Ha5OgA1lbQYCbut99ec3tv/vqsBz+N1TeetL2C5Xjwz7xzc9uUK/fzgwHKMoB90gAwtICn0YCKvAgHmQklNUBIZ2PLLIRHi4ESgwdlIQhQTf73/aGkGqKiruvRUfMoExBmk9luA5jH7W7yjrHnwJotdw80z4U56cpyc3lVK+9oWX5vZa+NP9Pd95gaweyq9PwbUy3P4cJnr8zEpMLGTZoUzYFpuDrcrs5QArPkwENNC0gqgjU/XiVURESwrs4ADIr1tNY4ff36T4BWnGAqd3iPRFMIHx0n7swlFw7pvssOsMWsyCArY4hqy1cAyMTH7mSfp3w87yzuvjuvFD0vdDmkOXK+1YoAF9el1gqrW9sNtpWokBYVYqLyYMBqrml3y0HBzGZkd4h2hHlIrSfAeA+HwwJAybdOAtjiAFIOdVQPA26llD4H2oZJd1pZiqUOT1Teq4za67PTm8fTXsA52a28E/cdLZDLAlDDcG0bLRPj7Kx/NQnl9I5n9xiD6OQ0t0GkaU6xIfV4vEfRuFRgm15r6upqs7LNNZNNoEq2+O1ZI8sE3xiCnlOyzo/36YTnYyAEcy++rnVZyueH3x8fH5+e1t8+/xYHf3x6WjoZZxk7Mr2lys+HvZP5W7lmH/Zh12wHSd4sT2xongkQFqAQxWCJKWuiWt92vs3s/UrSc9pN9/2bFK8mtxySdJkNkBrfYtaiVrZetYapEy5ZiNVay/WuQomvf/xxONxB+u9//PH49PTb588A/s/f/uHuxs4SCgbJiIgYc75pXqsdtU4Em80Jkzi5zxPiOnzl6TWAXYZkcv21iwSur1e3SDXzPl9LwLux9/OP2ov0onuaIisvSxa+EtmHCFTJBq4ZWiAAmOhKygc9lf4iyFVRLdaC6iOqAbIAbayGBU5LIKB0AtG4o5zmwpK5gbBOfHYo2FwNQ3ZsxQ0//pwrP/St39ykkeHZbPLg+2Z9YHvFsFHe6TSKcMrpBUoXX6QFLVbFSfWYukCMWte1xpokmonBy7lf8vxspoyL+WK2sLnyTnND0UyZmF7n0f5cGzJcs3UE/cr8dqbv5CnT2VTkK9RymMoUHUmeY6OvQuJ3P3UV+pHPpOXJF/cJkmivn/fUvw/8/g638xn8nn2fo6aiZcz21+gbrJvvtfmo1A8V09OsZ2VkNHHlN1TeriCPc0IvbZGbuszWTXvVivuzH61n7SUn8sEy+rAPu2XnT1DreJ8cBljKq2m/vLV8y1Cs/Pb+Z4xk/sXt/UY3TL2a9FCmpT19liytS0HH1jfxlUm9VNfoNN9AstqtU4OkVImTE1ZYkkvEY+/wCuB0OlXiWNfH47oGkwpfK61YAcxaYStJhVBpveTXtY21j9aiee6TpNGZB94A1x8OymyhxfObnXWqOjf2He1R+fl0rC9web+FDjKIzZtHa+kKwuUwSuyNn5h9oAwAqLqCNTuPLiCMjXEgB0yeV8cAWIHDYYusJI6Yzk1J0ric1ipfOVx5Ixa3xBET8Rw8+LEMX+XKWyeq431cVSMmzM4Bhy7T8tabaiVIji49OXPlXS1+RWRdbIWqqYpkVNbK00pVJFvYLEkEvReFuS9u1njGGU64w13lgHLnnW9vcEtlfQNaa6183DL78aaD8z2WFxzAuF13/oNPN/KmDNvyV3I0llfepWylsQRQsxF0MIJ2K8F5w2b3UZMj2I4vuwK3Q2ma8e80Y1zM5jtn99ZZzdu8FvVH993zi7zGrnn+He8SVduvzn9lN/FSxifubj0sT658S120zictb5SJ6MxvaEogbL+b3+p5kgT1hy7WknkHd2Q/2p5YG19vDdLtPEn169r7E2b44c1/2IedWQOfJEuaLFGsy/z1T81IavSOATrImXsAMFL82N5vOx/uhZJPIS9+XiKpaZsXWM4VOV/cLd/izV9A8hLlbsD6dKL18KCj8p0Hn67XwYq6K+YrJ8K7L3/7x98j6mE5/OX335OX/5fff//nl39Gh0jVDVIjmOUoZXWgIMrNNvLQNC7Zbad9RRMUP/vB85y5V57pb07tWs+22Y/IPLjzfubA7fp3b1l+NdPoo4J3vu5ThSsAEEW4E5dgNnBd5IrVBCHSWXd2nh4CXtE49MngShCaNaqaSGJFMaeb61uOQherAQSnF5rTEUa4pQZ8NOjTe9Fqius0Pz5mrnxr/tqLXPvBaUCkL7jJLzMZ34Brp+exaUCNegPsPipsuQYHPLpYjWCkBQusiCaiVgfdWFCJaqiVFYyIE1VJEoJbKyDJYkFRwsPDZ+yJDW5GuC8H2ILU+k8GzhT2dN6zZ4nxS4fpfex5n8nUnosup0g/r2VRMpRgNQHZ+estTccguWQKJO0WGKGNWtNQ9u31nOVxovFkZDAZbfBcfrJddbvnT8cxbuM4l6N0v199Hm4JjuypzO2jbxzG/Me1jc/2YM/uc6SPbNLMuYrNa9r47BPxytR0tmAtMlAs7vVP5xt26+7zZU/zM/Da+raXpJbsbOl63bmZXkr3vxjfN30eUmk4kcVJc3T+jT+fJPr+hPj/z97bLjmOK8mC7gFKmdV9du3a7tq+/wPujN3p01UliYjw/REACOojU1ld1R8zBWurVlIUCYIkEOHh4fFkexoHnfPePpD1+DyrXpsVee/4j8byAdngZv+W1TCZJn+H9qgaa7bOD5l/cPX7Zq8WMtb6UpZPry+fjofz71+0Xmw5LFaKglHTtMtEzbKU18Myljpfz9gPSaLRrbg6Ezvfvl0vl8NyoHA8HM+XrzddCwC++nhL51oWL4fD+FxezL26e6z1tNZlWUoppVgKSl7ptEgR03FESDhfzl7906dff//6BeCnX3/5j//4z0+fXkGcT6u0NoNsXVfXJc/l8csv//r89QuAX3/55fPn320pthSaXS6XtVP2D7ZEhId7munjvGsdQ7H0dzMkTKZ2iuhnu9TzRuSdzGtjQSi8vjXBxjwCM7z/4F2Y54q4IfNMag8NkZoQ9u3IjXDRk1lzfvBAKAREliCwINTSUptlmQnWB1lTNPdYXCVgcoRb1m0FIBkG1BxFtdVqNfhlHf319QRgMcAWdN4MLIMG1nW1M0LCJjpJmxjbFsWcFgwBLBZswtVp1ityYbYtDm4M22Rqtm8bBp8GH9iiC4/bfBduZtd7euejpIDYk9RH6rCkrju5294JNqIQ5wsUUhRoAVlrvZxU10+vL6pfo14uvl5iVazpWJ6/nsxaWrEaHYQ0AdErVBZrNY1ynNv1Ljy4FpTD2GhmUgRRzZQ1ObU5dfmv9jbeOyvHzUy4U4u/ZzDd7BljMNs+2MCLjN3NM5VSmz/C4C0qWBAeNSpqdT8NKdd6OY1f1bUCMMoWoqUZJMtLSbAmSVvQY0Sype9gwabyaSxtREhisbJkdwdunaxtkB/Mh3yrfdQmMW3+7djSDsXtwywuOVoXl7QgQhtJLgBRucLkRBXLlr+Uz2CS6DIiMa+P8/NjU+WtrGOQdzfm0erw/7whReBl9H58AeWwxLaHYYoSJ9m/GD0FhdQ6OXCm1u2+mhOUNIkAd1Re9t3lgH9Ye6qf8z4ftOMRd12x/eF7jsgHS3v+bD/b371pb80PbLeL+plw/nqKWqP6ZfXj68vu1xEgTJBvis92493MEpa3qVRLV7RY6zoU62ywbR+8cTnNufv4nEYMSTssiKi1ns9nD//l0y9AU1lpDPhIrL0dOggIIdUI0b6cL2ABcF5rORz/6/MXAK+vr1bK6Xw+nb9+vdTleIiIGgHal3NTwvny9auiSXYYwyO0VgCRs3EEaiT1NTuLUPiWyK2mnIgIRe+wAUMZo4s23kxxghFKFUs9rhnyzVO+MCyqP5ph1S6hsThSUxJoT9GwLzPJchGW8acrCfEWgLwx4HM567d1UYVWdcE2j/bBNph/CPMVAJQhCwYr69VbRy4bn1hd+9wJlBJMwlXATIxuylsAMqR45cDdwSRPhCYwfshrzKM4u7XvDO8tEPPYJBv2+qa1Dyh2RnyvUpt0+ay6FVVpiUaBioioh6g08fIZXlG/yi+Sp2aih5vJkRR7EIWAmUhLYs2Q7xStafN3g0YsonFnVtp4L4M7ve2/EJM3QNqN9FVYI1vtukCEE6sp5SWTExj0qqge68jT6IyDgVF0KXpnIOcNHI+v6PNbXMNG3aGQAb3QaPZITH1PbIdG6xqB6wGf9/qT2uCcvMW6mVLDx+Rzi8pjA+Y3VH4mx9s44D3nbWt7n2HzIvbY+d03dKRzDBgeb46mMHuk6DwcZky2h1Z6v4wK+F7nbUExOWYH4KY9fTsbT/Ovj9Q8bj9TRn+2n+26XZsOV8vSPFUxgHD3ZTEq6uVCvnL3LdISqtWtLzl2BT+80RgADocSUkSV4lEV2x0Kwg2Ni5iDy5lYWqzQfRURkKDVJyNeG0I/TOIEukJaXe4rWcrhAOB8Plc1aZgaMKpK7gj38EMVwuWxFluWwwHAerlUbyi7UknGA4DMQZMHPBDRdCeqb+B0NnWmTiul1UMoVwbczRCxwTyWGbgPx3y/eQZ7H+zfB6iFtvrn9oFXR3m2qeX4TtTxzaYkYIqtaGvuJlBBCOHqlYz6Yi2gFbJ1VZM0TPweEvEEv2nTyLBYEZDIZYftGnJGGKyIhpK8WEuFGSdUlm43IGhDkSZTNoeGxrgwPTAC/qhH9F7rzJmwzn/rPHgNl4nC0JHsqHwQoYiSYjWQgVA4g+6O6vXs6yp3wbOgMEVvIiQlCb4DX1+WQlJmsFIDLEYr6GJBMkKFLFSZky9ljWxfeib4bOtPrJXv5Fu+1TY01pq9E/Op0f3t0bfOLYyol162IgBERLjD1/AWXaRQ2/M58e/vtS3QevOuqVcCnm1HszL3il2/ZeRTapofvq8SwUjpfn/P/mrM1UrfThJ91GZXeTgAdzt2+0Okobzfgs5+EZB6SjZPuTM/voNQAVix6Go8bf8EjLZ8mynlqV8pyV7CuRUpBpJhuUAmo4wsBQHS/Ipgk7Hl6YLeeox+tr9V+/sL2rzhI/4lzT6q1PTB1+GfHqjZpavO2yewqCx8XV5wiC/+8OmL2FD58kT11rmVZUGtrggP6z+VkNA4WjrjHBfv3ZB5E3xIM11LWcrBzMpZ50NZXl5ezOz33z9jC50zkyMVlJTchiAkD7GGQgyvn16OAM4n/3r6+vLpE4Dfv35uRqLx8PrJq4cSotW6Xo7LAUC9rJloqITGEyYH5EFFuGOtQCN2ywPVd4KSszrk1Z+jcVptpnYllHHb3tnhiZf2mef8ofZrF8lurI9MpkQD+0dCRbMvd5TumpWeGGJ4s+xDUEVEp7Ln8goKfjpv6jRZPizNFxjELaFQBlmSXnqyalu2QYImmrf8Nqs2MlYNezt+Mx2009C4QhNxZUx8xxljL5LYr61lr474xmbQizOphhGZCXOAda3JYDRmUIGMFIKKNE+jXuRV9YIGVloNQZmbDBKvh5cUXU08niTLEjBYCYBIdlPpEoQLZaLdPn5zFviIVn339jb9fbPjp6jU7lcMycfTXiI6ezDkvXpr4h0erDUiRu4fhVE5a1DlrMsw3nQhP2v/Z+5rwb81nvp2E//Q63Blx493cMfTePP4E6Fqzw0cm289KNzB3d83MyYfowWRE4+/26s2q7Qb22hrU09Giag3DJann4o/TNH5bhPavMrvevX+GZ67Bt39+H2t1l3e+YNk3z/fjp9Z+8+0eJqL31jyjyrFPPrV88fPoCQE3alp9wg5cNy/q7e7t4Avt8Ir2X403vZ2aymDD75t2EDDfLfrbFUYPx0BpDSWkYshqv/++d+flsOpxsHKr//6FyLF1w1AKYdBfK/nzcw/Hj6NI1/WSzu1ELWa2bKYFWuIVPbERZbjoeCAer6M35bkejKAxndvINK0cs0Cvl69KoAwg4KX8Ev+Kv0DCYDHCqU9qRTkaCmtgItVkMiyfDldAKDY//3//L//+9+/nU6ntEryThfgXFcJhBlYCk5fvkphQDSyOkNKfXcTsCYBwVWD7EkWIYRgW7kcjYLtA/ZugFyTl5bkHtvkMLyAUJUjclnkzLOfM2Ov0f3NI7ojann9eWKRzi8IO0Fe00HCY/dzAT2LN3HiLBHaoPcGGFvndEVRDp8oGFtWK9EyC4tIOFWhteXzda8zjf5x3kMZbo+V8poJptHWxaIOyDGtTBIsTLYMTZY0G1YayDDIGAbBGqkmM+26FZpJjoKGEd9Zy88mbd+2p4g3u4N3H0aOGOKSMbtGFg2JZ0TTkheKUL9+bqWGFa8L5TXqRaE1atSLr2f5xcKplVGlgKy7bVmFygAcD0ezpZXWMhLFSMPBzVazAEoWkptcJmJRe4UzfpWOl2x6hgm9MYa3X81j9c7g34DScy5ZP30o77rQ73NPOpIbmVXk2FLVA0BBdfW0VwVJQYUi1EF5CDBb+oU3dDf9l3J4GSJgydkxUsDh8NLiUDQrJV0GEcfldSdcI5XDoUkzESA1qbADOxtpb0l+f49gXnmn0g27yCJ3+xiAHkYgWzBhYNj5X9fkscmUJ4LUiFTYnfPmH+KUa84dKr/7lU3o+/RQzWM0oxsDZcfoQ+5vltNLcB4B9neExp4LkR3LWAFKvj4pUR+BYovqdthmyjsUXUPA/8mY4s/2s/1s39ZsP8FxSpsDhu/ypvM4LYRWttRMb9UKJ0xUAvD6+hoR1S9xiazMmrPYum4lURpc0czu6H8l6B7dON6m0znA6KGkAwWxvBwvl8vlchllXPvq2w4YAYUcav+KLjlS3hkZyhTxn//7t5dPr+VwOJ1OUtPCDPfM5yyJ8IerhpK60M4iRiBqmrpsVASpenquABAO9zHonQff0et+fbltS8wPv9kHkBDXeb3bV+NIVyT7CSm/3tjO9WD7xNm9guEf5q931R2GBhLfhE3zP4/SLc62hAYAWDo8qXAYaZ6AErSicaV6gQAFosnJR4ofbJeeO7ATACw9KKJIbSmkHVqeWSa5GkFUmtissFkhHtea8ZY8+9mOH8v8nOH3BzHIRwM7/gAwvOu04222412HYIkGxptgkQ9tLIrUZDIFqxArvTI8wuVVfkHUiJW+IuNgGd+nDAyWBRBTp8+SKq9G1y5ADk5RKZEFjNJ2z5TNzeq5DjlPYqzbg3sLyvwJLeNIGVZo3ciHUwhUi6x0gKjeaNmoiJqCVGmSutfw8MdyfEOU8I1udDt+2zC7/goAACAASURBVNLJXff3/0eHi59s2uz4DpY/f9U5ek/suEu9/WAPB+1nO+29uzzPEu1EDcW3BEq4/+HCXnHtZ/vZ/j7tozViP9puk7zt0aT6l74dmlR3/nibr9q66369Jf+1QrRYUClMFuzdW8IHN2ApZVOwmaoVvtfDuOrVbAu2iq3cXIItbbEZ9+rooEla3UMK2EIFVQOrZ03WPDLQca8IRLiCDklp0MORcnohRZqHQZzXCxYDcFovTcSCgVC6EwEwxGZutmAHACoyq9XY7Vc0Xg8AWmCg8pO9yQ7DXw2xV9/qdLJoJLBtG4NlF7DawPixkbiCdsdx5hjgfNs3LJSAle2x3Fkkar/K/NN3BS6nnMthx5eeedkBe1E9ANMIOZ6iqC1HFm4ItMfUo90uRZOhzKdk62TQWpqdLIjDsvQkRjNah/EKAGeOpqX+DIAwpB3fqrcyYfuhXZODStfOiM+F+YrU9KeZVpyHF2B4hoIMZMQSmaILKivmGgEqxX9ScdLhlb5G1IhQvbiv8pXyIkEOGKSWWkAuxUgGbSnFUFLA1sQme9hY+gu4wAxdLyjHPwJzSfvxXs+E5x3/ZjaDfjSvRC1yKIFBRgaGNmoFCVOk5JckRe1PfY21UhVAEEYqmmj8/Ajo8UQ/sv/Rp+iredcGXn3vt998xX9m29gmU38/Rs3shvJQvOnY+Du/aoyA6fOdrkxbdnGD8duOsu/qqJBBlInLIGNzUgkYJeUP81cJZt3SbPa5Ydd9ALDMIP+IHczhFr3xfP0z2t+fT/7fuX109HeP38/2J7ZcKspyaKlagoQCsisHqqnXbWzmq3s7I7JGgihWEJHCarfT3+l0MrNlWexo6zqEApVKW/nnwhtjvdFwOYR1PdSKEQqepJQ0rBv31C+O0+UMAMbl5Vh7HmT/NyJReYUja0EpHA45JMTpdELyKIBf/8//47fffovzCSQGE0BwFMuSnyF4hIQMnQ+rXYLXoGXKJgCFlLKYTakv4BVTORhaJ0BOg0wAtZsIJG2wRlK9EZJCmZ44DdSsazkOtTevNRNs9vf0Ttt2fstM3/9knHfwvmJxlElEZUPiq6fFV6JltbY0A/VwBxrkuZnpjIzJ1Hph13RLFfNGrmO7IklQBAOMVFAhMk0i1cwt0EIlw0DP/Mqs26piGCLx4+J2ZdtD4M7K7/tET9fZ1ma9b2q826a0y23jWNeXQJlSWm0UcHUvYakQagEiisJkhnDVosqQUVEr6sV9BUO1Rl2jVkQQcjTvNK+OZI349PoiiTByASxAE4MlC1daS4swsgCEylN5kcA02/zFJknL0MD2FoxXyeXQilzI/NJeU4W8BgI5aixNNT7iEWHV2hNb0GfLYhbBBrUUQwc+Ojdlzsj9hzXtWN929RXQaOIx8We8B3kzX8Xzv2kHPWFJPI/Z6xnL5EZ+QDfI+v3f3Xv+t0voJw7CR0IOIGnOvl2+fP4SL/9KvmCrSZ7IUGaLq33xgfa2ovy969g+vn3geYF5B7Wdj6np4Xi/b89d7czN/WHTSnJJGxi1bd75Z9946Af9fwbVeFZzv7V4kBJ/ZwobAh0fwdofPQm3R+h3diMDPNMe3d9Hyiq3+89SjLdjseMpJkVhuqJ2FXOhg4kLbm++a9mPmP7dfTspf2s6/unr78XKoZSFxYSS3NWy/P71y9GsLMflYJ9+ealrvZzPX7+u/9f/+l+xuq9reJSXZVxTDVEQmw4vsGdhtpKdiIjLJdCfB0v5yGLkdSnHrJFEEsmCaPLNlOSRVVnzB5nwCJLL8SWv3b1eLhcWWw6HYuYBRYMofvv938m3OZ1PkL1+epXhdD6590obxq+X9bC8HI/HsvC3336LWjvbvu0BARERCl8ntonQGQtb36ZnEACXAnTmt5ns2IYnaTnn83a/lqaXL4CcXp4JEY9aXTBLiYQQQNvs+Gjc9H6HpqbJt8nR29obb4puPjzcM7WdNSRoBhKflZ66NuKkVBNRUl8ydADlWRRzdkiCEUaD3BBfPv8ORLLhUznSzEwwb/op6nUWi5WgWTkqFWzU0IalMGDOxUUUczGSzjzNJOlDCCk3SbC7atwloWkIyeVDr9ar/C6A5Jok9nYbFX/7vUb7yRS90XwvlJfTcg/UmOVL9l2w8PQbzbUIFo6U+Ay38Cw+agjggrp6rWdfmYL/9eK+hiKiyqskUiRkhQJhopmV48uB1Bi1l0+/ZOhDMDuUBE0LjXytIVrmHGxDUNiNESD1cpDPIydXs9FyCECy8fnRcriXsNx28omANDfGNh/eK04cIKx7kmjoAwCEX8yqGns+liZ3615rEF6rR42IzonfYe15JMzGa2s9RbmU43HpiGy7JhHkdp85trC9uW0W1f6qey22vnnuw3y93+4V9FqnwJ4EtUeXHx1/mt66P+yICKtZTVBQZ64HxOUQUAqUhfWnp13TLlLRnpPsm72TN7H7lmCx8S7f1nN4ff108TUSjrFjjsBwJ2J3pDy6YEZyORy81g7km+bJJHMCOnGxgqeii+n3L19+hbl2hJpRVuApJ+Zn+9l+tv/2jb1kDCMKSwEWwxLdODCcTidTHApfXo+Xr6cIMa49/ozgt4UHdwKCeGAlWl/ecrF5xIVt2HPGDBov3AL4evqc5xI31zQ5qUv/HN4quQB4ff3l9PUE4PXTL17rvz//LuL19fVSV6SxJVvKkWREoFoBaSUal6P1jSN1mOyWPKWWlVW6+IZ6ymNPuJzYRLemSMgOx+h1/sboGYCeC7UbkIhlWYYfOIH1bWVsFLI/IE6wd/t3H++oOsxOS8+wbNVDhaJGzl4cMye+ZV4i6D4s/gJK1YSkZUthhEcwvHEcNuX4AFC4GWxmZimKwuZJORlD0Xw/jokOVhppTmUOa1u7+w7BZsTPfPfBUZ5FJ99grn5fag01ofLpNm/a8IOwJAqFYqAIsUZ3q0ivJtIr44JwqAKB1aNefK1wD0ny6hd4hDwi0MhWJgQCDpjZUpbl5dhtzewMIQss6ikEXbjTuh/1PcfhT2yBIfqekHzeUIZCWceAAhGSVGvIBc8oXzxHA+I11g5iwV615lY15cYN+Ge0R55ruqjq9dTK8cj+Z11rtLBY1HoJSMYWuuMEeOl+zEvPP3r917NExG3/16xZQaIs8/5PnWHvGGxRhc0mN8DUgg9d60tKLdfcYxm8on/sS/Wz/TdsH6hB+01c+VuD5nY26doJDXX7lrP84fZRPZ93jvacGXd1sW9cu6RaPYXm7CHE8oEWmTs3OQabCbuXYVFESNYS5tJ2IIC6ybgx76qi1b8TJIulLL9//fc4o5mlzHzxejqfvp5OAAKontQXQCqlRMTlcnF3wRvHfTLlJYQHojF0AIhM6Ngj921E716EVEDjsnv/c5+l2q8CyXQK9R0CeKTaNBv4TeGnD9e2z/eb5yf55ZngofnD6Kq5yr6YaMqZl33FooHKC9HEbSSIWfaViIgUCanWwzFChFdL8kaKPzQ1i8xZNXVmfE84YyTHY6crD8ACJitNcYVsQZSJRxvUsC0GWj8y7RpOf7Oe7s5y8y6/fUfeUa2ZM4Pbo9J+Nex49lFtvJoIhhdpozMFyGr09Xw2VCigFJp0X1d5SFWS+5p+M7uhmegoKLKwlOXlNYU4Mosi3eCgZRAjAOOiNj7Wg6OJjxIP5vzp0dXHidPfuW1ovST5TEhLnp4kGqEFgDL3xn2fl3VHZ/OpU7+3APXcB+DvZ8pdPbeb9stkJd9meWabc8e5/3OIToq98MY4whiuFsjtm1uyxvZWDfLS+PkIeQbBUq46344wHTMP5dWb6OpgSDaInKTNK3jvT4ujNNKdNd0cdgkwbAEEttUt3noMshzGbg3+SS3/oe15ulLjdzaazS7e9ka73f/dDt3/fPfg/LBRe2XfffdH61FvtqravL/90XGuXt2ZHoMn+v8/wSn+5eV1rZf1dPZ1PR5ei9mxHMpS1stGCFEqK/a/7h/ozvMmAJe6jofcOvDgE78CgJpEe4pLMgLJCV9eP6nvmQxLAiZ9/frVFAdDhb5M/QzH66dXAL99/vr759+SbPNf//VfLy8vXd6kRCAi6rpiXXko8kiJmPQOstdyMe37Rr9ppQZ32Z/DQ0nbfdguMeXhziPTFxXSoq7bl48cXSvTPhMpa+P8jI9/yO/K3NPNc5jeCg3CSWhk3tqUxkrEEpGlvEqghJUuLlmiKaAzZYQQSOIHrcPAYe5gWOLEly5UyrC7er2JxyPXe4uG81G0GMDw2Jfd6M91c1+NtYVTYAMz8+RVJFWfECzduFYo/kc6/0NkncJcPAsA2iBjiXtJCLlDgF13EuEGwKvRqQtjpQIKxAqviir3pn3u7v3BKwU9/gTKHPz08okoIM0sk/hMAR5rIDP/ktY8UHlO5ulO8PEPRI2eaTu3tn9ogZQQbhash40xcYkFejt6YCjgu9fNjv9gSm6nVm5uZB4+WTPbfp2D9Oj4sUUCP3T+79h2HZtN9iGl+KhvMRnurvD14hA6IUsZ3qQthyOR0cvGFNwOcfMa6gct0F7BhcVKWZKc+fz9/ojA95Q+K83T+ILh6MyFiEdQgkA8GRG6154Yszn16u3ddwtYX0Hf78IsEvrM4/zUfd52+uiM/YHdt7S8pyzgLd0QeM8on/t/P2h+t1lPJXy+XRHStrPNHN/d/h+c8t41za++eGQF8WYHTYh4f/Y2t/+B5I3iuv+dR7n9fOctzA/1o0tv2U0fixK0+kWtcPeNg5fWJHB1tMNyyLCwRz0uBQp3uK+vr8fR/6+fvwBo0u8Ij/gaFSuOh6P7xdcq9+NyGHf+08trmsIekbZytuVQwsPd3f14HBr2OCw2clJdrfypSN/P0UJ4rR4BK8YlrzcI91q9evXXX35tAjXS7+fTspQjVVQOv7yOFf3f//58/vI7AIUOr59qCEA5vKyuzvOpBUu4UyjJeGlQcTSjL+vhVFfKTXrwUDBeQW1Y6baMkBiqPrr3tpKQbMJydqbh7vnZfuv1TaWgbnphQ/2vztmOO79TO6m7ESoRTAhvMvmzwGjm9niNMhkdRVg6Ko8sHSogVAKLvJNq0taP9r75mnWIDLaeTiZ4uCklHxotNnNIbNKFySjNUGECLBlKthTRDHBr1VtZjux1RvPFSz3pSrhFr9Jq1dBfIAMgy+xn1o4IAhNGiC0p7VGLp9e7vv/0x+4HLfEAU6xj4y9FWvPRIfnUoAxGKKq5EJIcAuFURF2/1q9FdTFZuKIiLpAbfNUajRUS+WQYaQYrZSmLrBQzlENmgZsZrXQmtwLL8eXXSmP6RWi5wpDZNOPO094uFev7lh6919JSTiMkHzzk899PvctbaIz8oBTuo9BseB371+oRtXqFx0JDiyBmWAOCrNhtflS2w+EA7HIz0plflizliZGN3Wf11MNZROsT/K0goaVmzrz9zWH9Y8HVzbXIsQKwiQUHEckgz11ykrdp2plry5AAPEl1tGiPVoPnvZHjEQTCfRBmuCPHG/noBeoIfYsgZefVQkl977liSdJaeg7AIHCWsmTeS0BiqSGwtAoVtF4fAAOwb+RPlgTjJS3L8Xw6/fLLr+fz2Zo+UefKo09uxPHTL9Dn0+lUaEXFWeYFfbm6ETe1Kv952dB/8/bnoA7PY+e7/rzbt+HjfWuzjxZb/cPto2d8Oyr1PwF0R847KSIZzRleymFd63o6r3X99ddPAMpImkULLa71jOaM7UY8hl7DVN0QyAo02zdje8rIoD2clsqLCnnETBwXuCJCwSBsxL5xSQeA9uV0MbMsKZ/G2cVr2tDjse+EHEhp36QLEa1/AEKumji0I4UmvWlNRnfN1KizKZmjWjnCqP1Mm0GfY2al4xGRhvvtTdjKxyTvPl/tR1VaH9p8379JypJD2cgmbYQBuAiQrEeLExU+eCZgNEXzZnTWZuInYN8EKOmKAKsJQDVUNt5KUGBUABH1AHlqPBIk7d57rpYjsETXfc9sW2ABjFOOAkE3CFLH3Ss3VL6lryVASEkNU0wjKbHDtaPySL7+j2yz7T4+Z+2nTcoz4x6pJY9gBMLlKi60tG9HeESt6xeLlaqO6nVVXaPWqF6rS0EuYpCwxK2LLQtLObAsVgpYACOLjOCiAFismBkLSw2FlQBg9E5zwr5O1g6k+8EWxw6Vn3xXEdH14Mu9WzfABSCIyqjerfyI7kIzIjzCw0PuNIR7FoHIjAPaNalrR/+4ERlUZ1lwIn6gm6GRT6617EiAug3H9z1H+2HuUXkX843u92ZTo11tO1x1Xl0bXhOppoXF1Oz4Qbn5g5YJuvfxjLUwjOQgrHdjJOhoyq2Oe9d11SKilKV6JZlLVfvNXWtD1xytHJxl5Ov8bD/bcyjIT+/uv3mzRD4Fj8DgeU8tK7Pm+ns89iwfDzBIGmkl6+y1KSex8/HvOA6tJCTv4VYNYzKVEnqVhAQPASnc96a8tHqEh2xE+yGiurtHeHQietofi0vr6okld8RdYF/dIxABaYPJ++fGgwUg0MO8dbCTK0PCArLpdCepXz3lN6+U4Fa7oJ0Q4zvcCn8JW84A2yV3k3M2g7bRnP4g5trt+gHLd+dnp+9CU8ebu+0OgIiBypdgR+U7b7sTP5ZO9iDaZ1lqPwYBUzR5+NQMiTCEQoYAkXH1AAwWZiybMUQKospCWqv7OHHlixXIdkHVlszaiq8keUZsyGjD19Kl6DVcMXMAsP2LidiAfTTstqLFB9pcgi04MPgrOz7HsAjmsSgoFFimjCBkAXb1STDWqH75oqiK6v41/JIseVUwMuqEQIVALqTRlmUp5XAoyzGBRgWDlIxcesknY3MxloApSx/QZAOrTYy+JxNfX+eA5v8wOf7OirZDZj9wJLJ2Yp7g5pcRWA7fYgk1az95lQd7DkzAk/D8NvG1JVZO1iRvbDMBnIT3tRdBut3/o5bdtwFtQUD3LYOr/O8dJ57XbkYbnik7RdYem9mOj9y1+/cjRwVokc8u5Zk09G2+zOLNrZ7rpP7e8PKMzpXpqSstoIQ9im9W0M+jjqNn9GPY8daPo378GWZt5D0jAJeW47Ku1cwSla/sAjh9REALxEIjSQN78H8M5oJvvXk/W7ZHwbIfjb6/3d47+/0+P9MMHyBchcUtrbd17fYY+Yg/TeBJKs4z47yPS9/ffz7tzl78romnf5+2k7zsc5ftQb7wqIDBTQiPYrb88ukTPn39+hkYw2rKGjBErdWsLEspy+Kny6hIUQMecCF6eabRCxc85DFEEtu/DRCHAPeZbJMdbiwR1QgHGxjeVGtQFR5RXVIdMoufPv1SLxf3qrXegTrSiG/JrNj/2018IDnx8mR3KEkVvWTVMqwlhCO1NAfnLUSjok+8rW6UtrPfNJJRa5cC0W6B+dObNN2ebqlHv4RMc2x1r6b4Q2G70iVwCB7S4Gn67WoJl+GIZLqEjcFELQqomfLNYG6PgasZ8WgcddJkYE5NZZgObOmnKfjQCQZpF3SzYE68y/19jwKmAzCOGSki0beoB/OTi38102zpfc+M8IxN6vqD3XwYvJqMYwzxn0Uwz9iFmwIKEwwVcnNZsgAkxVpAIC6nL8VrYSW8Xi7up6gXeViYGmEj9Y9MAFGWpXA5luWQ1kk0rkehLeABtMynSkFZmc0GHkNsOGu6er3+7o4E8UG14+/UKBi8jerMRZ92WLvJbvLMBs4/I+p2Be4KzwQDNfcv7kw4j9v2oKJJLvYF14D+WHMCPiatm78PJhsPMGITRlmsuyv9yMHZAPiWuNIuMPbv47uXPI993Gx52H8AwF3jKLC99e0UPcHmtjO6MbB5j4NnVuQnW5p6cgsyDOcEACEPp4PRHMKQhyeBKojl06dPn3NZeuS/PZEg1Wb2GVj6robsWDmePPzc411KzRPn+qgJfhsge/s4P87En32+9wz0bSz33XnKRqeenW0Ze+Zfbswz9YD12IIbp+hto342+t9m2O/o+tPnR05sm5cTzZ248u8gPI3LnobdtIDlssXr/f/8tizlfD4DeHl5mRVODofD5XIBcDgcdbqUnilvSwFQsAD4/bfPpaTavP36+usIN+dDV0NSFHsBcKmoa00Oc7asulSdEThwI/V9/ZooF4ESVbn2A4haj4ejiHq5nM5fBihC0qVa11o9OfcSa0BSFvhsRT4b4h7NFgMAfv16ImmyKIcmQdNyTzNfrUdzo8V9k8ydp4DHeLkMKXnPgFDAiHRm5E5g4WJFKIcx7UidEOOIy5a6umtx/eY2N7Ic1BM2Yt2iGbYz6+8/3DPPfuIGAF30GlcW1E3r5nu7Q9he0Kx/WyEsVkyovhqwZPWrtNEBhGboHafzeA2pLjmqKApDRA0w7JCZgh7ruShKJj8g6uXMvrgsZtHzThgJg5UuYQSQYQBLMJEwKyqmA8okg2h0Q0KmtUlFW6aVAAhyx323zgkpbSPQ3dGeUItOs0HYoOdpRuKneebukF/RA5Q8IsCmuzDQd+tu0syrafWGIyxheAXCqZBcqpHj3FMU4I51vVwusdaIs7zKV2GV1ogKOSBPJU5DZvLBWJaFLCTL4WDl0DBICVbIhTjIiqwQSCEPteIQOS7MYFtRR9obewrjmbzXHi00mYuyPZq7VXVG4nOX6Uu7s0YHI6hpXavK3mJ78iXgkx0iqnuVr68HU6DWGhHy7YyECmCFMkO0Ktl5H0lmdkcrdZD64bd5mSHAXo6/oJelU0/qGMuigTQrtvSxS/PX7tH05kPb9ZYnWn/C+59Ejn/bnih1XnmPQwY75p1d6NfYRcXacSwvcK5w0qB002bH27BlI/V/ttez/WRv8nLuCbAjJqFR2Evbc/xIm4JNQQ8I9qhQcv0thZhoqSWDK0fl3qgKiEIQYR1cBzRmb0I90Hqp6/H1FYDD25gMmqoIyWBSpVRAAxPgmB/7HVc+eT8/24faPJqzcfn3RuW39lFUnvcS5h7vDMT9/NDYsjH3P5mSO587x30s/6Fx/3TaWZs3YzLo/+HtfD6/vLzkB5vUTr5+/ZLbT1++vHLJKhxjQJMqME9bNcL6yKBr3AJWQ7PXPVbQ4/EF9GLOiC/ny3agTXkLxrIi5QVVyvLb1xOAl5djDQARTPIOI2vHQ6fLOWfkiHApH4BQB9fT7LaFZBr6CEWEAfJQBEJdJ7HhEJA2gk0IgeTHN38l0X1aU5ZUw+87OUc1M0G7KP54gHclVO9z4sf3uvq8HcR3fPqoszrN9ORPsIXPJsuu6Ni3zEsbKi9M4ZgctyEiqSl7tblDFl2/fOLW90OKUILHQgVCodBaY5WqxQYNzXOOQmAjL7UESqZrYEHL2rdhBUQUQ5rtbEhY6s+g44WJ/6dNENxwjGs7PqtI2i7P9erf2VgfyTlbet89xP1O42Z6sjNnriSAxvZMxx3GvTmIUIQBCCeC4UBYrESlV6oqFBk8qeHrinVFXVkvmeRKRORDDwFmSyEXsMhoSynlmDC8WWFZ+vWaKCsHsSCl+pOMlCl9pQigKAVpkjYbO2Mk29/zk/HX2CCGgZ23+M9VwnHSuhQuD7nLQhHwUIRi3cD7JN9tWTcaVyTN/t2dlXeTRFS7vd3SHGbdyF4lZHvT/M8Yt2cYHGOf2GdEjFa6XsD8E+sfMvA1UlrtBp5XB8WeEjG5oa2/3+3xOfk507fqpPydGMD4nPES9T3RL3N/sbidGZjJVg9uYQKiVJYQT40oAFLkG51jkoVfWj/uUezfvPqfbW7RQLw9//Kf5Rz9sJSYB+3tl/EZ8/mf/oSOye4v5LmFR4L0NULLNo02/YH+55hYfQooW5/1AKzV57l74wm416jhERFXzPuxz+F49KjreqnVD4fD+XIGIKJ2UUWSMkQoArUmVFrHTLvZmtEMLhEonhYwPZR1rAC4Jw1mRxq5IthEq9OYuH3bDqCTPHZUnPw5EMn16BqUfXDnEbkDwmFEbGbzPaa+Xf22p5e27fM+O2cA19snnZm3HXi7OfnoVNIsACBQhILYqhE1nDgaJ15qpnw74LW0k6DUqKECCGRxe18VFb6Gb+m9KSjJdPwooAzMT0GWhTJYIYy2kKCVMAALmDOwelEnAZAZCDb9eEvKx0iaTahU4YkODtPBWEZgfVSkAjrSmRSjPqj8ttpH3bUc9vrA4K1VbetVchMun2QoTTKhJRUosfmAVvNqqBYevsrDBEbAw9fVa416gVe0sVZy6MWF5OFwoC2yBVZIAsUsVeHpqeJJBszKQWSmc+Yd8tTd2OJhbVzIuxbGbfu+Zv3tiraDqfu2YAycN7rqnTDeBQiI8DU8FB51rRSiVvdw196dHoHB2z7kZjPefQFtOSK58ulzdqMQI3zdHsX22y1/dBraq3Xko7S8b7MAHiV3Rl9B7rb2rk17tntgXWuwLz1boKx/aHz3bgpPB8XulNzxAvqvxgOJzgfblHWtC8MEYKURnDLvWEQBAxhFVERY6TE9ZjimbRe3Wq3doejn7Y4B9/ZhAEmWj3ZMjidGRjhklJHMGLXROKi/1wo2W/unm0jfqb0dg97valq3ADoPB+DOMN6VgXvrqB9UgP6wQfjR6MHHlRnmC3j34p8vDtVqHT/q/z3+8W1q4Xa0m3FOJG+ec2/FbW5Xp9xnvst55MG5F+5jFbYrOvSwPWOKPWovLy+DYHO5bOh4WZb1dAKwHI4JT25GSZ6UCMjZ4CH3GH3oqlk0bWowV0N5Pn1JpRp3/9e//jWuNzuT7WgI1+p+WS/n8zm1KT9/+Qx0aiBCMknpMo9Us0ImxGtkTMqPiogam7x6WjylhLd00p6UFu3YEryj8nNrgL3ahY2hudrtice2R8l3w2OCLDL+vlnz1heTdnCNyiMUYr1H1NmDiB+aCOaH6q4zNpJZrcPGmMz3JUBshUW7YDkWdU68Mofy6u3RIpRMY1WAUeuqqIg16srY2AIjJiY2ZnAq1gAW8MIDYGn9EOa0YAkAWc/VQIHsnCkC1L+QdwAAIABJREFURKUlq7slYNIGNs9uUjhtmA7O7sR9YFB34/v0nlm8arPjuwuJSecHJXBADMu+5DUIpSkoxZLgeq2QL3KE16iIVQJC9Ai/wCvcPWrGHqQALCgALvt0fA00Zcn2ZBoJQxP5T+P+gLIgc6yNUEt/vMMYvhkBKf4c5OhqBX8Y72UoKobLwZ4e02ZAAfCoodU9xTrDI8I9Inyq4VDA90LK9mj2to7KW9fAHHb8G2/zPNo/DA96xgiZ8uxn3Fr2zFzUqUQbeWbw2TZq3ESteeaNGvj9tuXNPd/+vKW+3MyQd3d7eyl/P6QwY/n7s4wHbMg/hLSIdgOXXJ3z/aSNfShq++MpVPUJ0y1u98y158FPd5s/aqpemdof+fUuNe1B+ubHTe0fbPp/0CjUR3Tlr0xhTJffob2bNvvQ7xx9uze3ygD3f/sYGLrdn2zg4hv77/I3mrWXDvw8H0zs+b2AxbU6wZvPszyPX4CdZsLbbTmUFF5Yji+n0yk3nk6nHQEpovPC41ynFK7MRAQA0Oh1vVQAeH15GXus59P4vOOkXrs4LLaUw3KZSh3NM8v/95//8fLykpKRZhy7SUk3gEJJujAZpFKakLw8SDNJIROVAiSR1WAbrhZ5gUKcK40MKZq+xAY4K6H6fcLPVYpDCBiQfGyovEArpQHHzEtr3ZtucRuT/RstADFAqOx/m6DHaWk2nnahq6nctFFaVQrOxXHH5QA7bvH+HoU7hNhQeQ2B7S35W2luBqsWwdCLhoYMZIgtiJFVn7gghVai1gsU8+xUjEUR55OQstwRlxNYc0EypuYJgUz0YswCIGZAIcvLsdQAZJEJl7ak9KE3xMvUIgmMLBFFiPQkvKYp3+wGY/Lp85kpi4jq0rbb5k6oPxX6eMm8+3ZejrM6tSZgiKbjiWId8itgWvkFofVSlAzvQZo3U+r2+KKgotZqqPJKrYwVXqvXqM4aqh5RFSEkWytAUyi4LGV5ef1EKwspW2Aky1JKusuKniy8FLNiLFn4CbIwkAsMkE1l2ibo4QmFtA/hPmi+2M1gzhsZ81wU0xm8u8SmcKwJqHoouTSJEASgCAIKSSuJ41K4sK6/m2Ixwkp1jcBg+COLoUeWSLPD4L6PR4hkdW+2O3Q8vA55iV5gdEtvbUZ/Xl+z56YrfvBMPjT0Zx2LnSG7bY+ujbBb8riNZ3CyPXRlEU+ZY8mtT6NcEhCAA8vxqJ6Jvq7uXexIXIYFD5gPJ2HPVbreslvP7Wp7BpeUtwONhEOSZcnON2pQPtXdpC7tNqV2zf7q2K96zpFrqcnCfjDmno3tVL/NVnJMQAIBEiAs/1OmTUQEZAVcWMiU+NLS53TLzImHfJ3/ke0DkPzT7Y+k1f6I9kM5/XaD0Dy2pXsLjRfjmZ41hd2bq7j7GFN47JjeLAnp4u6jg7fA/N22ZyfnVNsM+vkIfAKGvzn0x+5XvZyX40t+mOleuxyPdS3HAwC/rDtXcA55TFe0KsarUfeu3c6af7dv2gg55Xj4fPoK4OXlZT2dd69ex6rVlTElSd7dDymt8Fx9kxAfKsisM1FAZHGcRuXPPW9M+Z3525+TaR/01cIAV081aymYcvfUCev3+qqZ7j/R80nx4H2cN17tvzt+P2/PtL7zbF314d3X36ZhyKwXUoU8lsMhUDK2v3pmWzbN+M6VL0BRjrlKovI7KgKEUJwzhQsMQ4WiKwKVXG9jh2IaaTIKkBWyVCyiZAYZaM6hH2+J3xcl9TaTWU3on63x4wOW27uvneQQKY8z5CbULcQ+YB94c595Z2eR+E5b4tCYbpENNUBSsvASUcBML15AZi0dwRAIZ/iiKq9RvypcuoR7rTXWihCiIjZcXETIzQ6LHZbjK2nkIes4dX08QzEQVpgAjbEYF5YDEzGVMg+DXRhWk+c2p5C2m6+tzsL3zkTa2fHXw3wXGmNALTlDcAkRm45tEvMkj1hNCICIcB8n2nTlgfkq9zIYzY4fDWjZ0u1zKemqBjMZxLYZlPPROD73grA5KXGcezeeT0e5n2lXdvy2fbZs3zvI9k518gyA83rZ+DNWumpNN/rzK7tOEP/j7fYt/lBkYxd/+NYzPtp43aydbARRSWbquaRFMdF4fqBR949vf1Ua60fPGz84amkfRP0fNcX15N62T8/hU67UE8vAztB/+sXrpOdc4fc97EGXe6Hkmw7G9R/zLiPVPFGg+125tcn+8NO413y4n6J3D/ICgNU35H7dLWNvAvM3zX3oksEgeQXgtbhvepHsh4qGkMn6w5Nm+lbOSUpJ9y7sjpAYIfWwQ3Q7tmnXxBiH5C0k9kZra/eVBc9OckxzcM8lRwsfMDIs0AQr8piSmQmalS7mn87L7e6+3IuAXe2/7YvtqRBwsKUfMEYyLkZE+IouMqcNDBX6SSOl/TqXkIISWDrBJlMzLZCZxITMlRmxxVi6zGggRnXMST0pVFd2U55spPntrWYpQNCMLLSggQ0VZsmcZqgcIBMXoRXgIRFmAYCpnQKWTH615KcqX+vGo2VLO1OLPGwJdhiZF08hXLNSh7+5mu5mNmM+yYP4Pv+7xZ9HhqvAiEVRFAWkhqxnd1xVEY5wRI31K72CVb76Wr2u4Smu6gnhZz8NhBlYluPRrPHwyWKWThkhpo6HW8tZUFM3b8GwRlhS0xhBSxqJeUL5EaDUzsvdmc6td9jPt3pgNBHRSC3UZb0Mqlt6ziZINWrtWGdU91EI1n0wc4CmrH99ltmCTwsMLcw197+gofd29dsnRmDbZ1aAfvTcDuX1PMF2tJs9H5394fZJFb69fbh//JmLEtNLN+z4HUUe3Y5vHky7jKv+D2wbOfcSNpj3ACffqe2eey42jpkRj5YBY1upt92v+n2MzMwhPANnfR+SWck119amOdaqSm9qObuyXztEnwJQDCGCYBM0JTmMmUGUb6Z8Fkm50/KFbODUT6T+Z/uT2rcA1f8t2lDjevRVNu3+97j16X15eRkEm1rviyHa8ZA6ifZyiMuc0nffY/CYYtZ783T+wfscIN/WHD+f+fJCYf369RYQ9wlEH9h8616vydooKW1jS0RtGWgeCkHhjX/cf9IP25KLSOZok36+tKmZhsJh6+fOW8fHBYQCG98dkzU/enrXlAcekvGuHTbdnPT6OLMj9eCQ4+Ua1vm1JTDJmSMolE4b7kR5LQGcVgkCoSiNThOUSiSJoX3OQk6mWLQVt0dc+gWFvAaiEZQz8m0GmLWsTmAzO5o6ClASuQyWFJQPswwGEPRZtlnmxvxpQu8bqaYzZ+bBbDg9m0O4M4++3yrIaTCRwPGeH0+09AOMSEiWq41o5n54qW6KJDUVoSBTU3k6/S45w6GArylNA0St5+oe4er+c8tWRURItkB4eXlpaqssLAdmaScAKJka2HRnmo+6tPwIArhTaXdLAf9L29Vdo8adjKl0WnMm83NEHYTDnFEISu5+yZ8ZAl69hx0aKSuPP1mKe2O32fE71srcTz6FXH17e8hZ/5bnWrQ3Cfz32y6BFZuNDuB4PDbhGtqlrkOPEjYZ8XuY6Z7bcdXJ7d/Rgfmrm19Me46T3vwW3WLv2XQPLZYroZ4/2IiFPALL3QVgkZTFTfZ1EWIistp9uvabHOI7u3800LMLOt+ehv2fbzz+LjFx77ZvHz90xP8ZLT46Oz/IxJh99/mZ0ZNg/Nj/hsrSTvvg+Xw+yrHHeHR3i272vG1tos95/CYWoQm0L7iuydx7sh3nyRIqaSg4US+nPF9dT6kT33o1CRrGpUeKL+uudw9qgWmtGyN07DPZxwCsbOXPB4i+HUFKJexJcfCgSwggFhuDNpNJGja2We/tpnTkTE3EY/cyo6GuZU7ZvKwXADCYUGxzS9a1ssPttJJ8HXQbKwGQul7at3tp9mYY9wVmzmElGRHfwpTbUmyfe2h3WvLT/BaewYFtaSEG3T+jHOp27VBCTOaGdVjdBMsD1ChhB7cSZgqkirlXoxhKygcQWQpGSYJnqiK2LlndUq6tA5FAqe7N0AZ4sATj+0gYFWbH0AIcgCSvm8gmNQNLVD7yDghLsWTRBwrIIJp+/NCDF3pgRqm44j07Nkfew+ckznxhrn2he5ZQYE9k2rtqEgqMQmkVClJBEoxgq+jU6j2ZmliPCYjo+vEgksvkFBY1cxIRl/XC+EytUddTrfKIiIhVcgDhLvd8II3pMoEIO5Riy+HwWoxECVrhIhbBKLIYuXSSN2urfcsAiIKrKYtbJFP93dmG4Xrt6DTrafOc9fTYxpzmLm5zWs8VCYxZLP83paXOGUIDEjVgPZ1y8MEomX8AKAdNckDyzIsV4F4VrhCtF40a3PdeTiN58KMdjkdDac+nGH3VeHk5IoM/HtO1Zwhw86mvsOQW81FjNGG/smjOpZkUDLKaV9OKmUYz9iO90ffbCOdWALAWiumzKWPeE8YWlsk9+wu/m/lKWddLEIfj8bAsp/UiYjkez+5p3AddXCz9RouwqW71HIHn5Eo0rzeR7/fsk9SqZ9s/9y6Trrxh8/Ov6PdteicQDgKHI640grKHHjLC7HAoCZ91IL39M9J5r1w9DLtipGkZqcFzNcSr/EVRJdHJkikpSbB598p/2rM/25/YrhfK/zHNHvswiebevvYPD9WPEwQnmyLWB26A9n9Mf97tkjSdYrPpd4eSb1kJaWTvnfNIEJ03Hrim7Rq/Rao695KiEyEkg+AMDY9h61aHnPPk16meSb3xZO3u3Yx+7ZqSlVvtgjbh7ux4YFpmOrx25x49JIO9B4w9l2v+YV9hjCdyjJoRn4KSvcaTLbFDi9PaLWENNg8sCimKhFBpvlBIHljTRDUFYh1Db9OiMw/hUo7bH1asD8sIPQdhKGIxJqZqA9R2a/2/QsiSOp9YezQzBeNowBa7n4P7jxz+jwUM7x5jU5PsIp5d8CetY04FXCkcFJnPCoW5egUuSc6oCNGKBeTua4WfoXONs6/Va5XkkVWihG6VkoTRWGhyiTwsxZblpZiRRbRDOcCKRxENpPGQFmrjZ6M4RJhDxkJwbxb2q/wb4PGP20DfW86PswItggRspSckBbu6pDvSYua1om6a4EnVmMGdOccjQfFHXHPscajr7j745kcskW8/4WnHb6a/bJoEbcA6j9BoEef1srwcBZzWixTjM5bS0XrL+E+baewBbWS0GZ7AW4Oiqz0f7L/F665uUPpmqSQ2HeHRCeNBmaYx7Xy4WUEchCV4B/Jb/Cq39n+aAfV8+17pIx9N8flotOEHk6G+VxruG1V47d7GOz1J/EPNbnryXM+HE7t/vE2/aVvcdkwP/9ja7crWgJyhDfJg/UuGSEgbvTL78uAs1jEr9uMTkHXix1UG570+zxbqXVOe0+w6bPpOpx591iZ2NPjr01WNC7u54Ih5e6M6NM5DDleD3jtLPrk0Oy32scPscgxTso8ABfcZsbsWkmPzC65doDvkgWk82xqxj+T8tck229lj+5DPhvVbMbjaBlk3322qTISIQQIxhTWjPDIhDXID5I1YLDjggrd703kdih0NaW6lR42GJGNLI0YXeGbxaNR9lpJ6R43vnjlhExSaBrqaCnUvh9kRx5bTgC3Wn8wcDxeu9Z4/2uw6wXliwSooLACVacEoIBrHvf122PE55kRAYGSOeCLe3kfeIVe414pwyN3D1yZ4Lkkhodmgm4/aUocpykopy4stRTDQbCk080hYuNBKJJ6LVokZqbeI7HZ60pNb21D5bX4Izbk0339x2imqzdyVMQ8wMnB3PQczoq6d1riW5CILAGqtUpOsDVX11pSmppt7q5yGJ5bIRpo3y3hdI1UDu+qtTx/wlo8wzzxzTPjRMWfmzZ5GYhgGSx4tP+5smOuzkzSidkw5f9B2JUINfc93c/48+DYNzs+Kpz3Kuf17y5Wf39ZS0N/fdOzNeskIoCnWT9VercdSMMB9K+ydmTMDmxywleBmxZFNkV62s85pPVk/FXu6Pv02ktxG+LZlTKZdNDjAK9ysI31pbQo2dn0/9A0Iz5/d/lr+/rcPzze5BM/Qh5pp+9Hjf9C1+DBBJeJDDignAuM7P4zuH/MdU/7q+B/qj+kaFNltuXlTvjvXn6TXihEKtOVDeqPZlyIAXNd19NbKVlNid0tjdl0ets2CH79r9cnbaX3WPm+1lvamfPR01aumXm91/i2GTxNbj2foXcOUv9kBDXIeZ1rKMlwU32otgeV+nQ3VXF63+yrEXScHe0bB3Hht3r2z/Xu1TCC43hpiJE9DSDVJbmWJSsrACyYssLE9WSxMO16ZPxCKXhQ1RWx6AL9Aa10TNBfCfVMremSajArEgjmKhs9lbJXYabBmr28SdQ3Ag6Z6CIPDWrvqxXUi3fRoxJRd133AbwGV57nx4buTw4staRgaVaaCHY9HeE97hcKNzF8xDUo5cKFWAnSPGvALAWOc17Wu7hHuA4+PMeapeSEi8zqMy1IOLItAcrGl0JawhVxchSjNoJkMnTa23zA6P6YN+PFel6IpUe58+AbJQ5DX7s3FPG1HBEOuDAQ2i76nwAYNpnuRiNu+jRljtyQ8tt7+vu3b+PTDYN22HI7HRqp5Oaos4/M5fMs17074/T78WdYppxOpy9QeSmmw+gjyPu5M2j7fY3oPgGZGMTqectWW5ijcYrkfGa+PDuzOp3tkej7i4k9T8O68D44zv3TPcOJvI/7v9POD7fk3dpeb/8wPHrDG3zlL/diiZeXptzqjuhD08Kr/iNXbYNEMNtUK7DKKpv26bZfUiIZ6XO+pRz2c+ffsOWijTYjF7f67dtO36E53/oEHEHg7fhcvU5MLAWn1XqmgAA5LlifTloMlAVisbDd7V6WhUYYn2oxukMXWtjyv9tNuvDfJtkaQLYOt2o+ze/kAwEx3BJfSgsmtuz6o6eoCAFFHeamY9N0xfwCXZpqboMs2Vmu9DBmcWT4y6oYg3nFZY8KHEgK5N59o3Me96/LIzRbAJw3Hifa6bdujNaPbW7muAc61+BWSEI9QlgjNqyiDA3vN2K7jc1QfgY5wpvleqEKQYSlkUhlaa6wRVX4BKhghLFbGKpO5Cuw1XEcnd802U35ZjmP/RMWSiWsssizFaEYLWKJoI7StjEsZRBuGRX7XfL2rDLznFt7de3rvXjxqBhgs7XgTLGRCYd6LIAwMKsyVCjMKFTWZGWVua0heFWdDVax1PTNkLl/P67oqqkIR4Yjqa0dnhRThXxaWpZSylKVPU2akrIBWyoHLEWVRdhNLvqTpAWDCayPnUaCZxVcuOrDP55nnve/DutnJZM1/DDUt9qoRFASvzpw8FbALWpo1FBepRRIK4QHVi0cwFIpWE7rjRRkslGShnB4zISY7sfVHIOxwOJjZpY4SeFqWQi4dUTagUTWyykXmdcwYVr8Lt+3bMcznZBY3BR41Q5xBKDg+I2etjCRPuXBEE4Yf+HoDpkdSBIBSmBZuWWIC43uSK4UeWzNuCLrma99qKbMXcAbaXch1J2NzyS/Nhab/aXldWeSZZBgEFEHGUrb1cQB2VybKVqiXTF/PthPBlgVALMi8JABLKRjTf/sd0Rn2txMGudlKPWFMCdJbIRyUFGwB7ZRXJgAsd22pLh/2D8Dm/5L2R0blo3H2D8flpySYH9E+3p+P/erDNIS/NSnz+zU1pUMAcBnpqiCvxyvT9WrFcOf2qbr3H905jRRZdKZ9vsWY0ySdItkxDg7sOO5Dk+cuV37mxO8v9H2ufO/H9mGzaOfHwb0zZJRmEB5TGN9qf2vA7J0WV6j8ZsdvMLxtLHk0NRVvVVoLOVIwGVG66S8EFYagQnIoWqTCnR70ylgLKoaW/JSemOj7yBQc/7ZvycoCFmBJ4CANw5JFoObQvG2ovA98dbpXI16PyWTn+IrbPuKThs5bbeZclZuavtkGbSm58hSglpPQxTqDyGIIbgLCM0hFiiJCUVfFGTzLz1ErI+CKukZdI0IKjyqlRcSmVE6WZVlKseXYxKhZmGWzCGLhocgWLUsph5TkN5mI9q5kOeI/Ojx/Vpu05Nm9VyQ8AbfwYdOWSd7DBbhnnnAmB1sD5DU88Pwct3Pi1nb29wZ76X5Nt9He4ND/5W1+L4Yd//6e04XMTuC6XpaXYxDn9eKJzROn9aKlaE5W4feXkLf3AuZ5F8Y+d+9zVijPfY6H4509euushOkR/EibR88IsInw+oMXcXln/vrHvL4/2z+zvf2APUSpH+zzN5sEn2rPv+kTC7xN/bcmZn4bwxdHU4FuX94f0B4rHEb5MLsfwMWxoeUdfegH2RccRZM7F25TS5ME/x5XXiN1deLKAxt5UFmSdooTjB82C7Pt3wZrk8GBtt3/2050t0GPtGwbS54IQ9rxVmIy5aNVLCqZhdkcPAydeCHSlkZUqWaqIATWkEf4JaJaiU6w2dm1S+OzphG/YfOtx5Kgcnwhdnwndc0rdV1zGTHItd1vvdKeS+NgsHKj1yodpsYw8dGx+dHestnuNXUjkvvfTkAbKA4J+Z6ZYOzqQAAYZnI0KaHMQwBQkZKgq/u6UhfgglixrgpFKOolfA1P47OlnL++vgJI/RkYaSlFTaIIJQtIroQOB9oSXIAFXFIXBZyktbhNNbtY8Y+GUZ6oDvs2Sq0p719Kt3O1VjtOhZv35bV6BDyi1mjCRgBa1Dr9rpz2BsSL/iS3zhohOlCMAZhxwdL3TJfpTl9lkxSLLUhsu4t7fvQJvDXnxkP+aHyA9Mv7Vcw5P9ziL+PzyDYZ/R+fR2xtwO0zxR2Tay30D3uaHK7s+OnBy15gzzho+Ru2wQGNide14UVYapH1Hg6mewcREgg3DhR8KTHw/7KprPZnMcdB44BYzPokMx2zmG17dp2fJ9Z5EwgW0lrc3kSSLAXW8oJkzALY841YouUdz+9nzyi4YQn/5e0HK69+S/soWvHDKXE/uj9P4/0zteM7XvV1EHw+/r2uKQRuIbkO0dwsEjcEmJaxvqctbdw36ZqnufPC713vt44BZ9B8Mrsfcrsn8TXNy8GjpXfQzftvhil/92nijmAz1vg9972Z4C0Erztpr3F90v7VjL6PczWbPpqWc5tqSSVZipMf0n7J2gkzFFi2MOttZtnDauv/kNbS8nAz/vz/2XvTWEuS7DzsOyci825vrb2ru7pmppdhTw+HMySHxAyX4XCGtCSbFi3DEOiNtn5YgOwfFmD4p/zTAgzDBm3ZfwgbAmSSkGFSNgXbEAlKFgmRQ0qcnex9uqu7uva33Xe3zIhz/CMiMiPvu/fVq+6u6SHBQOP1rbx5c4mMjDjnO9/5jiKbNimROhInXjhB8pHyoYCIUahXA2IFqTJCKSIg0FkDX05dgsXFu5ojk05EBFqL1qI1k1kK7mbsYV7C5sP1B8xJwWS4CZ+IhLWVkrVLQoE4Qo1BEFfrJVR+jREjtGKqOONit7QGrVySwkhrvjL5dmm1Jm1jzXshCIknViNCCvXeQKFiVEm8qkA8nIhzKl59TajJVwGVV9Ha1d55L3mtoljsxhgW1WB0ACAyBMPEBOOJ2VqYUsEgozBQG9LkA5nwvRmUj7Utd3iekp7PjYhKqSARRJVJBnztAYdmzk4/dd5BxHmnIlGsJh5SSZMOqaqqBkOfiyWgnU9CvsYUiEuBUQGIoWHohhksi3s0B2lNxkgVyy/yMbUzjvwlRze0cPWS7ZPvH93mjOVuy3JRVwKYfsmEeV0JwSSufJCybO349e3kkNTsieaQNlHuqEQJyMbNQDcilxvueViAOZSfIyg3NXpjUbmsc3JOTuvWJ3NA8+vMvgVAydhuRkN2SW3Jgcb80JyVBCAQbHLbKLy0kX8Tl4bMlMk7br0Cycr9sW7/daZnZ+Fv/08rNofd13Disea8Z+DEd65/Dbf+UdsjByofkSqTs07P4vk8qmoYP4K2gwKPrkN/oi1PNK1dQO31BAvAO5xoTK31DcR0xZOuBZ9EL7QVYkj8trZHV8S5GlO7BVmK9i6cWz03ZchHZ3OelurqDr5BQdyDOu9UVv6JsvN2jrlG3kjgOJ+22gnK5F5EO3SpxbaTASmEhgwjAIy18N45VREKRSODhIBh8eJV4QXc1hmhZhYjclUdXSRtx2eQ4QsB785NBX2ZHMVvOyXZ90Dl2kTVk+/g43OwOxb2miDHutoI61rnoWTbU46BROSI0IC7DSHeuvhP0xj0oCbP1RIbcL1YGKIkRgkOci8aQPJgaNZWHbQOJ3XzebB1GAJygCMDY0xaSACQVArESM2g34dyg7IDAcjKCs6TrTtJTkwxc5sQnYNgxAeMjTXhc9rtECGYkFkiAaBlThCgSaz68MImnaSYb0ON17eq5zm/tOzb9v3QztsUMfigIxlQeS+c3CejYiTkH6uFkohRh1DmSRxHlof3EsIVnsSLr52fq5t759V7EVHRxWLhfNUfDdlwv+wZZlFSUSdgNsyGYIgZXBhrkryGVTtS20w1RsFdNohkf+NdZp/5xLfvrQnQPP3wnMNTSMonKZknfJ2LmbargSKZ3GCFr+oIJZCQr6ESbPpeYb2HiHjvq9k8/VhCUochkMFskc2laWpQUQKrqiciIsumIY6Hc4YdR/1+jPCoBkWaiBubgiJHok3mzn4dENeI6aajJR9qzZxATd8t90ZmAyzNbJrwfmTW5alTToB0V9rxaC6xVZ7hoCtFWfgLaI9Q14uyLEGY1gs2pZoChIWohHTSzjKX/c3upVFSajF7bv9qOh2S0eyWfSWAAwbUUv9D1AqGmxybFKxs7k5AJkwPHhpwIUmJJJLCCHkRHZ+f17RjO3+aFEOcrICJUYUkWqrN2igAh4AGNw6VApn6J4DVqF5747o8Of5FW26PWTHmkVtuFpzh0h71atalBa/d/30bSTkmlLudaZwr0jKw+tJUOe/zBLacuNDllNbwwsRFBVCKwoUxWJa7uEs+fUrz1dq14chHHCbaiCSqAoQYWwi6nZg7AAAgAElEQVRH8VgqDRj2aVJ7Axp9oucb/vqJk3V6Lu+blaY8xboUggaVT25MS/8hr17UC8Q3KZcIxpYXiIcXaMf66VhCqbVPPxZqPXHtOKsITLsUrfDC1jhmpx8w9xpOQA/fTXZxZPECEI3dEZ9IMOmVoxg8ChHTCkrCBNxdARGOVCUUAoJPIL02lmtgOAFg8lotONVZykxb6ZoWDRzHZBhoxCZZsmqRmpZkAUWpemJBRvBoAIrG346KNOF6WTOU/SwQY+tiJP+H0jL5nhu3nOo29yD8NQqjQIx7CClI41OwAiOAevZK6o0IQVgcqzAc1Kl3IqJSS2Bye++8VzdXPxM3D4XeAkfDlsZgYIwpy7KwBZEh8cKGmECGmZkLtgVHrjwTkZJltpTk/FUApOxkwhmr0X3ILaHypNAGoVdQzMcUqIQIUhiZ3muw43MVWkAkqi2FY2WuQkaNDxkGyq0Rnj60JLF2CCnn4x8EoWAehg/RmE4p8twcJzXWVaj8e0967Vp+j9oC5ntqfIZDidYcLY72Pbd1GySISiFKTgUT3+eMmjO2fP8Tv8oR+s63aYs2tn760NKB9MRvs785YalD6lt3rlM/a7YljDmT75bMiU7WgcadlyarjCv/Fwb790A7+ap8eEmdUUTksZ5jxf0+Zk/n9JbzIBMCByBYwWg1c1JLHLj08+aLxvalTBunQRGytvJ2o4Bga9t2zOXVl36WfXSNeamdGENr11OSK8lQMQDkibRr30fsuZlnIAr1Al9BBOyzSlIsXiAC78CmmXZyZ6LTJ+36Ghe9kzcFym+5A8uuutulfR7vCP9g22onJ9y9IvR6ciQioB6zV1UamzKAwQSEUlBxzHunKUWWoazCsVSuZpRoDZYTQ2pfSYu4NQNVOv0ZFGSIQExsFZaNAYLUPAVcPEroRnQtWT/EmsWJGj59u0IHR4C5sRtOhsi7V7HMiT/9qWu+qGetwSCxND8ApGjqGzNAOXkJFHD3aN8HU14QBSgURoWgUAE5+FrEq9aiwnCqTr134n1d165yznlfO+/IVySiqkQMYjZcFgaGmYgMe4CgxpZsrIm1vFjA4AJEyrF6q0b5a0KcrFi7rNqT83O3Tx736hTtaO3OP0A2LWQMws7VxrkrZmvEv4CIevHBLcpNdhG/kprfRMkio5qCU4ogkROUZ4BEvyASLxSlxE1r3CuBiJN+eTTiqXGZGrw5riZ6Qs7gjO0kcH76crruZVn32yXXgtM1hxsKmjNN3mpOfmvePs0/JNUaCqskrT1xjsd35oEcuW9jehR1ycKXnH0Ov6W2/zVy5dMrALA1AfIGIVaQjaej5koaTjwAw6bl+OWchRx+WNMoi0TFWHcCS9B0CBERK1EIJgR6oTGswkKt6W+Tt9qejx+zzvHpLQuCn/Zt01pq0dkuunnb1+3emjFnOM57sTtPvdC1U+PD5OpOemR0Nu1bXinguL59sAo8J787ufvqTiZSjbVmiEikC71/oK1Zs72PMCQAGwUfw7WkXbt9LgH4CS+8LbDqiazp/aglH/+RCVqtM9YpS8AK1WFXtHWjSHK+aftQOKOtABmJRVpTvqPjHmREKOYvifcIAPzSaX0k/i7fvKKhG3Ez1ab+XzeMvtuuX5co2M5I6wh4D5uYaP2ttQfM6ogt/zwMToEXRUpmRWvKRzs+GfRgL7H8ErjhapOi9i6wKSNsjAhtUpuyKs34JYgXx4hD1Cw7qK19i+hmkCn6EUQnJB5wEJSMa6wQmjxXIVaKownd9Ro5Kn/CSmjaChulifI/rLcfqcX+1+UtNtXVIoVtjXghEYgaBYkaAUMCb57UhzRtJnFuQVpTQpTF1+IdVHy98L7yznvvAsmEo5nLCpjCmqJX1ZUTMAMqw36PyICIwAATWIk9F8zkE4XDABTpcQxKWXMkHy4kryl2sfphUUaWyxiczbBjTfMSCWljxwsAL847L4kQn5p4aQJKq6dkVS2sbSgZwXI/kXQTdn1f6MD7VrD57mETgpZF03kfMzs+vXQc0kGE4KEp3aVNSf9eaPRB14R51LYu7rF0VZpIvKpteDFxuTSiKVG8qbt2PvTu8h3O8lQiISlfFFdkv60wOzpr59I1rF0ydfW/HsbR12Xca9VxCAjV7M7+9p7KNe+e8REwj1Oyr073N7ysm7LD2ZePa8mgi1o98uiPFQHf34zTwt4xYU6k+0wzBF1S+dN2+8m2xhPwSQFmKXP/pImWqpKKnCz8TohwpnDTXXme3+mSmg3Jp/l88p30rn2OJjPrfV2l83X6p+Hxs7aPgrR1NzLGPEBUBx33EBoWVhVOFU8bOriNBAqGSKgMCmOYTV232XjqhAAyltm6Kl1bc4UpFiFN91LkE4Zq6avEK6X1K9B9RmfIw6E1+5zigq6ExleVuso2rauHFW863zP/Mk+dgrru71WhsB4MiKgNHDPRwAkwMKRgEEStBP5MINjEnEt4RyoBxxf1hkTVk3oCjAb6ueNUiyRQFyK3mAQQw76ZHFJBJUb74BjAoN9Lt2FBBsTBZOSMiqDtZ4P02QeCzUpTniM/PmBXgdyjySyI15MPAYnHzC1+SiWxztRy7DaYcQpAwnFMhgpD486sMEERCBJkf0iEABIfkHijgKjxSvH6PMRRsDshBg5SiatrV6k48eK8cyLinfhavRiAjDFQosIwC4GNqZyoVMwMJnDR6/WIDcASFP3ZKNhwoUwNbIlA9iBAWVUQVCoR7IOwpdMTIuvieus778yrQxg5TTp7/pWqurwqs7amfO7f1ilfiJNMavA/SUWkllADN613xJhPZuko7QBWbSfELgRLnX+ylbYaaLxqVRRlGQvyameZC9Zt7rfnhJzWmnjvpmQeDcux4dXPqxPFUgMgx8LyOwWQZF7SmbKn05rsAAipXByUOLyYQggRIQk2lSkFpApT9DxHO74R0mlKywKgFLA4091T1IlvOpCIghio5N1A0V5PhWxj7xNATLGeqyKQVYMFmM1CnT55+BWFmfOkXRGc8KJAd40wTYCGQG2ia1gQBYUNkpSsDNGAxpN0TfnvnfaoAjWPagx+UAI4eUTvkUOMp+LrJy/wTHVe13hQDV32oe0U2O/EMUMWGdC4Cqfvv2JbmONWxw0eYS6jNuEVRAGigq7IfH0/LVf/6Fxa0ixH6jdKZlknayw4AArUTgAm2xwkfDhLWnAu+rZuKjHR3hUmpszCDnNbQtBBTbmuZF4roNqm6GjSjA/H4+z2w9cAQl5lo5NjGrKNi8cJqzKJgkRUQw5l12CNKWyrvcFVtjI+7IBhbJkOQD6A15o476luaNNOt5woFW9ijSo8MZCByKVhhXoxBPIabMrwX0P2YA8OjBcIUMcETRWEEjkaTNagg4hYVlUBasnH4TLTBw6pfmlubnFSIfZkAYCgbBQsEVfOTHZQyDoVwJ9UBElFZxRx+W/seKE2yWypu1tZiQwmXFo4iB4VGEzubqLCN9uDV8OKQtikwAhEOBS7VR/TDxQsPiXCQlwl6qEeEIVjqdQ7cZW4WsWJ1OK8qhfnIUIqysxKxEwWZGwRYxphSizY2rLoB029yJYiQzBkCjZG2WAJfUtlv7qDbXncvgc7/j235Tz7rDXuZbyqFIHMQ0OqKvAUOTOi0Y6vRbzk7+OZxC6BYBdyESLA7ZUQp39S08QrteSfdvwHuvzp3ffdh4TfJ501h94V8X1sLPuM+cZpN1YSQJWo+dWHC4T/WWl5Jr2mKKtADDisSI/XlF9nhq7G40/BoTv7rNy8fs17HwNltRTf0nV2jp9l9LcmZvzNw/1LjZGTfL54/3NnB5uPKU3t9T/MVQiUkkxPgEgllRoKyfbx+Ke6KLEnoxEPgOAVYIl82fZkcec2kSi/klPuEsFbBXfipJQ/EZ8YcKtQcMmMj3ytyC6hZWe1uuhorpO7kEC6rDgSRAUEQdVsznn2p/j6qqrwq1HnfEuEAzk8UQ2uPBDslvjwU0kaNItl3O4zznpmLyeu/FKXSO7GBDgk9Ukw4qNKV8ZGXfKik5sBBuJwWuNGSufd//At+cfduvfYDrh8j/hB0kOWOJ5b2ExhEPXgVWAIlNQP2acKr6KGkgAlACOhQiEjkewJDNT1IgoqdHS4Bdo+XKVg4ngCQw1RKBjJlMpCEYwErnb8JwsxsYl32OoxR1OeWMi0b1OcbpJCRZb22poLrVexBCSnTszD/XnXxh4j9hBdVsBf3RpIO7pDnUPF141S/0OEVSJtKWDzqqTCovCxsBUbqWcLJP0fES9+7n0FqSFenPcx+VUgEjm1hsnCFMZaDuRCA4gacM/aQeT7KofkYCZStoUthGllODTZ8vmsGK37eFfcIgIrJ6vHpAHVzBvrIuRZUmr+mVy9IESHk0STHe98Zsp3tQPybklodBLwzvahZs4GmE7mTWU87IxRHet1xZi8Lv+q+Ud2j+u65MNpuRXRGSU5oyZ7y3zGt0H+ORyEMzs+yx9Yt8anWHRcZ1s2XVYGMe/5oGsXh2vGlWc2Qh2vLyD3SQcvnktDKbpYSbrl2S9dTzx51MjTxqHLX5O4muY05s4Dz+IbBITQZAgaxHuUPIYW+1w1nigUUhQhou8tVP609j02spuWZgPJjEhgjSXfUdI8GXjR9+J3rPvJUviYm+tUhjacVEROZERtuQtUSLMytSn2SohFRABQsz+vqULQJCvyQ2zxqNqWzBIEnEmbiFg6TnvkMDWIB8CmgDJUReKuuQkLQDiZICeeVLrx06+uo3phQM77RPoAEZtQw5vjXNPaYI2hL6qqPi4EAiJNGDlzDA425xLquFg5kqR6wiwGAFhLQhxNcglGvJKCWaAckwo0VXElaY5JgHivifUUYguN6F4zaSZnIKidqIo2UxUp2DCI6rrm5BwgWuECNBpfAODrVl2nQdmDNE0bZn2U9n5CbWf/LWUP9D2ea81v121P5zvxpbYfGjH4OJYYSMalhQSCh3hv2YhXAlgSIUQ8K4KIM0hYPYvToLetrTXPgEp14gpWUR+jfyi9sugYi6lSulJGLWOTI5StdkTkUkHAQitKE7cGAWcGfa5HkXZb6r/TUzmZSUP/oB2HlNnoS+PEJKsxROpacxORa2QCKh+zTYVUApeJxDOI1JOC4IMUlKoaUpU5iQc5gUCduFqkFl+rr0WkYYZoNDmksIOiKExRwFhD5KECZlg2Aza95t0OoiJeURYlWjs+DxyeiRPfQPKPyWQ/6V7wiYmuuRZ0UJUGAs+PJqSi8KqeIc5LsOOddxHFj9Ndfi+aDqiUvMdcvZe7N07EXWyOiUzHx1gX4s4rZZ+paND3Ysv5OQ0zHrlln6H1mog3uWKM5t0flBZPTnXr+yfn0pxxf2C1iXL6Da48znehtao4mn1e2gdQwJECsKqkIfYdg/LQGE5N6NwafnDnJThLzumJNalB5rCEc5/cXztO4UNbx2Jek462PiC+bvvyFVLU7uLEfwh7hNQDAqmqUqo9w0TUEk8VJF618VOBtOa1EfJ0ljUoUdPnuoZopG0/5KWmGUoCEwiHoFBwJwFsHkSkAdCJFyaIxQiR4skIDz9oL8SBQFK7uj8YCKGazfqbW2Hu9FVNUjORBS2Z8pKkUsO9MABhjkQRCl95Vm1UVFV52R/wKqIEkIF6hvESu5MVHIKhERiWRq+gE52It8nRcI3324DVABojI+AJGp8dEAW1CBJ4maClX1NYOAkKWIHxCqC2VDVMHYUhNoB6EVUvIiSGmQ2TRvM9TRxZNIOWR0QcVKIKhulFLF68ilMAQgRDHGjssUyriGeRpga5TVQZoUi1abBGovBYwhhJVHrRgO5rZKPCueQ+KUIlH5V2po12nmQYSWvrxzVS82jAyndQWy8FGTIKYhJpJqTOXPQwHrxiLVd++behk6lzbetmvQ6CmG1f73W3ozqbELo3QpG/SaEIqChEjMAGXrsIK0ouOBVwrafTcBkFs1R1QRzcMPbBKRVSH9g5CmE4VDNO5LRqXiO5bSs1+FWIYJpvit4Aje2i0qDsGaMZtiwb5EhEhFrkrMlCUUhjEChM0ymU8HjPcMZqg+3FABMEKIqmsibylPHwejTvdkaGoXRwkIohJRGv5Gx4f8CAISYFS2uUNcI+zSNr04JFrIAgLGwU7GsOLHkoiyPxCg+J70soCaEUWDOudgv1x6p1Xdfee/Givg6zgqvmzGyttWXJTETEbIioch6AehXv7WAEsGFDXFIxAGxjcGjSOzeNFkeqCJknunSnlGaebK3eEC8mgnlEWiutsceXxhWvC8gHb0e0fZPUMyK7z6vGAliAek8SIRkhD3IktXfOq4Z5W5yQplociTrdXEbm3AQ5TiYiY5gbAVXVsughjcawfAd2tTElwKrKlDhIQayGiMiY2JkR5gUgCbMnoi78F7w1CtAzQhSAOs5+Vytg+VksdTYT5ekO7dzClOPKoaqoxJs3ACK0tHLyysRVJJW4IgIThLmFk7lj0DcgPWkojEUdEjkRgRpDPKwESVtmGW4OwUiO2DkBQKY0H3Jv4m8bZyndb35DAY8/2Tim40cNzXAcjWqVlMcHvHeglKVWWLQ7SHNVnAUMm3ls6YlwCtyEp6CrJPzDYCFmkgT+MyvEMdceyn8mUPmu2tT7ZHd9gC0CxtoGnaLJA1YQCVS5MWgSMNlwb4iXnS0FGYSnm7sf61yLNaSjk3z3sHIjA+ZZAWWvCg0Ml6gYrarKRAo1nlJYm1S4MXwTpb7JRAyoLlT7vf58MgFJfzCc7+2BCIaIyBJzqKqRnJrmf5IGepirGR6hXHxArClSL5QiQsMAt7fKAEpjiFiAeuGc92QMBYIqRD2DUsSexGjU30g+SQw4BD6IULQR8+B7mu3Dqxs3kyhIRYQYHAKwTYJK41yFnb0207QqjBgmckTMUfGYBepc5RwRlWVZ9HpEVHu/WCxEPdiE0s9OWrFkhDkkg/BbhrAXkAp5wGA6hQqkAkGoZFOASYIBEcMvjkRJvS5hISnhnQUmXiV8iBZ51QaZ61Zu0u6vT2/vmSRDSTD9u9/yfInHfQHLebRZdwWSTAhesQ/eMGyweUMN0TqISwpBWOLANKIiQqSqyoIoUyIeJCIuinuoI181KRlJMD4J2TStkw5omBJDJijidNeffKLOw+sANInWAZEA04J8aX/J9m+mtHAc353hQhDchQWVW2GrU/oWS3SKGLMCQViNpAnHJGH4Fp5Hq+yZN1KQwKiwV9KQZ6wMYYEhhXgSL1JDvYhDhoQ753ztVGbwC5WFc+KcUy+qKlIDIGPZWLaGmIkNM4Vpp98vmAuAGQy1RIbIElsFS9NjK6UFSM4mOZCh14+5PdSOV/iWfxGfrAPAUEmRRvUCUR+RDEfinRfva1FlZfFe4wSm2UFWv83BULLWRmO72RpLAgXXiBpOGzFBI7MimODEZCg8FI72bsaVpySJqKvmTFWNXLX3hwHzut+emhEXB3+n+lXnmJJez+b9RbB0wUIsJ/D41o7nuCeINL+2ldfJhCCWmllITW8IgdkgezSdsFt6bNI6Uw9vK2J66TjhmqOYRG5rpSOfQvd/3O+PZ3ivSo877fVhqBiW8Pgz7L/u8J19zgKFnaU9pDojKQLXhAUSsubjVhBJocKU6nkFdL5TyUiNkQhyBKJ5jL8uoYHv23WR6DAEQ1YQGCjkjCakGZFCI6qaUv6JlFlTireIkKbMi6D/1RBOgm0RbQiR0gsXxCBjQEROKycSi8xp4O6GhSRAvB7hMARod3ZIcFcE2pMVnrsELGAWURG1ohJTPMlpYNQoA46gpA5w4UEE3bUGmko+mFd2QHwcMVctGvE+eMDpeUj6GoGzxsT58iCEkwuEKlTVQV2mCiGAYdoYbfm6ns/m8/EMKiiKXq/HxUC8r53z3mHJPQvhnZa5FTda9UKq8B7AYGBESiUSdd54B0Edqj8H0guJSlgil4YKlJiMoPQRFPUMNfAcKBwUdHhyB+Aspu3pUTtZ4qKd7Lv243fDsPhwm8SKuZ1wgapyetEgyqrsJZiVcJ6S7qFqhSh44C00BLKIiEWCncHJHSKI+BrkVD3C+y7iY80voWZIr2/G2pY8AwI4x//iHEOUPGHOoabcfO8u1qkx0JaQ6mTXnrQw8ksNqRrvwd0KUIOKEid+UWbH5xQa0iS1E34o0bllSfqSwbkK/HiEBGIvfi7iAhswmZQqovDiXa3eia9Fna9r7wN4H+/LGGtNYYw1EZOPU3mv7IVKWwpWMmQsGavvFZtLfdiSbeLwS3eeP9p1HfjeTv2QqxKF+pSt4YlJoQoXgt5hnBEQqmeReGhIK3Iqtfd1XdeqGpBmn8U5tevMBMSzzUdisibMl7om5n2iJcM+6AAZ5pRrICsD62fprsdhxzOtds4ynZb0LtCJb5lCdadAmNHs25ZIQ9CmCFRC7mMd2xa4bA8dr0e744oC8P9o8Z/QcjJninu0txCk/ZMF0TpmxKa5X58A+NYWy45DjfOGyO9nJgG8RlK7MRzElhIS2J4lV+5KW7JjNlIB1Dh76SSnjoQAXvxZQOXXtA9Kjia0FgxbOsuqnTueArFoKM4nRh0Fg14MSVcVN8QTPJSEEfESEqtKZCwFHiVAOS8hHH9d6vAJ4lCcpALlpEFtExIPkmBwk1ZWHGlYrdkrKcG3y6yABF6IFRAwKRunEhi50GjcR0pK+ktANZnu9PsEqcZHfcPi576uRGpfGGEiUwobUKFsyVjEs0dmdzhxALEDwZSIDASdIAyzNBz3+EGc86gZZlhYtb1KnJda490YYlUVFkdwjaMlYgJ/LKxbIWTBCoqycKxggfXExqqPZVWVOJTrZuedYU584lWk4VUjhhQs4llY2IuP4l9C6v1ivjAwAzZmUBCR9+Lq2i/myHPSs/NE1CeER1sLQwiOCc4TYCAi6ryfWZCVsqBW96oNv4iIaoDosnmfESQLfUTlOZnyjiBNrtHjZHgGVaiMC/uw/d+T6fZBtZP8zvdwhDysscTPjmEQwDbfSniLQQorkf5OQadcNYqiQFk9peqtlJg5gQYAgNQb0trVYSFWFXWuyXo8iw3BtohsQFUFS1fcI2k6JbiAWMmEkLpSREiIW6uCusxXZSiznFjKT+ns4PTG1LFEwjljIyZxKSKRhp9JqvzUReWtgLJ0YfVCgWYpYAEpjEjIQxAIQ1hq1ZrhDAmszqaz5rys8OLUO8jCe6/iRMSL58ZXV7amYGMMMwdpoOaVp54yCKywjR2vxGfK2/3ebm1eiqiKImr7isIhyCuFqsMNTU4VpIa0riuQiDpmVXHqRL2okidp+kWVcn8wfWohcCLmIPITDK+WBNh2rFI+JXe9AqZTXh9qUja778vKPR/STWsbn2LH5/9MwBnnxiUAR+215ZycYK97hiZLvY2zZVB9bscDJ0JDcWCvuJ72qvgR7PgGI8iPFm0hxMyHpgW+TXt3jZHcBBlaciCgGiG8Nf2ZxJcBgncdY+D9I7Ct5/OwJSZM6TayL9afOV+rPkBMbHUa2RnWxY64SL7/mt+uW2uXTITVmfKnOwzKICmJ55O51IvRsNwe9S18z6iBmRwqczcBCxDC0WSsTIZ6Auu8kOllqjKrO3j1szl5YY3aQD4NBDkTSAGvruoXxfnNjXo2L1QtFUQkxA7kFREoUlZVJTMcDvcOD2aTGXolU6EmpKH5TpATAOABo1J6zO7vD/v2Qr9n3KwsbX+jZEs6KB8cH9fK5XB7WvmD49liXlOvn6Lz0Y4HiRM13pFDQWSZDWlR2lF/AGCxWHgnapv5tDm98c4valfVEzXOFCzkQA6E7e3do4NDnc8M67A0fWtLaxLcRQA3jpYhCjJ3ClY2Ts3RrBJbikdhjFOvGrAGIoC0VqHNQX++P7YMZjbMtijSE1AkqfhOChQw7PX2j482hhv78xksYzqzo003ne6MtqJUv3p1Yph7/Z4tivF43ByzSThrnPtQSpAS248gi0V9MJk4X1M5LMuymk76BT1x7txsPC3YFNYaa4/jMdlpVK00hTXWjo8m1tqisJaM92q9Fh4sWld+5upCpbZ2AV83fHTkyEc+EDM4Yp0L2iFsrJhcBJGUn/bJuaTaGlWNfEr3XN3FauUlnGmuOCWQkO/2UEDh9O+b7EmEVSelUURsPnWEAbHPyjzFbEsxiiLM+aoclQ2JIFaVRRp7Q5xrHhjF1HaBilSLICupCttSVZscVkXCufO7YUCIub1YE2q+xOM3S7UyOFIKPAUOQrqgAC1nsabEmQnRsIjttWD8Erqxqm9tqpOAAJg0362rFxEjaQDgK8dEQlwYVnDk1QDsAzO+tfJJAQicIpbTSv/BU8hCFm9ADNEgLulrhVh1IrWvFl4deee8d3Xdkj0gvqoVtThZLCrv3GA4MMaWZWlNUVUVsyViVQr3aAxb2yPDCiY2hm2tLMQChqLfK7O7XG0PBbfnZIvj8AMl1ayNqOdp/dmTNMmI815EJBXYFsUiUMlJQepJkskVEnK9V6D2sziPiEJUvSchAsQnFQoOrM1m1mJQWi5juVY2zMxGG1A000UJtTUDkEzUypNnNTdbqfJmQ3gKKac/vinNEr00tlvjWJWaDOwzmfWJuUpdkSLK/PPI0efmQoN1TmDtkn/a2Td6lLHIaLCbhTnjyzX68azI7fjoHRkClH2CliOan6PRuY0UAWlLRJx1VPM3ybyATCouh847ntyS9l7CzWb8ZoT3RlWaYLtSJgDPkX7Q3DszC5odopMAgJowsUbLO08POHl3ea5wThqkTHwpzyHOW5gsVGJALwb1kqPC+mHoysew1fdSW7cer9vOCUxmhVayM9o6vzm8sDnYKKlEbalmT3KuVMfLpjwL+OJ4Pj+e1ZXaewfzhdeFW9QkBKGVnK41ipjrpkjSIOUSuHthN2XR6vj4I1cvP33l4lav5MXCQgslZesgIUrrka3fwL0HB/3N7clweDCdT0RAquQBTiwIeuQAACAASURBVPh896SiVrC1uXPlwtbF7dGAHNVTqqYefm5xbnhBTcn97bfevecLLRhc9ieLSpCkcDQEdoUVOz17aXPz0oXzO5tbi8l4MZsC6PXOA+xVteusC2EyW9x5cLB3XM98DWvBAnIEjB/cY6dbg97lrc3zG8PNstwclqXh6WyKBAoAYZ0WVhT9wWS22B9Pj+a+MOVxpdOqrmsHC2ZlUSLy6iB+OOjtjgbPfPR6qcqkxDSZTBsju32HcxtCuW+Hx4vqfj2tbnzH11Ip9Z0MR8MXrz9ZGjbMYUESL15EVXl3ZJlVVbyoaqjk1ST6BNyomQ+EcPNWvTXYnHg6OJ7Nj4+Hhnd65Qj6A9/3Map8SKfDziCwm8gyEXlV52qvypfOA3Cu9l6MYaum8DCKjdHGcTU/mE4fLKo3bt9rUmua5y+UG01nGbbovPydsEZyS7RjP+bjnNYd9JGJeasxgG7G7Jr3K7u2s1Dnu8S/5d0TZTe+epKwXk7JeXGmFmUvJiHEoURokidH8zmUEWVVhmf1bdRIfJPAGl/wyKupG8FQzRg96x6dbVinxBKz58OyxK3V2CBeocx4smNCYKe98bQgLrFyNX3rMpzsu9CakdUsjQ21hnOgBwHfTW5V5MQnKSHxRhBC9A0z3hphUiawBTkQEwuISFS8SOUX3nkv3hAAFNZaY8qiNNYWhWW2JQJIHIPvhtnagoxVQNmALdgyWbAJRqmIp8z6/LPVWOOU5r1EZCkluyscyGkMJbeFh6O9L8IKEZc4QkzB0Am8dqKwF2mHwEpJNjWenY21hplD5ivlQodMAKy1iJAKODPXrGntqExRhwPrIX+ZTpesaZNDEqersebP2oFrjP6VzoAkOdf81NQlwQMgjnwbTQUcJGGUUZEiuQTLeHx+AaGMzMPuhYiUOdjxjKz/U3orpyunLgifHaMNKURfK1slmVmgCZZjZVJR4nZMCLVGPBGRNbQKYeXEc2tOlD/m029zKYkoP+/ZmSatHEhqKev/uzJd/jlrYUG1Ti5t71y/eOn8yE73bsv0cH68V88Xg/7WSVCECAeTfWeNKQaBJ+9ha0IkegSKaDKTAJxSw/aUFsvmMRDXbzLCzz751BPbG+dtWVZOZjOdjKfj8bxa2K2hC8zUNqeNHdhKMTClLYaD0cZ3bt8RFU8chMaldSIDzYNJUbI9v7V5ZXf30tZwfO+GqWaopga18Ra9Qe3qo+MHcjCWSe28oi9akDZvCQcutjVaXb+4u2Ww4RfmaG9QOYzHgAz94GB8JIBy57XysFQMhswYjZwt74wPPIsPkevpYsT2Qtl7cnPz8taWGx8d33jn/uSw1zddwkrgqxiQrZRcDZLCz8Q7HgxGPUPOz7zMA5lytpgVhdkY9i/tbGzoHJOj4+PjarGglCCf16LvzJ5q7x7DDjeq+fG2cKXeK/cqd/3KpV0WnR9PJtPZbGrJiPiQ9MbMyhzUKgxRQcTGCKXKmswAJtMJgp1EbCp/OD2eeDuZTC5dunRxd/fydn+TfXXnHVPNXe1EPHOQzAFMsLMUtYcqcQEArlaRqmAHUg8jeLCv1CsW88m7N++a/qVcPCEIXHDiPf9FO1tbXhTCq9Suo8lMjD6CtttNkp6kVBYqproKjCJqA6jYJkE8Q+VjWiEBQBWr/4rCG2iA5wEwloGEaAYZyj5Hk4XBNUWdeAXY2kYCpB320dBhIgKhUhJSzmCw+CEHJlNX5Gmyy6bM4x9tjRHf2PEZky1t10gFDILx7Im9sggkosGiHuRYPKn3cOqdc5W4ynmvtXPOhWSY2ldehIlgLTNMWRhmIiaGh/ee+sWw9XKJrC0MsyiroWDHgw3ICEI912CLycPs+HVppu+/804eed0DW30ylTY5lbXVm1ESEQ8NCcEeKQU/EcYECkhTPdpDkbyaCA8Hscg0PpPnRjGpI7PjwxeShjQLPQKlMOt5RszAlJO4gK4i2CwxCMLMkDLUOpIM6S1aOjV1p414kGZ7Q4lRsGb0UM3yUqKKlHJjzjYhaekUc01PuinXgEi/6VxSgp9CYjATJPL8TvacgAk2gGPEoJjhAAnsdiZu0LGm44JcMuX8+JgvByDW8IqRr0RAjyUwVNgYRdQgasl+jUomxfkrJwE2fSvZ3aVLIUSXPcYC4v4xdTJuUQpRzai0E48QvaVGtOdk5yDcVNg/dzyaWduCHFCu/umfi7YOXcsBvpMDK1VdXjMNNRCOoBTa4nIEtbPJ8+e2RxeHm72rPWuqehlCBiCEvaPxrb29t+7en08qP3XaH5n+pmeDWtVHHzwsfqBHLlyae3UibZiNFdv9kU4WQtjZGWxvbmyZjVHxlDVmRqjVE4Vs/RBjJA/7xrv337y9f+vg/tzTluEjXwFwgaKNUKaEU7wdrCiM2egNStX66PBjly6NeDFiLayWm6Oa+d7B/J27B8f7h2K5MKSlPXR1bTgFqli8MFHh+fxoa4eqzZ4dsTl3cXOjf4VVZvXM63kyLF1T3pH92qtvWSGdze8fH1mFS6/eoCj64JJgyc8P7l7o97/vmWvbo+fYuDAdLT2XXn94cFzd2h/fO65u7E1uH8wmi7EDvKnIAsqqrIuZKUYbRXFx2D9P9U5/e3TlQr+0zGGYsaoGlUd0B57C9vrnb90f/9ZXfn92sLd54WIlZD0uDbf6vt4c9DZ3N3ql7TGV1vR6PVP0xuMxSEKWvgF5NWAjqiAXgAQmYjbMrISa7e/80df27t6pFhj1h1TP+sV232rp589fu7QJsQUbJmWjqgIWr6qqTEVRWFMeHo+tMbYoyPACoqqFgBTTxVyYbu3dM+S/c/t4QeLJemKfUNigFoGVGPxZlGqyXT40MGGduOSqlPfTL/K0VNEILq7aQRMGj1jCaYmcjWBcOrUxvVVMAxjHkk+iqtGaj5n3QkFiEgDgycXkHAUFoUYSCnJRK+4tZh+E2ymKEgGFyuRrahiKZHIIAaZoOVfULrfaiK+lJWoJr2rt9ewaZJ0R/57aOoKl6OqvGsqTSZrxHJiSChJPKfM42fFBbhIWyuS9LKAICpEMUa0NKeDms6mvF84tvIi6yjlfu7opUxrVsVSYjbUFGw6BuCgjZCxL9KCCsYmQtE8FmBHF69OR3lNlkg+ndUhx8bMCAgl6NawQctwEkaKkC4OkWtTUncApElmSPaZQVWKliH2kYiMt9pyA28C2US0KZl5er7U7CIWS2auNvEFjAjcsWSQtS6MBJSVAtZGI0FQjpYHgV/UON3loQlCnZDlmcaRriaNXufFVGns9v2QDhXoBB2tEiYMERSjiorR8AaQgVQqinUxCIGO8+gatB8Aq0urmiwTWX2Cpto9FEHshYQlK0RnInP3mmKF+VlhQ4i2k22mmhaWxHQNVCe9Ph43nRRgPmpJTA0cBZDTa1KRECiYKyWPBmBe1wkWk1qSosWa+cW5od0RvzrLcdQMgSMMvfCXrJ6vOERTE5KEemte6Cqa8/yDLvnb4rysuTdENrJ8agE6b15nUD98nf/z5yrXWfH+URoor2zuXRsODOzeeeGL3R555ZrdwO0NU9Vypv6jk1u1bb994+/U3Xu/3+/P5/N79w+sfe+FTz3z8mYtXv33jRvX6jTvHY+UR9a3TeUjwoUA6CXxWWl9+sNOH7f/zvZtbVJXaLXbLYmM4fPHjH72wOe/LcV99aXq3bu5985svHY/Hs/mciUS1sMWiri49cfVz1y7c3uU/fvXG3dqMj2s72lG2ZCEAM0fvOrDPvb944aIh/+DWzWde+NjAT/ffeuNoegiq3j2+g14JDJ994Yfcle1vvXkbau6P7xfFhir5ZvZ1UrA5P9w8enBUcv3sRy7/5Ge/v6iOStSq/rXv3P3TV19xKnVde+8mk+lisTCGHRcfe/bj5z/18T/45o2jN/eKYjheVCKOi3Je14a48pXX6tzu8DPPXL/SKzfgdzZ7k/Hh66+/+sqrr87ncyISL7Wr6/niaFqdf/pj3/fsC89fvfzPv/qtP/rTly8/9+w7szH3h4uD6WCwAY+C+Jwt7r72+u7F7c/8yA9d3xzefP2lN958Yzwe19NqMBrOuDqejbe3d6bTifeyvb29WCxu3rpbDnc2Lj314vWtwdCNnReQFb79zt3dJ88X5D51/SPXL+8UfjE+2nv1lddv33/wyjtv1q4aGmwMRkdH035/1wx2VeXowTuF0bIsrTXOeSKq6ury9Y9++smLh7f1gdXh+eHR7HijV+/v3z+3vbnNxWef/9jxdM8a7vV6X/vaN7799T+FclXPdi+cm0ym83mlIrvnzi2ms+HGaO/woK7rjdFW5eqN3e25d5//whfqg/3q7r3DesZbV26Pp2oHYHioQlR4yT5b+Zq0Y1I7y222U4cTn/9g9fbOu/CI80ZnXnq48bNuDll/olaBpF2xE3aeGMnxaMElatMrhTkDgwNOzwq4RK1JVbsbUk3zDvm69iQAjDqDqjHla1cHP5MVhoJafFg0DWCEoifQULfZtLzz5JdSsH4RYF+QEiV6MRaVE2LKdJrDylfaxMgikGFui8XGPT0AZn9yhosKEivaimB36GZqv+3M7WvGQJm0xfLrAeCDzk9wn4S5SSmGMyIRlRcYaR6NEES9A4S4VtReHLkazkHUBf1xdQrvReqqElcDMGyssUSkqrUXAIPRMAApDVIIAGo0VMYNHG5TsImkJrIMw2DLgEqwD6L0e9u9vkGpl3r3NMw+t5I778mJtMLUwmh/hNUzRJBWGC4kigWRAyDiVSS8qgT4WgjkK2ctGTKltXt7+xcvnj88PIxnl5Tvpb5NGWdVSWI8UW4/8jeISUX7gz4g8/m8dgsiLypVXQ+HG8PBqK7Eq/TLMpTYQwOgMivBJKAXITzWjFbv+/3e5Nj1er35fDYYDhhuupiUZRFWc9ZG4p8T6zl5vxQpPyxMZKqq7vf7s8UcFj3br71zVV1YW9XT2s0HvaIs+sYU4uxiUReljYVT8n4G9QtvC2PK4e39QwGZXlnDTOfzvrFo0gSUoSBSEo35uKzERQ2ZzKv+Zk+d8wRmMDHEO+dGow0RZaaQ0uCcCzeioqIu3QspUxCNIWImQmF8r1zAkykq70DGQcteGZRkY+mZEARALJsoxiilEZ2MdVaUwUZnVgNRaeJ41lg3mXBhC2NLUvUyPR5fvHhxVtWR55D6KBVgdrPFcbllFtXk0vmLd/bHUu6ACxTcjuqolE/GWO+kWe+4fWqp7J2qcz4J08RvM958+AsAZVkGwwO1o14PaGrQEihKnYb06HSyKCIrBGUWLyLCtmjWI7tShePPU1uHvq+bejqyM2vLRTUogszn05u3JgUd2XJnWMh24XV+tFFaNlYYB248vfvm61/7fefc1atXP/n8J19++U9/43/71Wc/8fwX/+q/ubO79Qev3nh5797WoLfnFoBtqzlpsubXtY65s3pztlFns9mt/Qeld6V9xup8Z9Ps9gcDKud37x+8+cqt27c3RqMLFy4cHx97Y0prvvrPvrEAf//nf/JnP//p33/pxmR2dzw/6g82vYcjZhWoBSRoO6rqdDYZeNLJ4XS8v1H4b/zhvzhfUmHdU89dfev2nV/7ld/49I/81Jd//heGfuFsz+5u3zqqGMbHsBFRkNgTnld+gtn21tDP9ndKObdR3rr97qUN/v/e+Nabb9+4du1aURRusSiYL126dOve3X/6f/6rj3z/D//Mv/EfXLpy71f/39+lXgnjnRtvbj8xOzjgi5v379/dwWhQXh8V8pELOzIbEy9sNZ7cvfGd73znueef7xfl/q2bl3bPPXll52vf/pe/989+67Nf/Et/7Utf7NP8qzdeK3e2vCsLa9QJCqtC06NxcTze/sjlrT5N7rx1sc9vHN9996WX3HH98U+8IKaG1Ob4Qd+5ne3t+3duPHjwgJwcPbi9NWQ3XWzZoq5EtBiNRpfPX7h78+0f/vHPfPr589WD8bmh3RH7TnX4yh//3h9+82tPX7/WP7893pPCjPxsNn7wAMCApkadO/IL52pXP3Hlia9/4+u/8at//9//W//51Y2CJ+5w/0G9qPdvF1LN6pJ+7IufO8/eb547f37r3r17t1759htf/+qd2/c++6M/cPDWvaLo9VRFtDcnXVRHB3dGvd7R0dFoWCymR85Uv/1b/+R3f+sf/1v/zr93fWdwZ4qpEa0XSlaoWxh4BSovK79c507npsGZ6k9+UG2N4GzXhWg3n5KClhn0J+aQYMd7bYjXAZxrLcUErlKOuANGJJiV4pQhQZQmlHGNpjxAkFjBO7FlVL3ChzVVVIlYNTGhSNsL1BBkS1fK8Rs2psXgUwHjBJXF7ECFVbJtdRNCrt9MjQoE4s2ua3ICqsdps977banHYFcVEw2gV0awESNMSWOeJap5sk8foAwP8SJzLz6Ie3o3U3HGefVSey9Sq5e6rivnVMV0b5aIjLVEFAVqmAybZowRmSA0R4aJmUwRmHXEUMNk4p5epAnInAwFf2+2Tmp7u9WDBQhcGkXkykeHCuL6JdWuIvVHR0dPP3X53VvvZoQunk4mlPqhPyjDIkqMxawiMkQ1R248ERMJq4pxAFC72ZVLV4+Ojirnt7Y2xOvh8fGF8xfns0oT4qrEKVKvgQvRvkQpQgmgLMvpdLEx2p3N5mXZCxt7/UK1Ig7ItfN1vC/EARkfmTBB2RCLcl1rr9cz7MsCyqTqDw/3L1+4eHiwt7HR7/fN0dHBbDZezH1pt7a3d6fzg5OdrHCT2RRATeXW+SszNUfzqmbuDYbi3VLRRlZYY40txMu8rhbzSTkcFbanSoRiMTve3hmVhmfTqS6q0qp656o5ST3s9UaDYa/XK6wdjkZbW1ujUX88HgcSJoCjo6PJ8WRvf2//YFoPyv7G9sH4uL+5acphb2Nz7+BguDVyUZc6SswI2DRkkuaVaVBwoNfrifMLqerK27KI/aegen75ws7+g/s95Z2N0dH+/uWNsjq8Vfi2/NxwOAQAD1YUZHqbvf3FvfNDi+m9oYBG56tiMJ8vkJxehRARM5NhZGSHlBTHjftMKd+2/cxRkQ8J4AjMnZASR8ZokjxKUQciCmM0PEG08y6gzKRkmEWCmDVrWiz/DItRfi80AQ7r2aJebPb11uGD/cnF5z7+lPG9viWZuZ7pjT7+zBM7m88+eVlU66qaLfz43PBv/kd//Q/+1Vd++b//r//tv/Gf/OSLHzv+ytdv3XxtuLlbUynKCiuUllhtOQzvuYVfT+fVYjJ7YPfu3bv36R//6IW+59l0fH/v0rnNv/zln1DVuq4vXrx49eoTX/nKH968dXs+G88F/+T//s2f+4XzP/jCc2++e5tEFvW0sgWIQQXgBURiAvttMj7c2ijq6dHx0d7P/tTnXriyNXCzf/rb//jy9tYz16/zBHZw7uDmu3I0tkO4BayUVbboqArIeMa7B/cfzB+88u7Gk5f6zz/z9FYBx7Jb7f61n/+rb9/4zrVr1wpbzGazd999dz6fn9/defH7P/XL/+D/WBzhc1/++R+6duWtg8kxq2wMQLRgruZ1NT26OR/fvXP/+1742IVz7Krhorr3zHNXN7Y+90V8bnf3XFVVt27e1Fl1sH/8pZ/47A8cL371N3/9cO/Oz3zpy/PF0Suz6mgy2Sh3ppW3Rem8Ozw6Hsxn79x5U+mZpz965clzPSqPr17dttK7du3aeH5sSq6qyhhrDBvz4o0bb33169/c3z/cv/G6lsPd7Ysz9bPF/GA2N9XhlR6MzK1Hr8clalOaT338uUHPfPozn9jZ3ryyu7E5GNWV2zuq9sdy7uL52eFduIVzznvvvd/a2vrLX/7CL//9Xzl69/b5y08feX80q0o1i/0ZyJViCpGDe7ee//i1G2+/UVfVX/mZn3r68pPe+ac/cmVjo++cHB4eLhYLAP3+cD6f17Ur+7033nzriUtPffIzn/7MJ5/9pV/6HycP7hBss+Q4Fa++ie41CR0fCCPiz2FrdU4SoA6grXoGaEhXBZDw4IaQ3YKXwY6XROAWauULUhFfjTmsTOqruqneSk2QX2NemmZIdnisNkPQ2ZqcTgMgq0LPRCzEnEz5EBBngGyOyjcRcgAtvzaBl5lwxGMYM6fEqVOPpXhIe4HhgsAS9K2SKZ+SEIwKpXhIqIYVGR3ixVcqjiAqzvvKu4V6ByLnqvl8XrsKgGp0tzyCNclEZJgDq4OMUVWQISWwYWOo6Sg1REyGg2oKR5nq95ky8Ph8peUj88rvqBOFW/qFOCOphjGilJMrrBwcPhj2ew8e3CusjkaD2/fedFIzURBWVkFhBSlddjarRIQ58BBLw8Rsksi3MoFYVLQoBRAvevPW69vbu1uDflXNd89dHh/N3n7rzStXn2YyktDroIMSJAeSUkrY3jixEoAtES+qG6NB7WZEda/EdDprUIMAxZv4LAHEfE5OVWCh9ty5c3fv7A36297NiuFgUc97A3I6GW1gPr+7ubnR682Go35ZbNQVHx7e3NoanOx8UoizZdEvRtsH0/poPK6pV27sbGxvjQ/2RSJHnhMRroYcT2dsuTcYFBujydwVvdG8ckx2WPbkeDJzc6mOt/v2HMlTT126fOGpF1/4yPndnSeffHL33M75c2AGFyGpFF7j3XmH4wn298YPppNv3Xjn1bfe2R/PX3vz5q07d6d7t69dvrqoqgnx3FhD1hOBGTAEKwHkI2kE2MNtMTCeTktjirIoTK/23gAKNirb1h699fbu0M4n4/nkzk6Pnjx3CU7PbWy2KjENQVq5RFn0i4N6aEblZO7GO6Nv7N1e2A0UG1AbZ0GNM5WHdovUMgA0ryS1RnyDxOewTpvkCvXiiZgDRy5TZjulKUAkilYgqBmB+FBM+bWyD+9vcvrA2zr6E+fEFcJc/Ghzw2PyzT996QvPPTHceOrujf1vvf7KS1//k+P9Q1fXg8GAjanrejqdjo/nM18s3PxHf/ATn/jER3/ll/+HX/zP/vZP/8Bzv/fNl++76ZxRMTsgPBeSUB1gzXWs2ngSZ2rG3ULcRr+czqtXXnvj5376o4vZ/N2XXv6Tr35jejg5ODjo9XqLxYKIRsPhU089ZVnm44PN81e+/BM/9g//wf/6r//Cf/yFH/zkP/qt37l47Zmjmudqau8VpK3ohVSzYxqMqvnxwd690uiP/eSLt1+/9dv1/Jf+m7/77PPf97kf/dKChvemx1fO7bjNc8d3D5ZW8FCVRkiGOxvTew/+5PVXfv5f+zwZfOPbL926cePNN15bzKfw7sZbN5z3hnn33O5rr73W6w9/+Md+8u/+V3/nb/8Xf8fP5Ytf/rlf/X9+p2Jz4eLld/aPtrY3jo6O+15uH+y99tobf+WzLyjw2muv/N7v/vZ8Nh8Mh4vFYu/BAzb8xKWr9XT2rW/+ybnLV//d//BvXLx44b/9e//zc09defHqhTuvvD2fzzZ756tqLv1CFZUqXPXKay+//e6zn7726fF08tqbr3zntdeP7o//r9+8X44Go+Ho8PBwOBrOZrPr16+LyO133v7Kv/j9jzz/4md/5i+9fuewdEWfi95ocOH8zsAdHx8d/N4//8rLX/t9nR7cu31zY7Q5q91Hn3/2qeefeeGj11hlb+/w7q1XXn359bd/591qelgYKsvSGCMi/X7/+ec/vpgc2d62XdQymQ544MWM+luz2ZE1vdu377zzrX/5a//wf5nPJ+pFhZ6+9vzly1eee/6jpaXpdGqNvvbKK3/8x388ncxni4Vz9XBjw4OGG6Pp8cGtO3c+8sTlyzubr37rxpEf8Lkta03Q1RGoMVZ9W5OgMybPIjazVoVpDanmRC0FnCTqrD1Z9ssOOY2WvwWQRzZ1xfcnzqNAFsTLpXZVKVFrINnnzGqPQpMAqWizP4VkRuGopZ1UnkKlm3jkVGtYBSSkPl2fl9o3ah7GaHuVqoog/8dNmRehpIkUWQRFo+meqAUNMTWkiLGQAagp/qIAMm34FAeIQVElCLWB6ZwQKLoqokPA2tXtNNs/rbxrd22o8LxqtgRAIqQwYI4Vc4M2v2e4kNQXSj6mZBFVqdU7A1H1KrXWNYkTX6mxolXt5otFHZR/EmIXi62qqO0VhlPtvJCXySxC/V5Ecz0IaiOHGGDqpBWuTJ2M1KlV2PzK/R93SxoMJ88rK615dQrtZHmJKqseT/fPndv62Z/54vb2pnezul44V402BuODQ6S+NTAUCmlRFOpNCvEFw3Cs+gRiRFxeddDvg2Q2mx8fH/7Jy6+8/NLrINy7f3M03Ll+/anDg3HZ3xSK1VSCaGbILo7zRIw+ZfOSuOFgeHw8HgxGZcmLqmJbDXr2b/2nfzMQ3piNYWaTtC9BgellmBv5BKh1rre1c+HXf/0ffe0b3xzPFotqcfmJq7fffXvY0y/8+Gd+8Rf/urGOSJ33hvq93sC5akV/Km8NRwIcV/jv/t6vLV56y5vR1OHtGzd3tjaUOnWTlZgIvdFQ1FVu4V1F4ML62XQyGPbEV64+uryz9czTT//4j376My8+/9y1kTUggmVYCyJ4D6VQbRjIs/kLbO/gyZ1Nh81PffJKjR8eT+GBr33r1je+/epX/uirhzW5unBsPYTZhiRanwd+w9SahbTKfg8ilXfq1ForACkKEdnf2/XzqxvnPv+ln/6Jz3/y2gUo0AN6QcISTVpF+3lWoSgxBg4VN2v8l//T/37XUwUJA0VVQyjs/2fvTYMtSa7zsO+czNru8vat956epWfDLMAAnAExwBDLEIRAECBNAwiHghQJmyZFh6ywTf+yHP7jP9Y/mTQVphAKSpRIWwpZIEgTAIl9B4ZDzL6gp7unp7fXb717VWWe4x9Zde99r18PZgYAF4UzOl7fV69uLVmVmed85zvf8VA+aEG5ftN0mJHqytP1TyFjoArnEbEQLLN4H2Kee2gj15/pxquPqFrWH284++Dp8gaEkBtp8bxeI3+6v+gVGQAAIABJREFUR14L/nBD0ckb7T/12aSxWi5LuLJgUArsbm79xZ999onHvnfmhRdXV1fn5ucjawfD4fzc3LFTt45yfOWrX7z/3tvf+a6HP/7h9//Jv/3kR/7+f3k04+76FhoQ4jzP0ZiFMqNazw60VG5kpey7l/CrV4KxaZJtX7nYaN/U6ZStcvjsE8985tN/cvXa5u7u7vLyMrPp9bp33HFno91aPrRy9Mihf/57//LnPvbxDz36yJmnH7vprnvvObl6YfNqlq16JVJ2AWSoMr6l3UriSO46ffOx2WR+NvMO6obL823yRQLZ3Vrv52b11N1bFzcube9S3J7Wu1UJdDN0u91suTGzMGfMyIlPImxcvvpnf/zpr3/za6K6srIyMzNz9erVQ4cP33fvvW976OH+YNDb3WllrbtOrH31j//ovjvvfsuJw2d2+t2djhv1KU3TOGsgalikaSPL0OkMn3/u+c/82edeeeUVNqbdam9tbZ44cWLz+M4tN938gQ9/aJSX33/h6by7Pdq88vXPfupdH/rFlYR73VFLXV+9E+ugJspWjx4znbzweZrSs8+++OWvfflP//jTCaXNtE1xNDs7//LLLx89emRjY/PS5asACLK9sTm/cI1HhfQHJm5nWdJlOXPx3MlmxlH25DPf/cN/9Qeut7m2NN8f5vOLy/3ctZutmw8fWp6fufjKy5evXnj8sW98+/G/mp9t33TixNbm5srKqrGm0+n8h0/9x8HI/db/8L9c2uloWdqsScrd3qA7GJ29uP7yaut3f+9fPPnkt2655VQjSZmjF1689Oa33HfqtrUHf+ItRVG89NJL3/jG1/7iz78QpUmj1XQqjdbM/Nxcsxh+9rOfu3r58kc+/PN5f5hGUbvRHhA1Gs3uoBARQLkeaQdwFX44z3xywBvNFQfuvN/0v8Hon06522v0VEAKTZ1rb7rV9PGnk1PFl/vOUe0DmqDsMgHmg+5T+DUioqCoTSjLsjL6Kyq8h0JJIhOgGAGpEZAoQXisSEMCoCwqdRqGGCLWWlVGJgHcykZXBWBsAkCZGHXcmAngcpKIWCWNBeiwQiI10MXV1WyGGigSTGobhWg5jZO6dKqq63Sm5rS+clUTOpxub3H3qf4/YON028fg2me8Tji3Mi2jWrG9qZbtV+9IxRdlyHCAeoGD+qCpkpgI3jvnScWQks+dL50fiThxufdF6XLnSxGvqtaSqGcijiJjjSUmmirdqnVWHidERMaytUpRsB1DZSjDtr4LnvKbiZSnC9PUuRmE65Tjxy+tTqnpX2/Wh/f51VNfuMqy2McTkipENLV5uiJBIENPiS0KXG4OHp4TvReFingS9cjLYtRuzX7iE79y7DhcgUaKThfGQuHj2ABIE4xvmgiVWm91xAOy81Srf4HEsLndXVpuf+/Jc3/0b//j5z73NRXvfJ41Ui9QEQmrcYh9eQFg4gkMGkcT4RBfsrHWGEfsLQs0t6Z89NF3/vSj92cZmFAUiAzqkQFD1WfDIIIqSgfnMRxBFf/07HPr65dgkmZrdjAYtFpN43Zvv/n47bfMZE0o4By8gwiIIhuhLp0yvlX0h3AAj7C1u1FKmbsRuLEwv6SSByGz8dNUYiXJEru13QUktsYYlL1ew6jmO8fW5t7z8Aff9+6HTh0F50gIiUGUoJw6XWzhq6CEEIeq5DzOxwVgCU2P0mO2gZHH33vboQ+87VDvl9/5zPnif/+/vvTVp84152d7XkBGybqKzCSoK+aaQOEjUlWnnpgAqjCO0s3NzxUbVxYpf/DNpz/y4UcPrSAizANDQZuRAgwVKIPGMxEDETBSlB6zBm1CK8ZSxB3nlNTVoYAx3K4q01bhda/83iTpoMLELHkeNxpFWWRxNhwNCNDRkLNGeM9L58YjcVqbcn9TBl1nqpMQ2SAwH4LmB+qZ/7AtYEv/qTfu9QYNm2XWNhqtpdm5GPCDwdb6tW9++7vLS6v3v+0h71ySJL1+n5nV2EMnjvz02sq3vvKFp558/Jd/5RM/ce9d3/n8Z+64/6GdwaiXxNtsC0ZJLvDmGSI/RC9OuzTdfHBofiVtZKNhMdeKuBNtb2ydPfvyC+fOvffR9y8tLWVZRkzbW9t955aTdGlx5ejaylOPPfbRe+49d+Hl9XPPrjbbhJlXei6GFfFMFiweXhgQOXb80Dzysnvt+NETszNJr9ONIgz7nZmZlo14e/ta0lpuNCLRXFTTzGIE1D4rEchYOF94Z6Oou9G9+ei8L11nu0ReXjpzfrQzWDx+/J4H3rG+fvXOwzcZ5u2BL5A8+M63HTt++C/+7P9FsduOvNu+spDNv1T0y6K0FrkvYBJrM3IjIiIGsW5ubV64cHFra+fBB99+9OjR3d3dLMsKV271R4fJPPzuh9XhK1/5ytri4tlnnn7wHY8caTY6Xa/DQQLTF69ETqCwvqY3E6LIpnkhaRp9+Of/M2/jwah420+yjaI8z4fDweLCYmpNOSqXlw5dfeXK3OzyqLQ7ne41cLvVfv7lS6ut5lLWai2unn7zfYeXF9Jm20axtQnZRpw0m7Nzw9J9+7Fv/+VTjy+urT766PsPrx6+evVqkiSLCwu7u7szS4dazXa3tzsaOqUITP1hzklD08Yr69svnL9091t+wjbjtUMrc+0ZUVpdOJb7sjsqc9Gr61vnXrl49uVLwubet7xtZW21vTBHxjBbS0yc5sPR3Ozy5rUd59WT00i993rjZOwfSXvt8ro/pvPeMHL4WtsUYQMTtsyUHV+JSNYZlmoEEK8kcRVs9UwQ74MApYQirgj1eRUKFRcUGVQc13aK1Sq7hiAccjSDarsCY747QSsleChTValAGcQCDqpoNKVXUxnUxDpe/mpNt5qpEID8uoTKnuTIMbYPMNW6EJhe/qYsU+iUX1UxkKf7NMgOBjLADbKYrn9zxjD8ZAtqt2rKW6vqrShIPGvV36wS0lsrUfOAyisgoiLqHUQ9nPjSuaHzpfcj50uR0otTV9QJjWSY2JCxxhprmZmZyFRWTkWmtcQRc8Q20kqcKlImQ6HgCI8f0/jFpBqA39deRUYp5Cne6K9vvB0Ero/t+H3XM45fcf2u7v2rV5TiK5MlyPKqF1DZaCSXL1/52Mc/dvzI4Xvuvv2ht7/1kZ+638bY2hqkWWs4HNq44esvMquSACJUickEl1HHMbfQgV5R5QrT7HxkDO697+Stt/yjm0/d+tu/88nIpt5JFFlTEWzG+owBox2PcRaRsYKNMabXGzSbzdGor7CKEVP57vc9mGaIo2BsKaoBMXZ1w2FBjCDJyIQswR/9u29euXJpdq5N1Nzp5UqYn0ndcHOu1SyHSGMINLY09iO8wjudtuUVJklhgFzR7++IOC9lQKcVTFMo7jgTpt8ZLbTn+93NRoRmg66tX1lZnv+1/+qXPvDoLcUAUsINMZMgYlgCnNq90TYDEIfccRL2VPlQVVaAUZRFsZClW91+u9UclppE1OkPT5/IZtLEj8q81/dRjNiGWWU62LHnjSNy3meNhFVGg5IY4nw+GOqg88hDt//jX35306AUJAxXlGtx5NwwYTJVLu4UD1BZRphLWQjdsmjbuCCcWlm9cOZKEXEp1YTDzEIIq96B40duTBRUFRjjRQAUvqyet43CXRxYKGX6UCF+uF/4qx5cIWAlCvH+jRNs9kymPyQE9/pOrAd93PPLAQIVQWhlevc3oti+v5HCCCJBJLCCcrfPJRZMGoudm18+fvrO2+974NnnnouyrJm2RCSnODHR3W+9L8+HX//KF86fO3d49dBzL1ygMl+ZaZejkuFAAFlAACZhmDfOaxxPox4a0svCO5FZ2CxzRXH1yjVKWsfvuIeIt7e34jgecvSNJ55utBePnTh5+vSdf/wnn77rnjfddestZy68sry88MrFyxGvRkChQqYKG6mqAPlwcGnzwgz748ePLs9DowaZ2ZtuOr58eG1n2DfZwPm8NC6aSeKhH5gp/YiKUkDB1ggDPvJIHGIPMyz9bq/YHcSNudP3P9j57ndFlY3ZHOSf/sI3jt1x5xFr55fmbr712HPPPPOlL/7J+37xl2cbaU+QRnYwKAtfROlcVQgeYMigOxh08tFQjp+49dDKKvSSd1KU/e3cnd3cXjp38a333VM4qJKBGe50VldPbMT5tf4gS+eMAIbFqxAbjVUSAqCx+ogkbrYWT936pseff2GzU87OzpaDcjhwxIkt+NK1zbc89Ig6PP/SRT+MrnjLS6s2Ta/1hkcXjzz/ygYfm3/40Z/rb17u+sJL7PtalkPhnd2C01651ctLkzTmFk/fd7+Pmhc2+x5Zf+hHO6Od7cFdb324zIfXNrZ7BYmNneURUVE6RHHe3b2w2c+ai2955/suXnplYKLV1cMvX+3EhGs7I6FkZ1BuD1xn5B1ny0dOLh1eO3vlcqFCDuzl9JseGOx0ytxvbQ8KjkuUZVmWpRLoR25tTy/5f90kgDfQpAKkX0ubpLeO7fiJTjwTIGWoSA+QMPkJIV4CV1uglZK26Niq91AQoK6QsSgQKrvKBOt67HAFUz7Ud+TJGslcA05KgBmb6USEMf23TuSaNuXDl3VsoNMU630al5oCmaQ+6Q/UO5rq4+qVuFHhm+tb5S1Mv5wyYepQxbCoeU2TyA97UQIFgSD2ngPQXPV/UEgUVQkKlVp6eC/ek3hxhS9HpcuDnSTiFCWqLAUJwCRbY0PBZcPERDBExKHSKBNxBFjRGGqJTG1tsKlSIsmjlscmjJ9L3TmCV80NmG5v2I7X69bWvV6WjrdPmSEVr4CqAtu6xzJDIBpdZ8qj9H7gJK8PEXYgKIyNvbjNaztnnj/z9JPP/O7v/p+33HrylltP/uonfumWW04tLTUsQcdhKIAg4CLEjEPud/WnqhNEVcG+vh8Cip1Oj5A0svbP//wHhn39p//bb7dnVmISrcoRScBumPaP/aJwY1M+NpF4EfFe3ebWNbbuLQ/ce/rWNchASh8cY2OYQROGvRoABGKEGsoeZDsdfOHzX7I2Ho28wjUbC4p4Z2tzIcmOrh2FwBJK79WLUkzVyUGQqYwVBD0aS7jwym6vv0PUjKLIsbqyJIihMeO/2p8VzUbbws8vr1w4/2Qq/Juf+PDHf/G9ve5Ah7rYJAN0+mXUiBjwAvUSCcw+5QAFQ8BqFAoxk94SAK1Yet2tpfb87mjEsNv9YnmuseHQ395V7y1x6R0oq2ACvSFiFKVREHBMkiSLM2fMsDd4003Hf/2X390GYmCFMVIty6IVR0OHKI4q4ck6ugKAiYUcwKySeLGEyOCeU3d87fmrzMQGymSNUSagkqvU+ouo41pap/6jBj6m5ytRMVHky5Kt9UXBNhIpTRy/mnLxdW0vd0YqN7Dm5TNRQOX/zrYbdcUNtv847AMlNNqtyFrxbtAdDHt9LSHOF/2BOJ+PSuF4Z+jPb2xSHLNJPSvl107daX79N/+bu2+75fN//tlz5y/sXrvaZCzEZr3TsSJaiGlZD+Ybv8cH3N2rvhisaKaN0WiU94eNNN3exowbRGziOGrahoDipLk93Lp24craoTUivHR194H3PnDs6IlGkraSiF3RjI2MurOZ7Q+LmMu+KhAhzPLB2x6VGdl7brs1ht/u+Bnrhnl/+cjqytra4088ubJ2ZJR3R8Pu/Ey7iGV7u8fUhpYizFEkAg81BEuE0i002qNuLzKm3YyKopyfXygKd+z4qfWd7tkrOwsrq1vru2ywODv/0vlL995188rKipLsdLeavZ2ytws3sholUcSuBCPiCHXKJikiw7MzM8PCZ435XNJL27nAJu21F651B+nOIz+1XApYceett33q2U+df+nsLTOr80lUiClV2ZC6MFGDxEBt4EWMBnlR+JmZmZcvX7640e063Sx2oyjKsvZwOLxw/srhlZWr3WFZiplb7VND0sZOgS4722hsbHbY0ivr3VPLS53htU63kxXJdrcHIF1aas2vChdzS6tx0ux0elpqUep2txPZdFS4wdbG/OLiThltXtsc7gyRtSlpcdqMJF7f6DQWFoyNz16+dnKheXVja6OrcaSXdq9YSqyMNjpDNbBx2mq2bBQPh8N+f+iubO/0vVprTBxb+8zZKzONZjksruz2dGbZMTun4hyr4RCcgAGBXs+LOv1O/o2A7z804r6/VbSEveivCeEmRTwlQK6+UjM0AlsjvqzwzlFAfEgJTkkMsXqxTBAlUguSoqQAf4rXCqAP1A83rnxpbKCD1kSXEOGtSSak8NV6A6rlpTG2vpQBlor7y5O0V1QLxh7zmA5WIJU9oHztI4TDvx4j/lUaHVT/kqZ6nqfI93XqcP1rJUI3ITuhxraDqK4RCUWdSAERglZpxCKAU3EBghBxKqLeqy99WRTlyPnC+5JUEIpDTWwFEoW1xpigJhmY9lBV76mRpRWtCJYQC6yAWInITFIQdJrM8jemTkOvU7GepH6tpo7AdW+TugO58kwYjkaqHgCPM2ZUmG2/NxRVY6Jmc3Y0dGnaeurJ5194/syffvovbrn11Hve896f+ZlHH3jzqYoKBigzpNaInORwyNgQqHXFFYGQw5ibmclLv729MzM792u/8fc+9alPbWwOmVXqITCNySZVPgN7LwCPLTMR12o1e71hliQm4iLvPfgT92cpYpMBuYoTpTrL1AGBOBFoG1ZEqtCW4sp676knX2g0F6IkYpPlhYyKYWSo3UyPHF7MEpgYBla9UynEK5FlZjZ73hAHIsA5/NVfPeVKE8cp1BROBN6Ql0r7snbxSFjRZFy9dH5oR+99x5t/8x9+7PDhLLWYXUyIIUVJ1i40o1Hp1BjDxGTgAc97vLKqzwWyF/IhQJ2ItBrpYLiT2mxnOFqda/UEu328cP5lWNOemx12e6i6fN8rtefWWq1Wp7PDwHxrZv3K+qG52cwWv/oLH2kTZlkAHYxyqzTfaAw63TRLmYwCNY2/fgcUaWrz4ciqS9NG6ZAxTq3OR35IaBIlxhgYo2+UHBFmPMPsvacoQllSHKPUKI2K4mCh2NfStC5TEIDU4DZXhYEmGMz1VzONgr/msOZBp9/DVptCRKZR9hsc6Abn3cOJ1/3ba03Qqbz513Kdr0+MErkvN/uDtaZtzrbVmrgBT4jSSIZ9LkbD/tA2FhBzT5PLu8O0kc2b6MrWcK7d+oWf/UDZ3frX/+YPz33/3NbL5xqt5ZnSF27YaC1dLt2I4/Gi9QNzlcbwm9AeWiSNCVuqo27PxHNzs7O+KOcboF3qdruLSwvnLl1JiUs1SWs51tbL20UUmWaHPDd/6j2PPvHE4+e+fyZN06Lfx9x8O4vS/qBkS2KEUgcFKBJZnZmbb7bd7iDJMWsiXxbbo07SjBqLcwvLy73dXm979+77Tve3NtPmUrHdaSLdxUCkEKQURYET56CRKnv1wzyei1SVY/S17KCU1Lhi0Nnp+mR2o2i4Vrsc9nqXNqKoYRx21zdMFDtBPuivLiyUZ68m6UJLsOtCMURD1vR6PQBE6sscECiPnApn6z5rLx3ZKNwgan372Uu/FidZitkk6m9vt5stYl1ZmHvqzBOaLY3ECTW89yQp6aS6hiXfiCLSQjHglOeOnbp2cbMoi5l0pgB1yvLwTXdt7myakpTibVi7sFJy6r2qFKqULLS09IPcvXR2O+IVTppbXnl52Wkus4s+sklsioFYjVJRGXTXluYHI3EaUzzjY5zdHHSLkUo7ml/OwT1nd7e6ndylrcxJ2WxmxvMrV7saNXjmZpMk5SgfDIbGu/m1w0pIIyOjvh90ZrO4wVESZeyKkpul2qGQN9FgWFgBt+eH3HCa5f2CocTKBCIWzUnjg+bdPTPfgeNOMVUgZN+f9swDU2SM1yLAuqf0zBSvcWrM7mH66gTv2EcF2L+9mkC5uqgpfJcUiY2oSlEFq/FlAVF4n5rISJ3S5FClUYoaFfaKiuDoCVBVliDl5L04IrKR9VBxXr2L1FGNfjlXji/QWJp0UbUmGxFVdUwIabDW1IXoCVqVQwx3NDZ0GEFZUUkr36wqeD4xgydMAFICh6R8JYwXSCIKbsBUv40nX52q3C5TPT0NFY8X/hDpmzqQon76Qn6cuDyOlbPCYIK4V01qT2aso6/VVbHCODV10rCqt6qqHqKGFCQVliyiJKKwcFrm7Mu8HHkRLb1677yH9yIq6gIkT6KqPmRagtWwZTZpZJkjZjYhs6Sqo8lQFrCAmQxghYzABGIxsVGA6xyHwNeX+mnUbPX9TaZ58PW2qmPrXq1Tb8fPZ0//T7Pbde/RxtdQJXpOY/NVt9PUF4UA8VKVviYJT5THiqsQY6z6Mshw6fQYdHVGMcQQeXHeqfOD6rF6IbJQ8aW2GkuiqkIvvbh55oU/+Of/x+8//M53fOxjv/DWt77txEkiRl7EXhSQLKlEAMeOJkEVbImD/pKIj7jh1BlL88sNS9jtyE89+sC//v1PNWyTxQoBMFRV7WIAZRlyY5iIqa4kSgplLooyiZsE39/ZPnZs8Rd/4R1FXqSNSEEgy5XnXefShDRoNQCXXvrDUXMm63bxh3/wKdK2ILVsRTmNze7u+ux8urSSHD/ZVsDnAIWXTdgEPUQF6lR2rVwUSzAxtq4VRZFwFDsNFbiETGGN8V6LkhcXF3a2dwoZzaVWht202PzEP/jPP/7xRxqN2klWUi0tk2XyIiZ49hX3LDDrDFBxuetBbMZ6ndUWAjQGlSousakQNbJsBOw6PPXyzpaWZmGhV47IcIVSTBqHlILqBVY2hnr9Tvhbt9uNbFTsXvupW+ffczqaB9h7A46ixBBBtNFuhbdUALOPvgKwkySyUMC7CFGD6ZajHLkNo3PBNq6uPcTRxl+kMJTDEwTqwGPliI3rSQGAcU45zlTAWUNFYaJR4errEKDSL9qzookqTSCY/dIMtaujIiAQs1Rc+TcEqr3hRgcJ+v6dbgKoZSV4FgUcA4BRsQHvgS0Rj2xzlKW20ZZI1GQQaFlEhiIo+YLKkVGJvTRKmLK0GhkSCalZSnpQJH9KUGkCNB4IWaG29ce00QiYmZttz81dunKF2ajQyKFXKKI20lKMWTlyqhA+fcddjzzynu989xv/8pO/9+iHPjzXnvv2976bzB+PoKpSCcypGCDy0KFrxMlis7XQbM7PRqMiN+psloyGRbs5M9ueEVcM+qOjayfl5Y2s3TJlSaJQW2lYKMJ8bxQhmu29eMBBHakjjQzPt1vGxJc3d9PmXDttNRLqd/pLKZbmlzudHlm2UaTisjjJobFSCiMcqlOwITaAIZ5tt7Y3N6OoYaJkZ5A351au9UbNpbWy051ZWNnZ3m4fW5hrNltxzAwS9flInAdgjfXwqgrxrPChVANgSEk0MtZLTgYXt7b7GouJNgeysLg421jYGI66I8lM1pqdHw51q1MODJwxYkQgIxArrLAXjpW6pLnlKEvzQnNjtbJFmIWNwshYHc+WJrazcxoN8ig2qekMy2Hp+uJdFMXNJogGvuzlxZXR6PD8YtyYHRTl2SuX283GwuLMjGmbJCVCEsVJZLPIZjZOojiNUsNFKWnBkZioWw6tsUkUczMZ5GmvtCORnFWJ6zmaIcwHSYP/J9D28RYqO6daeqsdApedIFRUiDsrXDGK2UZsbBRp4ca8mupRKlidqaVbKnVnCpapFEWtIClemSHivZB35B3VKLLZi7AcfPGRYQ3GLqsyQmX1KXM8fNCaIwtloZo8UxWrr298itE7Xq5epV1f0vVH2GqYBpgyZ0O66rQpH/JTJ8z7QIypNaFZxHgNaZckXqswh0B95Y+IgqT0DgCpiAqVhfelliVExDkvIq4QERFRkVoUW2lM4iE2xlprrI2MYXDEHKSpTSVNBCYTG2Uiq2RBlsC2Sq88oBtZ/8ZG2Xgg8A3Wl71NqPacGTKleCpB8weVJR3MeC/i6kpJKuqY7fhX51VEnPcigQg2PncQ2SZDDMMAVD0g3/7mY9/6xrdvO33Lz//CB//Br37YORhLqqy1POKk1CoCQ55QmXcKZQYLOZB4cNrg1UPzUYJgbJmQ7D2VNT0FRVapkKoBJqg7SiRJore8+b4iRxQrQlr1ZNjyPoKeEGC42c7WN3rNtPXkU2fidCaOst6gL/DtdnthbmbYv7YwfwwEIogoWxGRVwH6VOEJHtjeyVWisvAOgGEyIlr2Br0kWVheXuh0ut3edns+Gw6urcT0P/53v/LTH3hgfg6uFEWplb4VsQlqYWoCGqJAnZoDAKGQLU9OPb6uCe2NALIEJfFCMNYUgDCubndcZJ0l7x2z3ZvdyWDiveUYQpJPcI6NoN1u8Nb6B97xiG73k9mGGWtX7u2NMIL2pcUHdhgAkMBoBGoDd9164uuXHE9ZVq/eri+OMamMe30k7fWrSFU283gSnoJrwwVWqDyAKuHidbUboOk/drmrG3Hib1CS5kaRhB8JV35fq3l4NZWpAjBUVdlwkiSNZjOhIrIWgCvLJEnYGC+S53l2/RXqXhHT19+kStGvIjJExFW9Zmxsbg7z4dC5pNH0Ni48+nmx3R/edvsdhtBuN0+cWlmMcfTooW98M2e2rvRl6Y8eO3WlD0/siMEh/utZ1ahzeXcps8tLc4vzkYicefH7Ugx6W92FheVmowUgz/NBf2SYkyTJQzjQKUhNKO5HVfn64P4SkTEV2kFExNpuZqPuTtnZWmouLK3OdHe2F9vpyuICgH5/1O8PABjmPM/jNPLDwlPsnAN575x6751zDuzc7u5ulsbeJLudTR/72AiVw9mYTTtZm2+kjJ3+YDDoD4tcvWNoWToVtdYmNkHpiNUQBXJIiHuQQr0kUVyMcjIRRc3N7q6x9ujRo9ns7KDfR2zmVtvXrl0blunVXn/IxiPksXkn4kgKgVPNVCJQaVSyKMoSuFrne6/RxgoD9kqltRd2dna931Uti0JgxbC3rJaFWZRYWWBNe+ZSf7C7scM2Sts6piBSAAAgAElEQVTNaLalhru9LQ/1ChGRUDgufPAKjb1GQlnH62ZJgI0sRTbbLkxOtrRExlaSh0osJBWgGwbAjyCv429J4+sQBx671JO0yLGBLkFcP8y5RmAAQzCConSkIb0bCPUFUWnXVLDotNy2yrhmH6M2Fp0n77z6cXrr9SYd75GMRBBTrC2wCVijDDasBB9UOKa58iEDgmsOKEGnzP1xTfsJtKlMBGWuUvf2pan9KNoErdi7powFFSaWXe1EYQxYoAIvqkSCYAtWAKFAPYmSSoV4w2tIJlIlUAjUiHfiCohniIeoK8WVzpXqxPvCi9SIso5FV+IsHl85EbE1JoqMjUJdFwW8IoligFlZiNmESqIhS8FInQhbKXjWtzZue6PQlcF/3V43HINveGnWPWs9Dvw8LuymIRRUmbuivjL2VP2UcyXel17KYMpLVdds0pOqqupVvPOlK0vny0aS7r0XJsN17yHEMEREFWfPnftn/+x3PvnJ3/vvf+sff/CD78kLF9uoLtYUInLCILnB28pghnHQ+++/P0v/yBcCCIgYRiBEts6arbzCAw8iKJkK+NEHf/bRNAZAB81vIfgQ3ssgdUjWYKbd+g///pvnz7/caq0554jIgFxRtLLm9uDa0aNHrAUbOP+aINg8907NxsZGmOLJGGJVwJhkYXHelfTKxQuL87PNFEuz0UZ3+1d/89c//DP3CNAddJNImWGsVSUKHoD6apKfvEtjrSQDU2cShE6ouUShXW9xJYSBgghXrlxmZsOmLB0btmRk7CdwEHC6rvdCYq2A4Hy3c2Q2e8u9J5qF27/bD2zTY4JZgQx40+nbv3Hx+ckuxEGGR8Y23hQnPnDl6821OT3xY6ZONSkkMM5ev+GQrCB5JiMUzktMYA2hOmarhoN6T9AOsUQk4sE/FhGbv9ONcfBYpwO2TxZLD4gIQv5mCJSoiHgAsbVJkkSigTHpvDfGMrOqOD+VS66VnFOAKXSa+zndJopdBwt6arDjpeaDUqgMzOLFF3j2mWcuX7nSbrdLigH40vk8T4xpRjDqTh5eNAYvX7j4zLNPX7hwYWZmJkubG9d2C6fCcQnjVCUE7J03BgaFFHmjlc7PpHMtnLt49etf+mLRH64trt50081f5C9v73abs0PnpT8YzC8s7O4OSJQ9IstGyYlAJcz8AIhY9mbSkGJr88rq8ZOLzWhE+XyC5UPzR1fmk8ju9nHu7FkiUlEiKorCGqNaevEiEmxVePEi3sOLBMdg/drlViPtlrkbDObSLNPh4nLz5Nrs4dXFs2fOnH/lwubWZlkWkWVVT0xRHKdxqkU3PKKQgQhABQak3kfWlmVpGVwOVttJmmZtdivNOJprRpH93Je+WkTNvDPcyX17caHvvNeCnfPwMKYQVZKcESu8NbGNYVOpH/KecsUAiRKRQD1xp3RdsEmyoUIrrUD2CilKZmtNmsY88LkzyrMtNjwoBotJYmIgtwBsPfuMmzIBDIoGHpuDvAdbiEguUo6EZ9UkFHTxglRiQGgDmXj8Lu5/PX/YpjewHX5UkMGBLsREA36qUTCva9pGAITG8S7xvsJOFDNJJs5r6UtXwHmEgQgYQywg9VBRrcQN65NIeNI1wUMRWPHiyDv14sXLOChvf/B0TWaCpY5nl6rQSUh5G8sxBEipto9lKhlusipPSzTQFBRHGJdMD6j/D4Mc38idm45Aam0RsO5J1+NaDghjk7fC2nT8sw5LKotCPUQ48GpUiASh+ooPvaCGBGUZsl8VAu9ERN3E9/Xei+yRYbF1vVsPImITxWysMKMu6KhMo0KJBQqQsZEFmMgQwk4cKEPiX79F8tfV+LpBgXrch9y8MWdpaq/Km2JQ2EdUQoqwiPdSTj33iRIlQUpfeue8OK5rR0gNqwcLnpgrOXQwsRZSzszMZI1kNBr0euX//D/9r5/8F7//0Y9++GMf+0gU1XSH2pqaJr5XnnbdLGiksrKycvz48bPf7xhmH3I92NZssldtJIADFcdOrD74thW2KErU8hD7m+o4f1F9Sb0BQPj0H//57MziTqdr8mh2foGId3a2Z2Zmska2vLwcijQG4ZiAEqoIsZk8ianmyrIQs7u76z0MW1XxXkxsCdrvFUx2ZXFxa/3i4mK6c+3sf/sPf+l977un2UB3NGimpOrqdGtLCCkewmy4ZqxNHi4AkjHhLUwC3ky2AFASVmaZzF3hEzG2trYBOPHEFYAVtPuYSQ+a6lTIM0XGwjurzuRbb3/722JgMbPwr19cvYYyGBBVQ7TYnOEKf1GtpTBfYxO6Lhzw42xaUwFtKM1zfbjnR9UmUdobLO171ssb7PPGrIIqgz58lgnOMf7zwdcwfdKDLnp6uwAgMwYkgvOo6sbFeMOpRRVeirIsR7m3QkTWIErT0WhkmNM0MxUYxq1WaxBseFGFosLlD3iTXgXFrAPNWleBRKhxQWRH/SFEd3fz55554dyZc7G1g/5waXbm6MnVRqPRnF1YXlxYnG0+/MCtBvrMs088++zT6+vrK2vH2u3Z7e5wWFqJm4WHAw37g7jRdi5fWlhZXWi1i24W+SPLM52t8vHvfOubX/kqcvfoo++fnWk/9NBDX/j85246dcvJY6vDXj9LF53rthut3FDHGfGKUgFiKtk7iFpmkjJMr6dOnbrzzjuvXHrl2NraA3fdvrJ6dH2nN7e8ZpjvvP30ybWlbnfw4osvbm1tAbj55pu3t7YGAwWifq8PcJ7nNoq6g34jWwFQFu7BB9/+ne88lp1/5ejaUnv56PlLG0dvulnJRDGdPLackhuRdjv9S1fWGTrTzK5duRKchN3dXQaHUi6qmiQJiZYOi4uLJ0+ebLfbXvKU/TvuOro7wOLiojGm1WpduXz51Mmb+xtH/vyvzs0cuoXbZqs/pCgOUnRMLGAYziEOWgoM82jk5ikyMAYkWskYTzUhIq8ksIVYNBo7I1GNhSTAVPDGGAsBYPPSO0QSRZ6YIGzjoStiRmahqgyIc2acDs9MxB5eDDlPzkRijLPwHIMsJIKNlKwqmBgqHJxF9lVJ4n3v42uw5fcM/RuMx+lZcc/+bsrcqXJOp6Kqew39yvyb8n7H7UD1D9JxTHM61qeVwqMi8N4CuyZYkJIXlk1krDXs+iOGBMpHWCGIwArJnVTVW8VElW4FgKIYjUd4WYwm3jh8CKMRBwSothQrIuwEGZpuYR2dEhwXEAeuvAI+cDpDAR2yAJSJlaFWiIM0A9Vi8GNWg9cpjHhaBZn3G/FVes8bmrKniPUT2326MTBeVjmAJnVPRTY2te5dnuc0VTgsGIJT9BsiUZaCvBeqODYAmFRVxYsvy9LlKgr1qh5enC+d977MQ8576Qrx3nmfpqkxJhBpmE3lDxNAbI1VNrCBV8waekYRRXFwPYLPDLAL9IwgD6qiqmYaxD1gHCkwzhsJPyfmC73OQO4evsH0OaY96D1fkD1f0XD6sNRW4Lo4N36Yvs6YMERFUVZIK8SXhUrpnBcprbVSLdAeqBOR1cOXDLXME5JpUDckDqVImIyxsffOOW8ttZozgBsOcsDENhORcy9d/p3f/uT61cu//hu/wsYvLjRl6obG92tAUnUiA+ygAA4dah86fPjShdwXDPVl6eI0AlDzlKe6ZGrmEefLcrQ43x70dn/6/T/rPOIIcRyLOCJb7z/Vt6KRifqjbhwZZgwG+tKZ7UuXOqU3jazlCP3hsMzzdqvd2+00M9x222niEHYjpqhwpY2td45DtJ0CtaW2PVSzZvrSC9s729uNVtPFkS+GqmQ4UiHvimYzKwe9+Zm07K5/6P1v//sffZALDEofJwo4Q76KuCpAIdb0akatMqmqiK+mCybxTsOCwRzUoFEXVAYwUDQJQ+D8+fMARImIwYZAymzIhNJy06eoVHQBJSa2RL63dXVNO7/0kYfmDYaiTWKmMf49QdADBLtvsqy56CgZCk4AS2SA208cKfKvUoO8CLMJ3hbx/moKkyIYe7fs6ZOpLVQpDRxsaY8TI8fQPTGFfKp6j31uzZ7jWCajnqpCWD8iIC20v17n5G+mVYFdcEgUI1IP+KCPzBSSUGsa4B5vfqImO5VLARIEqdCgFxr4ZoIDeQtyA99oHExQUdTVwsNKVq3QijhOrDWRjRpJOuiPuhuXjh0/du/73+1UlhbmU82TcvC1b37t85//7HMvPgvg0NrhfOTL0jixXqLcEyhI5DkQYqNwo+721cXTx2bbccS6cfnyhbPn1y9eeeTtjxy548i3v/uXO9s7g14vyua2RuXqbScMNuHFwLLC5QWTCeZyKItDRKJKitEASwsLH/rgzx5aXV5eXm5n0anV+eOHV2YWV+IkO3582RKef+y5q+vrTzzxRJqlc/NzvX6/LCOvJk2zwjNJ2khSNFuxjSKDpNmam5199H3vu7bTXZyfm51tnjp5AiZWprWVxdWlZnfr4osvvvjUM0+PhqN77r47YutFVLXX6wmiAHsTE6kb9rvOOyJkzeYdd9/1rivvGrne4aX5hdVTZy9ctFFhjTn7/b984bnn/uqrf3r/Ox69/fjq5eHAeNOIzEhrxigYZBFyCC28FyID71WJmFhD6ZW9lEpV4rDSc2TTXGLxQUvQwxORBTHUMlgVIlxWkUEO4uVOVL2IF++cAs75McHGe+/UC7zTwgNOnatIvRYVizqsYaq1tNuNTK4fYdvjssqPHm44kHQeep73u//BY/FGEDJcuaZos3KWJOKcFs57iQyNqdtaW5CkMCqsVW6jlqVAiCoBxOq805+DO19fzxu5tZruF+oQEeBryzvMP9OfMcHlwTRZJSiY6fWvupc3jyk7/ofnxN8Yla+ZTQpDlRQVxig7sVFo4Xyl21ORbbRKeFWgJu/V32JREk9aiihDVJQgEmx68eKcuBKBk6deRFSdOO+d8yFFiAhAkiRxHFtLY4X4qsfIRNbCxGwYZJWJyIxj8b6y/JjICtU2/d+ddr0dD9SlDyZI/JQ6jVYqQKoQcfXnsEPgrogXNzbftQ54+lqvPKBQOnFduC62S17Q7/fa7Xar1SD2IkXdmZwPOU0bM61Gp7P+ja9/55/8k98YjNDtD5rNxo1urUrDIHgt4yj2JRYXFvu9J60xJoriOBbsDxdf1zkirmykcVl0k5QeftdPlA5F1zVbNwijKRvD/eGwmTUHZU6ctZr06U9/vrNbxFEDbCPDHpplmbEm9M/aoZXqXJU8DwMWKOqMywM4G5cvX3TqmJVIIxvBsDI5R43WbK/bbafG+nJxZfa3/tFHqUQ7gYKKonCu32o0AIbGwcOp7QcFiMjotHsPiFCwSYxJQHCkobIpgzzUQxViUYmtVgxNVU+008Mwz8FRqGpsiCTYUmMbifbbph4KEwmxJZptpj99/20tghO0mG6IGd9wChUFB82pEkLgDFhp4+ja4bN5CP1VfvgPP7+9xojlGBOZ2p1rpSNgCr4Z9yQAG1BfMhUPU2hPaovs78P/vx3QAryK4EWF/mVSJjBLLSLxgw9Sz4sUUv6pUpR7/dJ544CXQqWeeiWsN8FbjSxOnrzpnnvvyVLbTpOdS2eGJ44la8u3njh+9ZVzh44uXzz39F/86ae+85ff3dzaWF08dPTIyX6/8NwQpdJToawcweeuLGNrE2ukKNSNjh1daTWT3s6V7Wvrne2dcpSL6pHjx2ZnZ53TTqfnzdYIDSJKkmTXlYYYjkpfIrIEUrhgInItmNpuITl8eGFu9vDh1diaonD90TCK05mFWYozFHj2+ec+85k/ffHF57a3t++68965ufnLW33HsyNf+jgeM2sMI8+HeY4s4lO33tZoNgV2t9NbWFnNnd/Z7R+76ejcjL1y6fJfPvatz3/hC9/6zmNso5tuOkGs/V4vazS7wGA45KxFFMBNmZ2bjeM4LzHo7Jy+4/bGTFMxKp2LMLr1yCKAl146u3H+BVt0fWer3L54rN3c2LjaTOacRJ5iIQ1oXMg4nHpyTKpGKnWOMQMYE4uqgsCNGusl8mEqF/FQVgYrWwVL9UWeLobDWhqpihPtM77rWUaECzEjJQGBxTKpqKgngjB7hBw/MHHFSMCP047/odvUWAAmc9mNp/V6fzD0OgOaQcIqRicZrsHXIYEhJmFVgcBwBdijxktrYBaEwBJQaFlzRWRsypHKmBBPkJCCEJjr1YVrbW7sbRUiMEnjm7KtdYrfWduNYzypVpEnKGktKSRTq06V01wtHlQJWdaXCJqUiKKQIDutgvLDG/f7AFDdOyJCXwUhGuGx7xS8LKkMeiFAlaaZ9BBh8VBP6lVU1SG85aJexJeld7l6yfMhA6pevK/KWEIBsZER4iSNbWRZoepUTZi3ia01TFHsOVaOqLLzCUSGzVgBxrBFcCgoPJU9KRM3bj+WyPnrb+PLmATda9McAKY/MyalVp2foPKGKjseKt67ELuuUPlALlU1CAtBJbs+/lwbhAbA8upKp9MrvWu2GsoeCDoyptleWF9fX5xvpUnryvrmk89cOnxkYXGu8So9SMSAGJAnskAhuP/ee/+ff/el6X2UiSqVp3p06R5GQxzHxkpZDh988E2nbm5mCQi23+81m9mrBNJD0CF3OP9y/5vf+l7WWAgBPU/MEGbO89wYu7TUPnSoOfG5p9bKGz4qxZkzZ0pXAnBlGSUJmIvSQ2OoBZjUSTH6Lz72cUuIDbrdURxRkmZZHKt6aExIaypCqIRV15mrBmdcP2gw4AWuRAHZ7vcotmmWRZYsByPUqGI6n15VC9CVq9uj0RBIABjDAgTNI4JIJQ0kCK5LbQ4ZMo6ME0msWZibee873tqyMN6/XnaJQJjHARnyAXgRpIzbTt185ulzRBRFNg9V+abWOZru9poBL+O58QaPo7bxaPyzVvQC6qlpEtscE/El5AxW5XOJNaQoKTFUiFlViQMzaW91j3GS7992VYq/TQZEla7kJWBU/g0QtoBqDeVpxRoJRb9f4/dfHd4RkVBNgA3uvuuuKEYjjY4fXb7nvjdv7A4W5hsxl/e96fT2+rntrcvQYjQa3XTy1Pve+zObHbdxtUftmZwiB0DZqSBKtdTMckqWy14j0uOHFiJ2l65d3tnazIejpZVDUdba3R3dfc/9P/mTD1+7tlkgai21Rt2d2Sze3NxlY6ySISq9AxtV8nsnu82tssVaFEVRlGyo0W4sry0454mkKHrnL1798uc/+51vfe2xx76ztLJ26rbTO4NRX6iAsI1y5UKMeKgoGxbx4sUkvLO11W7NxFkWR1ESmywyrSROpDj71ItPP/3kV7755W9957u7vf49d9431Cj30VYJzLa9zfJBX8C1tp32+4OyLE2ErNlcPjTDEUexpnEiXl3uTBwtzLRf+v7z//7//qPjJ0+4UX9wbbvlkKQycmVpoxIEGJUq+UqrFGWFKomqkIENRYH2xG0CPKCBkxrqY6PSlBOWGiENRmMNYymRV2KoBqkcIzRtpPoaZ1JCKJFYo1OihHFxAyYldRJUI1SBcbjgjZgXB6xq0ybgGzjidScAgjDFni3jo497YGKVaDUBcp26er2Lwgrra20+EdaqPioDxWCYkDHW2sT6vDATSbZJNF9RKwmqVyeA48r+DPZNsK/3s5WC8IISoIFkXS8q9XRdf2Sasp6naes0FWcOCH0dzQ2nZ4CnSzjR3oNMLwS6d/nBlM/wA9eL176gVPD5+KQTD2t/OnJtmivEw2u1T8jvn8gpCmmNypOwglAQHAd1c0YxLJSEFKoe4lWceifi1BWeBKjUMyeluIizNEqSxFVUgnFlImONjSKrbIQigVUFCdk0AcDMjEAYYCUCGEosU+/qOK36BpISf+ONgs7P5PcJYZp16k9TlVy1RuUBwJeo+lOsqWYbAD6I2ISCuxVBef9dByOposXXdjyUt7c77XYrTiPnvfoxl53LUgynWbO1ubFtIvrSF7/yX//GRwdFmcR2aoKZjqVUE6aqxhQVCvW4/fZb2q2Gc/EwL0UpSjOaoMX1Qagq9RrerjRJvesS+4ff+UBRoiyLZsO0Wq29yQOT5pxrZlk378ZJkzy+9OVv9bolc4PY10OY81Ef4pOY1w4t7ZX0GCPWN1r5CYpLlzedQCwXTuIoYqgvnUminVF3qZX4Qfeh++/6ufffM5/CK9JWKuK9z3PnYmM46OoTiEmcZ/XGWBWAyBk4ha+ftAIbG9rtD7a3O91+L2o1TJa0mpymabNJSYKEYQgpENuYRUWlJB4oLu8Oe854a0HGKwnUMJQrCZxpO35y46oxsxSjhimXM/umY4tZ6bPIjAbdmeSAqEvl8itoPJtRlaU/FX6scA7rERNuXllIvvd8bhPmhOG8OoIRKRHCIwAw0cnZP7PVr8Qba68y4CcLdxWYqojyRGTB9czNHF4JUihLhbfsdfhk6vL2jOg3ZPTv4bKPhVYObLL3/R2fd3rz9PQ3fZap796IC3j9Vf2gnep5ChgNi6SRBOilkjQhFuj1GWDXa2LsbUJEg+HQNLMq8gipVOTcQVlQe65Nxv9Nh2X2TR/hkQOwBq35uTvuuAPG94re1556/NDaCdnZUkslFbNLC82V5bXDR1cWzzfS9NRtp83W8HtXn2TbdMlsp9P3EYESJtOKrC1G840W7+4uN+KlzLCUF18+f/nyJbZJTjaZXe4M9K473lr8bP4H/+ZftbLGTBYvpHaY+9iVC83F7mhkyJVka8iZy9KnQdHPucOL0bmXrnzv8cfOv3wubWSFK26/+7ZTJ4+vtdqb66987Uuf++LnP/P0E8/Mzs7efc+9jfnFs+sdai4PlRtzy2cv7XBjhoiHo5EMhsbOGMuDYe/chZfPfv/MyxcuxHF0+NDh5cWlt//k23c3t3vrW098+/FvfePbu53+0ePHDt98Gs35Mxu7Mrtc2ubVgR9yNBiM4jRV9aJM4vu9Pht4kccee3x3d3v92oUkijVnZru0urLV2d3e7bcXl7uFG4xcpvZQs7UhNlY1CpKxYm01CvYJTlWvk6gBkSikwqoMUch89XBK4rkqmhiquwMEFYHUUJZU003QQAQx2AAGhkQZaDYbKlr9C8QZb8CRIvLivWFHbGBC0FO1vr6wHhPGdv9rsdIOWJ6nh9oPPsBewt70zG7Gq0k9LiYMturcoHoaUXBFWK+uaqxQF+IXFdzur0flwUrGsxHGGEQRIQWpNEBGBEWhopZUa676JBgqSjyOZIjzhVXna4bPuJyfqbU/AFCtt6LEjliZmc30Mcf7111iJlFpprGIspJFzetg2EmsPCjHiyqCEiWCiUS1baqA8J5i5WNAsJ7fJmIre57m1FcmNV/3d2fowMnXzJjnHQJTtZM5CQMoVN3kRKpjx4zF23qCNSGLQAHAqRBEqSRxQBAIEqKSxaEsfOlUlREYZ16krFJanfO+zIvh+KrjLLNRRMYSUdDzcQJma41hYwwzcwh7hr41lWY8Mxuu+5P+P/beq1uy60gTi4i9j0l/fV1TBmVRBVMAARJoEiABorvJbpJjpNHqGUnd86C19Kw/oKXfoBdJL7P0IK1Rz7xMG/U0u4ckQMIRZMMDVYXy3ty6Nm+a4/aO0MM+5+TJawoFEk12j2avXFV5M08es23sL774AgCI87bIiQpuj4AAaMoKIdxLYI32qMjqwvwQQ3E8AqTyvppjYZd1UICr/S3NYgBAEnJjqngeAmG2xpo8zqe4nK8VCxtjxZrUCtjMWMuWCwI0AQJzVo5UKJhL6Ew5zBPgICosunSgKbM2G1jURKOgSUJF+xbneoNuZ2oGpPvJJ2cUgtJjqO34jOT2ZAQCLIaA6jU6cbw1OdVeXbFsda3ezqxYZKWYiQvyq0sWUMwnAlkcGY4PH9n30su/U6sDohoMtqjVqtZbdWLRno6STJEfACUEr736lhWv3mr34q7blqBwEARsI+0lkzN+WCtvFkScRIygM1F32mECBLB8Px4aMznTjuPMAFq2oqQnw4mZZn91OUy63//9PwkkF93KrFUAAkp7OZsIyQEN1qaxsgxBHf3AWLjfh6AJN/rw3kc33v/w00tXrl6/fc9YsgWw4NgyRNRutxfmF44ePXpwYfKrJ5aeO+hHFj1PbWUw9ODTu4NbfcTpkAsHoNOazP3PRb1VDVENIMNBg4d13vr+N1+YR2iystY2anXggihfkk8Y0JlsknsUME8+7ZwECgF9UDkZRcAn20T12LRfH6za+kI0MKqhbRTpWoOTBPLQZ4ByqFXvLI/FGc2GVVKGcppFe+i87WTebyulX3HbMSyCeRxG+U2J7VeWZxew9V/KAwpJsQDnpvyuylMPW5AqmAQyiACOZ1N7YNnj0uwQFUQSFkQQlhvXb3zyyacXblxYXtvwsFGrNQ8dODA7O/nc80/OzC08cfrpz85dvHzx0utvvv30S9999Mknf/LLi405l+HVAjIBJ1v9uanJgPQwGhx6dP7AwpyJ+qurq1tbW6nJpqfnNvvxuc8uH3jl4Cuv/N76xupPX3/j/fd+8dLkzML00uXby0kSBQr6WUbkWwZBsSBhWItX78c2rgdhlMFH73/wF3/25xevXlzrbsU2+eYr3/qn3/vuM0eOfvLRh++/9/PLV84pn1769sv1yZnry+t+ZzHVzUEvS9e3MvQ1aFXSyxwmZujDDz9++8037t65c+XqlQP7D/3Tf/aDzkRnutX5u7d/eeHsuYsXL5948smvPf2igdZqplJ/wvr1XoYDRkNekY8dRISQPN8nhCiOPrtw/mevvzbYWk2SJO5bk8nk9HSz0756/frtm3cOHDrUatS7G10RD1GBBQZjSFsUICfTnSPyTs1aRAQskri3OyONWIQQ3WLPObJFglBNqoNiIRfrz5mHkCvBEQDnOYAAAMCC0+FzbDoi0cWOX9gFIeWJOSp9aU+T4qHLzjD0vUio9CvBG3uh/uJM+RFPwzkhC03JnDDjaEk7N95KQFtSOcbjgN7crFfCnmVwRutoZtcAACAASURBVLlUrJ8yNZXrPK7VwIyp4T1AGa98IBchnZMxRpO5LXTMIee45z/JtydOSjk/FUIZ1QMokKf1ERZbqeOqcjwX0jTbyq9Gjv/chiwfJG+RcTA+v6Vx66uQnmTNLkW84xVKIQ3EJGI5Q8kEGThjsAQGmNlaMJZNxmxYhNlmmWG2hg0zOzNU6dEw8Vymp5F2UI4Nk9JKK+XyQrkNElAmCpCItOd5pY5nUV9UPJOMYnPF7Qid4QvCo+V6B7SUu+EewKn4eyi7mb/IJfFdJF9hoIh8FWawRkaDujjSsljDbJWIzcWA7M5nKdH38pMiNB8BCCEP1xbIpSaKzW1OlBdCz/MGg1693kyyrghcvnR1cyvttH2WES42pvzmtn9EjkuhQBgtgDq4f9/KvRsaNVtAVMJo0A0pgYp1BQUq35lsrqysnjh+ut0CT0GSJe12M0nimr9TbhoAeDiMBZVSPgD89NXP1tb7gLXUWFYkeYAN1JvNqB8LJItL00oDsBMhdLdNYhlHGSHGi0CcQZKARVrtbXLQSg0773zQrt9dvTPvwyMLS4+f3I/FCUmAybqI9zxWFRgADIuQAkZgyXpZEnpbDO+8e/ff/Olf3lnrrm9uKb/m1fYxaCuQZBki+lorpRCxG/GNK2vvXF7VHB2Y8E4sdL79/FPHTxybWmzEAJ+tJji1PyNgBBdUInvLBBWEImko9KNkAtPvPH+qjuAxC1tQRErtnLeF8yVWEF0MjUiOpTk1fAXoImhIQCkKAY7M0HxN9bI07ISpWPBDtgLjBnOVzLLjohW4/4sUASh0c4EF9oixyLG/fP8o4iJv8hoqSJ357P9fykMXdrm2AYpVk7D0SlejJVzfzC0A2j4Xl3+WbxwAx1xY8zuuW/115V112i0QERkj1ZECk/HZs2ff+NnPXn/z9aNHHm119nl6uHGnqwNKouTFF7+xfG9VKT/L+MyZM7WZpUNHn3ziUXP57obSoQZFwgwM1jR8j5PYU/rg0v5+v3/9/Jkr166urqxnGS8uLK6urw3D9M7ynROPzB8+fOjTs2feee/9K1cvH29MacX9ZFD3J9bjhDy2xRMM+v2ZZrOpdb/fH/RDAOh2u++9+8H+o0e/+fJ3OrMzGdTXtrJPz129dPEaZ7JvYf8jx0+s9xOLPa09Jp1a0zMRqk5ejYhuH+zaYmtr68033jAMT55+8vijp0CHyxvdc59dOn/p4rWr10jrpcUDp0+f/sX7F1ZWup2lw12l0yg1mXhhLTGGijbSSEEQEEJ/MLh85fJbb721tXH/pZdeqrdCBq0Q2+3mwuyMHDveaba2lu+m1g7RxsKJxQw0C4GmUTs5EKIIbIAK+jXmFnOdSnjUSXbNHzYyDXe1jwsW/q7fyYhqgnlx9uj22/gHVLaDa2XhsS8kh6mwMNwBQBd5QN3nDtklAJLtYpQAoBmU5CZj1ZGohEkKozePOnKie1I50joIHwAYDZWtCTAi15Sx6RVNHpcwHkEjUtEK1fE+MuxzLdH8C6qsNKVTmLDYOjIW6Lsz7zF3OVfdiVxsAnbW5sOUnW7JB5eKnwWwAj5V/ZnVkzgefH4AcEnLyUxW+DVYWAiY2YBYkRTFsmSQZ2g11hjmLMuMtSbLMnFxl05UkXKM3Wntax0IAqITfCIiF+7qKPLEgEgoQvkxopDI1+rhN6K5MEf+9A8ovwG6fMXHtfO6u499NtbtB3OTna1L7VQJhAUQF3JvjbUsOELuRzBqcYGqae6kgZRyMQcKgPLsB/kRKIQsQoSoclReuYS9uUeOtOffvL1y5tOLz339ccgjXgDK7l3uTbAUyoESTjt16vgvfnHO89uJjdCroQZm4JGYSJWcAAA86G94Prz00je0BmMd0q+R0gLg4/K5AMBYg4hImi2ux/C3/+lnm1tDUo0kS0CREJAlIBPFsYA11j528pQIjM8NJGJR0ai5ckARUIAR7twzaxubXlgbWrGGMyFCjQpdHmOl4LHHjy7th3jDhrGykmpPkZQwbnGfLAbI8xtAkGWSeJRo+Ju3L/wf//7Pl3sJBs3GvsNho92LbZzYKMlQ1zxPZdrluQb0KB8qaG+lvZVrmx/c+Mlg+OcvfPv3XvyDFzaoHesGQ6IIxPGXZBSo5KYBBEBkRMwTrFoe9Ddanv39F7++1AabAiNoz9t14Lg5zSJYybUbSvsY8xakAqx3HEjwEfbV4fDS7M27diAmY+PVwizqgZ/TusoeU7ZmzljcOT9X/ZNiYeRxxfJX47dbneBAxKmHuc2xoHOf5y50lkIDA0nGUXnIn2z0oP+/weOrq0j17a6UGCmhlQLPG/u1C2QUqrZTueQ4UXJ4AKwiBGCR3LBnAtg9an4MUhgtAuOOUZuzais5zPP5TfjmzZuffHxGi3ruma+1mvPLK91aa6Lb7w4ibUx45PCJd97+BVu7f3Zu+caNibkDTxw9cP3mbVRkQBNnglIPFKfRcItnaqHv6+Xl5R/+8Ifnz3zc7XZNlk1NT/V6vZXlVfM7X0OEE8eOtFs1sWl3c0V5okkkjcM6gkmJMwUeE5NwWPOjXjfScVgLLdter5+ZbGpq8tTJJ37397//N2+8fm89OryvtRWLpvqRw8eHFjKLlml63+LyljEBCHqt9kxvkDEYhWPeZADwPKW0SuP06y+8OD23eOnq9UdOBl5j4sbN2wsLS53DS+vra93NbqvZmkz97nAQe36WCaJXazT6UTx2KqUAII7i+8v3Nze7+2ZnTz/9lc3YtDqTq8v3wfDR4ydOHD0hlgeZTTjNfIiNSRmtcoCu45y7jjGifOR03t3oWHsaQ47zvB2K/vxVf9RxxvlgpdYHO7NSJDeEd7pwRwyLsTvchU6zx+dfShk9yF6nd/wtKPKzjgBd963QKHUrKAayvLO2CVhbF5SMzIyIedwCsBLjIhddfJSjeBJCkiTFjTFJSaThB4E1UshQjXBcp+NWmPKlHCRAdZNPkDONGHPVtnJJLtH6MXHbCuLACHbbCpV7pL+c8nn0Qnc9KQ/WMupVxFV4QqA09YoDFDMBU8EARZtKiZgiilgNIigmy1gsghFgZsuSMWfMnGaxNWyNtZw5kT93oTAMARxSqBgEQVkRYtK+5+JWhYiZEQlBkZP1QBBSKKSUR4p2jkC3u1OIXIR1bnu033yhMnlFVeByjHhjRmNhfHMy8pawywzlyLtinSbWdlReCjl+RhQXv8RsUchFNJY2PYsQqjxkuCygkRAKIfb83gqIiio6QoJojWk2GsP+IAjCIPCj4ebHH51/8vSpsP45/gzhSs8D2H9gzthh6DVNmiCS8gJQCgQEjAtVHp8lOE62nnzy8FeeeXwYG7aDmYmWkczTRYaqcfxEK60QUatuF5bvR5+du+J7dQadWANa5SaEUL+/oTE6dGB2otNiBgWAThqSRGRvQwIAAK7fvLva3fKb8xn7qdWOxWSFN7ubM7OTtn9ncWlKADoTCkU8UoK7cPoRyRrxfQQPkhR1CD/9aPN//7///f2E/NZcxLTaN6a77jcnGEOqN0TEoFgSBS6SnFFA+Vqj10+HU5MLKUcx1P/y7U9+cmljfQheqyUJCBgGu5t7wc2WlapDM90K/eHG91/6CgAAAioUQStWVacZ15EBGSHLwWqXqhYIcj845jAHYsFAcQEbIcCRxZn3t9ZWBhvQbpCP0LdAQUF+/g2Vh58R9MMcNFrj/5FY9oWUwTbXZIF+ujJORhw94jgvfw8MQsoL5a9CnO4Bo2rbXbnQY+ERT9mRlfP9Fhfntel2OVN3a9v2HEXZtq/AwvcXDyNvamZtY6PVPAEAURyTojRNCdXCvv2prcdmkA2s39i3smXfP3v1W8898eILL146d6bTrieSXfrkvYOPffWR+amNBIy1GgkEJpqthdlpnQzajbDTbl++fOaNN97ori2HYXjk6NHFhcUrN+8AUHewYXif0rJ/ad/cTOfK1YvPvvDS0r6ZzZurSDJZDzZsKoQkrMSIZY2kidhyGOqwFsZRjKD3Lz1y89b9RMIPz9049cgTF67c6/aSwzP7W7X68trmscee+uzNd4PJ/cNUMdFWvw8YCIu4ib+CQNs0C7SXaYwN3Fpe/ezyrQMntiYbNT9sXrnw6dOvfOPGnbv3lu+F9bko7mI9zDIjQojY7/Xy6JHCGrLGCkCtXlNaB0HQbjQmOpNnb13yh5BEdmN5pRnWHz/xaHdj88by6iqANzODQTvqDwEVltphjoBe4kP55p6pZGOPN/5e9tBedkBJDqUimRFV+CTbOkw1xtFNamwZK06AsZiWguVfPcmu6On4fe7x+e4fg1TNuJ0EYrdPq6Rz2h5e5kxqAWHEwqB05Jk8eRCO8rYWypKgRro/Y0YkAnsMisEye3mdOCTeEltxufeYc15cXiGmUiFF7aKMlGrcfbn8oHlFkFIjTjwSMhCTphx3B6rmUBxVKDFgaZqbEa/DOd+LTKIA5fsymbQAsKpMgsX2QLa3S9UQ4V274q6sm+reaXup7rTLGGvLI/LM+OYwp3ZZiwLWpsVXjDYBZqdhQVK5C2EFLGLBJmINm9iYRKwRNmBzszKKh/mliev1kghBWikAAqUUkRfWAICdKDZq66xPASSd501DhVgqSShSxON2G1cMZWNtGWeZP1plcapW7NjkXyXlFn5ggD0qvRyDO7m5Ag5SKv8sPMYw4gFXfitSMOJExFayOGGhmOfScud3yJnNAIBIESkBw5aNZS5SQREhkcqSGFBIERKW7V54tV0nV0p5+aM6vY7cBwKYJ7MDQqcy6hSCRyY+IgpxZowX1IQkibOJ9vwv3/noj//kv9450YzReCA3BctnPHHykWZLp+lAqVD72hRriqBC2W7VETBC+ruvvFCrYaOuUTWsmPx+xMWhuNobdQylqT8wga//9m9+1t3IPG8qBc9am5PfBERYKa0Yfa2WFubdZUDKgFcAoFEHGBEhc47KtRt3ogyyYYL1Bou2jIJg0bQ67a3+8uF28M2XnwMEEWFkEi5XIsQR0i8CSkF/mE7VffRgI4Ifvvb22sCE0/uNCpQo30eF2ojHQIAKNAhYErZOWFIrATAgqaCamO0JA5BuNhlhPc5AB5lJASrJqqu5EYQRSRUshiJDiE0HG189urDQgQZAwwO2GMcJaUUE4OQsyzYVsCgR2+5gONVuiwigKGGVP2ZZmQA5SosE0AY4sjAdvX+RGjPsY5al0Cq1g3alzAEAsBsEYwbbF7T7y1hagCJg7qF+5+adLwt5+QddcG87ey8n6N5h4XuUathyMYFuW8OcoQ6QtxlXpu9CAYCwXNKAtwPtlRPtfgvjGxgp/jdp6mvdajSjwWAUE4hoGFKhTChhJVZ3VzZp4A1Fnn/2yaeefurUqZNvvvXW8y98qzHVavg4065t3lnXFITajzLjIaMYhbbdaC3Mz904+47v+4899tixY8diA48/8fjCwYNa685EUyRrNuuTE+3ZuckL731KSuo1r+57W8nAI62MsLWghIDjeDgZhqEHcRzHcaMR1uphmCbJsBfdu7tx49bG5IzuG+/Z51/68L23Gq3JqaUDt1bX56NsYenAcs8mli16xgprQGYsuK0uQgAL48Uxy7v9KGI4e/XmH7z0zcnpmcFgMOz1T58+PegOFqYD5kwrBaZISM4ITsGGi90W22oIgwt0Q691fytDpmBywQicv7seDYaxarYm51czvL+VZTZEDAAJMENCAQ1ixQGgQoR5wz4UivlwZXcSzt6liKbKVXXcRJ97+3YMibFktGOCMb+hff+u7gvIBy+XYZEMow1MubXLOfEAyIxVcUkBcmGvVYiHRbksUQxOY3b0jGxEDLFLcGMB3JItUIAlwlxuKgCA92gQRiAg5JKijfk6jc4iL1D5kYc3P1WRXiT/Yc65Ls6JiCBjCU6ccnz5t6VxxZsHVLc7QIDgi/Gs3AZpl5IDHFy+dzdQ3WpKlVbuDsi9D/mfCpiEqQzCtmXaUWa2GRuGDNmyjW2WWJOKzYSNg4RZRGuvODnpSiZdQkWkyVPoXCKkSHkEkAeToEIAUoSKiDxBcLlERURI7eV2KZ9iFES+46tdsZsvtYy6H1UAprGw10LoE2Bkx5f/ulFPIgw2dx0by7kkJVR4NSDi8lZktrIHqJYyjHgU4QpQBhgQIuRxCI5hM9qCOr+TIiUieczxyJQnInSkDBBsNCY2u/du3l7Z3MjmQm8E2wnviERCRJSKZNLM7MTEVP3G9W691WZUUT9lhHqrbtKhu8HiQCYBQK4F6rnnnx72tzqtdrmg5yjdiOM6al9rLAAlMfz01XeMUcrTiIocmQRBmBCk1WhsbazX68HE5EMkHi2j+AEE4PrtO0x+5mgC2mcjAixIIowknie1GgEBiKlaGduqRcAowYm63++ltabfN3Du/IX21OwmY5TEAtogoWLQGpRLRymIImRLNMRJ8YjDOZRCIiOWFJAGlhSyFABAEbh8yVh0PAFEyrlVFStKWfHJfOebX28jNAHWtwYT7UajFmTWJeURwYp9JCKAQ2uvr9ybaLczsaqS1tM5YbapJLgY2IMLM1oZz5dEWUAEqx3p4jeEysvYjmbPo4rn1FLysLGyvWbnnK1Q0mB0CECRp2YvNf7fdtmJx+dv97jhvdItPWzZLSTZJSrbDqkCOOUQQZA8/06+iJIQMJYq48gIimHPsIcvXIhUmmZBEDAzEShSRITKSyVOBBKgIRIrb9VEEovqDle73cV2fXZ2etjfjLbW2hOd7sqtumqFGgYgNd8zWRwQojE+4dREe2qivrS09PIr3z64sDAzNZ2JLB5+5FS9MbewL+51jRkEgT892VnYN2ezaGtzpTXziKckHg682kSgKTWZA7SazcbW5v3AixvNZrOpe71evz9o1JvWysLSoaludn+9d+Xm2v4jp4D8K9dufO3l312PPl1ZWWm1pm5310VQBCHHzKyLoYdtcHI5FHU4NHD97krYnJicm2m0WkS4tLDw1qX3Dp94enFx8cLyBoRNd+y2XEK8zeUHBAAWNUMjM2yEvTBQnl4bDoPWLFI4gHaUYpwZ61ALl2gG3QZTibgp1gXoWBF2SpRcddiUhcW6sNYildjetJJfveyaOyn/8NewNHbNXg57j82xa+28JcmJhDAiVOTfjGgD4HBHLLHh3ONRuNEUAxY4/bb41+rmXFgUsHIoLws4Tra7R7YgJqdCSoHNV27fAUpYwOmIxBVTWIQBgYhQCK1CpDxPBboJAQCASDHk+sxj+qREpVo55I4HwKqd7TzHWPh4Cmx+Z3hrxVLeoyl+jV62FyrvFB63XTDfcZWRyjtMeRBbsFNyFREleXYtEjAmhXzguBYxVlKwxtjUZlmWpcBZYbYSYT7LuprRXq5cXl4JEQAVogLwADwgRFSIyunEAwC7zjXKDPKr19JvsbiZBQBy26skO41Ahcq/ggBgXVZXZBZmNuVvja2a8jZnx7Md24y5kyMCgFK6YubmTqe884MzzHNeTcHAGZn+5Rv3dXHPJWINAMSiNNXu3Vl/792P/vAHX60qwZdXwUrnLnjtAAATk96Rowdv3foUSawxWilGMFmGpRKAu0lnsyKffvrk0v6JIAArFcE/ydegnaip0gpi+OlrH966eR94EsHlIhjDYgnR972FuX2NcEQmyDWBdytckSq5cfMukm8YCMgiiUZrYyQUEFIQ1nS9CYAWMAXQRVVs3y4oELQpaQohAeP7BIvzc+cv3hGtW40aoM9IBlSaYz8iYJBSAlOOBQWAiIxWgJgBBZUCEkG0QGwRERtOhI1d53IDkEUrj8TRuoqtIDIBL+6beu6p2dBNb6O0epD7obFk0+QVcuH6lXc+eO+JoyeMCykVJZBZYE0KochomzcWELCPtG+SZqY6y9YtD67G8/5R9JOxflh+RWMzXdWEK3c1Y2WMMLZ7k35+qRjx/7mULwvLfLjCvIteLLkIuNLZbREEFIibFdmFHjNoF4jJkIdRIgsqsiBo82TfYh92/1dSfaqfjG4IoFav9Xs9m2UuWBMUodNdcGYIKCNBwkHYmZdaZy2yq1tJmmGn00nTWDidmmjE/XXfEy9UfkA1BZ6Ij4qM8YE7jRABnnnmq//yX/633/727z751NPPPPNMsx42A3+4sQY2adZrUxOdIPTa7fb05MTy7ZucxRptzSOwJvQ9AuDMaKQ4jsNaLQxrcRzFMdTq9TAMkyQJgiBLTX9gjKWYYXbpwFNf/erde3fDMDx48OD9+/eTJHHOX7Zcq9cdLxlzXQhmGct6bNkoonqzBTrsJXx3s3fyiaeM2NX7K/OzcxMTE9euXfO1ajXqWkAxAAsWCSPJClkRa61lACDSZFEzAJBhYg5UbSrxmmsZXV7ZutfPYqqvbGW37mwwBc32FJAGACXgMWvrLC8kQHCZDvNipfjTwoiAxSJsd7Puv9RNtUO5YA+GT7X8JrStpPL63HvAIgkrAwpoBs3gWVAMngVtwWPwyvc2/1YzKAbteDWFHa+FFbNi9mzxYlYMSpjAIBgEIzbNX5wKG2bHvbZiM8vGqXW4V05rzz3y2/3yiFQun0joLHYuLOxdtWJ2qQ8pOVmVTUK+4cxPzkiWyFIOwxvKX4JfbAnZqbS7a9lJu9rzhCIi4iJGqEKtQQGHtZckKBIgYc2AYpUYJazEuEAFAqPEIBiQDCUTm4jN2MQudavYTKxha8UYY6y14IAWBE3kKeW7f7XySHtEunhRkaZKM2gWZEu+FyrPA6WJNJJWRFxaP5WMb/85FCxpVIwoiCUkyQTGsrFiLBsn4Dl62eLFWcGNt+UR5RarKERESuUvrbVSWilN5JGjmVUYOADl7pqqHRsAELfBXqOvtra26vVW4LfefOtdACg1c3KuS65NUW21EcBPBIcPHwpDP0uzfr/faLabzfZgEIsIIzgV14pYiXnxxedqISgNehRxMoobd+JvAJxfVJABMgt//cNXa/UOKm1lp/wdR/Gw3WwsLi0UHuISfd3D88NiBTNBiyDoZQJGyBIxAitk0owgLB7pUOmGB0oYARQUFL8daAsKeEolg55utQyDZfjnP/ju2q2rdchsPEjiXhr3bTJUnCm0jnpXmZYtgAXMAA1gCmgoz8pMuXvbCTPvhofmD6jclEWCAMgem9Cm333+2cCABmADk52W5TSKIhZmceQa1ywZIgpgivCLC9d/9vFnQ0fYESBxY3b3oUoANYAA4JH5aUoiyFPDEchDMdJ/cwVZXHIMYF3VvfrcUkF6UFjKNFdjwNlDWxV5O+0RA/owDnqpqkyUjstxp2F55DZ35k6EoPi8ypnYa9tbXksAoNNpb6yvTYt4vjdIAQAIlQr9zBprjOf7WYbd/sALZjq1dmjZptnWFrS1GsbJMIqiKNIaiYWskK/T1IBzK2eGpZJXbo97cH+MfNOIpahZNerKI1ULw3hzgzPLCFEUDYYDtqzQagJkT7DWH6os8LEZzMzs627KxMnFmX1Lhw4dCEI16G0EfiPNhkan3c1+ADUv5ZYf1n0PBltHF/aFCjjDjfVuNOj3er3FxYVerz8YDtgkR44cUpEfajpx4tTExDsTzca1Sxcfe/q5iVZzYzNFZk8pjSo1GWoderVhd5MmNJFqNCBNEhGJo5gZBoOIAKM0u7e28o1nHn3l976zfO/aO2+/5dWa+6YngWhqon336vLkzKGb611sNJCZgIFZIeYhiSz1Ws1YSwJImGWZ8mrLfXNjtf/y8ZN/8L0f/OKDdy5duOgpajRrujNx7sbdTmsuy2QgVogIkKyEBvzUpikzAyJ4gl7GaXcIi5BZiTNWjdZKr5cosJ4vcbp2v9uptQ8/eez+Vp8mGmYt2xoOXQoZSxBpKtup5MqTQJZlSuuJqSAdDl0vQsRms2nZ1hv17jBva3TsUcJxED0HqyHHNMXpUgIIMDtBMWONtRANI6VVGIZElI8IwhwoZSlgMMmzeJZ03lxDQRjGs3vuNY6+YMHRM0Bl0S37/PiZBbBQBsASay8Q91FUOlsSIETNOT9EQT6no+RAd2pTyC1I1gAKGACoQBlzLRSJGU0eR154aQmBbYYVjwUi5qGZLsVJLlNYfUgGBHLUF8r9SDCyel3bCYDL4+TQASoUuAvaDEJOcS/gqlJzRorJGQBoTCdedkqcccXaFtzbc+I2JFi1nyp4kkh5/yIF/pT/6aQYil8VQZBQzNV5izMX8ZH5w+fOE7eLdjQPl8sJLFgDYgENAROzEkPWWmYRRrZsjLWZNcZYa7LEMrNJmY3keV+drYaCKme6A5Ai3/OtjHp0EATFg2sd1DlnS5Fh59MY9c+KAJ5AQZkFx5DcVodVGv+2HlFppsqHO1sBACDPppcfOrKMseKVH8vtlY/ZUueHsSIIW7ZdaWRTIX3GYhQgYM6t9xQZa1DYcqYw9xtm1kqhxOr0+Qt7Pc8bJSKIovKewwCIarTzNFwObQmCkQ6JIq21x9a5kgjAdSHRqEojzCvaiNkiFSgsQODljQVASkFvMGw1mucv3MwMKOU0bgwwEEEUpWHol3b3ttrWCp75ynP/7k9/DEC1WjMaRkKqUW9qX5JhnwUaYX1tZfnAwuzG2r39B5rf/vY3lM4hUgACp7YjVJqqeVit5DS7QR82N/ni1VuDiIBqRgyLEkJmEQSNDAKe5yXJ4OSJE8MhNJuAVLVdEKRMSIRuoAGCAbIMl27KvdWuFVJ+AKgsUgaiFTDA5PSkWe/XSKkUfCTPZbBBQBnl1s1vGEHAM4Qm8K1A6oNGeOr09P/yP/0P/+v/+f/oqSWDoYfIYpgVKyYCBnLZZJGEkYUMoGFkBiLwQHxnlQMpQ2y1BQBlAYXFkamgZAwiCrIiowgAIE6mmoEeDBd881997cRBDdqCsYwoIBJ4SoQtKxVgnCS1QBESCIgHXYA/++DyFjRvR/ZAoRYGooSIAUkEx81DAhlmSUjBMwceefv83a00S7TvPG2qewAAIABJREFU4te8sJYmfQDww9Bkphxl1ZnQYQRFNIvTJnB+2dKBU4jfVzpd4QUbcX2Ei9SRLpAHXTpZzFG93I8mtXqt1+tpgCLl3z+2gnsDdb/JohSZLPM8zdHYrD0cJmG91qjVk+E9TS026b7FCRv11jbu1B4/cOH8FY/7aZbdu3dnYmIChUySgkUASLIUwEehzGQMDErvTdrPS7X9nKz1g6PaowhqjXqr3RZhKxgnWW842Fjf0J2FAwf221qycfc6qRPtVnjy0Udffvnln7/9+jBO5w8/rlsYDfpTzRlB3RtuTTabaKK5fVOddv3erZXbN87//M03Pv74Y9/3G7V6NBzWG7XrVy+fPHHshRe/8a1vfWtiavrko48tLv7dR2cu2ixVaG2WhmErSrJ6EBLpLB7aLGs1moP+qufpOAbte7VaDQl1oH1fh54fevrT8+ceP7H0O9984faNzz67cP7w0cmbt26devbA+rDbCj0CG3iUMFtmAiRhEEbOUflard5sNBLbMzaz7AVhnTP57OLVPzz90ovffqWfDleX7yOp1ft3Flszc5OTW4n4pJWxwFYhaSGyQhZc6nAREMsekCalUQHA9NT02burcRYvHDzUarUwSifZm6q3DFEcQybx4kxzcH0TwduVcuDsSADwfT+O4uXlXrpx+/333xdj2Ng4ih5mi1sWKq3bHV/5vn/h4u2Pfvn28r3lra2tOI6LJRPEZSb7B1aqjP9tslFc/EMC5HjKBYumjGQFdt+Ks+8V53KT1ZpRJUVWAK1BMODmGGtQnD3CIgbQlJuZbaGZu5TKKu7uHUpYXgBG3PecB7+L+xXy0I5tMpGfy6SUysHV8mBAHeULC8bvVco22ikJQBVSWEmewZEmrWtBLMaI04kvVzwGtpZTZCuQCRjLBo0IG7EMwM6Cz7LMunc2dYYmqdKUdAxDjSrfwRJp7ftISmmlChhVkVcIhhIoDwuVCKwgwLitGTDf/vHnTdq/xbJzg5GXXfIbsIhYsGKlCIFFa3IkHlls4UpEABGx1rg/d5x6B9BbAYAdGRocB4NtyVuoilRSzpgHgFwJdMfxYxWeJEmxblKrHjJLkvHmRv/C+TtPPLaIzIDk4tRLDttepd2aaLfbG12na5yP9SgaNup1Yh0N44mJiSxLlSdPPvXY/LyPAALOU0r5+XeWfOcCYQ3+7f/2Z+sbQ+1PMyLnnMmxMWiNaQTB7OysRlDlnqMg3wON3HYIeSIIBAAPlte2uoNIdIh+YCjfWjMCCG9ubNYtx7HVCMIKRIN6UI+1gEDKCiBBItDy4J+/8iyB+Td/8eOIsD/sxSnUJ2etIAgBagbNCISW8/y+AGAAiUEjKEQNyAxiyTUqM44GTPXZc7INIgBPzs0kK7dUf/3pp48v1aEBQAqcJ14hEgMjeR71h3GjXstsXyKjPJ1o/+J96On2wFOXbq0sHpp3C6JFKvbABDvWOxSuESw0Gh2UmNlwzpFnZrdj5IdmTPxqxdXG5y72wuIyPGjXIQTy3QBKEYyOudDmOP2mDG//R8OV3+v9+PG/eqsQQZIkk7WABzaKouEwHg6T4TCJoigeRsmgnw16G711XZuebUA6TCenm1nS6w9k+cb53ubm1ubm5My87/lxnDJIJpCwMEFqMhkN1i9cZIwaDoUry6VJYGtBI/q+H9SbEhuqNeoqnOoEqm7S9Su1Dh6fDQ8uTTY6EARBq9W6d39lo5/se+QxLdpLrV/z+4M0AELgfrS174nj+/bX07X49rVrr/7ox9dv3azXW61OO8tss9PutKau39+cuXL7wNH7jx7vtDrT09Nz1n62sbrSnlgIN7OUDYFCAC1sK1RmEvB9EBEKvPb0BKIgiUJRiJu9rUvXr/+Tb37vj/7oX/3s1f/081++e/7yjaOnHg+UtBthBKZdD9dSC2Kdd14EgFkJWObNzQ3LrInAWEHRngIwZz473x089/UXX6qF/k9e+/HPXn/bb048+tRzC/PTWzc2tEbNqGyZFpQtQM33NIExkGQpaaU1Kq18kutXzgrWD++b9DBtSiyQ1tCGGPQ3+0cnp9745OM0DALUKUqqNed0251zKIu1RLiysnLu/V+cv3Bh7f5yu91qt9v51+XWXXbOQg9VNtY3NjveuXPnrl2+DAAzMzOdTmez1x8hBbsNltzk+lUuWJxhr0mjOk4BoKT3lAo2AoXkx0ghvvLbHOJVMOLJOO57wY8v3L7MLnYZdnDS1Gi8WBArXGQEs0aK7F0jyiYA5rp4xaw4apQyaBUAuIhYdcF8eY42ypkzDlKnMixVqW0MDQfDE5IaC3kr8kfgKJM8YIGm5cy90edjt7dtA/nrZwkovKCjT7b1HSw8JNWf5Ex4kaogARUy/wAgXGBz7Fo8x6MJWMR6yFE6RDAoFthamwGLWAbkAozPjHEUbZuvakohohpFGhAiMYoipbXvuO+e9sv652ITJgWLN3+cSo3tXXmlBTNeFXse/1suRXxOQXUQcF2dRZBZxJReMmMzx6iBclkBAABnx3+hizr7Wyld+WSXGkJCF47s0tiNHU/b5yssx1Re2DADIbP0+9Evf/n+k48vCiMpBZjl8ZQPbJXp2c7U1NTm1tpuiRoJAMKav7V+NwzMv/gXP8gp9Iy7N3Vet8V+HmF1Df76h69a8QKvJhIwEhISSp4zlQEALHOj0di/v1M+tzMNirraXucua5wHcOvO7V4USVgHT2UgFqwQgDAgpllaI7q/vrnWg6AOirS7Xi6aMqbqw07BkoANM5HvIxmGegv++HvPHz+0/0//+sfvnL3YmZnq81CQiDUgpb4CAgYPkBHJhYcxkLiQ5G1gEQIQijg3ZYW1TiiOlYAIgIGSaNgPOf3Ot75Bzsdo8+hndGkrRdn8VyIA5NUi8tYsvP7hmRQ8UeEHFy5/49g82xEGvpe1rBT4CIszXtvTq8wkYIEBwFrj5MWs3SW12YPL9m3/l1SkzPb6gBtyyYD/UYL2OwruLgSz5+d7NTKOf05KZSbRXmDYTE9PT0+E09NT09PT+5cONsJaKwwPL83VU6hNzQUqsl62dGBuaWFifflWI/D7GxvIYuKkHoa9CCxwCmyRMmstEihEQBGB3Uz6z22TKoq57ce1GkTribF2YmpyM8qmZmdqwXQYhieOP7q5taZ0OjPVefTwbBLDzZvXP/nkzMZ67/EDJxqN9pkzZ5vtfSbOos1hp95GtoFPE9PNZhNWbvdvXr1488Y1Rf4Tp586cvR4hugg//5gqz67FHRmKWwZUMoLZqanV+7fO33kZHsjvr/Sa3Ta/c1eEpuJZj3UKtrsz002s8xsrMdnz5+/cOlilERGjLWJmJhNZkkFYX3lfvfg4sHffelbH7z/7tb6/XvXr3pTS+26z4k0PW9tEIEBXUPlzD43iQncuHZ9c3OTtAcAzGxMpj2PxZy/fO3Y4tRTzzwbxfEH73/0/qefHH/8bH3mcKNZ6/atR0pnGZNDckQEAuVpVAKQGCOaQJEm8BGePnXkdjfWE41hmngJ2zRVoFWGzz1xgvxaWKe/euOtoD1pUFIQS8phWCS5X585D5bq9fr1AzOpyT788MObN26ePHGs1tLJuLD9qDNwqTPj/hYGGGUNdgSbwuh3faneqF+5euX1N16fm+w89dTpDz451x/0WxMLq4NBydVBltzgLVyutEf+uJ2b4S9rn1/QY0bWonOuq1E2Vq4q9Hglu6YQlCQBEEPChPlG0aZpSTaXCsBf0lsJ2GZRuXKzsQgswpJXssPOwNfewzwBAIwIvlKZV6SwCgtUXhAY9Gi4jnJTqG309KpZWVZ0NTPdtjDWqlmPDzF7PKDkbV1EkzvZotIclz3CWElGnEBVfAgABDk3zKnXOT+JiAVHtslF8ZhglPFaxCowgIw2BWAAQ2CTNAanKy9g2TI75NiMpM1FwlpYsjXcv4ygkJRSijznJyHSZbXnN5bn0P2Hi7L/OqUAfbgIFJZixXftiIic2rRiozMb49jvxU6HAMCa3I53aeSliA95iDsgVcGDuQSzi2+dcee2wa5jVY+3Iwt+jDZWkqMAYBgNFSlPKUS8cP6SIFgBlXsgLeJO+u2osEC7rdqdOsAKkrAxyvMza2u1ejQcIptGLUySfqvtH9w/++QTM0XNjRXcEYtiOZdB/PFPPhjE0pmaT63HrJhI0DBAvvQDALC1WT1s75sFF2Y/bsfvXlx/XVlbtZ6yvjYKDAjnhgQDchiGYOzy6tbttXQ69H1EXUw2tFteM0IBNgTCNgpUw0pqQZpB8HvPLB05+N+9+cmF/+vP/lr6feOY8ooTEEad83+AGICEAF3W9d3dIIjbLU1xobpIgADM3fv3FjqNR1udE0shWEgZAuX2LS5algDAWmmGQT/d8H3tqVYfYDmGNz49m4IHnrpwazVBsFhqiO+5t3aC8zNNaGryDIBYIiDEzFjyfQAwWYrqt06dL8OpSRd9It9EokseWKDyAOX/AAA4isnm4jwjgm/l5ABucq98Pt4/cuIyQB6u/utqyOxd9ooErZbqnY0SrcPuXHmBKj9YlCKTJr3NbmDssNcXARSYnpzcWN2YaE09sjD/9NNfObt8u9aZQkOd5sT9lTuS9SZa3tUzZz/+4O8OzM8fPnoq6sdbUQq6xqRSI8bheuRS0WDBgNt2H2Of7BqAWP0QWRSiAgQW5UGcJkEQmMz4nuptrD767LFTxxa3NjaP7l9a2j+jNU1O+uc++fDsuU9XVjZA9OLCAd8PG80Wg2dSbob1uX1zNQ9Ta3yVgsDt65eWb98e9LrtyflTJx/vxsnq1nBrmKogTIy+tZlsGX3xxvKdtY1+nK5tdK9evrh46JgkWUNTf9BTJiM26dCmvQYlWUDBYKv37vVz569c6sbDFK2hGDBNB4OZyelPbly+cWd52MvCyUbd9x7Zv/AW2M8+/ei/+ddff/f8jdV7y825g2IyYoLMRFsDP7NakBP4qz/7i48++mhiYmJtoysibnutSAXKW98arHV7x5+cb7VaR44c/vTsue7aytzBk9lK31g70ZxkiaM0y6LYhNhsdtauXetvbIY+dKYnZ/bta9Qb2TBemp1+5OjSWpzVJtss0mq1TJZt3luZCBsfv/fRnXsrR5545vmTxz68dSdo1O9EMYCf+2GdRJgQW9tsh2HNl0ZdEWnPA8JzFz77k//+X91ZvvEf/+aHJ06eFgERKQipYnHcjt+jkEA0GCYKddgSkWajeePamatXrhz+1gsvvPDizbsr5UqcWz/jnd+llnd+Ccyh4lHuuryPPcQg3vM+d4w1t4/QPOrG5dB0IpKKc12W6imV2BESbzkH44FRGNi4Gdx3SDCLIyBRSfAYTVgs1jjbkV3yRDYOfickcOMICrGaQoWjfE87XOoFcynH3R0k7xjyhR0PiI4BVBoCqjTBnUZKlbMhWKKPBW++Mlc7JmrFlB/N4TuBiwcHN+8UMsrV7nnEm6/ylHZvXhYotkwkoArBRxKwnDn01+2ykAWA0ZHanUuNDUmlnyGDNXEWA2eEAjY1NrOcCRgxnLPjrTHWZmlqLSOh7/mep4m8LDNaeU7qhEgTKtKaFBERkZczlqQ09MHXGgDE1XzhWnE3MWqIL7hw4UMauOX5d4yLB9OfqofnAwedqkyR3wBYBLBQYcqRQhcJwwJgxVZMeRJwu7WCtJkZA5ahyCgKAFLcJIublmyWmUI7iMOaDwDkMt7nAikIAA5ld++NcZYAgRtfRf0r5YGQaxfj9o+IgiPzHbZb8KMBkjlKlWtHL/R9nwQyE3927tLaSrK4EPSHUeCTQOZQeRG1q3FsDNTrcPLksfffP6+8eszsaz+x1mRW64AEjIlsOvDC7KWXv5MZ8OzIUN3L2iYiIzDoQWrh//3hT0S3e0P2aoERtMhCwCie9qN+BNbWQ50lePjII1lWqAzmbL89z48gkZU4oTvL96yvjE8pigVgQhSXLxeiaKB8aban/+NP3jz+r1+pa1CIzMZDf2S3jXfuNM3CWl1xBmlPkSgWK2lq+MBU+49eevyFx0/927/40ftXbt3uDpF4mMZBe0opylKxwCDELml1BY8nJJtbkkRIxChEjmmTx5qjEvJAESBoYEhjRfE/+f735n3QDArzWBogAFAAVoQBKQPw/MCArHa7Wafz8b3h3Uz89nQUxTe6m12AeQSAIphqtwoUsCI2FdNCffrIoTOfXEbdIGVRIShljQUAVeA4BcsJAXZBW35NJJ7c9P7AQ4QxR+UBShfsr3Ix50raaUo6J+9vQuPit1riOD44P93SwNFqr9fTCI888shXv/r89+8s37+78tqPflRrN+/FvV4yPDh/oNXqHH/0RCPUN65eeeuNn5755OP52flnnjy9GWOcpRzUGSiz1mgAQiAaD2rZs+yh8iZlDhJhGUYRTU8QqSgaDCM4dmj+qa98ZXX1fpxmLzz72MGDEySQtic7E83JqYaAvXL507/6y//wd2/+/OOPPj1x/PF6vbO50RVGiwhA01NTszNTt25ePnVs7sjCnCRJTSEnw8DzDx86pPygu9LtDhIKW32hOyubCd4+fvnWqcMHbi+vn71wZW5uLh4O5qY63lTr4uvvxypTOpzuNJpBPSBstifYJABw6dKlm7dvefVQ4mFq0nrDZxt7wnPzi1ev3/z0k7PPn/jWsUOHn3/m6b/52x/1NzeaYZAOBh4CGBMQKqS679X9QCc62uqv3Fk9d+azjdVNA5kTMdA638oy0vsfn/nqY0fWe/NHj5/Yv7jQCIN0uGWinlIQp4mSoU1SJej7XhAEjDAzNVUPa/0Y9i3u+/oLvzPodd979603Xn11YFV9cnp1fS1Ok33z8y6N6PUrVxdm5s9fvNpoNybqkzXJUrHaGvEY2FEHJIcziTzPS9Os6fndbteCOOmH27fvLK8t1+v1WhjG65txxLWZfRBFrvVtiTDnJcfhuaAaOxTZ83Sj2dRKh0G4tdkNgqDTmVhZWUmSpNlsRMOoPatHvwfHYGShEfa2V9nF4Pgy9DGx4LsXmUGcZFAuMqOqXAB3i5IL1+R0DmFV4MEEFgqBFBBRDMgjrnwenFcEZiIwuJjp4vSSVwGP+DRfuJSZXCo4vZSovJJ8MUAQqiwJeZyrwFj2aMbKgls488dQ+cqFvyzue35pRy7PNyfsdkc7G3sM3hHQo9BGYJNnD3WIDhUa/AgCbADcoLC54A+zSI715PQ2m7JL8wQZWJOZiDkTy5a5xIYJUWtPa9Baae15ni4WOwIABKWV51hxAECkMKdrEyEy5IHIinSxjhLQCJjPl+2HoG7+gys5G37UO4qRJSLWMbzRNUBe+aNA2PwZCwjBvXfRVu4zttYdrBRw4YYaF+xDgIrW5IjgjlBuEXFk4hMoKEhoBXCIuM08+iIVL0B37q1evnZz38IxpRWgC4MGllFo+HhhJLIZHD1yCMlaTpXymRNFMBKWRE7SAUL0+7/3Qr22A9ncvRAidDrw+tu3bt9ZV7qVSWCYgPJ4GEYYRMNmo0nWDPubdU/Pzs4CAI3f43YGbnFpAUGkJIG1jXX2VKogFbEIDHluBxTQSgNYQ8Gn56/FAms9mGuBTVOvFuxw25EgGGvCWmc47NbrDVCx82YqMQ1CK0NFjUfn6H/+H7/77rX4P7z6+nsXr5u14XAj8eqN2Zn5e+vrhghQS96yBYENAUEJWkBCQFDKyQ+UxqsQArnPjRKZm2g1+sNnTs4rAB9BKwCGKsVLiBDRiiASiIgXbmbw+qfnVhklARRt/PbV+3BiBhweJLg79yLHR4BDgOMHFvwz1xWgSCYigJ9jjH0pxWFMlXmVc3rMKJrFOXhdpjkhRJ3nzCk8QE6RlCte2LHsj8X76sLtPhsj71ZKRTt5dJdjB7hvf429xG+5oGq3J/xsWJ+carfbcQZE+uSjj37vu394/9590x9M7ps+0aTUpgszsyC0GfVff/WNt3/0n7KtzalW8xtf+9rmWncthtT61kcnYgeogBQQgnxJ6zByp93yPIWaOhMda6GXwuLiwg++9wcNDw4uLTJCWK8RecMsu3v32ur65k9ee+3v3v3lRx9+WKs1Hjt1utno3F5Zy1QdAt0fJK0w4MwszUydPnH48MxkfH+lu3IviYf1wJ+ens5Sm2aSZiIedq3qQ9jL8M5a96nHH9vsDzMrx08cs8mw3+t2Fvd1WvUsZgFT86jTqM23p7fu3dA10kQ379w+f/HCvgMLzcmWkUzEthv1zSRpdZr9zfWV+xsmhbpPp04ce+rxx3/y1nuffPTh0YMH/EZ87tb9VnMqA92s11r1ENNwqjOxdu9+v7sVx/HS4cV6s630mHdM+2F3a9gbZAf2Tz/7zDOvvfba7evXnv/2H05wqNYjtmlAOk5NMwhrYSiMPuKRgweUBoX06GMnQeyJYwejqK+8BpNKDi0sLMwbY9fX1+Is7dQobNQi2+93l+fanSZAbIxvDRibucSVwMIixArBC2qdTivpdheXDrK1n1240G63o2jo+37JlQc31zhEGdjJou1sdpfcAAScdRiGtcmJCc1Ry2tNT09dvHF2GA3X1zfiODbG+r43NTUFNzehZETkZ/n7m7w+f5NQpbOXMabOvlecZ5HnygFjoa7OrC/yJud5oABARAmgSBl57Ez5zBTkeGDK48cgl4soqDfOU5yvoCOQrLgBVKNjx5TysPgSyIXXklv0S9oAOa0qROCqqVKY9U4QZzTNVlfwAoDHIv5tbFL9++Rn446FoCxUMRlJBGWkrsC2ovgvTAVCDCMfLwsYEAsswMLWurxsKAzI1qY2S4Uzk6Vs48wkuXIr5+x6RUQE2vMUEWmPSOVJWAEAQJGHuU68yiMNqIjRERHUAATopOJVYcgDV6TK8wFRTZz0wKWrWktV3O5LwLl2kfD7gqlI8t2wADC4eBTmQgnXAgCzYRnFh5SfA0CWZSJiJNd3Kk+IgArFBRnnCMV2pciHKrkcU67+8cCHcBvL0jdVnqFit7izaeV99MEn3/j6MRBiy6RRKXrAIqsV2AyeefZ0q9XY6KZ+UIuShLSvkVgEkFG41QxPHFucmW2R2nOjj1xhhyNoDcbAz3/xy8wi6JoCPzNoiautJwhEBIR+6B06uF8gT6BULSNr3lW/AAFkKCQQRcmde/dEe5mCTIptMwEZQMRAeyQoyv/4/JW33r3zB7+ziAqIimwNxTalvBMLvgLIKADQghqBQQwQ1JEygdgMU/Aig089Eh794+9cvZf+ux/9/MNLN6/euddNekGtLqQZLaOP/x97bxq0W3aVhz1r7X2Gd/rmO3XfoUdJ3S11qyU1aiEQQoLChjgMxmXs2IVT2JDwI05SJJVQ/IEMlRRFXA6hbMoJRVIJpOzEgA0GjGQmgYyGbqEe1KP69u3bfcdveudzzt5r5cfe57zn/YbbV1JLIom2pKv3O+95z9lnnz2s/axnPas1AIgM2IMtFCEMGRSzZCxeiGmqJFrOHr7/vrt7sAVMFux4hK2ditYXVogzxjjiQdd8YReffvHl7cL38wSCgvHMy5e/4+RZHJYQP9CwJIBkwP3n+70kGbGpfFWKM1kuXxNr/lCRo+zjOMSIyDKTQKPh3vT4sLwtm9dyDGk+riJvfdW/zuXg1vSY0ul2FFxV/sypUwr/5JNPTW9es8R5J908uYn1lV4vvTq6cfbcHaOd7Z3d/T/5zOee+tzTN1+9WI73//2//cMnNu984ukX8q3zc85HZCYC4bCWLHKU4CjUp31kyaka/aUHttU4f/aObDZnthfuOPv5J5+V2XVXTIw642b7N69NplO2pvJaKr/8xYtPPfvMZ5984tIrl9ZXNx595P2DjU0HHs0ql/p8vTPcHQ3mRVFefeTtFyzTG5cvXXn5qddffaWo5kliKpmPpmOT5VSY7XE1hlk/cebUqXVOu7vj8Wuvv8HWlOX80Ycf+uJLz53L1h+6767XtmeXt0duNittZ95xaXdw/9svXLr8xmc/++T27v73fN+/21/tv3HtjeFkf+PExuUv3pyxvXDn3Wmn/8yzr473vzgcXb/v7rs/++fPvvjME9/9gw/sjsfr/aTIqBDOsizNstWN9VMntz7xyT/6t5/+hM2SH/jBH/rC889dvX6zf3oQYmSgXFRSennl0sU//vgzKCf33HPXP/+N3331pS/e+baHL71+c16RZtn1skySNElzlfm583dOp/sf+73n1nq8d+1Gxuaet9+/v7snXivnsk4+HA5XV1fvPvvOl199ZTod/ua/+s2XL17+W3/zR30xT0QqgfXqvJJILRujbBgqnW4nTZPB1sbm+toXX3xpf2dnNt2/794L/X7+0kvPz+bzbp531e7NxlbVqBNKQ1zEcd1VSUAOApOZXj/nSZGmaQn3zIvPjqfTD3zg/WfOnT9z9tX9YvbaGxcBl7IpxQV6Q/Sg1wM8cGxqtjTQWsJvdwZYggHC56AjoUvHapOdVEma0DYAoKABLzXcrjVaHwKmwVbiz2lh04sJHJtw2ZCmDZHfzVGqU+ALBKSQRMlBQxqvdrseyZk+cITr8Oj28QUJRQhCDDUtqubSVwsZFyyW/2DHHwDmm9J+Bwfs+K9WWcDkSz0kVkQjyBo+U+R1BKuOKDAqwrfilKT1fsUoKQQiUMcAM+azucYJOThPnEoF76py7n3pvBOpiLhmigIAG5NYa0wKppq/RMxEsDXBJhHVaCcyU8AFqe5Egf8NhQbdkkWeEATLPvi9jt+GHlgrv2be6UadJlSQIlk5tL9ChUHRZxOrWPcXIlUv4mrXR9CrhhffiNJQy6YP7hEvolRvbijS6439skMLvsRf3QbKIC07XsDOyZOff2oy+35r2Cux6q0ZEAYgxpkzdN/95z/75KtMLFKlzKrCqgbEkNlk9Ff/6o+kSVAuOuJNt2wJVqAsKpsk1264f/2xP55XvSzLxXMlhbFGaxsz73Unk2kibrWXWTMkVFHTAAAgAElEQVTZPD3wOMYoafTEfbwZg0ulceWv7o/L3imnRlo/dIwEnNpMXDUTUc7/r9/9+Ie/9W9PBCt5F2jdImpmQgG2NCx8L88dQMomyrcziIwqq6ibbHTX5k4upLx6Nn3oR77t0y9WH/+zz3zs00/u+qlyrozAehcwjAWghohM7FGkTajwYu4iAA4gkE992TfVX/noN4/mWBMhZdUFi1Bq0icgROy1ErLXHV54Y7synVPnT81mcCKaZa/t7FY4W6FiSsIgOcxTImWjNgGsQUeQs6YkpVSifOjcr3E5dkdrYVhEQRwxYAYpKbd2Ru1Y5mYuYwYW4hLNLoUV0vrcnt2bVEqiWNKivn3XZHtjHuaWY0QT9Jjjx27tpbXwtbjydIg2UJ+yWIlMks2mBU+LU++48/Lll3/25/+bO3qZARU2d4C4iliJ1PtqNpmMJrPXr+6d2jr1+Pu/5a6z5zzwwuvXeO3Mvu3dRHcX+R7gTaJg1Ou56pGTw61KjNZqPRQpxte3R9s3Hz5/oWft//pP/pfnnvrEudOnCTLa283zNIisV16LohhNpvP5nK194B2PvO3+h87ceX57f/z6tRuUd9e27nzqys5oznfk3fl81Ftbeem1i//R3//Jd917ZnLj9cuvvNLpreT9LBtk5Ww2VVBn0E1WbGLSpGvYPv2FZ3/3d/7Fqc3B55564tFH33Fz++q1P/39R97/7euZ2Seeg9K8+8bOcKOfJYP13/jt//PPPvU5S8kj73zPvJr+4R/9ftpZ5/6F7uba7p5ORjC298lPPfWrv/qP1teT6XB799rl/eH2i/deuOu+h3f29raNL9TsDndNOSWUp0+//Zd+4VdvjK+cuvPetc3TG5vDj//xJ9+9effJrRN+Zi5eunxh5bQ16S/90v/8uU/94YUzJy++cjnJBr/zL3/7b/zwyQc3u69sT3fm49Qa752Cd4f7vfu2nn/5qd/+57/MbpoZnk+mZBJjEkvWsqmqyrnK2iRN09JVo9FoZ3/HFWVRFDZXY8yg19P9KayPQltKFHI1EGbz8sp0dFeOExtrv/Df/3c3rlzbzHm2f71rNl954aW3P/i+wWCVR3uZJht5Z7SzOzh1dnt3hE7vSGtaAZAIVUSu0vLlV5/bSvP733Hu6Ref/t0/+Fi62rt844ZP7NXhzuXrN773sfdPqivlvhiuZrOxSXss7Gs7M/rrJArPNRLizY14adi1TfZjxl09DwOgKBMZ8gHFFJMcunGNmQbxGdTTvgJGmSBWQRo3HomXRTUkUnDYK0OD/DwpnKvQkiqv4dWYm5CCvAQJQ1BDyTX6paQxUw7QWBILkxygdqqmVqEFlsMENXJg0aov4Y/JvrRA3A941Gt9YgFQ+wR0mV7Z1um7hVrX7Vv/3GTDDddvXXMR2OClUZlkBakEeXJ1woCKoMkTVO/EIEoQ5ZArqtJq7pwTFUtQ1YYG73wV9SXVQ1Sdc5UnEmuNSUww39kak6RERoLSPBljWMkQM7NlToiMMVZVocyGqQY8SVkoouwU/VoQgg8iv0wAvChxnRo+Al5LL5xqF/mRjRcf+nYb+2Bpk6f0UPs31zUKkIjzjSR8GF8igpAy75BVUs7mbKIzXmLqmRgRi+h8CIJg4iVcB1EOqPFZEVTV8CJuhA4h5aEkySJkXLAYMlmwJsNzhaEYnq5tcTc4F6FhoB3dVvV9S1cBYKbUJBdfedU5GCKOT2ui62+5jk1Pdt6TmhMn+obUO0k4BcDQTi+vpvPh3vDUiY0PfuDRbheVcwmH+IrWdcKsooi7ROI049EUf/Qnn9kdlnnvdKEi6sHiERuCyDgnaZpa4Xm1n5idtz94R7cDVyE5DMwTSBWe4OP0w8oCPHXxatnbnKPjKAeiJK6LcwhbTWaFOB4MtlY+9ucv/MI/++R/+IMfKGbjk1mXg3NQIbrIA61AlhkBIJ5hhBsfKSskMWpth1R6lh0wAKoJPnBH8vBf+8CH3vuuf/Ivfu/Tr7y2dfrs1dGUcysWROSVdD6nPLeJUVUSD0Brq7POm+Ehxer6+nx/SrPdR+7fevedaS7oclC60vCKozkuJr418lCpiIYWv/vZp0dznuoMic1Xkqn3z158dYZ3zbjM2UBAoFYyr7rbKGfaYVVRnOnigXMntq8Px86zPdr1jeNjjd66IocmlJDvNyqemfT7/14lDJtAJa5kIXk8tG7WxSg8cKmF/FNzpLX5ixuB5qtGSYBwaNQ0Jx3zFHrM129yfqzl0Z/rcnDOPQwa3vLyVVmV02kx2u+zzHcuzfeuDfJUvWaDVZN2rE2zrNfvDnqdfjfr59nKffe/89zZe0+cOA2TzpEM1e4h2dZs2/R2xcxNIjYhtWHrSkrQY1bfpedqHadox6PVyEZlo59RVfnJ3Ph5Od12s0lmM/XGmk6nu56mgyxbGfQ3VgabK/31lZX1dz/y6Plzd5u8+8XXru1MKuqs2u769gw3S3vy/N3zSTHc284J5XTfF2MSt7W6ceHchXNn76KkN63MqLRFsoJ8w1G6s7M72ttlLU9trAx3tk9vrD547/3b16/3O4PByuZkVl29PoLNxKQ7k2lF5srNq51cV3rJ1lrv1Mb6zZs3L1+6tD5YsUnukM+8nZR2vLOf+mnC1c7+nqv8oJc+/M53nj93tnSyvTsskFJvdTh3w8m8mE3c3m438XlebJ3aSLPVqzf2rly7cuL0WTL55Zt7prNSVX54/Y07TqxXs93x8EaeJhsnTp44fffq6hbm83JWTEsUZCtKSjaV95PhdoZZ12L3+hvVbGqJuitraW+1dJrlWZJmbC3YmCQpXGVteuLkqa2NjdOn71xfPTl3uDEu952nwaBg48FCRFAiVRECWWNn+7t9iJmPElecO7Fx7o7TLz733I2dvQt3vQ3p4Or2aHs0o7yPtHNjf+w4oawrWErrATSIBYFEyRP5Qa9Tjkd+VnQtsRtWs9HpzdMr3dVnn3k+7/b76+uTotrfm8w8IV+ZIy3DVgNMMb605q3GlIQHh0d7UB+YKhbniDZ4OYXkxxBWZRHr1aiwqBFYr1aURQkB9VETzlG1ooHxaVRYhcWziJUYCMtejSiJkniIUPisjqXiwNMQYVKFIIwuUkEIK1EiAUXKeuTfLAEZBJAStx40zI8hTRORGoKJyQSx9JR1Lm8WIpCpg7qWOMQU0F8iCXcgxHDV5vNRSDzF6obPjKMs8mVD6mhTXtu3av9XjzjIivCa6idUrj9joQQKQhQRIgpeEQ9VViEow5OGfz2pBgwe4klE1ZNU5EtxpVSFeCfeiS+rcu6qonRF5UpXFSJeQ2ItImttkiRZ1k2z3BhjTWqTlDkhYmbDbNIkNSYx1lqbmDSjkAeCDLNlsmyt4ZTJMtkYgUfMxDDh8rEsrMlaJp/CTNtYAK32ofY5S2+Elv7vTcvhNeggq2nJiuDovFGNbighCGlYSIJ3IUqxUgDDBKoaUrRSFFoVL022aa8qUKkVaVR85b2LEp9xjW/1g6j5ueC7H2fKN+cQGVAQCTVMfFiYMno/2BIxG8McnYXtsbPUPAfHLJoQXYK3Kcbj/UceeefG1kqSsiFi2JqDf/idEBFlCbPB5596+amnXoVmZKx6AglByXsm963f8r7v+s6HiUCsTO29TbgEajgu0JiMJ+wP8cu//GuXr42QrswdBCHvSfNMHKwvhiQ8P3PK/sD3fkcnhXgYc8TEC0XwHIXvBFow/cHnXv3EM6+MTU8oj91GQ3dRkHEzybp9yTrj+ZSMe+3SS2+/5+x9Z0+hQhLiagGNqr+12y3KAYfOxEIsxFBSBEo7GMSqrGpVU4NuTvORP3ky/5YPPUDS/8y//TNr4Ml1Bl2T2HI+H2xsFNO5zOZqDIjjleoOHTyiJsNstJdXRTbe+esfevTdZ08aQgYw1Eq047XeLAEABU+3Tij5zDX5p3/wmSJbqZLMZFz40pVlT4sPv+vu9USZOCE2DDpqLBKYiSAoLZ7dLV+6fmPqQVlH2B7ULm1qe1T5klF8itAM1U+kpEHPgBnwZVcn5wdV185FS1IlmNTz2d6WJcPwhNY8pTGPcdyLNaoIbcS90V8O/4vwfGjSyGyr6TlLq144BBzPrf9/YymKQmblFy++9ui5/kOPfchMR8Zpr7MmAudcYGVahhc3L/y48HMnk3I2mc4m6qu0K4NVZ/r7M51bFjZQNkQsxJUKwZk3pXUdLIdjED3j6Uuv9EX3PG2u5ZtbZ97VebyX5QkZFbXWEJGIxBhQES/ltauvlqWblL5EVphumm+NvHljNJ0qCSf7e3s8KXdvjAab2Xd+83f5yS4XszxLZvP5pRu7N3Zc1c18NpiLmZZ+WnrvZq++emUrMR967Ns6Uk1H25bRG6zulv7i9WHhhXJbCrbHw9SSp/lLV165f6t/9vy5tbfds79zc3NtdTLavbE73Nl+3fbOnDlx+rq/em18Y2Pt5Lve902mnHYTIa2ub98ce9kreaJOPZfOT8uqFNnoZS+/ceXcPQ+snThRFVQV7sSpk8rm+YtvCHWNVv1uevXK/jMvPHf/mRPvee/jRt3q2pZyfzr0rz3/qkU26K5KMhhO5/OiEsuzebW9Mz2/0n/oofenMp/Pht1OVzibTCadzISEiGVZdfK8LEubJKv97nx/2O2uXHp9e3t7e7B+Yi5mXI52xlXSO2GisjEzs0BLL25e7rlyf633trc/PL6xstlLdm5ct1k+qVDazkwlX1uR3lpRkk0788LblI9SW4rqIpH7CxavlZcUcuny1dN3rz7+yLd0kZCT7e3trN+bc1WqmZVlRVZNmiYGFZMepUx2e+UwNN2oidf1i1GrHJa4RkQSdbgqOPJ8ap6MrZ0BjAaJF1JlX4vSaETZJVghAADSitTBx5FEHFM7KVrEF+I6H1DQvjANC7426RnKMaOkLhbsehLnwKJvjtdXDWYHxzWQQmQXEC2M5rdxptUllbmDRsnSwnDLRYKW2nlRlsJhW5+PY4Ac6TSN9v0xt1iEtDaSmMFtEm8enDAiUK5F+r04CqGT6km8h4hW4grvnJdKvHhfVs6J9wEPVlFiMsawMTZJKNBryEadNDZMNrjc2RpjreGgCBZiXhMQohBz0B2CaSIKacmbVBuCQcWlJscTFjlV2h6Ppg3Dm3nrgbqFd6v9GuXQHnoRrh0/LwjxqIONVQGNbR6fCxGwDypWgTEvXhyJLgnUNjSbIxZvaf0bqnUrlnyQWk6yBI3ZHXTtjEFtPITkULbFE/eHdqvU2ui2x88SRkcQ8HhU9nqdz3z6yUcefjsUTFAVZnMcLlh5TQwZwoMPPsj4hJAhiVHP5WyaGF0ZZN/zlz/aX8V4KP0Vo+5AxdoVICEWoCzx6Sefe/LzXzDpxlxUgpw6QTWwLRlEEnF0AeTU6VNJAuchXpAc26satpF4gHDpjWtF6ZBzbIjmawKBPIuQKAtY0l6PsvSnf/YXTvzX/+W7Tm8lSZwViTQkZgF5qR2Jt1OUpJpNitKf3tgYAW6OH//eh953/4V/+L//ymtVWZQjzy43NB3vdfr90mV+uE+rA4BAFFpDY3ojkAqVJZezd9x56r3veoiB4M0hBbHWADEBUDaqngEhdsQl8Nlnn9+dF9QzZNgrysp3TCqaXLq6e8/dJ3JCsiTZfeARACAEy7zt/Jnk888Y5DCJa31bv+KDs/SBK91uq715EUCEJL6IyBKNZDYbwYY2O4Vad6cYOIIWh/7w5du1fvPXHZGKL+9h/mIVy5ywtaSZdm8Odz73/NWTHT+/vn1ydT3dm0DgnTdEw73dTpYQqRMknRXKOyPSq/Nx79SJsdCw1JErC+54a1WJVCHKqhYsqk78l0QgPFLP2xPyjXUuy346ePXm7jQZd4GrO3uoHBHleYeYXFV5kbAoMnn4ZH80nngj+Vpv6/y1kb8+LMY+1dS+fv1GLrzaXbtxc1gN3Wuy34HLyfpqP82zG3tSdtac6c81vTkpp9Pp6mC1Z1Zm492Lr93YyhiTYaLeSzm5Mpwqz2xX0+5UMKkqMabw1dbm2v5w94Xda9l02GM6ffLU1WvDnRvbhUDSTCo30zFn5vp4177hM4JMpv2Eunnq0bsxGe1XXlfy8WQ+nbkKMGlSkHn5yvbuqCym25srJyzx/s5wNJ5NS6KOnc2mg8Ganr/rC1+8VM5Wcy0s/JWdK3Of+JK6pruzX8xVRmklnJZuLt6rSa/tzz/7zMVkvruSmW5uL1+/qTYzibWT0jIqV7nKeRkmNqlcNR+NBmna74z3xmWV97eHQzp1ejQddzdW54VntcSkYpTCSqmVp2E1/8ILl66l5VbfXr1x/caNG1l/ANupDEYVJyuDm/vTMSV5f62qtCwd7BFLJimsMOoslcPxjErZWlsZj/c/9cRzW1a6Jl/pdIvCbE+GzmIiyvmq99aJnZZeG4UriMJDmVRrbfXWN83H9q2lHQqojZVjD5iA9ZTB7RSt0ljYwl4Ajhwb0SA9TlwzgFUYYFGCMIEY1bxo7qUxmA9QTyKNY9BQTZ1bHit8QDVfm4wsi1PC07R/FP4NWGgzky941dG8CJePfNA2wNHMqweo8F+Dclt3O2qiZtSxCvWfiyLR681R5TPcKKiCCisUjhQKtUGhHwpIAoXRkDaBVQAXtrReKu8q552rnPMuyMAt1YQ5sYmxidYyOAATmSZlSpZ1op3nQWwQtNui7mR8m8oH+dK12vqiAaoq2mhEJOI5gHb1SVRjaV+TshhnDdmm1edj5hpSRL2LpRyudbhIy46PcvKiEu1QISIXteSFRF1IkRZu9KVV9fDp9TTVGkTcUgc62IganWDMpjnHe3dsRerzj6tPp7uuOvnME0//2I8aFSHD4o+UDIilKIqJk8FK984zdzIZ9RoSwCm0LGY2504ve+TdZ6ZDJMdkS1WJgelCEJAnTEr83u9/Yu5stzeYViyGmr1X42kgY1RcsObX1laTBN4HasMR87xSdLIIIQZsGtzcGVb+6KZQQt7LxrMJKthexzK/vv3aCtv/9n/65Z//6Z8gQW6QAEbJBiEpBThEAtxu+HKaZ2nPjKdTsXlPyXh6/K7+u37mR3/kZ37xi3vXHeebp85dHc5nY0GSp1ubvirb1WuKm5abvR5Nbn7gXe8+3QUUHQKVFTGa16aqytSYqZ5QIJ0DTzz3yomzd18czldPbO1N9rNO14iZTydX9ouSTNWaelvdKfisKDQmASlw4YTJ3MwgJebKfw24NEeXthrN4SgRCyZqSzBQ2x4PSBSBEMTsmiZWbb5v2/2tqS207BKG1Lp3cL42cTlYNg4Ol4Oow1el6CEG/7G1qo975wnOAGzTtLvqDV2b73VXzgxtz0+9FQ7uLF7pTkMIkXPlzDvvtdfPzq1dm0+nyhOflZR5ytXX2sYBOEEF4pgZ5dCbO65qx0xKPKuq+bxaIXWlEHEmYMopYQAxe4Sm4VQiMux9MemsnOqkK/uVef7KcM7dIl1ThqeCoN7w1Mtqf9VbNy3c9t7OSndA3EElfuV0xflIkj1PFaUlFeN5lXayweqJiS/G1/dT77odS5SUiZZsS5PONRlXOlWoSRK11lv2JrMriYWKXLs2hZoZ1rtrfc06+57FGNvrJV3d9UXiYUxn5oRHgDFVti5dnlK6P5O5Y3TS/fH4ZLebpVsjGZo8vT4nN50b9XlnJcuyqVihfC4m2zidD1ZG89HMJ5Y8s/HGUmpUjetlQ02GHnMyzqTOV0mSV9ZuF+Mza3eO55PxZC7U896KZ0PB2rCx/1QC5Nzt7nu/PxVveoU3yebJfU9TqEwmbDeAaOKpqKjuj8apsaaztnZy/bUX//z6qFoZ5PaOewqkc6cKq1k2dOyTfDqbFwZqk2A4YZG0JZBcmQUcI1RZyIBAjPGsXE06bDYn5bQoaVRWRKbSrFKRPE2ytdHeZHc6QjbwDgIiFQRmTdCVF1VSLCz1I1CNAEG3gV5ubAhPreORaQKAvXCdkzVA8q3TpDHlgzkoTurdBaCwYbYR5dpxH0ZuWcWMWkaFVJqQJaktQopGWJyCgn5XVNsIPoEwO7UGlcHCpAiZemNUEaEWNwvofpSplrapZxJGrRxaDzYgejvb+sR1y7bxHoNlwnBc/pcEdoAv0c95i3DMWiASOAQQsC62aqzxlkEbPjyp955EpMmMKx4oSbyQkEZDHxSEF5REKynUS2KIxHt16sppMfa+dL4S8fM6MxoxW2OYmY0hGGOYOSFjXKCECojJBllJJiZLTFXlG3CXVEHB38IgIjZQCLEh8tCl2b52rjRLnqWF3cBkGvo4tVY9bU2/x0YkLHG+byXLUuc6WHzmOqK1dQUFYBNu3mNZSoOyxyjV1l3COzMGJOoh4n3Y3xLgxQdRf6Be7uMqT+pa9WzVP7DGa2UY03xu8+AJBrVvCgA0ylMmyYJPH2T72/6NyOggaswG16oDsTmwINbilQAtX2e5EFicWNN58flXX3t9754La0R1GMwxP+p3873hdDgs775r45677n7uhetQ6XY748nkxMbaaHT1Q9/6LSsrCPpG6moCc6wVUHehUl3llIwdTmV/hE999pnB2unL14bZxqanpW1MmE9sQpNR0clotLd/9o5TlsGKvGePsUnEM4XEgEJMRMMRXrr4miOrh1qDYVRVDCGlfNCdT4Yzq/nG6eH+9eduVn/vJ//hf/Vf/P2zW9hMUM2rQSK9JARj8K3teCKqoy9EFUpWxHUyK9DMKIB+xmNDv/gzP/ZD/8nPTojdaHtrZWO3RElaljNjuAXFBw8kMcimnX6CzZXOhx99sA/YynVSWwW5GlJSowCRqbsqOdUSvK94bqd6fTi9mWTZymAymysbgXGA4+wTn3vuex69cB48rWZ5koWWV1UsNA6kycJugNMGpwbZlX0pPFkbZwIheOe0jqs5Rsz0WOJN8+JapwLAm2Qejo7OIEzc6mrgqKp7OxSO4xRs/r+Esn/JhURFvKBQARGTHQxOesp35s5kxMrhVZmg0QuwYnVtdVTOb5R7e+N5Yey0AjQjdI0mEPYIs6nzJDAi4MA4/cprql5VUXjyHhlnBQHGkpjF1NzgLkwW3nuaeBrtVrvzuWRrc5NXlHoWcOnVF5YBrrqd18fbVqlz6o59zVjZqPPEe7NiVMqer0qYJOmAZFx5VXY2GWyeFi1vzqdeVS175ors9rSYCxVKzMls4t7Y27731MCRZitdEnhigZ3tjx0nxbzcnszmnVSMKcEWFiSWKYch5UqkLHWaiiMaz12S9seTscnzGaxRSu0KfAXD3c2EtRzOJrOJ4046nJbXr+6tb24kxq7waoeVfOHVe4DIdvJ8UtC2w1ioUPHGEFUV81ANOZtW1ohNsz6UPVkh1taQJqIAqzDE1G4xR3Z7VFwvy2xtc+6hRTTYpF56BfDEV0fjopidOnWn1bJK7fZ0WlHaXV1zs4qMrRwqUMXqYeVW3YONMMCOHcMKMZjmXlJjU5tXbG0pEHWu6vZXCyvDyVTKyf7MTZULXyLLtdZPDq7waL61DbujlhaNCHpzoCG6wAjZQ7+g+FXkGUPU1kE+yrLgnouyVwIYouyCfA2rkBJLHcOqC3E9UxNsAnhvas7HcmzJsU0H5Xo1Xj5+8EN8wqDmLgzowuwOleLg3iQoLRqvlp6sL/c1B3uW9lrLL4VaWekOWw8LaSDEqEMNOYMUKkG8v16iGlReBXAsAEmT44dJVdRL5ZxTX6mqOO9dyPo0d34euDRJYiSSN8lYY00g0jBzYiKgq4aZDDEbsGG2zGw4aZJnAVBiIsvGLEg1gD9MNg8nB44WL159cwrH8PSDv3kL5ugvvURTuPI+5ljV9vGF3najm0lxGfIxclW81HIUIhBfY1gLGRxRNYZVVWI66sM+jNutpx6NZ/LxQjSH3V+hWrdz/lFFeTYt85yMyZ7+/HN3nXucKAhyHIflS1FUa4Nu6TCaYGtrvffaSCWZjSerg8Hezhura8lf/q4PBxPoSJst6u9DK+dsnltC1jO/9xt/OBpXnV6S9dY82QNxk0QwbJxIliVE0u927r37riBoLreYrqgKC0mw867vTqdlRZwuNw8hojKY+yrrd+aTfdPJVP1oWqxs3X1t+8p0u/yxn/q5//Q/+Dsfet9mP09SslqNWZyxzHy0taoqRKyqEqFxDisA1ADC5BthX0GnD/rf/sF/9pM/9yvP3xhVZQaxSBgmFTnKn6KcJ2kxvP6eB+65eyNNgA4ri8+M+jq0nxYitxGSH83nWZ78/meeGCqXaaohVIGNCDNBOLmyu79TYifFuokbnYXWKjUxBRASqzDgDnB+c+3ZvVkp5Mqy4lYMBnD0i/+aFMIi1NMGQoUHIlkwADExiMWgBg7q/VbzwKraisakKJrGACQggodm/2ZKVSViVWkA+a/OY95GabyoX1muWSF4oUJoNJlO80w8XOF8q1saKEMQGMCjqRgtcipM4oSUbMI943NbsbIUBkoiDGGpyLGwSPJlC3u3Qo2FAXHkEqo8v7q7AziFFdjFDLKgHzBD3WQ+6K/arFuRVpRWlHpiIVF4hXpSn9CLOzen810ys1UzcLPKiDUoWSGwTtmRITJkGaxzV45nU4bLSwPIrJh6eLIBNWamBJyRsSKmu7Iy3du7vFdKOYErhOCRCmwv73WQalXtTT0MC2gmAvIlV6xIXMowZEyVaKFe1BvuscmQFEjTm6PJTjFLwcokhtNUUnHFtOr1+9ORp87qyXsuXLx8xRjuk83Va0kO3rEAhcG8hJlognJG3U0Sb6AMGsGUYHZkHMl0KoCnVGAV6cH3RSoUsGixAiGZC+aUdZPVxEBc5Z0zy7OkZ6ycOnn9xnXyvpjNZjen+WClZDO9fGOFrWU7d6iYvbWSsAaStwgOFVIEKSQiI6whw0Xh/VRlZzxl8caJUaRpun/9ujPS7Q90MgdlYjoK6wVgkHoORAgNWSKDxfwmQ4b0CMSXNCV5Fh0AACAASURBVOpI1nNHJPJGM11AIZMrxDQCORIMwQbpV1YovEJI6jysCvhIww9kgsANaEmsHKhPDc8vFNmppqqHb5hogfwtOReJFseb9DcEcDDNucFyI4vTcv2z6GTHwrhcRCKhXmJvrZ/95RVpX7SN6ze7iJCOpPVOqUaHQrLbA/M5KUh9fEHx5EhwiWEfjS0YCU5SW/PCiiokoIdA4XzlvatcIZX33ql3qiriPEqFEwIMiMgG3h+Rie6OmJ9VajjNpnlA64M2IhGBg/Ehcelhy7WyitaUUkZ9hboc9s02zbaw5o9p58amaMKajzjnmN/eXlnM52FuVx+HD+oRKeJiXYJxDw+AWMuyXFyE2TsvIs478fGaXjzVpryERVEVJKpxHB3Iy34LuHHpq2PmiWWGcZtsQ8230gpvbXurjtOPPA6Pb+5FYGs7EEcm+dM//eS/8z2PRzj2VpsTASFk9nzgwQc//+RrlaiIzKezyhWPPfb+Bx7cilBEsJ1iyGi8cRjQBLCllPDFa9ubJzd/7Td+K8lXrl3bW906N2Uv5FG/WmbygFfPoF6eUzkZDPr33XefIZDAC47SUAm/FpAqrECcmNevXJnMKrb9BdDDiygcBUASmDgC1cpnK1vD4dSsnR9O9sTQf/5z/+i7PvDIT/34X4EhW9FWb3ALG4mIQTHztxCbOMrDADAAQOJZQA6AH6Pb7/74D//Nn/oHv3ijHCvnbDqaMHuoFw7cSTIB+CDAl242Gn34sY+eAgDpWOunE2OZrRU9Av/oUDaT+UjwhYuvuyQvw3RhSEMEgsKT3Z4UV/Zw/8nQ2WI674MN2rjjoBno7Rfu+PjFV0MusTY/BQu/XOvzUnkr7dsFU+vQfWz0Li0R5L+i0tCOArPnTfV05eudETaGt38FdVCCZ4hyMtgazWfQJFtd9d7Xvi3xEZL3rDBeweozEvZShj9sw4BjDaZXlDf2zJC3Aq1TBizUVQpHoLQjJAKrsM202MjGOSILNvlaQXZnVhTDcbZxUgkSV+XAH+BSBeppZc0m/b3Kw6YknISwHeGIvRoSppJEiSTNxWK3KpWRrm2CKXIPBCqkQkJManZ2h1neuTmd9rsDY1eE2JGF2uu7w67JOllPOHGcKYHQB5XeuIqgPmNlD62MlMQADzqd8azM19bnxdR2u47MuHBpkkpqxkWRCHf6G2OQz5NC6Mb1HXR7Xnm/KKZisqRnkq6wcyKVq4QtshxJrsH8AguFEEoeK0uladoXAigRWNUUsFSnumisVTEeEK+AsnO+3x+M92e2202SxCucd+11SMCFcmnt1UnZSXvod/ecr4iS3mrpRdQ4EgdSw8dB8pHQSfAsXGdelKA4S5g69VlHVRMPiM6JzEZHGJOqAmm308/Sflm6BpttIdk1MNSMl9bYaT7YGkcPpRngIa+TkYMMPVKwR0DrqYXokwJm8ZnEB+AxBrxqAOzZV4XWRkbgySwasjYO2ilUjwQHD1LV63Cig6dhSfAgLN9S//zwJBv+WkyJy3c/WBPlt3bq/5LKcfMwyUGjtKZoR9IUAIWPs72K1kSOxvRkiFUHxCSv8C6idOp9VXlfeud8WYVQSwCqTskjONmJmA0xEQzADIOYQ5TRBKkq2zRvZdZiIgIZMBGFhFDBjuGYTqvejN0m7ZXf1O0davGVrSOHyzFucDnwWRbbeKlpOQSJCeQiZyaeIyHQL+Dx4T/xp158Hc+q0ZSXevpaWIHG0GGc7ohykAATnTe389SLKywa/a3xeSihNxhU5UjIXn7tegzJjvvuo2+RZZ1ZWUDt2op54G33FuWkmFHe6ea52mzlPe99OMuPRFGA1lZQCPP5XG165tTmx//4hb1xMavs2bvu3R5H5pjUGz9HsReRSpp2pJz0ux3LEehWL8fuOsgBkcdfKK7ujKZl5bvH2PEslJhyMrb9vpvPYNNiXqI38B7IVsZufuLMfR/71DPPf+GZn/jRf+8j7zk3BUiRmRBlETK1+Xq6MAonECVwNGNMs8kP925E/Qk43e9enePhLfzIX/u+n/0//qlN2JJQYmZSqYhNUu+bpBNs1PW4uOvO9UfOrxWKrnfWJhUqw5mKUND9lEWogxJfnw2pM/jzV3duODs3acVsmVQDdxNglBY0WHt9d7jXT7ja31jd5Jpg2TLEGeAooauSkzm7uZHxRUCsMeC4hXByaGb8OhUJpjwCUNEsUUQI0Y9CjBCjxAhek5a7UTVaEaQI4qKLjotoxIv4BXWntlRCsxmwl5AnPSQIUQSv5QGiGQJkTpB6sOmXKuhyVDk0GQXoCYitcJgju3x2XbFgHwTog1EoU9oDuFSvjYuaFFELwzKiE9qXgVebMLEniJHKCAAN4cnKBBtE26JNdnj2PAa+Wwo9bE1Pokp5ZyIVWaPagYoSQ5mWO2OIk/HxbXqk1mxuVuQBrVNQ2AbJhDHqpYrC41YJLugMhAAgVSHvwjzHFH9oWQizEgdL6GPE6GeVCq+szlUCphdzkKwO5kAJQZKFZ/QwQKZIFfDMHAShSSAW4JkKMlsUFcFMvSJNOUnLwFTOMq/ZuG4qISKGBinxzIgGupQqJTAgkzFBYdRViGtSwPaU8k4JoXxtRiG2gWtnsdRku0WHUQ+AAxqpxkxmcxC56cw3LzaoPtXTyWgyJpsLZFIn/iCwE52H8Akb2YGqTqP4eZO1BqGTkcLDw3BswhDBrlIqw4MoAVAF1BNQD++V1VCeT8C+mIlGVSsfe3mYj5UjmaLua14XPPhGgiZ0fABYHAzJVo0udN9rBFSNwjo1ApBSzGgTr8+ufkuA92Io4CjiZ3OrkdtLyzbCQkgksN7DDpSaVA0HlC7Cu9MaI6/P1tb4b5bP5UwTEXcHPEd2DVE07gEOaioR5qTFrHKY7444xgHo4byYdTxB010Pfo/GDNHFNdtTVzseSXTZFgyTf3DYLJ6S62DIkO+gpTtMBKr3UXXTsXoCvDgfYwkAeNVaroiE4C2DBZWrnPdQcWURRGmcc95XqqreixeFFwKRckJEloxhZmO4zgDF0JRqDlsnzeo2YTLRG6YEa+MIFWIg0RDP0G5wavpe2DAYHIXHt23JpW9xbImsKsTsvHVpN/jRHoAl3RWN6YBQ97i4543ksaXXJxpgFl0Y8YArSyJGyF5MgjjKEeaRaj4LMApTZLGrKixX03lT2zqhMYfJEWjz3eON2l0xSRdcDl1sgyVNUwA+rgLcjE6JHq2wUkApjhdpVmECBdnWGHPC7ToceAVRFUprPfLl0th6rFK5IbEjta+9fvOll/bO3dHbOtEBFrozMQSl9tcpqjS13qFyeOzx9TxzsylBdDYbrW7k3/0971/cheLTHGiZMAr6/f60UEf067/+b6oqz3rrYzdTqwIhGCZ4qKcorE4khnhvb4+ne+fe+dDWVqYKVRhzzFafhOFC/KFnkzFevb5j+oOyDsJCKx6SWJWNiiLLXOVhEnCgBzkYhs2h6Whe5P3TVyfbP/0//uo/u+fsD/6lD3/HY3eUHpYgRWnFDTrGQmazuU27wlRx1KBPVawGJB6EZnFjaBDjN5ZwOsdc8ZfeferX/vX6y8OqmBVqOiWxI8+G1SkzQ5mFcz87k47+xkce9xU6CYwA6qwlwCmlGkKbmMLcGNSBbDYYK/3e05deKWyZpZSym886G+sz5wARSKm4VhWf/MLz3/f2xzqiCq5DpKjuANqA9KRIVbuEu08MUlSkVci+1EyHqDfwSrLINfEmNIrbdbxSa9UI0afBFggzM3SpWFUlJlY62kDWBbP+Vjytt6TcwjHwdYXtb1HCKuvjsOcDk3/9mZu+4QnUBEfVsGWgFxy69K2ySX9ZhWtrhlu8vGWMsSl1MEf4DKDV/5ot8KFeGxK5tf5sWbRHM4yXTw71ihEnB9IjNzv7xZHY4MEuawy1uPD4BXUhps8M/4YFL7bDUhHUriQPLNayuna0ME/DjkxiHYiXXlQbsl1q2oBLHVv04PhiJfiFoGQsnugYWYKji+fIjg0lAvN1RcOlqN4WyKL+wT4Iyy3aVwAWvtaAwrYt+FpEMnrbGnVtK4AsQfUIPSjYGRLIXjFsV1S5xdblCCsqAVAHgGuFytsvS8ZUbdWEh1j6Ug921GYXEw/WQ7XpikyRCqqLC361iNNfuXgC42DKuQCk8HI3i7KhQXQytHx4U9HGkfq/iDaEeIYCEhOywqtIrVooBF9JSd4FmSxXVSHNk/fivdfglaPA8TREwsxkrDWGW8GRkR+PZDE2bRPuycxW6zA1xDQ9QsociFJ1n8ShncxbW76Klz6mBNpSgxxp43DwnmIs7xIqD8DLImlrGPRH6p6hMbWXjpBCiZs3ckSNDs/2kRN1JAFG+XBoZvzmmN5+3Li/rdFBgpCpVNLPfvqpR3/kW8UFXXsgoOM1Qy86JQgEGGtRwjDO3Lk5Hm6DnGj5vvc8xkBRIEkgzf7ykGsmUEbGk2ml2cXXRpdeuwHTF05KLR2xBuZlbcSDQ7YLQ8zWWjCfOrGZGIggIRzTTvG5uIYlhorre+MCEDa1md6qjOGaERRMlMbSaFwT7CitUptl+dSVn3pl/4mf/5VPf8c3feSbHnnPA6u9TtZHNq3mmE2yJCVPBFJWJSVxoqTOR9Y21xKmamoCIghIFIlCDf7jv/O3fuJ/+MdiZDiduTwDM4DEZqWKIRhFKmUy3Xnsbed6FlWFnFiripaVgqT13hXYL/x1b1+8Od51hruWiAYnTgx3d6jXVwt4VxlZ29gYerlWSSIuzbI2dtKMizrEHKRIgA5wdmvt6l5ZaUg4Er8korj7+spI2l9eaXkLeSkdQ51JgZRJQWHGiwqvARvg1ky1PGk1rFNemHrL2E897CmkyvNi2MiCUhmuIkfEEFBYbKOUS1sn58svbfi/fRDHzxPt0jZHom9Cbve3R9RlgZm9teWrcc2vbmzD1zFw4vbKLZJlfr1Kvak4uuni1gVAa3q6dQniFZF5jrpXR6VhUlXWQI6KeU0bez3oSEZInhYHWcXURn/N69X637jTIAnhSRGSD5lZa86MC78hqmOcxB9nNdGBdevIc1rznpAAhlv4R2iDhmBDtUET0fHGviAEu1GJgjWP5ZRP7fq8mY7BV7csccFj5qv27iTCCq3VyAeTUBFzVIpqeH2oI7kp7rsk7LsY8OqAetmAB2s1q1FedagqdZWrCh+CLcV5H3aOQoRgpISXa02USCYyUf8kzswGgM1bsUPcwGMM5gZ8NRwjvCITiORNcLI28t1OrvcXbjpq7AupQ1ZAesDijSY7MXzVDBNxvmpO8M4tXOiLkRhLPRaObbE6VQLZVjqnpRMoAtTEFASOQ/S8aQnmLqKDiHSJK98Gg1pjp12rYwbTcaNswZWPgS4h54D/1Kc+83f/7rd6QWLNwjtXB/6qKgJZgEFgY433uP/ecxdfvgktrCm//aMfTFKYJNbnFkOcCRv97tUR/uVvfWw4rtj2PJvKOR/2ylqn9YqirWCFV+2lqVh7/vx5VRiuvZ3H3EWweBfDES5fvVmK2k7qlBW1tWOMAlAhZo3eP10YgZFoLUTkCQUlajM1ueeuL3r/+F999nf+/NLj77zn+z/6+HvOc+rT1c4gT1KZkFUiiGcX6FtOxS5hmkvFExhIPTqEh07i7pObX3TZvhJIkrxbTitrLRtD3ida5n7+/nc/tJ5C57KSMztyzicmFUgQwTqwBniAO/aZZ6+9cXMXlHIQVVJAWQuH3DIzRIazyevidyo80F3xUNM4R48Y72EJ0JzogfNnntl9uZCksXCJqUkHTkwq+jWY54/gcBIhUAWYl7IQKTg41W/TMv3KueZvUmo/7jfKN8o3yltVFpSJFjuFm6WshuEDxYJRa71TnX+psaEW9npLgibkjY/fSrTvJYaA0DIlF8GeC9rzIStKbVMaFleUjUfBGlP7v46jp34ZDRGd4qExlg4etV1Y4rvr0o/+4pcmJE9bUqFxEWrtsloi5fFdMCLsx4HERaJwiII9yhCIclhF4sbPE6BSAABExFeuCtkWvFvahqlIQHmIKPJoDAet9xrfrVFDIgUbE4kcXkkXO9iDQF1dvlrukbe8tClMDW2Xj2SXL3kVDvbQuFVTAHCubIhq6o9D5aPl+mXUmU1bfOa4YRAQADCRaWnD3/rCi4+NihRwXPjKohxdheWroemi9sobN3Z30e8DcYsuh9tbVSGiqJiMAqfv2GRbOlc88MCFdz54wQt6FpVXCjxjORo4F8GohHP4s099flYCWVJ68RS89Cwc6H/sQuJrQAiZikkNWTp9cstyzco7zgpSBqyQhJl0MsXO3kSJydhIHWoDHEuotlm+CKAS0ng4VVc5JBad3PRXktXNq9Xs1//kc088/cy3PXLfR977wAffedoAhpAIyCVcO1eE4OFZhZkI1O5aUgt5GSAXDBgffPjhpz7xBK+dgBM2XIGYLUlp1OUyy2X6nd/8TUZxZ87zwndJma16BR+9VfDADPjU558jYzsmT5kdsH/txur6ieFsrtMyS9UCvf7KfHrjxmg26vbWFtv2ReOG5IKsNWlVNSVzbnOQ+7mxXdboQgke5K+Z9Ji0kpA0x1RBnIgXC8OWuPAuhkZTQNNZSZjMov9wCMZudYIG4lMELkPEn5qUeMRJwo2Iil9efEO2GRCzQlQCl5GNkePW6Bq5iYt4vFnrgu1z6Zg/FtrAcjQw/43yjfLWldvZ39YzSKA5LH1x1MdbXejggdv4EdUGd6xJ7bBTVV5wWpQVRoN4r5qAXNb2RMiJGliuVgTSniMCkiSoPBSGiBQGxLWoSMS9AJB6Nw+bhIaZHVL3hTlI1Ndy8qEIRwJVWH4W91xGVo5pA422I3BgjWyh8mBoXPSCtkwQKRPTAkW0jRou5kCAlqkFx5evwgx0oP0XtwpG3qGvxPnwaoKseOQ4++AeCauVMDGJr6XbBCoKp+KDrIbWyicAWEVVnHPOOfLOV5Vz3vsSTiBORbxIo5RCRDY1RGSYmTnLMiC8kmjKkwkKV7Gdhdi1lp14PoCYybVG5U0aeSMhRvoA8Lz0Z+j6LSjrLVuXj7vQYoHjowa2eM/E3pfhVIqjAqg/h6FXVSF0J2y0hCABsTZkxLkgNNkmTbWTohlSDWmFiYqiRI3EH65yBOBbBl+WZs27M7W+u0SDJ94szZMQfkAtKJ3CPHGkeyQMxJZPjKPYHwFMbRT0mHrWJxxjy9fxJ5F2oMHDL1euXHvyiVc+8pG7J7Oqm1uNhJOaaUgUfhHCxkS9V/Pexx765V/6VSJ697vv768iS0K9PJERbbhFVM+isQIKwOCTn3r1yvWht2uzeZn2V42lYlYwQ8BgEmJhBLPeqEwnkx6SjZX+2voq42hBsKYoG0WqcIEdenOvvLE91axn07T0JSAhR3V4Lma7sLJMzaAmavji4SQwoi/AeC9eSNnYdHXzSjn9v//083/0zEsffOzRv/7R9z3QQa8CxK+vdio/B8DMonqklgormECqDEnUdBSP3HvX+Lf+TbJ5yiog3hgDJvGy1rW9veKD73zbha10A3CKjI3xYihRSPAsCA4QvETAL71eXb6yNxtLb22A2bzX6VrldOqy0gM+V2fVGRZfyjMvXHrX+gOrKQD2SyMxGLuN2hiXxTjLBw9fWFln2VEHCuQRjtTD6DNkarirt18im4MPHYk1OeJd1/oKCxIbkahaCk7r9pO0XoDScnf8UkpQUD5ybL11ejnfKN8o3yhfTpFasAjLuwBqHV8AbhrFZ0JRjWAoKwzVy0wwpho9+HA8KGbEBK7KkIirL2WSB2nYAzR0O22Qe0RmfOvMcOyth0J4yZTXI0SUAy6izTkH2TTNdf7igsEx5KMdcAlwyOCuQK3MaBQRzVXHQFCTrDmTIXis0kiCqiBKtRCKD4Z85UQqX4WoVq++Qovbw2axzzHMxhhrbRPdRRzso0QIxJYIoOA95obC1HDl4zMo85tCtn+xyzIJyh0+gRuPShvACpEkUTUoBsvWivFefWALCQAfFChqxRuVmu9OJEftKJZuXb8vpmVTQRfHASzB50cMz69QP/4teLlKCLL4CkPqppPy6aeeffzxu22SHOOXCIZ5HAjWmvPnT61vdkaj8bd9+P0rfQBwGtxTdCAPKwNaZ48OfMU//tMnKBnAZp1sZVgUvpK01ysLJ0QKdgzPANizQNDr5NPJ/umtwelTGejNuZEeVoCAdF567ZpS5tUUkyl4aVwshs+BpN2LNmIExykI5MAxYEA9Owpinis0WBkl/JuffuEPP/m5n/qhH/i+b9oo56lnwDGHeOawJfD+8FszCqMAVYCvpnZrJdtYW9kpSmMTEbE2VdU8seO9G9357re//7s3w3zqa+qmEFkrEBUo6YHJl4CXn3p6IO5CboVmLPP59vYdnZPj8c46G1DZcY6pzJKM2e1fumgefQeldDhQRAgaQlkVDKzk/QoYAFtde7F0RCH8gCiEFH4trNmjX78QWJQoan0EqQYKKFeAmcDUCJtQ5B3iIOGmFlao+aSRcRjEDeutxYLHxy1kC2GwS7wMwZBo0DMKOP3SvNZsLuL2sXYD3V5ZUFvb9kotbF//2f7BNzYZ3yj/fykSgqXq/m8EJNTiV8QPgTxj6zG3iIBWBAH4wLdmRaOOKZFLw4EHbyRAGEpwiDp3zTAPeJbUBBuIKrec3aSNemWNEwPA0c76JRb4YXsiipxQvNjS+e3wuyVbhNoTRVDVaE476A+Ms+Kt6vBVLO1ZccHvD0Xr7RnrwZWhCVwGQuUlqjySr88ViHpVRCS+kmjKi3pRVRIHQFWd976svPfOl+pFvFeNvmhCoxpu2ARGNRkQsYqqIWJDTIZIBVbYAFbJoMa9lBmAbSmlMP4f9t4s5pbsOg/71tq76gz/fO/97+2R3WyySaopUgNJRZYSO5ZiC7asIERsJIZjwAGSlwQIkOcg8EsegiB5DWzAeXAUREZsAVZgChoohaIoNSmKQ5NsTt3sebp9p388Q9Xea+VhD7XrDP/9b7Nv85K6C43b569Tp2pX1a691/7Wt76VpEIoLL1iFqxIBuPz1PFu6J69EztznlrG5M62jloj5ZF9IRSnEO+dePEi8InLROK9ywdxzql6EmJOKc0hGySi0ZHmno9ZcuKp8OZLzq6xq3nzQZ9FVA0TpCyEVFA+epHz8KyjI6ILQOfS21S2gfodfnkfVgTFEqNgMhsbW3/5l8/85//o1y9eLDySFcaBQV5X2L9UXbq49cDlvY/99EMpS1TK9msOySXmYWCV/OAFffrLzzitYEZCLISW1MALiwKO4JkVoZSgGBKQePEP7F/av5iyG8NKe1X7UtZ6rZgp8O3v/6B1hNpABMamcZKpf4FEpJBE9OfAq2GxBgB5QSNooS7WsKWxF+tFHbRpdWyMVoNmNvkf/9n/PpN//Lc/9Rh7bJlafGPiwUMB3OAeUlo+wPhwN50nZqbNMW8PRsdqnSKwg1ixtbVxdOPlvSE/9eiIAStSEVfI2aZdzFP6ge+B4peffOjjH3zfbLzjLY9Zmsl8vLFxMoMwQBgNwHBq7Qier7/++EirNbnVRCFkHG4ZVarbTI9e2HnmzRnlOHSYJsSDqJwVb59Yf9YOxXFCGnZC4nOgI669mRBcdgURW+3FhcNpGLH+mZaTpayJa2X9+N60kWc0jnP8spWp3gXWlSTebudR33WO/n27b+/U7krC8dlHXpNB39PES0aa/HKKf8adFUYkV2PNcB0rrJLRSJ2HuCBGQYABmegtJF31wJtHdPFZQyHJgA8q4BQRo82qdgCgEAhHwkB08eMlZ80dDaOnpGzMfD1rbsmyr08AeuzbXuAwflz5q9iSwu5FDLjIKl6dgxVTGhZ6CyUVTgigjFg+JmyhSBn1UCVVFQfxUEfRrfdBCTEIY7nZVLxvnZPWhWMSgvKtAlFScDTo2BdMzBRNFQKN5QjVClmCScXco3dpTRWarKGAwCr1t1z26EdoPQLP+p0AhKT0jAqLxhxwoEtzJA1KzcjeC+clFuAlprSyQohFnFcR8SpJjFIhaR+QiHiN1WFpWfx02cpU1HXjjyn3WXP7z6Ew03uOdyrhdtv9g+AYK5TEgaez9pXXXr9+4/jS/pYqxHtjKy9dSCRCfrFhQgRijMf04Y88OW9kenTz4sVdJkguiY30wDU8XMpu/Wd+73Oz1kxb4UomfmI3NmqWo/mptbUm/8clrrmQTCaTSyP7wMO7gypWxwuO/MrlCgGkykQelQNunMwaMmQruzFy8xaEBFIwIAwRzgm+USGKtaRsCKmwihERkqCSLMnpF2NGm+Pj4xMR2Rxt7+5f/J/++f85b/7Bf/rXPzJSWKdqVH1rsaJfhZKQIAqDxbiqaArvUY+qNkWijKW3X3v9g5cv/ocf3r8MVEBFxBqCSARVDxWiFPjp9Uaj+vMfuHJz4idsxGNvg0ewxw0GF3HiAGBkAdipwyVreOtR8nNQFdDhHKcKt8lDkaaw+XyqbIamfmhrOHjj1EJnXqSyXXdVX0xCucMs9b74tJZejy4vX26zMZxNVKV7YB4qBEvEk+nU2EHAP5QAEpAhCEd+FXEu8difYrtmUVGWJUwSBlCF9wGwD7kB0aFPVMWgox1rSkPTYWPAQjtFBe22578oRb7yedMzpSSQXOrs3j3X6r7dt1KVJW4BcM6pqBewXrO9tJUw76rVcqQIR1Sy/FpIUWuHvnfEd4GRmLEKwLk5gKgs7qEKw8Z7b4kCyEcKo2oiWSYI4gV6Mqx0hBxyGRF0qk1Kdc1+WPiKQLGUZMTj0wgbvs5bwl+3rewIILgpvZJMQGDipo2GugAkFgWh83EKobng/sfDFpx7LSaWsx/72W7mipEqny6foKee2UctNTdAlj1aEohXUlnw8sV7hVP1QbY/3v6UkQwA4lQV3nv1DGFITSSqbevIu+ls1juWc5CWoeJECCBhZsOGmNgaY6wx9QXHhAAAIABJREFUHJUlE8IUfXk2RKRMgCGumCtmJiYQBYcfgHMEpLegd+m8dJdCe5buZ0nu0sXd3w0NisXbzmueeV4y51aRBi8LUSw6t0rzixCTGSimHQOAyVLSBJKQPCmiDoXEdPm213WtKtS5d/HgOaUYQNCDD3fDp3Q5IjIm8c6Jw7JqBb5ubea+M+BV2bKo2qKmdY/VwxSpxgC0Q+KpPGbxVvniiRGK93ddfCO8D/lDoNmAeTQ6ms2+9Z3v71/5xIVdiJfKshfN8AcTKWwulcXAZDr5b/7bf2SsGdS6uXFBxBETR/KBChEIs2lr1A3rIUSbRpw3xw6f+9OvmHp7c1Qdtg0PB3OII+HRqA1Xo1aJGRBIELnf29tpb7724ENVKxjlXr2mb7IKu7ayw4mYhnDtaN5WtRLURQcMzEGFeDgYtaeHdmDnbg5bsWVLFiGJPSwUY+0TIRgSBiqQeOImrPatYTaN8/VwBAAiL9+YDgYP/Obvfv6jH/rApx6ojHpD4sgRm4i2oveCpW3MispjZ4j9K5ffPPVmOHLz1p8cjLb3MGvMyfw/+1t/Zzo9vTDasFAiqCEYqJISqPPjwxONJ1AVUbMzMlthkFAQsF0BitpCFeJE1ddkRMkQmKuVNRYDRAWlSDscjHw7H/rm33vqQ//q65+11Y4zZIZjzMJQKYBZihCs8tdXWJ4jV31JEZUPso8Izq2CUqqDhnoEqkRkgwoS87uHbtOaz6tOIFjbO98x/SgEI87IEblv9+1u211cOq5E3xUQXe7zuSj9wksWiO922clRVEXeapWC5kZA3jEAcRQ0TEQBWEVVuPIoKPhGYTp0LrnyIQu+G9SKFqxxoXrlBYqpei1xpVvbR7JPOYKmkopmxf5nLL3K0b6IYLyX2O+6AW2ho5WrygWdeMQItiaQr/hV1KJxqiCFV2WIaCzXBRIV1UCVUa8qCmnbRpwX17StQ0pjFVGnIuLD8Y01BlAyQYiQrUnFmwixbJNhQ2ELE3Hw19kqLHNluI5SyCse9lkOdyx7FAWUu8/vpfU5oqvPrknQE/nFSdpQmqipXmPkSEOB+aBCSaK+c+WlAJIhKiKiXsT3aUWL5CsgsGWKrWaNK3xn1mO+LWluLFuPQ/+uI/F9i/UGPUHAQixcPffcK7/6K5+Agg2r+pA8wFlPkwjI2Dw2N8fve/yBrc2tqiKAg/pTeYLJrB0PKyO2mUzn83brwk7N+L9/80vXbp360QVPxMNhQ+QMXCjEwMFlJALlJQqrV0/job2yv8WLzObVl1VTBO6vH+Da0QmqSjqQmcAErmCq2ex0e3trOj0ZbGy1XqX1jW+rwTiPLwqAggxJ5zB7KJhg2VSVeIFSDEOQhbWXH7701tVnv/Tsd3/+gY95NQQiaWGQ4khFMyPJHIHoJ4r5HPN56wSGjG9Px9tb2pxeGFef+PD7toBLoyosCkNSiBbLmfKdKp9CKEgS9dPKc4ekXkOqqYhArAu4+o6GcAql3lubyvr2gZ3BpmFqprSxaevaz2dhkcsLfvxa/sw6wB5ARqWXY8JLqLxqGB+IKKxfwBSnaiImhKSiCMx3lxjqgSpYEyAQH/DiWjnV9lu3coypa6lkXf/qKJVNDzuJ5Cg7BWZPmH40EgZum6nTcfLu+/T37SfMlrp04DovjxCsq1QbCVZgQxprj30b01uLaqkxzGcUlATjg8/GyVkkJcrxtMSNCczNhYN3ufl55o6E7KUmLrnsxfueWJJrxmCbN1PSuCmHqEDHLMaoOPwkqeyVx9Q129fNA6V78c7cfb79xJD5GFTuGe5ODMX0wMtwWFlZeY618ykZcN4rJFRuCoeNknwSojOikGY+1yBQ0wmWQ0UVBFFiE+qzMhEsmEiZiSiqWRMRWSQYPqbiGWNtDSZly2oDp3mFE3/HyQcxbnyHv3q3bPnZLcW0z7b01jBj1jpOBR+8dK68K4uqi/gg3e+dhBLT61jpcYuqBsiP1+nEr7MwyXLxRMJdDiTffKr8cpUhr14HR0+RA0jc/bAMWz5xsYouf7WOwNOt7hMqzwqArR2JyJe/8sx/5T8tgspWTdsYZsNGVZg5KL0QEWBVRdUTmYsXLop4ESFSIhM44UFXV7Xn2W+MtqXFwQyf/cKXMBrO4JWMWqMx9lXUmyuiSeHdd77d2Bg++vAjVdiyfskShHfIVK2CgKtXZ2/fuiHVjjXWMRFBiUAGYBAD7MlCrfG1eBVpAScEtSQkQBC0qdLNzY8QsMxV5b0PdHfPDMARti5sXz16+8rW1ksvvyH4mNcKYBIpM5Go8OlDr/DEiqphHMxxOp0Sj5q24aquK+NPpjtG/uNf/dkdwM8cDevQkrMDnueRdb8zmkYUwAWYICBiy2wZD13Ze+Ha1NLIt+1i1zwbdz9ry6qDaPk/yT2dNfIUiZihyhIWWvHVDVQtie50yJdioR7Od47l9V2xpepp9+2+vdd2fpT97lK5lnDW/JnXuCvL0DsURmC8BnFJAHlwYcAo5fTW1jWgkCQG42G1g/EkzToGwjmHlaQLApTDRUe8zue5cxf3vBIltzu4mjMh3XvU1kVvo+8eCxulnVQBQaKfFpgn2CthkWCj8KROo9iwkG8C8quJQE+iIo5EQg6rqri28b7xjQvFdPIBlUDMKqrww9EwnD7QZpRYg56gsihYjScMhwMARMYwE1dCCG6H0h377Cuh93uTWhn4LaJdX+S+q5Kvvbeoc5Iy1kS8dI5g4cpHVF689zG5POxUVdlNDz4WL/s9mRO/KN8Zf0UAdcpOSYOvVG7hrGaIvBflarsJju1+nXfiFR97TSv/WENXuo2qVfbjE9oARqVSXbt6/PJLt3Y/ugfLrm3r8Yb3johVNeUBm4TN6+nkqK7rylataw2zSZkbiLeLxuN6OplVIoPR+PTEN6356rfffO3GoY62mgYCIYLTogj6mu7pnRtsD/b39xnQsrJ1/xqLZ2RE4Qg3jw69qoc4lXo4nk1n6UkJmulgbOfHNzeran58XNvBYGDUVnMEdxBxgZHveX4FDcMY8QoFjAFFQEBJyMpkekRDf/niRQUUDAWLzQumniXSnqJqiWYGxw6T+UxHtZvMLl6+0h7cGmr7+KWtp7ZxfNg+sTM+T0wiHnspQrLSzjkgdElUMYwAIrLA4w9e+eqNF059Oz28iXorhhcgvBbf/+HtXHNlfxUeq6UIiKFCQauhWMok0hoB8GHYp+JkCUCL/xKhqrpCem6xQeVYfa4AaFpPIQ8Zpa5oCoGRpt6oKaoCQED9e13qX4cqtj/agOx9u9esx31/Zwza83SiPot9cfsq+sTqEwmRruBUrPghwQqqwGUvcTKVXK41XHuVgQFR42PuSoj1cwyvSYs5q5TSlvE3JRaoOGs80sT+TdNtkCpIYVACYE3H602XR0tHCJ8XFNBWaUqWiFECMoAoW7OM7VEJihXknB4iuPbyiiafY5+EIvcbcEYuhMbdezdfQ2ZrjLTk/VkQYsHl+EZEBtK0M1bxJKQwBHE+0TYEIt634txsNqOATYoKvCasHgGPD0mUxlhjuWZmE1D5QJFiZmVDxhAZawyRjTAtEcBsDELVSDARSZK/WO7v/RuTOKP5LizdHyp3KL9dCleFSlUldHenFllMHGf+fJygMBPJZZDQxcQ7Jor5DCQ+55NAjLX5HYz/iqCHr5OxxvsAwPuSdDefzwEwkzFMRS5HOZJUpkppr2oHdX8fDqcp74ChKO5ERNndp1jtlaWcK8NVc+G+R6pC+nyWrnwxI0f+RveuFdl4vVe/m9Wpt39p0VtIjyVSmZSh8O305NR9+9nnf+ajn5rNJuPx5nw+q6oKXU/gopyWjIZDACI+OSO9HsiA9zqqB0YgCrXG1vh///BPrh5NZhtjV9cCAisbO51NBTwaD1rfqiorBEwIefhEYC/y2OMfePRy3XXTVV0yPEQhtDob8PBQ8N0Xnj9tZjTaEyYlqoaDdtYADVmrN6/SRvXR9+2/9dLLO9XezcPDemt84v3m5b0T75xzIIapk+uqKUzAMBTCcSCOk014Zur87PiRi1vTV579maf+fiPYHAEaymn77s70VFWgBA9qATF44e2bTluGG2yMjo8OxqS1NH/3F35uG7iwXcnM88CA1sY/F+9Gf/l/Pgg4959V8kCU3EiGhamAn/7gY7/z1W+MN8ZTUQ7sEeAdglPvhmXlMasqRBbKq8uU3WN2Hh78fdH6+/au272D7YWBZ+EVMAKWxY25/NPCi00Co2Av3BFsAtqK7MrHjYjBfXJqpRsZw48kILeRZp2QrsWW3n1bcA46mVtemNqFVgU7z9HMO+Xv3g3LlbMAhAGu7Akh5zgtggK1xmlRxDv8nFSgYCndxADcikqTqY+qqt6pePVOVVV961rftCoSykKJupyWSRnSUUNEVVUZy5XNxZtCgR6GMWQsWyvEgctKoeykAoaJa+UsaopVZLHb28qX9L1/c8tlkq6KuXdNKko+JRMA6sUnNzGWiIqsmpzeKqrRjxeRwKKLBQHMuRYkSTKoXNEZXdPRydgE4nXrEwBrF6e9km3FfCwdxtpvW2hzgMC79ve19ru9V7D+4z6rn3XH/0PE2AGCkIipq03xJ9/45vf+yT/+lEjdumYwGIm4Lmyy5haaKAqyfEZB4IYBsHjlLfz5V77lqmFj2FVWVb1KM5sORhsAppOpHXAWEUpFjQ2RB3Bxd08BFxJPVEHBuVZoj0lCidDdAK3HtRvXlYkMk+V520CoHm2o+vbk1qVL4ycf2Pmn//2nf/Cdt3/vdz//Ms9vTg/saHR8eG1z75Lf2Dh1TtoG8N0TZDZsvDqoEBtmjVnHCiay6uj0yDWH/+Q3fu0TT+5sALPGs9PB2AYvuLs/SYZcSQQQsAduAa9cu0ahyiBE1WvTPvnIQ3/9Zy5eALYIbViLvldTieYlTLcpNB4MhOe0UdH20EyoZa3DgHWeGeRdMVqxOOkm3ojK67qKw2cduMQeyhCuB5ArvIcVdKgMki45KuxoD1/vKVgRG4hGQE1iVh001gTIQMttylvEhfOdXdY7tDtUu79vf7XsjF6qyyNHYQvDhEZa/IL1dMEXtosY6YetKcrLGO2GqtBzGehc9qI8HAVifSEUgEztgPR4Nd1JekhMcQnnJMnEny16Ix3PPmuKI0PvrAB7wHBE2Kk8O1HgPfbciGUm8bL/894v4xboNOEGLxDoVTVjnxorjYcRUjSol6jPVxpQXoIYAScXxOXUSRJxbegE8dTSivPwrRfxvm3bViNhI7LqI8WdM1hrOaYKMpNR9cxsTU0c+PGsYCHWIP0W6ArJL2Rba5JqTheciaFLKV89DDh3yDt+RMR3Nt+tO0XZlxYEKLPySbCU2BqdVF2Tc6eqQSwyHk0Doq8AF5x4UXjvXaDF01JJqQU3fWWzicmwEe+JWKFBZQirXBNjS3Q8ucQ5qZIX3yDt3ZkIuaOf39IDUJfx+PTHys+9n67bv7AeKp8AjtBph1U9nbivf+3Zazf8xb3uJ6JqQ7GdfhnalcfvnSuun1mAaYvPfv5Lbx9O9p74qeNp0wR2IrEEXUAFwN6LMaxMUIl6iwCUmeihhx5qPOooQ0lnKNiEVzG48q+98ToZciJVNWxm8/HuhcnhEfxsd2Tq6bX66PBDY3z0E5f/gw///ZfenP/Rl7/y9Le++/yN45tvvYaN3b0HHjiYn3TXYtiSUZkDatgw+dBjSVVF2fDQNxcr/ys/+/H/8u99chdomuZiXZta/XxiBrVCQSoRsQ607SBLzAJ44OYM33/1ZVQ1G57MZnvbW1b8xz/yoYcJrgUqtHM3HFUr+3F0Am/7PM5tSkEUNhY97H8HEAxgge0xXdoeXZ+3la1F4c+jIn93rK+jDBsDbaHB1PUVwb1CUv8hmyHgoAUW/JYfg9DDffurYyF4t9S9F9CxvENQnjGrho6VHAyjsL7jt8TguEY/3nbE2+g3sMJoqsShHSovmUsZW51Tc1Zk1f7Qto4eeUa1yGhCAAyrzzk/KFwTXYXK/xhZAXFJpwmgkcDA2tXY6owkk7CJYFQZahIq732T9hNyrYYPACBt69R7Eee9a10jrUspgBrJLwnZJSbDQX7GAGwQvR9V2KpWAtQIscJSmH2UEfjTIDCRMZRLrvw4RIbPaa2Lon4ArDEh5BVWQWc72UzkXKy3FdhN6bOX7m0Lrnws64ouO7PnWJ9hISe5LHG6PjchuvgIq5Fcd3Tdyxg56/xDx+W4//mu+CJsa+L6dDp79tnv/dIvfjBnFGQ9rnWo/HoTULw50xZ/9KdP711++MbxpLGVAwXZzeF4OJ3MAYzGo3lzKiJMCwsUqdFe2tsQB2sD/HCb2KAqGsIUeP3miakGXtpKPRST49PBeKStn89u7pH7+Y98uJo1WxVtbFYXnhx88PFf+oef/qWnv3X1K99/8UvPPPvWS9+8MN4IOZPKRMRRA42MVcPKJGCIEcA7djSS+X/96b/7n/zS+3c99GS2vVk1elormUGFbhUriHJfRAomceqZBh640eDF64eOh8R2ezzyJ8dXavrZD16ZKvYMpMF4uwKwrrpbSNIJHV4pBhiphwjchsEReEIay4sEvl/OdO1EmcM1EDAALhrsD+vvzSdckRNkFmAGjt4DC+HlPplMbJR1V5XurZYAgYevQjWy0M6e4k5ak0dtmRwgQwo8JfAcMWqYk2hJVAIxlbUTMQYraVJdUKXFwsIaenPYHLO2RTuBC+qAfaIyHu0FDA4jaYJNVMGdZFtO+usKzcasgTLAt4Se9rDGMLeV0Ykl3nNqW7HP8v1EuJ68Z4xyUAxuFL9dPZJS6VytQIwALPCMVx5mRXA2EVJDs+6BRd57Y3d6pb1eseZQRV6HWeWCC8GnnTm56QF3X7k/APZ+YbuoksIoZfVuG587sfoqQJ5hwvISgCuGuNkky2BHQRQSawDq5JxzWC0O16vEAs8z84bIcqnIHrejKyGU9uwQvvLwhfIDp+rxIrAIg2+KXJflHss/0fcX4gUWVxluRE/xpkefWHNd5avGq3/L3L3RfdFA7poQFmAJdycgqY+HoyUHTsGq6SsPgCFxJSbQYthWBA5vvI+Dyqqqc3PnW1a0rvHOqbigaqKqqq51zrnGi3fOWWstOMDttuoS/mxtk2PHVTXOTh6bOt0iq2QVzJ0mCRORMoMo3yOWJc8yMpJDEaWAalP+3MliAFgY4vJx1uBAyzv3Rzxdd0D0x9jVaZqU07hCRTMfJ1PNHGsVVahPD1sgiVtM4tv56vOmmgwA2qYFeQaYoZ1sYteqNE7H/U2hTmMHtXcKEBtrrYmrNy/KnOeGuq6AWGE3JGkGiX+QCdR/ItYlbnqIzREZBYNy3bEsU0flC1D+LK/ieldRDnWFJj2V6/Py/qx5JWO2xuLDFGKezWYwVtR8/evf+9QnP2xqMXBCRkPUiIN+XhHXCyfVzLlfPKY1NYD53E/m9to199wLr58O9+ylC81s5kIzwI0TUw0ANE6UrAJZBSwkWbK0G3b+5MN7FcEYiIcJkwYHISBdkjdlcV4tvvzdg1t+A5Wt2EKUrVWGbxuGr2szPXVb2xd2hrWdtzCogM0KD1R44lNXPv3zVw5/4xeO5/LHX/z61aPJ69evXjs6eOPmNW9IjFUy5KkSHppqyLq/Nf6pJz70qZ/7+Ece3rvAeokAacyASFumyhArtI0lvcNjjX3bgNE23rW+0rkd/vFXvv/mDLONIZmBts0G3M89cumpfewC8/lMfL1hWBC09ntGYVTzyo6dwLNoJbBzAlnUnGTMnCitxZoEKdxpmUkMwGqjkDsBlUKlc6BUoYQR8IDHLz/5gc9+4UvtaFcTEncGzeb8AcPkHd9mQSAEZ9AaGA+OGUt6cnpiVZcUfKh7P5a813fZZA3irmeGT3IJiZW8eVoFc55hPS7fvRGIuG8/xrYcm1v1OZfyCfT0Beu4aH0PfiWLJuyGpVoXLKBAo0eC0hoXNIPJKwnIewACbwD1wTfyluNKUpWiT69SiEEWSZk/uuVcqCub/og61p0oRJHihv7sLitm9HvFlpcZeWMY01Q1wE+L03hwz9WTxmpEIe1VNDjBsdSuqLKKSDhU2M0737q29eJc2zrvxTVxXZGcMBVlJsAws7XGmLoyhohzzQElWFt1rrwdQG24EJeWLp7AowGDmSiUsgei0/gTKDBA0gWrSFjBKmHRHAiiOQKm0SkWpIVZcnoFiZATVnAqChIpBCjL8k+9kxc+cdbvz99yTEhlCuMAk0fk+RD19ODPur7bBE+K9Bzt0Q/WLKp4XTRmXc9Y6zad7QVlVQ8AECWWcA/JCuxXv/Ktjf/u0/O2PZodbm1eDDdfvFQV39E4dzI7HFUbg3EtA/wf/9u/8nY42N597eBAR+OkEcPlOiYU3lqSB5T9neHeRl3ZhJskfs1awU0yAtw4bWdagay1plWxXAshQqkEW1WXL18WhWWrCiap0kJlE7Jj51Olj/7GJ2fABJgAN6eYeH/Sto3z0tCA7cjwmPDQnt1gbDJGQAWCb2DgAVI2ZAUQFYngg5IyJ3+X1RMPJq3zo/oW8Llnnh1cfmjSCESHpIPZ9G//4s8NBY02l4YDVjqeysZ4sW8o1KsX76HWWkMKD3YUyt2qkxJNJ10lewAAMCBRYZB4j7oQQ6WEx2tSwc9J9Ra4UuGRjc0R45hNWH0Host7SZp3BN8HY4UKBRsijgQbAlggdBs1sDRAUPex44t34p0R7eunqhADkIU9Fw6uGnn2EqugxVSYXOcvyIje7j07r4zoD2l/1bDq+3aGlaBsglTR64SpnikAwRLoEFndcQRUUKKwL9DjemdRWXBSQyokF4o0XZpjcDZ8dNq6PJbg4cXEj8XOHFxJdJz5d2I9AoASVo6ApYBdIZkZ/s6fJH2RJYDT9uC+yBqI7o7bLO+5u9lTHwqeeswaAyCpU8VHqT1oP/zSQ5VChV4RUieq5MVDROFjzNWrc62b+8aJtIGsEZB4oFu7GSbmyhgioqw8A3QoqRJAJtGdGWyiXiEVXYjCOExMFELgQpHPfaeak8sJke/M7lSjpuSilFle/WTNtPTtmxRt9iJM5EVYe+5735VHPn7TNt1xZHGwSOdddOvD1Vlr8j7F9rWO+Lp7spK0c0dlJd/LtLV1VqTWpA1EnkACBr/86tWXXjx59PHNrU2GsqrL2pZ31FM2h1tv3bg12ti/cYKnv/7to4bkdGbqoeukTtB9UBCbOJJxj/Rw5YErOzt2wDnfNQ6VsdjpkhljveL6zZut91TXRKxCpuKwdBQYCI8q+/gjDyuBK3KxDaKhRiibYT2qDfwEmwa7AxDwlqoODW8aDmlUwBgY5gxLh/nUmS0LUzsRUmUOIWQVsBApxAiMsJVUt1QZUKp2DkD/5gvfuibuzVs3di5edscnQ7Q7xn/wyugyYBrAkFDg1jP31HQ16NloJQ4yEfVKhkNd3lE4g6A3S65/eqwGTgw5qMICXtWARg4IWUgUf0wFvasGHnt4e7uqXz08NKOxAiC5F5IkraqSKQol5+umQpX+x8pWpCHft/v23ph27kvSEuk+5+Egv1bUU4zpHSc4Shm2j0v/dcA8CYss1IfXSLCBVXhfuguAuLIUvGGT8uR8dpWof6g7ug3nsrXE944T3yscUyhYr9SiiV/1Jssf/Qi7zsLyIKYOa7dAyq2XgMGLxtJ8EnIYPABkHiAF/qNoqAmq0cH24pm9VzEqYGlms5j2qlCK6iismM2nXp13rS/yKSWQPzK/iwzDVLZKKoTp0cDkLiKw6TM7snmfehAJNtx/Xr1SQetIjCU/EWv2uQcsuOmZUZ2crrXBn1BqN3zrXRcACfz4LrchmS8YAt45QMy5a7IyrySqsQqIKNd2VaFMyEEJqOd/qfe2co6ZE27vI8Qj5Db0j/+u2zqxyy5dniX7OQTAEIOVmzm+/ezzj7zvZ2dzV9cmaF+uW2cGCHGFi0/kgdHu7ukcv/OHfzFBNb5w6VC59aJmDQyzDC4oA9jd3RlvggERZTjAnuWUgplIgYPjI8dQgldhOxBKyzy1pHbM1YP7Gync1jseESpLbDE7bY0jJkOGHhuTB+aJH1MBw/DTqdCIQajVB8ee4iIdSf4g5PZyAJKiHy8A6GTqJrv0F69N/u0Xv3Zab1959PFb129tsvLh9d/4lV++CADYqmvXtHPwcGSLWTQ9MQDgEYYHwDXFzYkXbxzBkQd6FfCI4n/rzADDGjsWFxVDD1YweQHz0qM3BK8AYa7YIzy8s/vKrflcxZETCEOE39O5hhE9gewMWCJiYuhZwakulH3m0ePKmzt8gop1baFgk1GNRRS/nHsLCd0Qv+CSMqXhmPkNja5SWumGRkdBhi56sPZd6OEWJdd83ZV2n29bdxYJNLvNQe/bXbNydlyXQ7PCyie77ikvBJOWKDTxs2jP/05dwMoC0J6yNjT+u+zKQxYn+/hD11LCBqrIYyYCpG1IUPViU6LRKdbExvYJeJY8GIeGpMssY9M9O2eaXWe9uXZx3u0IowGVpKh6QcS9F7hfGzLt0/2bNCsWo6s5Wr14xuU23AVb57yUfUMKhJVEM4U6PHokIg2lGEuUrBEN7n7bNIAQqUNLHGRtpIKPMI2qd65pGue9d069S0i8SOe7k6kHzGyM4WBpvDOmjo2kqAscXEMxTMSGmblmqnOKgkN8QQRxjJWC465QlT4qX74yvaXkyo84z7PqpQhpbPwZ1qOjrBkAEkVDu2OmRNWcYp6UOuPMpEnHPQSYCVAVYw2rhFg/kxHvnVcnjvOaDb18LcMGMH16eBcNDi0cjgfFVQQOfemFEwBT16pRIV4JUI4FWWEAjjN42j8um1eVlFqL8S8Re+L7Wrj+/QVG+dPinV2M4PHy/svnXbEZBOpWnkgLyxSxZ9X69LD9+te++7d+7WcPDyb7++ONkTmdndb1anpGSDdZ5oYJ4EhHeToVAAAgAElEQVRaqm/N8du//6ftYO/IG0e2Ghgl1SAcL0ygrC0QhzlQcGZyt7m0vxPXzuRATlU8agXZVSClAnPxzObFV19Tyw4qhj2zQGOWICoW+8SjD28Pov5HRkmykxYmg3pkVBTUekKrkchhIAZMgFOwMldAowDRaCA+AdiaiCgEVrQzPxobZswm3lgDAhq9eXxqLm282uB//a3PvCHD/ceffPGNt3bq4ZY0V0bm1z75xAawDQyAFoZIps5tsMnhke4dZMwJx8BbBv/Lv/7d4wnReOOE5XAyGYzGC8s5yYk/otqHzwluQP79I/M//8Nfv+KxaQTcnlZsYGuQkTRSFeuJ6encbg4+cGn/G9dfdtI2FbNKLJR7Ny1jBEsWX5JMsAkhEO6afM9Y0J24j7Lftx8Pk26CD0Z9tBVAl/aeyDPLRogefHDi8+eV3gsDIpKreGoKypOiDozFQvsCAImQxhTJQNPMzVNd7+tEbYq7Dj90dRl7G9eMlber8nhvWs8PKPxEkyPpohCvmTelYBUKIiIKiNeU6goNQgUgcRSKQ4kndeIaAF49JZRd1Ldt07atc15EWBH0s4lgkvtFRNaSMRmG74hKJijOMCuz55yXDzZMZEBEXBFZogoZ9QvJuJSWWP1hXElDvCjdhtuj8vealW1eIUXV6SxEb4I0MUVVNcDyJFBI1KNx4r2Wi4ElgugyVMymEIuMzkrHkZOkopN3RykIU8DVy8yNMv9klb1b229n56z0vBbpN0WpV8655MLEMfRlNjb2nvveq+JgzNAYTGZuYzhq/NxL0xW4LU+1ilMhhJl3UtdPP/Pii9eP3ejBVmvHIkoax+6VLUxrqvi4CcD73/8YAQJYOIYDMZFVYhUFLeU3Ak7lsDE3T45g2SlCiFYIDBFig4q52t/eHhs0AreqFcEVFxZNxbk1uvsS65opSDlwNsFMZEtPt7gzIMXG0MxOPYDhyMwbFSd2aDY2N565hd96+rvPT5geeuT6wUxmbjY/2dPZr37y4zuAOcXGBqbHwpXaoQ1x2CX6GAC0wAnwldePrtqB29y6PnXHzLR9oZdG1TVJsTC8AACMOivTLauv3nA7Y92qxYi0HF4ZWvadWWGNGuDRC3ub9OqJOqASdqyg1X3v3ZwrWRdjKdGUkV35WDCC0qoqCFGTQFcMJecxWtJZpxKWDxNQ1IqJvPmFcTA/D0pQihZ//mit11fugfbctx+ZLQDVCkYHwJeOy9r6Tbow8iTFCYHNXHntPq/sb6wgFUpyUPltJQX7hVKvgWEujPh6LoxAPo9JupagshzBuxPmMS18Ln8add+TOwuAySKHD1ZDgABYzteGu56ZtCJwsS7v6qwjcPJfOWrbAaKsQqwpbCICjQMsCVRJROE5yvDofD4DxXKtzXQWjq1wznnvnebKPQSQBkVJogDBMwUJMKMAWBJhRtmaisgysxDEhDg6KYJEdwVAyXglSlGV7qJSpEco+1E/DlY+zZ7rtirEtt68c5kuzznpS1S7NFYJjrx3zssqR4uWTgsA4EIHxnAXoaYYlSIAgUjji+1EMay9cMyYLF684BTcwTtkuvemR+pt6qb1Nbdt4c6WYbpz7Z/jiUUEhpN7JwAzMdJAmfdXDOqNl1547QfP33rqY3u+O2uImawM5a5Cx4lPpxPP4z95+i8x2L45cTtXrlTkbtx4026OunZScRfiA+QQM0t/0GOPPwpA4ImUWFWccAutVjpAAoDp6tu3rt582/GuV1GTwjkUxgllxcP7F4aM0wauhgmzQ3zVQxgoHZlypm/gNSSaf4w4sRJDK4m8CGCJaxTCOkbEM4TNgZtgUHnyt6T+l1/4wudfObYPPnGstr369v7ermkm5uTg3/+Zpy5WGM4hc5j+2n2ly9cCU+CL3/7aLTioznzVwBAGmtauvbud7/fCMljF0vj6wduvvHXtUx970Oi0gmOxSnHULs8cetTAcgN86KH9bcNvkwItESTIWfbzqlc0+q6ZFiWiVDuBoyRkFp7Iu8dN7Mgz79YR79t9W2Nlv9XlmbfThbz9gZYOkb9a+n2f+94TJSxx+mJjVerEJ9eBCyee+3/SKjSIIIVIpTjvEBysMM5qEWRXACLi18brbm/98GUkvpz7YCXyp10oPx0tT64msP4WPPiejmSerX9EruHCHKMaqYsJEunIDzntL3eDBbpgroWkGgmyChfQdwCBVCMKI6rqg7ooRz01AMJQJSGJpQAYTl2Tazk17QwdNBX8exXVAMKriqqvB2MgVGYNFUMjiGjrIWmcJpgtwKqQIG6YPD8g6f0RAxySWSletVlOyly4aXeagXpXrR8Z6J6R9MaT+JkXR4Dw4KX7DAHg1YUgTJBhFrjw2YvL+4iIeO/FhRoO6BNjzm5tXdV5S6TKRMLqIsEm08/S0jdGtCIYHPYstVeZeP0ied1bnxYMmVTTLS2ov88KK50tTk0vS970rbc4Ly6VuoMZTVfEhbyVpBUnCJ545mRk68/92RcffeLvDCqMh3Y2mwyGNfUFxoropa5AFoi2di5986Wjp7/49am/sLv3wPVbx+Bm48KlmZvFIEng08RoTXzRBJGuZki1cUZdhdbo0IQcd+XAWhHyQrwsb6CkAr51PLl1fOJ2tsSQkoQfqKgBQE7R7u5t1sDEO8AGuD3BvCqxYFsIByWJqTD4doUCcpshJNHdDTdTlJlElEyM2/pJW29UhnGr0RMzGFT21Xnz+e9+53e+8tXDzUfqC3vttYO9Sw/705tycvRTjz386A5vEGqLyUm7uVt5wVycE6moWn70nnAKnALffOPqIe/4ia/H21XFp7O5GY+yIFKWrE1qTos9VklOZ/O9evCtV1/5jz764CbbSpRoQGSEF08b7jpzBcXjW9hSGXhHbGENvKRgV7ij7r3xdrlwTKxGRXmDBP+QQhFir141Tr0xHLwqKKzFZywEnlJ+jy4geVHCJuxy70I0ZZt7rbx3m/xX2m5TD6KkvJ35k+gjLkXlOOMc4f/LIFmqvrS8vZeumo5gBLUTs6R9SyklLgAmAmGF0w7vT3p2HXxkncteoil931gwogcVxFKXuvDuxq8KJIzLX4UmhwtCf8aPbss5Ri0iu7BlQSwytyN+tV5zoyS/5jYEV+ZsSKQkt6ygKxSfzz5O2rModhufcsdUDNSmOHFnuISklNgO1To7QoWCNKSnRhIUxEMA9S2BVRSi6iLjyPlAfBf1rFB43869OE6AvYqq9/lSNFRWUTUc6nsyW0PEREZVlYWIlClkQhszcC1MSnQSKjKSPZB2k9xVNKHXAk1VQkNna5quZNKCa59fsT5pgYsdyn5xewf37HGg/DaituuiT+uO0ClC9udEkvyv+M5N902nE29y1IsyD14BuHkDgIPAD0FVeldNDMBWFv33LjooxubPsYWGMy2EizTZ8FuyNef67nk5ndH3PnV94cilrXXHw4ou7ZMj6uusHAGoeOnWPenVccz+/h0pLDijEWHOR2BwzohkwPuhPWncd194mWuoAB5DHqFVmPJ+cHcliz5N/H7E+IPf+/NKtgYyPj1uTFXT2EykTcEJE5FscIiieLQCFmMAMBkjjWuOP/5Tj3zwga2xeCYGbOFdGdUQbBHOheIIAp4rXnjlLbXWQ8kYIlUiJWK2rpltbg03hJ74yOPHXofmqIIN0bbg4OUHxCIJP7JQQRyrGaICTpcrBG/QKs0FUHivxIpmrqa2AAkskxluVgIcNDhloto+J/jtp7/zW3/4ua3HPkS6efPggDa3Js1sQ3l3WP29v/HLFxmDFsai2q1EoYxabARDlm7zHDgA/uDbrx7S9gQ7drw5VW64tVusBENWRXJ2SifksFQCWaFVxcfHs+8dHZ9UONWq0sqFfrI8jRAAdi1BsWvxicceeuWl6wek7WgArwJjtB/Hi+zHtfPXu2tFbbNQL0ZBIfVNJbwA71j3d0HfvYvZ3feD79vdt7XpyH2FmdWTTFQAXrFA5fS6rtN3r3QRNQk7l6h53m4UVqTkynfknP7GRKzIwEnE/zJRhzofpUeMWX1961/q28UFeeHfs1NIV/1+iY9bfl4atdeVQsOPekHdeSupp8Q5A2D1efjukQ1yirOG4jPx11AJSHy5a+fEAxCvANRJ5Fu38eCKwMpw3pMEh91534r3PmLhIiJErDEyI1xkDFeVNaYmE4qzqqRKQ9ZYYypjDJRNPURG5RPfWgkwBpGMQ/0k5HiQeGmZQMDcpWPlqyykcu4R09sh8YHOlHeh3g6SExhKxL2c4EW6hYx4v/Dt2lbdgdpdcNBN8bm853c/ANLn3N8ppe1OeQnn3D8H94REqMT+GYAnniq1DV547dprb/nHrhgAsViolLoEPg9HqnlEDuNADLu9doS/fOb7N4+mg70HoajrakZeyQdCGxNIc8ppN1CH5GNAIGKhl3Y3t4ewPoxxXaIzA7H8qpIvaD+O0ABvHZ5yPVAwMyuRAJZ5yPVwWLduPp0ebe8OPdzYgKUNeeuaJG4ITAoOQlipYltamZMqvIlvL6sBmNFCQCQnJzNbWx6MBkPjoU69R0M0OJg5Mxy0NW4Bf/aD6W/+/h89d+sED3zoxG613gDCcDsbw0Fz69Fh/cFdDBQssDWUIB6qURWKVoiViQcfAl9/8Y2DhpvBgLkyzKbyYkOHIxgTkbgzy5ETCIa1ro9p/rrgMqNliAbekxDcwv4Ku1FxSER7cGejkrdYlFEJ2oVp970xKd4v298ejToK5ru3nkhrW0IcmX5CVCO7sXzdDn3lqh/36/0xtHVKFLSucio6gmDvVwF/TN5zduvLA66sxkoKKx0klLdHaZpuf8knLaovB09dEsxbNqtLn31vrKzdVk7SKXC/uP+KsW0JE/3JshVXXJBqlLuO1LnyBCEtET8oFCqx9hMEUJLAt/aiHhIyWQWAevGR/u5JofCh5BNlSSIACEQXELMxJqsZGmMNW5hUc5eiXg0RgQzYIgiDahSx4VQWKjhDBeU3XUvKr9AurpV69MpgCWmvQ5QOa28NdJs7fLes93aXjSiWYfkeUD/yEPU9RVUW0MH8r/Ntd6L0DhOnxeAPbboEaoY3ziztU35LJe4WCCHruDArt1KPs957jD0yTO9HK/eXXufp77/qzGvLJ6VTC8WuG46c6BYMsoPB/sAMrt+89cJLVx968KGKQNYzNI753TXk/xcDenTE4Zk+88dPv3jt+u6DD75248BefNCzU2pjkpOSkIDYgFTJkbAKGUMEghWGON+07WZdX758BZm0tlqHQMpkXCG0hFfeum7qTQFXMB4mUHk2GPPDQ+/ajz/14d0teLFMW+LnRFVcGsRJpEOgVAB4imEjBdSxbQigWHKpEoLWYWWyPRpDcTRr5tRQxcaSBTzQDgenwHen+MxffP9f/8lfTOpt3nviZDrdHY+hLUgMJnXjqqOrf/MXPvbkGNbDDgCgFVVIDr6tivywA1696Z979Y3hxhWprJEKAJEVcVDSYrV8dhAvBL2dMQfz9qWr1376wf2wymLAilvhypOAhgw1oMcevWK/9jx7sUqNrPLjo/N8dye5zB2yohoxJAUoODGiMYbIyCF2WSQblOjmnWAG9+2+vauWFbDW2ELuqeiKrxZe9x4KDiC9phkpZ4VZpe/OChPKOTGFAo3p92IEZon8yqmGazpxgcqXS45IeCvaIyEyIADoPJyDd2K89OG+RQuOmRR/IQ6PypFEE/lRAATMROW6kdVTYE1Hy157+kmo/KQSfDpVRwAHZgpjPp9njoeKqDgVL96zQuDVe9Isu9YjaahQNezECokMQCHWL8TMUaCQyKqqCCTwsDMlxOT5dc196aM/oaTRgq55KcxyLxjrKk8xBlg0pfoh5TwYIEyVK6Y88ZIoyFDnlWLcLFNNALRt2+1flIVKUOhtZ9IFDi8vfbvuq75lTZiSPRL+LfRli6DDqqOteYZ3jMRTcfwzfluUm1hvqfREt3LoGEkCRI3BxHeJUL3aG4fznc2Nw8O3vvDlr/21X3qoZZCaUEmpgC86sSzfk7WJ21vC//elZxoajrY2h66ds7ggUhby2OPnkDoa+5AhAiI53YuQc2Zodnd3gdhKr0opByBy9UgXHq4Cc8Kbh1OHmqlits4JoGrIDuuRvXj1rRuHE5wAhmFRDW1VKYwqIKFDJ0GFILqfO6GJQWCCEDyhysSi0Kcd4CCMqq7V1hODKUDAHHh1hn/3F89/9uvfePFo1u7tY3zp5Njx5sU4NpISNc3k8IGt+m/+4oeaU1QbUKBVH9dItKY/aDztl779gzmN9y8/9PrBDKyq6kNMTJ0mH5aZz0blPYmHGGOOZ/71m8fNg/stISxxXOf89u+zzqbEFvXW1sAKLGA8Gi+GUfDruP+jd2iB+LTIL0pssZTSTSBRTZFTRHXQ0N+C16DpLnTXtMqTB/qgYEd8BDRx5RGCNPnKwvZ7LLT6Di2NE2GZX1iOxMkySesn3H6Yaz3/NFA68c4D/dT1WHkxDX+pYT2/t9i+LB8ZR/Ak81I43GJ6nPjELSdmwKpaBbwSk3MdLcco1OdVfvqJQqVju1BqLxCVqsOpod2lZU+oa09aSAvlPLGSGFDestvfXKYS7FlUX6F0onyOMO93hIPbHX9ZT7qH7q8YuW7b5B/K+iGUgggRBsqyITHXYulFXzpatx7Lh+3m8Ug898081NkFAv097h9BExESR1ET2ZOCWFXVtXPfNuIar9HvPz09Qex7FE5vCJ5iP1I2ADY3t4DIqoo4JBGUgxxNINgQWTCR4ZDPF6gzzOTEM4GI2bDPbNnMul56OlkXPyxs0L2mlD+zJm4JQOiSFbVceJRzSo8wdmcLyx7jPDxA6m2JrlFKeAiW57suy1zTptDmgnqbcC4xUQSOQGIoVhkCQVzBheiqcSUfs/dGmHBMY21ZkyvqwRsLcBn8ym3woQomovYGFTz48NQGg0H+lbVGJBaFEu2qwREZKPeEL2P67OoKo7oGQ+i/46sVnGL2RfiMwnVbuLrsjgsjHWpdKQslitR/AqjMpYkLsAjJp7GTu/3t1sW948PrNNh88fXrUwdVDC3m3oJaE4e4tJAAAA489eC7MeBE5vP5l7/z+vNvHFyfYGCmWo/EqDKBTAwwFFemIJAlElVHTCFQxrbyRIA+9dRHGkHrI0CgWd8v5DTz4mJ4znSrxXOvX5vRNg/GBqR+CiNU2ddvHV/Y3d965OILB0f/xT/97U889eiv/7VfeHQTj2xioG1NMIqdQe1buFZ8025sD1RN8AG9FxApiYfzIkIgY4IGkFfAgwRVDa5RK44b1CNcA77xGv7sey88/f2XXzuZ3NJKhjWPdkSk2hpYIucFVBE1JO1gYD75M58cb8G1uDVvRyZel6oCvqwQQgl8FmA+b65x/bXnXpHxhes3D5UqkVaZPVTBCg/iAKgIbltMWkSkZW6q8ee/+p1/8NEntoF2gtEQamqHuJ5XZNzGOqIpMAcu1PjAI+8/eONoPhUmnlHjuXOYMykxSmmeg0R3OyuPENbhHhSqBQOAJUkJWJFahJXVonQJlV9Ib10+8zrhPFoFZ963+/YO7U5lUpMzkW3R/Sr8+OXDZ02Y4M0vyNWxwmauvCj7+GMOiH4G9XvtLw9elH/qb+/aI72vGUh5hz96++GHqzMK1d1TlrURAIASKp8EZLoofGRGLS4UBa0hVRUUO2RsnxTkvcKreFKvosTqvIq0rnXiGvUu1DuBaG0NIuPcB1VJBF/T2rTiSmx1w1DDAJSDm8hsjTFgqwRlw0QeQUvSRHxOQcaASJnKdd051SRXQhiJaXJP2WLPjU0UrwtboCGEIhKgqi5xRVXVR3UIJMQ9iqX41W8GFa78eW5KjgksHEQInFKTw1K8XAZo35shJu+RBxKBdmNJB7f2rloCqLxsa6PxJVxS+Ax99kyxpTh+cZ5OnEqVVfNjWjvOiEXysD11Z6YEe2tEETVpUzLH/fXm0TERVVQ99/JrVw9wYROzKYYD2LpaBGACJgrKI7oCkxnvjUdf/s7rbx267f3Hj6aNkLoOAeJuKa+IXqZ4FS9wHgoWiG7v7jjMH9zf2rmIU8AzEYVVNYBI1AVi2dGyv0yArz5/wht7Oq+hVlWsqZvKeMLGA/s3DxujprLDW/OjN7/ynd//3Jfff2H8Nz71gfdf3vnIB5586OL42IMBY9mYwakHGxgblh6coKRoDTADFPAET/AMmaMCbp7ihTenf/CXzzx79dZzt242mzvNYFxdekgmp2Y09F4HG5usmB6d1naYy41NSTff9+D3gYcrjFGNUsgpe47lv5ICAlLX1xjXdDjD0DlVFk8k6lOBkbTOIT3jrSKikOvPhiyGqC5cnxy/BJw6jAcQD28i/yq4q4L46k0FY4YH3gBOYaZN2zTHG5f2GjfxOSapiZpY1Lk9v/EaDzloGYF6OgFBrFlUrSYr14yhDEHY8g7TXjUco3T9i3e12B45wRqBkXdyrnvbiDiUxo5//yRe47tp578/sdL9md5fGBg6R7hHaDlDLLIjDvaa06WZsleW7hAZpCTf6fOajL5LqBCyeGkrVhTpz1KFhgvijfbX93nB/O5685QyIBe26xJWfbYttGqZ93nbZq+EVd5xLv45TVZNATEeUmDbhXuXfkgBF+ogZ6MUVSODExGHWg/4VFha1DnRziMMyayqHuKCK+9JnPPeN857kRaihjSriqUwgRIBqmQsESlzRQaGw6QSNOMZhgCC4YC5swUAMgGnFATPIU5yFZEQHKkwUcB7ChbEQo7HynvVyxAtB0DqvEDijmba724lNag48tJzOb8lx3TpNcQyUNXBWxHDTbx/DeIy0ubd8r8ppVUA+EK5KGyPcHusoxJ60TIqTwsvHS+9g8uVXmyhYBPc/ahaE55XgZ2Ht8kwBylS9O4nlVJ9eU2Yj7lsumbs7ctortmnOH5vn5WIPgXKesrxWHPeKIzLRICYcuXAWQslaDnmxL1MEx7tjMVTbTZPmoN/9i9++6eeePj08GA+a7nakF5KYUiTRcOaqfyq2rZ+d2fn//nMlxraZjOWAcGySuCKZBceKaDFxBx0o1gZTM4YInN8fMzN/ODA/7vP/mBycM1oG4JjJl2Xigrl/taFdxpjX5/OZrBcjb0a8bO6rn1VeWk81zCNnxGNxqL1zLW0e/HGoPrnn/tmXVEtf/7AhUuPX37okQv773/0fQ9dGl7cRl3rcEhVhTrdwAqoAAGmwKlHQzic4sahOzydvPLm699/4cUX3r4x1Zo3926Kby5c2djdHdR8dHR4YefC6elsPN46PpzCwGzvuvmMQUzswQeOfu/ZH/yLf/v8RsWVuKGxMfwoSmkZEx8okaoP75RhzHl8MNg7bS2YDNTHiSn0eT0TAs/BbURKjvOO2gn8Eer/4d98tZpPiBpm4x1HxQENtbDD+OeqgUxOD9h7u7l/TXbt/j7NTm9NbskgoO/ppdM48MbgxQ9nSjC68JaEwLxQWukVfVQ0LvXuHOa875zet3vL+ivhzndH1IvMtjwnsPZ+Aun9PO8TSjj1MhWBlKYYMFrlPBOdWd3pjMbc1t49D/69IMRLDgfGP9+Dc6622545U9uLgEj8f75TC8s8JPp7mQ/NiFFPA21ck/RDpbKdO+u8Q+nKQ9R7VSXxHj6Q5pt2LuLbtlFVQ5q9rhB0JiYkwhereqXRcIAEyYeOqKpeZTzaIgWUS0cnsoaYRaCK0SiRMVRDvcDb3s+fPFs1rwkAQ9q089KJD2gUiTrXBdO9c+hQ+SIPr1gAlUvBxcWjcshMCE5/phlg1SjCJqzWot8DwHCnYBMc7m71e89VR+5GHqU1TVM+R6m1IkkjYfBxeyoRpYUsZnyvIzwv1sjNowODk4u74z/4wte+8OVvsGIymXG15bN+bkHWb0izfjkTjUbjk9OT0d5+PRq9fXSwsbtlaiOTqaKPJcWfCwNOhQSqHh4BwB/UVTXYun5y8//6nc9UNr6D0uW9gIiV8pqtO2hDOrOQwZBqJmubOcb1gA37yWx29S1sX6qH46ZtaHdXj3Xa+COz0Wzsm93d4+lcyL75+qF56aZ88ZvGnw7q080hb2xsDgaD8XgU8wsUFze3Z7PZ4XR63LijWettLbYSY07a+al3rtqqNrZbts6MAXvgHHlvB9XhwSFzNZvNquGoNfDtFEQUEkiowpC/9cpbqDcOALZcmZoURImWHWj6IvDx8/zkFBVXw4GRkcIoc1gJBVWiAorm83jPREQm8G2Nr8grvnd8sjUezx2YrKhJ1QlVSSS+pC2aSTXatc5Pp04GWkszmZ1ubo/nC4nqEaEX3CEkf6ZFAk9+l0U7eSUy//ILbDa9UlA2JQGnor8S18EMZILNmkChrMbUSRaVsMvtAavIGEOAo5LwQn9oE2WNI2bGS6gPc+b9M/wZWkvpVyUsWg7E4fh5/wTBLA2v/fasuAtF4xetyL2gVW1e2r/cp5gGes1Z/Vs6M89jxf5rmrDu+D1G6ZlrOFl399ZZyX2/zf5rrjH73IpqfammclwtXPaC3JKObxTWxT5cuLpSQpIx0S3J6pX9J+e5kmiJ9HPxHvXei8IFXLj/he5hee2CVbjdnZoQAJO4iL3TAitIL/L/t/d2v5YkR37YLyLrnHtvd883qeFytZSWK2pXsrTG2oYWMOAHA37xX+s3P/nRDxIECbZhy8AuJHm1xJLDJTmcj74f51RG+CEiMyOzqs49p/v2TM+wA2RP3TpZmVlZ+fGLyF9EhsZYWu5XAkrW6UY7Lv5W+r6sTemGfK1PsNh1EcS79pQRpi/SpzKcYwXqiwxzneqcVKorqkgLfVD7CXnAeYeDSaB5VmQVnRhZJOdDOSbomPM85yOyqAegrDR15CwprOVusbMgBsmPChLCzbMbAFzIVwKklKATdE8yGQt52u08DVgIItli1MRvmqHLDrA6aZTPsd6Bt4SDX+ySpX3+/cJ5zuMAACAASURBVK4mGwEll/OVsKNw0nI4QFiPWBv133NgBeRw31xXHx66mPEonep4sJh1Y/9dD3BZuOwF6DM87njduzA43r71fr+vZRnH3Q9ot+edic4Ady1W0xdZ8tqXbao8ngUR069Id9BvnCsSVsc7r9fHHEKYqUL58iuvTgtEqUaqySVYDQDbdOr2EJiEMIs7dArZ2BE/3KfEeRSCKNXpjqjNh8qkdXov4/HIfJ+mzIxCZw98/dFWErngdmJDmoj0mEhJBeBUov2unCQQTs8gpkyYr6dMEEyaJe1ZLbYsk+3LMfYCgGf4Mc3eAgnKxWwxMZPOjLn68CQwSJSJtbQ8p5kATgL2NkyYiTElAfu5E84HElYQmd2MFSyJUNY4tsjx+91hntXcTnI27cWcgjD2TGul+tKssFOoPX587VR6gQlcAOc32mfyA148HjzT0tXbSVXCEAEr9kJ1kEpji1WfcudhXSz1kEFVVRIhJNIE4HD3Hv36n3/8+T9+7/b5fJsO91d8Pd3xT158OpFyCbBt4BUKfRKt/ZQZcu2+hw1Zu/+OW//7K/bpae3mQmo/6d1SN1WOiPVDOLhWXJL+NFZU3tkiH+m1DwP00ADfQ1z5jmEft822WaB1qoqlUPvpTPryhtSllJfg4wnFFs7Xq+oTSPwoq4oEh12UFD+RtpWkE8WkUmP4RnW6wTUSALNm2ObNLNCsmgGZgZwl54MBeuPSQJRNQYxumkSTnbukTtWwI7ccFqSdFcQFoGsBEwSQn/U0gSZmVioWA+KCCDe8GL/t7/VGhRWbnG879L7+SpLFjFxH029U1MgqcIKN4JLxk9bdRisOwDAe18P+aEjf2SNjPm+71Eo/anvfOt1560BYCwMi/a9KUMJ0c1VCvGPOWQlCkwJSTk0SQg7tz2WkoIfpFcpnRja/KD9sa+MdqCltbf4hUVeq3cJsliChFVDLAbx6uTQ58lTJNAE1cg4DLAWeApxNzQBBkZPmMsBnZmAP7FGmgnpysAJkB2EwhfsshJktTL6xSuL34Jkc1YvjcHuWVe0PFkyFbk0K8nMtymkpG1A+inPYXseWFb9RDh4mGxh4OabicCt/2uFdT+Dq6ivmeFPFOnCwBfAEQLIMrujyFFz5gasTqPrd1Bm2lc815LyT75kEv+vynyFwRC/Rqh0j0lTMMYmdvjTeX+RTEgwaY81H+/sk1Qlo2LHhHmSXDQYfho7HWj7REh+hfLjcDOYch+qbGi+ldKr/mDjmO9s7dTXhRbwaXuPFyhvmyuswfVVf47KNa//WHRJWoWqVV4mm3GARFZEMP5CFDscjQVRnQGTOdtJTlhk5i2ZVXd37s3U98Y5BDuXLcgsgGZT3qialRIH/LEQA76edRVdoOwzV0AiQWwFjW1zYdvbQ2TP5csE+neZ1ZNMHN/puFTXMOPGqYifmwpZCMijvzg+lflBVkJ/QfL7rdpqatdshGo+YdOkrEjUuIgN60a/mVPHnt2QX6evS79LtnJxZ4Ir4Dp7NtyVSlq5BWxg6LztURCCjETEReRyTTl8lR/Na2TjUQH+9sMMW2rtEbwKiiqVqFK+mMLhD88bu5co3dZgLaSHV/ZhZ6tvfLLVM1eWDKtqrjrEO4gFfavx32dDV61ZGaJ82q4i9HVPd5aCiY1iatDZJWFPEqb4FAKXmSlsbv0UcIreY9C/dZ9K33eVdLJrSYj9/ffBdvYme3iIWdVhzqlGCitgwMTLQDOz9VDO1Cc/MjFSmd0RX/bHueopKseE+uMzh1d/wnXynJQ5EWvSWJUlmiANdh0zHjhDs8uhIGkVF4qxGCs6xC/r4rqZ0J2hF/mxHjNFaUAz5h0IwM1UhqO1vs1g1t5f81zs2Lr7+Be6ziwniqdT+yNIJ31ZZCi+u20KxZSyXR9zFiiGMucYaZ13fV7WDnAAo6ZwfKqXeDnXKeZZcj46yMJTRMOZoUkH7XUJpyf1uV3o+p5TK2pks4IwU0FBse6zTVONpSk/Gq/vUS6rk+a39ps0xnXPqGpmQgk8nhu+7RgFdbrM5+UrbNYja8U+U5xBckox+AAA4ZqeMVgRz2iefl1b55eDqCCqDwR5r45QXf8Y0FRPxeGc1M0u5aaF8VPhRXTDy18e6NS0UIASiC/oW7ljy9uWloUluuLzkaX8+PDzYhZC7Dg843v8sZVGoD5dSNNT3Cbu+hNen0ETEUIGyrz9id0aM+3izrxda1fjSSnbHWlVLU1Bsk2pv7/NZy12H8bCl9G4tkd+V+GavKY+pJi1crBSszoqJiOZZmCw+EiAgFacrR4Y3gG04HvnB8JSqAEtcHlcs8V7vEutmJYYAULc4Y1SBavUPqkJ5PYBUWuinN23p/w4qIVuc+442sMVDjfE6TvaH9fhFazl6rXy5jZNYix1JkRcRGS/dSuQ/jFZ5K2ex8LfVTEGqsVkYLd679yUqrpA0qrUUNgo6jlg8Fai+Cw19RlautqW3hDWr3utMc8WmQ56PchdHIkzN1g66Yd0x4SH9UFaMG31y7LhP4VonG1xZehr86mW3uxi/UXwTbk8oqIL4Qqy3QoeIBCpMBM3QjHLK4Hy8q79fXV3N8ywiOcs00Sw550MWZSDLMeecs51tMquqQPQ4CzKAxCmlRERT2hMRT8n2uG1mbXUOPGZKu/LdOCvVA2R31zdcvm9WBbLZEa1JBtuqUt0lG1t+1cHgNeXJ5+d5nhOoepp2PGPH5Z1uBkhiDkc+kWYREZ1nZuYS8KZgeqjo9W5XtZ2Hh4e6TTcxVNTO9I2BJj1fc0i1IzwXMeNLhmPj7na7dkQXE5SrfdrqX434bkP1l7aRyu18YV/UqwWXoxNtiXDPtQZhtpR2/kzfW7Zi/PfQbrBgdJSh6HvdIupQ8dtREQIRg1jAAqZiIa6PCRqULmdBkJQjjWxjVIkFvp/p5komJaSUbMynYu8vUJ4qlM+dnwZqi7lNekpUOf0WG958JbUxsLfkxA6JbZQFnn2jyIso75KopjRpcTxSryfxbsJuAk1aTw9MoY/Ztyjh2wEoN/d35hDosFrlyc0BwiS133Y+ADTsG9SYKqjmhpvrPOd8PGLOCDtR85yhSszTlI4P4/nGbhSzL17o34/LWTb6rTTfPpjzzaQN5iepOdA0lT7LzLS/vr6euHfWLJO4NHt8+HUrWOQqaDunSak/mudJZIuL/07eQll2kmXcdwBkR6gGWBx/qlKfMhxfufIdgQd2rTG9+VuH/CMe7EeHluzi/TWlZgglTkNl3loDw8IueCl0exNxaVapEU+ec53fSER8WjMqRUlBomrBRpuTtAIsmXT200AgKbpdHh6QRUU0H+aZcj7OxdMr52OWrCVIpZWeJk5gS8DMU5p4l1DgS2IeDvEJhq5UbdEKonRFxW0OlBoOLw5zUkybxC2ypDNtNpRwt6Jc3shPKFsurV2aLSNC4fCFtAJAZW5fWCHufSyEdgR8lgw0so1taKjqxMnJ9OJq51PRgUqdef3abqwUFcz2m2P5W+HQb3D3lXuX0Oa3I0HpEmoYun9p3zRohLGC47X8r1rom1gabuyy+qClD7C+r2zd1YCrLN2dU7uZl0mjWREQYH0hSWMORLgn2emV/tVQp4jaCEXfpUXKsea95DmrKqWElKBtgBBTVrLAuFW3HMKx9n+c8x7nJNpI8zaE6qogRAtRfrT9AeXTUJjf1j3Ta2o8Xdd8J+9kOecshz1DlvjecPlwipMJBRN9g/LSHeFUrKrBGiSKk1b5mmELBObVAzpAUzkVNa+2FxB1j0E5GRrC47UXXfwJgf7T+izGZe8cWa4xrwUiOntq7AQx0aOOc5cUGMAQKwDRQp6hEnAQACSTzlSgfAQAajh+nlXmLHnOxzzPGXZWaI7WpsTFkgokTkSUkMgcVVHsZBaV3NO4ZVfqXkeJBKLgtLuyxiZqp2BGXmmNqaS2sR4Uzu0u85axw9YJqT1ef4wPppqztGHOEMmSRXKeSVItImcn2KgqkGv6eFYzJ946DepRieEm4YCGiSlLORK48HY64wUn9DtdNkSJCCB12zxqzjX7oVyTjtkcSumGV38a6+rburpoc2zdnVCKMVtaiT12668DPmHvnoN7KwX7cVdjg79udW7xKEvEGEiA7LUyKzg+dXx3c+kDQJazlWujhhsF3ILupkC1Sl0cofCOIVQoEcGALcFc18u7eBsqAGYBKCWlFma0cIeaj3tst1pi/Llx4qkhPY+7X+Yva1X3EDDnA49jE96FCaLEVPVqXqwO+XjElOzICg3Le4KrB0Ro1aB+27TP6tHR9dj6ssjgDZDan17ICbrl0HeJL2JdelJzH1apU54xV4L3Dwfj5cYkL2PLF/5LsF31lpKBAOO/RuNmPNbSiDQL+9A7uUgqo+m1Gs8Xym7vZYCePeFBA8x9JG/qI89UsTjuq8ElV8PUeAQbaSVyv//TEWHLe61uEHUL50bDPbqzVBmcUWKjrbgHPZFckJtZYuxyuz5vwuh+Qjwqw6KFO6jRfcf1VaAPFKuVK1JmIQE8cC0AaCYtTkPFkg0AHn1IysbMbKWLHknnasOl0CHEODQqIvk4z3k+zDmr6pTiQu/sAiazxbOqncjKdjwKYGCIDQ8lJoANxrnZxh3UmkUzTUkxWQOaU2Zpht+zqTMs1QV/G/fAWkSIKM8eXJIVAsnFLB/NBM7YIXGeVelOaTmwn1Au9Ut5PT+WzTw3XvEMEFRDvjBaPJNAbbf/tPzTOPMoo7Jo1ibMii3dzcNMIQWXazC9dwlovDmAeMtkUBsKN6nU7bHZNU6VvVfKmLLmZnzy2Qd1n35Zen2WcFr/Xuh6hfseA894XEatIWvUTms27SW4ZpyeQVYWCBVk0G43pTRHFMcENY2VqkZHxBqOL49O3ktS/lrxbxaaP/Ge21Ien59XXpAVk4gQTxDtXPdUyeC2xkhX69zoGrtDl4voRq087mRPeB2CTtayWKHaXGM7xnxvaPX/jqBfl/eHohFOnO3epVMt1irXy1bc/YHbsazb2eljmse77BDUv/ZB7rIP+Ydnl/GYh0yGInrx3WdS57rIGbUFMAmmANkHjorf7EvfZRkhfrHEOx+m3o/9c2GDjxin+2ll5Nq7BLgW0nTxZcL9ecNYvJwaTk8V5xBLYlvTwCt9VDrPpFdBBo9Y4mW9v3Xpl072RojqjPLxa4ZnY+jG2Gf6Mct2ZOfGx1UVwozCmE8eckFhMUcLnqPi1Mxqu0k55zlnkYIFc85xTjgcjg17g8oQ5uvrfQJxSmBSIZEsqlOaEhJR8WS16NrJj/4xk7wyCTOY1E2GzYr5cDwWwg92u4nKfFtUo0XEsKDhk6xF4GlNFxprCUrOG+lNzloZo3NMMEetFWUeFuudi1q8/2masoh9LoZY8AYxqwEpMyXjNYlvwqTJ90BSiSU/2JLV+VGpizGVGic+hp7kEEmdg903hV0Xtm+txq2nWmKn9ltoHd9+MaTTbMMo+irWlPPArUc53TnUKsaSD7W1A0f9rbEUqz+Vy/oUAZgdhnbgDACoixlfrzMU4ER+IhprCYnoR9paa/hbCEHBxq2P4WhyH5om5+N+twdwOB4EbOH5D/OBrvcN2df6jasdUCzuzdMPiPxvU5q1f9pBc4Tm1H8SngDwlFTN+ab4A9Q+U9JX0rx9CyXQlNzcOU3GZWdK4gf9UqamsXj9wbZfAeqmTi2lXF1f39/eUpooJRwO+5tnh4eH0RbFbnoQVdolUeXkjTCE6Yzddc45dgs5zNNuAqc5z7WhBrUkzievusP8lOBe3rCqsKk3xzizYQ5MIIje3NxMIma4zwkwHVqFyvniaqOpxqpcPQJJ4ctktG/5TxsceoNN46/aWfHrDoDlX/y9KqwE3rrt3rdd1t0EXzWrbi9+zND7Q1JwlqV7VI35MEiSbU58hGsB63N/emtYx9qDsc+YLK3yb9pWudVXl0r+03qPdK6fZ8CmLs1GTS4C+JdqA8Prx2+33FdZeWQD4pPUnd1mCkxdVJMwcSGDPHCkhfuqULgdlkeSJbt1HzPyg+Y5z9lOvjM8n2WOs1yaqPJ/ppSocoGyCCVVKbHepl1iZmZKRJNZ74lIwWVp9DdW8G6/z23hHPVFp21AUPaFNCyt3++A8UXietSgfBaISBZBFlXJbXoUKFSK9b36S7zhJfy7Io9uymkznZqrhkC5xFVUgOMBc1oeQT8Tel/VRoxZVqMSOQZLvHAD7koBzRMATPv9/eEAP2OLD3Z9tT+QaxrAmerlhRKt7MvgQwQAmZaxaE7VJ9rmx5/KvzoY+Ic7izpMu9397e31s2f39/cArp49e7i9na6v89kBgLd2m78ZWTN1na74d2oSpCE2Gtc5f1JVpkacsYhsGeyn5phJ4Buu7jt5a2TVLg5goKOsgm9/PIIwaijKrOYjbrP5hFYytzur4L6bL7Q9Tm6fW9skcj99jHdq/c6VcYF//QX/9PR3php20nL2urL1jhz+7e5v2HG3lJZV12cA53Hl16T2hCETGF7wqrVKQqCVjyialdT3wTQivJzLkjkfDkfkYxbJ85ymSbIBRSl2ss6CC4spXktmMlivxMTENJmlVmlSZS4sVSWusTuIEpiZSISqyTbGJOlesTs9+rG2OiFvHa/0BFf+karmec4iOWedMwOFBN/2fu0TV2Qwz/NmXgA2dt5LdJrTjzbx0bGRfjkzuEW/cxsNu3CBK98z1GNvbFbwjgPd5ygtfRzAK6gzxH1vSLOQxABQjIJfifyhPoSh3QKb3EtkQnFm9dHh1iNWGnF8g/hFYYjcmBhSvZW7NZ8s6qklKs5wH2EXxUvhwA5ZxuyvtnYpvPbCZY8Wbpi1XhVMKorqIVDegspFXWjNllvTadm1KJFn1t+uk40zOq2tErN52WMj6Mr5QsT6ps2zb90M9mrSuPKc2GIjh40hM8MriwrRum/y+VIXvOBmFQy4C968jVQOJIdoxV9a9z1h8KHQjfwfldfljj+Wz1Pl/1Ta4+h/eZLks8RLtjMTM+GS7TDgoz01YmlLOW2k97IWNldeuxlTjkFvvlPK9tPKN28LeQUZoqZUeb0PN0Y0C5uSQ74CIwf6tp+yB3E3dpaAROHoLR+P0qBehfLQeS5rjxwOB+Sj0Wv21So/z7zf16d2u3aEE6Wpmid3u+t6X5WUSIpKC2IiVqZy/qwBnZQJTEltgddVUFUKAnJnUeb4U5Q25W7l9daIqCaQqC4BtKoOh8asvk6lQamIoilplUxo1Jo6PZpVviPV8LZR9ALhUzFqToaZt1rUfzy3mJLinb4ZWuz2pYl4lJPwp2fPLWvSVfhRq+CQuCtZiMnI9xZispTofMdwROsKjodHlz8c593VNYC7wwHA7moP4OF4oGn/WN1eUSqj7ullYVmPjtF1e8RiofgTWiqzUZ+c5+tnz+5vb/fX18r0cHt79ezZw8ODqx90aqp5J9+IrHHlgcmPtKtWTAV7nFSFKFRJtQG6kxzxOBVSSR7cXkP6CNBVEOgWvFZU5GpH6NnR6/v8l+62tgJ3IfCt2gWe+vIcq6vrRwJZncdGwHr71PyH+owvGWXN/Rc9GtniTGv/R9mJby8oa0B8JZ/lCxKM+74wl8rafRn+G2WqbqlLCe/O/cPDtkC5ycMdU5403PVJf/EVdKM9Yzmx0BxulRLGee1St5hzPHk6OWOPLOa4FaFi89kIVk7w9oYWi2Pn5E5Ftbu0yaHvTj54SSrrueYvClAuJdqqZTPPalHWldxxwmI+xt0h0fYG5hFUI9KozqCDItuz+x1LxpxFRA4PD/5Iqx0EWecDgMSczGmVKE3TbpriEei7wqkVYtDEnBIzUQpOO0zJ3ouhTDwRExKTssXiMIsfiOohuBr/Ez5wnPfo8SguZwHSp4ijOvaNjlp/0mYmvr64DpZFGCQeWCbkwZSIQVSUrlz9suDHtQLAfHiAQZqEhFTnrofyfZ0EWpYGY8NbPldXV624bry7hXvkGATTr22IG198t9+tOqoKlIjM6gpjVRWdTUvMPm89q0Mcp5VkReDAZokHurvd2Ky8QR8hpdUporsXePNENBwxwbWs8l7Fd8Xe2nSLJVe+WeLjBGenFzuumBjEfgyy0czCG1mceIGz5KsDawP0JYD6dDXZy05X1/biRLS7vjFP0zWU1Fnia3QXhN0Mu8PtlNb+7ZbtWIjswGiCWh9cZOZ5C22jRqmfpkmNtW9lmSd9Kt4CJa58v9/i5c4EMLltvr2ouRQJT3ukg3IiIqQdT3scc1cbc9ShsCPk0be8PaXluRjS3QuSMiUiJUq7CYCKis52CnJH1fYjMM7wD+zGo3uChAdpMQW9adLJuhllUzZmYqWlZxCzgoEEIuLJiiK3S2UWUiVm5NUuNeTePE0X4M6cQtas7PXnEjXCf2VF9I5cOr31Z8oKaXerc4NbMzXTxj7R9uttW1wuyudbkjNj9m+qBGv3WUZuupfVx33vo0bEQI2tbquRatCrYdi20fJagjKVrj/ytPLGPdm/LzIuZ/oIFnQcX/+McyEtjO4r5bmZfPFDNRi0OaYUIWJKe5490KRkkMeJV0hWkix2Gqvmo5sDIA8PD+QQpGxoh81xCpvsThtILcIM0k5pR8kCsgHKFZ1DfQFmnijtuB7jUmCTA4jK3X9shYvpvQR32+2+RAvZ/vZ17WFGL6rjSn9Q0ezR4t1ek8taIzIvM0kgFZmLsYOTa1YskushcX2kyEfE3BZtzTIc5SSr5lpaDmwal3brOdHu2UgaqhFGn1MP2YIOG6rdpbt5m0fFdfmn8f7lvas6s2owunfTSIw/0+N4ATKz1pjoi8xpedzshlzsa3ShDMN4iJ9zzuOP9tBHsfB+v799+fXNs+cPDw9E9Pz585e3L/dXV8fjrI+Z5HVRxKMT02PVeQqhC2r0XRG2bW1K0GTAZyJidYOrdJti5LG3VLgaSk9HJxi4hvaf4dfyx7pr7JuQYPGKfp8Sq7dUG77DEnxbw26KDj+9sqxoROT4fjQW2eVal2Etcd8XMtRtS419Tf5MH2UZwOYYX5ttRmC0zPn7J+eMkRJBaLw/cOVXiVIr+RQbMAfeDA+MzC6aGvwIJ0jg5oZM/dligIAKjOglrMqKY34otcyg2b0kSeQgRoLPUo7KBgCRfCR16LAP5Jk0WYCNCOUZwJQcxgnxkXbA1NA5O1uGSyB5ImKelDjwZTtdVZwFmVsc4ddbqKiaOS+NQhMzKW90cSibXpbWmDHs2IaoWrz+QnOXXJ+qgTIGybmpBFWfEVUyRjIAYJrWTzw9LZZyShOqaocQCV67WHsoQND6T6lP60W60ChW+EV2nxnKMfM+5UYOrz13LeHyyh5CV//lnTE9M5O5rgKUEhHAaLHPy5FnWzhe4ylRG1g0hLZc/Bzrs2zPYo0e7qsHeDHrNfxOTRct+tSIW5ySiFbXF6G2qYHqFzGRApymOkd6ym2HDCYqkeyphH+EEil5DbfeXcI2xW431ZCdCMOcXolv4xF48sJE+/1dQJ9WtOwp1/afWLtlMqR9XCMMyLjFiX9UjDveOO7nPfVO3pysO7WsLcSGv6chvcK+fsfbsWV0MHiUP2KQ+CF9d/OSCl8qr7mv9m7GeSWRisX5jED+KFZ8CkGQqlG8GPkiraQ81fauRxu8PcL+vEC17N5qlqPVUJFVspRgjjkfRGSeZxE7NMjqIrtp6jknNTrNHsNibyBs2pV3nBLtpfIxPBQwVLF/dh2MmkxlUAxRoCot8jvdC88P1kTiDoqPpyQ6zkf48iSRPDlEoSm8UpolW3iglgkzi4BI2O8znzthLPdAOBldqil17PyfpVWe4CEp2Y+VXUx2cUclXC9jdz0uegG9j89O33m/C4W5fa1+JRaNp0/lJqrKygGLW5z4YJ5P5UUijrdY8ubOXJ8dPFyrUAzX2Mv57VMt6BeNxxMmfHvHcaXt02tJuZ6DTR/1xNBy83QV5+P87PmL25df76+vwXR3+/Lm2fP7+/urm2tYG9YJ87Xl3Rr6CkKKXWE0EFVbg0w2H9TP22+42n+iubVn1FRdVpXtE4/lhr7XcdyF0UWohUe/XLfiG/0mRdYaM4D54RCK6tJXLj4RNVpsrGCnC7b03a8bOwm9N2hnJDxRn5VntyxMxZ23NN8mkclFQm1LHK96e7Ws1vCyFvxKe8JMkRS6URT3TA3IiUr6eNB6XLikC2QgsScsqrMiFQTksMm+9iih0LIZwb4V/Dpi3OWKMkMGof5+P6HZEl53w44XAQRPyzlH/Az2KlQoeUb+XbSTDWxgPgzOXY727zCLDO0TvlcLY7q0Ipue7x0pnrNbvFzqoQHuzxOKUFWQuCVsVnc3L/E0WAkQi1VyeDgYeYYkG6uaFId8gIhoFkCRVefKYJmzmXgTs4Vwdlg2pbR0uwewm/aAx8A25GEAbq7fWqd9uikuB2LEG2JSYM7Q8u1SSqj84zD/zMeZ+mXQ+3MM87cSv59qA5Y2aQ0fXyEGtVQN4wv9Hsgj+jCXai99J3K5QIqbeZ2fTHy1EiCZ2vgVVa5uXj0syMeHITfn0oQ0c872yOF4IFYVlY4VDSSwcqIuhxj7fFmuuTXPkgFcX1+j48dziSZSXpAIRGJnAvUyt47vx5N19NFlHBUwwEQrzORVqXHlg5nY8tkQ9k38FTK58hJKKnFVs1HdXWgFuhn9eyYuPgBFc2ESQImkkN39LFVCpsKMp6YeFMpNu39grSRhDS0c35EL012GutU4UautQf46dlnIb36GgAQFWxd8+mJjKB+gZFfJeLabAkCY6tzl445SqA8NOe+vro7HI0T3N9fHQ3athhMz51JhVxQxfmst9bGc74+H3c21acC7/f4oc9pPBxWtiyGTFo/zuNZQaGEOqw9CmqUE9wPYPlgMGjtAzQ3pCL3LEjauAWBryGypGa/HItlio0Q/FurSVB2sdHVWfHLz3u74GzYHnpx36foPPv10HqWBOAAAIABJREFUsjgSWlRnFSUlJT3n+HMt4eQrNz0SW7dm+c5H/YwARjWgYYvoXN6TysEcUerBQEUe42stld8nlYvzDwwWUt+Ae3PCWCE88Papq4Mx9VHDavzcg27QQoBdEuTnTB+AV05/phQb3th9f+9O03xM7Pik2k7dyr859psXjcnkGonU0ZGa3higfPEUFBFARLV6TgsAiEAYonl2D0hRUbHjLEQKfwaiKpWhISNY5LrEEjUgGreqlSeAQXbsOYTrqk0OiZQJqeyzp6JoEcjPrSyAdWXqV9WJW6yv34feRgpFLqvc+sokMvDmiyki8LazhK5y9qq8tahHAr0pXQXu90tfPGVR+bRjA9lBYGELKn7hDSIKw49GAsB8nnGhBi48Y27ksEcb8+cNzn1q95XrfspqHUAQYgs+Awap56+AEuYSIV4JFE964mZlN5zqRJpiv89siL+UdKICG9KFfNkWDYuARiS79qadlPqv5l9wVcO4tbZb30skU2Kakojs9jvTe5XJGYGhhoKW25miwTnhCUPDvRo55/stuhaVKwoXiyoBCSRzvnq+nw/HKdkJeAqQiFiEefJRSkcUi2Ytxi9WQ7VIpz/ZmhiqWDmI/VFTZ0OfGCcHPhef85TrAWNZkTj+/ePKa7F8DvfLpSvTG9B8SZhBGMMr4Y3LU9+V/f5opV6aY6hP2i7D7S0cwCfH4XdX4pDfAguPkuCXyU6kqakinAnPSrTTo3DH4V1RQYI894Z/AUmGyHywKSjDwpvkDIjMmnOB71k7i2+i3m5XePANyux2LbgkOEFZnC8LFFuLnVnp78RheS9A3yBLAgikqgJdn3LNALtkk7/exveT7Hd3bpqvIVF1gSqoRhZfz3bOj7tE5xAb3s6LtwvQugftliwt8V2dz3jxkgOlRMVyTzC9cY3UUeg9zUJvfW+5ER5N7dus+vbXFpwKTtgXGJPMdsiRfR4t4jqUbQxyUvI48UyOOmMoSYvdZAYxY5xH0napY1EMCvFmk7uy0Sa9zwA3KB9/9fNluzsjKdRckwOZyjZet55iTnWjqSn8BGuTYvleLlF+x9R+Jcw5766uKHHO+XCYbciAabq+5nLkKhdyV3svbu+1lBjaksqZu2Y7vzjwWi+d434zzkqp0nccg72eqG4CKSaC9oaenG+mfT4eJ5oz82T75chZNRmjhrcX7FgmFpB9LLtcbCU5X8nzyWs+2B9heT+vV13aPSo8tb8ee/zJ4sefzH9TiT/3bnefiwF+EA4EmzNN2t96HPc3YXo/IXUxHu6/aTfub12GF46AMn6C0g4KdEQdi4JuZJjVLsraYdKKWI1QUQa7GeaklACQHfJYSodCIXn2aayhEQFEZS6ctJxVRQUQEYGoZCHjbZRobl4NoujGWm/W67S7qpQxBWuxxJMtzWYyrRZlP+ypg/Jki7ffYCLMc4u02FEsLCJKaZbWCG+B9MTIc9YQXV7bdmtBtzlRoOfaVrCFa4jTTmGlmOvzGJxnwZVPiZ+E8hs59OY+e7atccWkTbS0355KDxS8e7YoVigxi1JaQ8kKqyZKv0mi/ki400jzIABckSUA4zdooblngIhtr14Iyn7aq/rBsYg4foj4KSXNGNzmQq+oxeOnUi4TVuLNVprz839UJNjaITkxg/lwOOz317lY5S3lOfSHb17eceUBrPZPVTUWWZRcNrcN0BvtnLPuOOnDPOkxc1JAIRmSijVXVLNZskmYooEEAEAnLEA13A1AYeo8J7b6ahqBRdcp1gguW5lU0ve7paO5PtbhHON7NH5txa2PacKjfEb+Z9VhIz3pymcf59mGoDbLiveXHqgAUjiKdcVENBpfpU/3ZhlBgzSKA22g+csNCHEIxWfXZsPxg1yq0F08nZ2RfQp9oDylOG/Jj+O6Sx7GdUeaWqm/9MUXq7kdLgYAGYSV45yikBTroxWuIECR8xEAqZBmqmR6bjOA792JMsAevFIAHA8Hp4mrHO7uSrAdabsoqiJz9ab1gJLJr4nI7G0R0O/KsTICnqX2e97vd1oAd6kh1RCTliajGZ8s3RwOPjC2KC2+oMlRonWZeBv9rcg3Bfo9/mNzaQCAEutzfTKqC41kISLJAoCJcp5RvwiJOXgScDweuZr05FgulLkFpTGuv0eS2e3C7BSt/pwmN452cYfKhFKjy9uf074dJzQHdWW396O+hIqzrNtNYyz24GljPQ0tWrlrL6EmfV0ZAE+NzMMWGydGaq+cfkLnLh743/15q62U4H5aY56YbTf2r/AumARMYcJ0v44A1qtLbmFSsxaTrkdoKV6nGcqKLJrBWVUVnDgXPHrMInD/OuYpF6JPMn6855acWD/Ysjf9kUILd+8YI8wApf25uNiHiOxt9SlhRgOG6YdlDC5JwUDumU+cEguEiIU8cKp1vOn6qnayFPqn+caYF4FQmgXE2F1dm6GTajJ15+P2ReHtT+VtZVBBC3VZRTMpKAbS7SOlLxRXy01DpHl/fcv4tFfGI3IGtFjfQ5KNa2wR9t6MxJUzgrPOixDovDs8Sect42YrzfLi5r0rnhiYJoHMOe2SKEQzi0JZ2SgYBIg5GHl2G8SY3mG0tJQ5KulKmqYS9GQbWc2npo+kmiXZcePZ7Xo+ck0KdIvrxrsD6/fPKmu9a/aW3a6tlmOAKnyM9rklAalrz5Y3K29x4lfjvg/JFvKN4vh38q3L2i5EHJtCPcclujStihi3XuufbfKJOZFKUre46xzoc+VfheQ8V6h3vLurFnoKy3x35BxRZa47fEm24k5EZMHg3JmEG72BOTHRjARMZaFi4ygGZ+668FfLfXhlahW/VF4zENOTS7TEn+WivTWvLuxHnrM0FVDmo5Sfot/Usk/W3njeS4xSvPp6Y28EwaE/xMOYzlKe35RpktcsP6dEGmGM8SjcUhYGFsdESN9M0h1tw9UbBMHKnqmA46LsMyfzcK1pdrurGmXyQXK1yueSlfO5y/WbkM4KHoXGNG4Ftynk7CppQL6UWAsUPqfX7vd7niYkVsLxeLSabH1+7Xvmav6uzSaiR7ZlRulm+0sefGNyAse/faJMGwSDwcXf9o71OL9/8+IqTdOO+DjLdJXusvTeNl1IqXfyPZZlz1nlyuPCndxXkzP9japE39lH8zwnW+mt+xc9+9bLOVaN+PL2n3MngS5+fLjesEWcas926vNWAogb5lRC8MFom5fjw0Nze52PIPEoGVb6gipjBzYlLicmEphZCAmJiJIf0NMsdvEld1fXgqm9Y2XYhPyZ3BdPuNvTXFqqVO0EkHCrOv4O8lYTui5cOOvbBXZWlWImbHHiRfJKEWOvMqJUs6EOQJ+I+oZel5QmVButAn4mOvbBQl8dPGNww3VE1dygQzW2J1gz4goxQvdt1/GFYl8KtIqtNxxKbD6tGw8EZXolz2E2rgEiY/tLwMRajOjOideyg8EEgvlrGtmGA7VGQgtTyaqqB+V6bNvSJFi9j+isvOIVQyi20hr/B4Ayc3+HyIczi6rb9Rs5vbDhm0meE4dnCWAiIgKlVM3q3cwQNwPUFScl3D/c05woJSVMu8lCtgPFmt5tOTQWV0qhR4U2iXuS9jVqQVizxL+TpxJiAkhJFjObAFJ3C217iJWfXV3/8JMf8G2ebuj4ZebraYINP5qBCQApu/tKdHstuQ4bjpCLdZ31WOYbxutodOZwvUV6GUgyq/fPSn+JbIVhiRz6c/j0r8K5D61BoX22CDa1nVk3p3j0I/wbZqKfEJvNl3HoT6gZW9Bclne+13PUOR9RVvqJxZTQxf1RKmsFAG+kF+1ursb9JEWdyLgR55TUN5ecKE9zydM2oxsNzwLR5OMhF5oEJ7AbPApJuuePElNiJuI0JVE1hq7hd6KJ7OB0IiP7AiAimQuLA5ymHTz8okLNGaABCrfg9pE9WtFE1AN3eQoa9xPKpec9yXLXtOTEfdjf8/ll1krH4N6aZUZvHW/Oo08iYeM72cnoZJXn+grM7egomRXNtlqgtvYwsUdV6/eVxzsULGudgZcW+TTZmM02NfP+G4dkkQBQtRRNDAadmjMVrNSi5bT71IoTDwnvAz3tEwo0zzk76Ad/fXxoRvHdVIPE1zj053DQh24xECmj2lN/igpDvV/fqN6ppXNYVvzXWu0eiHfLa9VDbHOCkFJqdcgtYqlr9FFRNFVnv+cpkZGvRKpK4xPPohE01KFXbdu/nOp8ZWDw7ZqUvp8SorjCtnecnyYKsIjRSoWQhJPgk/c//uTmo89/+9n0Qbr7le5/d/tVAkBCeq80AXsoQxhk29EVyxcLP1o88uETd9N0mFMHfnwLh1LnRO1VgnC/EmxidHbWdUJOXCpitHhGRxDSZf6efkHs6etjlW7vWAaVYmyI5X1F5z+w6iI55tMsLJsulZWkROUdaTFh10e7daDPbzDI1ri89ZEB3G9ZxLnPp12vTbWkiJUN4Q2wubPni6X1vVbCxUD8OwXcO4pa+cqrIhvttgXB432K4zdA81J6PpFPrzp2UL5WNVkFrZ5z7ntgPaVVIOpBWmroEhUlyVlEROb759cc+DYW+gAA7l7eltoIOcoiiLIKRIEGr4v1XVHs4tc3zwCoUragvGA/xQkMBSFB7XAfOGpPO8An35zdauIn3lBdfFeQE/d9Ph/aQUCR211GdVClFi3/5ozyZSY8B8RXWnwnQ4ghoJob+jslwXxsbr4xtxTnwOyWeFXvIfW0rDq9c+LqNdv7cjCAKcXZJqoBjNIT7H6efdUEUM/zIj+gwgNQ2nRORFCeEtX0zmUn+yfyy8f6xNgm7nNq1ndLb9Qdf3/TFVt6XxijxVc9qgnQceKjwhOINB6ZpNWmFESY2o0KHOH+5p5qQw8rrHFiQmYLEBR/pQiU1XA8sQDK8lJNH+rqmUllt5sDGpaqtnnNSSoKrSF0Wj07tbl7y3YdZleOKa06CkBCgDO3uFedizzgjBRePie2g1vdzZdKMqDFqCl7O7bUJuZsvZpgUXtcAWAFIU0TMxcPIu9pbF+WgN0kBJj7fgImBgCmHMevv68qQLukVMKzdr4cgR6WbW5UqdQom4ui1rk5AbWZtrt7Jvlp3KBb3N+SYAZak3Hsa7jusnmiiXWVLL0osV43UlxhavFu3gsh7+5lPuwI/+gPf/zy8Nc/fHH9Ynd18+X8J5/89Ou/+3rK19PDb/7u+sN/yPs03wkgoJkUrHuz30NB2jp5JL4TPCCAoOO7xwquNkbnS7qQ2tKxBeJB7tEqv2XF74LixaJjQVvpw/UF8cm+PeHtP7faOVrlN+PU9jB9iZJly830QolW9vMlsJC7rNYTR8LGyZnk7dl8eHI58a27JhnHjh/VpIWYPqbHkL5mo8WrL5Ybye7xABl45rZi1iiMdoicm3jz1dWVEOVZ8y7N80PV9O7vb1EmTVuJliQKponZ1tpyk1OCtG1uJlVVTsxEmpihSqQMZQ8tZzG/G5OejRXdBam0SGoa7we4sDHPRIDH35b/+El5zM69YiKxP4Zf+/sAsEUM7Ur3eP9QVWbSMs5rnHiPeFOQ2dMsw8rm6Fw+b7SI2/VybVmjkilfbJXfsohvpm93Svc+10qxjay6sPHVIi4dHuk78fI7L6JGAoUSv8TxBAHLmplfCDP56a2tztQlOCVrv0Yn1DFN0BlW8ln9lwDq8qy6hNT71HeTRYnO+y8nQbV9BlUL9VOVIgo1lGJ9l5pVKWhzGFDfhhGaL67txjc6F23h9bPCor49s+YriTJIalxjUk7CYMlM++f764dbubv76Acvbr/6+XNc7efpOl/hQPvdbvqXf/yTf/u7+bOvvkjpehHCybL7TgDad/LdlnMo76typpJ/psHe9JNu8+Gy6rzdsjUVdkazjS2Vk7KiGNvuElVDrFeg/17SV8m1hTzPkaFhlgLRLIlFssxZ9JCPD82aG0gXq3H9lcDTRMqdq2JiNCifxE6LBM9EzImUmNmsrc6oYYayNqstx9NDJRpIt2RzKTq/zV9/ofoGe/TFx9utu8zNNahoMBtZuLZwgJffDCGrw7cOahWtHSw4iNOJLfxxtN0u4GNv22vJNCSLXTJ1PGMzmNmzwV54BmFmoCsvSSyrtW1/1nzWbqJEEB+yMjNwNdz1R5KvkFIqr31gqzfFoOe+yxASXlvO3c5DqNhWBLBo+49Noxuc+NPXJR48t9f0O60+vn9SXC+I+Cz2WIxzFcLfLCeSrSCntvvRK1VeNDF17uDdU3b+9dLVhMIlDc8tWztGiH8nrycdtcY5qm4OExznJPd0/+VHn9yk4/2HV9ef/6df/eVf/A8y5910zUzTf/dnP/s//7d//ZM/+JNffHl/FN9pEVWycI8W9q2M8fjBZIMfvxqpxv6o/1358DYnb0S8WUY28JBbZ5BhzrVOvJN3AuDpdht+T6SYS+Mtu59hx9J3NltbKsqwpQLB44H2KgeZ/cgeA/EiAEj04faYdZYsOR9MDbCFJPEIfZYzDPFE5opaZgRKScrGujggY2VSsIAopaRMNKGFmbMjntrSHhc2WRxRpAub9JZtezMA6HdZLjrC+XQ+MfjmNzM2RRWqu90EA5rxdMLHZOmN86blUmLh+bVaVQZ4LQdZHPRCBZfPvO5EK+UcqIrjM0N4Bcp/31yYzncQOVtEBItp8J28TbLxdRZHJje2aLnBKvTwwOk+Hb/80Ycfpd895NuXP/n4R//oR390+OXXrIkTpn/x409/dDX97d//8sWLH/724SDzfPPs+ctbVShEt2xEIv3UtsXh3iDAlFsypDktMULF+dIF0NyKbb8RvJIeU0swNNAWt/4c/v1WPr2v7somJnpu/ZaKJWOdiz4tot2x868sT7/Krh8M3gmdYfnrhsVbZj84vz+veHpsPMprPyiwCa66LhZLsf8GJrQxgB+vrDBE7EiLvsxoF2A38QkURz8OSTI8RriqmB8LWa1KUHkuE131uIn8UW8BZgBpKi6JytPuyqnGvVVUC+5gogwiIk47FSFMmpIClWBjZRkBxhojG2teASCZFUSX9YlaygaUj8pOgC1+5cbPDeb6U4zcJxFnh5cWWGh4Y0qTGMsnHxtklzJnZvTzW/nKNWI9B1fXKSVj3Qym91kEwNV+D8AiV3olVQFcXd2g7z/RRs5MNfh0iZbduMXdty6xtFF6IBNgCmFLfxm873r1isW0Ncky5TIyyVo+q7sBth9Fvf17vOYSUce5H70VnIiEIRaLJrrtAii2eXdXBVcKvvabA1YMAAKlvvevRKDqHK1a5fXVxsiKr8Vjidliv/WtSiUaD9ZGRLgzTUlVy76fk90RvmP1CbHcpqsdwmgyx30gCcHOZHBLRw0JXwiBQh7ulyzeSeDK5/BgeYjQ9qbGmXY597a3fifANlmOFmmkqMkMnQDHdiBhOb43pes8f/p84tvP+euXH003f/ajn379q89vcLObJk40vQf5n//yL/+Xf/d//7+//e30wYc3V1fzLCQsZBOlzXZlSX/MZXO8fwm0HeKmL/PxTuM3ZMjz+2+VP+lj8E7eybcipmDEJZYVrCrIUHFebMOqotnBqp0BRcXgmudj8a+dzVud7BRWrTFP5HB/74Wy7He7VqIvUWH55MFab+5E01BVc+cS91cjQzCEnbAWZ8vKkK6zbYULj2CypVX+rDnzezRjnSN5sZtxWs5XxZdQL/xpHeaikt/JKemIMdTu1FCSwGhlrwlyMc9Xjk0VrcSh7/rax9zcXk2667OUjRrrfeW3t8xE9U5eSYxiCkfzCugMzAx5+PKr9/eHP/6jD9L8m3S4/4ef/vTTZx8dP7979vFHd1/fcaLpOeNf/bOf/j+//O3/959/9ZBYRI6HDFx/y2/0Tt5WsZB/9G4v7530svAxEAkHtMPD1+ZK0MyqyFI5ciIO5UUz++ly6uq9QlUIkoouKyBOScRjLO12O6xBt2qVV7AgQRchls0q70tsImYgKVMxT7IVaE6uJeMK5YndItVKLBLhaVywN9B/Zz6NS3L0j/tejbh6KC81C/5rYZFqaa5G+v7c1tEOPU1Pc8rjpdZH6kDbRiyd76A6F0PpR4KNU2jMslu6f+TKK8K/A1feVOc4q5zcbThHaBNMB0vzwh7vX802c6jVRMMdCtb0+KvJNE0h3pbE0PK1i54eAik42cfoPU78G9nyZThsrNSdL0F/v16XMaWrv8Y777jyryOl9QgQDwOgHCYHIczXTDcqe7mf5PanP/7xH33yD24/+/zTF5/W5WK6lvsP5PA//dd/+rdfvfyPn3/51csvia/3+w8z7Y8sABgtUBqXKGCe/1gV/2PjukYXCvejET7cJ8VgcacSz86DOXodzig3yEC5awHgqF2XoLkKALRtCA81DwWs7zx0ZW3kt1n/OvUTlFYINsDm/YH9Y/8JNBgCxDyZcvnKS5JMHm7aLKxCRmf2SHkWx3MNrLwK9dyJEI9HtiEJfW+Tr/U6jNW8RmqK8poIqyOAnTTJUkh/EtwJYsSe6N8y9D7yyJLD+9Uwr7H9SdvWt4Z6Unmk/Cts3UDBbenWEmWPcjnOSUQ58ig8LJoQ8eFwb2m4HFWmqqLtOJ5sYR9rsMnKZa+1ohZjxJgzUB7c8vxdCFC2KJK2jcCarNcD2QzzYmUum5BaU29NOT1haasnbtEobRbS8OwbYV/TwiioKqXnnIOzlcuMrQBIROtesrNZcm7kGQu4CQCEPGdYryaRuFu7EcR6GdzNwxEuQIbVfzclWrA74L2l2/v2xnYcuj2s1UZMCTHRyo0sb8tNxECab51b+lWq+YWivUulI4FeSR0mz7Zg2UCoy0pUJ2oaUuOKxGUxto/drIsaIxfmnFJ1miVRq6oXKkR++AOJe7sagldn6WQCutNhgTrjsUBZnG8X3vNt2VspAX+8bR2t1J+VUvurhAESVd7t6isQKEMLxGYlkJ0FZImFlDBNOziG8pUX3p+04b8Gn/pO7gdfQNWD6qirRhqSNYifnRRUFC9IUzL7hX5J3XyFrxJDjbecq48lnbfzcB51oXlsbyTXsN69gvjrqzkkN1Duo4/EB1uZJj1UGglpZrDYp1TYtjHjsDt+8Rf/7A+vvvxrvv/yX/3Ff3v7X/7+o+cfq9D9/eH6+poT0V//zc8zTX+P6YsXn/yv/+b/+t//7b+/xW6++fDXd8ebj3/45e19Sri9fQng2bPnx2NWVfEO0aqiq/odBpgb2kUWQLws2BVQdi62FkVeMmnRSsMZVeVQJEXpdaLBKrYMkVEr1oWxLzcHSD10r7K6UZtizN4w0rq1JyOFuNGPqxyj+3rMe1WFKOzoGhe/TOKMvm+z411pf4qygri4/2lIW4qOKhxR3/LhLIN2QdIVGsFkL7XH98k4IEgsJTRHKIjii2/Kk9sPhhpGxvBqgtOyWv/KP653TtIMTAM/IXV01G4AoB1L1M39ZclBRGCws0hX93lNv8uAKHI7YE5EVTM8DHh7HZntuhKXVfXh4Q7FAF5jipdwMQJACGm3qxRPJ9jYv2iw3hI4cOckQDtphRy/qooQR2bq8O4NhNkAoYaDOnfVGOdEFH6KkPRWq/XPEiH+myPRRVZr7EuRVt7Fu9CGE5ajRsKvABgS5sN2k4qX893hoZW45rPk53yVbrCsuV8vXITLt+4sqURExMQlnIiF8gg6HKcWbFFVnR3e2iRw5cfdHhYClMsZvWYrNU8J544HOlbLoeVZ3LWLdPQ01B6rsU/6s1Z0qK3NnKH/rHqYalBm4jWw6isphJwohp+vLZfWQNqRcUhswSKFQEjExETKXMPXCEFFratnlofJeDWG7P1BJWiMEhPEYkl1P8Xv3u26UPXB1fp21Kk69fSAGF2nxeOnpvb7fMKOdtTJeK2scoeThy4lAbe4qAAxCaC7BC510HIgHBGBamViubU+tYYcGrOc/gtV93YVAnPnXxzt97E/961N3jgVYwQfgz7gJnUdtcIqf6MF4jpHxeoHejf1lfzbeKe+3NeUmiulWkqJ52m8g/i+Ef+M82cv3ox17aj9tiYQKkYvAiurEOlEOZFMDCHOAha6UWJAdnx8uP3l1f0v/sn7L//ih9f/8qPrf/Hxhx8KXR8nyHPoNDFf7SZmpr/5m79R1Xvef7n/4Dczfv75l//Hf/wv/+Y//NWv7uZjusq7m4fED1kApLQD3Csrw6ZFU6B568WWFqkKu0Osej3nPuDIuyCDhgYq0GneIeItBSCtrY0aTpgKJbYPFkuPj9SbS2UjZlVze6RNZMyh/BCGQXBJ6TF9WX171Mgy1mSElQ55zVVJVKVed4m7GX8cw6V91t+RzTTr1xTvryQOL0XdCw74vqTx/3ptq/Yc77+ODCXmld2MUJmNdh7+PDGrDWPn0eMOLlVFNtJnoE6L3W5GHIPoB2CH/3oNyp8VLVpfBgCdWaGaSZujvKjq4DQPALi7c/juuRIRUSIGJK2gNBJoSlMENBG+x/u+XDErE5dluFa6HkJ+ut8MeOccwL010k/Lpdas83P29Gtj1gK3R1LKgDVPwWvX2yXc9w2W5C7CWVSyWiGKTSi/rjNsllsGxSpkMexun5uKABtzKRrbwR/fvPazSOsiLX5dDaK8gKFSq1RyC1B+CU26HLgLhVl4X1WRMM5YtwTw0D4jfJehL/fQv1Jf5okytTtVKpSPvqQz8f1U4r5rjziZiMmPhy8ckmPCIcmxpzj5mThEQ4lbuy7xMK/BzbSi1eE6pqkp67NCTSEMYL3b8RugPBML2PIx5TCAby7lcjb33wrlUS6CHsLEXEA5CgSwsjxgLqdBhYjvxUTK1L8jo8xvUV1BwbHVLaFsA4zts4zfHz5IS7puLd2SOo0Py2V3s2USt0HlqXB8gNqqStJ07FaUf6BxL/SxCWoFtAhJvC8UmloZOQET5UTKrIBkIhLeicwJh+c72c2fv/fw2f/4s/d/9pz//OOPP5p1f1SW6cDXUL4iOJT/+c8ZvFd2AAAUF0lEQVR/nnM+CH0t/FVG3l/L7ubXd/mv/vbv/v1/+Kuff/nyV5oOu2sROR6PkkFMarYu2ETGQBd1IUoPdocl3yX3mymrxIA1G7xYovhsC3AbYO5eUlqSPmKGoVY1Z13QKgaIs3g7RY/Atz75lutwuA6qkUZbUTcF1zTR5p0UadZJ1pXXuOK6eR5S4RcVYy2rrxB9iXWpHmOBj3QFoI4NDpMIK7qlNNZKW/phid2wyscdnhio7gmGethoBNbaeVmlx1H+dnEnCDar+tilEXjW+mGYnhabKkadGsoNUL5xZiq7STULQUXYwtHAHVpVlVRsrGXJloOKMbG6F8mS7afkoIvtpCZDS5GEGiXidf+zxYBvtpAK5YloiAgRMnksIvx6P2ytuRQNjPm4oXFaLrXKX67aLXbGiA31VoOTnZ/q4TW7s36X5RY9MFrRevdlAKo5o5nbqVhnDdwPWwTnv28H5XvIUl8qQPk4+axgel5AmfG6WeJR7OLFQl+hfAPc9XmJ+RBRb5Vfdp8A5bWH8oE21r9O2EPQCZ0sqFMVufrv3Yho8d2ZBuZ6jKNvKesuRGY8MOdYiwA6JcBlBYgpEx4SNwQVVZEIlPv7w4tQj4PbC3KDoRpiT9ESqoZnu7frUmq9X/b3Qk1sD4ETCpdduUF/hZ0nzUqQRFG1iBWoGkXltVfHg94qn4ZWRVEtPEOmpU9IVHRrs0RzRsyzPbsRwx7tufDUJVA+lnJqCz3MJx3AGOlXF0rRaUuXYxUNxsTGhNlStk/Pt4u5VUAHpUWLeR0cPKsktcgKin0WhmSWiY77hy93X//6n75/8199dPOXf/jDP3lx/WKWaX7Y8XRUethfZdAzlZtpYubJAhXtWF6oXE084zjPcnj51X//kx/++Q8//JKn/3x//NXL+1/+8hdffXn769/8+uH+eHd/T5SyUvkWvBkveYP7GJsjY/1+12RmxlvmEK3aLR+uVIFJeK/13AWOps3KRUHVloLpcUmT0MUaaGl8RKmghwibOxUb7fDKUD6IkGI3yzhCuqDdLTEAUigyB4gPn1hLWc7/G9SPzkgfZwSzUUXTfooL4XqTREV2NJWtS6gwqV5mFTgpgfPdcdOjzeBR4H6hjNBkmWFsCLoQumFVvanGhtaFax0Crgrdc6gqkMt2uWSoSlbVnIUVQqI6AyDN5KC9kWdQT+4sczQRcSLmVNAWEakfbkhT47R0JN02SIPuR/VsFJTzfSw/AP5ToMfUZzzPrQa0Zjnx29aq18H3+GmfzLY05nxW8rF0+ybZZsUImOolyRoVUPuUdcPdPs0M0QLUsyUZlKWK42v32HLRe1uEJOgAdi0Ag/qgq5vftxliQyZLkdbdKqd2rAaHfbRuzswN66xomlq+VBvzPZSvk7kyVRzvk4Wj3JqehQWAAplZWUqHYQ2EhAwUkn0CExEDBDDXFbunpi7Zff7SYyuUYa3dr1rO+CMN12gpa25KbZ6P10K9zYv8njmVCUndZxYCgZXY6K39NQmYIAzYKcRJKWlbA71SaloHmYrDlUYFKwvFvE9CqCR2pWbYEIDsByICkUZnVg7NVFTcRSOH7tK62rpL7JpQcKg4Z/GNOsJqGcNEI303uHAPcit3CaODQFK21+p9w12+IdRncG4NShPyqPwUQOFmMohCMwhAglzpfJ0PCYdruf3xDf3pH/7Bn/3ggz9+dvODjP1Xd3qYb56/gOAoMxPpPFeCHP3iF7/IcrQopBk0S1YhSldKaT7qF8fD3dX1zE4r/O1vvwBglvjffP4FlJU45+wnSsXXqFvpcRXvfwWMqNrQs4Njn+Lbrm7cRHv58uuajyxgsT0oGaLqJ8v4UTOqqiRUH4mbvF3PLrv/wzIjIoN9wuTl/V2rQ6lJWaQk/jOwOWOyVn9RVc3SaIVuqvYXo4aKSiSZamuEsr1nWyR9FDf7TSi9HcFDkgFkkTx7m4uqCg3KS/kcwUpnIUfs16DuR84MBwMYhwPtq9ls+AJm5FdVgYqsc2c763tH4D41lUjXA4PqYo3IZrgj9JBdw16Q1TKyRYlIRETVRlD8lFVH3dqsLzU5A8rrevrTsm1lse6RTSsL0R7tx1XFbxRFVtHiHZutjyMbShDUbR8VAC9ffl3MvmQke2JiTmZ5X6lh5FwtrI/RikyL/kMLQloxQSmaGYwbT2BhEk6JhzsxpZQNvTMWO8bqLkqPXaTsSHiJG/awm5ubem1kpGUNl7LcyvAq9P2/5sNEcVKyCi6etTlKap0TUbOXhFET+9Ltw33MYfW6r/n4XqWGjO0xtWy9apUkIqZptc/EL7KsT2f95QTYQm8xvDlYc9twyWUGjjZRIooLiqpunZshJEsyNxHpVj8vPpdCOEbreOcMsNLVy6uNTVppJD7jN9hZawjAuTpKyIxnL94Xcv1eheImjMaNEWYAWWVWZHOeoW6cUoiscjpSTbyTku/n2aexuTcvtsr7Rh5oNgSAU3K+zLBQ2luwRqJObSXCBIDZdLjSmExESZlToM1EJBvv2PX19bVlK01xahRB79sRPxh2Mi4ZMzFpNZz062Zpf3dgqM2ypFOs+kIspWc3+SN5XlmsawVW/8XiAxmkrj024kNx+06b/I27VcEWQicf1og4M0hpwPhv0ZMaQ69Tc/oXOUuk4aUqrHbKOA63dyAlol2aOIEV85yn+Y5+9dmffPj8Zx/c/PSjm3/+Bx89l4ebHfbIN3PaZ95l3oH3aXqYj9PN7pAfbm6eqSozl2BtTjTPiVSRJ9GvfvdlPswfPHvGhy9y2T2c5gMAoiSEH72/ByeiNIuoQnI0slQUniJy9bbQCOXbpyKpMROqJrAChuSjFigzThb1WlS6dVGTjZaJmQt00B6+DJz4eGFrWgFngtLzaj+x6hFTHKWr8L1RBtc2lEP9KSztYY2RlepRceyzZUMLDkaAkgbKtfy/Fe3bi5YPWV82H8BSMY5QwEywrfRgfIpGnWJYaJoJ+egU1A0QERXNcSOllRKmKgtQvpCeYJPX7y9k0zMBQIFHSxZN70bs85zkZmm2oAoqEgN02mdtaMjg2to013WGDfi+2j9PS+m9UvtSfWXbNCEya5Hrjm24bUD5+xLTvWxDNTiSS5CTiP/u7u/L5+g/SlShw7i+uXkWEnHtsSi9SFXjcHj2rEsf8lyH8l5JQFSrGu/YvS5F2elAUj4wwkoTQXx90w1qYSu9fK9Ne7OPVi+w2RGGLhqd7IEXcSbpp9xRSs7x64y9qKYpQ5/N/FwenIfeKwpV95TRbH2btNk6Sm1DXzrKYXiXUpP1MbulhKyk9Hmswwchn3jf9pzc8NYSlc1PZoqzeqhka0IRlXJQDjmVORERFVe2gaOsQg5vyzJKhKUJo5fGWmwLRLEZ1x/gr9Rex6Kwh2nIYWUCF6M4YZhbNpQfexcnn5Q/e3EWTVbJSvMXX0MV0GIoLtAIoFKK0/SZCXj/5qbSSKpKYKU3zUFbucsAnZ0XloRDu7wsrc9uRuWIpCzrRcYsTVqxYk2QOClr1DQ8B2WlQ6khNwiuzjc06OYKQ3jYU9qSbdrU7R1RIwHqqGxwbR8qircyJUoCkJgCQlJP8lgqQgpoiYoDDx80yBlQlYG4aREAjG66TW7lP2gU5XtJTenmTGIUJ2mTu9tbtNHdV2OtxC4sQVBFqiuCE8+ooPmwTAHSZuayUJ5mujIli9FCRJW5l7OoUjoKsb63I4jgeNDD11egRDpBr/Phv/nzP/3ZBzf/9P3r9+avd3e/+/j9m7Sfbl8ekqrSlIkhPGFSPUzQrKI5K0HVrBRIknBkEUqTikJU5dMf/UAOx9998dUHN9eZ2GaxZxObwi1ZsyFOmpNCoUJZoQLV8r/hy7U7gEKUlP3ze6NQWS18yyyRAScVlcI6paikUuMaKEWEYIuQc3IyHXzlEB+hy0/e7+AobGEgr66ya/nDx7Mz14pWsMJARetqF0B5GEAP05QnY9TgeqEyhZds7xgMimXDqPn417nJhlxFDKrFE5GYaGr6ic0MRdRm6nC9sRAJKYKrYjF1c9tUyjmrdlC+XtkSoHWfAf2enLVPpAMFKE+nofxJWyDRTfyzVigSwOw+RSnRqVV8f8kkB+hj3pZd+6/V6hyT/GrNV6WaKNrHrYqrQ3nrEjo4ogysM/SginhgDzB0r2gWAQBuoCUBMJE/ZXMaAnTTAtPrdRtfFPpth6vaswHsdpgsqAdFqXTAoeFZV89iEGgAkjOJ9kb/tvjWSio1MHoKyvtTp/pkFykltcoMOLIo4o4g675Br+qsFETF/XPwGhynsixWQF0aa+WtL1fFJuRcGk2ERGzDEL1VXpxv10Y0FUtKe7uNLfO489Ay7DcwvSYh5+Wp1V1L9lSyeC1lvWj5B0MSEVW7r6pmZOlsV6QiantSrT7+NaVYUsi4Ep5nYLTHebTE9gWgCGffiiqtW6kXPnbjTVWLbkAZNTQEY6S2hnne8z9HlWpDTCVA/7D2NU3Y1oziamXjccWRMcSYirKsz+DbULqc6xDR7rY5Aj3y1dg/RSnMnxIGO49euW7hDvz4NnbUomfW9VdqL+3ei4bruCnhcyaFX9lHkIpmSL+MdmvlCJrLqJGCnmuPij2oKF2INemlfCBHedZQVKfqLQV1lVrc1LlQE2GUKU9y+wgaSef03L6XvWnzKIkLXyzIoH8NymTtYIM3qwIcnDZd5Y7O4lV3qtcn3AmkwpgwbwNIUyJKTEw4zg9fvLffffz8+sOrZ5/cXH18c/0PPvjgk5tnz0We5fsbfXnFh+lZevnF73i6+uD9j+7uXyKLEIN4Tukw01VSBoO91eizzz4TkQeZ7zkrIQkoz7uM492dPMxgekANgAUid7zIWTNIRZW4WHSGfiOBXdLaNEams4ZH6GT2Z7Vn1Hl/Fqlmp7gILa8XsFUql0hVTI0pf/YrU9UKynrpX6uY23OfvlaGm2uXe8rWr26L6EUEm7KUTjGlAZS4qxQfqWtK19u67aERKtU9zfb61lxsyxWLZDMmLV/ZFxtnkIehtUCfNmtH51EPlRPhQgi11sy9zdORqiVpkLJWSazkI1b5kwBia2QO333IrQHN3uUo1qNuGa3q8bFWJ0JYvkIEm+UiUf6oGMSxQmcRX7PK1wgnsWxlAphxVW0zbTVFLljbiyBMVD4lFWLVnLM6dKbawYcwZKbG+/faYiFvEnJQrZXRql3nljp448hNdXz1Hld18wHhK6zB51Va2mpyIWd3Ua32Utv3pLGfbH3ZDVl2v5j/sEotgPvSSNEAejlnN6W2fjeFTd1iY6aW9dKXbxo7Q69UaFynVylJy9aIKkdgLWJJsIk8ky2Vm9w+GgkYXqVqOvGy1ILrp5YzktW7cghXalIAaPemOmMxES3nq+Ln43WoP5Nr2v6l7H2ldOa6H9etDttEi0W7+NaTxZn1MU6JmAbwPbedSeNvYt0XfGMePvFlYUA57JQ6jg+wtStB/WYMEuousEw5S0Yb+aW3+xdcJ9hQQjWxlbV1iAoVc4tzexo6kgz65qhmoGdDWR3KmJX6a53iqngAKW0bPtKrDaWGTXkYfgLaTKsqQDEIir94YT2sQPk6TCq0bVNor1EItSl0wb2JtMDWbrUXFz97VlWpwNQZmUwR8sPd020Vq6VbowsxYYz8sTprbQMOHr57XT6IiCHPU3428YtdepHSD29ubiDXzLsMnoXlPuF2wuHqaqdMhyPf3h9ePN+rUNIb6LTf7+8fvn7vRdI8U5pUiTnRZ599pqqz5LlFbhEShahIRt38UgVwd3fnjS6kKkYrL/vOHV1+GW8uXtd5agAoNcqN1js0Ptv19HC9UZYspwC0jtUh0WiiqxPlklZ1QmJZ50AudWg7EjMWC+3m2NjKM9R9S6p96NyN7EX+mxKmKnml/MP42QAqNWrVm6h/V9B5+Qfb7WX5n1uN0qRP+b6X+F9uQUbbSrbrrT3H+E1XTyOKUzxx3d2+7E1DWV0F4Qve1h7Sa32vtf7ZZbhWbj0gKbp8BGNek8db4HzVrtTncejf5yxY+7KDmb9S5Yc5kAvHaWtuPL8+y2efVnrVd6WX+kVf3xjK8BxRkXM+a5UMjT0q7JU9Ut7iBbob0uarFVUqXG+2w1Y5W7Ly2SJFs9tf6lZbnws8pFWEVuPjsawt00ylgS3T1OyIGcqRWhlxZ8uKuqeCnNsmW85IGxinq0mtw6bJZi39VikthzMcS+Mr11hhZzrKjgpGda2OjRmgfGd0WyxYddrx/+gKXuo4F52aFGEGtfy5hU3roT+w1md4QayFPRlSDmcC7ET2WXYiCZRUElESmZhJkUAgSZSNv6iEYhzJAJivCIkTM+mUzNTFqsKc3PqbiDULkXmFcmFCrnzU6nXrIYNVuXCzom+vFAwcHo3WU38EQ0O12sPMuX4tW521Uxjb3c5SuyLePc5YFOzxsIXweOKuiNNitsBFDvHZSEyLsknVOhdKjsabc+XNQNVe1o39b7OEk+q+zWpcJlsMqXWJNIBoTovBSWU9vdIJxdJ3lRPUJ+KLu+RJEZiiXiuyluCV5dH+uVJgtRJoLZ0jkGgpz55DzpcLGjfOQotSNvIRdG7udges3SH2faUv/dxvboCdrkmZMIfyy0OnIusFUchFXS6uqn1ElwvbrYdBdXCundMZVtulRvB642XIq0oy0FlGf78HBQN10K4+EcrzUiHZUq2it1iYDuLM4FtJ/Uk4qynP1N9OyLLbCLWWWbb1adWLFwqMnAFEeiVvvb+NNWyJ2h/n9IyVGlaL7VpO3ftu78oGU1dCqzkDq1BeUPbK3LDi14E1wCShtkHNIwy4Nu4KrsL6Eqi07vglxdWMSTonfq5MHnW/C/S4YpomIhAJM4wyKQQGqxIz//+KbTiOUDEJYwAAAABJRU5ErkJggg==</v>
+      </c>
+      <c r="M5">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>a78ed074745db178e499830e01e949bf5</v>
+      </c>
+      <c r="B6">
+        <v>1558732706940</v>
+      </c>
+      <c r="C6" t="str">
+        <v>dVbHruQ4EvyXN3tTL2RKtgd9kPdSyZvFHEol770b9L9vPcx5eMnISCYJMgNM/u/vr/XrJ/Tja/r6+ffXf5Zs/bb9q8u+fn69ljT/+vG1XuO3x0o8q8qG+GHeQzvMH+qPFEchFPkw/dYl2Tf1wXu1VEn7SVnnLfvxNQ/bWvXFP7Emu/4ByzCv5px+5/wX/vFVvYf+E0hf6+tn1b2KDBz74s+jStfyF0r+WWZVUa7fKHktGY7+qHzGtA9IFYuB/gzD8UreKz6I+3bpg6Wjj2FCeu+kDxBVqOUt30bpNGQC9HzHFk+jJgm+SWJJ13U1MNuJhKULVU8X3rw+VDyr24WiTIldKexQOUU3V3xHbpHRsG/XghSWvhw5GuqCiZxGSXCLpBmHqYyoPKMSXxkEj3ykSz5jzvveINnTuRIiTF7EmCAApM7wUHY+aQGpRis4yFfhws5UGN8tYlpdDzF7VgtRe4kiQXMveIPPblqObYfT2ThKduQ+B3iYIOrcehhvTJxbHTxEEoO+ROZAyNl8G0578u89YtvtdGZyEvy5V2Ot/Z6QbqlpJrXaHoDBcei5fpbTX34fSK4TnyjfXoYNioY/IXbXJNWpeTwFcIE/wXZqVQpPreRD7vcVmQyYsRyFwDHgs48+hHysCJEgKlklNSU2BJGA/Cu2eVV/nqpskZCmsze/n9rx7xiVIzfgGaKbfbHNXgrn24rZz3qWO9vKJRblUMvsPtowUJsIs9zcg9tmx7GTT4ugXmA3bzribRdNF6BbtgabKWbzhsGeOFaBOi5dVeoP8OSBfqzQriUKt0U4NEl2vISyLFH7ByXsIMo8hn0fqgtSYFoTEZyw8PQEyWpkfHejpwfKopLiRIocM601Dmrgh/LUKIGQqFMjBMLMjo3viDPbtv6ljmzbdFfNsKRyspevll6pHlMseOV0jLH/riarjfxlmiw/Cha1s335vfEaYzonZ7H7ak6GS2yD7irYdZIT7M8Kjcm9cgYoLUsKj5kxIODMZZvhmsGv4YFV8TN8t1fUVQV/erWEgDkQdOEWKkpxRMOOc/0uGZB2zY86rW8oA7rKI4MLfoLYDUwEwch3woqbw0NeMak3guKSVBmi7O3GFjpxvz9NKPHpB5dumCH2FY0OY/BeYCmPlSCOmDjrlWLjnSUgrHYoGf5d++yc8adeskGilFHnIlinoJcaKdbiLJ+bbur2vhUtYwxhqSInm7ZLP4NYK2rxVuLXBZ3Z2LfQ7ZCRk+qXh/JGVZtxlkfhUut+5zg5o9R66eBBr030oPLDeZNwnA+Cu++Yb3VqwKlpVEPAy2lcr/XZUdTKs8zhZK3aR51Na07ebEIBDUZdtxQ1kYz4SmfTVtF1iwPyzj68VCeQ4zOXqK0Odx0jLwyTceBhKDkBfKSAyY5+f+QYIoZAdvYWbF4WbruFlxb3FEKCT0esW1TTIuzeWhnFx8CIEFQ3pewcgP1TrIk8B+GByEG+G3z+LE0qagI5g8eS06C+JAZAH6mnM2htV229M16Dho0zH+CYgm9E47r3xi9JOLfhKkqxHlUpr2fEnCUbpu8iCRtj0ShyS+EUelDbONdLAIAgJi2JUTMzovgWJu8mCYNG28hOKabliFF8e+bGbat8kum5JkuYT1DjyLgAk3NN8fZE8uHcl8w5kXa8MP8GCnKzZ7txaumcT+oBGchzD/Rhfmqc1Lg7Pj063OPUAnshdp/ptXWYNBXKYEmzpoImC5jD+LB06v4AJVMwJA8FPp1jXTGqx0RJgvPtwT4gKqsIUJBLN/Rn6tmEhN/fy0g3XDWf12P6VOQtjS6x5O3FvaDLY/QASZELAAO8vgmqQfU1h6X91EdPIFEPomI0arMngSnbQ+zhrY4lqa815Op2HhegmgMp5Tnfwq5TqeojpMMXDgQNDortGd/Ix5EY6EG7jKLCLxSaSa5ZdWEyonZUsPw1wVYavoan65WeDHsAkUUglQToDQLQgzAQqs4hviVDwA6YmG2LMbaLwlRJUNglzmLWM0ruLNch/ij910p6j3cBdh1fCtoSHYDCMKxVym+/t9HDeuObFmZJjS3N6nrSIrAPucOUYpGrmEazRnzYPS9JtShUVbcQ9BV+KsDlpD48ByiTUMjMh5jAAbhLisEvCfbS4UPnrANZbN64pZRM3syaady3rh4sE7qB0cTa8BaZHWAMt5DiS4xCJ8jOPDu2FdvaKbJTtfVf2CUSgBxoHE8YmwI8BWY3iHyyepoPPs9+MaynDscFGyk1T/D2R2MMqD2zZHzhAnMJ3/3pyDtUWtPStF/VUC/C2ulrv0TTLmC7caySypXi7E+1RK4HY49RWetnIWB8rYqc61dPpSXorZ+I7b2cAEM5/g26mtaexvf/gmYU28P4uVGKovj16+v3799//R8=</v>
+      </c>
+      <c r="D6" t="str">
+        <v>a66d5887b696ceeb594d493f509ef1e25</v>
+      </c>
+      <c r="E6" t="str">
+        <v>asdf</v>
+      </c>
+      <c r="F6" t="str">
+        <v>#d64042</v>
+      </c>
+      <c r="G6" t="str">
+        <v>CHECKING</v>
+      </c>
+      <c r="H6" t="str">
+        <v/>
+      </c>
+      <c r="I6" t="b">
+        <v>1</v>
+      </c>
+      <c r="J6" t="str">
+        <v/>
+      </c>
+      <c r="K6" t="str">
+        <v/>
+      </c>
+      <c r="L6" t="str">
+        <v>data:image/png;width=48;height=48;base64,iVBORw0KGgoAAAANSUhEUgAAADAAAAAwCAYAAABXAvmHAAAGK0lEQVR4AdXBW4xcZQEA4O8/c87sdtttN5RSYFsmXKUMFcEMoiECMRgJJqbRiJCoiSgmriEm8uYNkCcTQ0JCAySIYojgBYSkJb6Q8ABSBiNYhxYh6tB26YV2mbbbbrfnnN8CxSyb7Xba7pb2+0Kr1ohmV8Q+dLAJ6/EiXsCr9XZzl2OQmn0BvejFYlyGG7ADa1u1xmqswuv1drNwhCpDA4O3O/4SzMXZuBZfQm1oYHB4aGBw28rOcNSlxEcvYCluxSr8qFVrnKZLlaGBwdudOObjKlw+NDD4xtDA4MaVnWHTSZx4ElyNR/GNVq2RmkbixLUE9+DWVq1RdQiJE9t83Invt2qN1BQSJ765+CluMoXEZJFYFGJeiHkh5oWYF2JeiHkh5oWYF2JeiHkh5oWYF2JREKMPxKIQ80LMCzEvxLwQ80LMCzEvxLwQ80LMCzEvxLwQ84IYTWEB7mrVGleaJDVRJOnrMefSutDbQ9S9srT3lXWKkY5QTfU1lkv65xEdgWjs1Tfkm7cRgkmW4uetWuOGeru51UGpiWKpsmihM3/xE+npi4ml7gTl2D4bbv6h0eebKn39Fv/4B3ovvoiy0J1ALG267Q6dx/8ipBVTuAq34C4HJSYJIZBlQpoKWVXIqkJWFbKqkFWFrCpkVSGrCllVyKpClkmyjBC8JxCyVKhUhKwqZFUhqwpZVciqQlYVsqqQVYWsKmRVIcuELBOSxDQCvtOqNT7uoMTJ5yx8q1VrJA5InJxW4AIHJE5OZ+F6ByROXte1ao35iZPXclyYmigExUjH2/f+WmXuXJJgwYov6DnvHN0Lyr3jdjz0e+miU8Wy1P/5z+q77BIzbCGuSE0UgqKz246HHiNGIUvNuXSZnvPO0bVA3Ddu5NGniA4opWcs1HfZJWZYBZenJguESsW7QlohBEcjVCreExMhCWbJhYmT25mJ4yKYJQsSsy0JkjlzzJLeBNFsiYSequyMxWZLgjGzJZay0xepnl0zS8YSdMyU4ENijOZefYXsjMVmSSfBJjMhS6WnLqAoKEoxz81ZfoFTvv5VQmKWDKdYj0+aSkTUlVCpGLhxhf1btil3jeqtf8zCb9+k59yzHYkYI2VJmRAQgmmsS/ESvoaKSWIZxfH9ujXvM58y55I6+3NJf7+Qpo5ISMz5xEX2NF8mRuWuUeXuvQ6hQDPFX7Edp5msKOQ7RnQtBJV5/Y7FKTd9Rf+1VxGj7ff/1o7f/EmoVExhO9YkWIe1phDL0nh7o+Mp9PSoLlmiunSpyoL5prEW65J6u7kTTzuEsbXrlXtGHZMYidEMe7rebu5MvG81NpgkJIl9694w9uprjsW+//5HsbNjBr2JVQ5IvO81/NlkIShGdhp59ElxfNzRKEbeMfLIH5V79ppBT+BfDkgcUG83SzyIDSYLwa5Vz+g8uRrRkSjHxrx930N2PvWMorPLDHkTv6q3m6UDKg5a2RneMjQwOA9XI/hACOJ4bs/f16osmKv3/HOFNHU4+dattt59n5GHH1fu3C309ei7/FIhTXVr9PkX7VnzspAkDirxy3q7+QcHpT7sflyDa0yUBMW2d2y+/W6jz79k4Mtf1HvxMpUF84U09Z4YleP75Ju3Gn1ujZHHnjL2ymvE6F0jD/9JPrzFvM9dKV28SEgS00oS45veEkIwwbN4wATBJK1a40r8DktMFqNYlpJ5faq1QdXaoPTUhUI1U+7eY/9bW4z/+037N29jf0El8X+RWBZClgpZRggOK8/FvHDQBtxYbzefM0EwhVat8U3cg/mmEhFLsYw+JBBCQhIcVnR4wQc6uLXebj5sktTUHsFC3Im5JgsIiZA4ekG3RnEHHjGFiims7AyXQwODf8MoPo0eH40OfoZ76+1mbgoVh7CyM1wMDQw2sRENzHd8bcBteLDebu53CBXTWNkZLocGBv+BNTgHZyGYXSWexfewut5ulqYRdKlVa5yG7+IWLDE7NuJ+PFBvN7fqQnAEWrVGgotxM1ZgCYJjE7ERT+BB/LPebpa6FByFVq1Rwfm4HtdhORaiojsFtmMtnsYqvF5vNwtHKDhGrVqjH8twBRpYhjMxgF5EjKGDTViPJl7Aunq7ucsx+B9SVz/TLLlxNgAAAABJRU5ErkJggg==</v>
+      </c>
+      <c r="M6">
         <v>-1</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L5"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:M6"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/packages/storybook/stories/data/normal.xlsx
+++ b/packages/storybook/stories/data/normal.xlsx
@@ -435,7 +435,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="str">
-        <v>i65WKlGyMtBRKlSyqlZSKU4tAdF5ibmpSlZKzpklmQrOGanJ2Zl56Uo6SiWVBWBhD1dnb08/d6BIcn5OfhFQSDkpzcTY0Bgokleam5QKEgKyyzKLM5NygFpKikpTdZSK8ktLQAaB5bJTKyGM4vyiEv+iFJAeXcPa2lodsIsMTU3NLUzMLExMTQ3Noa5DUglzqgFQQywA</v>
+        <v>fY7LCsIwEEV/RUaXFZqmSZNui6gI+gHiwmrU0Ec0TYVS+u8mVaEidDWXM3OGu2/BQOx78IC4hVkljJvlsRAQQyKNnCQ3ccpkeQUPTHPv8WqRbNbbpSUnlStt0TS9hBhhS8q6SIVDNj9lJdPcKkbXwgOtauMe9btMNO9QKW12+uycOeq6zusbIUIiFlIWEoKiT7vB5beqPxQ4jTgjlAcjAvoVmI8xo3hECP4EjkJGx4XDCw==</v>
       </c>
       <c r="D2" t="str">
         <v>a372cda0d53a2f9b0f4c46d0cd3136748</v>
@@ -465,7 +465,7 @@
         <v/>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -476,7 +476,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="str">
-        <v>i65WKlGyMtBRKlSyqlZSKU4tAdF5ibmpSlZKzpklmQrBiWWZeenFSjpKJZUFINFgxzBPP/dgoEByfk5+EVBEOTk51cgkDSiSV5qblAoSMjI2MQXyyzKLM5NygLpKikpTdZSK8ktLgIYB5YFy2amVEEZxflGJf1EKSJ+uYW1trQ7YTYampuYWJmYWJqamhuZQ9yGphDkWpCEWAA==</v>
+        <v>lY49D4IwEIb/ijkdMaHQlpbNOBgXHUhcjANgNY18aCkkhPDfPfxIZCFxurvn7rm8xw4shK4DDwg7WFTKDrWIcwUhrLXVsyhudHGtwAHb3gcarQ7b3SZCkJZZaZDM01R59IKkqPNEDcjzKcO50ZVOMrSsqZUDpqwtPsM97m6qfTdVaezenAdvSfq+d16ZCGOBoFxQxkjwyfdz+Q07EiQPpGBcehOCOxaE6/uC+38JklDBpyOdng==</v>
       </c>
       <c r="D3" t="str">
         <v>a372cda0d53a2f9b0f4c46d0cd3136748</v>
@@ -517,7 +517,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="str">
-        <v>TY7BCoJAEIZfJaaOG6S5ruwttEOnQLpFh9Q1lnS31jEQ2XdvtIJOM/P988N3HgFBbhg8QY6w6hRO01xbBRJSjXqROlVpBAY4PGaY77PDKd3lGbHSNtYRXNai3IaCiOnbQk0o5hGdL93poqEeul4xcLZHbW4UU3ZXw2fprMOjq6baOvDes1kq4FwkUZxEnAfiK/j3+bMNqXB5Aw==</v>
+        <v>jY5NC4JAEIb/SkwdDVzdL72FdugUSLfokLrFkrq1roGI/73VCoQoOs3M884D774DA6HrwA3CDha1MMOsjqWAECJp5CzSIpcGHDDtdYTJOt7solUSW5apQmkL5yeW+R6zpGrKVAyIEmzPu6xlWljP6EY4oFVjZHW2sc0uon0utdJmq/NBW6K+752xFCKEcUw5JgSxV8HJ57utNxUCygJOaOD9L3DX9zn1fwjoQwgQ5vS74Frh8AA=</v>
       </c>
       <c r="D4" t="str">
         <v>a372cda0d53a2f9b0f4c46d0cd3136748</v>
@@ -547,7 +547,7 @@
         <v/>
       </c>
       <c r="M4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -641,7 +641,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -783,9 +783,56 @@
         <v/>
       </c>
     </row>
+    <row r="4" xml:space="preserve">
+      <c r="A4" t="str">
+        <v>a3918c067d67964dd150fcfec19e6b4da</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4" t="str">
+        <v>bVTbkqJIEP0Vg9i3NmxEcMWJfkBQKAdoxUbs2tkHqKqGUi6OgFwm+t+30DZGdzcqMiozK+vkycPlr19cwU35PveTm/7i/shJ0e2pnxBuyg3zorfJyhMivZmfHrg+V5GA5auqGrCz/HKUpTFNyQBlCTv3MT6RPGc1Ai/1vEFvST4+yCnP0h/ppqQF6Ym8yNysLKLejKS43wN2TxyP+eGP1N0oDCLNCtIBMJeiLL161ybctDiVpM99UMzS/J9DoVuT7vwUsowGOvejZm5UFMd8+vzMIkwHmIY0zVn7juYzSk6dDbrKPlfm5PQ1L4uOfp5X2anD5z4/P/sXeYaSJI8nvMQzE76kunK7ScZhv/CnNPFD8pyfw6c6ib9VFBfRy3D8LSI0jIrOC/ycjMX+SpPFwKtCnGwbJMTnYM9TayNWYD95UqkSAlWZANdZrYcOdOduiEYwBYvZdn2ol+tGoeZmct62tmY28nw7X4fuEBpAm5cWyzuuSIG6zLDhVK90csYjPDJT1JqJ3MBGNlCyqHw93qNGftse0Jn1rU3ecR1VbnGCamsjHbC+pqsw63iEK8MWYDNjfOsStTz1DYdHWnY2GS5upJHVSGeUMJy9UllXDAr0KPY9nGGNzfWmVMsNCLEQM9xQBvs5q3MpMOAR7rAajEJ52SqhpSq1TTtDNw1CoNUH6MH2xuUr12IjzuFmxpPdLF5tljzcRbwp2C1qwO+7VyuREEVQl0fAyL/f5S+G9a2I1WHr64tDMEJjoM0qoioVMsLQerv4e0tTqlftX3cN/j6emCObJ14d3/GcmIITw9S6n6WBns0DHR4DvZIBtcRXLWQ6dJoobD9c9wft3lkeH6HhZKsNYNqAp5UqX3Due13mUO400u38fWe3TJvbbPReF5jEecDwgQCTy6Lgbp5ZEggSb3owCrw4J288RcKiRM2whbvl8X9rd/aRJC7j75ZW+98F7p+f4cTEWBfvnrT3dblhHAvfcw6B7j5y1GWWl6IgZbXJooVefQy6HokdB6nTvHvVQz1h87yqD9wkppl41/vh3bC2tvr72VTni4aa+P0Wd9/cRWPl5aX7E/z9Dw==</v>
+      </c>
+      <c r="D4" t="str">
+        <v>1st Source Bank</v>
+      </c>
+      <c r="E4" t="str">
+        <v>www.1stsourceonline.com</v>
+      </c>
+      <c r="F4" t="str" xml:space="preserve">
+        <v xml:space="preserve">205 W. Jefferson
+Suite 404
+South Bend, IN 46601
+USA</v>
+      </c>
+      <c r="G4" t="str">
+        <v/>
+      </c>
+      <c r="H4" t="str">
+        <v>data:image/svg+xml;width=16;height=16;base64,PD94bWwgdmVyc2lvbj0iMS4wIj8+CiAgICA8IURPQ1RZUEUgc3ZnIFBVQkxJQyAiLS8vVzNDLy9EVEQgU1ZHIDEuMS8vRU4iICJodHRwOi8vd3d3LnczLm9yZy9HcmFwaGljcy9TVkcvMS4xL0RURC9zdmcxMS5kdGQiPgogICAgPHN2ZyB4bWxucz0iaHR0cDovL3d3dy53My5vcmcvMjAwMC9zdmciIGhlaWdodD0iMTAwJSIgd2lkdGg9IjEwMCUiIHZpZXdCb3g9JzAgMCAxNiAxNic+CiAgICAgIDxkZWZzPgogICAgICAgIDxzdHlsZSB0eXBlPSJ0ZXh0L2NzcyI+CiAgICAgICAgICAuc2hhZG93IHsKICAgICAgICAgICAgdGV4dC1zaGFkb3c6IDBweCAwcHggMTBweCAjMDAwODsKICAgICAgICAgIH0KICAgICAgICA8L3N0eWxlPgogICAgICA8L2RlZnM+CiAgICAgIDxyZWN0IGZpbGw9IiM4ODgiIHg9IjAiIHk9IjAiIGhlaWdodD0iMTYiIHdpZHRoPSIxNiI+PC9yZWN0PgogICAgICA8dGV4dAogICAgICAgIGNsYXNzPSJzaGFkb3ciCiAgICAgICAgZmlsbD0iI2ZmZmZmZiIKICAgICAgICBmb250LWZhbWlseT0ic2Fucy1zZXJpZiIKICAgICAgICBmb250LXNpemU9IjUuMzMzMzMzMzMzMzMzMzMzIgogICAgICAgIHRleHQtYW5jaG9yPSJtaWRkbGUiCiAgICAgICAgZG9taW5hbnQtYmFzZWxpbmU9ImNlbnRyYWwiCiAgICAgICAgeD0iOCIKICAgICAgICB5PSI4IgogICAgICA+CiAgICAgICAgMVNCCiAgICAgIDwvdGV4dD4KICAgIDwvc3ZnPgogIA==</v>
+      </c>
+      <c r="I4" t="b">
+        <v>1</v>
+      </c>
+      <c r="J4" t="str">
+        <v>071212128</v>
+      </c>
+      <c r="K4" t="str">
+        <v>DI</v>
+      </c>
+      <c r="L4" t="str">
+        <v>https://ofxdi.diginsite.com/cmr/cmr.ofx</v>
+      </c>
+      <c r="M4" t="str">
+        <v/>
+      </c>
+      <c r="N4" t="str">
+        <v/>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:N3"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:N4"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -909,7 +956,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -922,9 +969,17 @@
         <v>value</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>sidebarWidth</v>
+      </c>
+      <c r="B2" t="str">
+        <v>176</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B1"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:B2"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/packages/storybook/stories/data/normal.xlsx
+++ b/packages/storybook/stories/data/normal.xlsx
@@ -435,7 +435,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="str">
-        <v>fY7LCsIwEEV/RUaXFZqmSZNui6gI+gHiwmrU0Ec0TYVS+u8mVaEidDWXM3OGu2/BQOx78IC4hVkljJvlsRAQQyKNnCQ3ccpkeQUPTHPv8WqRbNbbpSUnlStt0TS9hBhhS8q6SIVDNj9lJdPcKkbXwgOtauMe9btMNO9QKW12+uycOeq6zusbIUIiFlIWEoKiT7vB5beqPxQ4jTgjlAcjAvoVmI8xo3hECP4EjkJGx4XDCw==</v>
+        <v>lc/fasIwFAbwVxlnu6yQNH960tsypgj6AMOLVaMLra2mqSCl776k26AiFL3K4Tv5hS+fHThISQRnSDt4a7QLZ/V11JBCZpx5yb71tjDVASJw19MQz9+z5WL14ZNtXdbWR6/5njPKfFK1x1yHyM8X05i89MTZVkdg69aFh4Zdoa+/Q1Nbt7a7YGa07/toaESFSJBL5ELQ5K/d6OZ/VTIGSiYKhVTxBKC3AAljKNkEiO+AohzlY0DGSJEIRTg+A2SscAKEP2x+AA==</v>
       </c>
       <c r="D2" t="str">
         <v>a372cda0d53a2f9b0f4c46d0cd3136748</v>
@@ -465,7 +465,7 @@
         <v/>
       </c>
       <c r="M2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -476,7 +476,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="str">
-        <v>lY49D4IwEIb/ijkdMaHQlpbNOBgXHUhcjANgNY18aCkkhPDfPfxIZCFxurvn7rm8xw4shK4DDwg7WFTKDrWIcwUhrLXVsyhudHGtwAHb3gcarQ7b3SZCkJZZaZDM01R59IKkqPNEDcjzKcO50ZVOMrSsqZUDpqwtPsM97m6qfTdVaezenAdvSfq+d16ZCGOBoFxQxkjwyfdz+Q07EiQPpGBcehOCOxaE6/uC+38JklDBpyOdng==</v>
+        <v>lY49C8IwFEX/ijwdKyRpkr50Ewdx0aHgIg5aowRrq2kqlNL/buoH6OLH9PLOzUnusgEHMQngDHEDg1K7bubro4YYxsaZXrK+mHxfQgCuPnU0GS2ms0niQVpkhfWkn6aa8Z0neXXc6A6xkAu/X0xpNpm3nK10ALaonH/M5z476Pp+KAvr5nbbeUPatm1w60SFiJBL5ELQ6NHv5eaz7JugZKRQSMU+CORdQBKGKMO/BEU5yt8qSYYUiVCE428/3AXJFH4RVlc=</v>
       </c>
       <c r="D3" t="str">
         <v>a372cda0d53a2f9b0f4c46d0cd3136748</v>
@@ -506,7 +506,7 @@
         <v/>
       </c>
       <c r="M3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -517,7 +517,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="str">
-        <v>jY5NC4JAEIb/SkwdDVzdL72FdugUSLfokLrFkrq1roGI/73VCoQoOs3M884D774DA6HrwA3CDha1MMOsjqWAECJp5CzSIpcGHDDtdYTJOt7solUSW5apQmkL5yeW+R6zpGrKVAyIEmzPu6xlWljP6EY4oFVjZHW2sc0uon0utdJmq/NBW6K+752xFCKEcUw5JgSxV8HJ57utNxUCygJOaOD9L3DX9zn1fwjoQwgQ5vS74Frh8AA=</v>
+        <v>jc+7CsIwFAbgV5GjY4UkzeWkm7QOToK4iYOXKEFtNU2FIn13Uy9QEMUpyX/ykT+LG3hISAQXSG4wKI1v13x1MpBAar3tpc5srYcIfH1+hLNxNpmno1kWsk1xLFwI+zu1iZkKSV6d1qaNpODheLWlXR+D864yEbii8jbfh3GYHUz93JSF81O3bdmQNk0TPUpRIRRyiVwIql4FOzffbVkXaKk0CqnZ/wBJHKOMfwD6ATTlKL8D0gGSIUUiNOH43wtPIJnGH6D9w/IO</v>
       </c>
       <c r="D4" t="str">
         <v>a372cda0d53a2f9b0f4c46d0cd3136748</v>
@@ -547,7 +547,7 @@
         <v/>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -839,7 +839,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M1"/>
+  <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -864,7 +864,7 @@
         <v>web</v>
       </c>
       <c r="G1" t="str">
-        <v>favicon</v>
+        <v>icon</v>
       </c>
       <c r="H1" t="str">
         <v>notes</v>
@@ -885,9 +885,135 @@
         <v>showAdvanced</v>
       </c>
     </row>
+    <row r="2" xml:space="preserve">
+      <c r="A2" t="str">
+        <v>a3256adf0da24e5b01bf3d6c47136e9c6</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2" t="str">
+        <v>LVZJ06u4kv0vX/SOigcYDOZW1EJCzIMZDbi7FxiwwGYws+FF/ffH7WptlHlSISmOUpnnv//9M/38ov746X9+/fvnv8Zi+j23aVP8/Pqxi+lZV9+fP37w0M2fAznMtXgcRvtP6F9Z1xxYlXXtAebplP6qmhQX5KfFf65VPpV/ceyfZVHhcvptPdKx4Ng/qhu8eitlKLgDx7D9sJRCfFjSbxcCESTHLPZprBb/hyg5DMIjaCqOSH5L6B7YR9c9SQ4LoObRm15UKXTb+/n+FGZd9ZbHIFo+7ipPEoG3JpGphyhzdck1RPMCJPacPYv8esre3QjkjwVs3aqgxGpmJoqRm7A5L/TfhNhZg+aXYLGL1yVP7cE50crO3CVa787th0+InqajpWemqPDqemqn90zl56VoHj3PFMPAf7tndBYKJ33aFt1rxECRL/7ELEM/SOP+mJ+fWvdbP1xk+HLUNogfTTwsqU+oTX6/YzSXnJw9OIqoUb6dNm0HopQ93rTp3CLyVrKZQ5CRLrdL40qaZXFb3b4hKxtcOIx9KMgTn60gNGg6YMZNtIAULQJ5EKxtjDY34s68BlKcZgqb8RusJ6grIPWoR3TSsmsEYgwqMpXC9T0XsuAEXiTt92/4WN8gnX0EqYNlAJyXyAuklT+CavXzqdsAuDlFEVqJB3vau79PSAPgacBH4aKGMLJVndp75G0uKku6nxmEYWhgUYIPKeZ0vuennqcr6tgLbwDuTqkpLhTwjHR7x/2QNUKZ64MkHmlQMdZzNThptJPHKzCYU6vTHW3uaXRFK+N2ILYuCVyunF5rt8yp+eccoe87aVEHgeGTqcJUBQL6jErWxtsnqoddqnDuRk8diKKeyaoGs06L62VSYq5jCnjJQv0mhwy9Uw+LBhZGMH6JCwQgrUdzJYn3F6eg1XegYEC1jbKCSmANvUM8FG85dXOCL9m7mNfSLWRV2e8um3NLg02nQObmlFZKp2qJnOFNCc9XgGtwTn0Z6GErmnuTTnoAPrCMvde4MqW4yXA18+SCtW5DJn5fevh2ue0y12svjzQ09hMowtAmH+9oXiGIvpYxO5cJAWfi4vPSMf0dtk7DsstijmEPrDsbwE5IfB6lHdrHfqTqkgfSFeXTDcvYGhTHFFF023zcI7q5YP07YnzW1C4bR0RjRaspp7izIVhtF1wz6QbG9v7aOMZRQI4BjBqTgtZonwfwqIQQyiolWFbjXtjMO7u66zTwVFGzaUlG+90oZ1XHM4GAVrRJTSNObCTv3Q/rVdltX/I9NY1JF7F7m6GLB2bJBEdifNEOMr7S6KECy9t6yZqsDy2RWZp8jWfKagHw3OurewFNhcIg9MczcmxQy+1JwYFkSh+rul2BCgoAxzMrfQZhLNXbu3kzPNxNXoer2CHLpJL9DbFlqwYrnRwZKWH+jl460qAPVXNWx5lwYb4i8Cqu7wqyX01YcZ6Zwk42xCUxDPd7XmGHSuxa7hPi9Yg/KHkuoFdveiyeLcZVgJIJ+lsjyNVyM2e+lX10y2h8LfJAqfWy1MBc5YbFAhah5isC1g3ESk6fX1b48HUwK3EHK9sdq+idisXIwkTc73QiGcrt+moZWo9W7x4+LPGOTVpb25OTwWmFq5IEX0fsXjr7nRh6UlR1bZv0uHFxJQuQl4ktEE+bPhnIL7gYWdD7GsZGGYC/n5V6dfl1kZptOmWae5yJXllthcWqPumivTaXTxAx36txtjQsdBAJLyL+AATABjcwdZkph6dOVp/nOCrshC+fDw99lM+YU2wGeKC5bcR5VEfynQTsREAbp60USoX+xfFYBRxIpFkFY/cVSAFcLx30yYOMpwtfkneKxSWPPCYYVWwcZfdCV0EeUDkonaVUfq9jAC97kOZccYWNHFXrOCNeuSXo3chUNAVuXDzi51FIqXrVORye10gw+pwcNvbMO91iS0Hjxgo0L1gCp5d2T0sXaI4m4hLnNXgFW5ZCTjjv4ODFjjuw7YO4lwvw7sGjlW0vbAJTZDTEqhB51ujclYDhKyMjsifrZLQgS3mtulgmvDrIZvIMXFD40HzWbAiJ81GIteAM7vDtZJ3hRAXhNf2FIoL2YLzdVb0r13wDG/Kk0iXG+MNL+yw1F5oItk+bTpu6WEBB+/cElApvA0Qm7AofcINui2n9CGVwvS7OchHq0eP3u2cZTX5NrjbpKRTE5oeuBOH4eHib5PouM2wySaLyOFLZumnxFy2SvpInONLAr53CxiDMLz2pGSYZGDYVK4XVx4pZ0p8JsODrV40n7yLv2FaF+CQG+knmeKhOtnUHK7nOlByl/giqeamvNA6fZy2x1rUQLRFHfsgc3b0pqBftsNZXTmq4nqrwdjQL0rwPKbgW04pWmRDpiufaeoC2SVzJcZwMgszpUGYG5FD0Qo9kcXXSKaR3sQrcsCY42pS+s2CQLJ2ptMqyWLq81h3bSiaz3bdkVK2Ls3SlsEu0JqEvU1o8C77k/AkJSX4jQVLe5Ac36t7k/9Y5QKrl4O3PbiOKh6xqu6kY/1FdadPN7aHNfoR/CcJvP8v+HzicLJ0K3A3bP94wzHXhT0PV4gNAgR8AL/h1omiB4g8ZQLH0+Uzf/6f1vNCUfsme5P5lXe1ANZM/NTuQvBsw/6KPfcayW0G+pG1W5D+/nkdvK/7+++///Q8=</v>
+      </c>
+      <c r="D2" t="str">
+        <v>Netflix</v>
+      </c>
+      <c r="E2" t="str">
+        <v/>
+      </c>
+      <c r="F2" t="str">
+        <v>netflix.com</v>
+      </c>
+      <c r="G2" t="str">
+        <v>data:image/png;width=64;height=64;base64,iVBORw0KGgoAAAANSUhEUgAAAEAAAABACAYAAACqaXHeAAAABGdBTUEAALGPC/xhBQAABpJJREFUeAHdWk1vHEUQnZ5Zf9uJHRvbrCMSgoiRECARwYWLJUDcQJEQKCL8AE45cfedO2ckosAFpMANJMiBE4ILcCCWQY4d79qxY+z4K17vTvNej8daNrP21Gz3ZE1Jo5np7Y+q11Wvq3tWeRlltntku0d5vembq73err7xofW59ePafNM1qI+r0/j723vrqrEszbufplJSnSUvFBjPHnTXbmXrvaS+HmdZZgDuh6Fcb60+lDdy2yIzACEcbk1LPVW/Vh4cP+/WJFnvmQEIMM6ylnkB4FK6UrsqU9Ft7cwAUK11T3syCMAEWv9/ACAIy3IumCz3jr/Ctu0gLXkAw2BJGAaR0bW2IcOWAXgAi/aEUwkueF9PTRWEzZxUbwkAauSDB0rCMAAPjC79/MdbTiwSdtoyAAVPeeUMYRBq1RZk2DIAAfKBbeQDm+KcwHtnZWRyQDhh1qu3DgBUKgCEBbEX6J7q7tq71i0SdtgyABzPhIGQB9guDJNzgqrcm9hdJrECQAAi3MfwK6EsNYbjTK32nJ1o1LzaWODw3QoAXM8YBvO6JlIVcPl7fuWDxkYnDoBAKS/aG3ieDAJuDh4NgypWlrzEigdQWfJACCJcFHIBcoIXlvtGX6o3eB8cUJVFU31z0bM1AMgDBXjCvBAAalsLw/+kxgaAnJzAGgA0nmGwAi94KJoD7BCVd0VPTx/qQg7IayU4HFSo8yPVaTyJ0AcQd0IhE2ivWPrk09fjTglA5aSFAJUnCLzmatJTApBhXRjsw3hCyFBwLdY8gIoyDLgk8qBkQ6y8ulwqFs1BKz2AeUUN/bkWuwBAWxMKuP8tDAPt6X5vo3qZBnPm44vvLsUqAMZ4TBo9YS7DaoDzsqs0lh7AEODdtVgFgMrGPLCDWVySgqD1m8gJxsgg5IHocssD1gGIl0PeZ4UAwNQAOcEVAsnZjy63PGAdgABWmL0BMsN5rAbi9UBFH09MMmQ84cR5QJQPmB2i0uLMEKnxy0PwHs5+DAIenYl1D6CmERkqrwOGzNSESRHaX/QD4zncD8RAuELACQAxDzAc7iI1riAvkMjFIFJrn+cMIFOXu0MnAARQOjojAIHB9r9qMgD64TlFn2GgTELEpMiVOAHAeABs54Epr9shHVkmk37BzL7JBwCoDML0YzkBgMNHK4E2PFDGUdkWjJDIBSBHLuHsu+QBdwDAjeOkiB4xI9wgdcL9z/m+8YKKQx5wBoDhgQMQfBgwI9wb0FueBRlyJXC5M3QGAGc9JkI+/wMQcPuVhqWVc1gOedTGlJhhIAuidKM4A4DDmxCA4QTCiFafx49p7lTuGXoBiNQsiWkaCes4BYCzZ1YEKGVOjn31JWwRZUbMCZgL1Iwn2PcBtwBwGYTxPCojJ4xt31tGHHwnmaQx5eO/eAdhYN9+fN12KDSe6XDMBRxKKy0KA7Z5GlwQ7wvEmyt2cIQ4BYDjclMUewHf1enOm8pTW3xOK5MIg9oBD9j+XpADAAyByAtocLFU2oFHf5XWeNY7hfbRDpGpsd04cA7AIQnW6R0o/7oEANY9Dy6Iw0Da9qj67gHA6AYEuHAsox9/9AO8oBS/p7lfQBjER2XCvdWR3TsHgKPHn81iTdT0dAhPvhG/p7l3A7FRB16QCwBmFWiwsuD7GVYDkmF0WtTQXebXfACA0lwJ6gU5wW9Kqd/ry457PovNETmQXGBL8gEA2jIZahQAIPICghgdlAjTycaB695zAYDjNXoAyzrCzhvARZTbnFNRUmTLC3ID4HBDRMsPZGT37iKc+cf4Pc19FEdlHQgF+RlTcu/5AQAeSBLfl4UB+5iwSIT5AZBkPcoKPWe+Rmq80+TnxOKnzHJohwdyAyDREhQ+sXp7EzuEm81+TypnatyHvMAGDzx2AGigyrBDLBoeSA6rJNCalbUFAOOvPv89lsR7zZRMKmdOYON/RG0BgLp1i99AvkgytFlZF34YtECGbQGAMVIXxDvEJw/2Bs1ASlPeNgAUd8q/IKL/TKN0XGeMqXGLh1ptA4AxSimRFzC7PNMiD7YXAJ2F67BHtNMZAw/wu0FWaSsAiuvlO1gUf5IYMwweCMCgWSU3ANJme0j1P4MxFYlBw2iUVTK3/LZraAOetwDwF+C1i76nlrBNL+O/sstK+/d1UF3rDP01v1s/eOPatU1zCiTQUl+61LExu9K/41cH1H44gE8jwzgNGcF4oxh3HIoXcaw0gQ+nL+Jvtaefe7h6StD9YdV/AYhVFb6sJRtSAAAAAElFTkSuQmCC</v>
+      </c>
+      <c r="H2" t="str">
+        <v/>
+      </c>
+      <c r="I2">
+        <v>9.99</v>
+      </c>
+      <c r="J2" t="str">
+        <v/>
+      </c>
+      <c r="K2" t="str">
+        <v/>
+      </c>
+      <c r="L2" t="str" xml:space="preserve">
+        <v xml:space="preserve">DTSTART:20190711T041551Z
+RRULE:FREQ=MONTHLY;INTERVAL=1</v>
+      </c>
+      <c r="M2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" xml:space="preserve">
+      <c r="A3" t="str">
+        <v>a157a062b627aa7f420e1a746b084d86f</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3" t="str">
+        <v>7bxZr7zOliX2Vawrv1Ey81StfkgggWROZrD9wDwk8wyt+u6O3//eVldXtSVbstVuyeicPMCJjB2xY++114JM/tf/9Lftb/+M/NPf5r/983/62/+8Ftufv0PSF3/757+9+uQZh//JWhpw+E9/q5Zxn8BpsHsWKdhJ/vr//5KNPTjVZOMAzuXJlvxz0ydVAU9D9R/OJt/q/0giyH+oi6aqt79202QtKOKfGp8z7RNRpWp8gc1wvPrtVWCv/IIXGeFfEfgraOgGqX8acLLBO/73w7+qT/mqf82fk6/udMTuATvaG7yXvz4csqEQ/NcbLsT2a8TD2D6X8zrrvdc3sI+o9yq77+44zI+s357P23CNvWHW8fzzLj9/+1H+Nu44EJEkYPePaE9p4L1Mh7l08GtweY5zYIyCjzuezflym9A5ohzi08JZeSlKLKVO0NgFOieUhS1esyRql8w/zw7QwxOPx8cbxfP8HSswJrD5W1HeyK9RuA/36q94ef/ejWO/XzanfBR6OODHCkrzCK3hWbG8L4q4dy283GgYxrsJIVv0sfoihlc2/YI5qDWRltUHzKVCXu/X6/M2wf4nBy9f9SW83nz1+jPVGgE+EoDz+df3lb2q90sGZ98m8OPHeHHgPCeA/epL/OfGr/Gl/+euePn7nxtzL+78R1evL/Xfsvv3xv/W7j8a/1u7vPAFA/p3dv8a+7+z+/ex/3/H7t999u/s/sP9/9bu393/b+3+q7X613b/1Vr9a7sfQyD513+9Zv/F/n+1Zv/F/r9es39t/9/Gyj+6+rex8o+u/l2s/KvG/87uv4uVv9v9fyRG/3vZ/e+RG9C3+m/EzP8bscqp2rfircqBjOsfvpDg2jpgJnuMh/w9D6WaVt+SLDS1MGxmMLmrmvbE+Y5HqEJeZ9UO06RYOmfnWcRTMCwrD0VheP+TBG76heHQcqX1XBeFzxk6X9Hox2vvKFDBCwJzyTKO/o6jbXjY2jYWCmhrQENr3q3jOb+0MSKJdkIpTNPLrsL8DcOWoun4gaWWRRAElJYHTvXxtu9rl2XrryPCvmcQfMDLYRgwZt+h885gyzDIA/RxWJZVZhkk03bvR/vgTFBxPw+jHe6nNPEg1LolTB7KxLY2ZZ5ipuYMbhGEgdM8KDlCLEb93DUY/+S87HOlU1UncVvwYrfITec7qvdPvDHtEgRBlq9sXhRk/zwPnQocA1mvO+mGpB3JPeNviEG46755sd8hDNMfmCG+sMHSNG6lVt/3e9K6ZYFZzxo/zGNfJDlpw77vB99fd3kcy6w+xo4L9YP6fthnumWxD8OqGWzY27YpYhwRCHr+LAunOlfBLc/ziriEYRrH5EpJfdq7Spy39b6XYZZC4R6UG3bJOwRBcEOd9/V3ZCQL40fJwivocSdnFoaDjYjgoSgg+Hoh0AsqraEnsqJoGublHhSlWgbw85G2aVnKlrsGlsxYRcOgYdgnGI5vy7pDEERuddueKKwjDAQF3yjlcZ9hgJ8pEEPD9FycKPcKimHrwEA6mFO/H0eYEn3ojggPuhQmnO4fiJkKuJeP48gL0BFFD+/zXRx6vRwMFK9nlEHzNBFJ/TMh0VDytjoRjBe3IGIKUysXGjqWZWH08v5rbsdzozCEHM/s07BK+YL1xfXw9/I0cao1jUYQ2JI76BrGaAhhuMzoI8txfPgNpUzmb8tgS+A++DhKmJws6/j93kVZewjDxhnBMMj9YEGSikWQQczbKuuXdKu1PTKfAFgwBnfxZfk5zyCR5TD+sKpcXqk9IcRCBUld6xJIfctMcfiRFu3Y98qH63OiuPIGE7V4HA+mYtuQLy5X1bfscwv7wAzl+ygRb4uajhfVWWUafSDYimYMRVsN2CmyolymCdkd/rSp2pfCRSaRHbpvB33v8xvJCwhic7yVw+ZUyZ9SYhcMgzXpXeiZqX5+iChKzYWF2fDR+9ZbFrhEHrcsewmkxOjVZLkw/MYn/TTfQ1jOazmIGk7ayGCYxqML3Ems2HA4P70A+UomyFH+oOHnRUgtWaE8J3n3+yEYA7IerTb0vm+ErJNIY9PRh2rgZxhHlBrGpzgv9ONYV4TlWnbH0nyVYBjzPISaKNhfF1vX+PKLuM9z1UYH8hLXik60c1jI9tBkD7r8g0EQYRQ/uZoNIondG3nBHwU+whwzoIq8x1II3Vg4HpTN2cTL+E7CD3SWSfcZms2jwvQi1mAojwEXOW1KCpqCCxY/55+f00YB0Wma9o0o1LW7WTz2Y+2zNCGKiNhULi2B4xi9/sRQeV5xmkpSUZZxvG9XukIAm8jtedrfoNtZ0Lq7Jbd4ktCFdU1GHszwpH059MB6/eDaIwzABL8olyiXcV6hCB0XylDGDksaTT4wnPhxnuf+e5D1ZMK/ObQ2v9s7E56ivK/IgggOGC6dpTGk8Z2FfFhAx2p2KHbA0xTgBD+QBjWHCqu/BOGx56hcqVwxq/0bvYtm/93OICZmT8rtEnMnU9AmyiatkowJK0asNVUh3TROFrApupSitPCaQrK5Hz4lyEcURh4cAp5KL7ybtZQ5EYV6ZyK8Ze0OYgpfjdxgtvU9fnLN+zaPJ3+mYo8ZROkFki36jxCWxpsHAqXPoNpJm+OwPmqVU8mj/B6FPNE+/2otYPEJGxO/SmVtgimUcDj2qhmVm394vFiWFGRJURyNi0EX+vWzhs47yvvUKaiHlzZyvmYFtSpJrnPY6vr71eloNoWqx1mFUe9UolDmk3NpVYKNZde9CIImhT+zFswSwd4cPfNuisRTer2SW7F3UGKhjOlg+EbxbQ1D/3YkM4lrIuIM9eJGMyvJGeDgMDX4yCazrQ/u7/JGay9y1srGbAAaatQmtseDhvRVO0u0cp1iilvGsc9KS1OUEC+lHwtDEIafUA7RAALUgczYGODx3EcZQg8NGtlvsyGLcui6SydDRDioDMFx5HqP0jqOm3uENNJNcWV9KT78RSPp65OotGTW0Q7JabO6Fq28G9M8kyFTxiyG9UNN3fBgvYoNx0t/x8ujaY/B0C5+FHIruxUEIQ+PpTxljfvFf48xxc/JB5ujzrTYGYnEKif5JFHeaxCH4mF9pd2/uXQJSHUjvvQgvZbQ3LZ78+Os0dTFnLrh14WpmQRKRba31NXPKG2k0xcKM/uchWxs2t1kfoN1U39JO09CV+xQoqDB/GpBHRn7qZWSLvTb9osG+F3LozRuGrLVlRkRsY5FHihMCy3N3dGzvnPfXrCsifEbqIK4Dkb0j6+3RQwl3yMstoqG1aOpiOR3QQrJ13eXaGXc4HnLeXv22xruQlHrayK2qG2fq1F+UCErBNJ3/Rxkn0SDPXbao/ubrR0i/NQBlGzG3cvv5SUt6xSveuZ71568oTWTQnOtsszeFMmx3RsFnOV7VKbotcXhEIPr1XCC82m5DElpBxYSfEANnyuSIM7n/Bm0fDw/5YEv9qjmJ3lY8TfmlLEI43ayhgs41Mvk8E0j+l6apDUg0RcdxJztl4eBevMc8YArDT9TrM+5DrYIGjomXUzXCbZY5SQ0Q/JvQnqaOqajblA14c4+st1stmuvNcNFz3mPeGv81LOvQQXGD+4CXFMpB+ToIurHWecs3+jXpnjqUzYExCvWaJPIhsMLrUp1Qi2T8sqfw8vWOYzHgU6k9zRaev5ineBYiPk2vTRXOg9KQN2H6RrMPs+fscRaUAiIUeuC1shR6u2sAWXtsFXC9DPIke6hUsMwBP0gG4khKvQgo5W/ET194Sjub8ao7tq6ATLcShvhR9rNZPfyU8OI+7aIEcxI3kTzeEwMjAMqRoT0Ae3Ll9UMxyjwqE3eHvMgYTDaSbM7G+yTsls/eeGpvpkNcA7GMbkAkzRFlhkkCbysSOp5wMl9V1WVvEufXJPZs1drsd0eOp5woEky+im54fFIyndFI3oAtwQbHW1i2ZFNJX0n7+yfJ+CjdIRLH+SUe93kuzoUKuY/Vc8tXdreDSkFP6winUWkeZWFyzR94k/n0B/owKIF/uPGGA555A8LU1EtObQMmx1/Ftvh0JrmZqk++iK52X5tCwvy2GopfPNnM6JXFC+bCLoy2EPI974VgDa/UnwodWiJKofqJnOj5WBkteBYw8LvB3zb8uzDKnGzADabtWMdCsWOiE3U4rhvfKUD/0i74/ekMBjjdIeleH4MKwU6pF7JIwKVZTmMGzf2w5IlNycY4+2xnENbRWEaxjOX7AVQCccPH2xN+csTWCn3YqUTk91lXG/4OUwElbaWG2tuwAelgVbqhMTVUd6Ip0tPItoWR/saYdqsAzbuPfwccT1kbF3XT1922lx1rvU18XIfLGPQmulD4ObU9PFFogfprFtfvmzqmJEEjRRc8unLKz94GSkA53MURbGwMaBrruL5Wpwjg/p1ZYiZkkOCslLTQAVXjWsQM9AfjTIHlDAEBIBpmGQtEwJ8Uf/Lf4TOc1wCdehA29ZREToI//VGg1GAn0cwSIsuLTgFsZ+ePwFolEz88XApy/LNElgcU8Zw6cQy/NErGQ7vYFxUCsZ1LuRQMHZCUi3gLYBIhdrO5R7JsIYocyFjBhU1MqyIWivFFKWhynubhPxQ8jGdFLkoy9HFS4j+Ln7adHHVHb8rgh0W27YLoGtAN/3NqsVJ/Ykn0qC9ubH2imCA0Fm6gCJfgJQPw3cDgoBmoaEnJakJp+HUSqINeHozf836Q6Rwx7WhjnWpsMJd0mxj01Xd6c1RRdG690hd5mGs0KGfdFv+Q7PJFrAdvF8TBLD9Ze/mVHs0YPdyvtQJpAKhmIdIbrgeqnxZxA+R9VJImt4HBrdG4703WyXEC+L5pYjCLCL6tuPDEOrnZRoD6K2646GseFC8jFKWODhbIzy8S5jTnUBUMqxfqlA6ffJRO7KuRzxt1ahfnElPZjGmqFfJiRS55RZessI6KRIJAEYIa286SvtGNPlBCmuKuvmoffVr5fG3/5E7+g0/8cu9vqXtpqoEAMJdWzfcx3nYZQrmRkyN7aWy4bLyibksF4RJKSN1+slm0uG9hCzLQjDgzI3//cNui5zB1ghAncdAIK2vevojKJ+03+uIfeV3r085wAjYWpSxftWkhWQ5pwqDY0TB8Bm7FxR3+5JLUO22MAvYok9ZIkne1vd+fhM9fjTteAVkP9bXdlxir2G00dU5jS5Av2r03fSKXxuCLfcMungQKs1fOZtCF4VgueIHj7PEGs5j01PZD5Gb5Nw5ZBbABulrW9lBqc+5POFv8dKY20573TEKz3N+9cAcg2NvVqjzhjLP49KlWPELGi2IeOZCAZHeDIdcva2eplnXu6j28yqpKpXYIFG/77LYDOyXT31iBFtgChEVrc4nE64CjTtGFMfJBzzNXwRtkXYDpYdgxyPFN7L8IT8ZpU7vWUVVgAUMlQTh2ZC5GyU0Nc/LoKRm51hfAjdWptDEKC7O5eHwOa1ChG3olh1QrTucaWBN7bddBGJ18Xu1KXOpM/pX+wykUsiFv2o0TvJedBZuDmI1+AX93VuRhpJ0J/WWO6TmEVW1woe2oQ4WqOug23zK0qbODPYDCAK3wGLkUtpXggqKpk9a3tKA7tfkvWU2wNV7D1NOSWZ5YSHnsTRuL8SH7DkeZ1mSLuBdL/lTfsJQOoK9mmm1cE6oLFo/S64/16vqKd7TEUksgTDi+5chGMY8NDrXioC74eSmCZ1UWWXTsEnRj4iAIZlLBwB+D7XGDDUkDRZQU6L8HmSzEw6baHGxrCm2mx6SMvFzDaJtwhLMcr0duecyqhKKfRuO6/PNxsty3kz5K2U8JPMCdJe9kJZ3K/l+WBixBNGhEDgYnBeKa8riI67tiUaQ1WqRZ+rXyC3gaBZ9Hfnb7FL5WQe5RBAvp4sH298P3uolumJ0SoFxsew2yFSKO9+m/PKUdtkQBvnqkp9ViyDd+QVMtwQoi6QaolO/NPx9nKN1qtnMuVxBoB5IeCrPgAe7zjVeg3ER0Urt8kPaQGN8ygfM6nQdgja1UdqHFMooKRUqNf/qUHytOspNNFKGaJpQPN22SB/FMR1PtTW0T4xdyaA58tf3Qh3FjoBTp6zD3O576EB2ObYFSe/39fEpbdgJE3hQJXC9+lJVTLio/4WgwnHfOGsr+WuxgFTv6/u37JxqFrn6Ltok7Ur0CjE2njL0QRDjTP0DZ2kyD4bxurIyLyc0UUlp/VosS8OwFYnmyJUAHn/uOSOECoW8M3NhOXPW4I7owHOeA9ZgBWtw0zUjcpQqQLhFGBvQsngXO9qKA7fkGHQ44eZAVsPIA454X+APlV2xDWICfWN4+ctb9o7Wn/E6c21gF6fjDxchokzT6OdLwQnVd8+IEetx7HWnJoslHtO2sXhPupZbt/rbHMViDS/vYRbUk702d4J5ZygUqSUOkC9uaabYWqY1e36eZb1JEjL7La42VhPbC59YAHO3X51Ji5cknEV4GM9Zn9ovHzKlL19+VVLpRa5oqc9OEXAaRQR0frZfnrOn3Y2Dh4NIi9fzM1/XREPi8zxYCLJVrFygaQfnQbtpKVx42DiQUgDm9uGrKKQ9JYBiv+9Ceqj8cRvUl9nQaOpwHPDnbvJ8zow52braqzNYVscv0C+3I7Yz584CPUqf3JqSIv7Q4WyTt/Zb4Vx6/xBxC0eeTbfmXkkzfQZDd46NYguibPcVtf20/3HL1JfWQblCWpaWdXKzGBn8YF7Ul6WBemko5spNPLPnl0txoWz4riNQGIhctS1F90779V30EkcPJr4aKMALTJdcvV+gEl/zLdG/GuD9ARFK8byjzRl9pBD6MhDPHFlhmkbYEjTrjw4FuJidv6N4+Q28LY+Acn0nBEvJHiUm7A9vfrMsFSG+HeFNJO2EU5S/Uz/+XNseOwYuuSAwy7aqaIxVOnhBtKAWCPFPOHhlWeYocyg4jdIsoZQvQi72CozLMxPI4Mwy8tVo5hZQOcPehBigP0jU0fAo37YN90HQTkWX2C/0OXU8AAMFP1fYUlRSsKHwQOxSwGaKmTMFQcCjhwLGR4cG273YQAo+YVkemOs7FUSd0vSIGxupXjPC+VN+aVb2BGIZu0w7tzUcyz85cARqlmVRHLbRhbwijkypVtley4flWPcjeOuikxkUEUcAbfu7VkcNpqj5MAt0HmRy9PzfCBk/y/bBgNSKpnrO/BV2j26p91d+SK6rBQLToJcF/37rnoXEtswiP4q5OZoQBTYl+KTd+Nxjiwih0vwgFXJJ/AP8/wBt+jHDsPKN1bLq6qWbmUywUIf31e81IJxV70VRMPiHK0qgjUgU6Efm8gGGQ5EM/bl2XewdQEqxqS2dJDEzOABvYdk3Ldr54AVw/Od6qA8ry+3plhU7UUIMmHjk9tYuIU3GL4V9uWOS9Ne6EggJNBJ5lQ2iKWzqj6ErccN+veSnuycgKfI6kLPE77yZOsh0WZbBoAR/csh565YVkE2rveK0D6h3athQwIb8/BhBWZ+j3z9uGOYysY2A1gH/K6y+1OMzp8ZInlP0G5Ku9xL2/n55Nh+tLZKpU006FoKS0C3YNKJeBE2bAhM0wKOqyoeE1Q/BjWFBWrw6JGR9wwKFMGs7XrSMgAORBpPTdgjVyiT29qMBmQttm0WwLyaT8ND5eUGVV1K+HwQNSvL8ZuXbrN7FHn418/3TBN+W/KoU6S+YaMN/30BpKyxJTiA5YQPDMCTM553ytM4B6l7lggZwwGWaNGWNFpfj6v3tsAuCLaHnyxukoRBA8Q5fdBCqAZZoBauCaPLQx/uL59UWjuMsTF5GqdDm4jg3jGbzm6KXtv1zzYWDl+u64EMBNbN7SpQyZOF++uH2C1E1vd7RfhmG3cDNVdFyIzrvQiGA9kmKo+hgFHpo6XpWeLlEvCuPqjoSm2O4j4JkPXNVBnIFxOJvO0TK54OeAH4A2inmBGGQoaEt4xiUJ9LDE01vZdPPPy9pKGsrDMMHurCLW6T3a/FZoAsIpF8uPD4sGIJQWloGK67oc+pXqJWrNkQpvub/qlXQ+DVhb47NkG73sLVhClDzgw0U7+av+LWgSJUQFEwRz576RcD4Ez8HV6zAwyBH1qMXf+k3TOAsC/6SCY6TFAXBw2HQJux+v8xOKaLkUt1dhsw69/Q0ffI/cec6pvgmDZz9655aB3kdAEu6tk1u2K4Xi4Z3Xgiv6huwPoJJDOtR7QmJgUp7FQQ07uS1GA/RtKZm35WUR3X2Q6h1zIvtFtE/VY4BuCAVvECrRjESf/gDjy8Q0LvUfLd0ZBZ37iRcOJHAlmhrBqx4UMdNkt9f34p1i0ev49iD8nreuFu+Wx23oYJrCTQx5N8dEros4DGED8D3bnn439c/7FHzynj+0DmUXkNAUk4L4hBMfaGY9JEK5C3gXqrDVg00niYx+J4DLYSGm2zsHRDod9A3wxL5y/o9H6yAKiHVmVxupw6pssfH6e7++72TFjqaCu8a5O/4NE3bzhxxi+NAZ4cmtLIhmM+tubiPGpFUnMCulEwU3j0y0vrh56ICNY+vP/cBjXKlNo3Fpm9MLduuzMvGLGkYZAOxu/ajxx6lNxVQTjCOhctCoaCajpw1il7/OCEOYVbQBltHQItlWfvW0eG6A6qwLIr4LOcfjjK9SpDqHY1CD7lcx6IoiTvKht7P/kcOQ3W7z/GriDY+qtvs8BAu0LtFipqSRFO9oY+ZZ2CgfiChTg1bftEU4usvbviZR/cXkZ2yzR+gaLHR7AK4PHAehq72CdfagWbk9cW4YbpeKBL9egyCdlC8gnZrk0INgl2dqQSKSXFsNmacZ9JFBmMbR0A/x1+gATlTUVTEiMQaak8EaEOKsMs9C3NbNgHhPS0Ml/Kf+6Q5ifnVXCYZzjkm4DBcaHCw5grK0Dfl5Gko9WoRsnIIiJ0nExv6GK7PZUbbKKiUPJcMXy3YBbKEmitZ6C/e6EoIDOSM9gB9u64OpXpGLiEVMmnWHvvG3V9G5dCUpmjQsLj3WQXA7mu4urwswbrODqZowRNmpZ11tW7/eT8rqSvnwc6afi44jwIgvwKGlvQlbpY3/om7xgKU0FGRND9wxmVOzf1dWU7sTHRnKJK6APKNTRBZwtY7yMwyhr7WKZyxfj/kPOY1pvjtcrphY/hwhdoGQjlA34RylZPQk9P6pd8TxRyKlVCCoX4mIB4u9ek7qgugeU1JjEc3bLEnt91qKiHoAcZuvnQdjp4tFsLbhl+1uaLIZhw9qK3TNPV982PCpgNmUg/s4G640LOvjQ+AylUm6K1ZM4x/SAYq5Yt+yBXRctKgmcwLz0fFX2ek6wLA3LdFhEeZJDc0iINe/1kndW1JS3afLlsd6/UXr/8EK7wUnUrI/Ij8ECIc3wosG32wc8J4fzck9dUGy47O3LO7u4c8YxiWczHzHpE90IQXBJ9cCTTn1389LMoSxDccLAAr2Mr9kNlWpq44wl1cs9LvoYT6dMzGDOHHYJKuC9emEE4Q9z5p50JRHus9iAJDDFFlWUddoVv+IO+3TJZ+8rQ0TX+0wvjrmvorpIPJp+pNyT12gcMPppAkEXWUNeUL0o+FM9NAKzwR7auOMljjBlXLGb406OdlBe9npaGVnmvggzZGhgQlHfW+6/pJfsVhGQbI6/IvrUZG6lxOyBFEDy2DMe0RlZuDAXeJL3f7n894aMeoUPYyBjucYZWRj/5r3OKYWZpuX47W/nPfGy3sJUhJZs//3G9Fn2K+NW0ZRxoWw7w0+uK+xWoYP3yHaHR2yDLOZFpbumYcbnk5fr5XSCMR2U9f8qHdod53ZP9Ta/3r2jq01fUwNKwF7vt+u7FlyyQKHUso6eXf1tJlWRQU7ALRDbgFluMrxHEXPbLWBYBVensE9NFGYt8HdyIOF/I9K93cYFp9qDTs9y3AHjN7JK6t+qVWN5CiBL2U7pUux7aNWjFhKSHjMMOEgcUQGQzz4ro5hT1v1OQ8JLT4GJ0fIYbx4zm9ldcUV+sE/4zqjAx1W4bOXI1IEylIs9kccHA6Rovvn9ub3xbpflddwMAOm21JaVyzuhl4NJD0GGEZBOrIu4ihsAIrYo+eNGOI2ANJR9KLYdHe4c0iPZ+7+8C8U2SE5TJYQztk2aMX/TvmhhrLr8jQCzW8xDAsW3poPOVP7cIffHzM3v281RKfRS782FZI75vTu0rnrEQXwjqaF4vHWOtk/zzYdTSPHhaRPjyCTl13EOnhz3146nAZqguTGMjfQSQFPWAJ3vq+vWzTwpCbazt1xITJ+/b7+JRUy/FbnbxOpsI1p2kQKnsCuAj5CINl1xWYfvIbvlzBhS8S1bH1yGEsCh0mAoHqAdLADjWBD1AG+GndnksAaV2yBpwUIKxrBA9tLUiX1hcL7crviQk6zCAKaH9C2RjF8yl7x6o5PpNzJ6D9OFhqatBW4OXRoByMjSo/nUKBHBJcb7nfczZvHT2TN9vTIevFWuataKlK9TfDOsTy2oGFLHzeIPamBb/44TYggtKyqOQ19x8PR7slkjh5lOhE/eVpQlGsT3Q8iWFTnvzYzIO0mUhuU//zGSFdubj56tmgon8NoQzXp7KjQjInbw+LgYVB2P+0rcuEMThDENnUmIKwTv9cXqWtfWBJa2HMQ40FMQK56cpg/C5d3WNPZX80+k1Pj2uhgeKaZQZkUQ6KAZK0anwTaGsAhWXh7ohoL6jItMZwbx4SGDkJoQzaWB3PmY90IKmT2E/wO9r8g9usF7CGPZbPlvA+BGn1sCEMns5zUkgQkgCHshkqaiYJlwsEj7bBCPcepZ2+X8r4Ml5IojMQDluwZfZp9Z6rMolQ5MtyqZ+M8XSM6ltFk+WLDWu5+OuX4tuwds4PxAnfebSyUsrT/HeUBiPLGrlVp633hbx/+JyintM5fHKo0HjTdcvv3wxYRAuPd8YwwExytIRjlzNXSLiW29JTjgDqhRdOmc0MGHJooDzOQh0VfK+H6jcM0mGdp5MQ5WPSXf6jrsOeEuQ6CnKYo4ihaUMCpVUeH3xJSjRNQfcp/nXxXLB7iCP6whwP47gXtxRiiTyRP5//O0VIRwn2rpn8NtEIJpG3axmDyH0M6F3Fd/TWaYqjxJx6fReEyI0yHRHmst8wno/6WByJJvMRA81X9ayD5Z0z9Ora7TW+zLGRY5JR6M2q2eOLPy8OiCR5jM82U0Ib3dwEZuOZjMnhiUkZkUpozZSWXLw20zZ2aDsc1CvAZX6difWGChDgFQoT5pD5S+tak9It1F9K3YaibKXTjx9ejpxtDSAF/vzhzuBdFMbLxdfMKqCXMCQsweWM7QjfXypo0xqBlCTrR8WmhvUIDFrIUk5ZGBALifx2T78ZFeS3PEnpVXdvpEJeDn2fKADksSi21ZFhxjsyZlReNqMyhivM9njTYu6jWMjkb+Qmz8ouS0YReQiAHc+jkXmnGoKfj9HZDX3Jbwrv3zVdp4hzxIXklu9fhSjvM2S7xqh0vB1VJmWPcX6PIkRjaQ/xaLikEFmNkEI6TGtTK6R/3h+40NK2Qr0EtXZ4vGjfIa7Jis6ZxN1IWMQMDQSseC4kY/oHh+gHdcunDJtQjauELi/mo5RvD9iW1gaLRybZ7ELOrdwBMJJw3sxUDCSYtH+UUPv5ZI/li78M1rEvFBEaNIkgMn0xp1usUYKw2dkfhSLHjm+QlVDsr0u6PYqMakc8/NXzZhOxd+m6IOjZN1BcdctKmQWz4/sLIaQVCGyidAkemF3aNylf2gmcIyIB985XfbVZgVWUwmrk9XtyHR6jurN4dVK2KF3r1A5EVqmLa3jY0Xqb79GlFAhKV4YsELo4cM9DPzD7DAk8YKZ25g2vC9axbodpBQkvQGjE1qAwdjPjIM9JuxqtsREW2L8dTnkN7RGrUrFs6+vbl7gee9O2ebgep639i0YoNj0IRu4hBfA5x2hE/Wxn9Ijnw/gw+Q/AKG8CwPuG1IAn6Jv9FHsTKlOLA71ZNENdoFX+MCZ+K+uOGoP3vAWHSr5IAmu7ITcWgVaOq50T/erShEzI18Ea5udAGaFjnD95sqOeVx/7j6E++1Mskk78fFrzWAITShyh5p2Cd6JeWUfFavUifOhao30z1O+DZBZbZD8MgolV56s/n3jAl9li4DGtDLZLznCjx5hJBsVm5C8OoJ8SUBsP7uq3wnDMQAa6ZLhYVMl9QZBBF+vH4OxXXCDrJ8iZjW6VpaVrVtYJgZw495n3XXTDUrya7OJMcqqwHekDK7Ll25t1VtjiBjEeuNC/Rn6iH9eFNO41qjqv4Ry2CK/o6Fnkk+ymiqvo406kKj0GBTEGJTU8eVPYjibsrxSJb4li3Ut6SFOmyxd2LwvxYdqhDOkfFGyDjQoNFezMQ6/t8/u+eTkIYOudABrE79+T6Ye6M5p9z4MZKvgjlsJSpla8ygsUohM2bC/iu8HZo4UIX51wFkuPmx3uQ1CV7h4WpPN2xMYMXC+4+cmgI17J1WSVaTzC4yQKR1fD6PXH3+H1R9qgH5WGpjKx6CXHqqjL+9Eoei38PUwE9Nb0KeOlaEod378pvn5vSlBNIF+tkFOMdUu3IsdZrF42Tte1xtXykooOfct5zEju5SsWKY410ijG8PWNjJeN+IVc75gtkKzmj+kgRJrVbctRSFFBzbxPsF4OP28dezSq6CWK0Bb6/n5K0z7DKjIe9EOnt0EcHuvRNDKjrl90fpq7edjLW91M8T5zBhxPwWrRGzd++jof7T4/MAMK6SypuQjgu+3Be+jlHQMW6Sw1H19AxIgDapGPOiOLQ6AmTs+akxLMhq3bJb5ygfbQOn/dbatDCBxLjAPbbqEm9o4bxkguToRyjL3Pm/p7WOiyfH6J4QH3nmIze7akSJSSv39qi4NMVmrvJxwb6Q9up5REgRjUgpCFNxVligfAzvbmArTHnnALcVjliHs18Br9lnSscSZTfkz2k99ouUHcfLjFOCTGQw/FXFp6O684VSB1FCGix1pvfcUg/FyHJo9k88dXIxa+i8CJD483Leed5NCV4wwGMRWySw1J80+pUMo7SS+I+AEqRadqVSTW0gwZYmFF3GC7ZqVs47DQExaLfwGCJeGHuYB6Xagw0JNuamyVa4VIZ9cttgEae8iKQGCZihz0MwH5lZaltNON2FL+w0CymZTMTl7nJ9dcT9y+a4C2PT2S6Fa8NHxWb7UO98NX6SPoGTxOYsFX2gEPtu2bhoAawCpc/poUwq82jJ64fNq4I6ezkzCim3OKyIfuqKVDSix55tGXXx7xmGNHd7zpgs8SLbRBPLL6VMiuxFRhwxosE/5ZJ9LcLjiom1V2IDyX54eVfmNHmRBCywSEXjsQOCV6hoBjxe862fmovcTtVywocqvsfRtXzfYv/MoTw6jC+feMHsP+XpaCPcUvXnJ4lR4VGmSnxKfpsVZ+xP1x8uI+EveB3gLjcpOkrirEEG+Nqbnx3B5GJ88IOs3AGe83ngws02/qQ6bzO6cjtQwOPLfccKagM+sLy8G39tqES1+H3zz6CAG7uw576VDZQGARH3+hXw8aXq2bk/5osmbBOLMKNTQ6ar/0tNqxc6ab1S8SiWJBhXDRiXEOwVirC68No+vq19EWpOjkA7BoJEOKHHRaGXpbKG0sKY4Aozv0YnI5WU/2sLiFTlcMVWqkcmXMbj6rMmnde6VWUtRQdLZDIE9ue+4xE7AeaTxh3CE6jJr2aDqC5imYV/Z09cxu1HLNAcvMMm0LoSu1oUk855bh82Ah8AspzCcsv0/hbm1jBN6Plm/hi5Sfg6nhGE7GEkQ0RD2AVQzzYyPYbNix9VumRQ63y9peb48izjP7DCBWmXEKsAfi8e1OU3y3uA42dF0uPO2br9ud5WvEXHA+ySSiMyaN9DBLpXVvdXMixVTnG4x1wmAAmlKGZZELzHaRDDwkRMjjgIwquyBSFsQ0x4o9L74WxkTAjS2KavPYCuxa0u0ncwKbtY4GVReS+/OyYwW1LHn2kpS6nhoC1Xf3k/CLUCP9S5CGSs9lfMOREIWxzFqPXYMZM3qH8bC2R9iklPaoNHL0uFv0dCIeKTtddNhat69lA1V+rEoooaP3XhYM04g8olgg7SeTCzzjuuY3eQlC3l6PyXcJhLxHOGh4qtppGU8N0Zien4UDFuf2AudBG9DjbwPfNowNM03xIQAeYeACSQ9s/T411MIVeSWl7aW3J8+gnHUlWt7hallODOXNsukbe2ztYmkiUUL4hxKWK0ZDKoMY/KaQ0ISa6AiBHsXr71AcmlVJlwAqmdeyGJvJCXngwgKLKZu+zfpVsTHlGfvJ42kTlCl/vGfhvQC+XLo6fQwz+nJoX8mPpaQfIBhWM9/yE0OuCutxWzqqA2/T3vhShaQnBssl0WwPOyVNEGwcHTsUbfrrewGWegm0j2F/FfGV00OUarKVnetSQqmVfrgsv4jggy5az3ch6qCDZrVs2X5as4IWiYEcAd8d8Yf37LkCftBEVC7v6Rfj4diaEF9FqCUm/Xh7UihA07z2QzLAJnxlxJ4dgrMQtkVu4TOLI7bkkytB+nL/4IXQira+wlQttmsv09ggvmsrUvynt+wjC1oae8TBbkaNYxdr3NCJLfSi9PAg5X56MXUNq7nBVNgfdEYivLoWvF0g4TVs+jnA8BWyEn37T7ysPYogzOCT2B+fh/tJEYGge2WYz0IQoymplobzazdq6vOMRSoyp03oImBV2Oicy5Hag8ykSzsJXxDt/GGd7bu6CESC258DFC0ppV/MAcnJpIU4NbqiFm+HkcWE6kBY4mOM6p/VOyKIz87sQuUyakUfOzBvwamBAyLI1EKeKxNFyhPh5u2Q/u5CMlDXHJCJeaHcYmB6fEjovPZpYiZF2lXvVFosJgJlihPmb8GsrBY2SAp77sX2GjWPMZsO2tscFwpWN2cI0+lOyzrByOHwnm20oHx6IKtbPzZzTHZNfOn8hRL2l77hjX/Tj6M5c6Yf5p6YKV4aO7tgdA5giaddTHgwtO4c70mL1kwO7QsDDAGqCQSDTWc4WwHpn7JEsy3BH5qDrzLs9YfEgzIKXQUArZWEBi3OE4iG8zSCBXSIidOOlwYIRB+a0QkvQp/2J9RCs2WFyOUXQiQ/YHbfUxvOb0DWnfhWSWSgp48C6OBTozoTvR2AV98PEaLsJKVZVzHJjg3HPiGl2pvwYzRHmWTrs+4zpLTbnNDqu/Sfe6Eoev+FsTdRs02FMrURkFn+kAykOGQfrbW3P863AYjCXWb5Ro27B8pCVohJ/DNoyQQXTyou9/vRN1v0sJ5n4QUSzSZjZCKUowg18sMndthm9K1SzZ1trblq2cr+fj+5/hI2Lyl39sJKjPTwczJdjRsWnAhjBfPx7FmW34+eD51ADog9RBaHXArn6n24hD2+UqvhsGtFSaWMUpjeiAnlriGX/tzQFS9TZBAuEQuYHB5CXmIKz0tQ9/nqRVLHkUsXLBopuQThbGN3giN4DvLLlkMxg74FpfnXLBYD67x0jNFNEPgpHZqhKIfZ3tNH5TsT8DXRxFNxMpxBv2adK5/zqwrPOxOO2i3ntmcjlSawUIh8yxJl7MJhOF0aPQmSWQ/rhVZKyXQTRnIzJkv1ktI4wT8v9ITeLfUomW5gzoz2zicEYp5BQCIgqATcWIPg1zl4bgtGNIoHzVp9hiEl7lM8nQy7SkhIVuoALL3V6hOblSAq21W94MOXJhabMaCvMJhYvilaB5ia7BKRCCRnvUTz+0wY0qHMUMvDx+C5rHcgeIVNZqZySC7oEp77KFiX4cMFfvFVc+6K981KjfgcAyXAwg3fjzrXV5CjFn7vtHQQ1dNjmolsbBvmcQfjnrDrDNunsPLnO6K4woeRb5cDz0mMtYX7PWCtbtmbFCb9dKQugDvYrrWyYB1xp40Py7B2SbuCQuCRAYuZcVCAq6QTS+5QgLm/OGerC7oWeiCLh/pOr5E3yLT0kPvK0hHnYGa0z3UyFDqrANT+ZCm1vnzhMjubtmcDX/G1mVm9/XiIYDKMIq5tY1baUVKqZT6szxHsxpW/z1/abQMVUdvASFEcxXzPToNqMGmd3LycflBH0wfDMAADcONSdQHbn/rpPmN86fdXvdODcrOYvkb+7vKodlQvXi5fCfVCh1soiQmLngeqt8c0ZIyYdhBOxwBNtgy/3kVm5dQ+QjKL6EL6fi6FgRCCFAX67WJQhOFrI1L9+Kq+NMHDjk5vSG8crw+tJHvkoOTObAljVVd+aEG3iUSB3oDXZ4sUGdaCMiXgr+iUb86apfvcJ4WVM+8VIjCyBbJhS4NZhwPpUlhqRBb4fFfIB5BzjBJ1G4JT3VrwuQqgn5mPDBolnepfJvlJmEGOfZfeVtyJcwhLZxhfN2AU69Lwytgj3xmzN+Xd3RwaKeg5GNzeKaG3SaYy2xrx4vraF/goaStxoBOmDIZruH4JsaRiv5ywGdpxsws5LSwdW1hVa7L5MFvQskzKRo+TGr+18kaYRUSrHHlGnGQWFCgoa8V1RvqU3l0FRZ28KYLklpTGDRtCoJZ9Ac5afQEt/8SX2LtkTAtIaR+IRrYVbsuSq/k5u0JZRB8bnbYMI6AGo/PBdCT7lpk5ASkXpb1SiKC91Dp2KccpJpeWxrFYGrY/GDsjBTRexI2aYlGzqXfQ9OHrjMqzVNgSHfTuFc13tRZwDDjCAR9W8qXAgggLfnbv7rG3/L7El3oJvOIf3FrBQupRxtbmLImz2IN/09kwViEUt9Rd4mepypL+sHtdPdCSYw1rCiOM+zZEDgqJonqTsiu3S9wHhq6DyitKhUcUFB8OX2JxH8nIh+0wVOITOeONGPcTW/AIRA1e6F7C8vPiGX++8k2ouIjTVVrcgZj6JUVjJZ2Rlhyd7z/fNffepoy+YipJYyig3lLRsinxEIaEF4b3OfM/30H380z/N88n+B/yuQT/Qz8P4f/Wcwn+B38ewv//rJD/688K+e/3jJL/cwyoPssFY7tpzUWT2UXw+rO9O9H9Ofu35/m//dPfhnEr1r8/eijpx33YwD6KIX8Os+wfx+AgS7aiGpf770fLsneFsy3NUIETguu4L9v9ZwxBWYRGURchUAqj4v9tsG1Pe/+zaL+//zF6v2wt+g8fw33b/kv7jyjoZq3H85UfyZAV+d/+uUy6tfiXf/mX//3/AA==</v>
+      </c>
+      <c r="D3" t="str">
+        <v>Amazon Prime</v>
+      </c>
+      <c r="E3" t="str">
+        <v/>
+      </c>
+      <c r="F3" t="str">
+        <v>amazon.com</v>
+      </c>
+      <c r="G3" t="str">
+        <v>data:image/png;width=500;height=500;base64,iVBORw0KGgoAAAANSUhEUgAAAfQAAAH0CAYAAADL1t+KAAAABHNCSVQICAgIfAhkiAAAAAlwSFlzAAALEgAACxIB0t1+/AAAABx0RVh0U29mdHdhcmUAQWRvYmUgRmlyZXdvcmtzIENTNui8sowAAAAVdEVYdENyZWF0aW9uIFRpbWUAOS8xMS8xNBdd3BQAADV3SURBVHja7d0JvFzj/cfxJJZGbSWiRe1qa6P2rUiraKlaqkURW1vUFvzV3iJUUVu2e28WRCyJJE0kiJBIBAmxZrEkEiSREARBJIJ7nv/zPWfOvXPnzs2dmeeZmTP3ft7//3lp05j1zPmeZ/s9bQwAAKh4bfgIAAAg0AEAAIEOAAAIdAAAQKADAECgAwAAAh0AABDoAACAQAcAgEAHAAAEOgAAINABAACBDgAAgQ4AAAh0AABAoAMAAAIdAAACHQAAEOgAAIBABwAABDoAAAQ6AAAg0AEAAIEOAAAIdAAACHQAAECgAwAAAh0AABDoAAAQ6AAAgEAHAAAEOgAAINABACDQAQAAgQ4AAAh0AABAoAMAQKADAAACHQAAEOgAAIBABwCAQAcAAAQ6AAAg0AEAAIEOAAAIdAAACHQAAECgAwAAAh0AABDoAAAQ6AAAgEAHAAAEOgAAINABACDQAQAAgQ4AAAh0AABAoAMAQKADAAACHQAAEOgAAIBABwCAQAcAAAQ6AAAg0AEAAIEOAACBDgAACHQAAECgAwAAAh0AAAIdAAAQ6AAAgEAHAAAEOgAABDoAACDQAQAAgQ4AAAh0AAAIdAAAQKADAAACHQAAEOgAABDoAACAQAcAAAQ6AAAg0AEAIND5CAAAINABAACBDgAACHQAAECgAwBAoAMAAAIdAAAQ6AAAgEAHAIBABwAABDoAACDQAQAAgQ4AAIEOAAAIdAAAQKADAAACHQAAAh0AABDoAACAQAcAAAQ6AAAEOgAAINABAACBDgAACHQAAAh0AABAoAMAAAIdAAAQ6AAAEOgAAIBABwAABDoAACDQAQAg0AEAAIEOAAAIdAAAQKADAECgAwAAAh0AABDoAACAQAcAgEAHAAAEOgAAINABAACBDgAACHQAAAh0AABAoAMAAAIdAAAQ6AAAEOgAAIBABwAABDoAACDQAQAg0AEAAIEOAAAIdAAAQKADAECgAwAAAh0AABDoAACAQAcAgEAHAAAEOgAAINABAACBDgAAgQ4AAAh0AABAoAMAAAIdAAACHQAAEOgAAIBABwAABDoAAAQ6AAAg0AEAAIEOAAAIdAAACHQAAECgAwAAAh0AABDoAAAQ6AAAgEAHAAAEOgAAINABACDQ+QgAACDQAQAAgQ4AAAh0AABAoAMAQKADAAACHQAAEOgAAIBABwCAQAcAAAQ6AAAg0AEAAIEOAACBDgAACHQAAECgAwAAAh0AAAIdAAAQ6ABKLQgCPgS+NxDoAACAQG/hPv/8czNz5kzz6KOPmj59+pj//Oc/5uKLLzZdu3Y1J5xwgjnppJPMBRdcYC6//HJz6623mkGDBpkXXnjBfPzxx63qc1qxYoVZsmSJ+eCDD8xHH31kvvjiC/Ptt9+W7Pn1XPquPvzwQ7No0aLw+b/77ruK/Cy//PJLM3v2bPP444+bfv36mZtuuslccskl4Xmm803n3fnnn28uu+wyc/PNN5v77rvPPPfcc+H7RmVYunSp+eyzz8LvTIfO3WXLlrXaz6O2tjb8zeq6qc/j008/bdWfB4FeoMwuL/3IdCHVBfSggw4yP/rRj0y7du1MmzZt8jrWWWcds9dee5mzzz7bDB8+PAyalnajo5ucCy+80BxyyCFmu+22Mz/84Q/N9773PbPmmmuajTfe2PzsZz8zRx55pLnuuuvCmxyfvvrqKzNu3Dhz1VVXmcMPP9z89Kc/NRtttJFZY401wkPP36lTJ3PUUUeZf//732HgJbV7Uxf3CRMmmH/961/mt7/9rdl0003NKquskvc59/3vf9/stttu5q9//Wt4Y/nee+/xA0+A+fPnm4ceeii8ATv66KPN7rvvbjbffHPTsWPH8Pei81XXma233trsu+++5thjjw1/M08++WQYbC3V888/b66//npzxBFHmJ122sn8+Mc/NmuvvXb4mXTo0CH8PDp37mz+8pe/mHvvvde8++67nEwEevMhrv8+ZswYc+qpp4ahkO+FNJdjgw02CFtWY8eOLfr7+vrrr8Mfyq9//Wvzy1/+0vzqV7/K6VDPQ3MXkAULFphLL700/PHl+xnoYnX//fc7vcd33nknfH5dEPN9fl00/vvf/5pPPvkkEefhU089Zc4880yz2WabFeWc+8EPfhAGyKhRo8IWULFNnTrVHHzwwWaHHXZI9KHfxbRp04r6WahhMGDAAPOb3/zGrLvuugV/hwp6BfywYcPC33Wpett0Q3HggQfmdP2I/86VV14ZtrKbox6lPfbYI+/PYq211jLHHXecefrpp0uSCwR6hVGXrH50u+yyS1EuqE0de++9d3jHXiwK5kJf2x//+McmT+zq6mqz4YYbOr9/9XzMmjUrr/f0zTffmG7duoUh5fr8CtCampqynXfqsfnFL35R0nNONzMDBw4s2nvSkMeuu+5a0vfk+nkUY0hGPXHqadlkk028v2b1gt1yyy05haYL9boV+hpPP/30Jh/3pZdeMvvss09Bj9u2bdsG//2UU06p6/VsrRMLCfQ0TzzxhNlzzz3LelFRd/DcuXO9v7ftt9++4NekHgqN4aZTy0A/IJ/vXd2N+g5yofDXTZDvz19d9aUcClG3v1qH5TznitU6Xbx4sWnfvn3FBLpae76/e93wqkVd7Ne+7bbbmiFDhhTtPC2k9RwfO+64Y9bHfPDBB8MhIZ+fwxZbbGGeffZZutxbs+XLl5tzzjknMRcWjTuPHj3aa7ePxpNdWq/pLQB1v2mMvBjvXWNlzQ1BaJxNwxXF+vx186Nu/GL75z//aVZdddVEnHMap3Qd+sikyUwaC66UQF9vvfW8BbqGoX73u9+V/D1ogqS69n3bb7/9Cn5N6qXJ9MADDzRqYfs6dJOguQYEeiukySnFaOm5HjrZBw8e7O19ajJaoa9FY9PpgX7iiScW9b1rfFGrCLJ59dVXzfrrr1/0z3+bbbbx3lqLb8w0J6EcF/tcju7du3sNdN8tsEoIdLUQizUHIpeuZ80JmD59emIDXfNECpngmc+hSbivvPIKgd6azJkzJ5w1mdQLjGbSa9Z4kgK9R48eJXnvugioJyCzC3errbYq2eeviT2+x1QVci7dl6UIhb59+xLoBVLPWhKGGTSvRKskkhboOieKMZcg26EbG618IdBbgffff99sueWWib/IqLWqG49yB7qCTb0ZpbxAayJRuj//+c8l//y13tsXXVySGOaZh4YBNKxBoOcf5quvvnpi3o9aqRMnTkxUoPued9PcocnABHoLp9m3Wi5VKRcaLfspZ6BroomcfPLJJX3fGk9/++23w+d+7LHHKn5c9ZhjjqmYc07ni1YREOi5efnllxM5X0Dv6c0330xEoGsootTvX70lpZgPQ6CXkYo5VMpFJj5cl7S5BLqKsejHuNpqq5X8fZ922mnh6y/nPAet33fVu3fvijvnNLxCoDdPcyJ005vU96UJsZmrVEoZ6CqaI2qYlOP9q0YFgd5CaaJEsWZXFvPQGuVyBbrW5Kt4Q7nGArXOttytVZciLKrOplnklXbOaWJg5jyGlhzoGt5SmeJ8qVBP0t9bly5dyhboKkajqpDleu+aJ1WqAjwEeompjGalXVjjQ1W3yhHoGotL0thgOY4ZM2YU/Nmr7Gqlvm9VSyyUWrsaNkn6e4xv8FVvQUtY86Hyo/FjJL2hoOJF5Qr0eGVMuT4jH3NCCPSEUREPnyeJKhxp4tYjjzxiJk+eHJ40mlmqWcIaL/U9puYyQcsl0DkKn/mt8TufQxUaj9SeAhqCmTRpUnjOaeLTPffcE65B9lE1L/3QvgOFUjevS4nTUh/a3CbfrnafRWP0WIceeqg544wzwkN7HvzkJz/x9vgqzaz9Fkod6NrDotw9NTfccAOB3tL4mmGpGsW51A7WZBRVfvN1UqqYC4FenkOFhwqhWtY+nl8brOTSWtZKBG1c0dQa5ULKoboMN6h4TqV0ty9cuLAsc3FUSEo3jNkKwmh3MX3vBxxwgJfn0vlY6kBPwqHy1QR6C6Ifi4+CJPoR50t3/r7KGha6rpJAdzvUcsqXZon7aGEpoPMdA9SWvr4qyOUbdJlU+a9///7hceeddzof2jXO94oLlWjNd16ESsW6Pu/Pf/7znHYMU1Gi8847z0t520K+z0oPdE0MbA313VtNoKuLstRdcjGt4VYLy8cyrkKXYBQj0NWq0diYqovp8/3f//4X7v+urQ9LNSNe3YjaEU8z0XWoRaiuSt/V5HThzdeUKVOcn/dPf/pT2eeLJHH80aWUceahqn35uuKKK5yfV5saqURsPrRTm+vzXn755YkJdNUC0bCleiFUBVLDR1oR4ru0tK5VSdlRkUD3oGvXrmWd6Txy5EgvJ6ZCIgmBrlbjyi5GWk2g5SrF7CK9/fbbzZIlS7I+v2Yr/9///Z/XC0++67K1LavLc2qSVqFjnvLiiy96mYQ0dOjQRP2WdZPj63tVqOY7s13fiY+xc/U05EutedeeAb3nfM+rYgS6lpOt7HWo9LWvsXeVmn3ttdcI9JZir732cjohXDeu0FiYj33VNQGv3IGuSVm5DnNopyXfFwINPbzxxhs5vYbbbrvNy3NuvPHGTd48NEU9BS7PeeONNzqf9xoDd33vVVVVifkda/Jfues7aO9uH3MiCqXaDK7Pry2iyxnoGn7Jha53KoHt4zlbw4YtrSLQNXbisn2oum/zvZhnc9hhhzmflLqglTPQO3funPNnLipI43OpimZx51v5SstmfAR6vq0a1YJ3GV7xUfI3fYJcocd1112XiN+xqgZqxrSvc+mss84q6HX46PbON1DTKZhcn/+ggw4qW6DnW45VM/59PO+wYcMI9JZi4MCBBa+l1n7RPvg4MXO9sy1WoD/zzDN5P7fP/b7znbwkDz/8cFkC/fHHHy942ZZ6NnxM4rnmmmuc3/u1116biN+wr5ne8Ra56jXLl4aZXLuBdU589NFHBX8OWg6o89F1Ps68efNKHujaXCnfCZ7aedFHHYxCG0MEekLpxBgyZEg49nrRRReZY489Nmy9Kew6dOjQ5N7UqiPug48lTJrlW65A33nnnQt67n79+nm5GGiXpnwLf4jWC7tOkisk0GXu3LnhZMGePXuGLRNtMKMSmOoK11hmU5MHC/2eM+kGyPVz79atW9l/uxp+8FVARuOphU7089Hdrha+K008dX0dNTU1JQ90VX0sxJ577un83PoNEuitgDZr0UVfF1/90FVRSV/+1VdfbZ544glvz6PZnJUc6JrZWwjNXvUxDqbu40K5XhAKDfSmaIKl5hho3bjKYmrSpMaqFZ66AfBF65tdP3f9DspJG5/4XDXhUpvfRy0LHz0ePpYlqvhVKQPdZQmk5u1QXIZATxQfRTbKGeiFTsjTXuoqnuH6/Bo2KZRrgR/fgV4qffr08b6NbSmpR8bnErX999+/4NeiVQ7bbbed82sYNWqU8+fiYxhp0003zbmuhY9AdymMpd++6/PrJohAh5P0cdBKDnSNYWnIolA+ZlurdG+hTj/99FYV6PF55yPQyzkp7oILLvAW5mohxtvxFmL27Nlhd71rt7/L7yimJVhNDRHm81rU+1GqQHcpXT1+/HgCnUBPFh/dZOUK9I4dO5qlS5cW/N5VLtfl+bVBTC4VtZriOtu7UlvoDzzwQMWOoWvuis+lUnfddZfT69FQiOtr0FwdDe+5Uq/XBhtsULLPxEeguwxf6gbG9WaKQEfetN2kdpmaNWtWODY6YsSIcDxe1Zl8FFopV6BrVrDLrGuN17nWu3YJVNcdz5Ic6KpEqK1K1YJ86aWXwi5dTYa76qqrnJbOlSPQ43Ns8eLFYZewrzB3qbgX09i7j9n1LlvSpn9OLktx40PlZEsR6Orhc7khV8+K60x3Ah1ZadmFSrBqWZKWkWmymPYL157lGmPTnbOvYghJCXRNKnPhWt1LldpcbihcN9Iod6Br/FYT6LQG+e677w7HtbW7msaEtcRNNzyuXbBJaqHr9+SzPLBueFz5mBC39957e/uMfCwHzXXGvWugq7KeSw+fejVcaxAQ6AhpZubo0aPD4NZykc0228z71qhJD3TXpTba7agcgR7/O67zF0od6OrlGTduXLiOXL0bWr+rYYdynHOlDvR4j3Ffh69lpz56O3wsWYtp2a2PTUu0yqfYga69ENSTVCitCHHdipdAb8U0cUW1uHUX7HuPaQI9/0PDFS60/WnSA13LJrV0TRUFNWchKedcKQNdPV8+91AvdEOlbHzsnHf00Ud7ez2uEz3jMf1s27b6DvR99tnH6b3SQifQC6LxR+2+VKrdwgj00lwQXOtf+wr0bL0M6kbXkISvjSgqOdBdJ0+mH506dcq7KllTNAnNx4Ys6uHz5R//+Ifz69EwTS47OLoGunb+c6GbDgKdQM+ZxsM1Bp70fX1ba6C7jj0mYZZ7ZphPnjzZ2xanLSHQVUXM12vWBKpcl2TlQvMXfNSRP+GEExIV6Lnu4Oga6K43MgQ6gZ4T1VQ++eSTE39RJdArP9BjmhykruBKOedKEejablf1xX29Zpc1z00NwbVv3975dWnoxxcfdfp1aK5GsQP997//PYFOoBfXhAkTwq04K+XCSqBXfqBPnTo1nCBUSedcsQNdy7h8FB6KD+3P4Ntbb73lZSLs3//+d2+vSXtS+Pi8Hn30UQKdQK9s2t+8WMt8CHQCPRu1hIoxwdLn9rSlCvT04YcLL7zQ6/a6mlzo24svvuhlKarPFvptt93m5TPThjMEOoFesXxUz8r1UHUjdSWqu8610hGBXrmBripZPrpsczkUPPE55+OmtZgt9LFjx3p971ryVgwaj3f5/cY3XZqcmbRAV+OGQCfQK5JmFBej6Iu64/bYY4+wItkdd9wRlonU3uEzZswIqxxp7+Fzzz2XQG+FgT59+nSz1lpreT/ntBJD3fddunQJJ5Rpa+CJEyeGz6dzTi1VH9XNihXon3zyiddqcNqatlhUhc/HKoQjjzySFjqBTqD7oGIdPpaeZI7XqR5yLks/dGEk0FtXoC9btiys5ObznNMSvt69e4fjus1RVbmkBrpmfPv6TDbffPPwBqFYNCnOx6Q97frni68xdO3cRqAT6BXHNVTSD62X1bKjfFTybmsEemGB7nO3sN12282MGTMmr+f3sdtaMQLddzW4XGZqu1iwYIGX+Q8+C8vceOONXj479VoS6AR6RdEYZrknCRHorSvQp02b5m14p2vXrmE996Y0VRY3iYGu4SefkwMvvvjiol8/fBWWOfjgg729Jl/r0LWhD4FOoFeUfffd18vJ371794JfA4HeugLddUOa+NBOfYVKYqBrmMpXmO+888451SL3Ydttt3V+vSpelaRA1zwM3WAR6AR6xXj66ae9XDz+9re/Ob2Oq6++mkBvJYGu7XN9lA9WGWIXffv2TVSg+6wGpzFt9YKUio/dzfQ79HUD4rolcLwtsXofCHQCvWKcccYZXjYx0AYB5b6jJtArI9B9TIDUsrM5c+Y4vW+tuEhKoL/66qvOe1qnH5oUVko+NkPRVq6+Kg76mBOkeRm1tbUEOoFeGTTLWD8i1xP/kksucX4trqFCoFdOoO+6666JWIblozyoj0DXJik+K+T53IY0VzfccIOXXgVNsPPhgAMOcH49+l3mgkAn0BPhueee83IBef75551fi48xVQI9+YH+7rvveuluHzFihPM552OWvY9A99E7FRdnUW/Ze++9V/JryUMPPZSYa4n2FvdRtjrX75ZAJ9AToaamxss405IlS5xfi0LJ9bVoXTGBnuxAHzlypJfudhWHcaVlUq6v5brrrnN6DVpS5qtlrs9l/PjxZbmW6EbNR+W9XCqzNWfhwoVmzTXXdH4to0ePJtAJ9MrhozqbNo5wpYknalmUa9yQQC9doPtYH6wKal9++aXTe9bY6A477OD8Wi666KKCX4PmnWy22WbeAl0X9VNPPTUcjlCFPNWBV+v/5ptvDgs8aRtk7dymXRR902Q2H5/nlVde6fxafEz01Wf5wQcfEOgEeuXQLOEkLDVRGVgfF7QrrriCQE94oJ955pnO3/N2220Xdqu6ULlSHy1KBWihTjrppLJsYrTBBhuES9r02rXUVHt+L1++3Pl3rMdzfW2aLe9K76mU1zUCnUBPhP3339/5xNfJ7OrSSy/1cqE67rjjCPSEB/rxxx/vJdBdlzf16NHDyzmnyVeFKOUmSLkc22yzTXgejBo1quDeDx/vab311nNeMXPMMceUdG4EgU6gl52qZ/mYWaswdKH9nrfccktvF6VCWm4EeukC/ZBDDnH+njfZZBPn5U3aLMjHOVdIAGnfhPXXXz+x2xBrGEArV954440mrx3ZvP/++17GrnPZg7wpms+jHgjX16ChCQKdQK+oQO/UqZOX7juXjR/69+/v9WJUyCxZAr10ga46/64zubVeW8VpCqWxZJ/nnHYPzMe1116b2DBPP/Q5a33566+/nvN7O/TQQ8u6JFGT6lyfX8sqm7ppIdAJ9MTSOFE5N39YunSpl+Ul6Rd7hROBntxA91XydeDAgQW9V02G89U6jw+FWK7Ug+R6vpUj2C+77LKcQs5HoKqVX+jSOx9lrFVwKB8EOoGeCD7KNeo4+eSTC3r+s846qyj7YOeydSaBXp5A91FRLN/JU+lBpGVmxQg9TezMhZZU+dhqtByHyjM3R+eBj41aNHkyX4MHD3Z+3nXXXTfvVQAEOoGeCD6qs8UVnlS6Mh+33npr0S48hx12GIGe0ED3UbM/Ph577LG83ud9991XtHNul112yWminrYVrsQwz2e+gDbM8dHjpl0gczV37lyz4YYbOj+vig3li0An0BPhpptu8vZj33HHHXO+s9XJU+yLT3V1NYGewED3Gap63lzH0jVXIx6WKdZx1VVXNfs6tL92pQZ6rtuJqrt8rbXWcn4uTRzMZU6Migxtv/32Xrr61YNCoBPoFUmzSX3+2PWjWtl4+rPPPutl7XsuxxprrJFzrwGBXrpAf/nll71+z5rxvrJJaToHNMmqVIHXXKtywoQJFR3oKtqSC+3D7uP5FLJaYpht1zOdc1VVVWG1Sh/PVeieFAQ6gZ4IqoTkY5lJtqIMaq2oOlW/fv3C/+xjzXshS+q0AQ2BnpxA10Ykm2++uffvWjtjaeKWWuKq6a+Z5Foit8oqq5T0nNtoo43MokWLWmyg66Y8F4sXLzYdO3b09ryqDqjfiW4Uzj//fHPUUUd52Vgqfac3BSOBTqBXNB/LTDJnmifpUL16Aj05gS4+9qpO2nmZ/hwrq1jYWgJddGNVKe9r+PDhBf9+CHQCPTG0/KeSLzA+ZssS6KUNdG0g0pLPuZVNymxNgS76LJL+nrTywgWBTqAnxldffVVXqS2JLWzXcfRclhMR6KUN9GKsBU/SsbIx/dYW6BrW87GMrZirE3IZliPQCfSK0bdv38T8wLTkxcd4u8Yyc10bTKCXNtDF94RMl+Occ87xspXq2muvHdZCL8ekuHbt2oXzBeKjWDfn+Qa6TJw4MawPkbQw12S69G1486kOR6AT6Iml6lW+qsb52C1t2rRpTjth6a47n/2yCfTSB7qP9+3jiCsLqg65iooU+jhbbbVVOIO/OS6Brhn9nTt3Dm9AtCWqqrJp+ELPq/3I58+fHx7z5s0Ld5N78cUXwzK3AwYMMDfccEP4Xvfaay+nFnMhgS4+Ksj5PHTzlcsSPAKdQK9IWs/relK4HCo0k04XoEJ/HNmWuBDoyQt0bVKi2cvlOucylyndc889BT2Oyo0uWLDA+/wBfTbaQVAz91944QXnPeBj2sBk0qRJplevXuFscfVm+a6Il8t8nXIN8allXsieDwQ6gV5RdDefvsynFD84nYgPPvhg1tdz0EEH5fVazj777ILeN4FenkAX7WpV6htJdU9r/XI2J554Yl6Ppdr0moeSq7FjxzY7VKSJnPot+grwXAL+kUceCVcfNLfUTN3nLoYNG+al6EyhhzakevPNN71+fgQ6gZ5YKqfp0vWYz7HPPvuY6dOnN/laVHlu6623LvoJ6RroWu/c2gNdoVAotZZ8rilurvjRU0891eRrWb58udlzzz1zeqyLLroo7/FXdfNmeyyFgnoICl0L7cvHH38cLjfTOZXtdfoIQxX70Y5mpQ5z7Tnhuu0ugU6gVxxtl1jMMXXNPr/mmmty2rtcG61of+amHktj7ffee6/T+912222d3s+BBx7o9PxHHHGEU4+ILo4uunTp4vT+VUPbtTWpsV+fNREyD/U8qU53LsMxKgyz0047rfTxbrvttoLep2b4H3/88XWP84c//CFstSeRqt6pSz5+rV27dvX22CowpEJApZgsp/kNgwYNKtrnlOsNYLF6+LR9dfv27Z1eQ7du3Qj0lkxhe/vtt9ctafNxqKtN3Yn57oY2c+bM8EeZ+XgdOnRoUGq20Fmqxx57rNP7UvUqF7qwuTz/CSec4PT82i7S5fm1x7kvqi6ofQF87r6nAFXXfj7niUJ99913z3ozOmTIEKf3qFBXIRPX7utSmTJlSs4lX/M1derU8PspRkU/TSLU7nrF7vU47bTTnF7npZde6vT86lXaZpttnF5DMW94CPQEUctLXXBqhRbSFa8dmjQzV6GhHZEKpUlH6Xsd77zzzua1115zDnPRhgxqKaknQBeBXA51M2svd/2YXS8Y6gZUcQs9nh43n+c/5phjwrW+LlasWBGW09TNWz7Pr0lbhx9+uJkzZ47Xc+6bb74Jt8JUV6Ru2gqZwawu4+uvv96pi1jDCHoN6S29YgVbpXD5na3MjBkzwiEM1waE9m7X9UZLcUs1fKGhQc2l0PUjn9+P3qt+9y7DVek3RnrfGrrK5xqmIU31lrYGBHoG7aKkdba669V4lC522pdak9cU+Lq4ayOMCy+8MJxBqxm9Wg7ki4JnxIgRYeGOpUuXen9/mtykLtlcDoWwXo9P6obU4+b6/Pr7Pun95Pr8OvKZDFYotZTHjBkT7gyom6cjjzyy7pzTP1WJTOfceeedF940ajKZy41jNlozP3To0LA+ecLiNTyC+D8HaX+c+t9M3d8IGv0bSaRzWkvjdI3R9UW9NRofztaCV++Lhnt083bqqaeG+0aoN69c1FLO5/fr+/oRN8DyuYblMuxJoANA0aM8+3/P/POmbgEqgfaY10Q9BbVaoZpvoKEK1arQ2nsfrVsQ6CjXhSwI+BDQqoPcfGdbdkvfN8HHL5tgwRMmeHuICd66zwSvV5ng1ZtMMPVmE8waEP3Zu8NN8IGd1f/ZTBOs+DxryPMbB4EOgCDwH9cN/+S7r02weKoJ3uhngknnGvPwwSa4fzO7ldk6xvRpa0xve5nqYY877NG94RHoz3raf1bbf/Zb3QT3dDRm+B4meOovNvyrTfDZG5w0INABwF+M149yh8dyO1Y/50ETPNnFBIN+EgZyYEM76B6Fd6AQr04dNfbo08xRE/3doMoevaLHCY8+qxgzsnPUwq+AljtAoAOoiHZ58J7tPh9vQ3zABnUBHoZwjcJXR1tTa/9Zq5Z5nzZ5H0Gf+scJj5rUjcLt9njl3wQ6CHQklO2mNK8PsAXDp2S5dALljO6MP1VrfMR+Ycs7bIVXxSHcti6ATVqIBwWEeeNAT3scPe+ADna94Bd8RSDQkbDLpsYc+65hzK2pi9U42+r5fHb9/86kG5QlzmtNg+VjC56Mglyt5J5xS7yw1rfToeetsSH/8Uvc8oJAR8K8NTDqRoy7FdV12X8dE0y5wgRff8JFC+UJ9CC1YOybL03wzNlRi7xHE63mEh7hb0SvZeGTfEkg0JEwX9liNgM3joK8b9voqEoF+72bm+C1Xrb+5go+J5S8jR6s+MIEI/eLbjg1Ua1Pu/ox7VS4xpPYwq53TYDrFc1WD2ezx0c8mz3+7z1TfzfXiXKZga7fx8IJfEUg0JGsi2Zo8atReHdPdSfGraBUq8g8+DO7Vvf+jIIczPVFkc/M2Q+Y4L+pFnGvVFd7j2iJWXiu9k610vu3t+Pa69klaluYYNgu0U3AmCOiY9yfTTDxr9Ex9lhj9GcP/9oEQ+05PWD9aJla3WOlbmibCfRa/d0F4/mSQKAjce2g6J9L5xkzdM/oYhlPCKpJtYbshbRWF9Jhexnz9oPEOEoT6J++bs85e07ev3UU1I/9zna/n2OLwdiCMDPvstvOPWaCD+1Y9hfv2lq8S0zw7TL7L9Y2WRku/bCL1m0PgK2ctmhyVGBm2E7ROvTUBLsmA7069bv48Hm+JBDoSNiFMwjq1vZqvNI8dkRYeCOedFQX6n3a1E9IeuiXJpj3KB8einhe1gdz8O3yJsu1NnUzEDS6aQ0a/LuNHiP41gSTLwp7Alba5a5Av9NOIv18Dl8SCHQku1UUhvuk86IuzerGM4kV7LU942Df306qu6/u4hs9SK2hKx4V+xsYutNKQz0cP9eck2+/4sMCgY6kB3rqP8/obgN9lawXt7oZ8anJR8HQ3WwX6D1R3Wygks//Z8+N1rc3Fegayx++N7esINBRAZe0sIWd8t7jJrj7h9HM4D5pBTzquuFTXfFxicxBO5pg2u0mWPYRHyUqM9DtZi0Nz/eMQNdw1ITT+LBAoKMCL3B2rDAYvm90IauOK3K1zTp5KGzN6+8N6GiC5y62u1a9kfF4Qf12lAGz5OH7fA2yrr4I8jnfX7k+WtnR1Di6Wu8z7sjzkQECHWW/PEat9cCuQw8mnhlNiuudWq+eCvZGXfH6s3gde1+7a9Xjx4Qt/czLX0Cgw/cZGzTcvTz46gMTvP+MCRY9Z8/hr3OIc+vZs5sO9JpovXvw4eSMKXYAgY6kXxw12S1IK7+pfaP7rd2gYldmoNemLXkz8YYW6pIfZreifM3uQb3sQy6DKOJtqPXBJNstbted392hrtBMMLiTLdf6YvMtdC2NayrQFeb32iGoFZ/xQYNAR0VeHhu2RD59LVobnDYLPltrveGYe6qCV49Ud/zEM2zL6emG64Lr7yQIfORwXgYNz1I7byN4vU9U770q1TVelVbdTdXmHthipZuqBN/ZpWsP7tBoImhdoRmdv2N+X7cahBY6CHRU/uXUdl8Gz5wfLV3rWd8Fn1P5zKq0rS41O37qLSb48t2stxFAdD7U1hdAyjjM+0/ZG8S/RTeKaRu3NNo5rSY1B8RuqtKkz9+xPVCrZ/n3UzetOm9f6516HQQ6CHS0pPbRuw/ZNbk/jpb51OS6LWX9/tK18ez4/mtEBW1m2zXtX3/KB4ysN3h1Qf7ZLBO8fIO9Idy1ft+BqvTeonaNz7neqfPMjqs36e0hYY0FU9PEMs2+3wsnidYHOkCgo2XEeWSZvUCOPSEad+xd382+8g0uGi57CzfJ6JEabx+4kTHj7bKgeaPrinc0P2eZi2uLPb9iS9+zXerVxjzyG3vOrB6FeK/0bVTbNtgTPX0lRhj2tsvdvHJD42cK0v7zpPNNbffGu7iFj6Vz8+HOaf8u5xwIdLTUFtQsW1jm7o51teAL3qKyKhXuvVK7vWm83ZaZDVJjn3WttQbXfbo/K/fkib+3xjXYzZfzjZl5pwlG24lqd64dnlvhGvGaPHqC1AVfvZod2vlvE7eCcaLXRhu29MpeHTG8gXi9N98XCHS05Otx/WhisHS+3dHqz9Gkol6O+07H4+1xuKtrf1wXE8wZEhauCYjxFtker10yK9yyNxh9mA3xdaNNgXqkzoU89kAPJ2zekZrd/sGzK+nHSf3ppzPsCo3VopUZmYFun7tWNxTaahgg0NFyL8hBowtz8M5wY+wOWSoyE3an98mtKz5bqEd7YKfWv3dPTXq6+wcmePS3tjxtDxMsnkqoV04/TuM/UbngRc+b4IVr7Az1XxjTd5VoO9Oe8SqK+i71oLkbwPjolSpy9Mx50YZDK+3FSZ3B029PlXxt27hgkl7P+JM5z0Cgo5X65nM7JnmRDfR2aevW27l1x8dHasw9vPBr7bs21Jh0gTH2RiIsJpLlEs6s5FL11qRXawuyRqm2Ow1rGow/3S4l26puYpvWize8Aczlhq9t6rxqW98qH7RDXTGjXO4zwtc3qnP0/A0eOzXfQzeTtjiNWUk7HyDQ0fIv8h/Z/aofPri+6zzPVnqzR02qNRZPkrprHXtxPtAEU64wwcInbff8opW2z+C3tybb3uPBl/NMMHeULQdstycdsY8x/dpH50M8O70m/96bhmPlqaGZ6lVN8Pw/7HyLJfXfedD8tx58/na4XC39ZqJuDF6P+8ivs2zAChDoaD3NtYYhOvte2xrbtkHBD9cjSL+gx0dVqru2e6rrdcAGJhhpi41MuTIaCrDh0mADGngMdH3t30X1/2cPsvuL/8OYEXZnsjvXib6LzK70vm3Tem7aFvb9px7XjPyVLcn6fIPgDf+vmUAP//70Ho12WGuw8dDC8TTOQaADDdjxzOCla+0Eo/WiC6gu7H3bNFNpzkP3fGrTmDBU+tm1xEN3tt29XcLJV+b9iXWTnRoVLckIh+j/g5xafRUbyUHq/cZlf1fyXsPPSZ+dirtMt9vtjrPLF4f+3I6DrxZ1X6c+83y60XO+iYvXn9+3hQnevLPgGxDd2gUj929cHa5v3Dr/Fb9bEOhAg9Z6UNuwC3biWfbCvEqDErJFCfTM7vnq1AS7VJdvrf7zXR1sOdtdw20xg2m3RGvgv3jbmNQ6eGMaN9BaYqRnu6Gp+/Nvl9nejbkmmD/GmGm3RZ/VsF3sBMX16ics9qhfG16s7zBcdx4WI1rLmClX1S1nLPj9fjIjOg+rG8+SD3uSFk3m9wsCHWiY6dHubQ2C/ZPp0VK06rZ5VZtzb+W1bdhVX5W2p3s8Fm9nWweDtrHj/wcZY9fCaxa0mfuI3eDjFRMs/6hFjsmH72nFEhPYJVzmPRvcWj72zFnRioLB9rPot1p9eMefU3WbBkMepli9LTWpeRI1q0Y3gxr3jr+DAntMwn//xX9G7yVzZrsm1008nV52EOhAXuw64WDMUfXdqDWZ1b5KfNSkjt6pmdc90g5d7O+x4/KDt7dBd0hU+OalblG3r0Lwk2lRVTMFo8aTmwn+Yrb6Mx8v+HapLX36oTFLZtvNcZ4KS+2aV28KVwgEY44Iu8uDgT8Kg7vufXdP/bN3quu8hDddJp65Hp4TdjnbkyeGN1TOn0p8A1BrN2MZvG1qsmbaOaeblgEbGrP8YwIdBDqQe8s9LXi0b/UTx9mL6qoZ9bnLEOor6/KtSnXbpybfha25nvUztoP+dpz+PlsIR8vpRh4Q7dA14RQ7y/tCE7zSLSqcMvOuaOb3fNu9r27dRZPC7T2Dz21hlSUzbejOavLQ/x58Zo8Pp0R7c39gd66b94itrW+X7c3sH/UmvGC7o5+xe3uPs5+nLZda+7/dbY/D1nZ4wRZriYOyV+q1p3eXV7Vp1P1crs+5rkX+5Cn2Rmm6t3Ctq53w3tgG5WMbzJifMzh1M8YEShDoQI4X19pGbclg8au2nvup0fKmO/zNivfacszsuq+Jjtqa7KEfVzyr667ukXZUp6qR6XH6t4+Ofk0c4f++RvjPujkBVRmPl/lcPVNh3Tv19+PX2GCznLap/ezbFryEzMtRFU2mC9/r+FOic8H4XHYY1NdvV4u/R8MtgKOu9jPqgj9gRQQIdMADtUafu9x2f25U3wpOTLBnr34XZJ2V3czrrkk7qvM40v+9vF93+T63BhunxDuZxbPiB2xs15JfYb/7t4p1BxndGHy1KFxOF80BaFe/5nz4HrZ63df89kCgA56vvdGx/FNb5rWXqR2ya303d3WbRHXFc+Qe6LVxqFen9SAM28MORVTb7XOXFHXcum7vgVSp19p4iZpew8BN7AqMBfzwQKDzEcDvhTfqjm9YK742XDYVPPFH2x3//briMaWaqMXhr7JfGOTa8GTc8cbMf6LBDVwx1w+Ej6zJcMN2Sq1mSIX53T80ZvG01GtgKhwIdMB/qje8FNez1cjMq/+JZmb3bpNRga5+HJhWfKmPjMp9cfd66jsKx/vVGp92q20Nz2/4rQb1hW2KauG4aD5BPAFOQzp20l18nhHnINCBcmS+/s/O8q6d+He7f/qmYWsrnIBWVeQKdBxZutPbNZwoWJW2Xt3uvhdMsrP8P3yu7Gv4gzm2LO0t9jXdZl/3UDuM89mb/JAAAh3JCXYVRfnCBG8PtXuyn2jMPRtGXampvbTpli/RhLfe9SFu7NI989Rf7TDJ43YN/FcNv6uyRbp95u+W2TkZd9gx+xr7n5ez6QpAoCN5bfU0yxcbo3B/8oRwspNJ7cgWj7kHGbPQCeT8u9bjwi/xZxtOchtkC+48c264xtt8s7SJb6j8I9VB49tBfkIAgY6kttjrLtXam1312VURbWgnO7M5tUd7z1SLMnNNNt30TZfKTZvUpmpywZ3rmuAhu7nJy92MsYVuTC1LvgACHfAa6A1nyDf4p2Yzz+htzONH24pum9Yvn+pRH/AEecPd6uo+H90MDbEzxJ8+045FD7ET2+Y23siF6moAgQ74C/SM7t0mNvAI7JauYS15u8ta8PgxdvLWltF4e1y7vWcrGYNPr18fv3d1pdtSscbuqmaePd8Es+425jNbftbWqM/WGxJ96o0r/wEg0IHS+26FMR+/bMPr3qgW+kOdo81YalKVxO5Ia8nHZVT7ts3SZd+2bq/3stWcr2lbXxc9vdu8OmOHuTtS70e7qWnTmSf+EO5bH9jNZrTVLQACHajgFn7a8fWnxnxka4rbFmrw/OXRZiuDd7Drl9ePgjO9dnqP+rrpJt7opKZELfy08rF1gd0zo358r1S9+Ps3M8GIfUygWehaE645Brb73NR+0+j9AyDQgQoO9IZxFmT5Z7D0fRv0L5jg3RHGTLVd9s+cY7vt7bj88D1N8MCWpvautcOd4+Jx6LAb+47UbPvuGd368dGriSP97/RI29q0e+ox4y1OFeh9bUv77vVM8KC96Xj4l+EmJLVTLjW1b/Y3wcIJdre2WY2WkRmTuZUrkQ4Q6ADCJVvBsg/DbU6Ntjd95392z3QbqNNsDXFtbTrZzrgff7I9uhgz+rd2i9ODo/3VR+5nJ511Mib9sBuGBI/+xv6dg6K/o13CtB3rZFuo5YV/RXXJZw0wZt4ouw2r3Yr183eMUa9CqrUNAAQ64K3F37gbeyWFbVf672f7c5PHYwEAgQ4UEOH1AZ6abZ+W6EGej9b4z4NG3eNUIwdAoAMVdcMAAAQ6AAAg0AEAINABAACBDgAACHQAAECgAwBAoAMAAAIdAAAQ6AAAgEAHAIBABwAABDoAACDQAQAAgQ4AAIEOAAAIdAAAQKADAAACHQAAAh0AABDoAACAQAcAAAQ6AAAEOgAAINABAACBDgAACHQAAAh0AABAoAMAAAIdAAAQ6AAAEOgAAIBABwAABDoAACDQAQAAgQ4AAIEOAAAIdAAAQKADAAACHQAAAh0AABDoAACAQAcAAAQ6AAAEOgAAINABAACBDgAACHQAAAh0AABAoAMAAAIdAAAQ6AAAEOgAAIBABwAABDoAACDQAQAg0AEAAIEOAAAIdAAAQKADAECgAwAAAh0AABDoAACAQAcAgEAHAAAEOgAAINABAACBDgAAgQ4AAAh0AABAoAMAAAIdAAACHQAAEOgAAIBABwAABDoAACDQAQAg0AEAAIEOAAAIdAAAQKADAECgAwAAAh0AABDoAACAQAcAgEAHAAAEOgAAINABAACBDgAAgQ4AAAh0AABAoAMAAAIdAAACHQAAEOgAAIBABwAABDoAAAQ6AAAg0AEAAIEOAAAIdAAACHQAAECgAwAAAh0AABDoAAAQ6AAAgEAHAAAEOgAAINABACDQAQAAgQ4AAAh0AABAoAMAQKADAAACHQAAEOgAAIBABwCAQAcAAAQ6AAAg0AEAAIEOAAAIdAAACHQAAECgAwAAAh0AABDoAAAQ6AAAgEAHAAAEOgAAINABACDQAQAAgQ4AAAh0AABAoAMAQKADAAACHQAAEOgAAIBABwCAQAcAAAQ6AAAg0AEAAIEOAACBDgAACHQAAECgAwAAAh0AAAIdAAAQ6AAAgEAHAAAEOgAABDoAACDQAQAAgQ4AAAh0AAAIdAAAQKADAAACHQAAEOgAABDoAACAQAcAAAQ6AAAg0AEAAIEOAACBDgAACHQAAECgAwAAAh0AAAIdAAAQ6AAAgEAHAAAEOgAABDoAACDQAQAAgQ4AAAh0AAAIdAAAQKADAAACHQAAEOgAABDoAACAQAcAAAQ6AAAg0AEAINABAACBDgAACHQAAECgAwBAoAMAgIrx/2uOPqeicReWAAAAAElFTkSuQmCC</v>
+      </c>
+      <c r="H3" t="str">
+        <v/>
+      </c>
+      <c r="I3">
+        <v>120</v>
+      </c>
+      <c r="J3" t="str">
+        <v/>
+      </c>
+      <c r="K3" t="str">
+        <v/>
+      </c>
+      <c r="L3" t="str" xml:space="preserve">
+        <v xml:space="preserve">DTSTART:20190711T041626Z
+RRULE:FREQ=YEARLY;INTERVAL=1</v>
+      </c>
+      <c r="M3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" xml:space="preserve">
+      <c r="A4" t="str">
+        <v>a18c0f66a4e7bf7b3b354907a417f3550</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4" t="str">
+        <v>LVXHruPaEfyXC+80MElRYriDWZDUYaaYo+0Fc85J5MP8uzl+7k1XdQONxjnoqn/99bV8fcM/vsav77++/jGny5/chW369f2lhUdcpHH99eMrn/p1uEoX3NPoAsWyDN8QlPd93qT/jPv26pRx312tJFzC77IN8xQauvznXiZL8Qu9/yzSMi+WPygK5xR7/CgdWjV2WOLynrribdoFsPMLMX8olTOUfyX6TLsJvgAr1A3QHeNBRSiduaddGB1FpNAJ8Xi8RHDaHEPfu/J0uK/cox0FsLCw1wZYzgpqzeCMjU5sJqB4UMC3Hh9H8SCVQgcCpYs1Yn8kcQO3j8Xxk3skuJpF0/Md9L7daLRZYvaCJ3cHO1Ft7UoP4oUnBjgss55MF3/md8dsK0bQag/gWjWsnqCNHpAg7QHq8K6t5pWlyBqLLw9Wk5jxlVj0qcnUccjmFI78qlcFtRzkEX9uL+7jIv5L9rnQ2mWlJOq3czrqyxbUQPZkFMWq0W5DqjVgvc4Wh9TVkWE9JRJbfMPuY4wVptq5TGlByzBVkGb6EK4kXDGDpAvgMgSEhSEfLlMRLJ981nmpp+44iXjIGzhY0L7rMiFv09ipgiTCtyOrzvPkP2cB0Z0/m4KH42EhZ2h96upA9MpntutksUldk6h5UmSVX7dwCq3aKKz9VlnnKT1FFrIxyDSIuN+0Gtuz/b73+DQajFHIW1bHTZ207nm321bivBUq345nDwAfnCzmnjhdQvXqmOmJ8jc0Ig3LcbZEi+dAZ62T2z+EIAkS57KadVe0KH25swzrxbSuQ8qpZ6xvd9jxvTk8b+k+w2/7/T5PNpA0TQelw2soGzTKc3XmdzXbyuwlK6IjvfSBsdyoTjSw5KDyjE2pvNh0J4wO/VVpz+mGVqimaQAlGGwZ0E1/sJg09kGDUMbGos67TZrB4Y48QqGajCcoM0hzFgOiWly4q+vPoQSPyHj2pqVkSlzK5rg+bxXW3201emarKHdlcjsOykln1zl5fORMMwhek9lIVDouPYhYGvVgFbygXaJGbTgLpcarlfuIJ3ifaTEaQdtO68b4rCp0Z38iFmjy3Voq23LxNYWevApAbj1ShS/1/hYfKxCM9EiW+UF607FV5dQ8AjDQjgAaOxZBH7KnaFn5A3ccWYJI/mmGaUiNb3AGg9yosaogihmHvGRSeUyHWG2Jw7YLMTe+cjITmSkSxYBrRBnfCRPhRRh+Vw/i/BgOlgJpgyWSBoXsJTqRROBtfXalRrU5Ivcxe34GYCJGpjDjZg6lppuCk0CNKRQq4d8sKIqVvAeQZlEm+jE5KUj93esQlNhA5y28ZCOibYqmRDDRswi6Shxwle5K8044a5n7Y77v5RtC40i4eW9lQEpmQB/4njCP64rR63TsNnXAwGRCMCnX+yWr5W/CGZjIcpxNAt1JlrubZaWy8+28hQwh19u7twisa2btxeNy87pD5wS/B11qH0LJwpnZqRNg+lhLknEbxoPWDcwKzwlbxkM0nmXUzGvqRJrcbCLCdfE9eeDiPYNfHF4F7vLG1Xw1bOORaoR4O6EbQ5PBjhcq4KNs6LmtX5Rlo7OWzPjQ30XWDVxW5BeLvv5n9MxX45FaATa+G5MuvUG76ur2IHOXeO9V6iaavI/GYAaJntCzYA/m0I5R5Z7ZR/4ssZM919apSMF+d9LwVs4PTCcakTEjx7ItMqajG/fMMclB9OKsI/18yD1hRcAHZNhMa7RUrK2yvo+p/JwG6CZN0fjCyTkJEPQx2a5/76VpMjhTV0ZOWkmyDqbFScynY/WwNq/Zw1seiaowRp2qcWdUNO/IH1FFxVuywySuzpvrNyWyrv1zDF5+JXiXLhkPQ8+f9ZJomedoDhf0zLVPN0KmbFpPl+KufXGWamuya/CKRb0DlEdr7zMm4TjycgrYqGt6BGFQBXqXbVTxtBEzGn3Ofz7EuJwbxKlQytAHVJGpZo61GNGZVKcbkQhzq6ehAQxsAtLaqKvXRNCEcalYVD9hJ/yf84GGtWpz1VuGuWy165d0/tt7w7Zfu8uiv54w/IfG8f/5ReJwSfN+Ov5m07Q2qblMZZdfhZdlWpRhfd9hhIRxBLHgB4LDcPDvzjBsGXyzBtB/uQBIsv9TeFvAcCj51/0aMxf9TiVb2MVp8vWdhc2c/v79+z//BQ==</v>
+      </c>
+      <c r="D4" t="str">
+        <v>Paycheck</v>
+      </c>
+      <c r="E4" t="str">
+        <v/>
+      </c>
+      <c r="F4" t="str">
+        <v>http://google.com</v>
+      </c>
+      <c r="G4" t="str">
+        <v>data:image/png;width=32;height=32;base64,iVBORw0KGgoAAAANSUhEUgAAACAAAAAgCAYAAABzenr0AAAFIklEQVR4Ab3BfWzUhRnA8e/z/H7ctb0elypooWLryWDgXBVMEF0IwkREtzj/mSZzcRnJlrEMX/ZHmXHcbcpKiInEZMncP8w4dcl0m4tVYd2bIWPTBBs2EoYUlPBSi6Ut7d2V6z3PuniX/HI56EG6fT5CncxsNnCvu68BOoE0kORTo8BRoE9EeoE3VHWUOgjTMLPF7t4FPKCqDdTBzPLAyyLSraqHuQjhAty9ycx+DGxW1YDLYGaTwLMi8kNVzVODUIOZLXL336jqUmaAmR0QkftV9QOqCFXMbJm7v62qc6hSOnWCiT/tprj/PSY/7MdGhsEdnZ0iaE8T61xGfO16grYFVDOzQVVdJyLvEyFEmNkid9+rqnOIKJ0+yfjzzzHxzh/BnYsSIX77ahLf3kzQOp8oMxsUkdtU9QPKAsrMLOHuvaraTkRhTw+jTzzK5JF/U6/SR8covPk6wfw2wo7rqRCRhLvfkclkdmWz2UmmKGXu/iNVXUpE7pVfcG57Bi/kuVSez3H+3b9RTVVvdPcsZQFTzGwx8IKIKGWFPT2MPbeDWsL0QhruupeGOzcQv20VYXsaz+ews0NUNNzzFZKPPQEiVHP3FZlM5uVsNjsUMsXdu1Q1oKx06gRjz3ZTLZjXRvMjXcSWr6BaYuMmzr+3j3PPPE38C6tp3vQ4F6KqoZl1ARvF3VNmdlpVGygb3/k9cr/fR9SsJZ8jtW0nkkxyMZ4bR5oSTMfMciLSqu5+j6o2UOb5fuJLnid+yyAVesWVzH7qGSSZZDrSlKAeqtoEbFB3X0OED/wKAqPpzhMk7juGxJzENzehqRZmmruvCYFOInzoz1TElgwTtjUTW7ue/5HOEEgT4eMHiQo+cyuEIReydts49Xryvjirl4ZEpBVIElUcJEoaFzJTTg47VVLK/9H5SaeaAqNEzZpLlOcOM1MScaHKSAgcBa6kTJpvwIcGqDg9fJCrbJJZGlJL7w8S1HJ00Nj48zxRV6eEKv0K9BEhLXdQ8dbENTxwMk3Psb9wqf5xpES1RfMCqvSpiPQSIVd/lSIhO8Y+T/bcMgoE/PTAS3xSGKZeYwXn138vEnXtHKU1JUSJSK8Cb5hZnjJp7OBniS28VuigYqgwwiN/3cbI+XNMp1iCp347wdC4E3V3Z0iUmeVEpCfIZrMTW7duTYvIzZS1tyzld/29FG2SijOFs+z+aC8LkvNoT86nlsPDH7LlD2/zr0NpQKm4IiF0fSnOrECocPddqvpqyBQR6Tazr6tqyJR5iblsueVbPLlvJ1Gnc2d47J2f0DG7jZWtN7OguRUR4eP8J+z/+CB9Zw7hOEHbfpoGvotMtvBfm9fHaYwJFWZWFJHtTBHKSqXSDlX9PhEvHnqdne+/wOWQUpLGge/wjeWdPLwqRpSZdQdBsIUpSpmqbjWzfxLxtcVf5umVj9IUNnKpNMzx0BdP8fCqGFFm1qeqWcoCyrLZbDGTyexx9wdFJEHZ9alrubtjFUOFYY6OHseZ3vKrbqD79sdZ134rUWY2oKrrRGSQMqGKu99kZrtVdS5VTo0Psuf4Xt4dOMCRkeOcnRjBHVLxJO3J+dw097OsvWYli1uuo5qZDYjIXaraR4RQg5ktdPfXVPVGZoCZ9anq/SLST5WAGrLZ7FAmk9nl7jF3XyEiymUws6K771DVh0RkkBqEaZjZQnfvAh5U1SbqYGY54Jcisl1Vj3ARQp3MLAlscPc1QCeQBlJ8agToB/pEpFdEekRkjDr8B8RQFTbk50VaAAAAAElFTkSuQmCC</v>
+      </c>
+      <c r="H4" t="str">
+        <v/>
+      </c>
+      <c r="I4">
+        <v>500</v>
+      </c>
+      <c r="J4" t="str">
+        <v/>
+      </c>
+      <c r="K4" t="str">
+        <v/>
+      </c>
+      <c r="L4" t="str" xml:space="preserve">
+        <v xml:space="preserve">DTSTART:20190711T041700Z
+RRULE:FREQ=WEEKLY;INTERVAL=2</v>
+      </c>
+      <c r="M4" t="b">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:M1"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:M4"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/packages/storybook/stories/data/normal.xlsx
+++ b/packages/storybook/stories/data/normal.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="109">
   <si>
     <t>id</t>
   </si>
@@ -281,12 +281,6 @@
     <t>showAdvanced</t>
   </si>
   <si>
-    <t>a3256adf0da24e5b01bf3d6c47136e9c6</t>
-  </si>
-  <si>
-    <t>LVZJ06u4kv0vX/SOigcYDOZW1EJCzIMZDbi7FxiwwGYws+FF/ffH7WptlHlSISmOUpnnv//9M/38ov746X9+/fvnv8Zi+j23aVP8/Pqxi+lZV9+fP37w0M2fAznMtXgcRvtP6F9Z1xxYlXXtAebplP6qmhQX5KfFf65VPpV/ceyfZVHhcvptPdKx4Ng/qhu8eitlKLgDx7D9sJRCfFjSbxcCESTHLPZprBb/hyg5DMIjaCqOSH5L6B7YR9c9SQ4LoObRm15UKXTb+/n+FGZd9ZbHIFo+7ipPEoG3JpGphyhzdck1RPMCJPacPYv8esre3QjkjwVs3aqgxGpmJoqRm7A5L/TfhNhZg+aXYLGL1yVP7cE50crO3CVa787th0+InqajpWemqPDqemqn90zl56VoHj3PFMPAf7tndBYKJ33aFt1rxECRL/7ELEM/SOP+mJ+fWvdbP1xk+HLUNogfTTwsqU+oTX6/YzSXnJw9OIqoUb6dNm0HopQ93rTp3CLyVrKZQ5CRLrdL40qaZXFb3b4hKxtcOIx9KMgTn60gNGg6YMZNtIAULQJ5EKxtjDY34s68BlKcZgqb8RusJ6grIPWoR3TSsmsEYgwqMpXC9T0XsuAEXiTt92/4WN8gnX0EqYNlAJyXyAuklT+CavXzqdsAuDlFEVqJB3vau79PSAPgacBH4aKGMLJVndp75G0uKku6nxmEYWhgUYIPKeZ0vuennqcr6tgLbwDuTqkpLhTwjHR7x/2QNUKZ64MkHmlQMdZzNThptJPHKzCYU6vTHW3uaXRFK+N2ILYuCVyunF5rt8yp+eccoe87aVEHgeGTqcJUBQL6jErWxtsnqoddqnDuRk8diKKeyaoGs06L62VSYq5jCnjJQv0mhwy9Uw+LBhZGMH6JCwQgrUdzJYn3F6eg1XegYEC1jbKCSmANvUM8FG85dXOCL9m7mNfSLWRV2e8um3NLg02nQObmlFZKp2qJnOFNCc9XgGtwTn0Z6GErmnuTTnoAPrCMvde4MqW4yXA18+SCtW5DJn5fevh2ue0y12svjzQ09hMowtAmH+9oXiGIvpYxO5cJAWfi4vPSMf0dtk7DsstijmEPrDsbwE5IfB6lHdrHfqTqkgfSFeXTDcvYGhTHFFF023zcI7q5YP07YnzW1C4bR0RjRaspp7izIVhtF1wz6QbG9v7aOMZRQI4BjBqTgtZonwfwqIQQyiolWFbjXtjMO7u66zTwVFGzaUlG+90oZ1XHM4GAVrRJTSNObCTv3Q/rVdltX/I9NY1JF7F7m6GLB2bJBEdifNEOMr7S6KECy9t6yZqsDy2RWZp8jWfKagHw3OurewFNhcIg9MczcmxQy+1JwYFkSh+rul2BCgoAxzMrfQZhLNXbu3kzPNxNXoer2CHLpJL9DbFlqwYrnRwZKWH+jl460qAPVXNWx5lwYb4i8Cqu7wqyX01YcZ6Zwk42xCUxDPd7XmGHSuxa7hPi9Yg/KHkuoFdveiyeLcZVgJIJ+lsjyNVyM2e+lX10y2h8LfJAqfWy1MBc5YbFAhah5isC1g3ESk6fX1b48HUwK3EHK9sdq+idisXIwkTc73QiGcrt+moZWo9W7x4+LPGOTVpb25OTwWmFq5IEX0fsXjr7nRh6UlR1bZv0uHFxJQuQl4ktEE+bPhnIL7gYWdD7GsZGGYC/n5V6dfl1kZptOmWae5yJXllthcWqPumivTaXTxAx36txtjQsdBAJLyL+AATABjcwdZkph6dOVp/nOCrshC+fDw99lM+YU2wGeKC5bcR5VEfynQTsREAbp60USoX+xfFYBRxIpFkFY/cVSAFcLx30yYOMpwtfkneKxSWPPCYYVWwcZfdCV0EeUDkonaVUfq9jAC97kOZccYWNHFXrOCNeuSXo3chUNAVuXDzi51FIqXrVORye10gw+pwcNvbMO91iS0Hjxgo0L1gCp5d2T0sXaI4m4hLnNXgFW5ZCTjjv4ODFjjuw7YO4lwvw7sGjlW0vbAJTZDTEqhB51ujclYDhKyMjsifrZLQgS3mtulgmvDrIZvIMXFD40HzWbAiJ81GIteAM7vDtZJ3hRAXhNf2FIoL2YLzdVb0r13wDG/Kk0iXG+MNL+yw1F5oItk+bTpu6WEBB+/cElApvA0Qm7AofcINui2n9CGVwvS7OchHq0eP3u2cZTX5NrjbpKRTE5oeuBOH4eHib5PouM2wySaLyOFLZumnxFy2SvpInONLAr53CxiDMLz2pGSYZGDYVK4XVx4pZ0p8JsODrV40n7yLv2FaF+CQG+knmeKhOtnUHK7nOlByl/giqeamvNA6fZy2x1rUQLRFHfsgc3b0pqBftsNZXTmq4nqrwdjQL0rwPKbgW04pWmRDpiufaeoC2SVzJcZwMgszpUGYG5FD0Qo9kcXXSKaR3sQrcsCY42pS+s2CQLJ2ptMqyWLq81h3bSiaz3bdkVK2Ls3SlsEu0JqEvU1o8C77k/AkJSX4jQVLe5Ac36t7k/9Y5QKrl4O3PbiOKh6xqu6kY/1FdadPN7aHNfoR/CcJvP8v+HzicLJ0K3A3bP94wzHXhT0PV4gNAgR8AL/h1omiB4g8ZQLH0+Uzf/6f1vNCUfsme5P5lXe1ANZM/NTuQvBsw/6KPfcayW0G+pG1W5D+/nkdvK/7+++///Q8=</t>
-  </si>
-  <si>
     <t>Netflix</t>
   </si>
   <si>
@@ -296,73 +290,79 @@
     <t>data:image/png;width=64;height=64;base64,iVBORw0KGgoAAAANSUhEUgAAAEAAAABACAYAAACqaXHeAAAABGdBTUEAALGPC/xhBQAABpJJREFUeAHdWk1vHEUQnZ5Zf9uJHRvbrCMSgoiRECARwYWLJUDcQJEQKCL8AE45cfedO2ckosAFpMANJMiBE4ILcCCWQY4d79qxY+z4K17vTvNej8daNrP21Gz3ZE1Jo5np7Y+q11Wvq3tWeRlltntku0d5vembq73err7xofW59ePafNM1qI+r0/j723vrqrEszbufplJSnSUvFBjPHnTXbmXrvaS+HmdZZgDuh6Fcb60+lDdy2yIzACEcbk1LPVW/Vh4cP+/WJFnvmQEIMM6ylnkB4FK6UrsqU9Ft7cwAUK11T3syCMAEWv9/ACAIy3IumCz3jr/Ctu0gLXkAw2BJGAaR0bW2IcOWAXgAi/aEUwkueF9PTRWEzZxUbwkAauSDB0rCMAAPjC79/MdbTiwSdtoyAAVPeeUMYRBq1RZk2DIAAfKBbeQDm+KcwHtnZWRyQDhh1qu3DgBUKgCEBbEX6J7q7tq71i0SdtgyABzPhIGQB9guDJNzgqrcm9hdJrECQAAi3MfwK6EsNYbjTK32nJ1o1LzaWODw3QoAXM8YBvO6JlIVcPl7fuWDxkYnDoBAKS/aG3ieDAJuDh4NgypWlrzEigdQWfJACCJcFHIBcoIXlvtGX6o3eB8cUJVFU31z0bM1AMgDBXjCvBAAalsLw/+kxgaAnJzAGgA0nmGwAi94KJoD7BCVd0VPTx/qQg7IayU4HFSo8yPVaTyJ0AcQd0IhE2ivWPrk09fjTglA5aSFAJUnCLzmatJTApBhXRjsw3hCyFBwLdY8gIoyDLgk8qBkQ6y8ulwqFs1BKz2AeUUN/bkWuwBAWxMKuP8tDAPt6X5vo3qZBnPm44vvLsUqAMZ4TBo9YS7DaoDzsqs0lh7AEODdtVgFgMrGPLCDWVySgqD1m8gJxsgg5IHocssD1gGIl0PeZ4UAwNQAOcEVAsnZjy63PGAdgABWmL0BMsN5rAbi9UBFH09MMmQ84cR5QJQPmB2i0uLMEKnxy0PwHs5+DAIenYl1D6CmERkqrwOGzNSESRHaX/QD4zncD8RAuELACQAxDzAc7iI1riAvkMjFIFJrn+cMIFOXu0MnAARQOjojAIHB9r9qMgD64TlFn2GgTELEpMiVOAHAeABs54Epr9shHVkmk37BzL7JBwCoDML0YzkBgMNHK4E2PFDGUdkWjJDIBSBHLuHsu+QBdwDAjeOkiB4xI9wgdcL9z/m+8YKKQx5wBoDhgQMQfBgwI9wb0FueBRlyJXC5M3QGAGc9JkI+/wMQcPuVhqWVc1gOedTGlJhhIAuidKM4A4DDmxCA4QTCiFafx49p7lTuGXoBiNQsiWkaCes4BYCzZ1YEKGVOjn31JWwRZUbMCZgL1Iwn2PcBtwBwGYTxPCojJ4xt31tGHHwnmaQx5eO/eAdhYN9+fN12KDSe6XDMBRxKKy0KA7Z5GlwQ7wvEmyt2cIQ4BYDjclMUewHf1enOm8pTW3xOK5MIg9oBD9j+XpADAAyByAtocLFU2oFHf5XWeNY7hfbRDpGpsd04cA7AIQnW6R0o/7oEANY9Dy6Iw0Da9qj67gHA6AYEuHAsox9/9AO8oBS/p7lfQBjER2XCvdWR3TsHgKPHn81iTdT0dAhPvhG/p7l3A7FRB16QCwBmFWiwsuD7GVYDkmF0WtTQXebXfACA0lwJ6gU5wW9Kqd/ry457PovNETmQXGBL8gEA2jIZahQAIPICghgdlAjTycaB695zAYDjNXoAyzrCzhvARZTbnFNRUmTLC3ID4HBDRMsPZGT37iKc+cf4Pc19FEdlHQgF+RlTcu/5AQAeSBLfl4UB+5iwSIT5AZBkPcoKPWe+Rmq80+TnxOKnzHJohwdyAyDREhQ+sXp7EzuEm81+TypnatyHvMAGDzx2AGigyrBDLBoeSA6rJNCalbUFAOOvPv89lsR7zZRMKmdOYON/RG0BgLp1i99AvkgytFlZF34YtECGbQGAMVIXxDvEJw/2Bs1ASlPeNgAUd8q/IKL/TKN0XGeMqXGLh1ptA4AxSimRFzC7PNMiD7YXAJ2F67BHtNMZAw/wu0FWaSsAiuvlO1gUf5IYMwweCMCgWSU3ANJme0j1P4MxFYlBw2iUVTK3/LZraAOetwDwF+C1i76nlrBNL+O/sstK+/d1UF3rDP01v1s/eOPatU1zCiTQUl+61LExu9K/41cH1H44gE8jwzgNGcF4oxh3HIoXcaw0gQ+nL+Jvtaefe7h6StD9YdV/AYhVFb6sJRtSAAAAAElFTkSuQmCC</t>
   </si>
   <si>
-    <t>DTSTART:20190711T041551Z
+    <t>Amazon Prime</t>
+  </si>
+  <si>
+    <t>amazon.com</t>
+  </si>
+  <si>
+    <t>Paycheck</t>
+  </si>
+  <si>
+    <t>data:image/png;width=32;height=32;base64,iVBORw0KGgoAAAANSUhEUgAAACAAAAAgCAYAAABzenr0AAAFIklEQVR4Ab3BfWzUhRnA8e/z/H7ctb0elypooWLryWDgXBVMEF0IwkREtzj/mSZzcRnJlrEMX/ZHmXHcbcpKiInEZMncP8w4dcl0m4tVYd2bIWPTBBs2EoYUlPBSi6Ut7d2V6z3PuniX/HI56EG6fT5CncxsNnCvu68BOoE0kORTo8BRoE9EeoE3VHWUOgjTMLPF7t4FPKCqDdTBzPLAyyLSraqHuQjhAty9ycx+DGxW1YDLYGaTwLMi8kNVzVODUIOZLXL336jqUmaAmR0QkftV9QOqCFXMbJm7v62qc6hSOnWCiT/tprj/PSY/7MdGhsEdnZ0iaE8T61xGfO16grYFVDOzQVVdJyLvEyFEmNkid9+rqnOIKJ0+yfjzzzHxzh/BnYsSIX77ahLf3kzQOp8oMxsUkdtU9QPKAsrMLOHuvaraTkRhTw+jTzzK5JF/U6/SR8covPk6wfw2wo7rqRCRhLvfkclkdmWz2UmmKGXu/iNVXUpE7pVfcG57Bi/kuVSez3H+3b9RTVVvdPcsZQFTzGwx8IKIKGWFPT2MPbeDWsL0QhruupeGOzcQv20VYXsaz+ews0NUNNzzFZKPPQEiVHP3FZlM5uVsNjsUMsXdu1Q1oKx06gRjz3ZTLZjXRvMjXcSWr6BaYuMmzr+3j3PPPE38C6tp3vQ4F6KqoZl1ARvF3VNmdlpVGygb3/k9cr/fR9SsJZ8jtW0nkkxyMZ4bR5oSTMfMciLSqu5+j6o2UOb5fuJLnid+yyAVesWVzH7qGSSZZDrSlKAeqtoEbFB3X0OED/wKAqPpzhMk7juGxJzENzehqRZmmruvCYFOInzoz1TElgwTtjUTW7ue/5HOEEgT4eMHiQo+cyuEIReydts49Xryvjirl4ZEpBVIElUcJEoaFzJTTg47VVLK/9H5SaeaAqNEzZpLlOcOM1MScaHKSAgcBa6kTJpvwIcGqDg9fJCrbJJZGlJL7w8S1HJ00Nj48zxRV6eEKv0K9BEhLXdQ8dbENTxwMk3Psb9wqf5xpES1RfMCqvSpiPQSIVd/lSIhO8Y+T/bcMgoE/PTAS3xSGKZeYwXn138vEnXtHKU1JUSJSK8Cb5hZnjJp7OBniS28VuigYqgwwiN/3cbI+XNMp1iCp347wdC4E3V3Z0iUmeVEpCfIZrMTW7duTYvIzZS1tyzld/29FG2SijOFs+z+aC8LkvNoT86nlsPDH7LlD2/zr0NpQKm4IiF0fSnOrECocPddqvpqyBQR6Tazr6tqyJR5iblsueVbPLlvJ1Gnc2d47J2f0DG7jZWtN7OguRUR4eP8J+z/+CB9Zw7hOEHbfpoGvotMtvBfm9fHaYwJFWZWFJHtTBHKSqXSDlX9PhEvHnqdne+/wOWQUpLGge/wjeWdPLwqRpSZdQdBsIUpSpmqbjWzfxLxtcVf5umVj9IUNnKpNMzx0BdP8fCqGFFm1qeqWcoCyrLZbDGTyexx9wdFJEHZ9alrubtjFUOFYY6OHseZ3vKrbqD79sdZ134rUWY2oKrrRGSQMqGKu99kZrtVdS5VTo0Psuf4Xt4dOMCRkeOcnRjBHVLxJO3J+dw097OsvWYli1uuo5qZDYjIXaraR4RQg5ktdPfXVPVGZoCZ9anq/SLST5WAGrLZ7FAmk9nl7jF3XyEiymUws6K771DVh0RkkBqEaZjZQnfvAh5U1SbqYGY54Jcisl1Vj3ARQp3MLAlscPc1QCeQBlJ8agToB/pEpFdEekRkjDr8B8RQFTbk50VaAAAAAElFTkSuQmCC</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>sidebarWidth</t>
+  </si>
+  <si>
+    <t>176</t>
+  </si>
+  <si>
+    <t>accountId</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>serverid</t>
+  </si>
+  <si>
+    <t>memo</t>
+  </si>
+  <si>
+    <t>balance</t>
+  </si>
+  <si>
+    <t>rrule</t>
+  </si>
+  <si>
+    <t>a1a148af955485cddaed13ca799858cf0</t>
+  </si>
+  <si>
+    <t>rVZbs6u2Gf0ve/rmnQAGgzmZPkjcrwYMBpzJdDDIgLmZuyFz/nvx2U3atK9lmOFbS9InaUlI69ffP4aPb/jnR/vx7fePv/VoeH/rqEIf3z5MNNzL/PXx+ZF2zfjcmC2c0W0L6q+in+Om2rg8buqNTKIh+pZXUYqwZ53+MufJkP2dpn7JUJ5mwzu6RT2iqc/8Ak/OjGtS2oDtMc9eJnjpFglvCAEHwu3LtVEgox+MlEDX2wp1yeKwVwbtjXuqqiOIHgJy4hfEJAueXV8P1zs7qrIz3TrOOKdN7ggccObQ11WPj21VsDVOPwKBOsR3lJz2cdH0QHwawFSNHAqUoscc59shlTBs+wp3K6URzOROJnock8jsrD0hreRVINTmUD+ZcNcShD+15OAjpyyHeihGPDlMqLq1DIm6jnk1d//AIiu6mwbRKrsOxx7Mnpy6thP69Tben6V6rs/eJMKHJdducKuCborOO7lKrteUHzNajG80viv5ZNkvygo4Ib4VhG5dfOySUbG1w3xVrKfKFhTDoJeyLiAlarTX9a3HigMTz8DTCMIl+4UzgOBPLLYJrCykMlbcSj46jBtGPNWDAsx7qEogcvCbv1fikw+CFORYJHhzMSKRtVzHF9bry7vNBYjGMw/xTWUArAfHsJiR3Nx8PidDswBwsRDyjNCBLeFciz2vAHDX4A3ZfLXT4lke6qvvLDafZUQ7knwKPS3lBHgTAlplWmZoGSLHt1zpAuBqZYpkQzYdedVc07aLKzZL1E7gtm2Qk8Z91mihN8Pbw9XIfa0SDaGvkX/iZ9JuQGAcQzidaLVULrFVMvfR519FWPMNBNoZiyQyRzxQRz6jzHR5+mW3Cnma2P5dBRynxqKswLhRgnIapIBuSASPsadeRI8kVvxmEMBIeRg8uAkCEJW9PmO74pVGoFZXIKUArytpBjlLaWrDM5C7JPjFcl9Ya6eMEi0eJYvn5rhYl8hdVBzEdoIrmbDPJ9/qCpy9P9y0BIfoLALVqzl9raJBdcETZoHz6Gcy4xYRznoSHlOlWXg9LY4tLGx6OY7l3Io9AbV1D5Dnmdit8McZAv9laKN1HHhgDXRwmBqyvcLaqihqmvTea4FxpVzYsOGZ4aOGX/u2x8uMAcKJT4ZLKqZGJ1k6x/uX5Zy2PFEdU/XVp+lBkZu473kilZQSt9CV8sBs2uAUCxfQ19fHQpOWBJIUQL/ScWj05qEDt5z1oCjjrGFU9pGKnYOt2lYF9zk+6oag1a8Ft2a5P+x4oKA6LAme5irBKdpuPkmreRbOjhwFmM1Tax3zRweMgg62jfHiVxAzuUJ0OZgK4yEqotrVu9hQxFMw4kYNgGOfHs0DKDJkO7bdlpGm3FKs91LqCrrwNPLLCcgAAdgfKOHZsX0mX4qqIBm46owKZ67hDR0P1wKmhilrlLC3RF7yksJ/qLwCz1DWR7kfdzZMZh480KnIIfVS2DlNYp1dsWp3DDXNfh1m2PBZahv2HabzVn7DxRFBp1zUgDsYpC0BKWbVQtlhs2HH1njJWv8SE+kJJa5UqlmmgDFPNIMCFM9XLw5QtsvlYnR/UeyTKd1RChqYm3af+0XEoZ6CIbdeiVDQpMvpUZOE6s/O1bsZ3DXVCWWu91YMhxnOUui+LK55qNRrIIlBkuW5rqJtxOiEIZBkocnu7iax1/gzogPegM5L0xZcA8z1IJWzzcyTUC3DPlbsrU/+EZeGh2b5TqD6VB2frk++TtrBUFK2gTz72AVPwAOwwAUMTayL3r4R5fsh8JEZMtn95vBP6dknOBUDBih27dMO3mBMIwAzZPmFVmacj9j2QTOpDGgQCqMM+ubFYiw4HRt4xjYx7jZ8CM4+4KbEd0i3l1NtO3aPRO4mLp6AzJoy6V2PBIzoQIK2uRlWop/P/cgz0iXki0rE/cG1A3QL7ttBipezSqfeYfZZrU2wbqEOjNVMpuBWdiBB/ZgKYP9QrlFmA8VSuDRLkxI83CWOIM0eVrDpYgYNWNaOW7MJOFf3Voum41WuzpEKT8mQd4zeukouyeRavIvvlBUTrCgkpWyn4s4p3XjEDsAG6Az1e0l5cHfYDmLFPYArLKy40Swf7ZyqPeI7t94Ur1dZbbI5WcDCO0Jm7/rgyQjrKFRHYucuzzoaFnkygMSvrz2Q8nTpIK/DBp0B3akmF5U3TwSn02RNR7bsHWa9OoZWJafwZGKOhMNUfxI5y24/XroMYnkVSSocBE66bVvZuCjBi58Edcb2sCfAubSQmQIvObaYoumYq5l4ICGjDSQ9I54DoMDrnFeOuHKMZRo5z4QBUPcizUB5MI0rmLF5xEU/OvcgH6fyRKTe/aCExjwjzuBS/+yR2+1eIfxBWJTxEsMSzvvcu2yXBaZfuwic0DDzs7jjiJyh67KDpr47YX0/aDssITyR7HgLJyaix9DJigaPWLnctb1yRxO68BpZDaOIWCZkikqF42NeU1OKRap5ZaSsNEEczXhq72p9p05DhO6IyejzwLNhcsFAmF3EG92rznB++xwglKJbnEe74rjNVtXNgPov1xVVzVhv3oz9mWU3FMdf8F0URwNKm275Ql03lujt4f4RR3H2I4rK8uPbfbub0OfHDd2bbmN//W3Lch9Q9xXeNgkQqt/g++dH0+Xp6TnkTd2/2987tLlD4vMjGfoh6t7d7nGC/QlnftpsBbH/huPb+zOO49e3F6y3rFO0dUm8U/0f0myes+i/XOq/pl2PZfn5sYV5+QcY1jz5I74tm499Nv2/cdXUQ/ZfMIk2yX4liPf0l/o/qB/EgqLuB/yjzaZPUTd/xX+pUP8PkzXjW19i/yNjldfj8JYe/+1riJtpTv6EKOp/rMa77fdNuD5rZpBMUR2j5M/V65tuOHXJu95PxPfv33/7Jw==</t>
+  </si>
+  <si>
+    <t>DTSTART:20190711T120000Z
 RRULE:FREQ=MONTHLY;INTERVAL=1</t>
   </si>
   <si>
-    <t>a157a062b627aa7f420e1a746b084d86f</t>
-  </si>
-  <si>
-    <t>7bxZr7zOliX2Vawrv1Ey81StfkgggWROZrD9wDwk8wyt+u6O3//eVldXtSVbstVuyeicPMCJjB2xY++114JM/tf/9Lftb/+M/NPf5r/983/62/+8Ftufv0PSF3/757+9+uQZh//JWhpw+E9/q5Zxn8BpsHsWKdhJ/vr//5KNPTjVZOMAzuXJlvxz0ydVAU9D9R/OJt/q/0giyH+oi6aqt79202QtKOKfGp8z7RNRpWp8gc1wvPrtVWCv/IIXGeFfEfgraOgGqX8acLLBO/73w7+qT/mqf82fk6/udMTuATvaG7yXvz4csqEQ/NcbLsT2a8TD2D6X8zrrvdc3sI+o9yq77+44zI+s357P23CNvWHW8fzzLj9/+1H+Nu44EJEkYPePaE9p4L1Mh7l08GtweY5zYIyCjzuezflym9A5ohzi08JZeSlKLKVO0NgFOieUhS1esyRql8w/zw7QwxOPx8cbxfP8HSswJrD5W1HeyK9RuA/36q94ef/ejWO/XzanfBR6OODHCkrzCK3hWbG8L4q4dy283GgYxrsJIVv0sfoihlc2/YI5qDWRltUHzKVCXu/X6/M2wf4nBy9f9SW83nz1+jPVGgE+EoDz+df3lb2q90sGZ98m8OPHeHHgPCeA/epL/OfGr/Gl/+euePn7nxtzL+78R1evL/Xfsvv3xv/W7j8a/1u7vPAFA/p3dv8a+7+z+/ex/3/H7t999u/s/sP9/9bu393/b+3+q7X613b/1Vr9a7sfQyD513+9Zv/F/n+1Zv/F/r9es39t/9/Gyj+6+rex8o+u/l2s/KvG/87uv4uVv9v9fyRG/3vZ/e+RG9C3+m/EzP8bscqp2rfircqBjOsfvpDg2jpgJnuMh/w9D6WaVt+SLDS1MGxmMLmrmvbE+Y5HqEJeZ9UO06RYOmfnWcRTMCwrD0VheP+TBG76heHQcqX1XBeFzxk6X9Hox2vvKFDBCwJzyTKO/o6jbXjY2jYWCmhrQENr3q3jOb+0MSKJdkIpTNPLrsL8DcOWoun4gaWWRRAElJYHTvXxtu9rl2XrryPCvmcQfMDLYRgwZt+h885gyzDIA/RxWJZVZhkk03bvR/vgTFBxPw+jHe6nNPEg1LolTB7KxLY2ZZ5ipuYMbhGEgdM8KDlCLEb93DUY/+S87HOlU1UncVvwYrfITec7qvdPvDHtEgRBlq9sXhRk/zwPnQocA1mvO+mGpB3JPeNviEG46755sd8hDNMfmCG+sMHSNG6lVt/3e9K6ZYFZzxo/zGNfJDlpw77vB99fd3kcy6w+xo4L9YP6fthnumWxD8OqGWzY27YpYhwRCHr+LAunOlfBLc/ziriEYRrH5EpJfdq7Spy39b6XYZZC4R6UG3bJOwRBcEOd9/V3ZCQL40fJwivocSdnFoaDjYjgoSgg+Hoh0AsqraEnsqJoGublHhSlWgbw85G2aVnKlrsGlsxYRcOgYdgnGI5vy7pDEERuddueKKwjDAQF3yjlcZ9hgJ8pEEPD9FycKPcKimHrwEA6mFO/H0eYEn3ojggPuhQmnO4fiJkKuJeP48gL0BFFD+/zXRx6vRwMFK9nlEHzNBFJ/TMh0VDytjoRjBe3IGIKUysXGjqWZWH08v5rbsdzozCEHM/s07BK+YL1xfXw9/I0cao1jUYQ2JI76BrGaAhhuMzoI8txfPgNpUzmb8tgS+A++DhKmJws6/j93kVZewjDxhnBMMj9YEGSikWQQczbKuuXdKu1PTKfAFgwBnfxZfk5zyCR5TD+sKpcXqk9IcRCBUld6xJIfctMcfiRFu3Y98qH63OiuPIGE7V4HA+mYtuQLy5X1bfscwv7wAzl+ygRb4uajhfVWWUafSDYimYMRVsN2CmyolymCdkd/rSp2pfCRSaRHbpvB33v8xvJCwhic7yVw+ZUyZ9SYhcMgzXpXeiZqX5+iChKzYWF2fDR+9ZbFrhEHrcsewmkxOjVZLkw/MYn/TTfQ1jOazmIGk7ayGCYxqML3Ems2HA4P70A+UomyFH+oOHnRUgtWaE8J3n3+yEYA7IerTb0vm+ErJNIY9PRh2rgZxhHlBrGpzgv9ONYV4TlWnbH0nyVYBjzPISaKNhfF1vX+PKLuM9z1UYH8hLXik60c1jI9tBkD7r8g0EQYRQ/uZoNIondG3nBHwU+whwzoIq8x1II3Vg4HpTN2cTL+E7CD3SWSfcZms2jwvQi1mAojwEXOW1KCpqCCxY/55+f00YB0Wma9o0o1LW7WTz2Y+2zNCGKiNhULi2B4xi9/sRQeV5xmkpSUZZxvG9XukIAm8jtedrfoNtZ0Lq7Jbd4ktCFdU1GHszwpH059MB6/eDaIwzABL8olyiXcV6hCB0XylDGDksaTT4wnPhxnuf+e5D1ZMK/ObQ2v9s7E56ivK/IgggOGC6dpTGk8Z2FfFhAx2p2KHbA0xTgBD+QBjWHCqu/BOGx56hcqVwxq/0bvYtm/93OICZmT8rtEnMnU9AmyiatkowJK0asNVUh3TROFrApupSitPCaQrK5Hz4lyEcURh4cAp5KL7ybtZQ5EYV6ZyK8Ze0OYgpfjdxgtvU9fnLN+zaPJ3+mYo8ZROkFki36jxCWxpsHAqXPoNpJm+OwPmqVU8mj/B6FPNE+/2otYPEJGxO/SmVtgimUcDj2qhmVm394vFiWFGRJURyNi0EX+vWzhs47yvvUKaiHlzZyvmYFtSpJrnPY6vr71eloNoWqx1mFUe9UolDmk3NpVYKNZde9CIImhT+zFswSwd4cPfNuisRTer2SW7F3UGKhjOlg+EbxbQ1D/3YkM4lrIuIM9eJGMyvJGeDgMDX4yCazrQ/u7/JGay9y1srGbAAaatQmtseDhvRVO0u0cp1iilvGsc9KS1OUEC+lHwtDEIafUA7RAALUgczYGODx3EcZQg8NGtlvsyGLcui6SydDRDioDMFx5HqP0jqOm3uENNJNcWV9KT78RSPp65OotGTW0Q7JabO6Fq28G9M8kyFTxiyG9UNN3fBgvYoNx0t/x8ujaY/B0C5+FHIruxUEIQ+PpTxljfvFf48xxc/JB5ujzrTYGYnEKif5JFHeaxCH4mF9pd2/uXQJSHUjvvQgvZbQ3LZ78+Os0dTFnLrh14WpmQRKRba31NXPKG2k0xcKM/uchWxs2t1kfoN1U39JO09CV+xQoqDB/GpBHRn7qZWSLvTb9osG+F3LozRuGrLVlRkRsY5FHihMCy3N3dGzvnPfXrCsifEbqIK4Dkb0j6+3RQwl3yMstoqG1aOpiOR3QQrJ13eXaGXc4HnLeXv22xruQlHrayK2qG2fq1F+UCErBNJ3/Rxkn0SDPXbao/ubrR0i/NQBlGzG3cvv5SUt6xSveuZ71568oTWTQnOtsszeFMmx3RsFnOV7VKbotcXhEIPr1XCC82m5DElpBxYSfEANnyuSIM7n/Bm0fDw/5YEv9qjmJ3lY8TfmlLEI43ayhgs41Mvk8E0j+l6apDUg0RcdxJztl4eBevMc8YArDT9TrM+5DrYIGjomXUzXCbZY5SQ0Q/JvQnqaOqajblA14c4+st1stmuvNcNFz3mPeGv81LOvQQXGD+4CXFMpB+ToIurHWecs3+jXpnjqUzYExCvWaJPIhsMLrUp1Qi2T8sqfw8vWOYzHgU6k9zRaev5ineBYiPk2vTRXOg9KQN2H6RrMPs+fscRaUAiIUeuC1shR6u2sAWXtsFXC9DPIke6hUsMwBP0gG4khKvQgo5W/ET194Sjub8ao7tq6ATLcShvhR9rNZPfyU8OI+7aIEcxI3kTzeEwMjAMqRoT0Ae3Ll9UMxyjwqE3eHvMgYTDaSbM7G+yTsls/eeGpvpkNcA7GMbkAkzRFlhkkCbysSOp5wMl9V1WVvEufXJPZs1drsd0eOp5woEky+im54fFIyndFI3oAtwQbHW1i2ZFNJX0n7+yfJ+CjdIRLH+SUe93kuzoUKuY/Vc8tXdreDSkFP6winUWkeZWFyzR94k/n0B/owKIF/uPGGA555A8LU1EtObQMmx1/Ftvh0JrmZqk++iK52X5tCwvy2GopfPNnM6JXFC+bCLoy2EPI974VgDa/UnwodWiJKofqJnOj5WBkteBYw8LvB3zb8uzDKnGzADabtWMdCsWOiE3U4rhvfKUD/0i74/ekMBjjdIeleH4MKwU6pF7JIwKVZTmMGzf2w5IlNycY4+2xnENbRWEaxjOX7AVQCccPH2xN+csTWCn3YqUTk91lXG/4OUwElbaWG2tuwAelgVbqhMTVUd6Ip0tPItoWR/saYdqsAzbuPfwccT1kbF3XT1922lx1rvU18XIfLGPQmulD4ObU9PFFogfprFtfvmzqmJEEjRRc8unLKz94GSkA53MURbGwMaBrruL5Wpwjg/p1ZYiZkkOCslLTQAVXjWsQM9AfjTIHlDAEBIBpmGQtEwJ8Uf/Lf4TOc1wCdehA29ZREToI//VGg1GAn0cwSIsuLTgFsZ+ePwFolEz88XApy/LNElgcU8Zw6cQy/NErGQ7vYFxUCsZ1LuRQMHZCUi3gLYBIhdrO5R7JsIYocyFjBhU1MqyIWivFFKWhynubhPxQ8jGdFLkoy9HFS4j+Ln7adHHVHb8rgh0W27YLoGtAN/3NqsVJ/Ykn0qC9ubH2imCA0Fm6gCJfgJQPw3cDgoBmoaEnJakJp+HUSqINeHozf836Q6Rwx7WhjnWpsMJd0mxj01Xd6c1RRdG690hd5mGs0KGfdFv+Q7PJFrAdvF8TBLD9Ze/mVHs0YPdyvtQJpAKhmIdIbrgeqnxZxA+R9VJImt4HBrdG4703WyXEC+L5pYjCLCL6tuPDEOrnZRoD6K2646GseFC8jFKWODhbIzy8S5jTnUBUMqxfqlA6ffJRO7KuRzxt1ahfnElPZjGmqFfJiRS55RZessI6KRIJAEYIa286SvtGNPlBCmuKuvmoffVr5fG3/5E7+g0/8cu9vqXtpqoEAMJdWzfcx3nYZQrmRkyN7aWy4bLyibksF4RJKSN1+slm0uG9hCzLQjDgzI3//cNui5zB1ghAncdAIK2vevojKJ+03+uIfeV3r085wAjYWpSxftWkhWQ5pwqDY0TB8Bm7FxR3+5JLUO22MAvYok9ZIkne1vd+fhM9fjTteAVkP9bXdlxir2G00dU5jS5Av2r03fSKXxuCLfcMungQKs1fOZtCF4VgueIHj7PEGs5j01PZD5Gb5Nw5ZBbABulrW9lBqc+5POFv8dKY20573TEKz3N+9cAcg2NvVqjzhjLP49KlWPELGi2IeOZCAZHeDIdcva2eplnXu6j28yqpKpXYIFG/77LYDOyXT31iBFtgChEVrc4nE64CjTtGFMfJBzzNXwRtkXYDpYdgxyPFN7L8IT8ZpU7vWUVVgAUMlQTh2ZC5GyU0Nc/LoKRm51hfAjdWptDEKC7O5eHwOa1ChG3olh1QrTucaWBN7bddBGJ18Xu1KXOpM/pX+wykUsiFv2o0TvJedBZuDmI1+AX93VuRhpJ0J/WWO6TmEVW1woe2oQ4WqOug23zK0qbODPYDCAK3wGLkUtpXggqKpk9a3tKA7tfkvWU2wNV7D1NOSWZ5YSHnsTRuL8SH7DkeZ1mSLuBdL/lTfsJQOoK9mmm1cE6oLFo/S64/16vqKd7TEUksgTDi+5chGMY8NDrXioC74eSmCZ1UWWXTsEnRj4iAIZlLBwB+D7XGDDUkDRZQU6L8HmSzEw6baHGxrCm2mx6SMvFzDaJtwhLMcr0duecyqhKKfRuO6/PNxsty3kz5K2U8JPMCdJe9kJZ3K/l+WBixBNGhEDgYnBeKa8riI67tiUaQ1WqRZ+rXyC3gaBZ9Hfnb7FL5WQe5RBAvp4sH298P3uolumJ0SoFxsew2yFSKO9+m/PKUdtkQBvnqkp9ViyDd+QVMtwQoi6QaolO/NPx9nKN1qtnMuVxBoB5IeCrPgAe7zjVeg3ER0Urt8kPaQGN8ygfM6nQdgja1UdqHFMooKRUqNf/qUHytOspNNFKGaJpQPN22SB/FMR1PtTW0T4xdyaA58tf3Qh3FjoBTp6zD3O576EB2ObYFSe/39fEpbdgJE3hQJXC9+lJVTLio/4WgwnHfOGsr+WuxgFTv6/u37JxqFrn6Ltok7Ur0CjE2njL0QRDjTP0DZ2kyD4bxurIyLyc0UUlp/VosS8OwFYnmyJUAHn/uOSOECoW8M3NhOXPW4I7owHOeA9ZgBWtw0zUjcpQqQLhFGBvQsngXO9qKA7fkGHQ44eZAVsPIA454X+APlV2xDWICfWN4+ctb9o7Wn/E6c21gF6fjDxchokzT6OdLwQnVd8+IEetx7HWnJoslHtO2sXhPupZbt/rbHMViDS/vYRbUk702d4J5ZygUqSUOkC9uaabYWqY1e36eZb1JEjL7La42VhPbC59YAHO3X51Ji5cknEV4GM9Zn9ovHzKlL19+VVLpRa5oqc9OEXAaRQR0frZfnrOn3Y2Dh4NIi9fzM1/XREPi8zxYCLJVrFygaQfnQbtpKVx42DiQUgDm9uGrKKQ9JYBiv+9Ceqj8cRvUl9nQaOpwHPDnbvJ8zow52braqzNYVscv0C+3I7Yz584CPUqf3JqSIv7Q4WyTt/Zb4Vx6/xBxC0eeTbfmXkkzfQZDd46NYguibPcVtf20/3HL1JfWQblCWpaWdXKzGBn8YF7Ul6WBemko5spNPLPnl0txoWz4riNQGIhctS1F90779V30EkcPJr4aKMALTJdcvV+gEl/zLdG/GuD9ARFK8byjzRl9pBD6MhDPHFlhmkbYEjTrjw4FuJidv6N4+Q28LY+Acn0nBEvJHiUm7A9vfrMsFSG+HeFNJO2EU5S/Uz/+XNseOwYuuSAwy7aqaIxVOnhBtKAWCPFPOHhlWeYocyg4jdIsoZQvQi72CozLMxPI4Mwy8tVo5hZQOcPehBigP0jU0fAo37YN90HQTkWX2C/0OXU8AAMFP1fYUlRSsKHwQOxSwGaKmTMFQcCjhwLGR4cG273YQAo+YVkemOs7FUSd0vSIGxupXjPC+VN+aVb2BGIZu0w7tzUcyz85cARqlmVRHLbRhbwijkypVtley4flWPcjeOuikxkUEUcAbfu7VkcNpqj5MAt0HmRy9PzfCBk/y/bBgNSKpnrO/BV2j26p91d+SK6rBQLToJcF/37rnoXEtswiP4q5OZoQBTYl+KTd+Nxjiwih0vwgFXJJ/AP8/wBt+jHDsPKN1bLq6qWbmUywUIf31e81IJxV70VRMPiHK0qgjUgU6Efm8gGGQ5EM/bl2XewdQEqxqS2dJDEzOABvYdk3Ldr54AVw/Od6qA8ry+3plhU7UUIMmHjk9tYuIU3GL4V9uWOS9Ne6EggJNBJ5lQ2iKWzqj6ErccN+veSnuycgKfI6kLPE77yZOsh0WZbBoAR/csh565YVkE2rveK0D6h3athQwIb8/BhBWZ+j3z9uGOYysY2A1gH/K6y+1OMzp8ZInlP0G5Ku9xL2/n55Nh+tLZKpU006FoKS0C3YNKJeBE2bAhM0wKOqyoeE1Q/BjWFBWrw6JGR9wwKFMGs7XrSMgAORBpPTdgjVyiT29qMBmQttm0WwLyaT8ND5eUGVV1K+HwQNSvL8ZuXbrN7FHn418/3TBN+W/KoU6S+YaMN/30BpKyxJTiA5YQPDMCTM553ytM4B6l7lggZwwGWaNGWNFpfj6v3tsAuCLaHnyxukoRBA8Q5fdBCqAZZoBauCaPLQx/uL59UWjuMsTF5GqdDm4jg3jGbzm6KXtv1zzYWDl+u64EMBNbN7SpQyZOF++uH2C1E1vd7RfhmG3cDNVdFyIzrvQiGA9kmKo+hgFHpo6XpWeLlEvCuPqjoSm2O4j4JkPXNVBnIFxOJvO0TK54OeAH4A2inmBGGQoaEt4xiUJ9LDE01vZdPPPy9pKGsrDMMHurCLW6T3a/FZoAsIpF8uPD4sGIJQWloGK67oc+pXqJWrNkQpvub/qlXQ+DVhb47NkG73sLVhClDzgw0U7+av+LWgSJUQFEwRz576RcD4Ez8HV6zAwyBH1qMXf+k3TOAsC/6SCY6TFAXBw2HQJux+v8xOKaLkUt1dhsw69/Q0ffI/cec6pvgmDZz9655aB3kdAEu6tk1u2K4Xi4Z3Xgiv6huwPoJJDOtR7QmJgUp7FQQ07uS1GA/RtKZm35WUR3X2Q6h1zIvtFtE/VY4BuCAVvECrRjESf/gDjy8Q0LvUfLd0ZBZ37iRcOJHAlmhrBqx4UMdNkt9f34p1i0ev49iD8nreuFu+Wx23oYJrCTQx5N8dEros4DGED8D3bnn439c/7FHzynj+0DmUXkNAUk4L4hBMfaGY9JEK5C3gXqrDVg00niYx+J4DLYSGm2zsHRDod9A3wxL5y/o9H6yAKiHVmVxupw6pssfH6e7++72TFjqaCu8a5O/4NE3bzhxxi+NAZ4cmtLIhmM+tubiPGpFUnMCulEwU3j0y0vrh56ICNY+vP/cBjXKlNo3Fpm9MLduuzMvGLGkYZAOxu/ajxx6lNxVQTjCOhctCoaCajpw1il7/OCEOYVbQBltHQItlWfvW0eG6A6qwLIr4LOcfjjK9SpDqHY1CD7lcx6IoiTvKht7P/kcOQ3W7z/GriDY+qtvs8BAu0LtFipqSRFO9oY+ZZ2CgfiChTg1bftEU4usvbviZR/cXkZ2yzR+gaLHR7AK4PHAehq72CdfagWbk9cW4YbpeKBL9egyCdlC8gnZrk0INgl2dqQSKSXFsNmacZ9JFBmMbR0A/x1+gATlTUVTEiMQaak8EaEOKsMs9C3NbNgHhPS0Ml/Kf+6Q5ifnVXCYZzjkm4DBcaHCw5grK0Dfl5Gko9WoRsnIIiJ0nExv6GK7PZUbbKKiUPJcMXy3YBbKEmitZ6C/e6EoIDOSM9gB9u64OpXpGLiEVMmnWHvvG3V9G5dCUpmjQsLj3WQXA7mu4urwswbrODqZowRNmpZ11tW7/eT8rqSvnwc6afi44jwIgvwKGlvQlbpY3/om7xgKU0FGRND9wxmVOzf1dWU7sTHRnKJK6APKNTRBZwtY7yMwyhr7WKZyxfj/kPOY1pvjtcrphY/hwhdoGQjlA34RylZPQk9P6pd8TxRyKlVCCoX4mIB4u9ek7qgugeU1JjEc3bLEnt91qKiHoAcZuvnQdjp4tFsLbhl+1uaLIZhw9qK3TNPV982PCpgNmUg/s4G640LOvjQ+AylUm6K1ZM4x/SAYq5Yt+yBXRctKgmcwLz0fFX2ek6wLA3LdFhEeZJDc0iINe/1kndW1JS3afLlsd6/UXr/8EK7wUnUrI/Ij8ECIc3wosG32wc8J4fzck9dUGy47O3LO7u4c8YxiWczHzHpE90IQXBJ9cCTTn1389LMoSxDccLAAr2Mr9kNlWpq44wl1cs9LvoYT6dMzGDOHHYJKuC9emEE4Q9z5p50JRHus9iAJDDFFlWUddoVv+IO+3TJZ+8rQ0TX+0wvjrmvorpIPJp+pNyT12gcMPppAkEXWUNeUL0o+FM9NAKzwR7auOMljjBlXLGb406OdlBe9npaGVnmvggzZGhgQlHfW+6/pJfsVhGQbI6/IvrUZG6lxOyBFEDy2DMe0RlZuDAXeJL3f7n894aMeoUPYyBjucYZWRj/5r3OKYWZpuX47W/nPfGy3sJUhJZs//3G9Fn2K+NW0ZRxoWw7w0+uK+xWoYP3yHaHR2yDLOZFpbumYcbnk5fr5XSCMR2U9f8qHdod53ZP9Ta/3r2jq01fUwNKwF7vt+u7FlyyQKHUso6eXf1tJlWRQU7ALRDbgFluMrxHEXPbLWBYBVensE9NFGYt8HdyIOF/I9K93cYFp9qDTs9y3AHjN7JK6t+qVWN5CiBL2U7pUux7aNWjFhKSHjMMOEgcUQGQzz4ro5hT1v1OQ8JLT4GJ0fIYbx4zm9ldcUV+sE/4zqjAx1W4bOXI1IEylIs9kccHA6Rovvn9ub3xbpflddwMAOm21JaVyzuhl4NJD0GGEZBOrIu4ihsAIrYo+eNGOI2ANJR9KLYdHe4c0iPZ+7+8C8U2SE5TJYQztk2aMX/TvmhhrLr8jQCzW8xDAsW3poPOVP7cIffHzM3v281RKfRS782FZI75vTu0rnrEQXwjqaF4vHWOtk/zzYdTSPHhaRPjyCTl13EOnhz3146nAZqguTGMjfQSQFPWAJ3vq+vWzTwpCbazt1xITJ+/b7+JRUy/FbnbxOpsI1p2kQKnsCuAj5CINl1xWYfvIbvlzBhS8S1bH1yGEsCh0mAoHqAdLADjWBD1AG+GndnksAaV2yBpwUIKxrBA9tLUiX1hcL7crviQk6zCAKaH9C2RjF8yl7x6o5PpNzJ6D9OFhqatBW4OXRoByMjSo/nUKBHBJcb7nfczZvHT2TN9vTIevFWuataKlK9TfDOsTy2oGFLHzeIPamBb/44TYggtKyqOQ19x8PR7slkjh5lOhE/eVpQlGsT3Q8iWFTnvzYzIO0mUhuU//zGSFdubj56tmgon8NoQzXp7KjQjInbw+LgYVB2P+0rcuEMThDENnUmIKwTv9cXqWtfWBJa2HMQ40FMQK56cpg/C5d3WNPZX80+k1Pj2uhgeKaZQZkUQ6KAZK0anwTaGsAhWXh7ohoL6jItMZwbx4SGDkJoQzaWB3PmY90IKmT2E/wO9r8g9usF7CGPZbPlvA+BGn1sCEMns5zUkgQkgCHshkqaiYJlwsEj7bBCPcepZ2+X8r4Ml5IojMQDluwZfZp9Z6rMolQ5MtyqZ+M8XSM6ltFk+WLDWu5+OuX4tuwds4PxAnfebSyUsrT/HeUBiPLGrlVp633hbx/+JyintM5fHKo0HjTdcvv3wxYRAuPd8YwwExytIRjlzNXSLiW29JTjgDqhRdOmc0MGHJooDzOQh0VfK+H6jcM0mGdp5MQ5WPSXf6jrsOeEuQ6CnKYo4ihaUMCpVUeH3xJSjRNQfcp/nXxXLB7iCP6whwP47gXtxRiiTyRP5//O0VIRwn2rpn8NtEIJpG3axmDyH0M6F3Fd/TWaYqjxJx6fReEyI0yHRHmst8wno/6WByJJvMRA81X9ayD5Z0z9Ora7TW+zLGRY5JR6M2q2eOLPy8OiCR5jM82U0Ib3dwEZuOZjMnhiUkZkUpozZSWXLw20zZ2aDsc1CvAZX6difWGChDgFQoT5pD5S+tak9It1F9K3YaibKXTjx9ejpxtDSAF/vzhzuBdFMbLxdfMKqCXMCQsweWM7QjfXypo0xqBlCTrR8WmhvUIDFrIUk5ZGBALifx2T78ZFeS3PEnpVXdvpEJeDn2fKADksSi21ZFhxjsyZlReNqMyhivM9njTYu6jWMjkb+Qmz8ouS0YReQiAHc+jkXmnGoKfj9HZDX3Jbwrv3zVdp4hzxIXklu9fhSjvM2S7xqh0vB1VJmWPcX6PIkRjaQ/xaLikEFmNkEI6TGtTK6R/3h+40NK2Qr0EtXZ4vGjfIa7Jis6ZxN1IWMQMDQSseC4kY/oHh+gHdcunDJtQjauELi/mo5RvD9iW1gaLRybZ7ELOrdwBMJJw3sxUDCSYtH+UUPv5ZI/li78M1rEvFBEaNIkgMn0xp1usUYKw2dkfhSLHjm+QlVDsr0u6PYqMakc8/NXzZhOxd+m6IOjZN1BcdctKmQWz4/sLIaQVCGyidAkemF3aNylf2gmcIyIB985XfbVZgVWUwmrk9XtyHR6jurN4dVK2KF3r1A5EVqmLa3jY0Xqb79GlFAhKV4YsELo4cM9DPzD7DAk8YKZ25g2vC9axbodpBQkvQGjE1qAwdjPjIM9JuxqtsREW2L8dTnkN7RGrUrFs6+vbl7gee9O2ebgep639i0YoNj0IRu4hBfA5x2hE/Wxn9Ijnw/gw+Q/AKG8CwPuG1IAn6Jv9FHsTKlOLA71ZNENdoFX+MCZ+K+uOGoP3vAWHSr5IAmu7ITcWgVaOq50T/erShEzI18Ea5udAGaFjnD95sqOeVx/7j6E++1Mskk78fFrzWAITShyh5p2Cd6JeWUfFavUifOhao30z1O+DZBZbZD8MgolV56s/n3jAl9li4DGtDLZLznCjx5hJBsVm5C8OoJ8SUBsP7uq3wnDMQAa6ZLhYVMl9QZBBF+vH4OxXXCDrJ8iZjW6VpaVrVtYJgZw495n3XXTDUrya7OJMcqqwHekDK7Ll25t1VtjiBjEeuNC/Rn6iH9eFNO41qjqv4Ry2CK/o6Fnkk+ymiqvo406kKj0GBTEGJTU8eVPYjibsrxSJb4li3Ut6SFOmyxd2LwvxYdqhDOkfFGyDjQoNFezMQ6/t8/u+eTkIYOudABrE79+T6Ye6M5p9z4MZKvgjlsJSpla8ygsUohM2bC/iu8HZo4UIX51wFkuPmx3uQ1CV7h4WpPN2xMYMXC+4+cmgI17J1WSVaTzC4yQKR1fD6PXH3+H1R9qgH5WGpjKx6CXHqqjL+9Eoei38PUwE9Nb0KeOlaEod378pvn5vSlBNIF+tkFOMdUu3IsdZrF42Tte1xtXykooOfct5zEju5SsWKY410ijG8PWNjJeN+IVc75gtkKzmj+kgRJrVbctRSFFBzbxPsF4OP28dezSq6CWK0Bb6/n5K0z7DKjIe9EOnt0EcHuvRNDKjrl90fpq7edjLW91M8T5zBhxPwWrRGzd++jof7T4/MAMK6SypuQjgu+3Be+jlHQMW6Sw1H19AxIgDapGPOiOLQ6AmTs+akxLMhq3bJb5ygfbQOn/dbatDCBxLjAPbbqEm9o4bxkguToRyjL3Pm/p7WOiyfH6J4QH3nmIze7akSJSSv39qi4NMVmrvJxwb6Q9up5REgRjUgpCFNxVligfAzvbmArTHnnALcVjliHs18Br9lnSscSZTfkz2k99ouUHcfLjFOCTGQw/FXFp6O684VSB1FCGix1pvfcUg/FyHJo9k88dXIxa+i8CJD483Leed5NCV4wwGMRWySw1J80+pUMo7SS+I+AEqRadqVSTW0gwZYmFF3GC7ZqVs47DQExaLfwGCJeGHuYB6Xagw0JNuamyVa4VIZ9cttgEae8iKQGCZihz0MwH5lZaltNON2FL+w0CymZTMTl7nJ9dcT9y+a4C2PT2S6Fa8NHxWb7UO98NX6SPoGTxOYsFX2gEPtu2bhoAawCpc/poUwq82jJ64fNq4I6ezkzCim3OKyIfuqKVDSix55tGXXx7xmGNHd7zpgs8SLbRBPLL6VMiuxFRhwxosE/5ZJ9LcLjiom1V2IDyX54eVfmNHmRBCywSEXjsQOCV6hoBjxe862fmovcTtVywocqvsfRtXzfYv/MoTw6jC+feMHsP+XpaCPcUvXnJ4lR4VGmSnxKfpsVZ+xP1x8uI+EveB3gLjcpOkrirEEG+Nqbnx3B5GJ88IOs3AGe83ngws02/qQ6bzO6cjtQwOPLfccKagM+sLy8G39tqES1+H3zz6CAG7uw576VDZQGARH3+hXw8aXq2bk/5osmbBOLMKNTQ6ar/0tNqxc6ab1S8SiWJBhXDRiXEOwVirC68No+vq19EWpOjkA7BoJEOKHHRaGXpbKG0sKY4Aozv0YnI5WU/2sLiFTlcMVWqkcmXMbj6rMmnde6VWUtRQdLZDIE9ue+4xE7AeaTxh3CE6jJr2aDqC5imYV/Z09cxu1HLNAcvMMm0LoSu1oUk855bh82Ah8AspzCcsv0/hbm1jBN6Plm/hi5Sfg6nhGE7GEkQ0RD2AVQzzYyPYbNix9VumRQ63y9peb48izjP7DCBWmXEKsAfi8e1OU3y3uA42dF0uPO2br9ud5WvEXHA+ySSiMyaN9DBLpXVvdXMixVTnG4x1wmAAmlKGZZELzHaRDDwkRMjjgIwquyBSFsQ0x4o9L74WxkTAjS2KavPYCuxa0u0ncwKbtY4GVReS+/OyYwW1LHn2kpS6nhoC1Xf3k/CLUCP9S5CGSs9lfMOREIWxzFqPXYMZM3qH8bC2R9iklPaoNHL0uFv0dCIeKTtddNhat69lA1V+rEoooaP3XhYM04g8olgg7SeTCzzjuuY3eQlC3l6PyXcJhLxHOGh4qtppGU8N0Zien4UDFuf2AudBG9DjbwPfNowNM03xIQAeYeACSQ9s/T411MIVeSWl7aW3J8+gnHUlWt7hallODOXNsukbe2ztYmkiUUL4hxKWK0ZDKoMY/KaQ0ISa6AiBHsXr71AcmlVJlwAqmdeyGJvJCXngwgKLKZu+zfpVsTHlGfvJ42kTlCl/vGfhvQC+XLo6fQwz+nJoX8mPpaQfIBhWM9/yE0OuCutxWzqqA2/T3vhShaQnBssl0WwPOyVNEGwcHTsUbfrrewGWegm0j2F/FfGV00OUarKVnetSQqmVfrgsv4jggy5az3ch6qCDZrVs2X5as4IWiYEcAd8d8Yf37LkCftBEVC7v6Rfj4diaEF9FqCUm/Xh7UihA07z2QzLAJnxlxJ4dgrMQtkVu4TOLI7bkkytB+nL/4IXQira+wlQttmsv09ggvmsrUvynt+wjC1oae8TBbkaNYxdr3NCJLfSi9PAg5X56MXUNq7nBVNgfdEYivLoWvF0g4TVs+jnA8BWyEn37T7ysPYogzOCT2B+fh/tJEYGge2WYz0IQoymplobzazdq6vOMRSoyp03oImBV2Oicy5Hag8ykSzsJXxDt/GGd7bu6CESC258DFC0ppV/MAcnJpIU4NbqiFm+HkcWE6kBY4mOM6p/VOyKIz87sQuUyakUfOzBvwamBAyLI1EKeKxNFyhPh5u2Q/u5CMlDXHJCJeaHcYmB6fEjovPZpYiZF2lXvVFosJgJlihPmb8GsrBY2SAp77sX2GjWPMZsO2tscFwpWN2cI0+lOyzrByOHwnm20oHx6IKtbPzZzTHZNfOn8hRL2l77hjX/Tj6M5c6Yf5p6YKV4aO7tgdA5giaddTHgwtO4c70mL1kwO7QsDDAGqCQSDTWc4WwHpn7JEsy3BH5qDrzLs9YfEgzIKXQUArZWEBi3OE4iG8zSCBXSIidOOlwYIRB+a0QkvQp/2J9RCs2WFyOUXQiQ/YHbfUxvOb0DWnfhWSWSgp48C6OBTozoTvR2AV98PEaLsJKVZVzHJjg3HPiGl2pvwYzRHmWTrs+4zpLTbnNDqu/Sfe6Eoev+FsTdRs02FMrURkFn+kAykOGQfrbW3P863AYjCXWb5Ro27B8pCVohJ/DNoyQQXTyou9/vRN1v0sJ5n4QUSzSZjZCKUowg18sMndthm9K1SzZ1trblq2cr+fj+5/hI2Lyl39sJKjPTwczJdjRsWnAhjBfPx7FmW34+eD51ADog9RBaHXArn6n24hD2+UqvhsGtFSaWMUpjeiAnlriGX/tzQFS9TZBAuEQuYHB5CXmIKz0tQ9/nqRVLHkUsXLBopuQThbGN3giN4DvLLlkMxg74FpfnXLBYD67x0jNFNEPgpHZqhKIfZ3tNH5TsT8DXRxFNxMpxBv2adK5/zqwrPOxOO2i3ntmcjlSawUIh8yxJl7MJhOF0aPQmSWQ/rhVZKyXQTRnIzJkv1ktI4wT8v9ITeLfUomW5gzoz2zicEYp5BQCIgqATcWIPg1zl4bgtGNIoHzVp9hiEl7lM8nQy7SkhIVuoALL3V6hOblSAq21W94MOXJhabMaCvMJhYvilaB5ia7BKRCCRnvUTz+0wY0qHMUMvDx+C5rHcgeIVNZqZySC7oEp77KFiX4cMFfvFVc+6K981KjfgcAyXAwg3fjzrXV5CjFn7vtHQQ1dNjmolsbBvmcQfjnrDrDNunsPLnO6K4woeRb5cDz0mMtYX7PWCtbtmbFCb9dKQugDvYrrWyYB1xp40Py7B2SbuCQuCRAYuZcVCAq6QTS+5QgLm/OGerC7oWeiCLh/pOr5E3yLT0kPvK0hHnYGa0z3UyFDqrANT+ZCm1vnzhMjubtmcDX/G1mVm9/XiIYDKMIq5tY1baUVKqZT6szxHsxpW/z1/abQMVUdvASFEcxXzPToNqMGmd3LycflBH0wfDMAADcONSdQHbn/rpPmN86fdXvdODcrOYvkb+7vKodlQvXi5fCfVCh1soiQmLngeqt8c0ZIyYdhBOxwBNtgy/3kVm5dQ+QjKL6EL6fi6FgRCCFAX67WJQhOFrI1L9+Kq+NMHDjk5vSG8crw+tJHvkoOTObAljVVd+aEG3iUSB3oDXZ4sUGdaCMiXgr+iUb86apfvcJ4WVM+8VIjCyBbJhS4NZhwPpUlhqRBb4fFfIB5BzjBJ1G4JT3VrwuQqgn5mPDBolnepfJvlJmEGOfZfeVtyJcwhLZxhfN2AU69Lwytgj3xmzN+Xd3RwaKeg5GNzeKaG3SaYy2xrx4vraF/goaStxoBOmDIZruH4JsaRiv5ywGdpxsws5LSwdW1hVa7L5MFvQskzKRo+TGr+18kaYRUSrHHlGnGQWFCgoa8V1RvqU3l0FRZ28KYLklpTGDRtCoJZ9Ac5afQEt/8SX2LtkTAtIaR+IRrYVbsuSq/k5u0JZRB8bnbYMI6AGo/PBdCT7lpk5ASkXpb1SiKC91Dp2KccpJpeWxrFYGrY/GDsjBTRexI2aYlGzqXfQ9OHrjMqzVNgSHfTuFc13tRZwDDjCAR9W8qXAgggLfnbv7rG3/L7El3oJvOIf3FrBQupRxtbmLImz2IN/09kwViEUt9Rd4mepypL+sHtdPdCSYw1rCiOM+zZEDgqJonqTsiu3S9wHhq6DyitKhUcUFB8OX2JxH8nIh+0wVOITOeONGPcTW/AIRA1e6F7C8vPiGX++8k2ouIjTVVrcgZj6JUVjJZ2Rlhyd7z/fNffepoy+YipJYyig3lLRsinxEIaEF4b3OfM/30H380z/N88n+B/yuQT/Qz8P4f/Wcwn+B38ewv//rJD/688K+e/3jJL/cwyoPssFY7tpzUWT2UXw+rO9O9H9Ofu35/m//dPfhnEr1r8/eijpx33YwD6KIX8Os+wfx+AgS7aiGpf770fLsneFsy3NUIETguu4L9v9ZwxBWYRGURchUAqj4v9tsG1Pe/+zaL+//zF6v2wt+g8fw33b/kv7jyjoZq3H85UfyZAV+d/+uUy6tfiXf/mX//3/AA==</t>
-  </si>
-  <si>
-    <t>Amazon Prime</t>
-  </si>
-  <si>
-    <t>amazon.com</t>
-  </si>
-  <si>
-    <t>data:image/png;width=500;height=500;base64,iVBORw0KGgoAAAANSUhEUgAAAfQAAAH0CAYAAADL1t+KAAAABHNCSVQICAgIfAhkiAAAAAlwSFlzAAALEgAACxIB0t1+/AAAABx0RVh0U29mdHdhcmUAQWRvYmUgRmlyZXdvcmtzIENTNui8sowAAAAVdEVYdENyZWF0aW9uIFRpbWUAOS8xMS8xNBdd3BQAADV3SURBVHja7d0JvFzj/cfxJJZGbSWiRe1qa6P2rUiraKlaqkURW1vUFvzV3iJUUVu2e28WRCyJJE0kiJBIBAmxZrEkEiSREARBJIJ7nv/zPWfOvXPnzs2dmeeZmTP3ft7//3lp05j1zPmeZ/s9bQwAAKh4bfgIAAAg0AEAAIEOAAAIdAAAQKADAECgAwAAAh0AABDoAACAQAcAgEAHAAAEOgAAINABAACBDgAAgQ4AAAh0AABAoAMAAAIdAAACHQAAEOgAAIBABwAABDoAAAQ6AAAg0AEAAIEOAAAIdAAACHQAAECgAwAAAh0AABDoAAAQ6AAAgEAHAAAEOgAAINABACDQAQAAgQ4AAAh0AABAoAMAQKADAAACHQAAEOgAAIBABwCAQAcAAAQ6AAAg0AEAAIEOAAAIdAAACHQAAECgAwAAAh0AABDoAAAQ6AAAgEAHAAAEOgAAINABACDQAQAAgQ4AAAh0AABAoAMAQKADAAACHQAAEOgAAIBABwCAQAcAAAQ6AAAg0AEAAIEOAACBDgAACHQAAECgAwAAAh0AAAIdAAAQ6AAAgEAHAAAEOgAABDoAACDQAQAAgQ4AAAh0AAAIdAAAQKADAAACHQAAEOgAABDoAACAQAcAAAQ6AAAg0AEAIND5CAAAINABAACBDgAACHQAAECgAwBAoAMAAAIdAAAQ6AAAgEAHAIBABwAABDoAACDQAQAAgQ4AAIEOAAAIdAAAQKADAAACHQAAAh0AABDoAACAQAcAAAQ6AAAEOgAAINABAACBDgAACHQAAAh0AABAoAMAAAIdAAAQ6AAAEOgAAIBABwAABDoAACDQAQAg0AEAAIEOAAAIdAAAQKADAECgAwAAAh0AABDoAACAQAcAgEAHAAAEOgAAINABAACBDgAACHQAAAh0AABAoAMAAAIdAAAQ6AAAEOgAAIBABwAABDoAACDQAQAg0AEAAIEOAAAIdAAAQKADAECgAwAAAh0AABDoAACAQAcAgEAHAAAEOgAAINABAACBDgAAgQ4AAAh0AABAoAMAAAIdAAACHQAAEOgAAIBABwAABDoAAAQ6AAAg0AEAAIEOAAAIdAAACHQAAECgAwAAAh0AABDoAAAQ6AAAgEAHAAAEOgAAINABACDQ+QgAACDQAQAAgQ4AAAh0AABAoAMAQKADAAACHQAAEOgAAIBABwCAQAcAAAQ6AAAg0AEAAIEOAACBDgAACHQAAECgAwAAAh0AAAIdAAAQ6ABKLQgCPgS+NxDoAACAQG/hPv/8czNz5kzz6KOPmj59+pj//Oc/5uKLLzZdu3Y1J5xwgjnppJPMBRdcYC6//HJz6623mkGDBpkXXnjBfPzxx63qc1qxYoVZsmSJ+eCDD8xHH31kvvjiC/Ptt9+W7Pn1XPquPvzwQ7No0aLw+b/77ruK/Cy//PJLM3v2bPP444+bfv36mZtuuslccskl4Xmm803n3fnnn28uu+wyc/PNN5v77rvPPPfcc+H7RmVYunSp+eyzz8LvTIfO3WXLlrXaz6O2tjb8zeq6qc/j008/bdWfB4FeoMwuL/3IdCHVBfSggw4yP/rRj0y7du1MmzZt8jrWWWcds9dee5mzzz7bDB8+PAyalnajo5ucCy+80BxyyCFmu+22Mz/84Q/N9773PbPmmmuajTfe2PzsZz8zRx55pLnuuuvCmxyfvvrqKzNu3Dhz1VVXmcMPP9z89Kc/NRtttJFZY401wkPP36lTJ3PUUUeZf//732HgJbV7Uxf3CRMmmH/961/mt7/9rdl0003NKquskvc59/3vf9/stttu5q9//Wt4Y/nee+/xA0+A+fPnm4ceeii8ATv66KPN7rvvbjbffHPTsWPH8Pei81XXma233trsu+++5thjjw1/M08++WQYbC3V888/b66//npzxBFHmJ122sn8+Mc/NmuvvXb4mXTo0CH8PDp37mz+8pe/mHvvvde8++67nEwEevMhrv8+ZswYc+qpp4ahkO+FNJdjgw02CFtWY8eOLfr7+vrrr8Mfyq9//Wvzy1/+0vzqV7/K6VDPQ3MXkAULFphLL700/PHl+xnoYnX//fc7vcd33nknfH5dEPN9fl00/vvf/5pPPvkkEefhU089Zc4880yz2WabFeWc+8EPfhAGyKhRo8IWULFNnTrVHHzwwWaHHXZI9KHfxbRp04r6WahhMGDAAPOb3/zGrLvuugV/hwp6BfywYcPC33Wpett0Q3HggQfmdP2I/86VV14ZtrKbox6lPfbYI+/PYq211jLHHXecefrpp0uSCwR6hVGXrH50u+yyS1EuqE0de++9d3jHXiwK5kJf2x//+McmT+zq6mqz4YYbOr9/9XzMmjUrr/f0zTffmG7duoUh5fr8CtCampqynXfqsfnFL35R0nNONzMDBw4s2nvSkMeuu+5a0vfk+nkUY0hGPXHqadlkk028v2b1gt1yyy05haYL9boV+hpPP/30Jh/3pZdeMvvss09Bj9u2bdsG//2UU06p6/VsrRMLCfQ0TzzxhNlzzz3LelFRd/DcuXO9v7ftt9++4NekHgqN4aZTy0A/IJ/vXd2N+g5yofDXTZDvz19d9aUcClG3v1qH5TznitU6Xbx4sWnfvn3FBLpae76/e93wqkVd7Ne+7bbbmiFDhhTtPC2k9RwfO+64Y9bHfPDBB8MhIZ+fwxZbbGGeffZZutxbs+XLl5tzzjknMRcWjTuPHj3aa7ePxpNdWq/pLQB1v2mMvBjvXWNlzQ1BaJxNwxXF+vx186Nu/GL75z//aVZdddVEnHMap3Qd+sikyUwaC66UQF9vvfW8BbqGoX73u9+V/D1ogqS69n3bb7/9Cn5N6qXJ9MADDzRqYfs6dJOguQYEeiukySnFaOm5HjrZBw8e7O19ajJaoa9FY9PpgX7iiScW9b1rfFGrCLJ59dVXzfrrr1/0z3+bbbbx3lqLb8w0J6EcF/tcju7du3sNdN8tsEoIdLUQizUHIpeuZ80JmD59emIDXfNECpngmc+hSbivvPIKgd6azJkzJ5w1mdQLjGbSa9Z4kgK9R48eJXnvugioJyCzC3errbYq2eeviT2+x1QVci7dl6UIhb59+xLoBVLPWhKGGTSvRKskkhboOieKMZcg26EbG618IdBbgffff99sueWWib/IqLWqG49yB7qCTb0ZpbxAayJRuj//+c8l//y13tsXXVySGOaZh4YBNKxBoOcf5quvvnpi3o9aqRMnTkxUoPued9PcocnABHoLp9m3Wi5VKRcaLfspZ6BroomcfPLJJX3fGk9/++23w+d+7LHHKn5c9ZhjjqmYc07ni1YREOi5efnllxM5X0Dv6c0330xEoGsootTvX70lpZgPQ6CXkYo5VMpFJj5cl7S5BLqKsejHuNpqq5X8fZ922mnh6y/nPAet33fVu3fvijvnNLxCoDdPcyJ005vU96UJsZmrVEoZ6CqaI2qYlOP9q0YFgd5CaaJEsWZXFvPQGuVyBbrW5Kt4Q7nGArXOttytVZciLKrOplnklXbOaWJg5jyGlhzoGt5SmeJ8qVBP0t9bly5dyhboKkajqpDleu+aJ1WqAjwEeompjGalXVjjQ1W3yhHoGotL0thgOY4ZM2YU/Nmr7Gqlvm9VSyyUWrsaNkn6e4xv8FVvQUtY86Hyo/FjJL2hoOJF5Qr0eGVMuT4jH3NCCPSEUREPnyeJKhxp4tYjjzxiJk+eHJ40mlmqWcIaL/U9puYyQcsl0DkKn/mt8TufQxUaj9SeAhqCmTRpUnjOaeLTPffcE65B9lE1L/3QvgOFUjevS4nTUh/a3CbfrnafRWP0WIceeqg544wzwkN7HvzkJz/x9vgqzaz9Fkod6NrDotw9NTfccAOB3tL4mmGpGsW51A7WZBRVfvN1UqqYC4FenkOFhwqhWtY+nl8brOTSWtZKBG1c0dQa5ULKoboMN6h4TqV0ty9cuLAsc3FUSEo3jNkKwmh3MX3vBxxwgJfn0vlY6kBPwqHy1QR6C6Ifi4+CJPoR50t3/r7KGha6rpJAdzvUcsqXZon7aGEpoPMdA9SWvr4qyOUbdJlU+a9///7hceeddzof2jXO94oLlWjNd16ESsW6Pu/Pf/7znHYMU1Gi8847z0t520K+z0oPdE0MbA313VtNoKuLstRdcjGt4VYLy8cyrkKXYBQj0NWq0diYqovp8/3f//4X7v+urQ9LNSNe3YjaEU8z0XWoRaiuSt/V5HThzdeUKVOcn/dPf/pT2eeLJHH80aWUceahqn35uuKKK5yfV5saqURsPrRTm+vzXn755YkJdNUC0bCleiFUBVLDR1oR4ru0tK5VSdlRkUD3oGvXrmWd6Txy5EgvJ6ZCIgmBrlbjyi5GWk2g5SrF7CK9/fbbzZIlS7I+v2Yr/9///Z/XC0++67K1LavLc2qSVqFjnvLiiy96mYQ0dOjQRP2WdZPj63tVqOY7s13fiY+xc/U05EutedeeAb3nfM+rYgS6lpOt7HWo9LWvsXeVmn3ttdcI9JZir732cjohXDeu0FiYj33VNQGv3IGuSVm5DnNopyXfFwINPbzxxhs5vYbbbrvNy3NuvPHGTd48NEU9BS7PeeONNzqf9xoDd33vVVVVifkda/Jfues7aO9uH3MiCqXaDK7Pry2iyxnoGn7Jha53KoHt4zlbw4YtrSLQNXbisn2oum/zvZhnc9hhhzmflLqglTPQO3funPNnLipI43OpimZx51v5SstmfAR6vq0a1YJ3GV7xUfI3fYJcocd1112XiN+xqgZqxrSvc+mss84q6HX46PbON1DTKZhcn/+ggw4qW6DnW45VM/59PO+wYcMI9JZi4MCBBa+l1n7RPvg4MXO9sy1WoD/zzDN5P7fP/b7znbwkDz/8cFkC/fHHHy942ZZ6NnxM4rnmmmuc3/u1116biN+wr5ne8Ra56jXLl4aZXLuBdU589NFHBX8OWg6o89F1Ps68efNKHujaXCnfCZ7aedFHHYxCG0MEekLpxBgyZEg49nrRRReZY489Nmy9Kew6dOjQ5N7UqiPug48lTJrlW65A33nnnQt67n79+nm5GGiXpnwLf4jWC7tOkisk0GXu3LnhZMGePXuGLRNtMKMSmOoK11hmU5MHC/2eM+kGyPVz79atW9l/uxp+8FVARuOphU7089Hdrha+K008dX0dNTU1JQ90VX0sxJ577un83PoNEuitgDZr0UVfF1/90FVRSV/+1VdfbZ544glvz6PZnJUc6JrZWwjNXvUxDqbu40K5XhAKDfSmaIKl5hho3bjKYmrSpMaqFZ66AfBF65tdP3f9DspJG5/4XDXhUpvfRy0LHz0ePpYlqvhVKQPdZQmk5u1QXIZATxQfRTbKGeiFTsjTXuoqnuH6/Bo2KZRrgR/fgV4qffr08b6NbSmpR8bnErX999+/4NeiVQ7bbbed82sYNWqU8+fiYxhp0003zbmuhY9AdymMpd++6/PrJohAh5P0cdBKDnSNYWnIolA+ZlurdG+hTj/99FYV6PF55yPQyzkp7oILLvAW5mohxtvxFmL27Nlhd71rt7/L7yimJVhNDRHm81rU+1GqQHcpXT1+/HgCnUBPFh/dZOUK9I4dO5qlS5cW/N5VLtfl+bVBTC4VtZriOtu7UlvoDzzwQMWOoWvuis+lUnfddZfT69FQiOtr0FwdDe+5Uq/XBhtsULLPxEeguwxf6gbG9WaKQEfetN2kdpmaNWtWODY6YsSIcDxe1Zl8FFopV6BrVrDLrGuN17nWu3YJVNcdz5Ic6KpEqK1K1YJ86aWXwi5dTYa76qqrnJbOlSPQ43Ns8eLFYZewrzB3qbgX09i7j9n1LlvSpn9OLktx40PlZEsR6Orhc7khV8+K60x3Ah1ZadmFSrBqWZKWkWmymPYL157lGmPTnbOvYghJCXRNKnPhWt1LldpcbihcN9Iod6Br/FYT6LQG+e677w7HtbW7msaEtcRNNzyuXbBJaqHr9+SzPLBueFz5mBC39957e/uMfCwHzXXGvWugq7KeSw+fejVcaxAQ6AhpZubo0aPD4NZykc0228z71qhJD3TXpTba7agcgR7/O67zF0od6OrlGTduXLiOXL0bWr+rYYdynHOlDvR4j3Ffh69lpz56O3wsWYtp2a2PTUu0yqfYga69ENSTVCitCHHdipdAb8U0cUW1uHUX7HuPaQI9/0PDFS60/WnSA13LJrV0TRUFNWchKedcKQNdPV8+91AvdEOlbHzsnHf00Ud7ez2uEz3jMf1s27b6DvR99tnH6b3SQifQC6LxR+2+VKrdwgj00lwQXOtf+wr0bL0M6kbXkISvjSgqOdBdJ0+mH506dcq7KllTNAnNx4Ys6uHz5R//+Ifz69EwTS47OLoGunb+c6GbDgKdQM+ZxsM1Bp70fX1ba6C7jj0mYZZ7ZphPnjzZ2xanLSHQVUXM12vWBKpcl2TlQvMXfNSRP+GEExIV6Lnu4Oga6K43MgQ6gZ4T1VQ++eSTE39RJdArP9BjmhykruBKOedKEejablf1xX29Zpc1z00NwbVv3975dWnoxxcfdfp1aK5GsQP997//PYFOoBfXhAkTwq04K+XCSqBXfqBPnTo1nCBUSedcsQNdy7h8FB6KD+3P4Ntbb73lZSLs3//+d2+vSXtS+Pi8Hn30UQKdQK9s2t+8WMt8CHQCPRu1hIoxwdLn9rSlCvT04YcLL7zQ6/a6mlzo24svvuhlKarPFvptt93m5TPThjMEOoFesXxUz8r1UHUjdSWqu8610hGBXrmBripZPrpsczkUPPE55+OmtZgt9LFjx3p971ryVgwaj3f5/cY3XZqcmbRAV+OGQCfQK5JmFBej6Iu64/bYY4+wItkdd9wRlonU3uEzZswIqxxp7+Fzzz2XQG+FgT59+nSz1lpreT/ntBJD3fddunQJJ5Rpa+CJEyeGz6dzTi1VH9XNihXon3zyiddqcNqatlhUhc/HKoQjjzySFjqBTqD7oGIdPpaeZI7XqR5yLks/dGEk0FtXoC9btiys5ObznNMSvt69e4fjus1RVbmkBrpmfPv6TDbffPPwBqFYNCnOx6Q97frni68xdO3cRqAT6BXHNVTSD62X1bKjfFTybmsEemGB7nO3sN12282MGTMmr+f3sdtaMQLddzW4XGZqu1iwYIGX+Q8+C8vceOONXj479VoS6AR6RdEYZrknCRHorSvQp02b5m14p2vXrmE996Y0VRY3iYGu4SefkwMvvvjiol8/fBWWOfjgg729Jl/r0LWhD4FOoFeUfffd18vJ371794JfA4HeugLddUOa+NBOfYVKYqBrmMpXmO+888451SL3Ydttt3V+vSpelaRA1zwM3WAR6AR6xXj66ae9XDz+9re/Ob2Oq6++mkBvJYGu7XN9lA9WGWIXffv2TVSg+6wGpzFt9YKUio/dzfQ79HUD4rolcLwtsXofCHQCvWKcccYZXjYx0AYB5b6jJtArI9B9TIDUsrM5c+Y4vW+tuEhKoL/66qvOe1qnH5oUVko+NkPRVq6+Kg76mBOkeRm1tbUEOoFeGTTLWD8i1xP/kksucX4trqFCoFdOoO+6666JWIblozyoj0DXJik+K+T53IY0VzfccIOXXgVNsPPhgAMOcH49+l3mgkAn0BPhueee83IBef75551fi48xVQI9+YH+7rvveuluHzFihPM552OWvY9A99E7FRdnUW/Ze++9V/JryUMPPZSYa4n2FvdRtjrX75ZAJ9AToaamxss405IlS5xfi0LJ9bVoXTGBnuxAHzlypJfudhWHcaVlUq6v5brrrnN6DVpS5qtlrs9l/PjxZbmW6EbNR+W9XCqzNWfhwoVmzTXXdH4to0ePJtAJ9MrhozqbNo5wpYknalmUa9yQQC9doPtYH6wKal9++aXTe9bY6A477OD8Wi666KKCX4PmnWy22WbeAl0X9VNPPTUcjlCFPNWBV+v/5ptvDgs8aRtk7dymXRR902Q2H5/nlVde6fxafEz01Wf5wQcfEOgEeuXQLOEkLDVRGVgfF7QrrriCQE94oJ955pnO3/N2220Xdqu6ULlSHy1KBWihTjrppLJsYrTBBhuES9r02rXUVHt+L1++3Pl3rMdzfW2aLe9K76mU1zUCnUBPhP3339/5xNfJ7OrSSy/1cqE67rjjCPSEB/rxxx/vJdBdlzf16NHDyzmnyVeFKOUmSLkc22yzTXgejBo1quDeDx/vab311nNeMXPMMceUdG4EgU6gl52qZ/mYWaswdKH9nrfccktvF6VCWm4EeukC/ZBDDnH+njfZZBPn5U3aLMjHOVdIAGnfhPXXXz+x2xBrGEArV954440mrx3ZvP/++17GrnPZg7wpms+jHgjX16ChCQKdQK+oQO/UqZOX7juXjR/69+/v9WJUyCxZAr10ga46/64zubVeW8VpCqWxZJ/nnHYPzMe1116b2DBPP/Q5a33566+/nvN7O/TQQ8u6JFGT6lyfX8sqm7ppIdAJ9MTSOFE5N39YunSpl+Ul6Rd7hROBntxA91XydeDAgQW9V02G89U6jw+FWK7Ug+R6vpUj2C+77LKcQs5HoKqVX+jSOx9lrFVwKB8EOoGeCD7KNeo4+eSTC3r+s846qyj7YOeydSaBXp5A91FRLN/JU+lBpGVmxQg9TezMhZZU+dhqtByHyjM3R+eBj41aNHkyX4MHD3Z+3nXXXTfvVQAEOoGeCD6qs8UVnlS6Mh+33npr0S48hx12GIGe0ED3UbM/Ph577LG83ud9991XtHNul112yWminrYVrsQwz2e+gDbM8dHjpl0gczV37lyz4YYbOj+vig3li0An0BPhpptu8vZj33HHHXO+s9XJU+yLT3V1NYGewED3Gap63lzH0jVXIx6WKdZx1VVXNfs6tL92pQZ6rtuJqrt8rbXWcn4uTRzMZU6Migxtv/32Xrr61YNCoBPoFUmzSX3+2PWjWtl4+rPPPutl7XsuxxprrJFzrwGBXrpAf/nll71+z5rxvrJJaToHNMmqVIHXXKtywoQJFR3oKtqSC+3D7uP5FLJaYpht1zOdc1VVVWG1Sh/PVeieFAQ6gZ4IqoTkY5lJtqIMaq2oOlW/fv3C/+xjzXshS+q0AQ2BnpxA10Ykm2++uffvWjtjaeKWWuKq6a+Z5Foit8oqq5T0nNtoo43MokWLWmyg66Y8F4sXLzYdO3b09ryqDqjfiW4Uzj//fHPUUUd52Vgqfac3BSOBTqBXNB/LTDJnmifpUL16Aj05gS4+9qpO2nmZ/hwrq1jYWgJddGNVKe9r+PDhBf9+CHQCPTG0/KeSLzA+ZssS6KUNdG0g0pLPuZVNymxNgS76LJL+nrTywgWBTqAnxldffVVXqS2JLWzXcfRclhMR6KUN9GKsBU/SsbIx/dYW6BrW87GMrZirE3IZliPQCfSK0bdv38T8wLTkxcd4u8Yyc10bTKCXNtDF94RMl+Occ87xspXq2muvHdZCL8ekuHbt2oXzBeKjWDfn+Qa6TJw4MawPkbQw12S69G1486kOR6AT6Iml6lW+qsb52C1t2rRpTjth6a47n/2yCfTSB7qP9+3jiCsLqg65iooU+jhbbbVVOIO/OS6Brhn9nTt3Dm9AtCWqqrJp+ELPq/3I58+fHx7z5s0Ld5N78cUXwzK3AwYMMDfccEP4Xvfaay+nFnMhgS4+Ksj5PHTzlcsSPAKdQK9IWs/relK4HCo0k04XoEJ/HNmWuBDoyQt0bVKi2cvlOucylyndc889BT2Oyo0uWLDA+/wBfTbaQVAz91944QXnPeBj2sBk0qRJplevXuFscfVm+a6Il8t8nXIN8allXsieDwQ6gV5RdDefvsynFD84nYgPPvhg1tdz0EEH5fVazj777ILeN4FenkAX7WpV6htJdU9r/XI2J554Yl6Ppdr0moeSq7FjxzY7VKSJnPot+grwXAL+kUceCVcfNLfUTN3nLoYNG+al6EyhhzakevPNN71+fgQ6gZ5YKqfp0vWYz7HPPvuY6dOnN/laVHlu6623LvoJ6RroWu/c2gNdoVAotZZ8rilurvjRU0891eRrWb58udlzzz1zeqyLLroo7/FXdfNmeyyFgnoICl0L7cvHH38cLjfTOZXtdfoIQxX70Y5mpQ5z7Tnhuu0ugU6gVxxtl1jMMXXNPr/mmmty2rtcG61of+amHktj7ffee6/T+912222d3s+BBx7o9PxHHHGEU4+ILo4uunTp4vT+VUPbtTWpsV+fNREyD/U8qU53LsMxKgyz0047rfTxbrvttoLep2b4H3/88XWP84c//CFstSeRqt6pSz5+rV27dvX22CowpEJApZgsp/kNgwYNKtrnlOsNYLF6+LR9dfv27Z1eQ7du3Qj0lkxhe/vtt9ctafNxqKtN3Yn57oY2c+bM8EeZ+XgdOnRoUGq20Fmqxx57rNP7UvUqF7qwuTz/CSec4PT82i7S5fm1x7kvqi6ofQF87r6nAFXXfj7niUJ99913z3ozOmTIEKf3qFBXIRPX7utSmTJlSs4lX/M1derU8PspRkU/TSLU7nrF7vU47bTTnF7npZde6vT86lXaZpttnF5DMW94CPQEUctLXXBqhRbSFa8dmjQzV6GhHZEKpUlH6Xsd77zzzua1115zDnPRhgxqKaknQBeBXA51M2svd/2YXS8Y6gZUcQs9nh43n+c/5phjwrW+LlasWBGW09TNWz7Pr0lbhx9+uJkzZ47Xc+6bb74Jt8JUV6Ru2gqZwawu4+uvv96pi1jDCHoN6S29YgVbpXD5na3MjBkzwiEM1waE9m7X9UZLcUs1fKGhQc2l0PUjn9+P3qt+9y7DVek3RnrfGrrK5xqmIU31lrYGBHoG7aKkdba669V4lC522pdak9cU+Lq4ayOMCy+8MJxBqxm9Wg7ki4JnxIgRYeGOpUuXen9/mtykLtlcDoWwXo9P6obU4+b6/Pr7Pun95Pr8OvKZDFYotZTHjBkT7gyom6cjjzyy7pzTP1WJTOfceeedF940ajKZy41jNlozP3To0LA+ecLiNTyC+D8HaX+c+t9M3d8IGv0bSaRzWkvjdI3R9UW9NRofztaCV++Lhnt083bqqaeG+0aoN69c1FLO5/fr+/oRN8DyuYblMuxJoANA0aM8+3/P/POmbgEqgfaY10Q9BbVaoZpvoKEK1arQ2nsfrVsQ6CjXhSwI+BDQqoPcfGdbdkvfN8HHL5tgwRMmeHuICd66zwSvV5ng1ZtMMPVmE8waEP3Zu8NN8IGd1f/ZTBOs+DxryPMbB4EOgCDwH9cN/+S7r02weKoJ3uhngknnGvPwwSa4fzO7ldk6xvRpa0xve5nqYY877NG94RHoz3raf1bbf/Zb3QT3dDRm+B4meOovNvyrTfDZG5w0INABwF+M149yh8dyO1Y/50ETPNnFBIN+EgZyYEM76B6Fd6AQr04dNfbo08xRE/3doMoevaLHCY8+qxgzsnPUwq+AljtAoAOoiHZ58J7tPh9vQ3zABnUBHoZwjcJXR1tTa/9Zq5Z5nzZ5H0Gf+scJj5rUjcLt9njl3wQ6CHQklO2mNK8PsAXDp2S5dALljO6MP1VrfMR+Ycs7bIVXxSHcti6ATVqIBwWEeeNAT3scPe+ADna94Bd8RSDQkbDLpsYc+65hzK2pi9U42+r5fHb9/86kG5QlzmtNg+VjC56Mglyt5J5xS7yw1rfToeetsSH/8Uvc8oJAR8K8NTDqRoy7FdV12X8dE0y5wgRff8JFC+UJ9CC1YOybL03wzNlRi7xHE63mEh7hb0SvZeGTfEkg0JEwX9liNgM3joK8b9voqEoF+72bm+C1Xrb+5go+J5S8jR6s+MIEI/eLbjg1Ua1Pu/ox7VS4xpPYwq53TYDrFc1WD2ezx0c8mz3+7z1TfzfXiXKZga7fx8IJfEUg0JGsi2Zo8atReHdPdSfGraBUq8g8+DO7Vvf+jIIczPVFkc/M2Q+Y4L+pFnGvVFd7j2iJWXiu9k610vu3t+Pa69klaluYYNgu0U3AmCOiY9yfTTDxr9Ex9lhj9GcP/9oEQ+05PWD9aJla3WOlbmibCfRa/d0F4/mSQKAjce2g6J9L5xkzdM/oYhlPCKpJtYbshbRWF9Jhexnz9oPEOEoT6J++bs85e07ev3UU1I/9zna/n2OLwdiCMDPvstvOPWaCD+1Y9hfv2lq8S0zw7TL7L9Y2WRku/bCL1m0PgK2ctmhyVGBm2E7ROvTUBLsmA7069bv48Hm+JBDoSNiFMwjq1vZqvNI8dkRYeCOedFQX6n3a1E9IeuiXJpj3KB8einhe1gdz8O3yJsu1NnUzEDS6aQ0a/LuNHiP41gSTLwp7Alba5a5Av9NOIv18Dl8SCHQku1UUhvuk86IuzerGM4kV7LU942Df306qu6/u4hs9SK2hKx4V+xsYutNKQz0cP9eck2+/4sMCgY6kB3rqP8/obgN9lawXt7oZ8anJR8HQ3WwX6D1R3Wygks//Z8+N1rc3Fegayx++N7esINBRAZe0sIWd8t7jJrj7h9HM4D5pBTzquuFTXfFxicxBO5pg2u0mWPYRHyUqM9DtZi0Nz/eMQNdw1ITT+LBAoKMCL3B2rDAYvm90IauOK3K1zTp5KGzN6+8N6GiC5y62u1a9kfF4Qf12lAGz5OH7fA2yrr4I8jnfX7k+WtnR1Di6Wu8z7sjzkQECHWW/PEat9cCuQw8mnhlNiuudWq+eCvZGXfH6s3gde1+7a9Xjx4Qt/czLX0Cgw/cZGzTcvTz46gMTvP+MCRY9Z8/hr3OIc+vZs5sO9JpovXvw4eSMKXYAgY6kXxw12S1IK7+pfaP7rd2gYldmoNemLXkz8YYW6pIfZreifM3uQb3sQy6DKOJtqPXBJNstbted392hrtBMMLiTLdf6YvMtdC2NayrQFeb32iGoFZ/xQYNAR0VeHhu2RD59LVobnDYLPltrveGYe6qCV49Ud/zEM2zL6emG64Lr7yQIfORwXgYNz1I7byN4vU9U770q1TVelVbdTdXmHthipZuqBN/ZpWsP7tBoImhdoRmdv2N+X7cahBY6CHRU/uXUdl8Gz5wfLV3rWd8Fn1P5zKq0rS41O37qLSb48t2stxFAdD7U1hdAyjjM+0/ZG8S/RTeKaRu3NNo5rSY1B8RuqtKkz9+xPVCrZ/n3UzetOm9f6516HQQ6CHS0pPbRuw/ZNbk/jpb51OS6LWX9/tK18ez4/mtEBW1m2zXtX3/KB4ysN3h1Qf7ZLBO8fIO9Idy1ft+BqvTeonaNz7neqfPMjqs36e0hYY0FU9PEMs2+3wsnidYHOkCgo2XEeWSZvUCOPSEad+xd382+8g0uGi57CzfJ6JEabx+4kTHj7bKgeaPrinc0P2eZi2uLPb9iS9+zXerVxjzyG3vOrB6FeK/0bVTbNtgTPX0lRhj2tsvdvHJD42cK0v7zpPNNbffGu7iFj6Vz8+HOaf8u5xwIdLTUFtQsW1jm7o51teAL3qKyKhXuvVK7vWm83ZaZDVJjn3WttQbXfbo/K/fkib+3xjXYzZfzjZl5pwlG24lqd64dnlvhGvGaPHqC1AVfvZod2vlvE7eCcaLXRhu29MpeHTG8gXi9N98XCHS05Otx/WhisHS+3dHqz9Gkol6O+07H4+1xuKtrf1wXE8wZEhauCYjxFtker10yK9yyNxh9mA3xdaNNgXqkzoU89kAPJ2zekZrd/sGzK+nHSf3ppzPsCo3VopUZmYFun7tWNxTaahgg0NFyL8hBowtz8M5wY+wOWSoyE3an98mtKz5bqEd7YKfWv3dPTXq6+wcmePS3tjxtDxMsnkqoV04/TuM/UbngRc+b4IVr7Az1XxjTd5VoO9Oe8SqK+i71oLkbwPjolSpy9Mx50YZDK+3FSZ3B029PlXxt27hgkl7P+JM5z0Cgo5X65nM7JnmRDfR2aevW27l1x8dHasw9vPBr7bs21Jh0gTH2RiIsJpLlEs6s5FL11qRXawuyRqm2Ow1rGow/3S4l26puYpvWize8Aczlhq9t6rxqW98qH7RDXTGjXO4zwtc3qnP0/A0eOzXfQzeTtjiNWUk7HyDQ0fIv8h/Z/aofPri+6zzPVnqzR02qNRZPkrprHXtxPtAEU64wwcInbff8opW2z+C3tybb3uPBl/NMMHeULQdstycdsY8x/dpH50M8O70m/96bhmPlqaGZ6lVN8Pw/7HyLJfXfedD8tx58/na4XC39ZqJuDF6P+8ivs2zAChDoaD3NtYYhOvte2xrbtkHBD9cjSL+gx0dVqru2e6rrdcAGJhhpi41MuTIaCrDh0mADGngMdH3t30X1/2cPsvuL/8OYEXZnsjvXib6LzK70vm3Tem7aFvb9px7XjPyVLcn6fIPgDf+vmUAP//70Ho12WGuw8dDC8TTOQaADDdjxzOCla+0Eo/WiC6gu7H3bNFNpzkP3fGrTmDBU+tm1xEN3tt29XcLJV+b9iXWTnRoVLckIh+j/g5xafRUbyUHq/cZlf1fyXsPPSZ+dirtMt9vtjrPLF4f+3I6DrxZ1X6c+83y60XO+iYvXn9+3hQnevLPgGxDd2gUj929cHa5v3Dr/Fb9bEOhAg9Z6UNuwC3biWfbCvEqDErJFCfTM7vnq1AS7VJdvrf7zXR1sOdtdw20xg2m3RGvgv3jbmNQ6eGMaN9BaYqRnu6Gp+/Nvl9nejbkmmD/GmGm3RZ/VsF3sBMX16ics9qhfG16s7zBcdx4WI1rLmClX1S1nLPj9fjIjOg+rG8+SD3uSFk3m9wsCHWiY6dHubQ2C/ZPp0VK06rZ5VZtzb+W1bdhVX5W2p3s8Fm9nWweDtrHj/wcZY9fCaxa0mfuI3eDjFRMs/6hFjsmH72nFEhPYJVzmPRvcWj72zFnRioLB9rPot1p9eMefU3WbBkMepli9LTWpeRI1q0Y3gxr3jr+DAntMwn//xX9G7yVzZrsm1008nV52EOhAXuw64WDMUfXdqDWZ1b5KfNSkjt6pmdc90g5d7O+x4/KDt7dBd0hU+OalblG3r0Lwk2lRVTMFo8aTmwn+Yrb6Mx8v+HapLX36oTFLZtvNcZ4KS+2aV28KVwgEY44Iu8uDgT8Kg7vufXdP/bN3quu8hDddJp65Hp4TdjnbkyeGN1TOn0p8A1BrN2MZvG1qsmbaOaeblgEbGrP8YwIdBDqQe8s9LXi0b/UTx9mL6qoZ9bnLEOor6/KtSnXbpybfha25nvUztoP+dpz+PlsIR8vpRh4Q7dA14RQ7y/tCE7zSLSqcMvOuaOb3fNu9r27dRZPC7T2Dz21hlSUzbejOavLQ/x58Zo8Pp0R7c39gd66b94itrW+X7c3sH/UmvGC7o5+xe3uPs5+nLZda+7/dbY/D1nZ4wRZriYOyV+q1p3eXV7Vp1P1crs+5rkX+5Cn2Rmm6t3Ctq53w3tgG5WMbzJifMzh1M8YEShDoQI4X19pGbclg8au2nvup0fKmO/zNivfacszsuq+Jjtqa7KEfVzyr667ukXZUp6qR6XH6t4+Ofk0c4f++RvjPujkBVRmPl/lcPVNh3Tv19+PX2GCznLap/ezbFryEzMtRFU2mC9/r+FOic8H4XHYY1NdvV4u/R8MtgKOu9jPqgj9gRQQIdMADtUafu9x2f25U3wpOTLBnr34XZJ2V3czrrkk7qvM40v+9vF93+T63BhunxDuZxbPiB2xs15JfYb/7t4p1BxndGHy1KFxOF80BaFe/5nz4HrZ63df89kCgA56vvdGx/FNb5rWXqR2ya303d3WbRHXFc+Qe6LVxqFen9SAM28MORVTb7XOXFHXcum7vgVSp19p4iZpew8BN7AqMBfzwQKDzEcDvhTfqjm9YK742XDYVPPFH2x3//briMaWaqMXhr7JfGOTa8GTc8cbMf6LBDVwx1w+Ej6zJcMN2Sq1mSIX53T80ZvG01GtgKhwIdMB/qje8FNez1cjMq/+JZmb3bpNRga5+HJhWfKmPjMp9cfd66jsKx/vVGp92q20Nz2/4rQb1hW2KauG4aD5BPAFOQzp20l18nhHnINCBcmS+/s/O8q6d+He7f/qmYWsrnIBWVeQKdBxZutPbNZwoWJW2Xt3uvhdMsrP8P3yu7Gv4gzm2LO0t9jXdZl/3UDuM89mb/JAAAh3JCXYVRfnCBG8PtXuyn2jMPRtGXampvbTpli/RhLfe9SFu7NI989Rf7TDJ43YN/FcNv6uyRbp95u+W2TkZd9gx+xr7n5ez6QpAoCN5bfU0yxcbo3B/8oRwspNJ7cgWj7kHGbPQCeT8u9bjwi/xZxtOchtkC+48c264xtt8s7SJb6j8I9VB49tBfkIAgY6kttjrLtXam1312VURbWgnO7M5tUd7z1SLMnNNNt30TZfKTZvUpmpywZ3rmuAhu7nJy92MsYVuTC1LvgACHfAa6A1nyDf4p2Yzz+htzONH24pum9Yvn+pRH/AEecPd6uo+H90MDbEzxJ8+045FD7ET2+Y23siF6moAgQ74C/SM7t0mNvAI7JauYS15u8ta8PgxdvLWltF4e1y7vWcrGYNPr18fv3d1pdtSscbuqmaePd8Es+425jNbftbWqM/WGxJ96o0r/wEg0IHS+26FMR+/bMPr3qgW+kOdo81YalKVxO5Ia8nHZVT7ts3SZd+2bq/3stWcr2lbXxc9vdu8OmOHuTtS70e7qWnTmSf+EO5bH9jNZrTVLQACHajgFn7a8fWnxnxka4rbFmrw/OXRZiuDd7Drl9ePgjO9dnqP+rrpJt7opKZELfy08rF1gd0zo358r1S9+Ps3M8GIfUygWehaE645Brb73NR+0+j9AyDQgQoO9IZxFmT5Z7D0fRv0L5jg3RHGTLVd9s+cY7vt7bj88D1N8MCWpvautcOd4+Jx6LAb+47UbPvuGd368dGriSP97/RI29q0e+ox4y1OFeh9bUv77vVM8KC96Xj4l+EmJLVTLjW1b/Y3wcIJdre2WY2WkRmTuZUrkQ4Q6ADCJVvBsg/DbU6Ntjd95392z3QbqNNsDXFtbTrZzrgff7I9uhgz+rd2i9ODo/3VR+5nJ511Mib9sBuGBI/+xv6dg6K/o13CtB3rZFuo5YV/RXXJZw0wZt4ouw2r3Yr183eMUa9CqrUNAAQ64K3F37gbeyWFbVf672f7c5PHYwEAgQ4UEOH1AZ6abZ+W6EGej9b4z4NG3eNUIwdAoAMVdcMAAAQ6AAAg0AEAINABAACBDgAACHQAAECgAwBAoAMAAAIdAAAQ6AAAgEAHAIBABwAABDoAACDQAQAAgQ4AAIEOAAAIdAAAQKADAAACHQAAAh0AABDoAACAQAcAAAQ6AAAEOgAAINABAACBDgAACHQAAAh0AABAoAMAAAIdAAAQ6AAAEOgAAIBABwAABDoAACDQAQAAgQ4AAIEOAAAIdAAAQKADAAACHQAAAh0AABDoAACAQAcAAAQ6AAAEOgAAINABAACBDgAACHQAAAh0AABAoAMAAAIdAAAQ6AAAEOgAAIBABwAABDoAACDQAQAg0AEAAIEOAAAIdAAAQKADAECgAwAAAh0AABDoAACAQAcAgEAHAAAEOgAAINABAACBDgAAgQ4AAAh0AABAoAMAAAIdAAACHQAAEOgAAIBABwAABDoAACDQAQAg0AEAAIEOAAAIdAAAQKADAECgAwAAAh0AABDoAACAQAcAgEAHAAAEOgAAINABAACBDgAAgQ4AAAh0AABAoAMAAAIdAAACHQAAEOgAAIBABwAABDoAAAQ6AAAg0AEAAIEOAAAIdAAACHQAAECgAwAAAh0AABDoAAAQ6AAAgEAHAAAEOgAAINABACDQAQAAgQ4AAAh0AABAoAMAQKADAAACHQAAEOgAAIBABwCAQAcAAAQ6AAAg0AEAAIEOAAAIdAAACHQAAECgAwAAAh0AABDoAAAQ6AAAgEAHAAAEOgAAINABACDQAQAAgQ4AAAh0AABAoAMAQKADAAACHQAAEOgAAIBABwCAQAcAAAQ6AAAg0AEAAIEOAACBDgAACHQAAECgAwAAAh0AAAIdAAAQ6AAAgEAHAAAEOgAABDoAACDQAQAAgQ4AAAh0AAAIdAAAQKADAAACHQAAEOgAABDoAACAQAcAAAQ6AAAg0AEAAIEOAACBDgAACHQAAECgAwAAAh0AAAIdAAAQ6AAAgEAHAAAEOgAABDoAACDQAQAAgQ4AAAh0AAAIdAAAQKADAAACHQAAEOgAABDoAACAQAcAAAQ6AAAg0AEAINABAACBDgAACHQAAECgAwBAoAMAgIrx/2uOPqeicReWAAAAAElFTkSuQmCC</t>
-  </si>
-  <si>
-    <t>DTSTART:20190711T041626Z
+    <t>a6e4b341adb0571d7e69fa2138cfde60f</t>
+  </si>
+  <si>
+    <t>rVdZz6PYEf0r0ae80TPsYHqUBxuz2OxmNaNWxL5edjAw6v8e/HV6klFeg5Coc7i3LreqKA6///ExfXxFvnz0H1//+Pj7mEzvaxOA5OPrxxkEe9v8TR+KA375yIZ27g76MF9JeBjB5/1foxYcVBG1zcHFwRR8LUCQJXDXZL+9injK/0GcfsuTIsuntxUGY0IRXwrnoj1eiCRk7fk4VNPOOTs7rOsbnl/s+XlcLt55AeJhiB5Sc4bzIM4Rfkmx3WV85HxSE1oHmSBbsDBbqNnhKt5akSCqoCx5UtOyDgW4GgZIoYHUVMj+5im0EsIAdeOmJasMPHG5YTILJgK0foUPF5+pjTqXqUfN+MrXuug2AZHFt4UbWECm1PnuMwPEXA2PMaDrvjTU6oDKkSll8AsxDklk64tCiMp2HJGnL9lIPoyr16ZWCYv6Q1zdNY7J4OC7dKXp8p4zkTrL8zQEaLMSRLzsUV9ybTdEynK6cI6QZ8+Tqs1yG+niHoAlROPHpbROeqNDULH5lj/jUg69XgFvjJyTZFBaECXkcUMnlZtaUuV52fE1l1GagYaBIjX7wspsziniFRlaSiuMUQjRAKBTGNIYGkA9cpHHNcAe9tRLcNQiyvWahXQ8IUzq+cjKzqyR7xJGznFtWTvVdb0v5FbYjLzrX7KnoAq0T9SmK/iK0WXdbkLlSF8NRJXMcnFQNA5tKZRQttpvyjWjA1y1Kuce+JzSW3Z5A0RyvWQk7U8IxC91wZfbcG1KlPZv2nWoHhx7M82UAaRNOH10al/aNW9RiI67arx1d3N0Q1Vw0TmksGkok6ajQ2cnEdKvBxDZKAAu++r58yDFoqMJYU/N4163CX5scSMRzDziyE+WjWAhUxXbLln3p2k2E5nk9v0yB71NRKyeYhvVsWa64wtBPFPVnz2pTmgKmqLaJuzBoWzlveUuG7lwgJl48hzUpBtuT6Pb3agUEiHS+lVH4/AqjSg53RBRLM+bcoR8YaDne70nRg5BKXk7tQa+LT2lWVRxGNXu3q23eTQenHMr8ErLK7tIjK58NwzzXFQ1Z/K2PCd6KFyyl359jXc68YCiiRYxRrrV2gH3HsRJpLPnxlO80DhBtMcE/HL2saQxC9PZqMY46ezrsZLkKtHxjGAuJ/iSOd6V1ruRvJm5BU27yHy3666aq8sFsKVS382qrqOss/EYn5gZOp29z/gpvLObxITvJIlS6jnn1htLRENVC/wrUq8p7mF4xz6UKr891sFEJr0QIQjC0wWl0Nhz1mHHMLC4IZNl9ZH/nLtwPffQhDQcMVOXFSD0+a0wdiidEujpl09M9XMVsHUCtvKlXl8MHerxzB7paRMzFXHUfmJaiaVb0SHR5jiS6Ui0pOvYOKNjxkm+tGnp7tZTuNuxyVUta7puv6vandviyOpZaJnIyMpfsNyZHLDvdT/uFkVBsFzUd79qOxBN+kwPp5TKNgtRr8brKE9XM/tnIOT1qpG4rlPJMihkopUZ0VgkaQ/FsE8CHWtAKYzioqAe/moFaQ3kISdcTteXIptNo7YgOOzQ1SHB0TZGD3AgnwOHG/kKafl2xNTSuo3jxuWC2duqjNHuaeDbRaosVZ92G00sxq+n2vA2KN1P87bfTM7gJOLO8gqTpjieJHCBeLvjuonTk1GQej0aPStlcz2fr8FYn018gjuESpwWaX1xWeZ4c7n+IbN3o7lb3ImBAssJmOApy6BqA/FSWWli34jed/Mx1M1YtCalzs+zaVb3o4ruenfkGz66VIBN6VJcRTIzWNbD8WZeysXHVMtGt4Z3sC2vZ91zXQZHNpuhyNjxyuemsLzKH+VzbmVQP9JZT2fTBdgJ85dmI+Ng9twFhhcEhDrsTvsOQZo2z8kzIJ8tYmaO8Kh8JBYfBNzaHqNbiHZ3aq6nZZLxPBSehziZxiVVtaMcUX/SYzxBaRyGoIFZ15wJXWdQKZKGFHbbRj/mJARyFKYmYIOGwZqHS0f3lAumoX+P7bznJADL8kcMJCIiQw0sghPjO6/WTEszRHPTp299tXkIXtU4CzM0ksVzf4e8cOZ0GpcZPdjjF5VgFWlG4u7HO3jIFFyEck37a8sH4TRo/koWiNGmheSgITcBTY+AayRyUKGeHw6B7K4QMDxZCwP5fBQJlF8ba+nO3qUEKAFbMEhPME+Xe04DarbH5WhcWqj6dpWWG71uInRKyCmbqTibTykPQtDXU1vxakq11kBz2A7nKf70DxfQtQ0pzYMEHYdvskI30WXwACA78YksJ2nEyhkx2SCikiC15tsJP9G86umL54nzPmY4qsCGQNO74sJzdcISzn5y/MY0LwP1R3LO9gvvTyqxlJpn5fJwPKOiTCUtFia9bWWqNqYS1AOvRVRh5KN+tVDVXGlZGd3bvern6zjQ5UueGcRsq9tdU4pKZ1e/pI+uOC8KRE8kCvYcsYddug05Fq813dhHLoYQl5HgSZ7yHYo4k5DuSaJFGnFzzeSSi5f7rRAUtpAMjsufkNC4+tirchAQpMP4k3Kv9cskdP4DKp4yOV+vChJExKliIk1Qoxt7vBtPwClsf8wvgDsEjwVexRCsj65j+FULoqpZXg1aFrC5tc/Yxt3UUX/Gfr0Sc3PlZsGPjEfmmlVrnZEWPREV2S+nwtRymyjTWWXzpK4vwypKnfOcM7wRZ5lhyHOk0Xh5WUvMTcgkA+RqruEe3yh+MokziNcHYiHCxQbHF5K5pEHxeqZWCl2h4lrObcnKNX+zDhlx1mqLRvBMXxBbb1rsZlAhqRPs0bEl4y7u/Kfq42reqszZACx7SMqmnZLxh+AMQDs3hzZFsUOrBlH0A73vRMGUZO2w/UDDMNfJW8L+Mwqi/NMK6vrjaxrUY/LlI0zSdjjY378dXo7vxPDDDJPplSTNG3z/8tEORaZ1U9E243t+OiT9p0SOp3EKhveyGIIyvyDULwhqodhXBDnOXxEE8d8yuDm8LsGxJPp29X9wc6jtavwh0v+97Wau6y8fh1nUP8G0F/FPO9wOGd+1438waJspP3ZHffsTxcERsd/RT6L5L+aT2JJg+IQ/HRzRqZr2r/gvA5r/YfJ2fkcXxX6sWTTz9A488u3HAx5/C/GfMAnGz1y8534/wjbm7escL0ETJfGfuRvbYdKOFnyM+wX9/v37t38B</t>
+  </si>
+  <si>
+    <t>data:image/png;width=48;height=48;base64,iVBORw0KGgoAAAANSUhEUgAAADAAAAAwCAYAAABXAvmHAAAHX0lEQVR4Ac3Bf2zW9Z0A8Ne7PmgGLT/GuT1Sp3N3oTcGHNmjjF5OOgp1m3Nba0iOmfSM5qIXM7Mb/m1Wdno5kgmY3Ln9gT/4a1lwbRW3u6y6AjfX6u3xFlPHWna4gdIvErCm5f6AJZ9r+9DQX9Q+Dzvn6xVmkVL6MrZiHdb50yqiiGcjoss0YZKU0hrsxXofTj/HPRHxWxdd5aKU0pfx77jJh9cNuLutra1nx44dvzcqjEoprcMv8BEVGhgY8NOuLocPHzamvb1dRBjT8PnP++iyZTZu3Kh+wwaFQsEVeg+fi4j+XErpKjyNj6jAvz3xhL179+rr65OUBCLChEMHD0ro6OiQsGb1am1tbb721a+q0BLsxa2RUtqK/co0MDDgb7dt09fXZ0xCuCQhzK25udlTTz6ppqZGhTbnsFWZBgYGNG7Z4lSWGZMQpgpzS+js7DQ0NKSjvV11dbUKbK1CkzIMDg7a3NTkVJaZEMqTUjIm4eDBg57Zt0+FvliFjyrDnj17ZIODrkRECISSf9m5U4Vqc8owODho1+7dpksIpJSsWbNGW1ub62trjenp7bVz505ZlrmcU1mmWCwqFArKdHVOGbq6uszloe3b7dy502SFQsFtTU02b9kiyzKTJYSSnt5ehUJBuaqU4cCPf2y6pCSfz3v44YfNZuXKle76+tclU4UrV6UMDQ0NpgsEbr/9dtXV1S7nEzfcIJQkM504flwlcsrwjQce8I0HHjAyMqK/v9+Ynt5eY25rajKXz6xaZUKYKuHN3/1OJXIqUF1drVAoGFMoFMzH4sWLJQQSAiklESFULuePbGBgwPDwsJ7eXmMOHT4scPToUaEklESEK5VzhQYHB7344oueP3BAZ2enSiSVy6nQ8PCwRx55xK7du02WEGZKSsJMoXI5FSgWi77W0uJUlpkukBBmCjMlJSkllcgpU3d3t9u+8AXTJYSSMFVzS4t3z5516NAhExIC4crklGFwcNDf3X23pCRMkhIRxrS0tPiH+++3fv161dXVxrz22mvWb9gglISShEBEqEROGfbs2SPLMmGqhIiQz+fte+YZjY2NZhNmClemyjwNDw97bPduCclUoeSfH31UY2Oj2fyip0cyVVKSVK7KPP2su1sgEKZKyOfzWltbzUdSEkoCSWWqzNOJEydcTqC+vt5cThw/LpSEmUJlqszT66+/LilJZkopmctPu7r8f6gyT0NDQwIpJWOSqYaGhlxO53PP6evrM5eOjg4nT55UrirztG7dOmMiQiBM1X3woGKxaLrh4WEPPviguSQlT+/bp1xV5mnx4sXmEmhuaVEsFk0oFos2NjTIssyEhGSqUNL27W8rFovKkTNPtzU1eT9ZltlQXy+fz8uyzISEQEK4JCFM9ff33ee/i0XzVWWeVq5cafXq1cYkMyWXZFlmslAS3t/p06eVo0oZHvvudyWEqRLCJQnJTE89+aTVa9aYLLmkoaHBkTfeUI4qZWhsbPSdHTtMlhAuSSkJJUlJPp+3f/9+ra2tfviDH5gQCCX33nuvjvZ2NTU1ynFV2yhluPXWW930yU965dVXjYyMCFNFhIRAoLmlRfuPfuSWm282Zvny5dauXWv//v0mbP/Wtzz++OOuueYa5Yo0SgVGRkZ0dHR4/oUX9PT0OJVlEq7L59XX1/urdetsvfNOdXV1ZtPd3e173/++r9xxh9bWVrN657+MCyysZdEK0+VM9l4/Q7/mxhbvp7q6Wmtrq9bWVpXYtGmTTZs2meH0L+n/Hm89ZVwoSfjSb1hSZ7IqkyX03kl3C/970gduqJ+XbuEP73L9Pazdw6e2k5ScHzZdzmRL6/ibLl7ZxoFabtrOZx5i0QofiKV1bEtmOPcmWQeLak1XZbraLWx+mQXLObaLA7W8+hDnTvpAXBjm14/T/mf8/F7jzh7m6uUsvM50ObNZUkfjy7xyH+8e5tgu6dgu8fFmbmqltokFNf6oTr7E2z/hf3YZF7j+Dob6OX+GP3/ILM7ncBrXmm5pHY0v8Ks2ju0SCac6eafTuI8387FNXPvXXHuzsg31M/QG77zMW/uk82eEUYEFy9nwQ1Zs5ugzBFZtN4vjOXThLrNZUMMtj7HiS7yyjfNnSMalrFOc6iQhsPDT1NSx7LMsWIJkquDsr7jwLu90SokIJOMikPCxZj73BAuvM+7t51mzh0UrzKIrh2dxl7nUbuErb3L0aY58hz+cES4KJeeOcO4IWSeBhHBJIiGMCiKQEEhY+GnWPsqNLaa45V9ZtMJlPBtGpZR+iYL5uDDM0ac48k9cOGNcICkJJYmEMCqQEEimWraRv/xHbmxRpp9FxOacknvwn1ji/SyoYdU3WfVNTr7E2z/hxD4unDEuGZcQRgWSkoTA0o184k5qv8iSOhU4jfuNChellBrxHKpVYug3nHuL995AcO73jBxj2We5egm5xSxbzdI6FtS4AmdxR0T0GBUmSSn9BfaiwYfTf+D+iDjuojCLlFITtqKAOlT703gPv0UPno2IQ6b5P4CIiQKQJHzFAAAAAElFTkSuQmCC</t>
+  </si>
+  <si>
+    <t>DTSTART:20190601T120000Z
 RRULE:FREQ=YEARLY;INTERVAL=1</t>
   </si>
   <si>
-    <t>a18c0f66a4e7bf7b3b354907a417f3550</t>
-  </si>
-  <si>
-    <t>LVXHruPaEfyXC+80MElRYriDWZDUYaaYo+0Fc85J5MP8uzl+7k1XdQONxjnoqn/99bV8fcM/vsav77++/jGny5/chW369f2lhUdcpHH99eMrn/p1uEoX3NPoAsWyDN8QlPd93qT/jPv26pRx312tJFzC77IN8xQauvznXiZL8Qu9/yzSMi+WPygK5xR7/CgdWjV2WOLynrribdoFsPMLMX8olTOUfyX6TLsJvgAr1A3QHeNBRSiduaddGB1FpNAJ8Xi8RHDaHEPfu/J0uK/cox0FsLCw1wZYzgpqzeCMjU5sJqB4UMC3Hh9H8SCVQgcCpYs1Yn8kcQO3j8Xxk3skuJpF0/Md9L7daLRZYvaCJ3cHO1Ft7UoP4oUnBjgss55MF3/md8dsK0bQag/gWjWsnqCNHpAg7QHq8K6t5pWlyBqLLw9Wk5jxlVj0qcnUccjmFI78qlcFtRzkEX9uL+7jIv5L9rnQ2mWlJOq3czrqyxbUQPZkFMWq0W5DqjVgvc4Wh9TVkWE9JRJbfMPuY4wVptq5TGlByzBVkGb6EK4kXDGDpAvgMgSEhSEfLlMRLJ981nmpp+44iXjIGzhY0L7rMiFv09ipgiTCtyOrzvPkP2cB0Z0/m4KH42EhZ2h96upA9MpntutksUldk6h5UmSVX7dwCq3aKKz9VlnnKT1FFrIxyDSIuN+0Gtuz/b73+DQajFHIW1bHTZ207nm321bivBUq345nDwAfnCzmnjhdQvXqmOmJ8jc0Ig3LcbZEi+dAZ62T2z+EIAkS57KadVe0KH25swzrxbSuQ8qpZ6xvd9jxvTk8b+k+w2/7/T5PNpA0TQelw2soGzTKc3XmdzXbyuwlK6IjvfSBsdyoTjSw5KDyjE2pvNh0J4wO/VVpz+mGVqimaQAlGGwZ0E1/sJg09kGDUMbGos67TZrB4Y48QqGajCcoM0hzFgOiWly4q+vPoQSPyHj2pqVkSlzK5rg+bxXW3201emarKHdlcjsOykln1zl5fORMMwhek9lIVDouPYhYGvVgFbygXaJGbTgLpcarlfuIJ3ifaTEaQdtO68b4rCp0Z38iFmjy3Voq23LxNYWevApAbj1ShS/1/hYfKxCM9EiW+UF607FV5dQ8AjDQjgAaOxZBH7KnaFn5A3ccWYJI/mmGaUiNb3AGg9yosaogihmHvGRSeUyHWG2Jw7YLMTe+cjITmSkSxYBrRBnfCRPhRRh+Vw/i/BgOlgJpgyWSBoXsJTqRROBtfXalRrU5Ivcxe34GYCJGpjDjZg6lppuCk0CNKRQq4d8sKIqVvAeQZlEm+jE5KUj93esQlNhA5y28ZCOibYqmRDDRswi6Shxwle5K8044a5n7Y77v5RtC40i4eW9lQEpmQB/4njCP64rR63TsNnXAwGRCMCnX+yWr5W/CGZjIcpxNAt1JlrubZaWy8+28hQwh19u7twisa2btxeNy87pD5wS/B11qH0LJwpnZqRNg+lhLknEbxoPWDcwKzwlbxkM0nmXUzGvqRJrcbCLCdfE9eeDiPYNfHF4F7vLG1Xw1bOORaoR4O6EbQ5PBjhcq4KNs6LmtX5Rlo7OWzPjQ30XWDVxW5BeLvv5n9MxX45FaATa+G5MuvUG76ur2IHOXeO9V6iaavI/GYAaJntCzYA/m0I5R5Z7ZR/4ssZM919apSMF+d9LwVs4PTCcakTEjx7ItMqajG/fMMclB9OKsI/18yD1hRcAHZNhMa7RUrK2yvo+p/JwG6CZN0fjCyTkJEPQx2a5/76VpMjhTV0ZOWkmyDqbFScynY/WwNq/Zw1seiaowRp2qcWdUNO/IH1FFxVuywySuzpvrNyWyrv1zDF5+JXiXLhkPQ8+f9ZJomedoDhf0zLVPN0KmbFpPl+KufXGWamuya/CKRb0DlEdr7zMm4TjycgrYqGt6BGFQBXqXbVTxtBEzGn3Ofz7EuJwbxKlQytAHVJGpZo61GNGZVKcbkQhzq6ehAQxsAtLaqKvXRNCEcalYVD9hJ/yf84GGtWpz1VuGuWy165d0/tt7w7Zfu8uiv54w/IfG8f/5ReJwSfN+Ov5m07Q2qblMZZdfhZdlWpRhfd9hhIRxBLHgB4LDcPDvzjBsGXyzBtB/uQBIsv9TeFvAcCj51/0aMxf9TiVb2MVp8vWdhc2c/v79+z//BQ==</t>
-  </si>
-  <si>
-    <t>Paycheck</t>
-  </si>
-  <si>
-    <t>http://google.com</t>
-  </si>
-  <si>
-    <t>data:image/png;width=32;height=32;base64,iVBORw0KGgoAAAANSUhEUgAAACAAAAAgCAYAAABzenr0AAAFIklEQVR4Ab3BfWzUhRnA8e/z/H7ctb0elypooWLryWDgXBVMEF0IwkREtzj/mSZzcRnJlrEMX/ZHmXHcbcpKiInEZMncP8w4dcl0m4tVYd2bIWPTBBs2EoYUlPBSi6Ut7d2V6z3PuniX/HI56EG6fT5CncxsNnCvu68BOoE0kORTo8BRoE9EeoE3VHWUOgjTMLPF7t4FPKCqDdTBzPLAyyLSraqHuQjhAty9ycx+DGxW1YDLYGaTwLMi8kNVzVODUIOZLXL336jqUmaAmR0QkftV9QOqCFXMbJm7v62qc6hSOnWCiT/tprj/PSY/7MdGhsEdnZ0iaE8T61xGfO16grYFVDOzQVVdJyLvEyFEmNkid9+rqnOIKJ0+yfjzzzHxzh/BnYsSIX77ahLf3kzQOp8oMxsUkdtU9QPKAsrMLOHuvaraTkRhTw+jTzzK5JF/U6/SR8covPk6wfw2wo7rqRCRhLvfkclkdmWz2UmmKGXu/iNVXUpE7pVfcG57Bi/kuVSez3H+3b9RTVVvdPcsZQFTzGwx8IKIKGWFPT2MPbeDWsL0QhruupeGOzcQv20VYXsaz+ews0NUNNzzFZKPPQEiVHP3FZlM5uVsNjsUMsXdu1Q1oKx06gRjz3ZTLZjXRvMjXcSWr6BaYuMmzr+3j3PPPE38C6tp3vQ4F6KqoZl1ARvF3VNmdlpVGygb3/k9cr/fR9SsJZ8jtW0nkkxyMZ4bR5oSTMfMciLSqu5+j6o2UOb5fuJLnid+yyAVesWVzH7qGSSZZDrSlKAeqtoEbFB3X0OED/wKAqPpzhMk7juGxJzENzehqRZmmruvCYFOInzoz1TElgwTtjUTW7ue/5HOEEgT4eMHiQo+cyuEIReydts49Xryvjirl4ZEpBVIElUcJEoaFzJTTg47VVLK/9H5SaeaAqNEzZpLlOcOM1MScaHKSAgcBa6kTJpvwIcGqDg9fJCrbJJZGlJL7w8S1HJ00Nj48zxRV6eEKv0K9BEhLXdQ8dbENTxwMk3Psb9wqf5xpES1RfMCqvSpiPQSIVd/lSIhO8Y+T/bcMgoE/PTAS3xSGKZeYwXn138vEnXtHKU1JUSJSK8Cb5hZnjJp7OBniS28VuigYqgwwiN/3cbI+XNMp1iCp347wdC4E3V3Z0iUmeVEpCfIZrMTW7duTYvIzZS1tyzld/29FG2SijOFs+z+aC8LkvNoT86nlsPDH7LlD2/zr0NpQKm4IiF0fSnOrECocPddqvpqyBQR6Tazr6tqyJR5iblsueVbPLlvJ1Gnc2d47J2f0DG7jZWtN7OguRUR4eP8J+z/+CB9Zw7hOEHbfpoGvotMtvBfm9fHaYwJFWZWFJHtTBHKSqXSDlX9PhEvHnqdne+/wOWQUpLGge/wjeWdPLwqRpSZdQdBsIUpSpmqbjWzfxLxtcVf5umVj9IUNnKpNMzx0BdP8fCqGFFm1qeqWcoCyrLZbDGTyexx9wdFJEHZ9alrubtjFUOFYY6OHseZ3vKrbqD79sdZ134rUWY2oKrrRGSQMqGKu99kZrtVdS5VTo0Psuf4Xt4dOMCRkeOcnRjBHVLxJO3J+dw097OsvWYli1uuo5qZDYjIXaraR4RQg5ktdPfXVPVGZoCZ9anq/SLST5WAGrLZ7FAmk9nl7jF3XyEiymUws6K771DVh0RkkBqEaZjZQnfvAh5U1SbqYGY54Jcisl1Vj3ARQp3MLAlscPc1QCeQBlJ8agToB/pEpFdEekRkjDr8B8RQFTbk50VaAAAAAElFTkSuQmCC</t>
-  </si>
-  <si>
-    <t>DTSTART:20190711T041700Z
-RRULE:FREQ=WEEKLY;INTERVAL=2</t>
-  </si>
-  <si>
-    <t>value</t>
-  </si>
-  <si>
-    <t>sidebarWidth</t>
-  </si>
-  <si>
-    <t>176</t>
-  </si>
-  <si>
-    <t>accountId</t>
-  </si>
-  <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>serverid</t>
-  </si>
-  <si>
-    <t>memo</t>
-  </si>
-  <si>
-    <t>balance</t>
-  </si>
-  <si>
-    <t>rrule</t>
+    <t>a020dd8555b14acc1c1101b2f7d2b8c62</t>
+  </si>
+  <si>
+    <t>rVbZruO4Ef0XI2++PZIsW8sd5MGStViLtS9WoxFoofZ9tTTof4/cnZ5kktcIBHjOEVkki2BVff3jMB4+4Y9Dd/j84/C3AYzvvvYrcPg8qP4apiAsDh+HpG+mdpd2uIBgB0nTJCX4LWyqXcrCpt61yB/9z6zyEwC1dfL7kkVj+nf09HsKsiQd3yjwB4CdPzKbUvQFFrmkue7fw7BSxkp2RL/pNaGvz72jNlD38A7Ye1Eymq2frwFKxc5mpXp9JQC0QTwejgEMyrVtGkfqV+eWuJQtMyx8XwqdGbccqgxvC/VaKHtGdiGPr1w+DMJWzO4148l1qBLLOQpLuDqP9jM6BXdHNSlqODHN0ypVysgwa8Sjk41tqDrVmQvx9wvGcFhsXug6fA2Pmp4njKCUhoELRTcbgtIbhmRAw6A271hKkpuypLL4eGZVke5ukUltqnRdV8no/Y6ftDy9jiu5hq/jjXs5yPMmPTnfXCQ5I4qHvdnKzbornuRKKIrlnVX510qHtSIebVJTOpp15UCo8Bk7dSGWGkrt0JkJjW2fQ6rxhHA54tKBiWoPznyGMDHkxcUKgiX9k7VvyqbZdiSs0sysLFM9iiwij31XK3dRgI9rnG/bxr+2FKLq52DcXRz3UylGi01TWqKRX4NVRKNFaqp4HXpZUvhp9nvfLPTUXI65uW3iRWAhC4MMnQibWS2wJV5OS4P3nU7rqTTHRVgWUeVsJ6uqRM6doOxhu1bL4K0dh9wFpzKomGwDbCh/RANSN217jtRw8DTW3LjlRdzFu8g5rGqeZDUAN2eQYC3tp6kFnLKF2nyC7ac7+NsRLAP8sB6PbWM9UVU1JrN5FWW9Ur5M9vDIB0se3GhCNKQRXzCW6PmGeqbk5a4+y7kbGk6PUf5zkqutP6I5qqoqgxI0NrborJ1ZTOwar0Su+syi9qOKytbm1iRAoYIMeyjWSWMQPCIfHbguitcqe+dAvzSGKcdymElGN12OOdacLCW4xJMg1Vl0XNerDQbH3ni84wzD8269UYpX0I0NE7AU6sIKc4MW8dqp7ZbKBZ5P3EvYmMcG0k73qqqfZvrJKvd6azbEZMpkMcfcMh18AtCFVxgmMc9A5jOtOYbrxNx1sEbjcCbdfp3zrC/PHtNS9p0prVBgGp/dBNNMzrhtSyJE8hfDB/61ezCb10qlEioyIhuhz4vGNQkpHytMoZ2Xe8h1t4SMBboPBMHjSkHCF8JAeAGGH/mZ2F66jQFGnGGRpJhUciONiALmYb4WuUDVISCXLr68WsZA9Fimu9loM1Uz7nYElcY9VYjn0YSCUE4aBlLNq4G+DE70wHNxawQlZqZ2R160EMEyBEMk6OCSenUutLhC1ZlxIuwpS55dsizZA0LD4H50H3KLZHSLnvElos/7K0b3p2NVwGZaOr57vbz7L5rM53zfPAMZ162MoBPJcicjyxV2OG5HnyakYn40JoHV5aDeeFwqbydo6+FHq4nV+Z6xcGzUSs/QTahGUTe33UppOmb6W4+N3SrolywohwnYgSqVs4BwdXiKzrhwiuEbh+eeMz5wJZl0Sz8DlRCOG3SkKdJb8FRh+CBuG25uRnmcqbgiY95/LgLreA4r8KNJ7ffTucatdEk1ZWa+7qIaHKFFcTSrlbg9eC85cCJVWjq9NbxIi6jhbrVGW3VB7mzxS3qNoR1fpsrOybv1qMX2IW8vmIpUIqY7jmUrpAOdEzb02ktecOPMFbxe5BKxAsN7pF/2UzDmrKWwzyem8APw0Fnsg+6Gk0PkIei5t5znqRH7XucMTe44cSLJwutHOzIuttnA6jDFZ3c8R4pM6wVQwlrPKd6WXoKCCsdogUlcGWbnWWbINDWXzrs987u7xyX9rGvJpRgjNXZt1ea8ht73U3eQIRnmxbly+35x9loVZF3iOYu6K5OtlbUMmIjjyM1OYb0oqI7xvdzT6ni+phcLMYLuyT0vZyHMhhKxc/Sqay0qS9dyCNUQ0WigUaVA+InZUFDLtGzEgEIv8ltPUIS+R7GguMC2/yPzMSVrFsakVTS9p9W6GcHwM+n6VTPVe26+wHuu9sPwJ3v/Cf0RJE2//mR9P5XgncL/Efp77n4jvywPn7FfDuDjEIC46Xf167fdSjyC/icMwLgAUL/J949D02eJ0o5ZUw/v+XEP9uIA+TjskWH0+/eyJxghv8D4FxgxkdMnDO/tNxiGvXcpUO9WZ39fEnmb+j+Y2SuOYvhZpPzr2PVUlh+HHWblLzJuWfQLB+texrTN8G9eNfWY/heN/N1lX5H36df6P5Qfwgr8/gf9NWV3T1E3f+V/GVD/j5I209u9yOmHxSqrp/Htefjbzx3uJVP0JwX+8OMy3nO/734b0ma5RrNfhyD68/KGph+VPnqP+4J8//792z8B</t>
+  </si>
+  <si>
+    <t>google.com</t>
+  </si>
+  <si>
+    <t>DTSTART:20190701T120000Z
+RRULE:FREQ=MONTHLY;INTERVAL=1</t>
   </si>
 </sst>
 </file>
@@ -1193,15 +1193,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1236,33 +1236,36 @@
         <v>80</v>
       </c>
       <c r="L1" t="s">
-        <v>108</v>
+        <v>81</v>
       </c>
       <c r="M1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D2" t="s">
         <v>82</v>
       </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" t="s">
         <v>83</v>
       </c>
-      <c r="D2" t="s">
+      <c r="G2" t="s">
         <v>84</v>
-      </c>
-      <c r="E2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" t="s">
-        <v>85</v>
-      </c>
-      <c r="G2" t="s">
-        <v>86</v>
       </c>
       <c r="H2" t="s">
         <v>19</v>
@@ -1276,34 +1279,37 @@
       <c r="K2" t="s">
         <v>19</v>
       </c>
-      <c r="L2" t="s">
-        <v>87</v>
-      </c>
-      <c r="M2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L2" t="b">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>-1</v>
+      </c>
+      <c r="N2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="D3" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="E3" t="s">
         <v>19</v>
       </c>
       <c r="F3" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="G3" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="H3" t="s">
         <v>19</v>
@@ -1317,34 +1323,37 @@
       <c r="K3" t="s">
         <v>19</v>
       </c>
-      <c r="L3" t="s">
-        <v>93</v>
-      </c>
-      <c r="M3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L3" t="b">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>-1</v>
+      </c>
+      <c r="N3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="D4" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="E4" t="s">
         <v>19</v>
       </c>
       <c r="F4" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="G4" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="H4" t="s">
         <v>19</v>
@@ -1358,18 +1367,18 @@
       <c r="K4" t="s">
         <v>19</v>
       </c>
-      <c r="L4" t="s">
-        <v>99</v>
-      </c>
-      <c r="M4" t="b">
-        <v>0</v>
+      <c r="L4" t="b">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>-1</v>
+      </c>
+      <c r="N4" t="s">
+        <v>108</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <ignoredErrors>
-    <ignoredError sqref="A2:M4 A1:K1 M1" numberStoredAsText="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>
 
@@ -1452,15 +1461,15 @@
         <v>10</v>
       </c>
       <c r="B1" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="B2" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -1490,16 +1499,16 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="E1" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="F1" t="s">
         <v>79</v>
       </c>
       <c r="G1" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="H1" t="s">
         <v>6</v>
@@ -1508,13 +1517,13 @@
         <v>4</v>
       </c>
       <c r="J1" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="K1" t="s">
         <v>78</v>
       </c>
       <c r="L1" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>

--- a/packages/storybook/stories/data/normal.xlsx
+++ b/packages/storybook/stories/data/normal.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="20100" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="20100"/>
   </bookViews>
   <sheets>
     <sheet name="accounts" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="107">
   <si>
     <t>id</t>
   </si>
@@ -123,37 +123,7 @@
     <t>654</t>
   </si>
   <si>
-    <t>a7bddb0ba8e09068955d1f9f99fc41e40</t>
-  </si>
-  <si>
-    <t>jJtXj8Nalp3/inHHb2yDOfXADyTFnMQc/MQo5pwH/d+Ht2e6YRsD2PVQYh1S0uE5e6/1LaH0v/7tj+2Pv0J/+WP+46//9sd/X4vtz8ch6Ys//voHVyVr8d+4pcjr7Y+//LHd099Hbf4juxxjf96xbOzG5R38l5LMUIR8R4a9T4s/h0iKxhH0HTnqtU6796nbshd/+WMZ960efu8V77m2uP/jYB2XzVzyP5/5P+C//e1vf/n7xGAcp0gUIQgUg/H/nOR/TO4fk/0jWfPyj7/9cyb/HP+XosQSFPvz1H9M/J9nOInnVNkQ/zz1j9n+8+Sfg3U2Dv/bUJ5syV/rPvkV4DT8/vWs8636nyjyr1VR/6rtz6P0XScC+0vts6Z9Qqr4G5n3x3C8ivd+7xH355/Mj2Oi94F9imGB3gNBbjve8m2MSVG2DB6vsgeGKsAHlMhsS6Giu6dxDLTlDj6/kPV1XoDks7X57WnA3omfzB6UbuH1EIylPpSyNJvUWh74WB+yL3ViedZBPbb5UY6kcvB1WXZF+DHyui/r1IS3kTniEw/63Yc6BCUZJ3iRKF2cG7JrNQbu2AmKNUceak3bHSnWHnmaL0Ye9aXAM3+Nq2tfgdww4aty8yd32eerMfetOUsyS7vVVMx203d2AR/xCuDoo0Vi4p6aXlOt4T+++fFkM9ZCDUWJZvb6hOltyGrLzactc+aEUE+VnjwIZM6IyjGHgKtdcJuWBvw6EUjquVitfD7EUJ3wlEvAl1iaMPFbIsH/mI/l+7lyawd/C3xvtHVOA8s8mLKqQMBdNs/zSNdTgewQrY4ckmRSaSXaPpY5UaN+rV6bbx5tfVVmXXTNlPYjWRK3tSv3BBr3eVRcEUCPAB2bysbj2xJneSLnSC6zzdmVdpRt1rV5HzyI1/eqGO5gbfihN/Hk5JeZiJNsDba77xQPKgFoStuu7x/5N1tjS3Af8bwoWZVVMRC+LqJ/0+ITrBpkVcu+T4VoPpl1IJAfhWvyAMW5QoZnGM8jxOr3a/G1L31RIe50fPdXo1k9fQ3zHbbgUb0g4mc3Dxq7WtyE9qE3YeYEC8Em0a73zwKgDfr9fnmU4ohtQg8LEwh1HuMOZuxDQH2jz7vJF+9fioItnS1gadPOqsRUswXQ0LbXrcdYauOj4+qlntWaM+840BAj4pkpXu6KNtQ5cN+MX6yB/0jkLDpOHH8Wp1OZYt5GPhVYNIRM/gOeKjN/p6fSW7LZxUt5eOMpqtmO+37ZDy4STHl4xgd2+e53ulvjuQG5FyAumTz/c7FCl2prBLJ752W7uPNtxehwuY+mXjos5ifWl/nOyxR+TIRHcd0fRvq+poK0hDtJkTCzwT/xpHVmZuqw7mSJpDrML2MTonWV6TjlTJw/P7pUuCVVlFjsFI08KQeWFAgyGox6LtsnCl49IJVm+UoLc4vKU95wr1Nv0e+a0udc4tfEO7Bd6tx8OFP9tRzZz8HOkSuTigAXTDP9N/Lg12Uc9HJENS6iMxxglDr4Idwk1YMVz1EcleJSvIqHRplIkx1qB6H8vf5F8+88awNEs1QGQkOf4JqbUIw8cw57uxh9W8frC5+fuFKOF/1dv3x3o0N+Ygfe7qfLQYQWRMSpG1NYgQdIOEprD2N0KWLo1u9HIrXug4DPAhmTpfaYXAtQ6QzmwnNj9s3z+Zjmm7Vswk2ehdjmW7Hx1wnWvfDTr9YdCiwOGZJjpIKU0EckmzjYDNL87bZnY8WXUoAHBDiWjk+yMnkpLadRPMZN3w627OlSSqJTEYI4EBRpc9l3f+bQ+XQh/a34QxrmfCgA8DQDy5s08RXvsymC/Kudsz05cW7l7Cp7kzP1c9oET3lp15b5Jb73fkPLnjGok6E/F8TmX6rkZlEQengu5iAbuXvR4vQjundxXfSZCwovxXTSLXu6NYJnClFEmNJaxOihLun8Iek1j2EUW7wgQkZ1WWzRsfRZVHeabuNl83MH990R+q57iYUblps6Z7eFmQ12w0q+dikmqgD5CdGkuR5B1NXwvo/4HH+iRg5fXbIx2/rh7ZZ/y9D/+mI8cu98hhl0NMfFA0Z850sKTN/SQ0c2AhrefH333rkSKknCH7+C7LZlZz6Jm9gayoOpcA920jkSIxxTsnrtYL9BGduaUF1jujX7ZrDFFRbbKVTyc0cWnPhJyPmitdvms1AsZb8qlrY45Cd/dz6+E9zW2a2e4/74v72dhBCEov5rb/8/AOS/8vgMwzCc/v/1bBiC/mHaBPz/NG0Ae38pA8fIfzq46E648aeJvzfzd9MezJtOcnZHfK+g5wt+hn5IyapBL9ITO1azWvkjtNHNNz85ahjROu1oqiwrbzVVGWKOrdRhFlyqAhyphZa64sfZun2zc3asXmXzd/P6Uv3clmflQEh4RT5FWG18NM0PFKAB6NnzlS7VBkXEI6NwAEW/QJKSZVqWE0KW36OgAOCm6eVBVjoveiJ11fAe57Ee1bF3stpiWoW/NHnF7lu+NLFttesp0HjNyQaNEJwqSlDEtXtgLdnh7fcWuB/bM+OrUWzw6uPY9mpDTSCs2N7K1kzL8HF4z+zkC4HO/FRLdayZqQ1e9EOxmMFaYGXuZATmMCqZE0hRwUffuvtIiMbQ6NjAr9WTCZmaEndFXn9xgq+HJrO6n2J2wt++7duCL5SBm1Em+X2Gb9Sb49fbbO38eLVXjFotLgBweXttyrzyvgnvrJUw7pX2IIwazXK+IjAHWTg8pAGmpfGh6EZMwIePY35qDewyTH07JvqMnUtb4cWt19ERkQ6zZj8/fCLVGm9iHjmI/8z1ZF7fOK7B2DOktZe7NSQLv2dP3pbrSOCxfgbTbW1hzDcAxmRWFLCjBS9F7NOZqFo2auwKMc8R+ToXl3QvIZcqMZhApOZsPPfE1PoTp1+SbT+fiZc0oxZcEjUv7uWk9Bmffd2p6t0lzmq1xjuZdzsfumwlPkopf/hAPezdSEuvdAl9zvnY2JXHqv0XUwC9Y7dYYH1on2MEng5To3EzMef6EzZVJTVw3zf0HOJonzxt18emCJT5PKuSyP+5RQqj6twEbJNmE0zNQPzpkw0t5deBzVkMZLQOZ52axt4NLydEePe3WwO2nloGW4ncpwE/T+zBLhatv3VAQlq2KfODgUI6UH9zb7/Pi22RMOekltmL57SDWKdwnDh2nz4JzX/vb6x+1iVSloj0kNbXCUS31T4R4+Dn/ZqJ9pFhDKcPYxmW7O5R1gze+lGkyY9/0zlcUf9s+vRoIzN1ntOXKtplZfLRf/XsDaWSvTWljgWlYOrYhXOAkTmF5YGzQP20E1VoF5ub6NAPS0FG3F5G77DSP9l+DTZddf2tqGGVqb5yvF2/seK49tUCneONqMrbc93DK8oUma8t+wFS0iDI7TI+zVEM9c+9EQAfXwRDYBIllx3AeZ6GwGPqMp0qNTSXdn36suSWcrH+4DqvSReVwX1yFgNdGCrbOm0feNrwi0nr2bULo2hQCcHj89Kti2J60JBSjYSqPXvTpx3XBR581LsOgerXY6D8GbGIacuAevUl05lbZjJVlpznyWU8Jbgh5hLlzue+j2IUoLO130RvebtO9m15l8zc/YV1F8N3MQ5NhvHNHy+dRPXmmZ8nRtNRRIb5fR+CWgrPrL3vZyudHMP7ZziTUZTPt66tHXZ99AdlmaXNXx8nQNWLmAATzU+mqVCykrOfkau+bXsIVNS1l3O584e7snhWxyi4Y2NldfZE3ZyFfKvcz+XcMmAipfqwexHy5b5T96zoJzbFei6C7rgPt7mwjxRvgAoI/3sT97lLN5iKtn4pCXKzUwIc2idNkvpQo5T1UAB+wiH38SLh5jzR9k0TJNdrz3nxQutNd/ABS4zhr76jzPNXNej5RSk6F0M5bx1udjrGj71kp14wNU/zaLIit0UU4wQrqOI1SBwPRKjpsc9kyw2gBrHUo6k4aZM6Wu0bcOJATsVsYuCC7z5qSE2cZ0RGvcXm8upHh+9iE5p8wLQB8qXHbhX05PmppF14go8rMtqzHhxM5JaAK/8up2m0greFwJZi0JMb/qvyUQanrnEQPpUfcuNKXQZ3/OG7rdoBCKszzId3hI+kCBAevebAP3IqPzuc71Hp/9hshn/ukhyP69Wpsh7hiZ+ehtNRcvy22BMiUZ0b4C3yEJc7fieaPIQh6xZ8vw3bRa1YHgqnvNQ272Fo1ckcAbx+8e92EuNe1UvtrCoj4Q7/dE50jqINc9N9+1pgplpT+Xjif+DwV9WXzEHGRkGQ6PHpeIVF7ATyYi1ivop938PXTAFpNqomHtmZZ6uTyukBC5B5bgZOq01bjUueO8nPh30xkjbyyelYyurrSrU/nJ2OBGST9rOJj16Ghbml6JHCJPjMNH67Xn73Mjwlz5N9p3PHQN5atCgKYBt/54xYVctcVE//wF1TeXj/LABGA2cJfsXheGNYDa337GC6Fbe6dSuOpbQ6zOH6/RaqMUYF591quLdQvfCyalUgbEcFbdsbcy+9x6m3em21X0kI4WCkQ3Hzt+nfVAJJxz6fw4LnCtr/xjCK21FrVxsd9xOfXeGEyXGiF/jHGoSiIoR5f5+amP0UJjTZiwN6cm088GjptqMdCFFBcOvTQRRKmTMMMAFiolo7Sxh63SBJVrCJIwz5/maqOKlJXnCzoKMsdtMCoy4d54Hc9GqLeuVTtjjT0UV3lIF+/jGu6hbCDrWmGV/XOfVTjuMcpz3ZYMCWW3Sj+QY23f92FMpQC/02cBI8/f55G/CDg57n8o/+AFSvC4zD1/Oi1GXhK4FY51M87e1Ntg11tD4z77AgRV7ScHGQNNb6W3XSNqvug5smQD8ZhxjF2yExlvsuDj6Qrd9TVP3kuY7GjYJzoGeoT3V1jl/JjzKhVVCbafJawd6w4qIe9fJtM+0B1mVTtlBTKJV0URBSt8uzbT1+CDJJMKZORnVPV9UXf2D4tcudyLvOIeS5Ymzbvq5LiA3P9j5+tijJyQVlHdV4eG9eFcvLXIVJB1zP8S5Y+Y3XekpjTF9K5Pt4Y5U/x2o2sfZtDJYyPoneEYVUOUup/wBEYx168m1QMEa/3qXcZE7tZxr4STwMuxLgd+LnlAThLXaTRDCW1AwdgWf5wsq++NrmPrXTaSd2ePN5E1GVGetaeoDVB4sl/56pPjfWxfOj1xAKrQNU/7ySz3yDiHq82SPQmXjEUEo5+QyIyNQPOFlpXo1phLTvzuUwYU4mLuW3iU0XXZ9IEe9RJBgj8oGwpclrHQWgg5xfUJiSRZY9Vp9/LMs5ttZT5lpLX5vk42vct9W6nfzTBF6s5Qd4ZI+9u5hTqTj5/ZzgsONGdO629KX1bqQWAj3K3chhDAy55JOLVrBpBpnh2I7h9SYuxr17cV0LQOEm1Kvq7gNdOQDAegkWEAgw78xEq+6t5Wujsalbk81MRjAxDja6TfIJRY0K66VkiG19q98i28J2xXMZo5QhhxIZ4+V8mMkqzqSjmh3jRu8nt+oZV3b+6edGOG4ShotJZ+Y0ATRcFCDPD1PICwXNNFDTakeO7D5OEtrcKlUEf7yuIN3aspcgMJ2pGUhKXDZv9vAxgXQeQFZRmgjh6/N462kY3SSVQVFnKzvHt58vHDkgPb4OXfJJxNu48C05t40au0ijxZ8j91qHhA4bGqFc4/yodraSUzYk19dikSfi76OLuyajygsjxHAMzhRsXshl/doxLg01L30r3HJJxfxiUWM/NrB8AZUvc74II7YkxPXf3cKDWcH51vteeOWE80/Ds5/KqKFbwnPitPSl26zLRkSSUsuqLuMx5UJErQfgJyFcvppv5cla8W+psN14EULkQ/w8+6OemXgWqn3sLaIYqas+2/OHQj1BV7e9sjsCGndHyWAtK3tCV+Odxrvj9KOvLhC7uu5vWQmOEAqL5indqzLxnyq2flou7vlWgz1pndvwjhpxvvWyiqqzZRpRFVdKewxYxwd1fdbxVr0ZOCY6a9av45tBPBuMJWoctMFqVgL7UcMne3ODPjWa96FmH5mL1e1PoU4/PqAmN6iIL0zf4FXsre3fqb+mzVruCrIvwbwFG/IZIEc699zU6jJiQ62PUNFwPftWohNg7vXEP5Zts1KJXYu+pEOPZfNis1OXlkjlkWp+GArz8YydcpAL6Awldg2HxP2XeJMfelJLzNsi4y2cXD0/FJBXel24UIALAzwhZyD5N9FJ6c5XksEt0U+SwGJ++VD3uKRD8vh5OleWHc7HoVy7SN5gf63Z28an9+56SVB2K8SbzmggX6YfBR6Se0ZNbLx8rI91UGo/sFuVxqXI9xJBZ8MvGPr4UE+Be8tKtnuqnR0x4AsKpwSCH0UyNMmOBVdiKVDiFzTjh7xuh6bw5WXRHnS/c/LcAkNJ3I2Y/P5mby/q8jfKt4vv5k/urVxszW4miHPpG8/5LBQtY3kd7Mjsa33SuCvE8fy7DIMO/zoqnKV1cpQ6m+b1W1EQu3iFN8McC26rQrkEk6yuBmszQcfmptbUYCK7cdRqZNoAXrrPj1uOu9D1RIimzPdxvgp8aHklOQ17XMWIQb/JYCHKYAoiU5lK7+mXarnqH42ZluiRYacfWyibpCbcgG9MNADMyi/8oClrpNKGYA7Bc9Ux1lslm6bI0Qps4q/YXUa8jnykFfl64OFxd9Ic5qf145XS9iJ1PNl5oPM3xZGf3Qd4+W6mUsdtMk2DmUCUuVEvwOdw/uCpvNzmhiuvK6I8L+0EdwLVURydRBjCIYuvnaztUDv0edvnNw32WVUgu5VK5WxOXoUjvNwnqkj44YZMW5W+ezqjn8O9giMqVvjtTdj+8Ves9rCZLGr0vZN4H9fPYehU3UU/2HuJ6XlqWOsu77P5wLBV+ZGSu9cCEVhzk378zuUYXyqIamIIYVuvf2rrNmWgN9teIOLR14BCtaaMvFlXyQesRr5H5ot7adXySDLoGkWM6Th4uCpXkTybb0156z6ak6BgnC2qbmf5lCBKatlqnElXJI5Ju2wJ8NNXTbf9a/Z1WxDsFFcZQqAuGm+wrTQbIawKXnrq+WeysTf/HIjasCVfT0jA7SJT9jd+8s5ul9ibOdPKueSBpJREZEQSuHkzKiQ0+cYg6/1ULB5WqzmP0ArQPE6y7cYI7To/W5Ow9Zn8cHcKYLersfByPOXOcGLLCnqVskVU3/hw75QGIXsw9+wIu7gneKyQmq4DPzUFS61Eg39+3hPIVc+fagC2QsFOlzHWjaKmHxZdP9Mq/FZWL794mpXFROyLmVo/IIqxo9M9n0pTNSUdtJHRwY0IkN4akF4iyhiqS9rBb5w1atZ8ZV8HmpNiORzo2Zqxjz+5CSumjxF2Z6GQxQFmB/mAZK+gJFjfAKgZxSGdhBTig3GQF6jzgFvnl57o1+UqN0oHSnqv27wCR9CMhnWe6h1/cA/NmiBV/CsAbCPRBjRIbmuu3YxB7I3rm0XnrHlGQ7SoLZrwBtTnWbrpb21OJc3fEWcnZ5lHcWH3UqMSLCEvkEdKDmM2TvQZYy96b1nmmDzjOhyMq1Un6mGttlBEVYGKXMi9LqJ1w9/sykBBIrWVxx713CCW+JxH+xFT5FEASVpRXtwWx+fm7xXF4TElOeoGXYmJGkj6pVgg+1YB8D2K5iaC4rWH+EoKKZsQbE7UCpjncjwRkx5zF5uERrmOlPY6R4lgjw67yAhEyi0oZJJ7qIMW7+Z2NAUqAA/BFqCvbT8RETVOuOTg8XaBrLe+8y82jzhM/b2meXvWxPgOFwMjy/jS0uH5LL7WTMh3hfx4erurpRcymdAe3Izn24naaODbTEJYeQ5bp9oNgkANTREI7Fa5jfuo4V5D5Oh7lIuObdFLmoZaNd0SLI6NyoNcRjVV177ENG1a9QaChdSeuwim/JPJo3/LKnhX34ZlzLLbNHx7pR8si4D5fUHg9A4SxhBoIxxiPoRvDycYzHBZlbhPW4QCWuZlEnLS4OQ3zAKvDnbzrCQOnkzl+P1sBLmlAZRsx5QAxIhLhRD252R6mBivzTC7Sku/neIBAO4fBeAj0UV9lULCKDR6TcJS95+FKGItKQZjGHkbk6/pYaDcf8tvqx2gIQ3gwR3DsKufqZjEGMVfIZpmnWzH23w8gm9j84pqc71l+oukU8wqd7WH7Bcrn53UZqRHAvT0+2QZxd+mIUu4KNw3QtY0Uqb+ksjgJyAe4mWw/RW8VrBXGL0cRVAlqXTy0rZTeG+m18cqYks2v1c2kRMsS0sQcQsTZy99yi/hsdjNc/gtsuK5tjcUOZYG417PpwjJdEDY3m+q/Qxg4x6Rl5skX9D1vbeatw3uAi123DCSFnv15Sngbo8hJKYYEYPkiYLGnZ22tgahFE9OjzP3w7YkazdBvugzRzOCFktyYN+u8JfWiLVhyisuoyckKAARHvTsSU8v9R5rTBE8xDv4RzJLg8siHjqFi2j3e4kNLrbxLCzuDasOtYBL0ooAzGrvLdu2Wcvvw1TvCtaHOyNi0OlKAqG2qh19T6fo8kvL7yxK4gj208NB2M6MxlPMM6jsX1nL3NmgJPvn3oMzX1FiDKcg7yAsq894PJvtS+d2OQm35sfASu0+fnZzfxocb2PD2vuj5Z1C1mkGSerMcqPVhGqV8/N7GsRd9fey1brnOoMqteCs4ZhCbFK52q1dsaaKQgheJdVj0A3fGW3hclNzSPbO2VamdqxEJNurk67MgYofzJITSANV0W8wicbftBF63tfUjpoY0RDWfRhA/EqRz5Gj9hIEiK7InHVtnyyzVV+xvVG3taYDCmzDR+AxUBok7S8IZgIGSDpK0rlx6FUuQ3rJMxJn1B53OzUX2jemMrtu8AUWb7s6WvsrAgJtvK1fBPFw5cUvY9+Jw+LyVuyZqh1OzDbrf0I5PtJkpoMyNt3UmAlm/voaQ9ZS/3Pmdt7mXBZUbA7pSPgln3c5NDeL1f1VUrCuPLd9qAmGzemwpeGTbv5xT8BGkhxmcczl7Goyd80r18HL3rCqOR/+5wx31JZ3NOFQt/f5/BM+SYvPJDV3Vg7D6wl/Ny2dgLoulrmZvgCFNjWco+BFSkNQFhCmMY+BFMIb+Mb12cDCpeXiBb0LpIBA2O1VT3MQZgxkI7VEvweX0qLLRJmscX35u+iPOVIOEJY0cwww8vRxs1f5ykmfauP2jKcTMLAkPTwY/cJPiFqGYm6leM/xMneEewuz1KIplEpV4547sSk9etmI1MAnop56H0D2i06Lkgz0ooSAQPXfvD7tO2RHSoDwuXxzTo3hCvB9StprFTXL9g++5/TqJ7b+ge3K9A8MwMCBaOvugWIOdJ47rxvjNnopA1x4hm52JqxkAGuV4XEsM/NMxfdkzAap0Np8hyrVMBRSz7/MT0dn6tBMb/B/jh4oPR+0GYSeSAGSQA3TGDgeR6F/4SnranZ9oxakCPQdyQbnqy34w6SFyjAfzL7lWZZ7H+JNVgwYepBqZvfKt4J7mZhcu3JrLVXOfqU+bbRsZ5WUH4tLcyNuGd8PyLgwFDa9oc3nZFQQjLF/5tGXIUJQWfTpVWljEnC2/dXW/FbpC8OKgktTgkUuvtApac9buD9iRPOifPJpI+qRXwANyNWTHtCa2KdnqI5OHVHrxabnCq/8wWFGYccsO01dUJMOZ+TXNVVZV3YHR2ZXsOTJPcqpBViuSaeokgLNeVFTkvFUhe/Y8tbtsKxo7kk1QE2JH/bSGAREvDe9wwRqd8OvLMAhualpVCvhjbSAMTGygvc+qD6tnKni2XQntDGGPw6jRc8qnc+oUG9fckms2wSlZhqRCiZjJ0j33UgVOu1JU1obWCIB+OMSDwgMBPW2Rt/8ymLrD4nIssZkIuv19KQ9tzQG+miu9AQ7HUQNY4POFG92KeGmv7X4i28wFzpWUfILrzNqSOhgnL4OSTrswAn7IWUfU8F9pAXJivPTg3TOSuS6VV0eVPQoElfKicTvMkoW+kFrLhPzhnTLUrA64rEiwAxXIvi0TVcuALSa6Uh+XRdRVUE0PZq9jC1f6U0r0q8b0RFfXA+rtdCYeZQqUUAbhkfDETBIuu+OuZ2c43ObDRT0ZHgdn9BLT2ADlceElqAU0nI3hE3iyK73+S1qez+iETkystpckAWx2kJPOMfUUDZHxm5HQg2+oLvB94yR/pNWqbO7vAv6v6YmtKjd0iGiiJVwF+GukLhGUv9j9J4zGkPCw5on5W/LwJY6M2pqi19KMS9EzEG8CF+WbRx9yPGg7qH5klA4AYaZ7sFvJyVI+xEhqliMRb31zfKEgdw06ZZ8NwX5W59X5hFg+nGwupi+yLrc4H2TnBzioUJBqQNUV2EZmd4kC8KFdG8uQY91U9wappp8oO5DFoChXfAqEDnf0CWclh09YmV5fXg4iBsiyPL7CwGFQZPfQNnmG+NqJd2QoJ/DASNRNfIeFQjqheyYLanuF2vzO7PnvQTKtQxHysASxJunRUleLl4zhyuewd5ctDMbbgJgQk18b1eb3KOhoo67hHiZq05SwuyD5iIzNnTWMxjGuZ8hpNLSWJZbPRpx2FH1trK2Cc3GDfLvQ723YcUhMjGu58sEH5T11THYgoKgk938eWOC5jjnaXDokt1go4QEvyoEt3OdTmtN+txc1RociOh86vPRxKRm/z7dOeEymI7YYKfDZw47UCEapaFDjdpUxemzjnaTOvW+kU63+YG+/P74QNx6xxH8IsBP7cCQLUYxu0HNjXRHD42GH5newkBfazXWNEXGRI8QS1JDFxl3zIiQHS5E8xeWPcPXWVdoDPlCtoakoUMqgbgvLxwNvx+2SUX0u+I9E2FQhhBaNqs6Bf6uw/o0uGd60GMw39QBfS4FiIynTj9+825d/XyoHvMvbHoJZp20ad0HGNadG/HZCT6/H1PlgkycWAPXl8+QMs7WztAPfP5mQxgQt2OveiRnplicZVJpe1/aKG1MLxcLzCFQvDEvTHRxYIxGxbV7kPALOyLxNYgC+WEcsogEhvjNmxj0lcLl/LxJA50P09iPNDKn70w++6xAoNieF0GzVC6FM3iIc2MsEHQdaj9EKGkfv6NShjGAL0xyayevL7IUQp++kmHf/BagiP33XNpGv3EBzTaWXO+OuFNLxwVFpBdK3ZClNLuVQRYBX0YN+d545gc4ilINjnY0mg4dRC5w7sgQQNB59msYow3uoSNnI1dQjrTc+8vPJ8rmAv4oa2N4+XvLQzMrzHsn3s/ogLzUdKCcnLSnG+IFshS7Q0pBPZ+jvaiuzNjqnD0hysSNh+fEDklq+vXZP4HSviiomrEqPA0JomYBAEeSRr+420szsyYvzEg7w9bE+D5aX4IEHD7x9wvCtzE+I3CItJLGiBXLLCvwiC3HfsWxq6UEa7Ou97wec9vCnuBXl2ukOTpDvuWK7k5ShKagWtaFrDUizVi/eJ0/mIgLfDDRq7MEwhaQ9n7Jywcafc+PjkuQIFT5YpNtA4m92ulZsvyM+UyRrE6PeFthDostk0d+JLvkV22C8F5TXRTl76t2w/JWikztMV4grmZ8qao0YWdmp+yCeqTehnpd+wi2LRcdaME6xQhF3gQ+Lho8AgQb3OhHOhG/L/FSS35klbq0T6ZkVpB14R+45S4RHvxgBG1gCKB0HFko+jChaZNlUI/S+tVlrERn9FZp4+LolgRIiTDRTE5KKZIhUt+GXor6bYeePGQDnCRgFSfoaVjTtYa+SuwFxfb8sDyWUrWFHxFZtlShXJWGneF50Y0GrIkLAAZVxHLLlcGxBh/09RzbQQrddxzOaMR5hhDfYT1Od8epCGfSpcvErumMtUR+HWAkZyIsmmsricU1LWADsm5DH1mGNfWDXNwQnHyafzZf28WPDP46aGCZD8+sGRbJczJHcaLxN5YJSLVJzFqYAP6zAOCmRm32aq6al178lvq4GurXI7t900hAHXSuIJfw9sRlUNBdSZo2vwGMZq6e0QuwHN4gDSzHV0CkQYqgoujG3288TaeIFpMGO2xAjXKjHNPRdcHvCRnnfyC0Yr1956hwlm5t0jIrfPg1ib39zSOLE9MgAitr9NOHqerqTUHvs+GyQ5uy8mVL4UcNJhUwlHsZpp73uBmbXfBTCtmxdD14eBO/bMHiJ3WklqPg9kVZD/dKfS7E395Lbi0Ofe96wDAy3ZYHtmkgcHFfAF9d4A9fSYX7xOZygp+wDeqDglTQMIlFQWXb83nM+CCyZaTCDYkfJRbTB30OiujYEB63lrS30VmP2P/d/YSrbfHGCD0/5wnLrtcmYJpkHcBqOFALauxXfpvMS+F06jYyigenVR4MpwaoytNDRvL18WWtRB9oj0msk12yRKqhVRs5CY9zE04JHgBIjJaQkAECbMFkH8Q1jqOE3vY6y9MKpi3H92uOGZj3tYslRhutGwwxCdxBo9kNiy+uXeoL6H6xiyK28TpR59l7tBX0mxOftEajmkWuZ0Gf+hLjlbUYaA5WpDopinzjJujAJA6oUCsZjdwlqnxINAWGPN6IAermnXNTP9bBdx+LMRDHH5Jaw50q3zoVJzPBy1uOXsnkbIuNuJueAShM63eui5dwS8DCa7/qZrEj39rH66YL0WFOXQ1f6JUDQtIVb967RTCY+VzvuzUW4MKqeG/jhRkEmsQjx9jewXuHqM5h6wmRFnuHvEaei82X24XR3CpUy+hXFdCmG3AAOw1P3EIKkRhyCCWDJ0CPstjPx9b+Ij+Z+xTt2mScABbIZlJGFbjLl+TFfugb2rjzqnkOdKfevYRY1piHB8Aw1KeN5RL//h9EaoeUD7yWJZ6JxDFfad+X22JCMTRT4FZVl0CDQPjReK0QCTScviqsQ89dP3krUk8GI4AfpvaawaYhWe9STdlDB5c402Bb7/RShpgJ7AM2wNu5PMRdVpvzAGACLwXFldRQIEu0zO2psaiQFQW7WEUlTsjnMiCF0JwcbOFdDMbMgOMYoDzRT1uuiDtlWz7fgcR3VIYDkr/CGV0lrYDeeC1vS39NiunyEHXtjkR2W+uaT6ei3rOtuAKfTc/t3Q4FBf9di16iNTITEs+20vjdfbpnXS14224DVpHJNPAKhArdt0lY8s5HFetaRzuHfQrmUSm/q+VQI5WE1IAPzqxE++WTTIMG5qHhHDDKFv0+5R8xJGPkeHuStClkFLPb/qSKIMvV/Tkle+3GcirFYpSHoXdOCvnKIOZRALAptEjBYt2PTB33Ox6pD+wrAUrd1sbN6KUYlLi0J7G7XFHvoGebQQuayjQJspZ4B7ZubNKdN3zj1c8kP0RFLZ9iXJ7jM8ddIX4+pcDVGeibvFnEX5C2ruzvX0JxPJv1ZVOzAJN5vOGilKMGlu0GkOM5QvEqLmH4qZxaeANGYwUPjrOaAw4Ei4Nf5C241WogWEKH+ikTRKQaF2aQNaG/jyJ4HO7M5LNGqPy7Saj4Rmhgf1sHBWR/iLmFahJGztUokU7IQcuaca0+iuLx4rT+LCVgyKQXIIOnsrJ0/TAAmLaHFnue7tZi26glKVY/DbQ7wsHS8LuQ8haOkBDIZnRkRVz8OHTJdXgB/XrCvxyC/rBl3ZoL7aWPtqefT4aqtDh0tJq6ondkDy6xqOcpxi7FdMR0h3KL1kIa3HT1YxBjjLTjysUotI0DgA7gM773PCF0O07zYmjgLAOgVntLJ9jc3hl/PhdHWMoME9Ne5aCSfwKCMNdymfczLUYqPZC+RHlqQTNyTPrUwSb49C+NnrSsyqpZfyme8uaqT0UIwDVY9If1qwqAtHXOA8/i0vmvbRsGnRL6ko/hFHsOPwLJrmLta8hvOMfhqeTHeuRn8APwn8Lwjxc7dn4HM8dVg6sCPpnWnQpJpFGKyb+cQHvH8BkBTN5GGaO0sBaelcdXrMYoXvTpBLGgfYI9Zh2JL+X1NYfTPNebftcpRzjeoMhr0Q8yNG/B8z9W68iWI68+BtSIyTry7DSh7hLXNVaJbmjucPwoPB9+J7RzP1DxwBW36gZcMUGYucp8k5ti2uFt+o+YDQpW8dtn5QhDi52cR9JnYI6BlnziOlqatXEBTS2qx9YVun9FjCRnyLvWvWQrnwwzlEuVN95XM8d+BK4gVlYRlWmsYSDAp4JOvh42Nq9QF3ROqMwR2MFEfsOXCtFgdNhEscexAiCA/Wm2yh5UH2eED1XHDq2eU2igX/Ju1p7sqpqIc5Lc2u4baomerhkVmgVPXmxXH8ugKaurpvhxvcWMNg1yiYiPnvjhc1qAMrxKBipG4YqNhA8YdJioHKCMscVOnVa0wxsZ1G7SI5nWaORRsu3iA8CbdjrUVBTn5vwe1OlQUnD+oRVsLuIRzGp907DbpYl4PUOHxgQPT1S28FcTPoRilqBlDV3MGLYDQEjNRItCbHWEBkC8tWBoxOvo3eRwQSRXK8LCIipXTELySQJqGD0KPk5cN0151anzYxQ61Fje1Ss/uTWcKFWwbW3sF20N3YjmulYhUdadsgBI4PdLZLvvxGYrio+bRpGsG8ZW/d5aQBDzQ3lcUzy8yz+iHOmdHDMNj63VxvdZX5v6fCsW00TjabfZFICHAVKjqlQwf8NTx8JGAGO/KE21D8tOWTy6eiq79sHsr75ZyXCKS0pOXwFikeFt20jKTLyXEuhyepPGl0QBcfNyOudD9z1932zXbXfqaUIQBQmoi482oCbfV7DgNfR5MykZfob014QudDw3hH2qanugc7MispTcIIAL8nFFRedrgPdwgju3lvXG1xjoFP/ek6PwY/ymYbmXa/E8+x8i/siBiK935wbHYayfO7UKFGkTpDNtRFlNL0FMQ0Qx9IuHygikzoU/nUJKfaubuqeLjgYZS/OfazpU/JovCFgqn+flNQojQShKLbFHgGs6oAhS5Z7p3lfua4fvhYh9C5W3lVlSCTErlNuVa742xA8rCYgxFxopHsD3KU73jCWI+Cafk6sjZvpeQor6ZMyWsIFkdCGUX/pSKErqsLhBpk7JKVogRPJcluiSDkPu7UZKOcWHcuEzo451QERDSlUVJPAnjoYoe1U8WqX+44+78tPtyqIqgBOzEF53HAzSnH2zLSXfAsrR1EUFCo70IAEQBlS6twC+WViMD9GvauZ5cRyfPzc97c7VvJwayN+d8MhGTETtpD6/uuxdhVw50Lk0l6aA5MJw7cctSBFy/rINqSoiAsl9YiBbE6fWJZQiSXqHoDSzK5M40iTpmlIJhztHUlzJ2wCXweMKAOxDHbnk+gs+mTQJ5SjuWPn09fDb/+4l/nzF/ZE+HCM0FV1U3mwVYLh8ASrzXhzCghQVCCviZB0Wamfzx4G72D6p51/XeZZkn6+kbRunt3fAWPEjMoXaEfG3YqiAs93AECRJ8MIPAb7aUeUats8zOAu/G4wKD317rLLcGPX767Q3bsEwdjzh7cBUzTWi0MxAsD9vlrG9wGM/TJad0e3xUncmKR4k90y4Mn3/4qk/RKYzWshCkPN9nzSVGHj1BWn5TWYIm0NdMFRqdLR2E0OTgk1gKejsM+EcmXRxVrkrfANSsNFtCkNiS310UfGE8zsfCdofAVNgL71MCYXnD3nMAf9SYYjwwg3STpltDWj7mDdOYI9ZOwXYGfFxup61fz3z44UfUyu+suREdKn5RB24tyNsEHxRIxpvWfT2NDjfZSjl5Fgt5KtbVlFEE6TgBLiqOxjdWhhyOYSDeda4noS2HdMLrpKtT9sk/9AsrUb2vYYx/Nnq5/4AM/wDlpvzJtzcilRpsszmZUGck4bpr7Ai1wNcy2jeJDgOBD/gzo5YJmIOb9RgPRqF+tn0zYJZjvjbpD1M0qYGgWGC2tdIiLdo8qIXpeM+zH5FbofGjsDJiqgbXs1yJjkbhPMB4mkezS9sQ1CYV8vmw7xcfPLd26EEe+1QJ6DGLyxsswNn+82E+VXwjYqXI6iVuTifdFeoD/h5hdpCMmAO4N5akYL7ocL2jQG/Jm9t9YLeL0Zfgv/8glwa7EWFSkJiPEiwXDuO52lhekkN3A2RFXSbnEeGr2WuSlkLdZrYo1VoUWdeDrFDVn68UsCxt8PRiUV4PMvXUNd2LelpKGgWjD7M7rnzDPSfFBKxtQPT7L1zYEFTk/bJYpAOf6W+tki4yAcudJ9jVIfA4zzzczF/l7lamLlw9zweRC8+Se12mk+gucg1dzd9p92YwPmX+inBgxzh3iqhBwYUUBfRpmxjhZjNEVGbMZLKm3qDB4tHFOE+9vkQs9HsX8wi9ZWCrtIMDgKAcAB2KPpqTKC8v9+SMDdwDCnJ8kaxxsdx8TvvI1hq5KvhdJWG+lMs1v+FWFTNzoxbgMaE8LyqgU9TjVi2xc0O2rryooifgTQa8M8m1H2DHNBboF6yA9R0faYJd/NbFgzIbKtQSEmiaj5+BwZtFUrtfPFdIItOVtciMUL8XbtKGW6KB7GaUTfPq6lt1pPfZdcBN9JQSimeIDxGnas/0folS8P8lhn/sqvrKkKlj4jtR15wq+GWPyYsG2mQ4UtG77Y6b1syZbBgnBHBuouSqY1ld/uq82KMBQu2RF311ftcCQnXo+kTBhCqoY/CjV2IM6W3J7MZG53PiJkf15F+nx+3Or5Ze7XiDqC8LqV7ypxRoESNpFIaVxtzZiMfWZzHBZmoZpz6y2GKUK61R+ldsNJ0uH76U2ZsIAo/Z/rurQ51b12MO0XeZBAmad6SXE6yykLoIXIkh7qSC8huwwVQlL6Udm5abH3sxaXB0Byqw/Z2l+0dbkBk6EWEPEYtGbiReZR+j4GswdBN05z+GEdZAdKBcEi3DKT3e44v7sI4DYYfFCEBItdxESBV5LDua0sBBNZy7DflKssqCIImzO18UXYcflZ8MgldV2VrLlhLJK15aF/F8XiILoWFOvoledC6yR9BGuglSfw7kTyLFBAzZBTLX0vI1Lcg18j86Hyq9UmqG0YYngLAHIyGTDv3ixI+Qc3eEWLqrKXk4OMktPzM3T1GP7afg9qRdKHmBwFpPYQlZoeAh9AKpH3SqIjDHqlU4AsCBNgD0guobwV9ieqHfRYTNUb3szeoJxuooqVtrwARgb+CZI/o0ZZCqiV7MnFNMNfzPEI9hdWTW5sR1qhwKN11pyrb+e4WGivBV+aiZ53UnyWH6+FxVkAuN/N2e4iyp8XIPzeMcia5E3A/xjx4yGhFqKO87pE+qh5LZMkg/NgPn+5l8Z0aWz5Vdsi+hBDlaZXq/p2n89iNldmi8AMxoMkwJOfY5Bk0Oef09D8+V7qyZNmSsYpdtddaH11dbWYrirh+g5cxZbm3Z/l+RyLflps+cT99XWTAzw4qD0bTA08RALE0J5vfNR31wWSFod1WrWghVrsseY+RRZoWJ47/0AFtgZiSwMBpmkNBmepAxfiJew3tCEwnc5pWZ+QWLigCtcEUOkUrrX5i+fAPJU8VPQm3z4+z8cPXW63Xo7N14vInWQoMduPKvY3Xw/FiUpAVeqZDsK5+39cA7DIKMVp9NP3pkHE9n5oAhxoaUhYCKnxzhnKAi0LNFApuMI0MDpml2nFj4jKy7zFjj5isK8ldGQ/oSYDNg4r6bcKRsbtoMVxdWLsiZ0dGPvUZHlyFuRnqSLLAue/XGs9xtKFaKX8Xzdsr+iaChQ8Oj4ceymtJ6hiKAe9btyAXE0YHPzGsZg9i3nlzQP2a8xTKiVVC8e706/+ZQGS5+Vybauo8uPwIEbGOr2+ZW/SFBII8X06qDoBc0tzb9jevaEc+i4ysZMog1uI3dudCOrHXrhRQmOAXrd2heaZpa4IGPCOLoSbmo34vlp2CH1n/5ur7CbnAv1R4UpOtzI+iialzzWG+RWcPIrUCD0Aj/dohPIxdkFJgBSkY1pvhm5Qv1sE8RYbkpl0SEu1XKBn8dRT7KKU3zD2BsIxxyMAmFiw4kknD7Ue6uP0zQAK60Y4lGkZ959EpFOxdZyCUxFcS/TJrLMp7OHNNwxAQDuVwuVDvYyDFhgwhsAYYzns23kupwVLrmZkYs5z9hbWL9kHFEFO6ISxhNZIqMTrAObqKAmom+DtGxZ47wMCPwh2G1+vC7mih/MCGL742RwkF8DSg/Xk8F8MS0lEA/cJ+u0MNsX2392wgV5u4NDIZsgmMwOL16DHuH5cmKspXvoksd0og/xDodwkVVjW/LwlQmcZs9WWXkVe3X8GOxC88yFS4mB+T64OIcvbid6VvZJXHSIi8uRM9GLHTg+MjiYXadb2voLbpWlWH3rfwJvZct9nn8ReJAAN1fCfzssMnm/cZHR5vkzfdnXpkRrVSeXLiMYHJ8Bfk7wezra8/Caij4WNKoX5urN5zHU8iHKD5y46xfaiWAbtJhFDLxZC0+RVjWdqX4DJ1D0ld2p8N1BR0Yoo1GTxhsBU/k/2yoaPxaFj7L5RFkHEfVsfyDb6L9WYpNAo9cSfQAJwSwKe4HitRHZb/krr2zmi9X0a6tKXyM/A7T/TvWTgq48G5yyt6yVxpvy4Ly9759WFtwdNlFD6oaXr++iRR1cMvMuyF6juw9KehECnZg4P6En641tQxXeMsOS5H9lhe0YAJds+zNBOWREGM/agK4lDPXIwUNIKg4bqw4e6YPvCl7MkF9Q7MBhMcKc7dlJ00xM7UvX/yD22e8QdhaJHcxVBwBjSqv8lWZs0fuqyR3ajEg5wjN44OGseFCcOTW79tcnuKyEbW9BzPdTA8zIhKkaPBcazZf4zZaI0VLEoLTd75LZSBJk70/IAgwhfAQZKgSfVAGXx1kx9qNDtLmXB/8yewa+JjgdZFP3vP+N2svVOTVxBAfHPtpb3oxduY4xnVjcXE03ZLxxjzSWH7y37l26g/nSjPA5mzskMN3C586sv8btD90siBNh+v/KdFJMrYDTK0fEvUS7xWRvHeP3dL5eDr+KnYEGBZ3F7s20GR40OGiwHp73gTknRH+KIslQ85wkhx8OIkNlwNsnDQadsJ4ARM36t4IRn1WVie2HIR+mpg8ILPOgdYr4yEi2bsaGLPWyjPp7cvE/tmuVLR2Kc4CuPjWqCbGw+qWHT7uwOZEIf4/pmB5sw1rDuNXBq5SWYucpjZAFIDOiDE3FB6F7kXa/CVW2LlTa91kmpFBrJzPqQFIWmqQhFYEV+6xYgwsFPV+dKqn0z5Adl5myavGc/7nDCuwPGDa8joGNxnN9gUsvSBvK2JCxREXmvKCoI4ZEduR+goCmTGkReB4YXaBiyhEltv16Bg2nO1KndM+6lLSl7e4RYW7L5DaJEHPnMVBMYcPIzvNVDSvHVQKk5YexbqJHUH9YIFVxEuNhz46Z/ucbQ0dhZYD4LrD1jTQgPfUIEjjvR8HkTKIXijrN9DYcD4DYZdsMrNPAFViBEAHjCAICZHApMJ5mptmnOdsBHLyYezmFpRfpiqSHKVFH4RDMNHIV+y9szNfmbIHWT3APZDAetLclZXB59EIWLbbApgvkHLAGuHZ++vmeCiKMInpQ15BEPdgm16WoBZ6oNcXeOoJNV4RW3Ad11fI0+nE1aDY8teRkrkIvOhi+JSzB74/rQij177n9R5tRdVCvEVdH9s7RlaAXKeF5GuImEZ7UU8OdNI1vVjdlenhg6aoRY4hwhIjcObBsmBJhtLghrqHsQEpdOTsZoybzE4DfGRyWhb7/lif2l+c1r9GGIOIe8+e/IvCcF685jd+q0ZVnTiI0fRPX2Q1be6OkG+g+WUfuD5diczqxV/HL40od0FMsFZjB5KqAL5C0JS++njFpW0D/Qh0+TIjyV7deHZKQLG10LcOUvkRZZG2L2jaU/8qlill7TpkZ+vWXL7c2YO4g0jk4skEWzEHLyC8/n9ex4oo2fuqpBvs2BcmebSZf5zK/WwnAoMRSQ8HBlabOErKO8yJeikyI5ULeampG9v9Ng95vmu14Col6tbQrGQ4W814MpA9Gq8vyCSAI+cjKBjMkBKM8HNDV/dpvzGhU6pGmmWj9+Er57CttDyZ1GF8/udtP7N61BfIyAAGCeMMA9IiQQwlGTRnAnEdwRfrkjRsPP33i6Ryg8C33FtCgcDthhkS/nffKE/aWCJHTFKCl42sKas64xzEF8JaCMIognBvacICKrzsxfNcedC8WTnnq34E8MNUmlLn3VZmeZpY3xJ6cwpkhJ1OmDBhjvkd4FeZ9SdYgD2mqSmoSL58ze4crepTGCIDhyVee8hjZBPf+tnKvCiG7J8ziXwZ85pTsrfBVzmYg+oCjaSF1MzP0NKG+A0CTJ+lEw4sxUQwIK5q6Nt7Ux2Dpqr03vlR7b1K+ldLRQRxbw60MxvLLFjhj/ZsekDCySWHADgDUA5xHpkehy8aZbboP3K4ioyulhbu9FgPMuzJSf3Gg/ztvSlSfN4EfCVwR7JQRLYfhtkXYUEDisSblJL9qb8wz0dSLxoNV/WgyCoDZMdboVPQ6XwmDg50mvV2tVGC/FLCaESW7gCRqRN0IfCA36sEIRxCkThZkUUlDTGb59Lo8igqI7xpfLwDe/YiLL0cd3Ytg3fTFwrrJ5rskBUYL01CKq/yEivrlFCcAx/JYQnNiL537PykkbzkD/fHIgPC6kGOspAZxUOCedntIz5QSskUzp2ZWcA9L6g5Vz8Zo1K1jHZqPglhPyeqIGhUsFv6rZefGBUNAPrKZRKDvg4XKEnHrKaKZCEQOCP8JnwVHqDKEb0lKLXPhmmpmG6LC/fd4bADkrL6riqH/Xe1+dqnPiD22634sTeDKLjtY/XCXB3s0AZBFHmV0g6Nq0SMtTfYn+ulLhf6nJgpp1tLrjV7cUtotuoTz+UsrAZsVWYOncRCfA48S+hZhIDAFLqC0AeChv3pjSOhIpVbCrXmcti2lO6XubKEIEQjoLKUauwjtBaeiH8ydFXZrzm9gVHO6nSe71eaT3Z1H5BBMkd611YhIvrWUsnC4JQXbimgM8YnVV+2sjNsZA20Oi2WmbVKjeCHmkHQtCcAvmk6U5PEJDy9NuhnX3QAF9yW5lWmHq2vd6zrWauwruQ06eeRswYszCAIzcPUpyrpunlA9+Voaw4gDBureOMc+jVmwE/aAKwJihLIMO2hJWd6ZaUQbTDW4MLB+nuv8pMIlc9YGkJkd7REHTT4pqjtq5aNNYPwQ3I/HlHkBcfhiQ6AsDlsvONmBiAWEcOU0w6rJvGuJqt74ET1MUzGjc4nBOjsfuRjMDXGu6j44ZBnFHa72+jukGAzPMC3cNUog4goUC4mSWG36NgrEqvxGrZ9tYyTNxJf53804r8rmdkFMDGPWF0JHsMT7fczztJWkscp7nQV9mQ5gD9DHz7B0QohmprK6sLyUGtbYhdr1gv1eOGtYJI1hPqdIOxNq695iJ0CgJRD6BebqbAB6PApMyRi2q+msFjjd7ePwQm33jSr3/bv1w1LlW69H8fq2BYToj7mW+9WXetavp2ABb+QL1adcfrfEJ3gmXE5E+x/ajy3zNuYJe/AHyToDZhjbUdHdFa5c0AM6gURTKk3N1R1CY2jW/ceRClcnMD89wu+sXbtu5GPx4bNMRXJf4XTqe/54g1LAgY5ArKj2epOVZD/5r1J0ZYo/w4W1RWoz0VkWIpO7mTU+DjrHGUhxhvXmhk1pNtk9ZR3HDUN5ivtKlRIJi9hkoeZVEUtRuCt6sBH4D8TrrTAUCBX84hIQs1OPCizENwVVhwfYrT6tz5/ORIEDjPWz3718DDAO7xKGcxA5JHA4I0Bd5YBXPKGUV02dV2LX8vR+oZyuRRuD4t51+EzoBatDX7U7d8XMbi+GLXwu2fCARjLxyeD3qaSDiVm8/5Mig+5xzxdETz7vozUsTYTkOqlBvcyuRAwmNWMp1yKYR7Iov9SanN7XyGi4bOwgDG7PDfu6X6A6v6BfieZC6lGAXBZl0y2IYHLWya+UNNiy6N/v2jXOWH1Sk8ayko80Sl5mU9/kLlC4kGvCU3891ANF11JRxcJRDYtDsvY7EusiAI5HATCQTN7DmNU/1yqoCyDmImEgn2+udTroA5RVsR7YI31rNuiidh8OqUENoVE3cHC479eC+KlkVX5431PUAGck9UPDGQUgjqsh6IzAPqQsHFyF0bNYdbGWueyANnCXg9NKVA4Ju5o1XlcsU+uHy+nRe+9MZH99abC38EcL+IniDghfwAvUPK9SrR03oa82Zez7SjyA2jz43RitfqiopLuSpCCh/kycOLGquBKIhg7VDesbxr0dJgVOIQgL+p3VWHbgtF9fKZAqWsaVZVPe3Z0vznSCiFi5yPYqbWF/hvZ+YPVg6knd11qJ1lYhmqazccIjhjLfQMPXX3bp2aFJpbkxyVyDhisDk7l4ZlQf7AHb41566qeDx/0RuppTlWOJ07gV0DiwIkplQCb9EgSFXXMwkictir9QbLNu5jKHo1GeOaNTEcD2nNakHsLXUskRAhzW8g9C0g+rAC77PjbPORrTLCNAl3UKdo87PTBaSwyQqPAx6KHQ+5FallLnxUnR9tJ3Gu+aqbuPXoUvHIXTLIjdlJt17mmDFAcUpJNbpcshIt07EsrwkDFC3o8qXYjS/DHwa9FW9kKOx9lexI6O3MgUB3EPzlr3a6ylM7483Yaer93Kv2Hfb+Ctp3dqZarOhaziqc9BCGNWhhLIWO3+AU7Qb2lQHw03ML9KfMcvlRK+Tno2HlMvmwRsPRxLSR4NtRDJXXmBm5fMEJEYoemY/PsUvEksSJqxMrM5VfgWUcJhYpjid4uFQCBWp+5SXs+0ZQ1Zz7GC6wwBSDGuRzAXwLPm69UNce3zTqfwo0l8VCTOaUBlih+hM2N1zYafB2WG86ZRPgVR8rm3noY2bcNO1aqkp6bP+VAtBlOPJctmix3/AI7VtOhNiS4Vcl2LvOsw2Z+3UatN0/oCnfEVE446AUZYo8crAFNlowuKgIQ35KkclLW110tdd4FZDdNnyn7zqv1bdcnJ4qYvrbRVBccopTPhas39OE5mPywbbzFd3cA1Jf9DjdbmS68eLwrhjBH3YvLs1GePoscW1gI9HvDC+mTc3nzuKo1e7VSMAJDMJZ/gPX4wDzLKUmtRpfb0ggZeIVOqqYKXZbXgmsDYpbfVEQRWzZz2dofvHJCnWs8It+JmoqspVc+xEWr6YCHpPUDB61gkCggz/FGlrgFZ8I3HT2U2tMH8+V+A21z9iljza5z6cMRn2k2q+kDnPOXTgV6Ei7D5pBPk6DEKVGEEcaACSzXab+riYna3NfCER9ZXRH/ZacGE1r6STNYNMjI3QXVhm68zTbAwLVz9Q98u1WrhhE510SGq3at3oJt8eV8rtyfvPqygs+nFCRlcpvrVUiVZ/N9MQJGHT/428Afcy8BVOW8c0DELv+CL0T0NguArjHLZPV1zeqM7fQ954uCs3WR3W8KK+4U3W7MPgRc7+mju2vTFoYJcZrO5pEAZrEARgQzcKOQuv0XHWOw9s7A3whBY9NB2fCquYGAlv2bybSDPdzaaWkQRIGAVwEqbAAkQWxiqBdYG9usHcu0P21bf/XC9AXBfLuTcYwbBURq2PreJMXObQX/GlcN9N6JAPAbSEWOEUIBACJVYTRRxDVaHwzEOs5TjElecWyTrwIfSNfMs3JXnw5z2VisKPaXz5u+lNglWJfGwlCo+hxVc4y/f3nrCWB2kwvO9r+Qhb6MS6CXumrCxIfeVI4Mb9o+Pttc+4AoJm4cDtTFLszVRqFEeozv40E7XgN7p0KW9TjILKG3J3o8bFrTSBjltt4W63K80zZS25CliPdBELa3R/8OdP9RDI+VX2OgsGcGs7vYvrWfcBgelVsd2CFkuP47zRKLo5zXxyDBlAFIHFK5nN9edH+in65TtBna6z0QDqSwAvgvCjAmyQjdl261BgdAzx4qSdv0hpuW8p+JC8NkEHpnkm9fY6lsjLJiU1e2s+jvdwrFAgNUCmQMChUbbfj6RMXC++SPCvtw6hJEIroK8cb6U5gygWfQwV875Ck+NukPxtbCigwordVfuujRGJfo4ARurFcgD8GKTYzTfE8/gSnIz6+Nt6xZd/n5MKvTRgJx7cM7fDH19DVryH6b0Bm8dDgTNWY+/IMXmHKivG2obm6Y8QoDGYky68uYVH7jni9WZijF5hhtN3zzUl5wDwuvynBMUz19xxaFEaDBvHXNKtUHOeW4+0XTXy/bnrsjmM0YJbaEw+FJABuQ9B3Sq+h0ZhJWdqH3+KmeecMtkJi70CSlw7wF9tM8iyZgJpTwdRC6AXvtaGWWfF6bLXLPkhIy98QFdm3qrouo3RC4zoJ6OOLPdfLsDwIUhb4cKD7SZo4f7/z9MehvfZbTjuRXXnwlfw7NQGIwd6KI9bPlgKrs5cGynbvg/ruhzSl5yZ/v5CE7zvkbsgoHjsjHsRKgJSUbFw2b1NBj+nXnL+VHXQK3bVKeFO92KL9CljON0ga2uMYV4kAomz+zmKVaUZxeMFz8BJLb0X/tkb3MC0IwnsRCnQ9MLUqeHftq3dpRYfINWGEhzjH7fW3q7Z2i+Erb6B6/cyTzX9FdltRzIo+zCr/Oso+4HhN+37LMNLv4gU0OQmKNwU1CPdRP+ZuFcV2P+CVs1uyBXIdaOTs5ANyMYeWIuJpAnEQnlv5q4oQ+zaSJhoVtmwYYeBZIoJZz4niAroyWcITY/FvNdhK/cZX0VNpJK41pGEph1g7jMdhmAQvyXw1ab3bIW3AGOO0K0yfsdLdDzbiohuejzTuLrRTuOlZpa30x0ezgmvogp1xKbBw7HS6SCeJblpPmzpwfYAWF/xSaiX9ewzDqXAh1ddcanMUJOqqqytWDxSEkXG940pqgYBsgPgv/eB0AitOm8pWALa90shxFlU/Xq2ZEiDOT9Ou3i0FpDVR1vTjLszSRSCSRB0EU+k1RRAwPBDkQPAuQK6hkBYJVmnuJpcQ5p+ToEiptXxfdhJMFTCHR0hbizee/p1bi/wx/JCecsSKhfIVRd0p5XpKta6l5fUc56gMvuTvbN7oxA+3zOit07dJjHU2QFeNycULwL6oa3bRhfeWwJq9Ue3Np0bMW4d3YbLL8W1MngF+gsITNF/yzndwA01RYJTzv8rQfdc0/ERpyHU/UNCe1IRBF5BtrFfckLFSM8rBXHic8yrTRQ5msTc9X6sp6ZeEZVrNWQrXJNjuk3u4OQIu1QOeVTnsqfgpLL9ZCfoyxDSO2PanP+mFfhdjlsu/M3rD8myn3POPkG6vOqex8y6ZCoTr64XbpWKgFcz8A9hfvkJ2EMjO4nju4sFV5msndBhc0G9QwK8n/hqR0okHPTTk6VI3kwoAoQiiNCTuRY6VMIXObuzfxXtCNAH06kSlGI3jfVqk4VRm0QOWBqBbBpLgz5y2nmOQTXLI4slz7LkZrvjbOQpkdVbLSZEXCXb6hjX5/DexbaHmJ1DZp9Uv3YkwuC/OfOE9hkcSwwa+iUlLp9lYv8+uSdSvHPowfWwB5xQ0urFNMp0CM7CWnFQDTbk2l+4YTgJP6zlm/lOI3iX2ZpAQhd1idzQbGjRamp8POm+/57l/L+TcM+LH32yh38mWe841LkVji1K8nJ67nFKwF9/AO5cM7XI8/5nL4eE/tUTLiyUGMlsjU+BSutgIiwxhCgxPQapBvcJCwx98aYIYffjuI0u5WAmQoMGFfEkSoKuzW9je0RkJT3Q14z3TSXHERnd8pVpfqRQXhzZ8apiRme93tdeJC/zHRcnhZV8QI22AkmJuIsMbkGQKidvdqNavtz8fd5V8qEVM3GN5+fTnnoVlIUoCxrUzuXU9vwBAMWxC1Qvl08JmPV1PXdmtasmRqtDmVo1xk4z1AhiTtz0tksVAEjPxTTkJV1ONKLE+InX6RXdVH6fuhI1gwOTv/BwSHwyyuBrHAYF3wnFOpDHQCMMU8PtmiPrmtGWWvXz/HU7Bk2fjsvXdAShGgVj2A6hDsECy1yiU8nOmEf7OCk3zYtKxbjFJcm9UdwLkIdRURVYd9fTzBP2YCfW5IMbPUMgA5bt4/TeYxEAA0s+FbkX+pQMcx1VHCpm+RFsRK1d/5G2VKuXKvOEeFRPTTC9Zhl1X6OvbdLZNYgoYiOIk0o2nNBaNqChcXwwgl/h0T3xLCP3mlwPPW/q1f8vTfCpDCUthDuR5YvZ6RirqJ//K+B7noCmBXLtYroCqE72udLBBGW/MXn2x6uGKxjtbh3bbWJtm/xYJ2UghZxToS6dHtftOfQyj1LIjh4WMe1hxoYVY4L5ISJnA2kaQptPqzG09AqvH8/mJK4+LHaX7ZOcnLMt5HudN8/BNXQFPrWWbku218mEFAylmj7yntmv3Dui6bL9Vw5+nSKM1E+QlUxAUgSBIhIIZ0L3N+2oCdGGFqyWBJPbJ9mbIDeOyWLjS3Ceb1L5iNwnI6RQt/qodupwa/yadiJj5qFHKw3pqU0NAGQBBn8Ju5jKya7Q6TpEqkW9bjnV5oAi2Pgxq97FvPYXPi0MYEMQXCUS6BnlIlm6NDCvS1XFT5fbcyAR5wdakgeZZuea9rAlhRlJya0iyO/kypGdl2I4KuMcV1ToOH3n5GTtFwbPkp5lLHXrV3xSSbihqEp/o895s8FBPXoQqeUVb56yPauNCdBVz0bUvprtyQUjPjmzYw6FoYMnRyaq0Xmqwv4dHjQEQAmpadZiIu/e3CTCYIynH+rubpAY5eXVV4TuQgqd8wZ7iIREwszSeuO1QMVr/dhMvgTj5Wv5ILnGEsWWTx4CYCm+2trw1lDK4lcd4gSYpjFQjV83la5McsniXz8Wos33MA2H96hz17bO7AZwLAaXBsvk7Jn+fi1GACYqeJw8a/BGVwhsZjBDUrg0hKaowSyyEKsr9rBbWj/Sn1R47FMjHkvhx1tR5EZl4dD1zNsKVlw+YTVaJybyMw4yV9JftEyEMeYDUmwew5OMeJbIixvC2+t+W0Pb0TqduRls3aLVk+/0Zy2+j1nYpvkTn8iJ7q0uVkOuziaTQ6jJN2TpwGz8LyzMn+Rn8zclZvA9mrtFlYbx5MjRa0jJB8gb6eMBGdOrH3bcHHZpioFBFbT8YGBpvFlA+eXjwLnqKCAgZKUr1r/wFVz1pjrxEUtnVSimtRFqWulfzuCeqwlWgGogjAzi0LLj11AfHGZmCsbXQ1rEgOmyVacW0xs41idnLpeeUDl30neaKNCbSXzd9sw6F4g2IbwQxPF+zZdqWZ9qY9pW7/8r89KNB1EWIWSKA86Wm70vqKVv6nfhgQHkeYpwy9uHVvycKDohLq2BOf35oEQ3oQgDUZn6KTt8Au1ALTQArJX9GuNFNpoNKz9aknxGFHfr4HCf7nn3cV0n9zwfyv7hx8koizocdfYSPf+2X+HdCCVwAzFrkpv6GeJbZ0Ze7N5PO+VJR8e9nu/VeWYJwZkea98d5umSG1vlT+pjyaphKLEDhy9ew7p/FhbfjVdcBXLw2amRt+f31n4gi8UdHFGgDwSsDDWfKWhxaPnBjz3GZa+XCKRddfXF9dGuW7JVjAo8MRLkN5qFLWxY+Z/Fg5cyvxDe16vOB4DueN12NIUq5RcYWiHgv963SBX5D2jJwHCw0ynLQrnP7aCZ76ZKkTy5qiWp9LX4sa3H8BB+gRbFGansC3KUwF2tZSnlXLoXVZu+eflMR7QilTlKPDJDUYGmJfql0ugLRYEC2EYpAXgndZfpfY+wz2DMaGtpQZ51nnkKdHq+UBi2539/2ibodWwuYs4PseiOMwtvozs7g4E9i6gsADdqQBrlxYcc6D2z1NCjX/ux9e+Cg3uesRPLU7pmcV38Rlqf5BrVY7KyGKkxpBkwLGPw28IDfJAO7D2blIsKHR+cNrKS8oo3U1tD6kNVtoXM2gwVHooVcgl+XAPTRvTEMwNX6e68MduZgXGXkptWQ5d0MGrLlXGusUsrvbJ+MWHehMIRB6E2Yh9mvHLeKWPYQX9KUl5PzGbwBWGc1hesjt80JE9xZ3NZesIfeeL3AHIiHBUgNXO9pnB/kgxMD8e5lBqsdwglxirCaVVtGPzel5u0Ij51Mw0cnzslKb51dXauvnXVyPnUZM18j0RfyfJcTUXlv7NxzsN0uTN/avIFJAFy1jMHNTCS3z3eaC1pKXmXx2suLqQKxq298rnFbcFp0G0AaH7kBQWdN6LzRRiV4Bd1V2hotVI5OH6ABgoQuOYX0DFR/J2XVXutZT4eD4X97q0zO/HGOAQpzVzyjH4fYs9GWZyurL41VsvPqXXzDTV6lcZpLyEcGqU14OJ45ZV1ldAJuO40YXh3RY+Zs1hmC3UWR9UiD3w9JQQTqVqIAYc4CSwgmSvgCMNTW4/FtQpGPvxU9tjZ9TvYv623CqdkAOkIC+GTcJLfR7NLSLDNXJ7xU186Z+BAKQXlrc1PE8WTqAntXkwoI/kkBR+qqj/d43BJ7Oc38aLuN7pvOCLQCx/adugI8CnDy8bpq63G2QGl2LmI2vtCOOccQfjQAkg0AWnxcV5hKX+vAuxU16mi8+gwuGBcA4YCU+Ahn6uwSCV+LqPBROfbvn5zeyFe06pX2++UUu/ECKng5CAkWuzbJ6BzeAQNnnB016BXTY0U74SHzOG78Ejh1ih4qjBiqIxdpPzKcx8jvXr4gdyxNBgJXvMAXOTocA35hIkd9oLbR6+d4DR3pQfXkCDbqDGEQCIgbBHEyCO2KX8OKw0bL+ZDlRcZdSsYq6YITrMIiBnDkpJ7MpBr+3hHkqZymJ23tWN7YG/X6ZkbyEnj28Bf+fuYEu+lel3Q0tLIDxAoh+5KosZAw97IjEFxCqlpo/+YHLLXBiAl7b9up6mr6Cx+kQbZJ2D0ayCBlWAnum+z+PnsA1PM8xrX9Bo8YZmypDY6FCW5nuIFKO+mcijHrAAj1QKjcDSYmTNhCOrgThyZkVBYynav4zebkQ7MbEeYOOc6E9XdSVZp6q8PHIiOy5bPmaY/MqQ37HvZ0XsV/xx2FHeKbPMkM4T7uPAbtdRdgqNSEJDCmDQOCKAuA5gDgQscRiQODNn3cM/zfBzywBi3L4vrTUPQ63gVAt/FVANTYfsPmLtIhbL+/KH4M1S8+3Yx94w/lwJIvEFOcO4IryAKo+RI5sRv59pIqz8Zo2tDYc53fVa7ULSlbvwQT9cBzJuJEjyAfnPqm+2ZoQsSVL5PMpTKvlq9J4a6TagbxuUSjoMCJseQfi97Om5J9SZ1E9QickPCD3Ytvpc6tkbdqHwFhKkYBS4GOdNNMX+t8OeD0b5wgZBVnZWV/RbAauwOWxuWZ1oecLE8dVm4aYAm9gwugQOQp8lgvyS/goxaDznrppwacSb8L1hMaI/G/vH30IXVGf4+V4Pg8ONIp59cSSjn3jCR1GeGnCToJV6z7aW+/p6yrx/sI/1nW2Z1b8M1G62EYb/CxzY63RvP9KxgqxoGFolMdHl+SWygu/+t+6/g4uG/wSZUGvIUUQY4XX9CO/tgXrss3HLQ17b3XEehMewb3KPzqeuE6Y4MTSRuRffWhKUjuIUjWxVCtiTSbEEcsIBS2Nr/p03ttxTq1Ws8sE5KNC0kS4DGCQPeuJ2gzLb3Gn/H9szqxx+qsfKtt20we7BPxJ9cl5gRkVd2WTOTO03rw59CSD4kpvvgL72L6jJTgT+nQJ0o7yq0M23Iv+Rx8HDmQnWvEPuozGRU+o100Z017m6Tqbz7Ks8O5/sAcLJo35nED5AEJWTQMsq5R6glR5bUUTIolsKOAd2N6WoFB0I357gOoMj8c+SLDVDnzJwGWVxplz6TIM54J+V1cka0+i7dHI5ID4N4NRM+O0LE69m18W07l2fR8PQ0rzdWQrENW7OSW+W9A87y31rLDfOWO0fzr/kpIZexkot428hJHkR8pn391AvAJCa/SQqPbF49+nTgsxORiXV6SqQLrTHKlaYxVe4iS78B61tiJfflIKZmO+uNHTqxnVqCg+iZVFJk/pfb3YoabPxfmi/slMeb36/XkuEDSlPh4NRY8poLsiG2GgjJtclKgnKYwAeJSQcLhj7rdnCYSCDVjRGzPXpaZUdMXVdSVL7HA4zM9id6BiTV1ayOVOEgaWm4y4y3PAq+yUe/wTBVMDqETTlk39QVCjm9Pr6JxJ0nod8/pI89+kqCWaNgl79/ll4BVUzSzcvrE07xcK73ZEbrsLnnfcnrB4VTWIwi4CR/z2VXzt42tpKwqBxL5jeXwe1915tIxTbnrOU1qa8mL3YMECZBf/w3Bn+Abs4rY/QSW33oXOkeRJTdyqypj21HmALmqedkfhqwK+PGM0+t05W8oq0jajaHpsswzSTcsfggYkVtgDIDGeZ/E3BwM8rROhgyI9krdWE+K7ylsIlA0vTgRK0tMz/tlyswcDKAwkiQUlbpSghy/bdmIuH+Qx/zlMIW4lmvC1svm0pKHCyEx4mPDIn3LrqfIJWu3iuKrUzbf+kbhHVo92PjiPHkg+gYs9/SdK41bCqtTArdonPVriE9RX1wPks/eMdCt2tlqQgsIPUuxfwGOSPg42I3BMMtPWjINz1Z2vudMy2EgfrZG9YNJwvtQU6BsSOUp2FRvIGxWnzyXdrLPmHukqL6lAETQFdoslAJDJTPLPsaj+jCgkofACCCKHhaQdcytPnyGdtBnjQF3Wah29gmwwMXNFf0McurX5rEki9D26HbUXZPHp75gxrzkrr2Nz0BvnoeGVyTubQl1iP/R2HoyrPPZYy1eyoqPvvrHlUPPDxaWK/WUqdv8bxsFFF4KLS+oDD/1NExKQs9Vckmx45WjMdL3y4+18KmoIOUm4CMihk/0lJPKMMgD31p+EVRxBNthNP7mfdHtRQdRLx8AzObKMmPtcTt0WFqc90SqsCDG9wKNm93U1aE/jdiF4+iGcrAJLc+NlW9TCGU5LW76vWJ4ShGoptV0IJa5nXwqc21OZH+5zk/qwtAMfaX52wqrv12/c82ZB0PY6iKpl72S2f6Wb5eUHjRmN9SeghvjfZ2JzPcs8svOpvKJknk+iqlwCjj1d1/yfa7NVkmIYvY+Y+VKO7Q4smLa3giHFioxV9wQDEmPutn8rvHoN1ABMp7KLtpiMMaRkrPR0e/B+3uAHMdTn/MbV6qXIT3JdtWuZL536b2GFHEgCXwpLYHIfcs4cej6H23a8VjebDMN7YRByQX5kep9khHYn+N16ORESQqB0X6Bmt8Z5SV/xtAPUbeLGalNBmK6db2qiV2BpNCZjNxUr3zwG+gKmlm7ZaaeTmga1cwggDVtGKfH5xPFU5Aqk+oqNU6uVLsaw8/FVePic3JK04t1A6AWn/nVJr2QQovhKW3zMYOAbqiACSBlk+cOcNgpQQev1kWOIGguJlvpxwj8xO0IiNtO0vo1wDqUghC0z0eEIjrZNBPHHYzDFyLywMYrBW+TczG8OX3cSF+Xw4/eJxp3yy+8g/X1FxTRt/2FxEtUv67slmyIjzZbuswNQQ9WsX4qTkKKZQtJglPzPvGUQb/5h29TEGquY5V4YPqSPS7y/ar3ATS34K+hwQxtNWEIdvFnIwo9bzecxwVIHKpmB3adQUKCg1/tF3Lf/5QmqxO8vqUfL1B1Fzra12cn8vaXc7dD3Pi2A6uQcuWXFghGejwC+QZgt9WjdADHtf9++AE6hITQ8Dfxak8Cqj1LZFharQS6g/WW+7q7LgD0w8fOylmnLwamg7KsoiCqK12to7zRJ2/GKGCSuIqY4yRNZtyc5qHEMxvOVe6CQzw1P2Xf+9/jjuzy72QwdVVgGsfSfeb6Oh2GLhAXY0v6x8J8MxHXLzz/VJA/eYpmaV5HRimYkDkiN+TYVf9r23PEVqEfV3afXriCEh6P8ISIux6oHFbRCO/t8lxXhqzXY84wihnN23CTF2HnXM0H+nppwGLxvFyTYzwBzwsFZlQ8trl+9cZoQ4jVYDBvxAxZO/yEnH1Oe7xfQIvPZKN/X60Gym2FwElsS+hF/rMcqh8dEDigDwqELjYYWgaU6GPcIZZ+cXeVitBP6LzFk4PZqA7jcmiR/zsPUyv5jeH48kP/RFrPzQ8WvK3qUg0/tZ412ELtLDMhbV6ynCaWNJGAnZzMOmXJt2ioSVM9b6SZCTZj00rHFMLwPFNOETwJghCzlsh3zOFLWuOPjyND8MB6PbTCxYsJl27QCDUYhvoPBU1Z/tKrrQe3d383z+Y41eXn0RD5TeTnjS5YhEKugMXzeiq6N7EnxR2AXpvxTXoQ2tT+dvAJ9jk/RIsorHMRIEX75QVcFLmSDshSwiCSiQ1Fthxt52PUGPlrriS21nRJW3rpan9HtlwTH/IBML5RGqAmydce5E4EHPTUk/YqFSy3xx58R2gh18FX/RI/YMeU9IwCOpaVDorsQmSwtu7hCHDj6pzydm8NUT7FpxjvyzUCBYTen5FFdaQHBwmcu+4yBLTSuydX2czdnMfSxALJFpRuliilddfCeCqTf9SAhr51INB8hFv8FmlZyVEHDnzrQ34j4GnrRB5KzZEEe+dD/tpByd5U2c2ZAmR0mA3o+l7uYfprAfOr5hJmmZ8m9rAX8r9T301+aACLSs0j/VzzhA/7AouSss+kqjc2NjzZpOwked9uslELBkStYbFLmhv29ZqiJ5o8x3ESvp91+1fgL+sxDM7IYeKaDw2jIiIWbxKxzWPf+zsVEb+uakaMdHP4BHGWPYXbGrxi4BJUc4fyK0POgD5A4P+dbPZ2kymK8YSyHUx7iIkOD3THFudfJylRWYxuuYVVxO/Yj4A31o0MD+gLzIwKaFj3ikT0oLE+IU9SmL4Ofj0K+OSTW0CYHFDC88F5dSA9nwK0nBLzySkOA2ktj6f4+G8nQavap1A1Z6tNgsW8k7atgUDds3y63s7Lb6Qo+3CO4PmR7Cd5yVIjxWDRAwTvHwx4ZD/ILG6GX5X5+2C8uMLHk394J4UL1St6MtSmzvJM2XlI133eKAp</t>
-  </si>
-  <si>
     <t>a66d5887b696ceeb594d493f509ef1e25</t>
-  </si>
-  <si>
-    <t>Chase Credit</t>
-  </si>
-  <si>
-    <t>#c44459</t>
-  </si>
-  <si>
-    <t>data:image/png;width=100;height=61;base64,iVBORw0KGgoAAAANSUhEUgAAA+4AAAJnCAIAAACGTp5NAAAgAElEQVR4nOy9adBu2VUe9qx1znmnb7hj3x7UGlBLQkIDFkYyEjgIYjAGQwRYphQQdkLKJnZCBhKnqFT8h+SHk0rihEoqQyVOlSu4isIOgyEMrhgTkEBIWFaEJIwG1KjV3bdv3+9+0zuds9fKj32Gvc85+33P+ab7fbffp27fPve8++y99rz2s9dem6bTKXyoqoioKomSciQAkJExLIs4yyIxLGkkLxze3Zsd7j3Y258ef/G5LynBQISERAGQCgBmAoSIVBWAqNokmKj8p/1JRUsBiAkAEZXyqBpVFWMAgKQKSQqAiNEGVXGeq/iFBICwAFAvNhICF7GJ5oVQymYFYoXNlBWViKwAXAi8GuJIsgZa5svLIBMVb4RaEyVRVRFVFfWTc8O7PznPYmOoPUtRLwDUiUeoLiGr++xUuiOIEJhICESshFouhLz2AKYqIds21C0Q51nbW4LbZvJMNZ61vV54VbQnBrnpmkoaMq4wrkh5eyMiYvY7SAscgVXzYKQoy6qoC0EDqipOxPZZi/ZUNHsmIlsX7eVmBwERIiYFE4mq/btsk14VN+AOAs3+RYr5fG4DlO3KfjKZTFZEC6dsqexHyrXCbJZ/a07LStECzZ8sgGpgactgVAZrbc8r5HGLUZmIafVAVBZpLhmTrZciKi5lIETlV0xRJZvfHdzEWKvRuNbfUfT6MqdEZNuJzQiVw2w+MlBtZFBV0uqZ21pvOL95OaOqiDXjhhHj1mmj9qX53mazklmZOG+fdqqKHGEiKwAJAKMCp+tpLR6AiA0EwV7j9Hdxv4qcZ+c9M1clKbZUy1rw06UyPlsWBipkA4s6dV9+VdaRnRerLmyM+H2kBjfdvA0X9WKgqmRUy1ZRG6OqaiIBxECLv6spXopCBupDa9EPyPZKDsrYJrY7U2kVM62MRKmaGZWgUgjp9V2noXpDAQNQITuYcjnUsDJHpVZgpwnxYmztMpzLoAplUSmfK3lcfaDMgiqUnfJcPUtKoe8J4KolXqW47d84dWSr0mpu6hXRetTaM0g4b/AGtpool4fVwBmsWtMKTVtei1KAhPIZtxgohCCkQkIMCENYhdkwsuXxYcJIEiQRz+b7N67txNDjvenigTy2+5o3PP21737ru+5EE90/vplcM8fL3dHuMpPB7tbCZMz5MELHx8c1mawen9eNKBkSkmWULngZ7QzuLx489/JX/vDLf3T34MWj7Hi2XKRqUpDkosr1nV3UxvF8msvn8Vq2Q6ptc+isVHOSqkApOKB7qqpTAUJWy0AxGIlVCPzJNe/StkPaMkERiautrtKoOuVrBTrNVT4C3anocl0SJSYitUODzZ3boG2nqsvn68reUOiUPDtfSd45mznwaoGIwfVAQu1TV3g0ccQLqPV56/KUYAW4GODcLK0as7qVc7sMttuX+h8xufqfuEvTsB5ciZ3/u4ohQlRp8yCQ2PhdVdIdQN16b8mXlENzBVIwMUQYgGjeswrFMSTzCtT1V2ecbcW6VPy6ywuHy/bGRMxJa2yBpa+vLDbaaivKYbBU3+1zXndV5eaCqdaLutLFHTUkwqrUXQnr01v1HANVsVSJqqPKN9q/299dGXIdkSCqSlAVZUau8ReyOwOvjcedRG34CFQWhZsWaSU/28pzRwatdN+i/4bU98ZakaiYsRy+SZWIbGcpA1eElDKX8pCUNYNitZOra07l5uGjXOEWAkW2P9olsFMazgK7ReUFV5JI3mBU1Wp7ta/sEqVcONkFUtX+tb40zdNVBmAYc1bTNv6V8dvIjTHlc1lEvVTkKl+2BMAADESFDHJF05YSEREzIbIzu1duYfVgBcq1gTravzTUibJsvXw5wUL59YavgtZUFYGKqj+217X5IlEu6jdX10QyFVVkXkrKhBE0XpdfLtUzA9KScSF/xgZgySaNysKxKlQhc71l5DlSYwoGR1CpyyVLWObLjhV5aVD1XghixIC0Nt800GUEboxXeZSWIrQrGdsGmmm1xq8+bcoKO5YRcURKpKCMWB+7ddOWSkLpti5HUTpIzDBOWQ9NdpSlB8QmihKRDCRbo60R7RztGzMfXeOtb3vb17/zq95yTUdymI1pazzcPpwu4/EQrLYYW1R5Ywo2QhkAx8m9g/uLKE1uDr+49+wf/PGnv3j3i0syqS4MQZkMQyJSQJkM1C5MyV2eNoYeCUyKXuk0irEIKQh/1RYe9RRtAyrmUCKyKxtiVhH26S47S8CqPjmj480Hvuqwnr5dJ3mgoXYZkoLksR3ouw5qTFw17op9r1gBN6JK26OyPzi6qVb16LIUZW9pTR5WU9HyRYu+X3FFTiwS2J8Jqc4+O+6p8kRcaA9st0HIJ4pC6NIyPcKGpKadeCqFM3B4y9FAKrlCU/CpqqpKxdpcrSpvlYyYc/VdDNxhyFXl3Qpq5ssqbVbCCCSSkwBWn4ryGTYqy+tMVPl83A8r9CtTaWzmuDqrUD5/UUTEzMz+8mMFASEiqrJifeVJWGidpZpuky7kj8vkVAqu1FHYUajCZWajQsgsM7ROhlD5OO+9zcC2NeEqVZ4dVT5/z0RMypYhgIqiYot81d+mA8DhxlSVhIzJp3hWiObaBmsujBGrKvirPkcLz+srtJtXLJ8K7T3/0KtxURRMZz67aa4AiaoKubsKVGg/XPRfu6dllS6IqhARRRxxxFZNURUDVcrJawCWfiYi5XytUhZIrqhXal+xzvFXlfPZsipbZ4Mrf2PzUohdzvsOjZLPjNB8NDaMl6eHhSrfMg+2LBS9pVR/FNoViuHdOAwLgON5w6zABs6/PpEqb7/1tZTaaFNrbOXSFEBEeQcP5skdV8u9blGl5jDLZbhcNssfU+QmWrQIgzpiwtBT5dvmL283iW3MDiUPAPWY8zUqU63q6zGXHbCIwW6YOMv1as9EKZ927RylTC4FqapCbEtpBbrMMp7G5m32WoY7z04rjdiM3+0v7q6OqparIIUBMqgBBCSRLm8OsiHPR7EZxoutsQySdDjWUZLdv/vczRuT4ShK57PDw/nu5NYwuRHP9Mlo8r63vfuNd14/XCaDdGQWtLN7c54u45itGrNyuUZiiF+eTa899dTz0xd++1Mf/e0/+AjdiGQimQrPR3ZOMQpRApNWpAS4oTjaDXGL8XirfA6tspqqQ7keRTGwroYbA7nf2oZrwzApQewal8ju4CoUgIkKwZhRdDmqjFvy711epMAqba+L5GF0UVXb0UXFLON3OQkoC7lDSaXRCsHh6EvZOrHyLruf/+pwbOWHJZfjqFTV4F7Sz+IK396X1xDzUswNNlpHfWeicsBqZyVdrC7n2m5snlaDaGyNx5tawtt8olYL9GgSImLl2XSBXNXIi5EoKlRJd8R0IixrQ7w2VuoT5TOAKIrAFZ1Z/q81Ox2xQgkoZfNKdfVQXtdHK4VerKZVZN4dr/JPAwZ7QGk70CmPuQ5WqJ5EkUPx5hSXqgL5cgKAKXTf1qaSk9xMRBTBY6ab8rsKrovpdFY8sv+VaX1fIrQQdashE6OqBlox6FYV0EqqVoMcO5cXKmZUrGGYKsMqRqD83UFMKtuhRl60ouSJc1Lcfm6MKZu95lvwVYPMF6uKsuSdDFSFXFrLUJlrJiZSpvlsDkCZmEkL1UHsqkXyYjGqyMfhYhwkAjGKGs8LzN1M5nKszsoyKUq+vp9cjsPSVOWZqNAQGLC0t1Kcf+uvi1wByCnMpjLUD8qV2qesTmwFibDV+Kay/JGerLy/xeukRVybVsbjsfuJ2urWqtWt2Dn0SHwudOLifYBXLmY3GNTURyJYw+Aysw5DQRRBHf4xrMrbnm4cqrRBplbf2hU7KdvNJADUNu8S2x+lNJZTNS75VsWtag3w8rZERGAUrCIhzg3+Is9srCXF1eN/w0Sn7EGuJHbuEhHNCrYgHH/eqanoMUCal2dZzzlTIISCV50dLx7ENBgkOmRNDmUyira3BteGy9c9+drpg8/vHTwYjZNru+MoiWfLg/lsJjT87c9+FMBXP/XV5nipWTyIJcuUKRcvZ+VFJCJWFVYYI0pISQ1hGfF8GP/OZz7xyS985r45mm/TPqazyFA8HCy2OEuEJIUYldyEjkrVTdzdUsCZQqTcFGqfVNzwzr89I4diWu2qVLmajTs0CEEIs9nM1gl8XqHspSJicpqsPh80BrUeUq1CB/tsJ8T6AasTL1Lq69ZOtKi8nO2uNviKYOR+5fTzgCrvyeMMaFYpcVV5EhWV0raaFbXm5K46nMy7Wr6fWpWYOJpfUzmrhrxig94OQGU7XlMvtXIO7LFy+VNp9++qJgXD3bBNbHt24S6EChvoithIOOGC9J1O545ixNZsoEYLedsv5XvylHqXdwQgEJfRUYKowBqn9dLmy7DuV+EIyjpfM5R7bbWq62JqjKx+VC5EvE8dftqjCfxxY8UUblFTp/KoGoSaFnXncZxu7iRXLvMqtuqjfdmche2uQbHfqOpUh52EImaKG6VXt2pthbuUKq3DvTxWvYes1m6M1RgExZKm1OarKYPyaZuosDvNM8ilYg1UYeCzzi1LlxUDtV+nthdvb7uUk+Y/iCpMvgwrvoj8vYi6nX1RMigKkTjfWMjtue2Gvmi+J8kOI27j9Jdn4i2PvcVGufQiIo7A3sYYAOSS5XsJxeaztVQpdkTzLSa3/ZcrKMRcdpa2JbQRKZcHxYGoakrta+gMsLMRVxqVMRFFRb5KA6F8x95j4tfOjFXheEHziqgOBZUqgS08t4rdsw0F5RecJuol4ESuRf4AhPbhSxIn78JaGAG7+yEOYeH3aPZ/BUgK4ZnsQjwvXQW3dZacty46LxwDtjaBiwag5TpW1Tli4XxSUJyc56tce9sHcrGKgK7yu8L02uWqmBo1T5UFUBFbOTS1zi81HkH9/QqAiWIhmEwKW/kFeBpxNoijJKbDB3sDpsFgsBMfP5bcfep6urObQg+YZ4vlMUV8bbKb7S3jI3nTY6/9tj/9rY8NnhxHu/PZcjKcjPIVM+jw8BC5+mBiARvKVGg4epDNXlweJ7ev/cv7z/7mJ37/iy+/LNevHw6HX5nNv7x/ME+TidxMaMxxTJy39WJbystqs+vWjoNQwwKyZD5U3cjWbJVxW+RNaLn3WayQqiTcA2RtCmjrMCQqq3X3eiQ96Un3VEB9jmyLqbHLVu2Su7qIE35FuUbNhFQFde2zHavNqNw3zoZUYV8bICAdcCl5/ZhsM6inshtXG3KF8YT0Txx6kTXgqTI+e72iQdZU8zy/4aVCU9VYAedYW0HLefxCtZZwtVuh8C5Z8HSKt0xaO3N2bP8B+cPhW+Pvejy6WebVsZxaeHcp24qaKh+qqfow2O9odT4pFjJxvb9UlSJY1U9XlYNWG8Te82pIm0l0rUyCu3b+h+5X/k+9xtuw2G3Nw1fC1oyT+cmQPqgZOvZXbVui9ERqLGZyXrN47fZxLbnzDrVLjp2Ps0VZptuek9r7ap3m/tNzPlGLoN5tq704fwntlKRj220j98621ThdR5V3NTxnYSMuYdGSRQ9rbbXLhpyH1GojKE/Cc8jhlkwZhptLhUD5r7LzyeWpdDcIoVyIK/yhPjBAOfltL5tyS9/feWAgP/+wUv71420t6S6qvFPm1a41ACchaTzkeXF3fdfaXCHnSdy1B+fRUlqqJaS5apfoPDt67tbW0atvpa+6o5HeFXmwpOU4GZsjnqTJk9HkHU++5Vve+V2Yx8PJeH483YqHsQKugQ2JGiHJNANNdkZ79+d4/ImPfPkLv/NHn/vCvnnuKDpepGZ354i2pqM7koyOzU6EkZOxYiOsyI9P2bpZBJyhuXBP4fzu7Lq2m2W3wVmaroGgtL2rXrJCPY2sbYJpmxH7WgF2U2Uc1RPFUkFRs13xSJFKHHfSdfRRb1ujppqsh6tatVmJtGCFQQLa2GtXaSufV8Vf1oeuOwngrIJUTRUned4bWouiqwG0I9W6RUgpiVc+BZm2Iry77l8jVUAedtt1lWLZSTXYHrRsVIpWCyUA6HAeo2N7E6e95Su9Qtj28JUIbvwdVXkf7iTa2P3zqYq23erav4PleVrkNZLnpdhCc9p2We+G1nMczbwUbUzQob25X5l1g7Arj5IG5XSeT2LynMcR/rRNzrB5UnsM0k+T79JF+qKmUrtttQrgDAhVmaivTq2GWlMJa03RKLvmm9b3rgbfPqGHGo/mpzC04uAoNzeqq/JuPILcTqN8HRgTynSqxYaNnwFIu/1IKzovztRVHwtxSaCsdvnBHkuoDuOuzj55kZNQumvkESeIM9A2aicQTYsO0iKCVdypnGuKVufkLlzxwWhbQ1cjCAeGjbIhuQuJQph826EK7KvnMNVSoRFxTbOnaulStsAiSQaG7kxlHxcS0eg1B7p/9+hemt173ZPbjFmEVLKl8pAGNFsunn/5xb2Dvd3RrWW2MJICQxtDccRKVJRUoMRLjl+e4t5o+zN39/7RP//cF4+HM379dNvMhdI0MfEAHCNiUCySiCXRy4KAuMNEe4ZtuKoQufwnF9N1TheWZnxdegcBxTb1GrbYJwbKl56qRBVDXIZvbaq9WfZOTbNq6AqPVLA7iHmgSqkqtqdIFK4qX9YFgaDQphLTcZKuVCU/ihUTkz8p11OpvRHnDbtVvyp+t77C4QCAxSuKaqljV8bW2qe1KLSDEgSnyYkfyYp50lumdqgFDak5q78qlQd11sw1PtLbp+iierqjpP+83ji1d3/x7HnWfe04LAzN2eFZrwoszt/eT9Ievyex/8+WFuRsMbd/1AN2t7LaMynT8LYxO3AcjTVIPrMzOo8S+Xf9Avn12zmZjuhdsCHDhtCucE9a/WQHMXvAMx5w08rneqkHZud5fdSFytXcbQ9838bKNyqlGjfU9rt6bN5p6ipmV+2ux9bef7WMef0+WKVq6zpuu0RYJW2EdIyCSi45J+Pzf9UkJKccuD5ud9sVaRMD1RhOVv4+4/n6kilz0ZC/SzydijNyNmHc+T1q0yBq6Qan/iKAE54cOdcK5uaocnHeLkdu0hKNNJ7MdPAgM3q8vLOUnVgSMWJmEWkc03w2e/7+i194/ovveMP1pcliBshYh0JF9yYINCVKk/g4Hr8c4V/cPfwffumX5jcen43v7KcRmJPh1mI6pTRhTiLbJwms8DkYrtwhafDQCbdNZkAVVW7ZeNJBby0tVCI3FFNomzqoVI06FKB3zmKHtAa/qRVsRLVkJmeNQYWxLJWrIeP0wHLz1Grg6o3defzdpt6ioEr+L+dKw9n3i6upznhvlKo3QijJzxXxdz51AJBoccwOMFKal5AIVZpKIMJuS52qTFQIpTvfpk+BCjbpYhHWLScdpHI5bK1yZQUstvQQYqm7KW3OHEnufNnF2GytMl4F8uTXPIF1X7tKbYiJXy2k+NpAIJ5mV/KzkIcKGwjlw0tANVonoQ9qK9dq3FitP7raQyO/Hjpo2h17ZSWbuuNbJ9bm7OHsj1H7+1DT6z/+n68q78mjgfetmvH6ccjOAYQ21TakwtbZ+mYqhMa4wS2KXZN9cJUqT8Fy9PiGgZy/dFlBJJdx5ic8na9WopPS77SBnCFuvHcDOJ5V2k/7hCVbv7SwhGClsKrz3GU875Jfp75yfYar9z3iCcGdj7TffFQl6zQY+OXs6WDkjlfr+0sObo7PTT2KKFGOU9BxNtds9tLebPTY9YEexzBLk0ocU8KH8+kXXvjC61/7TJzxTlId5qkcn80zc5iZw0G8T/j0fvp3f/HX9IlnXjaSITUDgrKkyzGNYSI2sRCWcWZKk0zXqZ8nfjvcBtva8nVFMTWPwZ2mDbhbSuTET/Vgji6LYktbnY86s6TrFyh2Zi2bVDNmUSoNnaE1LUHdLOU1QKqAKbRGP8JOx2Gd/5eXWayjSMnd5Wim0qxH31a+nq9m/PlHa2kDG08erNrKyMtQUFn7tLHyHVTb/EyMqsAzF19zS4iepP2sry/yy7CIX5XJ80bS+hxeQNcMjar2CX9mOrWm4lpZkNOKaD0lD7e+NLx1sF6dEj9f1bfl9o4ffxDE1WZj6WcdyP0+eN97PWJtqy4CiJbt2WmqXn473KYUzK+Wir7lAtahyy6WdycRquf+fsfXo8N4a2UqprJatZZscSCeznRtT3lOjCp+16KaVUuKjdU90eiZla6JGiiab6OmWjx7cBXSswWnoqmq02hLbZIIkMYo51SKMkhQtp3cot0VyvKytns507aNxzPAWD3BVKoWtWe69auOgUoa3d5CUL1XT7lnR36H1c4V1kqibpsi7VCqhiL1WG3qwMqvjZ7LRgDlwp5I/bo4nRbnDqXl/J6jJj9XL8tKJSmcl9TaibUPYM9kdv3qqfzV+ZkUvvWgY+VbRWNIQAJOlnKdNbu3vL91zI9tXWMsiKZLLJI4GU6Gf7L3rI5SOY6ISCX3dhUDUNVMBTFjNIx2tj790vHf+Zmfx53XPDBjbG3Ps5mAY40c26LcqKM8/gxvQDj5UOU0zNAPbS/VCb+6cE8wVZQRKihgV0iodP1OUa4Qw9OQyv/XilTYEcw/zggAhdFI6w4j1ixVA7I5BiSnmnEdZ4v1+Gtvuhm2dApZGqI7JkmVHt8LobxT4WOnWJUodeO3rS1493Gslz2XP1SG6PN6e2g4C2rG642VjuYdMs85Idwy7N3qvONuvbYOpPq7zuqJ0/Gkwx69B8dHXq/vGqjNr00xvKmnY37RvgvhJnoW1x4HTiSdix7fFXV9xanutVk+86ugzxLt9cha3ctB7syl6ybQM5FJG9r8Kt2rfOlsA2rF5roL2Py5cVW5338j53l93bnl07r1dSI0+69dcgjANkWynl7qNdJ3C7QTyPEqw3BdF5zJsjNUd149njqJAuvbUgNl+dfLM+fpSbm9j6xtDb4yX8J3UVC9UYihOZQlSua6faTZnzw4vHHjmszuDWJkulSKOZKFzj7/3Oe++vabYgZlufOcQpUXc7Rc4saNPzLmf/61XzZPP/1yNozo+vG9JbZ2QZIBBFE2RIZVhCBsQJWsjssyqsvqkk1UFVhxTNbd3q0VQTGTu786LJ3LclXBQo2joigDAdz4G5FEWp9sSrWFtW7RuxIrD0oVUVYvxFH03JP4pRR+aRsRbwfBEq4VAeasSm2UteOnrRI7vdvauHVhka2EUjhx88VusLy1ItfGAiUAUWGsOZxKKHp4wcRbBr3U7MkXMiiV24trx9WLWspZ287y65orL1o+6BWy3DHw2Vmf5fLag7hbT9V7b7ce7ieVv5QTrY5Wg123j10+8M52r89vO0ptII/MYbi1LU4f3q3yK9NxC9k7+7H6O3cIafHYI07MtnmHYmtu0zdXBW5761K569pnsbsi0PJZUWetzg4dZHbKk1zG2rtbJ8TK91SnzpmV9+QpCW+A3JGftdJnSQnV/VMd4u/83uu51c92SznX5u1MZbuSSh6SpMHxO4xpwZLaIHa2o7q6Xejxtf6rTOQ+t+clt3zII1LKD2xCnWwEbdDtVLuGDI/gl0nBADEAsc4YIqaqYZaLEy4cF2htHAseO+5gQ++y8oLqUiChqrmGPfMosNKPU7lutL7+KnMCe7rXyUGrnJ3uJajkdy+49AxmAMe/fnOU4+rvPF2HnHY0eeloggowOSeYrO9/l4n3Nft8SOSMMFVm6I5Eg/0s4mRyd3FwfTiO9IBFDEsaZUuRP/rSZ9/21JsYgMnphlitJ3ywjCcvLpcfe/7Fg8nO8WA8TxNOMdm5OZOlWgJeISQMMWzEO5xRFQEpKo8rveCurJsvTxbVCX5tDbayLZXVUxz/XYOTkE+tpn65Gur+VKr1DEhHeTzZOrw/DXkWiv80K/NO6rJ3IRUVE4ND2IQNbFy0GDJZGbz3zv86lBX1otk7RtoSsvZVgymp5KkewosMdwqp4cxJSm197BS+QjC/LWi4gfPjcUb1bplt7YZnSkJz458n0hdbvI2dszVILf3z0uZ74lIT7f2hnkKjIaXvwtFwH1n+0GYrX6I+6/k/aunGsZZYa9tuicdbh19QSVViCAnASkJerZ3jLlnNGaWTnL9Bt4ZxCkrix+lgZT32RNiKZlURuYte9l+ezbi3YiB2xzr3zixGZsBQA0qWs2hw887nn//S175+K0kHNjIlaKIvH98/XE5jGW3TdlSy8gBS5uV4Z4/55z78sXu8fWwEGpOa5fyIYzJsCRQBYCy9q+0XbinASrUaCrWB1smsMOeu2PiV5ijlX3nqbTL5r9sC+X7TGyEUyG/WqEdMmlsZF1eQhEUtEFq/+jaU7oZRu/yu08lSBip2HrRu0UjIqetVIkrALThXKfYghe0tMN1W1SjE6yFb0742vFfA5a+m3B4gV4smx7DcTzeksjcCF/e2tO8NhWTrP7EGmnmj9Nydhjzv3u8t7Y0BBNqnz+443V9NrxG5o3PPKl2fz1sff5cG6vqxbmmftrO0Z0q8/thhxF9/+XDLELeG63XpPK1M0zyizdkG8zc12+VXbRsc1ONHQ0Xbpcz9WxGq9/kiu9rfX4O+un4n1twrz6yfhtSz+/a1re8Cf8ne2rYrqkwLB3FceeBrQehGp2DxN0J6LSd/k1uGWocN1ZZ+8UGVbkCeZlJtrDPn75u3I1W7ExXq3sHLe0mdqItrmxpJOTE08xuSH7ltkTOzlK3Uzts5J1wjmCulu0WeEPsemH9L7cFaURQbZa5f9mBTLW+VKt+sGAcL/xWFh3utpFrdlV3JQxsoRd1V81E3HdyhrvKYK70KWEWwcf3mrDapnL/dXNSv13BemupdDGX7Z2v3zv7R82oGcyRDbJFIIhyDwHRslofpfGeoInnmSw82PI/4U8++tJ9G81GimoAiZmu5YKz1VJW38yQtCq3xJN8Grkw6uTCeiu/UROWk/OJppFILaUv4stBalwy1y5hgO7D6h8rDeorzvDqZleGDDfFCic/VOEOeZP/9QxcAACAASURBVIOLQ+OAzUnx8Jvi+rty+2vzvXGxexFngKCKeUn494eE/oqKd+S01GnVedk/tiKWFQFl3VbAWY7KZeOWcjXVuoG/vvTqAdqL6KEpJO3Gwms+usC+3+IVnZCr8jaAIdKYaHw0S3fiATQmYYZoxCLmwfH+ncHj5UWzhQcbsDA+/bkvLZUUMTiGkjKf7GhgL/Rl6S4bXPr7ItXo0FWIOYvceZegC3rdM1r/Vip5PC23g4rstjx3mHDLubDDc3K9Gnl9KbTGUvcz5HB3UUJNuHZ9YAlvJyGQr7NCpxmoWZ4AHu5JxAJ9R5++M+5q5umE6Flu59EGXN5BA+3QkyHw/jyUwZDDxC6QJq16puhd/JdDW66Osfrquwbeo8bv2mf3E8r3c7oambS4p1wVxL9pLchchqMv3q8UqhmbG0+5L1GVnsPKF+HtlSz1qGrlVu51NN9b6MrdoXpZUSEo+auK4k1LKw0t51pfEoioEq/D+EDeNVvr89uEu/cSTKWxh+DcLlwJ76bYb4Igd63mSNVAF/a9L7oYbeQrEBIoVIkoYZrMpw/4WkzWuZBSHEfIsLf3wOwsy9GQrd2CEN87xrMv7XOyFUVDQkSIQSIsV4+i2OBSIqSjXMT6xxohaMNLTnvg85dngw0uCg/JU/s5Qij/s4FFqChOf+fJORXyOVzGcnJ4hEtDsC6NLZSdE2bznAvn9HV6xvk9BR5F3bQ8m4ss0ygeZ2awXETQyrcsEanq0dHhUoyxjqZVY/s/4fhY8cLBNN2+Dh0wEintBdh3T/Sw0fd21S4GEt5rh2L13ntGGm54e+6+uzjthRnKV5AFD8iZS9KwpXN3P7yjsm7lhi6Zd77tklPXLaMbsc8XOeE7xBlivrnLJsTKb5vx+/b3jj2xG2V3w5vVCLW3AEK7WK485JR2Xz/Wl4GJv/I4Beu8wQYu1t7WiTam2cLjL7vfBkrV++4WOl3OJJSyCVm/M9XHJ5Ez9J4qeZo/ciMtL4yT96ZswXS94FU5aKBeVsO1vFeqH0rsXT4Nntv+27LO3eeGkM29+/5kQ10o5iYf3wXr2HTLeXeQ6hTGaX7zaW8noU81vw5MOOIsM8wDNeM0jQUxmJgIkNSYbJ4tsjRLU4NMNYqiiK0GIMSfe+7+ggaIRmlGjteeDTbYYIMNNthggw022OD8UCjezETEzGIYMlIZAjE4shtEmcmiOMqyJQAjYowRkcpW/vN/8oKJh1Ey1plB1NW14gYbbLDBBpcZoTMbITRvAunx8QanwGrb7pPF0B2nN5BYHcO5mHa0xSmO95raJ/5OxSlSD9mm9yyBlltybULFWYWa/MGzLn3OEmh1FUj9wyAb7XDnbgjXT0vzy04Dhhtz0wtQY7fHTWW1e7zTGJMEi+EU56CwtkBUocyR9b5PypSJEoZihgImIiGwwmg2Gg7n6ZxiMtnSSAQgTpkJ0YLp0MAkY8QjmH0Aj6YZ0gZnhNWHlT1DlJ7HmkMOMUMGSL0NrjbYYIMNNnhEsdr2/fJDz1n+847/0YbQGm2+xpv0Y0KImAlMAkmiSEmFYBBliERJqHK6GceJyTIiEiNGDBHF2NqeL7Gv+PzewTwZH06PaDwCiYApPxFb3V7ZBf1N2c9eFfP9xJ88Hl4Zj2plJd89F6G7wrrYxHvNImRjHbCJV0dFDq3SQv06j7HhhWa1DZYnYcOYvYsHmDVouJgMRhQ8h+CGcX1su5/WbdBbUg8IyF3C98x8WJ52m/6+6N0fTyF/F5zGZvGVhiAz5xR5qDy9puSxj/k/WIPu6U7jGaGLw8DgifmTJ7sC/SxLT98+ax45LgCr2eXCVrtnbKG2F7CDZ+csaSiMH38779u00bcRhO6vbaaljfJXnyd2b5JdkW5I/vxW+4D8vdHTVr5pO970d35SQdpPU5yVPuf5zPGuzHDCAFjh9ehUqQe/XrP+8cULSd4Wb3F6QYCIM1FiStVonCxBmaiqgllUQHRwdHhttCMkyWAQZzGAeKl6ZPhA8WCRTWNFHHFUXD6/wQYhdL4uqq/qFgy/YeU32ODhQTZ3VmxwRtCr44Bow1tv4KLTNYXOc//mwyBARUWUBDAccwYyUEHlwab5Wayq6TI9ygZpmvGAlNk0Q22wwQYbbHA1sVFHrgpOX1OnieA8bNl9Ly6njb/jWQJ3qVAXqYO9ewhdTFPW7FR3tpXX6tbV3rK5aCVlV2Wkg618/mH+un0Xwg2zOn5P8XX2EFy/9Sfctj/RV4Uop/m4Qu8+Rc6DSlmBRgmAgEFgAiJVJrd6YxKdp8v5Uu2BWWP3NYoyIGUubWw2ODfIavsQ2PMQQeeYp0J56/sKu/YyLXXCd05/dcjTUH3klAmFTJcszkjaDTbYYIMNLi2uui145ztizyD+q1g+ryCUp5OtebJjccREIFGqajAmxXh7sv/sfYqtH1ZWFVWCwl6rp6qXy3NBU930mqOVOeArvZPjbm179OL0/Xa3Rxo6GyGOEGUYbounqVh7tvLBo+wBG3TXxjrwadBWXqv/5bdYq2rY00XdhrtV1EIeDduUu0a4rcsM60jVeQ4tRWStgq6OPJ5t8ZrvWiJqewzbuJ8D/DMSfQ2c+qW1mQs2eCg3FtPZ+Vi7yLsUWmVeoVH1tcVfbWueh3HFaNz2Wrxu55dbeOUai+yj6ce9kawvc5sfdKHck0lLGm3hXQ8wdfnZS7hVZs8+vuknvlGeXvzrPNKsksf9pne9B/YDAuUTqq+mDb0G4sl/bctvL+r3bO9V7enHvVs8PRG6T2D1eMVCAKS65ZdcVdGd1ZWhrAqeTudZnGUZw7LySjDWLT2xqly9ybloa1dP8gJWz2vXukJXU/W8+ieYtJtoh2OjvY8tNo7JXvwWz4Zo32CDRwz6qNjuP4Q7Ms80xfOWv6+05+1S89xjO+fyPPf6Ot/oX8HQUoGi5oorVlUDFQKYVKXpxfNKgJQBVgX4YhqSq5Q+LAX1qsKWV98jGfkeyBnLssEGG5wWHoN1gR6Kut0S/Ur0mHRW3OTVAjXuOPfeA/AtsFeHaaKLV5yWN9QeJiSP5uF7elIKseaNX5tvLhJny8E/4iAKtUUi8tqMagxRiWCo90b8JUFFzNidKgGQgarjAgrq5PBsTTJFhMo2RVYUWyKXtdzO1INbWc5rc9uRKqttapc1FNwY6BTrJcKjQRlusMEGZ4Wr4rYlhPMmdJX6TU99w1+28j9veTZT0COHIGUcq4oSDo4ODTSHgDgCsSVOiUiJTn/IsrfTwICNe36i2bHbZhtAwcoEYQCUCWcGKcCKgd186Jxsm39uFQbbnxgMzfcBWGFgSpPukM0lVdGou87y7WXabdk7Cd7BJr6MX2vavKs7r/Btnx+88MrfRdOQBivuexL10qXKnt5bdRUvTW6c3x6XE48rc/t7dYbPvn7i/XTbbd9DNvfh+Hv2C2lrn7UgzvP5T159/XD327+6dM5G+7K2vQyxtb+21Ld4gpdKBBJ223aAySP3BongQZwAa9ihfkOr4k6akOvLPJSUE09fFr8vmraz3ijdzFHn9raaVyaHUQ7F2OXAJQVsf0OMtWdL7dvlV8kV78lno11pW+OnNj7blTP36V68qUvX4KqLb7nV570rgOuTvoVZRzv8u2br8qz2/9MX1HAu0+z6Le2kzbYeZXm2hK+P/+6/m+H7Wi90bP6hg4DrO3NoTDuj3UIN3JLbkmJ+Y65tV1Ro3vkfFbLauapCjWqiqqo0m84ipTiOY4jK1XHyilKJtwVdG3ZJWPICYzspKgQIXsvUCQW7ryAMVCX3BwQAIgTXYdAaya/uvodWz7Ys28vfxyo9vhm4aIHN6VZVXzl7xBu8okEbJu0RxFX3E9K8lOds43TVj6gZ9PTyUPVVl83SkDp0ZmpST3n6wl1gvBLMWUJF+GgOpQEuLM4V/as21uQKPYr7sQggEUBIGAAGpDE0AWAP/5Ja2+wOOnf9OKn9Z6w6UjARFBlIDLLid8tXr431kWpXRfkHsVaPV2c48wK4w7TmevwjVXYbbPBowdspDezarf52TZhTyNZ3V6fpJ3s1zpvFPxmuusW/ld93NkMoOVpvI6MepjW61jA1Jr71fVOq1e+DYXLOFfDnONd2XBrhu6NpDd8mm5NuYBdlg8uJov1za+tU1fiiJToBQlYrNTMFslfeCoBIwMq2nTJByB9vadWRyyaDTwooQ1iJgcxAEQs4A1srEWvUE1z9Uk89vnfn6mkTf8rO24nVaNPjuWZERFR3iNYopXIaPg1ZuRmsNthggw022GCDqwsjhplU2g0FY7soPJ5OtYS1F78wv/Ihv+8rbeUtuDAcLveqGBIJdJnGiGSZTqfHw51tcJ/Fp2v3qTnjzpptjWj/wYPB9pB0KSxCCpWc8icqhS0XDWVxK2pKatgevfjZ9wse2Ek4qU18Lf6W/NbSQX2nolWb9/h1J55mOXDBHxCR5UJI1Ijkra84ms1anVsoGmYbAt5Tw+XgZ61N5pC/fD8BbXtc8T6QcN/71y4lC7jBKxmuRfJ5+Gg/1aZxaYcdPofgynweLL53/2XIXrx4U0N3ft3nX+sW56EUQ6mHbNC9swdO5Brwmx5krL04GX5JlnXg2KYHhGYv/qYxff1jp2SoYfueR+nEoFyXXxvlGToP4EnCXMbsjvg1W2pn4mwvzxBC7Hvf+mrCSlvKX5uuQudn8sQ7xL8andp/Y/fG4soZmzTA7h9VJSaIIlJWIc31cxFh5hjcS8+9dLBtixQgYUikSFQYGS2nI9XrO0ODmWY9RufcxbuqqIoYFYUqlGU23QbvDEYHC1kssyxWiQAiKKnmVP6jZUTTjuqocYG+B1lElIEIREatU0oRE6kaMQQwMYOYiJhUIaUBWOBEx1VuvBtssMEF4RL6ob94VeNsUzxvzaFv/Ocdvokz9kB/lpG14PT53bjcfoggQxFTBim1Hlbmwj1jfAaOGi8WzXWtfcOCSCXRLE4XiVkMOY1NyvPlCEj6uGitPJA41zZlFA+2b7+0fxzPaKRCES8ML4U0iuxNbrkgJcN6yeaMSwfRKBU2eTEJMgBxbmsrrCCyex0CQFUMI42v9ppzgw02aKKvVfd5eDTyWPMzj93HauWv9S7VXsi9vpxoqHRTD8m5ehA+O/lzzrjp5aYWZ5c9h1D4UOrNb/NWWjDlXjDyZAv6rgm8r4Uv5Q/a63fwuOIRbX5wbTycIc4jzoc154fayfnfDN1oKcpQJqLVnldjITYg6WeD8tDAWjRT27NUIkVkjeQpY8jILMe6eM/XvOY9b3vj665jucBOjLjPWrJk1pUwSfJnA7w4w0//3Ef+v88/O9m+gWSMOEni4dwgI7Tcq0WQi70P/PxAzumBVlqLAaOeh1+7SeL8DgYiERZDEBKTZGaULuPM5BOzb2QSCSIyNi0lGIqn8eCIR9nDuF0ixOSt1yg61v4j0Ug22GCD84BQj3nkEk7irZshNfc15DyHgnVM6wJQ1+PPDufutv98oz8XrN1MO9ma88To2x9PKEXD7Nb6/xDHCXsN8fR4ptu7+w+OVUhEFaoMqFrzZPT3Axj2/x2wie+CUgYFxABQYpCwyFgwzmQxO5SdeJhA50fvfN0TP/TeNz4JPAkcyWI7GnZycOWLRqi2MRjIgNeO8dT3vOdn/9n4n37qj9MlYTxCNEhTg5gyAsiabLfd/Cqenbf7HLKJ975fZxMPBG2+u9hwe/XVapev1QekbayAMquqaBTFDEnTNI4oWywlnQ93rmWItsaT+f7eiLJs//61QYTl7M44+dNvefWNUXLt+rXJZPLE44/bmDiKIlBk0ig9IrO8dfP2TKJ9k3z2weK/+oe/vNSxn9Hqtl1bGp5kwfKpHlv9wdfDh7T5nv6wVwTvvkA5wf5m//sc+sbfL/wVd63RHz0z3He12t9Pcz95+oSWnuFPgtOw+KFZ3+2n5+77pRH/ap2DiLpqeM7Q3PRenwfpkGIzBhfaeK8FcY222vfIxILzqjuwd3yWdyn/mnf2Mrawhxl2w7fG5tqOF/et1rn2LvUQuqU16GGG2w9LneY21lr5tMbf/dbV/Dii64HHi6h9t+SssI6Mbpw2KWvtdNKsaIfdV1x9Db5QnEmwPYUAsmcHlUiUYhJ7SFMVokQq1s+8qqrGAhYFroQrGwDONass0OlxlKXR4d4P/qX3/9onP368nA8jPH1j9ynGa4AbwBPjgek52bX6oBdAQMmEfujb/tRkMvnZD38ymdzeS812MjzOlsSiBCGRZve44ubz3sVPlia3SnPRgVWUVQlIBsPZ0REgO1uT+dFRrNm1a9f3Xr43Hk0mZk4HL0108bavevrdb3vzu9726sfGuDPGEGCA3CulAAUGSK5hMgAOU80SOgDuzwdR3UnoBeG87Wt7qW7NU0cbbLDBI4weTK1VQC/ZhOOrldVzyJinrwJ21Y82nvd4ftXni4s//7AafdvbKfqjgAyUoUCuZEElmL+YmIhyH45XBEyKWDgWGUi6mx187/ve8Y1vpN/9LO/tTXU2e9VjT1wHhoACEZBBJKwFtrAI0rKFwSSpLm7F21mi3/++Nw23Bz/9G7+ng8fjwa1El7Egs3fjCqSytxG9ev76u6LpXnN2PB3tbEcqx4cHnC7u3Ng92rt/i9PxwZe/6s71t777jX/um9711iewmGOouDXGwCqmChEw56N8JkgVCTCIAEANogSpwe989GMAWC/jDvIGG2xwYlwGW/mLHKbXJHVqSWxeTjhO+nYv64IEUz8NXEbcs0pf6flndeqeH/cOqbe8ISr/rqfuW9h2NatsFdVd3gQ+DLH1Nc9I7RqPW7+r5TsRLtkq8lR4eKpbe80IQMxamTLXG3JOxl/Oey5aQZBEwCojmWP/7re++2t+4D3PzIAonUpqIkWkSIGsGBMGiPuNj5ECECgDImLE2EQHSA8Ov7y7dT3m3e/8+tct1PxfH/ns3XtHk8mOIc6UM+aUYsOc3x111kXau2kF0j9b2oaRe3mLhsliNk1Erg14HCfTF57bjWmXFz/0PX/269/42js3J48NoSmeHoGB44M5EgJzEjERQ3JrmZijQQQ2yBZiJCMeLIF7h/itj34M159AsTNg12Z2SH3E7t7aYIMNNtgA4eXEw2XI6nr8KWM4B1whXnaDVdAI5VWkFapbolglN+Aur4gqfcqL9asoat9ZW/leyp9nB9bFVjikirV+oJLN5m949av2vvTFm7z8hq9/81/+5rc9BXwJmN7fo4wHYKTZBBiA2AggxVVRnWQWgPPlDhmoMmVMqhopEvDtyThDGmOWYvJ973rm6TtP/I//4BcfHM5psH3niSfuzxb7yyUPR2BkqQDWyKtwl17lt90mngIFtNZPfOMDx7a+zRZca9q85++8Hmf+InfQ6UpbZYFhCJQ9eMBxPBkwHxwOOd3F7Fvf9e4PfPvXPrmFXcIYSIBUjyVFRLw9gUCIRJkUIOLcWY1IlCUx5Y6GswiHwC//1ifTOF6q5AdhVbjIjvr8Q+jMQKgdhsIjFMYLv37ADJ1V8OTpzWW8Ipcu1uCz4W6reQJps29ztuiudtiBxfUx3wV9zjGdBOfN+veOv8GqhjjmIv6uJnghD+7NyLlDNwnmKyB/04a+CO/IH/BCk7PdwbtagWYu2tj6Fv8TuchOaYTKv2HrX3mRL34tLZiD9tlhrLCVX/t+dVqu33eLLnaYvW+TDdwJcN5+3Pve29BbnstLBTLQMuWRWifzoNy/nwpBLCuvao+SPnyvlDnnGq4AVmyNhy/+8eef4uXbH9v+a9/2jqHBEuYWohgUg5iIQUsgXaTpMk0i0kGEuMd8YW2Nyp5AYIUBEAkDcUw8ALaRRjx476u3jv/Vd//0P/39B9kiPdifHR4PtnZTUfsxKUDnsh18CUFibt25kZiUjx7M91/4U+948w9/z59/age3x9jSLNE5jMkyc328BTFmsVhkaTKZgKAgVc0PfBCDFZmqEkUqMTPhpSl+5Xc/MhsMRUlV7MRWro5I0ftc9gYbbHA+uIS+2y8/Lp5jPtvl7kPgyB+q/JffanbDyl99tGjjVNyeWYbIjy+qqkrMxEQQMTYcE5nL3VKHEcXpwVue3Pnr3/WeJ4EowgLRPjAcjscGY5jJcDQGJsNkwJG9C9QayawFEZdjRJz7oyEFjICUIQOAM46NRKOIRsAOL9//da9f8vgfffiTX/yTL+0+8SpMRl++f6xRvH3r9nR2rJqnWxh5Wx0fwPlTqw0e3WWRz3x9Qcj2nn/uZoIdZB/8vj//A9/y5h2DJwYYAgliQiISxRHmB9OE42iwPRlGIqnd+iGQLQ0ikEZgZGoIaUrDu0Y//ZUXnz04wO3XpgtVDVI/GzwqYEAYAETscNb3NtwNHhJy/tgav3XvqJdM9T93DzYPCcHbQDuEd6GNMC2+5Bu2483Ymv5hmr+Sw8eHb5912OigB5t6Wk2OOez9prMHoVyc9TJc5ib2qLb/IE7hKegiocXJS1GN2tayBSt/4bsMJXnTJWFCblwxNrPx8f773vTaH//OdzwNwKSDKF4CR3OaH8/mM00gs+OpYtfYuFUoiqMOGw7NEKpa7LxZ7yl2FRQzUQwMgfliejPSv/B1Tw4Gw5/9J79xPz18eW9x4/rNeTQ4OnyJoiE7eWRrWEMXOHWFEjqlAKJxTGmWxVEkqrEgUozMUsyDXc7+yvf+a3/x3c+Ml3gsxg4wPzjOyBBEwQYYTXY0y5AJUkMJK6HeKG1JEWeazEGLCL/4/35kngyZIuLYrj59aR7+VtKlxiXTk1Yir0pWJgiACKKULztbecRH496GDV45OLmf6cuBq05gn8QdyiXLwgaPNKTQjD3FRoiFmBAplyuPwLHXOtjavhGBRGWtRuDbXgf8c/u2yLRyhhZowcYxILHqZJDMDw+uL/ff/7pbH/yGN78KMMdH17e2UiMj5dtD0NJMhpNosdjZ2ZnbiCLWZUriZH817HqG87VP+Y0CFEVCoqQEYQKBFppFyWib4jcQbr/95pPXvv2nfu6XDs3iIDXzKMEoQRaRxqxijZkUAgJU8uHN8tBu8TirqZBN/Gpb8KYxT8hGPORPPUjXW44fAgWrJtEgXc51MJKjI1XmVK8l81ffin74u//ce9/2TJziRoyBQbbUcTxiVRCySFLSqRpiGhAiIdh68U3BCNAFogFlEt2b4lnCJz7/0mDr1nGq4Ig0Kh3cV4XhTBensYnvjZANa6tvfnhUjOd8rS/p3Ffm3qv0vuH7raZaTM7sBpgSFCBRBZG9DE7E2gJWJ1jcgxFuut79hqeV56FC+pZ/L1VDW2yFV6P7eikvSbYmcJ1qgfr7pOpbW5fKVp5qjDXlL2tvPHnCCa+SpMPdqE10OdDppuLbKHMZQ8l81+MI2YUTCfk5cnzFkBN/37tancha5GmWdt3qmspnLuVv1peu3GFwZWgGI98ve/k+tAFNDYfXXEpb3pUbkMGTLeQJJ/Ctt6uAyieiK2b4DMbJGbcuG/Gre9DJ0P2Mypp4eoa05twAcjeU+bVGUDMQjIAjUZXyhBFVnuUZgOjFzmdaTQ+t84Sq2rOQ9qwuC64Pkuho72a2/2dec/svv/edb9pKhovl7a1JpEJAYhBpZTkEJWPt1ZkMrJ3JGkC00njcZwCFiZJErMwaKbGChIiVY5ZsOJ/vpHjnU9s/+WM/cJPnk+zwNY/tMC0iLBmZqhGSXL0olbzLpTz0gWoMo9kSHKnqeDx69WM3kunLN8zRj37gL77vbW+8BtxOMBCNRdkeVFWGMsBMRKSgDGYpsgRajnQAoBFlx5hNMRzjtz/+hcOMU8RGWDfnGR9hqLAKQyKxFyUDgIBZGcqsTIr6nw1fdgJcsiK7bKztOUGp+nMV0Vt+AvqEP29PNSeW/5xwTvvlF4ZQfW2m6POCMsCECByFmmUMGFjtmYiZrJv5h9ikrB6vZDcjiZQSI8P59GZskoO7f/O7v+N1AC2RJAMAqhlRREQuB+S1J6ZOR6BXhiDn75ruSdGABDcTAJgA/82/+6G/9Xf/3r3PfWkr2Uqj5ZJE4uIjyVcmF1S4+elm9422PfYCM5soy8x8nkx20jTTdLm3d+/tr7r2b373+/7sG24zFGKYo5iICURRfpaehCCRZrFmjIxIADIUZxRzxO52RKQSEZjmwFCJfusjH14YYzTKDPOVucRsg74QBmIRLu4IE40Nx7AsAxlWaV3zb2aOS4XcctqeR+/OaT2kq99CuBhbYXY4VBct8/QZsWyu9Xk4UD18i1Tu7m6olkO+dBryNN/3heedJugDp3rvbtF7HuTc20wbuw3dEbKVD92/e9nwSrOVPyv2/bxhClv5fJe66cwNgDZZeVGoWj+KF+aRgB0xSEGQSGVgsp10tjPbv3l876f+wx9+UpHNZTTAgLBM5+U2ripUpLjDtrgmo8xL+I/Hyq8MkzvrhPdHRZOEHuwvkxTxXF7L+K9/7N94KktvzmaT5Xyg8whL0BKaWXG4ZBNt8Tp/bDW0vK+VUvHHZSjbcQ5rf1WNYzLpcszJYGmi4+NXTZIf/cB3ftObb6eZ0WwRGzVLoyZPQywpT2BFpNaDEkBAREvSNMKSNGVy/nC6XNDOKNqmgwWeu3dfoyQ1qhyZ3NfNBo8gSMH5Yk+K9syC2DAr2BBLuUVOpJz/eZgSb7DBBhtssMGFoNA/6yiXhbGoqkDEQCIRVVijm5yZZ4WBriUGvJ87+Dt34yu9xnjLBpJrkzEtZjjc202PX7ul/8EHv/cZQBazrdF4OpfBiFXUWJ87XLdPZsvtiTCz3XAISX4GCxXFMMI4AaA6M8+Mo//1xz/0E//9P/zD/T0ajZeT0aEA0RAUkSgpu7dxeWSHVybO+1B5Nt83PcQHWPlQrj1duU04VT08OHzy8ccX82yyXDy1NfzQd7z3Pa+b8HQ6IOyOJ4vpcjwcsCnM94uLhFkZiGk4ms+PRSWajAUDBTJY+7gjUgAAIABJREFUR6g5byJMSkNlzBk//2ufXFAinBiKFUyiVKygPYvGDjXY6X6DDuiSlhtktZ2xej1is0qpQESGCts45PY0BsIcl9Qv2Zsbmmtd58VlZr/ODH1ZtJ4N7TzK0OuPfftyz/xeCtatWIiWL8qRen3xBvLb3GwO+ZWXwtgchfX5SjHLGNh5rt57N6daG/dmDGGr/TI8g2pBPEd7zChKSZxfm9bYGsi1L5bD3Pu26ZXXaWageSLHsyknbj/Z5DLxXbzohMT05o6GTXwzHouT1u96OUPgQJmv0LPWxnlWuBT9/fRQbpx8RaYyAMbjiWTV+AGr6xJiJbd3gQDK2fHixqgLqYWaKsMKs5in9158Ziu6JbP/+IN/6cb06Aa2JRkbIPW/kmJjIZdYhcEKiBg+7w0jksUyHW8Pp9PpcDx5PMG+YHGM//bHvv//+NU//D//yf/Dj93k3WsHqlpT7FqcRa43gLkEmglH29f2D6Y3kiGy6be8++3f9e4nbwIYCGfJSGGMRgIipbLlkAIswoqYgWS8cwjcTxEnyIBMkRmkaZ5lQ+AhjODZr+C3PvOlYx6mPFCOmNhuj0i3OyM2uFpQgoBBLEB+cFJE7AEgERSnTWLJJ24DVSJnlSsbX0YbXDlc/FLzbO2/T+IQ5mJTXBPbOYe/eFzRwxgbrIWqGmOUVLi9HcaXgbhqdb2i8/kupTvTe3/rhz/whgnubG0fPVjs7AxNGbZYCkcMzbx4SrNqIgbTKXXgwkpeUVvXAkxieA5wygBh/2ixSLNrhB1s/dVv+urDu3u/+dwfvzyfz6KBSQaAXWx1cnJ/SUGcjG9M7z4vL3zlbTdHf+3977gNHDx4/s7OFlQjQcxEUFYp+AsRYgGYooywP8NRhOfm+PL+4td/8/cOptmDB3tHR8fzee5zyBDf29+/+didiIafefa5wVNPpVESaQQFiEp/JupsVgTp7NDS6BS2uZ2o855nEjZ8PMACZMywljaKSIXV2AvtWDRfA4tCjapwFBnCPIahnA9TQDbu568+zkUROecJ7mT7ujnH3JCtZToOjA/NkAEqvAekSwwuSx3wud7cEyCfMyateURxorfjQGHZrwUTrwHWufSWUwrd4le6ecOrvU6cKg4gxC7n8dsYOFDbAft7P8X29/XwFHi/Mh5XNVnVHp1BMnSuoC9T5g+8/NDXEg87/TMCtXkyYwYFzYxjoyqAafvZNlvSHiMs9b6GnkXzi2BIBSSsQspDWVzT48ny/t/58Q+9HZDp8Xy+HI93ZkuNhsSUuz0TsHV1k3O6UCEIwVqmC2IFYaWBTQdIkTUVf+/GXjXKUXIwP5qMbswMJuPhre3hfLqkKZ6O8ZMf+oa//bP8C5/85O6tJw7TLKNYaP0G9wVflxh0RilFt7B/a37/i86nN8fxjRR/+29+6DGA5/NXXb+VmjnYmjwQICCxVVFYafE8wjTCiyl+459/5dc+9vFP/8mL949VeBjFEREzbefpM5lrO88ujKTp+InXLKJIKRKwVea40Oa90x1BVd41N/IyfMKSWpGWF+b0x4tfeSAW666KRHXBmg4kG5gsVoEQK9gIhOy2m4GaOObxII2TTFmiyORttHBf2+YZaYMNzgNrL7h96MrN+eHEbuaVPFXVjce+zy+Hsm8C5j0hNJXgFqWIqpBuiq3h9cIcgZyoqWjg+eLxCDf1hw4xxbnQ/I6jOmKBpgzDfjUwkRATkZLpqVyG7INb1RoFAxMAoKlSpmZ249ru3vP3ouXhDXP3P/urH3ga2Lt78ORkMByPzFCMZqw0ZhUDZRJl0dw0XggqqoqtLU6tKs+UKiIQ9IQshV2J5/9BuYUziQiTyWAigkShjEwwGA4iBWegBf797333Y4/d+l9+/TdH1x5fTLaWHGmatXY4t5DdZFxbeV8jbQxZTaW8pwGPExiRAgpjVy8RY7qEYjJgvPziOL3/I+//V95yBxNdxoPlDJHhGEkkDCTE+fWtmXWiTzQyMb2wxD3B//6rH/3lj3z8CAkNd5fbsRTbJyUTYO/EFQLHnAECIiEUdjX2BHJePnadyaSB8UPd5u4F6UDfhson0IrcNu992qHVbdT9vMhmy93bt44O70Y03Y4Wz9zefXK8xYtlRszKQ6FYxfqflkgXcTIf7Hzu3t5zD44WPIYwCKAMgL2VuXvi5+13/LLhvO3TumyO+B5RHJvscyjai/DIsTKFSn8FUJS/m9E1G+OdbZpDtvK5AMSlpEH/687zCo8rZY5CgjeZ+GbFSrOPUsXHd2kIoZr1pHXYKNeKOrSQ8D3rUxVDZ4Rt0Ov3CVhwoMt0uTW2eFW9L2IOcvpVuqfoF279AqpU1nVo4HXy3nNX/Lxt3899fOg5X1h9T0sP5moA0kLzQXF8zPHEoqLKqrGBZoTUOqNXsEIv2CasHBdUdD5Ns8Vrt0Y3B8v/9IN/5a0Tvg3s3NnVVFUWmVkwUwRijoQMNAKgCmuzogSjKiQgGECBTEGCyKrha8sztG8FkMIA9QM+yNcP5edRacNEyDIdZunOeLAgfN83PXNk8PO/8y+mZn5o4pmouVQnM1pZ+fKGLuvB21oyC+J0eXvET4wG3/1Nb49m+/GWxipLRIrYHgliJgHs7bggMUiE6UGKFxf4L/63n/nkC/tm9066BI925sfLsof7l5sIAJOPolTO7qUeHzwHvMGVRjxYLBYMGcjyHW946j/6t77nzSOkBkkEBkZAVJymSIEpcA/4T37qH7+wv2/SGSXbCgVlGz5+gwvGZbBQvUiczYWv1DbhWqbcVXP7j/T1+1kdVb4pSW5x4P4a+Pb8cNXtAjdM/JmCi8Vd7fQXV6qZauud0TEREV001VS6NwEJaGqvQY0F0VxuxGby0t2f+BsfeOMEA0CBu4vlFtOAeEgJK6S0tyMmJrWXqCoAEVoqpxIBAMEwH0OIsNOJZF1XAC22MVwfx6koxiiW2fxorNdkgScm0Y986zM3J1t//xd/NRpdk61r02jQqZgeLgrDJxAhS6MoTiC8mJvp/vd/4Dt2E1xLrrEeC6WsDOSHEjiKVEWFVRUUpxjNGHeP8ZP/3U9/7sHx/SXAPN66/fL9PR4llTmYq8mHxHH0eGLaKPSPEogiGo0W0+k45jHkm7/uHXeGiIHbETIgFsQCymAUGcARFgM89zI+89nPLaMxKAbs+YnN1QNXG+ehFlxOVSNomd2UNjA1t4RsqqE94Rm6hJj4gDcYTxCikokP+qdv8lmNXYXyNlwlND20aOMr+1nLnbWeNx5vsqnChzj4DkcQutz2Wiuqdg3ebQmBeEKcY5ebet1k5ZRsNKFpbd+pr/Wct/v23wu2Tz5PeG3EXvlUnCHJH1x3iPnkV1PltXRwjnP2YGP3xFVig+10MUoXW/sP/vN/5we/Zhd8tLi1PUyB4XCgqiLCJgIMEwwBGilXFnXWXUp5U5QCAkkJGgm1EgA9Ue8qwWDlcMCLJDmYTke7O/uC6QLf+w1PvOr2D/6Xf/9nDmULDVWenRZ+ZuUdNCLvFw1DJFsOhkgYcTb9qtvXvu8bXzM7wpPbyMCsTPmiRspR0igZBSNaMr8wxd/7hU/8/ue/ktx5Mtkej28+/sLdB6OdG8t0SpqfAHaG8FUkxUZ9f3QhSZwsZkfDLYyN+bZveN11wi7MENkYg/xWlxgQLAFhRMAv/N//7MHRfHzn9myaghkxswipvR56gw02ODOcDRN/FqlfzoVZX5ztAPUQJsVHohauEKyfSXtIsHopqg1V3nHkaE2ZqDJssI4p+yQbYBEKo4vqDQCRnWuT43svbWcc3b/31ls7f/2DP/g127g2x+54QMZoBAMGEZShAokQAwpQcdmQ7RiCW1vX7+0dDpIkYqTAHqIBxlFxJikqdGz7J79Usjy97vzdKr2UxjbF360b+RHlh0UzUDrZUeABcAQkYyyAd74h/okf/9f/vf/pV6ihkioqP/HqRx7qNS1u5RvnX0L+1IN+1rV6MJBhMsiWUyJKYlA6h0nT/Zf+7R/9GzFwbRuH82xrGJEYgomYlAwUoEhAKUgQgQgRfuNT9//xR38/fuLpI4qXyWB2dDQYj4xZAohARXvIE66Nca2bRfm1fNZ1iYT3k0I2eZ3cyrS/Dvrjd/+xZr2x8oRDB/S27e4V+iQ4xcRUjAYMWhze35oMB7N73/6N77wB3ATGSNPZXjLeEXCEGBTrgBPgAfDFPfP7n/oDHm8dHi2SyY1UKDLMakiRPUomNisrL78xFECvVrEyzqa5yAmMHM4XPdv/5fFdS84Nr82DlSs+WxFbKP4m5+15bQ/YBXmUtu9hxjmx6nHnIQ82Tvj1N8I2JWyy8lW6VP/MeeZ6Luy/vZ2BQHkWvrBWyRny+hLwAe9Z5Pv+7Kv39eTWpBXaCfHvDw61p3oJr8bqhZNXX8zACt7XeR8oq7PCI3FbbUsREZGBGCgzsebm3qbQ2VU5zlUhESou42R7Sazaq16V6RzNAUlx+NK9p3a25Lnn33Jr+4e++T1vvYGnB4jmZmBESJSYCNAIIGscL44xv82xAkZxf+9okSXjyfbnXkScYZzNKVf0lq5SZ09R2HVF7pZeRFTFIF/LVH8pCt8pqgKIqNoOQ1omDlVlhTHlrbCiqkKYm+zwaGpAo/EWwMtMVOXO17xerpIDbIEKgxii6TRbLN70xGNf9/pBPIcC4yRiIQVHKpGKvWRX7VWuUZyJiePoEPiV3/29Z4+PJ1vbtLOVLlVIWDMSZa38hZdghQSG/holv2Horzpsz8pPUKnsDpn2H4yWx+9/3zfeZMg8S+V4PB4qMgVbN2dHcx2MaA586l9+/vmX9wY7TzK2ZwvD8RgqkcQgIeUNabTBFcLFM82hCT0kyVm9Pxm6mY6cPPwlwtWSdoPzBBUnV5tQZtjLVVxWnhBR2FflKRE6rayFfxVSTSiZvvDSW0bJj/yFb33vq3h4lA0Qx6MIy2WkiAUR2F74qAUNDzJEsTUXsq5nRYHt7dSMnjf8Dz78CT54LjYLQ7Go5W7JCiOSbzmUkhCRiKiqCBX8jT1HH+UBFFAmTUFLqAHAhSdEmzsRZUCMCIyKkkjpU2V7Z0eMHBw+IKKtrdGDwwPz6zvLa085JVGcXyfp0o9FVpbnmaJkoIkI2QImHVD2vve+dwsYCzKzpNh6q4lYqdjkyO8KVtV4ECnwsc/e/fjn/nDn1U+a8fjB3ssYbUFYhUk928Gg+u4+Uy5Mbh/WWloeuV+4JqzD84O7phRq0a+rokfIUO98wZq7IbIEYQKzrUuYo3e+/uln7mCo1vsRQyNSkDKECbw7wp5gOsNHPvIJQayIESWAEEUsiIRBSIlBLVxySH3hNu8aKyQ35zDfevbEeSM7+V7H6hbfLAk//6clGnr7pT5leg8bJ2MBaxbbZ5huX48fIUmCNu7ur0Hb8boMzVYRZMdPWJ4MtHh98ezgLyVcmTezx5VGuxHBOSSUm8or1HpaV6hofE5K/Co5tNJ4Bkaw9/Ibb27/6Hf82Xc9yTeA7a14OZ3GkwmIIBoLMrKGMJS7r2ozpzaMl/aPplsjHg6/8NLeOBoyIqFEKCYmREBhWpR7M7Rgijix/1RVQpQHkDw87MymDMoEC0aWiHA2T8ycxVg+Pi9ABsDMpEAEIiJmOl7MITremkDMfD69dm33/tF0OzuKOctokHJsKD/7ey5e2HpaidTAZA9TswppKkPIrQm/78+8SVOME0WSZCJGlcFCEtmT1woGC8t8thhNtu4Bv/Dhjy+H21Ph+cEBRmMAhVt4CJHLy54brrqq8AjC6vF57eP/Z+/Nwyw7qjvB3zkRd3n3LbnXoipJVUJCaF9AArRYCIHBmEVgbBqD2+423aa99bTHa3vctrt7Zmz3zOce293TPTO2P4/dHreXr7HBGzQ2GAyITUJIgCQkJJVKpdqyMt96l4hz5o9738v3Mt+rypSqhLDrfPlJWTfjRsSNGzfixDm/8zulB1yKQdsO1r/1zrfuS+D7aEZWuNnNOg0bgBjEChQeueBkD5/6wkNhc287U09pWJt3hUJ5pit/2Oh0eeHu8mdByo99mk9+3FMJAOfJf54HOdd0NzKV2+K8vFBF/44vP+dlByKzEd4l10sZ+Trr9kqV7/f6GtTGVd1RiZ1i5adY4kvlu4TsazV9S/dBzefL2vvB17/u1n085ytrXM1EcA5swBCR0uZLZrghEYSM0TIXUVWrCDgMbBikeRrWE1XxJAIr4I2zipnpJaAqhaxHZRUgoNoAy/1NiF0h9WbDp+0G3NV7m9RbI2/E+SiIpmoJRFQRBLEyEVGTmGR3KxV++OjxddNsm6QXRCAGquaHh5WZ6uf4ZjuOMKnmwNZT2ZYy1e/jXPUTZJSjfFggprTbSxZ2pb31iAKbn7rqkpV9dTQDGCceMEpKrBABAxbeEAEsVtxcwseBz53Chx890Y9aqQSgAEIgU1ody1kwFTZ6midGBSwfexQdpgzYaqqvfpfRf2bVuVHVVDkdsHFYZCywZJxbl4fvdfptZf+4fK7qhDnWnam4Tdq57eYcn9W3owJuGQGWoZYJeCYvmuWuGQW3vvziwqMeehWXqUHQTKlgBSygUnhBYD/8+S9La18utdDGnlmcAOQZogyCjpnkp51ax1VYKU0ao+uzvC4yaw489324mr1jcwYegEwZ1c3KtxBo9tI+ZAkTUhjZTF894q8YTbMhV/SWMJ4dPuPObUM7LL9jq/+5jkXZbv00YZpWbJpKTJi68s9ksNncT6KNxEe8pbbxCTW+iGzq/1RMfHXPBE9LtV5N71y1f27+bCazyW62Rg/R6hsrIY11qfpQJmoY/0Zko+Gtu8AMxn2M1b/11uqvY43M8jjpDDvBREfG3z2NF9Az3zDZ2tRmZjHSTD6vmV7jTtex6l2MscWfYSkcX7vOrclglrdnZvkdrldTX/U2K5mpfw7HZIP3aWwLU0Zpd1cqc6tpWXLTRPg6WOVHQorIy82Xv+jyFVsXNBnkhp535xEwjGFmEQjDUDW3ZXKOl/llN81FR6xkS1T6tpbasRWJQaMvkxUlx4oQx0u7ekceDyR7y6tu+sFbDgSAF7BHzU73SW/ltioHv+vxucc6v/R7H3A2SaUiUH+hudaI2HsPa1yWsyImilxx+/VXzQdgqMAxB2AWgghYWYihMKiYejMpUq59+pHDh7qZabaq6Opqng6dQ2eKDx2X6bO0gmmVSvyYQg9AxmKsJ2A65buqDmibnnlWGrNtamzP5VOaGsS2qcK/EwE9ACAEM3oHWp3qY8t3vuKVSQQqYChXVZhQmbx6J47UE3E7G6TU/JvPfjFF7BEDlgXCUm5RnoGdAEQ2jefXlRxj01SUbWC5ZqrxpRNzWEEFf5NhE5tTVhNAUNFZKWnOy3OXCQX0XDQwpuZux+k6q8jMSTfj+gts1/pGkg1t/vwgnhcAW76+MnJ14rQ/XPN1aMoZl3PMxDyhbG1cFlUrUIWqNhvNxRAGEK+WiLgEtBDEg0AcGAMeO05WQW3T9jEpkUPnQFiRrq7HtUarwO5ajYF5wDICRggEk4XLHpiqt8OdFQBQAJlBfFnzzpe97E8//1Bsg3Soe2xHsZ0V63nWz2MinkFxEGaDbt1o1j554Vz91pdekQAQMWyUyStUQDDKTEqoNGEtGEqtAfC393xWC6eipflTRbafyW/UkdEjbv7Lpkcu/zWuqevGP7fPwrF1JLcef2ffeJbn3rg2/3dGj98kDAQeoYjNe2+485siAgAPMgTL5AFDxpEXEW+oVm9+9pHVLz3yaF6/UKwAUhK/gtzQnVRFk1TR6sMxG0/lBgAq4+M5dgR43uFYNCQMU63+y6KqbEQmPnYepZwGZurxo+f14y0oC4M3m/nH/qllxNF4hMlzeKCdTtRzPLGf3dr4AjrYbAMTP5E9dIc9n4XVPv31qvXtZyStrs8oM+v6tmXEt72ptlGE1bOo8/mR08cknJdvIJlqdJ+dAXdn4sVPvU5MEIgqywZH5PO0jZU5ZUeSpmlpVXN+rK9qoAzxqp6nur2GHJuq8KMjQ5nzdpJu88yyTat9r5+YkNPCrbeNQxNoAUGOEDDDH6uwikAQeoSCUBB6BIXaTOzA24G3GfpdqQOvuumybG3VihiBGYMOn0WZddzfTkNEJN6H1iDvJcgXDN10+WV7DcTBEDOGGZp4Cl2AU3O4nz1yZPDVxw8H9dZ4teP5h7cvuvWENst8Xv1S+qBK+L5lYejYz4ZMp3zafOVM/SU9+0epTf15IW9Fz06EKn8UV9+Le9GepRfvN3kPUE9EZAIABkKQwFhjwkLpFPBnH/tsWF9yqIwTUuEIBCRgmXqY2qzHQzapIDL8GWrMW36mz5+zIVWdPDq2lWGvIjTZh6owEzERb2fKUfm8XLplPUOIRz8TTzTsw1l+tPNyXs7LFim/x/NyXrYvI1zNVk/yaBvYllV+mz6giUNJxXFZGUvHONtFFKQqJdWO+iSOsyq+EkQjxBqBeYM2HhBUuVSFBACDNzH1EJOIJ7ZVkyM6fR1DWcza/8ax4wQABmMGUQUDUXM+67ZrglYUL1hQnrfCMDMK0NCgVVkdmGh0/GAQm41v1xAuiPjRFImBFSfwpBUwADP2Up2Fa5/R/43CwFYCe2CCwx4ocT/DFzesXxVRHHfW1xKWhuYJy10vvTEA6gZGAIIhGhJao4Q+8RCs6GA0MX/yx3+z3pfa7mYvV9KhhjLZykYXTm9JKk9s0zD9056tEtaNKzSjzBkrAaB0hvmvqjtxkm5BjZ/pXtVqxJ6FQq+qs7aNWe3uODLvtJEA0xoWAJ6ggjiKs3Y34SBx7o23v3I+RCMC5aoli5QKSHprqwvzKx68NvCDxPzVPV/uU4sCK1BRX4LrlMdcJyWeZOpTbBz2qle2qZgQnUmjnTgGTORnoC0Te/S+Zl0fjogKNvyOqkSm5NWZnFeyMdRMZuPqDuSMQJqpye13JDu1Z59rVtntfzXPzhK/rfpnFKHx1zfkRN+mjFvfT8NfPoYcnbguM67PKq+oGMHHltXZ/PQzrOzjZcdx57Mw9DLUBpQwhTN+K+P7EGE/qnB47+nGlba0O/ksMzLFThaaennSzkUTXZp276zx3I6cLXPPLG/P1KLPqvW/X+eYca14FrtUxY1+2npEVUq+wDIMhjbf8HylOj/Tcs0l/8soAJ90hIrXMrZxdByobFcKJRnqeKLjfxIFnnV0RVXJ6boqFgjEMUKrucLo5PZ/+oY9FCqHnjwRxUEO8Sy+hKYo8TRNfVx9n6nKz0zLNf06zVKFN0og6/cbtajpUawfvWTPwq1XNooughijDYeHClPpZuHqoIUCONbHZ7/0mDNBPkhhojO0tQ0NY1uimEg4QALlM7ADbVFDVTcH8Gz5ZLaUL4uROddhJ1tDY7dZ/usYDzNTCMLoDQbNWuJWO1GgN191WYugHtmgV6snQmAIFIZMN21r1Gom5s/uObmaW1cLHbEQlERoaJngYajDNKATK4xs0koZgBL8RN6MMy4afDrleRSwsTlkcMb16S2yqlbm/1GHt3demjhaVFeqPHil3aT0YRBRRcC/sVufHXTNedmRnOvhnvXZz2p3VvmZ9TwvWtlOs73KDsu/cOT5Gc/z8gKXiRRPw4sjsAnRkC9kcrZYft60+UnhYZShqfI/gUo2uYpgfbteKCKMGb/U0FRL9I5FxrSfUfAroI68V/WAIgeMVSfOnobKd9NDKGkIatUMB6i1olUSN2KXkNPqjF8XITGShZLfcsM1CdBqIO2Bwlmlqw3CA1/4yrFHn1k1zZXCqzHgM+9ZDNGpdAi6wbM9dqSZWuEGdYmgVGtKBYi2AoWxWVUaa27zU83md9sweRNUQUy6mXmEMZvfflLOMlZ79CAjEPazqORcsYVW2A+SNI/iejfLb7juJZdfFESAsnoC8RCIJT5JogJUqPYJH/zYZ9YLqtWD3HmEY6mgKhfYWODyJju4IvQw4xcVADwjNxvxFcP6Nr8rGdOkaeINT52HOzLdba1hzJG0+Y5R4elMFBjr+liXpdTjx1sYHQhltEYRNsGHqs9xp1b2HZXeef3bP/Pv1N6vO6x//K7ty+b3Pdq8Zs6aGRbf02YPrRDts63vs8pvOK5mZeUcr2cWg834GG7pf7mqTGZ32VxBuaWW6SnHLevjJm0du1ln1HN62c4hYacWwS07/hnqfz7V9+2oVM/n4Wc7be3UK7jj/r/QlK4ZMoIZz9I27VhR0RL8UvG+lBCVM7EMPVspd/NtvqfTFHv+UMQk5Y4+tq9rlaZqq0Y4o1cK6vqBM7UoilZXT+liHSoVp+YYKPb5NKOWnS+ZZ1QFVEIg2NSjQWe9lnVX4vCKAxf32lhuwvB0vZwggAeMJ/aEj37sk8sLyx2OnGfo1owhw9TCgII9Kq+GapmoszIiskJUtTqDCsNxpY4YkaHiW5reNwJbGRAhBjkLRypVTlllgGWIey7fjjJ7BRM79dW+IrpBCIrKnB+onJF/qqxZBMMMVhvaoVT0/LNiUcZiGTdtsQQi8kOiUiiXI2bgeeR/2GqsVcbkQRQAmFxJSDjS39SXh46p9Go8zPwwdLyMv75q0wSJEXA1SsNulOC3CZ8PD8en+ih8OSbWQAWWVdKY0tfeeoPrqa2LITaNGgBTDhobYraIMsXhp90jTx5BWBdr83QQwG6cknSY6IkVJFAFxKgwhFQYEojUvEQTgUMMoGDOlQuGgJVYySihhJILMdQqeOh6EoIAolQh5rfuwQQpi43NxmpweLSwEks5AmRUVUgYQnBWxYgQSp1byndtpbLQABB2ShCwJysaCKwSC5gm50B5amWIEZAKw</t>
-  </si>
-  <si>
-    <t>a78ed074745db178e499830e01e949bf5</t>
-  </si>
-  <si>
-    <t>dVbHruQ4EvyXN3tTL2RKtgd9kPdSyZvFHEol770b9L9vPcx5eMnISCYJMgNM/u/vr/XrJ/Tja/r6+ffXf5Zs/bb9q8u+fn69ljT/+vG1XuO3x0o8q8qG+GHeQzvMH+qPFEchFPkw/dYl2Tf1wXu1VEn7SVnnLfvxNQ/bWvXFP7Emu/4ByzCv5px+5/wX/vFVvYf+E0hf6+tn1b2KDBz74s+jStfyF0r+WWZVUa7fKHktGY7+qHzGtA9IFYuB/gzD8UreKz6I+3bpg6Wjj2FCeu+kDxBVqOUt30bpNGQC9HzHFk+jJgm+SWJJ13U1MNuJhKULVU8X3rw+VDyr24WiTIldKexQOUU3V3xHbpHRsG/XghSWvhw5GuqCiZxGSXCLpBmHqYyoPKMSXxkEj3ykSz5jzvveINnTuRIiTF7EmCAApM7wUHY+aQGpRis4yFfhws5UGN8tYlpdDzF7VgtRe4kiQXMveIPPblqObYfT2ThKduQ+B3iYIOrcehhvTJxbHTxEEoO+ROZAyNl8G0578u89YtvtdGZyEvy5V2Ot/Z6QbqlpJrXaHoDBcei5fpbTX34fSK4TnyjfXoYNioY/IXbXJNWpeTwFcIE/wXZqVQpPreRD7vcVmQyYsRyFwDHgs48+hHysCJEgKlklNSU2BJGA/Cu2eVV/nqpskZCmsze/n9rx7xiVIzfgGaKbfbHNXgrn24rZz3qWO9vKJRblUMvsPtowUJsIs9zcg9tmx7GTT4ugXmA3bzribRdNF6BbtgabKWbzhsGeOFaBOi5dVeoP8OSBfqzQriUKt0U4NEl2vISyLFH7ByXsIMo8hn0fqgtSYFoTEZyw8PQEyWpkfHejpwfKopLiRIocM601Dmrgh/LUKIGQqFMjBMLMjo3viDPbtv6ljmzbdFfNsKRyspevll6pHlMseOV0jLH/riarjfxlmiw/Cha1s335vfEaYzonZ7H7ak6GS2yD7irYdZIT7M8Kjcm9cgYoLUsKj5kxIODMZZvhmsGv4YFV8TN8t1fUVQV/erWEgDkQdOEWKkpxRMOOc/0uGZB2zY86rW8oA7rKI4MLfoLYDUwEwch3woqbw0NeMak3guKSVBmi7O3GFjpxvz9NKPHpB5dumCH2FY0OY/BeYCmPlSCOmDjrlWLjnSUgrHYoGf5d++yc8adeskGilFHnIlinoJcaKdbiLJ+bbur2vhUtYwxhqSInm7ZLP4NYK2rxVuLXBZ3Z2LfQ7ZCRk+qXh/JGVZtxlkfhUut+5zg5o9R66eBBr030oPLDeZNwnA+Cu++Yb3VqwKlpVEPAy2lcr/XZUdTKs8zhZK3aR51Na07ebEIBDUZdtxQ1kYz4SmfTVtF1iwPyzj68VCeQ4zOXqK0Odx0jLwyTceBhKDkBfKSAyY5+f+QYIoZAdvYWbF4WbruFlxb3FEKCT0esW1TTIuzeWhnFx8CIEFQ3pewcgP1TrIk8B+GByEG+G3z+LE0qagI5g8eS06C+JAZAH6mnM2htV229M16Dho0zH+CYgm9E47r3xi9JOLfhKkqxHlUpr2fEnCUbpu8iCRtj0ShyS+EUelDbONdLAIAgJi2JUTMzovgWJu8mCYNG28hOKabliFF8e+bGbat8kum5JkuYT1DjyLgAk3NN8fZE8uHcl8w5kXa8MP8GCnKzZ7txaumcT+oBGchzD/Rhfmqc1Lg7Pj063OPUAnshdp/ptXWYNBXKYEmzpoImC5jD+LB06v4AJVMwJA8FPp1jXTGqx0RJgvPtwT4gKqsIUJBLN/Rn6tmEhN/fy0g3XDWf12P6VOQtjS6x5O3FvaDLY/QASZELAAO8vgmqQfU1h6X91EdPIFEPomI0arMngSnbQ+zhrY4lqa815Op2HhegmgMp5Tnfwq5TqeojpMMXDgQNDortGd/Ix5EY6EG7jKLCLxSaSa5ZdWEyonZUsPw1wVYavoan65WeDHsAkUUglQToDQLQgzAQqs4hviVDwA6YmG2LMbaLwlRJUNglzmLWM0ruLNch/ij910p6j3cBdh1fCtoSHYDCMKxVym+/t9HDeuObFmZJjS3N6nrSIrAPucOUYpGrmEazRnzYPS9JtShUVbcQ9BV+KsDlpD48ByiTUMjMh5jAAbhLisEvCfbS4UPnrANZbN64pZRM3syaady3rh4sE7qB0cTa8BaZHWAMt5DiS4xCJ8jOPDu2FdvaKbJTtfVf2CUSgBxoHE8YmwI8BWY3iHyyepoPPs9+MaynDscFGyk1T/D2R2MMqD2zZHzhAnMJ3/3pyDtUWtPStF/VUC/C2ulrv0TTLmC7caySypXi7E+1RK4HY49RWetnIWB8rYqc61dPpSXorZ+I7b2cAEM5/g26mtaexvf/gmYU28P4uVGKovj16+v3799//R8=</t>
-  </si>
-  <si>
-    <t>asdf</t>
-  </si>
-  <si>
-    <t>#d64042</t>
-  </si>
-  <si>
-    <t>data:image/png;width=48;height=48;base64,iVBORw0KGgoAAAANSUhEUgAAADAAAAAwCAYAAABXAvmHAAAGK0lEQVR4AdXBW4xcZQEA4O8/c87sdtttN5RSYFsmXKUMFcEMoiECMRgJJqbRiJCoiSgmriEm8uYNkCcTQ0JCAySIYojgBYSkJb6Q8ABSBiNYhxYh6tB26YV2mbbbbrfnnN8CxSyb7Xba7pb2+0Kr1ohmV8Q+dLAJ6/EiXsCr9XZzl2OQmn0BvejFYlyGG7ADa1u1xmqswuv1drNwhCpDA4O3O/4SzMXZuBZfQm1oYHB4aGBw28rOcNSlxEcvYCluxSr8qFVrnKZLlaGBwdudOObjKlw+NDD4xtDA4MaVnWHTSZx4ElyNR/GNVq2RmkbixLUE9+DWVq1RdQiJE9t83Invt2qN1BQSJ765+CluMoXEZJFYFGJeiHkh5oWYF2JeiHkh5oWYF2JeiHkh5oWYF2JREKMPxKIQ80LMCzEvxLwQ80LMCzEvxLwQ80LMCzEvxLwQ84IYTWEB7mrVGleaJDVRJOnrMefSutDbQ9S9srT3lXWKkY5QTfU1lkv65xEdgWjs1Tfkm7cRgkmW4uetWuOGeru51UGpiWKpsmihM3/xE+npi4ml7gTl2D4bbv6h0eebKn39Fv/4B3ovvoiy0J1ALG267Q6dx/8ipBVTuAq34C4HJSYJIZBlQpoKWVXIqkJWFbKqkFWFrCpkVSGrCllVyKpClkmyjBC8JxCyVKhUhKwqZFUhqwpZVciqQlYVsqqQVYWsKmRVIcuELBOSxDQCvtOqNT7uoMTJ5yx8q1VrJA5InJxW4AIHJE5OZ+F6ByROXte1ao35iZPXclyYmigExUjH2/f+WmXuXJJgwYov6DnvHN0Lyr3jdjz0e+miU8Wy1P/5z+q77BIzbCGuSE0UgqKz246HHiNGIUvNuXSZnvPO0bVA3Ddu5NGniA4opWcs1HfZJWZYBZenJguESsW7QlohBEcjVCreExMhCWbJhYmT25mJ4yKYJQsSsy0JkjlzzJLeBNFsiYSequyMxWZLgjGzJZay0xepnl0zS8YSdMyU4ENijOZefYXsjMVmSSfBJjMhS6WnLqAoKEoxz81ZfoFTvv5VQmKWDKdYj0+aSkTUlVCpGLhxhf1btil3jeqtf8zCb9+k59yzHYkYI2VJmRAQgmmsS/ESvoaKSWIZxfH9ujXvM58y55I6+3NJf7+Qpo5ISMz5xEX2NF8mRuWuUeXuvQ6hQDPFX7Edp5msKOQ7RnQtBJV5/Y7FKTd9Rf+1VxGj7ff/1o7f/EmoVExhO9YkWIe1phDL0nh7o+Mp9PSoLlmiunSpyoL5prEW65J6u7kTTzuEsbXrlXtGHZMYidEMe7rebu5MvG81NpgkJIl9694w9uprjsW+//5HsbNjBr2JVQ5IvO81/NlkIShGdhp59ElxfNzRKEbeMfLIH5V79ppBT+BfDkgcUG83SzyIDSYLwa5Vz+g8uRrRkSjHxrx930N2PvWMorPLDHkTv6q3m6UDKg5a2RneMjQwOA9XI/hACOJ4bs/f16osmKv3/HOFNHU4+dattt59n5GHH1fu3C309ei7/FIhTXVr9PkX7VnzspAkDirxy3q7+QcHpT7sflyDa0yUBMW2d2y+/W6jz79k4Mtf1HvxMpUF84U09Z4YleP75Ju3Gn1ujZHHnjL2ymvE6F0jD/9JPrzFvM9dKV28SEgS00oS45veEkIwwbN4wATBJK1a40r8DktMFqNYlpJ5faq1QdXaoPTUhUI1U+7eY/9bW4z/+037N29jf0El8X+RWBZClgpZRggOK8/FvHDQBtxYbzefM0EwhVat8U3cg/mmEhFLsYw+JBBCQhIcVnR4wQc6uLXebj5sktTUHsFC3Im5JgsIiZA4ekG3RnEHHjGFiims7AyXQwODf8MoPo0eH40OfoZ76+1mbgoVh7CyM1wMDQw2sRENzHd8bcBteLDebu53CBXTWNkZLocGBv+BNTgHZyGYXSWexfewut5ulqYRdKlVa5yG7+IWLDE7NuJ+PFBvN7fqQnAEWrVGgotxM1ZgCYJjE7ERT+BB/LPebpa6FByFVq1Rwfm4HtdhORaiojsFtmMtnsYqvF5vNwtHKDhGrVqjH8twBRpYhjMxgF5EjKGDTViPJl7Aunq7ucsx+B9SVz/TLLlxNgAAAABJRU5ErkJggg==</t>
   </si>
   <si>
     <t>web</t>
@@ -363,6 +333,30 @@
   <si>
     <t>DTSTART:20190701T120000Z
 RRULE:FREQ=MONTHLY;INTERVAL=1</t>
+  </si>
+  <si>
+    <t>ac847f98eacb81553facf199013ce4446</t>
+  </si>
+  <si>
+    <t>NJvXjqzQlmV/pXS637gtIPC3VA/4wHvbTwTee1uqfy9O3e6UMgOBMHvvteYcM5P8v//5Z/vzT+gff+Y///zPP/97zbe/n0PS53/++YetkjX/N3bJs3r7NzZZsj//+LPd0/8c+vKsIuniuycdu3F5d/2vjIQyDH33DHv/y//uerePeq1/3XvKtuz5P/4s477VQ/mvY21+/2tjHZfNWLK/5/wf+B9/6nQc/nUg3ZclH9KbHbO/d/Uc7s9//dd//eN/HhrG8A+FERj5QRHq/w3gX2f+/4H8yZIt+WfdJ2UOTkP572edbdV/wBD071Vel9X2Hzjy7793iDj6j9pnDPuEFLEc6fdLd7yK98p3q7DeHzzJ0tL7yWIcZfHvRknzHW/5NjoYNxX8tG0P225bUPPWH67PMUvCt+ir2cxXmttZEX7JEnr9svjqBVUALjaEn4JABoEniLrcWHBNiX0/jBDMrP8jSTvwbqt7Wt1v3cDyf8V+BEVifSIWASWu1J4UAC4Kv55A/UnEOZcKwj1R75Ut31VRoJPfST4TGZWUVo1tmjp5pnXoMpNh32r8WBrwr1CyMyiD7FWVf4fJsayocbjhw7KlLm3Cfh3CrYhh/Yb08zMwElAB/xQxgIoqWuKklu+VuNBXPqloRhEFljkrui8wkZab2Xbb6rKMKVQlJTUPttSllusym0rxO8/U2zV8DfN5uySX8xa9kzCj2Txxo08X7P6CWVPmHdjNlzUx7xxb1XQjyxTaVT7QosVYW0saBgUqnXV/Mwa5CVFTHo1vMQw8ekB27K88GpbqGZ2bXbU5Q4Ijxlc+WraVCunJ0/L5dfqjyBkrJib8rpOQxD1Z+U0Rtgu8bZehQ6brryoIiIiXwvuARLmj2EFND7gQKxITUJGn4LqAO/vd5ygsgPUAyaIosgzE9JMghiMXljsP1tJuTzpYSpor2VBzZOv0ytGUzoApQt/UnR7nlXFgb6kMRp4JxKeiPW/lG2NwWAdgvjgYcvBG/fAtK4zimB0cBBOzO38B8tsaQaRPMerjgeEy785YaM7SYsEqVJNbxqYvB43L86FRN3WGtN5JsICgo3V6SqpsC5VlmmUY2uadsZJKabTpXkjEMYhWVAec9xwze55a5Ganhh+YXFxM0WjNGif7ygWJs7x2UuSe0aikrQVxBIFvBYO+YQwPN9hoGLFaUUoMo2J2X+Dv1cDLsRlOnEDjrRui/k0Cn0tld1TnJlvXIANNmken9TnjlJ+k47qbzWZbSUJ0r5Lm0Ox2CwXBLybGcDcz0tJh7u8i0Khjv9lIMw5LUeOy316kxazscQ7DijzCQHRXSZEjm5CPqjdYXfTCM7j6zauVc80xZbFh1G3yEEaPB5pq9qGqcIeTKwHwghsZGeGiOGL7IxT7dozhbAy4flSGVDF7bE59DuVE4JlKD8IIiJlbmsIF99RHk44HhZ+GMgLZDJXfFZ9lFDUQpECoMi/yfcZawDBNpLgv+ka+4kIzLr0eP9d1fsj+SPuCWDevS1cZQCsv7QyLXXvMSGSRdRVeGPsG+xQJOFsBHMnCUXmJdMN0yJsGT3QkQa3N24L6hLK3xzulwEVwbMkJ5NbsCwyuqVDCATTDKzXpAp3YrBQ0N9sjiecQSJZlV63JpLg8FUaJyuMsMBwrJRpJsynEop7qoLLRQW+5PsQk4o0llyh7g4UCcRR9vP1nOhMrfSvnR3MItNBzZtPuvF8zWEvGSkO9IktlAT4Szxgqz2+HUPW3TmJyKlMgE3ufTHEqLq5nqgR9+E6Fb3JaGHqNcklDJYIpquhBVjEWI5i4YUeuPgd2LV8oCouiWBr9GJGt2eLVVBmm/VnrSzmpTJalew3wfOOsNqDBPw3X0k7iSJMqMuVE17lXOXy/GmIQGeUq6NIgndAA8ifjm4AsWtS6oMrWpHJ652xX0WV6We4kbiaBGo3AIXK7d9lK3RnhDq4WolzMV83TIcZEIDKaHJBxmqEJPK6irVqzWfFbClS8/4aPDyrhTfBDIbcaGFYMe7GDXuMdz9kw68EtsbnMAJAkSOFDASSBWRQWb5P0RXg0LjF1ytto7jk25CBeD5Uy69OQoY7s9/zmAWDqx3GEQwgiSQKk4Rov7vcXb4c1zS3SjocP+xBhCgphpMc4OunVPmXpchEWXXE5Amhx+MHi6Pl+mxZOuaFokqPEasaZ6gTyFGYxGXy7I14yy8KvbbxP2/H4ORQ8MGKURd8fWpEhpRO2JkM1iWaMuLIG/RVi3a8sxkveKuQR0QEU0vH5utWxH9CK49rY4/5cqnNyyjzDQofP5RavZT4ltm0zgvDJcl6RPSOq4kf03AkVOAXrqy7qxLyfxl8R9kd09NFdJVK7Z0lMq65W+MGpXK+BD4loLrgLAtXzXceSbjsu38S6Y0hKm3Sz5eEy7nUtHlmxfbxBAuqo1Cm7BCn6FRwSassWpRya9aeY6WuPTkQvSkOdGFPeexqGDKro+yloaJD83TQLMq7iRuspL+ZpoWDA5HddQvoazEppeEFJbmgQwcEDOMJOmC5kK9lmu8QxAZc62ejMWafQEU095qdHFYLIVJ4qSSjqKMxPaJ33Ez/wEv5ke1VIDY7D/P0ods4CAcIsQAUxQaQSPuDE21zQUeYkf109/N51368lJE8dKzdpOMu4nDPqAuogQK7v+QdEtmmFmpyESI4qzPcCxKLgLxUzkqc2yYl9b/ilhHTL+qR+bx/2w2AX4oe+IkFEA2WMJBHWjMKNhVhFqwptNEmTfWCyL/il8+rn6cNj2L7b1k+W+FJ4pDZsrYfxMSKzLFGZRTf59QPvNuUhlQM+vEW+9NSrTbNMv54cRhFW3UlsBw8x8PD5vblc0SQeumWjEkZxqIg9R8uw742CjQMBUlJEYZMe/AWlN38EkZWmmLO0Quh4R5gc3MtZS15ePERAOl5MBnWStF4f/XQqKvq40GTi2jCPzc8LpZW2+5HnVvlLmik+fK9G5Ik9spj2dzGnIOlSJ3mgOTnFxGaP77ufMn5Gky5/sbRogoeM/S55AMI6T+y9UHFVRCy5ChDDys0RYrIzBiM12XdNKBcvIiQE3Vt9FTnr/HmCkV3CrVUeLmJ/LQEFzZLqCbaMYOIUBJnXeUa+a3JX6SsfZCLSueBxXuihOA/c3rXVwwJMH5eCRKzkEvI0r3kKztAzhU7cY1XiwpoDSWiBQMCUkYPYzxwekaOVMwsz/Hme07VDYLEDC/kX5cVxfZaHIAMDR8XWprXku9fn52ruPojitOG1jibUn9ueZeUT05edJ2q2VaszFc+yNptpWvZp2mpLmz1IVtspzyYqUa/YYWElbdtiKMsBU8d1FckaFuEwGpheBIap3z64En0HLZwe6KYREo1RXriun5WSwIVcEHF7GUAU6v3e6R3m5OMjNz9FfpxNqUQwOtu1qOo1rx69pad44/gtbaMWKK/vJKk8QHZD6kR5X5s1v2xu/G2oknb5zwr3vcMOUsKs1uxRcufFQXhKnEgCs2XL6eQE5i1WHeZprY87nJo5GPz9VhuOeSl9McJol2WspnBrs/Wpa7U8zV/jkq6wk+Z1/pB1UXV0FAhgQpExccZoFhKDy4zV63e9vnXDrNvZI6QM+mAqMaHlh/4kATmdZtfxv7VJKcB0hlVYH5yOMqq2ftU5WsZl+dmLR4zooyUvSPX8jcev4nZ3OmQUgZwOCICDCe5bcZiajTLlh4lDKGE9HIEQmB9KDJUAgDJ+IICHR1GEOgn+TjY9TS3+0HzG03aWwfOJ1R4/uN/Ra5HXXy4URkEpcX0LDpNBHzBn9LEyoDhVaqqpcqbE9ZYmiaxOS8XMuMprHzC4ZD+hECYvtEa43cfqMoQsyX9wNuHRsk8itOq9pM9Y6nXo/fEnzTLNpPfcOmIlp4Vky/PQBjLo3VpdZnFk6XIiT/LYQNWw11ZH4ZKwHIRJR8UgIP+OsxSJ1Xl55Wl9dYVqpGk6DcpI+XGsWfdh8Xqkx+7xG7xH+563KrqYxvvDs/yVNQvNabZUqgq6fByK6cd2Eq1BaUaVjb3n0GJZSKN6LCvuVJzSvWGnpHsxzraWiLnGX5VjlcpvOFoupoll7r92O6geN9wM1J9EpXUEpMzLh9/bKsReEBXorlxVGadrWbZHm1UFXmnmtDWEKzzwQyxU3WHOzWoUwRmdYBnkycoIG/jAj1ghCWITlGFkYFxsaIqWwXIpZTMX/ZMqqP6iTptpNWbPB0Mtw3dqvm8IognCXqpNdKCv/5CvbmC8qyiu3xpa6bKDMQdFBks/wUStRs61+ZlztaYCBGmaJgvrAwRgCiHfRMysAQrg3Bi91QuiNwDsIEkehWF2AImsvUVCdMwbYVqbl1t3IzIF/ku+7GRSyHjXdinvMaHZc6ZcGN3BheSC7CnY8mUpDDcbEoSULk2j8+FOg93TvbpdrpbSUZncj1uxAmsjOX3QTQKxvNZeuulHfGBx8uSdVTS1K27Ts93lYxs0BsPbxiHQ6PLiyuuzbzxkYd4xRMkT25dmeo7pIwMvhS/jlSRtniSDfno3vhyssis0pBnobelB712Xc1/HELsKTBuCrc1tEMjfysSOpRAD0/ISKlv21LMifRnh1xsBrFhjXvOiytGOD/dxLYZ2WsdWa+73mdURZdn3rlLeR3Vt1R6rCc9atou4zdbAaD95TPJrG6pt0zBXfoTPHE90H8lftjUs8c6FPCqQ7/wkvp7Vhj47Hyas3ziKzI/Ss6VDYTrDB+nJ0rnGC05TwSVe8tFlbZrwtXHGIV+GRT/yav3MxnAEBuvovm7qqtwUH/5pzompPSioTYfS3XbV6m1nC6WicEJrR5KIUER3LqIVCRWdFISuF/QEKCeZeWZlc3gwIExpI7E+WrqiwtIVX2vl/U9oGnlKt3ElYGvHGfK8vLQajI8FLDUHUL8pPb7+BlMvnsEgNSAmmzhzFWy50TwnYGgFOoA4hVAflUTRnYBHJ6EYNRjzB/tM+hOOnzojMKJOvp0QO0kObK0RpMLGFeZVLffR/urPbT7Aj2znRvM21mmUeO7YyZo3vj7jzYl9o19e8ORdBik9IarQS/r01ZtS9RgDEUZz1z4hlUIArsrO1JCcW1i44JS/EUgVoJP6YtFNB3T1cIU17RxkMHUVEkTCTR1m206h8tNr4iJXwmxQpk/B4cN5nlD8Hd6xoJqpj7/j4xXiDj1owbnwoInOME3yLHvBRV6gssS0QHW0NjFVmyrYoHbVK8Wab8a1C/y+DREwLRmV36E34Q/7ZiZPnySBXeAgdeImdkn6UKgMbbedePTfVmOYPmIHquMrHALDuqS36Vs3+uae6NsjR/NlAUpwvHHlXc76GsKYrJ3s3h4+90ZyEJukJUuGt3hhHscOgtwBrtBxIBxBm+wK0VWugU8lECBsgeYGZbDAIhUqBxw78cFoWYhBboqtesgJRfDUnyuplPF7sVKuCAxE21l21nK8W1mrA1fl71kTNFhXgaDtrXqkOqx7tM23GdbdWz7ypTUf4jJ1rYyf6l/QofXBRlNjuoxGlQVlpkO+l2aqPy4yjuTAA8SoS4JMCD7c6PYnWnLxA5NSwJxYtEe7wpdKWr9Oa/tYVyd8nQql1TV3PH1bwdegjB61qiOWW9ByN56DxPmhjh6Fc6Xw8UB/pR9dA7d7IwQ1xloyv0x7XUcEqLZ1AgTSwhh9eJ4ViCdF67EyxYtcHExtqVbaTdmVOXTpaUW/xRglyRFsneWlyF/zow4CZx88WvkZUIQuyZ/NUZrqIXdVLg8hdeaXSNrszpHfw/W6mxB5l5XoSPYc2R0lJH3ogefXueat05iqSQIDzABfYgQbWP4Q1HqS6YmTPlcwQ/g+/I8ACSQzZyfZ5oQqzi6hfXHy7TeUW0pbCp5OSyfYXO2+/ciukZDvr5VIQRNm7A02sSWYcoQp05sJTmmH4YWCiO+7iGDjapsHk33oUR4dvSr6Krb7m49p74G+YY8ZUo97UoOzY3Rda8/EPUekCeQDXaV1MCrltQfEjs+EmOy2o+k2t520Cgso3gl+hM3rxptfJVQXy4mm8HqIo9ABb/EcL5VcwYtlJqU3UdaCIiMkdCkHI0tIQ8TDNGSsrmk8qawOpkvN7PeuQJse7E0/po+BYK7hy2ptDCENMbKg9eSxlpXNID2yzqKN/bdWHqTOCsMyl46P2Xk68YhqT9trmOF4yu9UVKMMvmVRBk6K/upbciYs8L8OikiE1Dq38ik0umZT7xUd5Yt1EpTEY3h70nCQc5HhJXXzu/s3ms43pzJIm/GBSmHDQFxirdu5GjYr+ash+PwhFG61zDxf0p5aHNCWauKodd0wchyYqRwlmkhbVsBSc49RaLiC+T6pJlhTIQIyw6mB9dFQB0j87NBbnpKM6eX6ynaslZG6crskv46Z0canYN9Lf9ND06ahac/ZhkeiX4Y6E+nw1RLDBvyPji8dFXdK9C3Ssi9F9/pLHFLZRk72hBCG3LSTx4xF+xxPV3vFK2zMC4zZ9rOVpBPkRvXjeCrVOj4rDqZj1N3VAH47QeJpCpY0axrbdW8YYca0dviDzaBEKhmef5/3y0dNF0HpCD3npcCiZPtvP70UH8ksfnjLt9eT8c1yi6S0bETNoOQNkZPEJnzHXBLKlTPqwTaX7FXoiuO8ZyZlRr+8e8j6LiRtUzqhOTicTZ80LBx5vmj4cEHDfFA8T7cf2pVqujquul1abMvFlly2HJtSUiKPIKpmF0AE3JO+lqoEw1ep2bAlQ3kTexsw8lLfR7f4kUVyvDiAflSNGf1Cg0tQwcmQk/XSneGGsZLxF365SHRdEsz0pUcvpKZjcRcTw9pdETDdORApsDNq31xt6WoSYD/ElfFZY+Of0JXYkVfS8zOGkz88VQgWYniAIVaAMxueQpHn4eZDQFiYEWaM6Wc85BI2HI49C/sQnYJ3aUdQCy5ZJIwvAUdsE52c4IaH5/pywU86vg90wPuCshQLsQoKI29SQ57vyfGPFmSeHiLmWLKNaqOT3mOsbFuk13EuxhxteXVBnhgPjX7wMHFKhR2Qxjb5q4xIUBnXhmKSppCNB72sl7t7iJ9VlFKq+dfWPhjoAm/R1uweaKYGHT1XVa+2Hx/rsxZWZO+LzLVlGml0vw1w5TYIYXIozIDvWngYMpNT34uhPoyDs5VcrSj62z0aN5Bv22z63MA8H+lWn9xko/i144y0Y88IW+t8F3Ix58XpAzRqXnvBgIxvbSvUr52uIPj+tp9P920aK7yV0LKatCRwmbI2Jt03iPE7ihxYH9YZOs8u+vITzlAM31NysvgO+402KutRcJRfrFGwg3H19ddn1xFz2hUBih9NDwkhaxp2p9h++u+FgKLxFT10/sEkppM6J+gW2/AOX2k0KzHHm8sLGxPL24J8RhhsMh9+z/WpN/C9jgSTA0gWINoTFAV9YWLJEJL9lfKoK6t8np6u4Gw+lhzt7b8ov5MMEaBV8x/Mid55rPTU1fv0nae4w0IzL/3flA1gyE0nM+EdwohywGjiizn8q4V7Jh2BN/9sRnRYp6OcFjSUG50ka4C0NT2K8ZJGKGQSutFLFKUYSstTLvBXH7T7niZCv476KsIRYQVuiPX3atJ0Xhe9wqiOfKyL5LY6BafXC/kEaKCHWecMiZM6Snw3eA7L0tIPK2/QPKzxX+uNbuaJ8E1pNsk1je/65Csm2pvnnLgS+QAzvEUkOU/YSNg2V7UCgxq+Ja/Qzh+qtK14HfONSadsoosLtU+6lWodnUK1+mRtuFyJOANaPTmzmNFv8PK3j6ghZwnhwscfqSaVDCB68dzEicHlngkjnsc3vxWyDmuWNnkgpsiSE+aZUT8NvKrS5FzafavWySb4s3EKy0yTqD2iBEuYGYTZ4B8dcepZ/k7FEJa1Krgzkz44pA4OrEnTp92LKlLu1fNnV0M+X/iZPAKFkgplrB1rGTD4YTRUpZdoNd1y52m9Zrs5Su1Q2etWwABAX6kH+JyUGmfrUGyKGKj3MmvrIBJOWzGEq03wbYeuDOQ8zOJh1BGbl2v3lUCvSyJn8uOZnmxH8CRKJNwq4WIZLTDWqkb+cuigwtJp/HKiBvIv/7KXUGU99X2EfRsZ58iowqZz4ml3DYLlQdUG7Q7apVrgxROqOdp/xkwrKFLLEj32YbiNcCdYOnkihuiqbhxiIeAqu2LSySHyW8+vg1sFEkDTkeZGy0upoQZQYudXPBLvkbALXS8yPfx6+tclM/6TvBzWRgIYVn1fdVRYfjzEnHUJ4kw1CGlEhfZ82d0fOUILAbCK5aud+82ZQWvUveV4gpKJUl2p0CzedfkWr9Lj54f+/j58OnzQY/s+YgeFUaCMnDgrG5vzyuRbVjOOkfeNcutjq138/WX6ByLbH0eCZAbH6JJ9hRIIKzL/qBJdMtJrchzDdJ/O25ZfwtASGpQvmLnUNOrVpSYuPo24HaLOvZF6NMZOfsF0P+7FR6ICHY0G9qVBz/1+nzvGcmYlmpbmFZleZmhZKQeH5TkdrZFhRcz9ezuMKqOKdqtxlsaRFW2t0QQxnhnlfRrW0EamzuhX/oN7XCcDOiRG4l+wc17NNk9eq0cSDJza6q7A6z7l2ecRXzM8FndH3WjfWjN9CfVqkjkntvQeU5HhD/AlytLO26CEDnMo2eQOPsWdk/1pzW1GCHJ5JVbDlq0atTldu1zcUN0nuKfD5bcMN0mmTCmZgXiZbYnESRwX1dqqxwWQntqHG787G1hXc7+XsG5kE6SexTTCMx+nzvoet3tmgx9URoFEtkg490dzI7iX0VsEO9fYv++3frdjts6V6IHLYMe1rORscwGydz7YXOJMRPGlA81gjOnp+NWb4c7ONxG94B9XcCWSFoKG5FLt/XbpWd+13C85n/B1n7hQcp649ELeU1dIh57a5QIe4x+ijLZVX/FB01/VrSWIj4N53GuqPjMkRguAIgD9iuGhnNeaC5AlfjT6DA9VEhpJCF+waVhG+VnIxPMSw9cjTkwbfJ6MNLPSaifovMznqNux8hkTnxkPyPNGSKpmzNN0+j7CwNpX74VGlhHtcPpIyaeDSkUvdCx0WRSy+BAoYWlep/hXiiMAB6T2DehVRZb7Gz4hv/FvKHozxde5p9mZR197yE8taGLsJrVIpZ8F+Sk7Sca6uKN+OIvxWlruZ1v8/c2e4Qxl3knmiSAsUMTFmqIJe3rOrSwleJ2Pozr2tNfrNGZfU+MrgE8C+/5zvPwpiShopFMrhQXp92cRV4efEn1pe1N1Jy3ZY6oHKL9lb7RDwlAW4Bt1yIufLY3FRgdtq0lRe/DOyzkSWZiJE2btgRNrui+6nzFbKHuLDfbdcX3MIL33gu2oqDNfRU+P97YudVVr7fFXTP+GfVLy2M8UJOKvooVoEDOX3fuKNeevJ2pbhansB44J/eDw2a+SMJjwN92xHleuq7w/fCh5Sm2rb8Sm+XplXjepAtdXt/Lt9f4XVorLc4rCSvmm0OJo0FX9iHpMvqnJBPyYckttJLH91p2fi26HfvSiOalrR0k3SAkEGeAvNKLQ/dPm4Kfmmkd0dEJmr0Ex0H0FGyBr2yJjEeM2csNTriQqNuO2YMK6gssgO+9AykoLiyWMn7PR3U8SxgdBsPCtZLgqc1nOcR4sWHicJT/JpCsLdrrOGwpSgJ60/3AXWeudJ8NaEs30vK9NZ/TcW7rKaxyWQi4lfTb98EytqaVRNNq8Y4kMXmk48ayOtYSj8obkSXVFKYVdKxpvrxmfzRYjTzmJlmn4+txuaGh8T+93KfKncJ5RVdx4sbEkqcScz4tD3tcGvze5fdaoqt36Vae8n+x6qqtXeqEacnDMfqtegG6KZWgPLZlxt1qV6NrwWRXOma3SMrSfABORElutNRsvtbwyuMatVabuWr24hpCKWMgVP+IPXUNHrnMFp5j7jd1EdaddwjND0OkSwsv60OQnzj0kGKmfwHtzJquu4FryV1VXCzemT3OKgqX8CsmXG2oBIVmq1rXY76ll9h5jIqBv42jAWJLNjEQC1qoS3UOSwb3zfl906EZtdtp9H6dnqdl1nixgVnzhXc72Bj0+g/JnEJS2VuXMcbDMnz5NCpnPfkXtbH1we7jgAfl20VrowBPiIhn8dreZmSbo3lXVFIqRTNVB+UI8LEiC0fvwUPrayXGn1RXqmdf6r/cxykMc67A9dB1h+dFVF6yfytu5mEACKd5EiEiarrmZw4lOst9z6krKVp4t5p/NSlm+m63QcM97jk65UO9Jh9/7ApazKT4un9Wce1qgpSz+2wR4KObZmBo0mKZejGN14Q408eliSPYykxixMlDS1qzgafXZUpj8JX9iV6X+rOi6EWjh8HluC7ZExzrxR9Ev662Bm6Woz5kom72uKbP+fLnjREuQ2dRci+qzXgkxe/1UWgg1bpvRpaqzOrSzVBzUz6uANbk/JzisozImqcUHFrCS8hD6C7e9SO15E74YMLOSNu8KLHJrmlXXAgZFEO8YVAXT1HCWMlfgh2JEgk2ns31SgBKFpiYhMh2R8VFwd97B3a5pUmsq2td8LeYucicotLwOP+iH3o0bLUlFNfR5KHpjdGjV7jwUeCoAm+ydNmTF9T5rEmL9ScXQ5/eb7gWFPRHDEAkif0Ow0pU7i5/Djcrxc2016WcA9kh914NO1bY+f901a6fD2H53iHnSVHjB6MhJk6QeEzLdHI3Cbs+OJV91LwFADC5SZJYvM5JOtfw+GNnLyBl1dkG5agdunMuEf6dCL8cq8kMrreQyO4UXRDPL0Hu6L2+/i8ldjmnyIWq3/IZIliUMTn4CevOwzpxv5pl3sv787I1Rn++liLMkyVJOp/RjL0G/uTa9PK3s0NeLmbY3mtPvO5/EFo/PTv/6ZF78JLyfmWLtk1+tipa1YQAM31JGFSLrRzC4Ehs6n4L59JOwjemN8mIbmy6xnooaSewf4sWWvLPx7r7NjmBEgSUFvoTYsGdzcCnpvLn5do3TvC7orulZoBbpoFar4t0qmlPuS8fm9E1gqVJJaWR3wMPoxhetmQJhniEf14fi4F06kLAIh+VNy/EXJdOPggDHSVUqsH1SJTzOqL1r6vmEdCUIGHp+HmkhuKn9TDn1KF+95wQjNuMexLGFnF0OyQzjh+yiiD1Arum2SQ1hMnK1aRwAxYbH3j+/4y7DB0fC5QiyRJ2QYWOn00nHpcYzt1iG6BX6kpNHJBcUxfo+uSDicNpdKJTNS950P9Xi0JHHeJ1vVl6SLCGrIGky5n7zs8xy8T2Bz9zpLinz+fnuswyX3uRKM0y5ycKRaxqSwJYNJxcaiJKkjl3IeHQZHzaj4RVSnag4dYmBId/og6hREhtAWbdr7GQnC08eLRD+1LfAwN+fKbtCcxA8QnOvw7MsvUbxy+35JHS/abDX1YV44nCRPTqrFk2zNO14NuPLBhcQwoJ/UFu9cbLuWysBzcR7sb+KKxxBPH2sisNoEybnUniNsIt9clsgtzZyuwUTB7P8WYyUTkYLPF0C0VAd85Gr0DR0dKd0bx3YFg/C+N0+F9qH+4q48uFsNCff3vOrafkwsc5wap+sKB57Totd6z3Ktx3f9hSt6JNCugZl61NMGTd9l0AVoy9dVTD8yF918wydi1NTThfS9L8weMirnYO6uGpPUEgfBEcLzRHtLldIPJn9RZuRwP0NCsQl/J7OKXK+yfEJ0R9UyCI2Wgd6HaaNVDmMxQa/bMO+FiTIHcNkhG6bAc1z6NCRPdpdBm+4NOfCLhNLUC94dDLv5jOmgu0z/a54ekXrcxB4qrgwB+F3bnKjNb/xRFUmW2qlBdY5+d5nI1BzY3T7GBfg5UMe6icdriQoc0i7zOkZ5VgqeS7Fl74J1LmDQDtBftnWfWbGQZqqiHNK5XDBEZSRxtk4G/hnJeB1O9OQvA3yxyDFrn6EVoXSRto0uMzfUp3X5bvsaAAhFcArZ0BE9U4mPO5vjafOL+K22+K5Djv82MRl6xva6PUB1A5d+9jETvRnF2xiWjbPCL47PV5FL2Hq+NkUXxD/QwGPbk0fX885udZeLgTsXrectMntaihuEtpHKwi7YTSujK+422u8GAh/WeP6AakBhH3H5YsXLtN6rE0zNIQnVVNGuveHFL8iwv+2Is93T+M+vwZ+1u3bNA33sH3mUh0NGudkv1acm+azMSdWFKGwjuLP4c/iE4La/YIv6K7Z5wFPQOJg8KTCE6nnej+socjwVIcRirRAm2ZQPwBEtVP96ZII0o60kyLSyYLu7SMzqfTIS5qXFZ11xnTEQLat7gQUpKsVx6E/X2QAIoACybVtdKWwWJplboF4dIH71VzzxU8EQCswB/YEOcD+kjECGzwQAA2oOdQvjyAISP0oFCs8RF1RLoZlHe8HPd+it6l83swR7iLMojDB5yHR4SaYnUNBEL4psnVn0GMFr0loRYoq4wO3WQEGDQECm0uAJ6hfJjePB0IaIEgZxwG6n3kQ4cTi6I0FsJaun8BGiuKAP7t5+9wDPg4G4ief58brS3yWSsk74XasZ9yrJ9rj1u4MUx6PgLjhhwdI9J9sNQmISkElfMfHxjJE9Gj4iLOyzJIyOW9+ok5QIOORf8zHiJl5gGkz3ckoPAaTsHUYnOWGiHUWYsbaGfCPXb1z0Lz4zlwf+yWfjnds9sPm78E3p/JfslQz99XPsfaWE6gWvirXBlD9rP1rKSW+osgGRIH7jnCK809fVw/r3mrlCcgQz9TdagCl0VasVgrXv1Fq3pMUuNzM/60ja4PMKFs8hEIG8q6Np26BB8GmZ7Zd9Qk23wfWXQQbvCeZayJ95RNoE2+26zRCKB+bOPCCZeh8sVu6NEFSdDhsRCJ8KwuvM/rcIbEtEIu8SkB6UTPVNdPbQSrQcgBD5iOOwQxNkgRA1rckFiQQ/cM+uXPeJvgbyB4B9U7GY2+KPggVBViIdSbd0Z6RkZ86R27KbDlwe4sjs4/DbLTBmj+7Tj/7vT6e5+CS+NWf9eaFvQ0XH+TffvzVTw4CRPgBR+CtUS6L4YcuAe9ZUZPL9u8P9l3qkNHv4pD1DntfHdGc1b9QFIaI3Bl3AgZytb8uhRqdtORpThlZP66GTQtjnjDPPciN8LlzX8kOIOTuNRtWjSQpsph+yAed5mT7km9yiTJkXn4pULAsSGGDCU6HaYKDJ+gwJpJEGG2EIDoa18Hw+kG59psYdQL49RY2zZMVudmtPLBs7uGEyycN3/TQZhpXhXVorEyKxemhESb2IYCq+dr6gdEf7gNGaYiAS9+hLadR5ksY1BQ2rH8IBFivLPXzTYEVv4SPqUCde9zpeK6Y50/nmdeUiztFf5xd+6ZGctNEehQgIdhzfYuouBjBB15BzRs3B1qPGv1+ESmaXdGMjPBVZioqKKsLsJ/f1vWPXUEaQY9KNgB2wFeKVtEw9xlIIlRr4axUnIGZLgABOpKMKpKR1HXiEaEFNhIId4HDotXz9wY+PgcJAlIEyEjgOm+WIq/P3ibstW59unX0aokxsG/wEPw8LvgE0wcs8GXC1ksqfFz45RnI2I+kGGMZy3z95jFz+rgDgClbURgD+eQasRL6CeVDnWjjJ2Sw4JxRDl8POOgjN72IGpKCIN2d5VPj5s/1D+N43XzPkMIMZyxbdBkX7oQ3hyf1zhMZe/zKC+MYUggpeo4iySTLtVAvAP0BAVimQDQHQlS0bhYhnMW7x2OUOR0psgollgKEH/fBGPzbETGMF97x9uxrYJY9lHSdVsn+BigcHXNx+egI+BkI4qJW/Uw596LSkMuBz2w2LUaNuyC1WL9dyyltssltqY/aXp+hmCk0ozoUdfM2/0DEIPkK9X75QfTt+BbPCVmK4b5u3cSSKpo8lmbTmFE3oJldPp6OGdn6BltY4u9pjKIzEnQId9ZR5zcXa7SKMbfvFyzlduOKFxDoB9jsO6DbOr13G1bPBcKhIlVUyzThQYyVywnH9JrF2OQSfbDjaAcnZGspUFsZ3OskTBbpSZXhO6Y2XhVt5QyfdEc7BLglMZySNG6xIa1Os26KoovttIdc17B8ShXbGsZRZ6fKVHhXwmoVY6tldSCnXzqVF9QkyXfOV1A6JweJjGSoXr8KNmEGbbd1tjpjtycVQeR6BPfTL1+kCG7eRwnnzNC3DoCelwryS4gYUWGIci58B1CwXEyDkO1zGBJnYeUFAHLbO7nzvVg4YP5UlaBuAnzDEbNnouTXfMZHIctuRofEYoGoGHCoSSdjCNpGnygUXab78ZHwCN0tabFCj/FiiyWj8DhKBX2qn4/ycYPwqcuHkehkWHnidwN5D5puhlJH4M9HBwWuEyxns4am/0MQfATBqr8BavN+ENdMYW7k6bLFz440FxCBOemW9Zz5yCskZxcXObh+JzupsgmOgIxrma+jJ5Cbg/DwNGcqGUNLw00AQ9icWgIJ/ZqveqRHQG0kuNcAmIfNbx6pxduhMYBW3+dBt4S7NjyQHjflfC5vh7KjOhKqp+uSbTpBk7yCBSpZP5GUqoQYXBmsIFVAM+JUmYhLjkviDSCGbZfiPUu/WvrRTqWBngl6CuOTGuUFLprxaUYfqwFCyvXGOhAknD1zSYiuFnX0zsJSMeqxATYMALr7BBIOWTO5Foh0m0V6Ex21oF7nXb5MjiKykiJi5/C70SI+Q13ogyC7MAA6WHz2vK0XjEpfJLEMIvJ1Ot9uCs2ZlqnKnYu/xXKWv7ctiJLLlhpsaCDAX3p5eQZofun+3atrJN6s7igQO2gXuyA4ja3FQfH5bThnS/2t8UD5CJx9+pNYT/XfN02d5U2pY7BxrCIqS+oaWlSKtr3KJ3PQQotXsrzi4fchX9V6fSdrD5+wEWUbOsSDzXi5lbe6wTf4Fubuv563wx/+bmDpp8xfTKRxFNivFwVzgnmX5KC+IAAdBQDox6s5efnLyApuhFopjS6hHakeEwyL8VjWf4FcfwgHyY3JwfRdhW/doeCcPUIE2dSQgtB4MnhWWmqXh45WonFSfxkolw0E/XBBwMr8gKrtuPTfrMfZzHJC33g4m8KHjdvkb5t8+BjivTuyH1WzGDxzXBeYcMZ7Em2GCxJRKFRHUTNQn2QqGmzSO27i3/hwzD61GsLXyK3fMAkIcx+eBkLb0KgNZwXihS8CfIlH4/6QRo47iByUmAUNmPNELFIZ8uzKn6vkns7pt0+ELt5NajCW89eMPwW5qPp6WDAXRFiSHTpfHDfpQZ/kRnjNmwcTO3LY/XBJiYSHbqsbDWbU+B3cIzg+eXqsRw7kTRZ+qmnV3Gr9qf75fLAjkUU0ZZoLnEiqbpgUmRD4TXiJF0nsYKTRvJTkzO68P/AXQGq/2KRQc6GODSvsHccTQxn//rtXTWoww1HqFyZyu/UXPTMRp+dx+jawK+Qfr+ihKXhaxYLo6jX5ArM1pfp0l84Hyt1Hy+KzWqklU8hDhuT7zevbD48k5oARKPaLjAUE5fe7YdP79ZQdHuaqynfjDQak7CLgESgofDqZFF3iaFdcfaD0O+PfC94Wugjtush1ajI5w1aa6ZsmJTMp4NfrIM9+uUFgdF5zDam+vw6QhOUS+ki2n0dszLMFa/IYfWbfD+Ba3Ce4epM2H8ON8gV1+dTAHzYyo2rHVTu+GeDYlcCUfGXfTJVKhWfXOSXuFqGsHp0GySzwuw0api3X/Iw5eDDd19CXD8D4mhye7p/mkxPRJIsuO1U7WRSXLfLvPX4q6N4dxfxsslj8KIGm2ZLun+ekV1e5yjhIuuK0PqQ5Sm3e6gFtyGBAxQg84E2i4LX+uC9+nwEAHAZsp5kWDOY0MTeN2Ur8iS06EuPZrS1KxRnX/9JAfWAlJXjYPnh54m+Ep1k1C0lt4poXtDc/us56hUjV3ybh6r2+5ox1H4Eoksk19DYRny2uRjMX5QSOhnRIJGZHUmV+ZZ2b4WSTP414LUtW1Ku/ZNuONRuKAdTaugtLcLH5m69iNg8QLC3k+1k9isoqiRB+D3rnBYgabxb6CkICMGmtfz0PRGLbNo/vuiRcP5G4gbsZ8k30EUmYn//wLDB/xtrimyXBnPEDlowbcUmYiMWynkVAmszHFEjMhoFr3jL3+GBvS2tsDKFjGVQ1TEqF3n9WbE0rew66H1JA6o4rFMOb+/Iwp1rqsut11KcTSCuajA+v/w7xB/6I4bKb601HoRorH0mnahx8C6t9E01aBiAs08BODk0IE9Dx+S6yhLdFLm8ykcYFTI2Ew7HTcaXhDa4Hazzqa6w4MQ3PZ2M8iJhBF+ekBtpjp93jdzJ9hASDZfz8xnvB1q0EVpSB/VXxVOxXOO73cB8Ojw8Vchj8qF2Ek0gbQZs3oAEDLFqmbVO/py1aCL5B9KnI3H1QNN/45fkS0CYq1/X3VSuCh9iNhmi9My7FYeoq2pDLciF7HdcMFBXK6AF8IyWFfHr+fDmtYed4E5wMkFDG4zT09Nzqk6LQaCC5iQQvBEyfXibPrY6rJ0p6/105+dHAHYDRG/JCMdEsdZUEK+bKSwj6YzxMeHsV+HlelOvWNOzxYlepAsy3L3F6OJod4Q8jj+M5l2yJgd08djCw45dPC6TJP5k7O56hkuIeH4dQCiEpsmNqDCBBt3/fu/HhWXDLh4hqslutaPG3T0NTf3+3LbzhjUhehSJ8IY4VWyRwlQNWvAV255HRY8rYzj25gRO+1t0lM1CLp+kuxAfoNvXqfY9tjbuRsA8H3YlzP+Qz9uVP0xwnD+kX2I4sufpUviUkVDFus/tu7BAUbHzy4ZPf70dK59Ed3Ehych6GaBqfIKMqRWzm/LcGJCL0fjkyfqmFH1j/U4SkGf+o31oMneGk6fXrbJaxtImZ3tEbAfhMpYmNMQhuIUUs5P7IIDYGdUOk/lcHMfDGELsDo/U7cEH1qfTvfF2qF7WQ9ATslrdKNbSs50fntTDp9+mu9EFsQBsFTsN3w+9qDm/PVGZ21efvVHToHF0Rr/bNS0uTd5Rf8Y7Nr01oRD5wLFEpN7GdyeouZYt8Y3GKr7c45L1b4dA/vxDFiZHsIdWH1TlQ/KCO6aIQCQLB3z9b/BqGPIQCeWBkNePX/aMCbBQTxJHjFenpoyLd62EY6ZvI90A7vzCFfkW45K5TPL+AXVpMcNabBwE1NHeN9RWUEMTBPgXdlQlYKRGC0di3qN6hwpttFceShbp/YPBdbizfu9qG8E7DYJWwN3b3i2ZFE6QADPZB8svCziJ/basLf0aeKDCw7RxZDKGFcAeFHT0OpfOstKBEZ/mC1BIEFZePeeLkOod7fRai698Ew5u1C8d8cDLyf3N0FkuuAgEU/SAWuC0huBOcHQ7BXb7+MW+XSk2oobuvnAQaJq/3sLdaLa10TtfQm+NFkaTuHfgOnozRohKQoRTAl+KzsWfuRB6CkvuxlVsI+/Lnoz6ikr1IDxNu4bdOjhUqIifaTcz1RawHhvw0myHAxu/bsjgaTJ/fIJ2CjNSK2zTEU5REgEjhRgn4zje3JauJ1aQ9mF806RhDuXFkSZUPwCS03Ba0IVpyWeoVEk2xisqnLzBfoWJ/QitFlMCWwk510ObPk6fotp1guwBhbIKwizxWF4lRc83YI/Z9PP2Uv5wRQZwDIQ1pKpduxTFHTEegdxbLFMXo9vr6NSMB876jbwwZNkuYjA9Rs4h+A7/dUaQhtAUSYwo+xFDfGVhYx0rbRfhmFWKWi6uB5K8IMhlNvjFIjwMKluxJGdy2RMQPFWppEBBKCd94YjTtoSjfeSph3/qgypCb6Gq+k4RnzO0ajYodMZGcQPHLkNqBfA6yoSgacN0uZaeozitmn/jkymMPwDJpBf0n4olcsSJp5fqfXPKk38HF+QaIfyL8k00maM7VV2jwaKXYeow86qxHE0xH9PdDA6K/KFUDELbH6BPRFgm4aT61iID7ZXbt32Ic7hiWKv6QQkdmKYZANEO6A7QwtlmKrQn4m32hKB14pJQ2KX7q5h63dg+v3GII/1WSlIStxCwsemVvVImLICc/CjR8MMrs6+DJOuTNH4Yf4lINh2AotDBdVILg4gKSCoVaCdJbG3JIMNF8syKgKLC3NLQ2CsgL8tUx7n3ZSq7vdU7h4xf9h1P5Nlo6+6sAFb1r1ndIHSKWwtvb6kYtkRUWsX/NG0NWgJTBz+y11MzN/fOWN7ojfTmY6AGQyDD8SNDzwW+UmSDPoqYYJImvs0BnG9agrnRXaRCbZqQUstxFGO8/DOinqrhKfSAAMrTAos4skljyXbLQBgP+bseIcs4i6WgjeO0i32IC0SAIIBZIyVqWBsmDpCAxvVjj5yWYWROqIGJD4UYT1jsEgh0IDiSFFSAlrsewPjD/gYii49c3at6KFuNlyCIv5SM9HCN6cFgTUCwhCJ4TST53BYSpe2Kmj9dS5Fy5/9KiTMYBsqMLQ5nTUEZXdpi/6dbGKCg3PwIJg8klLUVhoH+E+I21u2vkKsIcFztG5iqDThPtfRWFhmmioaPnwOl98EkhRFEmGRwmFzbv6mXb9BV+nYpXbuPNDX1jH1kUwSxjVfrYuRJaTNDIL7YqWq9oQuooktHcQBN09Weo5rTpHrVyRenGKc31YI7E07F5tH1ovaeM2ppEVX1QOhlYd15udBvKvVpbSi2rTs1HdUitdk91Ddgyi1lCyHXRi13rxwwRzMbZZMnCd8VvWZG3RQiqvxNKhYTYmpl0Fyv4IJya/m7am+wl928kl3TOlBe0bgsWqaMXyW5M9M3gZdiv1Z3u8SVWGhWJpMuprTjXBbnKn4T3wTsmPB0tWTkDQbe8fEwqlg+I4krLV+dWegZ79J49BZPjKyQAYpZ1P6u0jUr87MXXY6uPUr2C2buW/jhCFv5ilMNeHCRYJcyL60MzDBxXADnNIBWY9uejp8Tu8qZbTO/K0PyCZVVUSy4HBDAVBQlgK3eMjmE0gL81EDL55G136dOyu9AQ8imtn4n6S6XCOc6clMnVP9g2XoMtQUV56AyJTDfw79xCqn0nt4+7PbmTQVG8os35XQ8/D8np+vKWRGkD+DAeCkJPQZvD8kvV1WiOmHixNBFAsD+Ow33NHx7IC49MyyrkCxc97wnCtNjn1LJL65lOin5lMgwTKAVfYz8Li67pYumKoQcoLe+fLQfMboPRMAdok7Xeg6oEJUnA2nxgxZm+X/+H5/gblh2WNa1bojf120RKOH+3glFxe+5Zo2/nTeO10gpZMMAuPmS/NJzXKnoSxlq+UXHk4da7sb6XR8RSTj68oK5+SzuyUWoC1yuEIex3w/lbzE6sZ74Rx4Aaus1ExMSVMJhIds8UmT+X9RZQj7bEG45sTSSxa3xOlOrLGKy8VC0M6uqKjvaQwEu9Mhujp4l/SMW/MtsQ617WoJuh7oXe0zTIHAhX4BjDA5UtsgBDuvwuKJd2E9BdjbTGop4qKNknFPF2daksjWJYW0S5es7pyGejQgqLqzKw7mMpCvT9m5IwUdudb2FTr5/XIjbjNpb6RCF/U62PbgqVVNqqBCswn1f+jczviVGO/CGShq/VEQg+V7LlFfRzh+mrLhMpqfB5iE9HhsVEI26E9zgQPE1qdN8HsjY5gbZ40fa4pRMp9k6foBk6UxA5Q2MItXBYLopzH7S8gOfUpSH9QN6Odk7Sj+y4k2Qz7djJ9VEydp7vXWv2dJUO0NMkcHA2EKyZISsWNUgtEgrWwHx7P1j0MF6mmdVNOUQMUqLB6/WRAg6SPGCk6WLIcRrDVoLqxl7MBwENW/RnLs5iRkDuJPrGEZtIsyRMm9w+uYCZzey5Zf6LCv2G5iM8uHMMG2EdhSaemb37jRNMs8V2i4m5dyJH5w9Ifxeo630KJFxwpJ+swxeQthnyXun1FsG4ktV/bjliNZA0ZpoXaUbbOz14wMFX0JqixEqVJEnLSEuiF/HmAJVLanEzzbElI+Dm2ZgepA0FTJOoqc34SQLaUBTSYUKlH+5jGPVzOGn/jU+5PxOSju/rKyLkSYNuWnBstba3rKSiZmVQSBrwN+uBr3SCGPpzwSMPCO50UcQ6i+EO6aG0YjMOiGwlrKFEyA8ANnXZpqJr/+038bVbodbZme/yno97iBsV0nymWIOLBYmKgNBJ8N7KWt61OjBrkTVURTt1dleXUPjtDYHwE/zT+zUofjhUx0GeBxfg78bOer5SQ1/i1sN9nBAxk5Ol6jcD2TGW19xBQfml+wtb8WehRpUQedaD3RzNTWmmS9ozVrp0m24phRYP0fkFvAy7HXEAQRtz6JfwDJAq53vpk5zREcJKxgvPWne7SevpBkuYUx8VjtWTu6pZvDM/slBADrVv5OtaOOTDzikD0HlncGIDBI01YXhIlZHv+8LO46xcsacf2sQAYcTlLCJeyk7i0makGRYvM7ERQrN7nvaWOpyS3s3DUDg9tZO3PrKKpB75S50LxeD+3MN6lD3+Z8lUCKWI5VidwavUT3K1E+6LM7H3UhchgY6lZ0+cwC52ulMLTBqTuS1S8mdykxuiRODEbnFFgYGK/gd4F3h8QDbBSYJj7cYwPpsKFK24bIm1RlHRAS8mIDT5us3JTOTnFwSxla9+KAM4en/tiGX8jxG4re8kYvWZprU4DrRXG38v+tJCxqQ8yiPBA5rGKPCKuNvMvN5KQMFOrsuvXioXHwTIDRqmrJVvWHnQtJZcgNRJfBL77kUjb46fn62el6w/Es3cwVoYYB9hC/y2S2gwttMSuy2pXSmwoLJdGC4MeEs3XWijnscNPHwvK56JZEHySPuAXBJuZLjAryQi4kCfGzBtNASfFiVByMdLdUv0QoLdrSK65S14YCYdsTtv6VPKNzIpvvD2F7eOKH5BlieH/+5aMmqkhRNyIuExxE+7S83DepD8Ii0fh3NyEXIrtBEvXCZChZe8QLkKIPB0xhumfE64hc3ExCvc0q6v1nhLlh5o3U+oadu9pKO7UZ3LDI2ck/erP3/LJbJJYC+9r62/eJrcvVJOoPyVGLfEShgnStgQQwHkUvf35RQJ1Jfwx/+6ZfEjgesP2Vo9IIEi3MijDSASklV0Oc8lx1woqQNaS45Bd2lIJBBInLmhnhHd69fTCc4RXhpZzuTfvfDrrgPK3V9PEsKALuh6WkL6unNmHHnSmjeh3WrKNbUy0PtKxEjw4If1GktOGVgzGofWsaBbfun6pmF4ubZ6odpf3HzJuMXQm8Wx/DK5nmpvRu9Gw9DNRmw1Zn4tPoFh8PBD8gZkhMzMhyITHAHfKhyAgBkc5Q7A22vyX/6WzU42vn/fORAR0n9RMDMk6gkLkARhlnRnC5JD5OS6D7LEuXZlyJAOU+thQ8RvLMGoK5OPiMZba38kjfDGzW789Oj3zMICnk1M0/ugwJtZmeXAEtTb6wF94YTJ5KQb2nuk80948q/l83ffMAQluVXuVFiCqe36D4M/JIUzG+q2uNU9uAjTHZsBAFoCf79Kc8Ua75P0luA+jTYY4htzfd2Aj8jIsvRDUPdFwcQ+xmA5qQ81kgrA7941J623ZT8uTYpUKTk+DPuvxpUlKaUVszogWzKDv83wR5CgXIYocBOEAbUqJyXPUhwJbyXWuYibGpftnuvopj+YA97kT4qVdNJxLc84q9ice/HEoq6L/slQhONFvAh/muDjg3M6JFmi61VZWhndi3lw9pOVuJWkeNwOVgtIMxqirTCDgmhKG402OzUmv2A/c1AStklHq/1LPhkjTuvRVi1+BFj6wmUbleGPRjEbVNsL2+DafQa09Cz4qp5XLcJwRFBKocGH7yNUULj11fxIQklRjE4JkDgpZh5hqCwrFZ/GZeTZeOlnJd86fZiLhNOe11LGC/cALpaHJA6hqgUdRzPmGbDN4EsBlMLU1jXZUaYqQoBWDGhbpo495LFuzUx11ZJ2/XmDWrVjkHcbr0MHxXDgBbER6knge8ywXyniL6VZFmi+h1vRISaFk6Rf5vHAMvRhfC9cgo216Uo9Rre+9OcDZO+CWR4UA7j3Y+sikYvG8VSJdTEIotbLkyLomX57gIA3lHsCAldRHpovxnbNvCvhlc8FRRHsF9Sav4L3EQLz4baG1dgMyY4GQPJUVsJ8RF6nk9wrnwofoInUY4imiOWTPJDZcZkCBe0OzfEW5UCJNUVpDdK7Hr3XAUkcIUHHS9I9Opi84ruRxRV8t9tOrdv406aZz0ChGrWMEMTVUSx6W5myXVGwgenTvrbdIYbzNy6JoqxRpNHpUip4ZgHawYEwOMjlktovHKi4KynNzOIjfUjmdflCp9l1A1okxjYm74fky0CSX/SANS/ojC+SBy2uKjI2YEcq8Wt/q316d9+DT47d4U2oJRM8q7d1IHC2QhVtZalisQrQaPZQKLdsn67Phg/vOC0Ll2k908+71F542FHGEH/vDLzNKCTnzF5+hoZIu/nTADwb4RMj4W7ZRWO9y8xVIpazqLIAwEDjt3uIcjpBfD8HgL9Ldc2QYWy5IXhblm2V0arry8Lj3Sh/17Z470hBuOyve2PHvuI4DCEJIX4hmsZpJ0lCBQh8QuKWdvdkLhoK0OepGYaRGVb58oInZ+ods3Ij2wzfcOupA6W+FwT9FuoZBgqpi3s/f1GkDy2T4czo4gWLBO71Ue91UbzlAJ8gqOW6bm3Gm6sP9/qLT6G/ozzLAxQPt4tAGmhLKNdpdwKyN0/J2QAP5mrHAgczeNyEiOSicj85DUVn/gJJcgGxDokRpPVTlJ5zkkwdeoVF5IrmMC2P4lyIrfNHw1zfIe4tHW7RwLAa0EU+Ut9SZUaTYdfmA/CYMn4Y0TMAqJYVZE+8MhfhjfUT2282/7Wyh0yTVCT+GPTsX9NHZtMCCTFM5fyHiTmAvwYA5AMMpIikIc9nAN+sJ0H0w2W++3dV2XVsRGbIa2GebZcSof9IQweDuWn1I4mRHLCTevkgxnsYAKMtPCPJvKLK3MslDjv7mbZyukp/84bYqcyOoD+mbEDlb/JCKEd8M3P7SZQbSihavQMBk0XcHgnoQa2ICXirCV5bF/JZifKStve35q8TJM3j+co3Y4+ToHdCTbke4LY3lOL8N+loCDRGSM32yuwQbIsphQaf1JGJEJgEskB92lka3Y5L3QFDNOj2FwcpjJTdm1g/6DsQi+tLCkUx2O7q6va9etMwHIWV7paDjb5ideJ4nsuDzKlYVRooDfU3ROQn3Kwe5l7ephPALzcQW6YPC5Jbxu+mDH4EBZKw1rbZSa60L0Mw6IDQKA68DThEj41+U7pMZSDsaXLQy5M1eW+GMmdoa/JFzK54BQUGMKaY6I6r/mEB/euLZV3QIIh9aQL3jDSg0eWs87IEH18BBVZCXvyuqoaP1D5J0MMJj27yM+R7FylygwduNYBUgntOUevCkVf00DdGxwoMNC5kPX1HkhfulqY0cPkWrDNvs1BbHrY6urQzBL8Q/DUpCI7KQ8D7a0lVg1XGD4TohAYoDATewAGAXfpB5sfQckzGyoBZMQggdd015jwast14sa/Ainpf0PJb7sRbSsALyEEQhHGaEr9v4DA2sifdUyQ0iQ5TZ2375mLWRZQ1oDn0i+q09UMI2mWy1M9QciftJSAKYo+BTqrWXQsA9AnL0jS+HOpxslat/CV8x4e3zJtv1HlsbC2Ou/JUsrCch5YeItdaMEaWICZwhmQl7ufD7vXAUUEXDj+7u1BBhWbrhN44+iBOntcpfCjQpR/6bTOx7zjJOpXfqGrUGP4JP/6b//Tq70tI1Hu2q+bl5ai/yh0WNSuJMBwEZHI5p8Y5CRd69xI1i2W3oG4DXh9G5I+7ZVxLEiXxdJBJgET5Koo65WqCtdFPv7A6zDOHHRegWYVaEYPhh/fezjFJZ1HQjYCY1ffaQaNo6JzDJoKH+P3m1uJOOteilHQ7mC8JFLmE4IUSklzsms/58BUjSjwVBVf6Lzu/5dLHmm/k7m3DPCtjMzp/s9PIs0uePgXJkvkFztpOzs/qqJCfbwKj57ycVwvDzMLaDyz0HCH3lMKCACgNUeWxh6+mCj01ucP3yyNfaRgFQH/PE+Pof+QeFcVyquQiqtCF9svHuY+M014qrIHUALTrsEvUOrQCjsUMKVOFejk+RBE9fSjERHEceV5h8Egz1gaj2onx1a0c32/YBVEZABdyOQseLlIBfo3LzNH7cjc0/F07FKMIWpjyUgHnzMPgZDhjmTA5aQc0GUjpKWL5sR0bCrDz9rTXJ69hC/oCmOoY+5MnNAOnfBLsovpdWI5FTKAnBDiWJu4dqG1PNwpIKN0PUZJJSRqdPy2z2ryjjuIgXxCk8rHYrvx6p4ZCzU3b2M1PxxM66L+13n74BtzQnMHsFphhr2qXKu6lTfhq/ukXTqf5kDRg+SDRCtoRcqMbH9H7qipv+Gs3UpYAvLV1Nk0yaQGt8TWovd/uYYhy7jknfjbbzzfNGCp+WmsP/dZ8u48YYYNkJrM/Zdn3007weiLXHAJJP9iBkeCbTsqQoq/jAlnDTmndh//+HLlTQUPmYo9Y7ifToPoxyiSWgrNwLI87vCmtH/fCadSqgBbfIQPrh2+OJdiuVV/y+3U+Y83XrL05G6vC5nmQ68WhixcZM0RYTRpfEvhhx+qGInky3aXMlw4R+qe0P0NJjqSxIajX7DcGIXS4pQPcjj0Txhpl/jhRVVUm+aaTCdx4pFxaMuJZMTwYtW/CtqElipa90d/gSkOFgf7UneEZwunLxi69D/Kpw6vHn0fEyRIs2zNB4aL2QyaAx99zNIO1mmHwi4yq0de+OG1DoKFranl6F5lc4chSQni3YAkIDRerTEbTNCiyUYsTykVdFAXeGr+JxpyS90MOX2qq5EYL1K6HD4S+rixOWxF0qVyIYiIjR9k06ip+52GOqyDI2pVgpDdYsMaIunUlR5EPRTacIgNns/4ntKGNtiHNjS6VnY88Z6dwLF0DR7Bwi+ZjcBZyJvFmBtOSfb9haG2MylRBG2Ac3sXPGlPxyqyEpF+qYx2An+RBEbs1IVJxIrwvkNlIzBFQlrBSp4MxlLn1Ietn7cEMwYvLfNnBntDWlAc9Ms7XDEBxbgYhUo5fWnuhDHLAAfWoNCjZ0dOuUfKoBQnK5Rg8w38NOYjPVq4m1lLx2Y0l9oj0MPUQFWAZzeTzTaaqzdwwCv3+8pQotwPl5YYHg/nZQ9EF01dBmUDY5+fDLlpKRvrpNXJif43gQgSBnpD4ZZJjF5bNIDZahSVSIZe9Cf3oPglWGO++7ORhatCoXjDWiOK+wREAh7AB+oGFg5S09P/VyCdYCBHvkKIE4Ds77tENz5COuXbs3NaenSW5+VlffxtlZ9/pIMlrp9Mh58xsZsGHUu9EFkSGwpDrs/yGPx6jokj51eyRUgWWj29f3ppoFSb9VoNUZeKRleySs1FfsViq6V9Zzzz44MRFq2WeiPg7RJeQrfDb0T3zXkqOtnHtJe3MEnJhLZ74U4FYZmjXTPWHj4xE9QmOl1fk+zs4krHA3ps8uCZYl04Y07kAUnfQI6Uzn1kRCAC2Hqq/K7hVt7kIN5WOU9VZ6WF/J8FoNCqHyOAVQT2/fqbWusoLo7b+XM5eFMv2vqIy/CpFlx3zHQ2el/VPPFIFumw0Bkfp/nZNAdYfnTR3qyB/z8+2GWe2R0ZbIvouNgTmgqrgqnpuPFFo39bdEmYPxLADfVGo5LXOrb3pxwmf6hczhUowQk9+LDuzEM5ojlQyIPqovjGrJ2k8i0lXufZgf83HpV8xjHVpFFwmXs7PHEJHr+qeLFlb2apPQ+zm9robw3C3zRNzxEzqiKSpLm3L306jfEUOm1JFOmb2yfTcmEBxBaV/OJoPnMj3GuHLMJAUMLRNpvACQl/zUNdMBTt80kwLl2KCkrFG4PWjXoVerr246xXts/3o1nfv2Znnkb23oPOzeXbL3WmfYTyJanQ/ikEaMZHzivDZxgHnK24ePUpQjanZW7REooc6tBXRzt6WwEd47sYZBMTnSxqKlmX85to93kdUlo7AdU53aVOLLL3Roj8KzqU8hKVZcqbgGhTHVrHJVcElGopYKw2E36XyeBB6GphBdpFRqgOZl8XZxI44rf+eBBF7PaOq8ejDlQmz/GN2bCB4NmPXkYYm9IWS6GtDuaYTKI4e4z2Qxwg688/78KhD0w7L7c/oBMYOQTw0JLUoQwHn2MYi/oyTTWXeV40PA+naa6FVINrjCDGfj9/8vnSNvpBs/7K6MNMzvrdnfWfENm37I2wMvxCINCLZ90Yr7+swH3ZqA7SGq2VfKRK4Xt8IvRivpVBcLFFhWetZgfFdY27KAihyIRDje10rSTPeRWdj0pM4Xh/FXaVtv9DzdJtXmib65R9O0NQOAr3zpSNl672pZQLRUhZi/0ZKQguAzw1VjxdN6X85V2s7A9T85CH8Pa4G10p4+Sq3cp6/fki3Fg40Fnxn2S9QUaU39Dxk4jMJCkJ7hZK84u8XNtkPoeznVEpU4BM7qzJ4RgAneDMZAXAPO+0DB7nFqE6DFKksSf3pBKdhvtz3b8P1D8Gc50ddOxjrZlXkdN6e3aSy3Vx7rhWllza3dIyHh+T5bt22nZ3AVcwgcQ9zfpQFBsruF6WMWOsM3x2PPm5AIwAPpIovu6FTBBMTHABVsY60yIvK5s0FA6Yzl+aC9BVhC3tIETBrBTVfxqjQZ1S9M/6aEOpaK70lIkZVBTP/WE0+crbnubc4gi+N1U3AlTyPQGF0C63Hcej6kX/9k2xdcX1nYZkMpnMdsyZu3XWcyFpbcCmZbzhJl/M6E2PTMm0ENi05Ru1mu9QHKYc5dvgWw+Ajfi/7PLHigyT8e0hWjkc5e4H31QqW0iG1oaR7C+vVr6seV6IeQ6MCG7D+yy6NPeDuuYT6gaR5gBglFcQaJyx0naDviii/YKUjprwTEKZBdfNLwj+mZHG4MlNrkk+xUPhB6DyDiuBYVJpxhM3Zg14bkIWzxEbUe/em4VICh9uDBV12QGZWuh9YOh1MHuuJjoXwMWcbn4mRyB07iUgYzXGPQGjzz/o8xr1O/XJ5LfhBEJO2650RDaFGIZ4nLj9I8LqWwJI8+haFwgnhHbHygo8givyXOFNRGW1kMdhYuhEoWQQroN+yX81GIzBc3nKh1AMYAS4PhAaPHsDtSk9ogLR1JQV0G7FjIoauzshOxWKe/pn+LnxhitG2/X7/2UM2879l2WE4MkKUFTsnn9WEn7OU5vr7TBr+IxPa9gZzWR+LPK0kAcKdV1jUJkFE38Y52/B8jddiwqnyKg0+C01vGy74NyKhMN0uwvcpqAZlnAcUIY8B7/ZIfprBS14p+ls+Mj3ukm7N2vSekT+bYbTjoZMGp9uzxORzVgkFAaQHOMNID8BPnK4HdVM5dwyi+UhAN/t4LSPx62/wz9Sj8TKhieKGDkOkCD0Hcd8ln9K7Ca463bfzQ9NkySB4pykg379ZYPq4v4Q0lAWG/ZztIAhs77C17CTtg/yAVlUAXqe/+ue8Ppe1e1o0tBos2HKeq2mvDp1U22U5ai2RbhY0op3bLguQLO3IhzUyPdItiB/cQQ000RfPxGldEDce4qofE/YrQwPAp/fhNvNF6fs29YyKGiXySiHl60FMSh7yHYS/lU+kwMklTXrna5PNlMbWsX7wE0pNYMwxVBpMmzsmLnDvi3uHHuMtxQ1c2wG7Vg7wEvk8cHUKMWti/Tu1ZIeBc0omDXf1z2O31w31b77JDPCRlsBCHIzyVmwWbqF+AQL3vOt4HsJzLHRunC86KG9vnVw2vbtQzh4QhtD2yDnKrZnUci8hKWVUC3fDDQAsqwnnna3s9n7Gi62caHw8mbv69LemZ5/85jjKYcrJT4jhkGqeDx+8iYZy0SoL1xWajleLElTVJS1U4gadPNVFNOi39HMrvoLReiIf8I9e82E6tJBawY93+Jtd3Vj4YVok1AE+Eb/4SkR8iIkTQyNxXBIPjOq9MSw/1HrZfRM++ew05wEMgZPMQaKQVw6bYpiqLdddjPjhvL4ejuaZjKrWP0rO3G7Ye4oRtsvnzRaCziLi7YEZkU4IpqpH8iOjO8EEMIRwPxXf5CA3qTQMycN0Gvvb9wvzmEiEqE+gurh/iVX0+42td/PvaYVUwqb90QHxNW5C/W0+uVAq6yh/ZAU9w+bSBkrY6y3Q/C/msIRfdRa9FxM5ufaCSvgJBYPfK+jvocUzBMehogCbF6nW1usLk+MW+bsRXcFMWTS+4MsDMdQkLclCjFN/vzkCDsNQw7yaQpydSWCImEux6QCbVgel2Zef1bKFDNaewto9BHyfS+vcPzLEiNENOHT5k39sEVGdtbymdgeT9eipajWmK3ukkIjTnRYGNKiXj7Vt/fVtxJG3e0bRKbiLXtNoxXARqk1AfYeJfaMQXz1n3ynguQKlTqZQ6O/6AZJwYPlJ91+JiokEK3lEfWfa4hg/U7gq63sp/g0xJImXxKHj0xJcF+DFSvk7q8dfIOsKDKwzmcE/xpU0DBhGNVPDnrQs5lfH1FjjFqWbVzlL1gofL5RLOac3v0/4I3Z2IwfuBDO0u4kewu3bKBV3iQ59zR9RqEyuBnMK0aG55Mcp3z96lef0edIKUOwDlZyYr4OPX6iHloOFXajnnhLhuuTovhNLcLvHVx/Lgfs+TChgxRvAuST6yyRDP99CGtKwhc9HA5Oc7JvbjEJDKLdJdRAM4oeis/bj8Y+LfD7Kj+cKn+sIwrEBrhva6WlHZY5IdkdsQLRcEJCVoXNYzUwC0Ry/EDbnIemRUH6fgEBTnc8lY/J1HPaJBF71G7Bxt7LT2EZRoh/6vNiWzRnAewaVH2ofZjCSbBWWQ6PXACj8IbQiBPjfrk6yAugi4H/VkfIQmRD/Hiz2aDRkvRNvponHE7sHYvj0pVesxLhuwucJVa9AAeBs7z7yaIbzGCBKx95JWAZVaHuBrCQMc07NYi9HZrCnyl4/MGu6+LPleqxbpUufDsOrKIwjbKBrvz6yMC1cYTwmgMEfZi5DBY6T113QkalP9qrJgUybE5Iijne8dxQMszhsYju3T6Y536ySPvo8NIYEO/hEk4FpwePN+BeNtzRib2UAXKUawpxC56CU4xxUZuTEQgQWPoefvVnSW2sDAMEnN3/nQf1yLLe/Oiq4YXB6etpUDe+9Khrvm3ucNswq8jt/FAl6Dzb6+MRgV6gwA2Q5QAu1VKrmcae/k9fOd2Tbb2/w3hiWk0/afD1bZ5sIvOqB08CJNOvPQZ+QsED0r9VQRsC0quEuV3Jli4FSCVKMxWhLnAgIt4wET3a78YzP3V/1XUF9wg5piSwpmktbVrCyyKbmUz0aGUhFLn6ZC0mKYKqfT9T743eZ0RJ6nFL0krrfkrybq+eQv5bkslU8taE55UF50g6dwxbIIS5d9N8WMb5OptJREPoVzi1/D5yJ7QDRx3gJ0h6/B14xwdf3fUv9wM/pieEFSayRzsLlUPaauUlYNVNWinCDnNnDPVp7GuS0pZlC7+bl4qWKDTLz5jWf9l74U6QImJ8nOqgDAxGD4s7QOMuM0pZQsoe2M02kcJ0B7L6JT8T3rq/AsM+Ah1AYRWeadFu6lS8oVZEOeyIk/E2rzIwARlpJnDv97CxNiceAzYf8Z4VW4aJKLUKSXsnOtwDVnY1VrvlZ2O0TcqeKqS7Wq49CjM2LL7zhYqxCxCf5GTHmNm1fH/bwYQ6l0Z7Rh0Jpx1C5m8CiJI45B/m2cY1RXjUVeFM0s3V1AlkZ7WQ99DCqGPPOVVmovow+HNmk7pxlcrbeZmd8Hr+Xh9c4WQ3jrbOymOOsi2P4B98idQ91Q1qmTA71pzeoAbCBNL1WQ5Gnp0Hv71ibceh4n+Tj6AV1NtJ31+pf07I25fz6RIt6r+TDyXc+wBt/Smgzjz8Gs75l7V6DH0IBc2EXk3uLHn7mrAh7O0YfapI2HwSy2F9PJIIfbLXI7GcYmUwgihGfYGIipcsfe8cX3RaZj7qXeIHDWayySZvboDI6hnCL3wRzAgJIbu0GoI+tBoi7aY2/Mm/iiIdIojvxlDJhHlJKzuPDVp2PCzggfGLS/jgRPqybnj1vzPdvcWqUHt+ffaKl7gkelmQFu/x5i3CG6XAdX/XzwD0gFY8FwYI8QN3MGwBFYioaPSOEj2tzimOeChpgW4hUyFCofXGYuIw1ZxQWtpCYvqF8+SS+dksaHdzNh3cFvkhmoUlcVNIY4pGvhGw4sMMx7aM0z9xIDV95HLiwTCwNp6peyDFCRNHanDaCDKsLL899TcGddgOdCnk8gXs5PRq4Z0eesGrj8IjpqCCPOmO6Atwzh3EfBktbSHUhPo7D4xoHaFP/aRq3lMrsADdAGD46tTvg1I18Fm8xzzbMMoIfjSLulRRy1b1Nhlt7Ym9y39zrL04uRjkCHqxbW9nTCCP5BA1x8DjYbFxotn0hOKNtd78fU4PA/ug61/Ri931ZZlJRD0XhwjA+6Kmp62DBiQ4HooOqJxtna/Fl+18fzgwdKOSPSu5S2mDRC/zSU7IODk2ztDQ1mgj0QbyO/CrZXkd1V/WxkB5WEIM/vINf90Hd55N0IYO4IUTRU/uxfTjTs+Hu6yUvQghV3Rabho12MwZGdxJtSPmSTDaOcfyXUwPxbYtIIOhy2e0NJaqxc3M2hNLI9XHyTSiYEePZs4HkMuxXKh+FyWiGt8TN2UquUuXKFpjPhM5lskCEfgf22zi+4IW+rij5O/PWVKEevKFdxHNuhWpJPC8u0jYXDFWH70J9fkxCcRB/RJFueRAlQhnj7ccRu7xjqtxhwMJPQ03CueEHjNVJAQsV7xqEtb2MhTkvdSlzLhEQx3TH/BjFHJ+zsA6/9OoLB8+ylNLS+adbkxfWAHGaolr4L3HH+V7lRbrKLzLfR2AKAPpyJt5m9vEuZP3nlCrRnH0pAtJBoM70AyK1/mCL86Y60babzlspNHjVvV+X803VyTRvR8rysIx/M0ngmvNanlUWoFmJgf39hCY+jfCYncUqjT5Vonq4FXsaJS0+3MmeTkHZl6b/tfRmz/Xy2+1m9rVy23LwIu1ZiYIIQohttcVHVWay7ivW0b77CrFMv7fyXAuK0B9Qm1RcMxxzBhx0kT6gy4mlz/glSuR7Uue/bi15exDXinU5l79G56BDZ4K2IJZMnu8bpnVRyOUTj437N9X2newIhXNfTI2OsZNZxVMsj4osz+cNaxtC7NsIO0FXXULpNz89f/ePKgpOU968ZbXBrOTZq1jQLRNwhc4YGVo54xfeqT4X9j81a07cm8IjSW/gMMuzxYL2vq0nNidSA+IfHCvxj6kdMQXx0aXlEZV8gCrrvZx0aDBnUDqgsKNDVQP8htYtaQVp4DHemd+dErpup6pR+N68Yr5fM05Qfs1uSu0exSMungMICpI/DdYGWqGap10oMve2SXkGrE8xu5QYLIq8o6syZivAFziS03cg4XvmPD9jIVBVzqvv7aJI9WDDnMEcgCQRcYvz5YvsbcXwDdU18REia8PD/bwzUVHgxqIAU5u9r0sMiVvO1mlqrmZ+A7Xncabtaf/0bQCTBcHPTblSL1L6TZ+JPjvSmWsG6G2nxnVLj/dXX9tus6O5Jw0FP6bP+n0fuDVaOvFtEj0Hfut2vE2KSdo9pMwkW28fIKH1THGTYUW5LIarvTHadv1TXVroK89tqdZEmUxpztpcTnZmswqe5h1FqzUmW1S++YsqfxZIqX2+fHbAG5+L7ef629ZYa9m6LHrZBP3D31/KzbxyL+AJPZkKoLkDmdaxmH1hn6iqqXke5jrYIyT2ozh05QSZ6BNqFXBqJTjiWP1w/gZgwqw8iRBxL6eV25mmapoewORTuUvsIt25912rwI+Q2uaOsKxv7cR25dVE7/3El64X6cFcSZfIcwyGR18juN4IJ51aPorjmYy1plpt9cOKdVB51hXjeWKMvBgVCMu0LNlUNsx8o2+Utffcdj3F1j/e/1Ry3EuX4BLYO+2UsdshkClWFYs5ZNhQz3yXxnhnjBmhOog1iK22numqhI1wAcuYAzOBXCG4e2Mq8ibLKKZNfV5DsHTxhU3lPsH/WDDcrZHxBgFXp6Q3ogYPGeo1etD50O4XUe2jsWuvZjFLFRQ+4Lc6PoBv76hxcOgfvTAI4f5pQn5lCbi4My63A+CHVtyfyUnuip4Y3KojhB8CxE89QW6ihvuY6vsyNQjjWkWrO96cuAp9zehWHKryoNPg6jAo6wJztXwFzLR2LyxzZAE/zg7O165AoywwLvcj469ftjs960oF9TtFzzAvznJjM+3X5tFoZFu16n7R4g+AWvO9WdJaEx1koyDSyXDzR+ClkdIQ9TkL5dBxE5thPUUPHSyXDxUvnYZzwScqgPb3puYc52uRSZgyfzAbm9xRlTpV9bu3Unwir/l8y+B9j98ZsYOWW5/Jqon2KFodIGY/rFIxU1YRpN493JoyaaRY+0i56h4EBVZwcs/in+CQrqAfjiSQWIBMb5GBzPVr52Vl/dzoF8cMn2I7CcZ0Sezlb9m5Hx1gywuJH1zRW624gQAegbReRP9OUpSkSkSxVEjfB1cEfjVhcF8GzaP5+b7ewpd0+f6T9ov1k4uIeDx0ekZS6+kbfGR7tEQsxBx5LQQ+JH5R5ojDeAgwiyrK9VxPHFIDax/EDTMzTDu1usyJeILaAVqfRdPQ2Q17A/xiYQLWgYUXYKVk312IZpbSAP3xlyqAo5XoEtxaMxCWmqJqHbnYQjlEPzzSCfPXfRm4NYD2Cpoj2Yki+bjWRAlqrJnmctQIMWBSGtb8xVI+9PBVPHisR3rYLIWaMw+fKiveZvqY4XSrJod39iO36O2Z7eo+LOWo3wYOhIZ4e6glnKU3UCHKHixKJDFMQQz18lwZr3o6ulEZs7XorGM0Ry1Hg5bkMwbjKRwsM3TMSH2elD5GXOgE274PMsR</t>
+  </si>
+  <si>
+    <t>Chase Credit Card</t>
+  </si>
+  <si>
+    <t>#d80d54</t>
+  </si>
+  <si>
+    <t>data:image/png;width=100;height=63;base64,iVBORw0KGgoAAAANSUhEUgAAAfQAAAE8CAIAAAC5D9QEAAAgAElEQVR4nOy9WbMtuXkltr4PyNzDme5QI6tYHMRBHIqkqKFbarXUmrrVLx0h+6Gj7Vc/+d0/w/4TDofDjg5H2BFWqCVb88RWUyQlzkNVkTWQVbfuvWfaQ2YC3/IDgMzc++x96xzWLbI7wqgK3DzYmUgkElhYWN8HpJwaJ4IKkLZRA9wEBkSAgdJ1VQjVZIn6HFgCq/J/CxhggAAADCCGMD6OV1JQLrkaCHS7Th7nsHXAzbO58+L+VwG5+9YhAIDIkEmKZfNsEahABKGFCBwhAmf5GAJjqRTkhxQOpXLIKcPvCgNIkDldR9c6yedLyTOVM5VERg8rwyGUw7PYqPw6Omcr5yH/djgel/lqxQpBQVRQhpy3rpXRhenAGQBQtk8OO9/KlQyHdB3y7GMKzMEk55/vm+JSRHJoOQLUOlTdxiPq0FSGZxeoQRQcFcwEAJwHSmvfeBQZ7p6yiaX86UJKbpY5uFERRgXS8csbhf707ZrfU2/7gu45v9pz/r7s3Z70fec/sr/uCHuqYXf+sv/8fffdd/5Nw77nveFryeWsgRkwAWrgADgCXMSJQwUgoPIwWBfXVPNSm6EKonCyIgWoEBWGzhAUUsEjOnSCS+BH6/XD1t9b6tdfOfvqS6//aPlwbW3btjFGAwGYmZnBDdUydC0qdcfr5h4MJkBRAxS4ZgwzA4TcSnciu8/f00vkSm9IhRQ4JJACBBARESohIgIoRAmFaGoWYs4N+STcSPdzziGDqSi1z18rT5KMAMQopRxeFIDQUkpKJmBM9akiFGo/+Hh1/VOOnzDnR4XYCMfgIBBL5Rmf6cSP/xSRBDGp/ONsE7ibpFEeIglvhwtJQxnJ+jceYwQ2wZcEpIvxyjtRCkII3NUhIqXPluQ4//H5GZ1lqBIrl5Tbx74YlCHdoABSC99oruyUYMZCJUDSBCGE3B0AlhIYSJP0V4Ly/hxArEB6LHehsDTPocC5noNR8vFoUE+jhqV0hfTnwDg+/x1jJ3o1ffvZR2FfutvoXqOn6NvhOIhBuZPpme0e7WUPKm/13/5Ptcc1fDzivjcov96wOKo+dq0gHs6qJ44O33f39gefeuq5k+OPP3fyxAy3HGrABTAsvbTTSb3uzIur3QyENIxgW0sEIuBC5xuZBI8fdlh6fOut1V98+Stf+varD9eg3lnpvJtM1pAYI0kRERFLzXJUuZu9K1fWvtaw+eQqVFB6ML0aD+ABEKi8T+lGjs90qjtzIGwnWIQQRhkPBc6JpfOg4JoqFBDCIaM8ACc0C4ULS4JOl0Gzhz7pG6jQJg4Cy/fK0D9AvHJoPSpCIHhSbAD30rAqdRATquxq/iIOsA0mKJIgf/zIEBOLEEtvFhmyN85JcJ9/BZU2dKShDZiq9g/V1ycFHawQ54xoJgA0g35KLGU0Qfofo/aTXl8sVD/lkEfKKC445cYbBGCiCf5H2J1AVqMmgJahPCCAmM+UVOwht+j62jDkASaSIpLGBgpAieUhSEmsOGWYOgsFNInIw0n/EwBVP+JGQ9sr4KtjcJcyeClhAgcxQTpGtP74OjFD3Jkulds9yd7TnTMX4DZEhjzl3Op73J4av0OwPXP+zTKMsMjtQZ39g9Zubn2V/KXy7EnfJkM/XhBCxCnNi6lEDR1CU1k7tTBn+88/96nf+aWPffQER8Ax7UA6IBicER4eUSR0S3Um0gJCVA0OLoCHwHeW+PNvvvXnX/3aa+cXsZrTHbZtvQpqk3kovV1V07PFK7OcvooScxkzggTDY5YxZgo+4fvVWrSNeuyPQ69TXGP8oICMOwcN73zfPfpOEku3UaqJFbkjU2klE6wnfE+o59QAy2AKJ0KlFtjd4MIABOZhQnNwEANVhQBUaBEKE3GS+K8SVEikN5b+kGosjRouzxLSwDKqq1Fl6qgtZsgepaRRRBFF2deEKJUOYhZzGUTp4FDK5mhlYlGempobfXmvYvmYyhaIkudaZALTMfVWwKxAgAnaGPr6T/+hzHsogAklDetGilB89MpNPkE1gZmNMZoCGkzUnI+iYgN9Rg/9AlCH80kgk49SACVpZBmiUAaGUYcXN7ocEUzjB8WhYH2fA0nIVuPPf8ZhZjMm9UZEAFfB/abxxFc707s9M6f9ITXO7WvE+63Cp5NFds8kduIDBWDcSdoSqdlKAYA9zP2m4K77dLE9g80Yl95VaANEVaVWUaEwCmLFcODD5VuvfuDQ/+7Pf/K3P/3hF2/pERDWl9PpJHTNXHyimmsg0JplCJjcXqJ6JeBLr/N/+8svfuv08kch4PDI3ISLFqyr+ZGFVrhBo8wMpJaRyt6xKXAkCV8Nyt2C2B5x3VXVKI07j0dBII7Qq41jQ3QfkLFkYpIpRv5JVFVgSZPpwV1oXkVgSQbJIEgFzIkXkQzBV57dQQGKqGTabmnETjgvIgn6nUSRrm9PBcqJAu45XYY5hyaZRWz7nE1wHyDeKMIE0yJOhFoGnh7ue4gXmmOfCZWF0Kc3KCam/bWgUq2FGCIpZDQMfFlESFpS6UeCQJreig3/AZrPB4SaciszNwSh9Y2T0pP6MnqojbUXIsARmoEDsJH8Pc6nHxjGE7uYQBkbxBwFINIlIU/PpSfpCdzVVT2gZzoPAgbZIrMFU3omuIU+3CSzZUZ70xh7ZITK+Z1KyD7GauBOBIjdHsa9T6fY3X/TyLpfOdlVqp13uI6QsJnx7ufdl4/Pg9m7CgY17wFFJENEBJyi8uLAxenJ7YNDWzSvfe9DU/tvfuNXf/czT90G5gDa8wPxqpWwXUPFlGuZLIDXiD/80r0/+PJ3v7uwe1o3vkJdQ5OVqqqcsl31Gl/fJbYefvx2rz78WO64GkRAMaHuiw2xjymWYZcjEMlA7LbTkwghV7pHCqp9qRLQlPKUQQtRBjkCzjkhtcjuWasRSgwjYg4Ufu1Fs8RRQB9QS/cSTTKIQnrFvOj1ArFBBiE9gxaNu/Q6AnAjjFaMBKVc/izs9I/r8r3GtB0AGFiuyuAu1DJv2JjbKJzStKhG/YwksfhisehzNkApZtDEtckYk+gxHpILE+8lncSYemiPiErtTZHj9gATE2s1mmSCnIaBsQqU9JlUZWXwIDG8+qQRJcpSWPyGhl5UMkV6SDLdS51HHht65UcAxBFoRggZLc1kRCiwNMiJpqHOxIxXlIqsq28ifhlAYWF/a98Z7wZ4dX7nTBohXl8mNtlnqNRdzFcB4z5L7p4g2A2aW8pwPllEbsjc9+PSnsFsz6AYd9iQbhwoQOxQVdCJUBGV4gEFIiqHZoHKTlycnd973wS/+/nP/utfvPMR4Bg2BZX0aCU63031Eng54I++9Ob/+6XvffXN8/bwCcwPMZ2AEdEARdd1qw5iUEnTHoUk3V1Vx414/IaTVQ1XanNn5SoV5gW9DLIjhphSpaTUrjaYQlMcGdOxgxun51gC2XFXa00vY6RmZLrnXC8E26CaE4gmaY4hmUamdC9wBVuzVpMQPPamUTiYCISk0JQUU4j0OAuQsTBrSJIxSYUIUCWLM5CU1oFxI5e/18SL50+eHoqIYGhwxUgwQHNK9jIppwO9OcEooiCTzC6ioAolzVj6m4mmEQhAfpoy2ECExdjrADMRIgLK4r2S9BmokpGQnKjoLCZUzvMZJFcYioghDwKSgTy1SgAmGZdtk7ZDjVsKvsIgHXoQT5MGgeVeuynLUDnyB0mw7hMl70Kqr2EukhX5oXqFAlgsLJ6AiJJRoRCLFEKjqckOFxXv6vGfLNSBwtQjKFSoSWrnJpQd7R+21zGh3a3R79OOd/Zft4c4gWrxKgjqfmzcK4NQ9skdMi5RqvB9rnHpjH2/7A77RrhtGS0HVz8G5g5ETKKTVkOMgTCnOqWfd1IbFP4QjJeMqzqeLi9W33jjjdXiv/+1938IqkBsW4+6DoYFcB/4y++u/88vfOPl+83smQ80AZEOXciPxTilo3pWVZBICpP93oyiRgJuZ7MRqdKx5Al1fIT/CwFRJxQKBDqOI03gTAA4qvTpnRmAmLtxTMcAYgayzThCFCR3eAvAja0CEMkxNPVYEWQDJpUwhYpks6RAqRleokWjOBEROvFA4rwEAANEFERC1ESOGIUGkd4MmDBmYO6gFHBUg8APw8B42mTZxS5hRh4XAB0xIxnNmTTDTXIsGlh/cj7CiPtnF8bsBZSQK7nBkEI4JQRpmCGAxOXHUo+5fsZEMUYhSMv2D2TQBASkSRLiDb2qLo4CCgFHIemYiiQiUCMFzsgkrGtqQnBMbJoaextnhttM5TJzF2qZpAmYJHCkOQGyeFeYf3HqzaVNdiONqS2BXiSm63qzKmCgS95NBEWcwCAeMEFSjh1g6gEYxQtMFHR6BS8MsM42JsQbPjOSFB5lAmijihgtKV1bMSw5Lm/FLjl4AltxiLyRdr9L41aAMvaaG0YAlT3Mfa9Yw904sx0zW4DIPedQdqXvB/19Mo7szMcs4FrlfHQsEV2XPOecAkZhF5slDOJqrScxWozQ+riD+9bpcvHVt1980k1/9n3PCaSqhWteOjzw+OMf4n/69392L844u71oSa9BLWoez52pNzXo2id757iaHlFZSae+tkOWcFtDfPxhryvkbi2yPz+b8kqjMUtCSjKZqlCpQqtEiwZtSZVOmrXmvETB3gUFYh4xI2mh4YlNZ5/3BMTsma8KfF+xhRdLX8qk1Fx1cEy30LF0w9H5YyAWAhzDfQpuD0OBihX77aDpl5RRSfLEpfe9GDg1CWgczfD6nwww0ZHnSa94MPNobv2UfGu0z4fDT1nMGSnppJqJUWx8x/KrZAF9lAMpBhkcK5nLlhV5gMVPZiT+bHj7WBk8YgHnmP12CCCAUNpIFCr1WcSZjZT8AvK9d4ktu7zNbti55No5v4N6s1X+nsrcyPVQy4zl3YHm3vjHC+9FSUosETDQHOFoaslJTyU6qmOav7tIMard6k6fPvvu//Dv/s0vv3D7APCs0AheM/zhF7/1Q/Pt0d1FC3h4JWDCpEWoQQ3O8tKRLU3w0Y1pmws8KgZ6fPgJh75/4kqJSsgoykJMiWTLEyqMFM1NL+WkmQio9l5lzMtVRBCTukEYVIsenZgcTQdEpibWl4ivCYpjPTBM9gf9PcneugPcNzT3oo8nE+7oNIFJ7FV1jNR2YreG218IWBw5YuYuKEgKci4gERV5liaEicFgQljyZpHkFVM0dAoMhl7ryFMeTZqWaSb4SNYXqhKEZnAHIbAi+yTy379oZMaqhFoxxvY+LRQw+73k15AvUUQWGw9ANZKpZrJfvBiQLQclpdxdSAgUMfmtZ59IJY1QwgxKJHP2LnFDRvE4hVd+fXT8EwjvgPLvJlheJnX9wexG8RCuD8HvTUly7GETCIAYJUSJToI3czAnEEsqiEQwOphpI/W5O/iD//j1J279sw8cw68VDfBnX379b7/73dPqSatqa9fwlaAVGpVRhPCQKkgFUNAIw/jxkutb8ljI3HbkI8FMFq5VWUZQFPJY5KpdQQwIu11r907HNL+/jTMtU18mXU9UAYkEIjOBTbqvpum+mjCvq0LvypLWwlBNNMkwaTwo3jWJv4sIsnOhKmAm3RZwa7pRklAAkeRSchXf0Zu7Eo1Pxy6jbhFhxCDGPFcAYSKAWEQEDEIgDfEGgdIcy7giFKJ380xKvBJI3j7ZnpndCNMME8KsS5NIjqVmTFAPU1UpbBmZ+Wqi1xQkR538OGYQ0swE5kCJPWcvdlQAOubshU0LqKBCBxN6odwwSZo4MzkmM5OSUKbwKLOgWHgfgWSc4biyISp5WVHS43I7IkSyK2fMAiCcUBMTKH5lI0aZoXyUInv8qfd6g9yEuTPf8ZqyDLB3kdEWL95nn7xGiNReLXjs8bi01wb396QkBqqxIucQD+kgLaSLiijBJZWPcJYaMGAQQWC9qm594Xs/eupLP/i9X3/BnwM/ivj9v/7bRXUrzg8ZArxHJRZMgYLsDuIJTZxdAO2fCkgLHcvMMpnjkwqR1o7mrnidGAXm3vOR+V2N6rl9ZlKYHfcgmgGTxbFP4IgkYSdzX053yASeZBQAVDEAhuhEKCZEFBPkmqQacp0TYizSUL9kSVCGnPSOilxj+Vkp0GwPFQIqMMCllzjkBociSEvCd0aIgBEEJRZHEYjlY0co0zwxK1GIRVxKJZLcYJC6vUrHmNaoZUZrIKkCY9q/IUnYSaZP1yZDaXJhSoNWtqgCxfNKSSJZLagdAdOxvJNuFakjgSXPnSDRAwA1FveerM6nx0nqv9EEAk2ATIiAhvxikrk5teGk8rte5pc8I8vWYhqT+3F6UIHQLKWnHKiCXk8XJtGmR+OegNuoTfb8favF2q42LMBoVfM1g/K68XDJNgTq1jBQaobXHDYGTT8/dNrm4x3iAZGuGaOQuTG+PTqWG9/lOiVPsRIxja+uvGsBVCOtEzXTICoEKcw2oXpVnzhX/fGXv/X5f/qCXwFfeeXtV0+XfPY5Ooc2ovJg1OSDCwfRvGSfETASFLfDarI5Eg+SGkaN8p1jE1qixT/2cox3iv1ur4C9C0CK413pIL3zHwDEzMWdUNX3PogCjLR4pNm5CJRQ8UlDT5BvkgxlWeaOzA426XaSgKCn3jRPExgY8/Kosj9BajfJOz4xQ0mwm0EqL49KhqbkiV/WNFEQAQqTv4dLWlAqhhmLk2V5mdk1KJUH3qiQPOcYyeupxeR/05JXFq+VTQ6XXBpSiyrOLzBS6ChJhs44buUA6O3HkjtNqj1EEYNQmay8jKViSSoASRq3CiNElXDZDUZcz+jLeiUWn3oAhuK9bkpxWWHbtbVAmkcZKEQaAJLak8+xPJMoalHWZ6yYYS1Nnsq0wwlYHEp6B9BEm9JarVSCHYt9dm4/oJb8kK5vBTNsbmdxvZDMxY+KVYpz803scXlwGk2mHx3/GOHGU4qb185N8NDFNQCjESEhMACIBvFBBfR5GgyQ0VBFnR8enbzx2it/803I18n/8f/4m7990H17rd38CbgJoNKsJwwUNK6CeogDAUubYeyad3F0sMVz5SYVTQhNcTNmcYNQZl5XPegVbpdn/XDpwBp6l3BGJWBMGKrZEVHSudIvWUqbRBGSCSl9Sk/OKy4pIQn0MscvfoxIo0XBaAjNg449B9MecDWVsV/RmmA7XViYmhY63Fs+y0CVuhpMNENGUfOhveoifayQlK6Asx32W4WNXdlSnaScSKZyj6e1JIrmnsEOAE1MEHQkhXPw3EjgPjaxpoMoaes5GRtUSw6KYV+BnKJUISzXjI5tqhiK1/M6taijBq29gRQZsoetBcpdpAfx4RwAkIiN4pXLh2dkXrxaGq+MipSqGdA9W3Vt2GM3wg06F2Vo9jcIO+YKV1P67nTDzp57zzVPHh3snsdcjeWGc3re7Pwd9bM/xhgPDTATpSiSdp12tDKCBppGMzGI1I5PWXdnVvl7wNdeeoinXgiLFTqBcz60LnS1MIp2kufhYKysUVqTM32H1zpU740ah4BQu5kB/Wb5A0hcxGQjlryecisduPoIknhRstf1++AxcU+VDIcOwkS9Cc3O4UnLlkS3I6AQZ06LjWHknlgWJeXdZnoN3REJiTQLKUlaYSpVZqApRSFUI9G7ThaDZJ4f5CQhoExSAWh5cpoHDGM/EiT+CxFhdm9HzFutoBSvd9fRAe7zkuM01JnLMnMyWkrhr1rUFhqYubOqAK43iJIAomXXto1lFQN8w3OGTLTZX5X+TKuKPAavGEtmEsnThWI+AAYMTYrPgJXM+9GlVhE3ZuYFuFlmGBm1gWSHT8dE2axG8kYF/Xhmmhl9Xg2U3PqNI0DPLWXA3L0ueruTb8o0r7+CKQVLlTHeBnMjLukDE79J7gLs9XPfcz6Hf68X6w2AHb2Ecn24vtHzGl0XYWKoDGqKtCeEKpVQQjooYUHYeQ2RLlZHbdN208kbD8/8d1Z4rdHFg+Xh8e2LIAgBISaZDBBl2lUtrbaBAI4WgU18T9poNhxLaT6po6RX4Syt8NYoZSex1Amouf2I9WN4YnCpVRUTHHzyZ5eBs7jkAEKJArq0rs9S61JqcoQoBCG5TgBIS59gYhAThoqIooCGRMjMFGZqBKIAgCOMoBidAR4pWyospO0vIBIESchSWlAPwEMio8/WSiQlxWUl2gwmeYEiBE5ZlvijMHiMPVI4Ui8BwpCgUzPKJ12+H7ggRekWg0vPngCayW2fye8mwQqkd7FJgxaQjCgkLYkeAiTDZj9l2WypvTEtd6P8Bgc9JB0EJCk7aSaST4Mkhm6F/ApkzDoHuCWQxjyjCgQy3tFImC5M7UPzSidmm6RmBt1z4J4+aJQ81eVoPt7D8RCk35wsZVyyEiTtvqQws7m+xOCosghJdtT+8mS25qg6BY9EgS0q/Z5NcoHNjnydwLEyvgPZh1hG8Q34X8rhumtxNdmlkDbawzXiNEZfKeE7xNfJucTFcnm9uJf1oZb3KoRQixZvAAHLTiI0EZWqoui9iwd3Z4f+97+NxZ1ngqsiDW3rZzMAwXvLIFjIFX0nqjCBKbQ3pEEIBEio67pt1wwBIqCIsRa4qrqwoNRZK2oaVBov0UUo0Ihq5UMNAyvXWQusUCkgCBGRXp2Ia2l0gKNfN5XTC40QEX+g1IqspZbgGo+1W8MHWAsL3ryHXzXEtEY1QQwIHSypqSqoVMz82iFMGZTaiG9c2r3bKu88ZNGu4VXqGZsgQT2trVuoQQXq0dUw8eaFFr0YDZMKMFucwqkJIa6ieooLomAUmNA5RxpjVK+V8+uubSUezg7YWjIwMgFr3muzrGsSEpaNrkmPLTpMauZ9m+9VkCy4l3XXJF1y4S8xEqQMC5oS4khpKLm/yegqYGC1BZaBsm+w5jlH4uwZCfKuk5nRylDmZB3mUFQIoKLqEhYzm6mRNIlhkQuZHGck8Yg8IUC2pWaGbhAFYnGdTCumhCPqHUGMth5LC21Z7NvD6qVhaXWp6cw6CUDgssJuzEXIUKiRLJMiAEisBsnshWTVLtgt8NmbXhKTEDKKCIetKAGoOAhizGNZ8iFKP+VZ9TgMo85uyNSbT4tvNvmGPpLsl9Iy/9F78W6Ffe40ybMqWbLeMU7lAa8d/xhB0yxWt+JMtrJ5YBTjJjE9TIGKRBTk/aCTFTB3uES0KsAFrQFo2wjNT2aXZv77C1yKd6LJDdeDDU1FQ6ZdabIPAhQ1SllUnf8F0zcm2Dx8iNlUJ1MaYqAqusjlOmDqjCKoHDQK8rgAwjmnzpkPMcYYoRESQGB6hM67zsSQrXoKwOppLTGIc1TQYoyUjoztRGYUKw7kBjEiwty0njVUNmuIYVpXqq4LGtEGjQIIg5S2ogDUHR/Hy8t2sYhiTiUi8empRipihaZD0i0S65R5XTF0y9CBAU4gBouQkL7lkXzsKDSqQgQOMbF17YKZQkQqOAsx8/WsZkQgcTshgyQ38KGfJhEo6zAi0veNDfDKPuy5y7hyclaEBnWlNI3EJNnjew6Dz8/YL2WUAiCCLs/sgExhihrDoczjwGFQKbfIVJj9r/0JIhssfuypkBum5BY+mkZYn5C8CdOaI+shhGTvIJ/ulUbH4nloMqSkuuopzriCsqpQ+qKVFB3uky/UEd0eznFKkiLJdSS5dVp2jc0PzuxYkqQ26Rnx1n3HlYsfN+zX6G8WbuTjqBjWlF0zMK9BIPLS4EfGvQ0I14yvU4Axu8ouALs0mBvd9xH4ngvGoiXkvNN3CEoTLr5mpgySxBWI/9EP37YIpxqjqXpAadbzwNKcChURGe2tQcCElqQXOTwyqYwJfLypN19BI+QStKV6JwhqeUMWMcC6btF1nfqqOpj4WppmGZZLrDv4aVAfnaugdIBGhO48RMQWzkNqQKBepxW7uLImwhAijFAFvVEDtWtaN5lGb9AIO+sWTdc4VDP4CdTgBJCVqxTopAI0PjiDk4NqNhFZCxbLAFXMDtq4rhidiXRdcGnL2aiGi8uzw/nsoKoacQEWQ+s8JnXVrDtRBGUUp6rO1Bs8RETFC3yMMQiiF50Y0ESO9h1A9nwgJDf6vKOYFRAcqRw9+KYXPMI3JAY8ZvfDyel1luMMIkPKMHPucTyfeSWfMeiX242AuOy4g8KLONqnfmOoSALRlU4+zh+5pRuAOJKTU2saX5mw9Z02bbpyr41UG553I08bnWsAhTqG2vTYgo2xti8Vd+5zImlm/ShkkVExyiCRcnokHu0BzccF4vtve8P89zP0PTe4YXludvresNUa+/51fc3qJxPYIwLgHz58mJ3wYlRf9TLl/tDTBXMMQiNgohYVXQchJgdwFZqAdQONmAmgyVlZ8uJZA8z7iTgHX3ddaB682WAtU5lPqyBzqu8i2bRtBLzHxKGqIIJIeAcAzRrWmtTRArzkJSAxLTZRUoPpbHqw7tZozuAbmaqrVaXyzq9CRwEsQhAJMnn+OVQKoL08izFODg5nlV91Ec2aCjPUoJrROtNICUL4OaZVvGxCgEStETutqSFOYWQIWVI3R1URD1gINEPtVRi6AENFNTPUQ/MYN/MiLGykKMSgurlCeAy75cKhIcYRl+zBNOH4iBf3Bzneosz9D1uIv3XfXnreR/ZH48c2K3+vw9hL+t2cKXvwYkyi9z2XAhFF54w2zIr7Dpk2pe9zKHNmDFOZPZm/65r8qTD3dOOb3uGG5z+eMNRP9nXaoDiPOv+9CXvumzbvygXz63XrvWdaLp3ntCpwScori6dTfrnYaYqgDJo3eFKKQHzeFG61clx40dqrejlbLQD4oE5ENEjsEIIQFdh0IpOqmtVddQT6ua1weSlxIdVEqymdd6IQhNABBgtJFveMM3a1QR1ax4WGIILolXBUAgZvRBM6h3hw4GplaO53HY23LYaZO+giksZSdwC1pUAF7Vpmk+nEy2pdxXPnFU7MTxvUQQNi46xTmEaXTHcWuihx3UGnx8m4qLQAACAASURBVJODW7Fr624RLy68imkQa/PaUooYhZh633UNohfvOkaBeDc1sY5xCzeRF8tkYTlr5GnPgbQBIcpOk+zla0A0iZEYTKAA0vlwIytl/kfz3BVluqfM2DHG6K2DR4e8d+5Vhpr2BZNBDLmas46ZUSk5xsyoJyRZyRpYs4zc0NM0dszfpdDpHrWLGYHAhh11zJHLtUONDZcPJcr8PVH1/vJsRe/NGsMzWfI2364fMSGRleK86aqVrMq3WTbnK0DaEucqc3w06LzX4b0fJG5oQv4xvPR3he15ZOErtnusf8/DvnpOXTkd+jzvN0vdzMygWiTQPqfRgaQFLx1oSdUyEdBh1RwcHs6cxYszv76cKT1D06yePDoQqjMFLKpRIkIr1NDJyuqOWLeOoTmZ6F1r28vL2cnxaWge0MxPpzoJZIgEDc6rmjWLql0/Ra3bdtl2qBS3jhfZe9LD6FSFKoA6CZdnEzs71stwcX8yO8bB3fuL2FkL0cjItM1gejsEqsrHru4W03h+EKwW7Yiu8aE6VtjULqu4VktrUTSCnbCaTCiy0tAsz+Ll4smZP5w4bRfCaPQREBFVTpzUhArXcSVdpZx0Eb4+UAkPV6swqaxsmJfF5yste8R8txj9DpFkzMf7RjBMDgZxZlui6fn7VrsZiz/9n/1VSTEfp6ccioiPPXOFzcLcBIyuz8GHG3EbtfeeuUMD2bj1zstHjjjDzCmdT9lA/OwpRqjqePPztBw5ffXFsoGbSEwf2X/Mym6m/Tsd2z/w+ID1/w9Xw3iqiuvQnfd6cN1398Q/RAB4VW+GLlLVpxI78RYMw97cpQ0yt2JBcIzJrceghAdlOpvZ+dtsTp+f8TMfvvNzH3n+Y+9/8skjNKfQCACByF7zNFDbiDjH6w3+4h/e+ua3v/mxJ575nU/+/O0jvLHE333/9b945fU3Ls4DZ1JN6mnNetYtl/VEPe3Dx7PffP/zz84ny7BuD4//1y98kTq/UCFUjaAKIYhO21kdf/Wj7/+tT7/w/NxPDqov38O//9Ovv/T2qnG1aQDAtC+5kAizWR3ffv12uPyVDz/zS5/6wEeeO5lPEdcIazCmRZNdDLQAMzTiTq19UE3/6OVXv/7m2dsP709c/KX3v/CZJ07m4XzGqKrqIKpSQT29w/F8ZoEzPzOZBqn1APcu8YXvnP7RN1/qJj7ZNC0BoiSn62RhZ1JjQFoBx2RKBelESRC2CeiSndmlEH8gLdTUAgoiUrw+hrEhgsj+LVdk/ZH4g6s43t+YWTtC+pZe2mihzCTyLhUF3nZq9ykM+9MAQZLhKDmBZaquac+xTdVbsoCR/BoJQE040O3E33ULtWU01PUPklh2WtVV+suG/j6m8Bxp8VK2WMpEPkspo04EZP6+vU4XSH5yIxMFIKN1XjG7XVpx6idAwu0Gkf3Q8xg+IvGocNMPUu/9WMe+53qvZZ/d4aaa+3s9b9r3WGVvRwDwqtp1HWJU70mSdE5jCBv7L4+C0CSpNSMzoBJzie3y9PkD/t4//dRvvPjMnQq2uNAzuyszUUS6IGHNzsyEFukXrV/E6fnbize/+7X2/o+e+uDdZ1zAg+Uzs4PDduHb1VT9vJ4HrS8iu1UHN3MSsVx44107eSou71+eLmxxK9oScgEADKoCVZhntMXZE7PwuWeOXzyeVKdv+XDysdnsM8898fpb324pqatH8QkLYd3qrbc+fCC/95nP/pvPP/nUFN15G87XYt7FGSMDl11s24DkHaOia+VitXjjzdfePlsE+rtTvSXr2cXqKVkdMDhXiXOsBc5ZcvM7P527+hjHRNv5A2D2/YcX3/rml4kDM9Pe9z9pXjCVvF7/isC9bVPFCGH7V5L+ieUDwSUTGeezlUPxpeGu9A2SuMHcOayA7cvf/7FRqiyG4GrOW21s/MUotS0svi4HH3IYqTGPYOXjsE9Yf9QlW5bVkiibCs/A34vhJO+Cn6s9AL4XeVB0I7LQrDQcGq+qAf+F0vad9fao8NN7zG0r1Oa06T+vQALwbQgQEe/770KF0Oa1iejrfeiwmR7RsikVAkSNhrZ5/mj6X/2zT/zWp2/f6rp5sxIfV6Fbed/BRzIKOogZJEikuuPp2Tn+5KtffOn8zeM7s7Nw0eniaMo2XB5Wwq4D6sv1WmYTcx7i0IWWcuSr2i6PbTVvOvHrWud3fPXq5drNJ6FyaEPnzcUww3om6xefOvnc03fmD988adeMXNf+Nz/+1J9/4e+X4GQyC37SrUyovoJDN3fdh47rf/1zTz5B6Hl7Z16fUv3E3z+LQRngAichauMQW64oeGr2N3/2n77x9sNwcDTx9cXDe+2qPjk59ouFIk5mtxrwItJPDtcV4RUmd45PFjoLnfij2Wtn7Z/845fuxVWYHlEk6e7JIZ1mikTaQIhA8vrjtMBoNO0qCr2UN5OdsMqS1IEypoYYwYFN06SsoNEtT5jMhBPtHH/gJktDfWLeAz+tRyWAkicyuR1Lwr060fcKLQPP1nGZKxSXocxqGZPDaNnRZYu/p3tk9/MsB6UlI5JGApLJ1yZ9tELGRKwXzcu4l3+yIGXpacZk5nchwPijfflZRcm0TTOQV9LGki164Su9gcF3fmQkKOtiJLn8pbcpgx0jaaHqes/IwpS3YOanhfU3WtFq/RTkStidCtzcG/3xzFT2mrH3fWyEV47Swd4PbT+mEIf8H7G57h53KwrEl+91JfpnFduqXX7wfQef+/DtuxVqyrQ6+PbLL79y7/yBzBudGIViEdEYXCCtOl3ZGf3L5+vLalJ534kY2YXGTBlbEYFzFlyIMZKAoZrRGgBKE649WmcNwzK2TWXzigzBIAansE7by+em/PTd49vWVqvl0WTSWrwjsXPVb336o//hmy+9tUb0DjpXeOecrtZzu3jx+Y/e8TgiqdV3X3/wlZfe/sHpRahdp1Y+dDkBHSNa0Te/1nzjwcIOnkA1jW105qcQF80bjHLvcvW9t8/ui+/eXjbqo9rUu0oW0sVVE/Tg1lkXv3m6PJeqgyS9RYiYFhzllatpw/P8xWr0gCVaIKhg0B6KnQWcK/PYDLJ7ZgDDaZt+7ntuIZudcHMc2MwKj0zp0zfO2cOgx/rMO2joV5i+7IeNjQv33XqUPra7liGN4ydXgKOioj+t5++lyw+aD3sdJiF7ctqGAtGSLf96s4rHBe43JKc3GlSEuOk3VB9x4z33uFn+N/f2uekir59c8O/QO7YVNAety94eBkBhguDZHfrwgbtHH7gDdri/jA+W6//9T7/+jbcuHuhxo7P89SK0CnMxCr36A5sfv9EeyOSwk9Zk5nWK2FDRwVpGipijaYQSrkKMoWtDCKGKrcTOMYgGRRsJwBvAFk6hJJs6XHz86PbPP/dkvV7R3Ktnl3U1PZryKcG//NTPfPuV71+u12Eyj1IbKqH5GA64+uxH3ne7Btpwv9H/+0vf++Nvn77egbd8h1jFiKgOlaASIioa55Z6ZJNbWJi27S3eOpS5NuL1yNS91eCvX33tLX904ZpOECIriTE0vkIA68NlEHeJO342DWWCJEn4LkormHdm6CdQSXVOzDR96ntDtJHka2EZ0EUyYRzLMQB6dSTT+p6BUzaMq1f83K94N44PWLzapfj5pNlDpEgejvqV9sOFHOeQbnpF3ByvUM/0tnjLjDQWGx6rF1xGvjTb3jJZl08nKZC/O1DUG5YLB8wlgbTKeUNDNyV7XT6lpLWogqHPZ2f8rLNsvQ1DWY5advNEfvy8U02ay3EMUqnP5ve1T2Dag3XvNRLtA/d9oHnTvWv2ecvsve+ejdX2hpsMThsbLVwz25vaJG4cBjx/p89ijBc3p31OEraUYICnOcYqrg8qCuEVnEx+8MbZP94Pr9vt5fRu66aOKohOIhi8M1BD9LH17eRkVrNdP3SmE6AyO5xXEzUfm0pWzkKQ0AhUotf5RMKh2lxNEWKymYrrVCMgMapXE0OIVVjd9fzE3aPn5745bYOr//Jr//jCcy/84u1nqhheuOU/+8JT3/vWK41wSdIYxGoRhDiv4AGx6Hx1trAfXRifeN9pPDORKjpHcagBpK/HUl0URVB0FBNEMTOIiyHS+aXgrXV3duwvZOqqQ1MJoY2qVVW1iGup1hGYHEZ1jKH/NJwM/b5oBoLRZhkoO5lvuKWPIVKutPL9cFzuNDKZlrFghzNA/8dWVlt0npteMVdBvE/cusXVJv+OHPD6cu2j2e7YpJGTCphu8ffxRGEM/bbL/Tyl9BbR8frVYa0pqQIybUScxlhTKonINKSkV0MSKiPyLv0t3nO0fo+z/y84/xsbDH6ywW++vO1RcdMWnPppByA5RKZ2ZQAYGZqTiQ9L6BTVHA+iv5g9FU5unUeaVt7UMQiC0IkaTPx0ujbAidmK7cLbtI6Lys5jM5l2F7fapTONkaGztZhoPeGJa1YncnaIBu3cKq/1nDq1atJ2jGxrrdfisVrdtu5jt45+9skTrC7DZPbqxfqPv//gQ3H2sU99dhI7Fbz4yef/4OXvnHFFa+BciNHUU/3ZRRPvHsraDmp86O6Td3HaNo3aBbVzEC+q2oiQEjra5So2/gBTYDaXaGfrswfW8PB2PF85R1+xqtdTv25pEgMCZ04ogWhi18IfNm2s5schRqWlb3f0Lu6K9BEPurzBwLgNJTUl92lF8QYpO2ENbvGb/b7nxRjx040XLZK2IN9i6/uwvk8xgcgW/1JA+u8njX170v2HrJI6kfeJtJ7cZf19o7SDCpvxcXy/svCOzLy+967pnz2tBU07q/T6DIj0uZSkuZdfiV38/Wro2boyr5stg+s4B1VsKUL5bfSTHvTzD6ZvL0SB6viT3DI8R34jG/j+n1GQPRR9bzkfk01y/4zh8eTz44etErzH70tGKxxv9EE7E0CtA0ANlOxKSBihYt3xQT0Rsosd/GK9Om+6t8IK8zmEwWLejCqZtFSd+I4BUDM4wUTh2c40oO3eP3Wfe/p2mJ8wtiZhzYamVaNoJzM/u+14y0UXGaMQLsIFQZDgxFWmvovP1tWLzzz9/MlscXm6fuL9f/etH7wU64dvXb58vvzwrdrZ+uPvu/WRZ45Pf3je2dTqSUOL8GuZvvFgFX8GCocOn/7Ak7990V1qFTgz7Yi8lsQYrVt2jA9a+/5FeLm7aIVV7VFZZKRG76LD+s6k+uSzJ4vpdClTwDnDFHQylaq+iGwPTr72+ltLxmVUCkOyjI52D0yaSyz8zomgbMMSSeXAiEdvdaxmcJyI3XL5DtRmlol34/jV8zEabbb8IwvlvDo8DJeXX4cZw/BLKfZPeEHi+I7XUbe3oH9rEnCV2fX8PZb9bsfnlOSccxblRCBQMpBpOL8OW/zpgP5oZ//tX97r8uzJ/5oWij7cVHN/5/y53Rl/YsHnDWh2hNHqxxLUYk0IzWCtekKhnkCUVYwxrBcHzlxcz3R+MoFDM6uOVliD6kwcJBuLVEycGSAe4s3UiVPxMcaJyIHGyZPHR7M7enDC7hKy7twasTrgk3HZGpZxfe/Juls1XVwH09DGYJU3h2CND/G24SPT408/+Wxti8bjB8vFf3z13sPZE0vYf/jKP/63v/b5p2L3lEx+58VP3Hv4lVfPFms3Dayic6ex+uIrP/qNjz3/M4eTOsRPvX/6/mc/TsBWCIaFWoOutYiu0fUqRL65ar9yb/WHry5euliR06lM51L7RtCuVfjs4a3f+OCz3exQ5wfeu1nlXbOeaK1+tuD8fnXQ3Dv95vm60cqqKk/IAder3iI00fxV5UGpTSvTx2r7lmaNnEPiT1ZEWwBJAdhuXmPkLbgMDML3yDEGG78yu+RnUI49GJW7XHW1xJVBZUOu6dX/HTCQJyFXmfjV3V2K7mG9np5P5yM7og3G2w3lpAxR2Pz10Vbcq0+Q5yyPPD9/bzjnHwFI2hJTii6zef6W2HXt8F5uEiyPIKaPibm/dx97SNnftD7f8fz+Aa9Ike9NGPIffMg2YpZK3IwVFARFgBjFkHY8FBfFu8l0tVqpUJMQQa4uF04Ba2BrIogx748qhAQo4RzUMwIRDNY0DS02i7OJxMPZZD6pvWMlPBAeeoTmMsROYF4URoVNnc4qH4I5nYirGVi17S3G903k+aNpWC6nhyc/ePvs9QeXa1Y2OfrTL/7jeWcI3aRZ/9on3/fBw8NDtrY6j3FhHnF28JXv//ALLz88VSzgFutmWgc2y6lhElHFzodQh3Yeu2O2d635xNHkn7zv7i889+TTlbBpYhdgAupEaxdZU+4cHs/VzYE6dJPYHsDmjIfE7Vl1ew40XVw2EzcpO/OqgRFi5Ys8BhoYU8whoO/bo3jj3W6mx8KL+2Bm49w2LrH+y9EbP6WDjcQhVyGZXu44bJVnb0vcPJNF6inbu+9Fokcb4sa/jqVFefS1o8JkaejKtTvyLynD/GZ05jgHHaXkHArB3xckfeGrFIaj8/NV/YcQxvE7hXEOj45vGrgnvFNJ9Fpx8a25Gr/7J83Pa2mPt2vH16iRceW88/mPL3hNe0UWdsSNyurtfDmmMDJEZSsonwJRiLbqVsF0emTOhyX8vG4b1tXRioLaIJB2QjiSBiPW2fWjOmLbOdOuCZOq9l7VIWp9n+H7XXCH0zC5y3Ap0UP8pZ/76RSr0wkXh/MJlxfN6tLNb82ryeXZuj4+mpgexfMn6+7XP/ehcP76rduHP3i4+vu//YdDP79Yt6ELx7ef/09//+2P/8ILcbWaz2b/6pf++Vdf/cPp3J2Gi85NiXhu0//l//n784e/8Gsvnsz1EC06elEsA9acdMZ5fXB2ef+2m1Z2MWvPp+erX//wp77zyg+XbTw4OV5hHYSxdVN/fI7ZW2u3rA8OpnfYxcvOjpyLoYWftVY/6NAdHLb31+mzFZYrVyliIgY4ST4voAxfWlLGQusGFiAiYnl9qWSmV/zb02JJpI/npT1OygdXgbHXthbGxdQ5iy0RZV2rJFOfZKHCQdJXPAWiIkirJLmJLFbSJHNiy+iWlhCngqbilzKgTGHy58LTU1D75boizLunkUzfYkh73KMnJlI+suEIiMQ0dUhLrfLcgwLV3M0KguUKTN1POeqH27srMeuLmoc2FOiStIHP5uJVkBGEQG00hRp38X6GkOcHyes/z2DKbjy9UpQrdVy2dHMDOIr3hkeB2hYKZCy4GVOWPZrRPlwTvR6s93G6ald8tewsr2xfjH5mW2JJE9Yrcfq+WlrOMY7JPV+GGs9IxlTgMc1U9uczeAd5s0F+GccljPfQNgGCueRUBgCJgxvEulk9CSFcXjZ3D4/O16BJXdexC9AA1Zg+7pq/8WOQCCMb6uTEOTepZ5fLVeBBK3LaxS/+4K3/6+tfu49Z13W1Rh+XAdpUtyfV9ITr902CfPjO3VrgK1d5Aw8ODhj1QN2Brf/JJz9c2YOTWVydP2guu7tCTtzdSc0YZs3iwRsvVdX7pxREPH8Ln/zAU3/0ze9OnrjbKsNivZ6dvNaF//mvvvT7f81n7x5YOPPeIx5GUUzWXbeuqbPQfPzpw89/8Innp/HWRNuweP9h9erlenm+8Ldmztd+Olt13Xd+9OBPvvvK68HH+siC1JSpRRVj5d5er3l4cikTf3y8jtG8FwjyJ48ZkwuciMtwy95hJkFcWn1T5ncjbXqsgYzaAPrRYevdXtmTZMufvYB8SdnQWGKRfQYQ38p/sxX104jy1dEdvw4mARYDA/L3tq6YAZgFnO2cyq87dzxP6fuU9PGy1YQLG74xozw38mfZ/gUbKeN8xlel9U2WUbUfcoYziZj2gEiYnt2PyrsWlq0ld9fwON7d+Xs+voXv3IP7e/X9fRr3Dblp+lxiHsZGMbJ37ma86zkfHffNensk2JxmDSl7zt8X84ZgfWPyvree3zkff6O3QTqyFtKxjUk2QATiPKzYXEy8kV3tJ8agLsJWs+qwxdRYORw48SIC6aiEhKo+WCxatdg0jTnpRKrp7HK1wvGzl7Xep92TY5m5+WzibNlRz0PtIa0tZrLuZk9aHZUwV69A9cJ2Ic3Z03P51IeewunLde1qbT90Mv23v/wpHj7lDw7BcLvu7szJcBqqyuLiubsHv/ULH/nSt//hAncerKWbP70WsWO9f//em15fbcPlpd06nHaL1sxCHWD0HU+o99end5944s68lomGdnF3Xk3jOrSrOY+dSaMtD6tG9B719ODupT+OcqBwtcV2dTmt3do1nTqZ1NXhYXO5cOmTRZa4LQGktZ6qmSYSMEv0M68HTUCe2Xr52mpPvVF2kindmJmMk24DfBMjTfo4h+aiObdebc9Qu9nU+vEg0sb36s8f779I2k73x6EsA8dHKeyAivtao+Tdcobv7Q0WAiaKbQAVaa/Q0YX9Xa8bCDCNNhzvSbmRZwImwa79ZyxRG27w9/TbeDBgskyIJbGLPc0X7N1Rcm+RHw/43jT/vdW6DwT32PwenyX9nfPZOZW6cs6Pnf27C+/ihfkbGTQETjgRQkFhMBqEldmEZm0DoJ7OzpZL1er2YeW6M7/ytfhIuLhWOhGBNKJLwMBuKrXFjui62Ep1jMmsWej50hZWddWx+VuNuBUVJh0R6yMXuop2GcIargmtN2u4BELTnJ3Erl7ef/GjP3Nga6dcm/lqYqifObrbmAPbrltMPJeLZnYwR+Uc4ySGn//Q4S9/7AN/8fqyrmadAM26Paox5ckTty7PzlnPFqbV3FvsUIlgirUwdvcXF2vKmiIxxrD2CBqbA+9dlNDGi+WiPp45X8fYVVVFuE5BIgBwVXQ6n046xSrG5fISaT9OYLNPEIAZNX0qTwwQtbSDJbyizA859pkpUszIK2bU7jbSx341mwuXhoIUEjPI8X0b2PSPlNEK8jHTLw1mewaQufMG0F9ZHzuaSWQeu9lKe4Hoaqkeb7jODpTX36WSZTexYWN3GVC+19OZv0Q6DHFSPuNnoztK+ekGrtaPsYYel+/HT297lp+wAp7CjWWZPdsVXI+53yRQYBAVCNWTkVSaGgCppsevv3mKiVuemfP2oafvfva5W9948/xYDyOcUmPa/FQaxxVg58vGz2+dN918PsEiBInLLk7r+bSaV74RueiItSVdwkMdfBVo6iql1LXW4CFtWVkla9/ZQbf4yPHks8/e8cuFnx4+hEl9eLoMdZi1nRxPZq6ar2dYLC/DaXt7Xr1wa7Y6v3zy+OQ3X/zk37/0V5fKtaMeH1Ttg6lr6rd/cHvZTqtbzfIy2pJVFHNiThY8Er2rzd15JXFNh2k1a7p71oX5wQlbOvPz2dx7PV51d7rFdPXQ2UXrp6K1rde3Dg+65bq5iAfzw1k1OaO5g5PLxRLiUrcbv3hmp3OQQmHM3uNgwrq0oDSdmsVqRfrYQ7+ufURQM3/MaymJfp/IRHATf4f156f1NGXF/DbTjRDJH/MrXjEjlrrVYFDmvIPsU+a0Y5NdYt+6a7BJMIddHSOr8Hl+kPIZ/Tri72WF75Ay0mAGTxjm9a5D6UbYPSpVymFjlxv0dTjm76Fn3r3swPFbLiucNvdakOy6LyKbDihJn9us6Z2Wz5vP/vdd8N4ioNvLlB/TfR9hy911rxthr8kjZiR7Zk43yB54dxODm8kyAMloNNMOiGkLAqWsWa11/vVX7y+I27cOz87a52/X//W/+OWvfu+1t99eREyIOlINRkwcJ6Y2mR3/cNH8zXe/7/1B7TqP0IX2wDlC2rZdLxc2nbnpkU4nYEtB6AKsAdo2LEPsmvaiFnStuNjMYjzqFr/wiZ99unJ1tOgOfnB68Vdf+MrDFpODHy0um2lVw1pVxrC+fXT00adPfu8Xf/bQTVzA5z785At3Tk5Plz5G19lBc++3f+6T+vDesZupHkUzmbYt10EiOs7jbEY7YPPMvFKurJ4GmZ41IahvKYHe+Vlz2dHsyPQzT97G8fHSV11V19OJrafHs4Pl+crcNEyOXj67/IfX3+y66N0kKDHazrevaEPaPwrGtKZfkudM3tMz4S/y7jHZJbpM5LdcDPetSyrUGehhemzc32DEG5eXjLFV5nSwS77f3sxgPLfYyrOvDQzcf5Pab5ZknPk+Hq3X3kFq/FGOHt93iu8oajWuwd/HFtpM3guR7zcAGpsvkgk5vW4bkfekYfXj934Q/Kkx4t1hTzn3fUP1xgz3hmFnvY0b83WCEmY3FJDsZq6o70aeeoSf+757GcU6NKBBHeCiTAIqNdHLs7/8WvOrH59UUk8Nn3/+5GfvHGnXKLWlD9AOwWBinVHW0b18tlicvfbK26/PZ+LtcKom0UBThAphgk7QhC6EsKQZ/ETiUl3nJNS1r2Q28za1yoc4jfG5w4OPP/O0b1s3nZ7Fw7975bU/fXV15ueT6BZLpxbUAMPR9CC+cf/brz34+DPP/srH7rLDE8f4lZ//3Pf++G/UOVkv/+Unfua/+xefvLVGZQhAQzTAMlx0YY1Ve8sddYtV264V1kh1KZOX7l9+/7wJs6OzGEM9adUfzg5n0p7MZ0986rCaz0OlDcJ0Wku0qZtYd+f4iefPnH7jbUzd17527/SUabuYvAdgEloB5J5uQklKhkZCkbcVA0XKYkAFWZgverMkgOIQg81N4MpusklvGXqRZf6efh32iM9fHeEAr+knS041WdIf8ux5+gDxafOcPEYMnaqsrR0wOlln3eaNtoa9fHIxN2ajYz/hEFMAVG7v9GsK2oi/l7JZrrVsQwUymm/zd4yXy6KfAWzsUtl/+wkFgYtffK4ZK+93cz83DrtClmcnCESSkB1fbhq9zz3hcWnu3ANGj4lZX9nX7qcQrjNL2HuOjL+5co1w471lruGNsyfcTJYBDP8fe+/WLEtynYd9a2VVd++9z2XOXAAQIi6EQIIQKALgxRB1oyiJkiibUkgO05IVsuiQZVJSSA6HFX5x2LLDLw770e/+CX6yHuTwAx90W3zzhAAAIABJREFUIcKyZBIiIQAEiDswM+fMue69u7sq1+eHlZmVdel9mXPOADOYxEFP7+yszKysrJUrv/zWWhIhhkQAUqgCDdHsV83jvfwfv/GvTlY/9+kf0dM9Tp+cv3z7qN/vAxkoe5/c1otFY7DYfuwDL33qEx/77r/4l2Z22kVb39qd77bS9s1G2xYqXbfvewr6tlVoNOsj4lmPM1k3WNPi/T2CHmk8fc97Xlkdn+zOI5vNYzn+3Lce7m6+75G1tBVaQVitVPaPz7babG6vvvTwm7/12qOP/6GXbIdj4Gd+5s7/+dn1+b2HL2zCn/vZT7/3CDcVT+53qxvt6cNIseOwklb6XVzHnl1/dOPmo747D+u7Mfz2N7/++49P5c77dg8fdUdHD4wmq9Pd9gbjqt2QbIBo/VobBW8dNdY03D6RcOtjH8TXH33gd7717eZkva/U0kG4F5kLFUkheIwgGIrbkyRhExw/7OvzRIyAQopFMlFh8TU+Tky0b5ERal90/No0KcugOl24tZ8J9/zbSI6X+pF7e3V9SriMQZfMS/X3Wluf6O847ITy6sC31+brTVHJ88A4uTMKtRxmONNSJBHykD1NmgBM6vzzxU0OpesK9+fNKjnY7CXtPm1DFwj9a+Vft/4rpCB/7tcEuOI/CFJ0H4kQQBpIgLRA6A3n2935+ZNXX3vt9NRkfbI+Xm97nMfwBOEUq0cSnkh7Krple471/W14JO3u5KVvP+m+cffhe9//4R965UNbW93rwhdff/zVJ/FBH2y1YggiEYKmaa3vSXvlpVc2Ryeb2y/v5Pi+Hf/ud88srD7xYz9y49ZJ1+iT0Pzml77x5TfOHnDdtWsqEQB0kfvQKoT9SnWjX/jib//oJz61uYMngi4gNj/09a9+84/+7Gc++uHj0OCNLd4I4fWAs40+7MMTNqdYncuNbdee4ehur3fRfu61B7/x+d///1598GR18tAQ2ualzea973nplPtutT4Px6fh+LS98ag9Pj269TAcbVc37u7QrW6e6uZ+lHgsuLW+3zXffONRD3UDILgsExFRozEPOyEiKqoiQLZZlfwJcXfqnk9nYTPr4AIH0AWSnas6yzCBuhnD8WlXnjQlx3FK0qPw0PP/C2Sddhb1vJ0xMvMyQAZVSSaspfRYgiKZ1jFjERdjMgA8Op3UztxhEIrvhRJyXehBHG11WW7axSwLDSaDXUyrYirPQk/MQ+UmXY7jDyI5LaaJaUM/Aa+aJRJJKpdKa4kYjMx4hXdcSBor+isFhJGWnj5mUuDAalP80y2/4PmmLv933XSwntG/vGRRdPrTpMDk38HyS4VHF87rX/x36HIeuLVDV1xZ2JZpeeDfVa79X//V4iRYTukiAzsAQAMEyBpoEBrdbze7B7dx/qLu7qzsSK0VdtFAMdEIdgrAAqFsmnB0zvXDzfFr2+3908fvuXHykeMbODvVVfvds913+/VudaNvmj7uYeerwK7rGK0x3mrCSyvcDLK2bh+bN+LxvQf3PvLe1ZGc2fbJ8c0XX32Mbz82O3552zR96E2iohNAKQaNRMPd5uy1T/3I+/r7rweE1ebF1+49Od3yxTt3Xjxu0Z323eOIrg+wqE1/pNSofaAd7QW97WHbwG4dvtvt3+BqtzkxCdh1P0R+4KSNuzda9A1bEaWuGKRrBDB2O+m6F1ZHpDze7tubt8+a8MVX37Ab793qCkAsQESKoGnIx00KEZGksEsybNJ8qikiQijM5a9WmRhMkCEi/t3dA4Qk+q1UgkrgZmHtFRLVwVeSlLV0Hn4dnH9J3l6IiMNCGURKKENVslo8PF+GehqOO7ak+LiVL0kyGXqNGIdUSw5witjVOOZ0ejLkQnmtiRlCGY4nHOaqVpccRCkp1sw2xqX+amnQWNa5tM7I0JMsor0Pnu8LlCERjSIlK/NIDZU6ryzcL0hzNfaZHWweSPUDvUpbhzTx593Pg+k5u0N4mnRd4a4uLgR7RRSCohEhBQtStBK1Owv7sxD3rUYNq06PibZxH/CBogy0YIpOTrfdrl2FmzfQCnf7o7Nt23Uiuy4029Xtbn1komAXZL8OjDGKKKAaRbpO+y5YJxLao5cenz48utFtt3f33fmNmy/s90eN3jKuAEA6SmfiQfUC2ChXxm5zzG57f/fkwa31ehVXAW1ojzvinPsOXWjYNgiMsmewQNF90xpkE9uGAdJD7fH2ETeB603XrPfaoOON87iKew0dGMGGFEPoRaLAwHUj2vVHigay3e3QhnC03ml7GpteWlbIeGGaI2vfiiKsGRqnqZgWWcks6AH35+4iNYlss7oGEXGBXpYN5BcmjFkXQ3kX9DoT8cwzIqcwFvrli1Y1FyGOzNDP2waZtOWprcRRXXPtAKAgWkW4D5lZzsZ8ZsAs6HMxKSPv+VadWeZTh6G8ZaFZTh2qNaOo+JrXgKpvANJqkV0PjPuWq01rTARBnQp3kOInMYNwr2+/GqinFYJvjbhUXI/D+v0m3HnJcvm9TNfE3P0FJxSNEAERNIWZwkIgpBPK5qTZHBvYMXbU2K+BALOEdtI8gtOt483Rjdb6ftv3EIiE/WqzuXGT/bkCEcF6QwCCBrLb7YMwUiIaQRNWx2FF9p2ZnZ7vuFrtN6t9K1H7J7ruiXVYyw6BFoymflInpi3Yhr4BNYZmi52+504n0j/eS2f9Hn0j/eoEa4X06GOz36+VSu5U9iEA7SOslBqkhUQcadOCsK7roISuu9WadhSlM0SwcQAr5nfMlGB/2neNIhwfRXjE48YYJjhBvb8e4doEQItiYsFpMyKWbKAZoBHQfDQ3VJPB8imGXqqE/z56x9KfdaG5K+BxFcs1jL+UOyrfD9Q5LT+vcPFdFsezZCg/4cNLxq8mvV2o6gCWvZgvIyRnSHNr1UJRJ5LFPxM6Npwr+Hlv9o8MACqJF6+1Pz8myg1kKtqeXtK9ZbKSs9nu6ftNiL8d07WpkEhqQijKhMKEFoLsjTDQrJPQURGJnjgJMISOSuuEEIMCZo8e3rt941Ybu747F1MzM7OuPe7jzjQQASqQoALrY9yet21DWgeDghqiUGFktFYk6Om+Z1S0R30fELlThUpjDFCgjZAeK6AFm7CPQcP2DNivbHN09vgRZBMabZqGalgTQnQROzT9ZtOohfNeDcGxSjOnXSMghm7fBQJtgCi6uOt0hzAADyQE6qYApKo2bbMHtrBVuzEg7ntJgYM4Omapzy4F8De8MCD9EWSYVUiFRAA0HWA9Q7b1r/0ROvKscK/l5pLOP5HZ68I4iFEMvhsFmIhUZlmJLCtj9kVTyqSqqoBytWlVcqqTfuSkznow6goTCJN7NZ6dEJFCton5EgDqoU8FKNpiuk3f2Yz8vLs2LwmQH/zFzyiSnF2VEf90YrroRdLyoyvYffSFDlSlxLpk2rmNk3j81dHdX1HqHSpWxnJSQK4pTK/rYneZLfN2EuHfvz29pnAnIT2oHhWIEIGqO4vZbhEahAZUmAKKZoV1gO1BEzOlBWFUQAQhYL3a9x373aZtdLM6353voyn7vo/SqjUCE3S99SBDuzoSWNu00E0nahGI0WDSQNrGjNwBbIEVKNCA0ML2vVgWGQoo0ACCVijR9h3ajYQjcheObwZytzsDe8QOQQCFtAEr62Ho2cRy3gURSACBpkW3h1grus87+xCCBXUZ5hHXGrPGJBBPzs+oR30TbB+32x20AVUlkHHq5lYwiO9pGoxCJTsHtux3wwTiimGO3REzDFLKl0/UwjqtJtmUpkAWGPJr6uRYJa9F+VDngm5eifVRDTLklN/LVaz6VuZgnTPaEIxftfqqRVX9kP5+iP1yccjWK3JmNMdXAZwaWe6LQASa5K+mrBauvFfmqbHaK+CZSsJnUNW1a5ipNW+ynu9V+v7tZ3M9/87JrahClFSiARDRS+K8C6AwwCKsl14lqKGDMEQqTagQTdLzxs39rkdPM4E1nazRtlttwlFDgAnHDzAwCJr1+fljYbAGhMAElvzMot+iF+z0KGy0b3pY16p1W+geso9GEGJtUqeA/bqDbdFHRG1P4z7G+OhJ3O/09g3zoKUwZRO03TPs9taG48geAqjBLIvdBmEDrGK/j9ahiWDfEE20XYyFkUDD3sCIjmzatlexRqFrpNAlTSOh6yMTSSYPsk/rfARXpHxSPQUAQ9I9NWQ9HSNhTcuHmWbD4SQX/pNWCGRxQww4eC2aEzatBIZoIcgbjLpk4b9X8t37TyFsxmssMZgGMZ0oJ1N1MjcxLBv1lzxFhz0Hqn0AJbFGh56P3sp0Rs2JjWs9YAfya/19/KtVf6VvparSDfcKh7Eb4XFj03qq/JFSP8bcD6QDQnMhN0P5B6t6hultI8rf+vTm/e9fl+cOgMVWPM9WpUBUGSP2EZDQNCpAH7u4w6YFoOouY/0tVwhwvouhbVfrrt9z22O9QhuAGNFh30EE6xVWa5hhH/f7vmk30Xp2ESGgUWCFGGER6wbGJoQ2rNBZHy20arFPW9eMbgqNiFADdkDXHm+46/rz03WzMW1ks9p3W2khgHW9kYBoaGXTMAISgB4UMCpJRiLAeoQQVmujQncqEjrru11YNX3BGlSdqKaEqcb9DmywaiECI6Lt+50fhvrIps76/1lUeP8tH06mkZdBiEEh5hGaDKIsHnVB0pL0keEFcs0Xbtx6VV80h/I5E+JFdZ+UyU7Epq/xIs89RfzI9ouHMPqLpNiFVqOXYu5XSbWwTmB6pVDPf0WW0MW5AAHz+EpDMMWhigSyZ/3do60yBzUkAHEsjnVwbU95fa96ey0vNG86Md/5VT7zfUy6DgwT/t30ppPI//ybb+IyjqFAmZmxFbXIFABCwknFFBmSBhISakz2j+kKJ+EM9RMCwxCxPuULYnkL1FQIddKbmKnlHhQffoLk6btP0o3lTkrr+arkoEXh2pzHyFGC5S3N3aMrUO59MFGtE0DgjAXmsA9++CmV1kcVGHRhEhc8YiJYUfFbEhnGafE0VS2EyJCYJ1axHpMlVLpQAfNtlBVWjFfLFAOoXJi4LqlAZe5UR5UvMZ5k8DnDkl+uLfn1rYVE+xlJ6qLGhjwLau1+wpapL5TMCzQkxy0mEJFIA+CHrWP2S48Us4qFyFhSCo5UUxvzz6USP3qiSR3nJHMxpTBbylXIcz/103kvdD8ThAbPTxFafI3LXuNTW+4ch6SgSycyUjNzfFDGNCUIDxmbjsbwmajqZYd18Sdw0AD2gqqvV/y6i8T3gcXss0pvQnMH0ghf9FgGt0wE8lY9/Vk9zyJVJ49MaIv1j9sdnpvLX8s/CUvVtQgy4XCAk2XM+EaGR5s6YEX4GpA92ZZf6z13MmNnrj3P38HtFCdqSiwv+nWSaqWaJ7xd1OGXbKkDlxAGCDUmhnvizpNghMCJdAyTXmUJNXkrCm5e69cY69Q5c6bp24KKvaj7Yya4F/X05VbGSa57tHfNNHU4M94oDGq4UAYG08CWKT5VxGgYjjokUyEzyJX8aBbmvl+ZxotFhRiCdFfJsoICIJ3wXixLn8FuhtWLVR4SB6VglP9uep7pTQr3H5w0WnVmJ3jz9GwX/ong8+QEG8kQMhx4IZk2+EKwJ4OIGNR/EAEZ0iak7B0AShRRd2/nnnh1EKb0DQcH/X2OretM+Bbgv8LQxVchIP2nPub1LynWEmdHsqmzI0AGYy+S9fjIjBeY8lPr7vmyWpPzMbKPiOTIU7FaGpybeN0nKxV4kkhRVQ2SItyq33pWyemLL9JNT28ka/Mu16ut82VKwqVSe1qg/HlI8306cs676S1Izbujf3GaH1JdY8Rq9PDAVcJDgcmmHZjnZ0HGxHD3ozk6DlW5es8VuBMZR+cle4/hcIA5CNxaiA/XYhAh1UHrrORM4KZLDrJlqsIcasg5ox3DbDSmORzXj6uBt7nDw/c3ly6m05QyNfJTrYvMsdzGFgODh/d82M0qfEopduCMgdd9ww9J+eun8aw4VM/zVeKvLd/eQeKwub6Xsrd3uu6rWyTvRMofnDRzAXF4erGKdHGVrpI0jVP2i7NQFCCL/ad7miyOYXNFftpKS240EnelPuvzVvx7zCJjEDeVDl66SQ+DlnkpzkoJqY7Bu2Q+GPT/+IJnlSBLOaWGOoR04qdX7U70dyw+F98lVDaoaRSSBzYFEKVi/iTtflLBiJJYj3zNYZcqc+EUN8dvKmXc12atg4d0oUi+31C6LeX+EjuKpIJ+MG+VRKo8U2I6GhenAzL90PtyqObaUE6uU/45pR9s4f4Dlp5qp3KxWJ+1culCIoOXqoW2JlByaXfWgXQUWIJaAAwpirQrvcNBwKBxj/cilZCtdMZMPfT9wSAEK3152BWMLjmYP4LXs15Z6+nVnqDc3FDDIsuFM2pmaugid+cLqa786vGVru3/XcZXiZQdQwAiwfzIHCMqniNH1S5p97WOP1oyAVx95k92QtfW+xfKX1DJ9d/Hd5D0fc7pB064XzvVc+kKmPsi++WCdOjwv8jd4dQRM3FTXWwUMbigiEU0AGoyyDzSkXcg7RqCJH0/HdoV5pA4xXJAn0PS+k0k8bKdZlMBLOkqyYQQESGUhGaIaCbiRUQMBiY/xhnDL/p7OhCv9w0Fr09jkL3AF4LgiDxTHTIPA0bH0JNrNkf56W6TfYFUITlowZwuVsMuJ3V6QX9H7f89DbkBFPcYQ8qwKviI+bGDZWA92aeWphzCYmVoRrq3f0zSfGUahmtadlqgzvIRPHTBgZpkXOpdWfw9S9d1P/D2T9emRk2NRScK9YWXVg5Drrm9PZQW2MoZrWbm5ynEJO/9/VVPKC1zwUGXx0HBNbqFxS8QscTaXgipcfG1i2wczDzLkwN7ptbcJ9uOxT5fK4nIAKnlEbmUXjJHY+qzzYv8v4/2N8DwXNwfc8LrXHQnklOO2eTSn/lRaV6ZyuMs+nuq+U28489cLHyPMPdr38g7SBw271RbgcOY+AHs75DwVcwfOHE4+tV0Vzs0sFx8fLY2amJcwyU7hlQ4gTOCrBtCXDwK4KT4mKzJ6oipkAENT4BJ6Zw7Co4AyOQVMnuXzAvJiLzoV0XHu43Ilp/ef6vqd/EkiTNoIsLK+w0AcQMKp/BI3lIMXU48eodlTKB0hxNmXoBahlSrpStmQBq5qoRxU5h57gnoyMBIGd5BT545C5tYKuXMNHrpcIXMzmN8n+Q+bbxsNJIpzi3yRohOZXSUCaCSMe8wiHRuLhjikBQ8SjmaLYmUfEXpVSC+a57JXQAzVoWqMtckuh/C6J/dFuGaytYzEqDPY4vzzmXLHLqv62rQRUG6Wj1Pk2qVc47ap/346CWpAYJldzQu5rMQGACKuf5e51cZKBakdQ/JoSNFyGRa4SW6+ayLy+0CQKW2TtLiVsAkhRGvG73u6zfI6OvHb7qozBglV5F5+FCZ7QCSY5nstMczAyTmE+xiJm5uzup9HlzWzB7BFQfjUrFwXbnxvRKCz1m+HezP01FIn0lqEN+874K3Yzo05osiwGodbFL+QP2HeI0XLR516xNsdAJB1P2Z9y0drCaVLyHL9WyiCETFEeaqFiaT3HLA6zIxa7iD/l54LCJizqiHiEgUD/rBAZHnwKKx2vo06ekQDLo/ABMF3TPROFTpuN3peIow+yrwU9+yqSIp4gtD5YAl8WdYlNpxW5UOnounnPLr7Kr6CSSE5LD+LpmCiiTfHfcv/t+FnCM8uS/ploEcZtZEBiAro/CL86ys7FdKTyOADsm6uidVOuhR57rNfo+U1MPtfm92AHV690D1onQBZeLQQx25ALtymuvpi21VoTSxpJmNyxPOag8z885Fnoz3wLKsnP1aM1WGS3KwBZcseRBmjmXqA9WJ7j8ayfHt1GUWVfUJcl1XOOfPLKYp63z2Ul7RJcuhYhlgmZFbvPWZ/j5l12T93TzCalXA2TX089pkCQV1cMcnymhrdeX03KTk4pnt9TcA13u73i7IxHOBZZ55jd8n6RkeYF69fruQt36golTdBX0bYTV57aAA1AGZqUQ+axNQaCSCJAc9AEPGtStfDgKIgQFACp3qfar06MyWQcasR/x3emRHVuAMmNFhnUnkrGwqkFgraUUZebkdFNKM1yeKzjAa8D0EvYYMPU08G0cAUuvvZTESOKDvN1FjL3O6Sy1z/ZKpJ/eK5li2BQUcB1DUbT8Oqf2/54MSOCNeqZwqFsnjbxmeS5ccb8LbqjMPpUXh+6wOGKeVv1lZdugdebsI8bcyvWOF+3XTM5kcQvCaVMjSfK6iwmfG+Hv63Spj+YKhC4rSKxW6kktMEPb0nUgyuxxSRbKpOOySHcdXfZjq765LSuXzPfe/OgGWQRCXO5po1ocwesHoV8f3MXteubYak5nyaubpWfmfOVRPMiudMfRluOcRPdQPS5ebmBH8066FZQKk5oKIAclRGhYuuVJ6rpj7U7xr329C/LpK5LNSOq+S3rHC/TDGfVAVf36duahdjlsfEQnGsgBTDTExoSv9XSp0tWZHOEEmiAkT30TEaUBZmmRkuu7l6JDT60yYvolIBJUJPU8YPUVENPtnX4RiFu69gla8MyEpzDaXaJJ598UqtchNAs7wmK4Wlrp+xXSoYNLfq5x5lKVDXmjKciw5UpXvaby+vOfwk4WkyyPzZOp7L+Zj1ZJZjAhSGb/5oT9Io3HV+8fhufpM0nOq/Hv0Xl9XKL+Vi9MPHs/9+zNxmeuSf0xySgh31ytUeqyG6Wa3Escy8KlzJU6xED+680ICi4kWLeKOwQeJIDlSBIq+PCeqT8GWrJIu3sJocs+Ee52d9yWH5ucSzjNr63KIdgRyT32gz4nqc1D+2aY6yGqxVGByPZ1y0hh6CFYPt5XuwycGJJ1iP8+OLqURT6naTfqPwOLTLORWKmE5Akm9VwVQ+4IFFVdOIgKx7HjpCp9wl7SqhA+mQSh5MPMZumRHtuQBoOuai81zOVBVmmWTh3fSZyO6mD/RhkoyO8AakuX8OacsyV+70swb5OABGIfenxky49QTVwKrk0RIqkfKh6fapbdBQDd7lOisFULUvekLiOBegVOjYgVqF7HkzREcv1tEdGkCx2fyeLkBhfemIO/VvVulY9cUfue1p3wAg+9Dv2psoeqVFup8gihEE1Dl1U6HBCJS9gSWcGV6KgWDKgFSGogj5Ey+16OgUH6G5Ud9JySppgppz+OEbIlaQebuD9JyPe5vX8tql6PPRhSZQgUh6mUjGVJ4rHz4THMH7woWnzMsY1ht6SbpkEYZZq7ZLigsQKCBGhWgUPxZ5daNoEGYe2BAkB7igQ1ARYRYckyqklm8BhjEVCgIZmHxFT644nq8NuQX+cJPgZGd0NQ0mARriNCp9Ao0hWZL0BgtmAlgaBY5F4cAv4O+dJ6DytAg7y7fYZ9OMqsX/fT5rBbIma5dY8RXuPoAUnF5KpamNYi5XA8zCa/SC9TR2KQviQhUhB4PKFJEWEthZv+RmSKZWvMCMeN6FyjLFdxca/rTq5Ikn+VXPZmwaw7uJMaNDsM26VX+6jKw/Dp8nyvphyxOL04DkJLhlEOpDg3udMyJS8gU0wNDhXWfhe4TLds+ObhTx4cSIF5vwl1dsle3YcWNxTCI5Spjku9qMJg0mu89q1EGqIiQAkRQE3YoBkKgljYrVn+KhEmOf9LiYv7iJ2HwADqCFEHo8L2KzweJvM5O4q1Mb3vM/frC8ZrlL5DWCYe+kjyfHqZdsecH4JqC4Q4pToKHlKKVlKx2CYUiCRfWToKEuAGl0ryMq7giYuYYsS+ZBCBJgApcg67MlzDsbAbYJPuo8TKuWWe4eDImB5CWvHxWmnvaWHB+7byGA0OsRQdfgPjTYjZZAEb4u7/Z9f6ufjruDj9W4rhenC5JMkLey+W1o+bhrGVyab378f2JPK0MunTG+jh6NDRA3dYqzRcSzEf9fq7gQxaipT2G5ZnlMc78swVNEYQU9H6r6qYUk0/z75x8Oo515X+ArKGIhqhpD2h+smWZiAqAAkpkMIDG5a3QW3hweii9cy1Un1XiZa/hWP5e/gJcRuFYqB8L+MzVrgW1Ys6la5Psc/1HiegkSIetXIX3CE2lFqRTU2IkN+kxWivau6eaCTPp8FKZLOOrvh26n4HbXhExB8V0zEgZnUBU7U4qHXLSqnCgceAyTzOXpyKOD5lQzIk3yUOksTzB8SKRi1WFi6lqEPFwfUn8X3BvB36aZ180A8V6QfZsMboTYfZBhGSsoYqYkD9/PHVANAUJD1IA9ZAHmdafV46x3p1QVV/A6s9rJVEgJORPDLAUIAEOdtWEWq2ivi3Niu8DufqO1dwPSc8LeL4LlS9oyMudGHTPw2VKz1Ar8lcEcnIT04CEJS1WI9Ur5tIw6XOUAjIIlCVyU474AX8HTQDnxafWARH3iFJ8GsJAMRERc442hGRMFG8gW88DU66Lo9/kwKZXKIkIqzF6DJJaqu17vTYM+4DEt5mNROHIz7dQ5U/noY+AF4diPSDh8A7biG8+ZEKoZamp507Nq1nw+pvW3AW+fERWSEdgkbdFFRjVVdw4qCELTJtUxMf4TaVraBWphd5vymeaJMnu46Y+uYIy+iHQvG7XvtN01ShIN+jbP/ixSvWpS7AM7XpClgooREdwPHsYQFNzkFMNYiJ5CemvJ1LeSs39LWvpLU48dEB6IIkuTPqL/K0DBxT2yx7e1cCcuYJ/ybQ4VGG1sSjOBTzbiTFu4eMaH4FIKNIykPkASTuumeYkfbkgawk3NUatfxyr0rI4YrnkgMLXF6Yv413CpAxGZkOzAswlDl5+SXICwkL+Aa1+IrikWDCl2qZMS</t>
+  </si>
+  <si>
+    <t>EUR</t>
+  </si>
+  <si>
+    <t>currencyCode</t>
+  </si>
+  <si>
+    <t>USD</t>
   </si>
 </sst>
 </file>
@@ -739,13 +733,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M6"/>
+  <dimension ref="A1:N5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:N5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="15.125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -785,8 +784,11 @@
       <c r="M1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -826,8 +828,11 @@
       <c r="M2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -867,8 +872,11 @@
       <c r="M3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>26</v>
       </c>
@@ -908,25 +916,28 @@
       <c r="M4">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D5" t="s">
         <v>32</v>
       </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D5" t="s">
-        <v>34</v>
-      </c>
       <c r="E5" t="s">
-        <v>35</v>
+        <v>101</v>
       </c>
       <c r="F5" t="s">
-        <v>36</v>
+        <v>102</v>
       </c>
       <c r="G5" t="s">
         <v>18</v>
@@ -944,57 +955,19 @@
         <v>19</v>
       </c>
       <c r="L5" t="s">
-        <v>37</v>
+        <v>103</v>
       </c>
       <c r="M5">
         <v>-1</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B6">
-        <v>1558732706940</v>
-      </c>
-      <c r="C6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6" t="s">
-        <v>40</v>
-      </c>
-      <c r="F6" t="s">
-        <v>41</v>
-      </c>
-      <c r="G6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H6" t="s">
-        <v>19</v>
-      </c>
-      <c r="I6" t="b">
-        <v>1</v>
-      </c>
-      <c r="J6" t="s">
-        <v>19</v>
-      </c>
-      <c r="K6" t="s">
-        <v>19</v>
-      </c>
-      <c r="L6" t="s">
-        <v>42</v>
-      </c>
-      <c r="M6">
-        <v>-1</v>
+      <c r="N5" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:M6" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:M4" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -1021,34 +994,34 @@
         <v>4</v>
       </c>
       <c r="E1" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="F1" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="G1" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="H1" t="s">
         <v>11</v>
       </c>
       <c r="I1" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="J1" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="K1" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="L1" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="M1" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="N1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -1059,34 +1032,34 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="D2" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="E2" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="F2" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="G2" t="s">
         <v>19</v>
       </c>
       <c r="H2" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="I2" t="b">
         <v>1</v>
       </c>
       <c r="J2" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="K2" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="L2" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="M2" t="s">
         <v>19</v>
@@ -1097,40 +1070,40 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="D3" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="E3" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="F3" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="G3" t="s">
         <v>19</v>
       </c>
       <c r="H3" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="I3" t="b">
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="K3" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="L3" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="M3" t="s">
         <v>19</v>
@@ -1141,40 +1114,40 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="D4" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="E4" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="F4" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="G4" t="s">
         <v>19</v>
       </c>
       <c r="H4" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="I4" t="b">
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="K4" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="L4" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="M4" t="s">
         <v>19</v>
@@ -1195,11 +1168,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -1215,57 +1191,57 @@
         <v>4</v>
       </c>
       <c r="E1" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="F1" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="G1" t="s">
         <v>11</v>
       </c>
       <c r="H1" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="I1" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="J1" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="K1" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="L1" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="M1" t="s">
         <v>12</v>
       </c>
       <c r="N1" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="D2" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="E2" t="s">
         <v>19</v>
       </c>
       <c r="F2" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="G2" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="H2" t="s">
         <v>19</v>
@@ -1286,30 +1262,30 @@
         <v>-1</v>
       </c>
       <c r="N2" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="D3" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="E3" t="s">
         <v>19</v>
       </c>
       <c r="F3" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="G3" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="H3" t="s">
         <v>19</v>
@@ -1330,30 +1306,30 @@
         <v>-1</v>
       </c>
       <c r="N3" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="D4" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="E4" t="s">
         <v>19</v>
       </c>
       <c r="F4" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="G4" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="H4" t="s">
         <v>19</v>
@@ -1374,7 +1350,7 @@
         <v>-1</v>
       </c>
       <c r="N4" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -1437,7 +1413,7 @@
         <v>4</v>
       </c>
       <c r="E1" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -1461,15 +1437,15 @@
         <v>10</v>
       </c>
       <c r="B1" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="B2" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -1499,16 +1475,16 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="E1" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="F1" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="G1" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="H1" t="s">
         <v>6</v>
@@ -1517,13 +1493,13 @@
         <v>4</v>
       </c>
       <c r="J1" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="K1" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="L1" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
